--- a/RENCANA BON VOYAGE.xlsx
+++ b/RENCANA BON VOYAGE.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="23628"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="23801"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Mapan\1. PROGRES\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Mapan\progress\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{00473336-5325-4D8E-B916-663DB18DF3F3}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B26B2BE5-BB8A-4098-A08F-BBA486541BB7}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="69">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="74">
   <si>
     <t>NO</t>
   </si>
@@ -93,9 +93,6 @@
     <t>48 ORANG</t>
   </si>
   <si>
-    <t>AKHIR FEBRUARI</t>
-  </si>
-  <si>
     <t>SETYO/08581223081222</t>
   </si>
   <si>
@@ -132,9 +129,6 @@
     <t>43 ORANG</t>
   </si>
   <si>
-    <t>JUNI</t>
-  </si>
-  <si>
     <t>ABDUL H/082141050821</t>
   </si>
   <si>
@@ -147,9 +141,6 @@
     <t>DP 4 NAUTIKA</t>
   </si>
   <si>
-    <t>31 MARET 2021</t>
-  </si>
-  <si>
     <t>DP 4 TEKNIKA</t>
   </si>
   <si>
@@ -189,9 +180,6 @@
     <t>35 0RANG</t>
   </si>
   <si>
-    <t>DITUTUP SAMPAI TGL 15 FEB</t>
-  </si>
-  <si>
     <t>ETO</t>
   </si>
   <si>
@@ -229,6 +217,33 @@
   </si>
   <si>
     <t>8 MARET</t>
+  </si>
+  <si>
+    <t>36 ORANG</t>
+  </si>
+  <si>
+    <t>30 JUNI 2021</t>
+  </si>
+  <si>
+    <t>20 JUNI 2021</t>
+  </si>
+  <si>
+    <t>31 APRIL 2021</t>
+  </si>
+  <si>
+    <t>37 ORANG</t>
+  </si>
+  <si>
+    <t>15 APREL</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15 JUNI </t>
+  </si>
+  <si>
+    <t xml:space="preserve">ETO </t>
+  </si>
+  <si>
+    <t>5 ORANG</t>
   </si>
 </sst>
 </file>
@@ -252,7 +267,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -262,6 +277,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -304,7 +325,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -314,9 +335,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="15" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -340,6 +358,22 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -680,17 +714,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:N37"/>
+  <dimension ref="A1:L44"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="D23" sqref="D23"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F28" sqref="F28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9.140625" style="13"/>
+    <col min="1" max="1" width="9.140625" style="12"/>
     <col min="2" max="2" width="20.42578125" customWidth="1"/>
-    <col min="3" max="3" width="14.28515625" customWidth="1"/>
+    <col min="3" max="3" width="14.28515625" style="19" customWidth="1"/>
     <col min="4" max="4" width="11.85546875" customWidth="1"/>
     <col min="5" max="5" width="11.5703125" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="15.5703125" bestFit="1" customWidth="1"/>
@@ -698,14 +732,14 @@
     <col min="8" max="8" width="20" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="16" t="s">
         <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
@@ -724,36 +758,36 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A2" s="6">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A2" s="5">
         <v>1</v>
       </c>
-      <c r="B2" s="6" t="s">
+      <c r="B2" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="C2" s="6">
+      <c r="C2" s="17">
         <v>8</v>
       </c>
-      <c r="D2" s="6" t="s">
+      <c r="D2" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="E2" s="6" t="s">
+      <c r="E2" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="F2" s="6" t="s">
+      <c r="F2" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="G2" s="6" t="s">
+      <c r="G2" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="H2" s="6" t="s">
+      <c r="H2" s="5" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" s="3"/>
       <c r="B3" s="3"/>
-      <c r="C3" s="3"/>
+      <c r="C3" s="13"/>
       <c r="D3" s="3"/>
       <c r="E3" s="3" t="s">
         <v>9</v>
@@ -766,46 +800,46 @@
       </c>
       <c r="H3" s="3"/>
     </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" s="3"/>
       <c r="B4" s="3"/>
-      <c r="C4" s="3"/>
+      <c r="C4" s="13"/>
       <c r="D4" s="3"/>
       <c r="E4" s="3"/>
       <c r="F4" s="3"/>
       <c r="G4" s="3"/>
       <c r="H4" s="3"/>
     </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A5" s="6">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A5" s="5">
         <v>2</v>
       </c>
-      <c r="B5" s="6" t="s">
+      <c r="B5" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="C5" s="6">
+      <c r="C5" s="17">
         <v>8</v>
       </c>
-      <c r="D5" s="6" t="s">
+      <c r="D5" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="E5" s="6" t="s">
+      <c r="E5" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="F5" s="6" t="s">
+      <c r="F5" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="G5" s="6" t="s">
+      <c r="G5" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="H5" s="6" t="s">
+      <c r="H5" s="5" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" s="3"/>
       <c r="B6" s="3"/>
-      <c r="C6" s="3"/>
+      <c r="C6" s="13"/>
       <c r="D6" s="3"/>
       <c r="E6" s="3" t="s">
         <v>9</v>
@@ -818,200 +852,198 @@
       </c>
       <c r="H6" s="3"/>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" s="3"/>
       <c r="B7" s="3"/>
-      <c r="C7" s="3"/>
+      <c r="C7" s="13"/>
       <c r="D7" s="3"/>
       <c r="E7" s="3"/>
       <c r="F7" s="3"/>
       <c r="G7" s="3"/>
       <c r="H7" s="3"/>
     </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A8" s="3">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A8" s="5">
         <v>3</v>
       </c>
-      <c r="B8" s="3" t="s">
+      <c r="B8" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="C8" s="3">
+      <c r="C8" s="17">
         <v>14</v>
       </c>
-      <c r="D8" s="3" t="s">
+      <c r="D8" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="E8" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="F8" s="3" t="s">
+      <c r="E8" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="F8" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="G8" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="G8" s="3" t="s">
+      <c r="H8" s="6">
+        <v>44287</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A9" s="5">
+        <v>4</v>
+      </c>
+      <c r="B9" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="H8" s="5">
+      <c r="C9" s="17">
+        <v>14</v>
+      </c>
+      <c r="D9" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="E9" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="F9" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="G9" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="H9" s="6">
         <v>44287</v>
       </c>
     </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A9" s="3">
-        <v>4</v>
-      </c>
-      <c r="B9" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="C9" s="3">
-        <v>14</v>
-      </c>
-      <c r="D9" s="3" t="s">
-        <v>62</v>
-      </c>
-      <c r="E9" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="F9" s="3" t="s">
-        <v>68</v>
-      </c>
-      <c r="G9" s="3" t="s">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A10" s="5">
+        <v>5</v>
+      </c>
+      <c r="B10" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="H9" s="5">
+      <c r="C10" s="17">
+        <v>23</v>
+      </c>
+      <c r="D10" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="E10" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="F10" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="G10" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="H10" s="6">
         <v>44287</v>
       </c>
     </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A10" s="6">
-        <v>5</v>
-      </c>
-      <c r="B10" s="6" t="s">
-        <v>28</v>
-      </c>
-      <c r="C10" s="6">
-        <v>23</v>
-      </c>
-      <c r="D10" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="E10" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="F10" s="6" t="s">
-        <v>67</v>
-      </c>
-      <c r="G10" s="6" t="s">
-        <v>30</v>
-      </c>
-      <c r="H10" s="7">
-        <v>44287</v>
-      </c>
-    </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" s="3"/>
       <c r="B11" s="3"/>
-      <c r="C11" s="3"/>
+      <c r="C11" s="13"/>
       <c r="D11" s="3"/>
       <c r="E11" s="3"/>
       <c r="F11" s="3"/>
       <c r="G11" s="3"/>
       <c r="H11" s="3"/>
     </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" s="3">
         <v>6</v>
       </c>
       <c r="B12" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="C12" s="13">
+        <v>29</v>
+      </c>
+      <c r="D12" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="C12" s="3">
-        <v>29</v>
-      </c>
-      <c r="D12" s="3" t="s">
+      <c r="E12" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="F12" s="15" t="s">
+        <v>70</v>
+      </c>
+      <c r="G12" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="H12" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="E12" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="F12" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="G12" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="H12" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="N12">
-        <f>28+39</f>
-        <v>67</v>
-      </c>
-    </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" s="3">
         <v>7</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="C13" s="3">
+        <v>27</v>
+      </c>
+      <c r="C13" s="13">
         <v>24</v>
       </c>
       <c r="D13" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="E13" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="F13" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="G13" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="E13" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="F13" s="3" t="s">
+      <c r="H13" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="G13" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="H13" s="3" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A14" s="6">
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A14" s="5">
         <v>8</v>
       </c>
-      <c r="B14" s="6" t="s">
-        <v>31</v>
-      </c>
-      <c r="C14" s="6">
+      <c r="B14" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="D14" s="6"/>
-      <c r="E14" s="6" t="s">
+      <c r="C14" s="17">
+        <v>30</v>
+      </c>
+      <c r="D14" s="5" t="s">
+        <v>69</v>
+      </c>
+      <c r="E14" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="F14" s="6" t="s">
-        <v>66</v>
-      </c>
-      <c r="G14" s="6"/>
-      <c r="H14" s="6"/>
-    </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="F14" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="G14" s="5"/>
+      <c r="H14" s="5"/>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15" s="3"/>
       <c r="B15" s="3"/>
-      <c r="C15" s="3"/>
+      <c r="C15" s="13"/>
       <c r="D15" s="3"/>
       <c r="E15" s="3" t="s">
         <v>9</v>
       </c>
       <c r="F15" s="3"/>
       <c r="G15" s="3" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="H15" s="3" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16" s="3"/>
       <c r="B16" s="3"/>
-      <c r="C16" s="3"/>
+      <c r="C16" s="13"/>
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1019,35 +1051,35 @@
       <c r="H16" s="3"/>
     </row>
     <row r="17" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A17" s="6">
-        <v>9</v>
-      </c>
-      <c r="B17" s="6" t="s">
-        <v>28</v>
-      </c>
-      <c r="C17" s="6">
+      <c r="A17" s="5">
+        <v>9</v>
+      </c>
+      <c r="B17" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="C17" s="17">
         <v>25</v>
       </c>
-      <c r="D17" s="6" t="s">
-        <v>52</v>
-      </c>
-      <c r="E17" s="6" t="s">
+      <c r="D17" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="E17" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="F17" s="6" t="s">
-        <v>65</v>
-      </c>
-      <c r="G17" s="6" t="s">
-        <v>46</v>
-      </c>
-      <c r="H17" s="7">
+      <c r="F17" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="G17" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="H17" s="6">
         <v>44501</v>
       </c>
     </row>
     <row r="18" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A18" s="3"/>
       <c r="B18" s="3"/>
-      <c r="C18" s="3"/>
+      <c r="C18" s="13"/>
       <c r="D18" s="3"/>
       <c r="E18" s="3" t="s">
         <v>9</v>
@@ -1059,7 +1091,7 @@
     <row r="19" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A19" s="3"/>
       <c r="B19" s="3"/>
-      <c r="C19" s="3"/>
+      <c r="C19" s="13"/>
       <c r="D19" s="3"/>
       <c r="E19" s="3"/>
       <c r="F19" s="3"/>
@@ -1067,33 +1099,33 @@
       <c r="H19" s="3"/>
     </row>
     <row r="20" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A20" s="6">
+      <c r="A20" s="5">
         <v>10</v>
       </c>
-      <c r="B20" s="6" t="s">
-        <v>40</v>
-      </c>
-      <c r="C20" s="6">
+      <c r="B20" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="C20" s="17">
         <v>31</v>
       </c>
-      <c r="D20" s="6" t="s">
-        <v>53</v>
-      </c>
-      <c r="E20" s="6" t="s">
+      <c r="D20" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="E20" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="F20" s="6" t="s">
-        <v>65</v>
-      </c>
-      <c r="G20" s="6" t="s">
-        <v>47</v>
-      </c>
-      <c r="H20" s="6"/>
+      <c r="F20" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="G20" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="H20" s="5"/>
     </row>
     <row r="21" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A21" s="3"/>
       <c r="B21" s="3"/>
-      <c r="C21" s="3"/>
+      <c r="C21" s="13"/>
       <c r="D21" s="3"/>
       <c r="E21" s="3" t="s">
         <v>9</v>
@@ -1101,13 +1133,13 @@
       <c r="F21" s="3"/>
       <c r="G21" s="3"/>
       <c r="H21" s="3" t="s">
-        <v>41</v>
+        <v>68</v>
       </c>
     </row>
     <row r="22" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A22" s="3"/>
       <c r="B22" s="2"/>
-      <c r="C22" s="2"/>
+      <c r="C22" s="13"/>
       <c r="D22" s="2"/>
       <c r="E22" s="2"/>
       <c r="F22" s="2"/>
@@ -1115,51 +1147,51 @@
       <c r="H22" s="2"/>
     </row>
     <row r="23" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A23" s="9">
+      <c r="A23" s="5">
         <v>11</v>
       </c>
-      <c r="B23" s="9" t="s">
-        <v>42</v>
-      </c>
-      <c r="C23" s="9">
+      <c r="B23" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="C23" s="17">
         <v>27</v>
       </c>
-      <c r="D23" s="9"/>
-      <c r="E23" s="9" t="s">
+      <c r="D23" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="E23" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="F23" s="9"/>
-      <c r="G23" s="9" t="s">
-        <v>51</v>
-      </c>
-      <c r="H23" s="10">
+      <c r="F23" s="5"/>
+      <c r="G23" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="H23" s="6">
         <v>44409</v>
       </c>
-      <c r="I23" s="11"/>
-      <c r="J23" s="12" t="s">
-        <v>55</v>
-      </c>
-      <c r="K23" s="8"/>
-      <c r="L23" s="8"/>
+      <c r="I23" s="10"/>
+      <c r="J23" s="11"/>
+      <c r="K23" s="7"/>
+      <c r="L23" s="7"/>
     </row>
     <row r="24" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A24" s="9"/>
-      <c r="B24" s="9"/>
-      <c r="C24" s="9"/>
-      <c r="D24" s="9"/>
-      <c r="E24" s="9" t="s">
-        <v>9</v>
-      </c>
-      <c r="F24" s="9"/>
-      <c r="G24" s="9"/>
-      <c r="H24" s="10"/>
-      <c r="I24" s="12"/>
-      <c r="J24" s="12"/>
+      <c r="A24" s="8"/>
+      <c r="B24" s="8"/>
+      <c r="C24" s="18"/>
+      <c r="D24" s="8"/>
+      <c r="E24" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="F24" s="8"/>
+      <c r="G24" s="8"/>
+      <c r="H24" s="9"/>
+      <c r="I24" s="11"/>
+      <c r="J24" s="11"/>
     </row>
     <row r="25" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A25" s="3"/>
       <c r="B25" s="3"/>
-      <c r="C25" s="3"/>
+      <c r="C25" s="13"/>
       <c r="D25" s="3"/>
       <c r="E25" s="3"/>
       <c r="F25" s="3"/>
@@ -1167,33 +1199,33 @@
       <c r="H25" s="3"/>
     </row>
     <row r="26" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A26" s="6">
+      <c r="A26" s="5">
         <v>12</v>
       </c>
-      <c r="B26" s="6" t="s">
-        <v>43</v>
-      </c>
-      <c r="C26" s="6">
+      <c r="B26" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="C26" s="17">
         <v>38</v>
       </c>
-      <c r="D26" s="6" t="s">
-        <v>54</v>
-      </c>
-      <c r="E26" s="6" t="s">
+      <c r="D26" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="E26" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="F26" s="6" t="s">
-        <v>61</v>
-      </c>
-      <c r="G26" s="6" t="s">
-        <v>50</v>
-      </c>
-      <c r="H26" s="6"/>
+      <c r="F26" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="G26" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="H26" s="5"/>
     </row>
     <row r="27" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A27" s="3"/>
       <c r="B27" s="3"/>
-      <c r="C27" s="3"/>
+      <c r="C27" s="13"/>
       <c r="D27" s="3"/>
       <c r="E27" s="3" t="s">
         <v>9</v>
@@ -1201,13 +1233,13 @@
       <c r="F27" s="3"/>
       <c r="G27" s="3"/>
       <c r="H27" s="3" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
     </row>
     <row r="28" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A28" s="3"/>
       <c r="B28" s="3"/>
-      <c r="C28" s="3"/>
+      <c r="C28" s="13"/>
       <c r="D28" s="3"/>
       <c r="E28" s="3"/>
       <c r="F28" s="3"/>
@@ -1215,33 +1247,33 @@
       <c r="H28" s="3"/>
     </row>
     <row r="29" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A29" s="6">
+      <c r="A29" s="5">
         <v>13</v>
       </c>
-      <c r="B29" s="6" t="s">
-        <v>45</v>
-      </c>
-      <c r="C29" s="6">
+      <c r="B29" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="C29" s="17">
         <v>38</v>
       </c>
-      <c r="D29" s="6" t="s">
-        <v>52</v>
-      </c>
-      <c r="E29" s="6" t="s">
+      <c r="D29" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="E29" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="F29" s="6" t="s">
-        <v>61</v>
-      </c>
-      <c r="G29" s="6" t="s">
-        <v>49</v>
-      </c>
-      <c r="H29" s="6"/>
+      <c r="F29" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="G29" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="H29" s="5"/>
     </row>
     <row r="30" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A30" s="3"/>
       <c r="B30" s="3"/>
-      <c r="C30" s="3"/>
+      <c r="C30" s="13"/>
       <c r="D30" s="3"/>
       <c r="E30" s="3" t="s">
         <v>9</v>
@@ -1249,13 +1281,13 @@
       <c r="F30" s="3"/>
       <c r="G30" s="3"/>
       <c r="H30" s="3" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
     </row>
     <row r="31" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A31" s="3"/>
       <c r="B31" s="3"/>
-      <c r="C31" s="3"/>
+      <c r="C31" s="13"/>
       <c r="D31" s="3"/>
       <c r="E31" s="3"/>
       <c r="F31" s="3"/>
@@ -1263,33 +1295,33 @@
       <c r="H31" s="3"/>
     </row>
     <row r="32" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A32" s="3">
+      <c r="A32" s="5">
         <v>14</v>
       </c>
-      <c r="B32" s="3" t="s">
+      <c r="B32" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="C32" s="17"/>
+      <c r="D32" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="E32" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="F32" s="14" t="s">
         <v>56</v>
       </c>
-      <c r="C32" s="3"/>
-      <c r="D32" s="3" t="s">
-        <v>57</v>
-      </c>
-      <c r="E32" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="F32" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="G32" s="3" t="s">
-        <v>58</v>
-      </c>
-      <c r="H32" s="5" t="s">
-        <v>59</v>
+      <c r="G32" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="H32" s="6" t="s">
+        <v>55</v>
       </c>
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A33" s="3"/>
       <c r="B33" s="3"/>
-      <c r="C33" s="3"/>
+      <c r="C33" s="13"/>
       <c r="D33" s="3"/>
       <c r="E33" s="3"/>
       <c r="F33" s="2"/>
@@ -1300,65 +1332,173 @@
       <c r="A34" s="3">
         <v>15</v>
       </c>
-      <c r="B34" s="14" t="s">
+      <c r="B34" s="13" t="s">
         <v>21</v>
       </c>
-      <c r="C34" s="3">
+      <c r="C34" s="13">
         <v>15</v>
       </c>
       <c r="D34" s="3" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="E34" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="F34" s="2"/>
+      <c r="F34" s="3" t="s">
+        <v>67</v>
+      </c>
       <c r="G34" s="3" t="s">
-        <v>63</v>
-      </c>
-      <c r="H34" s="2"/>
+        <v>59</v>
+      </c>
+      <c r="H34" s="3" t="s">
+        <v>66</v>
+      </c>
     </row>
     <row r="35" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A35" s="3"/>
-      <c r="B35" s="14"/>
-      <c r="C35" s="3"/>
+      <c r="B35" s="13"/>
+      <c r="C35" s="13"/>
       <c r="D35" s="3"/>
       <c r="E35" s="2"/>
-      <c r="F35" s="2"/>
+      <c r="F35" s="3"/>
       <c r="G35" s="3"/>
-      <c r="H35" s="2"/>
+      <c r="H35" s="3"/>
     </row>
     <row r="36" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A36" s="3">
         <v>16</v>
       </c>
-      <c r="B36" s="14" t="s">
+      <c r="B36" s="13" t="s">
+        <v>24</v>
+      </c>
+      <c r="C36" s="13">
+        <v>15</v>
+      </c>
+      <c r="D36" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="C36" s="3">
-        <v>15</v>
-      </c>
-      <c r="D36" s="3" t="s">
-        <v>26</v>
-      </c>
       <c r="E36" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="F36" s="2"/>
+      <c r="F36" s="3" t="s">
+        <v>67</v>
+      </c>
       <c r="G36" s="3" t="s">
-        <v>63</v>
-      </c>
-      <c r="H36" s="2"/>
+        <v>59</v>
+      </c>
+      <c r="H36" s="3" t="s">
+        <v>66</v>
+      </c>
     </row>
     <row r="37" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A37" s="3"/>
       <c r="B37" s="2"/>
-      <c r="C37" s="2"/>
+      <c r="C37" s="13"/>
       <c r="D37" s="2"/>
       <c r="E37" s="2"/>
       <c r="F37" s="2"/>
       <c r="G37" s="2"/>
       <c r="H37" s="2"/>
+    </row>
+    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A38" s="5">
+        <v>17</v>
+      </c>
+      <c r="B38" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="C38" s="17"/>
+      <c r="D38" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="E38" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="F38" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="G38" s="5"/>
+      <c r="H38" s="14"/>
+    </row>
+    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A39" s="3"/>
+      <c r="B39" s="2"/>
+      <c r="C39" s="13"/>
+      <c r="D39" s="2"/>
+      <c r="E39" s="2"/>
+      <c r="F39" s="2"/>
+      <c r="G39" s="2"/>
+      <c r="H39" s="2"/>
+    </row>
+    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A40" s="3">
+        <v>18</v>
+      </c>
+      <c r="B40" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="C40" s="13">
+        <v>16</v>
+      </c>
+      <c r="D40" s="2"/>
+      <c r="E40" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="F40" s="2"/>
+      <c r="G40" s="2"/>
+      <c r="H40" s="2"/>
+    </row>
+    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A41" s="3"/>
+      <c r="B41" s="3"/>
+      <c r="C41" s="13"/>
+      <c r="D41" s="2"/>
+      <c r="E41" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="F41" s="2"/>
+      <c r="G41" s="2"/>
+      <c r="H41" s="2"/>
+    </row>
+    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A42" s="3"/>
+      <c r="B42" s="3"/>
+      <c r="C42" s="13"/>
+      <c r="D42" s="2"/>
+      <c r="E42" s="13"/>
+      <c r="F42" s="2"/>
+      <c r="G42" s="2"/>
+      <c r="H42" s="2"/>
+    </row>
+    <row r="43" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A43" s="3">
+        <v>19</v>
+      </c>
+      <c r="B43" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="C43" s="13">
+        <v>16</v>
+      </c>
+      <c r="D43" s="2"/>
+      <c r="E43" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="F43" s="2"/>
+      <c r="G43" s="2"/>
+      <c r="H43" s="2"/>
+    </row>
+    <row r="44" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A44" s="3"/>
+      <c r="B44" s="3"/>
+      <c r="C44" s="13"/>
+      <c r="D44" s="2"/>
+      <c r="E44" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="F44" s="2"/>
+      <c r="G44" s="2"/>
+      <c r="H44" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.41" bottom="0.12" header="0.3" footer="0.21"/>

--- a/RENCANA BON VOYAGE.xlsx
+++ b/RENCANA BON VOYAGE.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Mapan\progress\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Mapan\1. PROGRES\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B26B2BE5-BB8A-4098-A08F-BBA486541BB7}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FE01B862-BF3F-48CD-9149-51EB58AF654D}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="74">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="118" uniqueCount="75">
   <si>
     <t>NO</t>
   </si>
@@ -129,6 +129,9 @@
     <t>43 ORANG</t>
   </si>
   <si>
+    <t>JUNI</t>
+  </si>
+  <si>
     <t>ABDUL H/082141050821</t>
   </si>
   <si>
@@ -180,6 +183,9 @@
     <t>35 0RANG</t>
   </si>
   <si>
+    <t>DITUTUP SAMPAI TGL 15 FEB</t>
+  </si>
+  <si>
     <t>ETO</t>
   </si>
   <si>
@@ -219,31 +225,28 @@
     <t>8 MARET</t>
   </si>
   <si>
+    <t>15 APRILL</t>
+  </si>
+  <si>
+    <t>15 MEI</t>
+  </si>
+  <si>
     <t>36 ORANG</t>
   </si>
   <si>
-    <t>30 JUNI 2021</t>
-  </si>
-  <si>
-    <t>20 JUNI 2021</t>
-  </si>
-  <si>
-    <t>31 APRIL 2021</t>
+    <t>15 MARET</t>
+  </si>
+  <si>
+    <t>5 ORANG</t>
+  </si>
+  <si>
+    <t>56 ORANG</t>
+  </si>
+  <si>
+    <t>29 ORANG</t>
   </si>
   <si>
     <t>37 ORANG</t>
-  </si>
-  <si>
-    <t>15 APREL</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15 JUNI </t>
-  </si>
-  <si>
-    <t xml:space="preserve">ETO </t>
-  </si>
-  <si>
-    <t>5 ORANG</t>
   </si>
 </sst>
 </file>
@@ -282,7 +285,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="0"/>
+        <fgColor rgb="FF92D050"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -325,7 +328,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -360,22 +363,15 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="16" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -714,17 +710,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:L44"/>
+  <dimension ref="A1:N43"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F28" sqref="F28"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="9.140625" style="12"/>
     <col min="2" max="2" width="20.42578125" customWidth="1"/>
-    <col min="3" max="3" width="14.28515625" style="19" customWidth="1"/>
+    <col min="3" max="3" width="14.28515625" customWidth="1"/>
     <col min="4" max="4" width="11.85546875" customWidth="1"/>
     <col min="5" max="5" width="11.5703125" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="15.5703125" bestFit="1" customWidth="1"/>
@@ -732,14 +728,14 @@
     <col min="8" max="8" width="20" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:14" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="16" t="s">
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
@@ -758,14 +754,14 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A2" s="5">
         <v>1</v>
       </c>
       <c r="B2" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="C2" s="17">
+      <c r="C2" s="5">
         <v>8</v>
       </c>
       <c r="D2" s="5" t="s">
@@ -784,12 +780,12 @@
         <v>15</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A3" s="3"/>
       <c r="B3" s="3"/>
-      <c r="C3" s="13"/>
+      <c r="C3" s="3"/>
       <c r="D3" s="3"/>
-      <c r="E3" s="3" t="s">
+      <c r="E3" s="16" t="s">
         <v>9</v>
       </c>
       <c r="F3" s="3" t="s">
@@ -800,24 +796,24 @@
       </c>
       <c r="H3" s="3"/>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A4" s="3"/>
       <c r="B4" s="3"/>
-      <c r="C4" s="13"/>
+      <c r="C4" s="3"/>
       <c r="D4" s="3"/>
       <c r="E4" s="3"/>
       <c r="F4" s="3"/>
       <c r="G4" s="3"/>
       <c r="H4" s="3"/>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A5" s="5">
         <v>2</v>
       </c>
       <c r="B5" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="C5" s="17">
+      <c r="C5" s="5">
         <v>8</v>
       </c>
       <c r="D5" s="5" t="s">
@@ -836,12 +832,12 @@
         <v>15</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A6" s="3"/>
       <c r="B6" s="3"/>
-      <c r="C6" s="13"/>
+      <c r="C6" s="3"/>
       <c r="D6" s="3"/>
-      <c r="E6" s="3" t="s">
+      <c r="E6" s="16" t="s">
         <v>9</v>
       </c>
       <c r="F6" s="3" t="s">
@@ -852,24 +848,24 @@
       </c>
       <c r="H6" s="3"/>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A7" s="3"/>
       <c r="B7" s="3"/>
-      <c r="C7" s="13"/>
+      <c r="C7" s="3"/>
       <c r="D7" s="3"/>
       <c r="E7" s="3"/>
       <c r="F7" s="3"/>
       <c r="G7" s="3"/>
       <c r="H7" s="3"/>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A8" s="5">
         <v>3</v>
       </c>
       <c r="B8" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="C8" s="17">
+      <c r="C8" s="5">
         <v>14</v>
       </c>
       <c r="D8" s="5" t="s">
@@ -879,7 +875,7 @@
         <v>9</v>
       </c>
       <c r="F8" s="5" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="G8" s="5" t="s">
         <v>23</v>
@@ -888,24 +884,24 @@
         <v>44287</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A9" s="5">
         <v>4</v>
       </c>
       <c r="B9" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="C9" s="17">
+      <c r="C9" s="5">
         <v>14</v>
       </c>
       <c r="D9" s="5" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="E9" s="5" t="s">
         <v>9</v>
       </c>
       <c r="F9" s="5" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="G9" s="5" t="s">
         <v>26</v>
@@ -914,14 +910,14 @@
         <v>44287</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A10" s="5">
         <v>5</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="C10" s="17">
+      <c r="C10" s="5">
         <v>23</v>
       </c>
       <c r="D10" s="5" t="s">
@@ -931,7 +927,7 @@
         <v>9</v>
       </c>
       <c r="F10" s="5" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="G10" s="5" t="s">
         <v>29</v>
@@ -940,34 +936,34 @@
         <v>44287</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A11" s="3"/>
       <c r="B11" s="3"/>
-      <c r="C11" s="13"/>
+      <c r="C11" s="3"/>
       <c r="D11" s="3"/>
       <c r="E11" s="3"/>
       <c r="F11" s="3"/>
       <c r="G11" s="3"/>
       <c r="H11" s="3"/>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A12" s="3">
         <v>6</v>
       </c>
       <c r="B12" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="C12" s="13">
+      <c r="C12" s="3">
         <v>29</v>
       </c>
       <c r="D12" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="E12" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="F12" s="15" t="s">
-        <v>70</v>
+      <c r="E12" s="16" t="s">
+        <v>9</v>
+      </c>
+      <c r="F12" s="14" t="s">
+        <v>67</v>
       </c>
       <c r="G12" s="3" t="s">
         <v>33</v>
@@ -975,75 +971,79 @@
       <c r="H12" s="3" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="N12">
+        <f>28+39</f>
+        <v>67</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A13" s="3">
         <v>7</v>
       </c>
       <c r="B13" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="C13" s="13">
+      <c r="C13" s="3">
         <v>24</v>
       </c>
       <c r="D13" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="E13" s="3" t="s">
+      <c r="E13" s="16" t="s">
         <v>9</v>
       </c>
       <c r="F13" s="3" t="s">
-        <v>71</v>
+        <v>35</v>
       </c>
       <c r="G13" s="3" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="H13" s="3" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A14" s="5">
         <v>8</v>
       </c>
       <c r="B14" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="C14" s="17">
+      <c r="C14" s="5">
         <v>30</v>
       </c>
       <c r="D14" s="5" t="s">
-        <v>69</v>
+        <v>74</v>
       </c>
       <c r="E14" s="5" t="s">
         <v>8</v>
       </c>
       <c r="F14" s="5" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="G14" s="5"/>
       <c r="H14" s="5"/>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A15" s="3"/>
       <c r="B15" s="3"/>
-      <c r="C15" s="13"/>
+      <c r="C15" s="3"/>
       <c r="D15" s="3"/>
       <c r="E15" s="3" t="s">
         <v>9</v>
       </c>
       <c r="F15" s="3"/>
       <c r="G15" s="3" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H15" s="3" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A16" s="3"/>
       <c r="B16" s="3"/>
-      <c r="C16" s="13"/>
+      <c r="C16" s="3"/>
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1057,20 +1057,20 @@
       <c r="B17" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="C17" s="17">
+      <c r="C17" s="5">
         <v>25</v>
       </c>
       <c r="D17" s="5" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="E17" s="5" t="s">
         <v>8</v>
       </c>
       <c r="F17" s="5" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="G17" s="5" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="H17" s="6">
         <v>44501</v>
@@ -1079,7 +1079,7 @@
     <row r="18" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A18" s="3"/>
       <c r="B18" s="3"/>
-      <c r="C18" s="13"/>
+      <c r="C18" s="3"/>
       <c r="D18" s="3"/>
       <c r="E18" s="3" t="s">
         <v>9</v>
@@ -1091,7 +1091,7 @@
     <row r="19" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A19" s="3"/>
       <c r="B19" s="3"/>
-      <c r="C19" s="13"/>
+      <c r="C19" s="3"/>
       <c r="D19" s="3"/>
       <c r="E19" s="3"/>
       <c r="F19" s="3"/>
@@ -1103,31 +1103,31 @@
         <v>10</v>
       </c>
       <c r="B20" s="5" t="s">
-        <v>38</v>
-      </c>
-      <c r="C20" s="17">
+        <v>39</v>
+      </c>
+      <c r="C20" s="5">
         <v>31</v>
       </c>
       <c r="D20" s="5" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="E20" s="5" t="s">
         <v>8</v>
       </c>
       <c r="F20" s="5" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="G20" s="5" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="H20" s="5"/>
     </row>
     <row r="21" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A21" s="3"/>
       <c r="B21" s="3"/>
-      <c r="C21" s="13"/>
+      <c r="C21" s="3"/>
       <c r="D21" s="3"/>
-      <c r="E21" s="3" t="s">
+      <c r="E21" s="16" t="s">
         <v>9</v>
       </c>
       <c r="F21" s="3"/>
@@ -1139,7 +1139,7 @@
     <row r="22" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A22" s="3"/>
       <c r="B22" s="2"/>
-      <c r="C22" s="13"/>
+      <c r="C22" s="2"/>
       <c r="D22" s="2"/>
       <c r="E22" s="2"/>
       <c r="F22" s="2"/>
@@ -1151,33 +1151,37 @@
         <v>11</v>
       </c>
       <c r="B23" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="C23" s="17">
+        <v>40</v>
+      </c>
+      <c r="C23" s="5">
         <v>27</v>
       </c>
       <c r="D23" s="5" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="E23" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="F23" s="5"/>
+      <c r="F23" s="5" t="s">
+        <v>70</v>
+      </c>
       <c r="G23" s="5" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="H23" s="6">
         <v>44409</v>
       </c>
       <c r="I23" s="10"/>
-      <c r="J23" s="11"/>
+      <c r="J23" s="11" t="s">
+        <v>53</v>
+      </c>
       <c r="K23" s="7"/>
       <c r="L23" s="7"/>
     </row>
     <row r="24" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A24" s="8"/>
       <c r="B24" s="8"/>
-      <c r="C24" s="18"/>
+      <c r="C24" s="8"/>
       <c r="D24" s="8"/>
       <c r="E24" s="8" t="s">
         <v>9</v>
@@ -1191,7 +1195,7 @@
     <row r="25" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A25" s="3"/>
       <c r="B25" s="3"/>
-      <c r="C25" s="13"/>
+      <c r="C25" s="3"/>
       <c r="D25" s="3"/>
       <c r="E25" s="3"/>
       <c r="F25" s="3"/>
@@ -1203,43 +1207,43 @@
         <v>12</v>
       </c>
       <c r="B26" s="5" t="s">
-        <v>40</v>
-      </c>
-      <c r="C26" s="17">
+        <v>41</v>
+      </c>
+      <c r="C26" s="5">
         <v>38</v>
       </c>
       <c r="D26" s="5" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="E26" s="5" t="s">
         <v>8</v>
       </c>
       <c r="F26" s="5" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="G26" s="5" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="H26" s="5"/>
     </row>
     <row r="27" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A27" s="3"/>
       <c r="B27" s="3"/>
-      <c r="C27" s="13"/>
+      <c r="C27" s="3"/>
       <c r="D27" s="3"/>
-      <c r="E27" s="3" t="s">
+      <c r="E27" s="16" t="s">
         <v>9</v>
       </c>
       <c r="F27" s="3"/>
       <c r="G27" s="3"/>
       <c r="H27" s="3" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
     </row>
     <row r="28" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A28" s="3"/>
       <c r="B28" s="3"/>
-      <c r="C28" s="13"/>
+      <c r="C28" s="3"/>
       <c r="D28" s="3"/>
       <c r="E28" s="3"/>
       <c r="F28" s="3"/>
@@ -1251,43 +1255,43 @@
         <v>13</v>
       </c>
       <c r="B29" s="5" t="s">
-        <v>42</v>
-      </c>
-      <c r="C29" s="17">
+        <v>43</v>
+      </c>
+      <c r="C29" s="5">
         <v>38</v>
       </c>
       <c r="D29" s="5" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="E29" s="5" t="s">
         <v>8</v>
       </c>
       <c r="F29" s="5" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="G29" s="5" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H29" s="5"/>
     </row>
     <row r="30" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A30" s="3"/>
       <c r="B30" s="3"/>
-      <c r="C30" s="13"/>
+      <c r="C30" s="3"/>
       <c r="D30" s="3"/>
-      <c r="E30" s="3" t="s">
+      <c r="E30" s="16" t="s">
         <v>9</v>
       </c>
       <c r="F30" s="3"/>
       <c r="G30" s="3"/>
       <c r="H30" s="3" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
     </row>
     <row r="31" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A31" s="3"/>
       <c r="B31" s="3"/>
-      <c r="C31" s="13"/>
+      <c r="C31" s="3"/>
       <c r="D31" s="3"/>
       <c r="E31" s="3"/>
       <c r="F31" s="3"/>
@@ -1299,206 +1303,168 @@
         <v>14</v>
       </c>
       <c r="B32" s="5" t="s">
-        <v>52</v>
-      </c>
-      <c r="C32" s="17"/>
+        <v>54</v>
+      </c>
+      <c r="C32" s="5"/>
       <c r="D32" s="5" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="E32" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="F32" s="14" t="s">
+      <c r="F32" s="15" t="s">
+        <v>58</v>
+      </c>
+      <c r="G32" s="5" t="s">
         <v>56</v>
       </c>
-      <c r="G32" s="5" t="s">
+      <c r="H32" s="6" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A33" s="5"/>
+      <c r="B33" s="5"/>
+      <c r="C33" s="5"/>
+      <c r="D33" s="5"/>
+      <c r="E33" s="5"/>
+      <c r="F33" s="15"/>
+      <c r="G33" s="5"/>
+      <c r="H33" s="6"/>
+    </row>
+    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A34" s="5">
+        <v>15</v>
+      </c>
+      <c r="B34" s="5" t="s">
         <v>54</v>
       </c>
-      <c r="H32" s="6" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A33" s="3"/>
-      <c r="B33" s="3"/>
-      <c r="C33" s="13"/>
-      <c r="D33" s="3"/>
-      <c r="E33" s="3"/>
-      <c r="F33" s="2"/>
-      <c r="G33" s="2"/>
-      <c r="H33" s="2"/>
-    </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A34" s="3">
-        <v>15</v>
-      </c>
-      <c r="B34" s="13" t="s">
-        <v>21</v>
-      </c>
-      <c r="C34" s="13">
-        <v>15</v>
-      </c>
-      <c r="D34" s="3" t="s">
-        <v>60</v>
-      </c>
-      <c r="E34" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="F34" s="3" t="s">
-        <v>67</v>
-      </c>
-      <c r="G34" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="H34" s="3" t="s">
-        <v>66</v>
-      </c>
+      <c r="C34" s="5"/>
+      <c r="D34" s="5" t="s">
+        <v>71</v>
+      </c>
+      <c r="E34" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="F34" s="15" t="s">
+        <v>70</v>
+      </c>
+      <c r="G34" s="5"/>
+      <c r="H34" s="6"/>
     </row>
     <row r="35" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A35" s="3"/>
-      <c r="B35" s="13"/>
-      <c r="C35" s="13"/>
+      <c r="B35" s="3"/>
+      <c r="C35" s="3"/>
       <c r="D35" s="3"/>
-      <c r="E35" s="2"/>
-      <c r="F35" s="3"/>
-      <c r="G35" s="3"/>
-      <c r="H35" s="3"/>
+      <c r="E35" s="3"/>
+      <c r="F35" s="2"/>
+      <c r="G35" s="2"/>
+      <c r="H35" s="2"/>
     </row>
     <row r="36" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A36" s="3">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B36" s="13" t="s">
-        <v>24</v>
-      </c>
-      <c r="C36" s="13">
+        <v>21</v>
+      </c>
+      <c r="C36" s="3">
         <v>15</v>
       </c>
       <c r="D36" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="E36" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="F36" s="3" t="s">
-        <v>67</v>
-      </c>
+        <v>62</v>
+      </c>
+      <c r="E36" s="17" t="s">
+        <v>9</v>
+      </c>
+      <c r="F36" s="2"/>
       <c r="G36" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="H36" s="3" t="s">
-        <v>66</v>
-      </c>
+        <v>61</v>
+      </c>
+      <c r="H36" s="2"/>
     </row>
     <row r="37" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A37" s="3"/>
-      <c r="B37" s="2"/>
-      <c r="C37" s="13"/>
-      <c r="D37" s="2"/>
+      <c r="B37" s="13"/>
+      <c r="C37" s="3"/>
+      <c r="D37" s="3"/>
       <c r="E37" s="2"/>
       <c r="F37" s="2"/>
-      <c r="G37" s="2"/>
+      <c r="G37" s="3"/>
       <c r="H37" s="2"/>
     </row>
     <row r="38" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A38" s="5">
-        <v>17</v>
-      </c>
-      <c r="B38" s="5" t="s">
-        <v>72</v>
-      </c>
-      <c r="C38" s="17"/>
-      <c r="D38" s="5" t="s">
-        <v>73</v>
-      </c>
-      <c r="E38" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="F38" s="5" t="s">
-        <v>56</v>
-      </c>
-      <c r="G38" s="5"/>
-      <c r="H38" s="14"/>
+      <c r="A38" s="3">
+        <v>16</v>
+      </c>
+      <c r="B38" s="13" t="s">
+        <v>24</v>
+      </c>
+      <c r="C38" s="3">
+        <v>15</v>
+      </c>
+      <c r="D38" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="E38" s="17" t="s">
+        <v>9</v>
+      </c>
+      <c r="F38" s="2"/>
+      <c r="G38" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="H38" s="2"/>
     </row>
     <row r="39" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A39" s="3"/>
       <c r="B39" s="2"/>
-      <c r="C39" s="13"/>
+      <c r="C39" s="2"/>
       <c r="D39" s="2"/>
       <c r="E39" s="2"/>
       <c r="F39" s="2"/>
       <c r="G39" s="2"/>
       <c r="H39" s="2"/>
     </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A40" s="3">
+    <row r="41" spans="1:8" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A41" s="8">
+        <v>17</v>
+      </c>
+      <c r="B41" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="C41" s="8">
+        <v>16</v>
+      </c>
+      <c r="D41" s="8" t="s">
+        <v>72</v>
+      </c>
+      <c r="E41" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="F41" s="18"/>
+      <c r="G41" s="8"/>
+      <c r="H41" s="9"/>
+    </row>
+    <row r="43" spans="1:8" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A43" s="8">
         <v>18</v>
       </c>
-      <c r="B40" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="C40" s="13">
+      <c r="B43" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="C43" s="8">
         <v>16</v>
       </c>
-      <c r="D40" s="2"/>
-      <c r="E40" s="13" t="s">
+      <c r="D43" s="8" t="s">
+        <v>73</v>
+      </c>
+      <c r="E43" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="F40" s="2"/>
-      <c r="G40" s="2"/>
-      <c r="H40" s="2"/>
-    </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A41" s="3"/>
-      <c r="B41" s="3"/>
-      <c r="C41" s="13"/>
-      <c r="D41" s="2"/>
-      <c r="E41" s="13" t="s">
-        <v>9</v>
-      </c>
-      <c r="F41" s="2"/>
-      <c r="G41" s="2"/>
-      <c r="H41" s="2"/>
-    </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A42" s="3"/>
-      <c r="B42" s="3"/>
-      <c r="C42" s="13"/>
-      <c r="D42" s="2"/>
-      <c r="E42" s="13"/>
-      <c r="F42" s="2"/>
-      <c r="G42" s="2"/>
-      <c r="H42" s="2"/>
-    </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A43" s="3">
-        <v>19</v>
-      </c>
-      <c r="B43" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="C43" s="13">
-        <v>16</v>
-      </c>
-      <c r="D43" s="2"/>
-      <c r="E43" s="13" t="s">
-        <v>8</v>
-      </c>
-      <c r="F43" s="2"/>
-      <c r="G43" s="2"/>
-      <c r="H43" s="2"/>
-    </row>
-    <row r="44" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A44" s="3"/>
-      <c r="B44" s="3"/>
-      <c r="C44" s="13"/>
-      <c r="D44" s="2"/>
-      <c r="E44" s="13" t="s">
-        <v>9</v>
-      </c>
-      <c r="F44" s="2"/>
-      <c r="G44" s="2"/>
-      <c r="H44" s="2"/>
+      <c r="F43" s="18"/>
+      <c r="G43" s="8"/>
+      <c r="H43" s="9"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.41" bottom="0.12" header="0.3" footer="0.21"/>

--- a/RENCANA BON VOYAGE.xlsx
+++ b/RENCANA BON VOYAGE.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="23901"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="23929"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\USER\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Mapan\progress\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C75E790D-2182-4670-9BC4-DFE6C3ACB9AA}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{12211A1F-DB19-4443-85E7-AA09BAE2D5CE}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="16080" windowWidth="29040" windowHeight="7965" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -30,9 +30,6 @@
     <t>KELAS</t>
   </si>
   <si>
-    <t>ANGKATAN</t>
-  </si>
-  <si>
     <t>JUMLAH</t>
   </si>
   <si>
@@ -238,6 +235,9 @@
   </si>
   <si>
     <t>HALILINTAR</t>
+  </si>
+  <si>
+    <t>ANGK.</t>
   </si>
 </sst>
 </file>
@@ -678,19 +678,20 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:O63"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A42" workbookViewId="0">
-      <selection activeCell="I19" sqref="I19"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="60" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G4" sqref="G4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="20.42578125" customWidth="1"/>
-    <col min="3" max="3" width="14.28515625" customWidth="1"/>
+    <col min="1" max="1" width="5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8.7109375" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="11.85546875" customWidth="1"/>
-    <col min="5" max="5" width="24" customWidth="1"/>
-    <col min="6" max="6" width="21.28515625" customWidth="1"/>
-    <col min="7" max="7" width="23.85546875" customWidth="1"/>
-    <col min="8" max="8" width="20" customWidth="1"/>
+    <col min="5" max="5" width="11.5703125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.5703125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="24.85546875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="16.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:15" ht="18.75" x14ac:dyDescent="0.3">
@@ -701,22 +702,22 @@
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="1" t="s">
-        <v>6</v>
-      </c>
       <c r="H1" s="4" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="2" spans="1:15" x14ac:dyDescent="0.25">
@@ -724,25 +725,25 @@
         <v>1</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C2" s="3">
         <v>8</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F2" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="G2" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="G2" s="3" t="s">
-        <v>13</v>
-      </c>
       <c r="H2" s="3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.25">
@@ -751,13 +752,13 @@
       <c r="C3" s="3"/>
       <c r="D3" s="3"/>
       <c r="E3" s="3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F3" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G3" s="3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="H3" s="3"/>
     </row>
@@ -766,25 +767,25 @@
         <v>2</v>
       </c>
       <c r="B4" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="C4" s="3">
+        <v>8</v>
+      </c>
+      <c r="D4" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="C4" s="3">
-        <v>8</v>
-      </c>
-      <c r="D4" s="3" t="s">
-        <v>17</v>
-      </c>
       <c r="E4" s="3" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G4" s="3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="H4" s="3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="5" spans="1:15" x14ac:dyDescent="0.25">
@@ -793,13 +794,13 @@
       <c r="C5" s="3"/>
       <c r="D5" s="3"/>
       <c r="E5" s="3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F5" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G5" s="3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="H5" s="3"/>
     </row>
@@ -818,20 +819,20 @@
         <v>3</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C7" s="3">
         <v>9</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E7" s="3" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F7" s="3"/>
       <c r="G7" s="3" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="H7" s="5">
         <v>44444</v>
@@ -843,7 +844,7 @@
       <c r="C8" s="3"/>
       <c r="D8" s="3"/>
       <c r="E8" s="3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F8" s="3"/>
       <c r="G8" s="3">
@@ -869,20 +870,20 @@
         <v>4</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C10" s="3">
         <v>9</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="E10" s="3" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F10" s="3"/>
       <c r="G10" s="3" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="H10" s="5">
         <v>44444</v>
@@ -894,7 +895,7 @@
       <c r="C11" s="3"/>
       <c r="D11" s="3"/>
       <c r="E11" s="3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F11" s="3"/>
       <c r="G11" s="3">
@@ -917,23 +918,23 @@
         <v>5</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C13" s="3">
         <v>15</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="E13" s="3" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F13" s="3"/>
       <c r="G13" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="H13" s="3" t="s">
         <v>57</v>
-      </c>
-      <c r="H13" s="3" t="s">
-        <v>58</v>
       </c>
     </row>
     <row r="14" spans="1:15" x14ac:dyDescent="0.25">
@@ -942,7 +943,7 @@
       <c r="C14" s="3"/>
       <c r="D14" s="3"/>
       <c r="E14" s="3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F14" s="3"/>
       <c r="G14" s="3">
@@ -965,23 +966,23 @@
         <v>6</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C16" s="3">
         <v>15</v>
       </c>
       <c r="D16" s="3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E16" s="3" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F16" s="3"/>
       <c r="G16" s="3" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="H16" s="3" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.25">
@@ -990,7 +991,7 @@
       <c r="C17" s="3"/>
       <c r="D17" s="3"/>
       <c r="E17" s="3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F17" s="3"/>
       <c r="G17" s="3">
@@ -1013,20 +1014,20 @@
         <v>7</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C19" s="3">
         <v>16</v>
       </c>
       <c r="D19" s="3" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="E19" s="3" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F19" s="3"/>
       <c r="G19" s="3" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="H19" s="5">
         <v>44520</v>
@@ -1038,7 +1039,7 @@
       <c r="C20" s="3"/>
       <c r="D20" s="3"/>
       <c r="E20" s="3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F20" s="3"/>
       <c r="G20" s="3">
@@ -1061,20 +1062,20 @@
         <v>8</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C22" s="3">
         <v>16</v>
       </c>
       <c r="D22" s="3" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="E22" s="3" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F22" s="3"/>
       <c r="G22" s="3" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="H22" s="5">
         <v>44520</v>
@@ -1086,7 +1087,7 @@
       <c r="C23" s="3"/>
       <c r="D23" s="3"/>
       <c r="E23" s="3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F23" s="3"/>
       <c r="G23" s="3">
@@ -1109,25 +1110,25 @@
         <v>9</v>
       </c>
       <c r="B25" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C25" s="3">
         <v>29</v>
       </c>
       <c r="D25" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="E25" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="F25" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="G25" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="H25" s="3" t="s">
         <v>28</v>
-      </c>
-      <c r="E25" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="F25" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="G25" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="H25" s="3" t="s">
-        <v>29</v>
       </c>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.25">
@@ -1145,19 +1146,19 @@
         <v>10</v>
       </c>
       <c r="B27" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C27" s="3">
         <v>30</v>
       </c>
       <c r="D27" s="3" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="E27" s="3" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F27" s="3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G27" s="3"/>
       <c r="H27" s="3"/>
@@ -1168,14 +1169,14 @@
       <c r="C28" s="3"/>
       <c r="D28" s="3"/>
       <c r="E28" s="3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F28" s="3"/>
       <c r="G28" s="3" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="H28" s="3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.25">
@@ -1193,20 +1194,20 @@
         <v>11</v>
       </c>
       <c r="B30" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C30" s="3">
         <v>31</v>
       </c>
       <c r="D30" s="3" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="E30" s="3" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F30" s="3"/>
       <c r="G30" s="3" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="H30" s="5">
         <v>44501</v>
@@ -1218,7 +1219,7 @@
       <c r="C31" s="3"/>
       <c r="D31" s="3"/>
       <c r="E31" s="3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F31" s="3"/>
       <c r="G31" s="3">
@@ -1241,25 +1242,25 @@
         <v>12</v>
       </c>
       <c r="B33" s="3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C33" s="3">
         <v>24</v>
       </c>
       <c r="D33" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="E33" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="F33" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="E33" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="F33" s="3" t="s">
+      <c r="G33" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="G33" s="3" t="s">
+      <c r="H33" s="3" t="s">
         <v>33</v>
-      </c>
-      <c r="H33" s="3" t="s">
-        <v>34</v>
       </c>
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.25">
@@ -1277,22 +1278,22 @@
         <v>13</v>
       </c>
       <c r="B35" s="3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C35" s="3">
         <v>25</v>
       </c>
       <c r="D35" s="3" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="E35" s="3" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F35" s="3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G35" s="3" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="H35" s="5">
         <v>44501</v>
@@ -1304,7 +1305,7 @@
       <c r="C36" s="3"/>
       <c r="D36" s="3"/>
       <c r="E36" s="3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F36" s="3"/>
       <c r="G36" s="3"/>
@@ -1325,22 +1326,22 @@
         <v>14</v>
       </c>
       <c r="B38" s="3" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C38" s="3">
         <v>31</v>
       </c>
       <c r="D38" s="3" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="E38" s="3" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F38" s="3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G38" s="3" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="H38" s="3"/>
     </row>
@@ -1350,12 +1351,12 @@
       <c r="C39" s="3"/>
       <c r="D39" s="3"/>
       <c r="E39" s="3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F39" s="3"/>
       <c r="G39" s="3"/>
       <c r="H39" s="3" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="40" spans="1:8" x14ac:dyDescent="0.25">
@@ -1373,23 +1374,23 @@
         <v>15</v>
       </c>
       <c r="B41" s="3" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C41" s="3">
         <v>32</v>
       </c>
       <c r="D41" s="3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E41" s="3" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F41" s="3"/>
       <c r="G41" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="H41" s="3" t="s">
         <v>66</v>
-      </c>
-      <c r="H41" s="3" t="s">
-        <v>67</v>
       </c>
     </row>
     <row r="42" spans="1:8" x14ac:dyDescent="0.25">
@@ -1398,7 +1399,7 @@
       <c r="C42" s="3"/>
       <c r="D42" s="3"/>
       <c r="E42" s="3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F42" s="3"/>
       <c r="G42" s="3">
@@ -1421,20 +1422,20 @@
         <v>16</v>
       </c>
       <c r="B44" s="8" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C44" s="8">
         <v>27</v>
       </c>
       <c r="D44" s="8" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="E44" s="8" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F44" s="8"/>
       <c r="G44" s="8" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="H44" s="9">
         <v>44409</v>
@@ -1446,7 +1447,7 @@
       <c r="C45" s="8"/>
       <c r="D45" s="8"/>
       <c r="E45" s="8" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
@@ -1467,23 +1468,23 @@
         <v>17</v>
       </c>
       <c r="B47" s="3" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C47" s="3">
         <v>38</v>
       </c>
       <c r="D47" s="3" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="E47" s="3" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F47" s="3"/>
       <c r="G47" s="3" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H47" s="3" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="48" spans="1:8" x14ac:dyDescent="0.25">
@@ -1492,7 +1493,7 @@
       <c r="C48" s="3"/>
       <c r="D48" s="3"/>
       <c r="E48" s="3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F48" s="3"/>
       <c r="G48" s="3"/>
@@ -1513,23 +1514,23 @@
         <v>18</v>
       </c>
       <c r="B50" s="3" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C50" s="3">
         <v>38</v>
       </c>
       <c r="D50" s="3" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="E50" s="3" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F50" s="3"/>
       <c r="G50" s="3" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H50" s="3" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="I50" s="6"/>
       <c r="J50" s="7"/>
@@ -1542,7 +1543,7 @@
       <c r="C51" s="3"/>
       <c r="D51" s="3"/>
       <c r="E51" s="3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F51" s="3"/>
       <c r="G51" s="3"/>
@@ -1563,20 +1564,20 @@
         <v>19</v>
       </c>
       <c r="B53" s="3" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C53" s="3">
         <v>39</v>
       </c>
       <c r="D53" s="3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E53" s="3" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F53" s="3"/>
       <c r="G53" s="3" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="H53" s="5">
         <v>44444</v>
@@ -1588,7 +1589,7 @@
       <c r="C54" s="3"/>
       <c r="D54" s="3"/>
       <c r="E54" s="3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F54" s="3"/>
       <c r="G54" s="3">
@@ -1611,20 +1612,20 @@
         <v>20</v>
       </c>
       <c r="B56" s="3" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C56" s="3">
         <v>39</v>
       </c>
       <c r="D56" s="3" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="E56" s="3" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F56" s="3"/>
       <c r="G56" s="3" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="H56" s="5">
         <v>44444</v>
@@ -1636,7 +1637,7 @@
       <c r="C57" s="3"/>
       <c r="D57" s="3"/>
       <c r="E57" s="3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F57" s="3"/>
       <c r="G57" s="3">
@@ -1706,7 +1707,10 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" scale="81" orientation="portrait" r:id="rId1"/>
+  <colBreaks count="1" manualBreakCount="1">
+    <brk id="8" max="1048575" man="1"/>
+  </colBreaks>
 </worksheet>
 </file>
 

--- a/RENCANA BON VOYAGE.xlsx
+++ b/RENCANA BON VOYAGE.xlsx
@@ -2,27 +2,28 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="23929"/>
-  <workbookPr defaultThemeVersion="124226"/>
+  <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Mapan\progress\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{12211A1F-DB19-4443-85E7-AA09BAE2D5CE}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7E43DD6B-AAF7-4B95-A23F-552836F842FE}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
-    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
+    <sheet name="cek list" sheetId="4" r:id="rId2"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId3"/>
+    <sheet name="Sheet3" sheetId="3" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="128" uniqueCount="72">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="366" uniqueCount="79">
   <si>
     <t>NO</t>
   </si>
@@ -238,13 +239,37 @@
   </si>
   <si>
     <t>ANGK.</t>
+  </si>
+  <si>
+    <t>KETERANGAN</t>
+  </si>
+  <si>
+    <t>TERKIRIM</t>
+  </si>
+  <si>
+    <t>SEPATU</t>
+  </si>
+  <si>
+    <t>TOPI</t>
+  </si>
+  <si>
+    <t>LENGKAP</t>
+  </si>
+  <si>
+    <t>KAOS</t>
+  </si>
+  <si>
+    <t>KURANG EPOLET 2</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="[$-F800]dddd\,\ mmmm\ dd\,\ yyyy"/>
+  </numFmts>
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -259,6 +284,19 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="3">
@@ -275,7 +313,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -309,11 +347,37 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -338,6 +402,46 @@
     <xf numFmtId="15" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="15" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -676,10 +780,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:O63"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="60" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G4" sqref="G4"/>
+    <sheetView view="pageBreakPreview" zoomScale="60" zoomScaleNormal="100" workbookViewId="0">
+      <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1715,19 +1820,1947 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{46B50E08-67CE-4FF1-9C36-3669A5F769D9}">
+  <sheetPr codeName="Sheet4"/>
+  <dimension ref="A1:K64"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G28" sqref="G28"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="5.28515625" style="12" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.140625" style="12" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.85546875" style="12" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.5703125" style="12" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.28515625" style="12" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="20.5703125" style="12" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="20" style="12" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10.7109375" style="12" bestFit="1" customWidth="1"/>
+    <col min="9" max="13" width="9.140625" style="12"/>
+    <col min="14" max="14" width="2.140625" style="12" bestFit="1" customWidth="1"/>
+    <col min="15" max="16384" width="9.140625" style="12"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10" ht="18" x14ac:dyDescent="0.25">
+      <c r="A1" s="10" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="10" t="s">
+        <v>71</v>
+      </c>
+      <c r="D1" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="10" t="s">
+        <v>72</v>
+      </c>
+      <c r="G1" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="H1" s="12" t="s">
+        <v>74</v>
+      </c>
+      <c r="I1" s="12" t="s">
+        <v>75</v>
+      </c>
+      <c r="J1" s="12" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" ht="15" x14ac:dyDescent="0.25">
+      <c r="A2" s="18">
+        <v>1</v>
+      </c>
+      <c r="B2" s="18" t="s">
+        <v>6</v>
+      </c>
+      <c r="C2" s="18">
+        <v>8</v>
+      </c>
+      <c r="D2" s="18" t="s">
+        <v>9</v>
+      </c>
+      <c r="E2" s="18" t="s">
+        <v>7</v>
+      </c>
+      <c r="F2" s="18"/>
+      <c r="G2" s="3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" ht="15" x14ac:dyDescent="0.25">
+      <c r="A3" s="19"/>
+      <c r="B3" s="19"/>
+      <c r="C3" s="19"/>
+      <c r="D3" s="19"/>
+      <c r="E3" s="19" t="s">
+        <v>8</v>
+      </c>
+      <c r="F3" s="19"/>
+      <c r="G3" s="3"/>
+      <c r="H3" s="12" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" ht="15" x14ac:dyDescent="0.25">
+      <c r="A4" s="19"/>
+      <c r="B4" s="19"/>
+      <c r="C4" s="19"/>
+      <c r="D4" s="19"/>
+      <c r="E4" s="19"/>
+      <c r="F4" s="19"/>
+      <c r="G4" s="3"/>
+    </row>
+    <row r="5" spans="1:10" ht="15" x14ac:dyDescent="0.25">
+      <c r="A5" s="18">
+        <v>2</v>
+      </c>
+      <c r="B5" s="18" t="s">
+        <v>15</v>
+      </c>
+      <c r="C5" s="18">
+        <v>8</v>
+      </c>
+      <c r="D5" s="18" t="s">
+        <v>16</v>
+      </c>
+      <c r="E5" s="18" t="s">
+        <v>7</v>
+      </c>
+      <c r="F5" s="18"/>
+      <c r="G5" s="3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" ht="15" x14ac:dyDescent="0.25">
+      <c r="A6" s="19"/>
+      <c r="B6" s="19"/>
+      <c r="C6" s="19"/>
+      <c r="D6" s="19"/>
+      <c r="E6" s="19" t="s">
+        <v>8</v>
+      </c>
+      <c r="F6" s="19"/>
+      <c r="G6" s="3"/>
+      <c r="H6" s="12" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" ht="15" x14ac:dyDescent="0.25">
+      <c r="A7" s="20"/>
+      <c r="B7" s="20"/>
+      <c r="C7" s="20"/>
+      <c r="D7" s="20"/>
+      <c r="E7" s="20"/>
+      <c r="F7" s="20"/>
+      <c r="G7" s="3"/>
+    </row>
+    <row r="8" spans="1:10" ht="15" x14ac:dyDescent="0.25">
+      <c r="A8" s="18">
+        <v>3</v>
+      </c>
+      <c r="B8" s="18" t="s">
+        <v>6</v>
+      </c>
+      <c r="C8" s="18">
+        <v>9</v>
+      </c>
+      <c r="D8" s="18" t="s">
+        <v>51</v>
+      </c>
+      <c r="E8" s="18" t="s">
+        <v>7</v>
+      </c>
+      <c r="F8" s="18"/>
+      <c r="G8" s="5">
+        <v>44444</v>
+      </c>
+      <c r="J8" s="12" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" ht="15" x14ac:dyDescent="0.25">
+      <c r="A9" s="19"/>
+      <c r="B9" s="19"/>
+      <c r="C9" s="19"/>
+      <c r="D9" s="19"/>
+      <c r="E9" s="19" t="s">
+        <v>8</v>
+      </c>
+      <c r="F9" s="19"/>
+      <c r="G9" s="3"/>
+    </row>
+    <row r="10" spans="1:10" ht="15" x14ac:dyDescent="0.25">
+      <c r="A10" s="20"/>
+      <c r="B10" s="20"/>
+      <c r="C10" s="20"/>
+      <c r="D10" s="20"/>
+      <c r="E10" s="20"/>
+      <c r="F10" s="20"/>
+      <c r="G10" s="3"/>
+    </row>
+    <row r="11" spans="1:10" ht="15" x14ac:dyDescent="0.25">
+      <c r="A11" s="18">
+        <v>4</v>
+      </c>
+      <c r="B11" s="18" t="s">
+        <v>15</v>
+      </c>
+      <c r="C11" s="18">
+        <v>9</v>
+      </c>
+      <c r="D11" s="18" t="s">
+        <v>53</v>
+      </c>
+      <c r="E11" s="18" t="s">
+        <v>7</v>
+      </c>
+      <c r="F11" s="18"/>
+      <c r="G11" s="5">
+        <v>44444</v>
+      </c>
+      <c r="J11" s="12" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" ht="15" x14ac:dyDescent="0.25">
+      <c r="A12" s="19"/>
+      <c r="B12" s="19"/>
+      <c r="C12" s="19"/>
+      <c r="D12" s="19"/>
+      <c r="E12" s="19" t="s">
+        <v>8</v>
+      </c>
+      <c r="F12" s="19"/>
+      <c r="G12" s="3"/>
+    </row>
+    <row r="13" spans="1:10" ht="15" x14ac:dyDescent="0.25">
+      <c r="A13" s="20"/>
+      <c r="B13" s="20"/>
+      <c r="C13" s="20"/>
+      <c r="D13" s="20"/>
+      <c r="E13" s="20"/>
+      <c r="F13" s="20"/>
+      <c r="G13" s="3"/>
+    </row>
+    <row r="14" spans="1:10" ht="15" x14ac:dyDescent="0.25">
+      <c r="A14" s="18">
+        <v>5</v>
+      </c>
+      <c r="B14" s="18" t="s">
+        <v>20</v>
+      </c>
+      <c r="C14" s="18">
+        <v>15</v>
+      </c>
+      <c r="D14" s="18" t="s">
+        <v>55</v>
+      </c>
+      <c r="E14" s="18" t="s">
+        <v>7</v>
+      </c>
+      <c r="F14" s="18" t="s">
+        <v>73</v>
+      </c>
+      <c r="G14" s="3" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" ht="15" x14ac:dyDescent="0.25">
+      <c r="A15" s="19"/>
+      <c r="B15" s="19"/>
+      <c r="C15" s="19"/>
+      <c r="D15" s="19"/>
+      <c r="E15" s="19" t="s">
+        <v>8</v>
+      </c>
+      <c r="F15" s="19"/>
+      <c r="G15" s="3"/>
+    </row>
+    <row r="16" spans="1:10" ht="15" x14ac:dyDescent="0.25">
+      <c r="A16" s="20"/>
+      <c r="B16" s="20"/>
+      <c r="C16" s="20"/>
+      <c r="D16" s="20"/>
+      <c r="E16" s="20"/>
+      <c r="F16" s="20"/>
+      <c r="G16" s="3"/>
+    </row>
+    <row r="17" spans="1:10" ht="15" x14ac:dyDescent="0.25">
+      <c r="A17" s="18">
+        <v>6</v>
+      </c>
+      <c r="B17" s="18" t="s">
+        <v>22</v>
+      </c>
+      <c r="C17" s="18">
+        <v>15</v>
+      </c>
+      <c r="D17" s="18" t="s">
+        <v>23</v>
+      </c>
+      <c r="E17" s="18" t="s">
+        <v>7</v>
+      </c>
+      <c r="F17" s="18" t="s">
+        <v>73</v>
+      </c>
+      <c r="G17" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="J17" s="12" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" ht="15" x14ac:dyDescent="0.25">
+      <c r="A18" s="19"/>
+      <c r="B18" s="19"/>
+      <c r="C18" s="19"/>
+      <c r="D18" s="19"/>
+      <c r="E18" s="19" t="s">
+        <v>8</v>
+      </c>
+      <c r="F18" s="19"/>
+      <c r="G18" s="3"/>
+    </row>
+    <row r="19" spans="1:10" ht="15" x14ac:dyDescent="0.25">
+      <c r="A19" s="20"/>
+      <c r="B19" s="20"/>
+      <c r="C19" s="20"/>
+      <c r="D19" s="20"/>
+      <c r="E19" s="20"/>
+      <c r="F19" s="20"/>
+      <c r="G19" s="3"/>
+    </row>
+    <row r="20" spans="1:10" ht="15" x14ac:dyDescent="0.25">
+      <c r="A20" s="18">
+        <v>7</v>
+      </c>
+      <c r="B20" s="18" t="s">
+        <v>20</v>
+      </c>
+      <c r="C20" s="18">
+        <v>16</v>
+      </c>
+      <c r="D20" s="18" t="s">
+        <v>59</v>
+      </c>
+      <c r="E20" s="18" t="s">
+        <v>7</v>
+      </c>
+      <c r="F20" s="18"/>
+      <c r="G20" s="5">
+        <v>44520</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" ht="15" x14ac:dyDescent="0.25">
+      <c r="A21" s="19"/>
+      <c r="B21" s="19"/>
+      <c r="C21" s="19"/>
+      <c r="D21" s="19"/>
+      <c r="E21" s="19" t="s">
+        <v>8</v>
+      </c>
+      <c r="F21" s="19"/>
+      <c r="G21" s="5"/>
+    </row>
+    <row r="22" spans="1:10" ht="15" x14ac:dyDescent="0.25">
+      <c r="A22" s="20"/>
+      <c r="B22" s="20"/>
+      <c r="C22" s="20"/>
+      <c r="D22" s="20"/>
+      <c r="E22" s="20"/>
+      <c r="F22" s="20"/>
+      <c r="G22" s="5"/>
+    </row>
+    <row r="23" spans="1:10" ht="15" x14ac:dyDescent="0.25">
+      <c r="A23" s="18">
+        <v>8</v>
+      </c>
+      <c r="B23" s="18" t="s">
+        <v>22</v>
+      </c>
+      <c r="C23" s="18">
+        <v>16</v>
+      </c>
+      <c r="D23" s="18" t="s">
+        <v>61</v>
+      </c>
+      <c r="E23" s="18" t="s">
+        <v>7</v>
+      </c>
+      <c r="F23" s="18"/>
+      <c r="G23" s="5">
+        <v>44520</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10" ht="15" x14ac:dyDescent="0.25">
+      <c r="A24" s="19"/>
+      <c r="B24" s="19"/>
+      <c r="C24" s="19"/>
+      <c r="D24" s="19"/>
+      <c r="E24" s="19" t="s">
+        <v>8</v>
+      </c>
+      <c r="F24" s="19"/>
+      <c r="G24" s="5"/>
+    </row>
+    <row r="25" spans="1:10" ht="15" x14ac:dyDescent="0.25">
+      <c r="A25" s="20"/>
+      <c r="B25" s="20"/>
+      <c r="C25" s="20"/>
+      <c r="D25" s="20"/>
+      <c r="E25" s="20"/>
+      <c r="F25" s="20"/>
+      <c r="G25" s="5"/>
+    </row>
+    <row r="26" spans="1:10" ht="15" x14ac:dyDescent="0.25">
+      <c r="A26" s="18">
+        <v>9</v>
+      </c>
+      <c r="B26" s="18" t="s">
+        <v>26</v>
+      </c>
+      <c r="C26" s="18">
+        <v>29</v>
+      </c>
+      <c r="D26" s="18" t="s">
+        <v>27</v>
+      </c>
+      <c r="E26" s="18" t="s">
+        <v>8</v>
+      </c>
+      <c r="F26" s="18" t="s">
+        <v>73</v>
+      </c>
+      <c r="G26" s="3" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10" ht="15" x14ac:dyDescent="0.25">
+      <c r="A27" s="19"/>
+      <c r="B27" s="19"/>
+      <c r="C27" s="19"/>
+      <c r="D27" s="19"/>
+      <c r="E27" s="19"/>
+      <c r="F27" s="19"/>
+      <c r="G27" s="5"/>
+    </row>
+    <row r="28" spans="1:10" ht="15" x14ac:dyDescent="0.25">
+      <c r="A28" s="20">
+        <v>10</v>
+      </c>
+      <c r="B28" s="20" t="s">
+        <v>26</v>
+      </c>
+      <c r="C28" s="20">
+        <v>30</v>
+      </c>
+      <c r="D28" s="20" t="s">
+        <v>63</v>
+      </c>
+      <c r="E28" s="20" t="s">
+        <v>8</v>
+      </c>
+      <c r="F28" s="20"/>
+      <c r="G28" s="3" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A29" s="18"/>
+      <c r="B29" s="18"/>
+      <c r="C29" s="18"/>
+      <c r="D29" s="18"/>
+      <c r="E29" s="18"/>
+      <c r="F29" s="18"/>
+    </row>
+    <row r="30" spans="1:10" ht="15" x14ac:dyDescent="0.25">
+      <c r="A30" s="19"/>
+      <c r="B30" s="19"/>
+      <c r="C30" s="19"/>
+      <c r="D30" s="19"/>
+      <c r="E30" s="19"/>
+      <c r="F30" s="19"/>
+      <c r="G30" s="3"/>
+    </row>
+    <row r="31" spans="1:10" ht="15" x14ac:dyDescent="0.25">
+      <c r="A31" s="20">
+        <v>11</v>
+      </c>
+      <c r="B31" s="20" t="s">
+        <v>26</v>
+      </c>
+      <c r="C31" s="20">
+        <v>31</v>
+      </c>
+      <c r="D31" s="20" t="s">
+        <v>53</v>
+      </c>
+      <c r="E31" s="20" t="s">
+        <v>7</v>
+      </c>
+      <c r="F31" s="20"/>
+      <c r="G31" s="5">
+        <v>44501</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10" ht="15" x14ac:dyDescent="0.25">
+      <c r="A32" s="18"/>
+      <c r="B32" s="18"/>
+      <c r="C32" s="18"/>
+      <c r="D32" s="18"/>
+      <c r="E32" s="18" t="s">
+        <v>8</v>
+      </c>
+      <c r="F32" s="18"/>
+      <c r="G32" s="3"/>
+    </row>
+    <row r="33" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+      <c r="A33" s="19"/>
+      <c r="B33" s="19"/>
+      <c r="C33" s="19"/>
+      <c r="D33" s="19"/>
+      <c r="E33" s="19"/>
+      <c r="F33" s="19"/>
+      <c r="G33" s="3"/>
+    </row>
+    <row r="34" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+      <c r="A34" s="20">
+        <v>12</v>
+      </c>
+      <c r="B34" s="20" t="s">
+        <v>24</v>
+      </c>
+      <c r="C34" s="20">
+        <v>24</v>
+      </c>
+      <c r="D34" s="20" t="s">
+        <v>30</v>
+      </c>
+      <c r="E34" s="20" t="s">
+        <v>8</v>
+      </c>
+      <c r="F34" s="20"/>
+      <c r="G34" s="3" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+      <c r="A35" s="18"/>
+      <c r="B35" s="18"/>
+      <c r="C35" s="18"/>
+      <c r="D35" s="18"/>
+      <c r="E35" s="18"/>
+      <c r="F35" s="18"/>
+      <c r="G35" s="3"/>
+    </row>
+    <row r="36" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+      <c r="A36" s="19">
+        <v>13</v>
+      </c>
+      <c r="B36" s="19" t="s">
+        <v>24</v>
+      </c>
+      <c r="C36" s="19">
+        <v>25</v>
+      </c>
+      <c r="D36" s="19" t="s">
+        <v>48</v>
+      </c>
+      <c r="E36" s="19" t="s">
+        <v>7</v>
+      </c>
+      <c r="F36" s="19" t="s">
+        <v>73</v>
+      </c>
+      <c r="G36" s="5">
+        <v>44501</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+      <c r="A37" s="20"/>
+      <c r="B37" s="20"/>
+      <c r="C37" s="20"/>
+      <c r="D37" s="20"/>
+      <c r="E37" s="20" t="s">
+        <v>8</v>
+      </c>
+      <c r="F37" s="20"/>
+      <c r="G37" s="3"/>
+    </row>
+    <row r="38" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+      <c r="A38" s="18"/>
+      <c r="B38" s="18"/>
+      <c r="C38" s="18"/>
+      <c r="D38" s="18"/>
+      <c r="E38" s="18"/>
+      <c r="F38" s="18"/>
+      <c r="G38" s="3"/>
+    </row>
+    <row r="39" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+      <c r="A39" s="19">
+        <v>14</v>
+      </c>
+      <c r="B39" s="19" t="s">
+        <v>36</v>
+      </c>
+      <c r="C39" s="19">
+        <v>31</v>
+      </c>
+      <c r="D39" s="19" t="s">
+        <v>49</v>
+      </c>
+      <c r="E39" s="19" t="s">
+        <v>7</v>
+      </c>
+      <c r="F39" s="19" t="s">
+        <v>73</v>
+      </c>
+      <c r="G39" s="3"/>
+    </row>
+    <row r="40" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+      <c r="A40" s="20"/>
+      <c r="B40" s="20"/>
+      <c r="C40" s="20"/>
+      <c r="D40" s="20"/>
+      <c r="E40" s="20" t="s">
+        <v>8</v>
+      </c>
+      <c r="F40" s="20"/>
+      <c r="G40" s="3" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+      <c r="A41" s="18"/>
+      <c r="B41" s="18"/>
+      <c r="C41" s="18"/>
+      <c r="D41" s="18"/>
+      <c r="E41" s="18"/>
+      <c r="F41" s="18"/>
+      <c r="G41" s="3"/>
+    </row>
+    <row r="42" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+      <c r="A42" s="19">
+        <v>15</v>
+      </c>
+      <c r="B42" s="19" t="s">
+        <v>36</v>
+      </c>
+      <c r="C42" s="19">
+        <v>32</v>
+      </c>
+      <c r="D42" s="19" t="s">
+        <v>25</v>
+      </c>
+      <c r="E42" s="19" t="s">
+        <v>7</v>
+      </c>
+      <c r="F42" s="19"/>
+      <c r="G42" s="3" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+      <c r="A43" s="20"/>
+      <c r="B43" s="20"/>
+      <c r="C43" s="20"/>
+      <c r="D43" s="20"/>
+      <c r="E43" s="20" t="s">
+        <v>8</v>
+      </c>
+      <c r="F43" s="20"/>
+      <c r="G43" s="3"/>
+    </row>
+    <row r="44" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+      <c r="A44" s="18"/>
+      <c r="B44" s="18"/>
+      <c r="C44" s="18"/>
+      <c r="D44" s="18"/>
+      <c r="E44" s="18"/>
+      <c r="F44" s="18"/>
+      <c r="G44" s="3"/>
+    </row>
+    <row r="45" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+      <c r="A45" s="19">
+        <v>16</v>
+      </c>
+      <c r="B45" s="19" t="s">
+        <v>38</v>
+      </c>
+      <c r="C45" s="19">
+        <v>27</v>
+      </c>
+      <c r="D45" s="19" t="s">
+        <v>67</v>
+      </c>
+      <c r="E45" s="19" t="s">
+        <v>7</v>
+      </c>
+      <c r="F45" s="19"/>
+      <c r="G45" s="9">
+        <v>44409</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+      <c r="A46" s="20"/>
+      <c r="B46" s="20"/>
+      <c r="C46" s="20"/>
+      <c r="D46" s="20"/>
+      <c r="E46" s="20" t="s">
+        <v>8</v>
+      </c>
+      <c r="F46" s="20"/>
+      <c r="G46" s="9"/>
+    </row>
+    <row r="47" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+      <c r="A47" s="18"/>
+      <c r="B47" s="18"/>
+      <c r="C47" s="18"/>
+      <c r="D47" s="18"/>
+      <c r="E47" s="18"/>
+      <c r="F47" s="18"/>
+      <c r="G47" s="3"/>
+    </row>
+    <row r="48" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+      <c r="A48" s="19">
+        <v>17</v>
+      </c>
+      <c r="B48" s="19" t="s">
+        <v>39</v>
+      </c>
+      <c r="C48" s="19">
+        <v>38</v>
+      </c>
+      <c r="D48" s="19" t="s">
+        <v>50</v>
+      </c>
+      <c r="E48" s="19" t="s">
+        <v>7</v>
+      </c>
+      <c r="F48" s="19"/>
+      <c r="G48" s="3" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="49" spans="1:11" ht="15" x14ac:dyDescent="0.25">
+      <c r="A49" s="20"/>
+      <c r="B49" s="20"/>
+      <c r="C49" s="20"/>
+      <c r="D49" s="20"/>
+      <c r="E49" s="20" t="s">
+        <v>8</v>
+      </c>
+      <c r="F49" s="20"/>
+      <c r="G49" s="3"/>
+    </row>
+    <row r="50" spans="1:11" ht="15" x14ac:dyDescent="0.25">
+      <c r="A50" s="18"/>
+      <c r="B50" s="18"/>
+      <c r="C50" s="18"/>
+      <c r="D50" s="18"/>
+      <c r="E50" s="18"/>
+      <c r="F50" s="18"/>
+      <c r="G50" s="2"/>
+    </row>
+    <row r="51" spans="1:11" ht="15" x14ac:dyDescent="0.25">
+      <c r="A51" s="19">
+        <v>18</v>
+      </c>
+      <c r="B51" s="19" t="s">
+        <v>41</v>
+      </c>
+      <c r="C51" s="19">
+        <v>38</v>
+      </c>
+      <c r="D51" s="19" t="s">
+        <v>48</v>
+      </c>
+      <c r="E51" s="19" t="s">
+        <v>7</v>
+      </c>
+      <c r="F51" s="19"/>
+      <c r="G51" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="H51" s="16"/>
+      <c r="I51" s="17"/>
+      <c r="J51" s="17"/>
+      <c r="K51" s="17"/>
+    </row>
+    <row r="52" spans="1:11" ht="15" x14ac:dyDescent="0.25">
+      <c r="A52" s="20"/>
+      <c r="B52" s="20"/>
+      <c r="C52" s="20"/>
+      <c r="D52" s="20"/>
+      <c r="E52" s="20" t="s">
+        <v>8</v>
+      </c>
+      <c r="F52" s="20"/>
+      <c r="G52" s="3"/>
+    </row>
+    <row r="53" spans="1:11" ht="15" x14ac:dyDescent="0.25">
+      <c r="A53" s="18"/>
+      <c r="B53" s="18"/>
+      <c r="C53" s="18"/>
+      <c r="D53" s="18"/>
+      <c r="E53" s="18"/>
+      <c r="F53" s="18"/>
+      <c r="G53" s="3"/>
+    </row>
+    <row r="54" spans="1:11" ht="15" x14ac:dyDescent="0.25">
+      <c r="A54" s="19">
+        <v>19</v>
+      </c>
+      <c r="B54" s="19" t="s">
+        <v>39</v>
+      </c>
+      <c r="C54" s="19">
+        <v>39</v>
+      </c>
+      <c r="D54" s="19" t="s">
+        <v>25</v>
+      </c>
+      <c r="E54" s="19" t="s">
+        <v>7</v>
+      </c>
+      <c r="F54" s="19" t="s">
+        <v>78</v>
+      </c>
+      <c r="G54" s="5">
+        <v>44444</v>
+      </c>
+    </row>
+    <row r="55" spans="1:11" ht="15" x14ac:dyDescent="0.25">
+      <c r="A55" s="20"/>
+      <c r="B55" s="20"/>
+      <c r="C55" s="20"/>
+      <c r="D55" s="20"/>
+      <c r="E55" s="20" t="s">
+        <v>8</v>
+      </c>
+      <c r="F55" s="20"/>
+      <c r="G55" s="3"/>
+    </row>
+    <row r="56" spans="1:11" ht="15" x14ac:dyDescent="0.25">
+      <c r="A56" s="18"/>
+      <c r="B56" s="18"/>
+      <c r="C56" s="18"/>
+      <c r="D56" s="18"/>
+      <c r="E56" s="18"/>
+      <c r="F56" s="18"/>
+      <c r="G56" s="3"/>
+    </row>
+    <row r="57" spans="1:11" ht="15" x14ac:dyDescent="0.25">
+      <c r="A57" s="19">
+        <v>20</v>
+      </c>
+      <c r="B57" s="19" t="s">
+        <v>41</v>
+      </c>
+      <c r="C57" s="19">
+        <v>39</v>
+      </c>
+      <c r="D57" s="19" t="s">
+        <v>69</v>
+      </c>
+      <c r="E57" s="19" t="s">
+        <v>7</v>
+      </c>
+      <c r="F57" s="19" t="s">
+        <v>78</v>
+      </c>
+      <c r="G57" s="5">
+        <v>44444</v>
+      </c>
+    </row>
+    <row r="58" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A58" s="20"/>
+      <c r="B58" s="20"/>
+      <c r="C58" s="20"/>
+      <c r="D58" s="20"/>
+      <c r="E58" s="20" t="s">
+        <v>8</v>
+      </c>
+      <c r="F58" s="20"/>
+      <c r="G58" s="20"/>
+    </row>
+    <row r="59" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A59" s="18"/>
+      <c r="B59" s="18"/>
+      <c r="C59" s="18"/>
+      <c r="D59" s="18"/>
+      <c r="E59" s="18"/>
+      <c r="F59" s="18"/>
+      <c r="G59" s="18"/>
+    </row>
+    <row r="60" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A60" s="13"/>
+      <c r="B60" s="13"/>
+      <c r="C60" s="13"/>
+      <c r="D60" s="13"/>
+      <c r="E60" s="13"/>
+      <c r="F60" s="13"/>
+      <c r="G60" s="14"/>
+    </row>
+    <row r="61" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A61" s="13"/>
+      <c r="B61" s="13"/>
+      <c r="C61" s="13"/>
+      <c r="D61" s="13"/>
+      <c r="E61" s="13"/>
+      <c r="F61" s="15"/>
+      <c r="G61" s="15"/>
+    </row>
+    <row r="62" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A62" s="15"/>
+      <c r="B62" s="15"/>
+      <c r="C62" s="15"/>
+      <c r="D62" s="15"/>
+      <c r="E62" s="15"/>
+      <c r="F62" s="15"/>
+      <c r="G62" s="15"/>
+    </row>
+    <row r="63" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A63" s="15"/>
+      <c r="B63" s="15"/>
+      <c r="C63" s="15"/>
+      <c r="D63" s="15"/>
+      <c r="E63" s="15"/>
+      <c r="F63" s="15"/>
+      <c r="G63" s="15"/>
+    </row>
+    <row r="64" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A64" s="15"/>
+      <c r="B64" s="15"/>
+      <c r="C64" s="15"/>
+      <c r="D64" s="15"/>
+      <c r="E64" s="15"/>
+      <c r="F64" s="15"/>
+      <c r="G64" s="15"/>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <colBreaks count="1" manualBreakCount="1">
+    <brk id="7" max="1048575" man="1"/>
+  </colBreaks>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <sheetPr codeName="Sheet2"/>
+  <dimension ref="A1:O59"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G12" sqref="G12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="5.28515625" style="12" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.140625" style="12" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.85546875" style="12" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.5703125" style="12" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.28515625" style="12" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="18.42578125" style="12" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="27.5703125" style="12" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="20" style="25" bestFit="1" customWidth="1"/>
+    <col min="9" max="14" width="9.140625" style="12"/>
+    <col min="15" max="15" width="2.140625" style="12" bestFit="1" customWidth="1"/>
+    <col min="16" max="16384" width="9.140625" style="12"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:15" ht="18" x14ac:dyDescent="0.25">
+      <c r="A1" s="10" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="10" t="s">
+        <v>71</v>
+      </c>
+      <c r="D1" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="21" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A2" s="18">
+        <v>1</v>
+      </c>
+      <c r="B2" s="18" t="s">
+        <v>6</v>
+      </c>
+      <c r="C2" s="18">
+        <v>8</v>
+      </c>
+      <c r="D2" s="18" t="s">
+        <v>9</v>
+      </c>
+      <c r="E2" s="18" t="s">
+        <v>7</v>
+      </c>
+      <c r="F2" s="18" t="s">
+        <v>11</v>
+      </c>
+      <c r="G2" s="18" t="s">
+        <v>12</v>
+      </c>
+      <c r="H2" s="22" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A3" s="19"/>
+      <c r="B3" s="19"/>
+      <c r="C3" s="19"/>
+      <c r="D3" s="19"/>
+      <c r="E3" s="19" t="s">
+        <v>8</v>
+      </c>
+      <c r="F3" s="19" t="s">
+        <v>13</v>
+      </c>
+      <c r="G3" s="19" t="s">
+        <v>17</v>
+      </c>
+      <c r="H3" s="23"/>
+    </row>
+    <row r="4" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A4" s="20"/>
+      <c r="B4" s="20"/>
+      <c r="C4" s="20"/>
+      <c r="D4" s="20"/>
+      <c r="E4" s="20"/>
+      <c r="F4" s="20"/>
+      <c r="G4" s="20"/>
+      <c r="H4" s="24"/>
+    </row>
+    <row r="5" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A5" s="18">
+        <v>2</v>
+      </c>
+      <c r="B5" s="18" t="s">
+        <v>15</v>
+      </c>
+      <c r="C5" s="18">
+        <v>8</v>
+      </c>
+      <c r="D5" s="18" t="s">
+        <v>16</v>
+      </c>
+      <c r="E5" s="18" t="s">
+        <v>7</v>
+      </c>
+      <c r="F5" s="18" t="s">
+        <v>11</v>
+      </c>
+      <c r="G5" s="18" t="s">
+        <v>18</v>
+      </c>
+      <c r="H5" s="22" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A6" s="19"/>
+      <c r="B6" s="19"/>
+      <c r="C6" s="19"/>
+      <c r="D6" s="19"/>
+      <c r="E6" s="19" t="s">
+        <v>8</v>
+      </c>
+      <c r="F6" s="19" t="s">
+        <v>13</v>
+      </c>
+      <c r="G6" s="19" t="s">
+        <v>19</v>
+      </c>
+      <c r="H6" s="23"/>
+    </row>
+    <row r="7" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A7" s="20"/>
+      <c r="B7" s="20"/>
+      <c r="C7" s="20"/>
+      <c r="D7" s="20"/>
+      <c r="E7" s="20"/>
+      <c r="F7" s="20"/>
+      <c r="G7" s="20"/>
+      <c r="H7" s="24"/>
+    </row>
+    <row r="8" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A8" s="18">
+        <v>3</v>
+      </c>
+      <c r="B8" s="18" t="s">
+        <v>6</v>
+      </c>
+      <c r="C8" s="18">
+        <v>9</v>
+      </c>
+      <c r="D8" s="18" t="s">
+        <v>51</v>
+      </c>
+      <c r="E8" s="18" t="s">
+        <v>7</v>
+      </c>
+      <c r="F8" s="18"/>
+      <c r="G8" s="18" t="s">
+        <v>52</v>
+      </c>
+      <c r="H8" s="22">
+        <v>44444</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A9" s="19"/>
+      <c r="B9" s="19"/>
+      <c r="C9" s="19"/>
+      <c r="D9" s="19"/>
+      <c r="E9" s="19" t="s">
+        <v>8</v>
+      </c>
+      <c r="F9" s="19"/>
+      <c r="G9" s="19">
+        <v>81228196787</v>
+      </c>
+      <c r="H9" s="23"/>
+      <c r="O9" s="12">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A10" s="20"/>
+      <c r="B10" s="20"/>
+      <c r="C10" s="20"/>
+      <c r="D10" s="20"/>
+      <c r="E10" s="20"/>
+      <c r="F10" s="20"/>
+      <c r="G10" s="20"/>
+      <c r="H10" s="24"/>
+    </row>
+    <row r="11" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A11" s="18">
+        <v>4</v>
+      </c>
+      <c r="B11" s="18" t="s">
+        <v>15</v>
+      </c>
+      <c r="C11" s="18">
+        <v>9</v>
+      </c>
+      <c r="D11" s="18" t="s">
+        <v>53</v>
+      </c>
+      <c r="E11" s="18" t="s">
+        <v>7</v>
+      </c>
+      <c r="F11" s="18"/>
+      <c r="G11" s="18" t="s">
+        <v>54</v>
+      </c>
+      <c r="H11" s="22">
+        <v>44444</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A12" s="19"/>
+      <c r="B12" s="19"/>
+      <c r="C12" s="19"/>
+      <c r="D12" s="19"/>
+      <c r="E12" s="19" t="s">
+        <v>8</v>
+      </c>
+      <c r="F12" s="19"/>
+      <c r="G12" s="19">
+        <v>81225736355</v>
+      </c>
+      <c r="H12" s="23"/>
+    </row>
+    <row r="13" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A13" s="20"/>
+      <c r="B13" s="20"/>
+      <c r="C13" s="20"/>
+      <c r="D13" s="20"/>
+      <c r="E13" s="20"/>
+      <c r="F13" s="20"/>
+      <c r="G13" s="20"/>
+      <c r="H13" s="24"/>
+    </row>
+    <row r="14" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A14" s="18">
+        <v>5</v>
+      </c>
+      <c r="B14" s="18" t="s">
+        <v>20</v>
+      </c>
+      <c r="C14" s="18">
+        <v>15</v>
+      </c>
+      <c r="D14" s="18" t="s">
+        <v>55</v>
+      </c>
+      <c r="E14" s="18" t="s">
+        <v>7</v>
+      </c>
+      <c r="F14" s="18"/>
+      <c r="G14" s="18" t="s">
+        <v>56</v>
+      </c>
+      <c r="H14" s="22" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A15" s="19"/>
+      <c r="B15" s="19"/>
+      <c r="C15" s="19"/>
+      <c r="D15" s="19"/>
+      <c r="E15" s="19" t="s">
+        <v>8</v>
+      </c>
+      <c r="F15" s="19"/>
+      <c r="G15" s="19">
+        <v>81232667763</v>
+      </c>
+      <c r="H15" s="23"/>
+    </row>
+    <row r="16" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A16" s="20"/>
+      <c r="B16" s="20"/>
+      <c r="C16" s="20"/>
+      <c r="D16" s="20"/>
+      <c r="E16" s="20"/>
+      <c r="F16" s="20"/>
+      <c r="G16" s="20"/>
+      <c r="H16" s="24"/>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A17" s="18">
+        <v>6</v>
+      </c>
+      <c r="B17" s="18" t="s">
+        <v>22</v>
+      </c>
+      <c r="C17" s="18">
+        <v>15</v>
+      </c>
+      <c r="D17" s="18" t="s">
+        <v>23</v>
+      </c>
+      <c r="E17" s="18" t="s">
+        <v>7</v>
+      </c>
+      <c r="F17" s="18"/>
+      <c r="G17" s="18" t="s">
+        <v>58</v>
+      </c>
+      <c r="H17" s="22" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A18" s="19"/>
+      <c r="B18" s="19"/>
+      <c r="C18" s="19"/>
+      <c r="D18" s="19"/>
+      <c r="E18" s="19" t="s">
+        <v>8</v>
+      </c>
+      <c r="F18" s="19"/>
+      <c r="G18" s="19">
+        <v>8214000800</v>
+      </c>
+      <c r="H18" s="23"/>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A19" s="20"/>
+      <c r="B19" s="20"/>
+      <c r="C19" s="20"/>
+      <c r="D19" s="20"/>
+      <c r="E19" s="20"/>
+      <c r="F19" s="20"/>
+      <c r="G19" s="20"/>
+      <c r="H19" s="24"/>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A20" s="18">
+        <v>7</v>
+      </c>
+      <c r="B20" s="18" t="s">
+        <v>20</v>
+      </c>
+      <c r="C20" s="18">
+        <v>16</v>
+      </c>
+      <c r="D20" s="18" t="s">
+        <v>59</v>
+      </c>
+      <c r="E20" s="18" t="s">
+        <v>7</v>
+      </c>
+      <c r="F20" s="18"/>
+      <c r="G20" s="18" t="s">
+        <v>60</v>
+      </c>
+      <c r="H20" s="22">
+        <v>44520</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A21" s="19"/>
+      <c r="B21" s="19"/>
+      <c r="C21" s="19"/>
+      <c r="D21" s="19"/>
+      <c r="E21" s="19" t="s">
+        <v>8</v>
+      </c>
+      <c r="F21" s="19"/>
+      <c r="G21" s="19">
+        <v>81232989078</v>
+      </c>
+      <c r="H21" s="23"/>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A22" s="20"/>
+      <c r="B22" s="20"/>
+      <c r="C22" s="20"/>
+      <c r="D22" s="20"/>
+      <c r="E22" s="20"/>
+      <c r="F22" s="20"/>
+      <c r="G22" s="20"/>
+      <c r="H22" s="24"/>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A23" s="18">
+        <v>8</v>
+      </c>
+      <c r="B23" s="18" t="s">
+        <v>22</v>
+      </c>
+      <c r="C23" s="18">
+        <v>16</v>
+      </c>
+      <c r="D23" s="18" t="s">
+        <v>61</v>
+      </c>
+      <c r="E23" s="18" t="s">
+        <v>7</v>
+      </c>
+      <c r="F23" s="18"/>
+      <c r="G23" s="18" t="s">
+        <v>62</v>
+      </c>
+      <c r="H23" s="22">
+        <v>44520</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A24" s="19"/>
+      <c r="B24" s="19"/>
+      <c r="C24" s="19"/>
+      <c r="D24" s="19"/>
+      <c r="E24" s="19" t="s">
+        <v>8</v>
+      </c>
+      <c r="F24" s="19"/>
+      <c r="G24" s="19">
+        <v>81231807990</v>
+      </c>
+      <c r="H24" s="23"/>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A25" s="20"/>
+      <c r="B25" s="20"/>
+      <c r="C25" s="20"/>
+      <c r="D25" s="20"/>
+      <c r="E25" s="20"/>
+      <c r="F25" s="20"/>
+      <c r="G25" s="20"/>
+      <c r="H25" s="24"/>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A26" s="18">
+        <v>9</v>
+      </c>
+      <c r="B26" s="18" t="s">
+        <v>26</v>
+      </c>
+      <c r="C26" s="18">
+        <v>29</v>
+      </c>
+      <c r="D26" s="18" t="s">
+        <v>27</v>
+      </c>
+      <c r="E26" s="18" t="s">
+        <v>8</v>
+      </c>
+      <c r="F26" s="18" t="s">
+        <v>21</v>
+      </c>
+      <c r="G26" s="18" t="s">
+        <v>29</v>
+      </c>
+      <c r="H26" s="22" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A27" s="19"/>
+      <c r="B27" s="19"/>
+      <c r="C27" s="19"/>
+      <c r="D27" s="19"/>
+      <c r="E27" s="19"/>
+      <c r="F27" s="19"/>
+      <c r="G27" s="19"/>
+      <c r="H27" s="23"/>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A28" s="18">
+        <v>10</v>
+      </c>
+      <c r="B28" s="18" t="s">
+        <v>26</v>
+      </c>
+      <c r="C28" s="18">
+        <v>30</v>
+      </c>
+      <c r="D28" s="18" t="s">
+        <v>63</v>
+      </c>
+      <c r="E28" s="18" t="s">
+        <v>7</v>
+      </c>
+      <c r="F28" s="18" t="s">
+        <v>34</v>
+      </c>
+      <c r="G28" s="18"/>
+      <c r="H28" s="22"/>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A29" s="19"/>
+      <c r="B29" s="19"/>
+      <c r="C29" s="19"/>
+      <c r="D29" s="19"/>
+      <c r="E29" s="19" t="s">
+        <v>8</v>
+      </c>
+      <c r="F29" s="19"/>
+      <c r="G29" s="19" t="s">
+        <v>44</v>
+      </c>
+      <c r="H29" s="23" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A30" s="20"/>
+      <c r="B30" s="20"/>
+      <c r="C30" s="20"/>
+      <c r="D30" s="20"/>
+      <c r="E30" s="20"/>
+      <c r="F30" s="20"/>
+      <c r="G30" s="20"/>
+      <c r="H30" s="24"/>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A31" s="18">
+        <v>11</v>
+      </c>
+      <c r="B31" s="18" t="s">
+        <v>26</v>
+      </c>
+      <c r="C31" s="18">
+        <v>31</v>
+      </c>
+      <c r="D31" s="18" t="s">
+        <v>53</v>
+      </c>
+      <c r="E31" s="18" t="s">
+        <v>7</v>
+      </c>
+      <c r="F31" s="18"/>
+      <c r="G31" s="18" t="s">
+        <v>64</v>
+      </c>
+      <c r="H31" s="22">
+        <v>44501</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A32" s="19"/>
+      <c r="B32" s="19"/>
+      <c r="C32" s="19"/>
+      <c r="D32" s="19"/>
+      <c r="E32" s="19" t="s">
+        <v>8</v>
+      </c>
+      <c r="F32" s="19"/>
+      <c r="G32" s="19">
+        <v>6587623904</v>
+      </c>
+      <c r="H32" s="23"/>
+    </row>
+    <row r="33" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A33" s="20"/>
+      <c r="B33" s="20"/>
+      <c r="C33" s="20"/>
+      <c r="D33" s="20"/>
+      <c r="E33" s="20"/>
+      <c r="F33" s="20"/>
+      <c r="G33" s="20"/>
+      <c r="H33" s="24"/>
+    </row>
+    <row r="34" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A34" s="18">
+        <v>12</v>
+      </c>
+      <c r="B34" s="18" t="s">
+        <v>24</v>
+      </c>
+      <c r="C34" s="18">
+        <v>24</v>
+      </c>
+      <c r="D34" s="18" t="s">
+        <v>30</v>
+      </c>
+      <c r="E34" s="18" t="s">
+        <v>8</v>
+      </c>
+      <c r="F34" s="18" t="s">
+        <v>31</v>
+      </c>
+      <c r="G34" s="18" t="s">
+        <v>32</v>
+      </c>
+      <c r="H34" s="22" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A35" s="20"/>
+      <c r="B35" s="20"/>
+      <c r="C35" s="20"/>
+      <c r="D35" s="20"/>
+      <c r="E35" s="20"/>
+      <c r="F35" s="20"/>
+      <c r="G35" s="20"/>
+      <c r="H35" s="24"/>
+    </row>
+    <row r="36" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A36" s="18">
+        <v>13</v>
+      </c>
+      <c r="B36" s="18" t="s">
+        <v>24</v>
+      </c>
+      <c r="C36" s="18">
+        <v>25</v>
+      </c>
+      <c r="D36" s="18" t="s">
+        <v>48</v>
+      </c>
+      <c r="E36" s="18" t="s">
+        <v>7</v>
+      </c>
+      <c r="F36" s="18" t="s">
+        <v>34</v>
+      </c>
+      <c r="G36" s="18" t="s">
+        <v>42</v>
+      </c>
+      <c r="H36" s="22">
+        <v>44501</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A37" s="19"/>
+      <c r="B37" s="19"/>
+      <c r="C37" s="19"/>
+      <c r="D37" s="19"/>
+      <c r="E37" s="19" t="s">
+        <v>8</v>
+      </c>
+      <c r="F37" s="19"/>
+      <c r="G37" s="19"/>
+      <c r="H37" s="23"/>
+    </row>
+    <row r="38" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A38" s="20"/>
+      <c r="B38" s="20"/>
+      <c r="C38" s="20"/>
+      <c r="D38" s="20"/>
+      <c r="E38" s="20"/>
+      <c r="F38" s="20"/>
+      <c r="G38" s="20"/>
+      <c r="H38" s="24"/>
+    </row>
+    <row r="39" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A39" s="18">
+        <v>14</v>
+      </c>
+      <c r="B39" s="18" t="s">
+        <v>36</v>
+      </c>
+      <c r="C39" s="18">
+        <v>31</v>
+      </c>
+      <c r="D39" s="18" t="s">
+        <v>49</v>
+      </c>
+      <c r="E39" s="18" t="s">
+        <v>7</v>
+      </c>
+      <c r="F39" s="18" t="s">
+        <v>34</v>
+      </c>
+      <c r="G39" s="18" t="s">
+        <v>43</v>
+      </c>
+      <c r="H39" s="22"/>
+    </row>
+    <row r="40" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A40" s="19"/>
+      <c r="B40" s="19"/>
+      <c r="C40" s="19"/>
+      <c r="D40" s="19"/>
+      <c r="E40" s="19" t="s">
+        <v>8</v>
+      </c>
+      <c r="F40" s="19"/>
+      <c r="G40" s="19"/>
+      <c r="H40" s="23" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A41" s="20"/>
+      <c r="B41" s="20"/>
+      <c r="C41" s="20"/>
+      <c r="D41" s="20"/>
+      <c r="E41" s="20"/>
+      <c r="F41" s="20"/>
+      <c r="G41" s="20"/>
+      <c r="H41" s="24"/>
+    </row>
+    <row r="42" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A42" s="18">
+        <v>15</v>
+      </c>
+      <c r="B42" s="18" t="s">
+        <v>36</v>
+      </c>
+      <c r="C42" s="18">
+        <v>32</v>
+      </c>
+      <c r="D42" s="18" t="s">
+        <v>25</v>
+      </c>
+      <c r="E42" s="18" t="s">
+        <v>7</v>
+      </c>
+      <c r="F42" s="18"/>
+      <c r="G42" s="18" t="s">
+        <v>65</v>
+      </c>
+      <c r="H42" s="22" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A43" s="19"/>
+      <c r="B43" s="19"/>
+      <c r="C43" s="19"/>
+      <c r="D43" s="19"/>
+      <c r="E43" s="19" t="s">
+        <v>8</v>
+      </c>
+      <c r="F43" s="19"/>
+      <c r="G43" s="19">
+        <v>81231558203</v>
+      </c>
+      <c r="H43" s="23"/>
+    </row>
+    <row r="44" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A44" s="20"/>
+      <c r="B44" s="20"/>
+      <c r="C44" s="20"/>
+      <c r="D44" s="20"/>
+      <c r="E44" s="20"/>
+      <c r="F44" s="20"/>
+      <c r="G44" s="20"/>
+      <c r="H44" s="24"/>
+    </row>
+    <row r="45" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A45" s="18">
+        <v>16</v>
+      </c>
+      <c r="B45" s="18" t="s">
+        <v>38</v>
+      </c>
+      <c r="C45" s="18">
+        <v>27</v>
+      </c>
+      <c r="D45" s="18" t="s">
+        <v>67</v>
+      </c>
+      <c r="E45" s="18" t="s">
+        <v>7</v>
+      </c>
+      <c r="F45" s="18"/>
+      <c r="G45" s="18" t="s">
+        <v>47</v>
+      </c>
+      <c r="H45" s="22">
+        <v>44409</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A46" s="19"/>
+      <c r="B46" s="19"/>
+      <c r="C46" s="19"/>
+      <c r="D46" s="19"/>
+      <c r="E46" s="19" t="s">
+        <v>8</v>
+      </c>
+      <c r="F46" s="19"/>
+      <c r="G46" s="19"/>
+      <c r="H46" s="23"/>
+    </row>
+    <row r="47" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A47" s="20"/>
+      <c r="B47" s="20"/>
+      <c r="C47" s="20"/>
+      <c r="D47" s="20"/>
+      <c r="E47" s="20"/>
+      <c r="F47" s="20"/>
+      <c r="G47" s="20"/>
+      <c r="H47" s="24"/>
+    </row>
+    <row r="48" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A48" s="18">
+        <v>17</v>
+      </c>
+      <c r="B48" s="18" t="s">
+        <v>39</v>
+      </c>
+      <c r="C48" s="18">
+        <v>38</v>
+      </c>
+      <c r="D48" s="18" t="s">
+        <v>50</v>
+      </c>
+      <c r="E48" s="18" t="s">
+        <v>7</v>
+      </c>
+      <c r="F48" s="18"/>
+      <c r="G48" s="18" t="s">
+        <v>46</v>
+      </c>
+      <c r="H48" s="22" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="49" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A49" s="19"/>
+      <c r="B49" s="19"/>
+      <c r="C49" s="19"/>
+      <c r="D49" s="19"/>
+      <c r="E49" s="19" t="s">
+        <v>8</v>
+      </c>
+      <c r="F49" s="19"/>
+      <c r="G49" s="19"/>
+      <c r="H49" s="23"/>
+    </row>
+    <row r="50" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A50" s="20"/>
+      <c r="B50" s="20"/>
+      <c r="C50" s="20"/>
+      <c r="D50" s="20"/>
+      <c r="E50" s="20"/>
+      <c r="F50" s="20"/>
+      <c r="G50" s="20"/>
+      <c r="H50" s="24"/>
+    </row>
+    <row r="51" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A51" s="18">
+        <v>18</v>
+      </c>
+      <c r="B51" s="18" t="s">
+        <v>41</v>
+      </c>
+      <c r="C51" s="18">
+        <v>38</v>
+      </c>
+      <c r="D51" s="18" t="s">
+        <v>48</v>
+      </c>
+      <c r="E51" s="18" t="s">
+        <v>7</v>
+      </c>
+      <c r="F51" s="18"/>
+      <c r="G51" s="18" t="s">
+        <v>45</v>
+      </c>
+      <c r="H51" s="22" t="s">
+        <v>40</v>
+      </c>
+      <c r="I51" s="16"/>
+      <c r="J51" s="17"/>
+      <c r="K51" s="17"/>
+      <c r="L51" s="17"/>
+    </row>
+    <row r="52" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A52" s="19"/>
+      <c r="B52" s="19"/>
+      <c r="C52" s="19"/>
+      <c r="D52" s="19"/>
+      <c r="E52" s="19" t="s">
+        <v>8</v>
+      </c>
+      <c r="F52" s="19"/>
+      <c r="G52" s="19"/>
+      <c r="H52" s="23"/>
+    </row>
+    <row r="53" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A53" s="20"/>
+      <c r="B53" s="20"/>
+      <c r="C53" s="20"/>
+      <c r="D53" s="20"/>
+      <c r="E53" s="20"/>
+      <c r="F53" s="20"/>
+      <c r="G53" s="20"/>
+      <c r="H53" s="24"/>
+    </row>
+    <row r="54" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A54" s="18">
+        <v>19</v>
+      </c>
+      <c r="B54" s="18" t="s">
+        <v>39</v>
+      </c>
+      <c r="C54" s="18">
+        <v>39</v>
+      </c>
+      <c r="D54" s="18" t="s">
+        <v>25</v>
+      </c>
+      <c r="E54" s="18" t="s">
+        <v>7</v>
+      </c>
+      <c r="F54" s="18"/>
+      <c r="G54" s="18" t="s">
+        <v>68</v>
+      </c>
+      <c r="H54" s="22">
+        <v>44444</v>
+      </c>
+    </row>
+    <row r="55" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A55" s="19"/>
+      <c r="B55" s="19"/>
+      <c r="C55" s="19"/>
+      <c r="D55" s="19"/>
+      <c r="E55" s="19" t="s">
+        <v>8</v>
+      </c>
+      <c r="F55" s="19"/>
+      <c r="G55" s="19">
+        <v>81331414130</v>
+      </c>
+      <c r="H55" s="23"/>
+    </row>
+    <row r="56" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A56" s="20"/>
+      <c r="B56" s="20"/>
+      <c r="C56" s="20"/>
+      <c r="D56" s="20"/>
+      <c r="E56" s="20"/>
+      <c r="F56" s="20"/>
+      <c r="G56" s="20"/>
+      <c r="H56" s="24"/>
+    </row>
+    <row r="57" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A57" s="18">
+        <v>20</v>
+      </c>
+      <c r="B57" s="18" t="s">
+        <v>41</v>
+      </c>
+      <c r="C57" s="18">
+        <v>39</v>
+      </c>
+      <c r="D57" s="18" t="s">
+        <v>69</v>
+      </c>
+      <c r="E57" s="18" t="s">
+        <v>7</v>
+      </c>
+      <c r="F57" s="18"/>
+      <c r="G57" s="18" t="s">
+        <v>70</v>
+      </c>
+      <c r="H57" s="22">
+        <v>44444</v>
+      </c>
+    </row>
+    <row r="58" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A58" s="19"/>
+      <c r="B58" s="19"/>
+      <c r="C58" s="19"/>
+      <c r="D58" s="19"/>
+      <c r="E58" s="19" t="s">
+        <v>8</v>
+      </c>
+      <c r="F58" s="19"/>
+      <c r="G58" s="19">
+        <v>81252283477</v>
+      </c>
+      <c r="H58" s="23"/>
+    </row>
+    <row r="59" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A59" s="20"/>
+      <c r="B59" s="20"/>
+      <c r="C59" s="20"/>
+      <c r="D59" s="20"/>
+      <c r="E59" s="20"/>
+      <c r="F59" s="20"/>
+      <c r="G59" s="20"/>
+      <c r="H59" s="24"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="landscape" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+  <sheetPr codeName="Sheet3"/>
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>

--- a/RENCANA BON VOYAGE.xlsx
+++ b/RENCANA BON VOYAGE.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Mapan\progress\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7E43DD6B-AAF7-4B95-A23F-552836F842FE}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A46122C3-7CC9-403E-BB02-2B4128277980}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="366" uniqueCount="79">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="367" uniqueCount="80">
   <si>
     <t>NO</t>
   </si>
@@ -260,6 +260,9 @@
   </si>
   <si>
     <t>KURANG EPOLET 2</t>
+  </si>
+  <si>
+    <t>(67</t>
   </si>
 </sst>
 </file>
@@ -2760,10 +2763,10 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A1:O59"/>
+  <dimension ref="A1:L59"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G12" sqref="G12"/>
+    <sheetView tabSelected="1" topLeftCell="A32" workbookViewId="0">
+      <selection activeCell="O1" sqref="O1:O1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -2776,12 +2779,10 @@
     <col min="6" max="6" width="18.42578125" style="12" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="27.5703125" style="12" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="20" style="25" bestFit="1" customWidth="1"/>
-    <col min="9" max="14" width="9.140625" style="12"/>
-    <col min="15" max="15" width="2.140625" style="12" bestFit="1" customWidth="1"/>
-    <col min="16" max="16384" width="9.140625" style="12"/>
+    <col min="9" max="16384" width="9.140625" style="12"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" ht="18" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" ht="18" x14ac:dyDescent="0.25">
       <c r="A1" s="10" t="s">
         <v>0</v>
       </c>
@@ -2807,7 +2808,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A2" s="18">
         <v>1</v>
       </c>
@@ -2833,7 +2834,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A3" s="19"/>
       <c r="B3" s="19"/>
       <c r="C3" s="19"/>
@@ -2849,7 +2850,7 @@
       </c>
       <c r="H3" s="23"/>
     </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A4" s="20"/>
       <c r="B4" s="20"/>
       <c r="C4" s="20"/>
@@ -2859,7 +2860,7 @@
       <c r="G4" s="20"/>
       <c r="H4" s="24"/>
     </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A5" s="18">
         <v>2</v>
       </c>
@@ -2885,7 +2886,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A6" s="19"/>
       <c r="B6" s="19"/>
       <c r="C6" s="19"/>
@@ -2901,7 +2902,7 @@
       </c>
       <c r="H6" s="23"/>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A7" s="20"/>
       <c r="B7" s="20"/>
       <c r="C7" s="20"/>
@@ -2911,7 +2912,7 @@
       <c r="G7" s="20"/>
       <c r="H7" s="24"/>
     </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A8" s="18">
         <v>3</v>
       </c>
@@ -2935,7 +2936,7 @@
         <v>44444</v>
       </c>
     </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A9" s="19"/>
       <c r="B9" s="19"/>
       <c r="C9" s="19"/>
@@ -2948,11 +2949,8 @@
         <v>81228196787</v>
       </c>
       <c r="H9" s="23"/>
-      <c r="O9" s="12">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.2">
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A10" s="20"/>
       <c r="B10" s="20"/>
       <c r="C10" s="20"/>
@@ -2962,7 +2960,7 @@
       <c r="G10" s="20"/>
       <c r="H10" s="24"/>
     </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A11" s="18">
         <v>4</v>
       </c>
@@ -2986,7 +2984,7 @@
         <v>44444</v>
       </c>
     </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A12" s="19"/>
       <c r="B12" s="19"/>
       <c r="C12" s="19"/>
@@ -2995,12 +2993,12 @@
         <v>8</v>
       </c>
       <c r="F12" s="19"/>
-      <c r="G12" s="19">
-        <v>81225736355</v>
+      <c r="G12" s="19" t="s">
+        <v>79</v>
       </c>
       <c r="H12" s="23"/>
     </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A13" s="20"/>
       <c r="B13" s="20"/>
       <c r="C13" s="20"/>
@@ -3010,7 +3008,7 @@
       <c r="G13" s="20"/>
       <c r="H13" s="24"/>
     </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A14" s="18">
         <v>5</v>
       </c>
@@ -3034,7 +3032,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A15" s="19"/>
       <c r="B15" s="19"/>
       <c r="C15" s="19"/>
@@ -3048,7 +3046,7 @@
       </c>
       <c r="H15" s="23"/>
     </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A16" s="20"/>
       <c r="B16" s="20"/>
       <c r="C16" s="20"/>

--- a/RENCANA BON VOYAGE.xlsx
+++ b/RENCANA BON VOYAGE.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Mapan\progress\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A46122C3-7CC9-403E-BB02-2B4128277980}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{63720A9F-8EB7-43F0-82A5-81A40899189B}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="367" uniqueCount="80">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="369" uniqueCount="82">
   <si>
     <t>NO</t>
   </si>
@@ -263,6 +263,12 @@
   </si>
   <si>
     <t>(67</t>
+  </si>
+  <si>
+    <t>sedang dikerjakan</t>
+  </si>
+  <si>
+    <t>terkirim / finish</t>
   </si>
 </sst>
 </file>
@@ -302,7 +308,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -312,6 +318,18 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00B050"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -380,7 +398,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="37">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -445,6 +463,35 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="164" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="15" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="15" fontId="0" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -787,7 +834,7 @@
   <dimension ref="A1:O63"/>
   <sheetViews>
     <sheetView view="pageBreakPreview" zoomScale="60" zoomScaleNormal="100" workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+      <selection activeCell="A44" sqref="A44:XFD44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1825,10 +1872,10 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{46B50E08-67CE-4FF1-9C36-3669A5F769D9}">
   <sheetPr codeName="Sheet4"/>
-  <dimension ref="A1:K64"/>
+  <dimension ref="A1:M64"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G28" sqref="G28"/>
+    <sheetView tabSelected="1" topLeftCell="A42" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="Q61" sqref="Q61"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1846,7 +1893,7 @@
     <col min="15" max="16384" width="9.140625" style="12"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="18" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:13" ht="18" x14ac:dyDescent="0.25">
       <c r="A1" s="10" t="s">
         <v>0</v>
       </c>
@@ -1878,42 +1925,42 @@
         <v>77</v>
       </c>
     </row>
-    <row r="2" spans="1:10" ht="15" x14ac:dyDescent="0.25">
-      <c r="A2" s="18">
+    <row r="2" spans="1:13" ht="15" x14ac:dyDescent="0.25">
+      <c r="A2" s="26">
         <v>1</v>
       </c>
-      <c r="B2" s="18" t="s">
+      <c r="B2" s="26" t="s">
         <v>6</v>
       </c>
-      <c r="C2" s="18">
-        <v>8</v>
-      </c>
-      <c r="D2" s="18" t="s">
+      <c r="C2" s="26">
+        <v>8</v>
+      </c>
+      <c r="D2" s="26" t="s">
         <v>9</v>
       </c>
-      <c r="E2" s="18" t="s">
-        <v>7</v>
-      </c>
-      <c r="F2" s="18"/>
-      <c r="G2" s="3" t="s">
+      <c r="E2" s="26" t="s">
+        <v>7</v>
+      </c>
+      <c r="F2" s="26"/>
+      <c r="G2" s="27" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="3" spans="1:10" ht="15" x14ac:dyDescent="0.25">
-      <c r="A3" s="19"/>
-      <c r="B3" s="19"/>
-      <c r="C3" s="19"/>
-      <c r="D3" s="19"/>
-      <c r="E3" s="19" t="s">
-        <v>8</v>
-      </c>
-      <c r="F3" s="19"/>
-      <c r="G3" s="3"/>
+    <row r="3" spans="1:13" ht="15" x14ac:dyDescent="0.25">
+      <c r="A3" s="28"/>
+      <c r="B3" s="28"/>
+      <c r="C3" s="28"/>
+      <c r="D3" s="28"/>
+      <c r="E3" s="28" t="s">
+        <v>8</v>
+      </c>
+      <c r="F3" s="28"/>
+      <c r="G3" s="27"/>
       <c r="H3" s="12" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="4" spans="1:10" ht="15" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:13" ht="15" x14ac:dyDescent="0.25">
       <c r="A4" s="19"/>
       <c r="B4" s="19"/>
       <c r="C4" s="19"/>
@@ -1922,42 +1969,48 @@
       <c r="F4" s="19"/>
       <c r="G4" s="3"/>
     </row>
-    <row r="5" spans="1:10" ht="15" x14ac:dyDescent="0.25">
-      <c r="A5" s="18">
+    <row r="5" spans="1:13" ht="15" x14ac:dyDescent="0.25">
+      <c r="A5" s="26">
         <v>2</v>
       </c>
-      <c r="B5" s="18" t="s">
+      <c r="B5" s="26" t="s">
         <v>15</v>
       </c>
-      <c r="C5" s="18">
-        <v>8</v>
-      </c>
-      <c r="D5" s="18" t="s">
+      <c r="C5" s="26">
+        <v>8</v>
+      </c>
+      <c r="D5" s="26" t="s">
         <v>16</v>
       </c>
-      <c r="E5" s="18" t="s">
-        <v>7</v>
-      </c>
-      <c r="F5" s="18"/>
-      <c r="G5" s="3" t="s">
+      <c r="E5" s="26" t="s">
+        <v>7</v>
+      </c>
+      <c r="F5" s="26"/>
+      <c r="G5" s="27" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="6" spans="1:10" ht="15" x14ac:dyDescent="0.25">
-      <c r="A6" s="19"/>
-      <c r="B6" s="19"/>
-      <c r="C6" s="19"/>
-      <c r="D6" s="19"/>
-      <c r="E6" s="19" t="s">
-        <v>8</v>
-      </c>
-      <c r="F6" s="19"/>
-      <c r="G6" s="3"/>
+      <c r="M5" s="30" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" ht="15" x14ac:dyDescent="0.25">
+      <c r="A6" s="28"/>
+      <c r="B6" s="28"/>
+      <c r="C6" s="28"/>
+      <c r="D6" s="28"/>
+      <c r="E6" s="28" t="s">
+        <v>8</v>
+      </c>
+      <c r="F6" s="28"/>
+      <c r="G6" s="27"/>
       <c r="H6" s="12" t="s">
         <v>76</v>
       </c>
-    </row>
-    <row r="7" spans="1:10" ht="15" x14ac:dyDescent="0.25">
+      <c r="M6" s="34" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" ht="15" x14ac:dyDescent="0.25">
       <c r="A7" s="20"/>
       <c r="B7" s="20"/>
       <c r="C7" s="20"/>
@@ -1966,31 +2019,31 @@
       <c r="F7" s="20"/>
       <c r="G7" s="3"/>
     </row>
-    <row r="8" spans="1:10" ht="15" x14ac:dyDescent="0.25">
-      <c r="A8" s="18">
+    <row r="8" spans="1:13" ht="15" x14ac:dyDescent="0.25">
+      <c r="A8" s="26">
         <v>3</v>
       </c>
-      <c r="B8" s="18" t="s">
+      <c r="B8" s="26" t="s">
         <v>6</v>
       </c>
-      <c r="C8" s="18">
+      <c r="C8" s="26">
         <v>9</v>
       </c>
-      <c r="D8" s="18" t="s">
+      <c r="D8" s="26" t="s">
         <v>51</v>
       </c>
-      <c r="E8" s="18" t="s">
-        <v>7</v>
-      </c>
-      <c r="F8" s="18"/>
-      <c r="G8" s="5">
+      <c r="E8" s="26" t="s">
+        <v>7</v>
+      </c>
+      <c r="F8" s="26"/>
+      <c r="G8" s="31">
         <v>44444</v>
       </c>
       <c r="J8" s="12" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="9" spans="1:10" ht="15" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:13" ht="15" x14ac:dyDescent="0.25">
       <c r="A9" s="19"/>
       <c r="B9" s="19"/>
       <c r="C9" s="19"/>
@@ -2001,7 +2054,7 @@
       <c r="F9" s="19"/>
       <c r="G9" s="3"/>
     </row>
-    <row r="10" spans="1:10" ht="15" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:13" ht="15" x14ac:dyDescent="0.25">
       <c r="A10" s="20"/>
       <c r="B10" s="20"/>
       <c r="C10" s="20"/>
@@ -2010,31 +2063,31 @@
       <c r="F10" s="20"/>
       <c r="G10" s="3"/>
     </row>
-    <row r="11" spans="1:10" ht="15" x14ac:dyDescent="0.25">
-      <c r="A11" s="18">
+    <row r="11" spans="1:13" ht="15" x14ac:dyDescent="0.25">
+      <c r="A11" s="26">
         <v>4</v>
       </c>
-      <c r="B11" s="18" t="s">
+      <c r="B11" s="26" t="s">
         <v>15</v>
       </c>
-      <c r="C11" s="18">
+      <c r="C11" s="26">
         <v>9</v>
       </c>
-      <c r="D11" s="18" t="s">
+      <c r="D11" s="26" t="s">
         <v>53</v>
       </c>
-      <c r="E11" s="18" t="s">
-        <v>7</v>
-      </c>
-      <c r="F11" s="18"/>
-      <c r="G11" s="5">
+      <c r="E11" s="26" t="s">
+        <v>7</v>
+      </c>
+      <c r="F11" s="26"/>
+      <c r="G11" s="31">
         <v>44444</v>
       </c>
       <c r="J11" s="12" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="12" spans="1:10" ht="15" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:13" ht="15" x14ac:dyDescent="0.25">
       <c r="A12" s="19"/>
       <c r="B12" s="19"/>
       <c r="C12" s="19"/>
@@ -2045,7 +2098,7 @@
       <c r="F12" s="19"/>
       <c r="G12" s="3"/>
     </row>
-    <row r="13" spans="1:10" ht="15" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:13" ht="15" x14ac:dyDescent="0.25">
       <c r="A13" s="20"/>
       <c r="B13" s="20"/>
       <c r="C13" s="20"/>
@@ -2054,69 +2107,69 @@
       <c r="F13" s="20"/>
       <c r="G13" s="3"/>
     </row>
-    <row r="14" spans="1:10" ht="15" x14ac:dyDescent="0.25">
-      <c r="A14" s="18">
+    <row r="14" spans="1:13" ht="15" x14ac:dyDescent="0.25">
+      <c r="A14" s="26">
         <v>5</v>
       </c>
-      <c r="B14" s="18" t="s">
+      <c r="B14" s="26" t="s">
         <v>20</v>
       </c>
-      <c r="C14" s="18">
+      <c r="C14" s="26">
         <v>15</v>
       </c>
-      <c r="D14" s="18" t="s">
+      <c r="D14" s="26" t="s">
         <v>55</v>
       </c>
-      <c r="E14" s="18" t="s">
-        <v>7</v>
-      </c>
-      <c r="F14" s="18" t="s">
+      <c r="E14" s="26" t="s">
+        <v>7</v>
+      </c>
+      <c r="F14" s="26" t="s">
         <v>73</v>
       </c>
-      <c r="G14" s="3" t="s">
+      <c r="G14" s="27" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="15" spans="1:10" ht="15" x14ac:dyDescent="0.25">
-      <c r="A15" s="19"/>
-      <c r="B15" s="19"/>
-      <c r="C15" s="19"/>
-      <c r="D15" s="19"/>
-      <c r="E15" s="19" t="s">
-        <v>8</v>
-      </c>
-      <c r="F15" s="19"/>
-      <c r="G15" s="3"/>
-    </row>
-    <row r="16" spans="1:10" ht="15" x14ac:dyDescent="0.25">
-      <c r="A16" s="20"/>
-      <c r="B16" s="20"/>
-      <c r="C16" s="20"/>
-      <c r="D16" s="20"/>
-      <c r="E16" s="20"/>
-      <c r="F16" s="20"/>
-      <c r="G16" s="3"/>
+    <row r="15" spans="1:13" ht="15" x14ac:dyDescent="0.25">
+      <c r="A15" s="28"/>
+      <c r="B15" s="28"/>
+      <c r="C15" s="28"/>
+      <c r="D15" s="28"/>
+      <c r="E15" s="28" t="s">
+        <v>8</v>
+      </c>
+      <c r="F15" s="28"/>
+      <c r="G15" s="27"/>
+    </row>
+    <row r="16" spans="1:13" ht="15" x14ac:dyDescent="0.25">
+      <c r="A16" s="29"/>
+      <c r="B16" s="29"/>
+      <c r="C16" s="29"/>
+      <c r="D16" s="29"/>
+      <c r="E16" s="29"/>
+      <c r="F16" s="29"/>
+      <c r="G16" s="27"/>
     </row>
     <row r="17" spans="1:10" ht="15" x14ac:dyDescent="0.25">
-      <c r="A17" s="18">
+      <c r="A17" s="26">
         <v>6</v>
       </c>
-      <c r="B17" s="18" t="s">
+      <c r="B17" s="26" t="s">
         <v>22</v>
       </c>
-      <c r="C17" s="18">
+      <c r="C17" s="26">
         <v>15</v>
       </c>
-      <c r="D17" s="18" t="s">
+      <c r="D17" s="26" t="s">
         <v>23</v>
       </c>
-      <c r="E17" s="18" t="s">
-        <v>7</v>
-      </c>
-      <c r="F17" s="18" t="s">
+      <c r="E17" s="26" t="s">
+        <v>7</v>
+      </c>
+      <c r="F17" s="26" t="s">
         <v>73</v>
       </c>
-      <c r="G17" s="3" t="s">
+      <c r="G17" s="27" t="s">
         <v>57</v>
       </c>
       <c r="J17" s="12" t="s">
@@ -2124,15 +2177,15 @@
       </c>
     </row>
     <row r="18" spans="1:10" ht="15" x14ac:dyDescent="0.25">
-      <c r="A18" s="19"/>
-      <c r="B18" s="19"/>
-      <c r="C18" s="19"/>
-      <c r="D18" s="19"/>
-      <c r="E18" s="19" t="s">
-        <v>8</v>
-      </c>
-      <c r="F18" s="19"/>
-      <c r="G18" s="3"/>
+      <c r="A18" s="28"/>
+      <c r="B18" s="28"/>
+      <c r="C18" s="28"/>
+      <c r="D18" s="28"/>
+      <c r="E18" s="28" t="s">
+        <v>8</v>
+      </c>
+      <c r="F18" s="28"/>
+      <c r="G18" s="27"/>
     </row>
     <row r="19" spans="1:10" ht="15" x14ac:dyDescent="0.25">
       <c r="A19" s="20"/>
@@ -2144,23 +2197,23 @@
       <c r="G19" s="3"/>
     </row>
     <row r="20" spans="1:10" ht="15" x14ac:dyDescent="0.25">
-      <c r="A20" s="18">
-        <v>7</v>
-      </c>
-      <c r="B20" s="18" t="s">
+      <c r="A20" s="26">
+        <v>7</v>
+      </c>
+      <c r="B20" s="26" t="s">
         <v>20</v>
       </c>
-      <c r="C20" s="18">
+      <c r="C20" s="26">
         <v>16</v>
       </c>
-      <c r="D20" s="18" t="s">
+      <c r="D20" s="26" t="s">
         <v>59</v>
       </c>
-      <c r="E20" s="18" t="s">
-        <v>7</v>
-      </c>
-      <c r="F20" s="18"/>
-      <c r="G20" s="5">
+      <c r="E20" s="26" t="s">
+        <v>7</v>
+      </c>
+      <c r="F20" s="26"/>
+      <c r="G20" s="31">
         <v>44520</v>
       </c>
     </row>
@@ -2185,23 +2238,23 @@
       <c r="G22" s="5"/>
     </row>
     <row r="23" spans="1:10" ht="15" x14ac:dyDescent="0.25">
-      <c r="A23" s="18">
-        <v>8</v>
-      </c>
-      <c r="B23" s="18" t="s">
+      <c r="A23" s="26">
+        <v>8</v>
+      </c>
+      <c r="B23" s="26" t="s">
         <v>22</v>
       </c>
-      <c r="C23" s="18">
+      <c r="C23" s="26">
         <v>16</v>
       </c>
-      <c r="D23" s="18" t="s">
+      <c r="D23" s="26" t="s">
         <v>61</v>
       </c>
-      <c r="E23" s="18" t="s">
-        <v>7</v>
-      </c>
-      <c r="F23" s="18"/>
-      <c r="G23" s="5">
+      <c r="E23" s="26" t="s">
+        <v>7</v>
+      </c>
+      <c r="F23" s="26"/>
+      <c r="G23" s="31">
         <v>44520</v>
       </c>
     </row>
@@ -2226,25 +2279,25 @@
       <c r="G25" s="5"/>
     </row>
     <row r="26" spans="1:10" ht="15" x14ac:dyDescent="0.25">
-      <c r="A26" s="18">
+      <c r="A26" s="32">
         <v>9</v>
       </c>
-      <c r="B26" s="18" t="s">
+      <c r="B26" s="32" t="s">
         <v>26</v>
       </c>
-      <c r="C26" s="18">
+      <c r="C26" s="32">
         <v>29</v>
       </c>
-      <c r="D26" s="18" t="s">
+      <c r="D26" s="32" t="s">
         <v>27</v>
       </c>
-      <c r="E26" s="18" t="s">
-        <v>8</v>
-      </c>
-      <c r="F26" s="18" t="s">
+      <c r="E26" s="32" t="s">
+        <v>8</v>
+      </c>
+      <c r="F26" s="32" t="s">
         <v>73</v>
       </c>
-      <c r="G26" s="3" t="s">
+      <c r="G26" s="33" t="s">
         <v>28</v>
       </c>
     </row>
@@ -2296,23 +2349,23 @@
       <c r="G30" s="3"/>
     </row>
     <row r="31" spans="1:10" ht="15" x14ac:dyDescent="0.25">
-      <c r="A31" s="20">
+      <c r="A31" s="29">
         <v>11</v>
       </c>
-      <c r="B31" s="20" t="s">
+      <c r="B31" s="29" t="s">
         <v>26</v>
       </c>
-      <c r="C31" s="20">
+      <c r="C31" s="29">
         <v>31</v>
       </c>
-      <c r="D31" s="20" t="s">
+      <c r="D31" s="29" t="s">
         <v>53</v>
       </c>
-      <c r="E31" s="20" t="s">
-        <v>7</v>
-      </c>
-      <c r="F31" s="20"/>
-      <c r="G31" s="5">
+      <c r="E31" s="29" t="s">
+        <v>7</v>
+      </c>
+      <c r="F31" s="29"/>
+      <c r="G31" s="31">
         <v>44501</v>
       </c>
     </row>
@@ -2337,23 +2390,23 @@
       <c r="G33" s="3"/>
     </row>
     <row r="34" spans="1:7" ht="15" x14ac:dyDescent="0.25">
-      <c r="A34" s="20">
+      <c r="A34" s="29">
         <v>12</v>
       </c>
-      <c r="B34" s="20" t="s">
+      <c r="B34" s="29" t="s">
         <v>24</v>
       </c>
-      <c r="C34" s="20">
+      <c r="C34" s="29">
         <v>24</v>
       </c>
-      <c r="D34" s="20" t="s">
+      <c r="D34" s="29" t="s">
         <v>30</v>
       </c>
-      <c r="E34" s="20" t="s">
-        <v>8</v>
-      </c>
-      <c r="F34" s="20"/>
-      <c r="G34" s="3" t="s">
+      <c r="E34" s="29" t="s">
+        <v>8</v>
+      </c>
+      <c r="F34" s="29"/>
+      <c r="G34" s="27" t="s">
         <v>33</v>
       </c>
     </row>
@@ -2367,25 +2420,25 @@
       <c r="G35" s="3"/>
     </row>
     <row r="36" spans="1:7" ht="15" x14ac:dyDescent="0.25">
-      <c r="A36" s="19">
+      <c r="A36" s="28">
         <v>13</v>
       </c>
-      <c r="B36" s="19" t="s">
+      <c r="B36" s="28" t="s">
         <v>24</v>
       </c>
-      <c r="C36" s="19">
+      <c r="C36" s="28">
         <v>25</v>
       </c>
-      <c r="D36" s="19" t="s">
+      <c r="D36" s="28" t="s">
         <v>48</v>
       </c>
-      <c r="E36" s="19" t="s">
-        <v>7</v>
-      </c>
-      <c r="F36" s="19" t="s">
+      <c r="E36" s="28" t="s">
+        <v>7</v>
+      </c>
+      <c r="F36" s="28" t="s">
         <v>73</v>
       </c>
-      <c r="G36" s="5">
+      <c r="G36" s="31">
         <v>44501</v>
       </c>
     </row>
@@ -2410,36 +2463,36 @@
       <c r="G38" s="3"/>
     </row>
     <row r="39" spans="1:7" ht="15" x14ac:dyDescent="0.25">
-      <c r="A39" s="19">
+      <c r="A39" s="35">
         <v>14</v>
       </c>
-      <c r="B39" s="19" t="s">
+      <c r="B39" s="35" t="s">
         <v>36</v>
       </c>
-      <c r="C39" s="19">
+      <c r="C39" s="35">
         <v>31</v>
       </c>
-      <c r="D39" s="19" t="s">
+      <c r="D39" s="35" t="s">
         <v>49</v>
       </c>
-      <c r="E39" s="19" t="s">
-        <v>7</v>
-      </c>
-      <c r="F39" s="19" t="s">
+      <c r="E39" s="35" t="s">
+        <v>7</v>
+      </c>
+      <c r="F39" s="35" t="s">
         <v>73</v>
       </c>
-      <c r="G39" s="3"/>
+      <c r="G39" s="33"/>
     </row>
     <row r="40" spans="1:7" ht="15" x14ac:dyDescent="0.25">
-      <c r="A40" s="20"/>
-      <c r="B40" s="20"/>
-      <c r="C40" s="20"/>
-      <c r="D40" s="20"/>
-      <c r="E40" s="20" t="s">
-        <v>8</v>
-      </c>
-      <c r="F40" s="20"/>
-      <c r="G40" s="3" t="s">
+      <c r="A40" s="29"/>
+      <c r="B40" s="29"/>
+      <c r="C40" s="29"/>
+      <c r="D40" s="29"/>
+      <c r="E40" s="29" t="s">
+        <v>8</v>
+      </c>
+      <c r="F40" s="29"/>
+      <c r="G40" s="27" t="s">
         <v>37</v>
       </c>
     </row>
@@ -2453,23 +2506,23 @@
       <c r="G41" s="3"/>
     </row>
     <row r="42" spans="1:7" ht="15" x14ac:dyDescent="0.25">
-      <c r="A42" s="19">
+      <c r="A42" s="28">
         <v>15</v>
       </c>
-      <c r="B42" s="19" t="s">
+      <c r="B42" s="28" t="s">
         <v>36</v>
       </c>
-      <c r="C42" s="19">
+      <c r="C42" s="28">
         <v>32</v>
       </c>
-      <c r="D42" s="19" t="s">
+      <c r="D42" s="28" t="s">
         <v>25</v>
       </c>
-      <c r="E42" s="19" t="s">
-        <v>7</v>
-      </c>
-      <c r="F42" s="19"/>
-      <c r="G42" s="3" t="s">
+      <c r="E42" s="28" t="s">
+        <v>7</v>
+      </c>
+      <c r="F42" s="28"/>
+      <c r="G42" s="27" t="s">
         <v>66</v>
       </c>
     </row>
@@ -2494,23 +2547,23 @@
       <c r="G44" s="3"/>
     </row>
     <row r="45" spans="1:7" ht="15" x14ac:dyDescent="0.25">
-      <c r="A45" s="19">
+      <c r="A45" s="35">
         <v>16</v>
       </c>
-      <c r="B45" s="19" t="s">
+      <c r="B45" s="35" t="s">
         <v>38</v>
       </c>
-      <c r="C45" s="19">
+      <c r="C45" s="35">
         <v>27</v>
       </c>
-      <c r="D45" s="19" t="s">
+      <c r="D45" s="35" t="s">
         <v>67</v>
       </c>
-      <c r="E45" s="19" t="s">
-        <v>7</v>
-      </c>
-      <c r="F45" s="19"/>
-      <c r="G45" s="9">
+      <c r="E45" s="35" t="s">
+        <v>7</v>
+      </c>
+      <c r="F45" s="35"/>
+      <c r="G45" s="36">
         <v>44409</v>
       </c>
     </row>
@@ -2535,36 +2588,36 @@
       <c r="G47" s="3"/>
     </row>
     <row r="48" spans="1:7" ht="15" x14ac:dyDescent="0.25">
-      <c r="A48" s="19">
+      <c r="A48" s="35">
         <v>17</v>
       </c>
-      <c r="B48" s="19" t="s">
+      <c r="B48" s="35" t="s">
         <v>39</v>
       </c>
-      <c r="C48" s="19">
+      <c r="C48" s="35">
         <v>38</v>
       </c>
-      <c r="D48" s="19" t="s">
+      <c r="D48" s="35" t="s">
         <v>50</v>
       </c>
-      <c r="E48" s="19" t="s">
-        <v>7</v>
-      </c>
-      <c r="F48" s="19"/>
-      <c r="G48" s="3" t="s">
+      <c r="E48" s="35" t="s">
+        <v>7</v>
+      </c>
+      <c r="F48" s="35"/>
+      <c r="G48" s="33" t="s">
         <v>40</v>
       </c>
     </row>
     <row r="49" spans="1:11" ht="15" x14ac:dyDescent="0.25">
-      <c r="A49" s="20"/>
-      <c r="B49" s="20"/>
-      <c r="C49" s="20"/>
-      <c r="D49" s="20"/>
-      <c r="E49" s="20" t="s">
-        <v>8</v>
-      </c>
-      <c r="F49" s="20"/>
-      <c r="G49" s="3"/>
+      <c r="A49" s="29"/>
+      <c r="B49" s="29"/>
+      <c r="C49" s="29"/>
+      <c r="D49" s="29"/>
+      <c r="E49" s="29" t="s">
+        <v>8</v>
+      </c>
+      <c r="F49" s="29"/>
+      <c r="G49" s="27"/>
     </row>
     <row r="50" spans="1:11" ht="15" x14ac:dyDescent="0.25">
       <c r="A50" s="18"/>
@@ -2576,23 +2629,23 @@
       <c r="G50" s="2"/>
     </row>
     <row r="51" spans="1:11" ht="15" x14ac:dyDescent="0.25">
-      <c r="A51" s="19">
+      <c r="A51" s="35">
         <v>18</v>
       </c>
-      <c r="B51" s="19" t="s">
+      <c r="B51" s="35" t="s">
         <v>41</v>
       </c>
-      <c r="C51" s="19">
+      <c r="C51" s="35">
         <v>38</v>
       </c>
-      <c r="D51" s="19" t="s">
+      <c r="D51" s="35" t="s">
         <v>48</v>
       </c>
-      <c r="E51" s="19" t="s">
-        <v>7</v>
-      </c>
-      <c r="F51" s="19"/>
-      <c r="G51" s="3" t="s">
+      <c r="E51" s="35" t="s">
+        <v>7</v>
+      </c>
+      <c r="F51" s="35"/>
+      <c r="G51" s="33" t="s">
         <v>40</v>
       </c>
       <c r="H51" s="16"/>
@@ -2601,15 +2654,15 @@
       <c r="K51" s="17"/>
     </row>
     <row r="52" spans="1:11" ht="15" x14ac:dyDescent="0.25">
-      <c r="A52" s="20"/>
-      <c r="B52" s="20"/>
-      <c r="C52" s="20"/>
-      <c r="D52" s="20"/>
-      <c r="E52" s="20" t="s">
-        <v>8</v>
-      </c>
-      <c r="F52" s="20"/>
-      <c r="G52" s="3"/>
+      <c r="A52" s="29"/>
+      <c r="B52" s="29"/>
+      <c r="C52" s="29"/>
+      <c r="D52" s="29"/>
+      <c r="E52" s="29" t="s">
+        <v>8</v>
+      </c>
+      <c r="F52" s="29"/>
+      <c r="G52" s="27"/>
     </row>
     <row r="53" spans="1:11" ht="15" x14ac:dyDescent="0.25">
       <c r="A53" s="18"/>
@@ -2621,25 +2674,25 @@
       <c r="G53" s="3"/>
     </row>
     <row r="54" spans="1:11" ht="15" x14ac:dyDescent="0.25">
-      <c r="A54" s="19">
+      <c r="A54" s="28">
         <v>19</v>
       </c>
-      <c r="B54" s="19" t="s">
+      <c r="B54" s="28" t="s">
         <v>39</v>
       </c>
-      <c r="C54" s="19">
+      <c r="C54" s="28">
         <v>39</v>
       </c>
-      <c r="D54" s="19" t="s">
+      <c r="D54" s="28" t="s">
         <v>25</v>
       </c>
-      <c r="E54" s="19" t="s">
-        <v>7</v>
-      </c>
-      <c r="F54" s="19" t="s">
+      <c r="E54" s="28" t="s">
+        <v>7</v>
+      </c>
+      <c r="F54" s="28" t="s">
         <v>78</v>
       </c>
-      <c r="G54" s="5">
+      <c r="G54" s="31">
         <v>44444</v>
       </c>
     </row>
@@ -2664,25 +2717,25 @@
       <c r="G56" s="3"/>
     </row>
     <row r="57" spans="1:11" ht="15" x14ac:dyDescent="0.25">
-      <c r="A57" s="19">
+      <c r="A57" s="28">
         <v>20</v>
       </c>
-      <c r="B57" s="19" t="s">
+      <c r="B57" s="28" t="s">
         <v>41</v>
       </c>
-      <c r="C57" s="19">
+      <c r="C57" s="28">
         <v>39</v>
       </c>
-      <c r="D57" s="19" t="s">
+      <c r="D57" s="28" t="s">
         <v>69</v>
       </c>
-      <c r="E57" s="19" t="s">
-        <v>7</v>
-      </c>
-      <c r="F57" s="19" t="s">
+      <c r="E57" s="28" t="s">
+        <v>7</v>
+      </c>
+      <c r="F57" s="28" t="s">
         <v>78</v>
       </c>
-      <c r="G57" s="5">
+      <c r="G57" s="31">
         <v>44444</v>
       </c>
     </row>
@@ -2765,7 +2818,7 @@
   <sheetPr codeName="Sheet2"/>
   <dimension ref="A1:L59"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A32" workbookViewId="0">
+    <sheetView topLeftCell="A10" workbookViewId="0">
       <selection activeCell="O1" sqref="O1:O1048576"/>
     </sheetView>
   </sheetViews>

--- a/RENCANA BON VOYAGE.xlsx
+++ b/RENCANA BON VOYAGE.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Mapan\progress\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C2A54BD8-941D-4E47-A541-5DAB54A018A4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{24B2A932-A6D1-4053-B3A1-743535C8B079}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -909,7 +909,7 @@
   <dimension ref="A1:O64"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="D54" sqref="D54"/>
+      <selection activeCell="E36" sqref="E36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1601,16 +1601,16 @@
       <c r="H38" s="8"/>
     </row>
     <row r="39" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A39" s="37">
+      <c r="A39" s="35">
         <v>14</v>
       </c>
-      <c r="B39" s="37" t="s">
+      <c r="B39" s="35" t="s">
         <v>36</v>
       </c>
-      <c r="C39" s="37">
+      <c r="C39" s="35">
         <v>31</v>
       </c>
-      <c r="D39" s="37" t="s">
+      <c r="D39" s="35" t="s">
         <v>49</v>
       </c>
       <c r="E39" s="35" t="s">
@@ -1629,10 +1629,10 @@
       <c r="B40" s="37"/>
       <c r="C40" s="37"/>
       <c r="D40" s="37"/>
-      <c r="E40" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="F40" s="8" t="s">
+      <c r="E40" s="35" t="s">
+        <v>8</v>
+      </c>
+      <c r="F40" s="35" t="s">
         <v>88</v>
       </c>
       <c r="G40" s="8" t="s">

--- a/RENCANA BON VOYAGE.xlsx
+++ b/RENCANA BON VOYAGE.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Mapan\progress\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{24B2A932-A6D1-4053-B3A1-743535C8B079}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{32DA8086-1D20-466E-9FAA-2E6678231C3B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="16080" windowWidth="29040" windowHeight="7965" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -18,12 +18,15 @@
     <sheet name="Sheet2" sheetId="2" r:id="rId3"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId4"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$I$61</definedName>
+  </definedNames>
   <calcPr calcId="191029"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="399" uniqueCount="108">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="417" uniqueCount="111">
   <si>
     <t>NO</t>
   </si>
@@ -347,6 +350,15 @@
   </si>
   <si>
     <t>/08123929482</t>
+  </si>
+  <si>
+    <t>terbayar</t>
+  </si>
+  <si>
+    <t>24 juni</t>
+  </si>
+  <si>
+    <t>dana masuk</t>
   </si>
 </sst>
 </file>
@@ -906,10 +918,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:O64"/>
+  <dimension ref="A1:O79"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="E36" sqref="E36"/>
+    <sheetView tabSelected="1" topLeftCell="A22" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="E80" sqref="E80"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -952,6 +964,9 @@
       <c r="H1" s="6" t="s">
         <v>10</v>
       </c>
+      <c r="I1" s="7" t="s">
+        <v>108</v>
+      </c>
     </row>
     <row r="2" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A2" s="35">
@@ -977,6 +992,9 @@
       </c>
       <c r="H2" s="8" t="s">
         <v>14</v>
+      </c>
+      <c r="I2" s="7" t="s">
+        <v>109</v>
       </c>
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.2">
@@ -1030,6 +1048,9 @@
       <c r="H5" s="8" t="s">
         <v>14</v>
       </c>
+      <c r="I5" s="7" t="s">
+        <v>109</v>
+      </c>
     </row>
     <row r="6" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A6" s="8"/>
@@ -1189,6 +1210,9 @@
       <c r="H14" s="8" t="s">
         <v>57</v>
       </c>
+      <c r="I14" s="7" t="s">
+        <v>109</v>
+      </c>
     </row>
     <row r="15" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A15" s="8"/>
@@ -1216,7 +1240,7 @@
       <c r="G16" s="8"/>
       <c r="H16" s="8"/>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A17" s="8">
         <v>6</v>
       </c>
@@ -1241,8 +1265,11 @@
       <c r="H17" s="8" t="s">
         <v>57</v>
       </c>
-    </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I17" s="7" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A18" s="8"/>
       <c r="B18" s="8"/>
       <c r="C18" s="8"/>
@@ -1258,7 +1285,7 @@
       </c>
       <c r="H18" s="8"/>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A19" s="8"/>
       <c r="B19" s="8"/>
       <c r="C19" s="8"/>
@@ -1268,7 +1295,7 @@
       <c r="G19" s="8"/>
       <c r="H19" s="8"/>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A20" s="8">
         <v>7</v>
       </c>
@@ -1294,7 +1321,7 @@
         <v>44520</v>
       </c>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A21" s="8"/>
       <c r="B21" s="8"/>
       <c r="C21" s="8"/>
@@ -1310,7 +1337,7 @@
       </c>
       <c r="H21" s="9"/>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A22" s="8"/>
       <c r="B22" s="8"/>
       <c r="C22" s="8"/>
@@ -1320,7 +1347,7 @@
       <c r="G22" s="8"/>
       <c r="H22" s="9"/>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A23" s="8">
         <v>8</v>
       </c>
@@ -1346,7 +1373,7 @@
         <v>44520</v>
       </c>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A24" s="8"/>
       <c r="B24" s="8"/>
       <c r="C24" s="8"/>
@@ -1362,7 +1389,7 @@
       </c>
       <c r="H24" s="9"/>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A25" s="8"/>
       <c r="B25" s="8"/>
       <c r="C25" s="8"/>
@@ -1372,7 +1399,7 @@
       <c r="G25" s="8"/>
       <c r="H25" s="9"/>
     </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A26" s="35">
         <v>9</v>
       </c>
@@ -1397,8 +1424,11 @@
       <c r="H26" s="8" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I26" s="7" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A27" s="8"/>
       <c r="B27" s="8"/>
       <c r="C27" s="8"/>
@@ -1408,7 +1438,7 @@
       <c r="G27" s="8"/>
       <c r="H27" s="9"/>
     </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A28" s="37">
         <v>10</v>
       </c>
@@ -1432,7 +1462,7 @@
       </c>
       <c r="H28" s="8"/>
     </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A29" s="37"/>
       <c r="B29" s="37"/>
       <c r="C29" s="37"/>
@@ -1450,7 +1480,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A30" s="37"/>
       <c r="B30" s="37"/>
       <c r="C30" s="37"/>
@@ -1460,7 +1490,7 @@
       <c r="G30" s="8"/>
       <c r="H30" s="8"/>
     </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A31" s="37">
         <v>11</v>
       </c>
@@ -1486,7 +1516,7 @@
         <v>44501</v>
       </c>
     </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A32" s="37"/>
       <c r="B32" s="37"/>
       <c r="C32" s="37"/>
@@ -1502,7 +1532,7 @@
       </c>
       <c r="H32" s="8"/>
     </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A33" s="37"/>
       <c r="B33" s="37"/>
       <c r="C33" s="37"/>
@@ -1512,7 +1542,7 @@
       <c r="G33" s="8"/>
       <c r="H33" s="8"/>
     </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A34" s="37">
         <v>12</v>
       </c>
@@ -1537,8 +1567,11 @@
       <c r="H34" s="8" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I34" s="7" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A35" s="37"/>
       <c r="B35" s="37"/>
       <c r="C35" s="37"/>
@@ -1548,7 +1581,7 @@
       <c r="G35" s="8"/>
       <c r="H35" s="8"/>
     </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A36" s="37">
         <v>13</v>
       </c>
@@ -1573,8 +1606,11 @@
       <c r="H36" s="9">
         <v>44501</v>
       </c>
-    </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I36" s="7" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A37" s="37"/>
       <c r="B37" s="37"/>
       <c r="C37" s="37"/>
@@ -1590,7 +1626,7 @@
       </c>
       <c r="H37" s="8"/>
     </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A38" s="37"/>
       <c r="B38" s="37"/>
       <c r="C38" s="37"/>
@@ -1600,7 +1636,7 @@
       <c r="G38" s="8"/>
       <c r="H38" s="8"/>
     </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A39" s="35">
         <v>14</v>
       </c>
@@ -1623,8 +1659,11 @@
         <v>98</v>
       </c>
       <c r="H39" s="8"/>
-    </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I39" s="7" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A40" s="37"/>
       <c r="B40" s="37"/>
       <c r="C40" s="37"/>
@@ -1642,7 +1681,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A41" s="37"/>
       <c r="B41" s="37"/>
       <c r="C41" s="37"/>
@@ -1652,7 +1691,7 @@
       <c r="G41" s="8"/>
       <c r="H41" s="8"/>
     </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A42" s="37">
         <v>15</v>
       </c>
@@ -1678,7 +1717,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A43" s="37"/>
       <c r="B43" s="37"/>
       <c r="C43" s="37"/>
@@ -1694,7 +1733,7 @@
       </c>
       <c r="H43" s="8"/>
     </row>
-    <row r="44" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A44" s="37"/>
       <c r="B44" s="37"/>
       <c r="C44" s="37"/>
@@ -1704,7 +1743,7 @@
       <c r="G44" s="8"/>
       <c r="H44" s="8"/>
     </row>
-    <row r="45" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A45" s="37">
         <v>16</v>
       </c>
@@ -1730,7 +1769,7 @@
         <v>44409</v>
       </c>
     </row>
-    <row r="46" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A46" s="37"/>
       <c r="B46" s="37"/>
       <c r="C46" s="37"/>
@@ -1746,7 +1785,7 @@
       </c>
       <c r="H46" s="33"/>
     </row>
-    <row r="47" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A47" s="8"/>
       <c r="B47" s="8"/>
       <c r="C47" s="8"/>
@@ -1756,7 +1795,7 @@
       <c r="G47" s="8"/>
       <c r="H47" s="8"/>
     </row>
-    <row r="48" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A48" s="35">
         <v>17</v>
       </c>
@@ -2029,6 +2068,97 @@
       <c r="F64" s="10"/>
       <c r="G64" s="10"/>
       <c r="H64" s="10"/>
+    </row>
+    <row r="68" spans="4:5" x14ac:dyDescent="0.2">
+      <c r="D68" s="35" t="s">
+        <v>9</v>
+      </c>
+      <c r="E68" s="7">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="69" spans="4:5" x14ac:dyDescent="0.2">
+      <c r="D69" s="35" t="s">
+        <v>16</v>
+      </c>
+      <c r="E69" s="7">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="70" spans="4:5" x14ac:dyDescent="0.2">
+      <c r="D70" s="8" t="s">
+        <v>55</v>
+      </c>
+      <c r="E70" s="7">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="71" spans="4:5" x14ac:dyDescent="0.2">
+      <c r="D71" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="E71" s="7">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="72" spans="4:5" x14ac:dyDescent="0.2">
+      <c r="D72" s="35" t="s">
+        <v>27</v>
+      </c>
+      <c r="E72" s="7">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="73" spans="4:5" x14ac:dyDescent="0.2">
+      <c r="D73" s="37" t="s">
+        <v>30</v>
+      </c>
+      <c r="E73" s="7">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="74" spans="4:5" x14ac:dyDescent="0.2">
+      <c r="D74" s="37" t="s">
+        <v>48</v>
+      </c>
+      <c r="E74" s="7">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="75" spans="4:5" x14ac:dyDescent="0.2">
+      <c r="D75" s="35" t="s">
+        <v>49</v>
+      </c>
+      <c r="E75" s="7">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="76" spans="4:5" x14ac:dyDescent="0.2">
+      <c r="E76" s="7">
+        <f>SUM(E68:E75)</f>
+        <v>309</v>
+      </c>
+    </row>
+    <row r="77" spans="4:5" x14ac:dyDescent="0.2">
+      <c r="E77" s="7">
+        <f>E76*1460000</f>
+        <v>451140000</v>
+      </c>
+    </row>
+    <row r="78" spans="4:5" x14ac:dyDescent="0.2">
+      <c r="D78" s="7" t="s">
+        <v>110</v>
+      </c>
+      <c r="E78" s="7">
+        <f>735527814+25496237</f>
+        <v>761024051</v>
+      </c>
+    </row>
+    <row r="79" spans="4:5" x14ac:dyDescent="0.2">
+      <c r="E79" s="7">
+        <f>E78-E77</f>
+        <v>309884051</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.43" right="0.12" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/RENCANA BON VOYAGE.xlsx
+++ b/RENCANA BON VOYAGE.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Mapan\progress\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{32DA8086-1D20-466E-9FAA-2E6678231C3B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{110AE6C0-D709-448C-8B6B-00D5BFBFF567}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="16080" windowWidth="29040" windowHeight="7965" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="417" uniqueCount="111">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="419" uniqueCount="113">
   <si>
     <t>NO</t>
   </si>
@@ -359,6 +359,12 @@
   </si>
   <si>
     <t>dana masuk</t>
+  </si>
+  <si>
+    <t>MAULANA AINUL YAQIN</t>
+  </si>
+  <si>
+    <t>22 maret 22</t>
   </si>
 </sst>
 </file>
@@ -920,8 +926,8 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:O79"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="E80" sqref="E80"/>
+    <sheetView tabSelected="1" topLeftCell="A51" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="H61" sqref="H61"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -2024,8 +2030,12 @@
       <c r="F60" s="8" t="s">
         <v>86</v>
       </c>
-      <c r="G60" s="8"/>
-      <c r="H60" s="9"/>
+      <c r="G60" s="8" t="s">
+        <v>111</v>
+      </c>
+      <c r="H60" s="9" t="s">
+        <v>112</v>
+      </c>
     </row>
     <row r="61" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A61" s="8"/>
@@ -2036,7 +2046,9 @@
         <v>8</v>
       </c>
       <c r="F61" s="10"/>
-      <c r="G61" s="10"/>
+      <c r="G61" s="10">
+        <v>85732094240</v>
+      </c>
       <c r="H61" s="10"/>
     </row>
     <row r="62" spans="1:12" x14ac:dyDescent="0.2">

--- a/RENCANA BON VOYAGE.xlsx
+++ b/RENCANA BON VOYAGE.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="24026"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="24131"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Mapan\progress\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{110AE6C0-D709-448C-8B6B-00D5BFBFF567}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1F266D5B-9B14-4FDB-812C-54D07E2FCB0D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="419" uniqueCount="113">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="422" uniqueCount="117">
   <si>
     <t>NO</t>
   </si>
@@ -358,13 +358,25 @@
     <t>24 juni</t>
   </si>
   <si>
-    <t>dana masuk</t>
-  </si>
-  <si>
     <t>MAULANA AINUL YAQIN</t>
   </si>
   <si>
     <t>22 maret 22</t>
+  </si>
+  <si>
+    <t>18 ORANG</t>
+  </si>
+  <si>
+    <t>06 JULI</t>
+  </si>
+  <si>
+    <t>21 JULI</t>
+  </si>
+  <si>
+    <t>ABD. ROHMAN</t>
+  </si>
+  <si>
+    <t>01 DES 21</t>
   </si>
 </sst>
 </file>
@@ -486,7 +498,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="38">
+  <cellXfs count="39">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -584,6 +596,9 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -924,10 +939,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:O79"/>
+  <dimension ref="A1:O67"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A51" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="H61" sqref="H61"/>
+    <sheetView tabSelected="1" topLeftCell="A45" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="F66" sqref="F66"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -2023,18 +2038,20 @@
       <c r="C60" s="8">
         <v>26</v>
       </c>
-      <c r="D60" s="8"/>
+      <c r="D60" s="8" t="s">
+        <v>48</v>
+      </c>
       <c r="E60" s="8" t="s">
         <v>7</v>
       </c>
       <c r="F60" s="8" t="s">
-        <v>86</v>
+        <v>113</v>
       </c>
       <c r="G60" s="8" t="s">
+        <v>110</v>
+      </c>
+      <c r="H60" s="9" t="s">
         <v>111</v>
-      </c>
-      <c r="H60" s="9" t="s">
-        <v>112</v>
       </c>
     </row>
     <row r="61" spans="1:12" x14ac:dyDescent="0.2">
@@ -2062,115 +2079,80 @@
       <c r="H62" s="10"/>
     </row>
     <row r="63" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A63" s="10"/>
-      <c r="B63" s="10"/>
-      <c r="C63" s="10"/>
-      <c r="D63" s="10"/>
-      <c r="E63" s="10"/>
-      <c r="F63" s="10"/>
-      <c r="G63" s="10"/>
-      <c r="H63" s="10"/>
+      <c r="A63" s="38">
+        <v>22</v>
+      </c>
+      <c r="B63" s="10" t="s">
+        <v>38</v>
+      </c>
+      <c r="C63" s="8">
+        <v>28</v>
+      </c>
+      <c r="D63" s="10" t="s">
+        <v>112</v>
+      </c>
+      <c r="E63" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="F63" s="38" t="s">
+        <v>114</v>
+      </c>
+      <c r="G63" s="38" t="s">
+        <v>115</v>
+      </c>
+      <c r="H63" s="38" t="s">
+        <v>116</v>
+      </c>
     </row>
     <row r="64" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A64" s="10"/>
       <c r="B64" s="10"/>
-      <c r="C64" s="10"/>
+      <c r="C64" s="8"/>
       <c r="D64" s="10"/>
-      <c r="E64" s="10"/>
-      <c r="F64" s="10"/>
-      <c r="G64" s="10"/>
-      <c r="H64" s="10"/>
-    </row>
-    <row r="68" spans="4:5" x14ac:dyDescent="0.2">
-      <c r="D68" s="35" t="s">
-        <v>9</v>
-      </c>
-      <c r="E68" s="7">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="69" spans="4:5" x14ac:dyDescent="0.2">
-      <c r="D69" s="35" t="s">
-        <v>16</v>
-      </c>
-      <c r="E69" s="7">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="70" spans="4:5" x14ac:dyDescent="0.2">
-      <c r="D70" s="8" t="s">
-        <v>55</v>
-      </c>
-      <c r="E70" s="7">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="71" spans="4:5" x14ac:dyDescent="0.2">
-      <c r="D71" s="8" t="s">
+      <c r="E64" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="F64" s="38"/>
+      <c r="G64" s="38">
+        <v>85649115380</v>
+      </c>
+      <c r="H64" s="38"/>
+    </row>
+    <row r="65" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A65" s="38"/>
+      <c r="B65" s="10"/>
+      <c r="C65" s="8"/>
+      <c r="D65" s="10"/>
+      <c r="E65" s="8"/>
+      <c r="F65" s="38"/>
+      <c r="G65" s="38"/>
+      <c r="H65" s="38"/>
+    </row>
+    <row r="66" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A66" s="10">
         <v>23</v>
       </c>
-      <c r="E71" s="7">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="72" spans="4:5" x14ac:dyDescent="0.2">
-      <c r="D72" s="35" t="s">
-        <v>27</v>
-      </c>
-      <c r="E72" s="7">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="73" spans="4:5" x14ac:dyDescent="0.2">
-      <c r="D73" s="37" t="s">
-        <v>30</v>
-      </c>
-      <c r="E73" s="7">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="74" spans="4:5" x14ac:dyDescent="0.2">
-      <c r="D74" s="37" t="s">
-        <v>48</v>
-      </c>
-      <c r="E74" s="7">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="75" spans="4:5" x14ac:dyDescent="0.2">
-      <c r="D75" s="35" t="s">
-        <v>49</v>
-      </c>
-      <c r="E75" s="7">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="76" spans="4:5" x14ac:dyDescent="0.2">
-      <c r="E76" s="7">
-        <f>SUM(E68:E75)</f>
-        <v>309</v>
-      </c>
-    </row>
-    <row r="77" spans="4:5" x14ac:dyDescent="0.2">
-      <c r="E77" s="7">
-        <f>E76*1460000</f>
-        <v>451140000</v>
-      </c>
-    </row>
-    <row r="78" spans="4:5" x14ac:dyDescent="0.2">
-      <c r="D78" s="7" t="s">
-        <v>110</v>
-      </c>
-      <c r="E78" s="7">
-        <f>735527814+25496237</f>
-        <v>761024051</v>
-      </c>
-    </row>
-    <row r="79" spans="4:5" x14ac:dyDescent="0.2">
-      <c r="E79" s="7">
-        <f>E78-E77</f>
-        <v>309884051</v>
-      </c>
+      <c r="B66" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="C66" s="8">
+        <v>32</v>
+      </c>
+      <c r="D66" s="10"/>
+      <c r="E66" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="F66" s="38" t="s">
+        <v>114</v>
+      </c>
+      <c r="G66" s="38"/>
+      <c r="H66" s="38"/>
+    </row>
+    <row r="67" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="E67" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="F67" s="38"/>
     </row>
   </sheetData>
   <pageMargins left="0.43" right="0.12" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/RENCANA BON VOYAGE.xlsx
+++ b/RENCANA BON VOYAGE.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Mapan\progress\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1F266D5B-9B14-4FDB-812C-54D07E2FCB0D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5D57DFE0-6079-41FC-A94A-0E203C9653E3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -19,14 +19,14 @@
     <sheet name="Sheet3" sheetId="3" r:id="rId4"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$I$61</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$I$42</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="422" uniqueCount="117">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="362" uniqueCount="112">
   <si>
     <t>NO</t>
   </si>
@@ -277,9 +277,6 @@
     <t>14 JUNI</t>
   </si>
   <si>
-    <t>17 JUNI</t>
-  </si>
-  <si>
     <t>02 JUNI</t>
   </si>
   <si>
@@ -289,12 +286,6 @@
     <t>01 JULI</t>
   </si>
   <si>
-    <t>10 MARET</t>
-  </si>
-  <si>
-    <t>01 MEI</t>
-  </si>
-  <si>
     <t>08 JUNI</t>
   </si>
   <si>
@@ -313,21 +304,12 @@
     <t>10 OKT</t>
   </si>
   <si>
-    <t>25 MEI</t>
-  </si>
-  <si>
     <t>/082110632173</t>
   </si>
   <si>
     <t>BASHIR</t>
   </si>
   <si>
-    <t>ABUNAWAS</t>
-  </si>
-  <si>
-    <t>/082236499977</t>
-  </si>
-  <si>
     <t>SENO</t>
   </si>
   <si>
@@ -377,6 +359,9 @@
   </si>
   <si>
     <t>01 DES 21</t>
+  </si>
+  <si>
+    <t>01 AGUSTUS</t>
   </si>
 </sst>
 </file>
@@ -939,10 +924,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:O67"/>
+  <dimension ref="A1:O48"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A45" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="F66" sqref="F66"/>
+    <sheetView tabSelected="1" topLeftCell="A19" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="C35" sqref="C35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -986,36 +971,33 @@
         <v>10</v>
       </c>
       <c r="I1" s="7" t="s">
-        <v>108</v>
+        <v>102</v>
       </c>
     </row>
     <row r="2" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A2" s="35">
-        <v>1</v>
-      </c>
-      <c r="B2" s="35" t="s">
+      <c r="A2" s="8">
+        <v>3</v>
+      </c>
+      <c r="B2" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="C2" s="35">
-        <v>8</v>
-      </c>
-      <c r="D2" s="35" t="s">
+      <c r="C2" s="8">
         <v>9</v>
       </c>
+      <c r="D2" s="8" t="s">
+        <v>51</v>
+      </c>
       <c r="E2" s="35" t="s">
         <v>7</v>
       </c>
       <c r="F2" s="35" t="s">
-        <v>11</v>
+        <v>83</v>
       </c>
       <c r="G2" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="H2" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="I2" s="7" t="s">
-        <v>109</v>
+        <v>52</v>
+      </c>
+      <c r="H2" s="9">
+        <v>44444</v>
       </c>
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.2">
@@ -1023,16 +1005,19 @@
       <c r="B3" s="8"/>
       <c r="C3" s="8"/>
       <c r="D3" s="8"/>
-      <c r="E3" s="35" t="s">
-        <v>8</v>
-      </c>
-      <c r="F3" s="35" t="s">
-        <v>95</v>
-      </c>
-      <c r="G3" s="8" t="s">
-        <v>17</v>
+      <c r="E3" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="F3" s="8" t="s">
+        <v>90</v>
+      </c>
+      <c r="G3" s="8">
+        <v>81228196787</v>
       </c>
       <c r="H3" s="8"/>
+      <c r="O3" s="7">
+        <v>8</v>
+      </c>
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A4" s="8"/>
@@ -1045,32 +1030,29 @@
       <c r="H4" s="8"/>
     </row>
     <row r="5" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A5" s="35">
-        <v>2</v>
-      </c>
-      <c r="B5" s="35" t="s">
+      <c r="A5" s="8">
+        <v>4</v>
+      </c>
+      <c r="B5" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="C5" s="35">
-        <v>8</v>
-      </c>
-      <c r="D5" s="35" t="s">
-        <v>16</v>
+      <c r="C5" s="8">
+        <v>9</v>
+      </c>
+      <c r="D5" s="8" t="s">
+        <v>53</v>
       </c>
       <c r="E5" s="35" t="s">
         <v>7</v>
       </c>
       <c r="F5" s="35" t="s">
-        <v>11</v>
+        <v>83</v>
       </c>
       <c r="G5" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="H5" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="I5" s="7" t="s">
-        <v>109</v>
+        <v>54</v>
+      </c>
+      <c r="H5" s="9">
+        <v>44444</v>
       </c>
     </row>
     <row r="6" spans="1:15" x14ac:dyDescent="0.2">
@@ -1078,14 +1060,14 @@
       <c r="B6" s="8"/>
       <c r="C6" s="8"/>
       <c r="D6" s="8"/>
-      <c r="E6" s="35" t="s">
-        <v>8</v>
-      </c>
-      <c r="F6" s="35" t="s">
-        <v>95</v>
-      </c>
-      <c r="G6" s="8" t="s">
-        <v>19</v>
+      <c r="E6" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="F6" s="8" t="s">
+        <v>90</v>
+      </c>
+      <c r="G6" s="8">
+        <v>81225736355</v>
       </c>
       <c r="H6" s="8"/>
     </row>
@@ -1101,16 +1083,16 @@
     </row>
     <row r="8" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A8" s="8">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="B8" s="8" t="s">
-        <v>6</v>
+        <v>20</v>
       </c>
       <c r="C8" s="8">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="D8" s="8" t="s">
-        <v>51</v>
+        <v>59</v>
       </c>
       <c r="E8" s="35" t="s">
         <v>7</v>
@@ -1119,10 +1101,10 @@
         <v>84</v>
       </c>
       <c r="G8" s="8" t="s">
-        <v>52</v>
+        <v>60</v>
       </c>
       <c r="H8" s="9">
-        <v>44444</v>
+        <v>44520</v>
       </c>
     </row>
     <row r="9" spans="1:15" x14ac:dyDescent="0.2">
@@ -1130,19 +1112,16 @@
       <c r="B9" s="8"/>
       <c r="C9" s="8"/>
       <c r="D9" s="8"/>
-      <c r="E9" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="F9" s="8" t="s">
-        <v>93</v>
+      <c r="E9" s="35" t="s">
+        <v>8</v>
+      </c>
+      <c r="F9" s="36">
+        <v>44501</v>
       </c>
       <c r="G9" s="8">
-        <v>81228196787</v>
-      </c>
-      <c r="H9" s="8"/>
-      <c r="O9" s="7">
-        <v>8</v>
-      </c>
+        <v>81232989078</v>
+      </c>
+      <c r="H9" s="9"/>
     </row>
     <row r="10" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A10" s="8"/>
@@ -1152,20 +1131,20 @@
       <c r="E10" s="8"/>
       <c r="F10" s="8"/>
       <c r="G10" s="8"/>
-      <c r="H10" s="8"/>
+      <c r="H10" s="9"/>
     </row>
     <row r="11" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A11" s="8">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="B11" s="8" t="s">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="C11" s="8">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="D11" s="8" t="s">
-        <v>53</v>
+        <v>61</v>
       </c>
       <c r="E11" s="35" t="s">
         <v>7</v>
@@ -1174,10 +1153,10 @@
         <v>84</v>
       </c>
       <c r="G11" s="8" t="s">
-        <v>54</v>
+        <v>62</v>
       </c>
       <c r="H11" s="9">
-        <v>44444</v>
+        <v>44520</v>
       </c>
     </row>
     <row r="12" spans="1:15" x14ac:dyDescent="0.2">
@@ -1188,13 +1167,13 @@
       <c r="E12" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="F12" s="8" t="s">
-        <v>93</v>
+      <c r="F12" s="34">
+        <v>44501</v>
       </c>
       <c r="G12" s="8">
-        <v>81225736355</v>
-      </c>
-      <c r="H12" s="8"/>
+        <v>81231807990</v>
+      </c>
+      <c r="H12" s="9"/>
     </row>
     <row r="13" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A13" s="8"/>
@@ -1204,955 +1183,614 @@
       <c r="E13" s="8"/>
       <c r="F13" s="8"/>
       <c r="G13" s="8"/>
-      <c r="H13" s="8"/>
+      <c r="H13" s="9"/>
     </row>
     <row r="14" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A14" s="8">
-        <v>5</v>
-      </c>
-      <c r="B14" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="C14" s="8">
-        <v>15</v>
-      </c>
-      <c r="D14" s="8" t="s">
-        <v>55</v>
+      <c r="A14" s="37">
+        <v>10</v>
+      </c>
+      <c r="B14" s="37" t="s">
+        <v>26</v>
+      </c>
+      <c r="C14" s="37">
+        <v>30</v>
+      </c>
+      <c r="D14" s="37" t="s">
+        <v>63</v>
       </c>
       <c r="E14" s="35" t="s">
         <v>7</v>
       </c>
       <c r="F14" s="36">
-        <v>44237</v>
+        <v>44253</v>
       </c>
       <c r="G14" s="8" t="s">
-        <v>56</v>
-      </c>
-      <c r="H14" s="8" t="s">
-        <v>57</v>
-      </c>
-      <c r="I14" s="7" t="s">
-        <v>109</v>
-      </c>
+        <v>93</v>
+      </c>
+      <c r="H14" s="8"/>
     </row>
     <row r="15" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A15" s="8"/>
-      <c r="B15" s="8"/>
-      <c r="C15" s="8"/>
-      <c r="D15" s="8"/>
-      <c r="E15" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="F15" s="34" t="s">
-        <v>86</v>
-      </c>
-      <c r="G15" s="8">
-        <v>81232667763</v>
-      </c>
-      <c r="H15" s="8"/>
+      <c r="A15" s="37"/>
+      <c r="B15" s="37"/>
+      <c r="C15" s="37"/>
+      <c r="D15" s="37"/>
+      <c r="E15" s="35" t="s">
+        <v>8</v>
+      </c>
+      <c r="F15" s="35" t="s">
+        <v>85</v>
+      </c>
+      <c r="G15" s="8" t="s">
+        <v>92</v>
+      </c>
+      <c r="H15" s="8" t="s">
+        <v>35</v>
+      </c>
     </row>
     <row r="16" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A16" s="8"/>
-      <c r="B16" s="8"/>
-      <c r="C16" s="8"/>
-      <c r="D16" s="8"/>
+      <c r="A16" s="37"/>
+      <c r="B16" s="37"/>
+      <c r="C16" s="37"/>
+      <c r="D16" s="37"/>
       <c r="E16" s="8"/>
       <c r="F16" s="8"/>
       <c r="G16" s="8"/>
       <c r="H16" s="8"/>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A17" s="8">
-        <v>6</v>
-      </c>
-      <c r="B17" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="C17" s="8">
-        <v>15</v>
-      </c>
-      <c r="D17" s="8" t="s">
-        <v>23</v>
+    <row r="17" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A17" s="37">
+        <v>11</v>
+      </c>
+      <c r="B17" s="37" t="s">
+        <v>26</v>
+      </c>
+      <c r="C17" s="37">
+        <v>31</v>
+      </c>
+      <c r="D17" s="37" t="s">
+        <v>53</v>
       </c>
       <c r="E17" s="35" t="s">
         <v>7</v>
       </c>
-      <c r="F17" s="36">
-        <v>44237</v>
+      <c r="F17" s="35" t="s">
+        <v>82</v>
       </c>
       <c r="G17" s="8" t="s">
-        <v>58</v>
-      </c>
-      <c r="H17" s="8" t="s">
-        <v>57</v>
-      </c>
-      <c r="I17" s="7" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A18" s="8"/>
-      <c r="B18" s="8"/>
-      <c r="C18" s="8"/>
-      <c r="D18" s="8"/>
+        <v>64</v>
+      </c>
+      <c r="H17" s="9">
+        <v>44501</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A18" s="37"/>
+      <c r="B18" s="37"/>
+      <c r="C18" s="37"/>
+      <c r="D18" s="37"/>
       <c r="E18" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="F18" s="8" t="s">
-        <v>86</v>
+      <c r="F18" s="34">
+        <v>44440</v>
       </c>
       <c r="G18" s="8">
-        <v>8214000800</v>
+        <v>6587623904</v>
       </c>
       <c r="H18" s="8"/>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A19" s="8"/>
-      <c r="B19" s="8"/>
-      <c r="C19" s="8"/>
-      <c r="D19" s="8"/>
+    <row r="19" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A19" s="37"/>
+      <c r="B19" s="37"/>
+      <c r="C19" s="37"/>
+      <c r="D19" s="37"/>
       <c r="E19" s="8"/>
       <c r="F19" s="8"/>
       <c r="G19" s="8"/>
       <c r="H19" s="8"/>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A20" s="8">
-        <v>7</v>
-      </c>
-      <c r="B20" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="C20" s="8">
-        <v>16</v>
-      </c>
-      <c r="D20" s="8" t="s">
-        <v>59</v>
+    <row r="20" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A20" s="37">
+        <v>13</v>
+      </c>
+      <c r="B20" s="37" t="s">
+        <v>24</v>
+      </c>
+      <c r="C20" s="37">
+        <v>25</v>
+      </c>
+      <c r="D20" s="37" t="s">
+        <v>48</v>
       </c>
       <c r="E20" s="35" t="s">
         <v>7</v>
       </c>
-      <c r="F20" s="35" t="s">
-        <v>85</v>
+      <c r="F20" s="36">
+        <v>44237</v>
       </c>
       <c r="G20" s="8" t="s">
-        <v>60</v>
+        <v>94</v>
       </c>
       <c r="H20" s="9">
-        <v>44520</v>
-      </c>
-    </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A21" s="8"/>
-      <c r="B21" s="8"/>
-      <c r="C21" s="8"/>
-      <c r="D21" s="8"/>
+        <v>44501</v>
+      </c>
+      <c r="I20" s="7" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="21" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A21" s="37"/>
+      <c r="B21" s="37"/>
+      <c r="C21" s="37"/>
+      <c r="D21" s="37"/>
       <c r="E21" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="F21" s="34">
-        <v>44501</v>
-      </c>
-      <c r="G21" s="8">
-        <v>81232989078</v>
-      </c>
-      <c r="H21" s="9"/>
-    </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A22" s="8"/>
-      <c r="B22" s="8"/>
-      <c r="C22" s="8"/>
-      <c r="D22" s="8"/>
+      <c r="F21" s="8" t="s">
+        <v>91</v>
+      </c>
+      <c r="G21" s="8" t="s">
+        <v>95</v>
+      </c>
+      <c r="H21" s="8"/>
+    </row>
+    <row r="22" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A22" s="37"/>
+      <c r="B22" s="37"/>
+      <c r="C22" s="37"/>
+      <c r="D22" s="37"/>
       <c r="E22" s="8"/>
       <c r="F22" s="8"/>
       <c r="G22" s="8"/>
-      <c r="H22" s="9"/>
-    </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A23" s="8">
-        <v>8</v>
-      </c>
-      <c r="B23" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="C23" s="8">
-        <v>16</v>
-      </c>
-      <c r="D23" s="8" t="s">
-        <v>61</v>
+      <c r="H22" s="8"/>
+    </row>
+    <row r="23" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A23" s="37">
+        <v>15</v>
+      </c>
+      <c r="B23" s="37" t="s">
+        <v>36</v>
+      </c>
+      <c r="C23" s="37">
+        <v>32</v>
+      </c>
+      <c r="D23" s="37" t="s">
+        <v>25</v>
       </c>
       <c r="E23" s="35" t="s">
         <v>7</v>
       </c>
       <c r="F23" s="35" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="G23" s="8" t="s">
-        <v>62</v>
-      </c>
-      <c r="H23" s="9">
-        <v>44520</v>
-      </c>
-    </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A24" s="8"/>
-      <c r="B24" s="8"/>
-      <c r="C24" s="8"/>
-      <c r="D24" s="8"/>
+        <v>65</v>
+      </c>
+      <c r="H23" s="8" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="24" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A24" s="37"/>
+      <c r="B24" s="37"/>
+      <c r="C24" s="37"/>
+      <c r="D24" s="37"/>
       <c r="E24" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="F24" s="34">
-        <v>44501</v>
+      <c r="F24" s="8" t="s">
+        <v>87</v>
       </c>
       <c r="G24" s="8">
-        <v>81231807990</v>
-      </c>
-      <c r="H24" s="9"/>
-    </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A25" s="8"/>
-      <c r="B25" s="8"/>
-      <c r="C25" s="8"/>
-      <c r="D25" s="8"/>
+        <v>81231558203</v>
+      </c>
+      <c r="H24" s="8"/>
+    </row>
+    <row r="25" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A25" s="37"/>
+      <c r="B25" s="37"/>
+      <c r="C25" s="37"/>
+      <c r="D25" s="37"/>
       <c r="E25" s="8"/>
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
-      <c r="H25" s="9"/>
-    </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A26" s="35">
-        <v>9</v>
-      </c>
-      <c r="B26" s="35" t="s">
-        <v>26</v>
-      </c>
-      <c r="C26" s="35">
-        <v>29</v>
-      </c>
-      <c r="D26" s="35" t="s">
+      <c r="H25" s="8"/>
+    </row>
+    <row r="26" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A26" s="37">
+        <v>16</v>
+      </c>
+      <c r="B26" s="37" t="s">
+        <v>38</v>
+      </c>
+      <c r="C26" s="37">
         <v>27</v>
       </c>
+      <c r="D26" s="37" t="s">
+        <v>67</v>
+      </c>
       <c r="E26" s="35" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F26" s="35" t="s">
+        <v>88</v>
+      </c>
+      <c r="G26" s="32" t="s">
+        <v>98</v>
+      </c>
+      <c r="H26" s="33">
+        <v>44409</v>
+      </c>
+    </row>
+    <row r="27" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A27" s="37"/>
+      <c r="B27" s="37"/>
+      <c r="C27" s="37"/>
+      <c r="D27" s="37"/>
+      <c r="E27" s="32" t="s">
+        <v>8</v>
+      </c>
+      <c r="F27" s="32" t="s">
         <v>87</v>
       </c>
-      <c r="G26" s="8" t="s">
-        <v>29</v>
-      </c>
-      <c r="H26" s="8" t="s">
-        <v>28</v>
-      </c>
-      <c r="I26" s="7" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A27" s="8"/>
-      <c r="B27" s="8"/>
-      <c r="C27" s="8"/>
-      <c r="D27" s="8"/>
-      <c r="E27" s="8"/>
-      <c r="F27" s="8"/>
-      <c r="G27" s="8"/>
-      <c r="H27" s="9"/>
-    </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A28" s="37">
-        <v>10</v>
-      </c>
-      <c r="B28" s="37" t="s">
-        <v>26</v>
-      </c>
-      <c r="C28" s="37">
-        <v>30</v>
-      </c>
-      <c r="D28" s="37" t="s">
-        <v>63</v>
-      </c>
-      <c r="E28" s="35" t="s">
-        <v>7</v>
-      </c>
-      <c r="F28" s="36">
+      <c r="G27" s="32" t="s">
+        <v>99</v>
+      </c>
+      <c r="H27" s="33"/>
+    </row>
+    <row r="28" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A28" s="8"/>
+      <c r="B28" s="8"/>
+      <c r="C28" s="8"/>
+      <c r="D28" s="8"/>
+      <c r="E28" s="8"/>
+      <c r="F28" s="8"/>
+      <c r="G28" s="8"/>
+      <c r="H28" s="8"/>
+    </row>
+    <row r="29" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A29" s="35">
+        <v>17</v>
+      </c>
+      <c r="B29" s="35" t="s">
+        <v>39</v>
+      </c>
+      <c r="C29" s="35">
+        <v>38</v>
+      </c>
+      <c r="D29" s="35" t="s">
+        <v>50</v>
+      </c>
+      <c r="E29" s="35" t="s">
+        <v>7</v>
+      </c>
+      <c r="F29" s="36">
         <v>44253</v>
-      </c>
-      <c r="G28" s="8" t="s">
-        <v>97</v>
-      </c>
-      <c r="H28" s="8"/>
-    </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A29" s="37"/>
-      <c r="B29" s="37"/>
-      <c r="C29" s="37"/>
-      <c r="D29" s="37"/>
-      <c r="E29" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="F29" s="8" t="s">
-        <v>86</v>
       </c>
       <c r="G29" s="8" t="s">
         <v>96</v>
       </c>
       <c r="H29" s="8" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A30" s="37"/>
-      <c r="B30" s="37"/>
-      <c r="C30" s="37"/>
-      <c r="D30" s="37"/>
-      <c r="E30" s="8"/>
-      <c r="F30" s="8"/>
-      <c r="G30" s="8"/>
+        <v>40</v>
+      </c>
+    </row>
+    <row r="30" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A30" s="8"/>
+      <c r="B30" s="8"/>
+      <c r="C30" s="8"/>
+      <c r="D30" s="8"/>
+      <c r="E30" s="35" t="s">
+        <v>8</v>
+      </c>
+      <c r="F30" s="35" t="s">
+        <v>84</v>
+      </c>
+      <c r="G30" s="8" t="s">
+        <v>97</v>
+      </c>
       <c r="H30" s="8"/>
     </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A31" s="37">
-        <v>11</v>
-      </c>
-      <c r="B31" s="37" t="s">
+    <row r="31" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A31" s="10"/>
+      <c r="B31" s="10"/>
+      <c r="C31" s="10"/>
+      <c r="D31" s="10"/>
+      <c r="E31" s="10"/>
+      <c r="F31" s="10"/>
+      <c r="G31" s="10"/>
+      <c r="H31" s="10"/>
+    </row>
+    <row r="32" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A32" s="35">
+        <v>18</v>
+      </c>
+      <c r="B32" s="35" t="s">
+        <v>41</v>
+      </c>
+      <c r="C32" s="35">
+        <v>38</v>
+      </c>
+      <c r="D32" s="35" t="s">
+        <v>48</v>
+      </c>
+      <c r="E32" s="35" t="s">
+        <v>7</v>
+      </c>
+      <c r="F32" s="36">
+        <v>44253</v>
+      </c>
+      <c r="G32" s="8" t="s">
+        <v>100</v>
+      </c>
+      <c r="H32" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="I32" s="11"/>
+      <c r="J32" s="12"/>
+      <c r="K32" s="12"/>
+      <c r="L32" s="12"/>
+    </row>
+    <row r="33" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A33" s="32"/>
+      <c r="B33" s="8"/>
+      <c r="C33" s="8"/>
+      <c r="D33" s="8"/>
+      <c r="E33" s="35" t="s">
+        <v>8</v>
+      </c>
+      <c r="F33" s="35" t="s">
+        <v>89</v>
+      </c>
+      <c r="G33" s="8" t="s">
+        <v>101</v>
+      </c>
+      <c r="H33" s="8"/>
+    </row>
+    <row r="34" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A34" s="8"/>
+      <c r="B34" s="8"/>
+      <c r="C34" s="8"/>
+      <c r="D34" s="8"/>
+      <c r="E34" s="8"/>
+      <c r="F34" s="8"/>
+      <c r="G34" s="8"/>
+      <c r="H34" s="8"/>
+    </row>
+    <row r="35" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A35" s="8">
+        <v>19</v>
+      </c>
+      <c r="B35" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="C35" s="8">
+        <v>39</v>
+      </c>
+      <c r="D35" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="E35" s="35" t="s">
+        <v>7</v>
+      </c>
+      <c r="F35" s="35" t="s">
+        <v>82</v>
+      </c>
+      <c r="G35" s="8" t="s">
+        <v>68</v>
+      </c>
+      <c r="H35" s="9">
+        <v>44444</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A36" s="8"/>
+      <c r="B36" s="8"/>
+      <c r="C36" s="8"/>
+      <c r="D36" s="8"/>
+      <c r="E36" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="F36" s="8" t="s">
+        <v>90</v>
+      </c>
+      <c r="G36" s="8">
+        <v>81331414130</v>
+      </c>
+      <c r="H36" s="8"/>
+    </row>
+    <row r="37" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A37" s="8"/>
+      <c r="B37" s="8"/>
+      <c r="C37" s="8"/>
+      <c r="D37" s="8"/>
+      <c r="E37" s="8"/>
+      <c r="F37" s="8"/>
+      <c r="G37" s="8"/>
+      <c r="H37" s="8"/>
+    </row>
+    <row r="38" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A38" s="8">
+        <v>20</v>
+      </c>
+      <c r="B38" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="C38" s="8">
+        <v>39</v>
+      </c>
+      <c r="D38" s="8" t="s">
+        <v>69</v>
+      </c>
+      <c r="E38" s="35" t="s">
+        <v>7</v>
+      </c>
+      <c r="F38" s="35" t="s">
+        <v>82</v>
+      </c>
+      <c r="G38" s="8" t="s">
+        <v>70</v>
+      </c>
+      <c r="H38" s="9">
+        <v>44444</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A39" s="8"/>
+      <c r="B39" s="8"/>
+      <c r="C39" s="8"/>
+      <c r="D39" s="8"/>
+      <c r="E39" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="F39" s="8" t="s">
+        <v>90</v>
+      </c>
+      <c r="G39" s="8">
+        <v>81252283477</v>
+      </c>
+      <c r="H39" s="8"/>
+    </row>
+    <row r="40" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A40" s="8"/>
+      <c r="B40" s="8"/>
+      <c r="C40" s="8"/>
+      <c r="D40" s="8"/>
+      <c r="E40" s="8"/>
+      <c r="F40" s="8"/>
+      <c r="G40" s="8"/>
+      <c r="H40" s="8"/>
+    </row>
+    <row r="41" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A41" s="8">
+        <v>21</v>
+      </c>
+      <c r="B41" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="C41" s="8">
         <v>26</v>
       </c>
-      <c r="C31" s="37">
-        <v>31</v>
-      </c>
-      <c r="D31" s="37" t="s">
-        <v>53</v>
-      </c>
-      <c r="E31" s="35" t="s">
-        <v>7</v>
-      </c>
-      <c r="F31" s="35" t="s">
-        <v>82</v>
-      </c>
-      <c r="G31" s="8" t="s">
-        <v>64</v>
-      </c>
-      <c r="H31" s="9">
-        <v>44501</v>
-      </c>
-    </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A32" s="37"/>
-      <c r="B32" s="37"/>
-      <c r="C32" s="37"/>
-      <c r="D32" s="37"/>
-      <c r="E32" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="F32" s="34">
-        <v>44440</v>
-      </c>
-      <c r="G32" s="8">
-        <v>6587623904</v>
-      </c>
-      <c r="H32" s="8"/>
-    </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A33" s="37"/>
-      <c r="B33" s="37"/>
-      <c r="C33" s="37"/>
-      <c r="D33" s="37"/>
-      <c r="E33" s="8"/>
-      <c r="F33" s="8"/>
-      <c r="G33" s="8"/>
-      <c r="H33" s="8"/>
-    </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A34" s="37">
-        <v>12</v>
-      </c>
-      <c r="B34" s="37" t="s">
-        <v>24</v>
-      </c>
-      <c r="C34" s="37">
-        <v>24</v>
-      </c>
-      <c r="D34" s="37" t="s">
-        <v>30</v>
-      </c>
-      <c r="E34" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="F34" s="8" t="s">
-        <v>83</v>
-      </c>
-      <c r="G34" s="8" t="s">
+      <c r="D41" s="8" t="s">
+        <v>48</v>
+      </c>
+      <c r="E41" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="F41" s="8" t="s">
+        <v>107</v>
+      </c>
+      <c r="G41" s="8" t="s">
+        <v>104</v>
+      </c>
+      <c r="H41" s="9" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A42" s="8"/>
+      <c r="B42" s="8"/>
+      <c r="C42" s="8"/>
+      <c r="D42" s="8"/>
+      <c r="E42" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="F42" s="10"/>
+      <c r="G42" s="10">
+        <v>85732094240</v>
+      </c>
+      <c r="H42" s="10"/>
+    </row>
+    <row r="43" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A43" s="10"/>
+      <c r="B43" s="10"/>
+      <c r="C43" s="10"/>
+      <c r="D43" s="10"/>
+      <c r="E43" s="10"/>
+      <c r="F43" s="10"/>
+      <c r="G43" s="10"/>
+      <c r="H43" s="10"/>
+    </row>
+    <row r="44" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A44" s="38">
+        <v>22</v>
+      </c>
+      <c r="B44" s="10" t="s">
+        <v>38</v>
+      </c>
+      <c r="C44" s="8">
+        <v>28</v>
+      </c>
+      <c r="D44" s="10" t="s">
+        <v>106</v>
+      </c>
+      <c r="E44" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="F44" s="38" t="s">
+        <v>108</v>
+      </c>
+      <c r="G44" s="38" t="s">
+        <v>109</v>
+      </c>
+      <c r="H44" s="38" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A45" s="10"/>
+      <c r="B45" s="10"/>
+      <c r="C45" s="8"/>
+      <c r="D45" s="10"/>
+      <c r="E45" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="F45" s="38"/>
+      <c r="G45" s="38">
+        <v>85649115380</v>
+      </c>
+      <c r="H45" s="38"/>
+    </row>
+    <row r="46" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A46" s="38"/>
+      <c r="B46" s="10"/>
+      <c r="C46" s="8"/>
+      <c r="D46" s="10"/>
+      <c r="E46" s="8"/>
+      <c r="F46" s="38"/>
+      <c r="G46" s="38"/>
+      <c r="H46" s="38"/>
+    </row>
+    <row r="47" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A47" s="38">
+        <v>23</v>
+      </c>
+      <c r="B47" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="C47" s="8">
         <v>32</v>
       </c>
-      <c r="H34" s="8" t="s">
-        <v>33</v>
-      </c>
-      <c r="I34" s="7" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A35" s="37"/>
-      <c r="B35" s="37"/>
-      <c r="C35" s="37"/>
-      <c r="D35" s="37"/>
-      <c r="E35" s="8"/>
-      <c r="F35" s="8"/>
-      <c r="G35" s="8"/>
-      <c r="H35" s="8"/>
-    </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A36" s="37">
-        <v>13</v>
-      </c>
-      <c r="B36" s="37" t="s">
-        <v>24</v>
-      </c>
-      <c r="C36" s="37">
-        <v>25</v>
-      </c>
-      <c r="D36" s="37" t="s">
-        <v>48</v>
-      </c>
-      <c r="E36" s="35" t="s">
-        <v>7</v>
-      </c>
-      <c r="F36" s="36">
-        <v>44237</v>
-      </c>
-      <c r="G36" s="8" t="s">
-        <v>100</v>
-      </c>
-      <c r="H36" s="9">
-        <v>44501</v>
-      </c>
-      <c r="I36" s="7" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="37" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A37" s="37"/>
-      <c r="B37" s="37"/>
-      <c r="C37" s="37"/>
-      <c r="D37" s="37"/>
-      <c r="E37" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="F37" s="8" t="s">
-        <v>94</v>
-      </c>
-      <c r="G37" s="8" t="s">
-        <v>101</v>
-      </c>
-      <c r="H37" s="8"/>
-    </row>
-    <row r="38" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A38" s="37"/>
-      <c r="B38" s="37"/>
-      <c r="C38" s="37"/>
-      <c r="D38" s="37"/>
-      <c r="E38" s="8"/>
-      <c r="F38" s="8"/>
-      <c r="G38" s="8"/>
-      <c r="H38" s="8"/>
-    </row>
-    <row r="39" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A39" s="35">
-        <v>14</v>
-      </c>
-      <c r="B39" s="35" t="s">
-        <v>36</v>
-      </c>
-      <c r="C39" s="35">
-        <v>31</v>
-      </c>
-      <c r="D39" s="35" t="s">
-        <v>49</v>
-      </c>
-      <c r="E39" s="35" t="s">
-        <v>7</v>
-      </c>
-      <c r="F39" s="35" t="s">
-        <v>34</v>
-      </c>
-      <c r="G39" s="8" t="s">
-        <v>98</v>
-      </c>
-      <c r="H39" s="8"/>
-      <c r="I39" s="7" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="40" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A40" s="37"/>
-      <c r="B40" s="37"/>
-      <c r="C40" s="37"/>
-      <c r="D40" s="37"/>
-      <c r="E40" s="35" t="s">
-        <v>8</v>
-      </c>
-      <c r="F40" s="35" t="s">
-        <v>88</v>
-      </c>
-      <c r="G40" s="8" t="s">
-        <v>99</v>
-      </c>
-      <c r="H40" s="8" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="41" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A41" s="37"/>
-      <c r="B41" s="37"/>
-      <c r="C41" s="37"/>
-      <c r="D41" s="37"/>
-      <c r="E41" s="8"/>
-      <c r="F41" s="8"/>
-      <c r="G41" s="8"/>
-      <c r="H41" s="8"/>
-    </row>
-    <row r="42" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A42" s="37">
-        <v>15</v>
-      </c>
-      <c r="B42" s="37" t="s">
-        <v>36</v>
-      </c>
-      <c r="C42" s="37">
-        <v>32</v>
-      </c>
-      <c r="D42" s="37" t="s">
-        <v>25</v>
-      </c>
-      <c r="E42" s="35" t="s">
-        <v>7</v>
-      </c>
-      <c r="F42" s="35" t="s">
-        <v>89</v>
-      </c>
-      <c r="G42" s="8" t="s">
-        <v>65</v>
-      </c>
-      <c r="H42" s="8" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="43" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A43" s="37"/>
-      <c r="B43" s="37"/>
-      <c r="C43" s="37"/>
-      <c r="D43" s="37"/>
-      <c r="E43" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="F43" s="8" t="s">
-        <v>90</v>
-      </c>
-      <c r="G43" s="8">
-        <v>81231558203</v>
-      </c>
-      <c r="H43" s="8"/>
-    </row>
-    <row r="44" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A44" s="37"/>
-      <c r="B44" s="37"/>
-      <c r="C44" s="37"/>
-      <c r="D44" s="37"/>
-      <c r="E44" s="8"/>
-      <c r="F44" s="8"/>
-      <c r="G44" s="8"/>
-      <c r="H44" s="8"/>
-    </row>
-    <row r="45" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A45" s="37">
-        <v>16</v>
-      </c>
-      <c r="B45" s="37" t="s">
-        <v>38</v>
-      </c>
-      <c r="C45" s="37">
-        <v>27</v>
-      </c>
-      <c r="D45" s="37" t="s">
-        <v>67</v>
-      </c>
-      <c r="E45" s="35" t="s">
-        <v>7</v>
-      </c>
-      <c r="F45" s="35" t="s">
-        <v>91</v>
-      </c>
-      <c r="G45" s="32" t="s">
-        <v>104</v>
-      </c>
-      <c r="H45" s="33">
-        <v>44409</v>
-      </c>
-    </row>
-    <row r="46" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A46" s="37"/>
-      <c r="B46" s="37"/>
-      <c r="C46" s="37"/>
-      <c r="D46" s="37"/>
-      <c r="E46" s="32" t="s">
-        <v>8</v>
-      </c>
-      <c r="F46" s="32" t="s">
-        <v>90</v>
-      </c>
-      <c r="G46" s="32" t="s">
-        <v>105</v>
-      </c>
-      <c r="H46" s="33"/>
-    </row>
-    <row r="47" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A47" s="8"/>
-      <c r="B47" s="8"/>
-      <c r="C47" s="8"/>
-      <c r="D47" s="8"/>
-      <c r="E47" s="8"/>
-      <c r="F47" s="8"/>
-      <c r="G47" s="8"/>
-      <c r="H47" s="8"/>
-    </row>
-    <row r="48" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A48" s="35">
-        <v>17</v>
-      </c>
-      <c r="B48" s="35" t="s">
-        <v>39</v>
-      </c>
-      <c r="C48" s="35">
-        <v>38</v>
-      </c>
-      <c r="D48" s="35" t="s">
-        <v>50</v>
-      </c>
-      <c r="E48" s="35" t="s">
-        <v>7</v>
-      </c>
-      <c r="F48" s="36">
-        <v>44253</v>
-      </c>
-      <c r="G48" s="8" t="s">
-        <v>102</v>
-      </c>
-      <c r="H48" s="8" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="49" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A49" s="8"/>
-      <c r="B49" s="8"/>
-      <c r="C49" s="8"/>
-      <c r="D49" s="8"/>
-      <c r="E49" s="35" t="s">
-        <v>8</v>
-      </c>
-      <c r="F49" s="35" t="s">
-        <v>85</v>
-      </c>
-      <c r="G49" s="8" t="s">
-        <v>103</v>
-      </c>
-      <c r="H49" s="8"/>
-    </row>
-    <row r="50" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A50" s="10"/>
-      <c r="B50" s="10"/>
-      <c r="C50" s="10"/>
-      <c r="D50" s="10"/>
-      <c r="E50" s="10"/>
-      <c r="F50" s="10"/>
-      <c r="G50" s="10"/>
-      <c r="H50" s="10"/>
-    </row>
-    <row r="51" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A51" s="35">
-        <v>18</v>
-      </c>
-      <c r="B51" s="35" t="s">
-        <v>41</v>
-      </c>
-      <c r="C51" s="35">
-        <v>38</v>
-      </c>
-      <c r="D51" s="35" t="s">
-        <v>48</v>
-      </c>
-      <c r="E51" s="35" t="s">
-        <v>7</v>
-      </c>
-      <c r="F51" s="36">
-        <v>44253</v>
-      </c>
-      <c r="G51" s="8" t="s">
-        <v>106</v>
-      </c>
-      <c r="H51" s="8" t="s">
-        <v>40</v>
-      </c>
-      <c r="I51" s="11"/>
-      <c r="J51" s="12"/>
-      <c r="K51" s="12"/>
-      <c r="L51" s="12"/>
-    </row>
-    <row r="52" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A52" s="32"/>
-      <c r="B52" s="8"/>
-      <c r="C52" s="8"/>
-      <c r="D52" s="8"/>
-      <c r="E52" s="35" t="s">
-        <v>8</v>
-      </c>
-      <c r="F52" s="35" t="s">
-        <v>92</v>
-      </c>
-      <c r="G52" s="8" t="s">
-        <v>107</v>
-      </c>
-      <c r="H52" s="8"/>
-    </row>
-    <row r="53" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A53" s="8"/>
-      <c r="B53" s="8"/>
-      <c r="C53" s="8"/>
-      <c r="D53" s="8"/>
-      <c r="E53" s="8"/>
-      <c r="F53" s="8"/>
-      <c r="G53" s="8"/>
-      <c r="H53" s="8"/>
-    </row>
-    <row r="54" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A54" s="8">
-        <v>19</v>
-      </c>
-      <c r="B54" s="8" t="s">
-        <v>39</v>
-      </c>
-      <c r="C54" s="8">
-        <v>39</v>
-      </c>
-      <c r="D54" s="8" t="s">
-        <v>25</v>
-      </c>
-      <c r="E54" s="35" t="s">
-        <v>7</v>
-      </c>
-      <c r="F54" s="35" t="s">
-        <v>82</v>
-      </c>
-      <c r="G54" s="8" t="s">
-        <v>68</v>
-      </c>
-      <c r="H54" s="9">
-        <v>44444</v>
-      </c>
-    </row>
-    <row r="55" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A55" s="8"/>
-      <c r="B55" s="8"/>
-      <c r="C55" s="8"/>
-      <c r="D55" s="8"/>
-      <c r="E55" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="F55" s="8" t="s">
-        <v>93</v>
-      </c>
-      <c r="G55" s="8">
-        <v>81331414130</v>
-      </c>
-      <c r="H55" s="8"/>
-    </row>
-    <row r="56" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A56" s="8"/>
-      <c r="B56" s="8"/>
-      <c r="C56" s="8"/>
-      <c r="D56" s="8"/>
-      <c r="E56" s="8"/>
-      <c r="F56" s="8"/>
-      <c r="G56" s="8"/>
-      <c r="H56" s="8"/>
-    </row>
-    <row r="57" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A57" s="8">
-        <v>20</v>
-      </c>
-      <c r="B57" s="8" t="s">
-        <v>41</v>
-      </c>
-      <c r="C57" s="8">
-        <v>39</v>
-      </c>
-      <c r="D57" s="8" t="s">
-        <v>69</v>
-      </c>
-      <c r="E57" s="35" t="s">
-        <v>7</v>
-      </c>
-      <c r="F57" s="35" t="s">
-        <v>82</v>
-      </c>
-      <c r="G57" s="8" t="s">
-        <v>70</v>
-      </c>
-      <c r="H57" s="9">
-        <v>44444</v>
-      </c>
-    </row>
-    <row r="58" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A58" s="8"/>
-      <c r="B58" s="8"/>
-      <c r="C58" s="8"/>
-      <c r="D58" s="8"/>
-      <c r="E58" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="F58" s="8" t="s">
-        <v>93</v>
-      </c>
-      <c r="G58" s="8">
-        <v>81252283477</v>
-      </c>
-      <c r="H58" s="8"/>
-    </row>
-    <row r="59" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A59" s="8"/>
-      <c r="B59" s="8"/>
-      <c r="C59" s="8"/>
-      <c r="D59" s="8"/>
-      <c r="E59" s="8"/>
-      <c r="F59" s="8"/>
-      <c r="G59" s="8"/>
-      <c r="H59" s="8"/>
-    </row>
-    <row r="60" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A60" s="8">
-        <v>21</v>
-      </c>
-      <c r="B60" s="8" t="s">
-        <v>24</v>
-      </c>
-      <c r="C60" s="8">
-        <v>26</v>
-      </c>
-      <c r="D60" s="8" t="s">
-        <v>48</v>
-      </c>
-      <c r="E60" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="F60" s="8" t="s">
-        <v>113</v>
-      </c>
-      <c r="G60" s="8" t="s">
-        <v>110</v>
-      </c>
-      <c r="H60" s="9" t="s">
+      <c r="D47" s="10"/>
+      <c r="E47" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="F47" s="38" t="s">
         <v>111</v>
       </c>
-    </row>
-    <row r="61" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A61" s="8"/>
-      <c r="B61" s="8"/>
-      <c r="C61" s="8"/>
-      <c r="D61" s="8"/>
-      <c r="E61" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="F61" s="10"/>
-      <c r="G61" s="10">
-        <v>85732094240</v>
-      </c>
-      <c r="H61" s="10"/>
-    </row>
-    <row r="62" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A62" s="10"/>
-      <c r="B62" s="10"/>
-      <c r="C62" s="10"/>
-      <c r="D62" s="10"/>
-      <c r="E62" s="10"/>
-      <c r="F62" s="10"/>
-      <c r="G62" s="10"/>
-      <c r="H62" s="10"/>
-    </row>
-    <row r="63" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A63" s="38">
-        <v>22</v>
-      </c>
-      <c r="B63" s="10" t="s">
-        <v>38</v>
-      </c>
-      <c r="C63" s="8">
-        <v>28</v>
-      </c>
-      <c r="D63" s="10" t="s">
-        <v>112</v>
-      </c>
-      <c r="E63" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="F63" s="38" t="s">
-        <v>114</v>
-      </c>
-      <c r="G63" s="38" t="s">
-        <v>115</v>
-      </c>
-      <c r="H63" s="38" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="64" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A64" s="10"/>
-      <c r="B64" s="10"/>
-      <c r="C64" s="8"/>
-      <c r="D64" s="10"/>
-      <c r="E64" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="F64" s="38"/>
-      <c r="G64" s="38">
-        <v>85649115380</v>
-      </c>
-      <c r="H64" s="38"/>
-    </row>
-    <row r="65" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A65" s="38"/>
-      <c r="B65" s="10"/>
-      <c r="C65" s="8"/>
-      <c r="D65" s="10"/>
-      <c r="E65" s="8"/>
-      <c r="F65" s="38"/>
-      <c r="G65" s="38"/>
-      <c r="H65" s="38"/>
-    </row>
-    <row r="66" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A66" s="10">
-        <v>23</v>
-      </c>
-      <c r="B66" s="10" t="s">
-        <v>26</v>
-      </c>
-      <c r="C66" s="8">
-        <v>32</v>
-      </c>
-      <c r="D66" s="10"/>
-      <c r="E66" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="F66" s="38" t="s">
-        <v>114</v>
-      </c>
-      <c r="G66" s="38"/>
-      <c r="H66" s="38"/>
-    </row>
-    <row r="67" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="E67" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="F67" s="38"/>
+      <c r="G47" s="38"/>
+      <c r="H47" s="38"/>
+    </row>
+    <row r="48" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A48" s="10"/>
+      <c r="B48" s="10"/>
+      <c r="C48" s="8"/>
+      <c r="D48" s="10"/>
+      <c r="E48" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="F48" s="38"/>
+      <c r="G48" s="38"/>
+      <c r="H48" s="38"/>
     </row>
   </sheetData>
   <pageMargins left="0.43" right="0.12" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/RENCANA BON VOYAGE.xlsx
+++ b/RENCANA BON VOYAGE.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Mapan\progress\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5D57DFE0-6079-41FC-A94A-0E203C9653E3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3BA1D62D-C8F2-47BC-ABD0-767B7FD6C171}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="362" uniqueCount="112">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="365" uniqueCount="115">
   <si>
     <t>NO</t>
   </si>
@@ -346,9 +346,6 @@
     <t>22 maret 22</t>
   </si>
   <si>
-    <t>18 ORANG</t>
-  </si>
-  <si>
     <t>06 JULI</t>
   </si>
   <si>
@@ -362,6 +359,18 @@
   </si>
   <si>
     <t>01 AGUSTUS</t>
+  </si>
+  <si>
+    <t>25 ORANG</t>
+  </si>
+  <si>
+    <t>10 DES 21</t>
+  </si>
+  <si>
+    <t>21 ORANG</t>
+  </si>
+  <si>
+    <t>KUSUMA HENDRA</t>
   </si>
 </sst>
 </file>
@@ -483,7 +492,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="39">
+  <cellXfs count="40">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -583,6 +592,9 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="16" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -926,8 +938,8 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:O48"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="C35" sqref="C35"/>
+    <sheetView tabSelected="1" topLeftCell="A18" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="G49" sqref="G49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1673,11 +1685,11 @@
       <c r="D41" s="8" t="s">
         <v>48</v>
       </c>
-      <c r="E41" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="F41" s="8" t="s">
-        <v>107</v>
+      <c r="E41" s="35" t="s">
+        <v>7</v>
+      </c>
+      <c r="F41" s="35" t="s">
+        <v>106</v>
       </c>
       <c r="G41" s="8" t="s">
         <v>104</v>
@@ -1695,7 +1707,7 @@
         <v>8</v>
       </c>
       <c r="F42" s="10"/>
-      <c r="G42" s="10">
+      <c r="G42" s="8">
         <v>85732094240</v>
       </c>
       <c r="H42" s="10"/>
@@ -1721,19 +1733,19 @@
         <v>28</v>
       </c>
       <c r="D44" s="10" t="s">
-        <v>106</v>
+        <v>113</v>
       </c>
       <c r="E44" s="8" t="s">
         <v>7</v>
       </c>
       <c r="F44" s="38" t="s">
+        <v>107</v>
+      </c>
+      <c r="G44" s="38" t="s">
         <v>108</v>
       </c>
-      <c r="G44" s="38" t="s">
+      <c r="H44" s="38" t="s">
         <v>109</v>
-      </c>
-      <c r="H44" s="38" t="s">
-        <v>110</v>
       </c>
     </row>
     <row r="45" spans="1:8" x14ac:dyDescent="0.2">
@@ -1744,7 +1756,9 @@
       <c r="E45" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="F45" s="38"/>
+      <c r="F45" s="39">
+        <v>44501</v>
+      </c>
       <c r="G45" s="38">
         <v>85649115380</v>
       </c>
@@ -1770,15 +1784,21 @@
       <c r="C47" s="8">
         <v>32</v>
       </c>
-      <c r="D47" s="10"/>
+      <c r="D47" s="10" t="s">
+        <v>111</v>
+      </c>
       <c r="E47" s="8" t="s">
         <v>7</v>
       </c>
       <c r="F47" s="38" t="s">
-        <v>111</v>
-      </c>
-      <c r="G47" s="38"/>
-      <c r="H47" s="38"/>
+        <v>110</v>
+      </c>
+      <c r="G47" s="38" t="s">
+        <v>114</v>
+      </c>
+      <c r="H47" s="38" t="s">
+        <v>112</v>
+      </c>
     </row>
     <row r="48" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A48" s="10"/>
@@ -1788,8 +1808,12 @@
       <c r="E48" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="F48" s="38"/>
-      <c r="G48" s="38"/>
+      <c r="F48" s="39">
+        <v>44520</v>
+      </c>
+      <c r="G48" s="38">
+        <v>81332091802</v>
+      </c>
       <c r="H48" s="38"/>
     </row>
   </sheetData>

--- a/RENCANA BON VOYAGE.xlsx
+++ b/RENCANA BON VOYAGE.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Mapan\progress\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3BA1D62D-C8F2-47BC-ABD0-767B7FD6C171}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{02AED6A6-54A0-41EF-A259-2F2B3789E0F8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="365" uniqueCount="115">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="372" uniqueCount="115">
   <si>
     <t>NO</t>
   </si>
@@ -492,7 +492,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="40">
+  <cellXfs count="41">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -597,6 +597,7 @@
     <xf numFmtId="16" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="16" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -938,8 +939,8 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:O48"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A18" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="G49" sqref="G49"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="I27" sqref="I27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -988,7 +989,7 @@
     </row>
     <row r="2" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A2" s="8">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B2" s="8" t="s">
         <v>6</v>
@@ -1010,6 +1011,9 @@
       </c>
       <c r="H2" s="9">
         <v>44444</v>
+      </c>
+      <c r="I2" s="7" t="s">
+        <v>103</v>
       </c>
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.2">
@@ -1043,7 +1047,7 @@
     </row>
     <row r="5" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A5" s="8">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B5" s="8" t="s">
         <v>15</v>
@@ -1065,6 +1069,9 @@
       </c>
       <c r="H5" s="9">
         <v>44444</v>
+      </c>
+      <c r="I5" s="7" t="s">
+        <v>103</v>
       </c>
     </row>
     <row r="6" spans="1:15" x14ac:dyDescent="0.2">
@@ -1095,7 +1102,7 @@
     </row>
     <row r="8" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A8" s="8">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="B8" s="8" t="s">
         <v>20</v>
@@ -1117,6 +1124,9 @@
       </c>
       <c r="H8" s="9">
         <v>44520</v>
+      </c>
+      <c r="I8" s="7" t="s">
+        <v>103</v>
       </c>
     </row>
     <row r="9" spans="1:15" x14ac:dyDescent="0.2">
@@ -1147,7 +1157,7 @@
     </row>
     <row r="11" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A11" s="8">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="B11" s="8" t="s">
         <v>22</v>
@@ -1169,6 +1179,9 @@
       </c>
       <c r="H11" s="9">
         <v>44520</v>
+      </c>
+      <c r="I11" s="7" t="s">
+        <v>103</v>
       </c>
     </row>
     <row r="12" spans="1:15" x14ac:dyDescent="0.2">
@@ -1199,7 +1212,7 @@
     </row>
     <row r="14" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A14" s="37">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="B14" s="37" t="s">
         <v>26</v>
@@ -1220,6 +1233,9 @@
         <v>93</v>
       </c>
       <c r="H14" s="8"/>
+      <c r="I14" s="40">
+        <v>44287</v>
+      </c>
     </row>
     <row r="15" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A15" s="37"/>
@@ -1251,7 +1267,7 @@
     </row>
     <row r="17" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A17" s="37">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="B17" s="37" t="s">
         <v>26</v>
@@ -1273,6 +1289,9 @@
       </c>
       <c r="H17" s="9">
         <v>44501</v>
+      </c>
+      <c r="I17" s="7" t="s">
+        <v>103</v>
       </c>
     </row>
     <row r="18" spans="1:12" x14ac:dyDescent="0.2">
@@ -1303,7 +1322,7 @@
     </row>
     <row r="20" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A20" s="37">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="B20" s="37" t="s">
         <v>24</v>
@@ -1345,6 +1364,9 @@
         <v>95</v>
       </c>
       <c r="H21" s="8"/>
+      <c r="I21" s="7" t="s">
+        <v>103</v>
+      </c>
     </row>
     <row r="22" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A22" s="37"/>
@@ -1358,7 +1380,7 @@
     </row>
     <row r="23" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A23" s="37">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="B23" s="37" t="s">
         <v>36</v>
@@ -1380,6 +1402,9 @@
       </c>
       <c r="H23" s="8" t="s">
         <v>66</v>
+      </c>
+      <c r="I23" s="7" t="s">
+        <v>103</v>
       </c>
     </row>
     <row r="24" spans="1:12" x14ac:dyDescent="0.2">
@@ -1410,7 +1435,7 @@
     </row>
     <row r="26" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A26" s="37">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="B26" s="37" t="s">
         <v>38</v>
@@ -1432,6 +1457,9 @@
       </c>
       <c r="H26" s="33">
         <v>44409</v>
+      </c>
+      <c r="I26" s="40">
+        <v>44287</v>
       </c>
     </row>
     <row r="27" spans="1:12" x14ac:dyDescent="0.2">
@@ -1462,7 +1490,7 @@
     </row>
     <row r="29" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A29" s="35">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="B29" s="35" t="s">
         <v>39</v>
@@ -1514,7 +1542,7 @@
     </row>
     <row r="32" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A32" s="35">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="B32" s="35" t="s">
         <v>41</v>
@@ -1570,7 +1598,7 @@
     </row>
     <row r="35" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A35" s="8">
-        <v>19</v>
+        <v>12</v>
       </c>
       <c r="B35" s="8" t="s">
         <v>39</v>
@@ -1622,7 +1650,7 @@
     </row>
     <row r="38" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A38" s="8">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="B38" s="8" t="s">
         <v>41</v>
@@ -1674,7 +1702,7 @@
     </row>
     <row r="41" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A41" s="8">
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="B41" s="8" t="s">
         <v>24</v>
@@ -1724,7 +1752,7 @@
     </row>
     <row r="44" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A44" s="38">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="B44" s="10" t="s">
         <v>38</v>
@@ -1776,7 +1804,7 @@
     </row>
     <row r="47" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A47" s="38">
-        <v>23</v>
+        <v>16</v>
       </c>
       <c r="B47" s="10" t="s">
         <v>26</v>

--- a/RENCANA BON VOYAGE.xlsx
+++ b/RENCANA BON VOYAGE.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="24131"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="24228"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Mapan\progress\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{02AED6A6-54A0-41EF-A259-2F2B3789E0F8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5F115F88-1979-4F6E-BEE8-9D60A8D62ED6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="372" uniqueCount="115">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="383" uniqueCount="116">
   <si>
     <t>NO</t>
   </si>
@@ -334,9 +334,6 @@
     <t>/08123929482</t>
   </si>
   <si>
-    <t>terbayar</t>
-  </si>
-  <si>
     <t>24 juni</t>
   </si>
   <si>
@@ -370,7 +367,13 @@
     <t>21 ORANG</t>
   </si>
   <si>
-    <t>KUSUMA HENDRA</t>
+    <t>BAYAR</t>
+  </si>
+  <si>
+    <t>PAID</t>
+  </si>
+  <si>
+    <t>RISKY</t>
   </si>
 </sst>
 </file>
@@ -492,7 +495,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="41">
+  <cellXfs count="46">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -597,7 +600,24 @@
     <xf numFmtId="16" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="16" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="16" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -937,10 +957,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:O48"/>
+  <dimension ref="A1:O58"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="I27" sqref="I27"/>
+      <selection activeCell="H58" sqref="A1:H58"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -948,12 +968,13 @@
     <col min="1" max="1" width="5.28515625" style="7" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="15.140625" style="7" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="9.85546875" style="7" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.5703125" style="7" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.5703125" style="40" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="13.28515625" style="7" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="18.42578125" style="7" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="27.5703125" style="7" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="20" style="7" bestFit="1" customWidth="1"/>
-    <col min="9" max="14" width="9.140625" style="7"/>
+    <col min="9" max="9" width="9.140625" style="40"/>
+    <col min="10" max="14" width="9.140625" style="7"/>
     <col min="15" max="15" width="2.140625" style="7" bestFit="1" customWidth="1"/>
     <col min="16" max="16384" width="9.140625" style="7"/>
   </cols>
@@ -968,7 +989,7 @@
       <c r="C1" s="5" t="s">
         <v>71</v>
       </c>
-      <c r="D1" s="5" t="s">
+      <c r="D1" s="41" t="s">
         <v>2</v>
       </c>
       <c r="E1" s="5" t="s">
@@ -983,8 +1004,8 @@
       <c r="H1" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="I1" s="7" t="s">
-        <v>102</v>
+      <c r="I1" s="40" t="s">
+        <v>113</v>
       </c>
     </row>
     <row r="2" spans="1:15" x14ac:dyDescent="0.2">
@@ -997,7 +1018,7 @@
       <c r="C2" s="8">
         <v>9</v>
       </c>
-      <c r="D2" s="8" t="s">
+      <c r="D2" s="38" t="s">
         <v>51</v>
       </c>
       <c r="E2" s="35" t="s">
@@ -1012,15 +1033,15 @@
       <c r="H2" s="9">
         <v>44444</v>
       </c>
-      <c r="I2" s="7" t="s">
-        <v>103</v>
+      <c r="I2" s="40" t="s">
+        <v>102</v>
       </c>
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A3" s="8"/>
       <c r="B3" s="8"/>
       <c r="C3" s="8"/>
-      <c r="D3" s="8"/>
+      <c r="D3" s="38"/>
       <c r="E3" s="8" t="s">
         <v>8</v>
       </c>
@@ -1039,7 +1060,7 @@
       <c r="A4" s="8"/>
       <c r="B4" s="8"/>
       <c r="C4" s="8"/>
-      <c r="D4" s="8"/>
+      <c r="D4" s="38"/>
       <c r="E4" s="8"/>
       <c r="F4" s="8"/>
       <c r="G4" s="8"/>
@@ -1055,7 +1076,7 @@
       <c r="C5" s="8">
         <v>9</v>
       </c>
-      <c r="D5" s="8" t="s">
+      <c r="D5" s="38" t="s">
         <v>53</v>
       </c>
       <c r="E5" s="35" t="s">
@@ -1070,15 +1091,15 @@
       <c r="H5" s="9">
         <v>44444</v>
       </c>
-      <c r="I5" s="7" t="s">
-        <v>103</v>
+      <c r="I5" s="40" t="s">
+        <v>102</v>
       </c>
     </row>
     <row r="6" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A6" s="8"/>
       <c r="B6" s="8"/>
       <c r="C6" s="8"/>
-      <c r="D6" s="8"/>
+      <c r="D6" s="38"/>
       <c r="E6" s="8" t="s">
         <v>8</v>
       </c>
@@ -1094,7 +1115,7 @@
       <c r="A7" s="8"/>
       <c r="B7" s="8"/>
       <c r="C7" s="8"/>
-      <c r="D7" s="8"/>
+      <c r="D7" s="38"/>
       <c r="E7" s="8"/>
       <c r="F7" s="8"/>
       <c r="G7" s="8"/>
@@ -1110,7 +1131,7 @@
       <c r="C8" s="8">
         <v>16</v>
       </c>
-      <c r="D8" s="8" t="s">
+      <c r="D8" s="38" t="s">
         <v>59</v>
       </c>
       <c r="E8" s="35" t="s">
@@ -1125,15 +1146,15 @@
       <c r="H8" s="9">
         <v>44520</v>
       </c>
-      <c r="I8" s="7" t="s">
-        <v>103</v>
+      <c r="I8" s="40" t="s">
+        <v>102</v>
       </c>
     </row>
     <row r="9" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A9" s="8"/>
       <c r="B9" s="8"/>
       <c r="C9" s="8"/>
-      <c r="D9" s="8"/>
+      <c r="D9" s="38"/>
       <c r="E9" s="35" t="s">
         <v>8</v>
       </c>
@@ -1149,7 +1170,7 @@
       <c r="A10" s="8"/>
       <c r="B10" s="8"/>
       <c r="C10" s="8"/>
-      <c r="D10" s="8"/>
+      <c r="D10" s="38"/>
       <c r="E10" s="8"/>
       <c r="F10" s="8"/>
       <c r="G10" s="8"/>
@@ -1165,7 +1186,7 @@
       <c r="C11" s="8">
         <v>16</v>
       </c>
-      <c r="D11" s="8" t="s">
+      <c r="D11" s="38" t="s">
         <v>61</v>
       </c>
       <c r="E11" s="35" t="s">
@@ -1180,15 +1201,15 @@
       <c r="H11" s="9">
         <v>44520</v>
       </c>
-      <c r="I11" s="7" t="s">
-        <v>103</v>
+      <c r="I11" s="40" t="s">
+        <v>102</v>
       </c>
     </row>
     <row r="12" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A12" s="8"/>
       <c r="B12" s="8"/>
       <c r="C12" s="8"/>
-      <c r="D12" s="8"/>
+      <c r="D12" s="38"/>
       <c r="E12" s="8" t="s">
         <v>8</v>
       </c>
@@ -1204,7 +1225,7 @@
       <c r="A13" s="8"/>
       <c r="B13" s="8"/>
       <c r="C13" s="8"/>
-      <c r="D13" s="8"/>
+      <c r="D13" s="38"/>
       <c r="E13" s="8"/>
       <c r="F13" s="8"/>
       <c r="G13" s="8"/>
@@ -1220,7 +1241,7 @@
       <c r="C14" s="37">
         <v>30</v>
       </c>
-      <c r="D14" s="37" t="s">
+      <c r="D14" s="42" t="s">
         <v>63</v>
       </c>
       <c r="E14" s="35" t="s">
@@ -1232,8 +1253,10 @@
       <c r="G14" s="8" t="s">
         <v>93</v>
       </c>
-      <c r="H14" s="8"/>
-      <c r="I14" s="40">
+      <c r="H14" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="I14" s="44">
         <v>44287</v>
       </c>
     </row>
@@ -1241,7 +1264,7 @@
       <c r="A15" s="37"/>
       <c r="B15" s="37"/>
       <c r="C15" s="37"/>
-      <c r="D15" s="37"/>
+      <c r="D15" s="42"/>
       <c r="E15" s="35" t="s">
         <v>8</v>
       </c>
@@ -1251,15 +1274,13 @@
       <c r="G15" s="8" t="s">
         <v>92</v>
       </c>
-      <c r="H15" s="8" t="s">
-        <v>35</v>
-      </c>
+      <c r="H15" s="8"/>
     </row>
     <row r="16" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A16" s="37"/>
       <c r="B16" s="37"/>
       <c r="C16" s="37"/>
-      <c r="D16" s="37"/>
+      <c r="D16" s="42"/>
       <c r="E16" s="8"/>
       <c r="F16" s="8"/>
       <c r="G16" s="8"/>
@@ -1275,7 +1296,7 @@
       <c r="C17" s="37">
         <v>31</v>
       </c>
-      <c r="D17" s="37" t="s">
+      <c r="D17" s="42" t="s">
         <v>53</v>
       </c>
       <c r="E17" s="35" t="s">
@@ -1290,15 +1311,15 @@
       <c r="H17" s="9">
         <v>44501</v>
       </c>
-      <c r="I17" s="7" t="s">
-        <v>103</v>
+      <c r="I17" s="40" t="s">
+        <v>102</v>
       </c>
     </row>
     <row r="18" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A18" s="37"/>
       <c r="B18" s="37"/>
       <c r="C18" s="37"/>
-      <c r="D18" s="37"/>
+      <c r="D18" s="42"/>
       <c r="E18" s="8" t="s">
         <v>8</v>
       </c>
@@ -1314,7 +1335,7 @@
       <c r="A19" s="37"/>
       <c r="B19" s="37"/>
       <c r="C19" s="37"/>
-      <c r="D19" s="37"/>
+      <c r="D19" s="42"/>
       <c r="E19" s="8"/>
       <c r="F19" s="8"/>
       <c r="G19" s="8"/>
@@ -1330,7 +1351,7 @@
       <c r="C20" s="37">
         <v>25</v>
       </c>
-      <c r="D20" s="37" t="s">
+      <c r="D20" s="42" t="s">
         <v>48</v>
       </c>
       <c r="E20" s="35" t="s">
@@ -1345,15 +1366,15 @@
       <c r="H20" s="9">
         <v>44501</v>
       </c>
-      <c r="I20" s="7" t="s">
-        <v>103</v>
+      <c r="I20" s="40" t="s">
+        <v>102</v>
       </c>
     </row>
     <row r="21" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A21" s="37"/>
       <c r="B21" s="37"/>
       <c r="C21" s="37"/>
-      <c r="D21" s="37"/>
+      <c r="D21" s="42"/>
       <c r="E21" s="8" t="s">
         <v>8</v>
       </c>
@@ -1364,15 +1385,15 @@
         <v>95</v>
       </c>
       <c r="H21" s="8"/>
-      <c r="I21" s="7" t="s">
-        <v>103</v>
+      <c r="I21" s="40" t="s">
+        <v>102</v>
       </c>
     </row>
     <row r="22" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A22" s="37"/>
       <c r="B22" s="37"/>
       <c r="C22" s="37"/>
-      <c r="D22" s="37"/>
+      <c r="D22" s="42"/>
       <c r="E22" s="8"/>
       <c r="F22" s="8"/>
       <c r="G22" s="8"/>
@@ -1388,7 +1409,7 @@
       <c r="C23" s="37">
         <v>32</v>
       </c>
-      <c r="D23" s="37" t="s">
+      <c r="D23" s="42" t="s">
         <v>25</v>
       </c>
       <c r="E23" s="35" t="s">
@@ -1403,15 +1424,15 @@
       <c r="H23" s="8" t="s">
         <v>66</v>
       </c>
-      <c r="I23" s="7" t="s">
-        <v>103</v>
+      <c r="I23" s="40" t="s">
+        <v>102</v>
       </c>
     </row>
     <row r="24" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A24" s="37"/>
       <c r="B24" s="37"/>
       <c r="C24" s="37"/>
-      <c r="D24" s="37"/>
+      <c r="D24" s="42"/>
       <c r="E24" s="8" t="s">
         <v>8</v>
       </c>
@@ -1427,7 +1448,7 @@
       <c r="A25" s="37"/>
       <c r="B25" s="37"/>
       <c r="C25" s="37"/>
-      <c r="D25" s="37"/>
+      <c r="D25" s="42"/>
       <c r="E25" s="8"/>
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
@@ -1443,7 +1464,7 @@
       <c r="C26" s="37">
         <v>27</v>
       </c>
-      <c r="D26" s="37" t="s">
+      <c r="D26" s="42" t="s">
         <v>67</v>
       </c>
       <c r="E26" s="35" t="s">
@@ -1458,7 +1479,7 @@
       <c r="H26" s="33">
         <v>44409</v>
       </c>
-      <c r="I26" s="40">
+      <c r="I26" s="44">
         <v>44287</v>
       </c>
     </row>
@@ -1466,7 +1487,7 @@
       <c r="A27" s="37"/>
       <c r="B27" s="37"/>
       <c r="C27" s="37"/>
-      <c r="D27" s="37"/>
+      <c r="D27" s="42"/>
       <c r="E27" s="32" t="s">
         <v>8</v>
       </c>
@@ -1482,7 +1503,7 @@
       <c r="A28" s="8"/>
       <c r="B28" s="8"/>
       <c r="C28" s="8"/>
-      <c r="D28" s="8"/>
+      <c r="D28" s="38"/>
       <c r="E28" s="8"/>
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
@@ -1498,7 +1519,7 @@
       <c r="C29" s="35">
         <v>38</v>
       </c>
-      <c r="D29" s="35" t="s">
+      <c r="D29" s="43" t="s">
         <v>50</v>
       </c>
       <c r="E29" s="35" t="s">
@@ -1512,13 +1533,16 @@
       </c>
       <c r="H29" s="8" t="s">
         <v>40</v>
+      </c>
+      <c r="I29" s="40" t="s">
+        <v>114</v>
       </c>
     </row>
     <row r="30" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A30" s="8"/>
       <c r="B30" s="8"/>
       <c r="C30" s="8"/>
-      <c r="D30" s="8"/>
+      <c r="D30" s="38"/>
       <c r="E30" s="35" t="s">
         <v>8</v>
       </c>
@@ -1534,7 +1558,7 @@
       <c r="A31" s="10"/>
       <c r="B31" s="10"/>
       <c r="C31" s="10"/>
-      <c r="D31" s="10"/>
+      <c r="D31" s="38"/>
       <c r="E31" s="10"/>
       <c r="F31" s="10"/>
       <c r="G31" s="10"/>
@@ -1550,7 +1574,7 @@
       <c r="C32" s="35">
         <v>38</v>
       </c>
-      <c r="D32" s="35" t="s">
+      <c r="D32" s="43" t="s">
         <v>48</v>
       </c>
       <c r="E32" s="35" t="s">
@@ -1565,7 +1589,9 @@
       <c r="H32" s="8" t="s">
         <v>40</v>
       </c>
-      <c r="I32" s="11"/>
+      <c r="I32" s="45" t="s">
+        <v>114</v>
+      </c>
       <c r="J32" s="12"/>
       <c r="K32" s="12"/>
       <c r="L32" s="12"/>
@@ -1574,7 +1600,7 @@
       <c r="A33" s="32"/>
       <c r="B33" s="8"/>
       <c r="C33" s="8"/>
-      <c r="D33" s="8"/>
+      <c r="D33" s="38"/>
       <c r="E33" s="35" t="s">
         <v>8</v>
       </c>
@@ -1590,7 +1616,7 @@
       <c r="A34" s="8"/>
       <c r="B34" s="8"/>
       <c r="C34" s="8"/>
-      <c r="D34" s="8"/>
+      <c r="D34" s="38"/>
       <c r="E34" s="8"/>
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
@@ -1606,7 +1632,7 @@
       <c r="C35" s="8">
         <v>39</v>
       </c>
-      <c r="D35" s="8" t="s">
+      <c r="D35" s="38" t="s">
         <v>25</v>
       </c>
       <c r="E35" s="35" t="s">
@@ -1626,7 +1652,7 @@
       <c r="A36" s="8"/>
       <c r="B36" s="8"/>
       <c r="C36" s="8"/>
-      <c r="D36" s="8"/>
+      <c r="D36" s="38"/>
       <c r="E36" s="8" t="s">
         <v>8</v>
       </c>
@@ -1642,7 +1668,7 @@
       <c r="A37" s="8"/>
       <c r="B37" s="8"/>
       <c r="C37" s="8"/>
-      <c r="D37" s="8"/>
+      <c r="D37" s="38"/>
       <c r="E37" s="8"/>
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
@@ -1658,7 +1684,7 @@
       <c r="C38" s="8">
         <v>39</v>
       </c>
-      <c r="D38" s="8" t="s">
+      <c r="D38" s="38" t="s">
         <v>69</v>
       </c>
       <c r="E38" s="35" t="s">
@@ -1678,7 +1704,7 @@
       <c r="A39" s="8"/>
       <c r="B39" s="8"/>
       <c r="C39" s="8"/>
-      <c r="D39" s="8"/>
+      <c r="D39" s="38"/>
       <c r="E39" s="8" t="s">
         <v>8</v>
       </c>
@@ -1694,7 +1720,7 @@
       <c r="A40" s="8"/>
       <c r="B40" s="8"/>
       <c r="C40" s="8"/>
-      <c r="D40" s="8"/>
+      <c r="D40" s="38"/>
       <c r="E40" s="8"/>
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
@@ -1710,27 +1736,27 @@
       <c r="C41" s="8">
         <v>26</v>
       </c>
-      <c r="D41" s="8" t="s">
+      <c r="D41" s="38" t="s">
         <v>48</v>
       </c>
       <c r="E41" s="35" t="s">
         <v>7</v>
       </c>
       <c r="F41" s="35" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="G41" s="8" t="s">
+        <v>103</v>
+      </c>
+      <c r="H41" s="9" t="s">
         <v>104</v>
-      </c>
-      <c r="H41" s="9" t="s">
-        <v>105</v>
       </c>
     </row>
     <row r="42" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A42" s="8"/>
       <c r="B42" s="8"/>
       <c r="C42" s="8"/>
-      <c r="D42" s="8"/>
+      <c r="D42" s="38"/>
       <c r="E42" s="8" t="s">
         <v>8</v>
       </c>
@@ -1744,7 +1770,7 @@
       <c r="A43" s="10"/>
       <c r="B43" s="10"/>
       <c r="C43" s="10"/>
-      <c r="D43" s="10"/>
+      <c r="D43" s="38"/>
       <c r="E43" s="10"/>
       <c r="F43" s="10"/>
       <c r="G43" s="10"/>
@@ -1760,27 +1786,27 @@
       <c r="C44" s="8">
         <v>28</v>
       </c>
-      <c r="D44" s="10" t="s">
-        <v>113</v>
+      <c r="D44" s="38" t="s">
+        <v>112</v>
       </c>
       <c r="E44" s="8" t="s">
         <v>7</v>
       </c>
       <c r="F44" s="38" t="s">
+        <v>106</v>
+      </c>
+      <c r="G44" s="38" t="s">
         <v>107</v>
       </c>
-      <c r="G44" s="38" t="s">
+      <c r="H44" s="38" t="s">
         <v>108</v>
-      </c>
-      <c r="H44" s="38" t="s">
-        <v>109</v>
       </c>
     </row>
     <row r="45" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A45" s="10"/>
       <c r="B45" s="10"/>
       <c r="C45" s="8"/>
-      <c r="D45" s="10"/>
+      <c r="D45" s="38"/>
       <c r="E45" s="8" t="s">
         <v>8</v>
       </c>
@@ -1796,7 +1822,7 @@
       <c r="A46" s="38"/>
       <c r="B46" s="10"/>
       <c r="C46" s="8"/>
-      <c r="D46" s="10"/>
+      <c r="D46" s="38"/>
       <c r="E46" s="8"/>
       <c r="F46" s="38"/>
       <c r="G46" s="38"/>
@@ -1812,27 +1838,27 @@
       <c r="C47" s="8">
         <v>32</v>
       </c>
-      <c r="D47" s="10" t="s">
+      <c r="D47" s="38" t="s">
+        <v>110</v>
+      </c>
+      <c r="E47" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="F47" s="38" t="s">
+        <v>109</v>
+      </c>
+      <c r="G47" s="38" t="s">
+        <v>115</v>
+      </c>
+      <c r="H47" s="38" t="s">
         <v>111</v>
-      </c>
-      <c r="E47" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="F47" s="38" t="s">
-        <v>110</v>
-      </c>
-      <c r="G47" s="38" t="s">
-        <v>114</v>
-      </c>
-      <c r="H47" s="38" t="s">
-        <v>112</v>
       </c>
     </row>
     <row r="48" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A48" s="10"/>
       <c r="B48" s="10"/>
       <c r="C48" s="8"/>
-      <c r="D48" s="10"/>
+      <c r="D48" s="38"/>
       <c r="E48" s="8" t="s">
         <v>8</v>
       </c>
@@ -1840,9 +1866,139 @@
         <v>44520</v>
       </c>
       <c r="G48" s="38">
-        <v>81332091802</v>
+        <v>81333524165</v>
       </c>
       <c r="H48" s="38"/>
+    </row>
+    <row r="49" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A49" s="38"/>
+      <c r="B49" s="10"/>
+      <c r="C49" s="8"/>
+      <c r="D49" s="38"/>
+      <c r="E49" s="8"/>
+      <c r="F49" s="38"/>
+      <c r="G49" s="38"/>
+      <c r="H49" s="38"/>
+    </row>
+    <row r="50" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A50" s="10">
+        <v>17</v>
+      </c>
+      <c r="B50" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="C50" s="8">
+        <v>17</v>
+      </c>
+      <c r="D50" s="38"/>
+      <c r="E50" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="F50" s="39"/>
+      <c r="G50" s="38"/>
+      <c r="H50" s="38"/>
+    </row>
+    <row r="51" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A51" s="38"/>
+      <c r="B51" s="10"/>
+      <c r="C51" s="8"/>
+      <c r="D51" s="38"/>
+      <c r="E51" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="F51" s="38"/>
+      <c r="G51" s="38"/>
+      <c r="H51" s="38"/>
+    </row>
+    <row r="52" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A52" s="10"/>
+      <c r="B52" s="10"/>
+      <c r="C52" s="8"/>
+      <c r="D52" s="38"/>
+      <c r="E52" s="8"/>
+      <c r="F52" s="39"/>
+      <c r="G52" s="38"/>
+      <c r="H52" s="38"/>
+    </row>
+    <row r="53" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A53" s="38">
+        <v>18</v>
+      </c>
+      <c r="B53" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="C53" s="8">
+        <v>17</v>
+      </c>
+      <c r="D53" s="38"/>
+      <c r="E53" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="F53" s="38"/>
+      <c r="G53" s="38"/>
+      <c r="H53" s="38"/>
+    </row>
+    <row r="54" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A54" s="10"/>
+      <c r="B54" s="10"/>
+      <c r="C54" s="8"/>
+      <c r="D54" s="38"/>
+      <c r="E54" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="F54" s="39"/>
+      <c r="G54" s="38"/>
+      <c r="H54" s="38"/>
+    </row>
+    <row r="55" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A55" s="38"/>
+      <c r="B55" s="10"/>
+      <c r="C55" s="8"/>
+      <c r="D55" s="38"/>
+      <c r="E55" s="8"/>
+      <c r="F55" s="38"/>
+      <c r="G55" s="38"/>
+      <c r="H55" s="38"/>
+    </row>
+    <row r="56" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A56" s="10">
+        <v>19</v>
+      </c>
+      <c r="B56" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="C56" s="8">
+        <v>33</v>
+      </c>
+      <c r="D56" s="38"/>
+      <c r="E56" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="F56" s="39"/>
+      <c r="G56" s="38"/>
+      <c r="H56" s="38"/>
+    </row>
+    <row r="57" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A57" s="38"/>
+      <c r="B57" s="10"/>
+      <c r="C57" s="8"/>
+      <c r="D57" s="38"/>
+      <c r="E57" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="F57" s="38"/>
+      <c r="G57" s="38"/>
+      <c r="H57" s="38"/>
+    </row>
+    <row r="58" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A58" s="10"/>
+      <c r="B58" s="10"/>
+      <c r="C58" s="8"/>
+      <c r="D58" s="38"/>
+      <c r="E58" s="8"/>
+      <c r="F58" s="39"/>
+      <c r="G58" s="38"/>
+      <c r="H58" s="38"/>
     </row>
   </sheetData>
   <pageMargins left="0.43" right="0.12" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/RENCANA BON VOYAGE.xlsx
+++ b/RENCANA BON VOYAGE.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Mapan\progress\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5F115F88-1979-4F6E-BEE8-9D60A8D62ED6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DC621786-E8BD-4404-A436-DFC4252E19FA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="383" uniqueCount="116">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="392" uniqueCount="123">
   <si>
     <t>NO</t>
   </si>
@@ -374,6 +374,27 @@
   </si>
   <si>
     <t>RISKY</t>
+  </si>
+  <si>
+    <t>67 ORANG</t>
+  </si>
+  <si>
+    <t>14 ORANG</t>
+  </si>
+  <si>
+    <t>SUNARTO</t>
+  </si>
+  <si>
+    <t>JAMALUDIN</t>
+  </si>
+  <si>
+    <t>ABIDIN</t>
+  </si>
+  <si>
+    <t>27 AGUSTUS</t>
+  </si>
+  <si>
+    <t>20 AGUSTUS</t>
   </si>
 </sst>
 </file>
@@ -615,7 +636,7 @@
     <xf numFmtId="16" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -959,13 +980,13 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:O58"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="H58" sqref="A1:H58"/>
+    <sheetView tabSelected="1" topLeftCell="A22" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="F57" sqref="F57"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="5.28515625" style="7" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="5.28515625" style="40" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="15.140625" style="7" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="9.85546875" style="7" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="12.5703125" style="40" bestFit="1" customWidth="1"/>
@@ -980,7 +1001,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" ht="18" x14ac:dyDescent="0.25">
-      <c r="A1" s="5" t="s">
+      <c r="A1" s="41" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="5" t="s">
@@ -1009,7 +1030,7 @@
       </c>
     </row>
     <row r="2" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A2" s="8">
+      <c r="A2" s="38">
         <v>1</v>
       </c>
       <c r="B2" s="8" t="s">
@@ -1038,7 +1059,7 @@
       </c>
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A3" s="8"/>
+      <c r="A3" s="38"/>
       <c r="B3" s="8"/>
       <c r="C3" s="8"/>
       <c r="D3" s="38"/>
@@ -1057,7 +1078,7 @@
       </c>
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A4" s="8"/>
+      <c r="A4" s="38"/>
       <c r="B4" s="8"/>
       <c r="C4" s="8"/>
       <c r="D4" s="38"/>
@@ -1067,7 +1088,7 @@
       <c r="H4" s="8"/>
     </row>
     <row r="5" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A5" s="8">
+      <c r="A5" s="38">
         <v>2</v>
       </c>
       <c r="B5" s="8" t="s">
@@ -1096,7 +1117,7 @@
       </c>
     </row>
     <row r="6" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A6" s="8"/>
+      <c r="A6" s="38"/>
       <c r="B6" s="8"/>
       <c r="C6" s="8"/>
       <c r="D6" s="38"/>
@@ -1112,7 +1133,7 @@
       <c r="H6" s="8"/>
     </row>
     <row r="7" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A7" s="8"/>
+      <c r="A7" s="38"/>
       <c r="B7" s="8"/>
       <c r="C7" s="8"/>
       <c r="D7" s="38"/>
@@ -1122,7 +1143,7 @@
       <c r="H7" s="8"/>
     </row>
     <row r="8" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A8" s="8">
+      <c r="A8" s="38">
         <v>3</v>
       </c>
       <c r="B8" s="8" t="s">
@@ -1151,7 +1172,7 @@
       </c>
     </row>
     <row r="9" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A9" s="8"/>
+      <c r="A9" s="38"/>
       <c r="B9" s="8"/>
       <c r="C9" s="8"/>
       <c r="D9" s="38"/>
@@ -1167,7 +1188,7 @@
       <c r="H9" s="9"/>
     </row>
     <row r="10" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A10" s="8"/>
+      <c r="A10" s="38"/>
       <c r="B10" s="8"/>
       <c r="C10" s="8"/>
       <c r="D10" s="38"/>
@@ -1177,7 +1198,7 @@
       <c r="H10" s="9"/>
     </row>
     <row r="11" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A11" s="8">
+      <c r="A11" s="38">
         <v>4</v>
       </c>
       <c r="B11" s="8" t="s">
@@ -1206,7 +1227,7 @@
       </c>
     </row>
     <row r="12" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A12" s="8"/>
+      <c r="A12" s="38"/>
       <c r="B12" s="8"/>
       <c r="C12" s="8"/>
       <c r="D12" s="38"/>
@@ -1222,7 +1243,7 @@
       <c r="H12" s="9"/>
     </row>
     <row r="13" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A13" s="8"/>
+      <c r="A13" s="38"/>
       <c r="B13" s="8"/>
       <c r="C13" s="8"/>
       <c r="D13" s="38"/>
@@ -1232,7 +1253,7 @@
       <c r="H13" s="9"/>
     </row>
     <row r="14" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A14" s="37">
+      <c r="A14" s="42">
         <v>5</v>
       </c>
       <c r="B14" s="37" t="s">
@@ -1261,7 +1282,7 @@
       </c>
     </row>
     <row r="15" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A15" s="37"/>
+      <c r="A15" s="42"/>
       <c r="B15" s="37"/>
       <c r="C15" s="37"/>
       <c r="D15" s="42"/>
@@ -1277,7 +1298,7 @@
       <c r="H15" s="8"/>
     </row>
     <row r="16" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A16" s="37"/>
+      <c r="A16" s="42"/>
       <c r="B16" s="37"/>
       <c r="C16" s="37"/>
       <c r="D16" s="42"/>
@@ -1286,8 +1307,8 @@
       <c r="G16" s="8"/>
       <c r="H16" s="8"/>
     </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A17" s="37">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A17" s="42">
         <v>6</v>
       </c>
       <c r="B17" s="37" t="s">
@@ -1315,8 +1336,8 @@
         <v>102</v>
       </c>
     </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A18" s="37"/>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A18" s="42"/>
       <c r="B18" s="37"/>
       <c r="C18" s="37"/>
       <c r="D18" s="42"/>
@@ -1331,8 +1352,8 @@
       </c>
       <c r="H18" s="8"/>
     </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A19" s="37"/>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A19" s="42"/>
       <c r="B19" s="37"/>
       <c r="C19" s="37"/>
       <c r="D19" s="42"/>
@@ -1341,8 +1362,8 @@
       <c r="G19" s="8"/>
       <c r="H19" s="8"/>
     </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A20" s="37">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A20" s="42">
         <v>7</v>
       </c>
       <c r="B20" s="37" t="s">
@@ -1370,8 +1391,8 @@
         <v>102</v>
       </c>
     </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A21" s="37"/>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A21" s="42"/>
       <c r="B21" s="37"/>
       <c r="C21" s="37"/>
       <c r="D21" s="42"/>
@@ -1389,8 +1410,8 @@
         <v>102</v>
       </c>
     </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A22" s="37"/>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A22" s="42"/>
       <c r="B22" s="37"/>
       <c r="C22" s="37"/>
       <c r="D22" s="42"/>
@@ -1399,8 +1420,8 @@
       <c r="G22" s="8"/>
       <c r="H22" s="8"/>
     </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A23" s="37">
+    <row r="23" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A23" s="42">
         <v>8</v>
       </c>
       <c r="B23" s="37" t="s">
@@ -1428,15 +1449,15 @@
         <v>102</v>
       </c>
     </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A24" s="37"/>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A24" s="42"/>
       <c r="B24" s="37"/>
       <c r="C24" s="37"/>
       <c r="D24" s="42"/>
-      <c r="E24" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="F24" s="8" t="s">
+      <c r="E24" s="35" t="s">
+        <v>8</v>
+      </c>
+      <c r="F24" s="35" t="s">
         <v>87</v>
       </c>
       <c r="G24" s="8">
@@ -1444,8 +1465,8 @@
       </c>
       <c r="H24" s="8"/>
     </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A25" s="37"/>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A25" s="42"/>
       <c r="B25" s="37"/>
       <c r="C25" s="37"/>
       <c r="D25" s="42"/>
@@ -1454,8 +1475,8 @@
       <c r="G25" s="8"/>
       <c r="H25" s="8"/>
     </row>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A26" s="37">
+    <row r="26" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A26" s="42">
         <v>9</v>
       </c>
       <c r="B26" s="37" t="s">
@@ -1483,15 +1504,15 @@
         <v>44287</v>
       </c>
     </row>
-    <row r="27" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A27" s="37"/>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A27" s="42"/>
       <c r="B27" s="37"/>
       <c r="C27" s="37"/>
       <c r="D27" s="42"/>
-      <c r="E27" s="32" t="s">
-        <v>8</v>
-      </c>
-      <c r="F27" s="32" t="s">
+      <c r="E27" s="35" t="s">
+        <v>8</v>
+      </c>
+      <c r="F27" s="35" t="s">
         <v>87</v>
       </c>
       <c r="G27" s="32" t="s">
@@ -1499,8 +1520,8 @@
       </c>
       <c r="H27" s="33"/>
     </row>
-    <row r="28" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A28" s="8"/>
+    <row r="28" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A28" s="38"/>
       <c r="B28" s="8"/>
       <c r="C28" s="8"/>
       <c r="D28" s="38"/>
@@ -1509,8 +1530,8 @@
       <c r="G28" s="8"/>
       <c r="H28" s="8"/>
     </row>
-    <row r="29" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A29" s="35">
+    <row r="29" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A29" s="43">
         <v>10</v>
       </c>
       <c r="B29" s="35" t="s">
@@ -1538,8 +1559,8 @@
         <v>114</v>
       </c>
     </row>
-    <row r="30" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A30" s="8"/>
+    <row r="30" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A30" s="38"/>
       <c r="B30" s="8"/>
       <c r="C30" s="8"/>
       <c r="D30" s="38"/>
@@ -1554,8 +1575,8 @@
       </c>
       <c r="H30" s="8"/>
     </row>
-    <row r="31" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A31" s="10"/>
+    <row r="31" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A31" s="38"/>
       <c r="B31" s="10"/>
       <c r="C31" s="10"/>
       <c r="D31" s="38"/>
@@ -1563,9 +1584,10 @@
       <c r="F31" s="10"/>
       <c r="G31" s="10"/>
       <c r="H31" s="10"/>
-    </row>
-    <row r="32" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A32" s="35">
+      <c r="I31" s="7"/>
+    </row>
+    <row r="32" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A32" s="43">
         <v>11</v>
       </c>
       <c r="B32" s="35" t="s">
@@ -1589,15 +1611,12 @@
       <c r="H32" s="8" t="s">
         <v>40</v>
       </c>
-      <c r="I32" s="45" t="s">
+      <c r="I32" s="7" t="s">
         <v>114</v>
       </c>
-      <c r="J32" s="12"/>
-      <c r="K32" s="12"/>
-      <c r="L32" s="12"/>
-    </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A33" s="32"/>
+    </row>
+    <row r="33" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A33" s="45"/>
       <c r="B33" s="8"/>
       <c r="C33" s="8"/>
       <c r="D33" s="38"/>
@@ -1611,9 +1630,10 @@
         <v>101</v>
       </c>
       <c r="H33" s="8"/>
-    </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A34" s="8"/>
+      <c r="I33" s="7"/>
+    </row>
+    <row r="34" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A34" s="38"/>
       <c r="B34" s="8"/>
       <c r="C34" s="8"/>
       <c r="D34" s="38"/>
@@ -1621,9 +1641,10 @@
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c r="H34" s="8"/>
-    </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A35" s="8">
+      <c r="I34" s="7"/>
+    </row>
+    <row r="35" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A35" s="38">
         <v>12</v>
       </c>
       <c r="B35" s="8" t="s">
@@ -1647,9 +1668,10 @@
       <c r="H35" s="9">
         <v>44444</v>
       </c>
-    </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A36" s="8"/>
+      <c r="I35" s="7"/>
+    </row>
+    <row r="36" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A36" s="38"/>
       <c r="B36" s="8"/>
       <c r="C36" s="8"/>
       <c r="D36" s="38"/>
@@ -1663,9 +1685,10 @@
         <v>81331414130</v>
       </c>
       <c r="H36" s="8"/>
-    </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A37" s="8"/>
+      <c r="I36" s="7"/>
+    </row>
+    <row r="37" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A37" s="38"/>
       <c r="B37" s="8"/>
       <c r="C37" s="8"/>
       <c r="D37" s="38"/>
@@ -1673,9 +1696,10 @@
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c r="H37" s="8"/>
-    </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A38" s="8">
+      <c r="I37" s="7"/>
+    </row>
+    <row r="38" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A38" s="38">
         <v>13</v>
       </c>
       <c r="B38" s="8" t="s">
@@ -1699,9 +1723,10 @@
       <c r="H38" s="9">
         <v>44444</v>
       </c>
-    </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A39" s="8"/>
+      <c r="I38" s="7"/>
+    </row>
+    <row r="39" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A39" s="38"/>
       <c r="B39" s="8"/>
       <c r="C39" s="8"/>
       <c r="D39" s="38"/>
@@ -1716,8 +1741,8 @@
       </c>
       <c r="H39" s="8"/>
     </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A40" s="8"/>
+    <row r="40" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A40" s="38"/>
       <c r="B40" s="8"/>
       <c r="C40" s="8"/>
       <c r="D40" s="38"/>
@@ -1726,8 +1751,8 @@
       <c r="G40" s="8"/>
       <c r="H40" s="8"/>
     </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A41" s="8">
+    <row r="41" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A41" s="38">
         <v>14</v>
       </c>
       <c r="B41" s="8" t="s">
@@ -1752,22 +1777,24 @@
         <v>104</v>
       </c>
     </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A42" s="8"/>
+    <row r="42" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A42" s="38"/>
       <c r="B42" s="8"/>
       <c r="C42" s="8"/>
       <c r="D42" s="38"/>
       <c r="E42" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="F42" s="10"/>
+      <c r="F42" s="9">
+        <v>44614</v>
+      </c>
       <c r="G42" s="8">
         <v>85732094240</v>
       </c>
       <c r="H42" s="10"/>
     </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A43" s="10"/>
+    <row r="43" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A43" s="38"/>
       <c r="B43" s="10"/>
       <c r="C43" s="10"/>
       <c r="D43" s="38"/>
@@ -1776,7 +1803,7 @@
       <c r="G43" s="10"/>
       <c r="H43" s="10"/>
     </row>
-    <row r="44" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A44" s="38">
         <v>15</v>
       </c>
@@ -1802,8 +1829,8 @@
         <v>108</v>
       </c>
     </row>
-    <row r="45" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A45" s="10"/>
+    <row r="45" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A45" s="38"/>
       <c r="B45" s="10"/>
       <c r="C45" s="8"/>
       <c r="D45" s="38"/>
@@ -1818,7 +1845,7 @@
       </c>
       <c r="H45" s="38"/>
     </row>
-    <row r="46" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A46" s="38"/>
       <c r="B46" s="10"/>
       <c r="C46" s="8"/>
@@ -1828,7 +1855,7 @@
       <c r="G46" s="38"/>
       <c r="H46" s="38"/>
     </row>
-    <row r="47" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A47" s="38">
         <v>16</v>
       </c>
@@ -1854,8 +1881,8 @@
         <v>111</v>
       </c>
     </row>
-    <row r="48" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A48" s="10"/>
+    <row r="48" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A48" s="38"/>
       <c r="B48" s="10"/>
       <c r="C48" s="8"/>
       <c r="D48" s="38"/>
@@ -1881,7 +1908,7 @@
       <c r="H49" s="38"/>
     </row>
     <row r="50" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A50" s="10">
+      <c r="A50" s="38">
         <v>17</v>
       </c>
       <c r="B50" s="10" t="s">
@@ -1890,12 +1917,18 @@
       <c r="C50" s="8">
         <v>17</v>
       </c>
-      <c r="D50" s="38"/>
+      <c r="D50" s="38" t="s">
+        <v>116</v>
+      </c>
       <c r="E50" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="F50" s="39"/>
-      <c r="G50" s="38"/>
+      <c r="F50" s="39" t="s">
+        <v>121</v>
+      </c>
+      <c r="G50" s="38" t="s">
+        <v>120</v>
+      </c>
       <c r="H50" s="38"/>
     </row>
     <row r="51" spans="1:8" x14ac:dyDescent="0.2">
@@ -1907,11 +1940,13 @@
         <v>8</v>
       </c>
       <c r="F51" s="38"/>
-      <c r="G51" s="38"/>
+      <c r="G51" s="38">
+        <v>81284663664</v>
+      </c>
       <c r="H51" s="38"/>
     </row>
     <row r="52" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A52" s="10"/>
+      <c r="A52" s="38"/>
       <c r="B52" s="10"/>
       <c r="C52" s="8"/>
       <c r="D52" s="38"/>
@@ -1930,16 +1965,22 @@
       <c r="C53" s="8">
         <v>17</v>
       </c>
-      <c r="D53" s="38"/>
+      <c r="D53" s="38" t="s">
+        <v>49</v>
+      </c>
       <c r="E53" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="F53" s="38"/>
-      <c r="G53" s="38"/>
+      <c r="F53" s="39" t="s">
+        <v>121</v>
+      </c>
+      <c r="G53" s="38" t="s">
+        <v>119</v>
+      </c>
       <c r="H53" s="38"/>
     </row>
     <row r="54" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A54" s="10"/>
+      <c r="A54" s="38"/>
       <c r="B54" s="10"/>
       <c r="C54" s="8"/>
       <c r="D54" s="38"/>
@@ -1947,7 +1988,9 @@
         <v>8</v>
       </c>
       <c r="F54" s="39"/>
-      <c r="G54" s="38"/>
+      <c r="G54" s="38">
+        <v>85740346667</v>
+      </c>
       <c r="H54" s="38"/>
     </row>
     <row r="55" spans="1:8" x14ac:dyDescent="0.2">
@@ -1961,7 +2004,7 @@
       <c r="H55" s="38"/>
     </row>
     <row r="56" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A56" s="10">
+      <c r="A56" s="38">
         <v>19</v>
       </c>
       <c r="B56" s="10" t="s">
@@ -1970,12 +2013,18 @@
       <c r="C56" s="8">
         <v>33</v>
       </c>
-      <c r="D56" s="38"/>
+      <c r="D56" s="38" t="s">
+        <v>117</v>
+      </c>
       <c r="E56" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="F56" s="39"/>
-      <c r="G56" s="38"/>
+      <c r="F56" s="39" t="s">
+        <v>122</v>
+      </c>
+      <c r="G56" s="38" t="s">
+        <v>118</v>
+      </c>
       <c r="H56" s="38"/>
     </row>
     <row r="57" spans="1:8" x14ac:dyDescent="0.2">
@@ -1987,11 +2036,13 @@
         <v>8</v>
       </c>
       <c r="F57" s="38"/>
-      <c r="G57" s="38"/>
+      <c r="G57" s="38">
+        <v>81331430509</v>
+      </c>
       <c r="H57" s="38"/>
     </row>
     <row r="58" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A58" s="10"/>
+      <c r="A58" s="38"/>
       <c r="B58" s="10"/>
       <c r="C58" s="8"/>
       <c r="D58" s="38"/>

--- a/RENCANA BON VOYAGE.xlsx
+++ b/RENCANA BON VOYAGE.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Mapan\progress\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DC621786-E8BD-4404-A436-DFC4252E19FA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{364C732C-55BD-4CCE-943B-A9FDD8050448}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="392" uniqueCount="123">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="396" uniqueCount="124">
   <si>
     <t>NO</t>
   </si>
@@ -395,6 +395,9 @@
   </si>
   <si>
     <t>20 AGUSTUS</t>
+  </si>
+  <si>
+    <t>RYAN WIBOWO</t>
   </si>
 </sst>
 </file>
@@ -516,7 +519,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="46">
+  <cellXfs count="47">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -638,6 +641,9 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -978,10 +984,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:O58"/>
+  <dimension ref="A1:O60"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A22" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="F57" sqref="F57"/>
+      <selection activeCell="C59" sqref="C59"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -2050,6 +2056,28 @@
       <c r="F58" s="39"/>
       <c r="G58" s="38"/>
       <c r="H58" s="38"/>
+    </row>
+    <row r="59" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B59" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="C59" s="46">
+        <v>40</v>
+      </c>
+      <c r="E59" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="G59" s="40" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="60" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="E60" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="G60" s="40">
+        <v>81359524067</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.43" right="0.12" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/RENCANA BON VOYAGE.xlsx
+++ b/RENCANA BON VOYAGE.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Mapan\progress\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{364C732C-55BD-4CCE-943B-A9FDD8050448}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{73D39C76-08DC-4B4B-9893-E0427729819B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -19,14 +19,14 @@
     <sheet name="Sheet3" sheetId="3" r:id="rId4"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$I$42</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$I$55</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="396" uniqueCount="124">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="418" uniqueCount="131">
   <si>
     <t>NO</t>
   </si>
@@ -398,6 +398,27 @@
   </si>
   <si>
     <t>RYAN WIBOWO</t>
+  </si>
+  <si>
+    <t>19 AGUST</t>
+  </si>
+  <si>
+    <t>YOSEP</t>
+  </si>
+  <si>
+    <t>Sum</t>
+  </si>
+  <si>
+    <t>Average</t>
+  </si>
+  <si>
+    <t>Running Total</t>
+  </si>
+  <si>
+    <t>Count</t>
+  </si>
+  <si>
+    <t>ZAINUL</t>
   </si>
 </sst>
 </file>
@@ -519,7 +540,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="47">
+  <cellXfs count="48">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -643,6 +664,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="16" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -984,10 +1008,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:O60"/>
+  <dimension ref="A1:O73"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="C59" sqref="C59"/>
+    <sheetView tabSelected="1" topLeftCell="A2" zoomScale="111" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1069,11 +1093,11 @@
       <c r="B3" s="8"/>
       <c r="C3" s="8"/>
       <c r="D3" s="38"/>
-      <c r="E3" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="F3" s="8" t="s">
-        <v>90</v>
+      <c r="E3" s="35" t="s">
+        <v>8</v>
+      </c>
+      <c r="F3" s="35" t="s">
+        <v>124</v>
       </c>
       <c r="G3" s="8">
         <v>81228196787</v>
@@ -1127,11 +1151,11 @@
       <c r="B6" s="8"/>
       <c r="C6" s="8"/>
       <c r="D6" s="38"/>
-      <c r="E6" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="F6" s="8" t="s">
-        <v>90</v>
+      <c r="E6" s="35" t="s">
+        <v>8</v>
+      </c>
+      <c r="F6" s="35" t="s">
+        <v>124</v>
       </c>
       <c r="G6" s="8">
         <v>81225736355</v>
@@ -1150,87 +1174,72 @@
     </row>
     <row r="8" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A8" s="38">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B8" s="8" t="s">
-        <v>20</v>
+        <v>6</v>
       </c>
       <c r="C8" s="8">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="D8" s="38" t="s">
-        <v>59</v>
-      </c>
-      <c r="E8" s="35" t="s">
-        <v>7</v>
-      </c>
-      <c r="F8" s="35" t="s">
-        <v>84</v>
-      </c>
+        <v>30</v>
+      </c>
+      <c r="E8" s="37" t="s">
+        <v>7</v>
+      </c>
+      <c r="F8" s="37"/>
       <c r="G8" s="8" t="s">
-        <v>60</v>
-      </c>
-      <c r="H8" s="9">
-        <v>44520</v>
-      </c>
-      <c r="I8" s="40" t="s">
-        <v>102</v>
-      </c>
+        <v>125</v>
+      </c>
+      <c r="H8" s="9"/>
     </row>
     <row r="9" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A9" s="38"/>
       <c r="B9" s="8"/>
       <c r="C9" s="8"/>
       <c r="D9" s="38"/>
-      <c r="E9" s="35" t="s">
-        <v>8</v>
-      </c>
-      <c r="F9" s="36">
-        <v>44501</v>
-      </c>
+      <c r="E9" s="37" t="s">
+        <v>8</v>
+      </c>
+      <c r="F9" s="37"/>
       <c r="G9" s="8">
-        <v>81232989078</v>
-      </c>
-      <c r="H9" s="9"/>
+        <v>81331434743</v>
+      </c>
+      <c r="H9" s="8"/>
+      <c r="O9" s="7">
+        <v>8</v>
+      </c>
     </row>
     <row r="10" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A10" s="38"/>
       <c r="B10" s="8"/>
       <c r="C10" s="8"/>
       <c r="D10" s="38"/>
-      <c r="E10" s="8"/>
-      <c r="F10" s="8"/>
+      <c r="E10" s="37"/>
+      <c r="F10" s="37"/>
       <c r="G10" s="8"/>
-      <c r="H10" s="9"/>
+      <c r="H10" s="8"/>
     </row>
     <row r="11" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A11" s="38">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B11" s="8" t="s">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="C11" s="8">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="D11" s="38" t="s">
-        <v>61</v>
-      </c>
-      <c r="E11" s="35" t="s">
-        <v>7</v>
-      </c>
-      <c r="F11" s="35" t="s">
-        <v>84</v>
-      </c>
-      <c r="G11" s="8" t="s">
-        <v>62</v>
-      </c>
-      <c r="H11" s="9">
-        <v>44520</v>
-      </c>
-      <c r="I11" s="40" t="s">
-        <v>102</v>
-      </c>
+        <v>48</v>
+      </c>
+      <c r="E11" s="37" t="s">
+        <v>7</v>
+      </c>
+      <c r="F11" s="37"/>
+      <c r="G11" s="8"/>
+      <c r="H11" s="9"/>
     </row>
     <row r="12" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A12" s="38"/>
@@ -1240,13 +1249,9 @@
       <c r="E12" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="F12" s="34">
-        <v>44501</v>
-      </c>
-      <c r="G12" s="8">
-        <v>81231807990</v>
-      </c>
-      <c r="H12" s="9"/>
+      <c r="F12" s="8"/>
+      <c r="G12" s="8"/>
+      <c r="H12" s="8"/>
     </row>
     <row r="13" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A13" s="38"/>
@@ -1256,826 +1261,1034 @@
       <c r="E13" s="8"/>
       <c r="F13" s="8"/>
       <c r="G13" s="8"/>
-      <c r="H13" s="9"/>
+      <c r="H13" s="8"/>
     </row>
     <row r="14" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A14" s="42">
-        <v>5</v>
-      </c>
-      <c r="B14" s="37" t="s">
-        <v>26</v>
-      </c>
-      <c r="C14" s="37">
-        <v>30</v>
-      </c>
-      <c r="D14" s="42" t="s">
-        <v>63</v>
+      <c r="A14" s="38">
+        <v>3</v>
+      </c>
+      <c r="B14" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="C14" s="8">
+        <v>16</v>
+      </c>
+      <c r="D14" s="38" t="s">
+        <v>59</v>
       </c>
       <c r="E14" s="35" t="s">
         <v>7</v>
       </c>
-      <c r="F14" s="36">
-        <v>44253</v>
+      <c r="F14" s="35" t="s">
+        <v>84</v>
       </c>
       <c r="G14" s="8" t="s">
-        <v>93</v>
-      </c>
-      <c r="H14" s="8" t="s">
-        <v>35</v>
-      </c>
-      <c r="I14" s="44">
-        <v>44287</v>
+        <v>60</v>
+      </c>
+      <c r="H14" s="9">
+        <v>44520</v>
+      </c>
+      <c r="I14" s="40" t="s">
+        <v>102</v>
       </c>
     </row>
     <row r="15" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A15" s="42"/>
-      <c r="B15" s="37"/>
-      <c r="C15" s="37"/>
-      <c r="D15" s="42"/>
-      <c r="E15" s="35" t="s">
-        <v>8</v>
-      </c>
-      <c r="F15" s="35" t="s">
-        <v>85</v>
-      </c>
-      <c r="G15" s="8" t="s">
-        <v>92</v>
-      </c>
-      <c r="H15" s="8"/>
+      <c r="A15" s="38"/>
+      <c r="B15" s="8"/>
+      <c r="C15" s="8"/>
+      <c r="D15" s="38"/>
+      <c r="E15" s="37" t="s">
+        <v>8</v>
+      </c>
+      <c r="F15" s="47">
+        <v>44501</v>
+      </c>
+      <c r="G15" s="8">
+        <v>81232989078</v>
+      </c>
+      <c r="H15" s="9"/>
     </row>
     <row r="16" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A16" s="42"/>
-      <c r="B16" s="37"/>
-      <c r="C16" s="37"/>
-      <c r="D16" s="42"/>
+      <c r="A16" s="38"/>
+      <c r="B16" s="8"/>
+      <c r="C16" s="8"/>
+      <c r="D16" s="38"/>
       <c r="E16" s="8"/>
       <c r="F16" s="8"/>
       <c r="G16" s="8"/>
-      <c r="H16" s="8"/>
+      <c r="H16" s="9"/>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A17" s="42">
-        <v>6</v>
-      </c>
-      <c r="B17" s="37" t="s">
-        <v>26</v>
-      </c>
-      <c r="C17" s="37">
-        <v>31</v>
-      </c>
-      <c r="D17" s="42" t="s">
-        <v>53</v>
+      <c r="A17" s="38">
+        <v>4</v>
+      </c>
+      <c r="B17" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="C17" s="8">
+        <v>16</v>
+      </c>
+      <c r="D17" s="38" t="s">
+        <v>61</v>
       </c>
       <c r="E17" s="35" t="s">
         <v>7</v>
       </c>
       <c r="F17" s="35" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="G17" s="8" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="H17" s="9">
-        <v>44501</v>
+        <v>44520</v>
       </c>
       <c r="I17" s="40" t="s">
         <v>102</v>
       </c>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A18" s="42"/>
-      <c r="B18" s="37"/>
-      <c r="C18" s="37"/>
-      <c r="D18" s="42"/>
+      <c r="A18" s="38"/>
+      <c r="B18" s="8"/>
+      <c r="C18" s="8"/>
+      <c r="D18" s="38"/>
       <c r="E18" s="8" t="s">
         <v>8</v>
       </c>
       <c r="F18" s="34">
-        <v>44440</v>
+        <v>44501</v>
       </c>
       <c r="G18" s="8">
-        <v>6587623904</v>
-      </c>
-      <c r="H18" s="8"/>
+        <v>81231807990</v>
+      </c>
+      <c r="H18" s="9"/>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A19" s="42"/>
-      <c r="B19" s="37"/>
-      <c r="C19" s="37"/>
-      <c r="D19" s="42"/>
+      <c r="A19" s="38"/>
+      <c r="B19" s="8"/>
+      <c r="C19" s="8"/>
+      <c r="D19" s="38"/>
       <c r="E19" s="8"/>
       <c r="F19" s="8"/>
       <c r="G19" s="8"/>
-      <c r="H19" s="8"/>
+      <c r="H19" s="9"/>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A20" s="42">
-        <v>7</v>
-      </c>
-      <c r="B20" s="37" t="s">
-        <v>24</v>
-      </c>
-      <c r="C20" s="37">
-        <v>25</v>
-      </c>
-      <c r="D20" s="42" t="s">
-        <v>48</v>
-      </c>
-      <c r="E20" s="35" t="s">
-        <v>7</v>
-      </c>
-      <c r="F20" s="36">
-        <v>44237</v>
-      </c>
+      <c r="A20" s="38">
+        <v>3</v>
+      </c>
+      <c r="B20" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="C20" s="8">
+        <v>17</v>
+      </c>
+      <c r="D20" s="38" t="s">
+        <v>116</v>
+      </c>
+      <c r="E20" s="37" t="s">
+        <v>7</v>
+      </c>
+      <c r="F20" s="37"/>
       <c r="G20" s="8" t="s">
-        <v>94</v>
-      </c>
-      <c r="H20" s="9">
-        <v>44501</v>
-      </c>
-      <c r="I20" s="40" t="s">
-        <v>102</v>
-      </c>
+        <v>130</v>
+      </c>
+      <c r="H20" s="9"/>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A21" s="42"/>
-      <c r="B21" s="37"/>
-      <c r="C21" s="37"/>
-      <c r="D21" s="42"/>
-      <c r="E21" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="F21" s="8" t="s">
-        <v>91</v>
-      </c>
-      <c r="G21" s="8" t="s">
-        <v>95</v>
-      </c>
-      <c r="H21" s="8"/>
-      <c r="I21" s="40" t="s">
-        <v>102</v>
-      </c>
+      <c r="A21" s="38"/>
+      <c r="B21" s="8"/>
+      <c r="C21" s="8"/>
+      <c r="D21" s="38"/>
+      <c r="E21" s="37" t="s">
+        <v>8</v>
+      </c>
+      <c r="F21" s="47"/>
+      <c r="G21" s="8">
+        <v>81284663664</v>
+      </c>
+      <c r="H21" s="9"/>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A22" s="42"/>
-      <c r="B22" s="37"/>
-      <c r="C22" s="37"/>
-      <c r="D22" s="42"/>
-      <c r="E22" s="8"/>
-      <c r="F22" s="8"/>
+      <c r="A22" s="38"/>
+      <c r="B22" s="8"/>
+      <c r="C22" s="8"/>
+      <c r="D22" s="38"/>
+      <c r="E22" s="37"/>
+      <c r="F22" s="37"/>
       <c r="G22" s="8"/>
-      <c r="H22" s="8"/>
+      <c r="H22" s="9"/>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A23" s="42">
-        <v>8</v>
-      </c>
-      <c r="B23" s="37" t="s">
-        <v>36</v>
-      </c>
-      <c r="C23" s="37">
-        <v>32</v>
-      </c>
-      <c r="D23" s="42" t="s">
-        <v>25</v>
-      </c>
-      <c r="E23" s="35" t="s">
-        <v>7</v>
-      </c>
-      <c r="F23" s="35" t="s">
-        <v>86</v>
-      </c>
-      <c r="G23" s="8" t="s">
-        <v>65</v>
-      </c>
-      <c r="H23" s="8" t="s">
-        <v>66</v>
-      </c>
-      <c r="I23" s="40" t="s">
-        <v>102</v>
-      </c>
+      <c r="A23" s="38">
+        <v>4</v>
+      </c>
+      <c r="B23" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="C23" s="8">
+        <v>17</v>
+      </c>
+      <c r="D23" s="38" t="s">
+        <v>49</v>
+      </c>
+      <c r="E23" s="37" t="s">
+        <v>7</v>
+      </c>
+      <c r="F23" s="37"/>
+      <c r="G23" s="8"/>
+      <c r="H23" s="9"/>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A24" s="42"/>
-      <c r="B24" s="37"/>
-      <c r="C24" s="37"/>
-      <c r="D24" s="42"/>
-      <c r="E24" s="35" t="s">
-        <v>8</v>
-      </c>
-      <c r="F24" s="35" t="s">
-        <v>87</v>
-      </c>
-      <c r="G24" s="8">
-        <v>81231558203</v>
-      </c>
-      <c r="H24" s="8"/>
+      <c r="A24" s="38"/>
+      <c r="B24" s="8"/>
+      <c r="C24" s="8"/>
+      <c r="D24" s="38"/>
+      <c r="E24" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="F24" s="34"/>
+      <c r="G24" s="8"/>
+      <c r="H24" s="9"/>
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A25" s="42"/>
-      <c r="B25" s="37"/>
-      <c r="C25" s="37"/>
-      <c r="D25" s="42"/>
+      <c r="A25" s="38"/>
+      <c r="B25" s="8"/>
+      <c r="C25" s="8"/>
+      <c r="D25" s="38"/>
       <c r="E25" s="8"/>
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
-      <c r="H25" s="8"/>
+      <c r="H25" s="9"/>
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A26" s="42">
+      <c r="A26" s="38"/>
+      <c r="B26" s="8"/>
+      <c r="C26" s="8"/>
+      <c r="D26" s="38"/>
+      <c r="E26" s="8"/>
+      <c r="F26" s="8"/>
+      <c r="G26" s="8"/>
+      <c r="H26" s="9"/>
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A27" s="42">
+        <v>5</v>
+      </c>
+      <c r="B27" s="37" t="s">
+        <v>26</v>
+      </c>
+      <c r="C27" s="37">
+        <v>30</v>
+      </c>
+      <c r="D27" s="42" t="s">
+        <v>63</v>
+      </c>
+      <c r="E27" s="35" t="s">
+        <v>7</v>
+      </c>
+      <c r="F27" s="36">
+        <v>44253</v>
+      </c>
+      <c r="G27" s="8" t="s">
+        <v>93</v>
+      </c>
+      <c r="H27" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="I27" s="44">
+        <v>44287</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A28" s="42"/>
+      <c r="B28" s="37"/>
+      <c r="C28" s="37"/>
+      <c r="D28" s="42"/>
+      <c r="E28" s="35" t="s">
+        <v>8</v>
+      </c>
+      <c r="F28" s="35" t="s">
+        <v>85</v>
+      </c>
+      <c r="G28" s="8" t="s">
+        <v>92</v>
+      </c>
+      <c r="H28" s="8"/>
+    </row>
+    <row r="29" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A29" s="42"/>
+      <c r="B29" s="37"/>
+      <c r="C29" s="37"/>
+      <c r="D29" s="42"/>
+      <c r="E29" s="8"/>
+      <c r="F29" s="8"/>
+      <c r="G29" s="8"/>
+      <c r="H29" s="8"/>
+    </row>
+    <row r="30" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A30" s="42">
+        <v>6</v>
+      </c>
+      <c r="B30" s="37" t="s">
+        <v>26</v>
+      </c>
+      <c r="C30" s="37">
+        <v>31</v>
+      </c>
+      <c r="D30" s="42" t="s">
+        <v>53</v>
+      </c>
+      <c r="E30" s="35" t="s">
+        <v>7</v>
+      </c>
+      <c r="F30" s="35" t="s">
+        <v>82</v>
+      </c>
+      <c r="G30" s="8" t="s">
+        <v>64</v>
+      </c>
+      <c r="H30" s="9">
+        <v>44501</v>
+      </c>
+      <c r="I30" s="40" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A31" s="42"/>
+      <c r="B31" s="37"/>
+      <c r="C31" s="37"/>
+      <c r="D31" s="42"/>
+      <c r="E31" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="F31" s="34">
+        <v>44440</v>
+      </c>
+      <c r="G31" s="8">
+        <v>6587623904</v>
+      </c>
+      <c r="H31" s="8"/>
+    </row>
+    <row r="32" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A32" s="42"/>
+      <c r="B32" s="37"/>
+      <c r="C32" s="37"/>
+      <c r="D32" s="42"/>
+      <c r="E32" s="8"/>
+      <c r="F32" s="8"/>
+      <c r="G32" s="8"/>
+      <c r="H32" s="8"/>
+    </row>
+    <row r="33" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A33" s="42">
+        <v>7</v>
+      </c>
+      <c r="B33" s="37" t="s">
+        <v>24</v>
+      </c>
+      <c r="C33" s="37">
+        <v>25</v>
+      </c>
+      <c r="D33" s="42" t="s">
+        <v>48</v>
+      </c>
+      <c r="E33" s="35" t="s">
+        <v>7</v>
+      </c>
+      <c r="F33" s="36">
+        <v>44237</v>
+      </c>
+      <c r="G33" s="8" t="s">
+        <v>94</v>
+      </c>
+      <c r="H33" s="9">
+        <v>44501</v>
+      </c>
+      <c r="I33" s="40" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A34" s="42"/>
+      <c r="B34" s="37"/>
+      <c r="C34" s="37"/>
+      <c r="D34" s="42"/>
+      <c r="E34" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="F34" s="8" t="s">
+        <v>91</v>
+      </c>
+      <c r="G34" s="8" t="s">
+        <v>95</v>
+      </c>
+      <c r="H34" s="8"/>
+      <c r="I34" s="40" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A35" s="42"/>
+      <c r="B35" s="37"/>
+      <c r="C35" s="37"/>
+      <c r="D35" s="42"/>
+      <c r="E35" s="8"/>
+      <c r="F35" s="8"/>
+      <c r="G35" s="8"/>
+      <c r="H35" s="8"/>
+    </row>
+    <row r="36" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A36" s="42">
+        <v>8</v>
+      </c>
+      <c r="B36" s="37" t="s">
+        <v>36</v>
+      </c>
+      <c r="C36" s="37">
+        <v>32</v>
+      </c>
+      <c r="D36" s="42" t="s">
+        <v>25</v>
+      </c>
+      <c r="E36" s="35" t="s">
+        <v>7</v>
+      </c>
+      <c r="F36" s="35" t="s">
+        <v>86</v>
+      </c>
+      <c r="G36" s="8" t="s">
+        <v>65</v>
+      </c>
+      <c r="H36" s="8" t="s">
+        <v>66</v>
+      </c>
+      <c r="I36" s="40" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A37" s="42"/>
+      <c r="B37" s="37"/>
+      <c r="C37" s="37"/>
+      <c r="D37" s="42"/>
+      <c r="E37" s="35" t="s">
+        <v>8</v>
+      </c>
+      <c r="F37" s="35" t="s">
+        <v>87</v>
+      </c>
+      <c r="G37" s="8">
+        <v>81231558203</v>
+      </c>
+      <c r="H37" s="8"/>
+    </row>
+    <row r="38" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A38" s="42"/>
+      <c r="B38" s="37"/>
+      <c r="C38" s="37"/>
+      <c r="D38" s="42"/>
+      <c r="E38" s="8"/>
+      <c r="F38" s="8"/>
+      <c r="G38" s="8"/>
+      <c r="H38" s="8"/>
+    </row>
+    <row r="39" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A39" s="42">
         <v>9</v>
       </c>
-      <c r="B26" s="37" t="s">
+      <c r="B39" s="37" t="s">
         <v>38</v>
       </c>
-      <c r="C26" s="37">
+      <c r="C39" s="37">
         <v>27</v>
       </c>
-      <c r="D26" s="42" t="s">
+      <c r="D39" s="42" t="s">
         <v>67</v>
       </c>
-      <c r="E26" s="35" t="s">
-        <v>7</v>
-      </c>
-      <c r="F26" s="35" t="s">
+      <c r="E39" s="35" t="s">
+        <v>7</v>
+      </c>
+      <c r="F39" s="35" t="s">
         <v>88</v>
       </c>
-      <c r="G26" s="32" t="s">
+      <c r="G39" s="32" t="s">
         <v>98</v>
       </c>
-      <c r="H26" s="33">
+      <c r="H39" s="33">
         <v>44409</v>
       </c>
-      <c r="I26" s="44">
+      <c r="I39" s="44">
         <v>44287</v>
       </c>
     </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A27" s="42"/>
-      <c r="B27" s="37"/>
-      <c r="C27" s="37"/>
-      <c r="D27" s="42"/>
-      <c r="E27" s="35" t="s">
-        <v>8</v>
-      </c>
-      <c r="F27" s="35" t="s">
+    <row r="40" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A40" s="42"/>
+      <c r="B40" s="37"/>
+      <c r="C40" s="37"/>
+      <c r="D40" s="42"/>
+      <c r="E40" s="35" t="s">
+        <v>8</v>
+      </c>
+      <c r="F40" s="35" t="s">
         <v>87</v>
       </c>
-      <c r="G27" s="32" t="s">
+      <c r="G40" s="32" t="s">
         <v>99</v>
       </c>
-      <c r="H27" s="33"/>
-    </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A28" s="38"/>
-      <c r="B28" s="8"/>
-      <c r="C28" s="8"/>
-      <c r="D28" s="38"/>
-      <c r="E28" s="8"/>
-      <c r="F28" s="8"/>
-      <c r="G28" s="8"/>
-      <c r="H28" s="8"/>
-    </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A29" s="43">
+      <c r="H40" s="33"/>
+    </row>
+    <row r="41" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A41" s="38"/>
+      <c r="B41" s="8"/>
+      <c r="C41" s="8"/>
+      <c r="D41" s="38"/>
+      <c r="E41" s="8"/>
+      <c r="F41" s="8"/>
+      <c r="G41" s="8"/>
+      <c r="H41" s="8"/>
+    </row>
+    <row r="42" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A42" s="43">
         <v>10</v>
       </c>
-      <c r="B29" s="35" t="s">
+      <c r="B42" s="35" t="s">
         <v>39</v>
       </c>
-      <c r="C29" s="35">
+      <c r="C42" s="35">
         <v>38</v>
       </c>
-      <c r="D29" s="43" t="s">
+      <c r="D42" s="43" t="s">
         <v>50</v>
       </c>
-      <c r="E29" s="35" t="s">
-        <v>7</v>
-      </c>
-      <c r="F29" s="36">
+      <c r="E42" s="35" t="s">
+        <v>7</v>
+      </c>
+      <c r="F42" s="36">
         <v>44253</v>
       </c>
-      <c r="G29" s="8" t="s">
+      <c r="G42" s="8" t="s">
         <v>96</v>
       </c>
-      <c r="H29" s="8" t="s">
+      <c r="H42" s="8" t="s">
         <v>40</v>
       </c>
-      <c r="I29" s="40" t="s">
+      <c r="I42" s="40" t="s">
         <v>114</v>
       </c>
-    </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A30" s="38"/>
-      <c r="B30" s="8"/>
-      <c r="C30" s="8"/>
-      <c r="D30" s="38"/>
-      <c r="E30" s="35" t="s">
-        <v>8</v>
-      </c>
-      <c r="F30" s="35" t="s">
-        <v>84</v>
-      </c>
-      <c r="G30" s="8" t="s">
-        <v>97</v>
-      </c>
-      <c r="H30" s="8"/>
-    </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A31" s="38"/>
-      <c r="B31" s="10"/>
-      <c r="C31" s="10"/>
-      <c r="D31" s="38"/>
-      <c r="E31" s="10"/>
-      <c r="F31" s="10"/>
-      <c r="G31" s="10"/>
-      <c r="H31" s="10"/>
-      <c r="I31" s="7"/>
-    </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A32" s="43">
-        <v>11</v>
-      </c>
-      <c r="B32" s="35" t="s">
-        <v>41</v>
-      </c>
-      <c r="C32" s="35">
-        <v>38</v>
-      </c>
-      <c r="D32" s="43" t="s">
-        <v>48</v>
-      </c>
-      <c r="E32" s="35" t="s">
-        <v>7</v>
-      </c>
-      <c r="F32" s="36">
-        <v>44253</v>
-      </c>
-      <c r="G32" s="8" t="s">
-        <v>100</v>
-      </c>
-      <c r="H32" s="8" t="s">
-        <v>40</v>
-      </c>
-      <c r="I32" s="7" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A33" s="45"/>
-      <c r="B33" s="8"/>
-      <c r="C33" s="8"/>
-      <c r="D33" s="38"/>
-      <c r="E33" s="35" t="s">
-        <v>8</v>
-      </c>
-      <c r="F33" s="35" t="s">
-        <v>89</v>
-      </c>
-      <c r="G33" s="8" t="s">
-        <v>101</v>
-      </c>
-      <c r="H33" s="8"/>
-      <c r="I33" s="7"/>
-    </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A34" s="38"/>
-      <c r="B34" s="8"/>
-      <c r="C34" s="8"/>
-      <c r="D34" s="38"/>
-      <c r="E34" s="8"/>
-      <c r="F34" s="8"/>
-      <c r="G34" s="8"/>
-      <c r="H34" s="8"/>
-      <c r="I34" s="7"/>
-    </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A35" s="38">
-        <v>12</v>
-      </c>
-      <c r="B35" s="8" t="s">
-        <v>39</v>
-      </c>
-      <c r="C35" s="8">
-        <v>39</v>
-      </c>
-      <c r="D35" s="38" t="s">
-        <v>25</v>
-      </c>
-      <c r="E35" s="35" t="s">
-        <v>7</v>
-      </c>
-      <c r="F35" s="35" t="s">
-        <v>82</v>
-      </c>
-      <c r="G35" s="8" t="s">
-        <v>68</v>
-      </c>
-      <c r="H35" s="9">
-        <v>44444</v>
-      </c>
-      <c r="I35" s="7"/>
-    </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A36" s="38"/>
-      <c r="B36" s="8"/>
-      <c r="C36" s="8"/>
-      <c r="D36" s="38"/>
-      <c r="E36" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="F36" s="8" t="s">
-        <v>90</v>
-      </c>
-      <c r="G36" s="8">
-        <v>81331414130</v>
-      </c>
-      <c r="H36" s="8"/>
-      <c r="I36" s="7"/>
-    </row>
-    <row r="37" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A37" s="38"/>
-      <c r="B37" s="8"/>
-      <c r="C37" s="8"/>
-      <c r="D37" s="38"/>
-      <c r="E37" s="8"/>
-      <c r="F37" s="8"/>
-      <c r="G37" s="8"/>
-      <c r="H37" s="8"/>
-      <c r="I37" s="7"/>
-    </row>
-    <row r="38" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A38" s="38">
-        <v>13</v>
-      </c>
-      <c r="B38" s="8" t="s">
-        <v>41</v>
-      </c>
-      <c r="C38" s="8">
-        <v>39</v>
-      </c>
-      <c r="D38" s="38" t="s">
-        <v>69</v>
-      </c>
-      <c r="E38" s="35" t="s">
-        <v>7</v>
-      </c>
-      <c r="F38" s="35" t="s">
-        <v>82</v>
-      </c>
-      <c r="G38" s="8" t="s">
-        <v>70</v>
-      </c>
-      <c r="H38" s="9">
-        <v>44444</v>
-      </c>
-      <c r="I38" s="7"/>
-    </row>
-    <row r="39" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A39" s="38"/>
-      <c r="B39" s="8"/>
-      <c r="C39" s="8"/>
-      <c r="D39" s="38"/>
-      <c r="E39" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="F39" s="8" t="s">
-        <v>90</v>
-      </c>
-      <c r="G39" s="8">
-        <v>81252283477</v>
-      </c>
-      <c r="H39" s="8"/>
-    </row>
-    <row r="40" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A40" s="38"/>
-      <c r="B40" s="8"/>
-      <c r="C40" s="8"/>
-      <c r="D40" s="38"/>
-      <c r="E40" s="8"/>
-      <c r="F40" s="8"/>
-      <c r="G40" s="8"/>
-      <c r="H40" s="8"/>
-    </row>
-    <row r="41" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A41" s="38">
-        <v>14</v>
-      </c>
-      <c r="B41" s="8" t="s">
-        <v>24</v>
-      </c>
-      <c r="C41" s="8">
-        <v>26</v>
-      </c>
-      <c r="D41" s="38" t="s">
-        <v>48</v>
-      </c>
-      <c r="E41" s="35" t="s">
-        <v>7</v>
-      </c>
-      <c r="F41" s="35" t="s">
-        <v>105</v>
-      </c>
-      <c r="G41" s="8" t="s">
-        <v>103</v>
-      </c>
-      <c r="H41" s="9" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="42" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A42" s="38"/>
-      <c r="B42" s="8"/>
-      <c r="C42" s="8"/>
-      <c r="D42" s="38"/>
-      <c r="E42" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="F42" s="9">
-        <v>44614</v>
-      </c>
-      <c r="G42" s="8">
-        <v>85732094240</v>
-      </c>
-      <c r="H42" s="10"/>
     </row>
     <row r="43" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A43" s="38"/>
-      <c r="B43" s="10"/>
-      <c r="C43" s="10"/>
+      <c r="B43" s="8"/>
+      <c r="C43" s="8"/>
       <c r="D43" s="38"/>
-      <c r="E43" s="10"/>
-      <c r="F43" s="10"/>
-      <c r="G43" s="10"/>
-      <c r="H43" s="10"/>
+      <c r="E43" s="35" t="s">
+        <v>8</v>
+      </c>
+      <c r="F43" s="35" t="s">
+        <v>84</v>
+      </c>
+      <c r="G43" s="8" t="s">
+        <v>97</v>
+      </c>
+      <c r="H43" s="8"/>
     </row>
     <row r="44" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A44" s="38">
-        <v>15</v>
-      </c>
-      <c r="B44" s="10" t="s">
+      <c r="A44" s="38"/>
+      <c r="B44" s="10"/>
+      <c r="C44" s="10"/>
+      <c r="D44" s="38"/>
+      <c r="E44" s="10"/>
+      <c r="F44" s="10"/>
+      <c r="G44" s="10"/>
+      <c r="H44" s="10"/>
+      <c r="I44" s="7"/>
+    </row>
+    <row r="45" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A45" s="43">
+        <v>11</v>
+      </c>
+      <c r="B45" s="35" t="s">
+        <v>41</v>
+      </c>
+      <c r="C45" s="35">
         <v>38</v>
       </c>
-      <c r="C44" s="8">
-        <v>28</v>
-      </c>
-      <c r="D44" s="38" t="s">
-        <v>112</v>
-      </c>
-      <c r="E44" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="F44" s="38" t="s">
-        <v>106</v>
-      </c>
-      <c r="G44" s="38" t="s">
-        <v>107</v>
-      </c>
-      <c r="H44" s="38" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="45" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A45" s="38"/>
-      <c r="B45" s="10"/>
-      <c r="C45" s="8"/>
-      <c r="D45" s="38"/>
-      <c r="E45" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="F45" s="39">
-        <v>44501</v>
-      </c>
-      <c r="G45" s="38">
-        <v>85649115380</v>
-      </c>
-      <c r="H45" s="38"/>
+      <c r="D45" s="43" t="s">
+        <v>48</v>
+      </c>
+      <c r="E45" s="35" t="s">
+        <v>7</v>
+      </c>
+      <c r="F45" s="36">
+        <v>44253</v>
+      </c>
+      <c r="G45" s="8" t="s">
+        <v>100</v>
+      </c>
+      <c r="H45" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="I45" s="7" t="s">
+        <v>114</v>
+      </c>
     </row>
     <row r="46" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A46" s="38"/>
-      <c r="B46" s="10"/>
+      <c r="A46" s="45"/>
+      <c r="B46" s="8"/>
       <c r="C46" s="8"/>
       <c r="D46" s="38"/>
-      <c r="E46" s="8"/>
-      <c r="F46" s="38"/>
-      <c r="G46" s="38"/>
-      <c r="H46" s="38"/>
+      <c r="E46" s="35" t="s">
+        <v>8</v>
+      </c>
+      <c r="F46" s="35" t="s">
+        <v>89</v>
+      </c>
+      <c r="G46" s="8" t="s">
+        <v>101</v>
+      </c>
+      <c r="H46" s="8"/>
+      <c r="I46" s="7"/>
     </row>
     <row r="47" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A47" s="38">
-        <v>16</v>
-      </c>
-      <c r="B47" s="10" t="s">
-        <v>26</v>
-      </c>
-      <c r="C47" s="8">
-        <v>32</v>
-      </c>
-      <c r="D47" s="38" t="s">
-        <v>110</v>
-      </c>
-      <c r="E47" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="F47" s="38" t="s">
-        <v>109</v>
-      </c>
-      <c r="G47" s="38" t="s">
-        <v>115</v>
-      </c>
-      <c r="H47" s="38" t="s">
-        <v>111</v>
-      </c>
+      <c r="A47" s="38"/>
+      <c r="B47" s="8"/>
+      <c r="C47" s="8"/>
+      <c r="D47" s="38"/>
+      <c r="E47" s="8"/>
+      <c r="F47" s="8"/>
+      <c r="G47" s="8"/>
+      <c r="H47" s="8"/>
+      <c r="I47" s="7"/>
     </row>
     <row r="48" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A48" s="38"/>
-      <c r="B48" s="10"/>
-      <c r="C48" s="8"/>
-      <c r="D48" s="38"/>
-      <c r="E48" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="F48" s="39">
-        <v>44520</v>
-      </c>
-      <c r="G48" s="38">
-        <v>81333524165</v>
-      </c>
-      <c r="H48" s="38"/>
-    </row>
-    <row r="49" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A48" s="38">
+        <v>12</v>
+      </c>
+      <c r="B48" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="C48" s="8">
+        <v>39</v>
+      </c>
+      <c r="D48" s="38" t="s">
+        <v>25</v>
+      </c>
+      <c r="E48" s="35" t="s">
+        <v>7</v>
+      </c>
+      <c r="F48" s="35" t="s">
+        <v>82</v>
+      </c>
+      <c r="G48" s="8" t="s">
+        <v>68</v>
+      </c>
+      <c r="H48" s="9">
+        <v>44444</v>
+      </c>
+      <c r="I48" s="7"/>
+    </row>
+    <row r="49" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A49" s="38"/>
-      <c r="B49" s="10"/>
+      <c r="B49" s="8"/>
       <c r="C49" s="8"/>
       <c r="D49" s="38"/>
-      <c r="E49" s="8"/>
-      <c r="F49" s="38"/>
-      <c r="G49" s="38"/>
-      <c r="H49" s="38"/>
-    </row>
-    <row r="50" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A50" s="38">
-        <v>17</v>
-      </c>
-      <c r="B50" s="10" t="s">
-        <v>20</v>
-      </c>
-      <c r="C50" s="8">
-        <v>17</v>
-      </c>
-      <c r="D50" s="38" t="s">
-        <v>116</v>
-      </c>
-      <c r="E50" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="F50" s="39" t="s">
-        <v>121</v>
-      </c>
-      <c r="G50" s="38" t="s">
-        <v>120</v>
-      </c>
-      <c r="H50" s="38"/>
-    </row>
-    <row r="51" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A51" s="38"/>
-      <c r="B51" s="10"/>
-      <c r="C51" s="8"/>
-      <c r="D51" s="38"/>
-      <c r="E51" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="F51" s="38"/>
-      <c r="G51" s="38">
-        <v>81284663664</v>
-      </c>
-      <c r="H51" s="38"/>
-    </row>
-    <row r="52" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="E49" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="F49" s="8" t="s">
+        <v>90</v>
+      </c>
+      <c r="G49" s="8">
+        <v>81331414130</v>
+      </c>
+      <c r="H49" s="8"/>
+      <c r="I49" s="7"/>
+    </row>
+    <row r="50" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A50" s="38"/>
+      <c r="B50" s="8"/>
+      <c r="C50" s="8"/>
+      <c r="D50" s="38"/>
+      <c r="E50" s="8"/>
+      <c r="F50" s="8"/>
+      <c r="G50" s="8"/>
+      <c r="H50" s="8"/>
+      <c r="I50" s="7"/>
+    </row>
+    <row r="51" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A51" s="38">
+        <v>13</v>
+      </c>
+      <c r="B51" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="C51" s="8">
+        <v>39</v>
+      </c>
+      <c r="D51" s="38" t="s">
+        <v>69</v>
+      </c>
+      <c r="E51" s="35" t="s">
+        <v>7</v>
+      </c>
+      <c r="F51" s="35" t="s">
+        <v>82</v>
+      </c>
+      <c r="G51" s="8" t="s">
+        <v>70</v>
+      </c>
+      <c r="H51" s="9">
+        <v>44444</v>
+      </c>
+      <c r="I51" s="7"/>
+    </row>
+    <row r="52" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A52" s="38"/>
-      <c r="B52" s="10"/>
+      <c r="B52" s="8"/>
       <c r="C52" s="8"/>
       <c r="D52" s="38"/>
-      <c r="E52" s="8"/>
-      <c r="F52" s="39"/>
-      <c r="G52" s="38"/>
-      <c r="H52" s="38"/>
-    </row>
-    <row r="53" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A53" s="38">
-        <v>18</v>
-      </c>
-      <c r="B53" s="10" t="s">
-        <v>22</v>
-      </c>
-      <c r="C53" s="8">
-        <v>17</v>
-      </c>
-      <c r="D53" s="38" t="s">
-        <v>49</v>
-      </c>
-      <c r="E53" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="F53" s="39" t="s">
-        <v>121</v>
-      </c>
-      <c r="G53" s="38" t="s">
-        <v>119</v>
-      </c>
-      <c r="H53" s="38"/>
-    </row>
-    <row r="54" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A54" s="38"/>
-      <c r="B54" s="10"/>
-      <c r="C54" s="8"/>
-      <c r="D54" s="38"/>
-      <c r="E54" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="F54" s="39"/>
-      <c r="G54" s="38">
-        <v>85740346667</v>
-      </c>
-      <c r="H54" s="38"/>
-    </row>
-    <row r="55" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="E52" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="F52" s="8" t="s">
+        <v>90</v>
+      </c>
+      <c r="G52" s="8">
+        <v>81252283477</v>
+      </c>
+      <c r="H52" s="8"/>
+    </row>
+    <row r="53" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A53" s="38"/>
+      <c r="B53" s="8"/>
+      <c r="C53" s="8"/>
+      <c r="D53" s="38"/>
+      <c r="E53" s="8"/>
+      <c r="F53" s="8"/>
+      <c r="G53" s="8"/>
+      <c r="H53" s="8"/>
+    </row>
+    <row r="54" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A54" s="38">
+        <v>14</v>
+      </c>
+      <c r="B54" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="C54" s="8">
+        <v>26</v>
+      </c>
+      <c r="D54" s="38" t="s">
+        <v>48</v>
+      </c>
+      <c r="E54" s="35" t="s">
+        <v>7</v>
+      </c>
+      <c r="F54" s="35" t="s">
+        <v>105</v>
+      </c>
+      <c r="G54" s="8" t="s">
+        <v>103</v>
+      </c>
+      <c r="H54" s="9" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="55" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A55" s="38"/>
-      <c r="B55" s="10"/>
+      <c r="B55" s="8"/>
       <c r="C55" s="8"/>
       <c r="D55" s="38"/>
-      <c r="E55" s="8"/>
-      <c r="F55" s="38"/>
-      <c r="G55" s="38"/>
-      <c r="H55" s="38"/>
-    </row>
-    <row r="56" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A56" s="38">
-        <v>19</v>
-      </c>
-      <c r="B56" s="10" t="s">
-        <v>36</v>
-      </c>
-      <c r="C56" s="8">
-        <v>33</v>
-      </c>
-      <c r="D56" s="38" t="s">
-        <v>117</v>
-      </c>
-      <c r="E56" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="F56" s="39" t="s">
-        <v>122</v>
-      </c>
-      <c r="G56" s="38" t="s">
-        <v>118</v>
-      </c>
-      <c r="H56" s="38"/>
-    </row>
-    <row r="57" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A57" s="38"/>
-      <c r="B57" s="10"/>
-      <c r="C57" s="8"/>
-      <c r="D57" s="38"/>
+      <c r="E55" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="F55" s="9">
+        <v>44614</v>
+      </c>
+      <c r="G55" s="8">
+        <v>85732094240</v>
+      </c>
+      <c r="H55" s="10"/>
+    </row>
+    <row r="56" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A56" s="38"/>
+      <c r="B56" s="10"/>
+      <c r="C56" s="10"/>
+      <c r="D56" s="38"/>
+      <c r="E56" s="10"/>
+      <c r="F56" s="10"/>
+      <c r="G56" s="10"/>
+      <c r="H56" s="10"/>
+    </row>
+    <row r="57" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A57" s="38">
+        <v>15</v>
+      </c>
+      <c r="B57" s="10" t="s">
+        <v>38</v>
+      </c>
+      <c r="C57" s="8">
+        <v>28</v>
+      </c>
+      <c r="D57" s="38" t="s">
+        <v>112</v>
+      </c>
       <c r="E57" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="F57" s="38"/>
-      <c r="G57" s="38">
-        <v>81331430509</v>
-      </c>
-      <c r="H57" s="38"/>
-    </row>
-    <row r="58" spans="1:8" x14ac:dyDescent="0.2">
+        <v>7</v>
+      </c>
+      <c r="F57" s="38" t="s">
+        <v>106</v>
+      </c>
+      <c r="G57" s="38" t="s">
+        <v>107</v>
+      </c>
+      <c r="H57" s="38" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="58" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A58" s="38"/>
       <c r="B58" s="10"/>
       <c r="C58" s="8"/>
       <c r="D58" s="38"/>
-      <c r="E58" s="8"/>
-      <c r="F58" s="39"/>
-      <c r="G58" s="38"/>
+      <c r="E58" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="F58" s="39">
+        <v>44501</v>
+      </c>
+      <c r="G58" s="38">
+        <v>85649115380</v>
+      </c>
       <c r="H58" s="38"/>
     </row>
-    <row r="59" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="B59" s="7" t="s">
+    <row r="59" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A59" s="38"/>
+      <c r="B59" s="10"/>
+      <c r="C59" s="8"/>
+      <c r="D59" s="38"/>
+      <c r="E59" s="8"/>
+      <c r="F59" s="38"/>
+      <c r="G59" s="38"/>
+      <c r="H59" s="38"/>
+    </row>
+    <row r="60" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A60" s="38">
+        <v>16</v>
+      </c>
+      <c r="B60" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="C60" s="8">
+        <v>32</v>
+      </c>
+      <c r="D60" s="38" t="s">
+        <v>110</v>
+      </c>
+      <c r="E60" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="F60" s="38" t="s">
+        <v>109</v>
+      </c>
+      <c r="G60" s="38" t="s">
+        <v>115</v>
+      </c>
+      <c r="H60" s="38" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="61" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A61" s="38"/>
+      <c r="B61" s="10"/>
+      <c r="C61" s="8"/>
+      <c r="D61" s="38"/>
+      <c r="E61" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="F61" s="39">
+        <v>44520</v>
+      </c>
+      <c r="G61" s="38">
+        <v>81333524165</v>
+      </c>
+      <c r="H61" s="38"/>
+    </row>
+    <row r="62" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A62" s="38"/>
+      <c r="B62" s="10"/>
+      <c r="C62" s="8"/>
+      <c r="D62" s="38"/>
+      <c r="E62" s="8"/>
+      <c r="F62" s="38"/>
+      <c r="G62" s="38"/>
+      <c r="H62" s="38"/>
+    </row>
+    <row r="63" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A63" s="38">
+        <v>17</v>
+      </c>
+      <c r="B63" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="C63" s="8">
+        <v>17</v>
+      </c>
+      <c r="D63" s="38" t="s">
+        <v>116</v>
+      </c>
+      <c r="E63" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="F63" s="39" t="s">
+        <v>121</v>
+      </c>
+      <c r="G63" s="38" t="s">
+        <v>120</v>
+      </c>
+      <c r="H63" s="38"/>
+    </row>
+    <row r="64" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A64" s="38"/>
+      <c r="B64" s="10"/>
+      <c r="C64" s="8"/>
+      <c r="D64" s="38"/>
+      <c r="E64" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="F64" s="38"/>
+      <c r="G64" s="38">
+        <v>81284663664</v>
+      </c>
+      <c r="H64" s="38"/>
+    </row>
+    <row r="65" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A65" s="38"/>
+      <c r="B65" s="10"/>
+      <c r="C65" s="8"/>
+      <c r="D65" s="38"/>
+      <c r="E65" s="8"/>
+      <c r="F65" s="39"/>
+      <c r="G65" s="38"/>
+      <c r="H65" s="38"/>
+    </row>
+    <row r="66" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A66" s="38">
+        <v>18</v>
+      </c>
+      <c r="B66" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="C66" s="8">
+        <v>17</v>
+      </c>
+      <c r="D66" s="38" t="s">
+        <v>49</v>
+      </c>
+      <c r="E66" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="F66" s="39" t="s">
+        <v>121</v>
+      </c>
+      <c r="G66" s="38" t="s">
+        <v>119</v>
+      </c>
+      <c r="H66" s="38"/>
+    </row>
+    <row r="67" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A67" s="38"/>
+      <c r="B67" s="10"/>
+      <c r="C67" s="8"/>
+      <c r="D67" s="38"/>
+      <c r="E67" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="F67" s="39"/>
+      <c r="G67" s="38">
+        <v>85740346667</v>
+      </c>
+      <c r="H67" s="38"/>
+    </row>
+    <row r="68" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A68" s="38"/>
+      <c r="B68" s="10"/>
+      <c r="C68" s="8"/>
+      <c r="D68" s="38"/>
+      <c r="E68" s="8"/>
+      <c r="F68" s="38"/>
+      <c r="G68" s="38"/>
+      <c r="H68" s="38"/>
+    </row>
+    <row r="69" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A69" s="38">
+        <v>19</v>
+      </c>
+      <c r="B69" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="C69" s="8">
+        <v>33</v>
+      </c>
+      <c r="D69" s="38" t="s">
+        <v>117</v>
+      </c>
+      <c r="E69" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="F69" s="39" t="s">
+        <v>122</v>
+      </c>
+      <c r="G69" s="38" t="s">
+        <v>118</v>
+      </c>
+      <c r="H69" s="38"/>
+    </row>
+    <row r="70" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A70" s="38"/>
+      <c r="B70" s="10"/>
+      <c r="C70" s="8"/>
+      <c r="D70" s="38"/>
+      <c r="E70" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="F70" s="38"/>
+      <c r="G70" s="38">
+        <v>81331430509</v>
+      </c>
+      <c r="H70" s="38"/>
+    </row>
+    <row r="71" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A71" s="38"/>
+      <c r="B71" s="10"/>
+      <c r="C71" s="8"/>
+      <c r="D71" s="38"/>
+      <c r="E71" s="8"/>
+      <c r="F71" s="39"/>
+      <c r="G71" s="38"/>
+      <c r="H71" s="38"/>
+    </row>
+    <row r="72" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B72" s="7" t="s">
         <v>39</v>
       </c>
-      <c r="C59" s="46">
+      <c r="C72" s="46">
         <v>40</v>
       </c>
-      <c r="E59" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="G59" s="40" t="s">
+      <c r="E72" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="G72" s="40" t="s">
         <v>123</v>
       </c>
     </row>
-    <row r="60" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="E60" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="G60" s="40">
+    <row r="73" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="E73" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="G73" s="40">
         <v>81359524067</v>
       </c>
     </row>

--- a/RENCANA BON VOYAGE.xlsx
+++ b/RENCANA BON VOYAGE.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Mapan\progress\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{73D39C76-08DC-4B4B-9893-E0427729819B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3152103C-EA12-4ECE-AC14-96EDDED56B03}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -19,14 +19,14 @@
     <sheet name="Sheet3" sheetId="3" r:id="rId4"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$I$55</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$I$40</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="418" uniqueCount="131">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="410" uniqueCount="128">
   <si>
     <t>NO</t>
   </si>
@@ -388,9 +388,6 @@
     <t>JAMALUDIN</t>
   </si>
   <si>
-    <t>ABIDIN</t>
-  </si>
-  <si>
     <t>27 AGUSTUS</t>
   </si>
   <si>
@@ -406,19 +403,13 @@
     <t>YOSEP</t>
   </si>
   <si>
-    <t>Sum</t>
-  </si>
-  <si>
-    <t>Average</t>
-  </si>
-  <si>
-    <t>Running Total</t>
-  </si>
-  <si>
-    <t>Count</t>
-  </si>
-  <si>
     <t>ZAINUL</t>
+  </si>
+  <si>
+    <t>17 ORANG</t>
+  </si>
+  <si>
+    <t>15 ORANG</t>
   </si>
 </sst>
 </file>
@@ -476,7 +467,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="5">
+  <borders count="13">
     <border>
       <left/>
       <right/>
@@ -536,11 +527,91 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="48">
+  <cellXfs count="64">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -663,10 +734,46 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="16" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="16" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="15" fontId="2" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -1008,10 +1115,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:O73"/>
+  <dimension ref="A1:O71"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" zoomScale="111" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+    <sheetView tabSelected="1" topLeftCell="A13" zoomScale="111" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="F65" sqref="F65"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1097,7 +1204,7 @@
         <v>8</v>
       </c>
       <c r="F3" s="35" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="G3" s="8">
         <v>81228196787</v>
@@ -1155,7 +1262,7 @@
         <v>8</v>
       </c>
       <c r="F6" s="35" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="G6" s="8">
         <v>81225736355</v>
@@ -1174,7 +1281,7 @@
     </row>
     <row r="8" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A8" s="38">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B8" s="8" t="s">
         <v>6</v>
@@ -1190,7 +1297,7 @@
       </c>
       <c r="F8" s="37"/>
       <c r="G8" s="8" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="H8" s="9"/>
     </row>
@@ -1223,7 +1330,7 @@
     </row>
     <row r="11" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A11" s="38">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B11" s="8" t="s">
         <v>15</v>
@@ -1265,7 +1372,7 @@
     </row>
     <row r="14" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A14" s="38">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B14" s="8" t="s">
         <v>20</v>
@@ -1300,7 +1407,7 @@
       <c r="E15" s="37" t="s">
         <v>8</v>
       </c>
-      <c r="F15" s="47">
+      <c r="F15" s="46">
         <v>44501</v>
       </c>
       <c r="G15" s="8">
@@ -1320,7 +1427,7 @@
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A17" s="38">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B17" s="8" t="s">
         <v>22</v>
@@ -1375,7 +1482,7 @@
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A20" s="38">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="B20" s="8" t="s">
         <v>20</v>
@@ -1389,9 +1496,11 @@
       <c r="E20" s="37" t="s">
         <v>7</v>
       </c>
-      <c r="F20" s="37"/>
+      <c r="F20" s="37" t="s">
+        <v>120</v>
+      </c>
       <c r="G20" s="8" t="s">
-        <v>130</v>
+        <v>125</v>
       </c>
       <c r="H20" s="9"/>
     </row>
@@ -1403,7 +1512,7 @@
       <c r="E21" s="37" t="s">
         <v>8</v>
       </c>
-      <c r="F21" s="47"/>
+      <c r="F21" s="46"/>
       <c r="G21" s="8">
         <v>81284663664</v>
       </c>
@@ -1421,7 +1530,7 @@
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A23" s="38">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="B23" s="8" t="s">
         <v>22</v>
@@ -1435,8 +1544,12 @@
       <c r="E23" s="37" t="s">
         <v>7</v>
       </c>
-      <c r="F23" s="37"/>
-      <c r="G23" s="8"/>
+      <c r="F23" s="37" t="s">
+        <v>120</v>
+      </c>
+      <c r="G23" s="38" t="s">
+        <v>119</v>
+      </c>
       <c r="H23" s="9"/>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.2">
@@ -1448,7 +1561,9 @@
         <v>8</v>
       </c>
       <c r="F24" s="34"/>
-      <c r="G24" s="8"/>
+      <c r="G24" s="38">
+        <v>85740346667</v>
+      </c>
       <c r="H24" s="9"/>
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.2">
@@ -1473,7 +1588,7 @@
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A27" s="42">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="B27" s="37" t="s">
         <v>26</v>
@@ -1528,7 +1643,7 @@
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A30" s="42">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="B30" s="37" t="s">
         <v>26</v>
@@ -1537,7 +1652,7 @@
         <v>31</v>
       </c>
       <c r="D30" s="42" t="s">
-        <v>53</v>
+        <v>110</v>
       </c>
       <c r="E30" s="35" t="s">
         <v>7</v>
@@ -1582,87 +1697,81 @@
       <c r="H32" s="8"/>
     </row>
     <row r="33" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A33" s="42">
-        <v>7</v>
-      </c>
-      <c r="B33" s="37" t="s">
-        <v>24</v>
-      </c>
-      <c r="C33" s="37">
-        <v>25</v>
-      </c>
-      <c r="D33" s="42" t="s">
-        <v>48</v>
-      </c>
-      <c r="E33" s="35" t="s">
-        <v>7</v>
-      </c>
-      <c r="F33" s="36">
-        <v>44237</v>
-      </c>
-      <c r="G33" s="8" t="s">
-        <v>94</v>
-      </c>
-      <c r="H33" s="9">
-        <v>44501</v>
-      </c>
-      <c r="I33" s="40" t="s">
-        <v>102</v>
+      <c r="A33" s="38">
+        <v>11</v>
+      </c>
+      <c r="B33" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="C33" s="8">
+        <v>32</v>
+      </c>
+      <c r="D33" s="38" t="s">
+        <v>110</v>
+      </c>
+      <c r="E33" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="F33" s="38" t="s">
+        <v>109</v>
+      </c>
+      <c r="G33" s="38" t="s">
+        <v>115</v>
+      </c>
+      <c r="H33" s="38" t="s">
+        <v>111</v>
       </c>
     </row>
     <row r="34" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A34" s="42"/>
-      <c r="B34" s="37"/>
-      <c r="C34" s="37"/>
-      <c r="D34" s="42"/>
+      <c r="A34" s="38"/>
+      <c r="B34" s="10"/>
+      <c r="C34" s="8"/>
+      <c r="D34" s="38"/>
       <c r="E34" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="F34" s="8" t="s">
-        <v>91</v>
-      </c>
-      <c r="G34" s="8" t="s">
-        <v>95</v>
-      </c>
-      <c r="H34" s="8"/>
-      <c r="I34" s="40" t="s">
-        <v>102</v>
-      </c>
+      <c r="F34" s="39">
+        <v>44520</v>
+      </c>
+      <c r="G34" s="38">
+        <v>81333524165</v>
+      </c>
+      <c r="H34" s="38"/>
     </row>
     <row r="35" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A35" s="42"/>
-      <c r="B35" s="37"/>
-      <c r="C35" s="37"/>
-      <c r="D35" s="42"/>
+      <c r="A35" s="38"/>
+      <c r="B35" s="10"/>
+      <c r="C35" s="8"/>
+      <c r="D35" s="38"/>
       <c r="E35" s="8"/>
-      <c r="F35" s="8"/>
-      <c r="G35" s="8"/>
-      <c r="H35" s="8"/>
+      <c r="F35" s="38"/>
+      <c r="G35" s="38"/>
+      <c r="H35" s="38"/>
     </row>
     <row r="36" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A36" s="42">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="B36" s="37" t="s">
-        <v>36</v>
+        <v>24</v>
       </c>
       <c r="C36" s="37">
-        <v>32</v>
+        <v>25</v>
       </c>
       <c r="D36" s="42" t="s">
-        <v>25</v>
+        <v>48</v>
       </c>
       <c r="E36" s="35" t="s">
         <v>7</v>
       </c>
-      <c r="F36" s="35" t="s">
-        <v>86</v>
+      <c r="F36" s="36">
+        <v>44237</v>
       </c>
       <c r="G36" s="8" t="s">
-        <v>65</v>
-      </c>
-      <c r="H36" s="8" t="s">
-        <v>66</v>
+        <v>94</v>
+      </c>
+      <c r="H36" s="9">
+        <v>44501</v>
       </c>
       <c r="I36" s="40" t="s">
         <v>102</v>
@@ -1673,16 +1782,19 @@
       <c r="B37" s="37"/>
       <c r="C37" s="37"/>
       <c r="D37" s="42"/>
-      <c r="E37" s="35" t="s">
-        <v>8</v>
-      </c>
-      <c r="F37" s="35" t="s">
-        <v>87</v>
-      </c>
-      <c r="G37" s="8">
-        <v>81231558203</v>
+      <c r="E37" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="F37" s="8" t="s">
+        <v>91</v>
+      </c>
+      <c r="G37" s="8" t="s">
+        <v>95</v>
       </c>
       <c r="H37" s="8"/>
+      <c r="I37" s="40" t="s">
+        <v>102</v>
+      </c>
     </row>
     <row r="38" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A38" s="42"/>
@@ -1695,216 +1807,204 @@
       <c r="H38" s="8"/>
     </row>
     <row r="39" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A39" s="42">
-        <v>9</v>
-      </c>
-      <c r="B39" s="37" t="s">
-        <v>38</v>
-      </c>
-      <c r="C39" s="37">
-        <v>27</v>
-      </c>
-      <c r="D39" s="42" t="s">
-        <v>67</v>
+      <c r="A39" s="38">
+        <v>13</v>
+      </c>
+      <c r="B39" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="C39" s="8">
+        <v>26</v>
+      </c>
+      <c r="D39" s="38" t="s">
+        <v>48</v>
       </c>
       <c r="E39" s="35" t="s">
         <v>7</v>
       </c>
       <c r="F39" s="35" t="s">
-        <v>88</v>
-      </c>
-      <c r="G39" s="32" t="s">
-        <v>98</v>
-      </c>
-      <c r="H39" s="33">
-        <v>44409</v>
-      </c>
-      <c r="I39" s="44">
-        <v>44287</v>
+        <v>105</v>
+      </c>
+      <c r="G39" s="8" t="s">
+        <v>103</v>
+      </c>
+      <c r="H39" s="9" t="s">
+        <v>104</v>
       </c>
     </row>
     <row r="40" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A40" s="42"/>
-      <c r="B40" s="37"/>
-      <c r="C40" s="37"/>
-      <c r="D40" s="42"/>
-      <c r="E40" s="35" t="s">
-        <v>8</v>
-      </c>
-      <c r="F40" s="35" t="s">
-        <v>87</v>
-      </c>
-      <c r="G40" s="32" t="s">
-        <v>99</v>
-      </c>
-      <c r="H40" s="33"/>
+      <c r="A40" s="38"/>
+      <c r="B40" s="8"/>
+      <c r="C40" s="8"/>
+      <c r="D40" s="38"/>
+      <c r="E40" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="F40" s="9">
+        <v>44614</v>
+      </c>
+      <c r="G40" s="8">
+        <v>85732094240</v>
+      </c>
+      <c r="H40" s="10"/>
     </row>
     <row r="41" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A41" s="38"/>
-      <c r="B41" s="8"/>
-      <c r="C41" s="8"/>
+      <c r="B41" s="10"/>
+      <c r="C41" s="10"/>
       <c r="D41" s="38"/>
-      <c r="E41" s="8"/>
-      <c r="F41" s="8"/>
-      <c r="G41" s="8"/>
-      <c r="H41" s="8"/>
+      <c r="E41" s="10"/>
+      <c r="F41" s="10"/>
+      <c r="G41" s="10"/>
+      <c r="H41" s="10"/>
     </row>
     <row r="42" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A42" s="43">
-        <v>10</v>
-      </c>
-      <c r="B42" s="35" t="s">
-        <v>39</v>
-      </c>
-      <c r="C42" s="35">
-        <v>38</v>
-      </c>
-      <c r="D42" s="43" t="s">
-        <v>50</v>
+      <c r="A42" s="42">
+        <v>14</v>
+      </c>
+      <c r="B42" s="37" t="s">
+        <v>36</v>
+      </c>
+      <c r="C42" s="37">
+        <v>32</v>
+      </c>
+      <c r="D42" s="42" t="s">
+        <v>25</v>
       </c>
       <c r="E42" s="35" t="s">
         <v>7</v>
       </c>
-      <c r="F42" s="36">
-        <v>44253</v>
+      <c r="F42" s="35" t="s">
+        <v>86</v>
       </c>
       <c r="G42" s="8" t="s">
-        <v>96</v>
+        <v>65</v>
       </c>
       <c r="H42" s="8" t="s">
-        <v>40</v>
+        <v>66</v>
       </c>
       <c r="I42" s="40" t="s">
-        <v>114</v>
+        <v>102</v>
       </c>
     </row>
     <row r="43" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A43" s="38"/>
-      <c r="B43" s="8"/>
-      <c r="C43" s="8"/>
-      <c r="D43" s="38"/>
+      <c r="A43" s="42"/>
+      <c r="B43" s="37"/>
+      <c r="C43" s="37"/>
+      <c r="D43" s="42"/>
       <c r="E43" s="35" t="s">
         <v>8</v>
       </c>
       <c r="F43" s="35" t="s">
-        <v>84</v>
-      </c>
-      <c r="G43" s="8" t="s">
-        <v>97</v>
+        <v>87</v>
+      </c>
+      <c r="G43" s="8">
+        <v>81231558203</v>
       </c>
       <c r="H43" s="8"/>
     </row>
     <row r="44" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A44" s="38"/>
-      <c r="B44" s="10"/>
-      <c r="C44" s="10"/>
-      <c r="D44" s="38"/>
-      <c r="E44" s="10"/>
-      <c r="F44" s="10"/>
-      <c r="G44" s="10"/>
-      <c r="H44" s="10"/>
-      <c r="I44" s="7"/>
+      <c r="A44" s="42"/>
+      <c r="B44" s="37"/>
+      <c r="C44" s="37"/>
+      <c r="D44" s="42"/>
+      <c r="E44" s="8"/>
+      <c r="F44" s="8"/>
+      <c r="G44" s="8"/>
+      <c r="H44" s="8"/>
     </row>
     <row r="45" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A45" s="43">
-        <v>11</v>
-      </c>
-      <c r="B45" s="35" t="s">
-        <v>41</v>
-      </c>
-      <c r="C45" s="35">
-        <v>38</v>
-      </c>
-      <c r="D45" s="43" t="s">
-        <v>48</v>
-      </c>
-      <c r="E45" s="35" t="s">
-        <v>7</v>
-      </c>
-      <c r="F45" s="36">
-        <v>44253</v>
-      </c>
-      <c r="G45" s="8" t="s">
-        <v>100</v>
-      </c>
-      <c r="H45" s="8" t="s">
-        <v>40</v>
-      </c>
-      <c r="I45" s="7" t="s">
-        <v>114</v>
-      </c>
+      <c r="A45" s="38">
+        <v>15</v>
+      </c>
+      <c r="B45" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="C45" s="8">
+        <v>33</v>
+      </c>
+      <c r="D45" s="38" t="s">
+        <v>117</v>
+      </c>
+      <c r="E45" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="F45" s="39" t="s">
+        <v>121</v>
+      </c>
+      <c r="G45" s="38" t="s">
+        <v>118</v>
+      </c>
+      <c r="H45" s="38"/>
     </row>
     <row r="46" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A46" s="45"/>
-      <c r="B46" s="8"/>
+      <c r="A46" s="38"/>
+      <c r="B46" s="10"/>
       <c r="C46" s="8"/>
       <c r="D46" s="38"/>
-      <c r="E46" s="35" t="s">
-        <v>8</v>
-      </c>
-      <c r="F46" s="35" t="s">
-        <v>89</v>
-      </c>
-      <c r="G46" s="8" t="s">
-        <v>101</v>
-      </c>
-      <c r="H46" s="8"/>
-      <c r="I46" s="7"/>
+      <c r="E46" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="F46" s="38"/>
+      <c r="G46" s="38">
+        <v>81331430509</v>
+      </c>
+      <c r="H46" s="38"/>
     </row>
     <row r="47" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A47" s="38"/>
-      <c r="B47" s="8"/>
-      <c r="C47" s="8"/>
-      <c r="D47" s="38"/>
+      <c r="A47" s="42"/>
+      <c r="B47" s="37"/>
+      <c r="C47" s="37"/>
+      <c r="D47" s="42"/>
       <c r="E47" s="8"/>
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c r="H47" s="8"/>
-      <c r="I47" s="7"/>
     </row>
     <row r="48" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A48" s="38">
-        <v>12</v>
-      </c>
-      <c r="B48" s="8" t="s">
-        <v>39</v>
-      </c>
-      <c r="C48" s="8">
-        <v>39</v>
-      </c>
-      <c r="D48" s="38" t="s">
-        <v>25</v>
+      <c r="A48" s="42">
+        <v>16</v>
+      </c>
+      <c r="B48" s="37" t="s">
+        <v>38</v>
+      </c>
+      <c r="C48" s="37">
+        <v>27</v>
+      </c>
+      <c r="D48" s="42" t="s">
+        <v>67</v>
       </c>
       <c r="E48" s="35" t="s">
         <v>7</v>
       </c>
       <c r="F48" s="35" t="s">
-        <v>82</v>
-      </c>
-      <c r="G48" s="8" t="s">
-        <v>68</v>
-      </c>
-      <c r="H48" s="9">
-        <v>44444</v>
-      </c>
-      <c r="I48" s="7"/>
+        <v>88</v>
+      </c>
+      <c r="G48" s="32" t="s">
+        <v>98</v>
+      </c>
+      <c r="H48" s="33">
+        <v>44409</v>
+      </c>
+      <c r="I48" s="44">
+        <v>44287</v>
+      </c>
     </row>
     <row r="49" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A49" s="38"/>
-      <c r="B49" s="8"/>
-      <c r="C49" s="8"/>
-      <c r="D49" s="38"/>
-      <c r="E49" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="F49" s="8" t="s">
-        <v>90</v>
-      </c>
-      <c r="G49" s="8">
-        <v>81331414130</v>
-      </c>
-      <c r="H49" s="8"/>
-      <c r="I49" s="7"/>
+      <c r="A49" s="42"/>
+      <c r="B49" s="37"/>
+      <c r="C49" s="37"/>
+      <c r="D49" s="42"/>
+      <c r="E49" s="35" t="s">
+        <v>8</v>
+      </c>
+      <c r="F49" s="35" t="s">
+        <v>87</v>
+      </c>
+      <c r="G49" s="32" t="s">
+        <v>99</v>
+      </c>
+      <c r="H49" s="33"/>
     </row>
     <row r="50" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A50" s="38"/>
@@ -1915,85 +2015,86 @@
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
       <c r="H50" s="8"/>
-      <c r="I50" s="7"/>
     </row>
     <row r="51" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A51" s="38">
-        <v>13</v>
-      </c>
-      <c r="B51" s="8" t="s">
-        <v>41</v>
+        <v>17</v>
+      </c>
+      <c r="B51" s="10" t="s">
+        <v>38</v>
       </c>
       <c r="C51" s="8">
-        <v>39</v>
+        <v>28</v>
       </c>
       <c r="D51" s="38" t="s">
-        <v>69</v>
-      </c>
-      <c r="E51" s="35" t="s">
-        <v>7</v>
-      </c>
-      <c r="F51" s="35" t="s">
-        <v>82</v>
-      </c>
-      <c r="G51" s="8" t="s">
-        <v>70</v>
-      </c>
-      <c r="H51" s="9">
-        <v>44444</v>
-      </c>
-      <c r="I51" s="7"/>
+        <v>112</v>
+      </c>
+      <c r="E51" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="F51" s="38" t="s">
+        <v>106</v>
+      </c>
+      <c r="G51" s="38" t="s">
+        <v>107</v>
+      </c>
+      <c r="H51" s="38" t="s">
+        <v>108</v>
+      </c>
     </row>
     <row r="52" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A52" s="38"/>
-      <c r="B52" s="8"/>
+      <c r="B52" s="10"/>
       <c r="C52" s="8"/>
       <c r="D52" s="38"/>
       <c r="E52" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="F52" s="8" t="s">
-        <v>90</v>
-      </c>
-      <c r="G52" s="8">
-        <v>81252283477</v>
-      </c>
-      <c r="H52" s="8"/>
+      <c r="F52" s="39">
+        <v>44501</v>
+      </c>
+      <c r="G52" s="38">
+        <v>85649115380</v>
+      </c>
+      <c r="H52" s="38"/>
     </row>
     <row r="53" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A53" s="38"/>
-      <c r="B53" s="8"/>
+      <c r="B53" s="10"/>
       <c r="C53" s="8"/>
       <c r="D53" s="38"/>
       <c r="E53" s="8"/>
-      <c r="F53" s="8"/>
-      <c r="G53" s="8"/>
-      <c r="H53" s="8"/>
+      <c r="F53" s="38"/>
+      <c r="G53" s="38"/>
+      <c r="H53" s="38"/>
     </row>
     <row r="54" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A54" s="38">
-        <v>14</v>
-      </c>
-      <c r="B54" s="8" t="s">
-        <v>24</v>
-      </c>
-      <c r="C54" s="8">
-        <v>26</v>
-      </c>
-      <c r="D54" s="38" t="s">
-        <v>48</v>
+      <c r="A54" s="43">
+        <v>18</v>
+      </c>
+      <c r="B54" s="35" t="s">
+        <v>39</v>
+      </c>
+      <c r="C54" s="35">
+        <v>38</v>
+      </c>
+      <c r="D54" s="43" t="s">
+        <v>50</v>
       </c>
       <c r="E54" s="35" t="s">
         <v>7</v>
       </c>
-      <c r="F54" s="35" t="s">
-        <v>105</v>
+      <c r="F54" s="36">
+        <v>44253</v>
       </c>
       <c r="G54" s="8" t="s">
-        <v>103</v>
-      </c>
-      <c r="H54" s="9" t="s">
-        <v>104</v>
+        <v>96</v>
+      </c>
+      <c r="H54" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="I54" s="40" t="s">
+        <v>114</v>
       </c>
     </row>
     <row r="55" spans="1:9" x14ac:dyDescent="0.2">
@@ -2001,16 +2102,16 @@
       <c r="B55" s="8"/>
       <c r="C55" s="8"/>
       <c r="D55" s="38"/>
-      <c r="E55" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="F55" s="9">
-        <v>44614</v>
-      </c>
-      <c r="G55" s="8">
-        <v>85732094240</v>
-      </c>
-      <c r="H55" s="10"/>
+      <c r="E55" s="35" t="s">
+        <v>8</v>
+      </c>
+      <c r="F55" s="35" t="s">
+        <v>84</v>
+      </c>
+      <c r="G55" s="8" t="s">
+        <v>97</v>
+      </c>
+      <c r="H55" s="8"/>
     </row>
     <row r="56" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A56" s="38"/>
@@ -2021,276 +2122,261 @@
       <c r="F56" s="10"/>
       <c r="G56" s="10"/>
       <c r="H56" s="10"/>
+      <c r="I56" s="7"/>
     </row>
     <row r="57" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A57" s="38">
-        <v>15</v>
-      </c>
-      <c r="B57" s="10" t="s">
+      <c r="A57" s="43">
+        <v>19</v>
+      </c>
+      <c r="B57" s="35" t="s">
+        <v>41</v>
+      </c>
+      <c r="C57" s="35">
         <v>38</v>
       </c>
-      <c r="C57" s="8">
-        <v>28</v>
-      </c>
-      <c r="D57" s="38" t="s">
-        <v>112</v>
-      </c>
-      <c r="E57" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="F57" s="38" t="s">
-        <v>106</v>
-      </c>
-      <c r="G57" s="38" t="s">
-        <v>107</v>
-      </c>
-      <c r="H57" s="38" t="s">
-        <v>108</v>
+      <c r="D57" s="43" t="s">
+        <v>48</v>
+      </c>
+      <c r="E57" s="35" t="s">
+        <v>7</v>
+      </c>
+      <c r="F57" s="36">
+        <v>44253</v>
+      </c>
+      <c r="G57" s="8" t="s">
+        <v>100</v>
+      </c>
+      <c r="H57" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="I57" s="7" t="s">
+        <v>114</v>
       </c>
     </row>
     <row r="58" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A58" s="38"/>
-      <c r="B58" s="10"/>
+      <c r="A58" s="45"/>
+      <c r="B58" s="8"/>
       <c r="C58" s="8"/>
       <c r="D58" s="38"/>
-      <c r="E58" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="F58" s="39">
-        <v>44501</v>
-      </c>
-      <c r="G58" s="38">
-        <v>85649115380</v>
-      </c>
-      <c r="H58" s="38"/>
+      <c r="E58" s="35" t="s">
+        <v>8</v>
+      </c>
+      <c r="F58" s="35" t="s">
+        <v>89</v>
+      </c>
+      <c r="G58" s="8" t="s">
+        <v>101</v>
+      </c>
+      <c r="H58" s="8"/>
+      <c r="I58" s="7"/>
     </row>
     <row r="59" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A59" s="38"/>
-      <c r="B59" s="10"/>
+      <c r="B59" s="8"/>
       <c r="C59" s="8"/>
       <c r="D59" s="38"/>
       <c r="E59" s="8"/>
-      <c r="F59" s="38"/>
-      <c r="G59" s="38"/>
-      <c r="H59" s="38"/>
+      <c r="F59" s="8"/>
+      <c r="G59" s="8"/>
+      <c r="H59" s="8"/>
+      <c r="I59" s="7"/>
     </row>
     <row r="60" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A60" s="38">
-        <v>16</v>
-      </c>
-      <c r="B60" s="10" t="s">
-        <v>26</v>
+        <v>20</v>
+      </c>
+      <c r="B60" s="8" t="s">
+        <v>39</v>
       </c>
       <c r="C60" s="8">
-        <v>32</v>
+        <v>39</v>
       </c>
       <c r="D60" s="38" t="s">
-        <v>110</v>
-      </c>
-      <c r="E60" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="F60" s="38" t="s">
-        <v>109</v>
-      </c>
-      <c r="G60" s="38" t="s">
-        <v>115</v>
-      </c>
-      <c r="H60" s="38" t="s">
-        <v>111</v>
-      </c>
+        <v>25</v>
+      </c>
+      <c r="E60" s="35" t="s">
+        <v>7</v>
+      </c>
+      <c r="F60" s="35" t="s">
+        <v>82</v>
+      </c>
+      <c r="G60" s="8" t="s">
+        <v>68</v>
+      </c>
+      <c r="H60" s="9">
+        <v>44444</v>
+      </c>
+      <c r="I60" s="7"/>
     </row>
     <row r="61" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A61" s="38"/>
-      <c r="B61" s="10"/>
+      <c r="B61" s="8"/>
       <c r="C61" s="8"/>
       <c r="D61" s="38"/>
       <c r="E61" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="F61" s="39">
-        <v>44520</v>
-      </c>
-      <c r="G61" s="38">
-        <v>81333524165</v>
-      </c>
-      <c r="H61" s="38"/>
+      <c r="F61" s="8" t="s">
+        <v>90</v>
+      </c>
+      <c r="G61" s="8">
+        <v>81331414130</v>
+      </c>
+      <c r="H61" s="8"/>
+      <c r="I61" s="7"/>
     </row>
     <row r="62" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A62" s="38"/>
-      <c r="B62" s="10"/>
+      <c r="B62" s="8"/>
       <c r="C62" s="8"/>
       <c r="D62" s="38"/>
       <c r="E62" s="8"/>
-      <c r="F62" s="38"/>
-      <c r="G62" s="38"/>
-      <c r="H62" s="38"/>
+      <c r="F62" s="8"/>
+      <c r="G62" s="8"/>
+      <c r="H62" s="8"/>
+      <c r="I62" s="7"/>
     </row>
     <row r="63" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A63" s="38">
-        <v>17</v>
-      </c>
-      <c r="B63" s="10" t="s">
-        <v>20</v>
+        <v>21</v>
+      </c>
+      <c r="B63" s="8" t="s">
+        <v>41</v>
       </c>
       <c r="C63" s="8">
-        <v>17</v>
+        <v>39</v>
       </c>
       <c r="D63" s="38" t="s">
-        <v>116</v>
-      </c>
-      <c r="E63" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="F63" s="39" t="s">
-        <v>121</v>
-      </c>
-      <c r="G63" s="38" t="s">
-        <v>120</v>
-      </c>
-      <c r="H63" s="38"/>
+        <v>69</v>
+      </c>
+      <c r="E63" s="35" t="s">
+        <v>7</v>
+      </c>
+      <c r="F63" s="35" t="s">
+        <v>82</v>
+      </c>
+      <c r="G63" s="8" t="s">
+        <v>70</v>
+      </c>
+      <c r="H63" s="9">
+        <v>44444</v>
+      </c>
+      <c r="I63" s="7"/>
     </row>
     <row r="64" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A64" s="38"/>
-      <c r="B64" s="10"/>
+      <c r="B64" s="8"/>
       <c r="C64" s="8"/>
       <c r="D64" s="38"/>
       <c r="E64" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="F64" s="38"/>
-      <c r="G64" s="38">
-        <v>81284663664</v>
-      </c>
-      <c r="H64" s="38"/>
-    </row>
-    <row r="65" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="F64" s="8" t="s">
+        <v>90</v>
+      </c>
+      <c r="G64" s="8">
+        <v>81252283477</v>
+      </c>
+      <c r="H64" s="8"/>
+    </row>
+    <row r="65" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A65" s="38"/>
-      <c r="B65" s="10"/>
+      <c r="B65" s="8"/>
       <c r="C65" s="8"/>
       <c r="D65" s="38"/>
       <c r="E65" s="8"/>
-      <c r="F65" s="39"/>
-      <c r="G65" s="38"/>
-      <c r="H65" s="38"/>
-    </row>
-    <row r="66" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A66" s="38">
-        <v>18</v>
-      </c>
-      <c r="B66" s="10" t="s">
+      <c r="F65" s="8"/>
+      <c r="G65" s="8"/>
+      <c r="H65" s="8"/>
+    </row>
+    <row r="66" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A66" s="47">
         <v>22</v>
       </c>
-      <c r="C66" s="8">
-        <v>17</v>
-      </c>
-      <c r="D66" s="38" t="s">
-        <v>49</v>
-      </c>
-      <c r="E66" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="F66" s="39" t="s">
-        <v>121</v>
-      </c>
-      <c r="G66" s="38" t="s">
-        <v>119</v>
-      </c>
-      <c r="H66" s="38"/>
-    </row>
-    <row r="67" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A67" s="38"/>
-      <c r="B67" s="10"/>
-      <c r="C67" s="8"/>
-      <c r="D67" s="38"/>
-      <c r="E67" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="F67" s="39"/>
-      <c r="G67" s="38">
-        <v>85740346667</v>
-      </c>
-      <c r="H67" s="38"/>
-    </row>
-    <row r="68" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A68" s="38"/>
-      <c r="B68" s="10"/>
-      <c r="C68" s="8"/>
-      <c r="D68" s="38"/>
-      <c r="E68" s="8"/>
-      <c r="F68" s="38"/>
-      <c r="G68" s="38"/>
-      <c r="H68" s="38"/>
-    </row>
-    <row r="69" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A69" s="38">
-        <v>19</v>
-      </c>
-      <c r="B69" s="10" t="s">
-        <v>36</v>
-      </c>
-      <c r="C69" s="8">
-        <v>33</v>
-      </c>
-      <c r="D69" s="38" t="s">
-        <v>117</v>
-      </c>
-      <c r="E69" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="F69" s="39" t="s">
+      <c r="B66" s="48" t="s">
+        <v>39</v>
+      </c>
+      <c r="C66" s="49">
+        <v>40</v>
+      </c>
+      <c r="D66" s="50" t="s">
+        <v>127</v>
+      </c>
+      <c r="E66" s="48" t="s">
+        <v>7</v>
+      </c>
+      <c r="F66" s="48"/>
+      <c r="G66" s="50" t="s">
         <v>122</v>
       </c>
-      <c r="G69" s="38" t="s">
-        <v>118</v>
-      </c>
-      <c r="H69" s="38"/>
-    </row>
-    <row r="70" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A70" s="38"/>
-      <c r="B70" s="10"/>
-      <c r="C70" s="8"/>
-      <c r="D70" s="38"/>
-      <c r="E70" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="F70" s="38"/>
-      <c r="G70" s="38">
-        <v>81331430509</v>
-      </c>
-      <c r="H70" s="38"/>
-    </row>
-    <row r="71" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A71" s="38"/>
-      <c r="B71" s="10"/>
-      <c r="C71" s="8"/>
-      <c r="D71" s="38"/>
-      <c r="E71" s="8"/>
-      <c r="F71" s="39"/>
-      <c r="G71" s="38"/>
-      <c r="H71" s="38"/>
-    </row>
-    <row r="72" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="B72" s="7" t="s">
-        <v>39</v>
-      </c>
-      <c r="C72" s="46">
+      <c r="H66" s="51"/>
+    </row>
+    <row r="67" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A67" s="52"/>
+      <c r="B67" s="53"/>
+      <c r="C67" s="53"/>
+      <c r="D67" s="54"/>
+      <c r="E67" s="53" t="s">
+        <v>8</v>
+      </c>
+      <c r="F67" s="53"/>
+      <c r="G67" s="54">
+        <v>81359524067</v>
+      </c>
+      <c r="H67" s="55"/>
+    </row>
+    <row r="68" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A68" s="56"/>
+      <c r="B68" s="57"/>
+      <c r="C68" s="57"/>
+      <c r="D68" s="58"/>
+      <c r="E68" s="57"/>
+      <c r="F68" s="57"/>
+      <c r="G68" s="57"/>
+      <c r="H68" s="59"/>
+    </row>
+    <row r="69" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A69" s="50">
+        <v>23</v>
+      </c>
+      <c r="B69" s="49" t="s">
+        <v>41</v>
+      </c>
+      <c r="C69" s="49">
         <v>40</v>
       </c>
-      <c r="E72" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="G72" s="40" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="73" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="E73" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="G73" s="40">
-        <v>81359524067</v>
-      </c>
+      <c r="D69" s="50" t="s">
+        <v>126</v>
+      </c>
+      <c r="E69" s="60" t="s">
+        <v>7</v>
+      </c>
+      <c r="F69" s="60"/>
+      <c r="G69" s="49"/>
+      <c r="H69" s="61"/>
+      <c r="I69" s="7"/>
+    </row>
+    <row r="70" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A70" s="54"/>
+      <c r="B70" s="62"/>
+      <c r="C70" s="62"/>
+      <c r="D70" s="54"/>
+      <c r="E70" s="62" t="s">
+        <v>8</v>
+      </c>
+      <c r="F70" s="62"/>
+      <c r="G70" s="62"/>
+      <c r="H70" s="62"/>
+    </row>
+    <row r="71" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A71" s="58"/>
+      <c r="B71" s="63"/>
+      <c r="C71" s="63"/>
+      <c r="D71" s="58"/>
+      <c r="E71" s="63"/>
+      <c r="F71" s="63"/>
+      <c r="G71" s="63"/>
+      <c r="H71" s="63"/>
     </row>
   </sheetData>
   <pageMargins left="0.43" right="0.12" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/RENCANA BON VOYAGE.xlsx
+++ b/RENCANA BON VOYAGE.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Mapan\progress\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{34CC59DF-6DF1-4030-92CD-4959D4A0D3E9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F2896569-6D40-4BB5-8A35-FE34BAB6C0EC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="148" uniqueCount="90">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="145" uniqueCount="90">
   <si>
     <t>NO</t>
   </si>
@@ -183,9 +183,6 @@
     <t>JAMALUDIN</t>
   </si>
   <si>
-    <t>27 AGUSTUS</t>
-  </si>
-  <si>
     <t>RYAN WIBOWO</t>
   </si>
   <si>
@@ -295,6 +292,9 @@
   </si>
   <si>
     <t>17 ORG</t>
+  </si>
+  <si>
+    <t>20 OKT</t>
   </si>
 </sst>
 </file>
@@ -459,31 +459,13 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -500,12 +482,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -526,12 +502,6 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="2"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" indent="2"/>
     </xf>
@@ -549,12 +519,6 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" indent="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="2"/>
     </xf>
     <xf numFmtId="15" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" indent="2"/>
@@ -640,6 +604,42 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -983,7 +983,7 @@
   <dimension ref="A1:J71"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="S18" sqref="S18"/>
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -993,105 +993,105 @@
     <col min="3" max="3" width="9.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="18.42578125" style="2" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="18.42578125" style="2" customWidth="1"/>
-    <col min="6" max="6" width="18.140625" style="47" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="21.5703125" style="47" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="18.140625" style="37" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="21.5703125" style="37" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="9.7109375" style="2" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="10.42578125" style="78" customWidth="1"/>
-    <col min="10" max="10" width="14" style="39" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="10.42578125" style="66" customWidth="1"/>
+    <col min="10" max="10" width="14" style="31" bestFit="1" customWidth="1"/>
     <col min="11" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="15" x14ac:dyDescent="0.25">
-      <c r="A1" s="19" t="s">
+      <c r="A1" s="67" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="19" t="s">
+      <c r="B1" s="67" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="19" t="s">
+      <c r="C1" s="67" t="s">
         <v>27</v>
       </c>
-      <c r="D1" s="32" t="s">
+      <c r="D1" s="73" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="32"/>
-      <c r="F1" s="48" t="s">
+      <c r="E1" s="73"/>
+      <c r="F1" s="71" t="s">
         <v>8</v>
       </c>
-      <c r="G1" s="40" t="s">
+      <c r="G1" s="69" t="s">
         <v>4</v>
       </c>
-      <c r="H1" s="19" t="s">
+      <c r="H1" s="67" t="s">
         <v>2</v>
       </c>
-      <c r="I1" s="19" t="s">
-        <v>62</v>
-      </c>
-      <c r="J1" s="19"/>
+      <c r="I1" s="67" t="s">
+        <v>61</v>
+      </c>
+      <c r="J1" s="67"/>
     </row>
     <row r="2" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="33"/>
-      <c r="B2" s="33"/>
-      <c r="C2" s="33"/>
-      <c r="D2" s="21" t="s">
+      <c r="A2" s="68"/>
+      <c r="B2" s="68"/>
+      <c r="C2" s="68"/>
+      <c r="D2" s="17" t="s">
         <v>6</v>
       </c>
-      <c r="E2" s="21" t="s">
+      <c r="E2" s="17" t="s">
         <v>7</v>
       </c>
-      <c r="F2" s="49"/>
-      <c r="G2" s="41"/>
-      <c r="H2" s="33"/>
-      <c r="I2" s="21" t="s">
+      <c r="F2" s="72"/>
+      <c r="G2" s="70"/>
+      <c r="H2" s="68"/>
+      <c r="I2" s="17" t="s">
         <v>6</v>
       </c>
-      <c r="J2" s="21" t="s">
+      <c r="J2" s="17" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="3" spans="1:10" ht="15" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="55">
+      <c r="A3" s="43">
         <v>1</v>
       </c>
-      <c r="B3" s="56" t="s">
+      <c r="B3" s="44" t="s">
         <v>5</v>
       </c>
-      <c r="C3" s="56">
+      <c r="C3" s="44">
         <v>9</v>
       </c>
-      <c r="D3" s="57" t="s">
+      <c r="D3" s="45" t="s">
         <v>29</v>
       </c>
-      <c r="E3" s="58" t="s">
-        <v>54</v>
-      </c>
-      <c r="F3" s="60">
+      <c r="E3" s="46" t="s">
+        <v>53</v>
+      </c>
+      <c r="F3" s="48">
         <v>44444</v>
       </c>
-      <c r="G3" s="59" t="s">
+      <c r="G3" s="47" t="s">
         <v>19</v>
       </c>
-      <c r="H3" s="55" t="s">
-        <v>73</v>
-      </c>
-      <c r="I3" s="72" t="s">
-        <v>59</v>
-      </c>
-      <c r="J3" s="73"/>
+      <c r="H3" s="43" t="s">
+        <v>72</v>
+      </c>
+      <c r="I3" s="60" t="s">
+        <v>58</v>
+      </c>
+      <c r="J3" s="61"/>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A4" s="7"/>
       <c r="B4" s="11"/>
       <c r="C4" s="11"/>
-      <c r="D4" s="26"/>
-      <c r="E4" s="26"/>
-      <c r="F4" s="42"/>
-      <c r="G4" s="42">
+      <c r="D4" s="20"/>
+      <c r="E4" s="20"/>
+      <c r="F4" s="32"/>
+      <c r="G4" s="32">
         <v>81228196787</v>
       </c>
       <c r="H4" s="7"/>
-      <c r="I4" s="38"/>
-      <c r="J4" s="34"/>
+      <c r="I4" s="30"/>
+      <c r="J4" s="26"/>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A5" s="9"/>
@@ -1099,11 +1099,11 @@
       <c r="C5" s="12"/>
       <c r="D5" s="9"/>
       <c r="E5" s="9"/>
-      <c r="F5" s="43"/>
-      <c r="G5" s="43"/>
+      <c r="F5" s="33"/>
+      <c r="G5" s="33"/>
       <c r="H5" s="9"/>
-      <c r="I5" s="74"/>
-      <c r="J5" s="35"/>
+      <c r="I5" s="62"/>
+      <c r="J5" s="27"/>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A6" s="5">
@@ -1118,36 +1118,36 @@
       <c r="D6" s="14" t="s">
         <v>29</v>
       </c>
-      <c r="E6" s="27" t="s">
-        <v>54</v>
-      </c>
-      <c r="F6" s="51">
+      <c r="E6" s="21" t="s">
+        <v>53</v>
+      </c>
+      <c r="F6" s="39">
         <v>44444</v>
       </c>
-      <c r="G6" s="44" t="s">
+      <c r="G6" s="34" t="s">
         <v>20</v>
       </c>
       <c r="H6" s="5" t="s">
-        <v>74</v>
-      </c>
-      <c r="I6" s="75" t="s">
-        <v>59</v>
-      </c>
-      <c r="J6" s="36"/>
+        <v>73</v>
+      </c>
+      <c r="I6" s="63" t="s">
+        <v>58</v>
+      </c>
+      <c r="J6" s="28"/>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A7" s="7"/>
       <c r="B7" s="11"/>
       <c r="C7" s="11"/>
-      <c r="D7" s="26"/>
-      <c r="E7" s="26"/>
-      <c r="F7" s="42"/>
-      <c r="G7" s="42">
+      <c r="D7" s="20"/>
+      <c r="E7" s="20"/>
+      <c r="F7" s="32"/>
+      <c r="G7" s="32">
         <v>81225736355</v>
       </c>
       <c r="H7" s="7"/>
-      <c r="I7" s="38"/>
-      <c r="J7" s="34"/>
+      <c r="I7" s="30"/>
+      <c r="J7" s="26"/>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A8" s="9"/>
@@ -1155,11 +1155,11 @@
       <c r="C8" s="12"/>
       <c r="D8" s="9"/>
       <c r="E8" s="9"/>
-      <c r="F8" s="43"/>
-      <c r="G8" s="43"/>
+      <c r="F8" s="33"/>
+      <c r="G8" s="33"/>
       <c r="H8" s="9"/>
-      <c r="I8" s="74"/>
-      <c r="J8" s="35"/>
+      <c r="I8" s="62"/>
+      <c r="J8" s="27"/>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A9" s="5">
@@ -1171,49 +1171,49 @@
       <c r="C9" s="4">
         <v>10</v>
       </c>
-      <c r="D9" s="31" t="s">
+      <c r="D9" s="40">
+        <v>44444</v>
+      </c>
+      <c r="E9" s="22">
+        <v>44520</v>
+      </c>
+      <c r="F9" s="39" t="s">
         <v>57</v>
       </c>
-      <c r="E9" s="28">
-        <v>44520</v>
-      </c>
-      <c r="F9" s="51" t="s">
-        <v>58</v>
-      </c>
-      <c r="G9" s="44" t="s">
-        <v>55</v>
+      <c r="G9" s="34" t="s">
+        <v>54</v>
       </c>
       <c r="H9" s="5" t="s">
-        <v>75</v>
-      </c>
-      <c r="I9" s="37"/>
-      <c r="J9" s="36"/>
+        <v>74</v>
+      </c>
+      <c r="I9" s="29"/>
+      <c r="J9" s="28"/>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A10" s="7"/>
       <c r="B10" s="11"/>
       <c r="C10" s="11"/>
-      <c r="D10" s="26"/>
-      <c r="E10" s="26"/>
-      <c r="F10" s="42"/>
-      <c r="G10" s="42">
+      <c r="D10" s="20"/>
+      <c r="E10" s="20"/>
+      <c r="F10" s="32"/>
+      <c r="G10" s="32">
         <v>81331434743</v>
       </c>
       <c r="H10" s="7"/>
-      <c r="I10" s="38"/>
-      <c r="J10" s="34"/>
+      <c r="I10" s="30"/>
+      <c r="J10" s="26"/>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A11" s="9"/>
       <c r="B11" s="12"/>
       <c r="C11" s="12"/>
-      <c r="D11" s="29"/>
-      <c r="E11" s="29"/>
-      <c r="F11" s="43"/>
-      <c r="G11" s="43"/>
+      <c r="D11" s="23"/>
+      <c r="E11" s="23"/>
+      <c r="F11" s="33"/>
+      <c r="G11" s="33"/>
       <c r="H11" s="9"/>
-      <c r="I11" s="74"/>
-      <c r="J11" s="35"/>
+      <c r="I11" s="62"/>
+      <c r="J11" s="27"/>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A12" s="5">
@@ -1225,45 +1225,45 @@
       <c r="C12" s="4">
         <v>10</v>
       </c>
-      <c r="D12" s="31" t="s">
+      <c r="D12" s="40">
+        <v>44444</v>
+      </c>
+      <c r="E12" s="22">
+        <v>44520</v>
+      </c>
+      <c r="F12" s="39" t="s">
         <v>57</v>
       </c>
-      <c r="E12" s="28">
-        <v>44520</v>
-      </c>
-      <c r="F12" s="51" t="s">
-        <v>58</v>
-      </c>
-      <c r="G12" s="44"/>
+      <c r="G12" s="34"/>
       <c r="H12" s="5" t="s">
-        <v>76</v>
-      </c>
-      <c r="I12" s="37"/>
-      <c r="J12" s="36"/>
+        <v>75</v>
+      </c>
+      <c r="I12" s="29"/>
+      <c r="J12" s="28"/>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A13" s="7"/>
       <c r="B13" s="11"/>
       <c r="C13" s="11"/>
-      <c r="D13" s="26"/>
-      <c r="E13" s="26"/>
-      <c r="F13" s="42"/>
-      <c r="G13" s="42"/>
+      <c r="D13" s="20"/>
+      <c r="E13" s="20"/>
+      <c r="F13" s="32"/>
+      <c r="G13" s="32"/>
       <c r="H13" s="7"/>
-      <c r="I13" s="38"/>
-      <c r="J13" s="34"/>
+      <c r="I13" s="30"/>
+      <c r="J13" s="26"/>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A14" s="9"/>
       <c r="B14" s="12"/>
       <c r="C14" s="12"/>
-      <c r="D14" s="29"/>
-      <c r="E14" s="29"/>
-      <c r="F14" s="43"/>
-      <c r="G14" s="43"/>
+      <c r="D14" s="23"/>
+      <c r="E14" s="23"/>
+      <c r="F14" s="33"/>
+      <c r="G14" s="33"/>
       <c r="H14" s="9"/>
-      <c r="I14" s="74"/>
-      <c r="J14" s="35"/>
+      <c r="I14" s="62"/>
+      <c r="J14" s="27"/>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A15" s="5">
@@ -1278,36 +1278,36 @@
       <c r="D15" s="14" t="s">
         <v>30</v>
       </c>
-      <c r="E15" s="52">
+      <c r="E15" s="40">
         <v>44501</v>
       </c>
-      <c r="F15" s="51">
+      <c r="F15" s="39">
         <v>44520</v>
       </c>
-      <c r="G15" s="44" t="s">
+      <c r="G15" s="34" t="s">
         <v>21</v>
       </c>
       <c r="H15" s="5" t="s">
-        <v>77</v>
-      </c>
-      <c r="I15" s="75" t="s">
-        <v>59</v>
-      </c>
-      <c r="J15" s="36"/>
+        <v>76</v>
+      </c>
+      <c r="I15" s="63" t="s">
+        <v>58</v>
+      </c>
+      <c r="J15" s="28"/>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A16" s="7"/>
       <c r="B16" s="11"/>
       <c r="C16" s="11"/>
       <c r="D16" s="7"/>
-      <c r="E16" s="53"/>
-      <c r="F16" s="50"/>
-      <c r="G16" s="42">
+      <c r="E16" s="41"/>
+      <c r="F16" s="38"/>
+      <c r="G16" s="32">
         <v>81232989078</v>
       </c>
       <c r="H16" s="7"/>
-      <c r="I16" s="38"/>
-      <c r="J16" s="34"/>
+      <c r="I16" s="30"/>
+      <c r="J16" s="26"/>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A17" s="9"/>
@@ -1315,11 +1315,11 @@
       <c r="C17" s="12"/>
       <c r="D17" s="9"/>
       <c r="E17" s="9"/>
-      <c r="F17" s="54"/>
-      <c r="G17" s="43"/>
+      <c r="F17" s="42"/>
+      <c r="G17" s="33"/>
       <c r="H17" s="9"/>
-      <c r="I17" s="74"/>
-      <c r="J17" s="35"/>
+      <c r="I17" s="62"/>
+      <c r="J17" s="27"/>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A18" s="5">
@@ -1334,36 +1334,36 @@
       <c r="D18" s="14" t="s">
         <v>30</v>
       </c>
-      <c r="E18" s="52">
+      <c r="E18" s="40">
         <v>44501</v>
       </c>
-      <c r="F18" s="51">
+      <c r="F18" s="39">
         <v>44520</v>
       </c>
-      <c r="G18" s="44" t="s">
+      <c r="G18" s="34" t="s">
         <v>22</v>
       </c>
       <c r="H18" s="5" t="s">
-        <v>78</v>
-      </c>
-      <c r="I18" s="75" t="s">
-        <v>59</v>
-      </c>
-      <c r="J18" s="36"/>
+        <v>77</v>
+      </c>
+      <c r="I18" s="63" t="s">
+        <v>58</v>
+      </c>
+      <c r="J18" s="28"/>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A19" s="7"/>
       <c r="B19" s="11"/>
       <c r="C19" s="11"/>
       <c r="D19" s="7"/>
-      <c r="E19" s="53"/>
-      <c r="F19" s="50"/>
-      <c r="G19" s="42">
+      <c r="E19" s="41"/>
+      <c r="F19" s="38"/>
+      <c r="G19" s="32">
         <v>81231807990</v>
       </c>
       <c r="H19" s="7"/>
-      <c r="I19" s="38"/>
-      <c r="J19" s="34"/>
+      <c r="I19" s="30"/>
+      <c r="J19" s="26"/>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A20" s="9"/>
@@ -1371,11 +1371,11 @@
       <c r="C20" s="12"/>
       <c r="D20" s="9"/>
       <c r="E20" s="9"/>
-      <c r="F20" s="54"/>
-      <c r="G20" s="43"/>
+      <c r="F20" s="42"/>
+      <c r="G20" s="33"/>
       <c r="H20" s="9"/>
-      <c r="I20" s="74"/>
-      <c r="J20" s="35"/>
+      <c r="I20" s="62"/>
+      <c r="J20" s="27"/>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A21" s="5">
@@ -1387,49 +1387,49 @@
       <c r="C21" s="4">
         <v>17</v>
       </c>
-      <c r="D21" s="31" t="s">
-        <v>52</v>
-      </c>
-      <c r="E21" s="28">
-        <v>44228</v>
-      </c>
-      <c r="F21" s="51" t="s">
-        <v>72</v>
-      </c>
-      <c r="G21" s="44" t="s">
-        <v>56</v>
+      <c r="D21" s="40">
+        <v>44444</v>
+      </c>
+      <c r="E21" s="22">
+        <v>44593</v>
+      </c>
+      <c r="F21" s="39" t="s">
+        <v>71</v>
+      </c>
+      <c r="G21" s="34" t="s">
+        <v>55</v>
       </c>
       <c r="H21" s="5" t="s">
-        <v>79</v>
-      </c>
-      <c r="I21" s="37"/>
-      <c r="J21" s="36"/>
+        <v>78</v>
+      </c>
+      <c r="I21" s="29"/>
+      <c r="J21" s="28"/>
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A22" s="7"/>
       <c r="B22" s="11"/>
       <c r="C22" s="11"/>
-      <c r="D22" s="53"/>
-      <c r="E22" s="53"/>
-      <c r="F22" s="50"/>
-      <c r="G22" s="42">
+      <c r="D22" s="41"/>
+      <c r="E22" s="41"/>
+      <c r="F22" s="38"/>
+      <c r="G22" s="32">
         <v>81284663664</v>
       </c>
       <c r="H22" s="7"/>
-      <c r="I22" s="38"/>
-      <c r="J22" s="34"/>
+      <c r="I22" s="30"/>
+      <c r="J22" s="26"/>
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A23" s="9"/>
       <c r="B23" s="12"/>
       <c r="C23" s="12"/>
-      <c r="D23" s="29"/>
-      <c r="E23" s="29"/>
-      <c r="F23" s="54"/>
-      <c r="G23" s="43"/>
+      <c r="D23" s="23"/>
+      <c r="E23" s="23"/>
+      <c r="F23" s="42"/>
+      <c r="G23" s="33"/>
       <c r="H23" s="9"/>
-      <c r="I23" s="74"/>
-      <c r="J23" s="35"/>
+      <c r="I23" s="62"/>
+      <c r="J23" s="27"/>
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A24" s="5">
@@ -1441,52 +1441,52 @@
       <c r="C24" s="4">
         <v>17</v>
       </c>
-      <c r="D24" s="31" t="s">
-        <v>52</v>
-      </c>
-      <c r="E24" s="28">
-        <v>44228</v>
-      </c>
-      <c r="F24" s="51" t="s">
-        <v>72</v>
-      </c>
-      <c r="G24" s="44" t="s">
+      <c r="D24" s="40">
+        <v>44444</v>
+      </c>
+      <c r="E24" s="22">
+        <v>44593</v>
+      </c>
+      <c r="F24" s="39" t="s">
+        <v>71</v>
+      </c>
+      <c r="G24" s="34" t="s">
         <v>51</v>
       </c>
       <c r="H24" s="5" t="s">
-        <v>80</v>
-      </c>
-      <c r="I24" s="37"/>
-      <c r="J24" s="36"/>
+        <v>79</v>
+      </c>
+      <c r="I24" s="29"/>
+      <c r="J24" s="28"/>
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A25" s="7"/>
       <c r="B25" s="11"/>
       <c r="C25" s="11"/>
-      <c r="D25" s="53"/>
-      <c r="E25" s="53"/>
-      <c r="F25" s="50"/>
-      <c r="G25" s="42">
+      <c r="D25" s="41"/>
+      <c r="E25" s="41"/>
+      <c r="F25" s="38"/>
+      <c r="G25" s="32">
         <v>85740346667</v>
       </c>
       <c r="H25" s="7"/>
-      <c r="I25" s="38"/>
-      <c r="J25" s="34"/>
+      <c r="I25" s="30"/>
+      <c r="J25" s="26"/>
     </row>
     <row r="26" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A26" s="9"/>
       <c r="B26" s="12"/>
       <c r="C26" s="12"/>
-      <c r="D26" s="29"/>
-      <c r="E26" s="29"/>
-      <c r="F26" s="54"/>
-      <c r="G26" s="43"/>
+      <c r="D26" s="23"/>
+      <c r="E26" s="23"/>
+      <c r="F26" s="42"/>
+      <c r="G26" s="33"/>
       <c r="H26" s="9"/>
-      <c r="I26" s="74"/>
-      <c r="J26" s="35"/>
+      <c r="I26" s="62"/>
+      <c r="J26" s="27"/>
     </row>
     <row r="27" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A27" s="31">
+      <c r="A27" s="25">
         <v>9</v>
       </c>
       <c r="B27" s="10" t="s">
@@ -1495,54 +1495,54 @@
       <c r="C27" s="10">
         <v>30</v>
       </c>
-      <c r="D27" s="61">
+      <c r="D27" s="49">
         <v>44253</v>
       </c>
-      <c r="E27" s="62" t="s">
-        <v>60</v>
-      </c>
-      <c r="F27" s="44" t="s">
-        <v>71</v>
-      </c>
-      <c r="G27" s="44" t="s">
+      <c r="E27" s="50" t="s">
+        <v>59</v>
+      </c>
+      <c r="F27" s="34" t="s">
+        <v>70</v>
+      </c>
+      <c r="G27" s="34" t="s">
         <v>36</v>
       </c>
-      <c r="H27" s="31" t="s">
-        <v>81</v>
-      </c>
-      <c r="I27" s="76">
+      <c r="H27" s="25" t="s">
+        <v>80</v>
+      </c>
+      <c r="I27" s="64">
         <v>44287</v>
       </c>
-      <c r="J27" s="36"/>
+      <c r="J27" s="28"/>
     </row>
     <row r="28" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A28" s="26"/>
+      <c r="A28" s="20"/>
       <c r="B28" s="15"/>
       <c r="C28" s="15"/>
-      <c r="D28" s="26"/>
-      <c r="E28" s="26"/>
-      <c r="F28" s="42"/>
-      <c r="G28" s="42" t="s">
+      <c r="D28" s="20"/>
+      <c r="E28" s="20"/>
+      <c r="F28" s="32"/>
+      <c r="G28" s="32" t="s">
         <v>35</v>
       </c>
-      <c r="H28" s="26"/>
-      <c r="I28" s="38"/>
-      <c r="J28" s="34"/>
+      <c r="H28" s="20"/>
+      <c r="I28" s="30"/>
+      <c r="J28" s="26"/>
     </row>
     <row r="29" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A29" s="29"/>
+      <c r="A29" s="23"/>
       <c r="B29" s="16"/>
       <c r="C29" s="16"/>
       <c r="D29" s="9"/>
       <c r="E29" s="9"/>
-      <c r="F29" s="43"/>
-      <c r="G29" s="43"/>
-      <c r="H29" s="29"/>
-      <c r="I29" s="74"/>
-      <c r="J29" s="35"/>
+      <c r="F29" s="33"/>
+      <c r="G29" s="33"/>
+      <c r="H29" s="23"/>
+      <c r="I29" s="62"/>
+      <c r="J29" s="27"/>
     </row>
     <row r="30" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A30" s="31">
+      <c r="A30" s="25">
         <v>10</v>
       </c>
       <c r="B30" s="10" t="s">
@@ -1554,48 +1554,48 @@
       <c r="D30" s="14" t="s">
         <v>28</v>
       </c>
-      <c r="E30" s="30">
+      <c r="E30" s="24">
         <v>44440</v>
       </c>
-      <c r="F30" s="51">
+      <c r="F30" s="39">
         <v>44501</v>
       </c>
-      <c r="G30" s="44" t="s">
+      <c r="G30" s="34" t="s">
         <v>23</v>
       </c>
-      <c r="H30" s="31" t="s">
-        <v>82</v>
-      </c>
-      <c r="I30" s="75" t="s">
-        <v>59</v>
-      </c>
-      <c r="J30" s="36"/>
+      <c r="H30" s="25" t="s">
+        <v>81</v>
+      </c>
+      <c r="I30" s="63" t="s">
+        <v>58</v>
+      </c>
+      <c r="J30" s="28"/>
     </row>
     <row r="31" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A31" s="26"/>
+      <c r="A31" s="20"/>
       <c r="B31" s="15"/>
       <c r="C31" s="15"/>
       <c r="D31" s="7"/>
-      <c r="E31" s="63"/>
-      <c r="F31" s="42"/>
-      <c r="G31" s="42">
+      <c r="E31" s="51"/>
+      <c r="F31" s="32"/>
+      <c r="G31" s="32">
         <v>6587623904</v>
       </c>
-      <c r="H31" s="26"/>
-      <c r="I31" s="38"/>
-      <c r="J31" s="34"/>
+      <c r="H31" s="20"/>
+      <c r="I31" s="30"/>
+      <c r="J31" s="26"/>
     </row>
     <row r="32" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A32" s="29"/>
+      <c r="A32" s="23"/>
       <c r="B32" s="16"/>
       <c r="C32" s="16"/>
       <c r="D32" s="9"/>
       <c r="E32" s="9"/>
-      <c r="F32" s="43"/>
-      <c r="G32" s="43"/>
-      <c r="H32" s="29"/>
-      <c r="I32" s="74"/>
-      <c r="J32" s="35"/>
+      <c r="F32" s="33"/>
+      <c r="G32" s="33"/>
+      <c r="H32" s="23"/>
+      <c r="I32" s="62"/>
+      <c r="J32" s="27"/>
     </row>
     <row r="33" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A33" s="5">
@@ -1607,37 +1607,37 @@
       <c r="C33" s="4">
         <v>32</v>
       </c>
-      <c r="D33" s="27" t="s">
+      <c r="D33" s="21" t="s">
         <v>47</v>
       </c>
-      <c r="E33" s="30">
+      <c r="E33" s="24">
         <v>44520</v>
       </c>
-      <c r="F33" s="45" t="s">
+      <c r="F33" s="35" t="s">
         <v>48</v>
       </c>
-      <c r="G33" s="45" t="s">
+      <c r="G33" s="35" t="s">
         <v>49</v>
       </c>
       <c r="H33" s="5" t="s">
-        <v>82</v>
-      </c>
-      <c r="I33" s="37"/>
-      <c r="J33" s="36"/>
+        <v>81</v>
+      </c>
+      <c r="I33" s="29"/>
+      <c r="J33" s="28"/>
     </row>
     <row r="34" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A34" s="7"/>
       <c r="B34" s="6"/>
       <c r="C34" s="11"/>
-      <c r="D34" s="63"/>
-      <c r="E34" s="63"/>
-      <c r="F34" s="46"/>
-      <c r="G34" s="46">
+      <c r="D34" s="51"/>
+      <c r="E34" s="51"/>
+      <c r="F34" s="36"/>
+      <c r="G34" s="36">
         <v>81333524165</v>
       </c>
       <c r="H34" s="7"/>
-      <c r="I34" s="38"/>
-      <c r="J34" s="34"/>
+      <c r="I34" s="30"/>
+      <c r="J34" s="26"/>
     </row>
     <row r="35" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A35" s="9"/>
@@ -1645,14 +1645,14 @@
       <c r="C35" s="12"/>
       <c r="D35" s="9"/>
       <c r="E35" s="9"/>
-      <c r="F35" s="64"/>
-      <c r="G35" s="64"/>
+      <c r="F35" s="52"/>
+      <c r="G35" s="52"/>
       <c r="H35" s="9"/>
-      <c r="I35" s="74"/>
-      <c r="J35" s="35"/>
+      <c r="I35" s="62"/>
+      <c r="J35" s="27"/>
     </row>
     <row r="36" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A36" s="31">
+      <c r="A36" s="25">
         <v>12</v>
       </c>
       <c r="B36" s="10" t="s">
@@ -1661,53 +1661,53 @@
       <c r="C36" s="10">
         <v>25</v>
       </c>
-      <c r="D36" s="61">
+      <c r="D36" s="49">
         <v>44237</v>
       </c>
-      <c r="E36" s="65" t="s">
+      <c r="E36" s="53" t="s">
         <v>34</v>
       </c>
-      <c r="F36" s="51">
+      <c r="F36" s="39">
         <v>44501</v>
       </c>
-      <c r="G36" s="44" t="s">
+      <c r="G36" s="34" t="s">
         <v>37</v>
       </c>
-      <c r="H36" s="31" t="s">
-        <v>76</v>
-      </c>
-      <c r="I36" s="75" t="s">
-        <v>59</v>
-      </c>
-      <c r="J36" s="75" t="s">
-        <v>59</v>
+      <c r="H36" s="25" t="s">
+        <v>75</v>
+      </c>
+      <c r="I36" s="63" t="s">
+        <v>58</v>
+      </c>
+      <c r="J36" s="63" t="s">
+        <v>58</v>
       </c>
     </row>
     <row r="37" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A37" s="26"/>
+      <c r="A37" s="20"/>
       <c r="B37" s="15"/>
       <c r="C37" s="15"/>
       <c r="D37" s="7"/>
       <c r="E37" s="7"/>
-      <c r="F37" s="42"/>
-      <c r="G37" s="42">
+      <c r="F37" s="32"/>
+      <c r="G37" s="32">
         <v>82143316439</v>
       </c>
-      <c r="H37" s="26"/>
-      <c r="I37" s="38"/>
-      <c r="J37" s="34"/>
+      <c r="H37" s="20"/>
+      <c r="I37" s="30"/>
+      <c r="J37" s="26"/>
     </row>
     <row r="38" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A38" s="29"/>
+      <c r="A38" s="23"/>
       <c r="B38" s="16"/>
       <c r="C38" s="16"/>
       <c r="D38" s="9"/>
       <c r="E38" s="9"/>
-      <c r="F38" s="43"/>
-      <c r="G38" s="43"/>
-      <c r="H38" s="29"/>
-      <c r="I38" s="74"/>
-      <c r="J38" s="35"/>
+      <c r="F38" s="33"/>
+      <c r="G38" s="33"/>
+      <c r="H38" s="23"/>
+      <c r="I38" s="62"/>
+      <c r="J38" s="27"/>
     </row>
     <row r="39" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A39" s="5">
@@ -1719,37 +1719,37 @@
       <c r="C39" s="4">
         <v>26</v>
       </c>
-      <c r="D39" s="27" t="s">
+      <c r="D39" s="21" t="s">
         <v>43</v>
       </c>
-      <c r="E39" s="66">
+      <c r="E39" s="54">
         <v>44614</v>
       </c>
-      <c r="F39" s="51" t="s">
-        <v>68</v>
-      </c>
-      <c r="G39" s="44" t="s">
+      <c r="F39" s="39" t="s">
         <v>67</v>
       </c>
+      <c r="G39" s="34" t="s">
+        <v>66</v>
+      </c>
       <c r="H39" s="5" t="s">
-        <v>76</v>
-      </c>
-      <c r="I39" s="37"/>
-      <c r="J39" s="36"/>
+        <v>75</v>
+      </c>
+      <c r="I39" s="29"/>
+      <c r="J39" s="28"/>
     </row>
     <row r="40" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A40" s="7"/>
       <c r="B40" s="11"/>
       <c r="C40" s="11"/>
       <c r="D40" s="7"/>
-      <c r="E40" s="67"/>
-      <c r="F40" s="42"/>
-      <c r="G40" s="42">
+      <c r="E40" s="55"/>
+      <c r="F40" s="32"/>
+      <c r="G40" s="32">
         <v>85732094240</v>
       </c>
       <c r="H40" s="7"/>
-      <c r="I40" s="38"/>
-      <c r="J40" s="34"/>
+      <c r="I40" s="30"/>
+      <c r="J40" s="26"/>
     </row>
     <row r="41" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A41" s="9"/>
@@ -1757,14 +1757,14 @@
       <c r="C41" s="8"/>
       <c r="D41" s="9"/>
       <c r="E41" s="9"/>
-      <c r="F41" s="43"/>
-      <c r="G41" s="43"/>
+      <c r="F41" s="33"/>
+      <c r="G41" s="33"/>
       <c r="H41" s="9"/>
-      <c r="I41" s="74"/>
-      <c r="J41" s="35"/>
+      <c r="I41" s="62"/>
+      <c r="J41" s="27"/>
     </row>
     <row r="42" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A42" s="31">
+      <c r="A42" s="25">
         <v>14</v>
       </c>
       <c r="B42" s="10" t="s">
@@ -1776,48 +1776,48 @@
       <c r="D42" s="14" t="s">
         <v>31</v>
       </c>
-      <c r="E42" s="27" t="s">
-        <v>61</v>
-      </c>
-      <c r="F42" s="44" t="s">
-        <v>69</v>
-      </c>
-      <c r="G42" s="44" t="s">
+      <c r="E42" s="21" t="s">
+        <v>60</v>
+      </c>
+      <c r="F42" s="34" t="s">
+        <v>68</v>
+      </c>
+      <c r="G42" s="34" t="s">
         <v>24</v>
       </c>
-      <c r="H42" s="31" t="s">
-        <v>83</v>
-      </c>
-      <c r="I42" s="75" t="s">
-        <v>59</v>
-      </c>
-      <c r="J42" s="36"/>
+      <c r="H42" s="25" t="s">
+        <v>82</v>
+      </c>
+      <c r="I42" s="63" t="s">
+        <v>58</v>
+      </c>
+      <c r="J42" s="28"/>
     </row>
     <row r="43" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A43" s="26"/>
+      <c r="A43" s="20"/>
       <c r="B43" s="15"/>
       <c r="C43" s="15"/>
       <c r="D43" s="7"/>
-      <c r="E43" s="26"/>
-      <c r="F43" s="42"/>
-      <c r="G43" s="42">
+      <c r="E43" s="20"/>
+      <c r="F43" s="32"/>
+      <c r="G43" s="32">
         <v>81231558203</v>
       </c>
-      <c r="H43" s="26"/>
-      <c r="I43" s="38"/>
-      <c r="J43" s="34"/>
+      <c r="H43" s="20"/>
+      <c r="I43" s="30"/>
+      <c r="J43" s="26"/>
     </row>
     <row r="44" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A44" s="29"/>
+      <c r="A44" s="23"/>
       <c r="B44" s="16"/>
       <c r="C44" s="16"/>
       <c r="D44" s="9"/>
       <c r="E44" s="9"/>
-      <c r="F44" s="43"/>
-      <c r="G44" s="43"/>
-      <c r="H44" s="29"/>
-      <c r="I44" s="74"/>
-      <c r="J44" s="35"/>
+      <c r="F44" s="33"/>
+      <c r="G44" s="33"/>
+      <c r="H44" s="23"/>
+      <c r="I44" s="62"/>
+      <c r="J44" s="27"/>
     </row>
     <row r="45" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A45" s="5">
@@ -1830,36 +1830,36 @@
         <v>33</v>
       </c>
       <c r="D45" s="5" t="s">
-        <v>63</v>
-      </c>
-      <c r="E45" s="30">
-        <v>44459</v>
-      </c>
-      <c r="F45" s="68">
+        <v>62</v>
+      </c>
+      <c r="E45" s="24" t="s">
+        <v>89</v>
+      </c>
+      <c r="F45" s="56">
         <v>44510</v>
       </c>
-      <c r="G45" s="45" t="s">
+      <c r="G45" s="35" t="s">
         <v>50</v>
       </c>
       <c r="H45" s="5" t="s">
-        <v>84</v>
-      </c>
-      <c r="I45" s="37"/>
-      <c r="J45" s="36"/>
+        <v>83</v>
+      </c>
+      <c r="I45" s="29"/>
+      <c r="J45" s="28"/>
     </row>
     <row r="46" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A46" s="7"/>
       <c r="B46" s="6"/>
       <c r="C46" s="11"/>
-      <c r="D46" s="63"/>
-      <c r="E46" s="63"/>
-      <c r="F46" s="46"/>
-      <c r="G46" s="46">
+      <c r="D46" s="51"/>
+      <c r="E46" s="51"/>
+      <c r="F46" s="36"/>
+      <c r="G46" s="36">
         <v>81331430509</v>
       </c>
       <c r="H46" s="7"/>
-      <c r="I46" s="38"/>
-      <c r="J46" s="34"/>
+      <c r="I46" s="30"/>
+      <c r="J46" s="26"/>
     </row>
     <row r="47" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A47" s="9"/>
@@ -1867,14 +1867,14 @@
       <c r="C47" s="12"/>
       <c r="D47" s="9"/>
       <c r="E47" s="9"/>
-      <c r="F47" s="64"/>
-      <c r="G47" s="64"/>
+      <c r="F47" s="52"/>
+      <c r="G47" s="52"/>
       <c r="H47" s="9"/>
-      <c r="I47" s="74"/>
-      <c r="J47" s="35"/>
+      <c r="I47" s="62"/>
+      <c r="J47" s="27"/>
     </row>
     <row r="48" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A48" s="31">
+      <c r="A48" s="25">
         <v>16</v>
       </c>
       <c r="B48" s="10" t="s">
@@ -1887,37 +1887,37 @@
         <v>32</v>
       </c>
       <c r="E48" s="14" t="s">
-        <v>61</v>
-      </c>
-      <c r="F48" s="69" t="s">
-        <v>70</v>
-      </c>
-      <c r="G48" s="69" t="s">
+        <v>60</v>
+      </c>
+      <c r="F48" s="57" t="s">
+        <v>69</v>
+      </c>
+      <c r="G48" s="57" t="s">
         <v>40</v>
       </c>
       <c r="H48" s="10" t="s">
-        <v>85</v>
-      </c>
-      <c r="I48" s="76">
+        <v>84</v>
+      </c>
+      <c r="I48" s="64">
         <v>44287</v>
       </c>
-      <c r="J48" s="77" t="s">
-        <v>65</v>
+      <c r="J48" s="65" t="s">
+        <v>64</v>
       </c>
     </row>
     <row r="49" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A49" s="26"/>
+      <c r="A49" s="20"/>
       <c r="B49" s="15"/>
       <c r="C49" s="15"/>
-      <c r="D49" s="26"/>
-      <c r="E49" s="26"/>
+      <c r="D49" s="20"/>
+      <c r="E49" s="20"/>
       <c r="F49" s="15"/>
-      <c r="G49" s="70">
+      <c r="G49" s="58">
         <v>82170697118</v>
       </c>
       <c r="H49" s="15"/>
-      <c r="I49" s="38"/>
-      <c r="J49" s="34"/>
+      <c r="I49" s="30"/>
+      <c r="J49" s="26"/>
     </row>
     <row r="50" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A50" s="9"/>
@@ -1926,10 +1926,10 @@
       <c r="D50" s="9"/>
       <c r="E50" s="9"/>
       <c r="F50" s="12"/>
-      <c r="G50" s="43"/>
+      <c r="G50" s="33"/>
       <c r="H50" s="12"/>
-      <c r="I50" s="74"/>
-      <c r="J50" s="35"/>
+      <c r="I50" s="62"/>
+      <c r="J50" s="27"/>
     </row>
     <row r="51" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A51" s="5">
@@ -1941,37 +1941,37 @@
       <c r="C51" s="4">
         <v>28</v>
       </c>
-      <c r="D51" s="27" t="s">
+      <c r="D51" s="21" t="s">
         <v>44</v>
       </c>
-      <c r="E51" s="30">
+      <c r="E51" s="24">
         <v>44510</v>
       </c>
-      <c r="F51" s="68" t="s">
+      <c r="F51" s="56" t="s">
         <v>46</v>
       </c>
-      <c r="G51" s="45" t="s">
+      <c r="G51" s="35" t="s">
         <v>45</v>
       </c>
       <c r="H51" s="5" t="s">
-        <v>86</v>
-      </c>
-      <c r="I51" s="37"/>
-      <c r="J51" s="36"/>
+        <v>85</v>
+      </c>
+      <c r="I51" s="29"/>
+      <c r="J51" s="28"/>
     </row>
     <row r="52" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A52" s="7"/>
       <c r="B52" s="6"/>
       <c r="C52" s="11"/>
-      <c r="D52" s="63"/>
-      <c r="E52" s="63"/>
-      <c r="F52" s="46"/>
-      <c r="G52" s="46">
+      <c r="D52" s="51"/>
+      <c r="E52" s="51"/>
+      <c r="F52" s="36"/>
+      <c r="G52" s="36">
         <v>85649115380</v>
       </c>
       <c r="H52" s="7"/>
-      <c r="I52" s="38"/>
-      <c r="J52" s="34"/>
+      <c r="I52" s="30"/>
+      <c r="J52" s="26"/>
     </row>
     <row r="53" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A53" s="9"/>
@@ -1979,14 +1979,14 @@
       <c r="C53" s="12"/>
       <c r="D53" s="9"/>
       <c r="E53" s="9"/>
-      <c r="F53" s="64"/>
-      <c r="G53" s="64"/>
+      <c r="F53" s="52"/>
+      <c r="G53" s="52"/>
       <c r="H53" s="9"/>
-      <c r="I53" s="74"/>
-      <c r="J53" s="35"/>
+      <c r="I53" s="62"/>
+      <c r="J53" s="27"/>
     </row>
     <row r="54" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A54" s="31">
+      <c r="A54" s="25">
         <v>18</v>
       </c>
       <c r="B54" s="10" t="s">
@@ -1995,54 +1995,54 @@
       <c r="C54" s="10">
         <v>38</v>
       </c>
-      <c r="D54" s="61">
+      <c r="D54" s="49">
         <v>44253</v>
       </c>
-      <c r="E54" s="27" t="s">
+      <c r="E54" s="21" t="s">
         <v>33</v>
       </c>
-      <c r="F54" s="44" t="s">
+      <c r="F54" s="34" t="s">
         <v>17</v>
       </c>
-      <c r="G54" s="44" t="s">
+      <c r="G54" s="34" t="s">
         <v>38</v>
       </c>
-      <c r="H54" s="31" t="s">
-        <v>80</v>
-      </c>
-      <c r="I54" s="76">
+      <c r="H54" s="25" t="s">
+        <v>79</v>
+      </c>
+      <c r="I54" s="64">
         <v>44246</v>
       </c>
-      <c r="J54" s="36"/>
+      <c r="J54" s="28"/>
     </row>
     <row r="55" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A55" s="26"/>
+      <c r="A55" s="20"/>
       <c r="B55" s="15"/>
       <c r="C55" s="15"/>
       <c r="D55" s="6"/>
-      <c r="E55" s="26"/>
-      <c r="F55" s="42"/>
-      <c r="G55" s="42" t="s">
+      <c r="E55" s="20"/>
+      <c r="F55" s="32"/>
+      <c r="G55" s="32" t="s">
         <v>39</v>
       </c>
-      <c r="H55" s="26"/>
-      <c r="I55" s="38"/>
-      <c r="J55" s="34"/>
+      <c r="H55" s="20"/>
+      <c r="I55" s="30"/>
+      <c r="J55" s="26"/>
     </row>
     <row r="56" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A56" s="29"/>
-      <c r="B56" s="71"/>
-      <c r="C56" s="71"/>
+      <c r="A56" s="23"/>
+      <c r="B56" s="59"/>
+      <c r="C56" s="59"/>
       <c r="D56" s="9"/>
       <c r="E56" s="9"/>
-      <c r="F56" s="43"/>
-      <c r="G56" s="43"/>
-      <c r="H56" s="29"/>
-      <c r="I56" s="35"/>
-      <c r="J56" s="35"/>
+      <c r="F56" s="33"/>
+      <c r="G56" s="33"/>
+      <c r="H56" s="23"/>
+      <c r="I56" s="27"/>
+      <c r="J56" s="27"/>
     </row>
     <row r="57" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A57" s="31">
+      <c r="A57" s="25">
         <v>19</v>
       </c>
       <c r="B57" s="10" t="s">
@@ -2051,51 +2051,51 @@
       <c r="C57" s="10">
         <v>38</v>
       </c>
-      <c r="D57" s="61">
+      <c r="D57" s="49">
         <v>44253</v>
       </c>
-      <c r="E57" s="27" t="s">
-        <v>66</v>
-      </c>
-      <c r="F57" s="44" t="s">
+      <c r="E57" s="21" t="s">
+        <v>65</v>
+      </c>
+      <c r="F57" s="34" t="s">
         <v>17</v>
       </c>
-      <c r="G57" s="44" t="s">
+      <c r="G57" s="34" t="s">
         <v>41</v>
       </c>
-      <c r="H57" s="31" t="s">
-        <v>76</v>
-      </c>
-      <c r="I57" s="76">
+      <c r="H57" s="25" t="s">
+        <v>75</v>
+      </c>
+      <c r="I57" s="64">
         <v>44246</v>
       </c>
-      <c r="J57" s="36"/>
+      <c r="J57" s="28"/>
     </row>
     <row r="58" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A58" s="26"/>
+      <c r="A58" s="20"/>
       <c r="B58" s="15"/>
       <c r="C58" s="15"/>
       <c r="D58" s="6"/>
-      <c r="E58" s="26"/>
-      <c r="F58" s="42"/>
-      <c r="G58" s="42" t="s">
+      <c r="E58" s="20"/>
+      <c r="F58" s="32"/>
+      <c r="G58" s="32" t="s">
         <v>42</v>
       </c>
-      <c r="H58" s="26"/>
-      <c r="I58" s="38"/>
-      <c r="J58" s="34"/>
+      <c r="H58" s="20"/>
+      <c r="I58" s="30"/>
+      <c r="J58" s="26"/>
     </row>
     <row r="59" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A59" s="29"/>
-      <c r="B59" s="71"/>
-      <c r="C59" s="71"/>
+      <c r="A59" s="23"/>
+      <c r="B59" s="59"/>
+      <c r="C59" s="59"/>
       <c r="D59" s="9"/>
       <c r="E59" s="9"/>
-      <c r="F59" s="43"/>
-      <c r="G59" s="43"/>
-      <c r="H59" s="29"/>
-      <c r="I59" s="35"/>
-      <c r="J59" s="35"/>
+      <c r="F59" s="33"/>
+      <c r="G59" s="33"/>
+      <c r="H59" s="23"/>
+      <c r="I59" s="27"/>
+      <c r="J59" s="27"/>
     </row>
     <row r="60" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A60" s="5">
@@ -2111,21 +2111,21 @@
         <v>28</v>
       </c>
       <c r="E60" s="5" t="s">
-        <v>64</v>
-      </c>
-      <c r="F60" s="51">
+        <v>63</v>
+      </c>
+      <c r="F60" s="39">
         <v>44444</v>
       </c>
-      <c r="G60" s="44" t="s">
+      <c r="G60" s="34" t="s">
         <v>25</v>
       </c>
       <c r="H60" s="5" t="s">
-        <v>83</v>
-      </c>
-      <c r="I60" s="75" t="s">
-        <v>59</v>
-      </c>
-      <c r="J60" s="36"/>
+        <v>82</v>
+      </c>
+      <c r="I60" s="63" t="s">
+        <v>58</v>
+      </c>
+      <c r="J60" s="28"/>
     </row>
     <row r="61" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A61" s="7"/>
@@ -2133,13 +2133,13 @@
       <c r="C61" s="11"/>
       <c r="D61" s="7"/>
       <c r="E61" s="7"/>
-      <c r="F61" s="42"/>
-      <c r="G61" s="42">
+      <c r="F61" s="32"/>
+      <c r="G61" s="32">
         <v>81331414130</v>
       </c>
       <c r="H61" s="7"/>
-      <c r="I61" s="34"/>
-      <c r="J61" s="34"/>
+      <c r="I61" s="26"/>
+      <c r="J61" s="26"/>
     </row>
     <row r="62" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A62" s="9"/>
@@ -2147,11 +2147,11 @@
       <c r="C62" s="12"/>
       <c r="D62" s="9"/>
       <c r="E62" s="9"/>
-      <c r="F62" s="43"/>
-      <c r="G62" s="43"/>
+      <c r="F62" s="33"/>
+      <c r="G62" s="33"/>
       <c r="H62" s="9"/>
-      <c r="I62" s="35"/>
-      <c r="J62" s="35"/>
+      <c r="I62" s="27"/>
+      <c r="J62" s="27"/>
     </row>
     <row r="63" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A63" s="5">
@@ -2167,21 +2167,21 @@
         <v>28</v>
       </c>
       <c r="E63" s="5" t="s">
-        <v>64</v>
-      </c>
-      <c r="F63" s="51">
+        <v>63</v>
+      </c>
+      <c r="F63" s="39">
         <v>44444</v>
       </c>
-      <c r="G63" s="44" t="s">
+      <c r="G63" s="34" t="s">
         <v>26</v>
       </c>
       <c r="H63" s="5" t="s">
-        <v>87</v>
-      </c>
-      <c r="I63" s="75" t="s">
-        <v>59</v>
-      </c>
-      <c r="J63" s="36"/>
+        <v>86</v>
+      </c>
+      <c r="I63" s="63" t="s">
+        <v>58</v>
+      </c>
+      <c r="J63" s="28"/>
     </row>
     <row r="64" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A64" s="7"/>
@@ -2189,13 +2189,13 @@
       <c r="C64" s="11"/>
       <c r="D64" s="7"/>
       <c r="E64" s="7"/>
-      <c r="F64" s="42"/>
-      <c r="G64" s="42">
+      <c r="F64" s="32"/>
+      <c r="G64" s="32">
         <v>81252283477</v>
       </c>
       <c r="H64" s="7"/>
-      <c r="I64" s="34"/>
-      <c r="J64" s="34"/>
+      <c r="I64" s="26"/>
+      <c r="J64" s="26"/>
     </row>
     <row r="65" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A65" s="9"/>
@@ -2203,11 +2203,11 @@
       <c r="C65" s="12"/>
       <c r="D65" s="9"/>
       <c r="E65" s="9"/>
-      <c r="F65" s="43"/>
-      <c r="G65" s="43"/>
+      <c r="F65" s="33"/>
+      <c r="G65" s="33"/>
       <c r="H65" s="9"/>
-      <c r="I65" s="35"/>
-      <c r="J65" s="35"/>
+      <c r="I65" s="27"/>
+      <c r="J65" s="27"/>
     </row>
     <row r="66" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A66" s="5">
@@ -2220,36 +2220,36 @@
         <v>40</v>
       </c>
       <c r="D66" s="5" t="s">
-        <v>57</v>
-      </c>
-      <c r="E66" s="30">
+        <v>56</v>
+      </c>
+      <c r="E66" s="24">
         <v>44510</v>
       </c>
-      <c r="F66" s="68" t="s">
+      <c r="F66" s="56" t="s">
         <v>46</v>
       </c>
-      <c r="G66" s="45" t="s">
-        <v>53</v>
+      <c r="G66" s="35" t="s">
+        <v>52</v>
       </c>
       <c r="H66" s="5" t="s">
-        <v>88</v>
-      </c>
-      <c r="I66" s="37"/>
-      <c r="J66" s="36"/>
+        <v>87</v>
+      </c>
+      <c r="I66" s="29"/>
+      <c r="J66" s="28"/>
     </row>
     <row r="67" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A67" s="7"/>
       <c r="B67" s="6"/>
       <c r="C67" s="11"/>
-      <c r="D67" s="63"/>
-      <c r="E67" s="63"/>
-      <c r="F67" s="46"/>
-      <c r="G67" s="46">
+      <c r="D67" s="51"/>
+      <c r="E67" s="51"/>
+      <c r="F67" s="36"/>
+      <c r="G67" s="36">
         <v>81359524067</v>
       </c>
       <c r="H67" s="7"/>
-      <c r="I67" s="38"/>
-      <c r="J67" s="34"/>
+      <c r="I67" s="30"/>
+      <c r="J67" s="26"/>
     </row>
     <row r="68" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A68" s="9"/>
@@ -2257,11 +2257,11 @@
       <c r="C68" s="12"/>
       <c r="D68" s="9"/>
       <c r="E68" s="9"/>
-      <c r="F68" s="64"/>
-      <c r="G68" s="64"/>
+      <c r="F68" s="52"/>
+      <c r="G68" s="52"/>
       <c r="H68" s="9"/>
-      <c r="I68" s="74"/>
-      <c r="J68" s="35"/>
+      <c r="I68" s="62"/>
+      <c r="J68" s="27"/>
     </row>
     <row r="69" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A69" s="5">
@@ -2274,32 +2274,32 @@
         <v>40</v>
       </c>
       <c r="D69" s="5" t="s">
-        <v>57</v>
-      </c>
-      <c r="E69" s="30">
+        <v>56</v>
+      </c>
+      <c r="E69" s="24">
         <v>44510</v>
       </c>
-      <c r="F69" s="68" t="s">
+      <c r="F69" s="56" t="s">
         <v>46</v>
       </c>
-      <c r="G69" s="45"/>
+      <c r="G69" s="35"/>
       <c r="H69" s="5" t="s">
-        <v>89</v>
-      </c>
-      <c r="I69" s="37"/>
-      <c r="J69" s="36"/>
+        <v>88</v>
+      </c>
+      <c r="I69" s="29"/>
+      <c r="J69" s="28"/>
     </row>
     <row r="70" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A70" s="7"/>
       <c r="B70" s="6"/>
       <c r="C70" s="11"/>
-      <c r="D70" s="63"/>
-      <c r="E70" s="63"/>
-      <c r="F70" s="46"/>
-      <c r="G70" s="46"/>
+      <c r="D70" s="51"/>
+      <c r="E70" s="51"/>
+      <c r="F70" s="36"/>
+      <c r="G70" s="36"/>
       <c r="H70" s="7"/>
-      <c r="I70" s="38"/>
-      <c r="J70" s="34"/>
+      <c r="I70" s="30"/>
+      <c r="J70" s="26"/>
     </row>
     <row r="71" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A71" s="9"/>
@@ -2307,11 +2307,11 @@
       <c r="C71" s="12"/>
       <c r="D71" s="9"/>
       <c r="E71" s="9"/>
-      <c r="F71" s="64"/>
-      <c r="G71" s="64"/>
+      <c r="F71" s="52"/>
+      <c r="G71" s="52"/>
       <c r="H71" s="9"/>
-      <c r="I71" s="74"/>
-      <c r="J71" s="35"/>
+      <c r="I71" s="62"/>
+      <c r="J71" s="27"/>
     </row>
   </sheetData>
   <mergeCells count="8">
@@ -2353,50 +2353,50 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="18" x14ac:dyDescent="0.25">
-      <c r="A1" s="17" t="s">
+      <c r="A1" s="76" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="17" t="s">
+      <c r="B1" s="76" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="17" t="s">
+      <c r="C1" s="76" t="s">
         <v>27</v>
       </c>
-      <c r="D1" s="17" t="s">
+      <c r="D1" s="76" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="18" t="s">
+      <c r="E1" s="78" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="18"/>
-      <c r="G1" s="17" t="s">
+      <c r="F1" s="78"/>
+      <c r="G1" s="76" t="s">
         <v>4</v>
       </c>
-      <c r="H1" s="23" t="s">
+      <c r="H1" s="74" t="s">
         <v>8</v>
       </c>
-      <c r="I1" s="19" t="s">
-        <v>62</v>
-      </c>
-      <c r="J1" s="19"/>
+      <c r="I1" s="67" t="s">
+        <v>61</v>
+      </c>
+      <c r="J1" s="67"/>
     </row>
     <row r="2" spans="1:10" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="20"/>
-      <c r="B2" s="20"/>
-      <c r="C2" s="20"/>
-      <c r="D2" s="20"/>
-      <c r="E2" s="25" t="s">
+      <c r="A2" s="77"/>
+      <c r="B2" s="77"/>
+      <c r="C2" s="77"/>
+      <c r="D2" s="77"/>
+      <c r="E2" s="19" t="s">
         <v>6</v>
       </c>
-      <c r="F2" s="25" t="s">
+      <c r="F2" s="19" t="s">
         <v>7</v>
       </c>
-      <c r="G2" s="20"/>
-      <c r="H2" s="24"/>
-      <c r="I2" s="21" t="s">
+      <c r="G2" s="77"/>
+      <c r="H2" s="75"/>
+      <c r="I2" s="17" t="s">
         <v>6</v>
       </c>
-      <c r="J2" s="22" t="s">
+      <c r="J2" s="18" t="s">
         <v>7</v>
       </c>
     </row>

--- a/RENCANA BON VOYAGE.xlsx
+++ b/RENCANA BON VOYAGE.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="24228"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="24326"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Mapan\progress\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F2896569-6D40-4BB5-8A35-FE34BAB6C0EC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7FF3EF09-8991-4D7E-8E0C-C84B24AA069E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -213,9 +213,6 @@
     <t>PEMBAYARAN</t>
   </si>
   <si>
-    <t>25 AGUST</t>
-  </si>
-  <si>
     <t>26 AGUST</t>
   </si>
   <si>
@@ -295,6 +292,9 @@
   </si>
   <si>
     <t>20 OKT</t>
+  </si>
+  <si>
+    <t>28 AGUST</t>
   </si>
 </sst>
 </file>
@@ -983,7 +983,7 @@
   <dimension ref="A1:J71"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+      <selection activeCell="E45" sqref="E45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1072,7 +1072,7 @@
         <v>19</v>
       </c>
       <c r="H3" s="43" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="I3" s="60" t="s">
         <v>58</v>
@@ -1128,7 +1128,7 @@
         <v>20</v>
       </c>
       <c r="H6" s="5" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="I6" s="63" t="s">
         <v>58</v>
@@ -1184,7 +1184,7 @@
         <v>54</v>
       </c>
       <c r="H9" s="5" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="I9" s="29"/>
       <c r="J9" s="28"/>
@@ -1236,7 +1236,7 @@
       </c>
       <c r="G12" s="34"/>
       <c r="H12" s="5" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="I12" s="29"/>
       <c r="J12" s="28"/>
@@ -1288,7 +1288,7 @@
         <v>21</v>
       </c>
       <c r="H15" s="5" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="I15" s="63" t="s">
         <v>58</v>
@@ -1344,7 +1344,7 @@
         <v>22</v>
       </c>
       <c r="H18" s="5" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="I18" s="63" t="s">
         <v>58</v>
@@ -1394,13 +1394,13 @@
         <v>44593</v>
       </c>
       <c r="F21" s="39" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="G21" s="34" t="s">
         <v>55</v>
       </c>
       <c r="H21" s="5" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="I21" s="29"/>
       <c r="J21" s="28"/>
@@ -1448,13 +1448,13 @@
         <v>44593</v>
       </c>
       <c r="F24" s="39" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="G24" s="34" t="s">
         <v>51</v>
       </c>
       <c r="H24" s="5" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="I24" s="29"/>
       <c r="J24" s="28"/>
@@ -1502,13 +1502,13 @@
         <v>59</v>
       </c>
       <c r="F27" s="34" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="G27" s="34" t="s">
         <v>36</v>
       </c>
       <c r="H27" s="25" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="I27" s="64">
         <v>44287</v>
@@ -1564,7 +1564,7 @@
         <v>23</v>
       </c>
       <c r="H30" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="I30" s="63" t="s">
         <v>58</v>
@@ -1620,7 +1620,7 @@
         <v>49</v>
       </c>
       <c r="H33" s="5" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="I33" s="29"/>
       <c r="J33" s="28"/>
@@ -1674,7 +1674,7 @@
         <v>37</v>
       </c>
       <c r="H36" s="25" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="I36" s="63" t="s">
         <v>58</v>
@@ -1726,13 +1726,13 @@
         <v>44614</v>
       </c>
       <c r="F39" s="39" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="G39" s="34" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="H39" s="5" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="I39" s="29"/>
       <c r="J39" s="28"/>
@@ -1780,13 +1780,13 @@
         <v>60</v>
       </c>
       <c r="F42" s="34" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="G42" s="34" t="s">
         <v>24</v>
       </c>
       <c r="H42" s="25" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="I42" s="63" t="s">
         <v>58</v>
@@ -1829,11 +1829,11 @@
       <c r="C45" s="4">
         <v>33</v>
       </c>
-      <c r="D45" s="5" t="s">
-        <v>62</v>
+      <c r="D45" s="21" t="s">
+        <v>89</v>
       </c>
       <c r="E45" s="24" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="F45" s="56">
         <v>44510</v>
@@ -1842,7 +1842,7 @@
         <v>50</v>
       </c>
       <c r="H45" s="5" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="I45" s="29"/>
       <c r="J45" s="28"/>
@@ -1890,19 +1890,19 @@
         <v>60</v>
       </c>
       <c r="F48" s="57" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="G48" s="57" t="s">
         <v>40</v>
       </c>
       <c r="H48" s="10" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="I48" s="64">
         <v>44287</v>
       </c>
       <c r="J48" s="65" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="49" spans="1:10" x14ac:dyDescent="0.2">
@@ -1954,7 +1954,7 @@
         <v>45</v>
       </c>
       <c r="H51" s="5" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="I51" s="29"/>
       <c r="J51" s="28"/>
@@ -2008,7 +2008,7 @@
         <v>38</v>
       </c>
       <c r="H54" s="25" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="I54" s="64">
         <v>44246</v>
@@ -2055,7 +2055,7 @@
         <v>44253</v>
       </c>
       <c r="E57" s="21" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="F57" s="34" t="s">
         <v>17</v>
@@ -2064,7 +2064,7 @@
         <v>41</v>
       </c>
       <c r="H57" s="25" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="I57" s="64">
         <v>44246</v>
@@ -2110,8 +2110,8 @@
       <c r="D60" s="14" t="s">
         <v>28</v>
       </c>
-      <c r="E60" s="5" t="s">
-        <v>63</v>
+      <c r="E60" s="21" t="s">
+        <v>62</v>
       </c>
       <c r="F60" s="39">
         <v>44444</v>
@@ -2120,7 +2120,7 @@
         <v>25</v>
       </c>
       <c r="H60" s="5" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="I60" s="63" t="s">
         <v>58</v>
@@ -2166,8 +2166,8 @@
       <c r="D63" s="14" t="s">
         <v>28</v>
       </c>
-      <c r="E63" s="5" t="s">
-        <v>63</v>
+      <c r="E63" s="21" t="s">
+        <v>62</v>
       </c>
       <c r="F63" s="39">
         <v>44444</v>
@@ -2176,7 +2176,7 @@
         <v>26</v>
       </c>
       <c r="H63" s="5" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="I63" s="63" t="s">
         <v>58</v>
@@ -2232,7 +2232,7 @@
         <v>52</v>
       </c>
       <c r="H66" s="5" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="I66" s="29"/>
       <c r="J66" s="28"/>
@@ -2284,7 +2284,7 @@
       </c>
       <c r="G69" s="35"/>
       <c r="H69" s="5" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="I69" s="29"/>
       <c r="J69" s="28"/>

--- a/RENCANA BON VOYAGE.xlsx
+++ b/RENCANA BON VOYAGE.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Mapan\progress\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{89610B2A-EC27-4CF7-8A8F-369C63B153AB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2DF0EC14-CA49-419B-8014-FB91DCCC95E4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="16080" windowWidth="29040" windowHeight="7965" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="progres" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="171" uniqueCount="103">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="168" uniqueCount="100">
   <si>
     <t>NO</t>
   </si>
@@ -132,9 +132,6 @@
     <t>10 OKT</t>
   </si>
   <si>
-    <t>/082110632173</t>
-  </si>
-  <si>
     <t>BASHIR</t>
   </si>
   <si>
@@ -144,16 +141,10 @@
     <t>AULIA</t>
   </si>
   <si>
-    <t>/081318154783</t>
-  </si>
-  <si>
     <t>IRFAN</t>
   </si>
   <si>
     <t>JOLIANDER</t>
-  </si>
-  <si>
-    <t>/08123929482</t>
   </si>
   <si>
     <t>06 JULI</t>
@@ -340,6 +331,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="1">
+    <numFmt numFmtId="165" formatCode="&quot;0&quot;#"/>
+  </numFmts>
   <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -456,7 +450,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="85">
+  <cellXfs count="93">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -653,17 +647,20 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="2"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="2"/>
@@ -689,14 +686,35 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="165" fontId="3" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="2"/>
+    </xf>
+    <xf numFmtId="165" fontId="3" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="2"/>
+    </xf>
+    <xf numFmtId="165" fontId="2" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" indent="2"/>
+    </xf>
+    <xf numFmtId="165" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" indent="2"/>
+    </xf>
+    <xf numFmtId="165" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" indent="2"/>
+    </xf>
+    <xf numFmtId="165" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" indent="2"/>
+    </xf>
+    <xf numFmtId="165" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="2"/>
+    </xf>
+    <xf numFmtId="165" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="2"/>
+    </xf>
+    <xf numFmtId="165" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="2"/>
+    </xf>
+    <xf numFmtId="165" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" indent="2"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1039,8 +1057,8 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:J68"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" zoomScale="85" zoomScaleNormal="85" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+    <sheetView tabSelected="1" topLeftCell="A58" zoomScale="85" zoomScaleNormal="85" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="G72" sqref="G72"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1051,7 +1069,7 @@
     <col min="4" max="4" width="18.42578125" style="2" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="18.42578125" style="2" customWidth="1"/>
     <col min="6" max="6" width="18.140625" style="37" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="21.5703125" style="37" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="21.5703125" style="92" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="9.7109375" style="2" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="10.42578125" style="66" customWidth="1"/>
     <col min="10" max="10" width="14" style="31" bestFit="1" customWidth="1"/>
@@ -1059,46 +1077,46 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="15" x14ac:dyDescent="0.25">
-      <c r="A1" s="70" t="s">
+      <c r="A1" s="73" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="70" t="s">
+      <c r="B1" s="73" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="70" t="s">
+      <c r="C1" s="73" t="s">
         <v>27</v>
       </c>
-      <c r="D1" s="76" t="s">
+      <c r="D1" s="77" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="76"/>
-      <c r="F1" s="74" t="s">
+      <c r="E1" s="77"/>
+      <c r="F1" s="75" t="s">
         <v>8</v>
       </c>
-      <c r="G1" s="72" t="s">
+      <c r="G1" s="83" t="s">
         <v>4</v>
       </c>
-      <c r="H1" s="70" t="s">
+      <c r="H1" s="73" t="s">
         <v>2</v>
       </c>
-      <c r="I1" s="70" t="s">
-        <v>61</v>
-      </c>
-      <c r="J1" s="70"/>
+      <c r="I1" s="73" t="s">
+        <v>58</v>
+      </c>
+      <c r="J1" s="73"/>
     </row>
     <row r="2" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="71"/>
-      <c r="B2" s="71"/>
-      <c r="C2" s="71"/>
+      <c r="A2" s="74"/>
+      <c r="B2" s="74"/>
+      <c r="C2" s="74"/>
       <c r="D2" s="17" t="s">
         <v>6</v>
       </c>
       <c r="E2" s="17" t="s">
         <v>7</v>
       </c>
-      <c r="F2" s="75"/>
-      <c r="G2" s="73"/>
-      <c r="H2" s="71"/>
+      <c r="F2" s="76"/>
+      <c r="G2" s="84"/>
+      <c r="H2" s="74"/>
       <c r="I2" s="17" t="s">
         <v>6</v>
       </c>
@@ -1120,19 +1138,19 @@
         <v>29</v>
       </c>
       <c r="E3" s="46" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="F3" s="48">
         <v>44444</v>
       </c>
-      <c r="G3" s="47" t="s">
+      <c r="G3" s="85" t="s">
         <v>19</v>
       </c>
       <c r="H3" s="43" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="I3" s="60" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="J3" s="61"/>
     </row>
@@ -1143,7 +1161,7 @@
       <c r="D4" s="20"/>
       <c r="E4" s="20"/>
       <c r="F4" s="32"/>
-      <c r="G4" s="32">
+      <c r="G4" s="86">
         <v>81228196787</v>
       </c>
       <c r="H4" s="7"/>
@@ -1157,7 +1175,7 @@
       <c r="D5" s="9"/>
       <c r="E5" s="9"/>
       <c r="F5" s="33"/>
-      <c r="G5" s="33"/>
+      <c r="G5" s="87"/>
       <c r="H5" s="9"/>
       <c r="I5" s="62"/>
       <c r="J5" s="27"/>
@@ -1176,19 +1194,19 @@
         <v>29</v>
       </c>
       <c r="E6" s="21" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="F6" s="39">
         <v>44444</v>
       </c>
-      <c r="G6" s="34" t="s">
+      <c r="G6" s="88" t="s">
         <v>20</v>
       </c>
       <c r="H6" s="5" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="I6" s="63" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="J6" s="28"/>
     </row>
@@ -1199,7 +1217,7 @@
       <c r="D7" s="20"/>
       <c r="E7" s="20"/>
       <c r="F7" s="32"/>
-      <c r="G7" s="32">
+      <c r="G7" s="86">
         <v>81225736355</v>
       </c>
       <c r="H7" s="7"/>
@@ -1213,7 +1231,7 @@
       <c r="D8" s="9"/>
       <c r="E8" s="9"/>
       <c r="F8" s="33"/>
-      <c r="G8" s="33"/>
+      <c r="G8" s="87"/>
       <c r="H8" s="9"/>
       <c r="I8" s="62"/>
       <c r="J8" s="27"/>
@@ -1235,13 +1253,13 @@
         <v>44520</v>
       </c>
       <c r="F9" s="39" t="s">
-        <v>57</v>
-      </c>
-      <c r="G9" s="34" t="s">
         <v>54</v>
       </c>
+      <c r="G9" s="88" t="s">
+        <v>51</v>
+      </c>
       <c r="H9" s="5" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="I9" s="29"/>
       <c r="J9" s="28"/>
@@ -1253,7 +1271,7 @@
       <c r="D10" s="20"/>
       <c r="E10" s="20"/>
       <c r="F10" s="32"/>
-      <c r="G10" s="32">
+      <c r="G10" s="86">
         <v>81331434743</v>
       </c>
       <c r="H10" s="7"/>
@@ -1267,7 +1285,7 @@
       <c r="D11" s="23"/>
       <c r="E11" s="23"/>
       <c r="F11" s="33"/>
-      <c r="G11" s="33"/>
+      <c r="G11" s="87"/>
       <c r="H11" s="9"/>
       <c r="I11" s="62"/>
       <c r="J11" s="27"/>
@@ -1289,11 +1307,11 @@
         <v>44520</v>
       </c>
       <c r="F12" s="39" t="s">
-        <v>57</v>
-      </c>
-      <c r="G12" s="34"/>
+        <v>54</v>
+      </c>
+      <c r="G12" s="88"/>
       <c r="H12" s="5" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="I12" s="29"/>
       <c r="J12" s="28"/>
@@ -1305,7 +1323,7 @@
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
       <c r="F13" s="32"/>
-      <c r="G13" s="32"/>
+      <c r="G13" s="86"/>
       <c r="H13" s="7"/>
       <c r="I13" s="30"/>
       <c r="J13" s="26"/>
@@ -1317,7 +1335,7 @@
       <c r="D14" s="23"/>
       <c r="E14" s="23"/>
       <c r="F14" s="33"/>
-      <c r="G14" s="33"/>
+      <c r="G14" s="87"/>
       <c r="H14" s="9"/>
       <c r="I14" s="62"/>
       <c r="J14" s="27"/>
@@ -1341,14 +1359,14 @@
       <c r="F15" s="39">
         <v>44520</v>
       </c>
-      <c r="G15" s="34" t="s">
+      <c r="G15" s="88" t="s">
         <v>21</v>
       </c>
       <c r="H15" s="5" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="I15" s="63" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="J15" s="28"/>
     </row>
@@ -1359,7 +1377,7 @@
       <c r="D16" s="7"/>
       <c r="E16" s="41"/>
       <c r="F16" s="38"/>
-      <c r="G16" s="32">
+      <c r="G16" s="86">
         <v>81232989078</v>
       </c>
       <c r="H16" s="7"/>
@@ -1373,7 +1391,7 @@
       <c r="D17" s="9"/>
       <c r="E17" s="9"/>
       <c r="F17" s="42"/>
-      <c r="G17" s="33"/>
+      <c r="G17" s="87"/>
       <c r="H17" s="9"/>
       <c r="I17" s="62"/>
       <c r="J17" s="27"/>
@@ -1397,14 +1415,14 @@
       <c r="F18" s="39">
         <v>44520</v>
       </c>
-      <c r="G18" s="34" t="s">
+      <c r="G18" s="88" t="s">
         <v>22</v>
       </c>
       <c r="H18" s="5" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="I18" s="63" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="J18" s="28"/>
     </row>
@@ -1415,7 +1433,7 @@
       <c r="D19" s="7"/>
       <c r="E19" s="41"/>
       <c r="F19" s="38"/>
-      <c r="G19" s="32">
+      <c r="G19" s="86">
         <v>81231807990</v>
       </c>
       <c r="H19" s="7"/>
@@ -1429,7 +1447,7 @@
       <c r="D20" s="9"/>
       <c r="E20" s="9"/>
       <c r="F20" s="42"/>
-      <c r="G20" s="33"/>
+      <c r="G20" s="87"/>
       <c r="H20" s="9"/>
       <c r="I20" s="62"/>
       <c r="J20" s="27"/>
@@ -1451,13 +1469,13 @@
         <v>44593</v>
       </c>
       <c r="F21" s="39" t="s">
-        <v>70</v>
-      </c>
-      <c r="G21" s="34" t="s">
-        <v>55</v>
+        <v>67</v>
+      </c>
+      <c r="G21" s="88" t="s">
+        <v>52</v>
       </c>
       <c r="H21" s="5" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="I21" s="29"/>
       <c r="J21" s="28"/>
@@ -1469,7 +1487,7 @@
       <c r="D22" s="41"/>
       <c r="E22" s="41"/>
       <c r="F22" s="38"/>
-      <c r="G22" s="32">
+      <c r="G22" s="86">
         <v>81284663664</v>
       </c>
       <c r="H22" s="7"/>
@@ -1483,7 +1501,7 @@
       <c r="D23" s="23"/>
       <c r="E23" s="23"/>
       <c r="F23" s="42"/>
-      <c r="G23" s="33"/>
+      <c r="G23" s="87"/>
       <c r="H23" s="9"/>
       <c r="I23" s="62"/>
       <c r="J23" s="27"/>
@@ -1505,13 +1523,13 @@
         <v>44593</v>
       </c>
       <c r="F24" s="39" t="s">
-        <v>70</v>
-      </c>
-      <c r="G24" s="34" t="s">
-        <v>51</v>
+        <v>67</v>
+      </c>
+      <c r="G24" s="88" t="s">
+        <v>48</v>
       </c>
       <c r="H24" s="5" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="I24" s="29"/>
       <c r="J24" s="28"/>
@@ -1523,7 +1541,7 @@
       <c r="D25" s="41"/>
       <c r="E25" s="41"/>
       <c r="F25" s="38"/>
-      <c r="G25" s="32">
+      <c r="G25" s="86">
         <v>85740346667</v>
       </c>
       <c r="H25" s="7"/>
@@ -1537,7 +1555,7 @@
       <c r="D26" s="23"/>
       <c r="E26" s="23"/>
       <c r="F26" s="42"/>
-      <c r="G26" s="33"/>
+      <c r="G26" s="87"/>
       <c r="H26" s="9"/>
       <c r="I26" s="62"/>
       <c r="J26" s="27"/>
@@ -1556,16 +1574,16 @@
         <v>44253</v>
       </c>
       <c r="E27" s="50" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="F27" s="34" t="s">
-        <v>69</v>
-      </c>
-      <c r="G27" s="34" t="s">
-        <v>36</v>
+        <v>66</v>
+      </c>
+      <c r="G27" s="88" t="s">
+        <v>35</v>
       </c>
       <c r="H27" s="25" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="I27" s="64">
         <v>44287</v>
@@ -1579,8 +1597,8 @@
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
       <c r="F28" s="32"/>
-      <c r="G28" s="32" t="s">
-        <v>35</v>
+      <c r="G28" s="86">
+        <v>82110632173</v>
       </c>
       <c r="H28" s="20"/>
       <c r="I28" s="30"/>
@@ -1593,7 +1611,7 @@
       <c r="D29" s="9"/>
       <c r="E29" s="9"/>
       <c r="F29" s="33"/>
-      <c r="G29" s="33"/>
+      <c r="G29" s="87"/>
       <c r="H29" s="23"/>
       <c r="I29" s="62"/>
       <c r="J29" s="27"/>
@@ -1617,14 +1635,14 @@
       <c r="F30" s="39">
         <v>44501</v>
       </c>
-      <c r="G30" s="34" t="s">
+      <c r="G30" s="88" t="s">
         <v>23</v>
       </c>
       <c r="H30" s="25" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="I30" s="63" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="J30" s="28"/>
     </row>
@@ -1635,7 +1653,7 @@
       <c r="D31" s="7"/>
       <c r="E31" s="51"/>
       <c r="F31" s="32"/>
-      <c r="G31" s="32">
+      <c r="G31" s="86">
         <v>6587623904</v>
       </c>
       <c r="H31" s="20"/>
@@ -1649,7 +1667,7 @@
       <c r="D32" s="9"/>
       <c r="E32" s="9"/>
       <c r="F32" s="33"/>
-      <c r="G32" s="33"/>
+      <c r="G32" s="87"/>
       <c r="H32" s="23"/>
       <c r="I32" s="62"/>
       <c r="J32" s="27"/>
@@ -1665,19 +1683,19 @@
         <v>32</v>
       </c>
       <c r="D33" s="14" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="E33" s="24">
         <v>44520</v>
       </c>
       <c r="F33" s="35" t="s">
-        <v>48</v>
-      </c>
-      <c r="G33" s="35" t="s">
-        <v>49</v>
+        <v>45</v>
+      </c>
+      <c r="G33" s="89" t="s">
+        <v>46</v>
       </c>
       <c r="H33" s="5" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="I33" s="64">
         <v>44440</v>
@@ -1691,7 +1709,7 @@
       <c r="D34" s="51"/>
       <c r="E34" s="51"/>
       <c r="F34" s="36"/>
-      <c r="G34" s="36">
+      <c r="G34" s="90">
         <v>81333524165</v>
       </c>
       <c r="H34" s="7"/>
@@ -1705,7 +1723,7 @@
       <c r="D35" s="9"/>
       <c r="E35" s="9"/>
       <c r="F35" s="52"/>
-      <c r="G35" s="52"/>
+      <c r="G35" s="91"/>
       <c r="H35" s="9"/>
       <c r="I35" s="62"/>
       <c r="J35" s="27"/>
@@ -1729,17 +1747,17 @@
       <c r="F36" s="39">
         <v>44501</v>
       </c>
-      <c r="G36" s="34" t="s">
-        <v>37</v>
+      <c r="G36" s="88" t="s">
+        <v>36</v>
       </c>
       <c r="H36" s="25" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="I36" s="63" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="J36" s="63" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
     </row>
     <row r="37" spans="1:10" x14ac:dyDescent="0.2">
@@ -1749,7 +1767,7 @@
       <c r="D37" s="7"/>
       <c r="E37" s="7"/>
       <c r="F37" s="32"/>
-      <c r="G37" s="32">
+      <c r="G37" s="86">
         <v>82143316439</v>
       </c>
       <c r="H37" s="20"/>
@@ -1763,7 +1781,7 @@
       <c r="D38" s="9"/>
       <c r="E38" s="9"/>
       <c r="F38" s="33"/>
-      <c r="G38" s="33"/>
+      <c r="G38" s="87"/>
       <c r="H38" s="23"/>
       <c r="I38" s="62"/>
       <c r="J38" s="27"/>
@@ -1779,19 +1797,19 @@
         <v>26</v>
       </c>
       <c r="D39" s="14" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="E39" s="54">
         <v>44614</v>
       </c>
       <c r="F39" s="39" t="s">
-        <v>66</v>
-      </c>
-      <c r="G39" s="34" t="s">
-        <v>65</v>
+        <v>63</v>
+      </c>
+      <c r="G39" s="88" t="s">
+        <v>62</v>
       </c>
       <c r="H39" s="5" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="I39" s="64">
         <v>44440</v>
@@ -1805,7 +1823,7 @@
       <c r="D40" s="7"/>
       <c r="E40" s="55"/>
       <c r="F40" s="32"/>
-      <c r="G40" s="32">
+      <c r="G40" s="86">
         <v>85732094240</v>
       </c>
       <c r="H40" s="7"/>
@@ -1819,7 +1837,7 @@
       <c r="D41" s="9"/>
       <c r="E41" s="9"/>
       <c r="F41" s="33"/>
-      <c r="G41" s="33"/>
+      <c r="G41" s="87"/>
       <c r="H41" s="9"/>
       <c r="I41" s="62"/>
       <c r="J41" s="27"/>
@@ -1838,19 +1856,19 @@
         <v>31</v>
       </c>
       <c r="E42" s="21" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="F42" s="34" t="s">
-        <v>67</v>
-      </c>
-      <c r="G42" s="34" t="s">
+        <v>64</v>
+      </c>
+      <c r="G42" s="88" t="s">
         <v>24</v>
       </c>
       <c r="H42" s="25" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="I42" s="63" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="J42" s="28"/>
     </row>
@@ -1861,7 +1879,7 @@
       <c r="D43" s="7"/>
       <c r="E43" s="20"/>
       <c r="F43" s="32"/>
-      <c r="G43" s="32">
+      <c r="G43" s="86">
         <v>81231558203</v>
       </c>
       <c r="H43" s="20"/>
@@ -1875,7 +1893,7 @@
       <c r="D44" s="9"/>
       <c r="E44" s="9"/>
       <c r="F44" s="33"/>
-      <c r="G44" s="33"/>
+      <c r="G44" s="87"/>
       <c r="H44" s="23"/>
       <c r="I44" s="62"/>
       <c r="J44" s="27"/>
@@ -1891,19 +1909,19 @@
         <v>33</v>
       </c>
       <c r="D45" s="21" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="E45" s="24" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="F45" s="56">
         <v>44510</v>
       </c>
-      <c r="G45" s="35" t="s">
-        <v>50</v>
+      <c r="G45" s="89" t="s">
+        <v>47</v>
       </c>
       <c r="H45" s="5" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="I45" s="29"/>
       <c r="J45" s="28"/>
@@ -1915,7 +1933,7 @@
       <c r="D46" s="51"/>
       <c r="E46" s="51"/>
       <c r="F46" s="36"/>
-      <c r="G46" s="36">
+      <c r="G46" s="90">
         <v>81331430509</v>
       </c>
       <c r="H46" s="7"/>
@@ -1929,7 +1947,7 @@
       <c r="D47" s="9"/>
       <c r="E47" s="9"/>
       <c r="F47" s="52"/>
-      <c r="G47" s="52"/>
+      <c r="G47" s="91"/>
       <c r="H47" s="9"/>
       <c r="I47" s="62"/>
       <c r="J47" s="27"/>
@@ -1945,19 +1963,19 @@
         <v>28</v>
       </c>
       <c r="D48" s="14" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="E48" s="24">
         <v>44510</v>
       </c>
       <c r="F48" s="56" t="s">
-        <v>46</v>
-      </c>
-      <c r="G48" s="35" t="s">
-        <v>45</v>
+        <v>43</v>
+      </c>
+      <c r="G48" s="89" t="s">
+        <v>42</v>
       </c>
       <c r="H48" s="5" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="I48" s="64">
         <v>44440</v>
@@ -1971,7 +1989,7 @@
       <c r="D49" s="51"/>
       <c r="E49" s="51"/>
       <c r="F49" s="36"/>
-      <c r="G49" s="36">
+      <c r="G49" s="90">
         <v>85649115380</v>
       </c>
       <c r="H49" s="7"/>
@@ -1985,7 +2003,7 @@
       <c r="D50" s="9"/>
       <c r="E50" s="9"/>
       <c r="F50" s="52"/>
-      <c r="G50" s="52"/>
+      <c r="G50" s="91"/>
       <c r="H50" s="9"/>
       <c r="I50" s="62"/>
       <c r="J50" s="27"/>
@@ -2009,11 +2027,11 @@
       <c r="F51" s="34" t="s">
         <v>17</v>
       </c>
-      <c r="G51" s="34" t="s">
-        <v>38</v>
+      <c r="G51" s="88" t="s">
+        <v>37</v>
       </c>
       <c r="H51" s="25" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="I51" s="64">
         <v>44246</v>
@@ -2027,8 +2045,8 @@
       <c r="D52" s="6"/>
       <c r="E52" s="20"/>
       <c r="F52" s="32"/>
-      <c r="G52" s="32" t="s">
-        <v>39</v>
+      <c r="G52" s="86">
+        <v>81318154783</v>
       </c>
       <c r="H52" s="20"/>
       <c r="I52" s="30"/>
@@ -2041,7 +2059,7 @@
       <c r="D53" s="9"/>
       <c r="E53" s="9"/>
       <c r="F53" s="33"/>
-      <c r="G53" s="33"/>
+      <c r="G53" s="87"/>
       <c r="H53" s="23"/>
       <c r="I53" s="27"/>
       <c r="J53" s="27"/>
@@ -2060,16 +2078,16 @@
         <v>44253</v>
       </c>
       <c r="E54" s="21" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="F54" s="34" t="s">
         <v>17</v>
       </c>
-      <c r="G54" s="34" t="s">
-        <v>41</v>
+      <c r="G54" s="88" t="s">
+        <v>39</v>
       </c>
       <c r="H54" s="25" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="I54" s="64">
         <v>44246</v>
@@ -2083,8 +2101,8 @@
       <c r="D55" s="6"/>
       <c r="E55" s="20"/>
       <c r="F55" s="32"/>
-      <c r="G55" s="32" t="s">
-        <v>42</v>
+      <c r="G55" s="86">
+        <v>8123929482</v>
       </c>
       <c r="H55" s="20"/>
       <c r="I55" s="30"/>
@@ -2097,7 +2115,7 @@
       <c r="D56" s="9"/>
       <c r="E56" s="9"/>
       <c r="F56" s="33"/>
-      <c r="G56" s="33"/>
+      <c r="G56" s="87"/>
       <c r="H56" s="23"/>
       <c r="I56" s="27"/>
       <c r="J56" s="27"/>
@@ -2116,19 +2134,19 @@
         <v>28</v>
       </c>
       <c r="E57" s="21" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="F57" s="39">
         <v>44444</v>
       </c>
-      <c r="G57" s="34" t="s">
+      <c r="G57" s="88" t="s">
         <v>25</v>
       </c>
       <c r="H57" s="5" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="I57" s="63" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="J57" s="28"/>
     </row>
@@ -2139,7 +2157,7 @@
       <c r="D58" s="7"/>
       <c r="E58" s="7"/>
       <c r="F58" s="32"/>
-      <c r="G58" s="32">
+      <c r="G58" s="86">
         <v>81331414130</v>
       </c>
       <c r="H58" s="7"/>
@@ -2153,7 +2171,7 @@
       <c r="D59" s="9"/>
       <c r="E59" s="9"/>
       <c r="F59" s="33"/>
-      <c r="G59" s="33"/>
+      <c r="G59" s="87"/>
       <c r="H59" s="9"/>
       <c r="I59" s="27"/>
       <c r="J59" s="27"/>
@@ -2172,19 +2190,19 @@
         <v>28</v>
       </c>
       <c r="E60" s="21" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="F60" s="39">
         <v>44444</v>
       </c>
-      <c r="G60" s="34" t="s">
+      <c r="G60" s="88" t="s">
         <v>26</v>
       </c>
       <c r="H60" s="5" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="I60" s="63" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="J60" s="28"/>
     </row>
@@ -2195,7 +2213,7 @@
       <c r="D61" s="7"/>
       <c r="E61" s="7"/>
       <c r="F61" s="32"/>
-      <c r="G61" s="32">
+      <c r="G61" s="86">
         <v>81252283477</v>
       </c>
       <c r="H61" s="7"/>
@@ -2209,7 +2227,7 @@
       <c r="D62" s="9"/>
       <c r="E62" s="9"/>
       <c r="F62" s="33"/>
-      <c r="G62" s="33"/>
+      <c r="G62" s="87"/>
       <c r="H62" s="9"/>
       <c r="I62" s="27"/>
       <c r="J62" s="27"/>
@@ -2225,19 +2243,19 @@
         <v>40</v>
       </c>
       <c r="D63" s="5" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="E63" s="24">
         <v>44510</v>
       </c>
       <c r="F63" s="56" t="s">
-        <v>46</v>
-      </c>
-      <c r="G63" s="35" t="s">
-        <v>52</v>
+        <v>43</v>
+      </c>
+      <c r="G63" s="89" t="s">
+        <v>49</v>
       </c>
       <c r="H63" s="5" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="I63" s="29"/>
       <c r="J63" s="28"/>
@@ -2249,7 +2267,7 @@
       <c r="D64" s="51"/>
       <c r="E64" s="51"/>
       <c r="F64" s="36"/>
-      <c r="G64" s="36">
+      <c r="G64" s="90">
         <v>81359524067</v>
       </c>
       <c r="H64" s="7"/>
@@ -2263,7 +2281,7 @@
       <c r="D65" s="9"/>
       <c r="E65" s="9"/>
       <c r="F65" s="52"/>
-      <c r="G65" s="52"/>
+      <c r="G65" s="91"/>
       <c r="H65" s="9"/>
       <c r="I65" s="62"/>
       <c r="J65" s="27"/>
@@ -2279,17 +2297,17 @@
         <v>40</v>
       </c>
       <c r="D66" s="5" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="E66" s="24">
         <v>44510</v>
       </c>
       <c r="F66" s="56" t="s">
-        <v>46</v>
-      </c>
-      <c r="G66" s="35"/>
+        <v>43</v>
+      </c>
+      <c r="G66" s="89"/>
       <c r="H66" s="5" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="I66" s="29"/>
       <c r="J66" s="28"/>
@@ -2301,7 +2319,7 @@
       <c r="D67" s="51"/>
       <c r="E67" s="51"/>
       <c r="F67" s="36"/>
-      <c r="G67" s="36"/>
+      <c r="G67" s="90"/>
       <c r="H67" s="7"/>
       <c r="I67" s="30"/>
       <c r="J67" s="26"/>
@@ -2313,7 +2331,7 @@
       <c r="D68" s="9"/>
       <c r="E68" s="9"/>
       <c r="F68" s="52"/>
-      <c r="G68" s="52"/>
+      <c r="G68" s="91"/>
       <c r="H68" s="9"/>
       <c r="I68" s="62"/>
       <c r="J68" s="27"/>
@@ -2358,46 +2376,46 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="18" x14ac:dyDescent="0.25">
-      <c r="A1" s="79" t="s">
+      <c r="A1" s="80" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="79" t="s">
+      <c r="B1" s="80" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="79" t="s">
+      <c r="C1" s="80" t="s">
         <v>27</v>
       </c>
-      <c r="D1" s="79" t="s">
+      <c r="D1" s="80" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="81" t="s">
+      <c r="E1" s="82" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="81"/>
-      <c r="G1" s="79" t="s">
+      <c r="F1" s="82"/>
+      <c r="G1" s="80" t="s">
         <v>4</v>
       </c>
-      <c r="H1" s="77" t="s">
+      <c r="H1" s="78" t="s">
         <v>8</v>
       </c>
-      <c r="I1" s="70" t="s">
-        <v>61</v>
-      </c>
-      <c r="J1" s="70"/>
+      <c r="I1" s="73" t="s">
+        <v>58</v>
+      </c>
+      <c r="J1" s="73"/>
     </row>
     <row r="2" spans="1:10" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="80"/>
-      <c r="B2" s="80"/>
-      <c r="C2" s="80"/>
-      <c r="D2" s="80"/>
+      <c r="A2" s="81"/>
+      <c r="B2" s="81"/>
+      <c r="C2" s="81"/>
+      <c r="D2" s="81"/>
       <c r="E2" s="19" t="s">
         <v>6</v>
       </c>
       <c r="F2" s="19" t="s">
         <v>7</v>
       </c>
-      <c r="G2" s="80"/>
-      <c r="H2" s="78"/>
+      <c r="G2" s="81"/>
+      <c r="H2" s="79"/>
       <c r="I2" s="17" t="s">
         <v>6</v>
       </c>
@@ -2419,22 +2437,22 @@
         <v>44218</v>
       </c>
       <c r="E3" s="45" t="s">
+        <v>87</v>
+      </c>
+      <c r="F3" s="48" t="s">
         <v>90</v>
       </c>
-      <c r="F3" s="48" t="s">
-        <v>93</v>
-      </c>
       <c r="G3" s="47" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="H3" s="43" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="I3" s="68">
         <v>44251</v>
       </c>
-      <c r="J3" s="82" t="s">
-        <v>102</v>
+      <c r="J3" s="70" t="s">
+        <v>99</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.2">
@@ -2449,7 +2467,7 @@
       </c>
       <c r="H4" s="7"/>
       <c r="I4" s="30"/>
-      <c r="J4" s="83"/>
+      <c r="J4" s="71"/>
     </row>
     <row r="5" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A5" s="9"/>
@@ -2477,22 +2495,22 @@
         <v>44218</v>
       </c>
       <c r="E6" s="14" t="s">
+        <v>87</v>
+      </c>
+      <c r="F6" s="39" t="s">
         <v>90</v>
       </c>
-      <c r="F6" s="39" t="s">
-        <v>93</v>
-      </c>
       <c r="G6" s="34" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="H6" s="5" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="I6" s="68">
         <v>44251</v>
       </c>
       <c r="J6" s="65" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.2">
@@ -2532,25 +2550,25 @@
         <v>15</v>
       </c>
       <c r="D9" s="14" t="s">
-        <v>100</v>
-      </c>
-      <c r="E9" s="84" t="s">
-        <v>43</v>
+        <v>97</v>
+      </c>
+      <c r="E9" s="72" t="s">
+        <v>40</v>
       </c>
       <c r="F9" s="38">
         <v>44440</v>
       </c>
       <c r="G9" s="32" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="H9" s="7" t="s">
+        <v>95</v>
+      </c>
+      <c r="I9" s="69" t="s">
         <v>98</v>
       </c>
-      <c r="I9" s="69" t="s">
-        <v>101</v>
-      </c>
       <c r="J9" s="65" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.2">
@@ -2590,25 +2608,25 @@
         <v>15</v>
       </c>
       <c r="D12" s="14" t="s">
-        <v>100</v>
-      </c>
-      <c r="E12" s="84" t="s">
-        <v>43</v>
+        <v>97</v>
+      </c>
+      <c r="E12" s="72" t="s">
+        <v>40</v>
       </c>
       <c r="F12" s="38">
         <v>44440</v>
       </c>
       <c r="G12" s="32" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="H12" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="I12" s="69" t="s">
+        <v>98</v>
+      </c>
+      <c r="J12" s="65" t="s">
         <v>99</v>
-      </c>
-      <c r="I12" s="69" t="s">
-        <v>101</v>
-      </c>
-      <c r="J12" s="65" t="s">
-        <v>102</v>
       </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.2">
@@ -2639,22 +2657,22 @@
         <v>32</v>
       </c>
       <c r="E14" s="14" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="F14" s="57" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="G14" s="57" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="H14" s="10" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="I14" s="64">
         <v>44287</v>
       </c>
       <c r="J14" s="65" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.2">

--- a/RENCANA BON VOYAGE.xlsx
+++ b/RENCANA BON VOYAGE.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Mapan\progress\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2DF0EC14-CA49-419B-8014-FB91DCCC95E4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{92B7DC1B-29A6-490F-B7EC-398300F04028}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="16080" windowWidth="29040" windowHeight="7965" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="progres" sheetId="1" r:id="rId1"/>
@@ -186,9 +186,6 @@
     <t>ZAINUL</t>
   </si>
   <si>
-    <t>31 AGUST</t>
-  </si>
-  <si>
     <t>20 DES 21</t>
   </si>
   <si>
@@ -325,6 +322,9 @@
   </si>
   <si>
     <t>12 juni</t>
+  </si>
+  <si>
+    <t>01 OKTOBER</t>
   </si>
 </sst>
 </file>
@@ -332,7 +332,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="165" formatCode="&quot;0&quot;#"/>
+    <numFmt numFmtId="164" formatCode="&quot;0&quot;#"/>
   </numFmts>
   <fonts count="4" x14ac:knownFonts="1">
     <font>
@@ -656,11 +656,41 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" indent="2"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" indent="2"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" indent="2"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" indent="2"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="2"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="2"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="2"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" indent="2"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="2"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="2"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="2"/>
@@ -685,36 +715,6 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="3" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="2"/>
-    </xf>
-    <xf numFmtId="165" fontId="3" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="2"/>
-    </xf>
-    <xf numFmtId="165" fontId="2" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" indent="2"/>
-    </xf>
-    <xf numFmtId="165" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" indent="2"/>
-    </xf>
-    <xf numFmtId="165" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" indent="2"/>
-    </xf>
-    <xf numFmtId="165" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" indent="2"/>
-    </xf>
-    <xf numFmtId="165" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="2"/>
-    </xf>
-    <xf numFmtId="165" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="2"/>
-    </xf>
-    <xf numFmtId="165" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="2"/>
-    </xf>
-    <xf numFmtId="165" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" indent="2"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1057,8 +1057,8 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:J68"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A58" zoomScale="85" zoomScaleNormal="85" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="G72" sqref="G72"/>
+    <sheetView tabSelected="1" topLeftCell="A28" zoomScale="85" zoomScaleNormal="85" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="D61" sqref="D61"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1069,7 +1069,7 @@
     <col min="4" max="4" width="18.42578125" style="2" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="18.42578125" style="2" customWidth="1"/>
     <col min="6" max="6" width="18.140625" style="37" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="21.5703125" style="92" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="21.5703125" style="80" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="9.7109375" style="2" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="10.42578125" style="66" customWidth="1"/>
     <col min="10" max="10" width="14" style="31" bestFit="1" customWidth="1"/>
@@ -1077,46 +1077,46 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="15" x14ac:dyDescent="0.25">
-      <c r="A1" s="73" t="s">
+      <c r="A1" s="81" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="73" t="s">
+      <c r="B1" s="81" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="73" t="s">
+      <c r="C1" s="81" t="s">
         <v>27</v>
       </c>
-      <c r="D1" s="77" t="s">
+      <c r="D1" s="87" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="77"/>
-      <c r="F1" s="75" t="s">
+      <c r="E1" s="87"/>
+      <c r="F1" s="85" t="s">
         <v>8</v>
       </c>
       <c r="G1" s="83" t="s">
         <v>4</v>
       </c>
-      <c r="H1" s="73" t="s">
+      <c r="H1" s="81" t="s">
         <v>2</v>
       </c>
-      <c r="I1" s="73" t="s">
-        <v>58</v>
-      </c>
-      <c r="J1" s="73"/>
+      <c r="I1" s="81" t="s">
+        <v>57</v>
+      </c>
+      <c r="J1" s="81"/>
     </row>
     <row r="2" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="74"/>
-      <c r="B2" s="74"/>
-      <c r="C2" s="74"/>
+      <c r="A2" s="82"/>
+      <c r="B2" s="82"/>
+      <c r="C2" s="82"/>
       <c r="D2" s="17" t="s">
         <v>6</v>
       </c>
       <c r="E2" s="17" t="s">
         <v>7</v>
       </c>
-      <c r="F2" s="76"/>
+      <c r="F2" s="86"/>
       <c r="G2" s="84"/>
-      <c r="H2" s="74"/>
+      <c r="H2" s="82"/>
       <c r="I2" s="17" t="s">
         <v>6</v>
       </c>
@@ -1143,14 +1143,14 @@
       <c r="F3" s="48">
         <v>44444</v>
       </c>
-      <c r="G3" s="85" t="s">
+      <c r="G3" s="73" t="s">
         <v>19</v>
       </c>
       <c r="H3" s="43" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="I3" s="60" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="J3" s="61"/>
     </row>
@@ -1161,7 +1161,7 @@
       <c r="D4" s="20"/>
       <c r="E4" s="20"/>
       <c r="F4" s="32"/>
-      <c r="G4" s="86">
+      <c r="G4" s="74">
         <v>81228196787</v>
       </c>
       <c r="H4" s="7"/>
@@ -1175,7 +1175,7 @@
       <c r="D5" s="9"/>
       <c r="E5" s="9"/>
       <c r="F5" s="33"/>
-      <c r="G5" s="87"/>
+      <c r="G5" s="75"/>
       <c r="H5" s="9"/>
       <c r="I5" s="62"/>
       <c r="J5" s="27"/>
@@ -1199,14 +1199,14 @@
       <c r="F6" s="39">
         <v>44444</v>
       </c>
-      <c r="G6" s="88" t="s">
+      <c r="G6" s="76" t="s">
         <v>20</v>
       </c>
       <c r="H6" s="5" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="I6" s="63" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="J6" s="28"/>
     </row>
@@ -1217,7 +1217,7 @@
       <c r="D7" s="20"/>
       <c r="E7" s="20"/>
       <c r="F7" s="32"/>
-      <c r="G7" s="86">
+      <c r="G7" s="74">
         <v>81225736355</v>
       </c>
       <c r="H7" s="7"/>
@@ -1231,7 +1231,7 @@
       <c r="D8" s="9"/>
       <c r="E8" s="9"/>
       <c r="F8" s="33"/>
-      <c r="G8" s="87"/>
+      <c r="G8" s="75"/>
       <c r="H8" s="9"/>
       <c r="I8" s="62"/>
       <c r="J8" s="27"/>
@@ -1246,20 +1246,18 @@
       <c r="C9" s="4">
         <v>10</v>
       </c>
-      <c r="D9" s="40">
-        <v>44444</v>
-      </c>
+      <c r="D9" s="40"/>
       <c r="E9" s="22">
         <v>44520</v>
       </c>
       <c r="F9" s="39" t="s">
-        <v>54</v>
-      </c>
-      <c r="G9" s="88" t="s">
+        <v>53</v>
+      </c>
+      <c r="G9" s="76" t="s">
         <v>51</v>
       </c>
       <c r="H9" s="5" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="I9" s="29"/>
       <c r="J9" s="28"/>
@@ -1271,7 +1269,7 @@
       <c r="D10" s="20"/>
       <c r="E10" s="20"/>
       <c r="F10" s="32"/>
-      <c r="G10" s="86">
+      <c r="G10" s="74">
         <v>81331434743</v>
       </c>
       <c r="H10" s="7"/>
@@ -1285,7 +1283,7 @@
       <c r="D11" s="23"/>
       <c r="E11" s="23"/>
       <c r="F11" s="33"/>
-      <c r="G11" s="87"/>
+      <c r="G11" s="75"/>
       <c r="H11" s="9"/>
       <c r="I11" s="62"/>
       <c r="J11" s="27"/>
@@ -1300,18 +1298,16 @@
       <c r="C12" s="4">
         <v>10</v>
       </c>
-      <c r="D12" s="40">
-        <v>44444</v>
-      </c>
+      <c r="D12" s="40"/>
       <c r="E12" s="22">
         <v>44520</v>
       </c>
       <c r="F12" s="39" t="s">
-        <v>54</v>
-      </c>
-      <c r="G12" s="88"/>
+        <v>53</v>
+      </c>
+      <c r="G12" s="76"/>
       <c r="H12" s="5" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="I12" s="29"/>
       <c r="J12" s="28"/>
@@ -1323,7 +1319,7 @@
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
       <c r="F13" s="32"/>
-      <c r="G13" s="86"/>
+      <c r="G13" s="74"/>
       <c r="H13" s="7"/>
       <c r="I13" s="30"/>
       <c r="J13" s="26"/>
@@ -1335,7 +1331,7 @@
       <c r="D14" s="23"/>
       <c r="E14" s="23"/>
       <c r="F14" s="33"/>
-      <c r="G14" s="87"/>
+      <c r="G14" s="75"/>
       <c r="H14" s="9"/>
       <c r="I14" s="62"/>
       <c r="J14" s="27"/>
@@ -1359,14 +1355,14 @@
       <c r="F15" s="39">
         <v>44520</v>
       </c>
-      <c r="G15" s="88" t="s">
+      <c r="G15" s="76" t="s">
         <v>21</v>
       </c>
       <c r="H15" s="5" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="I15" s="63" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="J15" s="28"/>
     </row>
@@ -1377,7 +1373,7 @@
       <c r="D16" s="7"/>
       <c r="E16" s="41"/>
       <c r="F16" s="38"/>
-      <c r="G16" s="86">
+      <c r="G16" s="74">
         <v>81232989078</v>
       </c>
       <c r="H16" s="7"/>
@@ -1391,7 +1387,7 @@
       <c r="D17" s="9"/>
       <c r="E17" s="9"/>
       <c r="F17" s="42"/>
-      <c r="G17" s="87"/>
+      <c r="G17" s="75"/>
       <c r="H17" s="9"/>
       <c r="I17" s="62"/>
       <c r="J17" s="27"/>
@@ -1415,14 +1411,14 @@
       <c r="F18" s="39">
         <v>44520</v>
       </c>
-      <c r="G18" s="88" t="s">
+      <c r="G18" s="76" t="s">
         <v>22</v>
       </c>
       <c r="H18" s="5" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="I18" s="63" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="J18" s="28"/>
     </row>
@@ -1433,7 +1429,7 @@
       <c r="D19" s="7"/>
       <c r="E19" s="41"/>
       <c r="F19" s="38"/>
-      <c r="G19" s="86">
+      <c r="G19" s="74">
         <v>81231807990</v>
       </c>
       <c r="H19" s="7"/>
@@ -1447,7 +1443,7 @@
       <c r="D20" s="9"/>
       <c r="E20" s="9"/>
       <c r="F20" s="42"/>
-      <c r="G20" s="87"/>
+      <c r="G20" s="75"/>
       <c r="H20" s="9"/>
       <c r="I20" s="62"/>
       <c r="J20" s="27"/>
@@ -1462,20 +1458,18 @@
       <c r="C21" s="4">
         <v>17</v>
       </c>
-      <c r="D21" s="40">
-        <v>44444</v>
-      </c>
+      <c r="D21" s="40"/>
       <c r="E21" s="22">
         <v>44593</v>
       </c>
       <c r="F21" s="39" t="s">
-        <v>67</v>
-      </c>
-      <c r="G21" s="88" t="s">
+        <v>66</v>
+      </c>
+      <c r="G21" s="76" t="s">
         <v>52</v>
       </c>
       <c r="H21" s="5" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="I21" s="29"/>
       <c r="J21" s="28"/>
@@ -1487,7 +1481,7 @@
       <c r="D22" s="41"/>
       <c r="E22" s="41"/>
       <c r="F22" s="38"/>
-      <c r="G22" s="86">
+      <c r="G22" s="74">
         <v>81284663664</v>
       </c>
       <c r="H22" s="7"/>
@@ -1501,7 +1495,7 @@
       <c r="D23" s="23"/>
       <c r="E23" s="23"/>
       <c r="F23" s="42"/>
-      <c r="G23" s="87"/>
+      <c r="G23" s="75"/>
       <c r="H23" s="9"/>
       <c r="I23" s="62"/>
       <c r="J23" s="27"/>
@@ -1516,20 +1510,18 @@
       <c r="C24" s="4">
         <v>17</v>
       </c>
-      <c r="D24" s="40">
-        <v>44444</v>
-      </c>
+      <c r="D24" s="40"/>
       <c r="E24" s="22">
         <v>44593</v>
       </c>
       <c r="F24" s="39" t="s">
-        <v>67</v>
-      </c>
-      <c r="G24" s="88" t="s">
+        <v>66</v>
+      </c>
+      <c r="G24" s="76" t="s">
         <v>48</v>
       </c>
       <c r="H24" s="5" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="I24" s="29"/>
       <c r="J24" s="28"/>
@@ -1541,7 +1533,7 @@
       <c r="D25" s="41"/>
       <c r="E25" s="41"/>
       <c r="F25" s="38"/>
-      <c r="G25" s="86">
+      <c r="G25" s="74">
         <v>85740346667</v>
       </c>
       <c r="H25" s="7"/>
@@ -1555,7 +1547,7 @@
       <c r="D26" s="23"/>
       <c r="E26" s="23"/>
       <c r="F26" s="42"/>
-      <c r="G26" s="87"/>
+      <c r="G26" s="75"/>
       <c r="H26" s="9"/>
       <c r="I26" s="62"/>
       <c r="J26" s="27"/>
@@ -1574,16 +1566,16 @@
         <v>44253</v>
       </c>
       <c r="E27" s="50" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="F27" s="34" t="s">
-        <v>66</v>
-      </c>
-      <c r="G27" s="88" t="s">
+        <v>65</v>
+      </c>
+      <c r="G27" s="76" t="s">
         <v>35</v>
       </c>
       <c r="H27" s="25" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="I27" s="64">
         <v>44287</v>
@@ -1597,7 +1589,7 @@
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
       <c r="F28" s="32"/>
-      <c r="G28" s="86">
+      <c r="G28" s="74">
         <v>82110632173</v>
       </c>
       <c r="H28" s="20"/>
@@ -1611,7 +1603,7 @@
       <c r="D29" s="9"/>
       <c r="E29" s="9"/>
       <c r="F29" s="33"/>
-      <c r="G29" s="87"/>
+      <c r="G29" s="75"/>
       <c r="H29" s="23"/>
       <c r="I29" s="62"/>
       <c r="J29" s="27"/>
@@ -1629,20 +1621,20 @@
       <c r="D30" s="14" t="s">
         <v>28</v>
       </c>
-      <c r="E30" s="24">
-        <v>44440</v>
+      <c r="E30" s="24" t="s">
+        <v>99</v>
       </c>
       <c r="F30" s="39">
         <v>44501</v>
       </c>
-      <c r="G30" s="88" t="s">
+      <c r="G30" s="76" t="s">
         <v>23</v>
       </c>
       <c r="H30" s="25" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="I30" s="63" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="J30" s="28"/>
     </row>
@@ -1653,7 +1645,7 @@
       <c r="D31" s="7"/>
       <c r="E31" s="51"/>
       <c r="F31" s="32"/>
-      <c r="G31" s="86">
+      <c r="G31" s="74">
         <v>6587623904</v>
       </c>
       <c r="H31" s="20"/>
@@ -1667,7 +1659,7 @@
       <c r="D32" s="9"/>
       <c r="E32" s="9"/>
       <c r="F32" s="33"/>
-      <c r="G32" s="87"/>
+      <c r="G32" s="75"/>
       <c r="H32" s="23"/>
       <c r="I32" s="62"/>
       <c r="J32" s="27"/>
@@ -1691,11 +1683,11 @@
       <c r="F33" s="35" t="s">
         <v>45</v>
       </c>
-      <c r="G33" s="89" t="s">
+      <c r="G33" s="77" t="s">
         <v>46</v>
       </c>
       <c r="H33" s="5" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="I33" s="64">
         <v>44440</v>
@@ -1709,7 +1701,7 @@
       <c r="D34" s="51"/>
       <c r="E34" s="51"/>
       <c r="F34" s="36"/>
-      <c r="G34" s="90">
+      <c r="G34" s="78">
         <v>81333524165</v>
       </c>
       <c r="H34" s="7"/>
@@ -1723,7 +1715,7 @@
       <c r="D35" s="9"/>
       <c r="E35" s="9"/>
       <c r="F35" s="52"/>
-      <c r="G35" s="91"/>
+      <c r="G35" s="79"/>
       <c r="H35" s="9"/>
       <c r="I35" s="62"/>
       <c r="J35" s="27"/>
@@ -1747,17 +1739,17 @@
       <c r="F36" s="39">
         <v>44501</v>
       </c>
-      <c r="G36" s="88" t="s">
+      <c r="G36" s="76" t="s">
         <v>36</v>
       </c>
       <c r="H36" s="25" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="I36" s="63" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="J36" s="63" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="37" spans="1:10" x14ac:dyDescent="0.2">
@@ -1767,7 +1759,7 @@
       <c r="D37" s="7"/>
       <c r="E37" s="7"/>
       <c r="F37" s="32"/>
-      <c r="G37" s="86">
+      <c r="G37" s="74">
         <v>82143316439</v>
       </c>
       <c r="H37" s="20"/>
@@ -1781,7 +1773,7 @@
       <c r="D38" s="9"/>
       <c r="E38" s="9"/>
       <c r="F38" s="33"/>
-      <c r="G38" s="87"/>
+      <c r="G38" s="75"/>
       <c r="H38" s="23"/>
       <c r="I38" s="62"/>
       <c r="J38" s="27"/>
@@ -1803,13 +1795,13 @@
         <v>44614</v>
       </c>
       <c r="F39" s="39" t="s">
-        <v>63</v>
-      </c>
-      <c r="G39" s="88" t="s">
         <v>62</v>
       </c>
+      <c r="G39" s="76" t="s">
+        <v>61</v>
+      </c>
       <c r="H39" s="5" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="I39" s="64">
         <v>44440</v>
@@ -1823,7 +1815,7 @@
       <c r="D40" s="7"/>
       <c r="E40" s="55"/>
       <c r="F40" s="32"/>
-      <c r="G40" s="86">
+      <c r="G40" s="74">
         <v>85732094240</v>
       </c>
       <c r="H40" s="7"/>
@@ -1837,7 +1829,7 @@
       <c r="D41" s="9"/>
       <c r="E41" s="9"/>
       <c r="F41" s="33"/>
-      <c r="G41" s="87"/>
+      <c r="G41" s="75"/>
       <c r="H41" s="9"/>
       <c r="I41" s="62"/>
       <c r="J41" s="27"/>
@@ -1856,19 +1848,19 @@
         <v>31</v>
       </c>
       <c r="E42" s="21" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="F42" s="34" t="s">
-        <v>64</v>
-      </c>
-      <c r="G42" s="88" t="s">
+        <v>63</v>
+      </c>
+      <c r="G42" s="76" t="s">
         <v>24</v>
       </c>
       <c r="H42" s="25" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="I42" s="63" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="J42" s="28"/>
     </row>
@@ -1879,7 +1871,7 @@
       <c r="D43" s="7"/>
       <c r="E43" s="20"/>
       <c r="F43" s="32"/>
-      <c r="G43" s="86">
+      <c r="G43" s="74">
         <v>81231558203</v>
       </c>
       <c r="H43" s="20"/>
@@ -1893,7 +1885,7 @@
       <c r="D44" s="9"/>
       <c r="E44" s="9"/>
       <c r="F44" s="33"/>
-      <c r="G44" s="87"/>
+      <c r="G44" s="75"/>
       <c r="H44" s="23"/>
       <c r="I44" s="62"/>
       <c r="J44" s="27"/>
@@ -1909,19 +1901,19 @@
         <v>33</v>
       </c>
       <c r="D45" s="21" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="E45" s="24" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="F45" s="56">
         <v>44510</v>
       </c>
-      <c r="G45" s="89" t="s">
+      <c r="G45" s="77" t="s">
         <v>47</v>
       </c>
       <c r="H45" s="5" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="I45" s="29"/>
       <c r="J45" s="28"/>
@@ -1933,7 +1925,7 @@
       <c r="D46" s="51"/>
       <c r="E46" s="51"/>
       <c r="F46" s="36"/>
-      <c r="G46" s="90">
+      <c r="G46" s="78">
         <v>81331430509</v>
       </c>
       <c r="H46" s="7"/>
@@ -1947,7 +1939,7 @@
       <c r="D47" s="9"/>
       <c r="E47" s="9"/>
       <c r="F47" s="52"/>
-      <c r="G47" s="91"/>
+      <c r="G47" s="79"/>
       <c r="H47" s="9"/>
       <c r="I47" s="62"/>
       <c r="J47" s="27"/>
@@ -1971,11 +1963,11 @@
       <c r="F48" s="56" t="s">
         <v>43</v>
       </c>
-      <c r="G48" s="89" t="s">
+      <c r="G48" s="77" t="s">
         <v>42</v>
       </c>
       <c r="H48" s="5" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="I48" s="64">
         <v>44440</v>
@@ -1989,7 +1981,7 @@
       <c r="D49" s="51"/>
       <c r="E49" s="51"/>
       <c r="F49" s="36"/>
-      <c r="G49" s="90">
+      <c r="G49" s="78">
         <v>85649115380</v>
       </c>
       <c r="H49" s="7"/>
@@ -2003,7 +1995,7 @@
       <c r="D50" s="9"/>
       <c r="E50" s="9"/>
       <c r="F50" s="52"/>
-      <c r="G50" s="91"/>
+      <c r="G50" s="79"/>
       <c r="H50" s="9"/>
       <c r="I50" s="62"/>
       <c r="J50" s="27"/>
@@ -2027,11 +2019,11 @@
       <c r="F51" s="34" t="s">
         <v>17</v>
       </c>
-      <c r="G51" s="88" t="s">
+      <c r="G51" s="76" t="s">
         <v>37</v>
       </c>
       <c r="H51" s="25" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="I51" s="64">
         <v>44246</v>
@@ -2045,7 +2037,7 @@
       <c r="D52" s="6"/>
       <c r="E52" s="20"/>
       <c r="F52" s="32"/>
-      <c r="G52" s="86">
+      <c r="G52" s="74">
         <v>81318154783</v>
       </c>
       <c r="H52" s="20"/>
@@ -2059,7 +2051,7 @@
       <c r="D53" s="9"/>
       <c r="E53" s="9"/>
       <c r="F53" s="33"/>
-      <c r="G53" s="87"/>
+      <c r="G53" s="75"/>
       <c r="H53" s="23"/>
       <c r="I53" s="27"/>
       <c r="J53" s="27"/>
@@ -2078,16 +2070,16 @@
         <v>44253</v>
       </c>
       <c r="E54" s="21" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="F54" s="34" t="s">
         <v>17</v>
       </c>
-      <c r="G54" s="88" t="s">
+      <c r="G54" s="76" t="s">
         <v>39</v>
       </c>
       <c r="H54" s="25" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="I54" s="64">
         <v>44246</v>
@@ -2101,7 +2093,7 @@
       <c r="D55" s="6"/>
       <c r="E55" s="20"/>
       <c r="F55" s="32"/>
-      <c r="G55" s="86">
+      <c r="G55" s="74">
         <v>8123929482</v>
       </c>
       <c r="H55" s="20"/>
@@ -2115,7 +2107,7 @@
       <c r="D56" s="9"/>
       <c r="E56" s="9"/>
       <c r="F56" s="33"/>
-      <c r="G56" s="87"/>
+      <c r="G56" s="75"/>
       <c r="H56" s="23"/>
       <c r="I56" s="27"/>
       <c r="J56" s="27"/>
@@ -2134,19 +2126,19 @@
         <v>28</v>
       </c>
       <c r="E57" s="21" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="F57" s="39">
         <v>44444</v>
       </c>
-      <c r="G57" s="88" t="s">
+      <c r="G57" s="76" t="s">
         <v>25</v>
       </c>
       <c r="H57" s="5" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="I57" s="63" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="J57" s="28"/>
     </row>
@@ -2157,7 +2149,7 @@
       <c r="D58" s="7"/>
       <c r="E58" s="7"/>
       <c r="F58" s="32"/>
-      <c r="G58" s="86">
+      <c r="G58" s="74">
         <v>81331414130</v>
       </c>
       <c r="H58" s="7"/>
@@ -2171,7 +2163,7 @@
       <c r="D59" s="9"/>
       <c r="E59" s="9"/>
       <c r="F59" s="33"/>
-      <c r="G59" s="87"/>
+      <c r="G59" s="75"/>
       <c r="H59" s="9"/>
       <c r="I59" s="27"/>
       <c r="J59" s="27"/>
@@ -2190,19 +2182,19 @@
         <v>28</v>
       </c>
       <c r="E60" s="21" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="F60" s="39">
         <v>44444</v>
       </c>
-      <c r="G60" s="88" t="s">
+      <c r="G60" s="76" t="s">
         <v>26</v>
       </c>
       <c r="H60" s="5" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="I60" s="63" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="J60" s="28"/>
     </row>
@@ -2213,7 +2205,7 @@
       <c r="D61" s="7"/>
       <c r="E61" s="7"/>
       <c r="F61" s="32"/>
-      <c r="G61" s="86">
+      <c r="G61" s="74">
         <v>81252283477</v>
       </c>
       <c r="H61" s="7"/>
@@ -2227,7 +2219,7 @@
       <c r="D62" s="9"/>
       <c r="E62" s="9"/>
       <c r="F62" s="33"/>
-      <c r="G62" s="87"/>
+      <c r="G62" s="75"/>
       <c r="H62" s="9"/>
       <c r="I62" s="27"/>
       <c r="J62" s="27"/>
@@ -2242,8 +2234,8 @@
       <c r="C63" s="4">
         <v>40</v>
       </c>
-      <c r="D63" s="5" t="s">
-        <v>53</v>
+      <c r="D63" s="24">
+        <v>44453</v>
       </c>
       <c r="E63" s="24">
         <v>44510</v>
@@ -2251,11 +2243,11 @@
       <c r="F63" s="56" t="s">
         <v>43</v>
       </c>
-      <c r="G63" s="89" t="s">
+      <c r="G63" s="77" t="s">
         <v>49</v>
       </c>
       <c r="H63" s="5" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="I63" s="29"/>
       <c r="J63" s="28"/>
@@ -2267,7 +2259,7 @@
       <c r="D64" s="51"/>
       <c r="E64" s="51"/>
       <c r="F64" s="36"/>
-      <c r="G64" s="90">
+      <c r="G64" s="78">
         <v>81359524067</v>
       </c>
       <c r="H64" s="7"/>
@@ -2281,7 +2273,7 @@
       <c r="D65" s="9"/>
       <c r="E65" s="9"/>
       <c r="F65" s="52"/>
-      <c r="G65" s="91"/>
+      <c r="G65" s="79"/>
       <c r="H65" s="9"/>
       <c r="I65" s="62"/>
       <c r="J65" s="27"/>
@@ -2296,8 +2288,8 @@
       <c r="C66" s="4">
         <v>40</v>
       </c>
-      <c r="D66" s="5" t="s">
-        <v>53</v>
+      <c r="D66" s="24">
+        <v>44453</v>
       </c>
       <c r="E66" s="24">
         <v>44510</v>
@@ -2305,9 +2297,11 @@
       <c r="F66" s="56" t="s">
         <v>43</v>
       </c>
-      <c r="G66" s="89"/>
+      <c r="G66" s="77" t="s">
+        <v>25</v>
+      </c>
       <c r="H66" s="5" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="I66" s="29"/>
       <c r="J66" s="28"/>
@@ -2319,7 +2313,9 @@
       <c r="D67" s="51"/>
       <c r="E67" s="51"/>
       <c r="F67" s="36"/>
-      <c r="G67" s="90"/>
+      <c r="G67" s="78">
+        <v>82319844744</v>
+      </c>
       <c r="H67" s="7"/>
       <c r="I67" s="30"/>
       <c r="J67" s="26"/>
@@ -2331,7 +2327,7 @@
       <c r="D68" s="9"/>
       <c r="E68" s="9"/>
       <c r="F68" s="52"/>
-      <c r="G68" s="91"/>
+      <c r="G68" s="79"/>
       <c r="H68" s="9"/>
       <c r="I68" s="62"/>
       <c r="J68" s="27"/>
@@ -2357,7 +2353,7 @@
   <dimension ref="A1:J17"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="C20" sqref="C20"/>
+      <selection activeCell="D35" sqref="D35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -2376,46 +2372,46 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="18" x14ac:dyDescent="0.25">
-      <c r="A1" s="80" t="s">
+      <c r="A1" s="90" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="80" t="s">
+      <c r="B1" s="90" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="80" t="s">
+      <c r="C1" s="90" t="s">
         <v>27</v>
       </c>
-      <c r="D1" s="80" t="s">
+      <c r="D1" s="90" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="82" t="s">
+      <c r="E1" s="92" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="82"/>
-      <c r="G1" s="80" t="s">
+      <c r="F1" s="92"/>
+      <c r="G1" s="90" t="s">
         <v>4</v>
       </c>
-      <c r="H1" s="78" t="s">
+      <c r="H1" s="88" t="s">
         <v>8</v>
       </c>
-      <c r="I1" s="73" t="s">
-        <v>58</v>
-      </c>
-      <c r="J1" s="73"/>
+      <c r="I1" s="81" t="s">
+        <v>57</v>
+      </c>
+      <c r="J1" s="81"/>
     </row>
     <row r="2" spans="1:10" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="81"/>
-      <c r="B2" s="81"/>
-      <c r="C2" s="81"/>
-      <c r="D2" s="81"/>
+      <c r="A2" s="91"/>
+      <c r="B2" s="91"/>
+      <c r="C2" s="91"/>
+      <c r="D2" s="91"/>
       <c r="E2" s="19" t="s">
         <v>6</v>
       </c>
       <c r="F2" s="19" t="s">
         <v>7</v>
       </c>
-      <c r="G2" s="81"/>
-      <c r="H2" s="79"/>
+      <c r="G2" s="91"/>
+      <c r="H2" s="89"/>
       <c r="I2" s="17" t="s">
         <v>6</v>
       </c>
@@ -2437,22 +2433,22 @@
         <v>44218</v>
       </c>
       <c r="E3" s="45" t="s">
+        <v>86</v>
+      </c>
+      <c r="F3" s="48" t="s">
+        <v>89</v>
+      </c>
+      <c r="G3" s="47" t="s">
         <v>87</v>
       </c>
-      <c r="F3" s="48" t="s">
-        <v>90</v>
-      </c>
-      <c r="G3" s="47" t="s">
-        <v>88</v>
-      </c>
       <c r="H3" s="43" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="I3" s="68">
         <v>44251</v>
       </c>
       <c r="J3" s="70" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.2">
@@ -2495,22 +2491,22 @@
         <v>44218</v>
       </c>
       <c r="E6" s="14" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="F6" s="39" t="s">
+        <v>89</v>
+      </c>
+      <c r="G6" s="34" t="s">
+        <v>88</v>
+      </c>
+      <c r="H6" s="5" t="s">
         <v>90</v>
-      </c>
-      <c r="G6" s="34" t="s">
-        <v>89</v>
-      </c>
-      <c r="H6" s="5" t="s">
-        <v>91</v>
       </c>
       <c r="I6" s="68">
         <v>44251</v>
       </c>
       <c r="J6" s="65" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.2">
@@ -2550,7 +2546,7 @@
         <v>15</v>
       </c>
       <c r="D9" s="14" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="E9" s="72" t="s">
         <v>40</v>
@@ -2559,16 +2555,16 @@
         <v>44440</v>
       </c>
       <c r="G9" s="32" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="H9" s="7" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="I9" s="69" t="s">
+        <v>97</v>
+      </c>
+      <c r="J9" s="65" t="s">
         <v>98</v>
-      </c>
-      <c r="J9" s="65" t="s">
-        <v>99</v>
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.2">
@@ -2608,7 +2604,7 @@
         <v>15</v>
       </c>
       <c r="D12" s="14" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="E12" s="72" t="s">
         <v>40</v>
@@ -2617,16 +2613,16 @@
         <v>44440</v>
       </c>
       <c r="G12" s="32" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="H12" s="7" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="I12" s="69" t="s">
+        <v>97</v>
+      </c>
+      <c r="J12" s="65" t="s">
         <v>98</v>
-      </c>
-      <c r="J12" s="65" t="s">
-        <v>99</v>
       </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.2">
@@ -2657,22 +2653,22 @@
         <v>32</v>
       </c>
       <c r="E14" s="14" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="F14" s="57" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="G14" s="57" t="s">
         <v>38</v>
       </c>
       <c r="H14" s="10" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="I14" s="64">
         <v>44287</v>
       </c>
       <c r="J14" s="65" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.2">

--- a/RENCANA BON VOYAGE.xlsx
+++ b/RENCANA BON VOYAGE.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Mapan\progress\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{92B7DC1B-29A6-490F-B7EC-398300F04028}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{76CCF953-0EE4-488B-BF30-8E9F0AD1E56F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1057,8 +1057,8 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:J68"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A28" zoomScale="85" zoomScaleNormal="85" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="D61" sqref="D61"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="G28" sqref="G28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1471,7 +1471,9 @@
       <c r="H21" s="5" t="s">
         <v>73</v>
       </c>
-      <c r="I21" s="29"/>
+      <c r="I21" s="64">
+        <v>44449</v>
+      </c>
       <c r="J21" s="28"/>
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.2">
@@ -1523,7 +1525,9 @@
       <c r="H24" s="5" t="s">
         <v>74</v>
       </c>
-      <c r="I24" s="29"/>
+      <c r="I24" s="64">
+        <v>44449</v>
+      </c>
       <c r="J24" s="28"/>
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.2">
@@ -1900,7 +1904,7 @@
       <c r="C45" s="4">
         <v>33</v>
       </c>
-      <c r="D45" s="21" t="s">
+      <c r="D45" s="14" t="s">
         <v>85</v>
       </c>
       <c r="E45" s="24" t="s">
@@ -1915,7 +1919,9 @@
       <c r="H45" s="5" t="s">
         <v>78</v>
       </c>
-      <c r="I45" s="29"/>
+      <c r="I45" s="64">
+        <v>44449</v>
+      </c>
       <c r="J45" s="28"/>
     </row>
     <row r="46" spans="1:10" x14ac:dyDescent="0.2">
@@ -2350,10 +2356,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{278BA1B3-1491-4141-B637-9082C53CD422}">
-  <dimension ref="A1:J17"/>
+  <dimension ref="A1:J18"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="D35" sqref="D35"/>
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -2640,74 +2646,86 @@
       <c r="J13" s="26"/>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A14" s="25">
+      <c r="A14" s="7"/>
+      <c r="B14" s="11"/>
+      <c r="C14" s="11"/>
+      <c r="D14" s="7"/>
+      <c r="E14" s="20"/>
+      <c r="F14" s="32"/>
+      <c r="G14" s="32"/>
+      <c r="H14" s="7"/>
+      <c r="I14" s="30"/>
+      <c r="J14" s="26"/>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A15" s="25">
         <v>20</v>
       </c>
-      <c r="B14" s="10" t="s">
+      <c r="B15" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="C14" s="10">
+      <c r="C15" s="10">
         <v>27</v>
       </c>
-      <c r="D14" s="14" t="s">
+      <c r="D15" s="14" t="s">
         <v>32</v>
       </c>
-      <c r="E14" s="14" t="s">
+      <c r="E15" s="14" t="s">
         <v>56</v>
       </c>
-      <c r="F14" s="57" t="s">
+      <c r="F15" s="57" t="s">
         <v>64</v>
       </c>
-      <c r="G14" s="57" t="s">
+      <c r="G15" s="57" t="s">
         <v>38</v>
       </c>
-      <c r="H14" s="10" t="s">
+      <c r="H15" s="10" t="s">
         <v>79</v>
       </c>
-      <c r="I14" s="64">
+      <c r="I15" s="64">
         <v>44287</v>
       </c>
-      <c r="J14" s="65" t="s">
+      <c r="J15" s="65" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A15" s="20"/>
-      <c r="B15" s="15"/>
-      <c r="C15" s="15"/>
-      <c r="D15" s="20"/>
-      <c r="E15" s="20"/>
-      <c r="F15" s="15"/>
-      <c r="G15" s="58">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A16" s="20"/>
+      <c r="B16" s="15"/>
+      <c r="C16" s="15"/>
+      <c r="D16" s="20"/>
+      <c r="E16" s="20"/>
+      <c r="F16" s="15"/>
+      <c r="G16" s="58">
         <v>82170697118</v>
       </c>
-      <c r="H15" s="15"/>
-      <c r="I15" s="30"/>
-      <c r="J15" s="26"/>
-    </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A16" s="9"/>
-      <c r="B16" s="12"/>
-      <c r="C16" s="12"/>
-      <c r="D16" s="9"/>
-      <c r="E16" s="9"/>
-      <c r="F16" s="12"/>
-      <c r="G16" s="33"/>
-      <c r="H16" s="12"/>
-      <c r="I16" s="62"/>
-      <c r="J16" s="27"/>
+      <c r="H16" s="15"/>
+      <c r="I16" s="30"/>
+      <c r="J16" s="26"/>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A17" s="7"/>
+      <c r="A17" s="9"/>
       <c r="B17" s="12"/>
       <c r="C17" s="12"/>
       <c r="D17" s="9"/>
-      <c r="E17" s="20"/>
-      <c r="F17" s="32"/>
-      <c r="G17" s="32"/>
-      <c r="H17" s="7"/>
-      <c r="I17" s="30"/>
-      <c r="J17" s="26"/>
+      <c r="E17" s="9"/>
+      <c r="F17" s="12"/>
+      <c r="G17" s="33"/>
+      <c r="H17" s="12"/>
+      <c r="I17" s="62"/>
+      <c r="J17" s="27"/>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A18" s="7"/>
+      <c r="B18" s="12"/>
+      <c r="C18" s="12"/>
+      <c r="D18" s="9"/>
+      <c r="E18" s="20"/>
+      <c r="F18" s="32"/>
+      <c r="G18" s="32"/>
+      <c r="H18" s="7"/>
+      <c r="I18" s="30"/>
+      <c r="J18" s="26"/>
     </row>
   </sheetData>
   <mergeCells count="8">

--- a/RENCANA BON VOYAGE.xlsx
+++ b/RENCANA BON VOYAGE.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Mapan\progress\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{76CCF953-0EE4-488B-BF30-8E9F0AD1E56F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{368CA20F-B0A8-4B34-AC64-E28FE467A54A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -18,14 +18,14 @@
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">done!$A$1:$I$2</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">progres!$A$1:$I$40</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">progres!$A$1:$I$43</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="168" uniqueCount="100">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="170" uniqueCount="101">
   <si>
     <t>NO</t>
   </si>
@@ -325,6 +325,9 @@
   </si>
   <si>
     <t>01 OKTOBER</t>
+  </si>
+  <si>
+    <t>ETO</t>
   </si>
 </sst>
 </file>
@@ -1055,10 +1058,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:J68"/>
+  <dimension ref="A1:J74"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="G28" sqref="G28"/>
+      <selection activeCell="D36" sqref="D36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1725,172 +1728,158 @@
       <c r="J35" s="27"/>
     </row>
     <row r="36" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A36" s="25">
+      <c r="A36" s="7">
         <v>16</v>
       </c>
-      <c r="B36" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="C36" s="10">
-        <v>25</v>
-      </c>
-      <c r="D36" s="49">
-        <v>44237</v>
-      </c>
-      <c r="E36" s="53" t="s">
-        <v>34</v>
-      </c>
-      <c r="F36" s="39">
-        <v>44501</v>
-      </c>
-      <c r="G36" s="76" t="s">
-        <v>36</v>
-      </c>
-      <c r="H36" s="25" t="s">
-        <v>70</v>
-      </c>
-      <c r="I36" s="63" t="s">
-        <v>54</v>
-      </c>
-      <c r="J36" s="63" t="s">
-        <v>54</v>
-      </c>
+      <c r="B36" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="C36" s="4">
+        <v>33</v>
+      </c>
+      <c r="D36" s="7"/>
+      <c r="E36" s="7"/>
+      <c r="F36" s="36"/>
+      <c r="G36" s="78"/>
+      <c r="H36" s="7"/>
+      <c r="I36" s="30"/>
+      <c r="J36" s="26"/>
     </row>
     <row r="37" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A37" s="20"/>
-      <c r="B37" s="15"/>
-      <c r="C37" s="15"/>
+      <c r="A37" s="7"/>
+      <c r="B37" s="6"/>
+      <c r="C37" s="11"/>
       <c r="D37" s="7"/>
       <c r="E37" s="7"/>
-      <c r="F37" s="32"/>
-      <c r="G37" s="74">
-        <v>82143316439</v>
-      </c>
-      <c r="H37" s="20"/>
+      <c r="F37" s="36"/>
+      <c r="G37" s="78"/>
+      <c r="H37" s="7"/>
       <c r="I37" s="30"/>
       <c r="J37" s="26"/>
     </row>
     <row r="38" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A38" s="23"/>
-      <c r="B38" s="16"/>
-      <c r="C38" s="16"/>
-      <c r="D38" s="9"/>
-      <c r="E38" s="9"/>
-      <c r="F38" s="33"/>
-      <c r="G38" s="75"/>
-      <c r="H38" s="23"/>
-      <c r="I38" s="62"/>
-      <c r="J38" s="27"/>
+      <c r="A38" s="7"/>
+      <c r="B38" s="6"/>
+      <c r="C38" s="11"/>
+      <c r="D38" s="7"/>
+      <c r="E38" s="7"/>
+      <c r="F38" s="36"/>
+      <c r="G38" s="78"/>
+      <c r="H38" s="7"/>
+      <c r="I38" s="30"/>
+      <c r="J38" s="26"/>
     </row>
     <row r="39" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A39" s="5">
         <v>17</v>
       </c>
-      <c r="B39" s="4" t="s">
+      <c r="B39" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="C39" s="4">
-        <v>26</v>
-      </c>
-      <c r="D39" s="14" t="s">
-        <v>40</v>
-      </c>
-      <c r="E39" s="54">
-        <v>44614</v>
-      </c>
-      <c r="F39" s="39" t="s">
-        <v>62</v>
+      <c r="C39" s="10">
+        <v>25</v>
+      </c>
+      <c r="D39" s="49">
+        <v>44237</v>
+      </c>
+      <c r="E39" s="53" t="s">
+        <v>34</v>
+      </c>
+      <c r="F39" s="39">
+        <v>44501</v>
       </c>
       <c r="G39" s="76" t="s">
-        <v>61</v>
-      </c>
-      <c r="H39" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="H39" s="25" t="s">
         <v>70</v>
       </c>
-      <c r="I39" s="64">
-        <v>44440</v>
-      </c>
-      <c r="J39" s="28"/>
+      <c r="I39" s="63" t="s">
+        <v>54</v>
+      </c>
+      <c r="J39" s="63" t="s">
+        <v>54</v>
+      </c>
     </row>
     <row r="40" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A40" s="7"/>
-      <c r="B40" s="11"/>
-      <c r="C40" s="11"/>
+      <c r="B40" s="15"/>
+      <c r="C40" s="15"/>
       <c r="D40" s="7"/>
-      <c r="E40" s="55"/>
+      <c r="E40" s="7"/>
       <c r="F40" s="32"/>
       <c r="G40" s="74">
-        <v>85732094240</v>
-      </c>
-      <c r="H40" s="7"/>
+        <v>82143316439</v>
+      </c>
+      <c r="H40" s="20"/>
       <c r="I40" s="30"/>
       <c r="J40" s="26"/>
     </row>
     <row r="41" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A41" s="9"/>
-      <c r="B41" s="8"/>
-      <c r="C41" s="8"/>
+      <c r="B41" s="16"/>
+      <c r="C41" s="16"/>
       <c r="D41" s="9"/>
       <c r="E41" s="9"/>
       <c r="F41" s="33"/>
       <c r="G41" s="75"/>
-      <c r="H41" s="9"/>
+      <c r="H41" s="23"/>
       <c r="I41" s="62"/>
       <c r="J41" s="27"/>
     </row>
     <row r="42" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A42" s="25">
+      <c r="A42" s="7">
         <v>18</v>
       </c>
-      <c r="B42" s="10" t="s">
-        <v>14</v>
-      </c>
-      <c r="C42" s="10">
-        <v>32</v>
+      <c r="B42" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C42" s="4">
+        <v>26</v>
       </c>
       <c r="D42" s="14" t="s">
-        <v>31</v>
-      </c>
-      <c r="E42" s="21" t="s">
-        <v>56</v>
-      </c>
-      <c r="F42" s="34" t="s">
-        <v>63</v>
+        <v>40</v>
+      </c>
+      <c r="E42" s="54">
+        <v>44614</v>
+      </c>
+      <c r="F42" s="39" t="s">
+        <v>62</v>
       </c>
       <c r="G42" s="76" t="s">
-        <v>24</v>
-      </c>
-      <c r="H42" s="25" t="s">
-        <v>77</v>
-      </c>
-      <c r="I42" s="63" t="s">
-        <v>54</v>
+        <v>61</v>
+      </c>
+      <c r="H42" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="I42" s="64">
+        <v>44440</v>
       </c>
       <c r="J42" s="28"/>
     </row>
     <row r="43" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A43" s="20"/>
-      <c r="B43" s="15"/>
-      <c r="C43" s="15"/>
+      <c r="A43" s="7"/>
+      <c r="B43" s="11"/>
+      <c r="C43" s="11"/>
       <c r="D43" s="7"/>
-      <c r="E43" s="20"/>
+      <c r="E43" s="55"/>
       <c r="F43" s="32"/>
       <c r="G43" s="74">
-        <v>81231558203</v>
-      </c>
-      <c r="H43" s="20"/>
+        <v>85732094240</v>
+      </c>
+      <c r="H43" s="7"/>
       <c r="I43" s="30"/>
       <c r="J43" s="26"/>
     </row>
     <row r="44" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A44" s="23"/>
-      <c r="B44" s="16"/>
-      <c r="C44" s="16"/>
+      <c r="A44" s="7"/>
+      <c r="B44" s="8"/>
+      <c r="C44" s="8"/>
       <c r="D44" s="9"/>
       <c r="E44" s="9"/>
       <c r="F44" s="33"/>
       <c r="G44" s="75"/>
-      <c r="H44" s="23"/>
+      <c r="H44" s="9"/>
       <c r="I44" s="62"/>
       <c r="J44" s="27"/>
     </row>
@@ -1898,85 +1887,85 @@
       <c r="A45" s="5">
         <v>19</v>
       </c>
-      <c r="B45" s="3" t="s">
+      <c r="B45" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="C45" s="4">
-        <v>33</v>
+      <c r="C45" s="10">
+        <v>32</v>
       </c>
       <c r="D45" s="14" t="s">
-        <v>85</v>
-      </c>
-      <c r="E45" s="24" t="s">
-        <v>84</v>
-      </c>
-      <c r="F45" s="56">
-        <v>44510</v>
-      </c>
-      <c r="G45" s="77" t="s">
-        <v>47</v>
-      </c>
-      <c r="H45" s="5" t="s">
-        <v>78</v>
-      </c>
-      <c r="I45" s="64">
-        <v>44449</v>
+        <v>31</v>
+      </c>
+      <c r="E45" s="21" t="s">
+        <v>56</v>
+      </c>
+      <c r="F45" s="34" t="s">
+        <v>63</v>
+      </c>
+      <c r="G45" s="76" t="s">
+        <v>24</v>
+      </c>
+      <c r="H45" s="25" t="s">
+        <v>77</v>
+      </c>
+      <c r="I45" s="63" t="s">
+        <v>54</v>
       </c>
       <c r="J45" s="28"/>
     </row>
     <row r="46" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A46" s="7"/>
-      <c r="B46" s="6"/>
-      <c r="C46" s="11"/>
-      <c r="D46" s="51"/>
-      <c r="E46" s="51"/>
-      <c r="F46" s="36"/>
-      <c r="G46" s="78">
-        <v>81331430509</v>
-      </c>
-      <c r="H46" s="7"/>
+      <c r="B46" s="15"/>
+      <c r="C46" s="15"/>
+      <c r="D46" s="7"/>
+      <c r="E46" s="20"/>
+      <c r="F46" s="32"/>
+      <c r="G46" s="74">
+        <v>81231558203</v>
+      </c>
+      <c r="H46" s="20"/>
       <c r="I46" s="30"/>
       <c r="J46" s="26"/>
     </row>
     <row r="47" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A47" s="9"/>
-      <c r="B47" s="8"/>
-      <c r="C47" s="12"/>
+      <c r="B47" s="16"/>
+      <c r="C47" s="16"/>
       <c r="D47" s="9"/>
       <c r="E47" s="9"/>
-      <c r="F47" s="52"/>
-      <c r="G47" s="79"/>
-      <c r="H47" s="9"/>
+      <c r="F47" s="33"/>
+      <c r="G47" s="75"/>
+      <c r="H47" s="23"/>
       <c r="I47" s="62"/>
       <c r="J47" s="27"/>
     </row>
     <row r="48" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A48" s="5">
-        <v>21</v>
+      <c r="A48" s="7">
+        <v>20</v>
       </c>
       <c r="B48" s="3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C48" s="4">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="D48" s="14" t="s">
-        <v>41</v>
-      </c>
-      <c r="E48" s="24">
+        <v>85</v>
+      </c>
+      <c r="E48" s="24" t="s">
+        <v>84</v>
+      </c>
+      <c r="F48" s="56">
         <v>44510</v>
       </c>
-      <c r="F48" s="56" t="s">
-        <v>43</v>
-      </c>
       <c r="G48" s="77" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="H48" s="5" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="I48" s="64">
-        <v>44440</v>
+        <v>44449</v>
       </c>
       <c r="J48" s="28"/>
     </row>
@@ -1988,14 +1977,14 @@
       <c r="E49" s="51"/>
       <c r="F49" s="36"/>
       <c r="G49" s="78">
-        <v>85649115380</v>
+        <v>81331430509</v>
       </c>
       <c r="H49" s="7"/>
       <c r="I49" s="30"/>
       <c r="J49" s="26"/>
     </row>
     <row r="50" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A50" s="9"/>
+      <c r="A50" s="7"/>
       <c r="B50" s="8"/>
       <c r="C50" s="12"/>
       <c r="D50" s="9"/>
@@ -2007,67 +1996,67 @@
       <c r="J50" s="27"/>
     </row>
     <row r="51" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A51" s="25">
-        <v>18</v>
-      </c>
-      <c r="B51" s="10" t="s">
-        <v>16</v>
-      </c>
-      <c r="C51" s="10">
-        <v>38</v>
-      </c>
-      <c r="D51" s="49">
-        <v>44253</v>
-      </c>
-      <c r="E51" s="21" t="s">
-        <v>33</v>
-      </c>
-      <c r="F51" s="34" t="s">
-        <v>17</v>
-      </c>
-      <c r="G51" s="76" t="s">
-        <v>37</v>
-      </c>
-      <c r="H51" s="25" t="s">
-        <v>74</v>
+      <c r="A51" s="5">
+        <v>21</v>
+      </c>
+      <c r="B51" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="C51" s="4">
+        <v>28</v>
+      </c>
+      <c r="D51" s="14" t="s">
+        <v>41</v>
+      </c>
+      <c r="E51" s="24">
+        <v>44510</v>
+      </c>
+      <c r="F51" s="56" t="s">
+        <v>43</v>
+      </c>
+      <c r="G51" s="77" t="s">
+        <v>42</v>
+      </c>
+      <c r="H51" s="5" t="s">
+        <v>80</v>
       </c>
       <c r="I51" s="64">
-        <v>44246</v>
+        <v>44440</v>
       </c>
       <c r="J51" s="28"/>
     </row>
     <row r="52" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A52" s="20"/>
-      <c r="B52" s="15"/>
-      <c r="C52" s="15"/>
-      <c r="D52" s="6"/>
-      <c r="E52" s="20"/>
-      <c r="F52" s="32"/>
-      <c r="G52" s="74">
-        <v>81318154783</v>
-      </c>
-      <c r="H52" s="20"/>
+      <c r="A52" s="7"/>
+      <c r="B52" s="6"/>
+      <c r="C52" s="11"/>
+      <c r="D52" s="51"/>
+      <c r="E52" s="51"/>
+      <c r="F52" s="36"/>
+      <c r="G52" s="78">
+        <v>85649115380</v>
+      </c>
+      <c r="H52" s="7"/>
       <c r="I52" s="30"/>
       <c r="J52" s="26"/>
     </row>
     <row r="53" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A53" s="23"/>
-      <c r="B53" s="59"/>
-      <c r="C53" s="59"/>
+      <c r="A53" s="9"/>
+      <c r="B53" s="8"/>
+      <c r="C53" s="12"/>
       <c r="D53" s="9"/>
       <c r="E53" s="9"/>
-      <c r="F53" s="33"/>
-      <c r="G53" s="75"/>
-      <c r="H53" s="23"/>
-      <c r="I53" s="27"/>
+      <c r="F53" s="52"/>
+      <c r="G53" s="79"/>
+      <c r="H53" s="9"/>
+      <c r="I53" s="62"/>
       <c r="J53" s="27"/>
     </row>
     <row r="54" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A54" s="25">
-        <v>19</v>
+      <c r="A54" s="7">
+        <v>22</v>
       </c>
       <c r="B54" s="10" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C54" s="10">
         <v>38</v>
@@ -2076,16 +2065,16 @@
         <v>44253</v>
       </c>
       <c r="E54" s="21" t="s">
-        <v>60</v>
+        <v>33</v>
       </c>
       <c r="F54" s="34" t="s">
         <v>17</v>
       </c>
       <c r="G54" s="76" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="H54" s="25" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="I54" s="64">
         <v>44246</v>
@@ -2093,21 +2082,21 @@
       <c r="J54" s="28"/>
     </row>
     <row r="55" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A55" s="20"/>
+      <c r="A55" s="7"/>
       <c r="B55" s="15"/>
       <c r="C55" s="15"/>
       <c r="D55" s="6"/>
       <c r="E55" s="20"/>
       <c r="F55" s="32"/>
       <c r="G55" s="74">
-        <v>8123929482</v>
+        <v>81318154783</v>
       </c>
       <c r="H55" s="20"/>
       <c r="I55" s="30"/>
       <c r="J55" s="26"/>
     </row>
     <row r="56" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A56" s="23"/>
+      <c r="A56" s="7"/>
       <c r="B56" s="59"/>
       <c r="C56" s="59"/>
       <c r="D56" s="9"/>
@@ -2120,66 +2109,66 @@
     </row>
     <row r="57" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A57" s="5">
-        <v>20</v>
-      </c>
-      <c r="B57" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="C57" s="4">
+        <v>23</v>
+      </c>
+      <c r="B57" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="C57" s="10">
+        <v>38</v>
+      </c>
+      <c r="D57" s="49">
+        <v>44253</v>
+      </c>
+      <c r="E57" s="21" t="s">
+        <v>60</v>
+      </c>
+      <c r="F57" s="34" t="s">
+        <v>17</v>
+      </c>
+      <c r="G57" s="76" t="s">
         <v>39</v>
       </c>
-      <c r="D57" s="14" t="s">
-        <v>28</v>
-      </c>
-      <c r="E57" s="21" t="s">
-        <v>58</v>
-      </c>
-      <c r="F57" s="39">
-        <v>44444</v>
-      </c>
-      <c r="G57" s="76" t="s">
-        <v>25</v>
-      </c>
-      <c r="H57" s="5" t="s">
-        <v>77</v>
-      </c>
-      <c r="I57" s="63" t="s">
-        <v>54</v>
+      <c r="H57" s="25" t="s">
+        <v>70</v>
+      </c>
+      <c r="I57" s="64">
+        <v>44246</v>
       </c>
       <c r="J57" s="28"/>
     </row>
     <row r="58" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A58" s="7"/>
-      <c r="B58" s="11"/>
-      <c r="C58" s="11"/>
-      <c r="D58" s="7"/>
-      <c r="E58" s="7"/>
+      <c r="B58" s="15"/>
+      <c r="C58" s="15"/>
+      <c r="D58" s="6"/>
+      <c r="E58" s="20"/>
       <c r="F58" s="32"/>
       <c r="G58" s="74">
-        <v>81331414130</v>
-      </c>
-      <c r="H58" s="7"/>
-      <c r="I58" s="26"/>
+        <v>8123929482</v>
+      </c>
+      <c r="H58" s="20"/>
+      <c r="I58" s="30"/>
       <c r="J58" s="26"/>
     </row>
     <row r="59" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A59" s="9"/>
-      <c r="B59" s="12"/>
-      <c r="C59" s="12"/>
+      <c r="B59" s="59"/>
+      <c r="C59" s="59"/>
       <c r="D59" s="9"/>
       <c r="E59" s="9"/>
       <c r="F59" s="33"/>
       <c r="G59" s="75"/>
-      <c r="H59" s="9"/>
+      <c r="H59" s="23"/>
       <c r="I59" s="27"/>
       <c r="J59" s="27"/>
     </row>
     <row r="60" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A60" s="5">
-        <v>21</v>
+      <c r="A60" s="7">
+        <v>24</v>
       </c>
       <c r="B60" s="4" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C60" s="4">
         <v>39</v>
@@ -2194,10 +2183,10 @@
         <v>44444</v>
       </c>
       <c r="G60" s="76" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="H60" s="5" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="I60" s="63" t="s">
         <v>54</v>
@@ -2212,14 +2201,14 @@
       <c r="E61" s="7"/>
       <c r="F61" s="32"/>
       <c r="G61" s="74">
-        <v>81252283477</v>
+        <v>81331414130</v>
       </c>
       <c r="H61" s="7"/>
       <c r="I61" s="26"/>
       <c r="J61" s="26"/>
     </row>
     <row r="62" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A62" s="9"/>
+      <c r="A62" s="7"/>
       <c r="B62" s="12"/>
       <c r="C62" s="12"/>
       <c r="D62" s="9"/>
@@ -2232,64 +2221,66 @@
     </row>
     <row r="63" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A63" s="5">
-        <v>22</v>
-      </c>
-      <c r="B63" s="3" t="s">
-        <v>16</v>
+        <v>25</v>
+      </c>
+      <c r="B63" s="4" t="s">
+        <v>18</v>
       </c>
       <c r="C63" s="4">
-        <v>40</v>
-      </c>
-      <c r="D63" s="24">
-        <v>44453</v>
-      </c>
-      <c r="E63" s="24">
-        <v>44510</v>
-      </c>
-      <c r="F63" s="56" t="s">
-        <v>43</v>
-      </c>
-      <c r="G63" s="77" t="s">
-        <v>49</v>
+        <v>39</v>
+      </c>
+      <c r="D63" s="14" t="s">
+        <v>28</v>
+      </c>
+      <c r="E63" s="21" t="s">
+        <v>58</v>
+      </c>
+      <c r="F63" s="39">
+        <v>44444</v>
+      </c>
+      <c r="G63" s="76" t="s">
+        <v>26</v>
       </c>
       <c r="H63" s="5" t="s">
-        <v>82</v>
-      </c>
-      <c r="I63" s="29"/>
+        <v>81</v>
+      </c>
+      <c r="I63" s="63" t="s">
+        <v>54</v>
+      </c>
       <c r="J63" s="28"/>
     </row>
     <row r="64" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A64" s="7"/>
-      <c r="B64" s="6"/>
+      <c r="B64" s="11"/>
       <c r="C64" s="11"/>
-      <c r="D64" s="51"/>
-      <c r="E64" s="51"/>
-      <c r="F64" s="36"/>
-      <c r="G64" s="78">
-        <v>81359524067</v>
+      <c r="D64" s="7"/>
+      <c r="E64" s="7"/>
+      <c r="F64" s="32"/>
+      <c r="G64" s="74">
+        <v>81252283477</v>
       </c>
       <c r="H64" s="7"/>
-      <c r="I64" s="30"/>
+      <c r="I64" s="26"/>
       <c r="J64" s="26"/>
     </row>
     <row r="65" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A65" s="9"/>
-      <c r="B65" s="8"/>
+      <c r="B65" s="12"/>
       <c r="C65" s="12"/>
       <c r="D65" s="9"/>
       <c r="E65" s="9"/>
-      <c r="F65" s="52"/>
-      <c r="G65" s="79"/>
+      <c r="F65" s="33"/>
+      <c r="G65" s="75"/>
       <c r="H65" s="9"/>
-      <c r="I65" s="62"/>
+      <c r="I65" s="27"/>
       <c r="J65" s="27"/>
     </row>
     <row r="66" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A66" s="5">
-        <v>23</v>
+      <c r="A66" s="7">
+        <v>26</v>
       </c>
       <c r="B66" s="3" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C66" s="4">
         <v>40</v>
@@ -2304,10 +2295,10 @@
         <v>43</v>
       </c>
       <c r="G66" s="77" t="s">
-        <v>25</v>
+        <v>49</v>
       </c>
       <c r="H66" s="5" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="I66" s="29"/>
       <c r="J66" s="28"/>
@@ -2320,14 +2311,14 @@
       <c r="E67" s="51"/>
       <c r="F67" s="36"/>
       <c r="G67" s="78">
-        <v>82319844744</v>
+        <v>81359524067</v>
       </c>
       <c r="H67" s="7"/>
       <c r="I67" s="30"/>
       <c r="J67" s="26"/>
     </row>
     <row r="68" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A68" s="9"/>
+      <c r="A68" s="7"/>
       <c r="B68" s="8"/>
       <c r="C68" s="12"/>
       <c r="D68" s="9"/>
@@ -2337,6 +2328,86 @@
       <c r="H68" s="9"/>
       <c r="I68" s="62"/>
       <c r="J68" s="27"/>
+    </row>
+    <row r="69" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A69" s="5">
+        <v>27</v>
+      </c>
+      <c r="B69" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="C69" s="4">
+        <v>40</v>
+      </c>
+      <c r="D69" s="24">
+        <v>44453</v>
+      </c>
+      <c r="E69" s="24">
+        <v>44510</v>
+      </c>
+      <c r="F69" s="56" t="s">
+        <v>43</v>
+      </c>
+      <c r="G69" s="77" t="s">
+        <v>25</v>
+      </c>
+      <c r="H69" s="5" t="s">
+        <v>83</v>
+      </c>
+      <c r="I69" s="29"/>
+      <c r="J69" s="28"/>
+    </row>
+    <row r="70" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A70" s="7"/>
+      <c r="B70" s="6"/>
+      <c r="C70" s="11"/>
+      <c r="D70" s="51"/>
+      <c r="E70" s="51"/>
+      <c r="F70" s="36"/>
+      <c r="G70" s="78">
+        <v>82319844744</v>
+      </c>
+      <c r="H70" s="7"/>
+      <c r="I70" s="30"/>
+      <c r="J70" s="26"/>
+    </row>
+    <row r="71" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A71" s="9"/>
+      <c r="B71" s="8"/>
+      <c r="C71" s="12"/>
+      <c r="D71" s="9"/>
+      <c r="E71" s="9"/>
+      <c r="F71" s="52"/>
+      <c r="G71" s="79"/>
+      <c r="H71" s="9"/>
+      <c r="I71" s="62"/>
+      <c r="J71" s="27"/>
+    </row>
+    <row r="72" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A72" s="7">
+        <v>28</v>
+      </c>
+      <c r="B72" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="C72" s="2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="73" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A73" s="7"/>
+    </row>
+    <row r="74" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A74" s="9"/>
+      <c r="B74" s="8"/>
+      <c r="C74" s="8"/>
+      <c r="D74" s="9"/>
+      <c r="E74" s="9"/>
+      <c r="F74" s="33"/>
+      <c r="G74" s="75"/>
+      <c r="H74" s="9"/>
+      <c r="I74" s="62"/>
+      <c r="J74" s="27"/>
     </row>
   </sheetData>
   <mergeCells count="8">

--- a/RENCANA BON VOYAGE.xlsx
+++ b/RENCANA BON VOYAGE.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Mapan\progress\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{368CA20F-B0A8-4B34-AC64-E28FE467A54A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3EDAD6CF-35FF-463D-B948-FDCC18DC7DDD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -18,14 +18,14 @@
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">done!$A$1:$I$2</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">progres!$A$1:$I$43</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">progres!$A$1:$I$34</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="170" uniqueCount="101">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="195" uniqueCount="112">
   <si>
     <t>NO</t>
   </si>
@@ -324,10 +324,43 @@
     <t>12 juni</t>
   </si>
   <si>
-    <t>01 OKTOBER</t>
-  </si>
-  <si>
     <t>ETO</t>
+  </si>
+  <si>
+    <t>20 SEPT</t>
+  </si>
+  <si>
+    <t>SUKMADIANTO</t>
+  </si>
+  <si>
+    <t>081321297520</t>
+  </si>
+  <si>
+    <t>DICKY</t>
+  </si>
+  <si>
+    <t>29 ORG</t>
+  </si>
+  <si>
+    <t>04 MARET 22</t>
+  </si>
+  <si>
+    <t>07 OKT</t>
+  </si>
+  <si>
+    <t>9 ORG</t>
+  </si>
+  <si>
+    <t>DEO</t>
+  </si>
+  <si>
+    <t>BONVOYAGE</t>
+  </si>
+  <si>
+    <t>23 SEPT</t>
+  </si>
+  <si>
+    <t>01 OKT</t>
   </si>
 </sst>
 </file>
@@ -366,18 +399,12 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
-        <bgColor indexed="64"/>
-      </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -392,7 +419,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="6">
+  <borders count="7">
     <border>
       <left/>
       <right/>
@@ -449,11 +476,20 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="93">
+  <cellXfs count="97">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -486,7 +522,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -505,9 +541,6 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="15" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -529,9 +562,6 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
@@ -577,9 +607,6 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -589,9 +616,6 @@
     <xf numFmtId="15" fontId="2" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" indent="2"/>
     </xf>
-    <xf numFmtId="16" fontId="2" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="16" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -601,7 +625,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="2"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="15" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -620,43 +644,40 @@
       <alignment horizontal="left" indent="2"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" indent="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="16" fontId="2" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="16" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" indent="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="16" fontId="2" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="16" fontId="2" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="16" fontId="2" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="16" fontId="2" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="164" fontId="2" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -683,6 +704,21 @@
     <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" indent="2"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="15" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" indent="2"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -716,8 +752,20 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="16" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="16" fontId="2" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="16" fontId="2" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -734,6 +782,195 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>273113</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>178059</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>273473</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>178419</xdr:rowOff>
+    </xdr:to>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
+        <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+          <xdr14:nvContentPartPr>
+            <xdr14:cNvPr id="2" name="Ink 1">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{56FE5F31-2029-442B-BB69-AC628D2360E0}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr14:cNvPr>
+            <xdr14:cNvContentPartPr/>
+          </xdr14:nvContentPartPr>
+          <xdr14:nvPr macro=""/>
+          <xdr14:xfrm>
+            <a:off x="1886760" y="2733000"/>
+            <a:ext cx="360" cy="360"/>
+          </xdr14:xfrm>
+        </xdr:contentPart>
+      </mc:Choice>
+      <mc:Fallback xmlns="">
+        <xdr:pic>
+          <xdr:nvPicPr>
+            <xdr:cNvPr id="2" name="Ink 1">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{56FE5F31-2029-442B-BB69-AC628D2360E0}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvPicPr/>
+          </xdr:nvPicPr>
+          <xdr:blipFill>
+            <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+            <a:stretch>
+              <a:fillRect/>
+            </a:stretch>
+          </xdr:blipFill>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="1877760" y="2724000"/>
+              <a:ext cx="18000" cy="18000"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+          </xdr:spPr>
+        </xdr:pic>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>189939</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>89245</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>190299</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>89605</xdr:rowOff>
+    </xdr:to>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
+        <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3">
+          <xdr14:nvContentPartPr>
+            <xdr14:cNvPr id="4" name="Ink 3">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{14E7025F-E45F-427C-A8C7-1EBEFB539DC0}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr14:cNvPr>
+            <xdr14:cNvContentPartPr/>
+          </xdr14:nvContentPartPr>
+          <xdr14:nvPr macro=""/>
+          <xdr14:xfrm>
+            <a:off x="12269880" y="5871480"/>
+            <a:ext cx="360" cy="360"/>
+          </xdr14:xfrm>
+        </xdr:contentPart>
+      </mc:Choice>
+      <mc:Fallback xmlns="">
+        <xdr:pic>
+          <xdr:nvPicPr>
+            <xdr:cNvPr id="4" name="Ink 3">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{14E7025F-E45F-427C-A8C7-1EBEFB539DC0}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvPicPr/>
+          </xdr:nvPicPr>
+          <xdr:blipFill>
+            <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4"/>
+            <a:stretch>
+              <a:fillRect/>
+            </a:stretch>
+          </xdr:blipFill>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="12260880" y="5862480"/>
+              <a:ext cx="18000" cy="18000"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+          </xdr:spPr>
+        </xdr:pic>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/ink/ink1.xml><?xml version="1.0" encoding="utf-8"?>
+<inkml:ink xmlns:inkml="http://www.w3.org/2003/InkML">
+  <inkml:definitions>
+    <inkml:context xml:id="ctx0">
+      <inkml:inkSource xml:id="inkSrc0">
+        <inkml:traceFormat>
+          <inkml:channel name="X" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
+          <inkml:channel name="Y" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
+          <inkml:channel name="F" type="integer" max="32767" units="dev"/>
+        </inkml:traceFormat>
+        <inkml:channelProperties>
+          <inkml:channelProperty channel="X" name="resolution" value="1000" units="1/cm"/>
+          <inkml:channelProperty channel="Y" name="resolution" value="1000" units="1/cm"/>
+          <inkml:channelProperty channel="F" name="resolution" value="0" units="1/dev"/>
+        </inkml:channelProperties>
+      </inkml:inkSource>
+      <inkml:timestamp xml:id="ts0" timeString="2021-09-23T03:00:59.905"/>
+    </inkml:context>
+    <inkml:brush xml:id="br0">
+      <inkml:brushProperty name="width" value="0.05" units="cm"/>
+      <inkml:brushProperty name="height" value="0.05" units="cm"/>
+    </inkml:brush>
+  </inkml:definitions>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0">0 0 17439</inkml:trace>
+</inkml:ink>
+</file>
+
+<file path=xl/ink/ink2.xml><?xml version="1.0" encoding="utf-8"?>
+<inkml:ink xmlns:inkml="http://www.w3.org/2003/InkML">
+  <inkml:definitions>
+    <inkml:context xml:id="ctx0">
+      <inkml:inkSource xml:id="inkSrc0">
+        <inkml:traceFormat>
+          <inkml:channel name="X" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
+          <inkml:channel name="Y" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
+        </inkml:traceFormat>
+        <inkml:channelProperties>
+          <inkml:channelProperty channel="X" name="resolution" value="1000" units="1/cm"/>
+          <inkml:channelProperty channel="Y" name="resolution" value="1000" units="1/cm"/>
+        </inkml:channelProperties>
+      </inkml:inkSource>
+      <inkml:timestamp xml:id="ts0" timeString="2021-09-23T03:14:42.021"/>
+    </inkml:context>
+    <inkml:brush xml:id="br0">
+      <inkml:brushProperty name="width" value="0.05" units="cm"/>
+      <inkml:brushProperty name="height" value="0.05" units="cm"/>
+      <inkml:brushProperty name="color" value="#E71224"/>
+      <inkml:brushProperty name="ignorePressure" value="1"/>
+    </inkml:brush>
+  </inkml:definitions>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0">0 0,'0'0</inkml:trace>
+</inkml:ink>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1058,24 +1295,24 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:J74"/>
+  <dimension ref="A1:J50"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="D36" sqref="D36"/>
+      <selection activeCell="D1" sqref="D1:E1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="5.28515625" style="2" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="9" style="2" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="15.140625" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="9.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="18.42578125" style="2" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="17" style="2" customWidth="1"/>
     <col min="5" max="5" width="18.42578125" style="2" customWidth="1"/>
-    <col min="6" max="6" width="18.140625" style="37" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="21.5703125" style="80" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="18.140625" style="35" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="21.5703125" style="75" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="9.7109375" style="2" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="10.42578125" style="66" customWidth="1"/>
-    <col min="10" max="10" width="14" style="31" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="10.42578125" style="61" customWidth="1"/>
+    <col min="10" max="10" width="14" style="29" bestFit="1" customWidth="1"/>
     <col min="11" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
@@ -1128,34 +1365,34 @@
       </c>
     </row>
     <row r="3" spans="1:10" ht="15" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="43">
-        <v>3</v>
-      </c>
-      <c r="B3" s="44" t="s">
+      <c r="A3" s="5">
+        <v>1</v>
+      </c>
+      <c r="B3" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="C3" s="44">
-        <v>9</v>
-      </c>
-      <c r="D3" s="45" t="s">
-        <v>29</v>
-      </c>
-      <c r="E3" s="46" t="s">
-        <v>50</v>
-      </c>
-      <c r="F3" s="48">
-        <v>44444</v>
-      </c>
-      <c r="G3" s="73" t="s">
-        <v>19</v>
-      </c>
-      <c r="H3" s="43" t="s">
-        <v>67</v>
-      </c>
-      <c r="I3" s="60" t="s">
-        <v>54</v>
-      </c>
-      <c r="J3" s="61"/>
+      <c r="C3" s="4">
+        <v>10</v>
+      </c>
+      <c r="D3" s="95" t="s">
+        <v>110</v>
+      </c>
+      <c r="E3" s="21">
+        <v>44520</v>
+      </c>
+      <c r="F3" s="37" t="s">
+        <v>53</v>
+      </c>
+      <c r="G3" s="71" t="s">
+        <v>51</v>
+      </c>
+      <c r="H3" s="5" t="s">
+        <v>69</v>
+      </c>
+      <c r="I3" s="76" t="s">
+        <v>100</v>
+      </c>
+      <c r="J3" s="27"/>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A4" s="7"/>
@@ -1163,55 +1400,55 @@
       <c r="C4" s="11"/>
       <c r="D4" s="20"/>
       <c r="E4" s="20"/>
-      <c r="F4" s="32"/>
-      <c r="G4" s="74">
-        <v>81228196787</v>
+      <c r="F4" s="30"/>
+      <c r="G4" s="69">
+        <v>81331434743</v>
       </c>
       <c r="H4" s="7"/>
-      <c r="I4" s="30"/>
-      <c r="J4" s="26"/>
+      <c r="I4" s="28"/>
+      <c r="J4" s="25"/>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A5" s="9"/>
       <c r="B5" s="12"/>
       <c r="C5" s="12"/>
-      <c r="D5" s="9"/>
-      <c r="E5" s="9"/>
-      <c r="F5" s="33"/>
-      <c r="G5" s="75"/>
+      <c r="D5" s="22"/>
+      <c r="E5" s="22"/>
+      <c r="F5" s="31"/>
+      <c r="G5" s="70"/>
       <c r="H5" s="9"/>
-      <c r="I5" s="62"/>
-      <c r="J5" s="27"/>
+      <c r="I5" s="57"/>
+      <c r="J5" s="26"/>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A6" s="5">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B6" s="4" t="s">
         <v>9</v>
       </c>
       <c r="C6" s="4">
-        <v>9</v>
-      </c>
-      <c r="D6" s="14" t="s">
-        <v>29</v>
-      </c>
-      <c r="E6" s="21" t="s">
-        <v>50</v>
-      </c>
-      <c r="F6" s="39">
-        <v>44444</v>
-      </c>
-      <c r="G6" s="76" t="s">
-        <v>20</v>
+        <v>10</v>
+      </c>
+      <c r="D6" s="95" t="s">
+        <v>110</v>
+      </c>
+      <c r="E6" s="21">
+        <v>44520</v>
+      </c>
+      <c r="F6" s="37" t="s">
+        <v>53</v>
+      </c>
+      <c r="G6" s="71" t="s">
+        <v>101</v>
       </c>
       <c r="H6" s="5" t="s">
-        <v>68</v>
-      </c>
-      <c r="I6" s="63" t="s">
-        <v>54</v>
-      </c>
-      <c r="J6" s="28"/>
+        <v>70</v>
+      </c>
+      <c r="I6" s="76" t="s">
+        <v>100</v>
+      </c>
+      <c r="J6" s="27"/>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A7" s="7"/>
@@ -1219,1195 +1456,797 @@
       <c r="C7" s="11"/>
       <c r="D7" s="20"/>
       <c r="E7" s="20"/>
-      <c r="F7" s="32"/>
-      <c r="G7" s="74">
-        <v>81225736355</v>
+      <c r="F7" s="30"/>
+      <c r="G7" s="77" t="s">
+        <v>102</v>
       </c>
       <c r="H7" s="7"/>
-      <c r="I7" s="30"/>
-      <c r="J7" s="26"/>
+      <c r="I7" s="28"/>
+      <c r="J7" s="25"/>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A8" s="9"/>
       <c r="B8" s="12"/>
       <c r="C8" s="12"/>
-      <c r="D8" s="9"/>
-      <c r="E8" s="9"/>
-      <c r="F8" s="33"/>
-      <c r="G8" s="75"/>
+      <c r="D8" s="22"/>
+      <c r="E8" s="22"/>
+      <c r="F8" s="31"/>
+      <c r="G8" s="70"/>
       <c r="H8" s="9"/>
-      <c r="I8" s="62"/>
-      <c r="J8" s="27"/>
+      <c r="I8" s="57"/>
+      <c r="J8" s="26"/>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A9" s="5">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="C9" s="4">
-        <v>10</v>
-      </c>
-      <c r="D9" s="40"/>
-      <c r="E9" s="22">
+        <v>16</v>
+      </c>
+      <c r="D9" s="14" t="s">
+        <v>30</v>
+      </c>
+      <c r="E9" s="38">
+        <v>44501</v>
+      </c>
+      <c r="F9" s="37">
         <v>44520</v>
       </c>
-      <c r="F9" s="39" t="s">
-        <v>53</v>
-      </c>
-      <c r="G9" s="76" t="s">
-        <v>51</v>
+      <c r="G9" s="71" t="s">
+        <v>21</v>
       </c>
       <c r="H9" s="5" t="s">
-        <v>69</v>
-      </c>
-      <c r="I9" s="29"/>
-      <c r="J9" s="28"/>
+        <v>71</v>
+      </c>
+      <c r="I9" s="58" t="s">
+        <v>54</v>
+      </c>
+      <c r="J9" s="27"/>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A10" s="7"/>
       <c r="B10" s="11"/>
       <c r="C10" s="11"/>
-      <c r="D10" s="20"/>
-      <c r="E10" s="20"/>
-      <c r="F10" s="32"/>
-      <c r="G10" s="74">
-        <v>81331434743</v>
+      <c r="D10" s="7"/>
+      <c r="E10" s="39"/>
+      <c r="F10" s="36"/>
+      <c r="G10" s="69">
+        <v>81232989078</v>
       </c>
       <c r="H10" s="7"/>
-      <c r="I10" s="30"/>
-      <c r="J10" s="26"/>
+      <c r="I10" s="28"/>
+      <c r="J10" s="25"/>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A11" s="9"/>
       <c r="B11" s="12"/>
       <c r="C11" s="12"/>
-      <c r="D11" s="23"/>
-      <c r="E11" s="23"/>
-      <c r="F11" s="33"/>
-      <c r="G11" s="75"/>
+      <c r="D11" s="9"/>
+      <c r="E11" s="9"/>
+      <c r="F11" s="40"/>
+      <c r="G11" s="70"/>
       <c r="H11" s="9"/>
-      <c r="I11" s="62"/>
-      <c r="J11" s="27"/>
+      <c r="I11" s="57"/>
+      <c r="J11" s="26"/>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A12" s="5">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="C12" s="4">
-        <v>10</v>
-      </c>
-      <c r="D12" s="40"/>
-      <c r="E12" s="22">
+        <v>16</v>
+      </c>
+      <c r="D12" s="14" t="s">
+        <v>30</v>
+      </c>
+      <c r="E12" s="38">
+        <v>44501</v>
+      </c>
+      <c r="F12" s="37">
         <v>44520</v>
       </c>
-      <c r="F12" s="39" t="s">
-        <v>53</v>
-      </c>
-      <c r="G12" s="76"/>
+      <c r="G12" s="71" t="s">
+        <v>22</v>
+      </c>
       <c r="H12" s="5" t="s">
-        <v>70</v>
-      </c>
-      <c r="I12" s="29"/>
-      <c r="J12" s="28"/>
+        <v>72</v>
+      </c>
+      <c r="I12" s="58" t="s">
+        <v>54</v>
+      </c>
+      <c r="J12" s="27"/>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A13" s="7"/>
       <c r="B13" s="11"/>
       <c r="C13" s="11"/>
-      <c r="D13" s="20"/>
-      <c r="E13" s="20"/>
-      <c r="F13" s="32"/>
-      <c r="G13" s="74"/>
+      <c r="D13" s="7"/>
+      <c r="E13" s="39"/>
+      <c r="F13" s="36"/>
+      <c r="G13" s="69">
+        <v>81231807990</v>
+      </c>
       <c r="H13" s="7"/>
-      <c r="I13" s="30"/>
-      <c r="J13" s="26"/>
+      <c r="I13" s="28"/>
+      <c r="J13" s="25"/>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A14" s="9"/>
       <c r="B14" s="12"/>
       <c r="C14" s="12"/>
-      <c r="D14" s="23"/>
-      <c r="E14" s="23"/>
-      <c r="F14" s="33"/>
-      <c r="G14" s="75"/>
+      <c r="D14" s="9"/>
+      <c r="E14" s="9"/>
+      <c r="F14" s="40"/>
+      <c r="G14" s="70"/>
       <c r="H14" s="9"/>
-      <c r="I14" s="62"/>
-      <c r="J14" s="27"/>
+      <c r="I14" s="57"/>
+      <c r="J14" s="26"/>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A15" s="5">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="B15" s="4" t="s">
         <v>10</v>
       </c>
       <c r="C15" s="4">
-        <v>16</v>
-      </c>
-      <c r="D15" s="14" t="s">
-        <v>30</v>
-      </c>
-      <c r="E15" s="40">
-        <v>44501</v>
-      </c>
-      <c r="F15" s="39">
-        <v>44520</v>
-      </c>
-      <c r="G15" s="76" t="s">
-        <v>21</v>
+        <v>17</v>
+      </c>
+      <c r="D15" s="95" t="s">
+        <v>110</v>
+      </c>
+      <c r="E15" s="21">
+        <v>44593</v>
+      </c>
+      <c r="F15" s="37" t="s">
+        <v>66</v>
+      </c>
+      <c r="G15" s="71" t="s">
+        <v>52</v>
       </c>
       <c r="H15" s="5" t="s">
-        <v>71</v>
-      </c>
-      <c r="I15" s="63" t="s">
-        <v>54</v>
-      </c>
-      <c r="J15" s="28"/>
+        <v>73</v>
+      </c>
+      <c r="I15" s="59">
+        <v>44449</v>
+      </c>
+      <c r="J15" s="27"/>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A16" s="7"/>
       <c r="B16" s="11"/>
       <c r="C16" s="11"/>
-      <c r="D16" s="7"/>
-      <c r="E16" s="41"/>
-      <c r="F16" s="38"/>
-      <c r="G16" s="74">
-        <v>81232989078</v>
+      <c r="D16" s="39"/>
+      <c r="E16" s="39"/>
+      <c r="F16" s="36"/>
+      <c r="G16" s="69">
+        <v>81284663664</v>
       </c>
       <c r="H16" s="7"/>
-      <c r="I16" s="30"/>
-      <c r="J16" s="26"/>
+      <c r="I16" s="28"/>
+      <c r="J16" s="25"/>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A17" s="9"/>
       <c r="B17" s="12"/>
       <c r="C17" s="12"/>
-      <c r="D17" s="9"/>
-      <c r="E17" s="9"/>
-      <c r="F17" s="42"/>
-      <c r="G17" s="75"/>
+      <c r="D17" s="22"/>
+      <c r="E17" s="22"/>
+      <c r="F17" s="40"/>
+      <c r="G17" s="70"/>
       <c r="H17" s="9"/>
-      <c r="I17" s="62"/>
-      <c r="J17" s="27"/>
+      <c r="I17" s="57"/>
+      <c r="J17" s="26"/>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A18" s="5">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="B18" s="4" t="s">
         <v>11</v>
       </c>
       <c r="C18" s="4">
-        <v>16</v>
-      </c>
-      <c r="D18" s="14" t="s">
-        <v>30</v>
-      </c>
-      <c r="E18" s="40">
-        <v>44501</v>
-      </c>
-      <c r="F18" s="39">
-        <v>44520</v>
-      </c>
-      <c r="G18" s="76" t="s">
-        <v>22</v>
+        <v>17</v>
+      </c>
+      <c r="D18" s="95" t="s">
+        <v>110</v>
+      </c>
+      <c r="E18" s="21">
+        <v>44593</v>
+      </c>
+      <c r="F18" s="37" t="s">
+        <v>66</v>
+      </c>
+      <c r="G18" s="71" t="s">
+        <v>48</v>
       </c>
       <c r="H18" s="5" t="s">
-        <v>72</v>
-      </c>
-      <c r="I18" s="63" t="s">
-        <v>54</v>
-      </c>
-      <c r="J18" s="28"/>
+        <v>74</v>
+      </c>
+      <c r="I18" s="59">
+        <v>44449</v>
+      </c>
+      <c r="J18" s="27"/>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A19" s="7"/>
       <c r="B19" s="11"/>
       <c r="C19" s="11"/>
-      <c r="D19" s="7"/>
-      <c r="E19" s="41"/>
-      <c r="F19" s="38"/>
-      <c r="G19" s="74">
-        <v>81231807990</v>
+      <c r="D19" s="39"/>
+      <c r="E19" s="39"/>
+      <c r="F19" s="36"/>
+      <c r="G19" s="69">
+        <v>85740346667</v>
       </c>
       <c r="H19" s="7"/>
-      <c r="I19" s="30"/>
-      <c r="J19" s="26"/>
+      <c r="I19" s="28"/>
+      <c r="J19" s="25"/>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A20" s="9"/>
       <c r="B20" s="12"/>
       <c r="C20" s="12"/>
-      <c r="D20" s="9"/>
-      <c r="E20" s="9"/>
-      <c r="F20" s="42"/>
-      <c r="G20" s="75"/>
+      <c r="D20" s="22"/>
+      <c r="E20" s="22"/>
+      <c r="F20" s="40"/>
+      <c r="G20" s="70"/>
       <c r="H20" s="9"/>
-      <c r="I20" s="62"/>
-      <c r="J20" s="27"/>
+      <c r="I20" s="57"/>
+      <c r="J20" s="26"/>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A21" s="5">
-        <v>11</v>
-      </c>
-      <c r="B21" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="C21" s="4">
-        <v>17</v>
-      </c>
-      <c r="D21" s="40"/>
-      <c r="E21" s="22">
-        <v>44593</v>
-      </c>
-      <c r="F21" s="39" t="s">
-        <v>66</v>
-      </c>
-      <c r="G21" s="76" t="s">
-        <v>52</v>
-      </c>
-      <c r="H21" s="5" t="s">
-        <v>73</v>
-      </c>
-      <c r="I21" s="64">
-        <v>44449</v>
-      </c>
-      <c r="J21" s="28"/>
+        <v>7</v>
+      </c>
+      <c r="B21" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="C21" s="10">
+        <v>31</v>
+      </c>
+      <c r="D21" s="14" t="s">
+        <v>28</v>
+      </c>
+      <c r="E21" s="96" t="s">
+        <v>111</v>
+      </c>
+      <c r="F21" s="37">
+        <v>44501</v>
+      </c>
+      <c r="G21" s="71" t="s">
+        <v>23</v>
+      </c>
+      <c r="H21" s="24" t="s">
+        <v>76</v>
+      </c>
+      <c r="I21" s="58" t="s">
+        <v>54</v>
+      </c>
+      <c r="J21" s="27"/>
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A22" s="7"/>
-      <c r="B22" s="11"/>
-      <c r="C22" s="11"/>
-      <c r="D22" s="41"/>
-      <c r="E22" s="41"/>
-      <c r="F22" s="38"/>
-      <c r="G22" s="74">
-        <v>81284663664</v>
-      </c>
-      <c r="H22" s="7"/>
-      <c r="I22" s="30"/>
-      <c r="J22" s="26"/>
+      <c r="B22" s="15"/>
+      <c r="C22" s="15"/>
+      <c r="D22" s="7"/>
+      <c r="E22" s="47"/>
+      <c r="F22" s="30"/>
+      <c r="G22" s="69">
+        <v>6587623904</v>
+      </c>
+      <c r="H22" s="20"/>
+      <c r="I22" s="28"/>
+      <c r="J22" s="25"/>
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A23" s="9"/>
-      <c r="B23" s="12"/>
-      <c r="C23" s="12"/>
-      <c r="D23" s="23"/>
-      <c r="E23" s="23"/>
-      <c r="F23" s="42"/>
-      <c r="G23" s="75"/>
-      <c r="H23" s="9"/>
-      <c r="I23" s="62"/>
-      <c r="J23" s="27"/>
+      <c r="B23" s="16"/>
+      <c r="C23" s="16"/>
+      <c r="D23" s="9"/>
+      <c r="E23" s="9"/>
+      <c r="F23" s="31"/>
+      <c r="G23" s="70"/>
+      <c r="H23" s="22"/>
+      <c r="I23" s="57"/>
+      <c r="J23" s="26"/>
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A24" s="5">
-        <v>12</v>
-      </c>
-      <c r="B24" s="4" t="s">
-        <v>11</v>
+        <v>8</v>
+      </c>
+      <c r="B24" s="3" t="s">
+        <v>13</v>
       </c>
       <c r="C24" s="4">
-        <v>17</v>
-      </c>
-      <c r="D24" s="40"/>
-      <c r="E24" s="22">
-        <v>44593</v>
-      </c>
-      <c r="F24" s="39" t="s">
-        <v>66</v>
-      </c>
-      <c r="G24" s="76" t="s">
-        <v>48</v>
+        <v>32</v>
+      </c>
+      <c r="D24" s="14" t="s">
+        <v>44</v>
+      </c>
+      <c r="E24" s="23">
+        <v>44520</v>
+      </c>
+      <c r="F24" s="33" t="s">
+        <v>45</v>
+      </c>
+      <c r="G24" s="72" t="s">
+        <v>46</v>
       </c>
       <c r="H24" s="5" t="s">
-        <v>74</v>
-      </c>
-      <c r="I24" s="64">
-        <v>44449</v>
-      </c>
-      <c r="J24" s="28"/>
+        <v>76</v>
+      </c>
+      <c r="I24" s="59">
+        <v>44440</v>
+      </c>
+      <c r="J24" s="27"/>
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A25" s="7"/>
-      <c r="B25" s="11"/>
+      <c r="B25" s="6"/>
       <c r="C25" s="11"/>
-      <c r="D25" s="41"/>
-      <c r="E25" s="41"/>
-      <c r="F25" s="38"/>
-      <c r="G25" s="74">
-        <v>85740346667</v>
+      <c r="D25" s="47"/>
+      <c r="E25" s="47"/>
+      <c r="F25" s="34"/>
+      <c r="G25" s="73">
+        <v>81333524165</v>
       </c>
       <c r="H25" s="7"/>
-      <c r="I25" s="30"/>
-      <c r="J25" s="26"/>
+      <c r="I25" s="28"/>
+      <c r="J25" s="25"/>
     </row>
     <row r="26" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A26" s="9"/>
-      <c r="B26" s="12"/>
+      <c r="B26" s="8"/>
       <c r="C26" s="12"/>
-      <c r="D26" s="23"/>
-      <c r="E26" s="23"/>
-      <c r="F26" s="42"/>
-      <c r="G26" s="75"/>
+      <c r="D26" s="9"/>
+      <c r="E26" s="9"/>
+      <c r="F26" s="48"/>
+      <c r="G26" s="74"/>
       <c r="H26" s="9"/>
-      <c r="I26" s="62"/>
-      <c r="J26" s="27"/>
+      <c r="I26" s="57"/>
+      <c r="J26" s="26"/>
     </row>
     <row r="27" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A27" s="25">
+      <c r="A27" s="5">
+        <v>9</v>
+      </c>
+      <c r="B27" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="B27" s="10" t="s">
-        <v>13</v>
-      </c>
-      <c r="C27" s="10">
-        <v>30</v>
-      </c>
-      <c r="D27" s="49">
-        <v>44253</v>
-      </c>
-      <c r="E27" s="50" t="s">
-        <v>55</v>
-      </c>
-      <c r="F27" s="34" t="s">
-        <v>65</v>
-      </c>
-      <c r="G27" s="76" t="s">
-        <v>35</v>
-      </c>
-      <c r="H27" s="25" t="s">
-        <v>75</v>
-      </c>
-      <c r="I27" s="64">
-        <v>44287</v>
-      </c>
-      <c r="J27" s="28"/>
+      <c r="C27" s="4">
+        <v>33</v>
+      </c>
+      <c r="D27" s="7" t="s">
+        <v>106</v>
+      </c>
+      <c r="E27" s="47">
+        <v>44247</v>
+      </c>
+      <c r="F27" s="78" t="s">
+        <v>105</v>
+      </c>
+      <c r="G27" s="73" t="s">
+        <v>103</v>
+      </c>
+      <c r="H27" s="7" t="s">
+        <v>104</v>
+      </c>
+      <c r="I27" s="28"/>
+      <c r="J27" s="25"/>
     </row>
     <row r="28" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A28" s="20"/>
-      <c r="B28" s="15"/>
-      <c r="C28" s="15"/>
-      <c r="D28" s="20"/>
-      <c r="E28" s="20"/>
-      <c r="F28" s="32"/>
-      <c r="G28" s="74">
-        <v>82110632173</v>
-      </c>
-      <c r="H28" s="20"/>
-      <c r="I28" s="30"/>
-      <c r="J28" s="26"/>
+      <c r="A28" s="7"/>
+      <c r="B28" s="6"/>
+      <c r="C28" s="11"/>
+      <c r="D28" s="7"/>
+      <c r="E28" s="7"/>
+      <c r="F28" s="34"/>
+      <c r="G28" s="73">
+        <v>81235748714</v>
+      </c>
+      <c r="H28" s="7"/>
+      <c r="I28" s="28"/>
+      <c r="J28" s="25"/>
     </row>
     <row r="29" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A29" s="23"/>
-      <c r="B29" s="16"/>
-      <c r="C29" s="16"/>
-      <c r="D29" s="9"/>
-      <c r="E29" s="9"/>
-      <c r="F29" s="33"/>
-      <c r="G29" s="75"/>
-      <c r="H29" s="23"/>
-      <c r="I29" s="62"/>
-      <c r="J29" s="27"/>
+      <c r="A29" s="9"/>
+      <c r="B29" s="6"/>
+      <c r="C29" s="11"/>
+      <c r="D29" s="7"/>
+      <c r="E29" s="7"/>
+      <c r="F29" s="34"/>
+      <c r="G29" s="73"/>
+      <c r="H29" s="7"/>
+      <c r="I29" s="28"/>
+      <c r="J29" s="25"/>
     </row>
     <row r="30" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A30" s="25">
-        <v>14</v>
+      <c r="A30" s="5">
+        <v>10</v>
       </c>
       <c r="B30" s="10" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C30" s="10">
-        <v>31</v>
-      </c>
-      <c r="D30" s="14" t="s">
-        <v>28</v>
-      </c>
-      <c r="E30" s="24" t="s">
-        <v>99</v>
-      </c>
-      <c r="F30" s="39">
+        <v>25</v>
+      </c>
+      <c r="D30" s="46">
+        <v>44237</v>
+      </c>
+      <c r="E30" s="49" t="s">
+        <v>34</v>
+      </c>
+      <c r="F30" s="37">
         <v>44501</v>
       </c>
-      <c r="G30" s="76" t="s">
-        <v>23</v>
-      </c>
-      <c r="H30" s="25" t="s">
-        <v>76</v>
-      </c>
-      <c r="I30" s="63" t="s">
+      <c r="G30" s="71" t="s">
+        <v>36</v>
+      </c>
+      <c r="H30" s="24" t="s">
+        <v>70</v>
+      </c>
+      <c r="I30" s="58" t="s">
         <v>54</v>
       </c>
-      <c r="J30" s="28"/>
+      <c r="J30" s="58" t="s">
+        <v>54</v>
+      </c>
     </row>
     <row r="31" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A31" s="20"/>
+      <c r="A31" s="7"/>
       <c r="B31" s="15"/>
       <c r="C31" s="15"/>
       <c r="D31" s="7"/>
-      <c r="E31" s="51"/>
-      <c r="F31" s="32"/>
-      <c r="G31" s="74">
-        <v>6587623904</v>
+      <c r="E31" s="7"/>
+      <c r="F31" s="30"/>
+      <c r="G31" s="69">
+        <v>82143316439</v>
       </c>
       <c r="H31" s="20"/>
-      <c r="I31" s="30"/>
-      <c r="J31" s="26"/>
+      <c r="I31" s="28"/>
+      <c r="J31" s="25"/>
     </row>
     <row r="32" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A32" s="23"/>
+      <c r="A32" s="9"/>
       <c r="B32" s="16"/>
       <c r="C32" s="16"/>
       <c r="D32" s="9"/>
       <c r="E32" s="9"/>
-      <c r="F32" s="33"/>
-      <c r="G32" s="75"/>
-      <c r="H32" s="23"/>
-      <c r="I32" s="62"/>
-      <c r="J32" s="27"/>
+      <c r="F32" s="31"/>
+      <c r="G32" s="70"/>
+      <c r="H32" s="22"/>
+      <c r="I32" s="57"/>
+      <c r="J32" s="26"/>
     </row>
     <row r="33" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A33" s="5">
-        <v>15</v>
-      </c>
-      <c r="B33" s="3" t="s">
-        <v>13</v>
+        <v>11</v>
+      </c>
+      <c r="B33" s="4" t="s">
+        <v>12</v>
       </c>
       <c r="C33" s="4">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="D33" s="14" t="s">
-        <v>44</v>
-      </c>
-      <c r="E33" s="24">
-        <v>44520</v>
-      </c>
-      <c r="F33" s="35" t="s">
-        <v>45</v>
-      </c>
-      <c r="G33" s="77" t="s">
-        <v>46</v>
+        <v>40</v>
+      </c>
+      <c r="E33" s="50">
+        <v>44614</v>
+      </c>
+      <c r="F33" s="37" t="s">
+        <v>62</v>
+      </c>
+      <c r="G33" s="71" t="s">
+        <v>61</v>
       </c>
       <c r="H33" s="5" t="s">
-        <v>76</v>
-      </c>
-      <c r="I33" s="64">
+        <v>70</v>
+      </c>
+      <c r="I33" s="59">
         <v>44440</v>
       </c>
-      <c r="J33" s="28"/>
+      <c r="J33" s="27"/>
     </row>
     <row r="34" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A34" s="7"/>
-      <c r="B34" s="6"/>
+      <c r="B34" s="11"/>
       <c r="C34" s="11"/>
-      <c r="D34" s="51"/>
+      <c r="D34" s="7"/>
       <c r="E34" s="51"/>
-      <c r="F34" s="36"/>
-      <c r="G34" s="78">
-        <v>81333524165</v>
+      <c r="F34" s="30"/>
+      <c r="G34" s="69">
+        <v>85732094240</v>
       </c>
       <c r="H34" s="7"/>
-      <c r="I34" s="30"/>
-      <c r="J34" s="26"/>
+      <c r="I34" s="28"/>
+      <c r="J34" s="25"/>
     </row>
     <row r="35" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A35" s="9"/>
       <c r="B35" s="8"/>
-      <c r="C35" s="12"/>
+      <c r="C35" s="8"/>
       <c r="D35" s="9"/>
       <c r="E35" s="9"/>
-      <c r="F35" s="52"/>
-      <c r="G35" s="79"/>
+      <c r="F35" s="31"/>
+      <c r="G35" s="70"/>
       <c r="H35" s="9"/>
-      <c r="I35" s="62"/>
-      <c r="J35" s="27"/>
+      <c r="I35" s="57"/>
+      <c r="J35" s="26"/>
     </row>
     <row r="36" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A36" s="7">
-        <v>16</v>
+      <c r="A36" s="5">
+        <v>12</v>
       </c>
       <c r="B36" s="3" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C36" s="4">
         <v>33</v>
       </c>
-      <c r="D36" s="7"/>
-      <c r="E36" s="7"/>
-      <c r="F36" s="36"/>
-      <c r="G36" s="78"/>
-      <c r="H36" s="7"/>
-      <c r="I36" s="30"/>
-      <c r="J36" s="26"/>
+      <c r="D36" s="14" t="s">
+        <v>85</v>
+      </c>
+      <c r="E36" s="23" t="s">
+        <v>84</v>
+      </c>
+      <c r="F36" s="52">
+        <v>44510</v>
+      </c>
+      <c r="G36" s="72" t="s">
+        <v>47</v>
+      </c>
+      <c r="H36" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="I36" s="59">
+        <v>44449</v>
+      </c>
+      <c r="J36" s="27"/>
     </row>
     <row r="37" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A37" s="7"/>
       <c r="B37" s="6"/>
       <c r="C37" s="11"/>
-      <c r="D37" s="7"/>
-      <c r="E37" s="7"/>
-      <c r="F37" s="36"/>
-      <c r="G37" s="78"/>
+      <c r="D37" s="47"/>
+      <c r="E37" s="47"/>
+      <c r="F37" s="34"/>
+      <c r="G37" s="73">
+        <v>81331430509</v>
+      </c>
       <c r="H37" s="7"/>
-      <c r="I37" s="30"/>
-      <c r="J37" s="26"/>
+      <c r="I37" s="28"/>
+      <c r="J37" s="25"/>
     </row>
     <row r="38" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A38" s="7"/>
-      <c r="B38" s="6"/>
-      <c r="C38" s="11"/>
-      <c r="D38" s="7"/>
-      <c r="E38" s="7"/>
-      <c r="F38" s="36"/>
-      <c r="G38" s="78"/>
-      <c r="H38" s="7"/>
-      <c r="I38" s="30"/>
+      <c r="A38" s="9"/>
+      <c r="B38" s="8"/>
+      <c r="C38" s="12"/>
+      <c r="D38" s="9"/>
+      <c r="E38" s="9"/>
+      <c r="F38" s="48"/>
+      <c r="G38" s="74"/>
+      <c r="H38" s="9"/>
+      <c r="I38" s="57"/>
       <c r="J38" s="26"/>
     </row>
     <row r="39" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A39" s="5">
-        <v>17</v>
-      </c>
-      <c r="B39" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="C39" s="10">
-        <v>25</v>
-      </c>
-      <c r="D39" s="49">
-        <v>44237</v>
-      </c>
-      <c r="E39" s="53" t="s">
-        <v>34</v>
-      </c>
-      <c r="F39" s="39">
-        <v>44501</v>
-      </c>
-      <c r="G39" s="76" t="s">
-        <v>36</v>
-      </c>
-      <c r="H39" s="25" t="s">
-        <v>70</v>
-      </c>
-      <c r="I39" s="63" t="s">
-        <v>54</v>
-      </c>
-      <c r="J39" s="63" t="s">
-        <v>54</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="B39" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="C39" s="4">
+        <v>28</v>
+      </c>
+      <c r="D39" s="14" t="s">
+        <v>41</v>
+      </c>
+      <c r="E39" s="23">
+        <v>44510</v>
+      </c>
+      <c r="F39" s="52" t="s">
+        <v>43</v>
+      </c>
+      <c r="G39" s="72" t="s">
+        <v>42</v>
+      </c>
+      <c r="H39" s="5" t="s">
+        <v>80</v>
+      </c>
+      <c r="I39" s="59">
+        <v>44440</v>
+      </c>
+      <c r="J39" s="27"/>
     </row>
     <row r="40" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A40" s="7"/>
-      <c r="B40" s="15"/>
-      <c r="C40" s="15"/>
-      <c r="D40" s="7"/>
-      <c r="E40" s="7"/>
-      <c r="F40" s="32"/>
-      <c r="G40" s="74">
-        <v>82143316439</v>
-      </c>
-      <c r="H40" s="20"/>
-      <c r="I40" s="30"/>
-      <c r="J40" s="26"/>
+      <c r="B40" s="6"/>
+      <c r="C40" s="11"/>
+      <c r="D40" s="47"/>
+      <c r="E40" s="47"/>
+      <c r="F40" s="34"/>
+      <c r="G40" s="73">
+        <v>85649115380</v>
+      </c>
+      <c r="H40" s="7"/>
+      <c r="I40" s="28"/>
+      <c r="J40" s="25"/>
     </row>
     <row r="41" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A41" s="9"/>
-      <c r="B41" s="16"/>
-      <c r="C41" s="16"/>
+      <c r="B41" s="8"/>
+      <c r="C41" s="12"/>
       <c r="D41" s="9"/>
       <c r="E41" s="9"/>
-      <c r="F41" s="33"/>
-      <c r="G41" s="75"/>
-      <c r="H41" s="23"/>
-      <c r="I41" s="62"/>
-      <c r="J41" s="27"/>
+      <c r="F41" s="48"/>
+      <c r="G41" s="74"/>
+      <c r="H41" s="9"/>
+      <c r="I41" s="57"/>
+      <c r="J41" s="26"/>
     </row>
     <row r="42" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A42" s="7">
-        <v>18</v>
-      </c>
-      <c r="B42" s="4" t="s">
-        <v>12</v>
+      <c r="A42" s="5">
+        <v>14</v>
+      </c>
+      <c r="B42" s="3" t="s">
+        <v>16</v>
       </c>
       <c r="C42" s="4">
-        <v>26</v>
-      </c>
-      <c r="D42" s="14" t="s">
         <v>40</v>
       </c>
-      <c r="E42" s="54">
-        <v>44614</v>
-      </c>
-      <c r="F42" s="39" t="s">
-        <v>62</v>
-      </c>
-      <c r="G42" s="76" t="s">
-        <v>61</v>
+      <c r="D42" s="46">
+        <v>44453</v>
+      </c>
+      <c r="E42" s="23">
+        <v>44510</v>
+      </c>
+      <c r="F42" s="52" t="s">
+        <v>43</v>
+      </c>
+      <c r="G42" s="72" t="s">
+        <v>49</v>
       </c>
       <c r="H42" s="5" t="s">
-        <v>70</v>
-      </c>
-      <c r="I42" s="64">
-        <v>44440</v>
-      </c>
-      <c r="J42" s="28"/>
+        <v>82</v>
+      </c>
+      <c r="I42" s="76" t="s">
+        <v>100</v>
+      </c>
+      <c r="J42" s="27"/>
     </row>
     <row r="43" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A43" s="7"/>
-      <c r="B43" s="11"/>
+      <c r="B43" s="6"/>
       <c r="C43" s="11"/>
-      <c r="D43" s="7"/>
-      <c r="E43" s="55"/>
-      <c r="F43" s="32"/>
-      <c r="G43" s="74">
-        <v>85732094240</v>
+      <c r="D43" s="47"/>
+      <c r="E43" s="47"/>
+      <c r="F43" s="34"/>
+      <c r="G43" s="73">
+        <v>81359524067</v>
       </c>
       <c r="H43" s="7"/>
-      <c r="I43" s="30"/>
-      <c r="J43" s="26"/>
+      <c r="I43" s="28"/>
+      <c r="J43" s="25"/>
     </row>
     <row r="44" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A44" s="7"/>
+      <c r="A44" s="9"/>
       <c r="B44" s="8"/>
-      <c r="C44" s="8"/>
+      <c r="C44" s="12"/>
       <c r="D44" s="9"/>
       <c r="E44" s="9"/>
-      <c r="F44" s="33"/>
-      <c r="G44" s="75"/>
+      <c r="F44" s="48"/>
+      <c r="G44" s="74"/>
       <c r="H44" s="9"/>
-      <c r="I44" s="62"/>
-      <c r="J44" s="27"/>
+      <c r="I44" s="57"/>
+      <c r="J44" s="26"/>
     </row>
     <row r="45" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A45" s="5">
-        <v>19</v>
-      </c>
-      <c r="B45" s="10" t="s">
-        <v>14</v>
-      </c>
-      <c r="C45" s="10">
-        <v>32</v>
-      </c>
-      <c r="D45" s="14" t="s">
-        <v>31</v>
-      </c>
-      <c r="E45" s="21" t="s">
-        <v>56</v>
-      </c>
-      <c r="F45" s="34" t="s">
-        <v>63</v>
-      </c>
-      <c r="G45" s="76" t="s">
-        <v>24</v>
-      </c>
-      <c r="H45" s="25" t="s">
-        <v>77</v>
-      </c>
-      <c r="I45" s="63" t="s">
-        <v>54</v>
-      </c>
-      <c r="J45" s="28"/>
+        <v>15</v>
+      </c>
+      <c r="B45" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="C45" s="4">
+        <v>40</v>
+      </c>
+      <c r="D45" s="46">
+        <v>44453</v>
+      </c>
+      <c r="E45" s="23">
+        <v>44510</v>
+      </c>
+      <c r="F45" s="52" t="s">
+        <v>43</v>
+      </c>
+      <c r="G45" s="72" t="s">
+        <v>25</v>
+      </c>
+      <c r="H45" s="5" t="s">
+        <v>83</v>
+      </c>
+      <c r="I45" s="76" t="s">
+        <v>100</v>
+      </c>
+      <c r="J45" s="27"/>
     </row>
     <row r="46" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A46" s="7"/>
-      <c r="B46" s="15"/>
-      <c r="C46" s="15"/>
-      <c r="D46" s="7"/>
-      <c r="E46" s="20"/>
-      <c r="F46" s="32"/>
-      <c r="G46" s="74">
-        <v>81231558203</v>
-      </c>
-      <c r="H46" s="20"/>
-      <c r="I46" s="30"/>
-      <c r="J46" s="26"/>
+      <c r="B46" s="6"/>
+      <c r="C46" s="11"/>
+      <c r="D46" s="47"/>
+      <c r="E46" s="47"/>
+      <c r="F46" s="34"/>
+      <c r="G46" s="73">
+        <v>82319844744</v>
+      </c>
+      <c r="H46" s="7"/>
+      <c r="I46" s="28"/>
+      <c r="J46" s="25"/>
     </row>
     <row r="47" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A47" s="9"/>
-      <c r="B47" s="16"/>
-      <c r="C47" s="16"/>
+      <c r="B47" s="8"/>
+      <c r="C47" s="12"/>
       <c r="D47" s="9"/>
       <c r="E47" s="9"/>
-      <c r="F47" s="33"/>
-      <c r="G47" s="75"/>
-      <c r="H47" s="23"/>
-      <c r="I47" s="62"/>
-      <c r="J47" s="27"/>
+      <c r="F47" s="48"/>
+      <c r="G47" s="74"/>
+      <c r="H47" s="9"/>
+      <c r="I47" s="57"/>
+      <c r="J47" s="26"/>
     </row>
     <row r="48" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A48" s="7">
-        <v>20</v>
-      </c>
-      <c r="B48" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="C48" s="4">
-        <v>33</v>
-      </c>
-      <c r="D48" s="14" t="s">
-        <v>85</v>
-      </c>
-      <c r="E48" s="24" t="s">
-        <v>84</v>
-      </c>
-      <c r="F48" s="56">
-        <v>44510</v>
-      </c>
-      <c r="G48" s="77" t="s">
-        <v>47</v>
-      </c>
-      <c r="H48" s="5" t="s">
-        <v>78</v>
-      </c>
-      <c r="I48" s="64">
-        <v>44449</v>
-      </c>
-      <c r="J48" s="28"/>
+      <c r="A48" s="5">
+        <v>16</v>
+      </c>
+      <c r="B48" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="C48" s="2">
+        <v>5</v>
+      </c>
+      <c r="D48" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="E48" s="94">
+        <v>44237</v>
+      </c>
+      <c r="F48" s="80">
+        <v>44617</v>
+      </c>
+      <c r="G48" s="75" t="s">
+        <v>108</v>
+      </c>
+      <c r="H48" s="2" t="s">
+        <v>107</v>
+      </c>
     </row>
     <row r="49" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A49" s="7"/>
-      <c r="B49" s="6"/>
-      <c r="C49" s="11"/>
-      <c r="D49" s="51"/>
-      <c r="E49" s="51"/>
-      <c r="F49" s="36"/>
-      <c r="G49" s="78">
-        <v>81331430509</v>
-      </c>
-      <c r="H49" s="7"/>
-      <c r="I49" s="30"/>
-      <c r="J49" s="26"/>
+      <c r="G49" s="75">
+        <v>89603906796</v>
+      </c>
     </row>
     <row r="50" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A50" s="7"/>
+      <c r="A50" s="9"/>
       <c r="B50" s="8"/>
-      <c r="C50" s="12"/>
+      <c r="C50" s="8"/>
       <c r="D50" s="9"/>
       <c r="E50" s="9"/>
-      <c r="F50" s="52"/>
-      <c r="G50" s="79"/>
+      <c r="F50" s="31"/>
+      <c r="G50" s="70"/>
       <c r="H50" s="9"/>
-      <c r="I50" s="62"/>
-      <c r="J50" s="27"/>
-    </row>
-    <row r="51" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A51" s="5">
-        <v>21</v>
-      </c>
-      <c r="B51" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="C51" s="4">
-        <v>28</v>
-      </c>
-      <c r="D51" s="14" t="s">
-        <v>41</v>
-      </c>
-      <c r="E51" s="24">
-        <v>44510</v>
-      </c>
-      <c r="F51" s="56" t="s">
-        <v>43</v>
-      </c>
-      <c r="G51" s="77" t="s">
-        <v>42</v>
-      </c>
-      <c r="H51" s="5" t="s">
-        <v>80</v>
-      </c>
-      <c r="I51" s="64">
-        <v>44440</v>
-      </c>
-      <c r="J51" s="28"/>
-    </row>
-    <row r="52" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A52" s="7"/>
-      <c r="B52" s="6"/>
-      <c r="C52" s="11"/>
-      <c r="D52" s="51"/>
-      <c r="E52" s="51"/>
-      <c r="F52" s="36"/>
-      <c r="G52" s="78">
-        <v>85649115380</v>
-      </c>
-      <c r="H52" s="7"/>
-      <c r="I52" s="30"/>
-      <c r="J52" s="26"/>
-    </row>
-    <row r="53" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A53" s="9"/>
-      <c r="B53" s="8"/>
-      <c r="C53" s="12"/>
-      <c r="D53" s="9"/>
-      <c r="E53" s="9"/>
-      <c r="F53" s="52"/>
-      <c r="G53" s="79"/>
-      <c r="H53" s="9"/>
-      <c r="I53" s="62"/>
-      <c r="J53" s="27"/>
-    </row>
-    <row r="54" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A54" s="7">
-        <v>22</v>
-      </c>
-      <c r="B54" s="10" t="s">
-        <v>16</v>
-      </c>
-      <c r="C54" s="10">
-        <v>38</v>
-      </c>
-      <c r="D54" s="49">
-        <v>44253</v>
-      </c>
-      <c r="E54" s="21" t="s">
-        <v>33</v>
-      </c>
-      <c r="F54" s="34" t="s">
-        <v>17</v>
-      </c>
-      <c r="G54" s="76" t="s">
-        <v>37</v>
-      </c>
-      <c r="H54" s="25" t="s">
-        <v>74</v>
-      </c>
-      <c r="I54" s="64">
-        <v>44246</v>
-      </c>
-      <c r="J54" s="28"/>
-    </row>
-    <row r="55" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A55" s="7"/>
-      <c r="B55" s="15"/>
-      <c r="C55" s="15"/>
-      <c r="D55" s="6"/>
-      <c r="E55" s="20"/>
-      <c r="F55" s="32"/>
-      <c r="G55" s="74">
-        <v>81318154783</v>
-      </c>
-      <c r="H55" s="20"/>
-      <c r="I55" s="30"/>
-      <c r="J55" s="26"/>
-    </row>
-    <row r="56" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A56" s="7"/>
-      <c r="B56" s="59"/>
-      <c r="C56" s="59"/>
-      <c r="D56" s="9"/>
-      <c r="E56" s="9"/>
-      <c r="F56" s="33"/>
-      <c r="G56" s="75"/>
-      <c r="H56" s="23"/>
-      <c r="I56" s="27"/>
-      <c r="J56" s="27"/>
-    </row>
-    <row r="57" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A57" s="5">
-        <v>23</v>
-      </c>
-      <c r="B57" s="10" t="s">
-        <v>18</v>
-      </c>
-      <c r="C57" s="10">
-        <v>38</v>
-      </c>
-      <c r="D57" s="49">
-        <v>44253</v>
-      </c>
-      <c r="E57" s="21" t="s">
-        <v>60</v>
-      </c>
-      <c r="F57" s="34" t="s">
-        <v>17</v>
-      </c>
-      <c r="G57" s="76" t="s">
-        <v>39</v>
-      </c>
-      <c r="H57" s="25" t="s">
-        <v>70</v>
-      </c>
-      <c r="I57" s="64">
-        <v>44246</v>
-      </c>
-      <c r="J57" s="28"/>
-    </row>
-    <row r="58" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A58" s="7"/>
-      <c r="B58" s="15"/>
-      <c r="C58" s="15"/>
-      <c r="D58" s="6"/>
-      <c r="E58" s="20"/>
-      <c r="F58" s="32"/>
-      <c r="G58" s="74">
-        <v>8123929482</v>
-      </c>
-      <c r="H58" s="20"/>
-      <c r="I58" s="30"/>
-      <c r="J58" s="26"/>
-    </row>
-    <row r="59" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A59" s="9"/>
-      <c r="B59" s="59"/>
-      <c r="C59" s="59"/>
-      <c r="D59" s="9"/>
-      <c r="E59" s="9"/>
-      <c r="F59" s="33"/>
-      <c r="G59" s="75"/>
-      <c r="H59" s="23"/>
-      <c r="I59" s="27"/>
-      <c r="J59" s="27"/>
-    </row>
-    <row r="60" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A60" s="7">
-        <v>24</v>
-      </c>
-      <c r="B60" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="C60" s="4">
-        <v>39</v>
-      </c>
-      <c r="D60" s="14" t="s">
-        <v>28</v>
-      </c>
-      <c r="E60" s="21" t="s">
-        <v>58</v>
-      </c>
-      <c r="F60" s="39">
-        <v>44444</v>
-      </c>
-      <c r="G60" s="76" t="s">
-        <v>25</v>
-      </c>
-      <c r="H60" s="5" t="s">
-        <v>77</v>
-      </c>
-      <c r="I60" s="63" t="s">
-        <v>54</v>
-      </c>
-      <c r="J60" s="28"/>
-    </row>
-    <row r="61" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A61" s="7"/>
-      <c r="B61" s="11"/>
-      <c r="C61" s="11"/>
-      <c r="D61" s="7"/>
-      <c r="E61" s="7"/>
-      <c r="F61" s="32"/>
-      <c r="G61" s="74">
-        <v>81331414130</v>
-      </c>
-      <c r="H61" s="7"/>
-      <c r="I61" s="26"/>
-      <c r="J61" s="26"/>
-    </row>
-    <row r="62" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A62" s="7"/>
-      <c r="B62" s="12"/>
-      <c r="C62" s="12"/>
-      <c r="D62" s="9"/>
-      <c r="E62" s="9"/>
-      <c r="F62" s="33"/>
-      <c r="G62" s="75"/>
-      <c r="H62" s="9"/>
-      <c r="I62" s="27"/>
-      <c r="J62" s="27"/>
-    </row>
-    <row r="63" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A63" s="5">
-        <v>25</v>
-      </c>
-      <c r="B63" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="C63" s="4">
-        <v>39</v>
-      </c>
-      <c r="D63" s="14" t="s">
-        <v>28</v>
-      </c>
-      <c r="E63" s="21" t="s">
-        <v>58</v>
-      </c>
-      <c r="F63" s="39">
-        <v>44444</v>
-      </c>
-      <c r="G63" s="76" t="s">
-        <v>26</v>
-      </c>
-      <c r="H63" s="5" t="s">
-        <v>81</v>
-      </c>
-      <c r="I63" s="63" t="s">
-        <v>54</v>
-      </c>
-      <c r="J63" s="28"/>
-    </row>
-    <row r="64" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A64" s="7"/>
-      <c r="B64" s="11"/>
-      <c r="C64" s="11"/>
-      <c r="D64" s="7"/>
-      <c r="E64" s="7"/>
-      <c r="F64" s="32"/>
-      <c r="G64" s="74">
-        <v>81252283477</v>
-      </c>
-      <c r="H64" s="7"/>
-      <c r="I64" s="26"/>
-      <c r="J64" s="26"/>
-    </row>
-    <row r="65" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A65" s="9"/>
-      <c r="B65" s="12"/>
-      <c r="C65" s="12"/>
-      <c r="D65" s="9"/>
-      <c r="E65" s="9"/>
-      <c r="F65" s="33"/>
-      <c r="G65" s="75"/>
-      <c r="H65" s="9"/>
-      <c r="I65" s="27"/>
-      <c r="J65" s="27"/>
-    </row>
-    <row r="66" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A66" s="7">
-        <v>26</v>
-      </c>
-      <c r="B66" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="C66" s="4">
-        <v>40</v>
-      </c>
-      <c r="D66" s="24">
-        <v>44453</v>
-      </c>
-      <c r="E66" s="24">
-        <v>44510</v>
-      </c>
-      <c r="F66" s="56" t="s">
-        <v>43</v>
-      </c>
-      <c r="G66" s="77" t="s">
-        <v>49</v>
-      </c>
-      <c r="H66" s="5" t="s">
-        <v>82</v>
-      </c>
-      <c r="I66" s="29"/>
-      <c r="J66" s="28"/>
-    </row>
-    <row r="67" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A67" s="7"/>
-      <c r="B67" s="6"/>
-      <c r="C67" s="11"/>
-      <c r="D67" s="51"/>
-      <c r="E67" s="51"/>
-      <c r="F67" s="36"/>
-      <c r="G67" s="78">
-        <v>81359524067</v>
-      </c>
-      <c r="H67" s="7"/>
-      <c r="I67" s="30"/>
-      <c r="J67" s="26"/>
-    </row>
-    <row r="68" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A68" s="7"/>
-      <c r="B68" s="8"/>
-      <c r="C68" s="12"/>
-      <c r="D68" s="9"/>
-      <c r="E68" s="9"/>
-      <c r="F68" s="52"/>
-      <c r="G68" s="79"/>
-      <c r="H68" s="9"/>
-      <c r="I68" s="62"/>
-      <c r="J68" s="27"/>
-    </row>
-    <row r="69" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A69" s="5">
-        <v>27</v>
-      </c>
-      <c r="B69" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="C69" s="4">
-        <v>40</v>
-      </c>
-      <c r="D69" s="24">
-        <v>44453</v>
-      </c>
-      <c r="E69" s="24">
-        <v>44510</v>
-      </c>
-      <c r="F69" s="56" t="s">
-        <v>43</v>
-      </c>
-      <c r="G69" s="77" t="s">
-        <v>25</v>
-      </c>
-      <c r="H69" s="5" t="s">
-        <v>83</v>
-      </c>
-      <c r="I69" s="29"/>
-      <c r="J69" s="28"/>
-    </row>
-    <row r="70" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A70" s="7"/>
-      <c r="B70" s="6"/>
-      <c r="C70" s="11"/>
-      <c r="D70" s="51"/>
-      <c r="E70" s="51"/>
-      <c r="F70" s="36"/>
-      <c r="G70" s="78">
-        <v>82319844744</v>
-      </c>
-      <c r="H70" s="7"/>
-      <c r="I70" s="30"/>
-      <c r="J70" s="26"/>
-    </row>
-    <row r="71" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A71" s="9"/>
-      <c r="B71" s="8"/>
-      <c r="C71" s="12"/>
-      <c r="D71" s="9"/>
-      <c r="E71" s="9"/>
-      <c r="F71" s="52"/>
-      <c r="G71" s="79"/>
-      <c r="H71" s="9"/>
-      <c r="I71" s="62"/>
-      <c r="J71" s="27"/>
-    </row>
-    <row r="72" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A72" s="7">
-        <v>28</v>
-      </c>
-      <c r="B72" s="1" t="s">
-        <v>100</v>
-      </c>
-      <c r="C72" s="2">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="73" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A73" s="7"/>
-    </row>
-    <row r="74" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A74" s="9"/>
-      <c r="B74" s="8"/>
-      <c r="C74" s="8"/>
-      <c r="D74" s="9"/>
-      <c r="E74" s="9"/>
-      <c r="F74" s="33"/>
-      <c r="G74" s="75"/>
-      <c r="H74" s="9"/>
-      <c r="I74" s="62"/>
-      <c r="J74" s="27"/>
+      <c r="I50" s="57"/>
+      <c r="J50" s="26"/>
     </row>
   </sheetData>
   <mergeCells count="8">
@@ -2422,15 +2261,16 @@
   </mergeCells>
   <pageMargins left="0.14000000000000001" right="0.12" top="0.62" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" scale="70" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{278BA1B3-1491-4141-B637-9082C53CD422}">
-  <dimension ref="A1:J18"/>
+  <dimension ref="A1:J41"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -2448,7 +2288,7 @@
     <col min="11" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="18" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" ht="18" x14ac:dyDescent="0.2">
       <c r="A1" s="90" t="s">
         <v>0</v>
       </c>
@@ -2459,17 +2299,17 @@
         <v>27</v>
       </c>
       <c r="D1" s="90" t="s">
-        <v>2</v>
-      </c>
-      <c r="E1" s="92" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="92"/>
+      <c r="E1" s="90"/>
+      <c r="F1" s="92" t="s">
+        <v>109</v>
+      </c>
       <c r="G1" s="90" t="s">
         <v>4</v>
       </c>
       <c r="H1" s="88" t="s">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="I1" s="81" t="s">
         <v>57</v>
@@ -2480,13 +2320,13 @@
       <c r="A2" s="91"/>
       <c r="B2" s="91"/>
       <c r="C2" s="91"/>
-      <c r="D2" s="91"/>
+      <c r="D2" s="79" t="s">
+        <v>6</v>
+      </c>
       <c r="E2" s="19" t="s">
-        <v>6</v>
-      </c>
-      <c r="F2" s="19" t="s">
         <v>7</v>
       </c>
+      <c r="F2" s="93"/>
       <c r="G2" s="91"/>
       <c r="H2" s="89"/>
       <c r="I2" s="17" t="s">
@@ -2497,34 +2337,34 @@
       </c>
     </row>
     <row r="3" spans="1:10" ht="15" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="43">
+      <c r="A3" s="41">
         <v>1</v>
       </c>
-      <c r="B3" s="44" t="s">
+      <c r="B3" s="42" t="s">
         <v>5</v>
       </c>
-      <c r="C3" s="44">
+      <c r="C3" s="42">
         <v>8</v>
       </c>
-      <c r="D3" s="67">
+      <c r="D3" s="62">
         <v>44218</v>
       </c>
-      <c r="E3" s="45" t="s">
+      <c r="E3" s="43" t="s">
         <v>86</v>
       </c>
-      <c r="F3" s="48" t="s">
+      <c r="F3" s="45" t="s">
         <v>89</v>
       </c>
-      <c r="G3" s="47" t="s">
+      <c r="G3" s="44" t="s">
         <v>87</v>
       </c>
-      <c r="H3" s="43" t="s">
+      <c r="H3" s="41" t="s">
         <v>91</v>
       </c>
-      <c r="I3" s="68">
+      <c r="I3" s="63">
         <v>44251</v>
       </c>
-      <c r="J3" s="70" t="s">
+      <c r="J3" s="65" t="s">
         <v>98</v>
       </c>
     </row>
@@ -2534,13 +2374,13 @@
       <c r="C4" s="11"/>
       <c r="D4" s="20"/>
       <c r="E4" s="20"/>
-      <c r="F4" s="32"/>
-      <c r="G4" s="32">
+      <c r="F4" s="30"/>
+      <c r="G4" s="30">
         <v>85258844844</v>
       </c>
       <c r="H4" s="7"/>
-      <c r="I4" s="30"/>
-      <c r="J4" s="71"/>
+      <c r="I4" s="28"/>
+      <c r="J4" s="66"/>
     </row>
     <row r="5" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A5" s="9"/>
@@ -2548,11 +2388,11 @@
       <c r="C5" s="12"/>
       <c r="D5" s="9"/>
       <c r="E5" s="9"/>
-      <c r="F5" s="33"/>
-      <c r="G5" s="33"/>
+      <c r="F5" s="31"/>
+      <c r="G5" s="31"/>
       <c r="H5" s="9"/>
-      <c r="I5" s="62"/>
-      <c r="J5" s="27"/>
+      <c r="I5" s="57"/>
+      <c r="J5" s="26"/>
     </row>
     <row r="6" spans="1:10" ht="15" thickTop="1" x14ac:dyDescent="0.2">
       <c r="A6" s="5">
@@ -2564,25 +2404,25 @@
       <c r="C6" s="4">
         <v>8</v>
       </c>
-      <c r="D6" s="49">
+      <c r="D6" s="46">
         <v>44218</v>
       </c>
       <c r="E6" s="14" t="s">
         <v>86</v>
       </c>
-      <c r="F6" s="39" t="s">
+      <c r="F6" s="37" t="s">
         <v>89</v>
       </c>
-      <c r="G6" s="34" t="s">
+      <c r="G6" s="32" t="s">
         <v>88</v>
       </c>
       <c r="H6" s="5" t="s">
         <v>90</v>
       </c>
-      <c r="I6" s="68">
+      <c r="I6" s="63">
         <v>44251</v>
       </c>
-      <c r="J6" s="65" t="s">
+      <c r="J6" s="60" t="s">
         <v>98</v>
       </c>
     </row>
@@ -2592,13 +2432,13 @@
       <c r="C7" s="11"/>
       <c r="D7" s="20"/>
       <c r="E7" s="20"/>
-      <c r="F7" s="32"/>
-      <c r="G7" s="32">
+      <c r="F7" s="30"/>
+      <c r="G7" s="30">
         <v>82226183614</v>
       </c>
       <c r="H7" s="7"/>
-      <c r="I7" s="30"/>
-      <c r="J7" s="26"/>
+      <c r="I7" s="28"/>
+      <c r="J7" s="25"/>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A8" s="9"/>
@@ -2606,11 +2446,11 @@
       <c r="C8" s="12"/>
       <c r="D8" s="9"/>
       <c r="E8" s="9"/>
-      <c r="F8" s="33"/>
-      <c r="G8" s="33"/>
+      <c r="F8" s="31"/>
+      <c r="G8" s="31"/>
       <c r="H8" s="9"/>
-      <c r="I8" s="62"/>
-      <c r="J8" s="27"/>
+      <c r="I8" s="57"/>
+      <c r="J8" s="26"/>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A9" s="7">
@@ -2625,22 +2465,22 @@
       <c r="D9" s="14" t="s">
         <v>96</v>
       </c>
-      <c r="E9" s="72" t="s">
+      <c r="E9" s="67" t="s">
         <v>40</v>
       </c>
-      <c r="F9" s="38">
+      <c r="F9" s="36">
         <v>44440</v>
       </c>
-      <c r="G9" s="32" t="s">
+      <c r="G9" s="30" t="s">
         <v>92</v>
       </c>
       <c r="H9" s="7" t="s">
         <v>94</v>
       </c>
-      <c r="I9" s="69" t="s">
+      <c r="I9" s="64" t="s">
         <v>97</v>
       </c>
-      <c r="J9" s="65" t="s">
+      <c r="J9" s="60" t="s">
         <v>98</v>
       </c>
     </row>
@@ -2650,13 +2490,13 @@
       <c r="C10" s="11"/>
       <c r="D10" s="7"/>
       <c r="E10" s="20"/>
-      <c r="F10" s="32"/>
-      <c r="G10" s="32">
+      <c r="F10" s="30"/>
+      <c r="G10" s="30">
         <v>81232667763</v>
       </c>
       <c r="H10" s="7"/>
-      <c r="I10" s="30"/>
-      <c r="J10" s="26"/>
+      <c r="I10" s="28"/>
+      <c r="J10" s="25"/>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A11" s="7"/>
@@ -2664,11 +2504,11 @@
       <c r="C11" s="12"/>
       <c r="D11" s="9"/>
       <c r="E11" s="20"/>
-      <c r="F11" s="32"/>
-      <c r="G11" s="32"/>
+      <c r="F11" s="30"/>
+      <c r="G11" s="30"/>
       <c r="H11" s="7"/>
-      <c r="I11" s="30"/>
-      <c r="J11" s="26"/>
+      <c r="I11" s="28"/>
+      <c r="J11" s="25"/>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A12" s="7">
@@ -2683,22 +2523,22 @@
       <c r="D12" s="14" t="s">
         <v>96</v>
       </c>
-      <c r="E12" s="72" t="s">
+      <c r="E12" s="67" t="s">
         <v>40</v>
       </c>
-      <c r="F12" s="38">
+      <c r="F12" s="36">
         <v>44440</v>
       </c>
-      <c r="G12" s="32" t="s">
+      <c r="G12" s="30" t="s">
         <v>93</v>
       </c>
       <c r="H12" s="7" t="s">
         <v>95</v>
       </c>
-      <c r="I12" s="69" t="s">
+      <c r="I12" s="64" t="s">
         <v>97</v>
       </c>
-      <c r="J12" s="65" t="s">
+      <c r="J12" s="60" t="s">
         <v>98</v>
       </c>
     </row>
@@ -2708,13 +2548,13 @@
       <c r="C13" s="11"/>
       <c r="D13" s="7"/>
       <c r="E13" s="20"/>
-      <c r="F13" s="32"/>
-      <c r="G13" s="32">
+      <c r="F13" s="30"/>
+      <c r="G13" s="30">
         <v>8214000800</v>
       </c>
       <c r="H13" s="7"/>
-      <c r="I13" s="30"/>
-      <c r="J13" s="26"/>
+      <c r="I13" s="28"/>
+      <c r="J13" s="25"/>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A14" s="7"/>
@@ -2722,14 +2562,14 @@
       <c r="C14" s="11"/>
       <c r="D14" s="7"/>
       <c r="E14" s="20"/>
-      <c r="F14" s="32"/>
-      <c r="G14" s="32"/>
+      <c r="F14" s="30"/>
+      <c r="G14" s="30"/>
       <c r="H14" s="7"/>
-      <c r="I14" s="30"/>
-      <c r="J14" s="26"/>
+      <c r="I14" s="28"/>
+      <c r="J14" s="25"/>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A15" s="25">
+      <c r="A15" s="24">
         <v>20</v>
       </c>
       <c r="B15" s="10" t="s">
@@ -2744,19 +2584,19 @@
       <c r="E15" s="14" t="s">
         <v>56</v>
       </c>
-      <c r="F15" s="57" t="s">
+      <c r="F15" s="53" t="s">
         <v>64</v>
       </c>
-      <c r="G15" s="57" t="s">
+      <c r="G15" s="53" t="s">
         <v>38</v>
       </c>
       <c r="H15" s="10" t="s">
         <v>79</v>
       </c>
-      <c r="I15" s="64">
+      <c r="I15" s="59">
         <v>44287</v>
       </c>
-      <c r="J15" s="65" t="s">
+      <c r="J15" s="60" t="s">
         <v>59</v>
       </c>
     </row>
@@ -2767,36 +2607,488 @@
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
       <c r="F16" s="15"/>
-      <c r="G16" s="58">
+      <c r="G16" s="54">
         <v>82170697118</v>
       </c>
       <c r="H16" s="15"/>
-      <c r="I16" s="30"/>
-      <c r="J16" s="26"/>
-    </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="I16" s="28"/>
+      <c r="J16" s="25"/>
+    </row>
+    <row r="17" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A17" s="9"/>
       <c r="B17" s="12"/>
       <c r="C17" s="12"/>
       <c r="D17" s="9"/>
       <c r="E17" s="9"/>
       <c r="F17" s="12"/>
-      <c r="G17" s="33"/>
+      <c r="G17" s="31"/>
       <c r="H17" s="12"/>
-      <c r="I17" s="62"/>
-      <c r="J17" s="27"/>
-    </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A18" s="7"/>
-      <c r="B18" s="12"/>
-      <c r="C18" s="12"/>
-      <c r="D18" s="9"/>
-      <c r="E18" s="20"/>
-      <c r="F18" s="32"/>
-      <c r="G18" s="32"/>
-      <c r="H18" s="7"/>
-      <c r="I18" s="30"/>
-      <c r="J18" s="26"/>
+      <c r="I17" s="57"/>
+      <c r="J17" s="26"/>
+    </row>
+    <row r="18" spans="1:10" ht="15" thickTop="1" x14ac:dyDescent="0.2">
+      <c r="A18" s="41">
+        <v>3</v>
+      </c>
+      <c r="B18" s="42" t="s">
+        <v>5</v>
+      </c>
+      <c r="C18" s="42">
+        <v>9</v>
+      </c>
+      <c r="D18" s="43" t="s">
+        <v>29</v>
+      </c>
+      <c r="E18" s="43" t="s">
+        <v>50</v>
+      </c>
+      <c r="F18" s="45">
+        <v>44444</v>
+      </c>
+      <c r="G18" s="68" t="s">
+        <v>19</v>
+      </c>
+      <c r="H18" s="41" t="s">
+        <v>67</v>
+      </c>
+      <c r="I18" s="56" t="s">
+        <v>54</v>
+      </c>
+      <c r="J18" s="76" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A19" s="7"/>
+      <c r="B19" s="11"/>
+      <c r="C19" s="11"/>
+      <c r="D19" s="20"/>
+      <c r="E19" s="20"/>
+      <c r="F19" s="30"/>
+      <c r="G19" s="69">
+        <v>81228196787</v>
+      </c>
+      <c r="H19" s="7"/>
+      <c r="I19" s="28"/>
+      <c r="J19" s="25"/>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A20" s="9"/>
+      <c r="B20" s="12"/>
+      <c r="C20" s="12"/>
+      <c r="D20" s="9"/>
+      <c r="E20" s="9"/>
+      <c r="F20" s="31"/>
+      <c r="G20" s="70"/>
+      <c r="H20" s="9"/>
+      <c r="I20" s="57"/>
+      <c r="J20" s="26"/>
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A21" s="5">
+        <v>4</v>
+      </c>
+      <c r="B21" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C21" s="4">
+        <v>9</v>
+      </c>
+      <c r="D21" s="14" t="s">
+        <v>29</v>
+      </c>
+      <c r="E21" s="14" t="s">
+        <v>50</v>
+      </c>
+      <c r="F21" s="37">
+        <v>44444</v>
+      </c>
+      <c r="G21" s="71" t="s">
+        <v>20</v>
+      </c>
+      <c r="H21" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="I21" s="58" t="s">
+        <v>54</v>
+      </c>
+      <c r="J21" s="76" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A22" s="7"/>
+      <c r="B22" s="11"/>
+      <c r="C22" s="11"/>
+      <c r="D22" s="20"/>
+      <c r="E22" s="20"/>
+      <c r="F22" s="30"/>
+      <c r="G22" s="69">
+        <v>81225736355</v>
+      </c>
+      <c r="H22" s="7"/>
+      <c r="I22" s="28"/>
+      <c r="J22" s="25"/>
+    </row>
+    <row r="23" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A23" s="9"/>
+      <c r="B23" s="12"/>
+      <c r="C23" s="12"/>
+      <c r="D23" s="9"/>
+      <c r="E23" s="9"/>
+      <c r="F23" s="31"/>
+      <c r="G23" s="70"/>
+      <c r="H23" s="9"/>
+      <c r="I23" s="57"/>
+      <c r="J23" s="26"/>
+    </row>
+    <row r="24" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A24" s="24">
+        <v>13</v>
+      </c>
+      <c r="B24" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="C24" s="10">
+        <v>30</v>
+      </c>
+      <c r="D24" s="46">
+        <v>44253</v>
+      </c>
+      <c r="E24" s="46" t="s">
+        <v>55</v>
+      </c>
+      <c r="F24" s="32" t="s">
+        <v>65</v>
+      </c>
+      <c r="G24" s="71" t="s">
+        <v>35</v>
+      </c>
+      <c r="H24" s="24" t="s">
+        <v>75</v>
+      </c>
+      <c r="I24" s="59">
+        <v>44287</v>
+      </c>
+      <c r="J24" s="76" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A25" s="20"/>
+      <c r="B25" s="15"/>
+      <c r="C25" s="15"/>
+      <c r="D25" s="20"/>
+      <c r="E25" s="20"/>
+      <c r="F25" s="30"/>
+      <c r="G25" s="69">
+        <v>82110632173</v>
+      </c>
+      <c r="H25" s="20"/>
+      <c r="I25" s="28"/>
+      <c r="J25" s="25"/>
+    </row>
+    <row r="26" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A26" s="22"/>
+      <c r="B26" s="16"/>
+      <c r="C26" s="16"/>
+      <c r="D26" s="9"/>
+      <c r="E26" s="9"/>
+      <c r="F26" s="31"/>
+      <c r="G26" s="70"/>
+      <c r="H26" s="22"/>
+      <c r="I26" s="57"/>
+      <c r="J26" s="26"/>
+    </row>
+    <row r="27" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A27" s="5">
+        <v>19</v>
+      </c>
+      <c r="B27" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="C27" s="10">
+        <v>32</v>
+      </c>
+      <c r="D27" s="14" t="s">
+        <v>31</v>
+      </c>
+      <c r="E27" s="14" t="s">
+        <v>56</v>
+      </c>
+      <c r="F27" s="32" t="s">
+        <v>63</v>
+      </c>
+      <c r="G27" s="71" t="s">
+        <v>24</v>
+      </c>
+      <c r="H27" s="24" t="s">
+        <v>77</v>
+      </c>
+      <c r="I27" s="58" t="s">
+        <v>54</v>
+      </c>
+      <c r="J27" s="76" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A28" s="7"/>
+      <c r="B28" s="15"/>
+      <c r="C28" s="15"/>
+      <c r="D28" s="7"/>
+      <c r="E28" s="20"/>
+      <c r="F28" s="30"/>
+      <c r="G28" s="69">
+        <v>81231558203</v>
+      </c>
+      <c r="H28" s="20"/>
+      <c r="I28" s="28"/>
+      <c r="J28" s="25"/>
+    </row>
+    <row r="29" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A29" s="9"/>
+      <c r="B29" s="16"/>
+      <c r="C29" s="16"/>
+      <c r="D29" s="9"/>
+      <c r="E29" s="9"/>
+      <c r="F29" s="31"/>
+      <c r="G29" s="70"/>
+      <c r="H29" s="22"/>
+      <c r="I29" s="57"/>
+      <c r="J29" s="26"/>
+    </row>
+    <row r="30" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A30" s="7">
+        <v>22</v>
+      </c>
+      <c r="B30" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="C30" s="10">
+        <v>38</v>
+      </c>
+      <c r="D30" s="46">
+        <v>44253</v>
+      </c>
+      <c r="E30" s="14" t="s">
+        <v>33</v>
+      </c>
+      <c r="F30" s="32" t="s">
+        <v>17</v>
+      </c>
+      <c r="G30" s="71" t="s">
+        <v>37</v>
+      </c>
+      <c r="H30" s="24" t="s">
+        <v>74</v>
+      </c>
+      <c r="I30" s="59">
+        <v>44246</v>
+      </c>
+      <c r="J30" s="76" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A31" s="7"/>
+      <c r="B31" s="15"/>
+      <c r="C31" s="15"/>
+      <c r="D31" s="6"/>
+      <c r="E31" s="20"/>
+      <c r="F31" s="30"/>
+      <c r="G31" s="69">
+        <v>81318154783</v>
+      </c>
+      <c r="H31" s="20"/>
+      <c r="I31" s="28"/>
+      <c r="J31" s="25"/>
+    </row>
+    <row r="32" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A32" s="7"/>
+      <c r="B32" s="55"/>
+      <c r="C32" s="55"/>
+      <c r="D32" s="9"/>
+      <c r="E32" s="9"/>
+      <c r="F32" s="31"/>
+      <c r="G32" s="70"/>
+      <c r="H32" s="22"/>
+      <c r="I32" s="26"/>
+      <c r="J32" s="26"/>
+    </row>
+    <row r="33" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A33" s="5">
+        <v>23</v>
+      </c>
+      <c r="B33" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="C33" s="10">
+        <v>38</v>
+      </c>
+      <c r="D33" s="46">
+        <v>44253</v>
+      </c>
+      <c r="E33" s="14" t="s">
+        <v>60</v>
+      </c>
+      <c r="F33" s="32" t="s">
+        <v>17</v>
+      </c>
+      <c r="G33" s="71" t="s">
+        <v>39</v>
+      </c>
+      <c r="H33" s="24" t="s">
+        <v>70</v>
+      </c>
+      <c r="I33" s="59">
+        <v>44246</v>
+      </c>
+      <c r="J33" s="76" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="34" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A34" s="7"/>
+      <c r="B34" s="15"/>
+      <c r="C34" s="15"/>
+      <c r="D34" s="6"/>
+      <c r="E34" s="20"/>
+      <c r="F34" s="30"/>
+      <c r="G34" s="69">
+        <v>8123929482</v>
+      </c>
+      <c r="H34" s="20"/>
+      <c r="I34" s="28"/>
+      <c r="J34" s="25"/>
+    </row>
+    <row r="35" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A35" s="9"/>
+      <c r="B35" s="55"/>
+      <c r="C35" s="55"/>
+      <c r="D35" s="9"/>
+      <c r="E35" s="9"/>
+      <c r="F35" s="31"/>
+      <c r="G35" s="70"/>
+      <c r="H35" s="22"/>
+      <c r="I35" s="26"/>
+      <c r="J35" s="26"/>
+    </row>
+    <row r="36" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A36" s="7">
+        <v>24</v>
+      </c>
+      <c r="B36" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="C36" s="4">
+        <v>39</v>
+      </c>
+      <c r="D36" s="14" t="s">
+        <v>28</v>
+      </c>
+      <c r="E36" s="14" t="s">
+        <v>58</v>
+      </c>
+      <c r="F36" s="37">
+        <v>44444</v>
+      </c>
+      <c r="G36" s="71" t="s">
+        <v>25</v>
+      </c>
+      <c r="H36" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="I36" s="58" t="s">
+        <v>54</v>
+      </c>
+      <c r="J36" s="76" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="37" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A37" s="7"/>
+      <c r="B37" s="11"/>
+      <c r="C37" s="11"/>
+      <c r="D37" s="7"/>
+      <c r="E37" s="7"/>
+      <c r="F37" s="30"/>
+      <c r="G37" s="69">
+        <v>81331414130</v>
+      </c>
+      <c r="H37" s="7"/>
+      <c r="I37" s="25"/>
+      <c r="J37" s="25"/>
+    </row>
+    <row r="38" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A38" s="7"/>
+      <c r="B38" s="12"/>
+      <c r="C38" s="12"/>
+      <c r="D38" s="9"/>
+      <c r="E38" s="9"/>
+      <c r="F38" s="31"/>
+      <c r="G38" s="70"/>
+      <c r="H38" s="9"/>
+      <c r="I38" s="26"/>
+      <c r="J38" s="26"/>
+    </row>
+    <row r="39" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A39" s="5">
+        <v>25</v>
+      </c>
+      <c r="B39" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="C39" s="4">
+        <v>39</v>
+      </c>
+      <c r="D39" s="14" t="s">
+        <v>28</v>
+      </c>
+      <c r="E39" s="14" t="s">
+        <v>58</v>
+      </c>
+      <c r="F39" s="37">
+        <v>44444</v>
+      </c>
+      <c r="G39" s="71" t="s">
+        <v>26</v>
+      </c>
+      <c r="H39" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="I39" s="58" t="s">
+        <v>54</v>
+      </c>
+      <c r="J39" s="76" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="40" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A40" s="7"/>
+      <c r="B40" s="11"/>
+      <c r="C40" s="11"/>
+      <c r="D40" s="7"/>
+      <c r="E40" s="7"/>
+      <c r="F40" s="30"/>
+      <c r="G40" s="69">
+        <v>81252283477</v>
+      </c>
+      <c r="H40" s="7"/>
+      <c r="I40" s="25"/>
+      <c r="J40" s="25"/>
+    </row>
+    <row r="41" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A41" s="9"/>
+      <c r="B41" s="12"/>
+      <c r="C41" s="12"/>
+      <c r="D41" s="9"/>
+      <c r="E41" s="9"/>
+      <c r="F41" s="31"/>
+      <c r="G41" s="70"/>
+      <c r="H41" s="9"/>
+      <c r="I41" s="26"/>
+      <c r="J41" s="26"/>
     </row>
   </sheetData>
   <mergeCells count="8">
@@ -2805,9 +3097,9 @@
     <mergeCell ref="A1:A2"/>
     <mergeCell ref="B1:B2"/>
     <mergeCell ref="C1:C2"/>
-    <mergeCell ref="D1:D2"/>
-    <mergeCell ref="E1:F1"/>
     <mergeCell ref="G1:G2"/>
+    <mergeCell ref="F1:F2"/>
+    <mergeCell ref="D1:E1"/>
   </mergeCells>
   <pageMargins left="0.43" right="0.12" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" scale="81" orientation="portrait" r:id="rId1"/>

--- a/RENCANA BON VOYAGE.xlsx
+++ b/RENCANA BON VOYAGE.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Mapan\progress\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3EDAD6CF-35FF-463D-B948-FDCC18DC7DDD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B80C2E55-2A5D-4976-A508-4700E6C88108}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3795" yWindow="4155" windowWidth="15600" windowHeight="11385" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="progres" sheetId="1" r:id="rId1"/>
@@ -719,6 +719,15 @@
     <xf numFmtId="15" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" indent="2"/>
     </xf>
+    <xf numFmtId="16" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="16" fontId="2" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="16" fontId="2" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -756,15 +765,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="16" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="16" fontId="2" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="16" fontId="2" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1297,8 +1297,8 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:J50"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="D1" sqref="D1:E1"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="D33" sqref="D33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1317,46 +1317,46 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="15" x14ac:dyDescent="0.25">
-      <c r="A1" s="81" t="s">
+      <c r="A1" s="84" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="81" t="s">
+      <c r="B1" s="84" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="81" t="s">
+      <c r="C1" s="84" t="s">
         <v>27</v>
       </c>
-      <c r="D1" s="87" t="s">
+      <c r="D1" s="90" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="87"/>
-      <c r="F1" s="85" t="s">
+      <c r="E1" s="90"/>
+      <c r="F1" s="88" t="s">
         <v>8</v>
       </c>
-      <c r="G1" s="83" t="s">
+      <c r="G1" s="86" t="s">
         <v>4</v>
       </c>
-      <c r="H1" s="81" t="s">
+      <c r="H1" s="84" t="s">
         <v>2</v>
       </c>
-      <c r="I1" s="81" t="s">
+      <c r="I1" s="84" t="s">
         <v>57</v>
       </c>
-      <c r="J1" s="81"/>
+      <c r="J1" s="84"/>
     </row>
     <row r="2" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="82"/>
-      <c r="B2" s="82"/>
-      <c r="C2" s="82"/>
+      <c r="A2" s="85"/>
+      <c r="B2" s="85"/>
+      <c r="C2" s="85"/>
       <c r="D2" s="17" t="s">
         <v>6</v>
       </c>
       <c r="E2" s="17" t="s">
         <v>7</v>
       </c>
-      <c r="F2" s="86"/>
-      <c r="G2" s="84"/>
-      <c r="H2" s="82"/>
+      <c r="F2" s="89"/>
+      <c r="G2" s="87"/>
+      <c r="H2" s="85"/>
       <c r="I2" s="17" t="s">
         <v>6</v>
       </c>
@@ -1374,7 +1374,7 @@
       <c r="C3" s="4">
         <v>10</v>
       </c>
-      <c r="D3" s="95" t="s">
+      <c r="D3" s="82" t="s">
         <v>110</v>
       </c>
       <c r="E3" s="21">
@@ -1430,7 +1430,7 @@
       <c r="C6" s="4">
         <v>10</v>
       </c>
-      <c r="D6" s="95" t="s">
+      <c r="D6" s="82" t="s">
         <v>110</v>
       </c>
       <c r="E6" s="21">
@@ -1598,7 +1598,7 @@
       <c r="C15" s="4">
         <v>17</v>
       </c>
-      <c r="D15" s="95" t="s">
+      <c r="D15" s="82" t="s">
         <v>110</v>
       </c>
       <c r="E15" s="21">
@@ -1654,7 +1654,7 @@
       <c r="C18" s="4">
         <v>17</v>
       </c>
-      <c r="D18" s="95" t="s">
+      <c r="D18" s="82" t="s">
         <v>110</v>
       </c>
       <c r="E18" s="21">
@@ -1713,7 +1713,7 @@
       <c r="D21" s="14" t="s">
         <v>28</v>
       </c>
-      <c r="E21" s="96" t="s">
+      <c r="E21" s="83" t="s">
         <v>111</v>
       </c>
       <c r="F21" s="37">
@@ -2217,7 +2217,7 @@
       <c r="D48" s="2" t="s">
         <v>106</v>
       </c>
-      <c r="E48" s="94">
+      <c r="E48" s="81">
         <v>44237</v>
       </c>
       <c r="F48" s="80">
@@ -2269,8 +2269,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{278BA1B3-1491-4141-B637-9082C53CD422}">
   <dimension ref="A1:J41"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="E34" sqref="E34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -2289,46 +2289,46 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="18" x14ac:dyDescent="0.2">
-      <c r="A1" s="90" t="s">
+      <c r="A1" s="93" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="90" t="s">
+      <c r="B1" s="93" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="90" t="s">
+      <c r="C1" s="93" t="s">
         <v>27</v>
       </c>
-      <c r="D1" s="90" t="s">
+      <c r="D1" s="93" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="90"/>
-      <c r="F1" s="92" t="s">
+      <c r="E1" s="93"/>
+      <c r="F1" s="95" t="s">
         <v>109</v>
       </c>
-      <c r="G1" s="90" t="s">
+      <c r="G1" s="93" t="s">
         <v>4</v>
       </c>
-      <c r="H1" s="88" t="s">
+      <c r="H1" s="91" t="s">
         <v>2</v>
       </c>
-      <c r="I1" s="81" t="s">
+      <c r="I1" s="84" t="s">
         <v>57</v>
       </c>
-      <c r="J1" s="81"/>
+      <c r="J1" s="84"/>
     </row>
     <row r="2" spans="1:10" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="91"/>
-      <c r="B2" s="91"/>
-      <c r="C2" s="91"/>
+      <c r="A2" s="94"/>
+      <c r="B2" s="94"/>
+      <c r="C2" s="94"/>
       <c r="D2" s="79" t="s">
         <v>6</v>
       </c>
       <c r="E2" s="19" t="s">
         <v>7</v>
       </c>
-      <c r="F2" s="93"/>
-      <c r="G2" s="91"/>
-      <c r="H2" s="89"/>
+      <c r="F2" s="96"/>
+      <c r="G2" s="94"/>
+      <c r="H2" s="92"/>
       <c r="I2" s="17" t="s">
         <v>6</v>
       </c>
@@ -2800,7 +2800,7 @@
       <c r="I26" s="57"/>
       <c r="J26" s="26"/>
     </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="5">
         <v>19</v>
       </c>

--- a/RENCANA BON VOYAGE.xlsx
+++ b/RENCANA BON VOYAGE.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="24326"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="24430"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Mapan\progress\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B80C2E55-2A5D-4976-A508-4700E6C88108}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{28AE414D-AF03-49F9-AF28-D9A3661F6D02}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3795" yWindow="4155" windowWidth="15600" windowHeight="11385" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="progres" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="195" uniqueCount="112">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="233" uniqueCount="132">
   <si>
     <t>NO</t>
   </si>
@@ -129,9 +129,6 @@
     <t>10 JUNI</t>
   </si>
   <si>
-    <t>10 OKT</t>
-  </si>
-  <si>
     <t>BASHIR</t>
   </si>
   <si>
@@ -279,9 +276,6 @@
     <t>17 ORG</t>
   </si>
   <si>
-    <t>20 OKT</t>
-  </si>
-  <si>
     <t>28 AGUST</t>
   </si>
   <si>
@@ -345,9 +339,6 @@
     <t>04 MARET 22</t>
   </si>
   <si>
-    <t>07 OKT</t>
-  </si>
-  <si>
     <t>9 ORG</t>
   </si>
   <si>
@@ -360,7 +351,76 @@
     <t>23 SEPT</t>
   </si>
   <si>
-    <t>01 OKT</t>
+    <t>04 OKT</t>
+  </si>
+  <si>
+    <t>1. DP3N31</t>
+  </si>
+  <si>
+    <t>2. DP3T25</t>
+  </si>
+  <si>
+    <t>3. DP4N33</t>
+  </si>
+  <si>
+    <t>73 ORG</t>
+  </si>
+  <si>
+    <t>1. DP1NT10</t>
+  </si>
+  <si>
+    <t>2. DP3N32</t>
+  </si>
+  <si>
+    <t>3. DP4T28</t>
+  </si>
+  <si>
+    <t>32 ORG</t>
+  </si>
+  <si>
+    <t>KIRIM BN 01 DESEMBER  2021</t>
+  </si>
+  <si>
+    <t>4. DP5NT40</t>
+  </si>
+  <si>
+    <t>1. DP2NT17</t>
+  </si>
+  <si>
+    <t>2. DP3N33</t>
+  </si>
+  <si>
+    <t>3. DP3T26</t>
+  </si>
+  <si>
+    <t>4. ETO5</t>
+  </si>
+  <si>
+    <t>102 ORG</t>
+  </si>
+  <si>
+    <t>KIRIM BN 10 FEB 2021</t>
+  </si>
+  <si>
+    <t>KIRIM BN 06 OKT 2021</t>
+  </si>
+  <si>
+    <t>1. DP2NT16</t>
+  </si>
+  <si>
+    <t>151 ORG</t>
+  </si>
+  <si>
+    <t>KIRIM BN 01 NOV 2021</t>
+  </si>
+  <si>
+    <t>01 NOV</t>
+  </si>
+  <si>
+    <t>01 FEB 22</t>
+  </si>
+  <si>
+    <t>06 OKT</t>
   </si>
 </sst>
 </file>
@@ -399,7 +459,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -415,6 +475,30 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.59999389629810485"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -489,7 +573,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="97">
+  <cellXfs count="116">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -577,9 +661,6 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" indent="2"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="2"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="2"/>
     </xf>
@@ -592,9 +673,6 @@
     <xf numFmtId="15" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" indent="2"/>
     </xf>
-    <xf numFmtId="16" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="16" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -633,9 +711,6 @@
     </xf>
     <xf numFmtId="15" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="16" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="2"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" indent="2"/>
@@ -710,18 +785,9 @@
     <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" indent="2"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="2"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="15" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" indent="2"/>
-    </xf>
-    <xf numFmtId="16" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="16" fontId="2" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -765,6 +831,81 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="16" fontId="2" fillId="2" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="16" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="15" fontId="2" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="2"/>
+    </xf>
+    <xf numFmtId="16" fontId="2" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="2"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="16" fontId="2" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="2"/>
+    </xf>
+    <xf numFmtId="15" fontId="2" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="2"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="15" fontId="2" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" indent="2"/>
+    </xf>
+    <xf numFmtId="16" fontId="2" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="2"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="15" fontId="2" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" indent="2"/>
+    </xf>
+    <xf numFmtId="15" fontId="2" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -796,8 +937,8 @@
     <xdr:to>
       <xdr:col>2</xdr:col>
       <xdr:colOff>273473</xdr:colOff>
-      <xdr:row>14</xdr:row>
-      <xdr:rowOff>178419</xdr:rowOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>5237</xdr:rowOff>
     </xdr:to>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
       <mc:Choice Requires="xdr14">
@@ -916,6 +1057,66 @@
     </mc:AlternateContent>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>189939</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>89245</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="360" cy="360"/>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
+        <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId5">
+          <xdr14:nvContentPartPr>
+            <xdr14:cNvPr id="5" name="Ink 4">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4B2E4815-0B12-4AF2-A494-98ECB5827F58}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr14:cNvPr>
+            <xdr14:cNvContentPartPr/>
+          </xdr14:nvContentPartPr>
+          <xdr14:nvPr macro=""/>
+          <xdr14:xfrm>
+            <a:off x="12269880" y="5871480"/>
+            <a:ext cx="360" cy="360"/>
+          </xdr14:xfrm>
+        </xdr:contentPart>
+      </mc:Choice>
+      <mc:Fallback xmlns="">
+        <xdr:pic>
+          <xdr:nvPicPr>
+            <xdr:cNvPr id="4" name="Ink 3">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{14E7025F-E45F-427C-A8C7-1EBEFB539DC0}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvPicPr/>
+          </xdr:nvPicPr>
+          <xdr:blipFill>
+            <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4"/>
+            <a:stretch>
+              <a:fillRect/>
+            </a:stretch>
+          </xdr:blipFill>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="12260880" y="5862480"/>
+              <a:ext cx="18000" cy="18000"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+          </xdr:spPr>
+        </xdr:pic>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -961,6 +1162,33 @@
         </inkml:channelProperties>
       </inkml:inkSource>
       <inkml:timestamp xml:id="ts0" timeString="2021-09-23T03:14:42.021"/>
+    </inkml:context>
+    <inkml:brush xml:id="br0">
+      <inkml:brushProperty name="width" value="0.05" units="cm"/>
+      <inkml:brushProperty name="height" value="0.05" units="cm"/>
+      <inkml:brushProperty name="color" value="#E71224"/>
+      <inkml:brushProperty name="ignorePressure" value="1"/>
+    </inkml:brush>
+  </inkml:definitions>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0">0 0,'0'0</inkml:trace>
+</inkml:ink>
+</file>
+
+<file path=xl/ink/ink3.xml><?xml version="1.0" encoding="utf-8"?>
+<inkml:ink xmlns:inkml="http://www.w3.org/2003/InkML">
+  <inkml:definitions>
+    <inkml:context xml:id="ctx0">
+      <inkml:inkSource xml:id="inkSrc0">
+        <inkml:traceFormat>
+          <inkml:channel name="X" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
+          <inkml:channel name="Y" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
+        </inkml:traceFormat>
+        <inkml:channelProperties>
+          <inkml:channelProperty channel="X" name="resolution" value="1000" units="1/cm"/>
+          <inkml:channelProperty channel="Y" name="resolution" value="1000" units="1/cm"/>
+        </inkml:channelProperties>
+      </inkml:inkSource>
+      <inkml:timestamp xml:id="ts0" timeString="2021-10-04T12:59:48.107"/>
     </inkml:context>
     <inkml:brush xml:id="br0">
       <inkml:brushProperty name="width" value="0.05" units="cm"/>
@@ -1295,68 +1523,68 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:J50"/>
+  <dimension ref="A1:J65"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="D33" sqref="D33"/>
+    <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="H47" sqref="H47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="9" style="2" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="15.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="17.140625" style="1" customWidth="1"/>
     <col min="3" max="3" width="9.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="17" style="2" customWidth="1"/>
     <col min="5" max="5" width="18.42578125" style="2" customWidth="1"/>
-    <col min="6" max="6" width="18.140625" style="35" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="21.5703125" style="75" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="18.140625" style="34" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="21.5703125" style="72" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="9.7109375" style="2" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="10.42578125" style="61" customWidth="1"/>
+    <col min="9" max="9" width="10.42578125" style="58" customWidth="1"/>
     <col min="10" max="10" width="14" style="29" bestFit="1" customWidth="1"/>
     <col min="11" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="15" x14ac:dyDescent="0.25">
-      <c r="A1" s="84" t="s">
+      <c r="A1" s="78" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="84" t="s">
+      <c r="B1" s="78" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="84" t="s">
+      <c r="C1" s="78" t="s">
         <v>27</v>
       </c>
-      <c r="D1" s="90" t="s">
+      <c r="D1" s="84" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="90"/>
-      <c r="F1" s="88" t="s">
+      <c r="E1" s="84"/>
+      <c r="F1" s="82" t="s">
         <v>8</v>
       </c>
-      <c r="G1" s="86" t="s">
+      <c r="G1" s="80" t="s">
         <v>4</v>
       </c>
-      <c r="H1" s="84" t="s">
+      <c r="H1" s="78" t="s">
         <v>2</v>
       </c>
-      <c r="I1" s="84" t="s">
-        <v>57</v>
-      </c>
-      <c r="J1" s="84"/>
+      <c r="I1" s="78" t="s">
+        <v>56</v>
+      </c>
+      <c r="J1" s="78"/>
     </row>
     <row r="2" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="85"/>
-      <c r="B2" s="85"/>
-      <c r="C2" s="85"/>
+      <c r="A2" s="79"/>
+      <c r="B2" s="79"/>
+      <c r="C2" s="79"/>
       <c r="D2" s="17" t="s">
         <v>6</v>
       </c>
       <c r="E2" s="17" t="s">
         <v>7</v>
       </c>
-      <c r="F2" s="89"/>
-      <c r="G2" s="87"/>
-      <c r="H2" s="85"/>
+      <c r="F2" s="83"/>
+      <c r="G2" s="81"/>
+      <c r="H2" s="79"/>
       <c r="I2" s="17" t="s">
         <v>6</v>
       </c>
@@ -1374,23 +1602,23 @@
       <c r="C3" s="4">
         <v>10</v>
       </c>
-      <c r="D3" s="82" t="s">
-        <v>110</v>
-      </c>
-      <c r="E3" s="21">
-        <v>44520</v>
-      </c>
-      <c r="F3" s="37" t="s">
-        <v>53</v>
-      </c>
-      <c r="G3" s="71" t="s">
-        <v>51</v>
+      <c r="D3" s="91" t="s">
+        <v>107</v>
+      </c>
+      <c r="E3" s="113" t="s">
+        <v>95</v>
+      </c>
+      <c r="F3" s="95" t="s">
+        <v>52</v>
+      </c>
+      <c r="G3" s="68" t="s">
+        <v>50</v>
       </c>
       <c r="H3" s="5" t="s">
-        <v>69</v>
-      </c>
-      <c r="I3" s="76" t="s">
-        <v>100</v>
+        <v>68</v>
+      </c>
+      <c r="I3" s="73" t="s">
+        <v>98</v>
       </c>
       <c r="J3" s="27"/>
     </row>
@@ -1401,7 +1629,7 @@
       <c r="D4" s="20"/>
       <c r="E4" s="20"/>
       <c r="F4" s="30"/>
-      <c r="G4" s="69">
+      <c r="G4" s="66">
         <v>81331434743</v>
       </c>
       <c r="H4" s="7"/>
@@ -1415,9 +1643,9 @@
       <c r="D5" s="22"/>
       <c r="E5" s="22"/>
       <c r="F5" s="31"/>
-      <c r="G5" s="70"/>
+      <c r="G5" s="67"/>
       <c r="H5" s="9"/>
-      <c r="I5" s="57"/>
+      <c r="I5" s="54"/>
       <c r="J5" s="26"/>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.2">
@@ -1430,23 +1658,23 @@
       <c r="C6" s="4">
         <v>10</v>
       </c>
-      <c r="D6" s="82" t="s">
-        <v>110</v>
-      </c>
-      <c r="E6" s="21">
-        <v>44520</v>
-      </c>
-      <c r="F6" s="37" t="s">
-        <v>53</v>
-      </c>
-      <c r="G6" s="71" t="s">
-        <v>101</v>
+      <c r="D6" s="91" t="s">
+        <v>107</v>
+      </c>
+      <c r="E6" s="113" t="s">
+        <v>95</v>
+      </c>
+      <c r="F6" s="95" t="s">
+        <v>52</v>
+      </c>
+      <c r="G6" s="68" t="s">
+        <v>99</v>
       </c>
       <c r="H6" s="5" t="s">
-        <v>70</v>
-      </c>
-      <c r="I6" s="76" t="s">
-        <v>100</v>
+        <v>69</v>
+      </c>
+      <c r="I6" s="73" t="s">
+        <v>98</v>
       </c>
       <c r="J6" s="27"/>
     </row>
@@ -1457,8 +1685,8 @@
       <c r="D7" s="20"/>
       <c r="E7" s="20"/>
       <c r="F7" s="30"/>
-      <c r="G7" s="77" t="s">
-        <v>102</v>
+      <c r="G7" s="74" t="s">
+        <v>100</v>
       </c>
       <c r="H7" s="7"/>
       <c r="I7" s="28"/>
@@ -1471,9 +1699,9 @@
       <c r="D8" s="22"/>
       <c r="E8" s="22"/>
       <c r="F8" s="31"/>
-      <c r="G8" s="70"/>
+      <c r="G8" s="67"/>
       <c r="H8" s="9"/>
-      <c r="I8" s="57"/>
+      <c r="I8" s="54"/>
       <c r="J8" s="26"/>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.2">
@@ -1489,20 +1717,20 @@
       <c r="D9" s="14" t="s">
         <v>30</v>
       </c>
-      <c r="E9" s="38">
-        <v>44501</v>
-      </c>
-      <c r="F9" s="37">
+      <c r="E9" s="76" t="s">
+        <v>129</v>
+      </c>
+      <c r="F9" s="112">
         <v>44520</v>
       </c>
-      <c r="G9" s="71" t="s">
+      <c r="G9" s="68" t="s">
         <v>21</v>
       </c>
       <c r="H9" s="5" t="s">
-        <v>71</v>
-      </c>
-      <c r="I9" s="58" t="s">
-        <v>54</v>
+        <v>70</v>
+      </c>
+      <c r="I9" s="55" t="s">
+        <v>53</v>
       </c>
       <c r="J9" s="27"/>
     </row>
@@ -1511,9 +1739,9 @@
       <c r="B10" s="11"/>
       <c r="C10" s="11"/>
       <c r="D10" s="7"/>
-      <c r="E10" s="39"/>
-      <c r="F10" s="36"/>
-      <c r="G10" s="69">
+      <c r="E10" s="37"/>
+      <c r="F10" s="35"/>
+      <c r="G10" s="66">
         <v>81232989078</v>
       </c>
       <c r="H10" s="7"/>
@@ -1526,10 +1754,10 @@
       <c r="C11" s="12"/>
       <c r="D11" s="9"/>
       <c r="E11" s="9"/>
-      <c r="F11" s="40"/>
-      <c r="G11" s="70"/>
+      <c r="F11" s="38"/>
+      <c r="G11" s="67"/>
       <c r="H11" s="9"/>
-      <c r="I11" s="57"/>
+      <c r="I11" s="54"/>
       <c r="J11" s="26"/>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.2">
@@ -1545,20 +1773,20 @@
       <c r="D12" s="14" t="s">
         <v>30</v>
       </c>
-      <c r="E12" s="38">
-        <v>44501</v>
-      </c>
-      <c r="F12" s="37">
+      <c r="E12" s="76" t="s">
+        <v>129</v>
+      </c>
+      <c r="F12" s="112">
         <v>44520</v>
       </c>
-      <c r="G12" s="71" t="s">
+      <c r="G12" s="68" t="s">
         <v>22</v>
       </c>
       <c r="H12" s="5" t="s">
-        <v>72</v>
-      </c>
-      <c r="I12" s="58" t="s">
-        <v>54</v>
+        <v>71</v>
+      </c>
+      <c r="I12" s="55" t="s">
+        <v>53</v>
       </c>
       <c r="J12" s="27"/>
     </row>
@@ -1567,9 +1795,9 @@
       <c r="B13" s="11"/>
       <c r="C13" s="11"/>
       <c r="D13" s="7"/>
-      <c r="E13" s="39"/>
-      <c r="F13" s="36"/>
-      <c r="G13" s="69">
+      <c r="E13" s="37"/>
+      <c r="F13" s="35"/>
+      <c r="G13" s="66">
         <v>81231807990</v>
       </c>
       <c r="H13" s="7"/>
@@ -1582,10 +1810,10 @@
       <c r="C14" s="12"/>
       <c r="D14" s="9"/>
       <c r="E14" s="9"/>
-      <c r="F14" s="40"/>
-      <c r="G14" s="70"/>
+      <c r="F14" s="38"/>
+      <c r="G14" s="67"/>
       <c r="H14" s="9"/>
-      <c r="I14" s="57"/>
+      <c r="I14" s="54"/>
       <c r="J14" s="26"/>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.2">
@@ -1598,22 +1826,22 @@
       <c r="C15" s="4">
         <v>17</v>
       </c>
-      <c r="D15" s="82" t="s">
-        <v>110</v>
-      </c>
-      <c r="E15" s="21">
-        <v>44593</v>
-      </c>
-      <c r="F15" s="37" t="s">
-        <v>66</v>
-      </c>
-      <c r="G15" s="71" t="s">
-        <v>52</v>
+      <c r="D15" s="92" t="s">
+        <v>108</v>
+      </c>
+      <c r="E15" s="113" t="s">
+        <v>130</v>
+      </c>
+      <c r="F15" s="104" t="s">
+        <v>65</v>
+      </c>
+      <c r="G15" s="68" t="s">
+        <v>51</v>
       </c>
       <c r="H15" s="5" t="s">
-        <v>73</v>
-      </c>
-      <c r="I15" s="59">
+        <v>72</v>
+      </c>
+      <c r="I15" s="56">
         <v>44449</v>
       </c>
       <c r="J15" s="27"/>
@@ -1622,10 +1850,10 @@
       <c r="A16" s="7"/>
       <c r="B16" s="11"/>
       <c r="C16" s="11"/>
-      <c r="D16" s="39"/>
-      <c r="E16" s="39"/>
-      <c r="F16" s="36"/>
-      <c r="G16" s="69">
+      <c r="D16" s="37"/>
+      <c r="E16" s="37"/>
+      <c r="F16" s="35"/>
+      <c r="G16" s="66">
         <v>81284663664</v>
       </c>
       <c r="H16" s="7"/>
@@ -1638,10 +1866,10 @@
       <c r="C17" s="12"/>
       <c r="D17" s="22"/>
       <c r="E17" s="22"/>
-      <c r="F17" s="40"/>
-      <c r="G17" s="70"/>
+      <c r="F17" s="38"/>
+      <c r="G17" s="67"/>
       <c r="H17" s="9"/>
-      <c r="I17" s="57"/>
+      <c r="I17" s="54"/>
       <c r="J17" s="26"/>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.2">
@@ -1654,22 +1882,22 @@
       <c r="C18" s="4">
         <v>17</v>
       </c>
-      <c r="D18" s="82" t="s">
-        <v>110</v>
-      </c>
-      <c r="E18" s="21">
-        <v>44593</v>
-      </c>
-      <c r="F18" s="37" t="s">
-        <v>66</v>
-      </c>
-      <c r="G18" s="71" t="s">
-        <v>48</v>
+      <c r="D18" s="92" t="s">
+        <v>108</v>
+      </c>
+      <c r="E18" s="113" t="s">
+        <v>130</v>
+      </c>
+      <c r="F18" s="104" t="s">
+        <v>65</v>
+      </c>
+      <c r="G18" s="68" t="s">
+        <v>47</v>
       </c>
       <c r="H18" s="5" t="s">
-        <v>74</v>
-      </c>
-      <c r="I18" s="59">
+        <v>73</v>
+      </c>
+      <c r="I18" s="56">
         <v>44449</v>
       </c>
       <c r="J18" s="27"/>
@@ -1678,10 +1906,10 @@
       <c r="A19" s="7"/>
       <c r="B19" s="11"/>
       <c r="C19" s="11"/>
-      <c r="D19" s="39"/>
-      <c r="E19" s="39"/>
-      <c r="F19" s="36"/>
-      <c r="G19" s="69">
+      <c r="D19" s="37"/>
+      <c r="E19" s="37"/>
+      <c r="F19" s="35"/>
+      <c r="G19" s="66">
         <v>85740346667</v>
       </c>
       <c r="H19" s="7"/>
@@ -1694,10 +1922,10 @@
       <c r="C20" s="12"/>
       <c r="D20" s="22"/>
       <c r="E20" s="22"/>
-      <c r="F20" s="40"/>
-      <c r="G20" s="70"/>
+      <c r="F20" s="38"/>
+      <c r="G20" s="67"/>
       <c r="H20" s="9"/>
-      <c r="I20" s="57"/>
+      <c r="I20" s="54"/>
       <c r="J20" s="26"/>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.2">
@@ -1713,20 +1941,20 @@
       <c r="D21" s="14" t="s">
         <v>28</v>
       </c>
-      <c r="E21" s="83" t="s">
-        <v>111</v>
-      </c>
-      <c r="F21" s="37">
+      <c r="E21" s="77" t="s">
+        <v>131</v>
+      </c>
+      <c r="F21" s="109">
         <v>44501</v>
       </c>
-      <c r="G21" s="71" t="s">
+      <c r="G21" s="68" t="s">
         <v>23</v>
       </c>
       <c r="H21" s="24" t="s">
-        <v>76</v>
-      </c>
-      <c r="I21" s="58" t="s">
-        <v>54</v>
+        <v>75</v>
+      </c>
+      <c r="I21" s="55" t="s">
+        <v>53</v>
       </c>
       <c r="J21" s="27"/>
     </row>
@@ -1735,9 +1963,9 @@
       <c r="B22" s="15"/>
       <c r="C22" s="15"/>
       <c r="D22" s="7"/>
-      <c r="E22" s="47"/>
+      <c r="E22" s="45"/>
       <c r="F22" s="30"/>
-      <c r="G22" s="69">
+      <c r="G22" s="66">
         <v>6587623904</v>
       </c>
       <c r="H22" s="20"/>
@@ -1751,9 +1979,9 @@
       <c r="D23" s="9"/>
       <c r="E23" s="9"/>
       <c r="F23" s="31"/>
-      <c r="G23" s="70"/>
+      <c r="G23" s="67"/>
       <c r="H23" s="22"/>
-      <c r="I23" s="57"/>
+      <c r="I23" s="54"/>
       <c r="J23" s="26"/>
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.2">
@@ -1767,21 +1995,21 @@
         <v>32</v>
       </c>
       <c r="D24" s="14" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="E24" s="23">
         <v>44520</v>
       </c>
-      <c r="F24" s="33" t="s">
+      <c r="F24" s="96" t="s">
+        <v>44</v>
+      </c>
+      <c r="G24" s="69" t="s">
         <v>45</v>
       </c>
-      <c r="G24" s="72" t="s">
-        <v>46</v>
-      </c>
       <c r="H24" s="5" t="s">
-        <v>76</v>
-      </c>
-      <c r="I24" s="59">
+        <v>75</v>
+      </c>
+      <c r="I24" s="56">
         <v>44440</v>
       </c>
       <c r="J24" s="27"/>
@@ -1790,10 +2018,10 @@
       <c r="A25" s="7"/>
       <c r="B25" s="6"/>
       <c r="C25" s="11"/>
-      <c r="D25" s="47"/>
-      <c r="E25" s="47"/>
-      <c r="F25" s="34"/>
-      <c r="G25" s="73">
+      <c r="D25" s="45"/>
+      <c r="E25" s="45"/>
+      <c r="F25" s="33"/>
+      <c r="G25" s="70">
         <v>81333524165</v>
       </c>
       <c r="H25" s="7"/>
@@ -1806,10 +2034,10 @@
       <c r="C26" s="12"/>
       <c r="D26" s="9"/>
       <c r="E26" s="9"/>
-      <c r="F26" s="48"/>
-      <c r="G26" s="74"/>
+      <c r="F26" s="46"/>
+      <c r="G26" s="71"/>
       <c r="H26" s="9"/>
-      <c r="I26" s="57"/>
+      <c r="I26" s="54"/>
       <c r="J26" s="26"/>
     </row>
     <row r="27" spans="1:10" x14ac:dyDescent="0.2">
@@ -1822,20 +2050,20 @@
       <c r="C27" s="4">
         <v>33</v>
       </c>
-      <c r="D27" s="7" t="s">
-        <v>106</v>
-      </c>
-      <c r="E27" s="47">
+      <c r="D27" s="92" t="s">
+        <v>108</v>
+      </c>
+      <c r="E27" s="45">
         <v>44247</v>
       </c>
-      <c r="F27" s="78" t="s">
-        <v>105</v>
-      </c>
-      <c r="G27" s="73" t="s">
+      <c r="F27" s="105" t="s">
         <v>103</v>
       </c>
+      <c r="G27" s="70" t="s">
+        <v>101</v>
+      </c>
       <c r="H27" s="7" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="I27" s="28"/>
       <c r="J27" s="25"/>
@@ -1846,8 +2074,8 @@
       <c r="C28" s="11"/>
       <c r="D28" s="7"/>
       <c r="E28" s="7"/>
-      <c r="F28" s="34"/>
-      <c r="G28" s="73">
+      <c r="F28" s="33"/>
+      <c r="G28" s="70">
         <v>81235748714</v>
       </c>
       <c r="H28" s="7"/>
@@ -1860,8 +2088,8 @@
       <c r="C29" s="11"/>
       <c r="D29" s="7"/>
       <c r="E29" s="7"/>
-      <c r="F29" s="34"/>
-      <c r="G29" s="73"/>
+      <c r="F29" s="33"/>
+      <c r="G29" s="70"/>
       <c r="H29" s="7"/>
       <c r="I29" s="28"/>
       <c r="J29" s="25"/>
@@ -1876,26 +2104,26 @@
       <c r="C30" s="10">
         <v>25</v>
       </c>
-      <c r="D30" s="46">
+      <c r="D30" s="44">
         <v>44237</v>
       </c>
-      <c r="E30" s="49" t="s">
-        <v>34</v>
-      </c>
-      <c r="F30" s="37">
+      <c r="E30" s="47" t="s">
+        <v>131</v>
+      </c>
+      <c r="F30" s="109">
         <v>44501</v>
       </c>
-      <c r="G30" s="71" t="s">
-        <v>36</v>
+      <c r="G30" s="68" t="s">
+        <v>35</v>
       </c>
       <c r="H30" s="24" t="s">
-        <v>70</v>
-      </c>
-      <c r="I30" s="58" t="s">
-        <v>54</v>
-      </c>
-      <c r="J30" s="58" t="s">
-        <v>54</v>
+        <v>69</v>
+      </c>
+      <c r="I30" s="55" t="s">
+        <v>53</v>
+      </c>
+      <c r="J30" s="55" t="s">
+        <v>53</v>
       </c>
     </row>
     <row r="31" spans="1:10" x14ac:dyDescent="0.2">
@@ -1905,7 +2133,7 @@
       <c r="D31" s="7"/>
       <c r="E31" s="7"/>
       <c r="F31" s="30"/>
-      <c r="G31" s="69">
+      <c r="G31" s="66">
         <v>82143316439</v>
       </c>
       <c r="H31" s="20"/>
@@ -1919,9 +2147,9 @@
       <c r="D32" s="9"/>
       <c r="E32" s="9"/>
       <c r="F32" s="31"/>
-      <c r="G32" s="70"/>
+      <c r="G32" s="67"/>
       <c r="H32" s="22"/>
-      <c r="I32" s="57"/>
+      <c r="I32" s="54"/>
       <c r="J32" s="26"/>
     </row>
     <row r="33" spans="1:10" x14ac:dyDescent="0.2">
@@ -1935,21 +2163,21 @@
         <v>26</v>
       </c>
       <c r="D33" s="14" t="s">
-        <v>40</v>
-      </c>
-      <c r="E33" s="50">
+        <v>39</v>
+      </c>
+      <c r="E33" s="48">
         <v>44614</v>
       </c>
-      <c r="F33" s="37" t="s">
-        <v>62</v>
-      </c>
-      <c r="G33" s="71" t="s">
+      <c r="F33" s="104" t="s">
         <v>61</v>
       </c>
+      <c r="G33" s="68" t="s">
+        <v>60</v>
+      </c>
       <c r="H33" s="5" t="s">
-        <v>70</v>
-      </c>
-      <c r="I33" s="59">
+        <v>69</v>
+      </c>
+      <c r="I33" s="56">
         <v>44440</v>
       </c>
       <c r="J33" s="27"/>
@@ -1959,9 +2187,9 @@
       <c r="B34" s="11"/>
       <c r="C34" s="11"/>
       <c r="D34" s="7"/>
-      <c r="E34" s="51"/>
+      <c r="E34" s="49"/>
       <c r="F34" s="30"/>
-      <c r="G34" s="69">
+      <c r="G34" s="66">
         <v>85732094240</v>
       </c>
       <c r="H34" s="7"/>
@@ -1975,51 +2203,37 @@
       <c r="D35" s="9"/>
       <c r="E35" s="9"/>
       <c r="F35" s="31"/>
-      <c r="G35" s="70"/>
+      <c r="G35" s="67"/>
       <c r="H35" s="9"/>
-      <c r="I35" s="57"/>
+      <c r="I35" s="54"/>
       <c r="J35" s="26"/>
     </row>
     <row r="36" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A36" s="5">
         <v>12</v>
       </c>
-      <c r="B36" s="3" t="s">
-        <v>14</v>
+      <c r="B36" s="4" t="s">
+        <v>12</v>
       </c>
       <c r="C36" s="4">
-        <v>33</v>
-      </c>
-      <c r="D36" s="14" t="s">
-        <v>85</v>
-      </c>
-      <c r="E36" s="23" t="s">
-        <v>84</v>
-      </c>
-      <c r="F36" s="52">
-        <v>44510</v>
-      </c>
-      <c r="G36" s="72" t="s">
-        <v>47</v>
-      </c>
-      <c r="H36" s="5" t="s">
-        <v>78</v>
-      </c>
-      <c r="I36" s="59">
-        <v>44449</v>
-      </c>
+        <v>27</v>
+      </c>
+      <c r="D36" s="24"/>
+      <c r="E36" s="21"/>
+      <c r="F36" s="36"/>
+      <c r="G36" s="68"/>
+      <c r="H36" s="5"/>
+      <c r="I36" s="93"/>
       <c r="J36" s="27"/>
     </row>
     <row r="37" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A37" s="7"/>
-      <c r="B37" s="6"/>
+      <c r="B37" s="11"/>
       <c r="C37" s="11"/>
-      <c r="D37" s="47"/>
-      <c r="E37" s="47"/>
-      <c r="F37" s="34"/>
-      <c r="G37" s="73">
-        <v>81331430509</v>
-      </c>
+      <c r="D37" s="7"/>
+      <c r="E37" s="49"/>
+      <c r="F37" s="30"/>
+      <c r="G37" s="66"/>
       <c r="H37" s="7"/>
       <c r="I37" s="28"/>
       <c r="J37" s="25"/>
@@ -2027,13 +2241,13 @@
     <row r="38" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A38" s="9"/>
       <c r="B38" s="8"/>
-      <c r="C38" s="12"/>
+      <c r="C38" s="8"/>
       <c r="D38" s="9"/>
       <c r="E38" s="9"/>
-      <c r="F38" s="48"/>
-      <c r="G38" s="74"/>
+      <c r="F38" s="31"/>
+      <c r="G38" s="67"/>
       <c r="H38" s="9"/>
-      <c r="I38" s="57"/>
+      <c r="I38" s="54"/>
       <c r="J38" s="26"/>
     </row>
     <row r="39" spans="1:10" x14ac:dyDescent="0.2">
@@ -2041,28 +2255,28 @@
         <v>13</v>
       </c>
       <c r="B39" s="3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C39" s="4">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="D39" s="14" t="s">
-        <v>41</v>
-      </c>
-      <c r="E39" s="23">
+        <v>83</v>
+      </c>
+      <c r="E39" s="77" t="s">
+        <v>131</v>
+      </c>
+      <c r="F39" s="110">
         <v>44510</v>
       </c>
-      <c r="F39" s="52" t="s">
-        <v>43</v>
-      </c>
-      <c r="G39" s="72" t="s">
-        <v>42</v>
+      <c r="G39" s="69" t="s">
+        <v>46</v>
       </c>
       <c r="H39" s="5" t="s">
-        <v>80</v>
-      </c>
-      <c r="I39" s="59">
-        <v>44440</v>
+        <v>77</v>
+      </c>
+      <c r="I39" s="56">
+        <v>44449</v>
       </c>
       <c r="J39" s="27"/>
     </row>
@@ -2070,11 +2284,11 @@
       <c r="A40" s="7"/>
       <c r="B40" s="6"/>
       <c r="C40" s="11"/>
-      <c r="D40" s="47"/>
-      <c r="E40" s="47"/>
-      <c r="F40" s="34"/>
-      <c r="G40" s="73">
-        <v>85649115380</v>
+      <c r="D40" s="45"/>
+      <c r="E40" s="45"/>
+      <c r="F40" s="33"/>
+      <c r="G40" s="70">
+        <v>81331430509</v>
       </c>
       <c r="H40" s="7"/>
       <c r="I40" s="28"/>
@@ -2086,10 +2300,10 @@
       <c r="C41" s="12"/>
       <c r="D41" s="9"/>
       <c r="E41" s="9"/>
-      <c r="F41" s="48"/>
-      <c r="G41" s="74"/>
+      <c r="F41" s="46"/>
+      <c r="G41" s="71"/>
       <c r="H41" s="9"/>
-      <c r="I41" s="57"/>
+      <c r="I41" s="54"/>
       <c r="J41" s="26"/>
     </row>
     <row r="42" spans="1:10" x14ac:dyDescent="0.2">
@@ -2097,28 +2311,28 @@
         <v>14</v>
       </c>
       <c r="B42" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C42" s="4">
+        <v>28</v>
+      </c>
+      <c r="D42" s="14" t="s">
         <v>40</v>
       </c>
-      <c r="D42" s="46">
-        <v>44453</v>
-      </c>
-      <c r="E42" s="23">
-        <v>44510</v>
-      </c>
-      <c r="F42" s="52" t="s">
-        <v>43</v>
-      </c>
-      <c r="G42" s="72" t="s">
-        <v>49</v>
+      <c r="E42" s="77" t="s">
+        <v>95</v>
+      </c>
+      <c r="F42" s="97" t="s">
+        <v>42</v>
+      </c>
+      <c r="G42" s="69" t="s">
+        <v>41</v>
       </c>
       <c r="H42" s="5" t="s">
-        <v>82</v>
-      </c>
-      <c r="I42" s="76" t="s">
-        <v>100</v>
+        <v>79</v>
+      </c>
+      <c r="I42" s="56">
+        <v>44440</v>
       </c>
       <c r="J42" s="27"/>
     </row>
@@ -2126,11 +2340,11 @@
       <c r="A43" s="7"/>
       <c r="B43" s="6"/>
       <c r="C43" s="11"/>
-      <c r="D43" s="47"/>
-      <c r="E43" s="47"/>
-      <c r="F43" s="34"/>
-      <c r="G43" s="73">
-        <v>81359524067</v>
+      <c r="D43" s="45"/>
+      <c r="E43" s="45"/>
+      <c r="F43" s="33"/>
+      <c r="G43" s="70">
+        <v>85649115380</v>
       </c>
       <c r="H43" s="7"/>
       <c r="I43" s="28"/>
@@ -2142,10 +2356,10 @@
       <c r="C44" s="12"/>
       <c r="D44" s="9"/>
       <c r="E44" s="9"/>
-      <c r="F44" s="48"/>
-      <c r="G44" s="74"/>
+      <c r="F44" s="46"/>
+      <c r="G44" s="71"/>
       <c r="H44" s="9"/>
-      <c r="I44" s="57"/>
+      <c r="I44" s="54"/>
       <c r="J44" s="26"/>
     </row>
     <row r="45" spans="1:10" x14ac:dyDescent="0.2">
@@ -2153,28 +2367,28 @@
         <v>15</v>
       </c>
       <c r="B45" s="3" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C45" s="4">
         <v>40</v>
       </c>
-      <c r="D45" s="46">
+      <c r="D45" s="44">
         <v>44453</v>
       </c>
-      <c r="E45" s="23">
-        <v>44510</v>
-      </c>
-      <c r="F45" s="52" t="s">
-        <v>43</v>
-      </c>
-      <c r="G45" s="72" t="s">
-        <v>25</v>
+      <c r="E45" s="77" t="s">
+        <v>95</v>
+      </c>
+      <c r="F45" s="97" t="s">
+        <v>42</v>
+      </c>
+      <c r="G45" s="69" t="s">
+        <v>48</v>
       </c>
       <c r="H45" s="5" t="s">
-        <v>83</v>
-      </c>
-      <c r="I45" s="76" t="s">
-        <v>100</v>
+        <v>81</v>
+      </c>
+      <c r="I45" s="73" t="s">
+        <v>98</v>
       </c>
       <c r="J45" s="27"/>
     </row>
@@ -2182,11 +2396,11 @@
       <c r="A46" s="7"/>
       <c r="B46" s="6"/>
       <c r="C46" s="11"/>
-      <c r="D46" s="47"/>
-      <c r="E46" s="47"/>
-      <c r="F46" s="34"/>
-      <c r="G46" s="73">
-        <v>82319844744</v>
+      <c r="D46" s="45"/>
+      <c r="E46" s="45"/>
+      <c r="F46" s="33"/>
+      <c r="G46" s="70">
+        <v>81359524067</v>
       </c>
       <c r="H46" s="7"/>
       <c r="I46" s="28"/>
@@ -2198,55 +2412,307 @@
       <c r="C47" s="12"/>
       <c r="D47" s="9"/>
       <c r="E47" s="9"/>
-      <c r="F47" s="48"/>
-      <c r="G47" s="74"/>
+      <c r="F47" s="46"/>
+      <c r="G47" s="71"/>
       <c r="H47" s="9"/>
-      <c r="I47" s="57"/>
+      <c r="I47" s="54"/>
       <c r="J47" s="26"/>
     </row>
     <row r="48" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A48" s="5">
         <v>16</v>
       </c>
-      <c r="B48" s="1" t="s">
-        <v>99</v>
-      </c>
-      <c r="C48" s="2">
-        <v>5</v>
-      </c>
-      <c r="D48" s="2" t="s">
-        <v>106</v>
-      </c>
-      <c r="E48" s="81">
-        <v>44237</v>
-      </c>
-      <c r="F48" s="80">
-        <v>44617</v>
-      </c>
-      <c r="G48" s="75" t="s">
-        <v>108</v>
-      </c>
-      <c r="H48" s="2" t="s">
-        <v>107</v>
-      </c>
+      <c r="B48" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="C48" s="4">
+        <v>40</v>
+      </c>
+      <c r="D48" s="44">
+        <v>44453</v>
+      </c>
+      <c r="E48" s="77" t="s">
+        <v>95</v>
+      </c>
+      <c r="F48" s="97" t="s">
+        <v>42</v>
+      </c>
+      <c r="G48" s="69" t="s">
+        <v>25</v>
+      </c>
+      <c r="H48" s="5" t="s">
+        <v>82</v>
+      </c>
+      <c r="I48" s="73" t="s">
+        <v>98</v>
+      </c>
+      <c r="J48" s="27"/>
     </row>
     <row r="49" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A49" s="7"/>
-      <c r="G49" s="75">
-        <v>89603906796</v>
-      </c>
+      <c r="B49" s="6"/>
+      <c r="C49" s="11"/>
+      <c r="D49" s="45"/>
+      <c r="E49" s="45"/>
+      <c r="F49" s="33"/>
+      <c r="G49" s="70">
+        <v>82319844744</v>
+      </c>
+      <c r="H49" s="7"/>
+      <c r="I49" s="28"/>
+      <c r="J49" s="25"/>
     </row>
     <row r="50" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A50" s="9"/>
       <c r="B50" s="8"/>
-      <c r="C50" s="8"/>
+      <c r="C50" s="12"/>
       <c r="D50" s="9"/>
       <c r="E50" s="9"/>
-      <c r="F50" s="31"/>
-      <c r="G50" s="70"/>
+      <c r="F50" s="46"/>
+      <c r="G50" s="71"/>
       <c r="H50" s="9"/>
-      <c r="I50" s="57"/>
+      <c r="I50" s="54"/>
       <c r="J50" s="26"/>
+    </row>
+    <row r="51" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A51" s="5">
+        <v>17</v>
+      </c>
+      <c r="B51" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="C51" s="4">
+        <v>5</v>
+      </c>
+      <c r="D51" s="44" t="s">
+        <v>108</v>
+      </c>
+      <c r="E51" s="23">
+        <v>44237</v>
+      </c>
+      <c r="F51" s="103">
+        <v>44617</v>
+      </c>
+      <c r="G51" s="69" t="s">
+        <v>105</v>
+      </c>
+      <c r="H51" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="I51" s="94"/>
+      <c r="J51" s="27"/>
+    </row>
+    <row r="52" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A52" s="7"/>
+      <c r="B52" s="6"/>
+      <c r="C52" s="11"/>
+      <c r="D52" s="45"/>
+      <c r="E52" s="45"/>
+      <c r="F52" s="33"/>
+      <c r="G52" s="70">
+        <v>89603906796</v>
+      </c>
+      <c r="H52" s="7"/>
+      <c r="I52" s="28"/>
+      <c r="J52" s="25"/>
+    </row>
+    <row r="53" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A53" s="9"/>
+      <c r="B53" s="8"/>
+      <c r="C53" s="12"/>
+      <c r="D53" s="9"/>
+      <c r="E53" s="9"/>
+      <c r="F53" s="46"/>
+      <c r="G53" s="71"/>
+      <c r="H53" s="9"/>
+      <c r="I53" s="54"/>
+      <c r="J53" s="26"/>
+    </row>
+    <row r="55" spans="1:10" s="100" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A55" s="2"/>
+      <c r="B55" s="101" t="s">
+        <v>117</v>
+      </c>
+      <c r="C55" s="102"/>
+      <c r="D55" s="102"/>
+      <c r="E55" s="2"/>
+      <c r="F55" s="99"/>
+      <c r="G55" s="108" t="s">
+        <v>125</v>
+      </c>
+      <c r="H55" s="115"/>
+      <c r="I55" s="99"/>
+      <c r="J55" s="99"/>
+    </row>
+    <row r="56" spans="1:10" s="100" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A56" s="2"/>
+      <c r="B56" s="98" t="s">
+        <v>113</v>
+      </c>
+      <c r="C56" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="D56" s="2"/>
+      <c r="E56" s="2"/>
+      <c r="F56" s="99"/>
+      <c r="G56" s="98" t="s">
+        <v>109</v>
+      </c>
+      <c r="H56" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="I56" s="99"/>
+      <c r="J56" s="99"/>
+    </row>
+    <row r="57" spans="1:10" s="100" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A57" s="2"/>
+      <c r="B57" s="98" t="s">
+        <v>114</v>
+      </c>
+      <c r="C57" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="D57" s="2"/>
+      <c r="E57" s="2"/>
+      <c r="F57" s="99"/>
+      <c r="G57" s="98" t="s">
+        <v>110</v>
+      </c>
+      <c r="H57" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="I57" s="99"/>
+      <c r="J57" s="99"/>
+    </row>
+    <row r="58" spans="1:10" s="100" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A58" s="2"/>
+      <c r="B58" s="98" t="s">
+        <v>115</v>
+      </c>
+      <c r="C58" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="D58" s="2"/>
+      <c r="E58" s="2"/>
+      <c r="F58" s="99"/>
+      <c r="G58" s="98" t="s">
+        <v>111</v>
+      </c>
+      <c r="H58" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="I58" s="99"/>
+      <c r="J58" s="99"/>
+    </row>
+    <row r="59" spans="1:10" s="100" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A59" s="2"/>
+      <c r="B59" s="98" t="s">
+        <v>118</v>
+      </c>
+      <c r="C59" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="D59" s="2"/>
+      <c r="E59" s="2"/>
+      <c r="F59" s="99"/>
+      <c r="G59" s="98"/>
+      <c r="H59" s="2"/>
+      <c r="I59" s="99"/>
+      <c r="J59" s="99"/>
+    </row>
+    <row r="60" spans="1:10" s="100" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A60" s="2"/>
+      <c r="D60" s="2"/>
+      <c r="E60" s="2"/>
+      <c r="F60" s="99"/>
+      <c r="G60" s="98"/>
+      <c r="H60" s="2"/>
+      <c r="I60" s="99"/>
+      <c r="J60" s="99"/>
+    </row>
+    <row r="61" spans="1:10" s="100" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A61" s="2"/>
+      <c r="B61" s="106" t="s">
+        <v>124</v>
+      </c>
+      <c r="C61" s="107"/>
+      <c r="D61" s="2"/>
+      <c r="E61" s="2"/>
+      <c r="F61" s="99"/>
+      <c r="G61" s="111" t="s">
+        <v>128</v>
+      </c>
+      <c r="H61" s="114"/>
+      <c r="I61" s="99"/>
+      <c r="J61" s="99"/>
+    </row>
+    <row r="62" spans="1:10" s="100" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A62" s="2"/>
+      <c r="B62" s="98" t="s">
+        <v>119</v>
+      </c>
+      <c r="C62" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="D62" s="2"/>
+      <c r="E62" s="2"/>
+      <c r="F62" s="99"/>
+      <c r="G62" s="98" t="s">
+        <v>126</v>
+      </c>
+      <c r="H62" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="I62" s="99"/>
+      <c r="J62" s="99"/>
+    </row>
+    <row r="63" spans="1:10" s="100" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A63" s="2"/>
+      <c r="B63" s="98" t="s">
+        <v>120</v>
+      </c>
+      <c r="C63" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="D63" s="2"/>
+      <c r="E63" s="2"/>
+      <c r="F63" s="99"/>
+      <c r="G63" s="98"/>
+      <c r="H63" s="2"/>
+      <c r="I63" s="99"/>
+      <c r="J63" s="99"/>
+    </row>
+    <row r="64" spans="1:10" s="100" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A64" s="2"/>
+      <c r="B64" s="98" t="s">
+        <v>121</v>
+      </c>
+      <c r="C64" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="D64" s="2"/>
+      <c r="E64" s="2"/>
+      <c r="F64" s="99"/>
+      <c r="G64" s="98"/>
+      <c r="H64" s="2"/>
+      <c r="I64" s="99"/>
+      <c r="J64" s="99"/>
+    </row>
+    <row r="65" spans="1:10" s="100" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A65" s="2"/>
+      <c r="B65" s="98" t="s">
+        <v>122</v>
+      </c>
+      <c r="C65" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="D65" s="2"/>
+      <c r="E65" s="2"/>
+      <c r="F65" s="99"/>
+      <c r="G65" s="98"/>
+      <c r="H65" s="2"/>
+      <c r="I65" s="99"/>
+      <c r="J65" s="99"/>
     </row>
   </sheetData>
   <mergeCells count="8">
@@ -2269,8 +2735,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{278BA1B3-1491-4141-B637-9082C53CD422}">
   <dimension ref="A1:J41"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="E34" sqref="E34"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="F27" sqref="F27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -2289,46 +2755,46 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="18" x14ac:dyDescent="0.2">
-      <c r="A1" s="93" t="s">
+      <c r="A1" s="87" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="93" t="s">
+      <c r="B1" s="87" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="93" t="s">
+      <c r="C1" s="87" t="s">
         <v>27</v>
       </c>
-      <c r="D1" s="93" t="s">
+      <c r="D1" s="87" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="93"/>
-      <c r="F1" s="95" t="s">
-        <v>109</v>
-      </c>
-      <c r="G1" s="93" t="s">
+      <c r="E1" s="87"/>
+      <c r="F1" s="89" t="s">
+        <v>106</v>
+      </c>
+      <c r="G1" s="87" t="s">
         <v>4</v>
       </c>
-      <c r="H1" s="91" t="s">
+      <c r="H1" s="85" t="s">
         <v>2</v>
       </c>
-      <c r="I1" s="84" t="s">
-        <v>57</v>
-      </c>
-      <c r="J1" s="84"/>
+      <c r="I1" s="78" t="s">
+        <v>56</v>
+      </c>
+      <c r="J1" s="78"/>
     </row>
     <row r="2" spans="1:10" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="94"/>
-      <c r="B2" s="94"/>
-      <c r="C2" s="94"/>
-      <c r="D2" s="79" t="s">
+      <c r="A2" s="88"/>
+      <c r="B2" s="88"/>
+      <c r="C2" s="88"/>
+      <c r="D2" s="75" t="s">
         <v>6</v>
       </c>
       <c r="E2" s="19" t="s">
         <v>7</v>
       </c>
-      <c r="F2" s="96"/>
-      <c r="G2" s="94"/>
-      <c r="H2" s="92"/>
+      <c r="F2" s="90"/>
+      <c r="G2" s="88"/>
+      <c r="H2" s="86"/>
       <c r="I2" s="17" t="s">
         <v>6</v>
       </c>
@@ -2337,35 +2803,35 @@
       </c>
     </row>
     <row r="3" spans="1:10" ht="15" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="41">
+      <c r="A3" s="39">
         <v>1</v>
       </c>
-      <c r="B3" s="42" t="s">
+      <c r="B3" s="40" t="s">
         <v>5</v>
       </c>
-      <c r="C3" s="42">
+      <c r="C3" s="40">
         <v>8</v>
       </c>
-      <c r="D3" s="62">
+      <c r="D3" s="59">
         <v>44218</v>
       </c>
-      <c r="E3" s="43" t="s">
-        <v>86</v>
-      </c>
-      <c r="F3" s="45" t="s">
+      <c r="E3" s="41" t="s">
+        <v>84</v>
+      </c>
+      <c r="F3" s="43" t="s">
+        <v>87</v>
+      </c>
+      <c r="G3" s="42" t="s">
+        <v>85</v>
+      </c>
+      <c r="H3" s="39" t="s">
         <v>89</v>
       </c>
-      <c r="G3" s="44" t="s">
-        <v>87</v>
-      </c>
-      <c r="H3" s="41" t="s">
-        <v>91</v>
-      </c>
-      <c r="I3" s="63">
+      <c r="I3" s="60">
         <v>44251</v>
       </c>
-      <c r="J3" s="65" t="s">
-        <v>98</v>
+      <c r="J3" s="62" t="s">
+        <v>96</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.2">
@@ -2380,7 +2846,7 @@
       </c>
       <c r="H4" s="7"/>
       <c r="I4" s="28"/>
-      <c r="J4" s="66"/>
+      <c r="J4" s="63"/>
     </row>
     <row r="5" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A5" s="9"/>
@@ -2391,7 +2857,7 @@
       <c r="F5" s="31"/>
       <c r="G5" s="31"/>
       <c r="H5" s="9"/>
-      <c r="I5" s="57"/>
+      <c r="I5" s="54"/>
       <c r="J5" s="26"/>
     </row>
     <row r="6" spans="1:10" ht="15" thickTop="1" x14ac:dyDescent="0.2">
@@ -2404,26 +2870,26 @@
       <c r="C6" s="4">
         <v>8</v>
       </c>
-      <c r="D6" s="46">
+      <c r="D6" s="44">
         <v>44218</v>
       </c>
       <c r="E6" s="14" t="s">
+        <v>84</v>
+      </c>
+      <c r="F6" s="36" t="s">
+        <v>87</v>
+      </c>
+      <c r="G6" s="32" t="s">
         <v>86</v>
       </c>
-      <c r="F6" s="37" t="s">
-        <v>89</v>
-      </c>
-      <c r="G6" s="32" t="s">
+      <c r="H6" s="5" t="s">
         <v>88</v>
       </c>
-      <c r="H6" s="5" t="s">
-        <v>90</v>
-      </c>
-      <c r="I6" s="63">
+      <c r="I6" s="60">
         <v>44251</v>
       </c>
-      <c r="J6" s="60" t="s">
-        <v>98</v>
+      <c r="J6" s="57" t="s">
+        <v>96</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.2">
@@ -2449,7 +2915,7 @@
       <c r="F8" s="31"/>
       <c r="G8" s="31"/>
       <c r="H8" s="9"/>
-      <c r="I8" s="57"/>
+      <c r="I8" s="54"/>
       <c r="J8" s="26"/>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.2">
@@ -2463,25 +2929,25 @@
         <v>15</v>
       </c>
       <c r="D9" s="14" t="s">
+        <v>94</v>
+      </c>
+      <c r="E9" s="64" t="s">
+        <v>39</v>
+      </c>
+      <c r="F9" s="35">
+        <v>44440</v>
+      </c>
+      <c r="G9" s="30" t="s">
+        <v>90</v>
+      </c>
+      <c r="H9" s="7" t="s">
+        <v>92</v>
+      </c>
+      <c r="I9" s="61" t="s">
+        <v>95</v>
+      </c>
+      <c r="J9" s="57" t="s">
         <v>96</v>
-      </c>
-      <c r="E9" s="67" t="s">
-        <v>40</v>
-      </c>
-      <c r="F9" s="36">
-        <v>44440</v>
-      </c>
-      <c r="G9" s="30" t="s">
-        <v>92</v>
-      </c>
-      <c r="H9" s="7" t="s">
-        <v>94</v>
-      </c>
-      <c r="I9" s="64" t="s">
-        <v>97</v>
-      </c>
-      <c r="J9" s="60" t="s">
-        <v>98</v>
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.2">
@@ -2521,25 +2987,25 @@
         <v>15</v>
       </c>
       <c r="D12" s="14" t="s">
+        <v>94</v>
+      </c>
+      <c r="E12" s="64" t="s">
+        <v>39</v>
+      </c>
+      <c r="F12" s="35">
+        <v>44440</v>
+      </c>
+      <c r="G12" s="30" t="s">
+        <v>91</v>
+      </c>
+      <c r="H12" s="7" t="s">
+        <v>93</v>
+      </c>
+      <c r="I12" s="61" t="s">
+        <v>95</v>
+      </c>
+      <c r="J12" s="57" t="s">
         <v>96</v>
-      </c>
-      <c r="E12" s="67" t="s">
-        <v>40</v>
-      </c>
-      <c r="F12" s="36">
-        <v>44440</v>
-      </c>
-      <c r="G12" s="30" t="s">
-        <v>93</v>
-      </c>
-      <c r="H12" s="7" t="s">
-        <v>95</v>
-      </c>
-      <c r="I12" s="64" t="s">
-        <v>97</v>
-      </c>
-      <c r="J12" s="60" t="s">
-        <v>98</v>
       </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.2">
@@ -2582,22 +3048,22 @@
         <v>32</v>
       </c>
       <c r="E15" s="14" t="s">
-        <v>56</v>
-      </c>
-      <c r="F15" s="53" t="s">
-        <v>64</v>
-      </c>
-      <c r="G15" s="53" t="s">
-        <v>38</v>
+        <v>55</v>
+      </c>
+      <c r="F15" s="50" t="s">
+        <v>63</v>
+      </c>
+      <c r="G15" s="50" t="s">
+        <v>37</v>
       </c>
       <c r="H15" s="10" t="s">
-        <v>79</v>
-      </c>
-      <c r="I15" s="59">
+        <v>78</v>
+      </c>
+      <c r="I15" s="56">
         <v>44287</v>
       </c>
-      <c r="J15" s="60" t="s">
-        <v>59</v>
+      <c r="J15" s="57" t="s">
+        <v>58</v>
       </c>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.2">
@@ -2607,7 +3073,7 @@
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
       <c r="F16" s="15"/>
-      <c r="G16" s="54">
+      <c r="G16" s="51">
         <v>82170697118</v>
       </c>
       <c r="H16" s="15"/>
@@ -2623,39 +3089,39 @@
       <c r="F17" s="12"/>
       <c r="G17" s="31"/>
       <c r="H17" s="12"/>
-      <c r="I17" s="57"/>
+      <c r="I17" s="54"/>
       <c r="J17" s="26"/>
     </row>
     <row r="18" spans="1:10" ht="15" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="41">
+      <c r="A18" s="39">
         <v>3</v>
       </c>
-      <c r="B18" s="42" t="s">
+      <c r="B18" s="40" t="s">
         <v>5</v>
       </c>
-      <c r="C18" s="42">
+      <c r="C18" s="40">
         <v>9</v>
       </c>
-      <c r="D18" s="43" t="s">
+      <c r="D18" s="41" t="s">
         <v>29</v>
       </c>
-      <c r="E18" s="43" t="s">
-        <v>50</v>
-      </c>
-      <c r="F18" s="45">
+      <c r="E18" s="41" t="s">
+        <v>49</v>
+      </c>
+      <c r="F18" s="43">
         <v>44444</v>
       </c>
-      <c r="G18" s="68" t="s">
+      <c r="G18" s="65" t="s">
         <v>19</v>
       </c>
-      <c r="H18" s="41" t="s">
-        <v>67</v>
-      </c>
-      <c r="I18" s="56" t="s">
-        <v>54</v>
-      </c>
-      <c r="J18" s="76" t="s">
-        <v>100</v>
+      <c r="H18" s="39" t="s">
+        <v>66</v>
+      </c>
+      <c r="I18" s="53" t="s">
+        <v>53</v>
+      </c>
+      <c r="J18" s="73" t="s">
+        <v>98</v>
       </c>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.2">
@@ -2665,7 +3131,7 @@
       <c r="D19" s="20"/>
       <c r="E19" s="20"/>
       <c r="F19" s="30"/>
-      <c r="G19" s="69">
+      <c r="G19" s="66">
         <v>81228196787</v>
       </c>
       <c r="H19" s="7"/>
@@ -2679,9 +3145,9 @@
       <c r="D20" s="9"/>
       <c r="E20" s="9"/>
       <c r="F20" s="31"/>
-      <c r="G20" s="70"/>
+      <c r="G20" s="67"/>
       <c r="H20" s="9"/>
-      <c r="I20" s="57"/>
+      <c r="I20" s="54"/>
       <c r="J20" s="26"/>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.2">
@@ -2698,22 +3164,22 @@
         <v>29</v>
       </c>
       <c r="E21" s="14" t="s">
-        <v>50</v>
-      </c>
-      <c r="F21" s="37">
+        <v>49</v>
+      </c>
+      <c r="F21" s="36">
         <v>44444</v>
       </c>
-      <c r="G21" s="71" t="s">
+      <c r="G21" s="68" t="s">
         <v>20</v>
       </c>
       <c r="H21" s="5" t="s">
-        <v>68</v>
-      </c>
-      <c r="I21" s="58" t="s">
-        <v>54</v>
-      </c>
-      <c r="J21" s="76" t="s">
-        <v>100</v>
+        <v>67</v>
+      </c>
+      <c r="I21" s="55" t="s">
+        <v>53</v>
+      </c>
+      <c r="J21" s="73" t="s">
+        <v>98</v>
       </c>
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.2">
@@ -2723,7 +3189,7 @@
       <c r="D22" s="20"/>
       <c r="E22" s="20"/>
       <c r="F22" s="30"/>
-      <c r="G22" s="69">
+      <c r="G22" s="66">
         <v>81225736355</v>
       </c>
       <c r="H22" s="7"/>
@@ -2737,9 +3203,9 @@
       <c r="D23" s="9"/>
       <c r="E23" s="9"/>
       <c r="F23" s="31"/>
-      <c r="G23" s="70"/>
+      <c r="G23" s="67"/>
       <c r="H23" s="9"/>
-      <c r="I23" s="57"/>
+      <c r="I23" s="54"/>
       <c r="J23" s="26"/>
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.2">
@@ -2752,26 +3218,26 @@
       <c r="C24" s="10">
         <v>30</v>
       </c>
-      <c r="D24" s="46">
+      <c r="D24" s="44">
         <v>44253</v>
       </c>
-      <c r="E24" s="46" t="s">
-        <v>55</v>
+      <c r="E24" s="44" t="s">
+        <v>54</v>
       </c>
       <c r="F24" s="32" t="s">
-        <v>65</v>
-      </c>
-      <c r="G24" s="71" t="s">
-        <v>35</v>
+        <v>64</v>
+      </c>
+      <c r="G24" s="68" t="s">
+        <v>34</v>
       </c>
       <c r="H24" s="24" t="s">
-        <v>75</v>
-      </c>
-      <c r="I24" s="59">
+        <v>74</v>
+      </c>
+      <c r="I24" s="56">
         <v>44287</v>
       </c>
-      <c r="J24" s="76" t="s">
-        <v>100</v>
+      <c r="J24" s="73" t="s">
+        <v>98</v>
       </c>
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.2">
@@ -2781,7 +3247,7 @@
       <c r="D25" s="20"/>
       <c r="E25" s="20"/>
       <c r="F25" s="30"/>
-      <c r="G25" s="69">
+      <c r="G25" s="66">
         <v>82110632173</v>
       </c>
       <c r="H25" s="20"/>
@@ -2795,9 +3261,9 @@
       <c r="D26" s="9"/>
       <c r="E26" s="9"/>
       <c r="F26" s="31"/>
-      <c r="G26" s="70"/>
+      <c r="G26" s="67"/>
       <c r="H26" s="22"/>
-      <c r="I26" s="57"/>
+      <c r="I26" s="54"/>
       <c r="J26" s="26"/>
     </row>
     <row r="27" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -2814,22 +3280,22 @@
         <v>31</v>
       </c>
       <c r="E27" s="14" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="F27" s="32" t="s">
-        <v>63</v>
-      </c>
-      <c r="G27" s="71" t="s">
+        <v>62</v>
+      </c>
+      <c r="G27" s="68" t="s">
         <v>24</v>
       </c>
       <c r="H27" s="24" t="s">
-        <v>77</v>
-      </c>
-      <c r="I27" s="58" t="s">
-        <v>54</v>
-      </c>
-      <c r="J27" s="76" t="s">
-        <v>100</v>
+        <v>76</v>
+      </c>
+      <c r="I27" s="55" t="s">
+        <v>53</v>
+      </c>
+      <c r="J27" s="73" t="s">
+        <v>98</v>
       </c>
     </row>
     <row r="28" spans="1:10" x14ac:dyDescent="0.2">
@@ -2839,7 +3305,7 @@
       <c r="D28" s="7"/>
       <c r="E28" s="20"/>
       <c r="F28" s="30"/>
-      <c r="G28" s="69">
+      <c r="G28" s="66">
         <v>81231558203</v>
       </c>
       <c r="H28" s="20"/>
@@ -2853,9 +3319,9 @@
       <c r="D29" s="9"/>
       <c r="E29" s="9"/>
       <c r="F29" s="31"/>
-      <c r="G29" s="70"/>
+      <c r="G29" s="67"/>
       <c r="H29" s="22"/>
-      <c r="I29" s="57"/>
+      <c r="I29" s="54"/>
       <c r="J29" s="26"/>
     </row>
     <row r="30" spans="1:10" x14ac:dyDescent="0.2">
@@ -2868,7 +3334,7 @@
       <c r="C30" s="10">
         <v>38</v>
       </c>
-      <c r="D30" s="46">
+      <c r="D30" s="44">
         <v>44253</v>
       </c>
       <c r="E30" s="14" t="s">
@@ -2877,17 +3343,17 @@
       <c r="F30" s="32" t="s">
         <v>17</v>
       </c>
-      <c r="G30" s="71" t="s">
-        <v>37</v>
+      <c r="G30" s="68" t="s">
+        <v>36</v>
       </c>
       <c r="H30" s="24" t="s">
-        <v>74</v>
-      </c>
-      <c r="I30" s="59">
+        <v>73</v>
+      </c>
+      <c r="I30" s="56">
         <v>44246</v>
       </c>
-      <c r="J30" s="76" t="s">
-        <v>100</v>
+      <c r="J30" s="73" t="s">
+        <v>98</v>
       </c>
     </row>
     <row r="31" spans="1:10" x14ac:dyDescent="0.2">
@@ -2897,7 +3363,7 @@
       <c r="D31" s="6"/>
       <c r="E31" s="20"/>
       <c r="F31" s="30"/>
-      <c r="G31" s="69">
+      <c r="G31" s="66">
         <v>81318154783</v>
       </c>
       <c r="H31" s="20"/>
@@ -2906,12 +3372,12 @@
     </row>
     <row r="32" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A32" s="7"/>
-      <c r="B32" s="55"/>
-      <c r="C32" s="55"/>
+      <c r="B32" s="52"/>
+      <c r="C32" s="52"/>
       <c r="D32" s="9"/>
       <c r="E32" s="9"/>
       <c r="F32" s="31"/>
-      <c r="G32" s="70"/>
+      <c r="G32" s="67"/>
       <c r="H32" s="22"/>
       <c r="I32" s="26"/>
       <c r="J32" s="26"/>
@@ -2926,26 +3392,26 @@
       <c r="C33" s="10">
         <v>38</v>
       </c>
-      <c r="D33" s="46">
+      <c r="D33" s="44">
         <v>44253</v>
       </c>
       <c r="E33" s="14" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="F33" s="32" t="s">
         <v>17</v>
       </c>
-      <c r="G33" s="71" t="s">
-        <v>39</v>
+      <c r="G33" s="68" t="s">
+        <v>38</v>
       </c>
       <c r="H33" s="24" t="s">
-        <v>70</v>
-      </c>
-      <c r="I33" s="59">
+        <v>69</v>
+      </c>
+      <c r="I33" s="56">
         <v>44246</v>
       </c>
-      <c r="J33" s="76" t="s">
-        <v>100</v>
+      <c r="J33" s="73" t="s">
+        <v>98</v>
       </c>
     </row>
     <row r="34" spans="1:10" x14ac:dyDescent="0.2">
@@ -2955,7 +3421,7 @@
       <c r="D34" s="6"/>
       <c r="E34" s="20"/>
       <c r="F34" s="30"/>
-      <c r="G34" s="69">
+      <c r="G34" s="66">
         <v>8123929482</v>
       </c>
       <c r="H34" s="20"/>
@@ -2964,12 +3430,12 @@
     </row>
     <row r="35" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A35" s="9"/>
-      <c r="B35" s="55"/>
-      <c r="C35" s="55"/>
+      <c r="B35" s="52"/>
+      <c r="C35" s="52"/>
       <c r="D35" s="9"/>
       <c r="E35" s="9"/>
       <c r="F35" s="31"/>
-      <c r="G35" s="70"/>
+      <c r="G35" s="67"/>
       <c r="H35" s="22"/>
       <c r="I35" s="26"/>
       <c r="J35" s="26"/>
@@ -2988,22 +3454,22 @@
         <v>28</v>
       </c>
       <c r="E36" s="14" t="s">
-        <v>58</v>
-      </c>
-      <c r="F36" s="37">
+        <v>57</v>
+      </c>
+      <c r="F36" s="36">
         <v>44444</v>
       </c>
-      <c r="G36" s="71" t="s">
+      <c r="G36" s="68" t="s">
         <v>25</v>
       </c>
       <c r="H36" s="5" t="s">
-        <v>77</v>
-      </c>
-      <c r="I36" s="58" t="s">
-        <v>54</v>
-      </c>
-      <c r="J36" s="76" t="s">
-        <v>100</v>
+        <v>76</v>
+      </c>
+      <c r="I36" s="55" t="s">
+        <v>53</v>
+      </c>
+      <c r="J36" s="73" t="s">
+        <v>98</v>
       </c>
     </row>
     <row r="37" spans="1:10" x14ac:dyDescent="0.2">
@@ -3013,7 +3479,7 @@
       <c r="D37" s="7"/>
       <c r="E37" s="7"/>
       <c r="F37" s="30"/>
-      <c r="G37" s="69">
+      <c r="G37" s="66">
         <v>81331414130</v>
       </c>
       <c r="H37" s="7"/>
@@ -3027,7 +3493,7 @@
       <c r="D38" s="9"/>
       <c r="E38" s="9"/>
       <c r="F38" s="31"/>
-      <c r="G38" s="70"/>
+      <c r="G38" s="67"/>
       <c r="H38" s="9"/>
       <c r="I38" s="26"/>
       <c r="J38" s="26"/>
@@ -3046,22 +3512,22 @@
         <v>28</v>
       </c>
       <c r="E39" s="14" t="s">
-        <v>58</v>
-      </c>
-      <c r="F39" s="37">
+        <v>57</v>
+      </c>
+      <c r="F39" s="36">
         <v>44444</v>
       </c>
-      <c r="G39" s="71" t="s">
+      <c r="G39" s="68" t="s">
         <v>26</v>
       </c>
       <c r="H39" s="5" t="s">
-        <v>81</v>
-      </c>
-      <c r="I39" s="58" t="s">
-        <v>54</v>
-      </c>
-      <c r="J39" s="76" t="s">
-        <v>100</v>
+        <v>80</v>
+      </c>
+      <c r="I39" s="55" t="s">
+        <v>53</v>
+      </c>
+      <c r="J39" s="73" t="s">
+        <v>98</v>
       </c>
     </row>
     <row r="40" spans="1:10" x14ac:dyDescent="0.2">
@@ -3071,7 +3537,7 @@
       <c r="D40" s="7"/>
       <c r="E40" s="7"/>
       <c r="F40" s="30"/>
-      <c r="G40" s="69">
+      <c r="G40" s="66">
         <v>81252283477</v>
       </c>
       <c r="H40" s="7"/>
@@ -3085,7 +3551,7 @@
       <c r="D41" s="9"/>
       <c r="E41" s="9"/>
       <c r="F41" s="31"/>
-      <c r="G41" s="70"/>
+      <c r="G41" s="67"/>
       <c r="H41" s="9"/>
       <c r="I41" s="26"/>
       <c r="J41" s="26"/>

--- a/RENCANA BON VOYAGE.xlsx
+++ b/RENCANA BON VOYAGE.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Mapan\progress\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{28AE414D-AF03-49F9-AF28-D9A3661F6D02}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3B490B65-0CBD-4AD0-8A96-A8A5370A321F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -573,7 +573,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="116">
+  <cellXfs count="120">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -794,6 +794,81 @@
     <xf numFmtId="16" fontId="2" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="16" fontId="2" fillId="2" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="16" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="15" fontId="2" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="2"/>
+    </xf>
+    <xf numFmtId="16" fontId="2" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="2"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="16" fontId="2" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="2"/>
+    </xf>
+    <xf numFmtId="15" fontId="2" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="2"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="15" fontId="2" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" indent="2"/>
+    </xf>
+    <xf numFmtId="16" fontId="2" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="2"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="15" fontId="2" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" indent="2"/>
+    </xf>
+    <xf numFmtId="15" fontId="2" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -833,80 +908,17 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="16" fontId="2" fillId="2" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="16" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="15" fontId="2" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" indent="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="2"/>
-    </xf>
-    <xf numFmtId="16" fontId="2" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="2"/>
-    </xf>
-    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="2" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="16" fontId="2" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="2"/>
-    </xf>
-    <xf numFmtId="15" fontId="2" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" indent="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="2"/>
-    </xf>
-    <xf numFmtId="164" fontId="2" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="2" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="15" fontId="2" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" indent="2"/>
-    </xf>
-    <xf numFmtId="16" fontId="2" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="2"/>
-    </xf>
-    <xf numFmtId="164" fontId="2" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="15" fontId="2" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" indent="2"/>
-    </xf>
-    <xf numFmtId="15" fontId="2" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1525,8 +1537,8 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:J65"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="H47" sqref="H47"/>
+    <sheetView tabSelected="1" topLeftCell="A11" zoomScale="70" zoomScaleNormal="70" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="H49" sqref="H49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1545,46 +1557,46 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="15" x14ac:dyDescent="0.25">
-      <c r="A1" s="78" t="s">
+      <c r="A1" s="103" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="78" t="s">
+      <c r="B1" s="103" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="78" t="s">
+      <c r="C1" s="103" t="s">
         <v>27</v>
       </c>
-      <c r="D1" s="84" t="s">
+      <c r="D1" s="109" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="84"/>
-      <c r="F1" s="82" t="s">
+      <c r="E1" s="109"/>
+      <c r="F1" s="107" t="s">
         <v>8</v>
       </c>
-      <c r="G1" s="80" t="s">
+      <c r="G1" s="105" t="s">
         <v>4</v>
       </c>
-      <c r="H1" s="78" t="s">
+      <c r="H1" s="103" t="s">
         <v>2</v>
       </c>
-      <c r="I1" s="78" t="s">
+      <c r="I1" s="103" t="s">
         <v>56</v>
       </c>
-      <c r="J1" s="78"/>
+      <c r="J1" s="103"/>
     </row>
     <row r="2" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="79"/>
-      <c r="B2" s="79"/>
-      <c r="C2" s="79"/>
+      <c r="A2" s="104"/>
+      <c r="B2" s="104"/>
+      <c r="C2" s="104"/>
       <c r="D2" s="17" t="s">
         <v>6</v>
       </c>
       <c r="E2" s="17" t="s">
         <v>7</v>
       </c>
-      <c r="F2" s="83"/>
-      <c r="G2" s="81"/>
-      <c r="H2" s="79"/>
+      <c r="F2" s="108"/>
+      <c r="G2" s="106"/>
+      <c r="H2" s="104"/>
       <c r="I2" s="17" t="s">
         <v>6</v>
       </c>
@@ -1596,19 +1608,19 @@
       <c r="A3" s="5">
         <v>1</v>
       </c>
-      <c r="B3" s="4" t="s">
+      <c r="B3" s="116" t="s">
         <v>5</v>
       </c>
       <c r="C3" s="4">
         <v>10</v>
       </c>
-      <c r="D3" s="91" t="s">
+      <c r="D3" s="78" t="s">
         <v>107</v>
       </c>
-      <c r="E3" s="113" t="s">
+      <c r="E3" s="100" t="s">
         <v>95</v>
       </c>
-      <c r="F3" s="95" t="s">
+      <c r="F3" s="82" t="s">
         <v>52</v>
       </c>
       <c r="G3" s="68" t="s">
@@ -1624,7 +1636,7 @@
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A4" s="7"/>
-      <c r="B4" s="11"/>
+      <c r="B4" s="28"/>
       <c r="C4" s="11"/>
       <c r="D4" s="20"/>
       <c r="E4" s="20"/>
@@ -1638,7 +1650,7 @@
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A5" s="9"/>
-      <c r="B5" s="12"/>
+      <c r="B5" s="54"/>
       <c r="C5" s="12"/>
       <c r="D5" s="22"/>
       <c r="E5" s="22"/>
@@ -1652,19 +1664,19 @@
       <c r="A6" s="5">
         <v>2</v>
       </c>
-      <c r="B6" s="4" t="s">
+      <c r="B6" s="116" t="s">
         <v>9</v>
       </c>
       <c r="C6" s="4">
         <v>10</v>
       </c>
-      <c r="D6" s="91" t="s">
+      <c r="D6" s="78" t="s">
         <v>107</v>
       </c>
-      <c r="E6" s="113" t="s">
+      <c r="E6" s="100" t="s">
         <v>95</v>
       </c>
-      <c r="F6" s="95" t="s">
+      <c r="F6" s="82" t="s">
         <v>52</v>
       </c>
       <c r="G6" s="68" t="s">
@@ -1680,7 +1692,7 @@
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A7" s="7"/>
-      <c r="B7" s="11"/>
+      <c r="B7" s="28"/>
       <c r="C7" s="11"/>
       <c r="D7" s="20"/>
       <c r="E7" s="20"/>
@@ -1694,7 +1706,7 @@
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A8" s="9"/>
-      <c r="B8" s="12"/>
+      <c r="B8" s="54"/>
       <c r="C8" s="12"/>
       <c r="D8" s="22"/>
       <c r="E8" s="22"/>
@@ -1708,7 +1720,7 @@
       <c r="A9" s="5">
         <v>3</v>
       </c>
-      <c r="B9" s="4" t="s">
+      <c r="B9" s="116" t="s">
         <v>10</v>
       </c>
       <c r="C9" s="4">
@@ -1720,7 +1732,7 @@
       <c r="E9" s="76" t="s">
         <v>129</v>
       </c>
-      <c r="F9" s="112">
+      <c r="F9" s="99">
         <v>44520</v>
       </c>
       <c r="G9" s="68" t="s">
@@ -1736,7 +1748,7 @@
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A10" s="7"/>
-      <c r="B10" s="11"/>
+      <c r="B10" s="28"/>
       <c r="C10" s="11"/>
       <c r="D10" s="7"/>
       <c r="E10" s="37"/>
@@ -1750,7 +1762,7 @@
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A11" s="9"/>
-      <c r="B11" s="12"/>
+      <c r="B11" s="54"/>
       <c r="C11" s="12"/>
       <c r="D11" s="9"/>
       <c r="E11" s="9"/>
@@ -1764,7 +1776,7 @@
       <c r="A12" s="5">
         <v>4</v>
       </c>
-      <c r="B12" s="4" t="s">
+      <c r="B12" s="116" t="s">
         <v>11</v>
       </c>
       <c r="C12" s="4">
@@ -1776,7 +1788,7 @@
       <c r="E12" s="76" t="s">
         <v>129</v>
       </c>
-      <c r="F12" s="112">
+      <c r="F12" s="99">
         <v>44520</v>
       </c>
       <c r="G12" s="68" t="s">
@@ -1792,7 +1804,7 @@
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A13" s="7"/>
-      <c r="B13" s="11"/>
+      <c r="B13" s="28"/>
       <c r="C13" s="11"/>
       <c r="D13" s="7"/>
       <c r="E13" s="37"/>
@@ -1806,7 +1818,7 @@
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A14" s="9"/>
-      <c r="B14" s="12"/>
+      <c r="B14" s="54"/>
       <c r="C14" s="12"/>
       <c r="D14" s="9"/>
       <c r="E14" s="9"/>
@@ -1820,19 +1832,19 @@
       <c r="A15" s="5">
         <v>5</v>
       </c>
-      <c r="B15" s="4" t="s">
+      <c r="B15" s="116" t="s">
         <v>10</v>
       </c>
       <c r="C15" s="4">
         <v>17</v>
       </c>
-      <c r="D15" s="92" t="s">
+      <c r="D15" s="79" t="s">
         <v>108</v>
       </c>
-      <c r="E15" s="113" t="s">
+      <c r="E15" s="100" t="s">
         <v>130</v>
       </c>
-      <c r="F15" s="104" t="s">
+      <c r="F15" s="91" t="s">
         <v>65</v>
       </c>
       <c r="G15" s="68" t="s">
@@ -1848,7 +1860,7 @@
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A16" s="7"/>
-      <c r="B16" s="11"/>
+      <c r="B16" s="28"/>
       <c r="C16" s="11"/>
       <c r="D16" s="37"/>
       <c r="E16" s="37"/>
@@ -1862,7 +1874,7 @@
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A17" s="9"/>
-      <c r="B17" s="12"/>
+      <c r="B17" s="54"/>
       <c r="C17" s="12"/>
       <c r="D17" s="22"/>
       <c r="E17" s="22"/>
@@ -1876,19 +1888,19 @@
       <c r="A18" s="5">
         <v>6</v>
       </c>
-      <c r="B18" s="4" t="s">
+      <c r="B18" s="116" t="s">
         <v>11</v>
       </c>
       <c r="C18" s="4">
         <v>17</v>
       </c>
-      <c r="D18" s="92" t="s">
+      <c r="D18" s="79" t="s">
         <v>108</v>
       </c>
-      <c r="E18" s="113" t="s">
+      <c r="E18" s="100" t="s">
         <v>130</v>
       </c>
-      <c r="F18" s="104" t="s">
+      <c r="F18" s="91" t="s">
         <v>65</v>
       </c>
       <c r="G18" s="68" t="s">
@@ -1904,7 +1916,7 @@
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A19" s="7"/>
-      <c r="B19" s="11"/>
+      <c r="B19" s="28"/>
       <c r="C19" s="11"/>
       <c r="D19" s="37"/>
       <c r="E19" s="37"/>
@@ -1918,7 +1930,7 @@
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A20" s="9"/>
-      <c r="B20" s="12"/>
+      <c r="B20" s="54"/>
       <c r="C20" s="12"/>
       <c r="D20" s="22"/>
       <c r="E20" s="22"/>
@@ -1932,7 +1944,7 @@
       <c r="A21" s="5">
         <v>7</v>
       </c>
-      <c r="B21" s="10" t="s">
+      <c r="B21" s="117" t="s">
         <v>13</v>
       </c>
       <c r="C21" s="10">
@@ -1944,7 +1956,7 @@
       <c r="E21" s="77" t="s">
         <v>131</v>
       </c>
-      <c r="F21" s="109">
+      <c r="F21" s="96">
         <v>44501</v>
       </c>
       <c r="G21" s="68" t="s">
@@ -1960,7 +1972,7 @@
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A22" s="7"/>
-      <c r="B22" s="15"/>
+      <c r="B22" s="118"/>
       <c r="C22" s="15"/>
       <c r="D22" s="7"/>
       <c r="E22" s="45"/>
@@ -1974,7 +1986,7 @@
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A23" s="9"/>
-      <c r="B23" s="16"/>
+      <c r="B23" s="119"/>
       <c r="C23" s="16"/>
       <c r="D23" s="9"/>
       <c r="E23" s="9"/>
@@ -1988,7 +2000,7 @@
       <c r="A24" s="5">
         <v>8</v>
       </c>
-      <c r="B24" s="3" t="s">
+      <c r="B24" s="116" t="s">
         <v>13</v>
       </c>
       <c r="C24" s="4">
@@ -2000,7 +2012,7 @@
       <c r="E24" s="23">
         <v>44520</v>
       </c>
-      <c r="F24" s="96" t="s">
+      <c r="F24" s="83" t="s">
         <v>44</v>
       </c>
       <c r="G24" s="69" t="s">
@@ -2016,7 +2028,7 @@
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A25" s="7"/>
-      <c r="B25" s="6"/>
+      <c r="B25" s="28"/>
       <c r="C25" s="11"/>
       <c r="D25" s="45"/>
       <c r="E25" s="45"/>
@@ -2030,7 +2042,7 @@
     </row>
     <row r="26" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A26" s="9"/>
-      <c r="B26" s="8"/>
+      <c r="B26" s="54"/>
       <c r="C26" s="12"/>
       <c r="D26" s="9"/>
       <c r="E26" s="9"/>
@@ -2044,19 +2056,19 @@
       <c r="A27" s="5">
         <v>9</v>
       </c>
-      <c r="B27" s="3" t="s">
+      <c r="B27" s="116" t="s">
         <v>13</v>
       </c>
       <c r="C27" s="4">
         <v>33</v>
       </c>
-      <c r="D27" s="92" t="s">
+      <c r="D27" s="79" t="s">
         <v>108</v>
       </c>
       <c r="E27" s="45">
         <v>44247</v>
       </c>
-      <c r="F27" s="105" t="s">
+      <c r="F27" s="92" t="s">
         <v>103</v>
       </c>
       <c r="G27" s="70" t="s">
@@ -2070,7 +2082,7 @@
     </row>
     <row r="28" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A28" s="7"/>
-      <c r="B28" s="6"/>
+      <c r="B28" s="28"/>
       <c r="C28" s="11"/>
       <c r="D28" s="7"/>
       <c r="E28" s="7"/>
@@ -2084,7 +2096,7 @@
     </row>
     <row r="29" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A29" s="9"/>
-      <c r="B29" s="6"/>
+      <c r="B29" s="28"/>
       <c r="C29" s="11"/>
       <c r="D29" s="7"/>
       <c r="E29" s="7"/>
@@ -2098,7 +2110,7 @@
       <c r="A30" s="5">
         <v>10</v>
       </c>
-      <c r="B30" s="10" t="s">
+      <c r="B30" s="117" t="s">
         <v>12</v>
       </c>
       <c r="C30" s="10">
@@ -2110,7 +2122,7 @@
       <c r="E30" s="47" t="s">
         <v>131</v>
       </c>
-      <c r="F30" s="109">
+      <c r="F30" s="96">
         <v>44501</v>
       </c>
       <c r="G30" s="68" t="s">
@@ -2128,7 +2140,7 @@
     </row>
     <row r="31" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A31" s="7"/>
-      <c r="B31" s="15"/>
+      <c r="B31" s="118"/>
       <c r="C31" s="15"/>
       <c r="D31" s="7"/>
       <c r="E31" s="7"/>
@@ -2142,7 +2154,7 @@
     </row>
     <row r="32" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A32" s="9"/>
-      <c r="B32" s="16"/>
+      <c r="B32" s="119"/>
       <c r="C32" s="16"/>
       <c r="D32" s="9"/>
       <c r="E32" s="9"/>
@@ -2156,7 +2168,7 @@
       <c r="A33" s="5">
         <v>11</v>
       </c>
-      <c r="B33" s="4" t="s">
+      <c r="B33" s="116" t="s">
         <v>12</v>
       </c>
       <c r="C33" s="4">
@@ -2168,7 +2180,7 @@
       <c r="E33" s="48">
         <v>44614</v>
       </c>
-      <c r="F33" s="104" t="s">
+      <c r="F33" s="91" t="s">
         <v>61</v>
       </c>
       <c r="G33" s="68" t="s">
@@ -2184,7 +2196,7 @@
     </row>
     <row r="34" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A34" s="7"/>
-      <c r="B34" s="11"/>
+      <c r="B34" s="28"/>
       <c r="C34" s="11"/>
       <c r="D34" s="7"/>
       <c r="E34" s="49"/>
@@ -2198,7 +2210,7 @@
     </row>
     <row r="35" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A35" s="9"/>
-      <c r="B35" s="8"/>
+      <c r="B35" s="54"/>
       <c r="C35" s="8"/>
       <c r="D35" s="9"/>
       <c r="E35" s="9"/>
@@ -2212,7 +2224,7 @@
       <c r="A36" s="5">
         <v>12</v>
       </c>
-      <c r="B36" s="4" t="s">
+      <c r="B36" s="116" t="s">
         <v>12</v>
       </c>
       <c r="C36" s="4">
@@ -2223,12 +2235,12 @@
       <c r="F36" s="36"/>
       <c r="G36" s="68"/>
       <c r="H36" s="5"/>
-      <c r="I36" s="93"/>
+      <c r="I36" s="80"/>
       <c r="J36" s="27"/>
     </row>
     <row r="37" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A37" s="7"/>
-      <c r="B37" s="11"/>
+      <c r="B37" s="28"/>
       <c r="C37" s="11"/>
       <c r="D37" s="7"/>
       <c r="E37" s="49"/>
@@ -2240,7 +2252,7 @@
     </row>
     <row r="38" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A38" s="9"/>
-      <c r="B38" s="8"/>
+      <c r="B38" s="54"/>
       <c r="C38" s="8"/>
       <c r="D38" s="9"/>
       <c r="E38" s="9"/>
@@ -2254,7 +2266,7 @@
       <c r="A39" s="5">
         <v>13</v>
       </c>
-      <c r="B39" s="3" t="s">
+      <c r="B39" s="116" t="s">
         <v>14</v>
       </c>
       <c r="C39" s="4">
@@ -2266,7 +2278,7 @@
       <c r="E39" s="77" t="s">
         <v>131</v>
       </c>
-      <c r="F39" s="110">
+      <c r="F39" s="97">
         <v>44510</v>
       </c>
       <c r="G39" s="69" t="s">
@@ -2282,7 +2294,7 @@
     </row>
     <row r="40" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A40" s="7"/>
-      <c r="B40" s="6"/>
+      <c r="B40" s="28"/>
       <c r="C40" s="11"/>
       <c r="D40" s="45"/>
       <c r="E40" s="45"/>
@@ -2296,7 +2308,7 @@
     </row>
     <row r="41" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A41" s="9"/>
-      <c r="B41" s="8"/>
+      <c r="B41" s="54"/>
       <c r="C41" s="12"/>
       <c r="D41" s="9"/>
       <c r="E41" s="9"/>
@@ -2310,7 +2322,7 @@
       <c r="A42" s="5">
         <v>14</v>
       </c>
-      <c r="B42" s="3" t="s">
+      <c r="B42" s="116" t="s">
         <v>15</v>
       </c>
       <c r="C42" s="4">
@@ -2322,7 +2334,7 @@
       <c r="E42" s="77" t="s">
         <v>95</v>
       </c>
-      <c r="F42" s="97" t="s">
+      <c r="F42" s="84" t="s">
         <v>42</v>
       </c>
       <c r="G42" s="69" t="s">
@@ -2338,7 +2350,7 @@
     </row>
     <row r="43" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A43" s="7"/>
-      <c r="B43" s="6"/>
+      <c r="B43" s="28"/>
       <c r="C43" s="11"/>
       <c r="D43" s="45"/>
       <c r="E43" s="45"/>
@@ -2352,7 +2364,7 @@
     </row>
     <row r="44" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A44" s="9"/>
-      <c r="B44" s="8"/>
+      <c r="B44" s="54"/>
       <c r="C44" s="12"/>
       <c r="D44" s="9"/>
       <c r="E44" s="9"/>
@@ -2366,7 +2378,7 @@
       <c r="A45" s="5">
         <v>15</v>
       </c>
-      <c r="B45" s="3" t="s">
+      <c r="B45" s="116" t="s">
         <v>16</v>
       </c>
       <c r="C45" s="4">
@@ -2378,7 +2390,7 @@
       <c r="E45" s="77" t="s">
         <v>95</v>
       </c>
-      <c r="F45" s="97" t="s">
+      <c r="F45" s="84" t="s">
         <v>42</v>
       </c>
       <c r="G45" s="69" t="s">
@@ -2394,7 +2406,7 @@
     </row>
     <row r="46" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A46" s="7"/>
-      <c r="B46" s="6"/>
+      <c r="B46" s="28"/>
       <c r="C46" s="11"/>
       <c r="D46" s="45"/>
       <c r="E46" s="45"/>
@@ -2408,7 +2420,7 @@
     </row>
     <row r="47" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A47" s="9"/>
-      <c r="B47" s="8"/>
+      <c r="B47" s="54"/>
       <c r="C47" s="12"/>
       <c r="D47" s="9"/>
       <c r="E47" s="9"/>
@@ -2422,7 +2434,7 @@
       <c r="A48" s="5">
         <v>16</v>
       </c>
-      <c r="B48" s="3" t="s">
+      <c r="B48" s="116" t="s">
         <v>18</v>
       </c>
       <c r="C48" s="4">
@@ -2434,7 +2446,7 @@
       <c r="E48" s="77" t="s">
         <v>95</v>
       </c>
-      <c r="F48" s="97" t="s">
+      <c r="F48" s="84" t="s">
         <v>42</v>
       </c>
       <c r="G48" s="69" t="s">
@@ -2450,7 +2462,7 @@
     </row>
     <row r="49" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A49" s="7"/>
-      <c r="B49" s="6"/>
+      <c r="B49" s="28"/>
       <c r="C49" s="11"/>
       <c r="D49" s="45"/>
       <c r="E49" s="45"/>
@@ -2464,7 +2476,7 @@
     </row>
     <row r="50" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A50" s="9"/>
-      <c r="B50" s="8"/>
+      <c r="B50" s="54"/>
       <c r="C50" s="12"/>
       <c r="D50" s="9"/>
       <c r="E50" s="9"/>
@@ -2490,7 +2502,7 @@
       <c r="E51" s="23">
         <v>44237</v>
       </c>
-      <c r="F51" s="103">
+      <c r="F51" s="90">
         <v>44617</v>
       </c>
       <c r="G51" s="69" t="s">
@@ -2499,7 +2511,7 @@
       <c r="H51" s="5" t="s">
         <v>104</v>
       </c>
-      <c r="I51" s="94"/>
+      <c r="I51" s="81"/>
       <c r="J51" s="27"/>
     </row>
     <row r="52" spans="1:10" x14ac:dyDescent="0.2">
@@ -2528,25 +2540,25 @@
       <c r="I53" s="54"/>
       <c r="J53" s="26"/>
     </row>
-    <row r="55" spans="1:10" s="100" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:10" s="87" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A55" s="2"/>
-      <c r="B55" s="101" t="s">
+      <c r="B55" s="88" t="s">
         <v>117</v>
       </c>
-      <c r="C55" s="102"/>
-      <c r="D55" s="102"/>
+      <c r="C55" s="89"/>
+      <c r="D55" s="89"/>
       <c r="E55" s="2"/>
-      <c r="F55" s="99"/>
-      <c r="G55" s="108" t="s">
+      <c r="F55" s="86"/>
+      <c r="G55" s="95" t="s">
         <v>125</v>
       </c>
-      <c r="H55" s="115"/>
-      <c r="I55" s="99"/>
-      <c r="J55" s="99"/>
-    </row>
-    <row r="56" spans="1:10" s="100" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H55" s="102"/>
+      <c r="I55" s="86"/>
+      <c r="J55" s="86"/>
+    </row>
+    <row r="56" spans="1:10" s="87" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A56" s="2"/>
-      <c r="B56" s="98" t="s">
+      <c r="B56" s="85" t="s">
         <v>113</v>
       </c>
       <c r="C56" s="2" t="s">
@@ -2554,19 +2566,19 @@
       </c>
       <c r="D56" s="2"/>
       <c r="E56" s="2"/>
-      <c r="F56" s="99"/>
-      <c r="G56" s="98" t="s">
+      <c r="F56" s="86"/>
+      <c r="G56" s="85" t="s">
         <v>109</v>
       </c>
       <c r="H56" s="2" t="s">
         <v>75</v>
       </c>
-      <c r="I56" s="99"/>
-      <c r="J56" s="99"/>
-    </row>
-    <row r="57" spans="1:10" s="100" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I56" s="86"/>
+      <c r="J56" s="86"/>
+    </row>
+    <row r="57" spans="1:10" s="87" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A57" s="2"/>
-      <c r="B57" s="98" t="s">
+      <c r="B57" s="85" t="s">
         <v>114</v>
       </c>
       <c r="C57" s="2" t="s">
@@ -2574,19 +2586,19 @@
       </c>
       <c r="D57" s="2"/>
       <c r="E57" s="2"/>
-      <c r="F57" s="99"/>
-      <c r="G57" s="98" t="s">
+      <c r="F57" s="86"/>
+      <c r="G57" s="85" t="s">
         <v>110</v>
       </c>
       <c r="H57" s="2" t="s">
         <v>102</v>
       </c>
-      <c r="I57" s="99"/>
-      <c r="J57" s="99"/>
-    </row>
-    <row r="58" spans="1:10" s="100" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I57" s="86"/>
+      <c r="J57" s="86"/>
+    </row>
+    <row r="58" spans="1:10" s="87" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A58" s="2"/>
-      <c r="B58" s="98" t="s">
+      <c r="B58" s="85" t="s">
         <v>115</v>
       </c>
       <c r="C58" s="2" t="s">
@@ -2594,19 +2606,19 @@
       </c>
       <c r="D58" s="2"/>
       <c r="E58" s="2"/>
-      <c r="F58" s="99"/>
-      <c r="G58" s="98" t="s">
+      <c r="F58" s="86"/>
+      <c r="G58" s="85" t="s">
         <v>111</v>
       </c>
       <c r="H58" s="2" t="s">
         <v>77</v>
       </c>
-      <c r="I58" s="99"/>
-      <c r="J58" s="99"/>
-    </row>
-    <row r="59" spans="1:10" s="100" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I58" s="86"/>
+      <c r="J58" s="86"/>
+    </row>
+    <row r="59" spans="1:10" s="87" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A59" s="2"/>
-      <c r="B59" s="98" t="s">
+      <c r="B59" s="85" t="s">
         <v>118</v>
       </c>
       <c r="C59" s="2" t="s">
@@ -2614,41 +2626,41 @@
       </c>
       <c r="D59" s="2"/>
       <c r="E59" s="2"/>
-      <c r="F59" s="99"/>
-      <c r="G59" s="98"/>
+      <c r="F59" s="86"/>
+      <c r="G59" s="85"/>
       <c r="H59" s="2"/>
-      <c r="I59" s="99"/>
-      <c r="J59" s="99"/>
-    </row>
-    <row r="60" spans="1:10" s="100" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I59" s="86"/>
+      <c r="J59" s="86"/>
+    </row>
+    <row r="60" spans="1:10" s="87" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A60" s="2"/>
       <c r="D60" s="2"/>
       <c r="E60" s="2"/>
-      <c r="F60" s="99"/>
-      <c r="G60" s="98"/>
+      <c r="F60" s="86"/>
+      <c r="G60" s="85"/>
       <c r="H60" s="2"/>
-      <c r="I60" s="99"/>
-      <c r="J60" s="99"/>
-    </row>
-    <row r="61" spans="1:10" s="100" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I60" s="86"/>
+      <c r="J60" s="86"/>
+    </row>
+    <row r="61" spans="1:10" s="87" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A61" s="2"/>
-      <c r="B61" s="106" t="s">
+      <c r="B61" s="93" t="s">
         <v>124</v>
       </c>
-      <c r="C61" s="107"/>
+      <c r="C61" s="94"/>
       <c r="D61" s="2"/>
       <c r="E61" s="2"/>
-      <c r="F61" s="99"/>
-      <c r="G61" s="111" t="s">
+      <c r="F61" s="86"/>
+      <c r="G61" s="98" t="s">
         <v>128</v>
       </c>
-      <c r="H61" s="114"/>
-      <c r="I61" s="99"/>
-      <c r="J61" s="99"/>
-    </row>
-    <row r="62" spans="1:10" s="100" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H61" s="101"/>
+      <c r="I61" s="86"/>
+      <c r="J61" s="86"/>
+    </row>
+    <row r="62" spans="1:10" s="87" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A62" s="2"/>
-      <c r="B62" s="98" t="s">
+      <c r="B62" s="85" t="s">
         <v>119</v>
       </c>
       <c r="C62" s="2" t="s">
@@ -2656,19 +2668,19 @@
       </c>
       <c r="D62" s="2"/>
       <c r="E62" s="2"/>
-      <c r="F62" s="99"/>
-      <c r="G62" s="98" t="s">
+      <c r="F62" s="86"/>
+      <c r="G62" s="85" t="s">
         <v>126</v>
       </c>
       <c r="H62" s="2" t="s">
         <v>127</v>
       </c>
-      <c r="I62" s="99"/>
-      <c r="J62" s="99"/>
-    </row>
-    <row r="63" spans="1:10" s="100" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I62" s="86"/>
+      <c r="J62" s="86"/>
+    </row>
+    <row r="63" spans="1:10" s="87" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A63" s="2"/>
-      <c r="B63" s="98" t="s">
+      <c r="B63" s="85" t="s">
         <v>120</v>
       </c>
       <c r="C63" s="2" t="s">
@@ -2676,15 +2688,15 @@
       </c>
       <c r="D63" s="2"/>
       <c r="E63" s="2"/>
-      <c r="F63" s="99"/>
-      <c r="G63" s="98"/>
+      <c r="F63" s="86"/>
+      <c r="G63" s="85"/>
       <c r="H63" s="2"/>
-      <c r="I63" s="99"/>
-      <c r="J63" s="99"/>
-    </row>
-    <row r="64" spans="1:10" s="100" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I63" s="86"/>
+      <c r="J63" s="86"/>
+    </row>
+    <row r="64" spans="1:10" s="87" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A64" s="2"/>
-      <c r="B64" s="98" t="s">
+      <c r="B64" s="85" t="s">
         <v>121</v>
       </c>
       <c r="C64" s="2" t="s">
@@ -2692,15 +2704,15 @@
       </c>
       <c r="D64" s="2"/>
       <c r="E64" s="2"/>
-      <c r="F64" s="99"/>
-      <c r="G64" s="98"/>
+      <c r="F64" s="86"/>
+      <c r="G64" s="85"/>
       <c r="H64" s="2"/>
-      <c r="I64" s="99"/>
-      <c r="J64" s="99"/>
-    </row>
-    <row r="65" spans="1:10" s="100" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I64" s="86"/>
+      <c r="J64" s="86"/>
+    </row>
+    <row r="65" spans="1:10" s="87" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A65" s="2"/>
-      <c r="B65" s="98" t="s">
+      <c r="B65" s="85" t="s">
         <v>122</v>
       </c>
       <c r="C65" s="2" t="s">
@@ -2708,11 +2720,11 @@
       </c>
       <c r="D65" s="2"/>
       <c r="E65" s="2"/>
-      <c r="F65" s="99"/>
-      <c r="G65" s="98"/>
+      <c r="F65" s="86"/>
+      <c r="G65" s="85"/>
       <c r="H65" s="2"/>
-      <c r="I65" s="99"/>
-      <c r="J65" s="99"/>
+      <c r="I65" s="86"/>
+      <c r="J65" s="86"/>
     </row>
   </sheetData>
   <mergeCells count="8">
@@ -2755,46 +2767,46 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="18" x14ac:dyDescent="0.2">
-      <c r="A1" s="87" t="s">
+      <c r="A1" s="112" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="87" t="s">
+      <c r="B1" s="112" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="87" t="s">
+      <c r="C1" s="112" t="s">
         <v>27</v>
       </c>
-      <c r="D1" s="87" t="s">
+      <c r="D1" s="112" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="87"/>
-      <c r="F1" s="89" t="s">
+      <c r="E1" s="112"/>
+      <c r="F1" s="114" t="s">
         <v>106</v>
       </c>
-      <c r="G1" s="87" t="s">
+      <c r="G1" s="112" t="s">
         <v>4</v>
       </c>
-      <c r="H1" s="85" t="s">
+      <c r="H1" s="110" t="s">
         <v>2</v>
       </c>
-      <c r="I1" s="78" t="s">
+      <c r="I1" s="103" t="s">
         <v>56</v>
       </c>
-      <c r="J1" s="78"/>
+      <c r="J1" s="103"/>
     </row>
     <row r="2" spans="1:10" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="88"/>
-      <c r="B2" s="88"/>
-      <c r="C2" s="88"/>
+      <c r="A2" s="113"/>
+      <c r="B2" s="113"/>
+      <c r="C2" s="113"/>
       <c r="D2" s="75" t="s">
         <v>6</v>
       </c>
       <c r="E2" s="19" t="s">
         <v>7</v>
       </c>
-      <c r="F2" s="90"/>
-      <c r="G2" s="88"/>
-      <c r="H2" s="86"/>
+      <c r="F2" s="115"/>
+      <c r="G2" s="113"/>
+      <c r="H2" s="111"/>
       <c r="I2" s="17" t="s">
         <v>6</v>
       </c>

--- a/RENCANA BON VOYAGE.xlsx
+++ b/RENCANA BON VOYAGE.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="24430"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="24326"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Mapan\progress\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3B490B65-0CBD-4AD0-8A96-A8A5370A321F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8E409A4A-C40A-4FAD-A1B1-11D0AF670A3D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -459,7 +459,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="8">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -469,12 +469,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FF92D050"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="-0.249977111117893"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -573,7 +567,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="120">
+  <cellXfs count="119">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -703,9 +697,6 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="2"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="15" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -806,23 +797,38 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
+    <xf numFmtId="15" fontId="2" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="2"/>
+    </xf>
+    <xf numFmtId="16" fontId="2" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="2"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="16" fontId="2" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="2"/>
+    </xf>
     <xf numFmtId="15" fontId="2" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" indent="2"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="2"/>
-    </xf>
-    <xf numFmtId="16" fontId="2" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="2"/>
-    </xf>
-    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="164" fontId="2" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -830,44 +836,41 @@
     <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="164" fontId="2" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="15" fontId="2" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" indent="2"/>
+    </xf>
     <xf numFmtId="16" fontId="2" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="2"/>
     </xf>
-    <xf numFmtId="15" fontId="2" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="2" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="15" fontId="2" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" indent="2"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="2"/>
-    </xf>
-    <xf numFmtId="164" fontId="2" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="15" fontId="2" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="2" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="15" fontId="2" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" indent="2"/>
-    </xf>
-    <xf numFmtId="16" fontId="2" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="2"/>
-    </xf>
-    <xf numFmtId="164" fontId="2" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="15" fontId="2" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" indent="2"/>
-    </xf>
-    <xf numFmtId="15" fontId="2" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -907,18 +910,6 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1537,8 +1528,8 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:J65"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A11" zoomScale="70" zoomScaleNormal="70" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="H49" sqref="H49"/>
+    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="70" zoomScaleNormal="70" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="E16" sqref="E16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1548,55 +1539,55 @@
     <col min="3" max="3" width="9.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="17" style="2" customWidth="1"/>
     <col min="5" max="5" width="18.42578125" style="2" customWidth="1"/>
-    <col min="6" max="6" width="18.140625" style="34" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="21.5703125" style="72" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.85546875" style="34" customWidth="1"/>
+    <col min="7" max="7" width="21.5703125" style="71" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="9.7109375" style="2" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="10.42578125" style="58" customWidth="1"/>
+    <col min="9" max="9" width="10.42578125" style="57" customWidth="1"/>
     <col min="10" max="10" width="14" style="29" bestFit="1" customWidth="1"/>
     <col min="11" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="15" x14ac:dyDescent="0.25">
-      <c r="A1" s="103" t="s">
+      <c r="A1" s="106" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="103" t="s">
+      <c r="B1" s="106" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="103" t="s">
+      <c r="C1" s="106" t="s">
         <v>27</v>
       </c>
-      <c r="D1" s="109" t="s">
+      <c r="D1" s="112" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="109"/>
-      <c r="F1" s="107" t="s">
+      <c r="E1" s="112"/>
+      <c r="F1" s="110" t="s">
         <v>8</v>
       </c>
-      <c r="G1" s="105" t="s">
+      <c r="G1" s="108" t="s">
         <v>4</v>
       </c>
-      <c r="H1" s="103" t="s">
+      <c r="H1" s="106" t="s">
         <v>2</v>
       </c>
-      <c r="I1" s="103" t="s">
+      <c r="I1" s="106" t="s">
         <v>56</v>
       </c>
-      <c r="J1" s="103"/>
+      <c r="J1" s="106"/>
     </row>
     <row r="2" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="104"/>
-      <c r="B2" s="104"/>
-      <c r="C2" s="104"/>
+      <c r="A2" s="107"/>
+      <c r="B2" s="107"/>
+      <c r="C2" s="107"/>
       <c r="D2" s="17" t="s">
         <v>6</v>
       </c>
       <c r="E2" s="17" t="s">
         <v>7</v>
       </c>
-      <c r="F2" s="108"/>
-      <c r="G2" s="106"/>
-      <c r="H2" s="104"/>
+      <c r="F2" s="111"/>
+      <c r="G2" s="109"/>
+      <c r="H2" s="107"/>
       <c r="I2" s="17" t="s">
         <v>6</v>
       </c>
@@ -1608,28 +1599,28 @@
       <c r="A3" s="5">
         <v>1</v>
       </c>
-      <c r="B3" s="116" t="s">
+      <c r="B3" s="102" t="s">
         <v>5</v>
       </c>
       <c r="C3" s="4">
         <v>10</v>
       </c>
-      <c r="D3" s="78" t="s">
+      <c r="D3" s="77" t="s">
         <v>107</v>
       </c>
-      <c r="E3" s="100" t="s">
+      <c r="E3" s="99" t="s">
         <v>95</v>
       </c>
-      <c r="F3" s="82" t="s">
+      <c r="F3" s="81" t="s">
         <v>52</v>
       </c>
-      <c r="G3" s="68" t="s">
+      <c r="G3" s="67" t="s">
         <v>50</v>
       </c>
       <c r="H3" s="5" t="s">
         <v>68</v>
       </c>
-      <c r="I3" s="73" t="s">
+      <c r="I3" s="72" t="s">
         <v>98</v>
       </c>
       <c r="J3" s="27"/>
@@ -1641,7 +1632,7 @@
       <c r="D4" s="20"/>
       <c r="E4" s="20"/>
       <c r="F4" s="30"/>
-      <c r="G4" s="66">
+      <c r="G4" s="65">
         <v>81331434743</v>
       </c>
       <c r="H4" s="7"/>
@@ -1650,42 +1641,42 @@
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A5" s="9"/>
-      <c r="B5" s="54"/>
+      <c r="B5" s="53"/>
       <c r="C5" s="12"/>
       <c r="D5" s="22"/>
       <c r="E5" s="22"/>
       <c r="F5" s="31"/>
-      <c r="G5" s="67"/>
+      <c r="G5" s="66"/>
       <c r="H5" s="9"/>
-      <c r="I5" s="54"/>
+      <c r="I5" s="53"/>
       <c r="J5" s="26"/>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A6" s="5">
         <v>2</v>
       </c>
-      <c r="B6" s="116" t="s">
+      <c r="B6" s="102" t="s">
         <v>9</v>
       </c>
       <c r="C6" s="4">
         <v>10</v>
       </c>
-      <c r="D6" s="78" t="s">
+      <c r="D6" s="77" t="s">
         <v>107</v>
       </c>
-      <c r="E6" s="100" t="s">
+      <c r="E6" s="99" t="s">
         <v>95</v>
       </c>
-      <c r="F6" s="82" t="s">
+      <c r="F6" s="81" t="s">
         <v>52</v>
       </c>
-      <c r="G6" s="68" t="s">
+      <c r="G6" s="67" t="s">
         <v>99</v>
       </c>
       <c r="H6" s="5" t="s">
         <v>69</v>
       </c>
-      <c r="I6" s="73" t="s">
+      <c r="I6" s="72" t="s">
         <v>98</v>
       </c>
       <c r="J6" s="27"/>
@@ -1697,7 +1688,7 @@
       <c r="D7" s="20"/>
       <c r="E7" s="20"/>
       <c r="F7" s="30"/>
-      <c r="G7" s="74" t="s">
+      <c r="G7" s="73" t="s">
         <v>100</v>
       </c>
       <c r="H7" s="7"/>
@@ -1706,21 +1697,21 @@
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A8" s="9"/>
-      <c r="B8" s="54"/>
+      <c r="B8" s="53"/>
       <c r="C8" s="12"/>
       <c r="D8" s="22"/>
       <c r="E8" s="22"/>
       <c r="F8" s="31"/>
-      <c r="G8" s="67"/>
+      <c r="G8" s="66"/>
       <c r="H8" s="9"/>
-      <c r="I8" s="54"/>
+      <c r="I8" s="53"/>
       <c r="J8" s="26"/>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A9" s="5">
         <v>3</v>
       </c>
-      <c r="B9" s="116" t="s">
+      <c r="B9" s="102" t="s">
         <v>10</v>
       </c>
       <c r="C9" s="4">
@@ -1729,19 +1720,19 @@
       <c r="D9" s="14" t="s">
         <v>30</v>
       </c>
-      <c r="E9" s="76" t="s">
+      <c r="E9" s="75" t="s">
         <v>129</v>
       </c>
-      <c r="F9" s="99">
+      <c r="F9" s="98">
         <v>44520</v>
       </c>
-      <c r="G9" s="68" t="s">
+      <c r="G9" s="67" t="s">
         <v>21</v>
       </c>
       <c r="H9" s="5" t="s">
         <v>70</v>
       </c>
-      <c r="I9" s="55" t="s">
+      <c r="I9" s="54" t="s">
         <v>53</v>
       </c>
       <c r="J9" s="27"/>
@@ -1753,7 +1744,7 @@
       <c r="D10" s="7"/>
       <c r="E10" s="37"/>
       <c r="F10" s="35"/>
-      <c r="G10" s="66">
+      <c r="G10" s="65">
         <v>81232989078</v>
       </c>
       <c r="H10" s="7"/>
@@ -1762,21 +1753,21 @@
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A11" s="9"/>
-      <c r="B11" s="54"/>
+      <c r="B11" s="53"/>
       <c r="C11" s="12"/>
       <c r="D11" s="9"/>
       <c r="E11" s="9"/>
       <c r="F11" s="38"/>
-      <c r="G11" s="67"/>
+      <c r="G11" s="66"/>
       <c r="H11" s="9"/>
-      <c r="I11" s="54"/>
+      <c r="I11" s="53"/>
       <c r="J11" s="26"/>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A12" s="5">
         <v>4</v>
       </c>
-      <c r="B12" s="116" t="s">
+      <c r="B12" s="102" t="s">
         <v>11</v>
       </c>
       <c r="C12" s="4">
@@ -1785,19 +1776,19 @@
       <c r="D12" s="14" t="s">
         <v>30</v>
       </c>
-      <c r="E12" s="76" t="s">
+      <c r="E12" s="75" t="s">
         <v>129</v>
       </c>
-      <c r="F12" s="99">
+      <c r="F12" s="98">
         <v>44520</v>
       </c>
-      <c r="G12" s="68" t="s">
+      <c r="G12" s="67" t="s">
         <v>22</v>
       </c>
       <c r="H12" s="5" t="s">
         <v>71</v>
       </c>
-      <c r="I12" s="55" t="s">
+      <c r="I12" s="54" t="s">
         <v>53</v>
       </c>
       <c r="J12" s="27"/>
@@ -1809,7 +1800,7 @@
       <c r="D13" s="7"/>
       <c r="E13" s="37"/>
       <c r="F13" s="35"/>
-      <c r="G13" s="66">
+      <c r="G13" s="65">
         <v>81231807990</v>
       </c>
       <c r="H13" s="7"/>
@@ -1818,42 +1809,42 @@
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A14" s="9"/>
-      <c r="B14" s="54"/>
+      <c r="B14" s="53"/>
       <c r="C14" s="12"/>
       <c r="D14" s="9"/>
       <c r="E14" s="9"/>
       <c r="F14" s="38"/>
-      <c r="G14" s="67"/>
+      <c r="G14" s="66"/>
       <c r="H14" s="9"/>
-      <c r="I14" s="54"/>
+      <c r="I14" s="53"/>
       <c r="J14" s="26"/>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A15" s="5">
         <v>5</v>
       </c>
-      <c r="B15" s="116" t="s">
+      <c r="B15" s="102" t="s">
         <v>10</v>
       </c>
       <c r="C15" s="4">
         <v>17</v>
       </c>
-      <c r="D15" s="79" t="s">
+      <c r="D15" s="78" t="s">
         <v>108</v>
       </c>
-      <c r="E15" s="100" t="s">
+      <c r="E15" s="99" t="s">
         <v>130</v>
       </c>
-      <c r="F15" s="91" t="s">
+      <c r="F15" s="90" t="s">
         <v>65</v>
       </c>
-      <c r="G15" s="68" t="s">
+      <c r="G15" s="67" t="s">
         <v>51</v>
       </c>
       <c r="H15" s="5" t="s">
         <v>72</v>
       </c>
-      <c r="I15" s="56">
+      <c r="I15" s="55">
         <v>44449</v>
       </c>
       <c r="J15" s="27"/>
@@ -1863,9 +1854,11 @@
       <c r="B16" s="28"/>
       <c r="C16" s="11"/>
       <c r="D16" s="37"/>
-      <c r="E16" s="37"/>
+      <c r="E16" s="37">
+        <v>1</v>
+      </c>
       <c r="F16" s="35"/>
-      <c r="G16" s="66">
+      <c r="G16" s="65">
         <v>81284663664</v>
       </c>
       <c r="H16" s="7"/>
@@ -1874,42 +1867,42 @@
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A17" s="9"/>
-      <c r="B17" s="54"/>
+      <c r="B17" s="53"/>
       <c r="C17" s="12"/>
       <c r="D17" s="22"/>
       <c r="E17" s="22"/>
       <c r="F17" s="38"/>
-      <c r="G17" s="67"/>
+      <c r="G17" s="66"/>
       <c r="H17" s="9"/>
-      <c r="I17" s="54"/>
+      <c r="I17" s="53"/>
       <c r="J17" s="26"/>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A18" s="5">
         <v>6</v>
       </c>
-      <c r="B18" s="116" t="s">
+      <c r="B18" s="102" t="s">
         <v>11</v>
       </c>
       <c r="C18" s="4">
         <v>17</v>
       </c>
-      <c r="D18" s="79" t="s">
+      <c r="D18" s="78" t="s">
         <v>108</v>
       </c>
-      <c r="E18" s="100" t="s">
+      <c r="E18" s="99" t="s">
         <v>130</v>
       </c>
-      <c r="F18" s="91" t="s">
+      <c r="F18" s="90" t="s">
         <v>65</v>
       </c>
-      <c r="G18" s="68" t="s">
+      <c r="G18" s="67" t="s">
         <v>47</v>
       </c>
       <c r="H18" s="5" t="s">
         <v>73</v>
       </c>
-      <c r="I18" s="56">
+      <c r="I18" s="55">
         <v>44449</v>
       </c>
       <c r="J18" s="27"/>
@@ -1921,7 +1914,7 @@
       <c r="D19" s="37"/>
       <c r="E19" s="37"/>
       <c r="F19" s="35"/>
-      <c r="G19" s="66">
+      <c r="G19" s="65">
         <v>85740346667</v>
       </c>
       <c r="H19" s="7"/>
@@ -1930,21 +1923,21 @@
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A20" s="9"/>
-      <c r="B20" s="54"/>
+      <c r="B20" s="53"/>
       <c r="C20" s="12"/>
       <c r="D20" s="22"/>
       <c r="E20" s="22"/>
       <c r="F20" s="38"/>
-      <c r="G20" s="67"/>
+      <c r="G20" s="66"/>
       <c r="H20" s="9"/>
-      <c r="I20" s="54"/>
+      <c r="I20" s="53"/>
       <c r="J20" s="26"/>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A21" s="5">
         <v>7</v>
       </c>
-      <c r="B21" s="117" t="s">
+      <c r="B21" s="103" t="s">
         <v>13</v>
       </c>
       <c r="C21" s="10">
@@ -1956,28 +1949,28 @@
       <c r="E21" s="77" t="s">
         <v>131</v>
       </c>
-      <c r="F21" s="96">
+      <c r="F21" s="95">
         <v>44501</v>
       </c>
-      <c r="G21" s="68" t="s">
+      <c r="G21" s="67" t="s">
         <v>23</v>
       </c>
       <c r="H21" s="24" t="s">
         <v>75</v>
       </c>
-      <c r="I21" s="55" t="s">
+      <c r="I21" s="54" t="s">
         <v>53</v>
       </c>
       <c r="J21" s="27"/>
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A22" s="7"/>
-      <c r="B22" s="118"/>
+      <c r="B22" s="104"/>
       <c r="C22" s="15"/>
       <c r="D22" s="7"/>
       <c r="E22" s="45"/>
       <c r="F22" s="30"/>
-      <c r="G22" s="66">
+      <c r="G22" s="65">
         <v>6587623904</v>
       </c>
       <c r="H22" s="20"/>
@@ -1986,21 +1979,21 @@
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A23" s="9"/>
-      <c r="B23" s="119"/>
+      <c r="B23" s="105"/>
       <c r="C23" s="16"/>
       <c r="D23" s="9"/>
       <c r="E23" s="9"/>
       <c r="F23" s="31"/>
-      <c r="G23" s="67"/>
+      <c r="G23" s="66"/>
       <c r="H23" s="22"/>
-      <c r="I23" s="54"/>
+      <c r="I23" s="53"/>
       <c r="J23" s="26"/>
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A24" s="5">
         <v>8</v>
       </c>
-      <c r="B24" s="116" t="s">
+      <c r="B24" s="102" t="s">
         <v>13</v>
       </c>
       <c r="C24" s="4">
@@ -2012,16 +2005,16 @@
       <c r="E24" s="23">
         <v>44520</v>
       </c>
-      <c r="F24" s="83" t="s">
+      <c r="F24" s="82" t="s">
         <v>44</v>
       </c>
-      <c r="G24" s="69" t="s">
+      <c r="G24" s="68" t="s">
         <v>45</v>
       </c>
       <c r="H24" s="5" t="s">
         <v>75</v>
       </c>
-      <c r="I24" s="56">
+      <c r="I24" s="55">
         <v>44440</v>
       </c>
       <c r="J24" s="27"/>
@@ -2033,7 +2026,7 @@
       <c r="D25" s="45"/>
       <c r="E25" s="45"/>
       <c r="F25" s="33"/>
-      <c r="G25" s="70">
+      <c r="G25" s="69">
         <v>81333524165</v>
       </c>
       <c r="H25" s="7"/>
@@ -2042,36 +2035,36 @@
     </row>
     <row r="26" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A26" s="9"/>
-      <c r="B26" s="54"/>
+      <c r="B26" s="53"/>
       <c r="C26" s="12"/>
       <c r="D26" s="9"/>
       <c r="E26" s="9"/>
       <c r="F26" s="46"/>
-      <c r="G26" s="71"/>
+      <c r="G26" s="70"/>
       <c r="H26" s="9"/>
-      <c r="I26" s="54"/>
+      <c r="I26" s="53"/>
       <c r="J26" s="26"/>
     </row>
     <row r="27" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A27" s="5">
         <v>9</v>
       </c>
-      <c r="B27" s="116" t="s">
+      <c r="B27" s="102" t="s">
         <v>13</v>
       </c>
       <c r="C27" s="4">
         <v>33</v>
       </c>
-      <c r="D27" s="79" t="s">
+      <c r="D27" s="78" t="s">
         <v>108</v>
       </c>
       <c r="E27" s="45">
         <v>44247</v>
       </c>
-      <c r="F27" s="92" t="s">
+      <c r="F27" s="91" t="s">
         <v>103</v>
       </c>
-      <c r="G27" s="70" t="s">
+      <c r="G27" s="69" t="s">
         <v>101</v>
       </c>
       <c r="H27" s="7" t="s">
@@ -2087,7 +2080,7 @@
       <c r="D28" s="7"/>
       <c r="E28" s="7"/>
       <c r="F28" s="33"/>
-      <c r="G28" s="70">
+      <c r="G28" s="69">
         <v>81235748714</v>
       </c>
       <c r="H28" s="7"/>
@@ -2101,7 +2094,7 @@
       <c r="D29" s="7"/>
       <c r="E29" s="7"/>
       <c r="F29" s="33"/>
-      <c r="G29" s="70"/>
+      <c r="G29" s="69"/>
       <c r="H29" s="7"/>
       <c r="I29" s="28"/>
       <c r="J29" s="25"/>
@@ -2110,7 +2103,7 @@
       <c r="A30" s="5">
         <v>10</v>
       </c>
-      <c r="B30" s="117" t="s">
+      <c r="B30" s="103" t="s">
         <v>12</v>
       </c>
       <c r="C30" s="10">
@@ -2119,33 +2112,33 @@
       <c r="D30" s="44">
         <v>44237</v>
       </c>
-      <c r="E30" s="47" t="s">
+      <c r="E30" s="14" t="s">
         <v>131</v>
       </c>
-      <c r="F30" s="96">
+      <c r="F30" s="95">
         <v>44501</v>
       </c>
-      <c r="G30" s="68" t="s">
+      <c r="G30" s="67" t="s">
         <v>35</v>
       </c>
       <c r="H30" s="24" t="s">
         <v>69</v>
       </c>
-      <c r="I30" s="55" t="s">
+      <c r="I30" s="54" t="s">
         <v>53</v>
       </c>
-      <c r="J30" s="55" t="s">
+      <c r="J30" s="54" t="s">
         <v>53</v>
       </c>
     </row>
     <row r="31" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A31" s="7"/>
-      <c r="B31" s="118"/>
+      <c r="B31" s="104"/>
       <c r="C31" s="15"/>
       <c r="D31" s="7"/>
       <c r="E31" s="7"/>
       <c r="F31" s="30"/>
-      <c r="G31" s="66">
+      <c r="G31" s="65">
         <v>82143316439</v>
       </c>
       <c r="H31" s="20"/>
@@ -2154,21 +2147,21 @@
     </row>
     <row r="32" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A32" s="9"/>
-      <c r="B32" s="119"/>
+      <c r="B32" s="105"/>
       <c r="C32" s="16"/>
       <c r="D32" s="9"/>
       <c r="E32" s="9"/>
       <c r="F32" s="31"/>
-      <c r="G32" s="67"/>
+      <c r="G32" s="66"/>
       <c r="H32" s="22"/>
-      <c r="I32" s="54"/>
+      <c r="I32" s="53"/>
       <c r="J32" s="26"/>
     </row>
     <row r="33" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A33" s="5">
         <v>11</v>
       </c>
-      <c r="B33" s="116" t="s">
+      <c r="B33" s="102" t="s">
         <v>12</v>
       </c>
       <c r="C33" s="4">
@@ -2177,19 +2170,19 @@
       <c r="D33" s="14" t="s">
         <v>39</v>
       </c>
-      <c r="E33" s="48">
+      <c r="E33" s="47">
         <v>44614</v>
       </c>
-      <c r="F33" s="91" t="s">
+      <c r="F33" s="90" t="s">
         <v>61</v>
       </c>
-      <c r="G33" s="68" t="s">
+      <c r="G33" s="67" t="s">
         <v>60</v>
       </c>
       <c r="H33" s="5" t="s">
         <v>69</v>
       </c>
-      <c r="I33" s="56">
+      <c r="I33" s="55">
         <v>44440</v>
       </c>
       <c r="J33" s="27"/>
@@ -2199,9 +2192,9 @@
       <c r="B34" s="28"/>
       <c r="C34" s="11"/>
       <c r="D34" s="7"/>
-      <c r="E34" s="49"/>
+      <c r="E34" s="48"/>
       <c r="F34" s="30"/>
-      <c r="G34" s="66">
+      <c r="G34" s="65">
         <v>85732094240</v>
       </c>
       <c r="H34" s="7"/>
@@ -2210,21 +2203,21 @@
     </row>
     <row r="35" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A35" s="9"/>
-      <c r="B35" s="54"/>
+      <c r="B35" s="53"/>
       <c r="C35" s="8"/>
       <c r="D35" s="9"/>
       <c r="E35" s="9"/>
       <c r="F35" s="31"/>
-      <c r="G35" s="67"/>
+      <c r="G35" s="66"/>
       <c r="H35" s="9"/>
-      <c r="I35" s="54"/>
+      <c r="I35" s="53"/>
       <c r="J35" s="26"/>
     </row>
     <row r="36" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A36" s="5">
         <v>12</v>
       </c>
-      <c r="B36" s="116" t="s">
+      <c r="B36" s="102" t="s">
         <v>12</v>
       </c>
       <c r="C36" s="4">
@@ -2233,9 +2226,9 @@
       <c r="D36" s="24"/>
       <c r="E36" s="21"/>
       <c r="F36" s="36"/>
-      <c r="G36" s="68"/>
+      <c r="G36" s="67"/>
       <c r="H36" s="5"/>
-      <c r="I36" s="80"/>
+      <c r="I36" s="79"/>
       <c r="J36" s="27"/>
     </row>
     <row r="37" spans="1:10" x14ac:dyDescent="0.2">
@@ -2243,30 +2236,30 @@
       <c r="B37" s="28"/>
       <c r="C37" s="11"/>
       <c r="D37" s="7"/>
-      <c r="E37" s="49"/>
+      <c r="E37" s="48"/>
       <c r="F37" s="30"/>
-      <c r="G37" s="66"/>
+      <c r="G37" s="65"/>
       <c r="H37" s="7"/>
       <c r="I37" s="28"/>
       <c r="J37" s="25"/>
     </row>
     <row r="38" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A38" s="9"/>
-      <c r="B38" s="54"/>
+      <c r="B38" s="53"/>
       <c r="C38" s="8"/>
       <c r="D38" s="9"/>
       <c r="E38" s="9"/>
       <c r="F38" s="31"/>
-      <c r="G38" s="67"/>
+      <c r="G38" s="66"/>
       <c r="H38" s="9"/>
-      <c r="I38" s="54"/>
+      <c r="I38" s="53"/>
       <c r="J38" s="26"/>
     </row>
     <row r="39" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A39" s="5">
         <v>13</v>
       </c>
-      <c r="B39" s="116" t="s">
+      <c r="B39" s="102" t="s">
         <v>14</v>
       </c>
       <c r="C39" s="4">
@@ -2278,16 +2271,16 @@
       <c r="E39" s="77" t="s">
         <v>131</v>
       </c>
-      <c r="F39" s="97">
+      <c r="F39" s="96">
         <v>44510</v>
       </c>
-      <c r="G39" s="69" t="s">
+      <c r="G39" s="68" t="s">
         <v>46</v>
       </c>
       <c r="H39" s="5" t="s">
         <v>77</v>
       </c>
-      <c r="I39" s="56">
+      <c r="I39" s="55">
         <v>44449</v>
       </c>
       <c r="J39" s="27"/>
@@ -2299,7 +2292,7 @@
       <c r="D40" s="45"/>
       <c r="E40" s="45"/>
       <c r="F40" s="33"/>
-      <c r="G40" s="70">
+      <c r="G40" s="69">
         <v>81331430509</v>
       </c>
       <c r="H40" s="7"/>
@@ -2308,21 +2301,21 @@
     </row>
     <row r="41" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A41" s="9"/>
-      <c r="B41" s="54"/>
+      <c r="B41" s="53"/>
       <c r="C41" s="12"/>
       <c r="D41" s="9"/>
       <c r="E41" s="9"/>
       <c r="F41" s="46"/>
-      <c r="G41" s="71"/>
+      <c r="G41" s="70"/>
       <c r="H41" s="9"/>
-      <c r="I41" s="54"/>
+      <c r="I41" s="53"/>
       <c r="J41" s="26"/>
     </row>
     <row r="42" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A42" s="5">
         <v>14</v>
       </c>
-      <c r="B42" s="116" t="s">
+      <c r="B42" s="102" t="s">
         <v>15</v>
       </c>
       <c r="C42" s="4">
@@ -2331,19 +2324,19 @@
       <c r="D42" s="14" t="s">
         <v>40</v>
       </c>
-      <c r="E42" s="77" t="s">
+      <c r="E42" s="76" t="s">
         <v>95</v>
       </c>
-      <c r="F42" s="84" t="s">
+      <c r="F42" s="83" t="s">
         <v>42</v>
       </c>
-      <c r="G42" s="69" t="s">
+      <c r="G42" s="68" t="s">
         <v>41</v>
       </c>
       <c r="H42" s="5" t="s">
         <v>79</v>
       </c>
-      <c r="I42" s="56">
+      <c r="I42" s="55">
         <v>44440</v>
       </c>
       <c r="J42" s="27"/>
@@ -2355,7 +2348,7 @@
       <c r="D43" s="45"/>
       <c r="E43" s="45"/>
       <c r="F43" s="33"/>
-      <c r="G43" s="70">
+      <c r="G43" s="69">
         <v>85649115380</v>
       </c>
       <c r="H43" s="7"/>
@@ -2364,21 +2357,21 @@
     </row>
     <row r="44" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A44" s="9"/>
-      <c r="B44" s="54"/>
+      <c r="B44" s="53"/>
       <c r="C44" s="12"/>
       <c r="D44" s="9"/>
       <c r="E44" s="9"/>
       <c r="F44" s="46"/>
-      <c r="G44" s="71"/>
+      <c r="G44" s="70"/>
       <c r="H44" s="9"/>
-      <c r="I44" s="54"/>
+      <c r="I44" s="53"/>
       <c r="J44" s="26"/>
     </row>
     <row r="45" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A45" s="5">
         <v>15</v>
       </c>
-      <c r="B45" s="116" t="s">
+      <c r="B45" s="102" t="s">
         <v>16</v>
       </c>
       <c r="C45" s="4">
@@ -2387,19 +2380,19 @@
       <c r="D45" s="44">
         <v>44453</v>
       </c>
-      <c r="E45" s="77" t="s">
+      <c r="E45" s="76" t="s">
         <v>95</v>
       </c>
-      <c r="F45" s="84" t="s">
+      <c r="F45" s="83" t="s">
         <v>42</v>
       </c>
-      <c r="G45" s="69" t="s">
+      <c r="G45" s="68" t="s">
         <v>48</v>
       </c>
       <c r="H45" s="5" t="s">
         <v>81</v>
       </c>
-      <c r="I45" s="73" t="s">
+      <c r="I45" s="72" t="s">
         <v>98</v>
       </c>
       <c r="J45" s="27"/>
@@ -2411,7 +2404,7 @@
       <c r="D46" s="45"/>
       <c r="E46" s="45"/>
       <c r="F46" s="33"/>
-      <c r="G46" s="70">
+      <c r="G46" s="69">
         <v>81359524067</v>
       </c>
       <c r="H46" s="7"/>
@@ -2420,21 +2413,21 @@
     </row>
     <row r="47" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A47" s="9"/>
-      <c r="B47" s="54"/>
+      <c r="B47" s="53"/>
       <c r="C47" s="12"/>
       <c r="D47" s="9"/>
       <c r="E47" s="9"/>
       <c r="F47" s="46"/>
-      <c r="G47" s="71"/>
+      <c r="G47" s="70"/>
       <c r="H47" s="9"/>
-      <c r="I47" s="54"/>
+      <c r="I47" s="53"/>
       <c r="J47" s="26"/>
     </row>
     <row r="48" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A48" s="5">
         <v>16</v>
       </c>
-      <c r="B48" s="116" t="s">
+      <c r="B48" s="102" t="s">
         <v>18</v>
       </c>
       <c r="C48" s="4">
@@ -2443,19 +2436,19 @@
       <c r="D48" s="44">
         <v>44453</v>
       </c>
-      <c r="E48" s="77" t="s">
+      <c r="E48" s="76" t="s">
         <v>95</v>
       </c>
-      <c r="F48" s="84" t="s">
+      <c r="F48" s="83" t="s">
         <v>42</v>
       </c>
-      <c r="G48" s="69" t="s">
+      <c r="G48" s="68" t="s">
         <v>25</v>
       </c>
       <c r="H48" s="5" t="s">
         <v>82</v>
       </c>
-      <c r="I48" s="73" t="s">
+      <c r="I48" s="72" t="s">
         <v>98</v>
       </c>
       <c r="J48" s="27"/>
@@ -2467,7 +2460,7 @@
       <c r="D49" s="45"/>
       <c r="E49" s="45"/>
       <c r="F49" s="33"/>
-      <c r="G49" s="70">
+      <c r="G49" s="69">
         <v>82319844744</v>
       </c>
       <c r="H49" s="7"/>
@@ -2476,14 +2469,14 @@
     </row>
     <row r="50" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A50" s="9"/>
-      <c r="B50" s="54"/>
+      <c r="B50" s="53"/>
       <c r="C50" s="12"/>
       <c r="D50" s="9"/>
       <c r="E50" s="9"/>
       <c r="F50" s="46"/>
-      <c r="G50" s="71"/>
+      <c r="G50" s="70"/>
       <c r="H50" s="9"/>
-      <c r="I50" s="54"/>
+      <c r="I50" s="53"/>
       <c r="J50" s="26"/>
     </row>
     <row r="51" spans="1:10" x14ac:dyDescent="0.2">
@@ -2502,16 +2495,16 @@
       <c r="E51" s="23">
         <v>44237</v>
       </c>
-      <c r="F51" s="90">
+      <c r="F51" s="89">
         <v>44617</v>
       </c>
-      <c r="G51" s="69" t="s">
+      <c r="G51" s="68" t="s">
         <v>105</v>
       </c>
       <c r="H51" s="5" t="s">
         <v>104</v>
       </c>
-      <c r="I51" s="81"/>
+      <c r="I51" s="80"/>
       <c r="J51" s="27"/>
     </row>
     <row r="52" spans="1:10" x14ac:dyDescent="0.2">
@@ -2521,7 +2514,7 @@
       <c r="D52" s="45"/>
       <c r="E52" s="45"/>
       <c r="F52" s="33"/>
-      <c r="G52" s="70">
+      <c r="G52" s="69">
         <v>89603906796</v>
       </c>
       <c r="H52" s="7"/>
@@ -2535,30 +2528,30 @@
       <c r="D53" s="9"/>
       <c r="E53" s="9"/>
       <c r="F53" s="46"/>
-      <c r="G53" s="71"/>
+      <c r="G53" s="70"/>
       <c r="H53" s="9"/>
-      <c r="I53" s="54"/>
+      <c r="I53" s="53"/>
       <c r="J53" s="26"/>
     </row>
-    <row r="55" spans="1:10" s="87" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:10" s="86" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A55" s="2"/>
-      <c r="B55" s="88" t="s">
+      <c r="B55" s="87" t="s">
         <v>117</v>
       </c>
-      <c r="C55" s="89"/>
-      <c r="D55" s="89"/>
+      <c r="C55" s="88"/>
+      <c r="D55" s="88"/>
       <c r="E55" s="2"/>
-      <c r="F55" s="86"/>
-      <c r="G55" s="95" t="s">
+      <c r="F55" s="85"/>
+      <c r="G55" s="94" t="s">
         <v>125</v>
       </c>
-      <c r="H55" s="102"/>
-      <c r="I55" s="86"/>
-      <c r="J55" s="86"/>
-    </row>
-    <row r="56" spans="1:10" s="87" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H55" s="101"/>
+      <c r="I55" s="85"/>
+      <c r="J55" s="85"/>
+    </row>
+    <row r="56" spans="1:10" s="86" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A56" s="2"/>
-      <c r="B56" s="85" t="s">
+      <c r="B56" s="84" t="s">
         <v>113</v>
       </c>
       <c r="C56" s="2" t="s">
@@ -2566,19 +2559,19 @@
       </c>
       <c r="D56" s="2"/>
       <c r="E56" s="2"/>
-      <c r="F56" s="86"/>
-      <c r="G56" s="85" t="s">
+      <c r="F56" s="85"/>
+      <c r="G56" s="84" t="s">
         <v>109</v>
       </c>
       <c r="H56" s="2" t="s">
         <v>75</v>
       </c>
-      <c r="I56" s="86"/>
-      <c r="J56" s="86"/>
-    </row>
-    <row r="57" spans="1:10" s="87" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I56" s="85"/>
+      <c r="J56" s="85"/>
+    </row>
+    <row r="57" spans="1:10" s="86" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A57" s="2"/>
-      <c r="B57" s="85" t="s">
+      <c r="B57" s="84" t="s">
         <v>114</v>
       </c>
       <c r="C57" s="2" t="s">
@@ -2586,19 +2579,19 @@
       </c>
       <c r="D57" s="2"/>
       <c r="E57" s="2"/>
-      <c r="F57" s="86"/>
-      <c r="G57" s="85" t="s">
+      <c r="F57" s="85"/>
+      <c r="G57" s="84" t="s">
         <v>110</v>
       </c>
       <c r="H57" s="2" t="s">
         <v>102</v>
       </c>
-      <c r="I57" s="86"/>
-      <c r="J57" s="86"/>
-    </row>
-    <row r="58" spans="1:10" s="87" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I57" s="85"/>
+      <c r="J57" s="85"/>
+    </row>
+    <row r="58" spans="1:10" s="86" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A58" s="2"/>
-      <c r="B58" s="85" t="s">
+      <c r="B58" s="84" t="s">
         <v>115</v>
       </c>
       <c r="C58" s="2" t="s">
@@ -2606,19 +2599,19 @@
       </c>
       <c r="D58" s="2"/>
       <c r="E58" s="2"/>
-      <c r="F58" s="86"/>
-      <c r="G58" s="85" t="s">
+      <c r="F58" s="85"/>
+      <c r="G58" s="84" t="s">
         <v>111</v>
       </c>
       <c r="H58" s="2" t="s">
         <v>77</v>
       </c>
-      <c r="I58" s="86"/>
-      <c r="J58" s="86"/>
-    </row>
-    <row r="59" spans="1:10" s="87" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I58" s="85"/>
+      <c r="J58" s="85"/>
+    </row>
+    <row r="59" spans="1:10" s="86" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A59" s="2"/>
-      <c r="B59" s="85" t="s">
+      <c r="B59" s="84" t="s">
         <v>118</v>
       </c>
       <c r="C59" s="2" t="s">
@@ -2626,41 +2619,41 @@
       </c>
       <c r="D59" s="2"/>
       <c r="E59" s="2"/>
-      <c r="F59" s="86"/>
-      <c r="G59" s="85"/>
+      <c r="F59" s="85"/>
+      <c r="G59" s="84"/>
       <c r="H59" s="2"/>
-      <c r="I59" s="86"/>
-      <c r="J59" s="86"/>
-    </row>
-    <row r="60" spans="1:10" s="87" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I59" s="85"/>
+      <c r="J59" s="85"/>
+    </row>
+    <row r="60" spans="1:10" s="86" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A60" s="2"/>
       <c r="D60" s="2"/>
       <c r="E60" s="2"/>
-      <c r="F60" s="86"/>
-      <c r="G60" s="85"/>
+      <c r="F60" s="85"/>
+      <c r="G60" s="84"/>
       <c r="H60" s="2"/>
-      <c r="I60" s="86"/>
-      <c r="J60" s="86"/>
-    </row>
-    <row r="61" spans="1:10" s="87" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I60" s="85"/>
+      <c r="J60" s="85"/>
+    </row>
+    <row r="61" spans="1:10" s="86" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A61" s="2"/>
-      <c r="B61" s="93" t="s">
+      <c r="B61" s="92" t="s">
         <v>124</v>
       </c>
-      <c r="C61" s="94"/>
+      <c r="C61" s="93"/>
       <c r="D61" s="2"/>
       <c r="E61" s="2"/>
-      <c r="F61" s="86"/>
-      <c r="G61" s="98" t="s">
+      <c r="F61" s="85"/>
+      <c r="G61" s="97" t="s">
         <v>128</v>
       </c>
-      <c r="H61" s="101"/>
-      <c r="I61" s="86"/>
-      <c r="J61" s="86"/>
-    </row>
-    <row r="62" spans="1:10" s="87" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H61" s="100"/>
+      <c r="I61" s="85"/>
+      <c r="J61" s="85"/>
+    </row>
+    <row r="62" spans="1:10" s="86" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A62" s="2"/>
-      <c r="B62" s="85" t="s">
+      <c r="B62" s="84" t="s">
         <v>119</v>
       </c>
       <c r="C62" s="2" t="s">
@@ -2668,19 +2661,19 @@
       </c>
       <c r="D62" s="2"/>
       <c r="E62" s="2"/>
-      <c r="F62" s="86"/>
-      <c r="G62" s="85" t="s">
+      <c r="F62" s="85"/>
+      <c r="G62" s="84" t="s">
         <v>126</v>
       </c>
       <c r="H62" s="2" t="s">
         <v>127</v>
       </c>
-      <c r="I62" s="86"/>
-      <c r="J62" s="86"/>
-    </row>
-    <row r="63" spans="1:10" s="87" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I62" s="85"/>
+      <c r="J62" s="85"/>
+    </row>
+    <row r="63" spans="1:10" s="86" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A63" s="2"/>
-      <c r="B63" s="85" t="s">
+      <c r="B63" s="84" t="s">
         <v>120</v>
       </c>
       <c r="C63" s="2" t="s">
@@ -2688,15 +2681,15 @@
       </c>
       <c r="D63" s="2"/>
       <c r="E63" s="2"/>
-      <c r="F63" s="86"/>
-      <c r="G63" s="85"/>
+      <c r="F63" s="85"/>
+      <c r="G63" s="84"/>
       <c r="H63" s="2"/>
-      <c r="I63" s="86"/>
-      <c r="J63" s="86"/>
-    </row>
-    <row r="64" spans="1:10" s="87" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I63" s="85"/>
+      <c r="J63" s="85"/>
+    </row>
+    <row r="64" spans="1:10" s="86" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A64" s="2"/>
-      <c r="B64" s="85" t="s">
+      <c r="B64" s="84" t="s">
         <v>121</v>
       </c>
       <c r="C64" s="2" t="s">
@@ -2704,15 +2697,15 @@
       </c>
       <c r="D64" s="2"/>
       <c r="E64" s="2"/>
-      <c r="F64" s="86"/>
-      <c r="G64" s="85"/>
+      <c r="F64" s="85"/>
+      <c r="G64" s="84"/>
       <c r="H64" s="2"/>
-      <c r="I64" s="86"/>
-      <c r="J64" s="86"/>
-    </row>
-    <row r="65" spans="1:10" s="87" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I64" s="85"/>
+      <c r="J64" s="85"/>
+    </row>
+    <row r="65" spans="1:10" s="86" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A65" s="2"/>
-      <c r="B65" s="85" t="s">
+      <c r="B65" s="84" t="s">
         <v>122</v>
       </c>
       <c r="C65" s="2" t="s">
@@ -2720,11 +2713,11 @@
       </c>
       <c r="D65" s="2"/>
       <c r="E65" s="2"/>
-      <c r="F65" s="86"/>
-      <c r="G65" s="85"/>
+      <c r="F65" s="85"/>
+      <c r="G65" s="84"/>
       <c r="H65" s="2"/>
-      <c r="I65" s="86"/>
-      <c r="J65" s="86"/>
+      <c r="I65" s="85"/>
+      <c r="J65" s="85"/>
     </row>
   </sheetData>
   <mergeCells count="8">
@@ -2767,46 +2760,46 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="18" x14ac:dyDescent="0.2">
-      <c r="A1" s="112" t="s">
+      <c r="A1" s="115" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="112" t="s">
+      <c r="B1" s="115" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="112" t="s">
+      <c r="C1" s="115" t="s">
         <v>27</v>
       </c>
-      <c r="D1" s="112" t="s">
+      <c r="D1" s="115" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="112"/>
-      <c r="F1" s="114" t="s">
+      <c r="E1" s="115"/>
+      <c r="F1" s="117" t="s">
         <v>106</v>
       </c>
-      <c r="G1" s="112" t="s">
+      <c r="G1" s="115" t="s">
         <v>4</v>
       </c>
-      <c r="H1" s="110" t="s">
+      <c r="H1" s="113" t="s">
         <v>2</v>
       </c>
-      <c r="I1" s="103" t="s">
+      <c r="I1" s="106" t="s">
         <v>56</v>
       </c>
-      <c r="J1" s="103"/>
+      <c r="J1" s="106"/>
     </row>
     <row r="2" spans="1:10" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="113"/>
-      <c r="B2" s="113"/>
-      <c r="C2" s="113"/>
-      <c r="D2" s="75" t="s">
+      <c r="A2" s="116"/>
+      <c r="B2" s="116"/>
+      <c r="C2" s="116"/>
+      <c r="D2" s="74" t="s">
         <v>6</v>
       </c>
       <c r="E2" s="19" t="s">
         <v>7</v>
       </c>
-      <c r="F2" s="115"/>
-      <c r="G2" s="113"/>
-      <c r="H2" s="111"/>
+      <c r="F2" s="118"/>
+      <c r="G2" s="116"/>
+      <c r="H2" s="114"/>
       <c r="I2" s="17" t="s">
         <v>6</v>
       </c>
@@ -2824,7 +2817,7 @@
       <c r="C3" s="40">
         <v>8</v>
       </c>
-      <c r="D3" s="59">
+      <c r="D3" s="58">
         <v>44218</v>
       </c>
       <c r="E3" s="41" t="s">
@@ -2839,10 +2832,10 @@
       <c r="H3" s="39" t="s">
         <v>89</v>
       </c>
-      <c r="I3" s="60">
+      <c r="I3" s="59">
         <v>44251</v>
       </c>
-      <c r="J3" s="62" t="s">
+      <c r="J3" s="61" t="s">
         <v>96</v>
       </c>
     </row>
@@ -2858,7 +2851,7 @@
       </c>
       <c r="H4" s="7"/>
       <c r="I4" s="28"/>
-      <c r="J4" s="63"/>
+      <c r="J4" s="62"/>
     </row>
     <row r="5" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A5" s="9"/>
@@ -2869,7 +2862,7 @@
       <c r="F5" s="31"/>
       <c r="G5" s="31"/>
       <c r="H5" s="9"/>
-      <c r="I5" s="54"/>
+      <c r="I5" s="53"/>
       <c r="J5" s="26"/>
     </row>
     <row r="6" spans="1:10" ht="15" thickTop="1" x14ac:dyDescent="0.2">
@@ -2897,10 +2890,10 @@
       <c r="H6" s="5" t="s">
         <v>88</v>
       </c>
-      <c r="I6" s="60">
+      <c r="I6" s="59">
         <v>44251</v>
       </c>
-      <c r="J6" s="57" t="s">
+      <c r="J6" s="56" t="s">
         <v>96</v>
       </c>
     </row>
@@ -2927,7 +2920,7 @@
       <c r="F8" s="31"/>
       <c r="G8" s="31"/>
       <c r="H8" s="9"/>
-      <c r="I8" s="54"/>
+      <c r="I8" s="53"/>
       <c r="J8" s="26"/>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.2">
@@ -2943,7 +2936,7 @@
       <c r="D9" s="14" t="s">
         <v>94</v>
       </c>
-      <c r="E9" s="64" t="s">
+      <c r="E9" s="63" t="s">
         <v>39</v>
       </c>
       <c r="F9" s="35">
@@ -2955,10 +2948,10 @@
       <c r="H9" s="7" t="s">
         <v>92</v>
       </c>
-      <c r="I9" s="61" t="s">
+      <c r="I9" s="60" t="s">
         <v>95</v>
       </c>
-      <c r="J9" s="57" t="s">
+      <c r="J9" s="56" t="s">
         <v>96</v>
       </c>
     </row>
@@ -3001,7 +2994,7 @@
       <c r="D12" s="14" t="s">
         <v>94</v>
       </c>
-      <c r="E12" s="64" t="s">
+      <c r="E12" s="63" t="s">
         <v>39</v>
       </c>
       <c r="F12" s="35">
@@ -3013,10 +3006,10 @@
       <c r="H12" s="7" t="s">
         <v>93</v>
       </c>
-      <c r="I12" s="61" t="s">
+      <c r="I12" s="60" t="s">
         <v>95</v>
       </c>
-      <c r="J12" s="57" t="s">
+      <c r="J12" s="56" t="s">
         <v>96</v>
       </c>
     </row>
@@ -3062,19 +3055,19 @@
       <c r="E15" s="14" t="s">
         <v>55</v>
       </c>
-      <c r="F15" s="50" t="s">
+      <c r="F15" s="49" t="s">
         <v>63</v>
       </c>
-      <c r="G15" s="50" t="s">
+      <c r="G15" s="49" t="s">
         <v>37</v>
       </c>
       <c r="H15" s="10" t="s">
         <v>78</v>
       </c>
-      <c r="I15" s="56">
+      <c r="I15" s="55">
         <v>44287</v>
       </c>
-      <c r="J15" s="57" t="s">
+      <c r="J15" s="56" t="s">
         <v>58</v>
       </c>
     </row>
@@ -3085,7 +3078,7 @@
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
       <c r="F16" s="15"/>
-      <c r="G16" s="51">
+      <c r="G16" s="50">
         <v>82170697118</v>
       </c>
       <c r="H16" s="15"/>
@@ -3101,7 +3094,7 @@
       <c r="F17" s="12"/>
       <c r="G17" s="31"/>
       <c r="H17" s="12"/>
-      <c r="I17" s="54"/>
+      <c r="I17" s="53"/>
       <c r="J17" s="26"/>
     </row>
     <row r="18" spans="1:10" ht="15" thickTop="1" x14ac:dyDescent="0.2">
@@ -3123,16 +3116,16 @@
       <c r="F18" s="43">
         <v>44444</v>
       </c>
-      <c r="G18" s="65" t="s">
+      <c r="G18" s="64" t="s">
         <v>19</v>
       </c>
       <c r="H18" s="39" t="s">
         <v>66</v>
       </c>
-      <c r="I18" s="53" t="s">
+      <c r="I18" s="52" t="s">
         <v>53</v>
       </c>
-      <c r="J18" s="73" t="s">
+      <c r="J18" s="72" t="s">
         <v>98</v>
       </c>
     </row>
@@ -3143,7 +3136,7 @@
       <c r="D19" s="20"/>
       <c r="E19" s="20"/>
       <c r="F19" s="30"/>
-      <c r="G19" s="66">
+      <c r="G19" s="65">
         <v>81228196787</v>
       </c>
       <c r="H19" s="7"/>
@@ -3157,9 +3150,9 @@
       <c r="D20" s="9"/>
       <c r="E20" s="9"/>
       <c r="F20" s="31"/>
-      <c r="G20" s="67"/>
+      <c r="G20" s="66"/>
       <c r="H20" s="9"/>
-      <c r="I20" s="54"/>
+      <c r="I20" s="53"/>
       <c r="J20" s="26"/>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.2">
@@ -3181,16 +3174,16 @@
       <c r="F21" s="36">
         <v>44444</v>
       </c>
-      <c r="G21" s="68" t="s">
+      <c r="G21" s="67" t="s">
         <v>20</v>
       </c>
       <c r="H21" s="5" t="s">
         <v>67</v>
       </c>
-      <c r="I21" s="55" t="s">
+      <c r="I21" s="54" t="s">
         <v>53</v>
       </c>
-      <c r="J21" s="73" t="s">
+      <c r="J21" s="72" t="s">
         <v>98</v>
       </c>
     </row>
@@ -3201,7 +3194,7 @@
       <c r="D22" s="20"/>
       <c r="E22" s="20"/>
       <c r="F22" s="30"/>
-      <c r="G22" s="66">
+      <c r="G22" s="65">
         <v>81225736355</v>
       </c>
       <c r="H22" s="7"/>
@@ -3215,9 +3208,9 @@
       <c r="D23" s="9"/>
       <c r="E23" s="9"/>
       <c r="F23" s="31"/>
-      <c r="G23" s="67"/>
+      <c r="G23" s="66"/>
       <c r="H23" s="9"/>
-      <c r="I23" s="54"/>
+      <c r="I23" s="53"/>
       <c r="J23" s="26"/>
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.2">
@@ -3239,16 +3232,16 @@
       <c r="F24" s="32" t="s">
         <v>64</v>
       </c>
-      <c r="G24" s="68" t="s">
+      <c r="G24" s="67" t="s">
         <v>34</v>
       </c>
       <c r="H24" s="24" t="s">
         <v>74</v>
       </c>
-      <c r="I24" s="56">
+      <c r="I24" s="55">
         <v>44287</v>
       </c>
-      <c r="J24" s="73" t="s">
+      <c r="J24" s="72" t="s">
         <v>98</v>
       </c>
     </row>
@@ -3259,7 +3252,7 @@
       <c r="D25" s="20"/>
       <c r="E25" s="20"/>
       <c r="F25" s="30"/>
-      <c r="G25" s="66">
+      <c r="G25" s="65">
         <v>82110632173</v>
       </c>
       <c r="H25" s="20"/>
@@ -3273,9 +3266,9 @@
       <c r="D26" s="9"/>
       <c r="E26" s="9"/>
       <c r="F26" s="31"/>
-      <c r="G26" s="67"/>
+      <c r="G26" s="66"/>
       <c r="H26" s="22"/>
-      <c r="I26" s="54"/>
+      <c r="I26" s="53"/>
       <c r="J26" s="26"/>
     </row>
     <row r="27" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -3297,16 +3290,16 @@
       <c r="F27" s="32" t="s">
         <v>62</v>
       </c>
-      <c r="G27" s="68" t="s">
+      <c r="G27" s="67" t="s">
         <v>24</v>
       </c>
       <c r="H27" s="24" t="s">
         <v>76</v>
       </c>
-      <c r="I27" s="55" t="s">
+      <c r="I27" s="54" t="s">
         <v>53</v>
       </c>
-      <c r="J27" s="73" t="s">
+      <c r="J27" s="72" t="s">
         <v>98</v>
       </c>
     </row>
@@ -3317,7 +3310,7 @@
       <c r="D28" s="7"/>
       <c r="E28" s="20"/>
       <c r="F28" s="30"/>
-      <c r="G28" s="66">
+      <c r="G28" s="65">
         <v>81231558203</v>
       </c>
       <c r="H28" s="20"/>
@@ -3331,9 +3324,9 @@
       <c r="D29" s="9"/>
       <c r="E29" s="9"/>
       <c r="F29" s="31"/>
-      <c r="G29" s="67"/>
+      <c r="G29" s="66"/>
       <c r="H29" s="22"/>
-      <c r="I29" s="54"/>
+      <c r="I29" s="53"/>
       <c r="J29" s="26"/>
     </row>
     <row r="30" spans="1:10" x14ac:dyDescent="0.2">
@@ -3355,16 +3348,16 @@
       <c r="F30" s="32" t="s">
         <v>17</v>
       </c>
-      <c r="G30" s="68" t="s">
+      <c r="G30" s="67" t="s">
         <v>36</v>
       </c>
       <c r="H30" s="24" t="s">
         <v>73</v>
       </c>
-      <c r="I30" s="56">
+      <c r="I30" s="55">
         <v>44246</v>
       </c>
-      <c r="J30" s="73" t="s">
+      <c r="J30" s="72" t="s">
         <v>98</v>
       </c>
     </row>
@@ -3375,7 +3368,7 @@
       <c r="D31" s="6"/>
       <c r="E31" s="20"/>
       <c r="F31" s="30"/>
-      <c r="G31" s="66">
+      <c r="G31" s="65">
         <v>81318154783</v>
       </c>
       <c r="H31" s="20"/>
@@ -3384,12 +3377,12 @@
     </row>
     <row r="32" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A32" s="7"/>
-      <c r="B32" s="52"/>
-      <c r="C32" s="52"/>
+      <c r="B32" s="51"/>
+      <c r="C32" s="51"/>
       <c r="D32" s="9"/>
       <c r="E32" s="9"/>
       <c r="F32" s="31"/>
-      <c r="G32" s="67"/>
+      <c r="G32" s="66"/>
       <c r="H32" s="22"/>
       <c r="I32" s="26"/>
       <c r="J32" s="26"/>
@@ -3413,16 +3406,16 @@
       <c r="F33" s="32" t="s">
         <v>17</v>
       </c>
-      <c r="G33" s="68" t="s">
+      <c r="G33" s="67" t="s">
         <v>38</v>
       </c>
       <c r="H33" s="24" t="s">
         <v>69</v>
       </c>
-      <c r="I33" s="56">
+      <c r="I33" s="55">
         <v>44246</v>
       </c>
-      <c r="J33" s="73" t="s">
+      <c r="J33" s="72" t="s">
         <v>98</v>
       </c>
     </row>
@@ -3433,7 +3426,7 @@
       <c r="D34" s="6"/>
       <c r="E34" s="20"/>
       <c r="F34" s="30"/>
-      <c r="G34" s="66">
+      <c r="G34" s="65">
         <v>8123929482</v>
       </c>
       <c r="H34" s="20"/>
@@ -3442,12 +3435,12 @@
     </row>
     <row r="35" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A35" s="9"/>
-      <c r="B35" s="52"/>
-      <c r="C35" s="52"/>
+      <c r="B35" s="51"/>
+      <c r="C35" s="51"/>
       <c r="D35" s="9"/>
       <c r="E35" s="9"/>
       <c r="F35" s="31"/>
-      <c r="G35" s="67"/>
+      <c r="G35" s="66"/>
       <c r="H35" s="22"/>
       <c r="I35" s="26"/>
       <c r="J35" s="26"/>
@@ -3471,16 +3464,16 @@
       <c r="F36" s="36">
         <v>44444</v>
       </c>
-      <c r="G36" s="68" t="s">
+      <c r="G36" s="67" t="s">
         <v>25</v>
       </c>
       <c r="H36" s="5" t="s">
         <v>76</v>
       </c>
-      <c r="I36" s="55" t="s">
+      <c r="I36" s="54" t="s">
         <v>53</v>
       </c>
-      <c r="J36" s="73" t="s">
+      <c r="J36" s="72" t="s">
         <v>98</v>
       </c>
     </row>
@@ -3491,7 +3484,7 @@
       <c r="D37" s="7"/>
       <c r="E37" s="7"/>
       <c r="F37" s="30"/>
-      <c r="G37" s="66">
+      <c r="G37" s="65">
         <v>81331414130</v>
       </c>
       <c r="H37" s="7"/>
@@ -3505,7 +3498,7 @@
       <c r="D38" s="9"/>
       <c r="E38" s="9"/>
       <c r="F38" s="31"/>
-      <c r="G38" s="67"/>
+      <c r="G38" s="66"/>
       <c r="H38" s="9"/>
       <c r="I38" s="26"/>
       <c r="J38" s="26"/>
@@ -3529,16 +3522,16 @@
       <c r="F39" s="36">
         <v>44444</v>
       </c>
-      <c r="G39" s="68" t="s">
+      <c r="G39" s="67" t="s">
         <v>26</v>
       </c>
       <c r="H39" s="5" t="s">
         <v>80</v>
       </c>
-      <c r="I39" s="55" t="s">
+      <c r="I39" s="54" t="s">
         <v>53</v>
       </c>
-      <c r="J39" s="73" t="s">
+      <c r="J39" s="72" t="s">
         <v>98</v>
       </c>
     </row>
@@ -3549,7 +3542,7 @@
       <c r="D40" s="7"/>
       <c r="E40" s="7"/>
       <c r="F40" s="30"/>
-      <c r="G40" s="66">
+      <c r="G40" s="65">
         <v>81252283477</v>
       </c>
       <c r="H40" s="7"/>
@@ -3563,7 +3556,7 @@
       <c r="D41" s="9"/>
       <c r="E41" s="9"/>
       <c r="F41" s="31"/>
-      <c r="G41" s="67"/>
+      <c r="G41" s="66"/>
       <c r="H41" s="9"/>
       <c r="I41" s="26"/>
       <c r="J41" s="26"/>

--- a/RENCANA BON VOYAGE.xlsx
+++ b/RENCANA BON VOYAGE.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="24326"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="24430"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Mapan\progress\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8E409A4A-C40A-4FAD-A1B1-11D0AF670A3D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{312D42A5-2E56-48D5-B88E-140073D895AF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="233" uniqueCount="132">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="241" uniqueCount="138">
   <si>
     <t>NO</t>
   </si>
@@ -421,6 +421,24 @@
   </si>
   <si>
     <t>06 OKT</t>
+  </si>
+  <si>
+    <t>ILHAM</t>
+  </si>
+  <si>
+    <t>26 OKT</t>
+  </si>
+  <si>
+    <t>10 JUN 22</t>
+  </si>
+  <si>
+    <t>081216290006</t>
+  </si>
+  <si>
+    <t>10 MEI 22</t>
+  </si>
+  <si>
+    <t>14 OKT</t>
   </si>
 </sst>
 </file>
@@ -567,7 +585,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="119">
+  <cellXfs count="120">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -619,9 +637,6 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="15" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -794,9 +809,6 @@
     <xf numFmtId="16" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
     <xf numFmtId="15" fontId="2" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" indent="2"/>
     </xf>
@@ -910,6 +922,15 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="15" fontId="2" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1528,8 +1549,8 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:J65"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="70" zoomScaleNormal="70" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="E16" sqref="E16"/>
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="70" zoomScaleNormal="70" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="G17" sqref="G17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1539,55 +1560,55 @@
     <col min="3" max="3" width="9.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="17" style="2" customWidth="1"/>
     <col min="5" max="5" width="18.42578125" style="2" customWidth="1"/>
-    <col min="6" max="6" width="15.85546875" style="34" customWidth="1"/>
-    <col min="7" max="7" width="21.5703125" style="71" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.85546875" style="33" customWidth="1"/>
+    <col min="7" max="7" width="21.5703125" style="70" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="9.7109375" style="2" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="10.42578125" style="57" customWidth="1"/>
-    <col min="10" max="10" width="14" style="29" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="10.42578125" style="56" customWidth="1"/>
+    <col min="10" max="10" width="14" style="28" bestFit="1" customWidth="1"/>
     <col min="11" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="15" x14ac:dyDescent="0.25">
-      <c r="A1" s="106" t="s">
+      <c r="A1" s="104" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="106" t="s">
+      <c r="B1" s="104" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="106" t="s">
+      <c r="C1" s="104" t="s">
         <v>27</v>
       </c>
-      <c r="D1" s="112" t="s">
+      <c r="D1" s="110" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="112"/>
-      <c r="F1" s="110" t="s">
+      <c r="E1" s="110"/>
+      <c r="F1" s="108" t="s">
         <v>8</v>
       </c>
-      <c r="G1" s="108" t="s">
+      <c r="G1" s="106" t="s">
         <v>4</v>
       </c>
-      <c r="H1" s="106" t="s">
+      <c r="H1" s="104" t="s">
         <v>2</v>
       </c>
-      <c r="I1" s="106" t="s">
+      <c r="I1" s="104" t="s">
         <v>56</v>
       </c>
-      <c r="J1" s="106"/>
+      <c r="J1" s="104"/>
     </row>
     <row r="2" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="107"/>
-      <c r="B2" s="107"/>
-      <c r="C2" s="107"/>
+      <c r="A2" s="105"/>
+      <c r="B2" s="105"/>
+      <c r="C2" s="105"/>
       <c r="D2" s="17" t="s">
         <v>6</v>
       </c>
       <c r="E2" s="17" t="s">
         <v>7</v>
       </c>
-      <c r="F2" s="111"/>
-      <c r="G2" s="109"/>
-      <c r="H2" s="107"/>
+      <c r="F2" s="109"/>
+      <c r="G2" s="107"/>
+      <c r="H2" s="105"/>
       <c r="I2" s="17" t="s">
         <v>6</v>
       </c>
@@ -1599,119 +1620,119 @@
       <c r="A3" s="5">
         <v>1</v>
       </c>
-      <c r="B3" s="102" t="s">
+      <c r="B3" s="100" t="s">
         <v>5</v>
       </c>
       <c r="C3" s="4">
         <v>10</v>
       </c>
-      <c r="D3" s="77" t="s">
+      <c r="D3" s="76" t="s">
         <v>107</v>
       </c>
-      <c r="E3" s="99" t="s">
+      <c r="E3" s="97" t="s">
         <v>95</v>
       </c>
-      <c r="F3" s="81" t="s">
+      <c r="F3" s="79" t="s">
         <v>52</v>
       </c>
-      <c r="G3" s="67" t="s">
+      <c r="G3" s="66" t="s">
         <v>50</v>
       </c>
       <c r="H3" s="5" t="s">
         <v>68</v>
       </c>
-      <c r="I3" s="72" t="s">
+      <c r="I3" s="71" t="s">
         <v>98</v>
       </c>
-      <c r="J3" s="27"/>
+      <c r="J3" s="26"/>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A4" s="7"/>
-      <c r="B4" s="28"/>
+      <c r="B4" s="27"/>
       <c r="C4" s="11"/>
       <c r="D4" s="20"/>
       <c r="E4" s="20"/>
-      <c r="F4" s="30"/>
-      <c r="G4" s="65">
+      <c r="F4" s="29"/>
+      <c r="G4" s="64">
         <v>81331434743</v>
       </c>
       <c r="H4" s="7"/>
-      <c r="I4" s="28"/>
-      <c r="J4" s="25"/>
+      <c r="I4" s="27"/>
+      <c r="J4" s="24"/>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A5" s="9"/>
-      <c r="B5" s="53"/>
+      <c r="B5" s="52"/>
       <c r="C5" s="12"/>
-      <c r="D5" s="22"/>
-      <c r="E5" s="22"/>
-      <c r="F5" s="31"/>
-      <c r="G5" s="66"/>
+      <c r="D5" s="21"/>
+      <c r="E5" s="21"/>
+      <c r="F5" s="30"/>
+      <c r="G5" s="65"/>
       <c r="H5" s="9"/>
-      <c r="I5" s="53"/>
-      <c r="J5" s="26"/>
+      <c r="I5" s="52"/>
+      <c r="J5" s="25"/>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A6" s="5">
         <v>2</v>
       </c>
-      <c r="B6" s="102" t="s">
+      <c r="B6" s="100" t="s">
         <v>9</v>
       </c>
       <c r="C6" s="4">
         <v>10</v>
       </c>
-      <c r="D6" s="77" t="s">
+      <c r="D6" s="76" t="s">
         <v>107</v>
       </c>
-      <c r="E6" s="99" t="s">
+      <c r="E6" s="97" t="s">
         <v>95</v>
       </c>
-      <c r="F6" s="81" t="s">
+      <c r="F6" s="79" t="s">
         <v>52</v>
       </c>
-      <c r="G6" s="67" t="s">
+      <c r="G6" s="66" t="s">
         <v>99</v>
       </c>
       <c r="H6" s="5" t="s">
         <v>69</v>
       </c>
-      <c r="I6" s="72" t="s">
+      <c r="I6" s="71" t="s">
         <v>98</v>
       </c>
-      <c r="J6" s="27"/>
+      <c r="J6" s="26"/>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A7" s="7"/>
-      <c r="B7" s="28"/>
+      <c r="B7" s="27"/>
       <c r="C7" s="11"/>
       <c r="D7" s="20"/>
       <c r="E7" s="20"/>
-      <c r="F7" s="30"/>
-      <c r="G7" s="73" t="s">
+      <c r="F7" s="29"/>
+      <c r="G7" s="72" t="s">
         <v>100</v>
       </c>
       <c r="H7" s="7"/>
-      <c r="I7" s="28"/>
-      <c r="J7" s="25"/>
+      <c r="I7" s="27"/>
+      <c r="J7" s="24"/>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A8" s="9"/>
-      <c r="B8" s="53"/>
+      <c r="B8" s="52"/>
       <c r="C8" s="12"/>
-      <c r="D8" s="22"/>
-      <c r="E8" s="22"/>
-      <c r="F8" s="31"/>
-      <c r="G8" s="66"/>
+      <c r="D8" s="21"/>
+      <c r="E8" s="21"/>
+      <c r="F8" s="30"/>
+      <c r="G8" s="65"/>
       <c r="H8" s="9"/>
-      <c r="I8" s="53"/>
-      <c r="J8" s="26"/>
+      <c r="I8" s="52"/>
+      <c r="J8" s="25"/>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A9" s="5">
         <v>3</v>
       </c>
-      <c r="B9" s="102" t="s">
+      <c r="B9" s="100" t="s">
         <v>10</v>
       </c>
       <c r="C9" s="4">
@@ -1720,54 +1741,54 @@
       <c r="D9" s="14" t="s">
         <v>30</v>
       </c>
-      <c r="E9" s="75" t="s">
+      <c r="E9" s="74" t="s">
         <v>129</v>
       </c>
-      <c r="F9" s="98">
+      <c r="F9" s="96">
         <v>44520</v>
       </c>
-      <c r="G9" s="67" t="s">
+      <c r="G9" s="66" t="s">
         <v>21</v>
       </c>
       <c r="H9" s="5" t="s">
         <v>70</v>
       </c>
-      <c r="I9" s="54" t="s">
+      <c r="I9" s="53" t="s">
         <v>53</v>
       </c>
-      <c r="J9" s="27"/>
+      <c r="J9" s="26"/>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A10" s="7"/>
-      <c r="B10" s="28"/>
+      <c r="B10" s="27"/>
       <c r="C10" s="11"/>
       <c r="D10" s="7"/>
-      <c r="E10" s="37"/>
-      <c r="F10" s="35"/>
-      <c r="G10" s="65">
+      <c r="E10" s="36"/>
+      <c r="F10" s="34"/>
+      <c r="G10" s="64">
         <v>81232989078</v>
       </c>
       <c r="H10" s="7"/>
-      <c r="I10" s="28"/>
-      <c r="J10" s="25"/>
+      <c r="I10" s="27"/>
+      <c r="J10" s="24"/>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A11" s="9"/>
-      <c r="B11" s="53"/>
+      <c r="B11" s="52"/>
       <c r="C11" s="12"/>
       <c r="D11" s="9"/>
       <c r="E11" s="9"/>
-      <c r="F11" s="38"/>
-      <c r="G11" s="66"/>
+      <c r="F11" s="37"/>
+      <c r="G11" s="65"/>
       <c r="H11" s="9"/>
-      <c r="I11" s="53"/>
-      <c r="J11" s="26"/>
+      <c r="I11" s="52"/>
+      <c r="J11" s="25"/>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A12" s="5">
         <v>4</v>
       </c>
-      <c r="B12" s="102" t="s">
+      <c r="B12" s="100" t="s">
         <v>11</v>
       </c>
       <c r="C12" s="4">
@@ -1776,168 +1797,168 @@
       <c r="D12" s="14" t="s">
         <v>30</v>
       </c>
-      <c r="E12" s="75" t="s">
+      <c r="E12" s="74" t="s">
         <v>129</v>
       </c>
-      <c r="F12" s="98">
+      <c r="F12" s="96">
         <v>44520</v>
       </c>
-      <c r="G12" s="67" t="s">
+      <c r="G12" s="66" t="s">
         <v>22</v>
       </c>
       <c r="H12" s="5" t="s">
         <v>71</v>
       </c>
-      <c r="I12" s="54" t="s">
+      <c r="I12" s="53" t="s">
         <v>53</v>
       </c>
-      <c r="J12" s="27"/>
+      <c r="J12" s="26"/>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A13" s="7"/>
-      <c r="B13" s="28"/>
+      <c r="B13" s="27"/>
       <c r="C13" s="11"/>
       <c r="D13" s="7"/>
-      <c r="E13" s="37"/>
-      <c r="F13" s="35"/>
-      <c r="G13" s="65">
+      <c r="E13" s="36"/>
+      <c r="F13" s="34"/>
+      <c r="G13" s="64">
         <v>81231807990</v>
       </c>
       <c r="H13" s="7"/>
-      <c r="I13" s="28"/>
-      <c r="J13" s="25"/>
+      <c r="I13" s="27"/>
+      <c r="J13" s="24"/>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A14" s="9"/>
-      <c r="B14" s="53"/>
+      <c r="B14" s="52"/>
       <c r="C14" s="12"/>
       <c r="D14" s="9"/>
       <c r="E14" s="9"/>
-      <c r="F14" s="38"/>
-      <c r="G14" s="66"/>
+      <c r="F14" s="37"/>
+      <c r="G14" s="65"/>
       <c r="H14" s="9"/>
-      <c r="I14" s="53"/>
-      <c r="J14" s="26"/>
+      <c r="I14" s="52"/>
+      <c r="J14" s="25"/>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A15" s="5">
         <v>5</v>
       </c>
-      <c r="B15" s="102" t="s">
+      <c r="B15" s="100" t="s">
         <v>10</v>
       </c>
       <c r="C15" s="4">
         <v>17</v>
       </c>
-      <c r="D15" s="78" t="s">
+      <c r="D15" s="77" t="s">
         <v>108</v>
       </c>
-      <c r="E15" s="99" t="s">
+      <c r="E15" s="97" t="s">
         <v>130</v>
       </c>
-      <c r="F15" s="90" t="s">
+      <c r="F15" s="88" t="s">
         <v>65</v>
       </c>
-      <c r="G15" s="67" t="s">
+      <c r="G15" s="66" t="s">
         <v>51</v>
       </c>
       <c r="H15" s="5" t="s">
         <v>72</v>
       </c>
-      <c r="I15" s="55">
+      <c r="I15" s="54">
         <v>44449</v>
       </c>
-      <c r="J15" s="27"/>
+      <c r="J15" s="26"/>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A16" s="7"/>
-      <c r="B16" s="28"/>
+      <c r="B16" s="27"/>
       <c r="C16" s="11"/>
-      <c r="D16" s="37"/>
-      <c r="E16" s="37">
+      <c r="D16" s="36"/>
+      <c r="E16" s="36">
         <v>1</v>
       </c>
-      <c r="F16" s="35"/>
-      <c r="G16" s="65">
+      <c r="F16" s="34"/>
+      <c r="G16" s="64">
         <v>81284663664</v>
       </c>
       <c r="H16" s="7"/>
-      <c r="I16" s="28"/>
-      <c r="J16" s="25"/>
+      <c r="I16" s="27"/>
+      <c r="J16" s="24"/>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A17" s="9"/>
-      <c r="B17" s="53"/>
+      <c r="B17" s="52"/>
       <c r="C17" s="12"/>
-      <c r="D17" s="22"/>
-      <c r="E17" s="22"/>
-      <c r="F17" s="38"/>
-      <c r="G17" s="66"/>
+      <c r="D17" s="21"/>
+      <c r="E17" s="21"/>
+      <c r="F17" s="37"/>
+      <c r="G17" s="65"/>
       <c r="H17" s="9"/>
-      <c r="I17" s="53"/>
-      <c r="J17" s="26"/>
+      <c r="I17" s="52"/>
+      <c r="J17" s="25"/>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A18" s="5">
         <v>6</v>
       </c>
-      <c r="B18" s="102" t="s">
+      <c r="B18" s="100" t="s">
         <v>11</v>
       </c>
       <c r="C18" s="4">
         <v>17</v>
       </c>
-      <c r="D18" s="78" t="s">
+      <c r="D18" s="77" t="s">
         <v>108</v>
       </c>
-      <c r="E18" s="99" t="s">
+      <c r="E18" s="97" t="s">
         <v>130</v>
       </c>
-      <c r="F18" s="90" t="s">
+      <c r="F18" s="88" t="s">
         <v>65</v>
       </c>
-      <c r="G18" s="67" t="s">
+      <c r="G18" s="66" t="s">
         <v>47</v>
       </c>
       <c r="H18" s="5" t="s">
         <v>73</v>
       </c>
-      <c r="I18" s="55">
+      <c r="I18" s="54">
         <v>44449</v>
       </c>
-      <c r="J18" s="27"/>
+      <c r="J18" s="26"/>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A19" s="7"/>
-      <c r="B19" s="28"/>
+      <c r="B19" s="27"/>
       <c r="C19" s="11"/>
-      <c r="D19" s="37"/>
-      <c r="E19" s="37"/>
-      <c r="F19" s="35"/>
-      <c r="G19" s="65">
+      <c r="D19" s="36"/>
+      <c r="E19" s="36"/>
+      <c r="F19" s="34"/>
+      <c r="G19" s="64">
         <v>85740346667</v>
       </c>
       <c r="H19" s="7"/>
-      <c r="I19" s="28"/>
-      <c r="J19" s="25"/>
+      <c r="I19" s="27"/>
+      <c r="J19" s="24"/>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A20" s="9"/>
-      <c r="B20" s="53"/>
+      <c r="B20" s="52"/>
       <c r="C20" s="12"/>
-      <c r="D20" s="22"/>
-      <c r="E20" s="22"/>
-      <c r="F20" s="38"/>
-      <c r="G20" s="66"/>
+      <c r="D20" s="21"/>
+      <c r="E20" s="21"/>
+      <c r="F20" s="37"/>
+      <c r="G20" s="65"/>
       <c r="H20" s="9"/>
-      <c r="I20" s="53"/>
-      <c r="J20" s="26"/>
+      <c r="I20" s="52"/>
+      <c r="J20" s="25"/>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A21" s="5">
         <v>7</v>
       </c>
-      <c r="B21" s="103" t="s">
+      <c r="B21" s="101" t="s">
         <v>13</v>
       </c>
       <c r="C21" s="10">
@@ -1946,54 +1967,54 @@
       <c r="D21" s="14" t="s">
         <v>28</v>
       </c>
-      <c r="E21" s="77" t="s">
+      <c r="E21" s="76" t="s">
         <v>131</v>
       </c>
-      <c r="F21" s="95">
+      <c r="F21" s="93">
         <v>44501</v>
       </c>
-      <c r="G21" s="67" t="s">
+      <c r="G21" s="66" t="s">
         <v>23</v>
       </c>
-      <c r="H21" s="24" t="s">
+      <c r="H21" s="23" t="s">
         <v>75</v>
       </c>
-      <c r="I21" s="54" t="s">
+      <c r="I21" s="53" t="s">
         <v>53</v>
       </c>
-      <c r="J21" s="27"/>
+      <c r="J21" s="26"/>
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A22" s="7"/>
-      <c r="B22" s="104"/>
+      <c r="B22" s="102"/>
       <c r="C22" s="15"/>
       <c r="D22" s="7"/>
-      <c r="E22" s="45"/>
-      <c r="F22" s="30"/>
-      <c r="G22" s="65">
+      <c r="E22" s="44"/>
+      <c r="F22" s="29"/>
+      <c r="G22" s="64">
         <v>6587623904</v>
       </c>
       <c r="H22" s="20"/>
-      <c r="I22" s="28"/>
-      <c r="J22" s="25"/>
+      <c r="I22" s="27"/>
+      <c r="J22" s="24"/>
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A23" s="9"/>
-      <c r="B23" s="105"/>
+      <c r="B23" s="103"/>
       <c r="C23" s="16"/>
       <c r="D23" s="9"/>
       <c r="E23" s="9"/>
-      <c r="F23" s="31"/>
-      <c r="G23" s="66"/>
-      <c r="H23" s="22"/>
-      <c r="I23" s="53"/>
-      <c r="J23" s="26"/>
+      <c r="F23" s="30"/>
+      <c r="G23" s="65"/>
+      <c r="H23" s="21"/>
+      <c r="I23" s="52"/>
+      <c r="J23" s="25"/>
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A24" s="5">
         <v>8</v>
       </c>
-      <c r="B24" s="102" t="s">
+      <c r="B24" s="100" t="s">
         <v>13</v>
       </c>
       <c r="C24" s="4">
@@ -2002,166 +2023,168 @@
       <c r="D24" s="14" t="s">
         <v>43</v>
       </c>
-      <c r="E24" s="23">
+      <c r="E24" s="22">
         <v>44520</v>
       </c>
-      <c r="F24" s="82" t="s">
+      <c r="F24" s="80" t="s">
         <v>44</v>
       </c>
-      <c r="G24" s="68" t="s">
+      <c r="G24" s="67" t="s">
         <v>45</v>
       </c>
       <c r="H24" s="5" t="s">
         <v>75</v>
       </c>
-      <c r="I24" s="55">
+      <c r="I24" s="54">
         <v>44440</v>
       </c>
-      <c r="J24" s="27"/>
+      <c r="J24" s="26"/>
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A25" s="7"/>
-      <c r="B25" s="28"/>
+      <c r="B25" s="27"/>
       <c r="C25" s="11"/>
-      <c r="D25" s="45"/>
-      <c r="E25" s="45"/>
-      <c r="F25" s="33"/>
-      <c r="G25" s="69">
+      <c r="D25" s="44"/>
+      <c r="E25" s="44"/>
+      <c r="F25" s="32"/>
+      <c r="G25" s="68">
         <v>81333524165</v>
       </c>
       <c r="H25" s="7"/>
-      <c r="I25" s="28"/>
-      <c r="J25" s="25"/>
+      <c r="I25" s="27"/>
+      <c r="J25" s="24"/>
     </row>
     <row r="26" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A26" s="9"/>
-      <c r="B26" s="53"/>
+      <c r="B26" s="52"/>
       <c r="C26" s="12"/>
       <c r="D26" s="9"/>
       <c r="E26" s="9"/>
-      <c r="F26" s="46"/>
-      <c r="G26" s="70"/>
+      <c r="F26" s="45"/>
+      <c r="G26" s="69"/>
       <c r="H26" s="9"/>
-      <c r="I26" s="53"/>
-      <c r="J26" s="26"/>
+      <c r="I26" s="52"/>
+      <c r="J26" s="25"/>
     </row>
     <row r="27" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A27" s="5">
         <v>9</v>
       </c>
-      <c r="B27" s="102" t="s">
+      <c r="B27" s="100" t="s">
         <v>13</v>
       </c>
       <c r="C27" s="4">
         <v>33</v>
       </c>
-      <c r="D27" s="78" t="s">
+      <c r="D27" s="77" t="s">
         <v>108</v>
       </c>
-      <c r="E27" s="45">
+      <c r="E27" s="44">
         <v>44247</v>
       </c>
-      <c r="F27" s="91" t="s">
+      <c r="F27" s="89" t="s">
         <v>103</v>
       </c>
-      <c r="G27" s="69" t="s">
+      <c r="G27" s="68" t="s">
         <v>101</v>
       </c>
       <c r="H27" s="7" t="s">
         <v>102</v>
       </c>
-      <c r="I27" s="28"/>
-      <c r="J27" s="25"/>
+      <c r="I27" s="119" t="s">
+        <v>137</v>
+      </c>
+      <c r="J27" s="24"/>
     </row>
     <row r="28" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A28" s="7"/>
-      <c r="B28" s="28"/>
+      <c r="B28" s="27"/>
       <c r="C28" s="11"/>
       <c r="D28" s="7"/>
       <c r="E28" s="7"/>
-      <c r="F28" s="33"/>
-      <c r="G28" s="69">
+      <c r="F28" s="32"/>
+      <c r="G28" s="68">
         <v>81235748714</v>
       </c>
       <c r="H28" s="7"/>
-      <c r="I28" s="28"/>
-      <c r="J28" s="25"/>
+      <c r="I28" s="27"/>
+      <c r="J28" s="24"/>
     </row>
     <row r="29" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A29" s="9"/>
-      <c r="B29" s="28"/>
+      <c r="B29" s="27"/>
       <c r="C29" s="11"/>
       <c r="D29" s="7"/>
       <c r="E29" s="7"/>
-      <c r="F29" s="33"/>
-      <c r="G29" s="69"/>
+      <c r="F29" s="32"/>
+      <c r="G29" s="68"/>
       <c r="H29" s="7"/>
-      <c r="I29" s="28"/>
-      <c r="J29" s="25"/>
+      <c r="I29" s="27"/>
+      <c r="J29" s="24"/>
     </row>
     <row r="30" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A30" s="5">
         <v>10</v>
       </c>
-      <c r="B30" s="103" t="s">
+      <c r="B30" s="101" t="s">
         <v>12</v>
       </c>
       <c r="C30" s="10">
         <v>25</v>
       </c>
-      <c r="D30" s="44">
+      <c r="D30" s="43">
         <v>44237</v>
       </c>
       <c r="E30" s="14" t="s">
         <v>131</v>
       </c>
-      <c r="F30" s="95">
+      <c r="F30" s="93">
         <v>44501</v>
       </c>
-      <c r="G30" s="67" t="s">
+      <c r="G30" s="66" t="s">
         <v>35</v>
       </c>
-      <c r="H30" s="24" t="s">
+      <c r="H30" s="23" t="s">
         <v>69</v>
       </c>
-      <c r="I30" s="54" t="s">
+      <c r="I30" s="53" t="s">
         <v>53</v>
       </c>
-      <c r="J30" s="54" t="s">
+      <c r="J30" s="53" t="s">
         <v>53</v>
       </c>
     </row>
     <row r="31" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A31" s="7"/>
-      <c r="B31" s="104"/>
+      <c r="B31" s="102"/>
       <c r="C31" s="15"/>
       <c r="D31" s="7"/>
       <c r="E31" s="7"/>
-      <c r="F31" s="30"/>
-      <c r="G31" s="65">
+      <c r="F31" s="29"/>
+      <c r="G31" s="64">
         <v>82143316439</v>
       </c>
       <c r="H31" s="20"/>
-      <c r="I31" s="28"/>
-      <c r="J31" s="25"/>
+      <c r="I31" s="27"/>
+      <c r="J31" s="24"/>
     </row>
     <row r="32" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A32" s="9"/>
-      <c r="B32" s="105"/>
+      <c r="B32" s="103"/>
       <c r="C32" s="16"/>
       <c r="D32" s="9"/>
       <c r="E32" s="9"/>
-      <c r="F32" s="31"/>
-      <c r="G32" s="66"/>
-      <c r="H32" s="22"/>
-      <c r="I32" s="53"/>
-      <c r="J32" s="26"/>
+      <c r="F32" s="30"/>
+      <c r="G32" s="65"/>
+      <c r="H32" s="21"/>
+      <c r="I32" s="52"/>
+      <c r="J32" s="25"/>
     </row>
     <row r="33" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A33" s="5">
         <v>11</v>
       </c>
-      <c r="B33" s="102" t="s">
+      <c r="B33" s="100" t="s">
         <v>12</v>
       </c>
       <c r="C33" s="4">
@@ -2170,96 +2193,108 @@
       <c r="D33" s="14" t="s">
         <v>39</v>
       </c>
-      <c r="E33" s="47">
+      <c r="E33" s="46">
         <v>44614</v>
       </c>
-      <c r="F33" s="90" t="s">
+      <c r="F33" s="88" t="s">
         <v>61</v>
       </c>
-      <c r="G33" s="67" t="s">
+      <c r="G33" s="66" t="s">
         <v>60</v>
       </c>
       <c r="H33" s="5" t="s">
         <v>69</v>
       </c>
-      <c r="I33" s="55">
+      <c r="I33" s="54">
         <v>44440</v>
       </c>
-      <c r="J33" s="27"/>
+      <c r="J33" s="26"/>
     </row>
     <row r="34" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A34" s="7"/>
-      <c r="B34" s="28"/>
+      <c r="B34" s="27"/>
       <c r="C34" s="11"/>
       <c r="D34" s="7"/>
-      <c r="E34" s="48"/>
-      <c r="F34" s="30"/>
-      <c r="G34" s="65">
+      <c r="E34" s="47"/>
+      <c r="F34" s="29"/>
+      <c r="G34" s="64">
         <v>85732094240</v>
       </c>
       <c r="H34" s="7"/>
-      <c r="I34" s="28"/>
-      <c r="J34" s="25"/>
+      <c r="I34" s="27"/>
+      <c r="J34" s="24"/>
     </row>
     <row r="35" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A35" s="9"/>
-      <c r="B35" s="53"/>
+      <c r="B35" s="52"/>
       <c r="C35" s="8"/>
       <c r="D35" s="9"/>
       <c r="E35" s="9"/>
-      <c r="F35" s="31"/>
-      <c r="G35" s="66"/>
+      <c r="F35" s="30"/>
+      <c r="G35" s="65"/>
       <c r="H35" s="9"/>
-      <c r="I35" s="53"/>
-      <c r="J35" s="26"/>
+      <c r="I35" s="52"/>
+      <c r="J35" s="25"/>
     </row>
     <row r="36" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A36" s="5">
         <v>12</v>
       </c>
-      <c r="B36" s="102" t="s">
+      <c r="B36" s="100" t="s">
         <v>12</v>
       </c>
       <c r="C36" s="4">
         <v>27</v>
       </c>
-      <c r="D36" s="24"/>
-      <c r="E36" s="21"/>
-      <c r="F36" s="36"/>
-      <c r="G36" s="67"/>
-      <c r="H36" s="5"/>
-      <c r="I36" s="79"/>
-      <c r="J36" s="27"/>
+      <c r="D36" s="23" t="s">
+        <v>133</v>
+      </c>
+      <c r="E36" s="97" t="s">
+        <v>136</v>
+      </c>
+      <c r="F36" s="118" t="s">
+        <v>134</v>
+      </c>
+      <c r="G36" s="66" t="s">
+        <v>132</v>
+      </c>
+      <c r="H36" s="117" t="s">
+        <v>89</v>
+      </c>
+      <c r="I36" s="78"/>
+      <c r="J36" s="26"/>
     </row>
     <row r="37" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A37" s="7"/>
-      <c r="B37" s="28"/>
+      <c r="B37" s="27"/>
       <c r="C37" s="11"/>
       <c r="D37" s="7"/>
-      <c r="E37" s="48"/>
-      <c r="F37" s="30"/>
-      <c r="G37" s="65"/>
+      <c r="E37" s="47"/>
+      <c r="F37" s="29"/>
+      <c r="G37" s="72" t="s">
+        <v>135</v>
+      </c>
       <c r="H37" s="7"/>
-      <c r="I37" s="28"/>
-      <c r="J37" s="25"/>
+      <c r="I37" s="27"/>
+      <c r="J37" s="24"/>
     </row>
     <row r="38" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A38" s="9"/>
-      <c r="B38" s="53"/>
+      <c r="B38" s="52"/>
       <c r="C38" s="8"/>
       <c r="D38" s="9"/>
       <c r="E38" s="9"/>
-      <c r="F38" s="31"/>
-      <c r="G38" s="66"/>
+      <c r="F38" s="30"/>
+      <c r="G38" s="65"/>
       <c r="H38" s="9"/>
-      <c r="I38" s="53"/>
-      <c r="J38" s="26"/>
+      <c r="I38" s="52"/>
+      <c r="J38" s="25"/>
     </row>
     <row r="39" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A39" s="5">
         <v>13</v>
       </c>
-      <c r="B39" s="102" t="s">
+      <c r="B39" s="100" t="s">
         <v>14</v>
       </c>
       <c r="C39" s="4">
@@ -2268,54 +2303,54 @@
       <c r="D39" s="14" t="s">
         <v>83</v>
       </c>
-      <c r="E39" s="77" t="s">
+      <c r="E39" s="76" t="s">
         <v>131</v>
       </c>
-      <c r="F39" s="96">
+      <c r="F39" s="94">
         <v>44510</v>
       </c>
-      <c r="G39" s="68" t="s">
+      <c r="G39" s="67" t="s">
         <v>46</v>
       </c>
       <c r="H39" s="5" t="s">
         <v>77</v>
       </c>
-      <c r="I39" s="55">
+      <c r="I39" s="54">
         <v>44449</v>
       </c>
-      <c r="J39" s="27"/>
+      <c r="J39" s="26"/>
     </row>
     <row r="40" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A40" s="7"/>
-      <c r="B40" s="28"/>
+      <c r="B40" s="27"/>
       <c r="C40" s="11"/>
-      <c r="D40" s="45"/>
-      <c r="E40" s="45"/>
-      <c r="F40" s="33"/>
-      <c r="G40" s="69">
+      <c r="D40" s="44"/>
+      <c r="E40" s="44"/>
+      <c r="F40" s="32"/>
+      <c r="G40" s="68">
         <v>81331430509</v>
       </c>
       <c r="H40" s="7"/>
-      <c r="I40" s="28"/>
-      <c r="J40" s="25"/>
+      <c r="I40" s="27"/>
+      <c r="J40" s="24"/>
     </row>
     <row r="41" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A41" s="9"/>
-      <c r="B41" s="53"/>
+      <c r="B41" s="52"/>
       <c r="C41" s="12"/>
       <c r="D41" s="9"/>
       <c r="E41" s="9"/>
-      <c r="F41" s="46"/>
-      <c r="G41" s="70"/>
+      <c r="F41" s="45"/>
+      <c r="G41" s="69"/>
       <c r="H41" s="9"/>
-      <c r="I41" s="53"/>
-      <c r="J41" s="26"/>
+      <c r="I41" s="52"/>
+      <c r="J41" s="25"/>
     </row>
     <row r="42" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A42" s="5">
         <v>14</v>
       </c>
-      <c r="B42" s="102" t="s">
+      <c r="B42" s="100" t="s">
         <v>15</v>
       </c>
       <c r="C42" s="4">
@@ -2324,160 +2359,160 @@
       <c r="D42" s="14" t="s">
         <v>40</v>
       </c>
-      <c r="E42" s="76" t="s">
+      <c r="E42" s="75" t="s">
         <v>95</v>
       </c>
-      <c r="F42" s="83" t="s">
+      <c r="F42" s="81" t="s">
         <v>42</v>
       </c>
-      <c r="G42" s="68" t="s">
+      <c r="G42" s="67" t="s">
         <v>41</v>
       </c>
       <c r="H42" s="5" t="s">
         <v>79</v>
       </c>
-      <c r="I42" s="55">
+      <c r="I42" s="54">
         <v>44440</v>
       </c>
-      <c r="J42" s="27"/>
+      <c r="J42" s="26"/>
     </row>
     <row r="43" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A43" s="7"/>
-      <c r="B43" s="28"/>
+      <c r="B43" s="27"/>
       <c r="C43" s="11"/>
-      <c r="D43" s="45"/>
-      <c r="E43" s="45"/>
-      <c r="F43" s="33"/>
-      <c r="G43" s="69">
+      <c r="D43" s="44"/>
+      <c r="E43" s="44"/>
+      <c r="F43" s="32"/>
+      <c r="G43" s="68">
         <v>85649115380</v>
       </c>
       <c r="H43" s="7"/>
-      <c r="I43" s="28"/>
-      <c r="J43" s="25"/>
+      <c r="I43" s="27"/>
+      <c r="J43" s="24"/>
     </row>
     <row r="44" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A44" s="9"/>
-      <c r="B44" s="53"/>
+      <c r="B44" s="52"/>
       <c r="C44" s="12"/>
       <c r="D44" s="9"/>
       <c r="E44" s="9"/>
-      <c r="F44" s="46"/>
-      <c r="G44" s="70"/>
+      <c r="F44" s="45"/>
+      <c r="G44" s="69"/>
       <c r="H44" s="9"/>
-      <c r="I44" s="53"/>
-      <c r="J44" s="26"/>
+      <c r="I44" s="52"/>
+      <c r="J44" s="25"/>
     </row>
     <row r="45" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A45" s="5">
         <v>15</v>
       </c>
-      <c r="B45" s="102" t="s">
+      <c r="B45" s="100" t="s">
         <v>16</v>
       </c>
       <c r="C45" s="4">
         <v>40</v>
       </c>
-      <c r="D45" s="44">
+      <c r="D45" s="43">
         <v>44453</v>
       </c>
-      <c r="E45" s="76" t="s">
+      <c r="E45" s="75" t="s">
         <v>95</v>
       </c>
-      <c r="F45" s="83" t="s">
+      <c r="F45" s="81" t="s">
         <v>42</v>
       </c>
-      <c r="G45" s="68" t="s">
+      <c r="G45" s="67" t="s">
         <v>48</v>
       </c>
       <c r="H45" s="5" t="s">
         <v>81</v>
       </c>
-      <c r="I45" s="72" t="s">
+      <c r="I45" s="71" t="s">
         <v>98</v>
       </c>
-      <c r="J45" s="27"/>
+      <c r="J45" s="26"/>
     </row>
     <row r="46" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A46" s="7"/>
-      <c r="B46" s="28"/>
+      <c r="B46" s="27"/>
       <c r="C46" s="11"/>
-      <c r="D46" s="45"/>
-      <c r="E46" s="45"/>
-      <c r="F46" s="33"/>
-      <c r="G46" s="69">
+      <c r="D46" s="44"/>
+      <c r="E46" s="44"/>
+      <c r="F46" s="32"/>
+      <c r="G46" s="68">
         <v>81359524067</v>
       </c>
       <c r="H46" s="7"/>
-      <c r="I46" s="28"/>
-      <c r="J46" s="25"/>
+      <c r="I46" s="27"/>
+      <c r="J46" s="24"/>
     </row>
     <row r="47" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A47" s="9"/>
-      <c r="B47" s="53"/>
+      <c r="B47" s="52"/>
       <c r="C47" s="12"/>
       <c r="D47" s="9"/>
       <c r="E47" s="9"/>
-      <c r="F47" s="46"/>
-      <c r="G47" s="70"/>
+      <c r="F47" s="45"/>
+      <c r="G47" s="69"/>
       <c r="H47" s="9"/>
-      <c r="I47" s="53"/>
-      <c r="J47" s="26"/>
+      <c r="I47" s="52"/>
+      <c r="J47" s="25"/>
     </row>
     <row r="48" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A48" s="5">
         <v>16</v>
       </c>
-      <c r="B48" s="102" t="s">
+      <c r="B48" s="100" t="s">
         <v>18</v>
       </c>
       <c r="C48" s="4">
         <v>40</v>
       </c>
-      <c r="D48" s="44">
+      <c r="D48" s="43">
         <v>44453</v>
       </c>
-      <c r="E48" s="76" t="s">
+      <c r="E48" s="75" t="s">
         <v>95</v>
       </c>
-      <c r="F48" s="83" t="s">
+      <c r="F48" s="81" t="s">
         <v>42</v>
       </c>
-      <c r="G48" s="68" t="s">
+      <c r="G48" s="67" t="s">
         <v>25</v>
       </c>
       <c r="H48" s="5" t="s">
         <v>82</v>
       </c>
-      <c r="I48" s="72" t="s">
+      <c r="I48" s="71" t="s">
         <v>98</v>
       </c>
-      <c r="J48" s="27"/>
+      <c r="J48" s="26"/>
     </row>
     <row r="49" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A49" s="7"/>
-      <c r="B49" s="28"/>
+      <c r="B49" s="27"/>
       <c r="C49" s="11"/>
-      <c r="D49" s="45"/>
-      <c r="E49" s="45"/>
-      <c r="F49" s="33"/>
-      <c r="G49" s="69">
+      <c r="D49" s="44"/>
+      <c r="E49" s="44"/>
+      <c r="F49" s="32"/>
+      <c r="G49" s="68">
         <v>82319844744</v>
       </c>
       <c r="H49" s="7"/>
-      <c r="I49" s="28"/>
-      <c r="J49" s="25"/>
+      <c r="I49" s="27"/>
+      <c r="J49" s="24"/>
     </row>
     <row r="50" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A50" s="9"/>
-      <c r="B50" s="53"/>
+      <c r="B50" s="52"/>
       <c r="C50" s="12"/>
       <c r="D50" s="9"/>
       <c r="E50" s="9"/>
-      <c r="F50" s="46"/>
-      <c r="G50" s="70"/>
+      <c r="F50" s="45"/>
+      <c r="G50" s="69"/>
       <c r="H50" s="9"/>
-      <c r="I50" s="53"/>
-      <c r="J50" s="26"/>
+      <c r="I50" s="52"/>
+      <c r="J50" s="25"/>
     </row>
     <row r="51" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A51" s="5">
@@ -2489,37 +2524,39 @@
       <c r="C51" s="4">
         <v>5</v>
       </c>
-      <c r="D51" s="44" t="s">
+      <c r="D51" s="43" t="s">
         <v>108</v>
       </c>
-      <c r="E51" s="23">
+      <c r="E51" s="22">
         <v>44237</v>
       </c>
-      <c r="F51" s="89">
+      <c r="F51" s="87">
         <v>44617</v>
       </c>
-      <c r="G51" s="68" t="s">
+      <c r="G51" s="67" t="s">
         <v>105</v>
       </c>
       <c r="H51" s="5" t="s">
         <v>104</v>
       </c>
-      <c r="I51" s="80"/>
-      <c r="J51" s="27"/>
+      <c r="I51" s="119" t="s">
+        <v>137</v>
+      </c>
+      <c r="J51" s="26"/>
     </row>
     <row r="52" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A52" s="7"/>
       <c r="B52" s="6"/>
       <c r="C52" s="11"/>
-      <c r="D52" s="45"/>
-      <c r="E52" s="45"/>
-      <c r="F52" s="33"/>
-      <c r="G52" s="69">
+      <c r="D52" s="44"/>
+      <c r="E52" s="44"/>
+      <c r="F52" s="32"/>
+      <c r="G52" s="68">
         <v>89603906796</v>
       </c>
       <c r="H52" s="7"/>
-      <c r="I52" s="28"/>
-      <c r="J52" s="25"/>
+      <c r="I52" s="27"/>
+      <c r="J52" s="24"/>
     </row>
     <row r="53" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A53" s="9"/>
@@ -2527,31 +2564,31 @@
       <c r="C53" s="12"/>
       <c r="D53" s="9"/>
       <c r="E53" s="9"/>
-      <c r="F53" s="46"/>
-      <c r="G53" s="70"/>
+      <c r="F53" s="45"/>
+      <c r="G53" s="69"/>
       <c r="H53" s="9"/>
-      <c r="I53" s="53"/>
-      <c r="J53" s="26"/>
-    </row>
-    <row r="55" spans="1:10" s="86" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I53" s="52"/>
+      <c r="J53" s="25"/>
+    </row>
+    <row r="55" spans="1:10" s="84" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A55" s="2"/>
-      <c r="B55" s="87" t="s">
+      <c r="B55" s="85" t="s">
         <v>117</v>
       </c>
-      <c r="C55" s="88"/>
-      <c r="D55" s="88"/>
+      <c r="C55" s="86"/>
+      <c r="D55" s="86"/>
       <c r="E55" s="2"/>
-      <c r="F55" s="85"/>
-      <c r="G55" s="94" t="s">
+      <c r="F55" s="83"/>
+      <c r="G55" s="92" t="s">
         <v>125</v>
       </c>
-      <c r="H55" s="101"/>
-      <c r="I55" s="85"/>
-      <c r="J55" s="85"/>
-    </row>
-    <row r="56" spans="1:10" s="86" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H55" s="99"/>
+      <c r="I55" s="83"/>
+      <c r="J55" s="83"/>
+    </row>
+    <row r="56" spans="1:10" s="84" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A56" s="2"/>
-      <c r="B56" s="84" t="s">
+      <c r="B56" s="82" t="s">
         <v>113</v>
       </c>
       <c r="C56" s="2" t="s">
@@ -2559,19 +2596,19 @@
       </c>
       <c r="D56" s="2"/>
       <c r="E56" s="2"/>
-      <c r="F56" s="85"/>
-      <c r="G56" s="84" t="s">
+      <c r="F56" s="83"/>
+      <c r="G56" s="82" t="s">
         <v>109</v>
       </c>
       <c r="H56" s="2" t="s">
         <v>75</v>
       </c>
-      <c r="I56" s="85"/>
-      <c r="J56" s="85"/>
-    </row>
-    <row r="57" spans="1:10" s="86" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I56" s="83"/>
+      <c r="J56" s="83"/>
+    </row>
+    <row r="57" spans="1:10" s="84" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A57" s="2"/>
-      <c r="B57" s="84" t="s">
+      <c r="B57" s="82" t="s">
         <v>114</v>
       </c>
       <c r="C57" s="2" t="s">
@@ -2579,19 +2616,19 @@
       </c>
       <c r="D57" s="2"/>
       <c r="E57" s="2"/>
-      <c r="F57" s="85"/>
-      <c r="G57" s="84" t="s">
+      <c r="F57" s="83"/>
+      <c r="G57" s="82" t="s">
         <v>110</v>
       </c>
       <c r="H57" s="2" t="s">
         <v>102</v>
       </c>
-      <c r="I57" s="85"/>
-      <c r="J57" s="85"/>
-    </row>
-    <row r="58" spans="1:10" s="86" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I57" s="83"/>
+      <c r="J57" s="83"/>
+    </row>
+    <row r="58" spans="1:10" s="84" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A58" s="2"/>
-      <c r="B58" s="84" t="s">
+      <c r="B58" s="82" t="s">
         <v>115</v>
       </c>
       <c r="C58" s="2" t="s">
@@ -2599,19 +2636,19 @@
       </c>
       <c r="D58" s="2"/>
       <c r="E58" s="2"/>
-      <c r="F58" s="85"/>
-      <c r="G58" s="84" t="s">
+      <c r="F58" s="83"/>
+      <c r="G58" s="82" t="s">
         <v>111</v>
       </c>
       <c r="H58" s="2" t="s">
         <v>77</v>
       </c>
-      <c r="I58" s="85"/>
-      <c r="J58" s="85"/>
-    </row>
-    <row r="59" spans="1:10" s="86" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I58" s="83"/>
+      <c r="J58" s="83"/>
+    </row>
+    <row r="59" spans="1:10" s="84" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A59" s="2"/>
-      <c r="B59" s="84" t="s">
+      <c r="B59" s="82" t="s">
         <v>118</v>
       </c>
       <c r="C59" s="2" t="s">
@@ -2619,41 +2656,41 @@
       </c>
       <c r="D59" s="2"/>
       <c r="E59" s="2"/>
-      <c r="F59" s="85"/>
-      <c r="G59" s="84"/>
+      <c r="F59" s="83"/>
+      <c r="G59" s="82"/>
       <c r="H59" s="2"/>
-      <c r="I59" s="85"/>
-      <c r="J59" s="85"/>
-    </row>
-    <row r="60" spans="1:10" s="86" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I59" s="83"/>
+      <c r="J59" s="83"/>
+    </row>
+    <row r="60" spans="1:10" s="84" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A60" s="2"/>
       <c r="D60" s="2"/>
       <c r="E60" s="2"/>
-      <c r="F60" s="85"/>
-      <c r="G60" s="84"/>
+      <c r="F60" s="83"/>
+      <c r="G60" s="82"/>
       <c r="H60" s="2"/>
-      <c r="I60" s="85"/>
-      <c r="J60" s="85"/>
-    </row>
-    <row r="61" spans="1:10" s="86" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I60" s="83"/>
+      <c r="J60" s="83"/>
+    </row>
+    <row r="61" spans="1:10" s="84" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A61" s="2"/>
-      <c r="B61" s="92" t="s">
+      <c r="B61" s="90" t="s">
         <v>124</v>
       </c>
-      <c r="C61" s="93"/>
+      <c r="C61" s="91"/>
       <c r="D61" s="2"/>
       <c r="E61" s="2"/>
-      <c r="F61" s="85"/>
-      <c r="G61" s="97" t="s">
+      <c r="F61" s="83"/>
+      <c r="G61" s="95" t="s">
         <v>128</v>
       </c>
-      <c r="H61" s="100"/>
-      <c r="I61" s="85"/>
-      <c r="J61" s="85"/>
-    </row>
-    <row r="62" spans="1:10" s="86" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H61" s="98"/>
+      <c r="I61" s="83"/>
+      <c r="J61" s="83"/>
+    </row>
+    <row r="62" spans="1:10" s="84" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A62" s="2"/>
-      <c r="B62" s="84" t="s">
+      <c r="B62" s="82" t="s">
         <v>119</v>
       </c>
       <c r="C62" s="2" t="s">
@@ -2661,19 +2698,19 @@
       </c>
       <c r="D62" s="2"/>
       <c r="E62" s="2"/>
-      <c r="F62" s="85"/>
-      <c r="G62" s="84" t="s">
+      <c r="F62" s="83"/>
+      <c r="G62" s="82" t="s">
         <v>126</v>
       </c>
       <c r="H62" s="2" t="s">
         <v>127</v>
       </c>
-      <c r="I62" s="85"/>
-      <c r="J62" s="85"/>
-    </row>
-    <row r="63" spans="1:10" s="86" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I62" s="83"/>
+      <c r="J62" s="83"/>
+    </row>
+    <row r="63" spans="1:10" s="84" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A63" s="2"/>
-      <c r="B63" s="84" t="s">
+      <c r="B63" s="82" t="s">
         <v>120</v>
       </c>
       <c r="C63" s="2" t="s">
@@ -2681,15 +2718,15 @@
       </c>
       <c r="D63" s="2"/>
       <c r="E63" s="2"/>
-      <c r="F63" s="85"/>
-      <c r="G63" s="84"/>
+      <c r="F63" s="83"/>
+      <c r="G63" s="82"/>
       <c r="H63" s="2"/>
-      <c r="I63" s="85"/>
-      <c r="J63" s="85"/>
-    </row>
-    <row r="64" spans="1:10" s="86" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I63" s="83"/>
+      <c r="J63" s="83"/>
+    </row>
+    <row r="64" spans="1:10" s="84" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A64" s="2"/>
-      <c r="B64" s="84" t="s">
+      <c r="B64" s="82" t="s">
         <v>121</v>
       </c>
       <c r="C64" s="2" t="s">
@@ -2697,15 +2734,15 @@
       </c>
       <c r="D64" s="2"/>
       <c r="E64" s="2"/>
-      <c r="F64" s="85"/>
-      <c r="G64" s="84"/>
+      <c r="F64" s="83"/>
+      <c r="G64" s="82"/>
       <c r="H64" s="2"/>
-      <c r="I64" s="85"/>
-      <c r="J64" s="85"/>
-    </row>
-    <row r="65" spans="1:10" s="86" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I64" s="83"/>
+      <c r="J64" s="83"/>
+    </row>
+    <row r="65" spans="1:10" s="84" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A65" s="2"/>
-      <c r="B65" s="84" t="s">
+      <c r="B65" s="82" t="s">
         <v>122</v>
       </c>
       <c r="C65" s="2" t="s">
@@ -2713,11 +2750,11 @@
       </c>
       <c r="D65" s="2"/>
       <c r="E65" s="2"/>
-      <c r="F65" s="85"/>
-      <c r="G65" s="84"/>
+      <c r="F65" s="83"/>
+      <c r="G65" s="82"/>
       <c r="H65" s="2"/>
-      <c r="I65" s="85"/>
-      <c r="J65" s="85"/>
+      <c r="I65" s="83"/>
+      <c r="J65" s="83"/>
     </row>
   </sheetData>
   <mergeCells count="8">
@@ -2760,46 +2797,46 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="18" x14ac:dyDescent="0.2">
-      <c r="A1" s="115" t="s">
+      <c r="A1" s="113" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="115" t="s">
+      <c r="B1" s="113" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="115" t="s">
+      <c r="C1" s="113" t="s">
         <v>27</v>
       </c>
-      <c r="D1" s="115" t="s">
+      <c r="D1" s="113" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="115"/>
-      <c r="F1" s="117" t="s">
+      <c r="E1" s="113"/>
+      <c r="F1" s="115" t="s">
         <v>106</v>
       </c>
-      <c r="G1" s="115" t="s">
+      <c r="G1" s="113" t="s">
         <v>4</v>
       </c>
-      <c r="H1" s="113" t="s">
+      <c r="H1" s="111" t="s">
         <v>2</v>
       </c>
-      <c r="I1" s="106" t="s">
+      <c r="I1" s="104" t="s">
         <v>56</v>
       </c>
-      <c r="J1" s="106"/>
+      <c r="J1" s="104"/>
     </row>
     <row r="2" spans="1:10" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="116"/>
-      <c r="B2" s="116"/>
-      <c r="C2" s="116"/>
-      <c r="D2" s="74" t="s">
+      <c r="A2" s="114"/>
+      <c r="B2" s="114"/>
+      <c r="C2" s="114"/>
+      <c r="D2" s="73" t="s">
         <v>6</v>
       </c>
       <c r="E2" s="19" t="s">
         <v>7</v>
       </c>
-      <c r="F2" s="118"/>
-      <c r="G2" s="116"/>
-      <c r="H2" s="114"/>
+      <c r="F2" s="116"/>
+      <c r="G2" s="114"/>
+      <c r="H2" s="112"/>
       <c r="I2" s="17" t="s">
         <v>6</v>
       </c>
@@ -2808,34 +2845,34 @@
       </c>
     </row>
     <row r="3" spans="1:10" ht="15" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="39">
+      <c r="A3" s="38">
         <v>1</v>
       </c>
-      <c r="B3" s="40" t="s">
+      <c r="B3" s="39" t="s">
         <v>5</v>
       </c>
-      <c r="C3" s="40">
+      <c r="C3" s="39">
         <v>8</v>
       </c>
-      <c r="D3" s="58">
+      <c r="D3" s="57">
         <v>44218</v>
       </c>
-      <c r="E3" s="41" t="s">
+      <c r="E3" s="40" t="s">
         <v>84</v>
       </c>
-      <c r="F3" s="43" t="s">
+      <c r="F3" s="42" t="s">
         <v>87</v>
       </c>
-      <c r="G3" s="42" t="s">
+      <c r="G3" s="41" t="s">
         <v>85</v>
       </c>
-      <c r="H3" s="39" t="s">
+      <c r="H3" s="38" t="s">
         <v>89</v>
       </c>
-      <c r="I3" s="59">
+      <c r="I3" s="58">
         <v>44251</v>
       </c>
-      <c r="J3" s="61" t="s">
+      <c r="J3" s="60" t="s">
         <v>96</v>
       </c>
     </row>
@@ -2845,13 +2882,13 @@
       <c r="C4" s="11"/>
       <c r="D4" s="20"/>
       <c r="E4" s="20"/>
-      <c r="F4" s="30"/>
-      <c r="G4" s="30">
+      <c r="F4" s="29"/>
+      <c r="G4" s="29">
         <v>85258844844</v>
       </c>
       <c r="H4" s="7"/>
-      <c r="I4" s="28"/>
-      <c r="J4" s="62"/>
+      <c r="I4" s="27"/>
+      <c r="J4" s="61"/>
     </row>
     <row r="5" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A5" s="9"/>
@@ -2859,11 +2896,11 @@
       <c r="C5" s="12"/>
       <c r="D5" s="9"/>
       <c r="E5" s="9"/>
-      <c r="F5" s="31"/>
-      <c r="G5" s="31"/>
+      <c r="F5" s="30"/>
+      <c r="G5" s="30"/>
       <c r="H5" s="9"/>
-      <c r="I5" s="53"/>
-      <c r="J5" s="26"/>
+      <c r="I5" s="52"/>
+      <c r="J5" s="25"/>
     </row>
     <row r="6" spans="1:10" ht="15" thickTop="1" x14ac:dyDescent="0.2">
       <c r="A6" s="5">
@@ -2875,25 +2912,25 @@
       <c r="C6" s="4">
         <v>8</v>
       </c>
-      <c r="D6" s="44">
+      <c r="D6" s="43">
         <v>44218</v>
       </c>
       <c r="E6" s="14" t="s">
         <v>84</v>
       </c>
-      <c r="F6" s="36" t="s">
+      <c r="F6" s="35" t="s">
         <v>87</v>
       </c>
-      <c r="G6" s="32" t="s">
+      <c r="G6" s="31" t="s">
         <v>86</v>
       </c>
       <c r="H6" s="5" t="s">
         <v>88</v>
       </c>
-      <c r="I6" s="59">
+      <c r="I6" s="58">
         <v>44251</v>
       </c>
-      <c r="J6" s="56" t="s">
+      <c r="J6" s="55" t="s">
         <v>96</v>
       </c>
     </row>
@@ -2903,13 +2940,13 @@
       <c r="C7" s="11"/>
       <c r="D7" s="20"/>
       <c r="E7" s="20"/>
-      <c r="F7" s="30"/>
-      <c r="G7" s="30">
+      <c r="F7" s="29"/>
+      <c r="G7" s="29">
         <v>82226183614</v>
       </c>
       <c r="H7" s="7"/>
-      <c r="I7" s="28"/>
-      <c r="J7" s="25"/>
+      <c r="I7" s="27"/>
+      <c r="J7" s="24"/>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A8" s="9"/>
@@ -2917,11 +2954,11 @@
       <c r="C8" s="12"/>
       <c r="D8" s="9"/>
       <c r="E8" s="9"/>
-      <c r="F8" s="31"/>
-      <c r="G8" s="31"/>
+      <c r="F8" s="30"/>
+      <c r="G8" s="30"/>
       <c r="H8" s="9"/>
-      <c r="I8" s="53"/>
-      <c r="J8" s="26"/>
+      <c r="I8" s="52"/>
+      <c r="J8" s="25"/>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A9" s="7">
@@ -2936,22 +2973,22 @@
       <c r="D9" s="14" t="s">
         <v>94</v>
       </c>
-      <c r="E9" s="63" t="s">
+      <c r="E9" s="62" t="s">
         <v>39</v>
       </c>
-      <c r="F9" s="35">
+      <c r="F9" s="34">
         <v>44440</v>
       </c>
-      <c r="G9" s="30" t="s">
+      <c r="G9" s="29" t="s">
         <v>90</v>
       </c>
       <c r="H9" s="7" t="s">
         <v>92</v>
       </c>
-      <c r="I9" s="60" t="s">
+      <c r="I9" s="59" t="s">
         <v>95</v>
       </c>
-      <c r="J9" s="56" t="s">
+      <c r="J9" s="55" t="s">
         <v>96</v>
       </c>
     </row>
@@ -2961,13 +2998,13 @@
       <c r="C10" s="11"/>
       <c r="D10" s="7"/>
       <c r="E10" s="20"/>
-      <c r="F10" s="30"/>
-      <c r="G10" s="30">
+      <c r="F10" s="29"/>
+      <c r="G10" s="29">
         <v>81232667763</v>
       </c>
       <c r="H10" s="7"/>
-      <c r="I10" s="28"/>
-      <c r="J10" s="25"/>
+      <c r="I10" s="27"/>
+      <c r="J10" s="24"/>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A11" s="7"/>
@@ -2975,11 +3012,11 @@
       <c r="C11" s="12"/>
       <c r="D11" s="9"/>
       <c r="E11" s="20"/>
-      <c r="F11" s="30"/>
-      <c r="G11" s="30"/>
+      <c r="F11" s="29"/>
+      <c r="G11" s="29"/>
       <c r="H11" s="7"/>
-      <c r="I11" s="28"/>
-      <c r="J11" s="25"/>
+      <c r="I11" s="27"/>
+      <c r="J11" s="24"/>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A12" s="7">
@@ -2994,22 +3031,22 @@
       <c r="D12" s="14" t="s">
         <v>94</v>
       </c>
-      <c r="E12" s="63" t="s">
+      <c r="E12" s="62" t="s">
         <v>39</v>
       </c>
-      <c r="F12" s="35">
+      <c r="F12" s="34">
         <v>44440</v>
       </c>
-      <c r="G12" s="30" t="s">
+      <c r="G12" s="29" t="s">
         <v>91</v>
       </c>
       <c r="H12" s="7" t="s">
         <v>93</v>
       </c>
-      <c r="I12" s="60" t="s">
+      <c r="I12" s="59" t="s">
         <v>95</v>
       </c>
-      <c r="J12" s="56" t="s">
+      <c r="J12" s="55" t="s">
         <v>96</v>
       </c>
     </row>
@@ -3019,13 +3056,13 @@
       <c r="C13" s="11"/>
       <c r="D13" s="7"/>
       <c r="E13" s="20"/>
-      <c r="F13" s="30"/>
-      <c r="G13" s="30">
+      <c r="F13" s="29"/>
+      <c r="G13" s="29">
         <v>8214000800</v>
       </c>
       <c r="H13" s="7"/>
-      <c r="I13" s="28"/>
-      <c r="J13" s="25"/>
+      <c r="I13" s="27"/>
+      <c r="J13" s="24"/>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A14" s="7"/>
@@ -3033,14 +3070,14 @@
       <c r="C14" s="11"/>
       <c r="D14" s="7"/>
       <c r="E14" s="20"/>
-      <c r="F14" s="30"/>
-      <c r="G14" s="30"/>
+      <c r="F14" s="29"/>
+      <c r="G14" s="29"/>
       <c r="H14" s="7"/>
-      <c r="I14" s="28"/>
-      <c r="J14" s="25"/>
+      <c r="I14" s="27"/>
+      <c r="J14" s="24"/>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A15" s="24">
+      <c r="A15" s="23">
         <v>20</v>
       </c>
       <c r="B15" s="10" t="s">
@@ -3055,19 +3092,19 @@
       <c r="E15" s="14" t="s">
         <v>55</v>
       </c>
-      <c r="F15" s="49" t="s">
+      <c r="F15" s="48" t="s">
         <v>63</v>
       </c>
-      <c r="G15" s="49" t="s">
+      <c r="G15" s="48" t="s">
         <v>37</v>
       </c>
       <c r="H15" s="10" t="s">
         <v>78</v>
       </c>
-      <c r="I15" s="55">
+      <c r="I15" s="54">
         <v>44287</v>
       </c>
-      <c r="J15" s="56" t="s">
+      <c r="J15" s="55" t="s">
         <v>58</v>
       </c>
     </row>
@@ -3078,12 +3115,12 @@
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
       <c r="F16" s="15"/>
-      <c r="G16" s="50">
+      <c r="G16" s="49">
         <v>82170697118</v>
       </c>
       <c r="H16" s="15"/>
-      <c r="I16" s="28"/>
-      <c r="J16" s="25"/>
+      <c r="I16" s="27"/>
+      <c r="J16" s="24"/>
     </row>
     <row r="17" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A17" s="9"/>
@@ -3092,40 +3129,40 @@
       <c r="D17" s="9"/>
       <c r="E17" s="9"/>
       <c r="F17" s="12"/>
-      <c r="G17" s="31"/>
+      <c r="G17" s="30"/>
       <c r="H17" s="12"/>
-      <c r="I17" s="53"/>
-      <c r="J17" s="26"/>
+      <c r="I17" s="52"/>
+      <c r="J17" s="25"/>
     </row>
     <row r="18" spans="1:10" ht="15" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="39">
+      <c r="A18" s="38">
         <v>3</v>
       </c>
-      <c r="B18" s="40" t="s">
+      <c r="B18" s="39" t="s">
         <v>5</v>
       </c>
-      <c r="C18" s="40">
+      <c r="C18" s="39">
         <v>9</v>
       </c>
-      <c r="D18" s="41" t="s">
+      <c r="D18" s="40" t="s">
         <v>29</v>
       </c>
-      <c r="E18" s="41" t="s">
+      <c r="E18" s="40" t="s">
         <v>49</v>
       </c>
-      <c r="F18" s="43">
+      <c r="F18" s="42">
         <v>44444</v>
       </c>
-      <c r="G18" s="64" t="s">
+      <c r="G18" s="63" t="s">
         <v>19</v>
       </c>
-      <c r="H18" s="39" t="s">
+      <c r="H18" s="38" t="s">
         <v>66</v>
       </c>
-      <c r="I18" s="52" t="s">
+      <c r="I18" s="51" t="s">
         <v>53</v>
       </c>
-      <c r="J18" s="72" t="s">
+      <c r="J18" s="71" t="s">
         <v>98</v>
       </c>
     </row>
@@ -3135,13 +3172,13 @@
       <c r="C19" s="11"/>
       <c r="D19" s="20"/>
       <c r="E19" s="20"/>
-      <c r="F19" s="30"/>
-      <c r="G19" s="65">
+      <c r="F19" s="29"/>
+      <c r="G19" s="64">
         <v>81228196787</v>
       </c>
       <c r="H19" s="7"/>
-      <c r="I19" s="28"/>
-      <c r="J19" s="25"/>
+      <c r="I19" s="27"/>
+      <c r="J19" s="24"/>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A20" s="9"/>
@@ -3149,11 +3186,11 @@
       <c r="C20" s="12"/>
       <c r="D20" s="9"/>
       <c r="E20" s="9"/>
-      <c r="F20" s="31"/>
-      <c r="G20" s="66"/>
+      <c r="F20" s="30"/>
+      <c r="G20" s="65"/>
       <c r="H20" s="9"/>
-      <c r="I20" s="53"/>
-      <c r="J20" s="26"/>
+      <c r="I20" s="52"/>
+      <c r="J20" s="25"/>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A21" s="5">
@@ -3171,19 +3208,19 @@
       <c r="E21" s="14" t="s">
         <v>49</v>
       </c>
-      <c r="F21" s="36">
+      <c r="F21" s="35">
         <v>44444</v>
       </c>
-      <c r="G21" s="67" t="s">
+      <c r="G21" s="66" t="s">
         <v>20</v>
       </c>
       <c r="H21" s="5" t="s">
         <v>67</v>
       </c>
-      <c r="I21" s="54" t="s">
+      <c r="I21" s="53" t="s">
         <v>53</v>
       </c>
-      <c r="J21" s="72" t="s">
+      <c r="J21" s="71" t="s">
         <v>98</v>
       </c>
     </row>
@@ -3193,13 +3230,13 @@
       <c r="C22" s="11"/>
       <c r="D22" s="20"/>
       <c r="E22" s="20"/>
-      <c r="F22" s="30"/>
-      <c r="G22" s="65">
+      <c r="F22" s="29"/>
+      <c r="G22" s="64">
         <v>81225736355</v>
       </c>
       <c r="H22" s="7"/>
-      <c r="I22" s="28"/>
-      <c r="J22" s="25"/>
+      <c r="I22" s="27"/>
+      <c r="J22" s="24"/>
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A23" s="9"/>
@@ -3207,14 +3244,14 @@
       <c r="C23" s="12"/>
       <c r="D23" s="9"/>
       <c r="E23" s="9"/>
-      <c r="F23" s="31"/>
-      <c r="G23" s="66"/>
+      <c r="F23" s="30"/>
+      <c r="G23" s="65"/>
       <c r="H23" s="9"/>
-      <c r="I23" s="53"/>
-      <c r="J23" s="26"/>
+      <c r="I23" s="52"/>
+      <c r="J23" s="25"/>
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A24" s="24">
+      <c r="A24" s="23">
         <v>13</v>
       </c>
       <c r="B24" s="10" t="s">
@@ -3223,25 +3260,25 @@
       <c r="C24" s="10">
         <v>30</v>
       </c>
-      <c r="D24" s="44">
+      <c r="D24" s="43">
         <v>44253</v>
       </c>
-      <c r="E24" s="44" t="s">
+      <c r="E24" s="43" t="s">
         <v>54</v>
       </c>
-      <c r="F24" s="32" t="s">
+      <c r="F24" s="31" t="s">
         <v>64</v>
       </c>
-      <c r="G24" s="67" t="s">
+      <c r="G24" s="66" t="s">
         <v>34</v>
       </c>
-      <c r="H24" s="24" t="s">
+      <c r="H24" s="23" t="s">
         <v>74</v>
       </c>
-      <c r="I24" s="55">
+      <c r="I24" s="54">
         <v>44287</v>
       </c>
-      <c r="J24" s="72" t="s">
+      <c r="J24" s="71" t="s">
         <v>98</v>
       </c>
     </row>
@@ -3251,25 +3288,25 @@
       <c r="C25" s="15"/>
       <c r="D25" s="20"/>
       <c r="E25" s="20"/>
-      <c r="F25" s="30"/>
-      <c r="G25" s="65">
+      <c r="F25" s="29"/>
+      <c r="G25" s="64">
         <v>82110632173</v>
       </c>
       <c r="H25" s="20"/>
-      <c r="I25" s="28"/>
-      <c r="J25" s="25"/>
+      <c r="I25" s="27"/>
+      <c r="J25" s="24"/>
     </row>
     <row r="26" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A26" s="22"/>
+      <c r="A26" s="21"/>
       <c r="B26" s="16"/>
       <c r="C26" s="16"/>
       <c r="D26" s="9"/>
       <c r="E26" s="9"/>
-      <c r="F26" s="31"/>
-      <c r="G26" s="66"/>
-      <c r="H26" s="22"/>
-      <c r="I26" s="53"/>
-      <c r="J26" s="26"/>
+      <c r="F26" s="30"/>
+      <c r="G26" s="65"/>
+      <c r="H26" s="21"/>
+      <c r="I26" s="52"/>
+      <c r="J26" s="25"/>
     </row>
     <row r="27" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="5">
@@ -3287,19 +3324,19 @@
       <c r="E27" s="14" t="s">
         <v>55</v>
       </c>
-      <c r="F27" s="32" t="s">
+      <c r="F27" s="31" t="s">
         <v>62</v>
       </c>
-      <c r="G27" s="67" t="s">
+      <c r="G27" s="66" t="s">
         <v>24</v>
       </c>
-      <c r="H27" s="24" t="s">
+      <c r="H27" s="23" t="s">
         <v>76</v>
       </c>
-      <c r="I27" s="54" t="s">
+      <c r="I27" s="53" t="s">
         <v>53</v>
       </c>
-      <c r="J27" s="72" t="s">
+      <c r="J27" s="71" t="s">
         <v>98</v>
       </c>
     </row>
@@ -3309,13 +3346,13 @@
       <c r="C28" s="15"/>
       <c r="D28" s="7"/>
       <c r="E28" s="20"/>
-      <c r="F28" s="30"/>
-      <c r="G28" s="65">
+      <c r="F28" s="29"/>
+      <c r="G28" s="64">
         <v>81231558203</v>
       </c>
       <c r="H28" s="20"/>
-      <c r="I28" s="28"/>
-      <c r="J28" s="25"/>
+      <c r="I28" s="27"/>
+      <c r="J28" s="24"/>
     </row>
     <row r="29" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A29" s="9"/>
@@ -3323,11 +3360,11 @@
       <c r="C29" s="16"/>
       <c r="D29" s="9"/>
       <c r="E29" s="9"/>
-      <c r="F29" s="31"/>
-      <c r="G29" s="66"/>
-      <c r="H29" s="22"/>
-      <c r="I29" s="53"/>
-      <c r="J29" s="26"/>
+      <c r="F29" s="30"/>
+      <c r="G29" s="65"/>
+      <c r="H29" s="21"/>
+      <c r="I29" s="52"/>
+      <c r="J29" s="25"/>
     </row>
     <row r="30" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A30" s="7">
@@ -3339,25 +3376,25 @@
       <c r="C30" s="10">
         <v>38</v>
       </c>
-      <c r="D30" s="44">
+      <c r="D30" s="43">
         <v>44253</v>
       </c>
       <c r="E30" s="14" t="s">
         <v>33</v>
       </c>
-      <c r="F30" s="32" t="s">
+      <c r="F30" s="31" t="s">
         <v>17</v>
       </c>
-      <c r="G30" s="67" t="s">
+      <c r="G30" s="66" t="s">
         <v>36</v>
       </c>
-      <c r="H30" s="24" t="s">
+      <c r="H30" s="23" t="s">
         <v>73</v>
       </c>
-      <c r="I30" s="55">
+      <c r="I30" s="54">
         <v>44246</v>
       </c>
-      <c r="J30" s="72" t="s">
+      <c r="J30" s="71" t="s">
         <v>98</v>
       </c>
     </row>
@@ -3367,25 +3404,25 @@
       <c r="C31" s="15"/>
       <c r="D31" s="6"/>
       <c r="E31" s="20"/>
-      <c r="F31" s="30"/>
-      <c r="G31" s="65">
+      <c r="F31" s="29"/>
+      <c r="G31" s="64">
         <v>81318154783</v>
       </c>
       <c r="H31" s="20"/>
-      <c r="I31" s="28"/>
-      <c r="J31" s="25"/>
+      <c r="I31" s="27"/>
+      <c r="J31" s="24"/>
     </row>
     <row r="32" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A32" s="7"/>
-      <c r="B32" s="51"/>
-      <c r="C32" s="51"/>
+      <c r="B32" s="50"/>
+      <c r="C32" s="50"/>
       <c r="D32" s="9"/>
       <c r="E32" s="9"/>
-      <c r="F32" s="31"/>
-      <c r="G32" s="66"/>
-      <c r="H32" s="22"/>
-      <c r="I32" s="26"/>
-      <c r="J32" s="26"/>
+      <c r="F32" s="30"/>
+      <c r="G32" s="65"/>
+      <c r="H32" s="21"/>
+      <c r="I32" s="25"/>
+      <c r="J32" s="25"/>
     </row>
     <row r="33" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A33" s="5">
@@ -3397,25 +3434,25 @@
       <c r="C33" s="10">
         <v>38</v>
       </c>
-      <c r="D33" s="44">
+      <c r="D33" s="43">
         <v>44253</v>
       </c>
       <c r="E33" s="14" t="s">
         <v>59</v>
       </c>
-      <c r="F33" s="32" t="s">
+      <c r="F33" s="31" t="s">
         <v>17</v>
       </c>
-      <c r="G33" s="67" t="s">
+      <c r="G33" s="66" t="s">
         <v>38</v>
       </c>
-      <c r="H33" s="24" t="s">
+      <c r="H33" s="23" t="s">
         <v>69</v>
       </c>
-      <c r="I33" s="55">
+      <c r="I33" s="54">
         <v>44246</v>
       </c>
-      <c r="J33" s="72" t="s">
+      <c r="J33" s="71" t="s">
         <v>98</v>
       </c>
     </row>
@@ -3425,25 +3462,25 @@
       <c r="C34" s="15"/>
       <c r="D34" s="6"/>
       <c r="E34" s="20"/>
-      <c r="F34" s="30"/>
-      <c r="G34" s="65">
+      <c r="F34" s="29"/>
+      <c r="G34" s="64">
         <v>8123929482</v>
       </c>
       <c r="H34" s="20"/>
-      <c r="I34" s="28"/>
-      <c r="J34" s="25"/>
+      <c r="I34" s="27"/>
+      <c r="J34" s="24"/>
     </row>
     <row r="35" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A35" s="9"/>
-      <c r="B35" s="51"/>
-      <c r="C35" s="51"/>
+      <c r="B35" s="50"/>
+      <c r="C35" s="50"/>
       <c r="D35" s="9"/>
       <c r="E35" s="9"/>
-      <c r="F35" s="31"/>
-      <c r="G35" s="66"/>
-      <c r="H35" s="22"/>
-      <c r="I35" s="26"/>
-      <c r="J35" s="26"/>
+      <c r="F35" s="30"/>
+      <c r="G35" s="65"/>
+      <c r="H35" s="21"/>
+      <c r="I35" s="25"/>
+      <c r="J35" s="25"/>
     </row>
     <row r="36" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A36" s="7">
@@ -3461,19 +3498,19 @@
       <c r="E36" s="14" t="s">
         <v>57</v>
       </c>
-      <c r="F36" s="36">
+      <c r="F36" s="35">
         <v>44444</v>
       </c>
-      <c r="G36" s="67" t="s">
+      <c r="G36" s="66" t="s">
         <v>25</v>
       </c>
       <c r="H36" s="5" t="s">
         <v>76</v>
       </c>
-      <c r="I36" s="54" t="s">
+      <c r="I36" s="53" t="s">
         <v>53</v>
       </c>
-      <c r="J36" s="72" t="s">
+      <c r="J36" s="71" t="s">
         <v>98</v>
       </c>
     </row>
@@ -3483,13 +3520,13 @@
       <c r="C37" s="11"/>
       <c r="D37" s="7"/>
       <c r="E37" s="7"/>
-      <c r="F37" s="30"/>
-      <c r="G37" s="65">
+      <c r="F37" s="29"/>
+      <c r="G37" s="64">
         <v>81331414130</v>
       </c>
       <c r="H37" s="7"/>
-      <c r="I37" s="25"/>
-      <c r="J37" s="25"/>
+      <c r="I37" s="24"/>
+      <c r="J37" s="24"/>
     </row>
     <row r="38" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A38" s="7"/>
@@ -3497,11 +3534,11 @@
       <c r="C38" s="12"/>
       <c r="D38" s="9"/>
       <c r="E38" s="9"/>
-      <c r="F38" s="31"/>
-      <c r="G38" s="66"/>
+      <c r="F38" s="30"/>
+      <c r="G38" s="65"/>
       <c r="H38" s="9"/>
-      <c r="I38" s="26"/>
-      <c r="J38" s="26"/>
+      <c r="I38" s="25"/>
+      <c r="J38" s="25"/>
     </row>
     <row r="39" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A39" s="5">
@@ -3519,19 +3556,19 @@
       <c r="E39" s="14" t="s">
         <v>57</v>
       </c>
-      <c r="F39" s="36">
+      <c r="F39" s="35">
         <v>44444</v>
       </c>
-      <c r="G39" s="67" t="s">
+      <c r="G39" s="66" t="s">
         <v>26</v>
       </c>
       <c r="H39" s="5" t="s">
         <v>80</v>
       </c>
-      <c r="I39" s="54" t="s">
+      <c r="I39" s="53" t="s">
         <v>53</v>
       </c>
-      <c r="J39" s="72" t="s">
+      <c r="J39" s="71" t="s">
         <v>98</v>
       </c>
     </row>
@@ -3541,13 +3578,13 @@
       <c r="C40" s="11"/>
       <c r="D40" s="7"/>
       <c r="E40" s="7"/>
-      <c r="F40" s="30"/>
-      <c r="G40" s="65">
+      <c r="F40" s="29"/>
+      <c r="G40" s="64">
         <v>81252283477</v>
       </c>
       <c r="H40" s="7"/>
-      <c r="I40" s="25"/>
-      <c r="J40" s="25"/>
+      <c r="I40" s="24"/>
+      <c r="J40" s="24"/>
     </row>
     <row r="41" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A41" s="9"/>
@@ -3555,11 +3592,11 @@
       <c r="C41" s="12"/>
       <c r="D41" s="9"/>
       <c r="E41" s="9"/>
-      <c r="F41" s="31"/>
-      <c r="G41" s="66"/>
+      <c r="F41" s="30"/>
+      <c r="G41" s="65"/>
       <c r="H41" s="9"/>
-      <c r="I41" s="26"/>
-      <c r="J41" s="26"/>
+      <c r="I41" s="25"/>
+      <c r="J41" s="25"/>
     </row>
   </sheetData>
   <mergeCells count="8">

--- a/RENCANA BON VOYAGE.xlsx
+++ b/RENCANA BON VOYAGE.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Mapan\progress\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{312D42A5-2E56-48D5-B88E-140073D895AF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C8A39F39-0B91-4568-A6DC-FB0E47DFB380}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="241" uniqueCount="138">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="242" uniqueCount="138">
   <si>
     <t>NO</t>
   </si>
@@ -884,6 +884,15 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="15" fontId="2" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -922,15 +931,6 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="15" fontId="2" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" indent="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1547,10 +1547,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:J65"/>
+  <dimension ref="A1:J68"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A4" zoomScale="70" zoomScaleNormal="70" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="G17" sqref="G17"/>
+      <selection activeCell="C43" sqref="C43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1569,46 +1569,46 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="15" x14ac:dyDescent="0.25">
-      <c r="A1" s="104" t="s">
+      <c r="A1" s="107" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="104" t="s">
+      <c r="B1" s="107" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="104" t="s">
+      <c r="C1" s="107" t="s">
         <v>27</v>
       </c>
-      <c r="D1" s="110" t="s">
+      <c r="D1" s="113" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="110"/>
-      <c r="F1" s="108" t="s">
+      <c r="E1" s="113"/>
+      <c r="F1" s="111" t="s">
         <v>8</v>
       </c>
-      <c r="G1" s="106" t="s">
+      <c r="G1" s="109" t="s">
         <v>4</v>
       </c>
-      <c r="H1" s="104" t="s">
+      <c r="H1" s="107" t="s">
         <v>2</v>
       </c>
-      <c r="I1" s="104" t="s">
+      <c r="I1" s="107" t="s">
         <v>56</v>
       </c>
-      <c r="J1" s="104"/>
+      <c r="J1" s="107"/>
     </row>
     <row r="2" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="105"/>
-      <c r="B2" s="105"/>
-      <c r="C2" s="105"/>
+      <c r="A2" s="108"/>
+      <c r="B2" s="108"/>
+      <c r="C2" s="108"/>
       <c r="D2" s="17" t="s">
         <v>6</v>
       </c>
       <c r="E2" s="17" t="s">
         <v>7</v>
       </c>
-      <c r="F2" s="109"/>
-      <c r="G2" s="107"/>
-      <c r="H2" s="105"/>
+      <c r="F2" s="112"/>
+      <c r="G2" s="110"/>
+      <c r="H2" s="108"/>
       <c r="I2" s="17" t="s">
         <v>6</v>
       </c>
@@ -2091,7 +2091,7 @@
       <c r="H27" s="7" t="s">
         <v>102</v>
       </c>
-      <c r="I27" s="119" t="s">
+      <c r="I27" s="106" t="s">
         <v>137</v>
       </c>
       <c r="J27" s="24"/>
@@ -2252,13 +2252,13 @@
       <c r="E36" s="97" t="s">
         <v>136</v>
       </c>
-      <c r="F36" s="118" t="s">
+      <c r="F36" s="105" t="s">
         <v>134</v>
       </c>
       <c r="G36" s="66" t="s">
         <v>132</v>
       </c>
-      <c r="H36" s="117" t="s">
+      <c r="H36" s="104" t="s">
         <v>89</v>
       </c>
       <c r="I36" s="78"/>
@@ -2347,73 +2347,59 @@
       <c r="J41" s="25"/>
     </row>
     <row r="42" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A42" s="5">
+      <c r="A42" s="7">
         <v>14</v>
       </c>
       <c r="B42" s="100" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C42" s="4">
-        <v>28</v>
-      </c>
-      <c r="D42" s="14" t="s">
-        <v>40</v>
-      </c>
-      <c r="E42" s="75" t="s">
-        <v>95</v>
-      </c>
-      <c r="F42" s="81" t="s">
-        <v>42</v>
-      </c>
-      <c r="G42" s="67" t="s">
-        <v>41</v>
-      </c>
-      <c r="H42" s="5" t="s">
-        <v>79</v>
-      </c>
-      <c r="I42" s="54">
-        <v>44440</v>
-      </c>
-      <c r="J42" s="26"/>
+        <v>34</v>
+      </c>
+      <c r="D42" s="7"/>
+      <c r="E42" s="7"/>
+      <c r="F42" s="32"/>
+      <c r="G42" s="68"/>
+      <c r="H42" s="7"/>
+      <c r="I42" s="27"/>
+      <c r="J42" s="24"/>
     </row>
     <row r="43" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A43" s="7"/>
       <c r="B43" s="27"/>
       <c r="C43" s="11"/>
-      <c r="D43" s="44"/>
-      <c r="E43" s="44"/>
+      <c r="D43" s="7"/>
+      <c r="E43" s="7"/>
       <c r="F43" s="32"/>
-      <c r="G43" s="68">
-        <v>85649115380</v>
-      </c>
+      <c r="G43" s="68"/>
       <c r="H43" s="7"/>
       <c r="I43" s="27"/>
       <c r="J43" s="24"/>
     </row>
     <row r="44" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A44" s="9"/>
-      <c r="B44" s="52"/>
-      <c r="C44" s="12"/>
-      <c r="D44" s="9"/>
-      <c r="E44" s="9"/>
-      <c r="F44" s="45"/>
-      <c r="G44" s="69"/>
-      <c r="H44" s="9"/>
-      <c r="I44" s="52"/>
-      <c r="J44" s="25"/>
+      <c r="A44" s="7"/>
+      <c r="B44" s="27"/>
+      <c r="C44" s="11"/>
+      <c r="D44" s="7"/>
+      <c r="E44" s="7"/>
+      <c r="F44" s="32"/>
+      <c r="G44" s="68"/>
+      <c r="H44" s="7"/>
+      <c r="I44" s="27"/>
+      <c r="J44" s="24"/>
     </row>
     <row r="45" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A45" s="5">
         <v>15</v>
       </c>
       <c r="B45" s="100" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C45" s="4">
+        <v>28</v>
+      </c>
+      <c r="D45" s="14" t="s">
         <v>40</v>
-      </c>
-      <c r="D45" s="43">
-        <v>44453</v>
       </c>
       <c r="E45" s="75" t="s">
         <v>95</v>
@@ -2422,13 +2408,13 @@
         <v>42</v>
       </c>
       <c r="G45" s="67" t="s">
-        <v>48</v>
+        <v>41</v>
       </c>
       <c r="H45" s="5" t="s">
-        <v>81</v>
-      </c>
-      <c r="I45" s="71" t="s">
-        <v>98</v>
+        <v>79</v>
+      </c>
+      <c r="I45" s="54">
+        <v>44440</v>
       </c>
       <c r="J45" s="26"/>
     </row>
@@ -2440,7 +2426,7 @@
       <c r="E46" s="44"/>
       <c r="F46" s="32"/>
       <c r="G46" s="68">
-        <v>81359524067</v>
+        <v>85649115380</v>
       </c>
       <c r="H46" s="7"/>
       <c r="I46" s="27"/>
@@ -2463,7 +2449,7 @@
         <v>16</v>
       </c>
       <c r="B48" s="100" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C48" s="4">
         <v>40</v>
@@ -2478,10 +2464,10 @@
         <v>42</v>
       </c>
       <c r="G48" s="67" t="s">
-        <v>25</v>
+        <v>48</v>
       </c>
       <c r="H48" s="5" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="I48" s="71" t="s">
         <v>98</v>
@@ -2496,7 +2482,7 @@
       <c r="E49" s="44"/>
       <c r="F49" s="32"/>
       <c r="G49" s="68">
-        <v>82319844744</v>
+        <v>81359524067</v>
       </c>
       <c r="H49" s="7"/>
       <c r="I49" s="27"/>
@@ -2518,41 +2504,41 @@
       <c r="A51" s="5">
         <v>17</v>
       </c>
-      <c r="B51" s="3" t="s">
-        <v>97</v>
+      <c r="B51" s="100" t="s">
+        <v>18</v>
       </c>
       <c r="C51" s="4">
-        <v>5</v>
-      </c>
-      <c r="D51" s="43" t="s">
-        <v>108</v>
-      </c>
-      <c r="E51" s="22">
-        <v>44237</v>
-      </c>
-      <c r="F51" s="87">
-        <v>44617</v>
+        <v>40</v>
+      </c>
+      <c r="D51" s="43">
+        <v>44453</v>
+      </c>
+      <c r="E51" s="75" t="s">
+        <v>95</v>
+      </c>
+      <c r="F51" s="81" t="s">
+        <v>42</v>
       </c>
       <c r="G51" s="67" t="s">
-        <v>105</v>
+        <v>25</v>
       </c>
       <c r="H51" s="5" t="s">
-        <v>104</v>
-      </c>
-      <c r="I51" s="119" t="s">
-        <v>137</v>
+        <v>82</v>
+      </c>
+      <c r="I51" s="71" t="s">
+        <v>98</v>
       </c>
       <c r="J51" s="26"/>
     </row>
     <row r="52" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A52" s="7"/>
-      <c r="B52" s="6"/>
+      <c r="B52" s="27"/>
       <c r="C52" s="11"/>
       <c r="D52" s="44"/>
       <c r="E52" s="44"/>
       <c r="F52" s="32"/>
       <c r="G52" s="68">
-        <v>89603906796</v>
+        <v>82319844744</v>
       </c>
       <c r="H52" s="7"/>
       <c r="I52" s="27"/>
@@ -2560,7 +2546,7 @@
     </row>
     <row r="53" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A53" s="9"/>
-      <c r="B53" s="8"/>
+      <c r="B53" s="52"/>
       <c r="C53" s="12"/>
       <c r="D53" s="9"/>
       <c r="E53" s="9"/>
@@ -2570,152 +2556,156 @@
       <c r="I53" s="52"/>
       <c r="J53" s="25"/>
     </row>
-    <row r="55" spans="1:10" s="84" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A55" s="2"/>
-      <c r="B55" s="85" t="s">
-        <v>117</v>
-      </c>
-      <c r="C55" s="86"/>
-      <c r="D55" s="86"/>
-      <c r="E55" s="2"/>
-      <c r="F55" s="83"/>
-      <c r="G55" s="92" t="s">
-        <v>125</v>
-      </c>
-      <c r="H55" s="99"/>
-      <c r="I55" s="83"/>
-      <c r="J55" s="83"/>
-    </row>
-    <row r="56" spans="1:10" s="84" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A56" s="2"/>
-      <c r="B56" s="82" t="s">
-        <v>113</v>
-      </c>
-      <c r="C56" s="2" t="s">
-        <v>112</v>
-      </c>
-      <c r="D56" s="2"/>
-      <c r="E56" s="2"/>
-      <c r="F56" s="83"/>
-      <c r="G56" s="82" t="s">
-        <v>109</v>
-      </c>
-      <c r="H56" s="2" t="s">
-        <v>75</v>
-      </c>
-      <c r="I56" s="83"/>
-      <c r="J56" s="83"/>
-    </row>
-    <row r="57" spans="1:10" s="84" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A57" s="2"/>
-      <c r="B57" s="82" t="s">
-        <v>114</v>
-      </c>
-      <c r="C57" s="2" t="s">
-        <v>75</v>
-      </c>
-      <c r="D57" s="2"/>
-      <c r="E57" s="2"/>
-      <c r="F57" s="83"/>
-      <c r="G57" s="82" t="s">
-        <v>110</v>
-      </c>
-      <c r="H57" s="2" t="s">
-        <v>102</v>
-      </c>
-      <c r="I57" s="83"/>
-      <c r="J57" s="83"/>
+    <row r="54" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A54" s="5">
+        <v>18</v>
+      </c>
+      <c r="B54" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="C54" s="4">
+        <v>5</v>
+      </c>
+      <c r="D54" s="43" t="s">
+        <v>108</v>
+      </c>
+      <c r="E54" s="22">
+        <v>44237</v>
+      </c>
+      <c r="F54" s="87">
+        <v>44617</v>
+      </c>
+      <c r="G54" s="67" t="s">
+        <v>105</v>
+      </c>
+      <c r="H54" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="I54" s="106" t="s">
+        <v>137</v>
+      </c>
+      <c r="J54" s="26"/>
+    </row>
+    <row r="55" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A55" s="7"/>
+      <c r="B55" s="6"/>
+      <c r="C55" s="11"/>
+      <c r="D55" s="44"/>
+      <c r="E55" s="44"/>
+      <c r="F55" s="32"/>
+      <c r="G55" s="68">
+        <v>89603906796</v>
+      </c>
+      <c r="H55" s="7"/>
+      <c r="I55" s="27"/>
+      <c r="J55" s="24"/>
+    </row>
+    <row r="56" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A56" s="9"/>
+      <c r="B56" s="8"/>
+      <c r="C56" s="12"/>
+      <c r="D56" s="9"/>
+      <c r="E56" s="9"/>
+      <c r="F56" s="45"/>
+      <c r="G56" s="69"/>
+      <c r="H56" s="9"/>
+      <c r="I56" s="52"/>
+      <c r="J56" s="25"/>
     </row>
     <row r="58" spans="1:10" s="84" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A58" s="2"/>
-      <c r="B58" s="82" t="s">
-        <v>115</v>
-      </c>
-      <c r="C58" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="D58" s="2"/>
+      <c r="B58" s="85" t="s">
+        <v>117</v>
+      </c>
+      <c r="C58" s="86"/>
+      <c r="D58" s="86"/>
       <c r="E58" s="2"/>
       <c r="F58" s="83"/>
-      <c r="G58" s="82" t="s">
-        <v>111</v>
-      </c>
-      <c r="H58" s="2" t="s">
-        <v>77</v>
-      </c>
+      <c r="G58" s="92" t="s">
+        <v>125</v>
+      </c>
+      <c r="H58" s="99"/>
       <c r="I58" s="83"/>
       <c r="J58" s="83"/>
     </row>
     <row r="59" spans="1:10" s="84" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A59" s="2"/>
       <c r="B59" s="82" t="s">
-        <v>118</v>
+        <v>113</v>
       </c>
       <c r="C59" s="2" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="D59" s="2"/>
       <c r="E59" s="2"/>
       <c r="F59" s="83"/>
-      <c r="G59" s="82"/>
-      <c r="H59" s="2"/>
+      <c r="G59" s="82" t="s">
+        <v>109</v>
+      </c>
+      <c r="H59" s="2" t="s">
+        <v>75</v>
+      </c>
       <c r="I59" s="83"/>
       <c r="J59" s="83"/>
     </row>
     <row r="60" spans="1:10" s="84" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A60" s="2"/>
+      <c r="B60" s="82" t="s">
+        <v>114</v>
+      </c>
+      <c r="C60" s="2" t="s">
+        <v>75</v>
+      </c>
       <c r="D60" s="2"/>
       <c r="E60" s="2"/>
       <c r="F60" s="83"/>
-      <c r="G60" s="82"/>
-      <c r="H60" s="2"/>
+      <c r="G60" s="82" t="s">
+        <v>110</v>
+      </c>
+      <c r="H60" s="2" t="s">
+        <v>102</v>
+      </c>
       <c r="I60" s="83"/>
       <c r="J60" s="83"/>
     </row>
     <row r="61" spans="1:10" s="84" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A61" s="2"/>
-      <c r="B61" s="90" t="s">
-        <v>124</v>
-      </c>
-      <c r="C61" s="91"/>
+      <c r="B61" s="82" t="s">
+        <v>115</v>
+      </c>
+      <c r="C61" s="2" t="s">
+        <v>79</v>
+      </c>
       <c r="D61" s="2"/>
       <c r="E61" s="2"/>
       <c r="F61" s="83"/>
-      <c r="G61" s="95" t="s">
-        <v>128</v>
-      </c>
-      <c r="H61" s="98"/>
+      <c r="G61" s="82" t="s">
+        <v>111</v>
+      </c>
+      <c r="H61" s="2" t="s">
+        <v>77</v>
+      </c>
       <c r="I61" s="83"/>
       <c r="J61" s="83"/>
     </row>
     <row r="62" spans="1:10" s="84" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A62" s="2"/>
       <c r="B62" s="82" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="C62" s="2" t="s">
-        <v>123</v>
+        <v>116</v>
       </c>
       <c r="D62" s="2"/>
       <c r="E62" s="2"/>
       <c r="F62" s="83"/>
-      <c r="G62" s="82" t="s">
-        <v>126</v>
-      </c>
-      <c r="H62" s="2" t="s">
-        <v>127</v>
-      </c>
+      <c r="G62" s="82"/>
+      <c r="H62" s="2"/>
       <c r="I62" s="83"/>
       <c r="J62" s="83"/>
     </row>
     <row r="63" spans="1:10" s="84" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A63" s="2"/>
-      <c r="B63" s="82" t="s">
-        <v>120</v>
-      </c>
-      <c r="C63" s="2" t="s">
-        <v>102</v>
-      </c>
       <c r="D63" s="2"/>
       <c r="E63" s="2"/>
       <c r="F63" s="83"/>
@@ -2726,35 +2716,87 @@
     </row>
     <row r="64" spans="1:10" s="84" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A64" s="2"/>
-      <c r="B64" s="82" t="s">
-        <v>121</v>
-      </c>
-      <c r="C64" s="2" t="s">
-        <v>69</v>
-      </c>
+      <c r="B64" s="90" t="s">
+        <v>124</v>
+      </c>
+      <c r="C64" s="91"/>
       <c r="D64" s="2"/>
       <c r="E64" s="2"/>
       <c r="F64" s="83"/>
-      <c r="G64" s="82"/>
-      <c r="H64" s="2"/>
+      <c r="G64" s="95" t="s">
+        <v>128</v>
+      </c>
+      <c r="H64" s="98"/>
       <c r="I64" s="83"/>
       <c r="J64" s="83"/>
     </row>
     <row r="65" spans="1:10" s="84" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A65" s="2"/>
       <c r="B65" s="82" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="C65" s="2" t="s">
-        <v>104</v>
+        <v>123</v>
       </c>
       <c r="D65" s="2"/>
       <c r="E65" s="2"/>
       <c r="F65" s="83"/>
-      <c r="G65" s="82"/>
-      <c r="H65" s="2"/>
+      <c r="G65" s="82" t="s">
+        <v>126</v>
+      </c>
+      <c r="H65" s="2" t="s">
+        <v>127</v>
+      </c>
       <c r="I65" s="83"/>
       <c r="J65" s="83"/>
+    </row>
+    <row r="66" spans="1:10" s="84" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A66" s="2"/>
+      <c r="B66" s="82" t="s">
+        <v>120</v>
+      </c>
+      <c r="C66" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="D66" s="2"/>
+      <c r="E66" s="2"/>
+      <c r="F66" s="83"/>
+      <c r="G66" s="82"/>
+      <c r="H66" s="2"/>
+      <c r="I66" s="83"/>
+      <c r="J66" s="83"/>
+    </row>
+    <row r="67" spans="1:10" s="84" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A67" s="2"/>
+      <c r="B67" s="82" t="s">
+        <v>121</v>
+      </c>
+      <c r="C67" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="D67" s="2"/>
+      <c r="E67" s="2"/>
+      <c r="F67" s="83"/>
+      <c r="G67" s="82"/>
+      <c r="H67" s="2"/>
+      <c r="I67" s="83"/>
+      <c r="J67" s="83"/>
+    </row>
+    <row r="68" spans="1:10" s="84" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A68" s="2"/>
+      <c r="B68" s="82" t="s">
+        <v>122</v>
+      </c>
+      <c r="C68" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="D68" s="2"/>
+      <c r="E68" s="2"/>
+      <c r="F68" s="83"/>
+      <c r="G68" s="82"/>
+      <c r="H68" s="2"/>
+      <c r="I68" s="83"/>
+      <c r="J68" s="83"/>
     </row>
   </sheetData>
   <mergeCells count="8">
@@ -2797,46 +2839,46 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="18" x14ac:dyDescent="0.2">
-      <c r="A1" s="113" t="s">
+      <c r="A1" s="116" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="113" t="s">
+      <c r="B1" s="116" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="113" t="s">
+      <c r="C1" s="116" t="s">
         <v>27</v>
       </c>
-      <c r="D1" s="113" t="s">
+      <c r="D1" s="116" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="113"/>
-      <c r="F1" s="115" t="s">
+      <c r="E1" s="116"/>
+      <c r="F1" s="118" t="s">
         <v>106</v>
       </c>
-      <c r="G1" s="113" t="s">
+      <c r="G1" s="116" t="s">
         <v>4</v>
       </c>
-      <c r="H1" s="111" t="s">
+      <c r="H1" s="114" t="s">
         <v>2</v>
       </c>
-      <c r="I1" s="104" t="s">
+      <c r="I1" s="107" t="s">
         <v>56</v>
       </c>
-      <c r="J1" s="104"/>
+      <c r="J1" s="107"/>
     </row>
     <row r="2" spans="1:10" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="114"/>
-      <c r="B2" s="114"/>
-      <c r="C2" s="114"/>
+      <c r="A2" s="117"/>
+      <c r="B2" s="117"/>
+      <c r="C2" s="117"/>
       <c r="D2" s="73" t="s">
         <v>6</v>
       </c>
       <c r="E2" s="19" t="s">
         <v>7</v>
       </c>
-      <c r="F2" s="116"/>
-      <c r="G2" s="114"/>
-      <c r="H2" s="112"/>
+      <c r="F2" s="119"/>
+      <c r="G2" s="117"/>
+      <c r="H2" s="115"/>
       <c r="I2" s="17" t="s">
         <v>6</v>
       </c>

--- a/RENCANA BON VOYAGE.xlsx
+++ b/RENCANA BON VOYAGE.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Mapan\progress\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C8A39F39-0B91-4568-A6DC-FB0E47DFB380}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{65AF5890-6CC3-4D4E-9658-E88D287430F7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="242" uniqueCount="138">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="245" uniqueCount="141">
   <si>
     <t>NO</t>
   </si>
@@ -426,9 +426,6 @@
     <t>ILHAM</t>
   </si>
   <si>
-    <t>26 OKT</t>
-  </si>
-  <si>
     <t>10 JUN 22</t>
   </si>
   <si>
@@ -439,6 +436,18 @@
   </si>
   <si>
     <t>14 OKT</t>
+  </si>
+  <si>
+    <t>07 MARET</t>
+  </si>
+  <si>
+    <t>5. DP4N34</t>
+  </si>
+  <si>
+    <t>25 OKT</t>
+  </si>
+  <si>
+    <t>10 FEB</t>
   </si>
 </sst>
 </file>
@@ -585,7 +594,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="120">
+  <cellXfs count="121">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -930,6 +939,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1547,10 +1559,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:J68"/>
+  <dimension ref="A1:J69"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="70" zoomScaleNormal="70" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="C43" sqref="C43"/>
+    <sheetView tabSelected="1" topLeftCell="A19" zoomScale="70" zoomScaleNormal="70" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="D42" sqref="D42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -2092,7 +2104,7 @@
         <v>102</v>
       </c>
       <c r="I27" s="106" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="J27" s="24"/>
     </row>
@@ -2247,13 +2259,13 @@
         <v>27</v>
       </c>
       <c r="D36" s="23" t="s">
+        <v>139</v>
+      </c>
+      <c r="E36" s="97" t="s">
+        <v>135</v>
+      </c>
+      <c r="F36" s="105" t="s">
         <v>133</v>
-      </c>
-      <c r="E36" s="97" t="s">
-        <v>136</v>
-      </c>
-      <c r="F36" s="105" t="s">
-        <v>134</v>
       </c>
       <c r="G36" s="66" t="s">
         <v>132</v>
@@ -2272,7 +2284,7 @@
       <c r="E37" s="47"/>
       <c r="F37" s="29"/>
       <c r="G37" s="72" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="H37" s="7"/>
       <c r="I37" s="27"/>
@@ -2357,8 +2369,12 @@
         <v>34</v>
       </c>
       <c r="D42" s="7"/>
-      <c r="E42" s="7"/>
-      <c r="F42" s="32"/>
+      <c r="E42" s="120" t="s">
+        <v>140</v>
+      </c>
+      <c r="F42" s="87" t="s">
+        <v>137</v>
+      </c>
       <c r="G42" s="68"/>
       <c r="H42" s="7"/>
       <c r="I42" s="27"/>
@@ -2582,7 +2598,7 @@
         <v>104</v>
       </c>
       <c r="I54" s="106" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="J54" s="26"/>
     </row>
@@ -2797,6 +2813,11 @@
       <c r="H68" s="2"/>
       <c r="I68" s="83"/>
       <c r="J68" s="83"/>
+    </row>
+    <row r="69" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="B69" s="1" t="s">
+        <v>138</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="8">

--- a/RENCANA BON VOYAGE.xlsx
+++ b/RENCANA BON VOYAGE.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Mapan\progress\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{65AF5890-6CC3-4D4E-9658-E88D287430F7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5235210C-EE7D-4992-BA3A-4FA7DB6D8649}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -18,14 +18,14 @@
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">done!$A$1:$I$2</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">progres!$A$1:$I$34</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">progres!$A$1:$I$40</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="245" uniqueCount="141">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="261" uniqueCount="148">
   <si>
     <t>NO</t>
   </si>
@@ -426,15 +426,9 @@
     <t>ILHAM</t>
   </si>
   <si>
-    <t>10 JUN 22</t>
-  </si>
-  <si>
     <t>081216290006</t>
   </si>
   <si>
-    <t>10 MEI 22</t>
-  </si>
-  <si>
     <t>14 OKT</t>
   </si>
   <si>
@@ -448,6 +442,33 @@
   </si>
   <si>
     <t>10 FEB</t>
+  </si>
+  <si>
+    <t>01  AGUST</t>
+  </si>
+  <si>
+    <t>10 JULI 22</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>25 JULI</t>
+  </si>
+  <si>
+    <t>01 JULI</t>
+  </si>
+  <si>
+    <t>09 MEI</t>
+  </si>
+  <si>
+    <t>09 APRIL</t>
+  </si>
+  <si>
+    <t>22 MARET</t>
+  </si>
+  <si>
+    <t>01 MARET</t>
   </si>
 </sst>
 </file>
@@ -594,7 +615,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="121">
+  <cellXfs count="141">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -902,6 +923,9 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -941,8 +965,63 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" indent="2"/>
+    </xf>
+    <xf numFmtId="15" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" indent="2"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" indent="2"/>
+    </xf>
+    <xf numFmtId="15" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" indent="2"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" indent="2"/>
+    </xf>
+    <xf numFmtId="15" fontId="2" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" indent="2"/>
+    </xf>
+    <xf numFmtId="16" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="2"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="2"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="2"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" indent="1"/>
+    </xf>
+    <xf numFmtId="16" fontId="2" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="2"/>
+    </xf>
+    <xf numFmtId="16" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1032,13 +1111,13 @@
     <xdr:from>
       <xdr:col>14</xdr:col>
       <xdr:colOff>189939</xdr:colOff>
-      <xdr:row>32</xdr:row>
+      <xdr:row>38</xdr:row>
       <xdr:rowOff>89245</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>14</xdr:col>
       <xdr:colOff>190299</xdr:colOff>
-      <xdr:row>32</xdr:row>
+      <xdr:row>38</xdr:row>
       <xdr:rowOff>89605</xdr:rowOff>
     </xdr:to>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
@@ -1097,7 +1176,7 @@
     <xdr:from>
       <xdr:col>14</xdr:col>
       <xdr:colOff>189939</xdr:colOff>
-      <xdr:row>35</xdr:row>
+      <xdr:row>41</xdr:row>
       <xdr:rowOff>89245</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="360" cy="360"/>
@@ -1142,6 +1221,66 @@
           <xdr:spPr>
             <a:xfrm>
               <a:off x="12260880" y="5862480"/>
+              <a:ext cx="18000" cy="18000"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+          </xdr:spPr>
+        </xdr:pic>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>273113</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>178059</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="360" cy="4070"/>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
+        <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId6">
+          <xdr14:nvContentPartPr>
+            <xdr14:cNvPr id="6" name="Ink 5">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AD0E511C-6A9A-46E5-9580-D499F3D36AED}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr14:cNvPr>
+            <xdr14:cNvContentPartPr/>
+          </xdr14:nvContentPartPr>
+          <xdr14:nvPr macro=""/>
+          <xdr14:xfrm>
+            <a:off x="1886760" y="2733000"/>
+            <a:ext cx="360" cy="360"/>
+          </xdr14:xfrm>
+        </xdr:contentPart>
+      </mc:Choice>
+      <mc:Fallback xmlns="">
+        <xdr:pic>
+          <xdr:nvPicPr>
+            <xdr:cNvPr id="2" name="Ink 1">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{56FE5F31-2029-442B-BB69-AC628D2360E0}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvPicPr/>
+          </xdr:nvPicPr>
+          <xdr:blipFill>
+            <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+            <a:stretch>
+              <a:fillRect/>
+            </a:stretch>
+          </xdr:blipFill>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="1877760" y="2724000"/>
               <a:ext cx="18000" cy="18000"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
@@ -1234,6 +1373,33 @@
     </inkml:brush>
   </inkml:definitions>
   <inkml:trace contextRef="#ctx0" brushRef="#br0">0 0,'0'0</inkml:trace>
+</inkml:ink>
+</file>
+
+<file path=xl/ink/ink4.xml><?xml version="1.0" encoding="utf-8"?>
+<inkml:ink xmlns:inkml="http://www.w3.org/2003/InkML">
+  <inkml:definitions>
+    <inkml:context xml:id="ctx0">
+      <inkml:inkSource xml:id="inkSrc0">
+        <inkml:traceFormat>
+          <inkml:channel name="X" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
+          <inkml:channel name="Y" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
+          <inkml:channel name="F" type="integer" max="32767" units="dev"/>
+        </inkml:traceFormat>
+        <inkml:channelProperties>
+          <inkml:channelProperty channel="X" name="resolution" value="1000" units="1/cm"/>
+          <inkml:channelProperty channel="Y" name="resolution" value="1000" units="1/cm"/>
+          <inkml:channelProperty channel="F" name="resolution" value="0" units="1/dev"/>
+        </inkml:channelProperties>
+      </inkml:inkSource>
+      <inkml:timestamp xml:id="ts0" timeString="2021-10-22T15:19:41.715"/>
+    </inkml:context>
+    <inkml:brush xml:id="br0">
+      <inkml:brushProperty name="width" value="0.05" units="cm"/>
+      <inkml:brushProperty name="height" value="0.05" units="cm"/>
+    </inkml:brush>
+  </inkml:definitions>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0">0 0 17439</inkml:trace>
 </inkml:ink>
 </file>
 
@@ -1559,10 +1725,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:J69"/>
+  <dimension ref="A1:J84"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" zoomScale="70" zoomScaleNormal="70" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="D42" sqref="D42"/>
+    <sheetView tabSelected="1" topLeftCell="A25" zoomScale="70" zoomScaleNormal="70" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="G65" sqref="G65"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1581,46 +1747,46 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="15" x14ac:dyDescent="0.25">
-      <c r="A1" s="107" t="s">
+      <c r="A1" s="108" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="107" t="s">
+      <c r="B1" s="108" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="107" t="s">
+      <c r="C1" s="108" t="s">
         <v>27</v>
       </c>
-      <c r="D1" s="113" t="s">
+      <c r="D1" s="114" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="113"/>
-      <c r="F1" s="111" t="s">
+      <c r="E1" s="114"/>
+      <c r="F1" s="112" t="s">
         <v>8</v>
       </c>
-      <c r="G1" s="109" t="s">
+      <c r="G1" s="110" t="s">
         <v>4</v>
       </c>
-      <c r="H1" s="107" t="s">
+      <c r="H1" s="108" t="s">
         <v>2</v>
       </c>
-      <c r="I1" s="107" t="s">
+      <c r="I1" s="108" t="s">
         <v>56</v>
       </c>
-      <c r="J1" s="107"/>
+      <c r="J1" s="108"/>
     </row>
     <row r="2" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="108"/>
-      <c r="B2" s="108"/>
-      <c r="C2" s="108"/>
+      <c r="A2" s="109"/>
+      <c r="B2" s="109"/>
+      <c r="C2" s="109"/>
       <c r="D2" s="17" t="s">
         <v>6</v>
       </c>
       <c r="E2" s="17" t="s">
         <v>7</v>
       </c>
-      <c r="F2" s="112"/>
-      <c r="G2" s="110"/>
-      <c r="H2" s="108"/>
+      <c r="F2" s="113"/>
+      <c r="G2" s="111"/>
+      <c r="H2" s="109"/>
       <c r="I2" s="17" t="s">
         <v>6</v>
       </c>
@@ -1970,56 +2136,48 @@
       <c r="A21" s="5">
         <v>7</v>
       </c>
-      <c r="B21" s="101" t="s">
-        <v>13</v>
-      </c>
-      <c r="C21" s="10">
-        <v>31</v>
-      </c>
-      <c r="D21" s="14" t="s">
-        <v>28</v>
-      </c>
-      <c r="E21" s="76" t="s">
-        <v>131</v>
-      </c>
-      <c r="F21" s="93">
-        <v>44501</v>
-      </c>
-      <c r="G21" s="66" t="s">
-        <v>23</v>
-      </c>
-      <c r="H21" s="23" t="s">
-        <v>75</v>
-      </c>
-      <c r="I21" s="53" t="s">
-        <v>53</v>
-      </c>
+      <c r="B21" s="100" t="s">
+        <v>10</v>
+      </c>
+      <c r="C21" s="4">
+        <v>18</v>
+      </c>
+      <c r="D21" s="121" t="s">
+        <v>141</v>
+      </c>
+      <c r="E21" s="97" t="s">
+        <v>143</v>
+      </c>
+      <c r="F21" s="127" t="s">
+        <v>142</v>
+      </c>
+      <c r="G21" s="122"/>
+      <c r="H21" s="23"/>
+      <c r="I21" s="78"/>
       <c r="J21" s="26"/>
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A22" s="7"/>
-      <c r="B22" s="102"/>
-      <c r="C22" s="15"/>
-      <c r="D22" s="7"/>
-      <c r="E22" s="44"/>
-      <c r="F22" s="29"/>
-      <c r="G22" s="64">
-        <v>6587623904</v>
-      </c>
+      <c r="B22" s="27"/>
+      <c r="C22" s="11"/>
+      <c r="D22" s="36"/>
+      <c r="E22" s="36"/>
+      <c r="F22" s="123"/>
+      <c r="G22" s="124"/>
       <c r="H22" s="20"/>
-      <c r="I22" s="27"/>
+      <c r="I22" s="102"/>
       <c r="J22" s="24"/>
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A23" s="9"/>
-      <c r="B23" s="103"/>
-      <c r="C23" s="16"/>
-      <c r="D23" s="9"/>
-      <c r="E23" s="9"/>
-      <c r="F23" s="30"/>
-      <c r="G23" s="65"/>
+      <c r="B23" s="52"/>
+      <c r="C23" s="12"/>
+      <c r="D23" s="21"/>
+      <c r="E23" s="21"/>
+      <c r="F23" s="125"/>
+      <c r="G23" s="126"/>
       <c r="H23" s="21"/>
-      <c r="I23" s="52"/>
+      <c r="I23" s="103"/>
       <c r="J23" s="25"/>
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.2">
@@ -2027,168 +2185,156 @@
         <v>8</v>
       </c>
       <c r="B24" s="100" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C24" s="4">
-        <v>32</v>
-      </c>
-      <c r="D24" s="14" t="s">
-        <v>43</v>
-      </c>
-      <c r="E24" s="22">
-        <v>44520</v>
-      </c>
-      <c r="F24" s="80" t="s">
-        <v>44</v>
-      </c>
-      <c r="G24" s="67" t="s">
-        <v>45</v>
-      </c>
-      <c r="H24" s="5" t="s">
-        <v>75</v>
-      </c>
-      <c r="I24" s="54">
-        <v>44440</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="D24" s="121"/>
+      <c r="E24" s="97" t="s">
+        <v>143</v>
+      </c>
+      <c r="F24" s="127" t="s">
+        <v>142</v>
+      </c>
+      <c r="G24" s="122"/>
+      <c r="H24" s="23"/>
+      <c r="I24" s="78"/>
       <c r="J24" s="26"/>
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A25" s="7"/>
       <c r="B25" s="27"/>
       <c r="C25" s="11"/>
-      <c r="D25" s="44"/>
-      <c r="E25" s="44"/>
-      <c r="F25" s="32"/>
-      <c r="G25" s="68">
-        <v>81333524165</v>
-      </c>
-      <c r="H25" s="7"/>
-      <c r="I25" s="27"/>
+      <c r="D25" s="36"/>
+      <c r="E25" s="36"/>
+      <c r="F25" s="123"/>
+      <c r="G25" s="124"/>
+      <c r="H25" s="20"/>
+      <c r="I25" s="102"/>
       <c r="J25" s="24"/>
     </row>
     <row r="26" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A26" s="9"/>
       <c r="B26" s="52"/>
       <c r="C26" s="12"/>
-      <c r="D26" s="9"/>
-      <c r="E26" s="9"/>
-      <c r="F26" s="45"/>
-      <c r="G26" s="69"/>
-      <c r="H26" s="9"/>
-      <c r="I26" s="52"/>
+      <c r="D26" s="21"/>
+      <c r="E26" s="21"/>
+      <c r="F26" s="125"/>
+      <c r="G26" s="126"/>
+      <c r="H26" s="21"/>
+      <c r="I26" s="103"/>
       <c r="J26" s="25"/>
     </row>
     <row r="27" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A27" s="5">
         <v>9</v>
       </c>
-      <c r="B27" s="100" t="s">
+      <c r="B27" s="101" t="s">
         <v>13</v>
       </c>
-      <c r="C27" s="4">
-        <v>33</v>
-      </c>
-      <c r="D27" s="77" t="s">
-        <v>108</v>
-      </c>
-      <c r="E27" s="44">
-        <v>44247</v>
-      </c>
-      <c r="F27" s="89" t="s">
-        <v>103</v>
-      </c>
-      <c r="G27" s="68" t="s">
-        <v>101</v>
-      </c>
-      <c r="H27" s="7" t="s">
-        <v>102</v>
-      </c>
-      <c r="I27" s="106" t="s">
-        <v>136</v>
-      </c>
-      <c r="J27" s="24"/>
+      <c r="C27" s="10">
+        <v>31</v>
+      </c>
+      <c r="D27" s="14" t="s">
+        <v>28</v>
+      </c>
+      <c r="E27" s="76" t="s">
+        <v>131</v>
+      </c>
+      <c r="F27" s="93">
+        <v>44501</v>
+      </c>
+      <c r="G27" s="66" t="s">
+        <v>23</v>
+      </c>
+      <c r="H27" s="23" t="s">
+        <v>75</v>
+      </c>
+      <c r="I27" s="53" t="s">
+        <v>53</v>
+      </c>
+      <c r="J27" s="26"/>
     </row>
     <row r="28" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A28" s="7"/>
-      <c r="B28" s="27"/>
-      <c r="C28" s="11"/>
+      <c r="B28" s="102"/>
+      <c r="C28" s="15"/>
       <c r="D28" s="7"/>
-      <c r="E28" s="7"/>
-      <c r="F28" s="32"/>
-      <c r="G28" s="68">
-        <v>81235748714</v>
-      </c>
-      <c r="H28" s="7"/>
+      <c r="E28" s="44"/>
+      <c r="F28" s="29"/>
+      <c r="G28" s="64">
+        <v>6587623904</v>
+      </c>
+      <c r="H28" s="20"/>
       <c r="I28" s="27"/>
       <c r="J28" s="24"/>
     </row>
     <row r="29" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A29" s="9"/>
-      <c r="B29" s="27"/>
-      <c r="C29" s="11"/>
-      <c r="D29" s="7"/>
-      <c r="E29" s="7"/>
-      <c r="F29" s="32"/>
-      <c r="G29" s="68"/>
-      <c r="H29" s="7"/>
-      <c r="I29" s="27"/>
-      <c r="J29" s="24"/>
+      <c r="B29" s="103"/>
+      <c r="C29" s="16"/>
+      <c r="D29" s="9"/>
+      <c r="E29" s="9"/>
+      <c r="F29" s="30"/>
+      <c r="G29" s="65"/>
+      <c r="H29" s="21"/>
+      <c r="I29" s="52"/>
+      <c r="J29" s="25"/>
     </row>
     <row r="30" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A30" s="5">
         <v>10</v>
       </c>
-      <c r="B30" s="101" t="s">
-        <v>12</v>
-      </c>
-      <c r="C30" s="10">
-        <v>25</v>
-      </c>
-      <c r="D30" s="43">
-        <v>44237</v>
-      </c>
-      <c r="E30" s="14" t="s">
-        <v>131</v>
-      </c>
-      <c r="F30" s="93">
-        <v>44501</v>
-      </c>
-      <c r="G30" s="66" t="s">
-        <v>35</v>
-      </c>
-      <c r="H30" s="23" t="s">
-        <v>69</v>
-      </c>
-      <c r="I30" s="53" t="s">
-        <v>53</v>
-      </c>
-      <c r="J30" s="53" t="s">
-        <v>53</v>
-      </c>
+      <c r="B30" s="100" t="s">
+        <v>13</v>
+      </c>
+      <c r="C30" s="4">
+        <v>32</v>
+      </c>
+      <c r="D30" s="14" t="s">
+        <v>43</v>
+      </c>
+      <c r="E30" s="22">
+        <v>44520</v>
+      </c>
+      <c r="F30" s="80" t="s">
+        <v>44</v>
+      </c>
+      <c r="G30" s="67" t="s">
+        <v>45</v>
+      </c>
+      <c r="H30" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="I30" s="54">
+        <v>44440</v>
+      </c>
+      <c r="J30" s="26"/>
     </row>
     <row r="31" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A31" s="7"/>
-      <c r="B31" s="102"/>
-      <c r="C31" s="15"/>
-      <c r="D31" s="7"/>
-      <c r="E31" s="7"/>
-      <c r="F31" s="29"/>
-      <c r="G31" s="64">
-        <v>82143316439</v>
-      </c>
-      <c r="H31" s="20"/>
+      <c r="B31" s="27"/>
+      <c r="C31" s="11"/>
+      <c r="D31" s="44"/>
+      <c r="E31" s="44"/>
+      <c r="F31" s="32"/>
+      <c r="G31" s="68">
+        <v>81333524165</v>
+      </c>
+      <c r="H31" s="7"/>
       <c r="I31" s="27"/>
       <c r="J31" s="24"/>
     </row>
     <row r="32" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A32" s="9"/>
-      <c r="B32" s="103"/>
-      <c r="C32" s="16"/>
+      <c r="B32" s="52"/>
+      <c r="C32" s="12"/>
       <c r="D32" s="9"/>
       <c r="E32" s="9"/>
-      <c r="F32" s="30"/>
-      <c r="G32" s="65"/>
-      <c r="H32" s="21"/>
+      <c r="F32" s="45"/>
+      <c r="G32" s="69"/>
+      <c r="H32" s="9"/>
       <c r="I32" s="52"/>
       <c r="J32" s="25"/>
     </row>
@@ -2197,40 +2343,40 @@
         <v>11</v>
       </c>
       <c r="B33" s="100" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C33" s="4">
-        <v>26</v>
-      </c>
-      <c r="D33" s="14" t="s">
-        <v>39</v>
-      </c>
-      <c r="E33" s="46">
-        <v>44614</v>
-      </c>
-      <c r="F33" s="88" t="s">
-        <v>61</v>
-      </c>
-      <c r="G33" s="66" t="s">
-        <v>60</v>
-      </c>
-      <c r="H33" s="5" t="s">
-        <v>69</v>
-      </c>
-      <c r="I33" s="54">
-        <v>44440</v>
-      </c>
-      <c r="J33" s="26"/>
+        <v>33</v>
+      </c>
+      <c r="D33" s="77" t="s">
+        <v>108</v>
+      </c>
+      <c r="E33" s="44">
+        <v>44247</v>
+      </c>
+      <c r="F33" s="89" t="s">
+        <v>103</v>
+      </c>
+      <c r="G33" s="68" t="s">
+        <v>101</v>
+      </c>
+      <c r="H33" s="7" t="s">
+        <v>102</v>
+      </c>
+      <c r="I33" s="106" t="s">
+        <v>134</v>
+      </c>
+      <c r="J33" s="24"/>
     </row>
     <row r="34" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A34" s="7"/>
       <c r="B34" s="27"/>
       <c r="C34" s="11"/>
       <c r="D34" s="7"/>
-      <c r="E34" s="47"/>
-      <c r="F34" s="29"/>
-      <c r="G34" s="64">
-        <v>85732094240</v>
+      <c r="E34" s="7"/>
+      <c r="F34" s="32"/>
+      <c r="G34" s="68">
+        <v>81235748714</v>
       </c>
       <c r="H34" s="7"/>
       <c r="I34" s="27"/>
@@ -2238,67 +2384,71 @@
     </row>
     <row r="35" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A35" s="9"/>
-      <c r="B35" s="52"/>
-      <c r="C35" s="8"/>
-      <c r="D35" s="9"/>
-      <c r="E35" s="9"/>
-      <c r="F35" s="30"/>
-      <c r="G35" s="65"/>
-      <c r="H35" s="9"/>
-      <c r="I35" s="52"/>
-      <c r="J35" s="25"/>
+      <c r="B35" s="27"/>
+      <c r="C35" s="11"/>
+      <c r="D35" s="7"/>
+      <c r="E35" s="7"/>
+      <c r="F35" s="32"/>
+      <c r="G35" s="68"/>
+      <c r="H35" s="7"/>
+      <c r="I35" s="27"/>
+      <c r="J35" s="24"/>
     </row>
     <row r="36" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A36" s="5">
         <v>12</v>
       </c>
-      <c r="B36" s="100" t="s">
+      <c r="B36" s="101" t="s">
         <v>12</v>
       </c>
-      <c r="C36" s="4">
-        <v>27</v>
-      </c>
-      <c r="D36" s="23" t="s">
-        <v>139</v>
-      </c>
-      <c r="E36" s="97" t="s">
-        <v>135</v>
-      </c>
-      <c r="F36" s="105" t="s">
-        <v>133</v>
+      <c r="C36" s="10">
+        <v>25</v>
+      </c>
+      <c r="D36" s="43">
+        <v>44237</v>
+      </c>
+      <c r="E36" s="14" t="s">
+        <v>131</v>
+      </c>
+      <c r="F36" s="93">
+        <v>44501</v>
       </c>
       <c r="G36" s="66" t="s">
-        <v>132</v>
-      </c>
-      <c r="H36" s="104" t="s">
-        <v>89</v>
-      </c>
-      <c r="I36" s="78"/>
-      <c r="J36" s="26"/>
+        <v>35</v>
+      </c>
+      <c r="H36" s="23" t="s">
+        <v>69</v>
+      </c>
+      <c r="I36" s="53" t="s">
+        <v>53</v>
+      </c>
+      <c r="J36" s="53" t="s">
+        <v>53</v>
+      </c>
     </row>
     <row r="37" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A37" s="7"/>
-      <c r="B37" s="27"/>
-      <c r="C37" s="11"/>
+      <c r="B37" s="102"/>
+      <c r="C37" s="15"/>
       <c r="D37" s="7"/>
-      <c r="E37" s="47"/>
+      <c r="E37" s="7"/>
       <c r="F37" s="29"/>
-      <c r="G37" s="72" t="s">
-        <v>134</v>
-      </c>
-      <c r="H37" s="7"/>
+      <c r="G37" s="64">
+        <v>82143316439</v>
+      </c>
+      <c r="H37" s="20"/>
       <c r="I37" s="27"/>
       <c r="J37" s="24"/>
     </row>
     <row r="38" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A38" s="9"/>
-      <c r="B38" s="52"/>
-      <c r="C38" s="8"/>
+      <c r="B38" s="103"/>
+      <c r="C38" s="16"/>
       <c r="D38" s="9"/>
       <c r="E38" s="9"/>
       <c r="F38" s="30"/>
       <c r="G38" s="65"/>
-      <c r="H38" s="9"/>
+      <c r="H38" s="21"/>
       <c r="I38" s="52"/>
       <c r="J38" s="25"/>
     </row>
@@ -2307,28 +2457,28 @@
         <v>13</v>
       </c>
       <c r="B39" s="100" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C39" s="4">
-        <v>33</v>
+        <v>26</v>
       </c>
       <c r="D39" s="14" t="s">
-        <v>83</v>
-      </c>
-      <c r="E39" s="76" t="s">
-        <v>131</v>
-      </c>
-      <c r="F39" s="94">
-        <v>44510</v>
-      </c>
-      <c r="G39" s="67" t="s">
-        <v>46</v>
+        <v>39</v>
+      </c>
+      <c r="E39" s="46">
+        <v>44614</v>
+      </c>
+      <c r="F39" s="88" t="s">
+        <v>61</v>
+      </c>
+      <c r="G39" s="66" t="s">
+        <v>60</v>
       </c>
       <c r="H39" s="5" t="s">
-        <v>77</v>
+        <v>69</v>
       </c>
       <c r="I39" s="54">
-        <v>44449</v>
+        <v>44440</v>
       </c>
       <c r="J39" s="26"/>
     </row>
@@ -2336,11 +2486,11 @@
       <c r="A40" s="7"/>
       <c r="B40" s="27"/>
       <c r="C40" s="11"/>
-      <c r="D40" s="44"/>
-      <c r="E40" s="44"/>
-      <c r="F40" s="32"/>
-      <c r="G40" s="68">
-        <v>81331430509</v>
+      <c r="D40" s="7"/>
+      <c r="E40" s="47"/>
+      <c r="F40" s="29"/>
+      <c r="G40" s="64">
+        <v>85732094240</v>
       </c>
       <c r="H40" s="7"/>
       <c r="I40" s="27"/>
@@ -2349,88 +2499,96 @@
     <row r="41" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A41" s="9"/>
       <c r="B41" s="52"/>
-      <c r="C41" s="12"/>
+      <c r="C41" s="8"/>
       <c r="D41" s="9"/>
       <c r="E41" s="9"/>
-      <c r="F41" s="45"/>
-      <c r="G41" s="69"/>
+      <c r="F41" s="30"/>
+      <c r="G41" s="65"/>
       <c r="H41" s="9"/>
       <c r="I41" s="52"/>
       <c r="J41" s="25"/>
     </row>
     <row r="42" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A42" s="7">
+      <c r="A42" s="5">
         <v>14</v>
       </c>
       <c r="B42" s="100" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C42" s="4">
-        <v>34</v>
-      </c>
-      <c r="D42" s="7"/>
-      <c r="E42" s="120" t="s">
+        <v>27</v>
+      </c>
+      <c r="D42" s="23" t="s">
+        <v>137</v>
+      </c>
+      <c r="E42" s="97" t="s">
         <v>140</v>
       </c>
-      <c r="F42" s="87" t="s">
-        <v>137</v>
-      </c>
-      <c r="G42" s="68"/>
-      <c r="H42" s="7"/>
-      <c r="I42" s="27"/>
-      <c r="J42" s="24"/>
+      <c r="F42" s="105" t="s">
+        <v>139</v>
+      </c>
+      <c r="G42" s="66" t="s">
+        <v>132</v>
+      </c>
+      <c r="H42" s="104" t="s">
+        <v>89</v>
+      </c>
+      <c r="I42" s="78"/>
+      <c r="J42" s="26"/>
     </row>
     <row r="43" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A43" s="7"/>
       <c r="B43" s="27"/>
       <c r="C43" s="11"/>
       <c r="D43" s="7"/>
-      <c r="E43" s="7"/>
-      <c r="F43" s="32"/>
-      <c r="G43" s="68"/>
+      <c r="E43" s="47"/>
+      <c r="F43" s="29"/>
+      <c r="G43" s="72" t="s">
+        <v>133</v>
+      </c>
       <c r="H43" s="7"/>
       <c r="I43" s="27"/>
       <c r="J43" s="24"/>
     </row>
     <row r="44" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A44" s="7"/>
-      <c r="B44" s="27"/>
-      <c r="C44" s="11"/>
-      <c r="D44" s="7"/>
-      <c r="E44" s="7"/>
-      <c r="F44" s="32"/>
-      <c r="G44" s="68"/>
-      <c r="H44" s="7"/>
-      <c r="I44" s="27"/>
-      <c r="J44" s="24"/>
+      <c r="A44" s="9"/>
+      <c r="B44" s="52"/>
+      <c r="C44" s="8"/>
+      <c r="D44" s="9"/>
+      <c r="E44" s="9"/>
+      <c r="F44" s="30"/>
+      <c r="G44" s="65"/>
+      <c r="H44" s="9"/>
+      <c r="I44" s="52"/>
+      <c r="J44" s="25"/>
     </row>
     <row r="45" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A45" s="5">
         <v>15</v>
       </c>
       <c r="B45" s="100" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C45" s="4">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="D45" s="14" t="s">
-        <v>40</v>
-      </c>
-      <c r="E45" s="75" t="s">
-        <v>95</v>
-      </c>
-      <c r="F45" s="81" t="s">
-        <v>42</v>
+        <v>83</v>
+      </c>
+      <c r="E45" s="76" t="s">
+        <v>131</v>
+      </c>
+      <c r="F45" s="94">
+        <v>44510</v>
       </c>
       <c r="G45" s="67" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="H45" s="5" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="I45" s="54">
-        <v>44440</v>
+        <v>44449</v>
       </c>
       <c r="J45" s="26"/>
     </row>
@@ -2442,7 +2600,7 @@
       <c r="E46" s="44"/>
       <c r="F46" s="32"/>
       <c r="G46" s="68">
-        <v>85649115380</v>
+        <v>81331430509</v>
       </c>
       <c r="H46" s="7"/>
       <c r="I46" s="27"/>
@@ -2465,69 +2623,59 @@
         <v>16</v>
       </c>
       <c r="B48" s="100" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C48" s="4">
-        <v>40</v>
-      </c>
-      <c r="D48" s="43">
-        <v>44453</v>
-      </c>
-      <c r="E48" s="75" t="s">
-        <v>95</v>
-      </c>
-      <c r="F48" s="81" t="s">
-        <v>42</v>
-      </c>
-      <c r="G48" s="67" t="s">
-        <v>48</v>
-      </c>
-      <c r="H48" s="5" t="s">
-        <v>81</v>
-      </c>
-      <c r="I48" s="71" t="s">
-        <v>98</v>
-      </c>
-      <c r="J48" s="26"/>
+        <v>34</v>
+      </c>
+      <c r="D48" s="7"/>
+      <c r="E48" s="107" t="s">
+        <v>138</v>
+      </c>
+      <c r="F48" s="87" t="s">
+        <v>135</v>
+      </c>
+      <c r="G48" s="68"/>
+      <c r="H48" s="7"/>
+      <c r="I48" s="27"/>
+      <c r="J48" s="24"/>
     </row>
     <row r="49" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A49" s="7"/>
       <c r="B49" s="27"/>
       <c r="C49" s="11"/>
-      <c r="D49" s="44"/>
-      <c r="E49" s="44"/>
+      <c r="D49" s="7"/>
+      <c r="E49" s="7"/>
       <c r="F49" s="32"/>
-      <c r="G49" s="68">
-        <v>81359524067</v>
-      </c>
+      <c r="G49" s="68"/>
       <c r="H49" s="7"/>
       <c r="I49" s="27"/>
       <c r="J49" s="24"/>
     </row>
     <row r="50" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A50" s="9"/>
-      <c r="B50" s="52"/>
-      <c r="C50" s="12"/>
-      <c r="D50" s="9"/>
-      <c r="E50" s="9"/>
-      <c r="F50" s="45"/>
-      <c r="G50" s="69"/>
-      <c r="H50" s="9"/>
-      <c r="I50" s="52"/>
-      <c r="J50" s="25"/>
+      <c r="B50" s="27"/>
+      <c r="C50" s="11"/>
+      <c r="D50" s="7"/>
+      <c r="E50" s="7"/>
+      <c r="F50" s="32"/>
+      <c r="G50" s="68"/>
+      <c r="H50" s="7"/>
+      <c r="I50" s="27"/>
+      <c r="J50" s="24"/>
     </row>
     <row r="51" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A51" s="5">
         <v>17</v>
       </c>
       <c r="B51" s="100" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="C51" s="4">
+        <v>28</v>
+      </c>
+      <c r="D51" s="14" t="s">
         <v>40</v>
-      </c>
-      <c r="D51" s="43">
-        <v>44453</v>
       </c>
       <c r="E51" s="75" t="s">
         <v>95</v>
@@ -2536,13 +2684,13 @@
         <v>42</v>
       </c>
       <c r="G51" s="67" t="s">
-        <v>25</v>
+        <v>41</v>
       </c>
       <c r="H51" s="5" t="s">
-        <v>82</v>
-      </c>
-      <c r="I51" s="71" t="s">
-        <v>98</v>
+        <v>79</v>
+      </c>
+      <c r="I51" s="54">
+        <v>44440</v>
       </c>
       <c r="J51" s="26"/>
     </row>
@@ -2554,7 +2702,7 @@
       <c r="E52" s="44"/>
       <c r="F52" s="32"/>
       <c r="G52" s="68">
-        <v>82319844744</v>
+        <v>85649115380</v>
       </c>
       <c r="H52" s="7"/>
       <c r="I52" s="27"/>
@@ -2572,251 +2720,501 @@
       <c r="I53" s="52"/>
       <c r="J53" s="25"/>
     </row>
-    <row r="54" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:10" s="131" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A54" s="5">
         <v>18</v>
       </c>
-      <c r="B54" s="3" t="s">
+      <c r="B54" s="101" t="s">
+        <v>15</v>
+      </c>
+      <c r="C54" s="10">
+        <v>29</v>
+      </c>
+      <c r="D54" s="23"/>
+      <c r="E54" s="74" t="s">
+        <v>145</v>
+      </c>
+      <c r="F54" s="138" t="s">
+        <v>144</v>
+      </c>
+      <c r="G54" s="129"/>
+      <c r="H54" s="23"/>
+      <c r="I54" s="78"/>
+      <c r="J54" s="130"/>
+    </row>
+    <row r="55" spans="1:10" s="131" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A55" s="7"/>
+      <c r="B55" s="102"/>
+      <c r="C55" s="15"/>
+      <c r="D55" s="36"/>
+      <c r="E55" s="36"/>
+      <c r="F55" s="132"/>
+      <c r="G55" s="133"/>
+      <c r="H55" s="20"/>
+      <c r="I55" s="102"/>
+      <c r="J55" s="134"/>
+    </row>
+    <row r="56" spans="1:10" s="131" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A56" s="9"/>
+      <c r="B56" s="103"/>
+      <c r="C56" s="16"/>
+      <c r="D56" s="21"/>
+      <c r="E56" s="21"/>
+      <c r="F56" s="135"/>
+      <c r="G56" s="136"/>
+      <c r="H56" s="21"/>
+      <c r="I56" s="103"/>
+      <c r="J56" s="137"/>
+    </row>
+    <row r="57" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A57" s="5">
+        <v>19</v>
+      </c>
+      <c r="B57" s="100" t="s">
+        <v>16</v>
+      </c>
+      <c r="C57" s="4">
+        <v>40</v>
+      </c>
+      <c r="D57" s="43">
+        <v>44453</v>
+      </c>
+      <c r="E57" s="75" t="s">
+        <v>95</v>
+      </c>
+      <c r="F57" s="81" t="s">
+        <v>42</v>
+      </c>
+      <c r="G57" s="67" t="s">
+        <v>48</v>
+      </c>
+      <c r="H57" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="I57" s="71" t="s">
+        <v>98</v>
+      </c>
+      <c r="J57" s="26"/>
+    </row>
+    <row r="58" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A58" s="7"/>
+      <c r="B58" s="27"/>
+      <c r="C58" s="11"/>
+      <c r="D58" s="44"/>
+      <c r="E58" s="44"/>
+      <c r="F58" s="32"/>
+      <c r="G58" s="68">
+        <v>81359524067</v>
+      </c>
+      <c r="H58" s="7"/>
+      <c r="I58" s="27"/>
+      <c r="J58" s="24"/>
+    </row>
+    <row r="59" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A59" s="9"/>
+      <c r="B59" s="52"/>
+      <c r="C59" s="12"/>
+      <c r="D59" s="9"/>
+      <c r="E59" s="9"/>
+      <c r="F59" s="45"/>
+      <c r="G59" s="69"/>
+      <c r="H59" s="9"/>
+      <c r="I59" s="52"/>
+      <c r="J59" s="25"/>
+    </row>
+    <row r="60" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A60" s="5">
+        <v>20</v>
+      </c>
+      <c r="B60" s="100" t="s">
+        <v>18</v>
+      </c>
+      <c r="C60" s="4">
+        <v>40</v>
+      </c>
+      <c r="D60" s="43">
+        <v>44453</v>
+      </c>
+      <c r="E60" s="75" t="s">
+        <v>95</v>
+      </c>
+      <c r="F60" s="81" t="s">
+        <v>42</v>
+      </c>
+      <c r="G60" s="67" t="s">
+        <v>25</v>
+      </c>
+      <c r="H60" s="5" t="s">
+        <v>82</v>
+      </c>
+      <c r="I60" s="71" t="s">
+        <v>98</v>
+      </c>
+      <c r="J60" s="26"/>
+    </row>
+    <row r="61" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A61" s="7"/>
+      <c r="B61" s="27"/>
+      <c r="C61" s="11"/>
+      <c r="D61" s="44"/>
+      <c r="E61" s="44"/>
+      <c r="F61" s="32"/>
+      <c r="G61" s="68">
+        <v>82319844744</v>
+      </c>
+      <c r="H61" s="7"/>
+      <c r="I61" s="27"/>
+      <c r="J61" s="24"/>
+    </row>
+    <row r="62" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A62" s="9"/>
+      <c r="B62" s="52"/>
+      <c r="C62" s="12"/>
+      <c r="D62" s="9"/>
+      <c r="E62" s="9"/>
+      <c r="F62" s="45"/>
+      <c r="G62" s="69"/>
+      <c r="H62" s="9"/>
+      <c r="I62" s="52"/>
+      <c r="J62" s="25"/>
+    </row>
+    <row r="63" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A63" s="5">
+        <v>21</v>
+      </c>
+      <c r="B63" s="100" t="s">
+        <v>16</v>
+      </c>
+      <c r="C63" s="10">
+        <v>41</v>
+      </c>
+      <c r="D63" s="139"/>
+      <c r="E63" s="74" t="s">
+        <v>147</v>
+      </c>
+      <c r="F63" s="128" t="s">
+        <v>146</v>
+      </c>
+      <c r="G63" s="129"/>
+      <c r="H63" s="23"/>
+      <c r="I63" s="140"/>
+      <c r="J63" s="26"/>
+    </row>
+    <row r="64" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A64" s="7"/>
+      <c r="B64" s="27"/>
+      <c r="C64" s="15"/>
+      <c r="D64" s="36"/>
+      <c r="E64" s="36"/>
+      <c r="F64" s="132"/>
+      <c r="G64" s="133"/>
+      <c r="H64" s="20"/>
+      <c r="I64" s="102"/>
+      <c r="J64" s="24"/>
+    </row>
+    <row r="65" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A65" s="9"/>
+      <c r="B65" s="52"/>
+      <c r="C65" s="16"/>
+      <c r="D65" s="21"/>
+      <c r="E65" s="21"/>
+      <c r="F65" s="135"/>
+      <c r="G65" s="136"/>
+      <c r="H65" s="21"/>
+      <c r="I65" s="103"/>
+      <c r="J65" s="25"/>
+    </row>
+    <row r="66" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A66" s="5">
+        <v>22</v>
+      </c>
+      <c r="B66" s="100" t="s">
+        <v>18</v>
+      </c>
+      <c r="C66" s="10">
+        <v>41</v>
+      </c>
+      <c r="D66" s="139"/>
+      <c r="E66" s="74" t="s">
+        <v>147</v>
+      </c>
+      <c r="F66" s="128" t="s">
+        <v>146</v>
+      </c>
+      <c r="G66" s="129"/>
+      <c r="H66" s="23"/>
+      <c r="I66" s="140"/>
+      <c r="J66" s="26"/>
+    </row>
+    <row r="67" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A67" s="7"/>
+      <c r="B67" s="27"/>
+      <c r="C67" s="15"/>
+      <c r="D67" s="36"/>
+      <c r="E67" s="36"/>
+      <c r="F67" s="132"/>
+      <c r="G67" s="133"/>
+      <c r="H67" s="20"/>
+      <c r="I67" s="102"/>
+      <c r="J67" s="24"/>
+    </row>
+    <row r="68" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A68" s="9"/>
+      <c r="B68" s="52"/>
+      <c r="C68" s="16"/>
+      <c r="D68" s="21"/>
+      <c r="E68" s="21"/>
+      <c r="F68" s="135"/>
+      <c r="G68" s="136"/>
+      <c r="H68" s="21"/>
+      <c r="I68" s="103"/>
+      <c r="J68" s="25"/>
+    </row>
+    <row r="69" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A69" s="5">
+        <v>23</v>
+      </c>
+      <c r="B69" s="3" t="s">
         <v>97</v>
       </c>
-      <c r="C54" s="4">
+      <c r="C69" s="4">
         <v>5</v>
       </c>
-      <c r="D54" s="43" t="s">
+      <c r="D69" s="43" t="s">
         <v>108</v>
       </c>
-      <c r="E54" s="22">
+      <c r="E69" s="22">
         <v>44237</v>
       </c>
-      <c r="F54" s="87">
+      <c r="F69" s="87">
         <v>44617</v>
       </c>
-      <c r="G54" s="67" t="s">
+      <c r="G69" s="67" t="s">
         <v>105</v>
       </c>
-      <c r="H54" s="5" t="s">
+      <c r="H69" s="5" t="s">
         <v>104</v>
       </c>
-      <c r="I54" s="106" t="s">
+      <c r="I69" s="106" t="s">
+        <v>134</v>
+      </c>
+      <c r="J69" s="26"/>
+    </row>
+    <row r="70" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A70" s="7"/>
+      <c r="B70" s="6"/>
+      <c r="C70" s="11"/>
+      <c r="D70" s="44"/>
+      <c r="E70" s="44"/>
+      <c r="F70" s="32"/>
+      <c r="G70" s="68">
+        <v>89603906796</v>
+      </c>
+      <c r="H70" s="7"/>
+      <c r="I70" s="27"/>
+      <c r="J70" s="24"/>
+    </row>
+    <row r="71" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A71" s="9"/>
+      <c r="B71" s="8"/>
+      <c r="C71" s="12"/>
+      <c r="D71" s="9"/>
+      <c r="E71" s="9"/>
+      <c r="F71" s="45"/>
+      <c r="G71" s="69"/>
+      <c r="H71" s="9"/>
+      <c r="I71" s="52"/>
+      <c r="J71" s="25"/>
+    </row>
+    <row r="73" spans="1:10" s="84" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A73" s="2"/>
+      <c r="B73" s="85" t="s">
+        <v>117</v>
+      </c>
+      <c r="C73" s="86"/>
+      <c r="D73" s="86"/>
+      <c r="E73" s="2"/>
+      <c r="F73" s="83"/>
+      <c r="G73" s="92" t="s">
+        <v>125</v>
+      </c>
+      <c r="H73" s="99"/>
+      <c r="I73" s="83"/>
+      <c r="J73" s="83"/>
+    </row>
+    <row r="74" spans="1:10" s="84" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A74" s="2"/>
+      <c r="B74" s="82" t="s">
+        <v>113</v>
+      </c>
+      <c r="C74" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="D74" s="2"/>
+      <c r="E74" s="2"/>
+      <c r="F74" s="83"/>
+      <c r="G74" s="82" t="s">
+        <v>109</v>
+      </c>
+      <c r="H74" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="I74" s="83"/>
+      <c r="J74" s="83"/>
+    </row>
+    <row r="75" spans="1:10" s="84" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A75" s="2"/>
+      <c r="B75" s="82" t="s">
+        <v>114</v>
+      </c>
+      <c r="C75" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="D75" s="2"/>
+      <c r="E75" s="2"/>
+      <c r="F75" s="83"/>
+      <c r="G75" s="82" t="s">
+        <v>110</v>
+      </c>
+      <c r="H75" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="I75" s="83"/>
+      <c r="J75" s="83"/>
+    </row>
+    <row r="76" spans="1:10" s="84" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A76" s="2"/>
+      <c r="B76" s="82" t="s">
+        <v>115</v>
+      </c>
+      <c r="C76" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="D76" s="2"/>
+      <c r="E76" s="2"/>
+      <c r="F76" s="83"/>
+      <c r="G76" s="82" t="s">
+        <v>111</v>
+      </c>
+      <c r="H76" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="I76" s="83"/>
+      <c r="J76" s="83"/>
+    </row>
+    <row r="77" spans="1:10" s="84" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A77" s="2"/>
+      <c r="B77" s="82" t="s">
+        <v>118</v>
+      </c>
+      <c r="C77" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="D77" s="2"/>
+      <c r="E77" s="2"/>
+      <c r="F77" s="83"/>
+      <c r="G77" s="82"/>
+      <c r="H77" s="2"/>
+      <c r="I77" s="83"/>
+      <c r="J77" s="83"/>
+    </row>
+    <row r="78" spans="1:10" s="84" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A78" s="2"/>
+      <c r="D78" s="2"/>
+      <c r="E78" s="2"/>
+      <c r="F78" s="83"/>
+      <c r="G78" s="82"/>
+      <c r="H78" s="2"/>
+      <c r="I78" s="83"/>
+      <c r="J78" s="83"/>
+    </row>
+    <row r="79" spans="1:10" s="84" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A79" s="2"/>
+      <c r="B79" s="90" t="s">
+        <v>124</v>
+      </c>
+      <c r="C79" s="91"/>
+      <c r="D79" s="2"/>
+      <c r="E79" s="2"/>
+      <c r="F79" s="83"/>
+      <c r="G79" s="95" t="s">
+        <v>128</v>
+      </c>
+      <c r="H79" s="98"/>
+      <c r="I79" s="83"/>
+      <c r="J79" s="83"/>
+    </row>
+    <row r="80" spans="1:10" s="84" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A80" s="2"/>
+      <c r="B80" s="82" t="s">
+        <v>119</v>
+      </c>
+      <c r="C80" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="D80" s="2"/>
+      <c r="E80" s="2"/>
+      <c r="F80" s="83"/>
+      <c r="G80" s="82" t="s">
+        <v>126</v>
+      </c>
+      <c r="H80" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="I80" s="83"/>
+      <c r="J80" s="83"/>
+    </row>
+    <row r="81" spans="1:10" s="84" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A81" s="2"/>
+      <c r="B81" s="82" t="s">
+        <v>120</v>
+      </c>
+      <c r="C81" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="D81" s="2"/>
+      <c r="E81" s="2"/>
+      <c r="F81" s="83"/>
+      <c r="G81" s="82"/>
+      <c r="H81" s="2"/>
+      <c r="I81" s="83"/>
+      <c r="J81" s="83"/>
+    </row>
+    <row r="82" spans="1:10" s="84" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A82" s="2"/>
+      <c r="B82" s="82" t="s">
+        <v>121</v>
+      </c>
+      <c r="C82" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="D82" s="2"/>
+      <c r="E82" s="2"/>
+      <c r="F82" s="83"/>
+      <c r="G82" s="82"/>
+      <c r="H82" s="2"/>
+      <c r="I82" s="83"/>
+      <c r="J82" s="83"/>
+    </row>
+    <row r="83" spans="1:10" s="84" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A83" s="2"/>
+      <c r="B83" s="82" t="s">
+        <v>122</v>
+      </c>
+      <c r="C83" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="D83" s="2"/>
+      <c r="E83" s="2"/>
+      <c r="F83" s="83"/>
+      <c r="G83" s="82"/>
+      <c r="H83" s="2"/>
+      <c r="I83" s="83"/>
+      <c r="J83" s="83"/>
+    </row>
+    <row r="84" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="B84" s="1" t="s">
         <v>136</v>
-      </c>
-      <c r="J54" s="26"/>
-    </row>
-    <row r="55" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A55" s="7"/>
-      <c r="B55" s="6"/>
-      <c r="C55" s="11"/>
-      <c r="D55" s="44"/>
-      <c r="E55" s="44"/>
-      <c r="F55" s="32"/>
-      <c r="G55" s="68">
-        <v>89603906796</v>
-      </c>
-      <c r="H55" s="7"/>
-      <c r="I55" s="27"/>
-      <c r="J55" s="24"/>
-    </row>
-    <row r="56" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A56" s="9"/>
-      <c r="B56" s="8"/>
-      <c r="C56" s="12"/>
-      <c r="D56" s="9"/>
-      <c r="E56" s="9"/>
-      <c r="F56" s="45"/>
-      <c r="G56" s="69"/>
-      <c r="H56" s="9"/>
-      <c r="I56" s="52"/>
-      <c r="J56" s="25"/>
-    </row>
-    <row r="58" spans="1:10" s="84" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A58" s="2"/>
-      <c r="B58" s="85" t="s">
-        <v>117</v>
-      </c>
-      <c r="C58" s="86"/>
-      <c r="D58" s="86"/>
-      <c r="E58" s="2"/>
-      <c r="F58" s="83"/>
-      <c r="G58" s="92" t="s">
-        <v>125</v>
-      </c>
-      <c r="H58" s="99"/>
-      <c r="I58" s="83"/>
-      <c r="J58" s="83"/>
-    </row>
-    <row r="59" spans="1:10" s="84" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A59" s="2"/>
-      <c r="B59" s="82" t="s">
-        <v>113</v>
-      </c>
-      <c r="C59" s="2" t="s">
-        <v>112</v>
-      </c>
-      <c r="D59" s="2"/>
-      <c r="E59" s="2"/>
-      <c r="F59" s="83"/>
-      <c r="G59" s="82" t="s">
-        <v>109</v>
-      </c>
-      <c r="H59" s="2" t="s">
-        <v>75</v>
-      </c>
-      <c r="I59" s="83"/>
-      <c r="J59" s="83"/>
-    </row>
-    <row r="60" spans="1:10" s="84" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A60" s="2"/>
-      <c r="B60" s="82" t="s">
-        <v>114</v>
-      </c>
-      <c r="C60" s="2" t="s">
-        <v>75</v>
-      </c>
-      <c r="D60" s="2"/>
-      <c r="E60" s="2"/>
-      <c r="F60" s="83"/>
-      <c r="G60" s="82" t="s">
-        <v>110</v>
-      </c>
-      <c r="H60" s="2" t="s">
-        <v>102</v>
-      </c>
-      <c r="I60" s="83"/>
-      <c r="J60" s="83"/>
-    </row>
-    <row r="61" spans="1:10" s="84" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A61" s="2"/>
-      <c r="B61" s="82" t="s">
-        <v>115</v>
-      </c>
-      <c r="C61" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="D61" s="2"/>
-      <c r="E61" s="2"/>
-      <c r="F61" s="83"/>
-      <c r="G61" s="82" t="s">
-        <v>111</v>
-      </c>
-      <c r="H61" s="2" t="s">
-        <v>77</v>
-      </c>
-      <c r="I61" s="83"/>
-      <c r="J61" s="83"/>
-    </row>
-    <row r="62" spans="1:10" s="84" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A62" s="2"/>
-      <c r="B62" s="82" t="s">
-        <v>118</v>
-      </c>
-      <c r="C62" s="2" t="s">
-        <v>116</v>
-      </c>
-      <c r="D62" s="2"/>
-      <c r="E62" s="2"/>
-      <c r="F62" s="83"/>
-      <c r="G62" s="82"/>
-      <c r="H62" s="2"/>
-      <c r="I62" s="83"/>
-      <c r="J62" s="83"/>
-    </row>
-    <row r="63" spans="1:10" s="84" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A63" s="2"/>
-      <c r="D63" s="2"/>
-      <c r="E63" s="2"/>
-      <c r="F63" s="83"/>
-      <c r="G63" s="82"/>
-      <c r="H63" s="2"/>
-      <c r="I63" s="83"/>
-      <c r="J63" s="83"/>
-    </row>
-    <row r="64" spans="1:10" s="84" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A64" s="2"/>
-      <c r="B64" s="90" t="s">
-        <v>124</v>
-      </c>
-      <c r="C64" s="91"/>
-      <c r="D64" s="2"/>
-      <c r="E64" s="2"/>
-      <c r="F64" s="83"/>
-      <c r="G64" s="95" t="s">
-        <v>128</v>
-      </c>
-      <c r="H64" s="98"/>
-      <c r="I64" s="83"/>
-      <c r="J64" s="83"/>
-    </row>
-    <row r="65" spans="1:10" s="84" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A65" s="2"/>
-      <c r="B65" s="82" t="s">
-        <v>119</v>
-      </c>
-      <c r="C65" s="2" t="s">
-        <v>123</v>
-      </c>
-      <c r="D65" s="2"/>
-      <c r="E65" s="2"/>
-      <c r="F65" s="83"/>
-      <c r="G65" s="82" t="s">
-        <v>126</v>
-      </c>
-      <c r="H65" s="2" t="s">
-        <v>127</v>
-      </c>
-      <c r="I65" s="83"/>
-      <c r="J65" s="83"/>
-    </row>
-    <row r="66" spans="1:10" s="84" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A66" s="2"/>
-      <c r="B66" s="82" t="s">
-        <v>120</v>
-      </c>
-      <c r="C66" s="2" t="s">
-        <v>102</v>
-      </c>
-      <c r="D66" s="2"/>
-      <c r="E66" s="2"/>
-      <c r="F66" s="83"/>
-      <c r="G66" s="82"/>
-      <c r="H66" s="2"/>
-      <c r="I66" s="83"/>
-      <c r="J66" s="83"/>
-    </row>
-    <row r="67" spans="1:10" s="84" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A67" s="2"/>
-      <c r="B67" s="82" t="s">
-        <v>121</v>
-      </c>
-      <c r="C67" s="2" t="s">
-        <v>69</v>
-      </c>
-      <c r="D67" s="2"/>
-      <c r="E67" s="2"/>
-      <c r="F67" s="83"/>
-      <c r="G67" s="82"/>
-      <c r="H67" s="2"/>
-      <c r="I67" s="83"/>
-      <c r="J67" s="83"/>
-    </row>
-    <row r="68" spans="1:10" s="84" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A68" s="2"/>
-      <c r="B68" s="82" t="s">
-        <v>122</v>
-      </c>
-      <c r="C68" s="2" t="s">
-        <v>104</v>
-      </c>
-      <c r="D68" s="2"/>
-      <c r="E68" s="2"/>
-      <c r="F68" s="83"/>
-      <c r="G68" s="82"/>
-      <c r="H68" s="2"/>
-      <c r="I68" s="83"/>
-      <c r="J68" s="83"/>
-    </row>
-    <row r="69" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="B69" s="1" t="s">
-        <v>138</v>
       </c>
     </row>
   </sheetData>
@@ -2860,46 +3258,46 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="18" x14ac:dyDescent="0.2">
-      <c r="A1" s="116" t="s">
+      <c r="A1" s="117" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="116" t="s">
+      <c r="B1" s="117" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="116" t="s">
+      <c r="C1" s="117" t="s">
         <v>27</v>
       </c>
-      <c r="D1" s="116" t="s">
+      <c r="D1" s="117" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="116"/>
-      <c r="F1" s="118" t="s">
+      <c r="E1" s="117"/>
+      <c r="F1" s="119" t="s">
         <v>106</v>
       </c>
-      <c r="G1" s="116" t="s">
+      <c r="G1" s="117" t="s">
         <v>4</v>
       </c>
-      <c r="H1" s="114" t="s">
+      <c r="H1" s="115" t="s">
         <v>2</v>
       </c>
-      <c r="I1" s="107" t="s">
+      <c r="I1" s="108" t="s">
         <v>56</v>
       </c>
-      <c r="J1" s="107"/>
+      <c r="J1" s="108"/>
     </row>
     <row r="2" spans="1:10" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="117"/>
-      <c r="B2" s="117"/>
-      <c r="C2" s="117"/>
+      <c r="A2" s="118"/>
+      <c r="B2" s="118"/>
+      <c r="C2" s="118"/>
       <c r="D2" s="73" t="s">
         <v>6</v>
       </c>
       <c r="E2" s="19" t="s">
         <v>7</v>
       </c>
-      <c r="F2" s="119"/>
-      <c r="G2" s="117"/>
-      <c r="H2" s="115"/>
+      <c r="F2" s="120"/>
+      <c r="G2" s="118"/>
+      <c r="H2" s="116"/>
       <c r="I2" s="17" t="s">
         <v>6</v>
       </c>

--- a/RENCANA BON VOYAGE.xlsx
+++ b/RENCANA BON VOYAGE.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Mapan\progress\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5235210C-EE7D-4992-BA3A-4FA7DB6D8649}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0F953EED-34F1-46B2-A372-8B77BFF91B56}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="261" uniqueCount="148">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="263" uniqueCount="150">
   <si>
     <t>NO</t>
   </si>
@@ -469,6 +469,12 @@
   </si>
   <si>
     <t>01 MARET</t>
+  </si>
+  <si>
+    <t>HAMSAH</t>
+  </si>
+  <si>
+    <t>081234803574</t>
   </si>
 </sst>
 </file>
@@ -615,7 +621,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="141">
+  <cellXfs count="142">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -926,45 +932,6 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="3" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="2"/>
-    </xf>
-    <xf numFmtId="164" fontId="3" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1022,6 +989,48 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="2"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" indent="2"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1727,8 +1736,8 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:J84"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" zoomScale="70" zoomScaleNormal="70" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="G65" sqref="G65"/>
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="70" zoomScaleNormal="70" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="G39" sqref="G39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1747,46 +1756,46 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="15" x14ac:dyDescent="0.25">
-      <c r="A1" s="108" t="s">
+      <c r="A1" s="128" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="108" t="s">
+      <c r="B1" s="128" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="108" t="s">
+      <c r="C1" s="128" t="s">
         <v>27</v>
       </c>
-      <c r="D1" s="114" t="s">
+      <c r="D1" s="134" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="114"/>
-      <c r="F1" s="112" t="s">
+      <c r="E1" s="134"/>
+      <c r="F1" s="132" t="s">
         <v>8</v>
       </c>
-      <c r="G1" s="110" t="s">
+      <c r="G1" s="130" t="s">
         <v>4</v>
       </c>
-      <c r="H1" s="108" t="s">
+      <c r="H1" s="128" t="s">
         <v>2</v>
       </c>
-      <c r="I1" s="108" t="s">
+      <c r="I1" s="128" t="s">
         <v>56</v>
       </c>
-      <c r="J1" s="108"/>
+      <c r="J1" s="128"/>
     </row>
     <row r="2" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="109"/>
-      <c r="B2" s="109"/>
-      <c r="C2" s="109"/>
+      <c r="A2" s="129"/>
+      <c r="B2" s="129"/>
+      <c r="C2" s="129"/>
       <c r="D2" s="17" t="s">
         <v>6</v>
       </c>
       <c r="E2" s="17" t="s">
         <v>7</v>
       </c>
-      <c r="F2" s="113"/>
-      <c r="G2" s="111"/>
-      <c r="H2" s="109"/>
+      <c r="F2" s="133"/>
+      <c r="G2" s="131"/>
+      <c r="H2" s="129"/>
       <c r="I2" s="17" t="s">
         <v>6</v>
       </c>
@@ -2142,16 +2151,16 @@
       <c r="C21" s="4">
         <v>18</v>
       </c>
-      <c r="D21" s="121" t="s">
+      <c r="D21" s="108" t="s">
         <v>141</v>
       </c>
       <c r="E21" s="97" t="s">
         <v>143</v>
       </c>
-      <c r="F21" s="127" t="s">
+      <c r="F21" s="114" t="s">
         <v>142</v>
       </c>
-      <c r="G21" s="122"/>
+      <c r="G21" s="109"/>
       <c r="H21" s="23"/>
       <c r="I21" s="78"/>
       <c r="J21" s="26"/>
@@ -2162,8 +2171,8 @@
       <c r="C22" s="11"/>
       <c r="D22" s="36"/>
       <c r="E22" s="36"/>
-      <c r="F22" s="123"/>
-      <c r="G22" s="124"/>
+      <c r="F22" s="110"/>
+      <c r="G22" s="111"/>
       <c r="H22" s="20"/>
       <c r="I22" s="102"/>
       <c r="J22" s="24"/>
@@ -2174,8 +2183,8 @@
       <c r="C23" s="12"/>
       <c r="D23" s="21"/>
       <c r="E23" s="21"/>
-      <c r="F23" s="125"/>
-      <c r="G23" s="126"/>
+      <c r="F23" s="112"/>
+      <c r="G23" s="113"/>
       <c r="H23" s="21"/>
       <c r="I23" s="103"/>
       <c r="J23" s="25"/>
@@ -2190,14 +2199,16 @@
       <c r="C24" s="4">
         <v>18</v>
       </c>
-      <c r="D24" s="121"/>
+      <c r="D24" s="108"/>
       <c r="E24" s="97" t="s">
         <v>143</v>
       </c>
-      <c r="F24" s="127" t="s">
+      <c r="F24" s="114" t="s">
         <v>142</v>
       </c>
-      <c r="G24" s="122"/>
+      <c r="G24" s="109" t="s">
+        <v>148</v>
+      </c>
       <c r="H24" s="23"/>
       <c r="I24" s="78"/>
       <c r="J24" s="26"/>
@@ -2208,8 +2219,10 @@
       <c r="C25" s="11"/>
       <c r="D25" s="36"/>
       <c r="E25" s="36"/>
-      <c r="F25" s="123"/>
-      <c r="G25" s="124"/>
+      <c r="F25" s="110"/>
+      <c r="G25" s="141" t="s">
+        <v>149</v>
+      </c>
       <c r="H25" s="20"/>
       <c r="I25" s="102"/>
       <c r="J25" s="24"/>
@@ -2220,8 +2233,8 @@
       <c r="C26" s="12"/>
       <c r="D26" s="21"/>
       <c r="E26" s="21"/>
-      <c r="F26" s="125"/>
-      <c r="G26" s="126"/>
+      <c r="F26" s="112"/>
+      <c r="G26" s="113"/>
       <c r="H26" s="21"/>
       <c r="I26" s="103"/>
       <c r="J26" s="25"/>
@@ -2720,7 +2733,7 @@
       <c r="I53" s="52"/>
       <c r="J53" s="25"/>
     </row>
-    <row r="54" spans="1:10" s="131" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:10" s="118" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A54" s="5">
         <v>18</v>
       </c>
@@ -2734,37 +2747,37 @@
       <c r="E54" s="74" t="s">
         <v>145</v>
       </c>
-      <c r="F54" s="138" t="s">
+      <c r="F54" s="125" t="s">
         <v>144</v>
       </c>
-      <c r="G54" s="129"/>
+      <c r="G54" s="116"/>
       <c r="H54" s="23"/>
       <c r="I54" s="78"/>
-      <c r="J54" s="130"/>
-    </row>
-    <row r="55" spans="1:10" s="131" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="J54" s="117"/>
+    </row>
+    <row r="55" spans="1:10" s="118" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A55" s="7"/>
       <c r="B55" s="102"/>
       <c r="C55" s="15"/>
       <c r="D55" s="36"/>
       <c r="E55" s="36"/>
-      <c r="F55" s="132"/>
-      <c r="G55" s="133"/>
+      <c r="F55" s="119"/>
+      <c r="G55" s="120"/>
       <c r="H55" s="20"/>
       <c r="I55" s="102"/>
-      <c r="J55" s="134"/>
-    </row>
-    <row r="56" spans="1:10" s="131" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="J55" s="121"/>
+    </row>
+    <row r="56" spans="1:10" s="118" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A56" s="9"/>
       <c r="B56" s="103"/>
       <c r="C56" s="16"/>
       <c r="D56" s="21"/>
       <c r="E56" s="21"/>
-      <c r="F56" s="135"/>
-      <c r="G56" s="136"/>
+      <c r="F56" s="122"/>
+      <c r="G56" s="123"/>
       <c r="H56" s="21"/>
       <c r="I56" s="103"/>
-      <c r="J56" s="137"/>
+      <c r="J56" s="124"/>
     </row>
     <row r="57" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A57" s="5">
@@ -2888,16 +2901,16 @@
       <c r="C63" s="10">
         <v>41</v>
       </c>
-      <c r="D63" s="139"/>
+      <c r="D63" s="126"/>
       <c r="E63" s="74" t="s">
         <v>147</v>
       </c>
-      <c r="F63" s="128" t="s">
+      <c r="F63" s="115" t="s">
         <v>146</v>
       </c>
-      <c r="G63" s="129"/>
+      <c r="G63" s="116"/>
       <c r="H63" s="23"/>
-      <c r="I63" s="140"/>
+      <c r="I63" s="127"/>
       <c r="J63" s="26"/>
     </row>
     <row r="64" spans="1:10" x14ac:dyDescent="0.2">
@@ -2906,8 +2919,8 @@
       <c r="C64" s="15"/>
       <c r="D64" s="36"/>
       <c r="E64" s="36"/>
-      <c r="F64" s="132"/>
-      <c r="G64" s="133"/>
+      <c r="F64" s="119"/>
+      <c r="G64" s="120"/>
       <c r="H64" s="20"/>
       <c r="I64" s="102"/>
       <c r="J64" s="24"/>
@@ -2918,8 +2931,8 @@
       <c r="C65" s="16"/>
       <c r="D65" s="21"/>
       <c r="E65" s="21"/>
-      <c r="F65" s="135"/>
-      <c r="G65" s="136"/>
+      <c r="F65" s="122"/>
+      <c r="G65" s="123"/>
       <c r="H65" s="21"/>
       <c r="I65" s="103"/>
       <c r="J65" s="25"/>
@@ -2934,16 +2947,16 @@
       <c r="C66" s="10">
         <v>41</v>
       </c>
-      <c r="D66" s="139"/>
+      <c r="D66" s="126"/>
       <c r="E66" s="74" t="s">
         <v>147</v>
       </c>
-      <c r="F66" s="128" t="s">
+      <c r="F66" s="115" t="s">
         <v>146</v>
       </c>
-      <c r="G66" s="129"/>
+      <c r="G66" s="116"/>
       <c r="H66" s="23"/>
-      <c r="I66" s="140"/>
+      <c r="I66" s="127"/>
       <c r="J66" s="26"/>
     </row>
     <row r="67" spans="1:10" x14ac:dyDescent="0.2">
@@ -2952,8 +2965,8 @@
       <c r="C67" s="15"/>
       <c r="D67" s="36"/>
       <c r="E67" s="36"/>
-      <c r="F67" s="132"/>
-      <c r="G67" s="133"/>
+      <c r="F67" s="119"/>
+      <c r="G67" s="120"/>
       <c r="H67" s="20"/>
       <c r="I67" s="102"/>
       <c r="J67" s="24"/>
@@ -2964,8 +2977,8 @@
       <c r="C68" s="16"/>
       <c r="D68" s="21"/>
       <c r="E68" s="21"/>
-      <c r="F68" s="135"/>
-      <c r="G68" s="136"/>
+      <c r="F68" s="122"/>
+      <c r="G68" s="123"/>
       <c r="H68" s="21"/>
       <c r="I68" s="103"/>
       <c r="J68" s="25"/>
@@ -3258,46 +3271,46 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="18" x14ac:dyDescent="0.2">
-      <c r="A1" s="117" t="s">
+      <c r="A1" s="137" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="117" t="s">
+      <c r="B1" s="137" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="117" t="s">
+      <c r="C1" s="137" t="s">
         <v>27</v>
       </c>
-      <c r="D1" s="117" t="s">
+      <c r="D1" s="137" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="117"/>
-      <c r="F1" s="119" t="s">
+      <c r="E1" s="137"/>
+      <c r="F1" s="139" t="s">
         <v>106</v>
       </c>
-      <c r="G1" s="117" t="s">
+      <c r="G1" s="137" t="s">
         <v>4</v>
       </c>
-      <c r="H1" s="115" t="s">
+      <c r="H1" s="135" t="s">
         <v>2</v>
       </c>
-      <c r="I1" s="108" t="s">
+      <c r="I1" s="128" t="s">
         <v>56</v>
       </c>
-      <c r="J1" s="108"/>
+      <c r="J1" s="128"/>
     </row>
     <row r="2" spans="1:10" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="118"/>
-      <c r="B2" s="118"/>
-      <c r="C2" s="118"/>
+      <c r="A2" s="138"/>
+      <c r="B2" s="138"/>
+      <c r="C2" s="138"/>
       <c r="D2" s="73" t="s">
         <v>6</v>
       </c>
       <c r="E2" s="19" t="s">
         <v>7</v>
       </c>
-      <c r="F2" s="120"/>
-      <c r="G2" s="118"/>
-      <c r="H2" s="116"/>
+      <c r="F2" s="140"/>
+      <c r="G2" s="138"/>
+      <c r="H2" s="136"/>
       <c r="I2" s="17" t="s">
         <v>6</v>
       </c>

--- a/RENCANA BON VOYAGE.xlsx
+++ b/RENCANA BON VOYAGE.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Mapan\progress\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0F953EED-34F1-46B2-A372-8B77BFF91B56}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8697983D-D989-445F-8041-056D3440D254}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -18,7 +18,7 @@
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">done!$A$1:$I$2</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">progres!$A$1:$I$40</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">progres!$A$1:$I$37</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
 </workbook>
@@ -621,7 +621,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="142">
+  <cellXfs count="143">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -990,6 +990,9 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" indent="2"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1029,7 +1032,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="15" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" indent="2"/>
     </xf>
   </cellXfs>
@@ -1120,13 +1123,13 @@
     <xdr:from>
       <xdr:col>14</xdr:col>
       <xdr:colOff>189939</xdr:colOff>
-      <xdr:row>38</xdr:row>
+      <xdr:row>35</xdr:row>
       <xdr:rowOff>89245</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>14</xdr:col>
       <xdr:colOff>190299</xdr:colOff>
-      <xdr:row>38</xdr:row>
+      <xdr:row>35</xdr:row>
       <xdr:rowOff>89605</xdr:rowOff>
     </xdr:to>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
@@ -1185,7 +1188,7 @@
     <xdr:from>
       <xdr:col>14</xdr:col>
       <xdr:colOff>189939</xdr:colOff>
-      <xdr:row>41</xdr:row>
+      <xdr:row>38</xdr:row>
       <xdr:rowOff>89245</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="360" cy="360"/>
@@ -1734,10 +1737,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:J84"/>
+  <dimension ref="A1:J81"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="70" zoomScaleNormal="70" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="G39" sqref="G39"/>
+    <sheetView tabSelected="1" topLeftCell="A13" zoomScale="70" zoomScaleNormal="70" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="F30" sqref="F30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1756,46 +1759,46 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="15" x14ac:dyDescent="0.25">
-      <c r="A1" s="128" t="s">
+      <c r="A1" s="129" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="128" t="s">
+      <c r="B1" s="129" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="128" t="s">
+      <c r="C1" s="129" t="s">
         <v>27</v>
       </c>
-      <c r="D1" s="134" t="s">
+      <c r="D1" s="135" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="134"/>
-      <c r="F1" s="132" t="s">
+      <c r="E1" s="135"/>
+      <c r="F1" s="133" t="s">
         <v>8</v>
       </c>
-      <c r="G1" s="130" t="s">
+      <c r="G1" s="131" t="s">
         <v>4</v>
       </c>
-      <c r="H1" s="128" t="s">
+      <c r="H1" s="129" t="s">
         <v>2</v>
       </c>
-      <c r="I1" s="128" t="s">
+      <c r="I1" s="129" t="s">
         <v>56</v>
       </c>
-      <c r="J1" s="128"/>
+      <c r="J1" s="129"/>
     </row>
     <row r="2" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="129"/>
-      <c r="B2" s="129"/>
-      <c r="C2" s="129"/>
+      <c r="A2" s="130"/>
+      <c r="B2" s="130"/>
+      <c r="C2" s="130"/>
       <c r="D2" s="17" t="s">
         <v>6</v>
       </c>
       <c r="E2" s="17" t="s">
         <v>7</v>
       </c>
-      <c r="F2" s="133"/>
-      <c r="G2" s="131"/>
-      <c r="H2" s="129"/>
+      <c r="F2" s="134"/>
+      <c r="G2" s="132"/>
+      <c r="H2" s="130"/>
       <c r="I2" s="17" t="s">
         <v>6</v>
       </c>
@@ -2220,7 +2223,7 @@
       <c r="D25" s="36"/>
       <c r="E25" s="36"/>
       <c r="F25" s="110"/>
-      <c r="G25" s="141" t="s">
+      <c r="G25" s="128" t="s">
         <v>149</v>
       </c>
       <c r="H25" s="20"/>
@@ -2411,57 +2414,55 @@
       <c r="A36" s="5">
         <v>12</v>
       </c>
-      <c r="B36" s="101" t="s">
+      <c r="B36" s="100" t="s">
         <v>12</v>
       </c>
-      <c r="C36" s="10">
-        <v>25</v>
-      </c>
-      <c r="D36" s="43">
-        <v>44237</v>
-      </c>
-      <c r="E36" s="14" t="s">
-        <v>131</v>
-      </c>
-      <c r="F36" s="93">
-        <v>44501</v>
+      <c r="C36" s="4">
+        <v>26</v>
+      </c>
+      <c r="D36" s="14" t="s">
+        <v>39</v>
+      </c>
+      <c r="E36" s="46">
+        <v>44614</v>
+      </c>
+      <c r="F36" s="88" t="s">
+        <v>61</v>
       </c>
       <c r="G36" s="66" t="s">
-        <v>35</v>
-      </c>
-      <c r="H36" s="23" t="s">
+        <v>60</v>
+      </c>
+      <c r="H36" s="5" t="s">
         <v>69</v>
       </c>
-      <c r="I36" s="53" t="s">
-        <v>53</v>
-      </c>
-      <c r="J36" s="53" t="s">
-        <v>53</v>
-      </c>
+      <c r="I36" s="54">
+        <v>44440</v>
+      </c>
+      <c r="J36" s="26"/>
     </row>
     <row r="37" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A37" s="7"/>
-      <c r="B37" s="102"/>
-      <c r="C37" s="15"/>
+      <c r="B37" s="27"/>
+      <c r="C37" s="11"/>
       <c r="D37" s="7"/>
-      <c r="E37" s="7"/>
+      <c r="E37" s="47"/>
       <c r="F37" s="29"/>
       <c r="G37" s="64">
-        <v>82143316439</v>
-      </c>
-      <c r="H37" s="20"/>
+        <v>85732094240</v>
+      </c>
+      <c r="H37" s="7"/>
       <c r="I37" s="27"/>
       <c r="J37" s="24"/>
     </row>
     <row r="38" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A38" s="9"/>
-      <c r="B38" s="103"/>
-      <c r="C38" s="16"/>
+      <c r="B38" s="52"/>
+      <c r="C38" s="8"/>
       <c r="D38" s="9"/>
       <c r="E38" s="9"/>
       <c r="F38" s="30"/>
       <c r="G38" s="65"/>
-      <c r="H38" s="21"/>
+      <c r="H38" s="9"/>
       <c r="I38" s="52"/>
       <c r="J38" s="25"/>
     </row>
@@ -2473,26 +2474,24 @@
         <v>12</v>
       </c>
       <c r="C39" s="4">
-        <v>26</v>
-      </c>
-      <c r="D39" s="14" t="s">
-        <v>39</v>
-      </c>
-      <c r="E39" s="46">
-        <v>44614</v>
-      </c>
-      <c r="F39" s="88" t="s">
-        <v>61</v>
+        <v>27</v>
+      </c>
+      <c r="D39" s="23" t="s">
+        <v>137</v>
+      </c>
+      <c r="E39" s="97" t="s">
+        <v>140</v>
+      </c>
+      <c r="F39" s="105" t="s">
+        <v>139</v>
       </c>
       <c r="G39" s="66" t="s">
-        <v>60</v>
-      </c>
-      <c r="H39" s="5" t="s">
-        <v>69</v>
-      </c>
-      <c r="I39" s="54">
-        <v>44440</v>
-      </c>
+        <v>132</v>
+      </c>
+      <c r="H39" s="104" t="s">
+        <v>89</v>
+      </c>
+      <c r="I39" s="78"/>
       <c r="J39" s="26"/>
     </row>
     <row r="40" spans="1:10" x14ac:dyDescent="0.2">
@@ -2502,8 +2501,8 @@
       <c r="D40" s="7"/>
       <c r="E40" s="47"/>
       <c r="F40" s="29"/>
-      <c r="G40" s="64">
-        <v>85732094240</v>
+      <c r="G40" s="72" t="s">
+        <v>133</v>
       </c>
       <c r="H40" s="7"/>
       <c r="I40" s="27"/>
@@ -2526,38 +2525,40 @@
         <v>14</v>
       </c>
       <c r="B42" s="100" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="C42" s="4">
-        <v>27</v>
-      </c>
-      <c r="D42" s="23" t="s">
-        <v>137</v>
-      </c>
-      <c r="E42" s="97" t="s">
-        <v>140</v>
-      </c>
-      <c r="F42" s="105" t="s">
-        <v>139</v>
-      </c>
-      <c r="G42" s="66" t="s">
-        <v>132</v>
-      </c>
-      <c r="H42" s="104" t="s">
-        <v>89</v>
-      </c>
-      <c r="I42" s="78"/>
+        <v>33</v>
+      </c>
+      <c r="D42" s="14" t="s">
+        <v>83</v>
+      </c>
+      <c r="E42" s="76" t="s">
+        <v>131</v>
+      </c>
+      <c r="F42" s="94">
+        <v>44510</v>
+      </c>
+      <c r="G42" s="67" t="s">
+        <v>46</v>
+      </c>
+      <c r="H42" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="I42" s="54">
+        <v>44449</v>
+      </c>
       <c r="J42" s="26"/>
     </row>
     <row r="43" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A43" s="7"/>
       <c r="B43" s="27"/>
       <c r="C43" s="11"/>
-      <c r="D43" s="7"/>
-      <c r="E43" s="47"/>
-      <c r="F43" s="29"/>
-      <c r="G43" s="72" t="s">
-        <v>133</v>
+      <c r="D43" s="44"/>
+      <c r="E43" s="44"/>
+      <c r="F43" s="32"/>
+      <c r="G43" s="68">
+        <v>81331430509</v>
       </c>
       <c r="H43" s="7"/>
       <c r="I43" s="27"/>
@@ -2566,11 +2567,11 @@
     <row r="44" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A44" s="9"/>
       <c r="B44" s="52"/>
-      <c r="C44" s="8"/>
+      <c r="C44" s="12"/>
       <c r="D44" s="9"/>
       <c r="E44" s="9"/>
-      <c r="F44" s="30"/>
-      <c r="G44" s="65"/>
+      <c r="F44" s="45"/>
+      <c r="G44" s="69"/>
       <c r="H44" s="9"/>
       <c r="I44" s="52"/>
       <c r="J44" s="25"/>
@@ -2583,208 +2584,208 @@
         <v>14</v>
       </c>
       <c r="C45" s="4">
-        <v>33</v>
-      </c>
-      <c r="D45" s="14" t="s">
-        <v>83</v>
-      </c>
-      <c r="E45" s="76" t="s">
-        <v>131</v>
-      </c>
-      <c r="F45" s="94">
-        <v>44510</v>
-      </c>
-      <c r="G45" s="67" t="s">
-        <v>46</v>
-      </c>
-      <c r="H45" s="5" t="s">
-        <v>77</v>
-      </c>
-      <c r="I45" s="54">
-        <v>44449</v>
-      </c>
-      <c r="J45" s="26"/>
+        <v>34</v>
+      </c>
+      <c r="D45" s="7"/>
+      <c r="E45" s="107" t="s">
+        <v>138</v>
+      </c>
+      <c r="F45" s="87" t="s">
+        <v>135</v>
+      </c>
+      <c r="G45" s="68"/>
+      <c r="H45" s="7"/>
+      <c r="I45" s="27"/>
+      <c r="J45" s="24"/>
     </row>
     <row r="46" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A46" s="7"/>
       <c r="B46" s="27"/>
       <c r="C46" s="11"/>
-      <c r="D46" s="44"/>
-      <c r="E46" s="44"/>
+      <c r="D46" s="7"/>
+      <c r="E46" s="7"/>
       <c r="F46" s="32"/>
-      <c r="G46" s="68">
-        <v>81331430509</v>
-      </c>
+      <c r="G46" s="68"/>
       <c r="H46" s="7"/>
       <c r="I46" s="27"/>
       <c r="J46" s="24"/>
     </row>
     <row r="47" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A47" s="9"/>
-      <c r="B47" s="52"/>
-      <c r="C47" s="12"/>
-      <c r="D47" s="9"/>
-      <c r="E47" s="9"/>
-      <c r="F47" s="45"/>
-      <c r="G47" s="69"/>
-      <c r="H47" s="9"/>
-      <c r="I47" s="52"/>
-      <c r="J47" s="25"/>
+      <c r="B47" s="27"/>
+      <c r="C47" s="11"/>
+      <c r="D47" s="7"/>
+      <c r="E47" s="7"/>
+      <c r="F47" s="32"/>
+      <c r="G47" s="68"/>
+      <c r="H47" s="7"/>
+      <c r="I47" s="27"/>
+      <c r="J47" s="24"/>
     </row>
     <row r="48" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A48" s="5">
         <v>16</v>
       </c>
       <c r="B48" s="100" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C48" s="4">
-        <v>34</v>
-      </c>
-      <c r="D48" s="7"/>
-      <c r="E48" s="107" t="s">
-        <v>138</v>
-      </c>
-      <c r="F48" s="87" t="s">
-        <v>135</v>
-      </c>
-      <c r="G48" s="68"/>
-      <c r="H48" s="7"/>
-      <c r="I48" s="27"/>
-      <c r="J48" s="24"/>
+        <v>28</v>
+      </c>
+      <c r="D48" s="14" t="s">
+        <v>40</v>
+      </c>
+      <c r="E48" s="75" t="s">
+        <v>95</v>
+      </c>
+      <c r="F48" s="81" t="s">
+        <v>42</v>
+      </c>
+      <c r="G48" s="67" t="s">
+        <v>41</v>
+      </c>
+      <c r="H48" s="5" t="s">
+        <v>79</v>
+      </c>
+      <c r="I48" s="54">
+        <v>44440</v>
+      </c>
+      <c r="J48" s="26"/>
     </row>
     <row r="49" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A49" s="7"/>
       <c r="B49" s="27"/>
       <c r="C49" s="11"/>
-      <c r="D49" s="7"/>
-      <c r="E49" s="7"/>
+      <c r="D49" s="44"/>
+      <c r="E49" s="44"/>
       <c r="F49" s="32"/>
-      <c r="G49" s="68"/>
+      <c r="G49" s="68">
+        <v>85649115380</v>
+      </c>
       <c r="H49" s="7"/>
       <c r="I49" s="27"/>
       <c r="J49" s="24"/>
     </row>
     <row r="50" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A50" s="9"/>
-      <c r="B50" s="27"/>
-      <c r="C50" s="11"/>
-      <c r="D50" s="7"/>
-      <c r="E50" s="7"/>
-      <c r="F50" s="32"/>
-      <c r="G50" s="68"/>
-      <c r="H50" s="7"/>
-      <c r="I50" s="27"/>
-      <c r="J50" s="24"/>
-    </row>
-    <row r="51" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="B50" s="52"/>
+      <c r="C50" s="12"/>
+      <c r="D50" s="9"/>
+      <c r="E50" s="9"/>
+      <c r="F50" s="45"/>
+      <c r="G50" s="69"/>
+      <c r="H50" s="9"/>
+      <c r="I50" s="52"/>
+      <c r="J50" s="25"/>
+    </row>
+    <row r="51" spans="1:10" s="118" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A51" s="5">
         <v>17</v>
       </c>
-      <c r="B51" s="100" t="s">
+      <c r="B51" s="101" t="s">
         <v>15</v>
       </c>
-      <c r="C51" s="4">
-        <v>28</v>
-      </c>
-      <c r="D51" s="14" t="s">
-        <v>40</v>
-      </c>
-      <c r="E51" s="75" t="s">
-        <v>95</v>
-      </c>
-      <c r="F51" s="81" t="s">
-        <v>42</v>
-      </c>
-      <c r="G51" s="67" t="s">
-        <v>41</v>
-      </c>
-      <c r="H51" s="5" t="s">
-        <v>79</v>
-      </c>
-      <c r="I51" s="54">
-        <v>44440</v>
-      </c>
-      <c r="J51" s="26"/>
-    </row>
-    <row r="52" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="C51" s="10">
+        <v>29</v>
+      </c>
+      <c r="D51" s="23"/>
+      <c r="E51" s="74" t="s">
+        <v>145</v>
+      </c>
+      <c r="F51" s="125" t="s">
+        <v>144</v>
+      </c>
+      <c r="G51" s="116"/>
+      <c r="H51" s="23"/>
+      <c r="I51" s="78"/>
+      <c r="J51" s="117"/>
+    </row>
+    <row r="52" spans="1:10" s="118" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A52" s="7"/>
-      <c r="B52" s="27"/>
-      <c r="C52" s="11"/>
-      <c r="D52" s="44"/>
-      <c r="E52" s="44"/>
-      <c r="F52" s="32"/>
-      <c r="G52" s="68">
-        <v>85649115380</v>
-      </c>
-      <c r="H52" s="7"/>
-      <c r="I52" s="27"/>
-      <c r="J52" s="24"/>
-    </row>
-    <row r="53" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="B52" s="102"/>
+      <c r="C52" s="15"/>
+      <c r="D52" s="36"/>
+      <c r="E52" s="36"/>
+      <c r="F52" s="119"/>
+      <c r="G52" s="120"/>
+      <c r="H52" s="20"/>
+      <c r="I52" s="102"/>
+      <c r="J52" s="121"/>
+    </row>
+    <row r="53" spans="1:10" s="118" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A53" s="9"/>
-      <c r="B53" s="52"/>
-      <c r="C53" s="12"/>
-      <c r="D53" s="9"/>
-      <c r="E53" s="9"/>
-      <c r="F53" s="45"/>
-      <c r="G53" s="69"/>
-      <c r="H53" s="9"/>
-      <c r="I53" s="52"/>
-      <c r="J53" s="25"/>
-    </row>
-    <row r="54" spans="1:10" s="118" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B53" s="103"/>
+      <c r="C53" s="16"/>
+      <c r="D53" s="21"/>
+      <c r="E53" s="21"/>
+      <c r="F53" s="122"/>
+      <c r="G53" s="123"/>
+      <c r="H53" s="21"/>
+      <c r="I53" s="103"/>
+      <c r="J53" s="124"/>
+    </row>
+    <row r="54" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A54" s="5">
         <v>18</v>
       </c>
-      <c r="B54" s="101" t="s">
-        <v>15</v>
-      </c>
-      <c r="C54" s="10">
-        <v>29</v>
-      </c>
-      <c r="D54" s="23"/>
-      <c r="E54" s="74" t="s">
-        <v>145</v>
-      </c>
-      <c r="F54" s="125" t="s">
-        <v>144</v>
-      </c>
-      <c r="G54" s="116"/>
-      <c r="H54" s="23"/>
-      <c r="I54" s="78"/>
-      <c r="J54" s="117"/>
-    </row>
-    <row r="55" spans="1:10" s="118" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B54" s="100" t="s">
+        <v>16</v>
+      </c>
+      <c r="C54" s="4">
+        <v>40</v>
+      </c>
+      <c r="D54" s="43">
+        <v>44453</v>
+      </c>
+      <c r="E54" s="75" t="s">
+        <v>95</v>
+      </c>
+      <c r="F54" s="81" t="s">
+        <v>42</v>
+      </c>
+      <c r="G54" s="67" t="s">
+        <v>48</v>
+      </c>
+      <c r="H54" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="I54" s="71" t="s">
+        <v>98</v>
+      </c>
+      <c r="J54" s="26"/>
+    </row>
+    <row r="55" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A55" s="7"/>
-      <c r="B55" s="102"/>
-      <c r="C55" s="15"/>
-      <c r="D55" s="36"/>
-      <c r="E55" s="36"/>
-      <c r="F55" s="119"/>
-      <c r="G55" s="120"/>
-      <c r="H55" s="20"/>
-      <c r="I55" s="102"/>
-      <c r="J55" s="121"/>
-    </row>
-    <row r="56" spans="1:10" s="118" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B55" s="27"/>
+      <c r="C55" s="11"/>
+      <c r="D55" s="44"/>
+      <c r="E55" s="44"/>
+      <c r="F55" s="32"/>
+      <c r="G55" s="68">
+        <v>81359524067</v>
+      </c>
+      <c r="H55" s="7"/>
+      <c r="I55" s="27"/>
+      <c r="J55" s="24"/>
+    </row>
+    <row r="56" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A56" s="9"/>
-      <c r="B56" s="103"/>
-      <c r="C56" s="16"/>
-      <c r="D56" s="21"/>
-      <c r="E56" s="21"/>
-      <c r="F56" s="122"/>
-      <c r="G56" s="123"/>
-      <c r="H56" s="21"/>
-      <c r="I56" s="103"/>
-      <c r="J56" s="124"/>
+      <c r="B56" s="52"/>
+      <c r="C56" s="12"/>
+      <c r="D56" s="9"/>
+      <c r="E56" s="9"/>
+      <c r="F56" s="45"/>
+      <c r="G56" s="69"/>
+      <c r="H56" s="9"/>
+      <c r="I56" s="52"/>
+      <c r="J56" s="25"/>
     </row>
     <row r="57" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A57" s="5">
         <v>19</v>
       </c>
       <c r="B57" s="100" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="C57" s="4">
         <v>40</v>
@@ -2799,10 +2800,10 @@
         <v>42</v>
       </c>
       <c r="G57" s="67" t="s">
-        <v>48</v>
+        <v>25</v>
       </c>
       <c r="H57" s="5" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="I57" s="71" t="s">
         <v>98</v>
@@ -2817,7 +2818,7 @@
       <c r="E58" s="44"/>
       <c r="F58" s="32"/>
       <c r="G58" s="68">
-        <v>81359524067</v>
+        <v>82319844744</v>
       </c>
       <c r="H58" s="7"/>
       <c r="I58" s="27"/>
@@ -2840,55 +2841,45 @@
         <v>20</v>
       </c>
       <c r="B60" s="100" t="s">
-        <v>18</v>
-      </c>
-      <c r="C60" s="4">
-        <v>40</v>
-      </c>
-      <c r="D60" s="43">
-        <v>44453</v>
-      </c>
-      <c r="E60" s="75" t="s">
-        <v>95</v>
-      </c>
-      <c r="F60" s="81" t="s">
-        <v>42</v>
-      </c>
-      <c r="G60" s="67" t="s">
-        <v>25</v>
-      </c>
-      <c r="H60" s="5" t="s">
-        <v>82</v>
-      </c>
-      <c r="I60" s="71" t="s">
-        <v>98</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="C60" s="10">
+        <v>41</v>
+      </c>
+      <c r="D60" s="126"/>
+      <c r="E60" s="74" t="s">
+        <v>147</v>
+      </c>
+      <c r="F60" s="115" t="s">
+        <v>146</v>
+      </c>
+      <c r="G60" s="116"/>
+      <c r="H60" s="23"/>
+      <c r="I60" s="127"/>
       <c r="J60" s="26"/>
     </row>
     <row r="61" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A61" s="7"/>
       <c r="B61" s="27"/>
-      <c r="C61" s="11"/>
-      <c r="D61" s="44"/>
-      <c r="E61" s="44"/>
-      <c r="F61" s="32"/>
-      <c r="G61" s="68">
-        <v>82319844744</v>
-      </c>
-      <c r="H61" s="7"/>
-      <c r="I61" s="27"/>
+      <c r="C61" s="15"/>
+      <c r="D61" s="36"/>
+      <c r="E61" s="36"/>
+      <c r="F61" s="119"/>
+      <c r="G61" s="120"/>
+      <c r="H61" s="20"/>
+      <c r="I61" s="102"/>
       <c r="J61" s="24"/>
     </row>
     <row r="62" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A62" s="9"/>
       <c r="B62" s="52"/>
-      <c r="C62" s="12"/>
-      <c r="D62" s="9"/>
-      <c r="E62" s="9"/>
-      <c r="F62" s="45"/>
-      <c r="G62" s="69"/>
-      <c r="H62" s="9"/>
-      <c r="I62" s="52"/>
+      <c r="C62" s="16"/>
+      <c r="D62" s="21"/>
+      <c r="E62" s="21"/>
+      <c r="F62" s="122"/>
+      <c r="G62" s="123"/>
+      <c r="H62" s="21"/>
+      <c r="I62" s="103"/>
       <c r="J62" s="25"/>
     </row>
     <row r="63" spans="1:10" x14ac:dyDescent="0.2">
@@ -2896,7 +2887,7 @@
         <v>21</v>
       </c>
       <c r="B63" s="100" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="C63" s="10">
         <v>41</v>
@@ -2941,198 +2932,204 @@
       <c r="A66" s="5">
         <v>22</v>
       </c>
-      <c r="B66" s="100" t="s">
-        <v>18</v>
-      </c>
-      <c r="C66" s="10">
-        <v>41</v>
-      </c>
-      <c r="D66" s="126"/>
-      <c r="E66" s="74" t="s">
-        <v>147</v>
-      </c>
-      <c r="F66" s="115" t="s">
-        <v>146</v>
-      </c>
-      <c r="G66" s="116"/>
-      <c r="H66" s="23"/>
-      <c r="I66" s="127"/>
+      <c r="B66" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="C66" s="4">
+        <v>5</v>
+      </c>
+      <c r="D66" s="43" t="s">
+        <v>108</v>
+      </c>
+      <c r="E66" s="22">
+        <v>44237</v>
+      </c>
+      <c r="F66" s="87">
+        <v>44617</v>
+      </c>
+      <c r="G66" s="67" t="s">
+        <v>105</v>
+      </c>
+      <c r="H66" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="I66" s="106" t="s">
+        <v>134</v>
+      </c>
       <c r="J66" s="26"/>
     </row>
     <row r="67" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A67" s="7"/>
-      <c r="B67" s="27"/>
-      <c r="C67" s="15"/>
-      <c r="D67" s="36"/>
-      <c r="E67" s="36"/>
-      <c r="F67" s="119"/>
-      <c r="G67" s="120"/>
-      <c r="H67" s="20"/>
-      <c r="I67" s="102"/>
+      <c r="B67" s="6"/>
+      <c r="C67" s="11"/>
+      <c r="D67" s="44"/>
+      <c r="E67" s="44"/>
+      <c r="F67" s="32"/>
+      <c r="G67" s="68">
+        <v>89603906796</v>
+      </c>
+      <c r="H67" s="7"/>
+      <c r="I67" s="27"/>
       <c r="J67" s="24"/>
     </row>
     <row r="68" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A68" s="9"/>
-      <c r="B68" s="52"/>
-      <c r="C68" s="16"/>
-      <c r="D68" s="21"/>
-      <c r="E68" s="21"/>
-      <c r="F68" s="122"/>
-      <c r="G68" s="123"/>
-      <c r="H68" s="21"/>
-      <c r="I68" s="103"/>
+      <c r="B68" s="8"/>
+      <c r="C68" s="12"/>
+      <c r="D68" s="9"/>
+      <c r="E68" s="9"/>
+      <c r="F68" s="45"/>
+      <c r="G68" s="69"/>
+      <c r="H68" s="9"/>
+      <c r="I68" s="52"/>
       <c r="J68" s="25"/>
     </row>
-    <row r="69" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A69" s="5">
-        <v>23</v>
-      </c>
-      <c r="B69" s="3" t="s">
-        <v>97</v>
-      </c>
-      <c r="C69" s="4">
-        <v>5</v>
-      </c>
-      <c r="D69" s="43" t="s">
-        <v>108</v>
-      </c>
-      <c r="E69" s="22">
-        <v>44237</v>
-      </c>
-      <c r="F69" s="87">
-        <v>44617</v>
-      </c>
-      <c r="G69" s="67" t="s">
-        <v>105</v>
-      </c>
-      <c r="H69" s="5" t="s">
-        <v>104</v>
-      </c>
-      <c r="I69" s="106" t="s">
-        <v>134</v>
-      </c>
-      <c r="J69" s="26"/>
-    </row>
-    <row r="70" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A70" s="7"/>
-      <c r="B70" s="6"/>
-      <c r="C70" s="11"/>
-      <c r="D70" s="44"/>
-      <c r="E70" s="44"/>
-      <c r="F70" s="32"/>
-      <c r="G70" s="68">
-        <v>89603906796</v>
-      </c>
-      <c r="H70" s="7"/>
-      <c r="I70" s="27"/>
-      <c r="J70" s="24"/>
-    </row>
-    <row r="71" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A71" s="9"/>
-      <c r="B71" s="8"/>
-      <c r="C71" s="12"/>
-      <c r="D71" s="9"/>
-      <c r="E71" s="9"/>
-      <c r="F71" s="45"/>
-      <c r="G71" s="69"/>
-      <c r="H71" s="9"/>
-      <c r="I71" s="52"/>
-      <c r="J71" s="25"/>
+    <row r="70" spans="1:10" s="84" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A70" s="2"/>
+      <c r="B70" s="85" t="s">
+        <v>117</v>
+      </c>
+      <c r="C70" s="86"/>
+      <c r="D70" s="86"/>
+      <c r="E70" s="2"/>
+      <c r="F70" s="83"/>
+      <c r="G70" s="92" t="s">
+        <v>125</v>
+      </c>
+      <c r="H70" s="99"/>
+      <c r="I70" s="83"/>
+      <c r="J70" s="83"/>
+    </row>
+    <row r="71" spans="1:10" s="84" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A71" s="2"/>
+      <c r="B71" s="82" t="s">
+        <v>113</v>
+      </c>
+      <c r="C71" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="D71" s="2"/>
+      <c r="E71" s="2"/>
+      <c r="F71" s="83"/>
+      <c r="G71" s="82" t="s">
+        <v>109</v>
+      </c>
+      <c r="H71" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="I71" s="83"/>
+      <c r="J71" s="83"/>
+    </row>
+    <row r="72" spans="1:10" s="84" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A72" s="2"/>
+      <c r="B72" s="82" t="s">
+        <v>114</v>
+      </c>
+      <c r="C72" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="D72" s="2"/>
+      <c r="E72" s="2"/>
+      <c r="F72" s="83"/>
+      <c r="G72" s="82" t="s">
+        <v>110</v>
+      </c>
+      <c r="H72" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="I72" s="83"/>
+      <c r="J72" s="83"/>
     </row>
     <row r="73" spans="1:10" s="84" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A73" s="2"/>
-      <c r="B73" s="85" t="s">
-        <v>117</v>
-      </c>
-      <c r="C73" s="86"/>
-      <c r="D73" s="86"/>
+      <c r="B73" s="82" t="s">
+        <v>115</v>
+      </c>
+      <c r="C73" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="D73" s="2"/>
       <c r="E73" s="2"/>
       <c r="F73" s="83"/>
-      <c r="G73" s="92" t="s">
-        <v>125</v>
-      </c>
-      <c r="H73" s="99"/>
+      <c r="G73" s="82" t="s">
+        <v>111</v>
+      </c>
+      <c r="H73" s="2" t="s">
+        <v>77</v>
+      </c>
       <c r="I73" s="83"/>
       <c r="J73" s="83"/>
     </row>
     <row r="74" spans="1:10" s="84" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A74" s="2"/>
       <c r="B74" s="82" t="s">
-        <v>113</v>
+        <v>118</v>
       </c>
       <c r="C74" s="2" t="s">
-        <v>112</v>
+        <v>116</v>
       </c>
       <c r="D74" s="2"/>
       <c r="E74" s="2"/>
       <c r="F74" s="83"/>
-      <c r="G74" s="82" t="s">
-        <v>109</v>
-      </c>
-      <c r="H74" s="2" t="s">
-        <v>75</v>
-      </c>
+      <c r="G74" s="82"/>
+      <c r="H74" s="2"/>
       <c r="I74" s="83"/>
       <c r="J74" s="83"/>
     </row>
     <row r="75" spans="1:10" s="84" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A75" s="2"/>
-      <c r="B75" s="82" t="s">
-        <v>114</v>
-      </c>
-      <c r="C75" s="2" t="s">
-        <v>75</v>
-      </c>
       <c r="D75" s="2"/>
       <c r="E75" s="2"/>
       <c r="F75" s="83"/>
-      <c r="G75" s="82" t="s">
-        <v>110</v>
-      </c>
-      <c r="H75" s="2" t="s">
-        <v>102</v>
-      </c>
+      <c r="G75" s="82"/>
+      <c r="H75" s="2"/>
       <c r="I75" s="83"/>
       <c r="J75" s="83"/>
     </row>
     <row r="76" spans="1:10" s="84" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A76" s="2"/>
-      <c r="B76" s="82" t="s">
-        <v>115</v>
-      </c>
-      <c r="C76" s="2" t="s">
-        <v>79</v>
-      </c>
+      <c r="B76" s="90" t="s">
+        <v>124</v>
+      </c>
+      <c r="C76" s="91"/>
       <c r="D76" s="2"/>
       <c r="E76" s="2"/>
       <c r="F76" s="83"/>
-      <c r="G76" s="82" t="s">
-        <v>111</v>
-      </c>
-      <c r="H76" s="2" t="s">
-        <v>77</v>
-      </c>
+      <c r="G76" s="95" t="s">
+        <v>128</v>
+      </c>
+      <c r="H76" s="98"/>
       <c r="I76" s="83"/>
       <c r="J76" s="83"/>
     </row>
     <row r="77" spans="1:10" s="84" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A77" s="2"/>
       <c r="B77" s="82" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="C77" s="2" t="s">
-        <v>116</v>
+        <v>123</v>
       </c>
       <c r="D77" s="2"/>
       <c r="E77" s="2"/>
       <c r="F77" s="83"/>
-      <c r="G77" s="82"/>
-      <c r="H77" s="2"/>
+      <c r="G77" s="82" t="s">
+        <v>126</v>
+      </c>
+      <c r="H77" s="2" t="s">
+        <v>127</v>
+      </c>
       <c r="I77" s="83"/>
       <c r="J77" s="83"/>
     </row>
     <row r="78" spans="1:10" s="84" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A78" s="2"/>
+      <c r="B78" s="82" t="s">
+        <v>120</v>
+      </c>
+      <c r="C78" s="2" t="s">
+        <v>102</v>
+      </c>
       <c r="D78" s="2"/>
       <c r="E78" s="2"/>
       <c r="F78" s="83"/>
@@ -3143,90 +3140,38 @@
     </row>
     <row r="79" spans="1:10" s="84" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A79" s="2"/>
-      <c r="B79" s="90" t="s">
-        <v>124</v>
-      </c>
-      <c r="C79" s="91"/>
+      <c r="B79" s="82" t="s">
+        <v>121</v>
+      </c>
+      <c r="C79" s="2" t="s">
+        <v>69</v>
+      </c>
       <c r="D79" s="2"/>
       <c r="E79" s="2"/>
       <c r="F79" s="83"/>
-      <c r="G79" s="95" t="s">
-        <v>128</v>
-      </c>
-      <c r="H79" s="98"/>
+      <c r="G79" s="82"/>
+      <c r="H79" s="2"/>
       <c r="I79" s="83"/>
       <c r="J79" s="83"/>
     </row>
     <row r="80" spans="1:10" s="84" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A80" s="2"/>
       <c r="B80" s="82" t="s">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="C80" s="2" t="s">
-        <v>123</v>
+        <v>104</v>
       </c>
       <c r="D80" s="2"/>
       <c r="E80" s="2"/>
       <c r="F80" s="83"/>
-      <c r="G80" s="82" t="s">
-        <v>126</v>
-      </c>
-      <c r="H80" s="2" t="s">
-        <v>127</v>
-      </c>
+      <c r="G80" s="82"/>
+      <c r="H80" s="2"/>
       <c r="I80" s="83"/>
       <c r="J80" s="83"/>
     </row>
-    <row r="81" spans="1:10" s="84" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A81" s="2"/>
-      <c r="B81" s="82" t="s">
-        <v>120</v>
-      </c>
-      <c r="C81" s="2" t="s">
-        <v>102</v>
-      </c>
-      <c r="D81" s="2"/>
-      <c r="E81" s="2"/>
-      <c r="F81" s="83"/>
-      <c r="G81" s="82"/>
-      <c r="H81" s="2"/>
-      <c r="I81" s="83"/>
-      <c r="J81" s="83"/>
-    </row>
-    <row r="82" spans="1:10" s="84" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A82" s="2"/>
-      <c r="B82" s="82" t="s">
-        <v>121</v>
-      </c>
-      <c r="C82" s="2" t="s">
-        <v>69</v>
-      </c>
-      <c r="D82" s="2"/>
-      <c r="E82" s="2"/>
-      <c r="F82" s="83"/>
-      <c r="G82" s="82"/>
-      <c r="H82" s="2"/>
-      <c r="I82" s="83"/>
-      <c r="J82" s="83"/>
-    </row>
-    <row r="83" spans="1:10" s="84" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A83" s="2"/>
-      <c r="B83" s="82" t="s">
-        <v>122</v>
-      </c>
-      <c r="C83" s="2" t="s">
-        <v>104</v>
-      </c>
-      <c r="D83" s="2"/>
-      <c r="E83" s="2"/>
-      <c r="F83" s="83"/>
-      <c r="G83" s="82"/>
-      <c r="H83" s="2"/>
-      <c r="I83" s="83"/>
-      <c r="J83" s="83"/>
-    </row>
-    <row r="84" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="B84" s="1" t="s">
+    <row r="81" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B81" s="1" t="s">
         <v>136</v>
       </c>
     </row>
@@ -3249,10 +3194,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{278BA1B3-1491-4141-B637-9082C53CD422}">
-  <dimension ref="A1:J41"/>
+  <dimension ref="A1:J44"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="F27" sqref="F27"/>
+      <selection activeCell="E21" sqref="E21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -3271,46 +3216,46 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="18" x14ac:dyDescent="0.2">
-      <c r="A1" s="137" t="s">
+      <c r="A1" s="138" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="137" t="s">
+      <c r="B1" s="138" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="137" t="s">
+      <c r="C1" s="138" t="s">
         <v>27</v>
       </c>
-      <c r="D1" s="137" t="s">
+      <c r="D1" s="138" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="137"/>
-      <c r="F1" s="139" t="s">
+      <c r="E1" s="138"/>
+      <c r="F1" s="140" t="s">
         <v>106</v>
       </c>
-      <c r="G1" s="137" t="s">
+      <c r="G1" s="138" t="s">
         <v>4</v>
       </c>
-      <c r="H1" s="135" t="s">
+      <c r="H1" s="136" t="s">
         <v>2</v>
       </c>
-      <c r="I1" s="128" t="s">
+      <c r="I1" s="129" t="s">
         <v>56</v>
       </c>
-      <c r="J1" s="128"/>
+      <c r="J1" s="129"/>
     </row>
     <row r="2" spans="1:10" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="138"/>
-      <c r="B2" s="138"/>
-      <c r="C2" s="138"/>
+      <c r="A2" s="139"/>
+      <c r="B2" s="139"/>
+      <c r="C2" s="139"/>
       <c r="D2" s="73" t="s">
         <v>6</v>
       </c>
       <c r="E2" s="19" t="s">
         <v>7</v>
       </c>
-      <c r="F2" s="140"/>
-      <c r="G2" s="138"/>
-      <c r="H2" s="136"/>
+      <c r="F2" s="141"/>
+      <c r="G2" s="139"/>
+      <c r="H2" s="137"/>
       <c r="I2" s="17" t="s">
         <v>6</v>
       </c>
@@ -4071,6 +4016,64 @@
       <c r="H41" s="9"/>
       <c r="I41" s="25"/>
       <c r="J41" s="25"/>
+    </row>
+    <row r="42" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A42" s="5">
+        <v>12</v>
+      </c>
+      <c r="B42" s="101" t="s">
+        <v>12</v>
+      </c>
+      <c r="C42" s="10">
+        <v>25</v>
+      </c>
+      <c r="D42" s="43">
+        <v>44237</v>
+      </c>
+      <c r="E42" s="14" t="s">
+        <v>131</v>
+      </c>
+      <c r="F42" s="142">
+        <v>44501</v>
+      </c>
+      <c r="G42" s="66" t="s">
+        <v>35</v>
+      </c>
+      <c r="H42" s="23" t="s">
+        <v>69</v>
+      </c>
+      <c r="I42" s="53" t="s">
+        <v>53</v>
+      </c>
+      <c r="J42" s="53" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="43" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A43" s="7"/>
+      <c r="B43" s="102"/>
+      <c r="C43" s="15"/>
+      <c r="D43" s="7"/>
+      <c r="E43" s="7"/>
+      <c r="F43" s="29"/>
+      <c r="G43" s="64">
+        <v>82143316439</v>
+      </c>
+      <c r="H43" s="20"/>
+      <c r="I43" s="27"/>
+      <c r="J43" s="24"/>
+    </row>
+    <row r="44" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A44" s="9"/>
+      <c r="B44" s="103"/>
+      <c r="C44" s="16"/>
+      <c r="D44" s="9"/>
+      <c r="E44" s="9"/>
+      <c r="F44" s="30"/>
+      <c r="G44" s="65"/>
+      <c r="H44" s="21"/>
+      <c r="I44" s="52"/>
+      <c r="J44" s="25"/>
     </row>
   </sheetData>
   <mergeCells count="8">

--- a/RENCANA BON VOYAGE.xlsx
+++ b/RENCANA BON VOYAGE.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="24430"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="24527"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Mapan\progress\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8697983D-D989-445F-8041-056D3440D254}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1D16DDA7-3D44-4267-B756-C470011583C3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="263" uniqueCount="150">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="269" uniqueCount="156">
   <si>
     <t>NO</t>
   </si>
@@ -475,6 +475,24 @@
   </si>
   <si>
     <t>081234803574</t>
+  </si>
+  <si>
+    <t>ALAMSYAH</t>
+  </si>
+  <si>
+    <t>081235477703</t>
+  </si>
+  <si>
+    <t>08 NOV</t>
+  </si>
+  <si>
+    <t>30 NOV</t>
+  </si>
+  <si>
+    <t>AFRIAN</t>
+  </si>
+  <si>
+    <t>082111437332</t>
   </si>
 </sst>
 </file>
@@ -621,7 +639,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="143">
+  <cellXfs count="144">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -941,9 +959,6 @@
     <xf numFmtId="15" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" indent="2"/>
     </xf>
-    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" indent="2"/>
-    </xf>
     <xf numFmtId="15" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" indent="2"/>
     </xf>
@@ -993,6 +1008,15 @@
     <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" indent="2"/>
     </xf>
+    <xf numFmtId="15" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="2"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1031,9 +1055,6 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="15" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" indent="2"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1739,8 +1760,8 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:J81"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" zoomScale="70" zoomScaleNormal="70" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="F30" sqref="F30"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="S37" sqref="S37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1759,46 +1780,46 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="15" x14ac:dyDescent="0.25">
-      <c r="A1" s="129" t="s">
+      <c r="A1" s="131" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="129" t="s">
+      <c r="B1" s="131" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="129" t="s">
+      <c r="C1" s="131" t="s">
         <v>27</v>
       </c>
-      <c r="D1" s="135" t="s">
+      <c r="D1" s="137" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="135"/>
-      <c r="F1" s="133" t="s">
+      <c r="E1" s="137"/>
+      <c r="F1" s="135" t="s">
         <v>8</v>
       </c>
-      <c r="G1" s="131" t="s">
+      <c r="G1" s="133" t="s">
         <v>4</v>
       </c>
-      <c r="H1" s="129" t="s">
+      <c r="H1" s="131" t="s">
         <v>2</v>
       </c>
-      <c r="I1" s="129" t="s">
+      <c r="I1" s="131" t="s">
         <v>56</v>
       </c>
-      <c r="J1" s="129"/>
+      <c r="J1" s="131"/>
     </row>
     <row r="2" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="130"/>
-      <c r="B2" s="130"/>
-      <c r="C2" s="130"/>
+      <c r="A2" s="132"/>
+      <c r="B2" s="132"/>
+      <c r="C2" s="132"/>
       <c r="D2" s="17" t="s">
         <v>6</v>
       </c>
       <c r="E2" s="17" t="s">
         <v>7</v>
       </c>
-      <c r="F2" s="134"/>
-      <c r="G2" s="132"/>
-      <c r="H2" s="130"/>
+      <c r="F2" s="136"/>
+      <c r="G2" s="134"/>
+      <c r="H2" s="132"/>
       <c r="I2" s="17" t="s">
         <v>6</v>
       </c>
@@ -2160,10 +2181,12 @@
       <c r="E21" s="97" t="s">
         <v>143</v>
       </c>
-      <c r="F21" s="114" t="s">
+      <c r="F21" s="113" t="s">
         <v>142</v>
       </c>
-      <c r="G21" s="109"/>
+      <c r="G21" s="109" t="s">
+        <v>150</v>
+      </c>
       <c r="H21" s="23"/>
       <c r="I21" s="78"/>
       <c r="J21" s="26"/>
@@ -2175,7 +2198,9 @@
       <c r="D22" s="36"/>
       <c r="E22" s="36"/>
       <c r="F22" s="110"/>
-      <c r="G22" s="111"/>
+      <c r="G22" s="127" t="s">
+        <v>151</v>
+      </c>
       <c r="H22" s="20"/>
       <c r="I22" s="102"/>
       <c r="J22" s="24"/>
@@ -2186,8 +2211,8 @@
       <c r="C23" s="12"/>
       <c r="D23" s="21"/>
       <c r="E23" s="21"/>
-      <c r="F23" s="112"/>
-      <c r="G23" s="113"/>
+      <c r="F23" s="111"/>
+      <c r="G23" s="112"/>
       <c r="H23" s="21"/>
       <c r="I23" s="103"/>
       <c r="J23" s="25"/>
@@ -2206,7 +2231,7 @@
       <c r="E24" s="97" t="s">
         <v>143</v>
       </c>
-      <c r="F24" s="114" t="s">
+      <c r="F24" s="113" t="s">
         <v>142</v>
       </c>
       <c r="G24" s="109" t="s">
@@ -2223,7 +2248,7 @@
       <c r="D25" s="36"/>
       <c r="E25" s="36"/>
       <c r="F25" s="110"/>
-      <c r="G25" s="128" t="s">
+      <c r="G25" s="127" t="s">
         <v>149</v>
       </c>
       <c r="H25" s="20"/>
@@ -2236,8 +2261,8 @@
       <c r="C26" s="12"/>
       <c r="D26" s="21"/>
       <c r="E26" s="21"/>
-      <c r="F26" s="112"/>
-      <c r="G26" s="113"/>
+      <c r="F26" s="111"/>
+      <c r="G26" s="112"/>
       <c r="H26" s="21"/>
       <c r="I26" s="103"/>
       <c r="J26" s="25"/>
@@ -2586,14 +2611,18 @@
       <c r="C45" s="4">
         <v>34</v>
       </c>
-      <c r="D45" s="7"/>
+      <c r="D45" s="107" t="s">
+        <v>152</v>
+      </c>
       <c r="E45" s="107" t="s">
         <v>138</v>
       </c>
       <c r="F45" s="87" t="s">
         <v>135</v>
       </c>
-      <c r="G45" s="68"/>
+      <c r="G45" s="68" t="s">
+        <v>154</v>
+      </c>
       <c r="H45" s="7"/>
       <c r="I45" s="27"/>
       <c r="J45" s="24"/>
@@ -2605,7 +2634,9 @@
       <c r="D46" s="7"/>
       <c r="E46" s="7"/>
       <c r="F46" s="32"/>
-      <c r="G46" s="68"/>
+      <c r="G46" s="130" t="s">
+        <v>155</v>
+      </c>
       <c r="H46" s="7"/>
       <c r="I46" s="27"/>
       <c r="J46" s="24"/>
@@ -2678,7 +2709,7 @@
       <c r="I50" s="52"/>
       <c r="J50" s="25"/>
     </row>
-    <row r="51" spans="1:10" s="118" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:10" s="117" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A51" s="5">
         <v>17</v>
       </c>
@@ -2688,41 +2719,43 @@
       <c r="C51" s="10">
         <v>29</v>
       </c>
-      <c r="D51" s="23"/>
+      <c r="D51" s="129" t="s">
+        <v>153</v>
+      </c>
       <c r="E51" s="74" t="s">
         <v>145</v>
       </c>
-      <c r="F51" s="125" t="s">
+      <c r="F51" s="124" t="s">
         <v>144</v>
       </c>
-      <c r="G51" s="116"/>
+      <c r="G51" s="115"/>
       <c r="H51" s="23"/>
       <c r="I51" s="78"/>
-      <c r="J51" s="117"/>
-    </row>
-    <row r="52" spans="1:10" s="118" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="J51" s="116"/>
+    </row>
+    <row r="52" spans="1:10" s="117" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A52" s="7"/>
       <c r="B52" s="102"/>
       <c r="C52" s="15"/>
       <c r="D52" s="36"/>
       <c r="E52" s="36"/>
-      <c r="F52" s="119"/>
-      <c r="G52" s="120"/>
+      <c r="F52" s="118"/>
+      <c r="G52" s="119"/>
       <c r="H52" s="20"/>
       <c r="I52" s="102"/>
-      <c r="J52" s="121"/>
-    </row>
-    <row r="53" spans="1:10" s="118" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="J52" s="120"/>
+    </row>
+    <row r="53" spans="1:10" s="117" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A53" s="9"/>
       <c r="B53" s="103"/>
       <c r="C53" s="16"/>
       <c r="D53" s="21"/>
       <c r="E53" s="21"/>
-      <c r="F53" s="122"/>
-      <c r="G53" s="123"/>
+      <c r="F53" s="121"/>
+      <c r="G53" s="122"/>
       <c r="H53" s="21"/>
       <c r="I53" s="103"/>
-      <c r="J53" s="124"/>
+      <c r="J53" s="123"/>
     </row>
     <row r="54" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A54" s="5">
@@ -2846,16 +2879,16 @@
       <c r="C60" s="10">
         <v>41</v>
       </c>
-      <c r="D60" s="126"/>
+      <c r="D60" s="125"/>
       <c r="E60" s="74" t="s">
         <v>147</v>
       </c>
-      <c r="F60" s="115" t="s">
+      <c r="F60" s="114" t="s">
         <v>146</v>
       </c>
-      <c r="G60" s="116"/>
+      <c r="G60" s="115"/>
       <c r="H60" s="23"/>
-      <c r="I60" s="127"/>
+      <c r="I60" s="126"/>
       <c r="J60" s="26"/>
     </row>
     <row r="61" spans="1:10" x14ac:dyDescent="0.2">
@@ -2864,8 +2897,8 @@
       <c r="C61" s="15"/>
       <c r="D61" s="36"/>
       <c r="E61" s="36"/>
-      <c r="F61" s="119"/>
-      <c r="G61" s="120"/>
+      <c r="F61" s="118"/>
+      <c r="G61" s="119"/>
       <c r="H61" s="20"/>
       <c r="I61" s="102"/>
       <c r="J61" s="24"/>
@@ -2876,8 +2909,8 @@
       <c r="C62" s="16"/>
       <c r="D62" s="21"/>
       <c r="E62" s="21"/>
-      <c r="F62" s="122"/>
-      <c r="G62" s="123"/>
+      <c r="F62" s="121"/>
+      <c r="G62" s="122"/>
       <c r="H62" s="21"/>
       <c r="I62" s="103"/>
       <c r="J62" s="25"/>
@@ -2892,16 +2925,16 @@
       <c r="C63" s="10">
         <v>41</v>
       </c>
-      <c r="D63" s="126"/>
+      <c r="D63" s="125"/>
       <c r="E63" s="74" t="s">
         <v>147</v>
       </c>
-      <c r="F63" s="115" t="s">
+      <c r="F63" s="114" t="s">
         <v>146</v>
       </c>
-      <c r="G63" s="116"/>
+      <c r="G63" s="115"/>
       <c r="H63" s="23"/>
-      <c r="I63" s="127"/>
+      <c r="I63" s="126"/>
       <c r="J63" s="26"/>
     </row>
     <row r="64" spans="1:10" x14ac:dyDescent="0.2">
@@ -2910,8 +2943,8 @@
       <c r="C64" s="15"/>
       <c r="D64" s="36"/>
       <c r="E64" s="36"/>
-      <c r="F64" s="119"/>
-      <c r="G64" s="120"/>
+      <c r="F64" s="118"/>
+      <c r="G64" s="119"/>
       <c r="H64" s="20"/>
       <c r="I64" s="102"/>
       <c r="J64" s="24"/>
@@ -2922,8 +2955,8 @@
       <c r="C65" s="16"/>
       <c r="D65" s="21"/>
       <c r="E65" s="21"/>
-      <c r="F65" s="122"/>
-      <c r="G65" s="123"/>
+      <c r="F65" s="121"/>
+      <c r="G65" s="122"/>
       <c r="H65" s="21"/>
       <c r="I65" s="103"/>
       <c r="J65" s="25"/>
@@ -3186,7 +3219,7 @@
     <mergeCell ref="C1:C2"/>
     <mergeCell ref="B1:B2"/>
   </mergeCells>
-  <pageMargins left="0.14000000000000001" right="0.12" top="0.62" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.14000000000000001" right="0.12" top="0.19" bottom="0.14000000000000001" header="0.12" footer="0.12"/>
   <pageSetup paperSize="9" scale="70" orientation="portrait" r:id="rId1"/>
   <drawing r:id="rId2"/>
 </worksheet>
@@ -3216,46 +3249,46 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="18" x14ac:dyDescent="0.2">
-      <c r="A1" s="138" t="s">
+      <c r="A1" s="140" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="138" t="s">
+      <c r="B1" s="140" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="138" t="s">
+      <c r="C1" s="140" t="s">
         <v>27</v>
       </c>
-      <c r="D1" s="138" t="s">
+      <c r="D1" s="140" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="138"/>
-      <c r="F1" s="140" t="s">
+      <c r="E1" s="140"/>
+      <c r="F1" s="142" t="s">
         <v>106</v>
       </c>
-      <c r="G1" s="138" t="s">
+      <c r="G1" s="140" t="s">
         <v>4</v>
       </c>
-      <c r="H1" s="136" t="s">
+      <c r="H1" s="138" t="s">
         <v>2</v>
       </c>
-      <c r="I1" s="129" t="s">
+      <c r="I1" s="131" t="s">
         <v>56</v>
       </c>
-      <c r="J1" s="129"/>
+      <c r="J1" s="131"/>
     </row>
     <row r="2" spans="1:10" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="139"/>
-      <c r="B2" s="139"/>
-      <c r="C2" s="139"/>
+      <c r="A2" s="141"/>
+      <c r="B2" s="141"/>
+      <c r="C2" s="141"/>
       <c r="D2" s="73" t="s">
         <v>6</v>
       </c>
       <c r="E2" s="19" t="s">
         <v>7</v>
       </c>
-      <c r="F2" s="141"/>
-      <c r="G2" s="139"/>
-      <c r="H2" s="137"/>
+      <c r="F2" s="143"/>
+      <c r="G2" s="141"/>
+      <c r="H2" s="139"/>
       <c r="I2" s="17" t="s">
         <v>6</v>
       </c>
@@ -4033,7 +4066,7 @@
       <c r="E42" s="14" t="s">
         <v>131</v>
       </c>
-      <c r="F42" s="142">
+      <c r="F42" s="128">
         <v>44501</v>
       </c>
       <c r="G42" s="66" t="s">

--- a/RENCANA BON VOYAGE.xlsx
+++ b/RENCANA BON VOYAGE.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Mapan\progress\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1D16DDA7-3D44-4267-B756-C470011583C3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{31270EB2-D515-475A-B52C-90EA08A06E01}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1761,7 +1761,7 @@
   <dimension ref="A1:J81"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="S37" sqref="S37"/>
+      <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -2501,7 +2501,7 @@
       <c r="C39" s="4">
         <v>27</v>
       </c>
-      <c r="D39" s="23" t="s">
+      <c r="D39" s="14" t="s">
         <v>137</v>
       </c>
       <c r="E39" s="97" t="s">

--- a/RENCANA BON VOYAGE.xlsx
+++ b/RENCANA BON VOYAGE.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Mapan\progress\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{31270EB2-D515-475A-B52C-90EA08A06E01}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{969EDC70-60C9-441B-BBBA-D4E3EE7FBE03}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1761,7 +1761,7 @@
   <dimension ref="A1:J81"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="E12" sqref="E12"/>
+      <selection activeCell="J18" sqref="J18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -2086,9 +2086,7 @@
       <c r="B16" s="27"/>
       <c r="C16" s="11"/>
       <c r="D16" s="36"/>
-      <c r="E16" s="36">
-        <v>1</v>
-      </c>
+      <c r="E16" s="36"/>
       <c r="F16" s="34"/>
       <c r="G16" s="64">
         <v>81284663664</v>
@@ -3230,7 +3228,7 @@
   <dimension ref="A1:J44"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="E21" sqref="E21"/>
+      <selection activeCell="C37" sqref="C37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>

--- a/RENCANA BON VOYAGE.xlsx
+++ b/RENCANA BON VOYAGE.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Mapan\progress\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{969EDC70-60C9-441B-BBBA-D4E3EE7FBE03}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A8E7D14E-DBC7-4114-B879-789EA81FBC7F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -18,14 +18,14 @@
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">done!$A$1:$I$2</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">progres!$A$1:$I$37</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">progres!$A$1:$I$43</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="269" uniqueCount="156">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="276" uniqueCount="158">
   <si>
     <t>NO</t>
   </si>
@@ -493,6 +493,12 @@
   </si>
   <si>
     <t>082111437332</t>
+  </si>
+  <si>
+    <t>21 APRIL 21</t>
+  </si>
+  <si>
+    <t>20 MARET</t>
   </si>
 </sst>
 </file>
@@ -639,7 +645,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="144">
+  <cellXfs count="146">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1055,6 +1061,12 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" indent="2"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1079,14 +1091,14 @@
     <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>273113</xdr:colOff>
-      <xdr:row>14</xdr:row>
+      <xdr:row>20</xdr:row>
       <xdr:rowOff>178059</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
       <xdr:colOff>273473</xdr:colOff>
-      <xdr:row>15</xdr:row>
-      <xdr:rowOff>5237</xdr:rowOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>5236</xdr:rowOff>
     </xdr:to>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
       <mc:Choice Requires="xdr14">
@@ -1144,13 +1156,13 @@
     <xdr:from>
       <xdr:col>14</xdr:col>
       <xdr:colOff>189939</xdr:colOff>
-      <xdr:row>35</xdr:row>
+      <xdr:row>41</xdr:row>
       <xdr:rowOff>89245</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>14</xdr:col>
       <xdr:colOff>190299</xdr:colOff>
-      <xdr:row>35</xdr:row>
+      <xdr:row>41</xdr:row>
       <xdr:rowOff>89605</xdr:rowOff>
     </xdr:to>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
@@ -1209,7 +1221,7 @@
     <xdr:from>
       <xdr:col>14</xdr:col>
       <xdr:colOff>189939</xdr:colOff>
-      <xdr:row>38</xdr:row>
+      <xdr:row>44</xdr:row>
       <xdr:rowOff>89245</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="360" cy="360"/>
@@ -1269,7 +1281,7 @@
     <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>273113</xdr:colOff>
-      <xdr:row>20</xdr:row>
+      <xdr:row>26</xdr:row>
       <xdr:rowOff>178059</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="360" cy="4070"/>
@@ -1758,10 +1770,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:J81"/>
+  <dimension ref="A1:J87"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="J18" sqref="J18"/>
+    <sheetView tabSelected="1" topLeftCell="A22" zoomScale="70" zoomScaleNormal="70" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1941,99 +1953,81 @@
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A9" s="5">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B9" s="100" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="C9" s="4">
-        <v>16</v>
-      </c>
-      <c r="D9" s="14" t="s">
-        <v>30</v>
-      </c>
-      <c r="E9" s="74" t="s">
-        <v>129</v>
-      </c>
-      <c r="F9" s="96">
-        <v>44520</v>
-      </c>
-      <c r="G9" s="66" t="s">
-        <v>21</v>
-      </c>
-      <c r="H9" s="5" t="s">
-        <v>70</v>
-      </c>
-      <c r="I9" s="53" t="s">
-        <v>53</v>
-      </c>
+        <v>11</v>
+      </c>
+      <c r="D9" s="74"/>
+      <c r="E9" s="97" t="s">
+        <v>157</v>
+      </c>
+      <c r="F9" s="113" t="s">
+        <v>156</v>
+      </c>
+      <c r="G9" s="109"/>
+      <c r="H9" s="23"/>
+      <c r="I9" s="126"/>
       <c r="J9" s="26"/>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A10" s="7"/>
       <c r="B10" s="27"/>
       <c r="C10" s="11"/>
-      <c r="D10" s="7"/>
-      <c r="E10" s="36"/>
-      <c r="F10" s="34"/>
-      <c r="G10" s="64">
-        <v>81232989078</v>
-      </c>
-      <c r="H10" s="7"/>
-      <c r="I10" s="27"/>
+      <c r="D10" s="20"/>
+      <c r="E10" s="20"/>
+      <c r="F10" s="49"/>
+      <c r="G10" s="144"/>
+      <c r="H10" s="20"/>
+      <c r="I10" s="102"/>
       <c r="J10" s="24"/>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A11" s="9"/>
       <c r="B11" s="52"/>
       <c r="C11" s="12"/>
-      <c r="D11" s="9"/>
-      <c r="E11" s="9"/>
-      <c r="F11" s="37"/>
-      <c r="G11" s="65"/>
-      <c r="H11" s="9"/>
-      <c r="I11" s="52"/>
+      <c r="D11" s="21"/>
+      <c r="E11" s="21"/>
+      <c r="F11" s="145"/>
+      <c r="G11" s="112"/>
+      <c r="H11" s="21"/>
+      <c r="I11" s="103"/>
       <c r="J11" s="25"/>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A12" s="5">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B12" s="100" t="s">
+        <v>9</v>
+      </c>
+      <c r="C12" s="4">
         <v>11</v>
       </c>
-      <c r="C12" s="4">
-        <v>16</v>
-      </c>
-      <c r="D12" s="14" t="s">
-        <v>30</v>
-      </c>
-      <c r="E12" s="74" t="s">
-        <v>129</v>
-      </c>
-      <c r="F12" s="96">
-        <v>44520</v>
-      </c>
-      <c r="G12" s="66" t="s">
-        <v>22</v>
-      </c>
-      <c r="H12" s="5" t="s">
-        <v>71</v>
-      </c>
-      <c r="I12" s="53" t="s">
-        <v>53</v>
-      </c>
+      <c r="D12" s="74"/>
+      <c r="E12" s="97" t="s">
+        <v>157</v>
+      </c>
+      <c r="F12" s="113" t="s">
+        <v>156</v>
+      </c>
+      <c r="G12" s="109"/>
+      <c r="H12" s="23"/>
+      <c r="I12" s="126"/>
       <c r="J12" s="26"/>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A13" s="7"/>
       <c r="B13" s="27"/>
       <c r="C13" s="11"/>
-      <c r="D13" s="7"/>
-      <c r="E13" s="36"/>
-      <c r="F13" s="34"/>
-      <c r="G13" s="64">
-        <v>81231807990</v>
+      <c r="D13" s="20"/>
+      <c r="E13" s="20"/>
+      <c r="F13" s="29"/>
+      <c r="G13" s="72" t="s">
+        <v>100</v>
       </c>
       <c r="H13" s="7"/>
       <c r="I13" s="27"/>
@@ -2043,9 +2037,9 @@
       <c r="A14" s="9"/>
       <c r="B14" s="52"/>
       <c r="C14" s="12"/>
-      <c r="D14" s="9"/>
-      <c r="E14" s="9"/>
-      <c r="F14" s="37"/>
+      <c r="D14" s="21"/>
+      <c r="E14" s="21"/>
+      <c r="F14" s="30"/>
       <c r="G14" s="65"/>
       <c r="H14" s="9"/>
       <c r="I14" s="52"/>
@@ -2053,31 +2047,31 @@
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A15" s="5">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B15" s="100" t="s">
         <v>10</v>
       </c>
       <c r="C15" s="4">
-        <v>17</v>
-      </c>
-      <c r="D15" s="77" t="s">
-        <v>108</v>
-      </c>
-      <c r="E15" s="97" t="s">
-        <v>130</v>
-      </c>
-      <c r="F15" s="88" t="s">
-        <v>65</v>
+        <v>16</v>
+      </c>
+      <c r="D15" s="14" t="s">
+        <v>30</v>
+      </c>
+      <c r="E15" s="74" t="s">
+        <v>129</v>
+      </c>
+      <c r="F15" s="96">
+        <v>44520</v>
       </c>
       <c r="G15" s="66" t="s">
-        <v>51</v>
+        <v>21</v>
       </c>
       <c r="H15" s="5" t="s">
-        <v>72</v>
-      </c>
-      <c r="I15" s="54">
-        <v>44449</v>
+        <v>70</v>
+      </c>
+      <c r="I15" s="53" t="s">
+        <v>53</v>
       </c>
       <c r="J15" s="26"/>
     </row>
@@ -2085,11 +2079,11 @@
       <c r="A16" s="7"/>
       <c r="B16" s="27"/>
       <c r="C16" s="11"/>
-      <c r="D16" s="36"/>
+      <c r="D16" s="7"/>
       <c r="E16" s="36"/>
       <c r="F16" s="34"/>
       <c r="G16" s="64">
-        <v>81284663664</v>
+        <v>81232989078</v>
       </c>
       <c r="H16" s="7"/>
       <c r="I16" s="27"/>
@@ -2099,8 +2093,8 @@
       <c r="A17" s="9"/>
       <c r="B17" s="52"/>
       <c r="C17" s="12"/>
-      <c r="D17" s="21"/>
-      <c r="E17" s="21"/>
+      <c r="D17" s="9"/>
+      <c r="E17" s="9"/>
       <c r="F17" s="37"/>
       <c r="G17" s="65"/>
       <c r="H17" s="9"/>
@@ -2109,31 +2103,31 @@
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A18" s="5">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B18" s="100" t="s">
         <v>11</v>
       </c>
       <c r="C18" s="4">
-        <v>17</v>
-      </c>
-      <c r="D18" s="77" t="s">
-        <v>108</v>
-      </c>
-      <c r="E18" s="97" t="s">
-        <v>130</v>
-      </c>
-      <c r="F18" s="88" t="s">
-        <v>65</v>
+        <v>16</v>
+      </c>
+      <c r="D18" s="14" t="s">
+        <v>30</v>
+      </c>
+      <c r="E18" s="74" t="s">
+        <v>129</v>
+      </c>
+      <c r="F18" s="96">
+        <v>44520</v>
       </c>
       <c r="G18" s="66" t="s">
-        <v>47</v>
+        <v>22</v>
       </c>
       <c r="H18" s="5" t="s">
-        <v>73</v>
-      </c>
-      <c r="I18" s="54">
-        <v>44449</v>
+        <v>71</v>
+      </c>
+      <c r="I18" s="53" t="s">
+        <v>53</v>
       </c>
       <c r="J18" s="26"/>
     </row>
@@ -2141,11 +2135,11 @@
       <c r="A19" s="7"/>
       <c r="B19" s="27"/>
       <c r="C19" s="11"/>
-      <c r="D19" s="36"/>
+      <c r="D19" s="7"/>
       <c r="E19" s="36"/>
       <c r="F19" s="34"/>
       <c r="G19" s="64">
-        <v>85740346667</v>
+        <v>81231807990</v>
       </c>
       <c r="H19" s="7"/>
       <c r="I19" s="27"/>
@@ -2155,8 +2149,8 @@
       <c r="A20" s="9"/>
       <c r="B20" s="52"/>
       <c r="C20" s="12"/>
-      <c r="D20" s="21"/>
-      <c r="E20" s="21"/>
+      <c r="D20" s="9"/>
+      <c r="E20" s="9"/>
       <c r="F20" s="37"/>
       <c r="G20" s="65"/>
       <c r="H20" s="9"/>
@@ -2165,28 +2159,32 @@
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A21" s="5">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="B21" s="100" t="s">
         <v>10</v>
       </c>
       <c r="C21" s="4">
-        <v>18</v>
-      </c>
-      <c r="D21" s="108" t="s">
-        <v>141</v>
+        <v>17</v>
+      </c>
+      <c r="D21" s="77" t="s">
+        <v>108</v>
       </c>
       <c r="E21" s="97" t="s">
-        <v>143</v>
-      </c>
-      <c r="F21" s="113" t="s">
-        <v>142</v>
-      </c>
-      <c r="G21" s="109" t="s">
-        <v>150</v>
-      </c>
-      <c r="H21" s="23"/>
-      <c r="I21" s="78"/>
+        <v>130</v>
+      </c>
+      <c r="F21" s="88" t="s">
+        <v>65</v>
+      </c>
+      <c r="G21" s="66" t="s">
+        <v>51</v>
+      </c>
+      <c r="H21" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="I21" s="54">
+        <v>44449</v>
+      </c>
       <c r="J21" s="26"/>
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.2">
@@ -2195,12 +2193,12 @@
       <c r="C22" s="11"/>
       <c r="D22" s="36"/>
       <c r="E22" s="36"/>
-      <c r="F22" s="110"/>
-      <c r="G22" s="127" t="s">
-        <v>151</v>
-      </c>
-      <c r="H22" s="20"/>
-      <c r="I22" s="102"/>
+      <c r="F22" s="34"/>
+      <c r="G22" s="64">
+        <v>81284663664</v>
+      </c>
+      <c r="H22" s="7"/>
+      <c r="I22" s="27"/>
       <c r="J22" s="24"/>
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.2">
@@ -2209,34 +2207,40 @@
       <c r="C23" s="12"/>
       <c r="D23" s="21"/>
       <c r="E23" s="21"/>
-      <c r="F23" s="111"/>
-      <c r="G23" s="112"/>
-      <c r="H23" s="21"/>
-      <c r="I23" s="103"/>
+      <c r="F23" s="37"/>
+      <c r="G23" s="65"/>
+      <c r="H23" s="9"/>
+      <c r="I23" s="52"/>
       <c r="J23" s="25"/>
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A24" s="5">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B24" s="100" t="s">
         <v>11</v>
       </c>
       <c r="C24" s="4">
-        <v>18</v>
-      </c>
-      <c r="D24" s="108"/>
+        <v>17</v>
+      </c>
+      <c r="D24" s="77" t="s">
+        <v>108</v>
+      </c>
       <c r="E24" s="97" t="s">
-        <v>143</v>
-      </c>
-      <c r="F24" s="113" t="s">
-        <v>142</v>
-      </c>
-      <c r="G24" s="109" t="s">
-        <v>148</v>
-      </c>
-      <c r="H24" s="23"/>
-      <c r="I24" s="78"/>
+        <v>130</v>
+      </c>
+      <c r="F24" s="88" t="s">
+        <v>65</v>
+      </c>
+      <c r="G24" s="66" t="s">
+        <v>47</v>
+      </c>
+      <c r="H24" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="I24" s="54">
+        <v>44449</v>
+      </c>
       <c r="J24" s="26"/>
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.2">
@@ -2245,12 +2249,12 @@
       <c r="C25" s="11"/>
       <c r="D25" s="36"/>
       <c r="E25" s="36"/>
-      <c r="F25" s="110"/>
-      <c r="G25" s="127" t="s">
-        <v>149</v>
-      </c>
-      <c r="H25" s="20"/>
-      <c r="I25" s="102"/>
+      <c r="F25" s="34"/>
+      <c r="G25" s="64">
+        <v>85740346667</v>
+      </c>
+      <c r="H25" s="7"/>
+      <c r="I25" s="27"/>
       <c r="J25" s="24"/>
     </row>
     <row r="26" spans="1:10" x14ac:dyDescent="0.2">
@@ -2259,204 +2263,194 @@
       <c r="C26" s="12"/>
       <c r="D26" s="21"/>
       <c r="E26" s="21"/>
-      <c r="F26" s="111"/>
-      <c r="G26" s="112"/>
-      <c r="H26" s="21"/>
-      <c r="I26" s="103"/>
+      <c r="F26" s="37"/>
+      <c r="G26" s="65"/>
+      <c r="H26" s="9"/>
+      <c r="I26" s="52"/>
       <c r="J26" s="25"/>
     </row>
     <row r="27" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A27" s="5">
-        <v>9</v>
-      </c>
-      <c r="B27" s="101" t="s">
-        <v>13</v>
-      </c>
-      <c r="C27" s="10">
-        <v>31</v>
-      </c>
-      <c r="D27" s="14" t="s">
-        <v>28</v>
-      </c>
-      <c r="E27" s="76" t="s">
-        <v>131</v>
-      </c>
-      <c r="F27" s="93">
-        <v>44501</v>
-      </c>
-      <c r="G27" s="66" t="s">
-        <v>23</v>
-      </c>
-      <c r="H27" s="23" t="s">
-        <v>75</v>
-      </c>
-      <c r="I27" s="53" t="s">
-        <v>53</v>
-      </c>
+        <v>7</v>
+      </c>
+      <c r="B27" s="100" t="s">
+        <v>10</v>
+      </c>
+      <c r="C27" s="4">
+        <v>18</v>
+      </c>
+      <c r="D27" s="108" t="s">
+        <v>141</v>
+      </c>
+      <c r="E27" s="97" t="s">
+        <v>143</v>
+      </c>
+      <c r="F27" s="113" t="s">
+        <v>142</v>
+      </c>
+      <c r="G27" s="109" t="s">
+        <v>150</v>
+      </c>
+      <c r="H27" s="23"/>
+      <c r="I27" s="78"/>
       <c r="J27" s="26"/>
     </row>
     <row r="28" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A28" s="7"/>
-      <c r="B28" s="102"/>
-      <c r="C28" s="15"/>
-      <c r="D28" s="7"/>
-      <c r="E28" s="44"/>
-      <c r="F28" s="29"/>
-      <c r="G28" s="64">
-        <v>6587623904</v>
+      <c r="B28" s="27"/>
+      <c r="C28" s="11"/>
+      <c r="D28" s="36"/>
+      <c r="E28" s="36"/>
+      <c r="F28" s="110"/>
+      <c r="G28" s="127" t="s">
+        <v>151</v>
       </c>
       <c r="H28" s="20"/>
-      <c r="I28" s="27"/>
+      <c r="I28" s="102"/>
       <c r="J28" s="24"/>
     </row>
     <row r="29" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A29" s="9"/>
-      <c r="B29" s="103"/>
-      <c r="C29" s="16"/>
-      <c r="D29" s="9"/>
-      <c r="E29" s="9"/>
-      <c r="F29" s="30"/>
-      <c r="G29" s="65"/>
+      <c r="B29" s="52"/>
+      <c r="C29" s="12"/>
+      <c r="D29" s="21"/>
+      <c r="E29" s="21"/>
+      <c r="F29" s="111"/>
+      <c r="G29" s="112"/>
       <c r="H29" s="21"/>
-      <c r="I29" s="52"/>
+      <c r="I29" s="103"/>
       <c r="J29" s="25"/>
     </row>
     <row r="30" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A30" s="5">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B30" s="100" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C30" s="4">
-        <v>32</v>
-      </c>
-      <c r="D30" s="14" t="s">
-        <v>43</v>
-      </c>
-      <c r="E30" s="22">
-        <v>44520</v>
-      </c>
-      <c r="F30" s="80" t="s">
-        <v>44</v>
-      </c>
-      <c r="G30" s="67" t="s">
-        <v>45</v>
-      </c>
-      <c r="H30" s="5" t="s">
-        <v>75</v>
-      </c>
-      <c r="I30" s="54">
-        <v>44440</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="D30" s="108"/>
+      <c r="E30" s="97" t="s">
+        <v>143</v>
+      </c>
+      <c r="F30" s="113" t="s">
+        <v>142</v>
+      </c>
+      <c r="G30" s="109" t="s">
+        <v>148</v>
+      </c>
+      <c r="H30" s="23"/>
+      <c r="I30" s="78"/>
       <c r="J30" s="26"/>
     </row>
     <row r="31" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A31" s="7"/>
       <c r="B31" s="27"/>
       <c r="C31" s="11"/>
-      <c r="D31" s="44"/>
-      <c r="E31" s="44"/>
-      <c r="F31" s="32"/>
-      <c r="G31" s="68">
-        <v>81333524165</v>
-      </c>
-      <c r="H31" s="7"/>
-      <c r="I31" s="27"/>
+      <c r="D31" s="36"/>
+      <c r="E31" s="36"/>
+      <c r="F31" s="110"/>
+      <c r="G31" s="127" t="s">
+        <v>149</v>
+      </c>
+      <c r="H31" s="20"/>
+      <c r="I31" s="102"/>
       <c r="J31" s="24"/>
     </row>
     <row r="32" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A32" s="9"/>
       <c r="B32" s="52"/>
       <c r="C32" s="12"/>
-      <c r="D32" s="9"/>
-      <c r="E32" s="9"/>
-      <c r="F32" s="45"/>
-      <c r="G32" s="69"/>
-      <c r="H32" s="9"/>
-      <c r="I32" s="52"/>
+      <c r="D32" s="21"/>
+      <c r="E32" s="21"/>
+      <c r="F32" s="111"/>
+      <c r="G32" s="112"/>
+      <c r="H32" s="21"/>
+      <c r="I32" s="103"/>
       <c r="J32" s="25"/>
     </row>
     <row r="33" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A33" s="5">
-        <v>11</v>
-      </c>
-      <c r="B33" s="100" t="s">
+        <v>9</v>
+      </c>
+      <c r="B33" s="101" t="s">
         <v>13</v>
       </c>
-      <c r="C33" s="4">
-        <v>33</v>
-      </c>
-      <c r="D33" s="77" t="s">
-        <v>108</v>
-      </c>
-      <c r="E33" s="44">
-        <v>44247</v>
-      </c>
-      <c r="F33" s="89" t="s">
-        <v>103</v>
-      </c>
-      <c r="G33" s="68" t="s">
-        <v>101</v>
-      </c>
-      <c r="H33" s="7" t="s">
-        <v>102</v>
-      </c>
-      <c r="I33" s="106" t="s">
-        <v>134</v>
-      </c>
-      <c r="J33" s="24"/>
+      <c r="C33" s="10">
+        <v>31</v>
+      </c>
+      <c r="D33" s="14" t="s">
+        <v>28</v>
+      </c>
+      <c r="E33" s="76" t="s">
+        <v>131</v>
+      </c>
+      <c r="F33" s="93">
+        <v>44501</v>
+      </c>
+      <c r="G33" s="66" t="s">
+        <v>23</v>
+      </c>
+      <c r="H33" s="23" t="s">
+        <v>75</v>
+      </c>
+      <c r="I33" s="53" t="s">
+        <v>53</v>
+      </c>
+      <c r="J33" s="26"/>
     </row>
     <row r="34" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A34" s="7"/>
-      <c r="B34" s="27"/>
-      <c r="C34" s="11"/>
+      <c r="B34" s="102"/>
+      <c r="C34" s="15"/>
       <c r="D34" s="7"/>
-      <c r="E34" s="7"/>
-      <c r="F34" s="32"/>
-      <c r="G34" s="68">
-        <v>81235748714</v>
-      </c>
-      <c r="H34" s="7"/>
+      <c r="E34" s="44"/>
+      <c r="F34" s="29"/>
+      <c r="G34" s="64">
+        <v>6587623904</v>
+      </c>
+      <c r="H34" s="20"/>
       <c r="I34" s="27"/>
       <c r="J34" s="24"/>
     </row>
     <row r="35" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A35" s="9"/>
-      <c r="B35" s="27"/>
-      <c r="C35" s="11"/>
-      <c r="D35" s="7"/>
-      <c r="E35" s="7"/>
-      <c r="F35" s="32"/>
-      <c r="G35" s="68"/>
-      <c r="H35" s="7"/>
-      <c r="I35" s="27"/>
-      <c r="J35" s="24"/>
+      <c r="B35" s="103"/>
+      <c r="C35" s="16"/>
+      <c r="D35" s="9"/>
+      <c r="E35" s="9"/>
+      <c r="F35" s="30"/>
+      <c r="G35" s="65"/>
+      <c r="H35" s="21"/>
+      <c r="I35" s="52"/>
+      <c r="J35" s="25"/>
     </row>
     <row r="36" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A36" s="5">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B36" s="100" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C36" s="4">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="D36" s="14" t="s">
-        <v>39</v>
-      </c>
-      <c r="E36" s="46">
-        <v>44614</v>
-      </c>
-      <c r="F36" s="88" t="s">
-        <v>61</v>
-      </c>
-      <c r="G36" s="66" t="s">
-        <v>60</v>
+        <v>43</v>
+      </c>
+      <c r="E36" s="22">
+        <v>44520</v>
+      </c>
+      <c r="F36" s="80" t="s">
+        <v>44</v>
+      </c>
+      <c r="G36" s="67" t="s">
+        <v>45</v>
       </c>
       <c r="H36" s="5" t="s">
-        <v>69</v>
+        <v>75</v>
       </c>
       <c r="I36" s="54">
         <v>44440</v>
@@ -2467,11 +2461,11 @@
       <c r="A37" s="7"/>
       <c r="B37" s="27"/>
       <c r="C37" s="11"/>
-      <c r="D37" s="7"/>
-      <c r="E37" s="47"/>
-      <c r="F37" s="29"/>
-      <c r="G37" s="64">
-        <v>85732094240</v>
+      <c r="D37" s="44"/>
+      <c r="E37" s="44"/>
+      <c r="F37" s="32"/>
+      <c r="G37" s="68">
+        <v>81333524165</v>
       </c>
       <c r="H37" s="7"/>
       <c r="I37" s="27"/>
@@ -2480,52 +2474,54 @@
     <row r="38" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A38" s="9"/>
       <c r="B38" s="52"/>
-      <c r="C38" s="8"/>
+      <c r="C38" s="12"/>
       <c r="D38" s="9"/>
       <c r="E38" s="9"/>
-      <c r="F38" s="30"/>
-      <c r="G38" s="65"/>
+      <c r="F38" s="45"/>
+      <c r="G38" s="69"/>
       <c r="H38" s="9"/>
       <c r="I38" s="52"/>
       <c r="J38" s="25"/>
     </row>
     <row r="39" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A39" s="5">
+        <v>11</v>
+      </c>
+      <c r="B39" s="100" t="s">
         <v>13</v>
       </c>
-      <c r="B39" s="100" t="s">
-        <v>12</v>
-      </c>
       <c r="C39" s="4">
-        <v>27</v>
-      </c>
-      <c r="D39" s="14" t="s">
-        <v>137</v>
-      </c>
-      <c r="E39" s="97" t="s">
-        <v>140</v>
-      </c>
-      <c r="F39" s="105" t="s">
-        <v>139</v>
-      </c>
-      <c r="G39" s="66" t="s">
-        <v>132</v>
-      </c>
-      <c r="H39" s="104" t="s">
-        <v>89</v>
-      </c>
-      <c r="I39" s="78"/>
-      <c r="J39" s="26"/>
+        <v>33</v>
+      </c>
+      <c r="D39" s="77" t="s">
+        <v>108</v>
+      </c>
+      <c r="E39" s="44">
+        <v>44247</v>
+      </c>
+      <c r="F39" s="89" t="s">
+        <v>103</v>
+      </c>
+      <c r="G39" s="68" t="s">
+        <v>101</v>
+      </c>
+      <c r="H39" s="7" t="s">
+        <v>102</v>
+      </c>
+      <c r="I39" s="106" t="s">
+        <v>134</v>
+      </c>
+      <c r="J39" s="24"/>
     </row>
     <row r="40" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A40" s="7"/>
       <c r="B40" s="27"/>
       <c r="C40" s="11"/>
       <c r="D40" s="7"/>
-      <c r="E40" s="47"/>
-      <c r="F40" s="29"/>
-      <c r="G40" s="72" t="s">
-        <v>133</v>
+      <c r="E40" s="7"/>
+      <c r="F40" s="32"/>
+      <c r="G40" s="68">
+        <v>81235748714</v>
       </c>
       <c r="H40" s="7"/>
       <c r="I40" s="27"/>
@@ -2533,43 +2529,43 @@
     </row>
     <row r="41" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A41" s="9"/>
-      <c r="B41" s="52"/>
-      <c r="C41" s="8"/>
-      <c r="D41" s="9"/>
-      <c r="E41" s="9"/>
-      <c r="F41" s="30"/>
-      <c r="G41" s="65"/>
-      <c r="H41" s="9"/>
-      <c r="I41" s="52"/>
-      <c r="J41" s="25"/>
+      <c r="B41" s="27"/>
+      <c r="C41" s="11"/>
+      <c r="D41" s="7"/>
+      <c r="E41" s="7"/>
+      <c r="F41" s="32"/>
+      <c r="G41" s="68"/>
+      <c r="H41" s="7"/>
+      <c r="I41" s="27"/>
+      <c r="J41" s="24"/>
     </row>
     <row r="42" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A42" s="5">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="B42" s="100" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C42" s="4">
-        <v>33</v>
+        <v>26</v>
       </c>
       <c r="D42" s="14" t="s">
-        <v>83</v>
-      </c>
-      <c r="E42" s="76" t="s">
-        <v>131</v>
-      </c>
-      <c r="F42" s="94">
-        <v>44510</v>
-      </c>
-      <c r="G42" s="67" t="s">
-        <v>46</v>
+        <v>39</v>
+      </c>
+      <c r="E42" s="46">
+        <v>44614</v>
+      </c>
+      <c r="F42" s="88" t="s">
+        <v>61</v>
+      </c>
+      <c r="G42" s="66" t="s">
+        <v>60</v>
       </c>
       <c r="H42" s="5" t="s">
-        <v>77</v>
+        <v>69</v>
       </c>
       <c r="I42" s="54">
-        <v>44449</v>
+        <v>44440</v>
       </c>
       <c r="J42" s="26"/>
     </row>
@@ -2577,11 +2573,11 @@
       <c r="A43" s="7"/>
       <c r="B43" s="27"/>
       <c r="C43" s="11"/>
-      <c r="D43" s="44"/>
-      <c r="E43" s="44"/>
-      <c r="F43" s="32"/>
-      <c r="G43" s="68">
-        <v>81331430509</v>
+      <c r="D43" s="7"/>
+      <c r="E43" s="47"/>
+      <c r="F43" s="29"/>
+      <c r="G43" s="64">
+        <v>85732094240</v>
       </c>
       <c r="H43" s="7"/>
       <c r="I43" s="27"/>
@@ -2590,50 +2586,52 @@
     <row r="44" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A44" s="9"/>
       <c r="B44" s="52"/>
-      <c r="C44" s="12"/>
+      <c r="C44" s="8"/>
       <c r="D44" s="9"/>
       <c r="E44" s="9"/>
-      <c r="F44" s="45"/>
-      <c r="G44" s="69"/>
+      <c r="F44" s="30"/>
+      <c r="G44" s="65"/>
       <c r="H44" s="9"/>
       <c r="I44" s="52"/>
       <c r="J44" s="25"/>
     </row>
     <row r="45" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A45" s="5">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B45" s="100" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C45" s="4">
-        <v>34</v>
-      </c>
-      <c r="D45" s="107" t="s">
-        <v>152</v>
-      </c>
-      <c r="E45" s="107" t="s">
-        <v>138</v>
-      </c>
-      <c r="F45" s="87" t="s">
-        <v>135</v>
-      </c>
-      <c r="G45" s="68" t="s">
-        <v>154</v>
-      </c>
-      <c r="H45" s="7"/>
-      <c r="I45" s="27"/>
-      <c r="J45" s="24"/>
+        <v>27</v>
+      </c>
+      <c r="D45" s="14" t="s">
+        <v>137</v>
+      </c>
+      <c r="E45" s="97" t="s">
+        <v>140</v>
+      </c>
+      <c r="F45" s="105" t="s">
+        <v>139</v>
+      </c>
+      <c r="G45" s="66" t="s">
+        <v>132</v>
+      </c>
+      <c r="H45" s="104" t="s">
+        <v>89</v>
+      </c>
+      <c r="I45" s="78"/>
+      <c r="J45" s="26"/>
     </row>
     <row r="46" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A46" s="7"/>
       <c r="B46" s="27"/>
       <c r="C46" s="11"/>
       <c r="D46" s="7"/>
-      <c r="E46" s="7"/>
-      <c r="F46" s="32"/>
-      <c r="G46" s="130" t="s">
-        <v>155</v>
+      <c r="E46" s="47"/>
+      <c r="F46" s="29"/>
+      <c r="G46" s="72" t="s">
+        <v>133</v>
       </c>
       <c r="H46" s="7"/>
       <c r="I46" s="27"/>
@@ -2641,43 +2639,43 @@
     </row>
     <row r="47" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A47" s="9"/>
-      <c r="B47" s="27"/>
-      <c r="C47" s="11"/>
-      <c r="D47" s="7"/>
-      <c r="E47" s="7"/>
-      <c r="F47" s="32"/>
-      <c r="G47" s="68"/>
-      <c r="H47" s="7"/>
-      <c r="I47" s="27"/>
-      <c r="J47" s="24"/>
+      <c r="B47" s="52"/>
+      <c r="C47" s="8"/>
+      <c r="D47" s="9"/>
+      <c r="E47" s="9"/>
+      <c r="F47" s="30"/>
+      <c r="G47" s="65"/>
+      <c r="H47" s="9"/>
+      <c r="I47" s="52"/>
+      <c r="J47" s="25"/>
     </row>
     <row r="48" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A48" s="5">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B48" s="100" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C48" s="4">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="D48" s="14" t="s">
-        <v>40</v>
-      </c>
-      <c r="E48" s="75" t="s">
-        <v>95</v>
-      </c>
-      <c r="F48" s="81" t="s">
-        <v>42</v>
+        <v>83</v>
+      </c>
+      <c r="E48" s="76" t="s">
+        <v>131</v>
+      </c>
+      <c r="F48" s="94">
+        <v>44510</v>
       </c>
       <c r="G48" s="67" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="H48" s="5" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="I48" s="54">
-        <v>44440</v>
+        <v>44449</v>
       </c>
       <c r="J48" s="26"/>
     </row>
@@ -2689,7 +2687,7 @@
       <c r="E49" s="44"/>
       <c r="F49" s="32"/>
       <c r="G49" s="68">
-        <v>85649115380</v>
+        <v>81331430509</v>
       </c>
       <c r="H49" s="7"/>
       <c r="I49" s="27"/>
@@ -2707,66 +2705,70 @@
       <c r="I50" s="52"/>
       <c r="J50" s="25"/>
     </row>
-    <row r="51" spans="1:10" s="117" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A51" s="5">
-        <v>17</v>
-      </c>
-      <c r="B51" s="101" t="s">
         <v>15</v>
       </c>
-      <c r="C51" s="10">
-        <v>29</v>
-      </c>
-      <c r="D51" s="129" t="s">
-        <v>153</v>
-      </c>
-      <c r="E51" s="74" t="s">
-        <v>145</v>
-      </c>
-      <c r="F51" s="124" t="s">
-        <v>144</v>
-      </c>
-      <c r="G51" s="115"/>
-      <c r="H51" s="23"/>
-      <c r="I51" s="78"/>
-      <c r="J51" s="116"/>
-    </row>
-    <row r="52" spans="1:10" s="117" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B51" s="100" t="s">
+        <v>14</v>
+      </c>
+      <c r="C51" s="4">
+        <v>34</v>
+      </c>
+      <c r="D51" s="107" t="s">
+        <v>152</v>
+      </c>
+      <c r="E51" s="107" t="s">
+        <v>138</v>
+      </c>
+      <c r="F51" s="87" t="s">
+        <v>135</v>
+      </c>
+      <c r="G51" s="68" t="s">
+        <v>154</v>
+      </c>
+      <c r="H51" s="7"/>
+      <c r="I51" s="27"/>
+      <c r="J51" s="24"/>
+    </row>
+    <row r="52" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A52" s="7"/>
-      <c r="B52" s="102"/>
-      <c r="C52" s="15"/>
-      <c r="D52" s="36"/>
-      <c r="E52" s="36"/>
-      <c r="F52" s="118"/>
-      <c r="G52" s="119"/>
-      <c r="H52" s="20"/>
-      <c r="I52" s="102"/>
-      <c r="J52" s="120"/>
-    </row>
-    <row r="53" spans="1:10" s="117" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B52" s="27"/>
+      <c r="C52" s="11"/>
+      <c r="D52" s="7"/>
+      <c r="E52" s="7"/>
+      <c r="F52" s="32"/>
+      <c r="G52" s="130" t="s">
+        <v>155</v>
+      </c>
+      <c r="H52" s="7"/>
+      <c r="I52" s="27"/>
+      <c r="J52" s="24"/>
+    </row>
+    <row r="53" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A53" s="9"/>
-      <c r="B53" s="103"/>
-      <c r="C53" s="16"/>
-      <c r="D53" s="21"/>
-      <c r="E53" s="21"/>
-      <c r="F53" s="121"/>
-      <c r="G53" s="122"/>
-      <c r="H53" s="21"/>
-      <c r="I53" s="103"/>
-      <c r="J53" s="123"/>
+      <c r="B53" s="27"/>
+      <c r="C53" s="11"/>
+      <c r="D53" s="7"/>
+      <c r="E53" s="7"/>
+      <c r="F53" s="32"/>
+      <c r="G53" s="68"/>
+      <c r="H53" s="7"/>
+      <c r="I53" s="27"/>
+      <c r="J53" s="24"/>
     </row>
     <row r="54" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A54" s="5">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="B54" s="100" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C54" s="4">
+        <v>28</v>
+      </c>
+      <c r="D54" s="14" t="s">
         <v>40</v>
-      </c>
-      <c r="D54" s="43">
-        <v>44453</v>
       </c>
       <c r="E54" s="75" t="s">
         <v>95</v>
@@ -2775,13 +2777,13 @@
         <v>42</v>
       </c>
       <c r="G54" s="67" t="s">
-        <v>48</v>
+        <v>41</v>
       </c>
       <c r="H54" s="5" t="s">
-        <v>81</v>
-      </c>
-      <c r="I54" s="71" t="s">
-        <v>98</v>
+        <v>79</v>
+      </c>
+      <c r="I54" s="54">
+        <v>44440</v>
       </c>
       <c r="J54" s="26"/>
     </row>
@@ -2793,7 +2795,7 @@
       <c r="E55" s="44"/>
       <c r="F55" s="32"/>
       <c r="G55" s="68">
-        <v>81359524067</v>
+        <v>85649115380</v>
       </c>
       <c r="H55" s="7"/>
       <c r="I55" s="27"/>
@@ -2811,344 +2813,346 @@
       <c r="I56" s="52"/>
       <c r="J56" s="25"/>
     </row>
-    <row r="57" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:10" s="117" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A57" s="5">
-        <v>19</v>
-      </c>
-      <c r="B57" s="100" t="s">
-        <v>18</v>
-      </c>
-      <c r="C57" s="4">
-        <v>40</v>
-      </c>
-      <c r="D57" s="43">
-        <v>44453</v>
-      </c>
-      <c r="E57" s="75" t="s">
-        <v>95</v>
-      </c>
-      <c r="F57" s="81" t="s">
-        <v>42</v>
-      </c>
-      <c r="G57" s="67" t="s">
-        <v>25</v>
-      </c>
-      <c r="H57" s="5" t="s">
-        <v>82</v>
-      </c>
-      <c r="I57" s="71" t="s">
-        <v>98</v>
-      </c>
-      <c r="J57" s="26"/>
-    </row>
-    <row r="58" spans="1:10" x14ac:dyDescent="0.2">
+        <v>17</v>
+      </c>
+      <c r="B57" s="101" t="s">
+        <v>15</v>
+      </c>
+      <c r="C57" s="10">
+        <v>29</v>
+      </c>
+      <c r="D57" s="129" t="s">
+        <v>153</v>
+      </c>
+      <c r="E57" s="74" t="s">
+        <v>145</v>
+      </c>
+      <c r="F57" s="124" t="s">
+        <v>144</v>
+      </c>
+      <c r="G57" s="115"/>
+      <c r="H57" s="23"/>
+      <c r="I57" s="78"/>
+      <c r="J57" s="116"/>
+    </row>
+    <row r="58" spans="1:10" s="117" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A58" s="7"/>
-      <c r="B58" s="27"/>
-      <c r="C58" s="11"/>
-      <c r="D58" s="44"/>
-      <c r="E58" s="44"/>
-      <c r="F58" s="32"/>
-      <c r="G58" s="68">
-        <v>82319844744</v>
-      </c>
-      <c r="H58" s="7"/>
-      <c r="I58" s="27"/>
-      <c r="J58" s="24"/>
-    </row>
-    <row r="59" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="B58" s="102"/>
+      <c r="C58" s="15"/>
+      <c r="D58" s="36"/>
+      <c r="E58" s="36"/>
+      <c r="F58" s="118"/>
+      <c r="G58" s="119"/>
+      <c r="H58" s="20"/>
+      <c r="I58" s="102"/>
+      <c r="J58" s="120"/>
+    </row>
+    <row r="59" spans="1:10" s="117" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A59" s="9"/>
-      <c r="B59" s="52"/>
-      <c r="C59" s="12"/>
-      <c r="D59" s="9"/>
-      <c r="E59" s="9"/>
-      <c r="F59" s="45"/>
-      <c r="G59" s="69"/>
-      <c r="H59" s="9"/>
-      <c r="I59" s="52"/>
-      <c r="J59" s="25"/>
+      <c r="B59" s="103"/>
+      <c r="C59" s="16"/>
+      <c r="D59" s="21"/>
+      <c r="E59" s="21"/>
+      <c r="F59" s="121"/>
+      <c r="G59" s="122"/>
+      <c r="H59" s="21"/>
+      <c r="I59" s="103"/>
+      <c r="J59" s="123"/>
     </row>
     <row r="60" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A60" s="5">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="B60" s="100" t="s">
         <v>16</v>
       </c>
-      <c r="C60" s="10">
-        <v>41</v>
-      </c>
-      <c r="D60" s="125"/>
-      <c r="E60" s="74" t="s">
-        <v>147</v>
-      </c>
-      <c r="F60" s="114" t="s">
-        <v>146</v>
-      </c>
-      <c r="G60" s="115"/>
-      <c r="H60" s="23"/>
-      <c r="I60" s="126"/>
+      <c r="C60" s="4">
+        <v>40</v>
+      </c>
+      <c r="D60" s="43">
+        <v>44453</v>
+      </c>
+      <c r="E60" s="75" t="s">
+        <v>95</v>
+      </c>
+      <c r="F60" s="81" t="s">
+        <v>42</v>
+      </c>
+      <c r="G60" s="67" t="s">
+        <v>48</v>
+      </c>
+      <c r="H60" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="I60" s="71" t="s">
+        <v>98</v>
+      </c>
       <c r="J60" s="26"/>
     </row>
     <row r="61" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A61" s="7"/>
       <c r="B61" s="27"/>
-      <c r="C61" s="15"/>
-      <c r="D61" s="36"/>
-      <c r="E61" s="36"/>
-      <c r="F61" s="118"/>
-      <c r="G61" s="119"/>
-      <c r="H61" s="20"/>
-      <c r="I61" s="102"/>
+      <c r="C61" s="11"/>
+      <c r="D61" s="44"/>
+      <c r="E61" s="44"/>
+      <c r="F61" s="32"/>
+      <c r="G61" s="68">
+        <v>81359524067</v>
+      </c>
+      <c r="H61" s="7"/>
+      <c r="I61" s="27"/>
       <c r="J61" s="24"/>
     </row>
     <row r="62" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A62" s="9"/>
       <c r="B62" s="52"/>
-      <c r="C62" s="16"/>
-      <c r="D62" s="21"/>
-      <c r="E62" s="21"/>
-      <c r="F62" s="121"/>
-      <c r="G62" s="122"/>
-      <c r="H62" s="21"/>
-      <c r="I62" s="103"/>
+      <c r="C62" s="12"/>
+      <c r="D62" s="9"/>
+      <c r="E62" s="9"/>
+      <c r="F62" s="45"/>
+      <c r="G62" s="69"/>
+      <c r="H62" s="9"/>
+      <c r="I62" s="52"/>
       <c r="J62" s="25"/>
     </row>
     <row r="63" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A63" s="5">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="B63" s="100" t="s">
         <v>18</v>
       </c>
-      <c r="C63" s="10">
-        <v>41</v>
-      </c>
-      <c r="D63" s="125"/>
-      <c r="E63" s="74" t="s">
-        <v>147</v>
-      </c>
-      <c r="F63" s="114" t="s">
-        <v>146</v>
-      </c>
-      <c r="G63" s="115"/>
-      <c r="H63" s="23"/>
-      <c r="I63" s="126"/>
+      <c r="C63" s="4">
+        <v>40</v>
+      </c>
+      <c r="D63" s="43">
+        <v>44453</v>
+      </c>
+      <c r="E63" s="75" t="s">
+        <v>95</v>
+      </c>
+      <c r="F63" s="81" t="s">
+        <v>42</v>
+      </c>
+      <c r="G63" s="67" t="s">
+        <v>25</v>
+      </c>
+      <c r="H63" s="5" t="s">
+        <v>82</v>
+      </c>
+      <c r="I63" s="71" t="s">
+        <v>98</v>
+      </c>
       <c r="J63" s="26"/>
     </row>
     <row r="64" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A64" s="7"/>
       <c r="B64" s="27"/>
-      <c r="C64" s="15"/>
-      <c r="D64" s="36"/>
-      <c r="E64" s="36"/>
-      <c r="F64" s="118"/>
-      <c r="G64" s="119"/>
-      <c r="H64" s="20"/>
-      <c r="I64" s="102"/>
+      <c r="C64" s="11"/>
+      <c r="D64" s="44"/>
+      <c r="E64" s="44"/>
+      <c r="F64" s="32"/>
+      <c r="G64" s="68">
+        <v>82319844744</v>
+      </c>
+      <c r="H64" s="7"/>
+      <c r="I64" s="27"/>
       <c r="J64" s="24"/>
     </row>
     <row r="65" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A65" s="9"/>
       <c r="B65" s="52"/>
-      <c r="C65" s="16"/>
-      <c r="D65" s="21"/>
-      <c r="E65" s="21"/>
-      <c r="F65" s="121"/>
-      <c r="G65" s="122"/>
-      <c r="H65" s="21"/>
-      <c r="I65" s="103"/>
+      <c r="C65" s="12"/>
+      <c r="D65" s="9"/>
+      <c r="E65" s="9"/>
+      <c r="F65" s="45"/>
+      <c r="G65" s="69"/>
+      <c r="H65" s="9"/>
+      <c r="I65" s="52"/>
       <c r="J65" s="25"/>
     </row>
     <row r="66" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A66" s="5">
-        <v>22</v>
-      </c>
-      <c r="B66" s="3" t="s">
-        <v>97</v>
-      </c>
-      <c r="C66" s="4">
-        <v>5</v>
-      </c>
-      <c r="D66" s="43" t="s">
-        <v>108</v>
-      </c>
-      <c r="E66" s="22">
-        <v>44237</v>
-      </c>
-      <c r="F66" s="87">
-        <v>44617</v>
-      </c>
-      <c r="G66" s="67" t="s">
-        <v>105</v>
-      </c>
-      <c r="H66" s="5" t="s">
-        <v>104</v>
-      </c>
-      <c r="I66" s="106" t="s">
-        <v>134</v>
-      </c>
+        <v>20</v>
+      </c>
+      <c r="B66" s="100" t="s">
+        <v>16</v>
+      </c>
+      <c r="C66" s="10">
+        <v>41</v>
+      </c>
+      <c r="D66" s="125"/>
+      <c r="E66" s="74" t="s">
+        <v>147</v>
+      </c>
+      <c r="F66" s="114" t="s">
+        <v>146</v>
+      </c>
+      <c r="G66" s="115"/>
+      <c r="H66" s="23"/>
+      <c r="I66" s="126"/>
       <c r="J66" s="26"/>
     </row>
     <row r="67" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A67" s="7"/>
-      <c r="B67" s="6"/>
-      <c r="C67" s="11"/>
-      <c r="D67" s="44"/>
-      <c r="E67" s="44"/>
-      <c r="F67" s="32"/>
-      <c r="G67" s="68">
-        <v>89603906796</v>
-      </c>
-      <c r="H67" s="7"/>
-      <c r="I67" s="27"/>
+      <c r="B67" s="27"/>
+      <c r="C67" s="15"/>
+      <c r="D67" s="36"/>
+      <c r="E67" s="36"/>
+      <c r="F67" s="118"/>
+      <c r="G67" s="119"/>
+      <c r="H67" s="20"/>
+      <c r="I67" s="102"/>
       <c r="J67" s="24"/>
     </row>
     <row r="68" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A68" s="9"/>
-      <c r="B68" s="8"/>
-      <c r="C68" s="12"/>
-      <c r="D68" s="9"/>
-      <c r="E68" s="9"/>
-      <c r="F68" s="45"/>
-      <c r="G68" s="69"/>
-      <c r="H68" s="9"/>
-      <c r="I68" s="52"/>
+      <c r="B68" s="52"/>
+      <c r="C68" s="16"/>
+      <c r="D68" s="21"/>
+      <c r="E68" s="21"/>
+      <c r="F68" s="121"/>
+      <c r="G68" s="122"/>
+      <c r="H68" s="21"/>
+      <c r="I68" s="103"/>
       <c r="J68" s="25"/>
     </row>
-    <row r="70" spans="1:10" s="84" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A70" s="2"/>
-      <c r="B70" s="85" t="s">
-        <v>117</v>
-      </c>
-      <c r="C70" s="86"/>
-      <c r="D70" s="86"/>
-      <c r="E70" s="2"/>
-      <c r="F70" s="83"/>
-      <c r="G70" s="92" t="s">
-        <v>125</v>
-      </c>
-      <c r="H70" s="99"/>
-      <c r="I70" s="83"/>
-      <c r="J70" s="83"/>
-    </row>
-    <row r="71" spans="1:10" s="84" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A71" s="2"/>
-      <c r="B71" s="82" t="s">
-        <v>113</v>
-      </c>
-      <c r="C71" s="2" t="s">
-        <v>112</v>
-      </c>
-      <c r="D71" s="2"/>
-      <c r="E71" s="2"/>
-      <c r="F71" s="83"/>
-      <c r="G71" s="82" t="s">
-        <v>109</v>
-      </c>
-      <c r="H71" s="2" t="s">
-        <v>75</v>
-      </c>
-      <c r="I71" s="83"/>
-      <c r="J71" s="83"/>
-    </row>
-    <row r="72" spans="1:10" s="84" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A72" s="2"/>
-      <c r="B72" s="82" t="s">
-        <v>114</v>
-      </c>
-      <c r="C72" s="2" t="s">
-        <v>75</v>
-      </c>
-      <c r="D72" s="2"/>
-      <c r="E72" s="2"/>
-      <c r="F72" s="83"/>
-      <c r="G72" s="82" t="s">
-        <v>110</v>
-      </c>
-      <c r="H72" s="2" t="s">
-        <v>102</v>
-      </c>
-      <c r="I72" s="83"/>
-      <c r="J72" s="83"/>
-    </row>
-    <row r="73" spans="1:10" s="84" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A73" s="2"/>
-      <c r="B73" s="82" t="s">
-        <v>115</v>
-      </c>
-      <c r="C73" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="D73" s="2"/>
-      <c r="E73" s="2"/>
-      <c r="F73" s="83"/>
-      <c r="G73" s="82" t="s">
-        <v>111</v>
-      </c>
-      <c r="H73" s="2" t="s">
-        <v>77</v>
-      </c>
-      <c r="I73" s="83"/>
-      <c r="J73" s="83"/>
-    </row>
-    <row r="74" spans="1:10" s="84" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A74" s="2"/>
-      <c r="B74" s="82" t="s">
-        <v>118</v>
-      </c>
-      <c r="C74" s="2" t="s">
-        <v>116</v>
-      </c>
-      <c r="D74" s="2"/>
-      <c r="E74" s="2"/>
-      <c r="F74" s="83"/>
-      <c r="G74" s="82"/>
-      <c r="H74" s="2"/>
-      <c r="I74" s="83"/>
-      <c r="J74" s="83"/>
-    </row>
-    <row r="75" spans="1:10" s="84" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A75" s="2"/>
-      <c r="D75" s="2"/>
-      <c r="E75" s="2"/>
-      <c r="F75" s="83"/>
-      <c r="G75" s="82"/>
-      <c r="H75" s="2"/>
-      <c r="I75" s="83"/>
-      <c r="J75" s="83"/>
+    <row r="69" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A69" s="5">
+        <v>21</v>
+      </c>
+      <c r="B69" s="100" t="s">
+        <v>18</v>
+      </c>
+      <c r="C69" s="10">
+        <v>41</v>
+      </c>
+      <c r="D69" s="125"/>
+      <c r="E69" s="74" t="s">
+        <v>147</v>
+      </c>
+      <c r="F69" s="114" t="s">
+        <v>146</v>
+      </c>
+      <c r="G69" s="115"/>
+      <c r="H69" s="23"/>
+      <c r="I69" s="126"/>
+      <c r="J69" s="26"/>
+    </row>
+    <row r="70" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A70" s="7"/>
+      <c r="B70" s="27"/>
+      <c r="C70" s="15"/>
+      <c r="D70" s="36"/>
+      <c r="E70" s="36"/>
+      <c r="F70" s="118"/>
+      <c r="G70" s="119"/>
+      <c r="H70" s="20"/>
+      <c r="I70" s="102"/>
+      <c r="J70" s="24"/>
+    </row>
+    <row r="71" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A71" s="9"/>
+      <c r="B71" s="52"/>
+      <c r="C71" s="16"/>
+      <c r="D71" s="21"/>
+      <c r="E71" s="21"/>
+      <c r="F71" s="121"/>
+      <c r="G71" s="122"/>
+      <c r="H71" s="21"/>
+      <c r="I71" s="103"/>
+      <c r="J71" s="25"/>
+    </row>
+    <row r="72" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A72" s="5">
+        <v>22</v>
+      </c>
+      <c r="B72" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="C72" s="4">
+        <v>5</v>
+      </c>
+      <c r="D72" s="43" t="s">
+        <v>108</v>
+      </c>
+      <c r="E72" s="22">
+        <v>44237</v>
+      </c>
+      <c r="F72" s="87">
+        <v>44617</v>
+      </c>
+      <c r="G72" s="67" t="s">
+        <v>105</v>
+      </c>
+      <c r="H72" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="I72" s="106" t="s">
+        <v>134</v>
+      </c>
+      <c r="J72" s="26"/>
+    </row>
+    <row r="73" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A73" s="7"/>
+      <c r="B73" s="6"/>
+      <c r="C73" s="11"/>
+      <c r="D73" s="44"/>
+      <c r="E73" s="44"/>
+      <c r="F73" s="32"/>
+      <c r="G73" s="68">
+        <v>89603906796</v>
+      </c>
+      <c r="H73" s="7"/>
+      <c r="I73" s="27"/>
+      <c r="J73" s="24"/>
+    </row>
+    <row r="74" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A74" s="9"/>
+      <c r="B74" s="8"/>
+      <c r="C74" s="12"/>
+      <c r="D74" s="9"/>
+      <c r="E74" s="9"/>
+      <c r="F74" s="45"/>
+      <c r="G74" s="69"/>
+      <c r="H74" s="9"/>
+      <c r="I74" s="52"/>
+      <c r="J74" s="25"/>
     </row>
     <row r="76" spans="1:10" s="84" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A76" s="2"/>
-      <c r="B76" s="90" t="s">
-        <v>124</v>
-      </c>
-      <c r="C76" s="91"/>
-      <c r="D76" s="2"/>
+      <c r="B76" s="85" t="s">
+        <v>117</v>
+      </c>
+      <c r="C76" s="86"/>
+      <c r="D76" s="86"/>
       <c r="E76" s="2"/>
       <c r="F76" s="83"/>
-      <c r="G76" s="95" t="s">
-        <v>128</v>
-      </c>
-      <c r="H76" s="98"/>
+      <c r="G76" s="92" t="s">
+        <v>125</v>
+      </c>
+      <c r="H76" s="99"/>
       <c r="I76" s="83"/>
       <c r="J76" s="83"/>
     </row>
     <row r="77" spans="1:10" s="84" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A77" s="2"/>
       <c r="B77" s="82" t="s">
-        <v>119</v>
+        <v>113</v>
       </c>
       <c r="C77" s="2" t="s">
-        <v>123</v>
+        <v>112</v>
       </c>
       <c r="D77" s="2"/>
       <c r="E77" s="2"/>
       <c r="F77" s="83"/>
       <c r="G77" s="82" t="s">
-        <v>126</v>
+        <v>109</v>
       </c>
       <c r="H77" s="2" t="s">
-        <v>127</v>
+        <v>75</v>
       </c>
       <c r="I77" s="83"/>
       <c r="J77" s="83"/>
@@ -3156,42 +3160,50 @@
     <row r="78" spans="1:10" s="84" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A78" s="2"/>
       <c r="B78" s="82" t="s">
-        <v>120</v>
+        <v>114</v>
       </c>
       <c r="C78" s="2" t="s">
-        <v>102</v>
+        <v>75</v>
       </c>
       <c r="D78" s="2"/>
       <c r="E78" s="2"/>
       <c r="F78" s="83"/>
-      <c r="G78" s="82"/>
-      <c r="H78" s="2"/>
+      <c r="G78" s="82" t="s">
+        <v>110</v>
+      </c>
+      <c r="H78" s="2" t="s">
+        <v>102</v>
+      </c>
       <c r="I78" s="83"/>
       <c r="J78" s="83"/>
     </row>
     <row r="79" spans="1:10" s="84" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A79" s="2"/>
       <c r="B79" s="82" t="s">
-        <v>121</v>
+        <v>115</v>
       </c>
       <c r="C79" s="2" t="s">
-        <v>69</v>
+        <v>79</v>
       </c>
       <c r="D79" s="2"/>
       <c r="E79" s="2"/>
       <c r="F79" s="83"/>
-      <c r="G79" s="82"/>
-      <c r="H79" s="2"/>
+      <c r="G79" s="82" t="s">
+        <v>111</v>
+      </c>
+      <c r="H79" s="2" t="s">
+        <v>77</v>
+      </c>
       <c r="I79" s="83"/>
       <c r="J79" s="83"/>
     </row>
     <row r="80" spans="1:10" s="84" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A80" s="2"/>
       <c r="B80" s="82" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="C80" s="2" t="s">
-        <v>104</v>
+        <v>116</v>
       </c>
       <c r="D80" s="2"/>
       <c r="E80" s="2"/>
@@ -3201,8 +3213,102 @@
       <c r="I80" s="83"/>
       <c r="J80" s="83"/>
     </row>
-    <row r="81" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B81" s="1" t="s">
+    <row r="81" spans="1:10" s="84" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A81" s="2"/>
+      <c r="D81" s="2"/>
+      <c r="E81" s="2"/>
+      <c r="F81" s="83"/>
+      <c r="G81" s="82"/>
+      <c r="H81" s="2"/>
+      <c r="I81" s="83"/>
+      <c r="J81" s="83"/>
+    </row>
+    <row r="82" spans="1:10" s="84" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A82" s="2"/>
+      <c r="B82" s="90" t="s">
+        <v>124</v>
+      </c>
+      <c r="C82" s="91"/>
+      <c r="D82" s="2"/>
+      <c r="E82" s="2"/>
+      <c r="F82" s="83"/>
+      <c r="G82" s="95" t="s">
+        <v>128</v>
+      </c>
+      <c r="H82" s="98"/>
+      <c r="I82" s="83"/>
+      <c r="J82" s="83"/>
+    </row>
+    <row r="83" spans="1:10" s="84" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A83" s="2"/>
+      <c r="B83" s="82" t="s">
+        <v>119</v>
+      </c>
+      <c r="C83" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="D83" s="2"/>
+      <c r="E83" s="2"/>
+      <c r="F83" s="83"/>
+      <c r="G83" s="82" t="s">
+        <v>126</v>
+      </c>
+      <c r="H83" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="I83" s="83"/>
+      <c r="J83" s="83"/>
+    </row>
+    <row r="84" spans="1:10" s="84" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A84" s="2"/>
+      <c r="B84" s="82" t="s">
+        <v>120</v>
+      </c>
+      <c r="C84" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="D84" s="2"/>
+      <c r="E84" s="2"/>
+      <c r="F84" s="83"/>
+      <c r="G84" s="82"/>
+      <c r="H84" s="2"/>
+      <c r="I84" s="83"/>
+      <c r="J84" s="83"/>
+    </row>
+    <row r="85" spans="1:10" s="84" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A85" s="2"/>
+      <c r="B85" s="82" t="s">
+        <v>121</v>
+      </c>
+      <c r="C85" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="D85" s="2"/>
+      <c r="E85" s="2"/>
+      <c r="F85" s="83"/>
+      <c r="G85" s="82"/>
+      <c r="H85" s="2"/>
+      <c r="I85" s="83"/>
+      <c r="J85" s="83"/>
+    </row>
+    <row r="86" spans="1:10" s="84" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A86" s="2"/>
+      <c r="B86" s="82" t="s">
+        <v>122</v>
+      </c>
+      <c r="C86" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="D86" s="2"/>
+      <c r="E86" s="2"/>
+      <c r="F86" s="83"/>
+      <c r="G86" s="82"/>
+      <c r="H86" s="2"/>
+      <c r="I86" s="83"/>
+      <c r="J86" s="83"/>
+    </row>
+    <row r="87" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="B87" s="1" t="s">
         <v>136</v>
       </c>
     </row>

--- a/RENCANA BON VOYAGE.xlsx
+++ b/RENCANA BON VOYAGE.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Mapan\progress\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A8E7D14E-DBC7-4114-B879-789EA81FBC7F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{83517DAD-8393-456F-9048-0E4381610C98}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -21,11 +21,20 @@
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">progres!$A$1:$I$43</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="276" uniqueCount="158">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="277" uniqueCount="160">
   <si>
     <t>NO</t>
   </si>
@@ -378,9 +387,6 @@
     <t>32 ORG</t>
   </si>
   <si>
-    <t>KIRIM BN 01 DESEMBER  2021</t>
-  </si>
-  <si>
     <t>4. DP5NT40</t>
   </si>
   <si>
@@ -499,6 +505,15 @@
   </si>
   <si>
     <t>20 MARET</t>
+  </si>
+  <si>
+    <t>15 NOV</t>
+  </si>
+  <si>
+    <t>22 NOV</t>
+  </si>
+  <si>
+    <t>KIRIM BN '22 NOV 2021</t>
   </si>
 </sst>
 </file>
@@ -537,7 +552,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="7">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -571,6 +586,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="7" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -645,7 +666,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="146">
+  <cellXfs count="147">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1023,6 +1044,12 @@
     <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="2"/>
     </xf>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" indent="2"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1062,11 +1089,8 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" indent="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" indent="2"/>
+    <xf numFmtId="164" fontId="2" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1772,8 +1796,8 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:J87"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" zoomScale="70" zoomScaleNormal="70" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="E12" sqref="E12"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="C28" sqref="C28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1792,46 +1816,46 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="15" x14ac:dyDescent="0.25">
-      <c r="A1" s="131" t="s">
+      <c r="A1" s="133" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="131" t="s">
+      <c r="B1" s="133" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="131" t="s">
+      <c r="C1" s="133" t="s">
         <v>27</v>
       </c>
-      <c r="D1" s="137" t="s">
+      <c r="D1" s="139" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="137"/>
-      <c r="F1" s="135" t="s">
+      <c r="E1" s="139"/>
+      <c r="F1" s="137" t="s">
         <v>8</v>
       </c>
-      <c r="G1" s="133" t="s">
+      <c r="G1" s="135" t="s">
         <v>4</v>
       </c>
-      <c r="H1" s="131" t="s">
+      <c r="H1" s="133" t="s">
         <v>2</v>
       </c>
-      <c r="I1" s="131" t="s">
+      <c r="I1" s="133" t="s">
         <v>56</v>
       </c>
-      <c r="J1" s="131"/>
+      <c r="J1" s="133"/>
     </row>
     <row r="2" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="132"/>
-      <c r="B2" s="132"/>
-      <c r="C2" s="132"/>
+      <c r="A2" s="134"/>
+      <c r="B2" s="134"/>
+      <c r="C2" s="134"/>
       <c r="D2" s="17" t="s">
         <v>6</v>
       </c>
       <c r="E2" s="17" t="s">
         <v>7</v>
       </c>
-      <c r="F2" s="136"/>
-      <c r="G2" s="134"/>
-      <c r="H2" s="132"/>
+      <c r="F2" s="138"/>
+      <c r="G2" s="136"/>
+      <c r="H2" s="134"/>
       <c r="I2" s="17" t="s">
         <v>6</v>
       </c>
@@ -1853,7 +1877,7 @@
         <v>107</v>
       </c>
       <c r="E3" s="97" t="s">
-        <v>95</v>
+        <v>158</v>
       </c>
       <c r="F3" s="79" t="s">
         <v>52</v>
@@ -1908,8 +1932,8 @@
       <c r="D6" s="76" t="s">
         <v>107</v>
       </c>
-      <c r="E6" s="97" t="s">
-        <v>95</v>
+      <c r="E6" s="75" t="s">
+        <v>158</v>
       </c>
       <c r="F6" s="79" t="s">
         <v>52</v>
@@ -1963,10 +1987,10 @@
       </c>
       <c r="D9" s="74"/>
       <c r="E9" s="97" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="F9" s="113" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="G9" s="109"/>
       <c r="H9" s="23"/>
@@ -1980,7 +2004,7 @@
       <c r="D10" s="20"/>
       <c r="E10" s="20"/>
       <c r="F10" s="49"/>
-      <c r="G10" s="144"/>
+      <c r="G10" s="131"/>
       <c r="H10" s="20"/>
       <c r="I10" s="102"/>
       <c r="J10" s="24"/>
@@ -1991,7 +2015,7 @@
       <c r="C11" s="12"/>
       <c r="D11" s="21"/>
       <c r="E11" s="21"/>
-      <c r="F11" s="145"/>
+      <c r="F11" s="132"/>
       <c r="G11" s="112"/>
       <c r="H11" s="21"/>
       <c r="I11" s="103"/>
@@ -2009,10 +2033,10 @@
       </c>
       <c r="D12" s="74"/>
       <c r="E12" s="97" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="F12" s="113" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="G12" s="109"/>
       <c r="H12" s="23"/>
@@ -2059,7 +2083,7 @@
         <v>30</v>
       </c>
       <c r="E15" s="74" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="F15" s="96">
         <v>44520</v>
@@ -2115,7 +2139,7 @@
         <v>30</v>
       </c>
       <c r="E18" s="74" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="F18" s="96">
         <v>44520</v>
@@ -2171,7 +2195,7 @@
         <v>108</v>
       </c>
       <c r="E21" s="97" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="F21" s="88" t="s">
         <v>65</v>
@@ -2227,7 +2251,7 @@
         <v>108</v>
       </c>
       <c r="E24" s="97" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="F24" s="88" t="s">
         <v>65</v>
@@ -2280,16 +2304,16 @@
         <v>18</v>
       </c>
       <c r="D27" s="108" t="s">
+        <v>140</v>
+      </c>
+      <c r="E27" s="97" t="s">
+        <v>142</v>
+      </c>
+      <c r="F27" s="113" t="s">
         <v>141</v>
       </c>
-      <c r="E27" s="97" t="s">
-        <v>143</v>
-      </c>
-      <c r="F27" s="113" t="s">
-        <v>142</v>
-      </c>
       <c r="G27" s="109" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="H27" s="23"/>
       <c r="I27" s="78"/>
@@ -2303,7 +2327,7 @@
       <c r="E28" s="36"/>
       <c r="F28" s="110"/>
       <c r="G28" s="127" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="H28" s="20"/>
       <c r="I28" s="102"/>
@@ -2333,13 +2357,13 @@
       </c>
       <c r="D30" s="108"/>
       <c r="E30" s="97" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="F30" s="113" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="G30" s="109" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="H30" s="23"/>
       <c r="I30" s="78"/>
@@ -2353,7 +2377,7 @@
       <c r="E31" s="36"/>
       <c r="F31" s="110"/>
       <c r="G31" s="127" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="H31" s="20"/>
       <c r="I31" s="102"/>
@@ -2385,7 +2409,7 @@
         <v>28</v>
       </c>
       <c r="E33" s="76" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="F33" s="93">
         <v>44501</v>
@@ -2440,8 +2464,8 @@
       <c r="D36" s="14" t="s">
         <v>43</v>
       </c>
-      <c r="E36" s="22">
-        <v>44520</v>
+      <c r="E36" s="75" t="s">
+        <v>158</v>
       </c>
       <c r="F36" s="80" t="s">
         <v>44</v>
@@ -2509,7 +2533,7 @@
         <v>102</v>
       </c>
       <c r="I39" s="106" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="J39" s="24"/>
     </row>
@@ -2606,16 +2630,16 @@
         <v>27</v>
       </c>
       <c r="D45" s="14" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="E45" s="97" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="F45" s="105" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="G45" s="66" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="H45" s="104" t="s">
         <v>89</v>
@@ -2631,7 +2655,7 @@
       <c r="E46" s="47"/>
       <c r="F46" s="29"/>
       <c r="G46" s="72" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="H46" s="7"/>
       <c r="I46" s="27"/>
@@ -2663,7 +2687,7 @@
         <v>83</v>
       </c>
       <c r="E48" s="76" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="F48" s="94">
         <v>44510</v>
@@ -2716,16 +2740,16 @@
         <v>34</v>
       </c>
       <c r="D51" s="107" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="E51" s="107" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="F51" s="87" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="G51" s="68" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="H51" s="7"/>
       <c r="I51" s="27"/>
@@ -2739,7 +2763,7 @@
       <c r="E52" s="7"/>
       <c r="F52" s="32"/>
       <c r="G52" s="130" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="H52" s="7"/>
       <c r="I52" s="27"/>
@@ -2771,7 +2795,7 @@
         <v>40</v>
       </c>
       <c r="E54" s="75" t="s">
-        <v>95</v>
+        <v>158</v>
       </c>
       <c r="F54" s="81" t="s">
         <v>42</v>
@@ -2824,13 +2848,13 @@
         <v>29</v>
       </c>
       <c r="D57" s="129" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="E57" s="74" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="F57" s="124" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="G57" s="115"/>
       <c r="H57" s="23"/>
@@ -2874,8 +2898,8 @@
       <c r="D60" s="43">
         <v>44453</v>
       </c>
-      <c r="E60" s="75" t="s">
-        <v>95</v>
+      <c r="E60" s="76" t="s">
+        <v>157</v>
       </c>
       <c r="F60" s="81" t="s">
         <v>42</v>
@@ -2930,8 +2954,8 @@
       <c r="D63" s="43">
         <v>44453</v>
       </c>
-      <c r="E63" s="75" t="s">
-        <v>95</v>
+      <c r="E63" s="76" t="s">
+        <v>157</v>
       </c>
       <c r="F63" s="81" t="s">
         <v>42</v>
@@ -2985,10 +3009,10 @@
       </c>
       <c r="D66" s="125"/>
       <c r="E66" s="74" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="F66" s="114" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="G66" s="115"/>
       <c r="H66" s="23"/>
@@ -3031,10 +3055,10 @@
       </c>
       <c r="D69" s="125"/>
       <c r="E69" s="74" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="F69" s="114" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="G69" s="115"/>
       <c r="H69" s="23"/>
@@ -3091,7 +3115,7 @@
         <v>104</v>
       </c>
       <c r="I72" s="106" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="J72" s="26"/>
     </row>
@@ -3124,14 +3148,14 @@
     <row r="76" spans="1:10" s="84" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A76" s="2"/>
       <c r="B76" s="85" t="s">
-        <v>117</v>
+        <v>159</v>
       </c>
       <c r="C76" s="86"/>
       <c r="D76" s="86"/>
       <c r="E76" s="2"/>
       <c r="F76" s="83"/>
       <c r="G76" s="92" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="H76" s="99"/>
       <c r="I76" s="83"/>
@@ -3139,7 +3163,7 @@
     </row>
     <row r="77" spans="1:10" s="84" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A77" s="2"/>
-      <c r="B77" s="82" t="s">
+      <c r="B77" s="146" t="s">
         <v>113</v>
       </c>
       <c r="C77" s="2" t="s">
@@ -3148,7 +3172,7 @@
       <c r="D77" s="2"/>
       <c r="E77" s="2"/>
       <c r="F77" s="83"/>
-      <c r="G77" s="82" t="s">
+      <c r="G77" s="146" t="s">
         <v>109</v>
       </c>
       <c r="H77" s="2" t="s">
@@ -3179,7 +3203,7 @@
     </row>
     <row r="79" spans="1:10" s="84" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A79" s="2"/>
-      <c r="B79" s="82" t="s">
+      <c r="B79" s="146" t="s">
         <v>115</v>
       </c>
       <c r="C79" s="2" t="s">
@@ -3188,7 +3212,7 @@
       <c r="D79" s="2"/>
       <c r="E79" s="2"/>
       <c r="F79" s="83"/>
-      <c r="G79" s="82" t="s">
+      <c r="G79" s="146" t="s">
         <v>111</v>
       </c>
       <c r="H79" s="2" t="s">
@@ -3199,8 +3223,8 @@
     </row>
     <row r="80" spans="1:10" s="84" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A80" s="2"/>
-      <c r="B80" s="82" t="s">
-        <v>118</v>
+      <c r="B80" s="146" t="s">
+        <v>117</v>
       </c>
       <c r="C80" s="2" t="s">
         <v>116</v>
@@ -3226,14 +3250,14 @@
     <row r="82" spans="1:10" s="84" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A82" s="2"/>
       <c r="B82" s="90" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="C82" s="91"/>
       <c r="D82" s="2"/>
       <c r="E82" s="2"/>
       <c r="F82" s="83"/>
       <c r="G82" s="95" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="H82" s="98"/>
       <c r="I82" s="83"/>
@@ -3242,19 +3266,19 @@
     <row r="83" spans="1:10" s="84" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A83" s="2"/>
       <c r="B83" s="82" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="C83" s="2" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="D83" s="2"/>
       <c r="E83" s="2"/>
       <c r="F83" s="83"/>
-      <c r="G83" s="82" t="s">
+      <c r="G83" s="146" t="s">
+        <v>125</v>
+      </c>
+      <c r="H83" s="2" t="s">
         <v>126</v>
-      </c>
-      <c r="H83" s="2" t="s">
-        <v>127</v>
       </c>
       <c r="I83" s="83"/>
       <c r="J83" s="83"/>
@@ -3262,7 +3286,7 @@
     <row r="84" spans="1:10" s="84" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A84" s="2"/>
       <c r="B84" s="82" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="C84" s="2" t="s">
         <v>102</v>
@@ -3278,7 +3302,7 @@
     <row r="85" spans="1:10" s="84" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A85" s="2"/>
       <c r="B85" s="82" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="C85" s="2" t="s">
         <v>69</v>
@@ -3294,7 +3318,7 @@
     <row r="86" spans="1:10" s="84" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A86" s="2"/>
       <c r="B86" s="82" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="C86" s="2" t="s">
         <v>104</v>
@@ -3309,7 +3333,7 @@
     </row>
     <row r="87" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B87" s="1" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
     </row>
   </sheetData>
@@ -3353,46 +3377,46 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="18" x14ac:dyDescent="0.2">
-      <c r="A1" s="140" t="s">
+      <c r="A1" s="142" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="140" t="s">
+      <c r="B1" s="142" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="140" t="s">
+      <c r="C1" s="142" t="s">
         <v>27</v>
       </c>
-      <c r="D1" s="140" t="s">
+      <c r="D1" s="142" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="140"/>
-      <c r="F1" s="142" t="s">
+      <c r="E1" s="142"/>
+      <c r="F1" s="144" t="s">
         <v>106</v>
       </c>
-      <c r="G1" s="140" t="s">
+      <c r="G1" s="142" t="s">
         <v>4</v>
       </c>
-      <c r="H1" s="138" t="s">
+      <c r="H1" s="140" t="s">
         <v>2</v>
       </c>
-      <c r="I1" s="131" t="s">
+      <c r="I1" s="133" t="s">
         <v>56</v>
       </c>
-      <c r="J1" s="131"/>
+      <c r="J1" s="133"/>
     </row>
     <row r="2" spans="1:10" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="141"/>
-      <c r="B2" s="141"/>
-      <c r="C2" s="141"/>
+      <c r="A2" s="143"/>
+      <c r="B2" s="143"/>
+      <c r="C2" s="143"/>
       <c r="D2" s="73" t="s">
         <v>6</v>
       </c>
       <c r="E2" s="19" t="s">
         <v>7</v>
       </c>
-      <c r="F2" s="143"/>
-      <c r="G2" s="141"/>
-      <c r="H2" s="139"/>
+      <c r="F2" s="145"/>
+      <c r="G2" s="143"/>
+      <c r="H2" s="141"/>
       <c r="I2" s="17" t="s">
         <v>6</v>
       </c>
@@ -4168,7 +4192,7 @@
         <v>44237</v>
       </c>
       <c r="E42" s="14" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="F42" s="128">
         <v>44501</v>

--- a/RENCANA BON VOYAGE.xlsx
+++ b/RENCANA BON VOYAGE.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Mapan\progress\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{83517DAD-8393-456F-9048-0E4381610C98}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{30BE4AF2-99B6-4E03-B9FB-418D5DB2083D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="277" uniqueCount="160">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="280" uniqueCount="161">
   <si>
     <t>NO</t>
   </si>
@@ -514,6 +514,9 @@
   </si>
   <si>
     <t>KIRIM BN '22 NOV 2021</t>
+  </si>
+  <si>
+    <t>5 ORG</t>
   </si>
 </sst>
 </file>
@@ -666,7 +669,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="147">
+  <cellXfs count="148">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1050,6 +1053,9 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" indent="2"/>
     </xf>
+    <xf numFmtId="164" fontId="2" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1089,8 +1095,8 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="2" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="16" fontId="2" fillId="2" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1794,10 +1800,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:J87"/>
+  <dimension ref="A1:J90"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="C28" sqref="C28"/>
+    <sheetView tabSelected="1" topLeftCell="A25" zoomScale="70" zoomScaleNormal="70" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="C73" sqref="C73"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1816,46 +1822,46 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="15" x14ac:dyDescent="0.25">
-      <c r="A1" s="133" t="s">
+      <c r="A1" s="134" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="133" t="s">
+      <c r="B1" s="134" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="133" t="s">
+      <c r="C1" s="134" t="s">
         <v>27</v>
       </c>
-      <c r="D1" s="139" t="s">
+      <c r="D1" s="140" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="139"/>
-      <c r="F1" s="137" t="s">
+      <c r="E1" s="140"/>
+      <c r="F1" s="138" t="s">
         <v>8</v>
       </c>
-      <c r="G1" s="135" t="s">
+      <c r="G1" s="136" t="s">
         <v>4</v>
       </c>
-      <c r="H1" s="133" t="s">
+      <c r="H1" s="134" t="s">
         <v>2</v>
       </c>
-      <c r="I1" s="133" t="s">
+      <c r="I1" s="134" t="s">
         <v>56</v>
       </c>
-      <c r="J1" s="133"/>
+      <c r="J1" s="134"/>
     </row>
     <row r="2" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="134"/>
-      <c r="B2" s="134"/>
-      <c r="C2" s="134"/>
+      <c r="A2" s="135"/>
+      <c r="B2" s="135"/>
+      <c r="C2" s="135"/>
       <c r="D2" s="17" t="s">
         <v>6</v>
       </c>
       <c r="E2" s="17" t="s">
         <v>7</v>
       </c>
-      <c r="F2" s="138"/>
-      <c r="G2" s="136"/>
-      <c r="H2" s="134"/>
+      <c r="F2" s="139"/>
+      <c r="G2" s="137"/>
+      <c r="H2" s="135"/>
       <c r="I2" s="17" t="s">
         <v>6</v>
       </c>
@@ -3097,25 +3103,19 @@
         <v>97</v>
       </c>
       <c r="C72" s="4">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D72" s="43" t="s">
-        <v>108</v>
-      </c>
-      <c r="E72" s="22">
-        <v>44237</v>
-      </c>
-      <c r="F72" s="87">
-        <v>44617</v>
-      </c>
-      <c r="G72" s="67" t="s">
-        <v>105</v>
-      </c>
+        <v>146</v>
+      </c>
+      <c r="E72" s="22"/>
+      <c r="F72" s="87"/>
+      <c r="G72" s="67"/>
       <c r="H72" s="5" t="s">
-        <v>104</v>
-      </c>
-      <c r="I72" s="106" t="s">
-        <v>133</v>
+        <v>160</v>
+      </c>
+      <c r="I72" s="147">
+        <v>44287</v>
       </c>
       <c r="J72" s="26"/>
     </row>
@@ -3127,7 +3127,7 @@
       <c r="E73" s="44"/>
       <c r="F73" s="32"/>
       <c r="G73" s="68">
-        <v>89603906796</v>
+        <v>8123522575</v>
       </c>
       <c r="H73" s="7"/>
       <c r="I73" s="27"/>
@@ -3145,152 +3145,156 @@
       <c r="I74" s="52"/>
       <c r="J74" s="25"/>
     </row>
-    <row r="76" spans="1:10" s="84" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A76" s="2"/>
-      <c r="B76" s="85" t="s">
-        <v>159</v>
-      </c>
-      <c r="C76" s="86"/>
-      <c r="D76" s="86"/>
-      <c r="E76" s="2"/>
-      <c r="F76" s="83"/>
-      <c r="G76" s="92" t="s">
-        <v>124</v>
-      </c>
-      <c r="H76" s="99"/>
-      <c r="I76" s="83"/>
-      <c r="J76" s="83"/>
-    </row>
-    <row r="77" spans="1:10" s="84" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A77" s="2"/>
-      <c r="B77" s="146" t="s">
-        <v>113</v>
-      </c>
-      <c r="C77" s="2" t="s">
-        <v>112</v>
-      </c>
-      <c r="D77" s="2"/>
-      <c r="E77" s="2"/>
-      <c r="F77" s="83"/>
-      <c r="G77" s="146" t="s">
-        <v>109</v>
-      </c>
-      <c r="H77" s="2" t="s">
-        <v>75</v>
-      </c>
-      <c r="I77" s="83"/>
-      <c r="J77" s="83"/>
-    </row>
-    <row r="78" spans="1:10" s="84" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A78" s="2"/>
-      <c r="B78" s="82" t="s">
-        <v>114</v>
-      </c>
-      <c r="C78" s="2" t="s">
-        <v>75</v>
-      </c>
-      <c r="D78" s="2"/>
-      <c r="E78" s="2"/>
-      <c r="F78" s="83"/>
-      <c r="G78" s="82" t="s">
-        <v>110</v>
-      </c>
-      <c r="H78" s="2" t="s">
-        <v>102</v>
-      </c>
-      <c r="I78" s="83"/>
-      <c r="J78" s="83"/>
+    <row r="75" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A75" s="5">
+        <v>23</v>
+      </c>
+      <c r="B75" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="C75" s="4">
+        <v>5</v>
+      </c>
+      <c r="D75" s="43" t="s">
+        <v>108</v>
+      </c>
+      <c r="E75" s="22">
+        <v>44237</v>
+      </c>
+      <c r="F75" s="87">
+        <v>44617</v>
+      </c>
+      <c r="G75" s="67" t="s">
+        <v>105</v>
+      </c>
+      <c r="H75" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="I75" s="106" t="s">
+        <v>133</v>
+      </c>
+      <c r="J75" s="26"/>
+    </row>
+    <row r="76" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A76" s="7"/>
+      <c r="B76" s="6"/>
+      <c r="C76" s="11"/>
+      <c r="D76" s="44"/>
+      <c r="E76" s="44"/>
+      <c r="F76" s="32"/>
+      <c r="G76" s="68">
+        <v>89603906796</v>
+      </c>
+      <c r="H76" s="7"/>
+      <c r="I76" s="27"/>
+      <c r="J76" s="24"/>
+    </row>
+    <row r="77" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A77" s="9"/>
+      <c r="B77" s="8"/>
+      <c r="C77" s="12"/>
+      <c r="D77" s="9"/>
+      <c r="E77" s="9"/>
+      <c r="F77" s="45"/>
+      <c r="G77" s="69"/>
+      <c r="H77" s="9"/>
+      <c r="I77" s="52"/>
+      <c r="J77" s="25"/>
     </row>
     <row r="79" spans="1:10" s="84" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A79" s="2"/>
-      <c r="B79" s="146" t="s">
-        <v>115</v>
-      </c>
-      <c r="C79" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="D79" s="2"/>
+      <c r="B79" s="85" t="s">
+        <v>159</v>
+      </c>
+      <c r="C79" s="86"/>
+      <c r="D79" s="86"/>
       <c r="E79" s="2"/>
       <c r="F79" s="83"/>
-      <c r="G79" s="146" t="s">
-        <v>111</v>
-      </c>
-      <c r="H79" s="2" t="s">
-        <v>77</v>
-      </c>
+      <c r="G79" s="92" t="s">
+        <v>124</v>
+      </c>
+      <c r="H79" s="99"/>
       <c r="I79" s="83"/>
       <c r="J79" s="83"/>
     </row>
     <row r="80" spans="1:10" s="84" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A80" s="2"/>
-      <c r="B80" s="146" t="s">
-        <v>117</v>
+      <c r="B80" s="133" t="s">
+        <v>113</v>
       </c>
       <c r="C80" s="2" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="D80" s="2"/>
       <c r="E80" s="2"/>
       <c r="F80" s="83"/>
-      <c r="G80" s="82"/>
-      <c r="H80" s="2"/>
+      <c r="G80" s="133" t="s">
+        <v>109</v>
+      </c>
+      <c r="H80" s="2" t="s">
+        <v>75</v>
+      </c>
       <c r="I80" s="83"/>
       <c r="J80" s="83"/>
     </row>
     <row r="81" spans="1:10" s="84" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A81" s="2"/>
+      <c r="B81" s="82" t="s">
+        <v>114</v>
+      </c>
+      <c r="C81" s="2" t="s">
+        <v>75</v>
+      </c>
       <c r="D81" s="2"/>
       <c r="E81" s="2"/>
       <c r="F81" s="83"/>
-      <c r="G81" s="82"/>
-      <c r="H81" s="2"/>
+      <c r="G81" s="82" t="s">
+        <v>110</v>
+      </c>
+      <c r="H81" s="2" t="s">
+        <v>102</v>
+      </c>
       <c r="I81" s="83"/>
       <c r="J81" s="83"/>
     </row>
     <row r="82" spans="1:10" s="84" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A82" s="2"/>
-      <c r="B82" s="90" t="s">
-        <v>123</v>
-      </c>
-      <c r="C82" s="91"/>
+      <c r="B82" s="133" t="s">
+        <v>115</v>
+      </c>
+      <c r="C82" s="2" t="s">
+        <v>79</v>
+      </c>
       <c r="D82" s="2"/>
       <c r="E82" s="2"/>
       <c r="F82" s="83"/>
-      <c r="G82" s="95" t="s">
-        <v>127</v>
-      </c>
-      <c r="H82" s="98"/>
+      <c r="G82" s="133" t="s">
+        <v>111</v>
+      </c>
+      <c r="H82" s="2" t="s">
+        <v>77</v>
+      </c>
       <c r="I82" s="83"/>
       <c r="J82" s="83"/>
     </row>
     <row r="83" spans="1:10" s="84" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A83" s="2"/>
-      <c r="B83" s="82" t="s">
-        <v>118</v>
+      <c r="B83" s="133" t="s">
+        <v>117</v>
       </c>
       <c r="C83" s="2" t="s">
-        <v>122</v>
+        <v>116</v>
       </c>
       <c r="D83" s="2"/>
       <c r="E83" s="2"/>
       <c r="F83" s="83"/>
-      <c r="G83" s="146" t="s">
-        <v>125</v>
-      </c>
-      <c r="H83" s="2" t="s">
-        <v>126</v>
-      </c>
+      <c r="G83" s="82"/>
+      <c r="H83" s="2"/>
       <c r="I83" s="83"/>
       <c r="J83" s="83"/>
     </row>
     <row r="84" spans="1:10" s="84" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A84" s="2"/>
-      <c r="B84" s="82" t="s">
-        <v>119</v>
-      </c>
-      <c r="C84" s="2" t="s">
-        <v>102</v>
-      </c>
       <c r="D84" s="2"/>
       <c r="E84" s="2"/>
       <c r="F84" s="83"/>
@@ -3301,38 +3305,90 @@
     </row>
     <row r="85" spans="1:10" s="84" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A85" s="2"/>
-      <c r="B85" s="82" t="s">
-        <v>120</v>
-      </c>
-      <c r="C85" s="2" t="s">
-        <v>69</v>
-      </c>
+      <c r="B85" s="90" t="s">
+        <v>123</v>
+      </c>
+      <c r="C85" s="91"/>
       <c r="D85" s="2"/>
       <c r="E85" s="2"/>
       <c r="F85" s="83"/>
-      <c r="G85" s="82"/>
-      <c r="H85" s="2"/>
+      <c r="G85" s="95" t="s">
+        <v>127</v>
+      </c>
+      <c r="H85" s="98"/>
       <c r="I85" s="83"/>
       <c r="J85" s="83"/>
     </row>
     <row r="86" spans="1:10" s="84" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A86" s="2"/>
       <c r="B86" s="82" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="C86" s="2" t="s">
-        <v>104</v>
+        <v>122</v>
       </c>
       <c r="D86" s="2"/>
       <c r="E86" s="2"/>
       <c r="F86" s="83"/>
-      <c r="G86" s="82"/>
-      <c r="H86" s="2"/>
+      <c r="G86" s="133" t="s">
+        <v>125</v>
+      </c>
+      <c r="H86" s="2" t="s">
+        <v>126</v>
+      </c>
       <c r="I86" s="83"/>
       <c r="J86" s="83"/>
     </row>
-    <row r="87" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="B87" s="1" t="s">
+    <row r="87" spans="1:10" s="84" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A87" s="2"/>
+      <c r="B87" s="82" t="s">
+        <v>119</v>
+      </c>
+      <c r="C87" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="D87" s="2"/>
+      <c r="E87" s="2"/>
+      <c r="F87" s="83"/>
+      <c r="G87" s="82"/>
+      <c r="H87" s="2"/>
+      <c r="I87" s="83"/>
+      <c r="J87" s="83"/>
+    </row>
+    <row r="88" spans="1:10" s="84" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A88" s="2"/>
+      <c r="B88" s="82" t="s">
+        <v>120</v>
+      </c>
+      <c r="C88" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="D88" s="2"/>
+      <c r="E88" s="2"/>
+      <c r="F88" s="83"/>
+      <c r="G88" s="82"/>
+      <c r="H88" s="2"/>
+      <c r="I88" s="83"/>
+      <c r="J88" s="83"/>
+    </row>
+    <row r="89" spans="1:10" s="84" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A89" s="2"/>
+      <c r="B89" s="82" t="s">
+        <v>121</v>
+      </c>
+      <c r="C89" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="D89" s="2"/>
+      <c r="E89" s="2"/>
+      <c r="F89" s="83"/>
+      <c r="G89" s="82"/>
+      <c r="H89" s="2"/>
+      <c r="I89" s="83"/>
+      <c r="J89" s="83"/>
+    </row>
+    <row r="90" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="B90" s="1" t="s">
         <v>135</v>
       </c>
     </row>
@@ -3377,46 +3433,46 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="18" x14ac:dyDescent="0.2">
-      <c r="A1" s="142" t="s">
+      <c r="A1" s="143" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="142" t="s">
+      <c r="B1" s="143" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="142" t="s">
+      <c r="C1" s="143" t="s">
         <v>27</v>
       </c>
-      <c r="D1" s="142" t="s">
+      <c r="D1" s="143" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="142"/>
-      <c r="F1" s="144" t="s">
+      <c r="E1" s="143"/>
+      <c r="F1" s="145" t="s">
         <v>106</v>
       </c>
-      <c r="G1" s="142" t="s">
+      <c r="G1" s="143" t="s">
         <v>4</v>
       </c>
-      <c r="H1" s="140" t="s">
+      <c r="H1" s="141" t="s">
         <v>2</v>
       </c>
-      <c r="I1" s="133" t="s">
+      <c r="I1" s="134" t="s">
         <v>56</v>
       </c>
-      <c r="J1" s="133"/>
+      <c r="J1" s="134"/>
     </row>
     <row r="2" spans="1:10" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="143"/>
-      <c r="B2" s="143"/>
-      <c r="C2" s="143"/>
+      <c r="A2" s="144"/>
+      <c r="B2" s="144"/>
+      <c r="C2" s="144"/>
       <c r="D2" s="73" t="s">
         <v>6</v>
       </c>
       <c r="E2" s="19" t="s">
         <v>7</v>
       </c>
-      <c r="F2" s="145"/>
-      <c r="G2" s="143"/>
-      <c r="H2" s="141"/>
+      <c r="F2" s="146"/>
+      <c r="G2" s="144"/>
+      <c r="H2" s="142"/>
       <c r="I2" s="17" t="s">
         <v>6</v>
       </c>

--- a/RENCANA BON VOYAGE.xlsx
+++ b/RENCANA BON VOYAGE.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Mapan\progress\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{30BE4AF2-99B6-4E03-B9FB-418D5DB2083D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{952A3B57-4AEC-4D7E-8C65-CF1954D371E1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -18,7 +18,7 @@
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">done!$A$1:$I$2</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">progres!$A$1:$I$43</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">progres!$A$1:$I$46</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="280" uniqueCount="161">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="292" uniqueCount="170">
   <si>
     <t>NO</t>
   </si>
@@ -420,9 +420,6 @@
     <t>KIRIM BN 01 NOV 2021</t>
   </si>
   <si>
-    <t>01 NOV</t>
-  </si>
-  <si>
     <t>01 FEB 22</t>
   </si>
   <si>
@@ -517,6 +514,36 @@
   </si>
   <si>
     <t>5 ORG</t>
+  </si>
+  <si>
+    <t>23 NOV</t>
+  </si>
+  <si>
+    <t>09 NOV</t>
+  </si>
+  <si>
+    <t>SYUKUR</t>
+  </si>
+  <si>
+    <t>082132218693</t>
+  </si>
+  <si>
+    <t>29 NOV</t>
+  </si>
+  <si>
+    <t>AGUS</t>
+  </si>
+  <si>
+    <t>082244629114</t>
+  </si>
+  <si>
+    <t>10 NOV</t>
+  </si>
+  <si>
+    <t>22 FEB</t>
+  </si>
+  <si>
+    <t>29 JUNI</t>
   </si>
 </sst>
 </file>
@@ -669,7 +696,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="148">
+  <cellXfs count="152">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -796,9 +823,6 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="2"/>
     </xf>
-    <xf numFmtId="15" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="15" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -881,9 +905,6 @@
     <xf numFmtId="16" fontId="2" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="16" fontId="2" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="16" fontId="2" fillId="2" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -937,9 +958,6 @@
     </xf>
     <xf numFmtId="15" fontId="2" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" indent="2"/>
-    </xf>
-    <xf numFmtId="16" fontId="2" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="2"/>
     </xf>
     <xf numFmtId="164" fontId="2" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -1029,9 +1047,6 @@
     <xf numFmtId="16" fontId="2" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="2"/>
     </xf>
-    <xf numFmtId="16" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
@@ -1056,6 +1071,9 @@
     <xf numFmtId="164" fontId="2" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="16" fontId="2" fillId="2" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1095,7 +1113,28 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="16" fontId="2" fillId="2" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="15" fontId="2" fillId="2" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="2"/>
+    </xf>
+    <xf numFmtId="16" fontId="2" fillId="5" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="2"/>
+    </xf>
+    <xf numFmtId="16" fontId="2" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="15" fontId="2" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="16" fontId="2" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
   </cellXfs>
@@ -1186,13 +1225,13 @@
     <xdr:from>
       <xdr:col>14</xdr:col>
       <xdr:colOff>189939</xdr:colOff>
-      <xdr:row>41</xdr:row>
+      <xdr:row>44</xdr:row>
       <xdr:rowOff>89245</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>14</xdr:col>
       <xdr:colOff>190299</xdr:colOff>
-      <xdr:row>41</xdr:row>
+      <xdr:row>44</xdr:row>
       <xdr:rowOff>89605</xdr:rowOff>
     </xdr:to>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
@@ -1251,7 +1290,7 @@
     <xdr:from>
       <xdr:col>14</xdr:col>
       <xdr:colOff>189939</xdr:colOff>
-      <xdr:row>44</xdr:row>
+      <xdr:row>47</xdr:row>
       <xdr:rowOff>89245</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="360" cy="360"/>
@@ -1800,10 +1839,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:J90"/>
+  <dimension ref="A1:J93"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A25" zoomScale="70" zoomScaleNormal="70" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="C73" sqref="C73"/>
+      <selection activeCell="G50" sqref="G50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1814,54 +1853,54 @@
     <col min="4" max="4" width="17" style="2" customWidth="1"/>
     <col min="5" max="5" width="18.42578125" style="2" customWidth="1"/>
     <col min="6" max="6" width="15.85546875" style="33" customWidth="1"/>
-    <col min="7" max="7" width="21.5703125" style="70" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="21.5703125" style="69" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="9.7109375" style="2" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="10.42578125" style="56" customWidth="1"/>
+    <col min="9" max="9" width="10.42578125" style="55" customWidth="1"/>
     <col min="10" max="10" width="14" style="28" bestFit="1" customWidth="1"/>
     <col min="11" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="15" x14ac:dyDescent="0.25">
-      <c r="A1" s="134" t="s">
+      <c r="A1" s="131" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="134" t="s">
+      <c r="B1" s="131" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="134" t="s">
+      <c r="C1" s="131" t="s">
         <v>27</v>
       </c>
-      <c r="D1" s="140" t="s">
+      <c r="D1" s="137" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="140"/>
-      <c r="F1" s="138" t="s">
+      <c r="E1" s="137"/>
+      <c r="F1" s="135" t="s">
         <v>8</v>
       </c>
-      <c r="G1" s="136" t="s">
+      <c r="G1" s="133" t="s">
         <v>4</v>
       </c>
-      <c r="H1" s="134" t="s">
+      <c r="H1" s="131" t="s">
         <v>2</v>
       </c>
-      <c r="I1" s="134" t="s">
+      <c r="I1" s="131" t="s">
         <v>56</v>
       </c>
-      <c r="J1" s="134"/>
+      <c r="J1" s="131"/>
     </row>
     <row r="2" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="135"/>
-      <c r="B2" s="135"/>
-      <c r="C2" s="135"/>
+      <c r="A2" s="132"/>
+      <c r="B2" s="132"/>
+      <c r="C2" s="132"/>
       <c r="D2" s="17" t="s">
         <v>6</v>
       </c>
       <c r="E2" s="17" t="s">
         <v>7</v>
       </c>
-      <c r="F2" s="139"/>
-      <c r="G2" s="137"/>
-      <c r="H2" s="135"/>
+      <c r="F2" s="136"/>
+      <c r="G2" s="134"/>
+      <c r="H2" s="132"/>
       <c r="I2" s="17" t="s">
         <v>6</v>
       </c>
@@ -1873,28 +1912,28 @@
       <c r="A3" s="5">
         <v>1</v>
       </c>
-      <c r="B3" s="100" t="s">
+      <c r="B3" s="97" t="s">
         <v>5</v>
       </c>
       <c r="C3" s="4">
         <v>10</v>
       </c>
-      <c r="D3" s="76" t="s">
+      <c r="D3" s="74" t="s">
         <v>107</v>
       </c>
-      <c r="E3" s="97" t="s">
-        <v>158</v>
-      </c>
-      <c r="F3" s="79" t="s">
+      <c r="E3" s="144" t="s">
+        <v>160</v>
+      </c>
+      <c r="F3" s="77" t="s">
         <v>52</v>
       </c>
-      <c r="G3" s="66" t="s">
+      <c r="G3" s="65" t="s">
         <v>50</v>
       </c>
       <c r="H3" s="5" t="s">
         <v>68</v>
       </c>
-      <c r="I3" s="71" t="s">
+      <c r="I3" s="70" t="s">
         <v>98</v>
       </c>
       <c r="J3" s="26"/>
@@ -1906,7 +1945,7 @@
       <c r="D4" s="20"/>
       <c r="E4" s="20"/>
       <c r="F4" s="29"/>
-      <c r="G4" s="64">
+      <c r="G4" s="63">
         <v>81331434743</v>
       </c>
       <c r="H4" s="7"/>
@@ -1915,42 +1954,42 @@
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A5" s="9"/>
-      <c r="B5" s="52"/>
+      <c r="B5" s="51"/>
       <c r="C5" s="12"/>
       <c r="D5" s="21"/>
       <c r="E5" s="21"/>
       <c r="F5" s="30"/>
-      <c r="G5" s="65"/>
+      <c r="G5" s="64"/>
       <c r="H5" s="9"/>
-      <c r="I5" s="52"/>
+      <c r="I5" s="51"/>
       <c r="J5" s="25"/>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A6" s="5">
         <v>2</v>
       </c>
-      <c r="B6" s="100" t="s">
+      <c r="B6" s="97" t="s">
         <v>9</v>
       </c>
       <c r="C6" s="4">
         <v>10</v>
       </c>
-      <c r="D6" s="76" t="s">
+      <c r="D6" s="74" t="s">
         <v>107</v>
       </c>
-      <c r="E6" s="75" t="s">
-        <v>158</v>
-      </c>
-      <c r="F6" s="79" t="s">
+      <c r="E6" s="74" t="s">
+        <v>160</v>
+      </c>
+      <c r="F6" s="77" t="s">
         <v>52</v>
       </c>
-      <c r="G6" s="66" t="s">
+      <c r="G6" s="65" t="s">
         <v>99</v>
       </c>
       <c r="H6" s="5" t="s">
         <v>69</v>
       </c>
-      <c r="I6" s="71" t="s">
+      <c r="I6" s="70" t="s">
         <v>98</v>
       </c>
       <c r="J6" s="26"/>
@@ -1962,7 +2001,7 @@
       <c r="D7" s="20"/>
       <c r="E7" s="20"/>
       <c r="F7" s="29"/>
-      <c r="G7" s="72" t="s">
+      <c r="G7" s="71" t="s">
         <v>100</v>
       </c>
       <c r="H7" s="7"/>
@@ -1971,36 +2010,36 @@
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A8" s="9"/>
-      <c r="B8" s="52"/>
+      <c r="B8" s="51"/>
       <c r="C8" s="12"/>
       <c r="D8" s="21"/>
       <c r="E8" s="21"/>
       <c r="F8" s="30"/>
-      <c r="G8" s="65"/>
+      <c r="G8" s="64"/>
       <c r="H8" s="9"/>
-      <c r="I8" s="52"/>
+      <c r="I8" s="51"/>
       <c r="J8" s="25"/>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A9" s="5">
         <v>1</v>
       </c>
-      <c r="B9" s="100" t="s">
+      <c r="B9" s="97" t="s">
         <v>5</v>
       </c>
       <c r="C9" s="4">
         <v>11</v>
       </c>
-      <c r="D9" s="74"/>
-      <c r="E9" s="97" t="s">
-        <v>156</v>
-      </c>
-      <c r="F9" s="113" t="s">
+      <c r="D9" s="73"/>
+      <c r="E9" s="94" t="s">
         <v>155</v>
       </c>
-      <c r="G9" s="109"/>
+      <c r="F9" s="110" t="s">
+        <v>154</v>
+      </c>
+      <c r="G9" s="106"/>
       <c r="H9" s="23"/>
-      <c r="I9" s="126"/>
+      <c r="I9" s="122"/>
       <c r="J9" s="26"/>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.2">
@@ -2009,44 +2048,44 @@
       <c r="C10" s="11"/>
       <c r="D10" s="20"/>
       <c r="E10" s="20"/>
-      <c r="F10" s="49"/>
-      <c r="G10" s="131"/>
+      <c r="F10" s="48"/>
+      <c r="G10" s="127"/>
       <c r="H10" s="20"/>
-      <c r="I10" s="102"/>
+      <c r="I10" s="99"/>
       <c r="J10" s="24"/>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A11" s="9"/>
-      <c r="B11" s="52"/>
+      <c r="B11" s="51"/>
       <c r="C11" s="12"/>
       <c r="D11" s="21"/>
       <c r="E11" s="21"/>
-      <c r="F11" s="132"/>
-      <c r="G11" s="112"/>
+      <c r="F11" s="128"/>
+      <c r="G11" s="109"/>
       <c r="H11" s="21"/>
-      <c r="I11" s="103"/>
+      <c r="I11" s="100"/>
       <c r="J11" s="25"/>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A12" s="5">
         <v>2</v>
       </c>
-      <c r="B12" s="100" t="s">
+      <c r="B12" s="97" t="s">
         <v>9</v>
       </c>
       <c r="C12" s="4">
         <v>11</v>
       </c>
-      <c r="D12" s="74"/>
-      <c r="E12" s="97" t="s">
-        <v>156</v>
-      </c>
-      <c r="F12" s="113" t="s">
+      <c r="D12" s="73"/>
+      <c r="E12" s="94" t="s">
         <v>155</v>
       </c>
-      <c r="G12" s="109"/>
+      <c r="F12" s="110" t="s">
+        <v>154</v>
+      </c>
+      <c r="G12" s="106"/>
       <c r="H12" s="23"/>
-      <c r="I12" s="126"/>
+      <c r="I12" s="122"/>
       <c r="J12" s="26"/>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.2">
@@ -2056,7 +2095,7 @@
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
       <c r="F13" s="29"/>
-      <c r="G13" s="72" t="s">
+      <c r="G13" s="71" t="s">
         <v>100</v>
       </c>
       <c r="H13" s="7"/>
@@ -2065,21 +2104,21 @@
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A14" s="9"/>
-      <c r="B14" s="52"/>
+      <c r="B14" s="51"/>
       <c r="C14" s="12"/>
       <c r="D14" s="21"/>
       <c r="E14" s="21"/>
       <c r="F14" s="30"/>
-      <c r="G14" s="65"/>
+      <c r="G14" s="64"/>
       <c r="H14" s="9"/>
-      <c r="I14" s="52"/>
+      <c r="I14" s="51"/>
       <c r="J14" s="25"/>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A15" s="5">
         <v>3</v>
       </c>
-      <c r="B15" s="100" t="s">
+      <c r="B15" s="97" t="s">
         <v>10</v>
       </c>
       <c r="C15" s="4">
@@ -2089,18 +2128,18 @@
         <v>30</v>
       </c>
       <c r="E15" s="74" t="s">
-        <v>128</v>
-      </c>
-      <c r="F15" s="96">
+        <v>161</v>
+      </c>
+      <c r="F15" s="93">
         <v>44520</v>
       </c>
-      <c r="G15" s="66" t="s">
+      <c r="G15" s="65" t="s">
         <v>21</v>
       </c>
       <c r="H15" s="5" t="s">
         <v>70</v>
       </c>
-      <c r="I15" s="53" t="s">
+      <c r="I15" s="52" t="s">
         <v>53</v>
       </c>
       <c r="J15" s="26"/>
@@ -2112,7 +2151,7 @@
       <c r="D16" s="7"/>
       <c r="E16" s="36"/>
       <c r="F16" s="34"/>
-      <c r="G16" s="64">
+      <c r="G16" s="63">
         <v>81232989078</v>
       </c>
       <c r="H16" s="7"/>
@@ -2121,21 +2160,21 @@
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A17" s="9"/>
-      <c r="B17" s="52"/>
+      <c r="B17" s="51"/>
       <c r="C17" s="12"/>
       <c r="D17" s="9"/>
       <c r="E17" s="9"/>
       <c r="F17" s="37"/>
-      <c r="G17" s="65"/>
+      <c r="G17" s="64"/>
       <c r="H17" s="9"/>
-      <c r="I17" s="52"/>
+      <c r="I17" s="51"/>
       <c r="J17" s="25"/>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A18" s="5">
         <v>4</v>
       </c>
-      <c r="B18" s="100" t="s">
+      <c r="B18" s="97" t="s">
         <v>11</v>
       </c>
       <c r="C18" s="4">
@@ -2145,18 +2184,18 @@
         <v>30</v>
       </c>
       <c r="E18" s="74" t="s">
-        <v>128</v>
-      </c>
-      <c r="F18" s="96">
+        <v>161</v>
+      </c>
+      <c r="F18" s="93">
         <v>44520</v>
       </c>
-      <c r="G18" s="66" t="s">
+      <c r="G18" s="65" t="s">
         <v>22</v>
       </c>
       <c r="H18" s="5" t="s">
         <v>71</v>
       </c>
-      <c r="I18" s="53" t="s">
+      <c r="I18" s="52" t="s">
         <v>53</v>
       </c>
       <c r="J18" s="26"/>
@@ -2168,7 +2207,7 @@
       <c r="D19" s="7"/>
       <c r="E19" s="36"/>
       <c r="F19" s="34"/>
-      <c r="G19" s="64">
+      <c r="G19" s="63">
         <v>81231807990</v>
       </c>
       <c r="H19" s="7"/>
@@ -2177,42 +2216,42 @@
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A20" s="9"/>
-      <c r="B20" s="52"/>
+      <c r="B20" s="51"/>
       <c r="C20" s="12"/>
       <c r="D20" s="9"/>
       <c r="E20" s="9"/>
       <c r="F20" s="37"/>
-      <c r="G20" s="65"/>
+      <c r="G20" s="64"/>
       <c r="H20" s="9"/>
-      <c r="I20" s="52"/>
+      <c r="I20" s="51"/>
       <c r="J20" s="25"/>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A21" s="5">
         <v>5</v>
       </c>
-      <c r="B21" s="100" t="s">
+      <c r="B21" s="97" t="s">
         <v>10</v>
       </c>
       <c r="C21" s="4">
         <v>17</v>
       </c>
-      <c r="D21" s="77" t="s">
+      <c r="D21" s="75" t="s">
         <v>108</v>
       </c>
-      <c r="E21" s="97" t="s">
-        <v>129</v>
-      </c>
-      <c r="F21" s="88" t="s">
+      <c r="E21" s="94" t="s">
+        <v>128</v>
+      </c>
+      <c r="F21" s="86" t="s">
         <v>65</v>
       </c>
-      <c r="G21" s="66" t="s">
+      <c r="G21" s="65" t="s">
         <v>51</v>
       </c>
       <c r="H21" s="5" t="s">
         <v>72</v>
       </c>
-      <c r="I21" s="54">
+      <c r="I21" s="53">
         <v>44449</v>
       </c>
       <c r="J21" s="26"/>
@@ -2224,7 +2263,7 @@
       <c r="D22" s="36"/>
       <c r="E22" s="36"/>
       <c r="F22" s="34"/>
-      <c r="G22" s="64">
+      <c r="G22" s="63">
         <v>81284663664</v>
       </c>
       <c r="H22" s="7"/>
@@ -2233,42 +2272,42 @@
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A23" s="9"/>
-      <c r="B23" s="52"/>
+      <c r="B23" s="51"/>
       <c r="C23" s="12"/>
       <c r="D23" s="21"/>
       <c r="E23" s="21"/>
       <c r="F23" s="37"/>
-      <c r="G23" s="65"/>
+      <c r="G23" s="64"/>
       <c r="H23" s="9"/>
-      <c r="I23" s="52"/>
+      <c r="I23" s="51"/>
       <c r="J23" s="25"/>
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A24" s="5">
         <v>6</v>
       </c>
-      <c r="B24" s="100" t="s">
+      <c r="B24" s="97" t="s">
         <v>11</v>
       </c>
       <c r="C24" s="4">
         <v>17</v>
       </c>
-      <c r="D24" s="77" t="s">
+      <c r="D24" s="75" t="s">
         <v>108</v>
       </c>
-      <c r="E24" s="97" t="s">
-        <v>129</v>
-      </c>
-      <c r="F24" s="88" t="s">
+      <c r="E24" s="94" t="s">
+        <v>128</v>
+      </c>
+      <c r="F24" s="86" t="s">
         <v>65</v>
       </c>
-      <c r="G24" s="66" t="s">
+      <c r="G24" s="65" t="s">
         <v>47</v>
       </c>
       <c r="H24" s="5" t="s">
         <v>73</v>
       </c>
-      <c r="I24" s="54">
+      <c r="I24" s="53">
         <v>44449</v>
       </c>
       <c r="J24" s="26"/>
@@ -2280,7 +2319,7 @@
       <c r="D25" s="36"/>
       <c r="E25" s="36"/>
       <c r="F25" s="34"/>
-      <c r="G25" s="64">
+      <c r="G25" s="63">
         <v>85740346667</v>
       </c>
       <c r="H25" s="7"/>
@@ -2289,40 +2328,40 @@
     </row>
     <row r="26" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A26" s="9"/>
-      <c r="B26" s="52"/>
+      <c r="B26" s="51"/>
       <c r="C26" s="12"/>
       <c r="D26" s="21"/>
       <c r="E26" s="21"/>
       <c r="F26" s="37"/>
-      <c r="G26" s="65"/>
+      <c r="G26" s="64"/>
       <c r="H26" s="9"/>
-      <c r="I26" s="52"/>
+      <c r="I26" s="51"/>
       <c r="J26" s="25"/>
     </row>
     <row r="27" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A27" s="5">
         <v>7</v>
       </c>
-      <c r="B27" s="100" t="s">
+      <c r="B27" s="97" t="s">
         <v>10</v>
       </c>
       <c r="C27" s="4">
         <v>18</v>
       </c>
-      <c r="D27" s="108" t="s">
+      <c r="D27" s="105" t="s">
+        <v>139</v>
+      </c>
+      <c r="E27" s="94" t="s">
+        <v>141</v>
+      </c>
+      <c r="F27" s="110" t="s">
         <v>140</v>
       </c>
-      <c r="E27" s="97" t="s">
-        <v>142</v>
-      </c>
-      <c r="F27" s="113" t="s">
-        <v>141</v>
-      </c>
-      <c r="G27" s="109" t="s">
-        <v>149</v>
+      <c r="G27" s="106" t="s">
+        <v>148</v>
       </c>
       <c r="H27" s="23"/>
-      <c r="I27" s="78"/>
+      <c r="I27" s="76"/>
       <c r="J27" s="26"/>
     </row>
     <row r="28" spans="1:10" x14ac:dyDescent="0.2">
@@ -2331,48 +2370,48 @@
       <c r="C28" s="11"/>
       <c r="D28" s="36"/>
       <c r="E28" s="36"/>
-      <c r="F28" s="110"/>
-      <c r="G28" s="127" t="s">
-        <v>150</v>
+      <c r="F28" s="107"/>
+      <c r="G28" s="123" t="s">
+        <v>149</v>
       </c>
       <c r="H28" s="20"/>
-      <c r="I28" s="102"/>
+      <c r="I28" s="99"/>
       <c r="J28" s="24"/>
     </row>
     <row r="29" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A29" s="9"/>
-      <c r="B29" s="52"/>
+      <c r="B29" s="51"/>
       <c r="C29" s="12"/>
       <c r="D29" s="21"/>
       <c r="E29" s="21"/>
-      <c r="F29" s="111"/>
-      <c r="G29" s="112"/>
+      <c r="F29" s="108"/>
+      <c r="G29" s="109"/>
       <c r="H29" s="21"/>
-      <c r="I29" s="103"/>
+      <c r="I29" s="100"/>
       <c r="J29" s="25"/>
     </row>
     <row r="30" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A30" s="5">
         <v>8</v>
       </c>
-      <c r="B30" s="100" t="s">
+      <c r="B30" s="97" t="s">
         <v>11</v>
       </c>
       <c r="C30" s="4">
         <v>18</v>
       </c>
-      <c r="D30" s="108"/>
-      <c r="E30" s="97" t="s">
-        <v>142</v>
-      </c>
-      <c r="F30" s="113" t="s">
+      <c r="D30" s="105"/>
+      <c r="E30" s="94" t="s">
         <v>141</v>
       </c>
-      <c r="G30" s="109" t="s">
-        <v>147</v>
+      <c r="F30" s="110" t="s">
+        <v>140</v>
+      </c>
+      <c r="G30" s="106" t="s">
+        <v>146</v>
       </c>
       <c r="H30" s="23"/>
-      <c r="I30" s="78"/>
+      <c r="I30" s="76"/>
       <c r="J30" s="26"/>
     </row>
     <row r="31" spans="1:10" x14ac:dyDescent="0.2">
@@ -2381,31 +2420,31 @@
       <c r="C31" s="11"/>
       <c r="D31" s="36"/>
       <c r="E31" s="36"/>
-      <c r="F31" s="110"/>
-      <c r="G31" s="127" t="s">
-        <v>148</v>
+      <c r="F31" s="107"/>
+      <c r="G31" s="123" t="s">
+        <v>147</v>
       </c>
       <c r="H31" s="20"/>
-      <c r="I31" s="102"/>
+      <c r="I31" s="99"/>
       <c r="J31" s="24"/>
     </row>
     <row r="32" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A32" s="9"/>
-      <c r="B32" s="52"/>
+      <c r="B32" s="51"/>
       <c r="C32" s="12"/>
       <c r="D32" s="21"/>
       <c r="E32" s="21"/>
-      <c r="F32" s="111"/>
-      <c r="G32" s="112"/>
+      <c r="F32" s="108"/>
+      <c r="G32" s="109"/>
       <c r="H32" s="21"/>
-      <c r="I32" s="103"/>
+      <c r="I32" s="100"/>
       <c r="J32" s="25"/>
     </row>
     <row r="33" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A33" s="5">
         <v>9</v>
       </c>
-      <c r="B33" s="101" t="s">
+      <c r="B33" s="98" t="s">
         <v>13</v>
       </c>
       <c r="C33" s="10">
@@ -2414,31 +2453,31 @@
       <c r="D33" s="14" t="s">
         <v>28</v>
       </c>
-      <c r="E33" s="76" t="s">
-        <v>130</v>
-      </c>
-      <c r="F33" s="93">
+      <c r="E33" s="74" t="s">
+        <v>129</v>
+      </c>
+      <c r="F33" s="91">
         <v>44501</v>
       </c>
-      <c r="G33" s="66" t="s">
+      <c r="G33" s="65" t="s">
         <v>23</v>
       </c>
       <c r="H33" s="23" t="s">
         <v>75</v>
       </c>
-      <c r="I33" s="53" t="s">
+      <c r="I33" s="52" t="s">
         <v>53</v>
       </c>
       <c r="J33" s="26"/>
     </row>
     <row r="34" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A34" s="7"/>
-      <c r="B34" s="102"/>
+      <c r="B34" s="99"/>
       <c r="C34" s="15"/>
       <c r="D34" s="7"/>
       <c r="E34" s="44"/>
       <c r="F34" s="29"/>
-      <c r="G34" s="64">
+      <c r="G34" s="63">
         <v>6587623904</v>
       </c>
       <c r="H34" s="20"/>
@@ -2447,21 +2486,21 @@
     </row>
     <row r="35" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A35" s="9"/>
-      <c r="B35" s="103"/>
+      <c r="B35" s="100"/>
       <c r="C35" s="16"/>
       <c r="D35" s="9"/>
       <c r="E35" s="9"/>
       <c r="F35" s="30"/>
-      <c r="G35" s="65"/>
+      <c r="G35" s="64"/>
       <c r="H35" s="21"/>
-      <c r="I35" s="52"/>
+      <c r="I35" s="51"/>
       <c r="J35" s="25"/>
     </row>
     <row r="36" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A36" s="5">
         <v>10</v>
       </c>
-      <c r="B36" s="100" t="s">
+      <c r="B36" s="97" t="s">
         <v>13</v>
       </c>
       <c r="C36" s="4">
@@ -2470,19 +2509,19 @@
       <c r="D36" s="14" t="s">
         <v>43</v>
       </c>
-      <c r="E36" s="75" t="s">
-        <v>158</v>
-      </c>
-      <c r="F36" s="80" t="s">
+      <c r="E36" s="74" t="s">
+        <v>157</v>
+      </c>
+      <c r="F36" s="78" t="s">
         <v>44</v>
       </c>
-      <c r="G36" s="67" t="s">
+      <c r="G36" s="66" t="s">
         <v>45</v>
       </c>
       <c r="H36" s="5" t="s">
         <v>75</v>
       </c>
-      <c r="I36" s="54">
+      <c r="I36" s="53">
         <v>44440</v>
       </c>
       <c r="J36" s="26"/>
@@ -2494,7 +2533,7 @@
       <c r="D37" s="44"/>
       <c r="E37" s="44"/>
       <c r="F37" s="32"/>
-      <c r="G37" s="68">
+      <c r="G37" s="67">
         <v>81333524165</v>
       </c>
       <c r="H37" s="7"/>
@@ -2503,43 +2542,43 @@
     </row>
     <row r="38" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A38" s="9"/>
-      <c r="B38" s="52"/>
+      <c r="B38" s="51"/>
       <c r="C38" s="12"/>
       <c r="D38" s="9"/>
       <c r="E38" s="9"/>
       <c r="F38" s="45"/>
-      <c r="G38" s="69"/>
+      <c r="G38" s="68"/>
       <c r="H38" s="9"/>
-      <c r="I38" s="52"/>
+      <c r="I38" s="51"/>
       <c r="J38" s="25"/>
     </row>
     <row r="39" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A39" s="5">
         <v>11</v>
       </c>
-      <c r="B39" s="100" t="s">
+      <c r="B39" s="97" t="s">
         <v>13</v>
       </c>
       <c r="C39" s="4">
         <v>33</v>
       </c>
-      <c r="D39" s="77" t="s">
+      <c r="D39" s="75" t="s">
         <v>108</v>
       </c>
-      <c r="E39" s="44">
-        <v>44247</v>
-      </c>
-      <c r="F39" s="89" t="s">
+      <c r="E39" s="147" t="s">
+        <v>168</v>
+      </c>
+      <c r="F39" s="87" t="s">
         <v>103</v>
       </c>
-      <c r="G39" s="68" t="s">
+      <c r="G39" s="67" t="s">
         <v>101</v>
       </c>
       <c r="H39" s="7" t="s">
         <v>102</v>
       </c>
-      <c r="I39" s="106" t="s">
-        <v>133</v>
+      <c r="I39" s="103" t="s">
+        <v>132</v>
       </c>
       <c r="J39" s="24"/>
     </row>
@@ -2550,7 +2589,7 @@
       <c r="D40" s="7"/>
       <c r="E40" s="7"/>
       <c r="F40" s="32"/>
-      <c r="G40" s="68">
+      <c r="G40" s="67">
         <v>81235748714</v>
       </c>
       <c r="H40" s="7"/>
@@ -2561,96 +2600,88 @@
       <c r="A41" s="9"/>
       <c r="B41" s="27"/>
       <c r="C41" s="11"/>
-      <c r="D41" s="7"/>
-      <c r="E41" s="7"/>
-      <c r="F41" s="32"/>
-      <c r="G41" s="68"/>
-      <c r="H41" s="7"/>
-      <c r="I41" s="27"/>
+      <c r="D41" s="20"/>
+      <c r="E41" s="20"/>
+      <c r="F41" s="115"/>
+      <c r="G41" s="116"/>
+      <c r="H41" s="20"/>
+      <c r="I41" s="99"/>
       <c r="J41" s="24"/>
     </row>
     <row r="42" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A42" s="5">
         <v>12</v>
       </c>
-      <c r="B42" s="100" t="s">
-        <v>12</v>
+      <c r="B42" s="97" t="s">
+        <v>13</v>
       </c>
       <c r="C42" s="4">
-        <v>26</v>
-      </c>
-      <c r="D42" s="14" t="s">
-        <v>39</v>
-      </c>
-      <c r="E42" s="46">
-        <v>44614</v>
-      </c>
-      <c r="F42" s="88" t="s">
-        <v>61</v>
-      </c>
-      <c r="G42" s="66" t="s">
-        <v>60</v>
-      </c>
-      <c r="H42" s="5" t="s">
-        <v>69</v>
-      </c>
-      <c r="I42" s="54">
-        <v>44440</v>
-      </c>
-      <c r="J42" s="26"/>
+        <v>34</v>
+      </c>
+      <c r="D42" s="105"/>
+      <c r="E42" s="149" t="s">
+        <v>33</v>
+      </c>
+      <c r="F42" s="150" t="s">
+        <v>169</v>
+      </c>
+      <c r="G42" s="116"/>
+      <c r="H42" s="20"/>
+      <c r="I42" s="151"/>
+      <c r="J42" s="24"/>
     </row>
     <row r="43" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A43" s="7"/>
       <c r="B43" s="27"/>
       <c r="C43" s="11"/>
-      <c r="D43" s="7"/>
-      <c r="E43" s="47"/>
-      <c r="F43" s="29"/>
-      <c r="G43" s="64">
-        <v>85732094240</v>
-      </c>
-      <c r="H43" s="7"/>
-      <c r="I43" s="27"/>
+      <c r="D43" s="20"/>
+      <c r="E43" s="20"/>
+      <c r="F43" s="115"/>
+      <c r="G43" s="116"/>
+      <c r="H43" s="20"/>
+      <c r="I43" s="99"/>
       <c r="J43" s="24"/>
     </row>
     <row r="44" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A44" s="9"/>
-      <c r="B44" s="52"/>
-      <c r="C44" s="8"/>
-      <c r="D44" s="9"/>
-      <c r="E44" s="9"/>
-      <c r="F44" s="30"/>
-      <c r="G44" s="65"/>
-      <c r="H44" s="9"/>
-      <c r="I44" s="52"/>
-      <c r="J44" s="25"/>
+      <c r="A44" s="7"/>
+      <c r="B44" s="27"/>
+      <c r="C44" s="11"/>
+      <c r="D44" s="7"/>
+      <c r="E44" s="7"/>
+      <c r="F44" s="32"/>
+      <c r="G44" s="67"/>
+      <c r="H44" s="7"/>
+      <c r="I44" s="27"/>
+      <c r="J44" s="24"/>
     </row>
     <row r="45" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A45" s="5">
         <v>13</v>
       </c>
-      <c r="B45" s="100" t="s">
+      <c r="B45" s="97" t="s">
         <v>12</v>
       </c>
       <c r="C45" s="4">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D45" s="14" t="s">
-        <v>136</v>
-      </c>
-      <c r="E45" s="97" t="s">
-        <v>139</v>
-      </c>
-      <c r="F45" s="105" t="s">
-        <v>138</v>
-      </c>
-      <c r="G45" s="66" t="s">
-        <v>131</v>
-      </c>
-      <c r="H45" s="104" t="s">
-        <v>89</v>
-      </c>
-      <c r="I45" s="78"/>
+        <v>39</v>
+      </c>
+      <c r="E45" s="148" t="s">
+        <v>168</v>
+      </c>
+      <c r="F45" s="86" t="s">
+        <v>61</v>
+      </c>
+      <c r="G45" s="65" t="s">
+        <v>60</v>
+      </c>
+      <c r="H45" s="5" t="s">
+        <v>69</v>
+      </c>
+      <c r="I45" s="53">
+        <v>44440</v>
+      </c>
       <c r="J45" s="26"/>
     </row>
     <row r="46" spans="1:10" x14ac:dyDescent="0.2">
@@ -2658,10 +2689,10 @@
       <c r="B46" s="27"/>
       <c r="C46" s="11"/>
       <c r="D46" s="7"/>
-      <c r="E46" s="47"/>
+      <c r="E46" s="46"/>
       <c r="F46" s="29"/>
-      <c r="G46" s="72" t="s">
-        <v>132</v>
+      <c r="G46" s="63">
+        <v>85732094240</v>
       </c>
       <c r="H46" s="7"/>
       <c r="I46" s="27"/>
@@ -2669,55 +2700,53 @@
     </row>
     <row r="47" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A47" s="9"/>
-      <c r="B47" s="52"/>
+      <c r="B47" s="51"/>
       <c r="C47" s="8"/>
       <c r="D47" s="9"/>
       <c r="E47" s="9"/>
       <c r="F47" s="30"/>
-      <c r="G47" s="65"/>
+      <c r="G47" s="64"/>
       <c r="H47" s="9"/>
-      <c r="I47" s="52"/>
+      <c r="I47" s="51"/>
       <c r="J47" s="25"/>
     </row>
     <row r="48" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A48" s="5">
         <v>14</v>
       </c>
-      <c r="B48" s="100" t="s">
-        <v>14</v>
+      <c r="B48" s="97" t="s">
+        <v>12</v>
       </c>
       <c r="C48" s="4">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="D48" s="14" t="s">
-        <v>83</v>
-      </c>
-      <c r="E48" s="76" t="s">
+        <v>135</v>
+      </c>
+      <c r="E48" s="94" t="s">
+        <v>138</v>
+      </c>
+      <c r="F48" s="102" t="s">
+        <v>137</v>
+      </c>
+      <c r="G48" s="65" t="s">
         <v>130</v>
       </c>
-      <c r="F48" s="94">
-        <v>44510</v>
-      </c>
-      <c r="G48" s="67" t="s">
-        <v>46</v>
-      </c>
-      <c r="H48" s="5" t="s">
-        <v>77</v>
-      </c>
-      <c r="I48" s="54">
-        <v>44449</v>
-      </c>
+      <c r="H48" s="101" t="s">
+        <v>89</v>
+      </c>
+      <c r="I48" s="76"/>
       <c r="J48" s="26"/>
     </row>
     <row r="49" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A49" s="7"/>
       <c r="B49" s="27"/>
       <c r="C49" s="11"/>
-      <c r="D49" s="44"/>
-      <c r="E49" s="44"/>
-      <c r="F49" s="32"/>
-      <c r="G49" s="68">
-        <v>81331430509</v>
+      <c r="D49" s="7"/>
+      <c r="E49" s="46"/>
+      <c r="F49" s="29"/>
+      <c r="G49" s="71" t="s">
+        <v>131</v>
       </c>
       <c r="H49" s="7"/>
       <c r="I49" s="27"/>
@@ -2725,51 +2754,55 @@
     </row>
     <row r="50" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A50" s="9"/>
-      <c r="B50" s="52"/>
-      <c r="C50" s="12"/>
+      <c r="B50" s="51"/>
+      <c r="C50" s="8"/>
       <c r="D50" s="9"/>
       <c r="E50" s="9"/>
-      <c r="F50" s="45"/>
-      <c r="G50" s="69"/>
+      <c r="F50" s="30"/>
+      <c r="G50" s="64"/>
       <c r="H50" s="9"/>
-      <c r="I50" s="52"/>
+      <c r="I50" s="51"/>
       <c r="J50" s="25"/>
     </row>
     <row r="51" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A51" s="5">
         <v>15</v>
       </c>
-      <c r="B51" s="100" t="s">
+      <c r="B51" s="97" t="s">
         <v>14</v>
       </c>
       <c r="C51" s="4">
-        <v>34</v>
-      </c>
-      <c r="D51" s="107" t="s">
-        <v>151</v>
-      </c>
-      <c r="E51" s="107" t="s">
-        <v>137</v>
-      </c>
-      <c r="F51" s="87" t="s">
-        <v>134</v>
-      </c>
-      <c r="G51" s="68" t="s">
-        <v>153</v>
-      </c>
-      <c r="H51" s="7"/>
-      <c r="I51" s="27"/>
-      <c r="J51" s="24"/>
+        <v>33</v>
+      </c>
+      <c r="D51" s="14" t="s">
+        <v>83</v>
+      </c>
+      <c r="E51" s="74" t="s">
+        <v>129</v>
+      </c>
+      <c r="F51" s="146" t="s">
+        <v>167</v>
+      </c>
+      <c r="G51" s="66" t="s">
+        <v>46</v>
+      </c>
+      <c r="H51" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="I51" s="53">
+        <v>44449</v>
+      </c>
+      <c r="J51" s="26"/>
     </row>
     <row r="52" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A52" s="7"/>
       <c r="B52" s="27"/>
       <c r="C52" s="11"/>
-      <c r="D52" s="7"/>
-      <c r="E52" s="7"/>
+      <c r="D52" s="44"/>
+      <c r="E52" s="44"/>
       <c r="F52" s="32"/>
-      <c r="G52" s="130" t="s">
-        <v>154</v>
+      <c r="G52" s="67">
+        <v>81331430509</v>
       </c>
       <c r="H52" s="7"/>
       <c r="I52" s="27"/>
@@ -2777,55 +2810,51 @@
     </row>
     <row r="53" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A53" s="9"/>
-      <c r="B53" s="27"/>
-      <c r="C53" s="11"/>
-      <c r="D53" s="7"/>
-      <c r="E53" s="7"/>
-      <c r="F53" s="32"/>
+      <c r="B53" s="51"/>
+      <c r="C53" s="12"/>
+      <c r="D53" s="9"/>
+      <c r="E53" s="9"/>
+      <c r="F53" s="45"/>
       <c r="G53" s="68"/>
-      <c r="H53" s="7"/>
-      <c r="I53" s="27"/>
-      <c r="J53" s="24"/>
+      <c r="H53" s="9"/>
+      <c r="I53" s="51"/>
+      <c r="J53" s="25"/>
     </row>
     <row r="54" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A54" s="5">
         <v>16</v>
       </c>
-      <c r="B54" s="100" t="s">
-        <v>15</v>
+      <c r="B54" s="97" t="s">
+        <v>14</v>
       </c>
       <c r="C54" s="4">
-        <v>28</v>
-      </c>
-      <c r="D54" s="14" t="s">
-        <v>40</v>
-      </c>
-      <c r="E54" s="75" t="s">
-        <v>158</v>
-      </c>
-      <c r="F54" s="81" t="s">
-        <v>42</v>
+        <v>34</v>
+      </c>
+      <c r="D54" s="75" t="s">
+        <v>150</v>
+      </c>
+      <c r="E54" s="104" t="s">
+        <v>136</v>
+      </c>
+      <c r="F54" s="85" t="s">
+        <v>133</v>
       </c>
       <c r="G54" s="67" t="s">
-        <v>41</v>
-      </c>
-      <c r="H54" s="5" t="s">
-        <v>79</v>
-      </c>
-      <c r="I54" s="54">
-        <v>44440</v>
-      </c>
-      <c r="J54" s="26"/>
+        <v>152</v>
+      </c>
+      <c r="H54" s="7"/>
+      <c r="I54" s="27"/>
+      <c r="J54" s="24"/>
     </row>
     <row r="55" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A55" s="7"/>
       <c r="B55" s="27"/>
       <c r="C55" s="11"/>
-      <c r="D55" s="44"/>
-      <c r="E55" s="44"/>
+      <c r="D55" s="7"/>
+      <c r="E55" s="7"/>
       <c r="F55" s="32"/>
-      <c r="G55" s="68">
-        <v>85649115380</v>
+      <c r="G55" s="126" t="s">
+        <v>153</v>
       </c>
       <c r="H55" s="7"/>
       <c r="I55" s="27"/>
@@ -2833,126 +2862,130 @@
     </row>
     <row r="56" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A56" s="9"/>
-      <c r="B56" s="52"/>
-      <c r="C56" s="12"/>
-      <c r="D56" s="9"/>
-      <c r="E56" s="9"/>
-      <c r="F56" s="45"/>
-      <c r="G56" s="69"/>
-      <c r="H56" s="9"/>
-      <c r="I56" s="52"/>
-      <c r="J56" s="25"/>
-    </row>
-    <row r="57" spans="1:10" s="117" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B56" s="27"/>
+      <c r="C56" s="11"/>
+      <c r="D56" s="7"/>
+      <c r="E56" s="7"/>
+      <c r="F56" s="32"/>
+      <c r="G56" s="67"/>
+      <c r="H56" s="7"/>
+      <c r="I56" s="27"/>
+      <c r="J56" s="24"/>
+    </row>
+    <row r="57" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A57" s="5">
         <v>17</v>
       </c>
-      <c r="B57" s="101" t="s">
+      <c r="B57" s="97" t="s">
         <v>15</v>
       </c>
-      <c r="C57" s="10">
-        <v>29</v>
-      </c>
-      <c r="D57" s="129" t="s">
-        <v>152</v>
+      <c r="C57" s="4">
+        <v>28</v>
+      </c>
+      <c r="D57" s="14" t="s">
+        <v>40</v>
       </c>
       <c r="E57" s="74" t="s">
-        <v>144</v>
-      </c>
-      <c r="F57" s="124" t="s">
-        <v>143</v>
-      </c>
-      <c r="G57" s="115"/>
-      <c r="H57" s="23"/>
-      <c r="I57" s="78"/>
-      <c r="J57" s="116"/>
-    </row>
-    <row r="58" spans="1:10" s="117" customFormat="1" x14ac:dyDescent="0.2">
+        <v>157</v>
+      </c>
+      <c r="F57" s="79" t="s">
+        <v>42</v>
+      </c>
+      <c r="G57" s="66" t="s">
+        <v>41</v>
+      </c>
+      <c r="H57" s="5" t="s">
+        <v>79</v>
+      </c>
+      <c r="I57" s="53">
+        <v>44440</v>
+      </c>
+      <c r="J57" s="26"/>
+    </row>
+    <row r="58" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A58" s="7"/>
-      <c r="B58" s="102"/>
-      <c r="C58" s="15"/>
-      <c r="D58" s="36"/>
-      <c r="E58" s="36"/>
-      <c r="F58" s="118"/>
-      <c r="G58" s="119"/>
-      <c r="H58" s="20"/>
-      <c r="I58" s="102"/>
-      <c r="J58" s="120"/>
-    </row>
-    <row r="59" spans="1:10" s="117" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B58" s="27"/>
+      <c r="C58" s="11"/>
+      <c r="D58" s="44"/>
+      <c r="E58" s="44"/>
+      <c r="F58" s="32"/>
+      <c r="G58" s="67">
+        <v>85649115380</v>
+      </c>
+      <c r="H58" s="7"/>
+      <c r="I58" s="27"/>
+      <c r="J58" s="24"/>
+    </row>
+    <row r="59" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A59" s="9"/>
-      <c r="B59" s="103"/>
-      <c r="C59" s="16"/>
-      <c r="D59" s="21"/>
-      <c r="E59" s="21"/>
-      <c r="F59" s="121"/>
-      <c r="G59" s="122"/>
-      <c r="H59" s="21"/>
-      <c r="I59" s="103"/>
-      <c r="J59" s="123"/>
-    </row>
-    <row r="60" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="B59" s="51"/>
+      <c r="C59" s="12"/>
+      <c r="D59" s="9"/>
+      <c r="E59" s="9"/>
+      <c r="F59" s="45"/>
+      <c r="G59" s="68"/>
+      <c r="H59" s="9"/>
+      <c r="I59" s="51"/>
+      <c r="J59" s="25"/>
+    </row>
+    <row r="60" spans="1:10" s="114" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A60" s="5">
         <v>18</v>
       </c>
-      <c r="B60" s="100" t="s">
-        <v>16</v>
-      </c>
-      <c r="C60" s="4">
-        <v>40</v>
-      </c>
-      <c r="D60" s="43">
-        <v>44453</v>
-      </c>
-      <c r="E60" s="76" t="s">
-        <v>157</v>
-      </c>
-      <c r="F60" s="81" t="s">
-        <v>42</v>
-      </c>
-      <c r="G60" s="67" t="s">
-        <v>48</v>
-      </c>
-      <c r="H60" s="5" t="s">
-        <v>81</v>
-      </c>
-      <c r="I60" s="71" t="s">
-        <v>98</v>
-      </c>
-      <c r="J60" s="26"/>
-    </row>
-    <row r="61" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="B60" s="98" t="s">
+        <v>15</v>
+      </c>
+      <c r="C60" s="10">
+        <v>29</v>
+      </c>
+      <c r="D60" s="125" t="s">
+        <v>151</v>
+      </c>
+      <c r="E60" s="73" t="s">
+        <v>143</v>
+      </c>
+      <c r="F60" s="121" t="s">
+        <v>142</v>
+      </c>
+      <c r="G60" s="112" t="s">
+        <v>162</v>
+      </c>
+      <c r="H60" s="23"/>
+      <c r="I60" s="76"/>
+      <c r="J60" s="113"/>
+    </row>
+    <row r="61" spans="1:10" s="114" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A61" s="7"/>
-      <c r="B61" s="27"/>
-      <c r="C61" s="11"/>
-      <c r="D61" s="44"/>
-      <c r="E61" s="44"/>
-      <c r="F61" s="32"/>
-      <c r="G61" s="68">
-        <v>81359524067</v>
-      </c>
-      <c r="H61" s="7"/>
-      <c r="I61" s="27"/>
-      <c r="J61" s="24"/>
-    </row>
-    <row r="62" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="B61" s="99"/>
+      <c r="C61" s="15"/>
+      <c r="D61" s="36"/>
+      <c r="E61" s="36"/>
+      <c r="F61" s="115"/>
+      <c r="G61" s="145" t="s">
+        <v>163</v>
+      </c>
+      <c r="H61" s="20"/>
+      <c r="I61" s="99"/>
+      <c r="J61" s="117"/>
+    </row>
+    <row r="62" spans="1:10" s="114" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A62" s="9"/>
-      <c r="B62" s="52"/>
-      <c r="C62" s="12"/>
-      <c r="D62" s="9"/>
-      <c r="E62" s="9"/>
-      <c r="F62" s="45"/>
-      <c r="G62" s="69"/>
-      <c r="H62" s="9"/>
-      <c r="I62" s="52"/>
-      <c r="J62" s="25"/>
+      <c r="B62" s="100"/>
+      <c r="C62" s="16"/>
+      <c r="D62" s="21"/>
+      <c r="E62" s="21"/>
+      <c r="F62" s="118"/>
+      <c r="G62" s="119"/>
+      <c r="H62" s="21"/>
+      <c r="I62" s="100"/>
+      <c r="J62" s="120"/>
     </row>
     <row r="63" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A63" s="5">
         <v>19</v>
       </c>
-      <c r="B63" s="100" t="s">
-        <v>18</v>
+      <c r="B63" s="97" t="s">
+        <v>16</v>
       </c>
       <c r="C63" s="4">
         <v>40</v>
@@ -2960,19 +2993,19 @@
       <c r="D63" s="43">
         <v>44453</v>
       </c>
-      <c r="E63" s="76" t="s">
-        <v>157</v>
-      </c>
-      <c r="F63" s="81" t="s">
+      <c r="E63" s="74" t="s">
+        <v>156</v>
+      </c>
+      <c r="F63" s="79" t="s">
         <v>42</v>
       </c>
-      <c r="G63" s="67" t="s">
-        <v>25</v>
+      <c r="G63" s="66" t="s">
+        <v>48</v>
       </c>
       <c r="H63" s="5" t="s">
-        <v>82</v>
-      </c>
-      <c r="I63" s="71" t="s">
+        <v>81</v>
+      </c>
+      <c r="I63" s="70" t="s">
         <v>98</v>
       </c>
       <c r="J63" s="26"/>
@@ -2984,8 +3017,8 @@
       <c r="D64" s="44"/>
       <c r="E64" s="44"/>
       <c r="F64" s="32"/>
-      <c r="G64" s="68">
-        <v>82319844744</v>
+      <c r="G64" s="67">
+        <v>81359524067</v>
       </c>
       <c r="H64" s="7"/>
       <c r="I64" s="27"/>
@@ -2993,82 +3026,96 @@
     </row>
     <row r="65" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A65" s="9"/>
-      <c r="B65" s="52"/>
+      <c r="B65" s="51"/>
       <c r="C65" s="12"/>
       <c r="D65" s="9"/>
       <c r="E65" s="9"/>
       <c r="F65" s="45"/>
-      <c r="G65" s="69"/>
+      <c r="G65" s="68"/>
       <c r="H65" s="9"/>
-      <c r="I65" s="52"/>
+      <c r="I65" s="51"/>
       <c r="J65" s="25"/>
     </row>
     <row r="66" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A66" s="5">
         <v>20</v>
       </c>
-      <c r="B66" s="100" t="s">
-        <v>16</v>
-      </c>
-      <c r="C66" s="10">
-        <v>41</v>
-      </c>
-      <c r="D66" s="125"/>
+      <c r="B66" s="97" t="s">
+        <v>18</v>
+      </c>
+      <c r="C66" s="4">
+        <v>40</v>
+      </c>
+      <c r="D66" s="43">
+        <v>44453</v>
+      </c>
       <c r="E66" s="74" t="s">
-        <v>146</v>
-      </c>
-      <c r="F66" s="114" t="s">
-        <v>145</v>
-      </c>
-      <c r="G66" s="115"/>
-      <c r="H66" s="23"/>
-      <c r="I66" s="126"/>
+        <v>156</v>
+      </c>
+      <c r="F66" s="79" t="s">
+        <v>42</v>
+      </c>
+      <c r="G66" s="66" t="s">
+        <v>25</v>
+      </c>
+      <c r="H66" s="5" t="s">
+        <v>82</v>
+      </c>
+      <c r="I66" s="70" t="s">
+        <v>98</v>
+      </c>
       <c r="J66" s="26"/>
     </row>
     <row r="67" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A67" s="7"/>
       <c r="B67" s="27"/>
-      <c r="C67" s="15"/>
-      <c r="D67" s="36"/>
-      <c r="E67" s="36"/>
-      <c r="F67" s="118"/>
-      <c r="G67" s="119"/>
-      <c r="H67" s="20"/>
-      <c r="I67" s="102"/>
+      <c r="C67" s="11"/>
+      <c r="D67" s="44"/>
+      <c r="E67" s="44"/>
+      <c r="F67" s="32"/>
+      <c r="G67" s="67">
+        <v>82319844744</v>
+      </c>
+      <c r="H67" s="7"/>
+      <c r="I67" s="27"/>
       <c r="J67" s="24"/>
     </row>
     <row r="68" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A68" s="9"/>
-      <c r="B68" s="52"/>
-      <c r="C68" s="16"/>
-      <c r="D68" s="21"/>
-      <c r="E68" s="21"/>
-      <c r="F68" s="121"/>
-      <c r="G68" s="122"/>
-      <c r="H68" s="21"/>
-      <c r="I68" s="103"/>
+      <c r="B68" s="51"/>
+      <c r="C68" s="12"/>
+      <c r="D68" s="9"/>
+      <c r="E68" s="9"/>
+      <c r="F68" s="45"/>
+      <c r="G68" s="68"/>
+      <c r="H68" s="9"/>
+      <c r="I68" s="51"/>
       <c r="J68" s="25"/>
     </row>
     <row r="69" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A69" s="5">
         <v>21</v>
       </c>
-      <c r="B69" s="100" t="s">
-        <v>18</v>
+      <c r="B69" s="97" t="s">
+        <v>16</v>
       </c>
       <c r="C69" s="10">
         <v>41</v>
       </c>
-      <c r="D69" s="125"/>
-      <c r="E69" s="74" t="s">
-        <v>146</v>
-      </c>
-      <c r="F69" s="114" t="s">
+      <c r="D69" s="73" t="s">
+        <v>164</v>
+      </c>
+      <c r="E69" s="73" t="s">
         <v>145</v>
       </c>
-      <c r="G69" s="115"/>
+      <c r="F69" s="111" t="s">
+        <v>144</v>
+      </c>
+      <c r="G69" s="112" t="s">
+        <v>165</v>
+      </c>
       <c r="H69" s="23"/>
-      <c r="I69" s="126"/>
+      <c r="I69" s="122"/>
       <c r="J69" s="26"/>
     </row>
     <row r="70" spans="1:10" x14ac:dyDescent="0.2">
@@ -3077,72 +3124,72 @@
       <c r="C70" s="15"/>
       <c r="D70" s="36"/>
       <c r="E70" s="36"/>
-      <c r="F70" s="118"/>
-      <c r="G70" s="119"/>
+      <c r="F70" s="115"/>
+      <c r="G70" s="145" t="s">
+        <v>166</v>
+      </c>
       <c r="H70" s="20"/>
-      <c r="I70" s="102"/>
+      <c r="I70" s="99"/>
       <c r="J70" s="24"/>
     </row>
     <row r="71" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A71" s="9"/>
-      <c r="B71" s="52"/>
+      <c r="B71" s="51"/>
       <c r="C71" s="16"/>
       <c r="D71" s="21"/>
       <c r="E71" s="21"/>
-      <c r="F71" s="121"/>
-      <c r="G71" s="122"/>
+      <c r="F71" s="118"/>
+      <c r="G71" s="119"/>
       <c r="H71" s="21"/>
-      <c r="I71" s="103"/>
+      <c r="I71" s="100"/>
       <c r="J71" s="25"/>
     </row>
     <row r="72" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A72" s="5">
         <v>22</v>
       </c>
-      <c r="B72" s="3" t="s">
-        <v>97</v>
-      </c>
-      <c r="C72" s="4">
-        <v>4</v>
-      </c>
-      <c r="D72" s="43" t="s">
-        <v>146</v>
-      </c>
-      <c r="E72" s="22"/>
-      <c r="F72" s="87"/>
-      <c r="G72" s="67"/>
-      <c r="H72" s="5" t="s">
-        <v>160</v>
-      </c>
-      <c r="I72" s="147">
-        <v>44287</v>
-      </c>
+      <c r="B72" s="97" t="s">
+        <v>18</v>
+      </c>
+      <c r="C72" s="10">
+        <v>41</v>
+      </c>
+      <c r="D72" s="73" t="s">
+        <v>164</v>
+      </c>
+      <c r="E72" s="73" t="s">
+        <v>145</v>
+      </c>
+      <c r="F72" s="111" t="s">
+        <v>144</v>
+      </c>
+      <c r="G72" s="112"/>
+      <c r="H72" s="23"/>
+      <c r="I72" s="122"/>
       <c r="J72" s="26"/>
     </row>
     <row r="73" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A73" s="7"/>
-      <c r="B73" s="6"/>
-      <c r="C73" s="11"/>
-      <c r="D73" s="44"/>
-      <c r="E73" s="44"/>
-      <c r="F73" s="32"/>
-      <c r="G73" s="68">
-        <v>8123522575</v>
-      </c>
-      <c r="H73" s="7"/>
-      <c r="I73" s="27"/>
+      <c r="B73" s="27"/>
+      <c r="C73" s="15"/>
+      <c r="D73" s="36"/>
+      <c r="E73" s="36"/>
+      <c r="F73" s="115"/>
+      <c r="G73" s="116"/>
+      <c r="H73" s="20"/>
+      <c r="I73" s="99"/>
       <c r="J73" s="24"/>
     </row>
     <row r="74" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A74" s="9"/>
-      <c r="B74" s="8"/>
-      <c r="C74" s="12"/>
-      <c r="D74" s="9"/>
-      <c r="E74" s="9"/>
-      <c r="F74" s="45"/>
-      <c r="G74" s="69"/>
-      <c r="H74" s="9"/>
-      <c r="I74" s="52"/>
+      <c r="B74" s="51"/>
+      <c r="C74" s="16"/>
+      <c r="D74" s="21"/>
+      <c r="E74" s="21"/>
+      <c r="F74" s="118"/>
+      <c r="G74" s="119"/>
+      <c r="H74" s="21"/>
+      <c r="I74" s="100"/>
       <c r="J74" s="25"/>
     </row>
     <row r="75" spans="1:10" x14ac:dyDescent="0.2">
@@ -3153,25 +3200,19 @@
         <v>97</v>
       </c>
       <c r="C75" s="4">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D75" s="43" t="s">
-        <v>108</v>
-      </c>
-      <c r="E75" s="22">
-        <v>44237</v>
-      </c>
-      <c r="F75" s="87">
-        <v>44617</v>
-      </c>
-      <c r="G75" s="67" t="s">
-        <v>105</v>
-      </c>
+        <v>145</v>
+      </c>
+      <c r="E75" s="22"/>
+      <c r="F75" s="85"/>
+      <c r="G75" s="66"/>
       <c r="H75" s="5" t="s">
-        <v>104</v>
-      </c>
-      <c r="I75" s="106" t="s">
-        <v>133</v>
+        <v>159</v>
+      </c>
+      <c r="I75" s="130">
+        <v>44287</v>
       </c>
       <c r="J75" s="26"/>
     </row>
@@ -3182,8 +3223,8 @@
       <c r="D76" s="44"/>
       <c r="E76" s="44"/>
       <c r="F76" s="32"/>
-      <c r="G76" s="68">
-        <v>89603906796</v>
+      <c r="G76" s="67">
+        <v>8123522575</v>
       </c>
       <c r="H76" s="7"/>
       <c r="I76" s="27"/>
@@ -3196,200 +3237,256 @@
       <c r="D77" s="9"/>
       <c r="E77" s="9"/>
       <c r="F77" s="45"/>
-      <c r="G77" s="69"/>
+      <c r="G77" s="68"/>
       <c r="H77" s="9"/>
-      <c r="I77" s="52"/>
+      <c r="I77" s="51"/>
       <c r="J77" s="25"/>
     </row>
-    <row r="79" spans="1:10" s="84" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A79" s="2"/>
-      <c r="B79" s="85" t="s">
-        <v>159</v>
-      </c>
-      <c r="C79" s="86"/>
-      <c r="D79" s="86"/>
-      <c r="E79" s="2"/>
-      <c r="F79" s="83"/>
-      <c r="G79" s="92" t="s">
+    <row r="78" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A78" s="5">
+        <v>24</v>
+      </c>
+      <c r="B78" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="C78" s="4">
+        <v>5</v>
+      </c>
+      <c r="D78" s="43" t="s">
+        <v>108</v>
+      </c>
+      <c r="E78" s="22">
+        <v>44237</v>
+      </c>
+      <c r="F78" s="85">
+        <v>44617</v>
+      </c>
+      <c r="G78" s="66" t="s">
+        <v>105</v>
+      </c>
+      <c r="H78" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="I78" s="103" t="s">
+        <v>132</v>
+      </c>
+      <c r="J78" s="26"/>
+    </row>
+    <row r="79" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A79" s="7"/>
+      <c r="B79" s="6"/>
+      <c r="C79" s="11"/>
+      <c r="D79" s="44"/>
+      <c r="E79" s="44"/>
+      <c r="F79" s="32"/>
+      <c r="G79" s="67">
+        <v>89603906796</v>
+      </c>
+      <c r="H79" s="7"/>
+      <c r="I79" s="27"/>
+      <c r="J79" s="24"/>
+    </row>
+    <row r="80" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A80" s="9"/>
+      <c r="B80" s="8"/>
+      <c r="C80" s="12"/>
+      <c r="D80" s="9"/>
+      <c r="E80" s="9"/>
+      <c r="F80" s="45"/>
+      <c r="G80" s="68"/>
+      <c r="H80" s="9"/>
+      <c r="I80" s="51"/>
+      <c r="J80" s="25"/>
+    </row>
+    <row r="82" spans="1:10" s="82" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A82" s="2"/>
+      <c r="B82" s="83" t="s">
+        <v>158</v>
+      </c>
+      <c r="C82" s="84"/>
+      <c r="D82" s="84"/>
+      <c r="E82" s="2"/>
+      <c r="F82" s="81"/>
+      <c r="G82" s="90" t="s">
         <v>124</v>
       </c>
-      <c r="H79" s="99"/>
-      <c r="I79" s="83"/>
-      <c r="J79" s="83"/>
-    </row>
-    <row r="80" spans="1:10" s="84" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A80" s="2"/>
-      <c r="B80" s="133" t="s">
+      <c r="H82" s="96"/>
+      <c r="I82" s="81"/>
+      <c r="J82" s="81"/>
+    </row>
+    <row r="83" spans="1:10" s="82" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A83" s="2"/>
+      <c r="B83" s="129" t="s">
         <v>113</v>
       </c>
-      <c r="C80" s="2" t="s">
+      <c r="C83" s="2" t="s">
         <v>112</v>
-      </c>
-      <c r="D80" s="2"/>
-      <c r="E80" s="2"/>
-      <c r="F80" s="83"/>
-      <c r="G80" s="133" t="s">
-        <v>109</v>
-      </c>
-      <c r="H80" s="2" t="s">
-        <v>75</v>
-      </c>
-      <c r="I80" s="83"/>
-      <c r="J80" s="83"/>
-    </row>
-    <row r="81" spans="1:10" s="84" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A81" s="2"/>
-      <c r="B81" s="82" t="s">
-        <v>114</v>
-      </c>
-      <c r="C81" s="2" t="s">
-        <v>75</v>
-      </c>
-      <c r="D81" s="2"/>
-      <c r="E81" s="2"/>
-      <c r="F81" s="83"/>
-      <c r="G81" s="82" t="s">
-        <v>110</v>
-      </c>
-      <c r="H81" s="2" t="s">
-        <v>102</v>
-      </c>
-      <c r="I81" s="83"/>
-      <c r="J81" s="83"/>
-    </row>
-    <row r="82" spans="1:10" s="84" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A82" s="2"/>
-      <c r="B82" s="133" t="s">
-        <v>115</v>
-      </c>
-      <c r="C82" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="D82" s="2"/>
-      <c r="E82" s="2"/>
-      <c r="F82" s="83"/>
-      <c r="G82" s="133" t="s">
-        <v>111</v>
-      </c>
-      <c r="H82" s="2" t="s">
-        <v>77</v>
-      </c>
-      <c r="I82" s="83"/>
-      <c r="J82" s="83"/>
-    </row>
-    <row r="83" spans="1:10" s="84" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A83" s="2"/>
-      <c r="B83" s="133" t="s">
-        <v>117</v>
-      </c>
-      <c r="C83" s="2" t="s">
-        <v>116</v>
       </c>
       <c r="D83" s="2"/>
       <c r="E83" s="2"/>
-      <c r="F83" s="83"/>
-      <c r="G83" s="82"/>
-      <c r="H83" s="2"/>
-      <c r="I83" s="83"/>
-      <c r="J83" s="83"/>
-    </row>
-    <row r="84" spans="1:10" s="84" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F83" s="81"/>
+      <c r="G83" s="129" t="s">
+        <v>109</v>
+      </c>
+      <c r="H83" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="I83" s="81"/>
+      <c r="J83" s="81"/>
+    </row>
+    <row r="84" spans="1:10" s="82" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A84" s="2"/>
+      <c r="B84" s="80" t="s">
+        <v>114</v>
+      </c>
+      <c r="C84" s="2" t="s">
+        <v>75</v>
+      </c>
       <c r="D84" s="2"/>
       <c r="E84" s="2"/>
-      <c r="F84" s="83"/>
-      <c r="G84" s="82"/>
-      <c r="H84" s="2"/>
-      <c r="I84" s="83"/>
-      <c r="J84" s="83"/>
-    </row>
-    <row r="85" spans="1:10" s="84" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F84" s="81"/>
+      <c r="G84" s="80" t="s">
+        <v>110</v>
+      </c>
+      <c r="H84" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="I84" s="81"/>
+      <c r="J84" s="81"/>
+    </row>
+    <row r="85" spans="1:10" s="82" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A85" s="2"/>
-      <c r="B85" s="90" t="s">
-        <v>123</v>
-      </c>
-      <c r="C85" s="91"/>
+      <c r="B85" s="129" t="s">
+        <v>115</v>
+      </c>
+      <c r="C85" s="2" t="s">
+        <v>79</v>
+      </c>
       <c r="D85" s="2"/>
       <c r="E85" s="2"/>
-      <c r="F85" s="83"/>
-      <c r="G85" s="95" t="s">
-        <v>127</v>
-      </c>
-      <c r="H85" s="98"/>
-      <c r="I85" s="83"/>
-      <c r="J85" s="83"/>
-    </row>
-    <row r="86" spans="1:10" s="84" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F85" s="81"/>
+      <c r="G85" s="129" t="s">
+        <v>111</v>
+      </c>
+      <c r="H85" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="I85" s="81"/>
+      <c r="J85" s="81"/>
+    </row>
+    <row r="86" spans="1:10" s="82" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A86" s="2"/>
-      <c r="B86" s="82" t="s">
-        <v>118</v>
+      <c r="B86" s="129" t="s">
+        <v>117</v>
       </c>
       <c r="C86" s="2" t="s">
-        <v>122</v>
+        <v>116</v>
       </c>
       <c r="D86" s="2"/>
       <c r="E86" s="2"/>
-      <c r="F86" s="83"/>
-      <c r="G86" s="133" t="s">
-        <v>125</v>
-      </c>
-      <c r="H86" s="2" t="s">
-        <v>126</v>
-      </c>
-      <c r="I86" s="83"/>
-      <c r="J86" s="83"/>
-    </row>
-    <row r="87" spans="1:10" s="84" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F86" s="81"/>
+      <c r="G86" s="80"/>
+      <c r="H86" s="2"/>
+      <c r="I86" s="81"/>
+      <c r="J86" s="81"/>
+    </row>
+    <row r="87" spans="1:10" s="82" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A87" s="2"/>
-      <c r="B87" s="82" t="s">
-        <v>119</v>
-      </c>
-      <c r="C87" s="2" t="s">
-        <v>102</v>
-      </c>
       <c r="D87" s="2"/>
       <c r="E87" s="2"/>
-      <c r="F87" s="83"/>
-      <c r="G87" s="82"/>
+      <c r="F87" s="81"/>
+      <c r="G87" s="80"/>
       <c r="H87" s="2"/>
-      <c r="I87" s="83"/>
-      <c r="J87" s="83"/>
-    </row>
-    <row r="88" spans="1:10" s="84" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I87" s="81"/>
+      <c r="J87" s="81"/>
+    </row>
+    <row r="88" spans="1:10" s="82" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A88" s="2"/>
-      <c r="B88" s="82" t="s">
-        <v>120</v>
-      </c>
-      <c r="C88" s="2" t="s">
-        <v>69</v>
-      </c>
+      <c r="B88" s="88" t="s">
+        <v>123</v>
+      </c>
+      <c r="C88" s="89"/>
       <c r="D88" s="2"/>
       <c r="E88" s="2"/>
-      <c r="F88" s="83"/>
-      <c r="G88" s="82"/>
-      <c r="H88" s="2"/>
-      <c r="I88" s="83"/>
-      <c r="J88" s="83"/>
-    </row>
-    <row r="89" spans="1:10" s="84" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F88" s="81"/>
+      <c r="G88" s="92" t="s">
+        <v>127</v>
+      </c>
+      <c r="H88" s="95"/>
+      <c r="I88" s="81"/>
+      <c r="J88" s="81"/>
+    </row>
+    <row r="89" spans="1:10" s="82" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A89" s="2"/>
-      <c r="B89" s="82" t="s">
-        <v>121</v>
+      <c r="B89" s="80" t="s">
+        <v>118</v>
       </c>
       <c r="C89" s="2" t="s">
-        <v>104</v>
+        <v>122</v>
       </c>
       <c r="D89" s="2"/>
       <c r="E89" s="2"/>
-      <c r="F89" s="83"/>
-      <c r="G89" s="82"/>
-      <c r="H89" s="2"/>
-      <c r="I89" s="83"/>
-      <c r="J89" s="83"/>
-    </row>
-    <row r="90" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="B90" s="1" t="s">
-        <v>135</v>
+      <c r="F89" s="81"/>
+      <c r="G89" s="129" t="s">
+        <v>125</v>
+      </c>
+      <c r="H89" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="I89" s="81"/>
+      <c r="J89" s="81"/>
+    </row>
+    <row r="90" spans="1:10" s="82" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A90" s="2"/>
+      <c r="B90" s="80" t="s">
+        <v>119</v>
+      </c>
+      <c r="C90" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="D90" s="2"/>
+      <c r="E90" s="2"/>
+      <c r="F90" s="81"/>
+      <c r="G90" s="80"/>
+      <c r="H90" s="2"/>
+      <c r="I90" s="81"/>
+      <c r="J90" s="81"/>
+    </row>
+    <row r="91" spans="1:10" s="82" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A91" s="2"/>
+      <c r="B91" s="80" t="s">
+        <v>120</v>
+      </c>
+      <c r="C91" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="D91" s="2"/>
+      <c r="E91" s="2"/>
+      <c r="F91" s="81"/>
+      <c r="G91" s="80"/>
+      <c r="H91" s="2"/>
+      <c r="I91" s="81"/>
+      <c r="J91" s="81"/>
+    </row>
+    <row r="92" spans="1:10" s="82" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A92" s="2"/>
+      <c r="B92" s="80" t="s">
+        <v>121</v>
+      </c>
+      <c r="C92" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="D92" s="2"/>
+      <c r="E92" s="2"/>
+      <c r="F92" s="81"/>
+      <c r="G92" s="80"/>
+      <c r="H92" s="2"/>
+      <c r="I92" s="81"/>
+      <c r="J92" s="81"/>
+    </row>
+    <row r="93" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="B93" s="1" t="s">
+        <v>134</v>
       </c>
     </row>
   </sheetData>
@@ -3433,46 +3530,46 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="18" x14ac:dyDescent="0.2">
-      <c r="A1" s="143" t="s">
+      <c r="A1" s="140" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="143" t="s">
+      <c r="B1" s="140" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="143" t="s">
+      <c r="C1" s="140" t="s">
         <v>27</v>
       </c>
-      <c r="D1" s="143" t="s">
+      <c r="D1" s="140" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="143"/>
-      <c r="F1" s="145" t="s">
+      <c r="E1" s="140"/>
+      <c r="F1" s="142" t="s">
         <v>106</v>
       </c>
-      <c r="G1" s="143" t="s">
+      <c r="G1" s="140" t="s">
         <v>4</v>
       </c>
-      <c r="H1" s="141" t="s">
+      <c r="H1" s="138" t="s">
         <v>2</v>
       </c>
-      <c r="I1" s="134" t="s">
+      <c r="I1" s="131" t="s">
         <v>56</v>
       </c>
-      <c r="J1" s="134"/>
+      <c r="J1" s="131"/>
     </row>
     <row r="2" spans="1:10" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="144"/>
-      <c r="B2" s="144"/>
-      <c r="C2" s="144"/>
-      <c r="D2" s="73" t="s">
+      <c r="A2" s="141"/>
+      <c r="B2" s="141"/>
+      <c r="C2" s="141"/>
+      <c r="D2" s="72" t="s">
         <v>6</v>
       </c>
       <c r="E2" s="19" t="s">
         <v>7</v>
       </c>
-      <c r="F2" s="146"/>
-      <c r="G2" s="144"/>
-      <c r="H2" s="142"/>
+      <c r="F2" s="143"/>
+      <c r="G2" s="141"/>
+      <c r="H2" s="139"/>
       <c r="I2" s="17" t="s">
         <v>6</v>
       </c>
@@ -3490,7 +3587,7 @@
       <c r="C3" s="39">
         <v>8</v>
       </c>
-      <c r="D3" s="57">
+      <c r="D3" s="56">
         <v>44218</v>
       </c>
       <c r="E3" s="40" t="s">
@@ -3505,10 +3602,10 @@
       <c r="H3" s="38" t="s">
         <v>89</v>
       </c>
-      <c r="I3" s="58">
+      <c r="I3" s="57">
         <v>44251</v>
       </c>
-      <c r="J3" s="60" t="s">
+      <c r="J3" s="59" t="s">
         <v>96</v>
       </c>
     </row>
@@ -3524,7 +3621,7 @@
       </c>
       <c r="H4" s="7"/>
       <c r="I4" s="27"/>
-      <c r="J4" s="61"/>
+      <c r="J4" s="60"/>
     </row>
     <row r="5" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A5" s="9"/>
@@ -3535,7 +3632,7 @@
       <c r="F5" s="30"/>
       <c r="G5" s="30"/>
       <c r="H5" s="9"/>
-      <c r="I5" s="52"/>
+      <c r="I5" s="51"/>
       <c r="J5" s="25"/>
     </row>
     <row r="6" spans="1:10" ht="15" thickTop="1" x14ac:dyDescent="0.2">
@@ -3563,10 +3660,10 @@
       <c r="H6" s="5" t="s">
         <v>88</v>
       </c>
-      <c r="I6" s="58">
+      <c r="I6" s="57">
         <v>44251</v>
       </c>
-      <c r="J6" s="55" t="s">
+      <c r="J6" s="54" t="s">
         <v>96</v>
       </c>
     </row>
@@ -3593,7 +3690,7 @@
       <c r="F8" s="30"/>
       <c r="G8" s="30"/>
       <c r="H8" s="9"/>
-      <c r="I8" s="52"/>
+      <c r="I8" s="51"/>
       <c r="J8" s="25"/>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.2">
@@ -3609,7 +3706,7 @@
       <c r="D9" s="14" t="s">
         <v>94</v>
       </c>
-      <c r="E9" s="62" t="s">
+      <c r="E9" s="61" t="s">
         <v>39</v>
       </c>
       <c r="F9" s="34">
@@ -3621,10 +3718,10 @@
       <c r="H9" s="7" t="s">
         <v>92</v>
       </c>
-      <c r="I9" s="59" t="s">
+      <c r="I9" s="58" t="s">
         <v>95</v>
       </c>
-      <c r="J9" s="55" t="s">
+      <c r="J9" s="54" t="s">
         <v>96</v>
       </c>
     </row>
@@ -3667,7 +3764,7 @@
       <c r="D12" s="14" t="s">
         <v>94</v>
       </c>
-      <c r="E12" s="62" t="s">
+      <c r="E12" s="61" t="s">
         <v>39</v>
       </c>
       <c r="F12" s="34">
@@ -3679,10 +3776,10 @@
       <c r="H12" s="7" t="s">
         <v>93</v>
       </c>
-      <c r="I12" s="59" t="s">
+      <c r="I12" s="58" t="s">
         <v>95</v>
       </c>
-      <c r="J12" s="55" t="s">
+      <c r="J12" s="54" t="s">
         <v>96</v>
       </c>
     </row>
@@ -3728,19 +3825,19 @@
       <c r="E15" s="14" t="s">
         <v>55</v>
       </c>
-      <c r="F15" s="48" t="s">
+      <c r="F15" s="47" t="s">
         <v>63</v>
       </c>
-      <c r="G15" s="48" t="s">
+      <c r="G15" s="47" t="s">
         <v>37</v>
       </c>
       <c r="H15" s="10" t="s">
         <v>78</v>
       </c>
-      <c r="I15" s="54">
+      <c r="I15" s="53">
         <v>44287</v>
       </c>
-      <c r="J15" s="55" t="s">
+      <c r="J15" s="54" t="s">
         <v>58</v>
       </c>
     </row>
@@ -3751,7 +3848,7 @@
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
       <c r="F16" s="15"/>
-      <c r="G16" s="49">
+      <c r="G16" s="48">
         <v>82170697118</v>
       </c>
       <c r="H16" s="15"/>
@@ -3767,7 +3864,7 @@
       <c r="F17" s="12"/>
       <c r="G17" s="30"/>
       <c r="H17" s="12"/>
-      <c r="I17" s="52"/>
+      <c r="I17" s="51"/>
       <c r="J17" s="25"/>
     </row>
     <row r="18" spans="1:10" ht="15" thickTop="1" x14ac:dyDescent="0.2">
@@ -3789,16 +3886,16 @@
       <c r="F18" s="42">
         <v>44444</v>
       </c>
-      <c r="G18" s="63" t="s">
+      <c r="G18" s="62" t="s">
         <v>19</v>
       </c>
       <c r="H18" s="38" t="s">
         <v>66</v>
       </c>
-      <c r="I18" s="51" t="s">
+      <c r="I18" s="50" t="s">
         <v>53</v>
       </c>
-      <c r="J18" s="71" t="s">
+      <c r="J18" s="70" t="s">
         <v>98</v>
       </c>
     </row>
@@ -3809,7 +3906,7 @@
       <c r="D19" s="20"/>
       <c r="E19" s="20"/>
       <c r="F19" s="29"/>
-      <c r="G19" s="64">
+      <c r="G19" s="63">
         <v>81228196787</v>
       </c>
       <c r="H19" s="7"/>
@@ -3823,9 +3920,9 @@
       <c r="D20" s="9"/>
       <c r="E20" s="9"/>
       <c r="F20" s="30"/>
-      <c r="G20" s="65"/>
+      <c r="G20" s="64"/>
       <c r="H20" s="9"/>
-      <c r="I20" s="52"/>
+      <c r="I20" s="51"/>
       <c r="J20" s="25"/>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.2">
@@ -3847,16 +3944,16 @@
       <c r="F21" s="35">
         <v>44444</v>
       </c>
-      <c r="G21" s="66" t="s">
+      <c r="G21" s="65" t="s">
         <v>20</v>
       </c>
       <c r="H21" s="5" t="s">
         <v>67</v>
       </c>
-      <c r="I21" s="53" t="s">
+      <c r="I21" s="52" t="s">
         <v>53</v>
       </c>
-      <c r="J21" s="71" t="s">
+      <c r="J21" s="70" t="s">
         <v>98</v>
       </c>
     </row>
@@ -3867,7 +3964,7 @@
       <c r="D22" s="20"/>
       <c r="E22" s="20"/>
       <c r="F22" s="29"/>
-      <c r="G22" s="64">
+      <c r="G22" s="63">
         <v>81225736355</v>
       </c>
       <c r="H22" s="7"/>
@@ -3881,9 +3978,9 @@
       <c r="D23" s="9"/>
       <c r="E23" s="9"/>
       <c r="F23" s="30"/>
-      <c r="G23" s="65"/>
+      <c r="G23" s="64"/>
       <c r="H23" s="9"/>
-      <c r="I23" s="52"/>
+      <c r="I23" s="51"/>
       <c r="J23" s="25"/>
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.2">
@@ -3905,16 +4002,16 @@
       <c r="F24" s="31" t="s">
         <v>64</v>
       </c>
-      <c r="G24" s="66" t="s">
+      <c r="G24" s="65" t="s">
         <v>34</v>
       </c>
       <c r="H24" s="23" t="s">
         <v>74</v>
       </c>
-      <c r="I24" s="54">
+      <c r="I24" s="53">
         <v>44287</v>
       </c>
-      <c r="J24" s="71" t="s">
+      <c r="J24" s="70" t="s">
         <v>98</v>
       </c>
     </row>
@@ -3925,7 +4022,7 @@
       <c r="D25" s="20"/>
       <c r="E25" s="20"/>
       <c r="F25" s="29"/>
-      <c r="G25" s="64">
+      <c r="G25" s="63">
         <v>82110632173</v>
       </c>
       <c r="H25" s="20"/>
@@ -3939,9 +4036,9 @@
       <c r="D26" s="9"/>
       <c r="E26" s="9"/>
       <c r="F26" s="30"/>
-      <c r="G26" s="65"/>
+      <c r="G26" s="64"/>
       <c r="H26" s="21"/>
-      <c r="I26" s="52"/>
+      <c r="I26" s="51"/>
       <c r="J26" s="25"/>
     </row>
     <row r="27" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -3963,16 +4060,16 @@
       <c r="F27" s="31" t="s">
         <v>62</v>
       </c>
-      <c r="G27" s="66" t="s">
+      <c r="G27" s="65" t="s">
         <v>24</v>
       </c>
       <c r="H27" s="23" t="s">
         <v>76</v>
       </c>
-      <c r="I27" s="53" t="s">
+      <c r="I27" s="52" t="s">
         <v>53</v>
       </c>
-      <c r="J27" s="71" t="s">
+      <c r="J27" s="70" t="s">
         <v>98</v>
       </c>
     </row>
@@ -3983,7 +4080,7 @@
       <c r="D28" s="7"/>
       <c r="E28" s="20"/>
       <c r="F28" s="29"/>
-      <c r="G28" s="64">
+      <c r="G28" s="63">
         <v>81231558203</v>
       </c>
       <c r="H28" s="20"/>
@@ -3997,9 +4094,9 @@
       <c r="D29" s="9"/>
       <c r="E29" s="9"/>
       <c r="F29" s="30"/>
-      <c r="G29" s="65"/>
+      <c r="G29" s="64"/>
       <c r="H29" s="21"/>
-      <c r="I29" s="52"/>
+      <c r="I29" s="51"/>
       <c r="J29" s="25"/>
     </row>
     <row r="30" spans="1:10" x14ac:dyDescent="0.2">
@@ -4021,16 +4118,16 @@
       <c r="F30" s="31" t="s">
         <v>17</v>
       </c>
-      <c r="G30" s="66" t="s">
+      <c r="G30" s="65" t="s">
         <v>36</v>
       </c>
       <c r="H30" s="23" t="s">
         <v>73</v>
       </c>
-      <c r="I30" s="54">
+      <c r="I30" s="53">
         <v>44246</v>
       </c>
-      <c r="J30" s="71" t="s">
+      <c r="J30" s="70" t="s">
         <v>98</v>
       </c>
     </row>
@@ -4041,7 +4138,7 @@
       <c r="D31" s="6"/>
       <c r="E31" s="20"/>
       <c r="F31" s="29"/>
-      <c r="G31" s="64">
+      <c r="G31" s="63">
         <v>81318154783</v>
       </c>
       <c r="H31" s="20"/>
@@ -4050,12 +4147,12 @@
     </row>
     <row r="32" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A32" s="7"/>
-      <c r="B32" s="50"/>
-      <c r="C32" s="50"/>
+      <c r="B32" s="49"/>
+      <c r="C32" s="49"/>
       <c r="D32" s="9"/>
       <c r="E32" s="9"/>
       <c r="F32" s="30"/>
-      <c r="G32" s="65"/>
+      <c r="G32" s="64"/>
       <c r="H32" s="21"/>
       <c r="I32" s="25"/>
       <c r="J32" s="25"/>
@@ -4079,16 +4176,16 @@
       <c r="F33" s="31" t="s">
         <v>17</v>
       </c>
-      <c r="G33" s="66" t="s">
+      <c r="G33" s="65" t="s">
         <v>38</v>
       </c>
       <c r="H33" s="23" t="s">
         <v>69</v>
       </c>
-      <c r="I33" s="54">
+      <c r="I33" s="53">
         <v>44246</v>
       </c>
-      <c r="J33" s="71" t="s">
+      <c r="J33" s="70" t="s">
         <v>98</v>
       </c>
     </row>
@@ -4099,7 +4196,7 @@
       <c r="D34" s="6"/>
       <c r="E34" s="20"/>
       <c r="F34" s="29"/>
-      <c r="G34" s="64">
+      <c r="G34" s="63">
         <v>8123929482</v>
       </c>
       <c r="H34" s="20"/>
@@ -4108,12 +4205,12 @@
     </row>
     <row r="35" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A35" s="9"/>
-      <c r="B35" s="50"/>
-      <c r="C35" s="50"/>
+      <c r="B35" s="49"/>
+      <c r="C35" s="49"/>
       <c r="D35" s="9"/>
       <c r="E35" s="9"/>
       <c r="F35" s="30"/>
-      <c r="G35" s="65"/>
+      <c r="G35" s="64"/>
       <c r="H35" s="21"/>
       <c r="I35" s="25"/>
       <c r="J35" s="25"/>
@@ -4137,16 +4234,16 @@
       <c r="F36" s="35">
         <v>44444</v>
       </c>
-      <c r="G36" s="66" t="s">
+      <c r="G36" s="65" t="s">
         <v>25</v>
       </c>
       <c r="H36" s="5" t="s">
         <v>76</v>
       </c>
-      <c r="I36" s="53" t="s">
+      <c r="I36" s="52" t="s">
         <v>53</v>
       </c>
-      <c r="J36" s="71" t="s">
+      <c r="J36" s="70" t="s">
         <v>98</v>
       </c>
     </row>
@@ -4157,7 +4254,7 @@
       <c r="D37" s="7"/>
       <c r="E37" s="7"/>
       <c r="F37" s="29"/>
-      <c r="G37" s="64">
+      <c r="G37" s="63">
         <v>81331414130</v>
       </c>
       <c r="H37" s="7"/>
@@ -4171,7 +4268,7 @@
       <c r="D38" s="9"/>
       <c r="E38" s="9"/>
       <c r="F38" s="30"/>
-      <c r="G38" s="65"/>
+      <c r="G38" s="64"/>
       <c r="H38" s="9"/>
       <c r="I38" s="25"/>
       <c r="J38" s="25"/>
@@ -4195,16 +4292,16 @@
       <c r="F39" s="35">
         <v>44444</v>
       </c>
-      <c r="G39" s="66" t="s">
+      <c r="G39" s="65" t="s">
         <v>26</v>
       </c>
       <c r="H39" s="5" t="s">
         <v>80</v>
       </c>
-      <c r="I39" s="53" t="s">
+      <c r="I39" s="52" t="s">
         <v>53</v>
       </c>
-      <c r="J39" s="71" t="s">
+      <c r="J39" s="70" t="s">
         <v>98</v>
       </c>
     </row>
@@ -4215,7 +4312,7 @@
       <c r="D40" s="7"/>
       <c r="E40" s="7"/>
       <c r="F40" s="29"/>
-      <c r="G40" s="64">
+      <c r="G40" s="63">
         <v>81252283477</v>
       </c>
       <c r="H40" s="7"/>
@@ -4229,7 +4326,7 @@
       <c r="D41" s="9"/>
       <c r="E41" s="9"/>
       <c r="F41" s="30"/>
-      <c r="G41" s="65"/>
+      <c r="G41" s="64"/>
       <c r="H41" s="9"/>
       <c r="I41" s="25"/>
       <c r="J41" s="25"/>
@@ -4238,7 +4335,7 @@
       <c r="A42" s="5">
         <v>12</v>
       </c>
-      <c r="B42" s="101" t="s">
+      <c r="B42" s="98" t="s">
         <v>12</v>
       </c>
       <c r="C42" s="10">
@@ -4248,32 +4345,32 @@
         <v>44237</v>
       </c>
       <c r="E42" s="14" t="s">
-        <v>130</v>
-      </c>
-      <c r="F42" s="128">
+        <v>129</v>
+      </c>
+      <c r="F42" s="124">
         <v>44501</v>
       </c>
-      <c r="G42" s="66" t="s">
+      <c r="G42" s="65" t="s">
         <v>35</v>
       </c>
       <c r="H42" s="23" t="s">
         <v>69</v>
       </c>
-      <c r="I42" s="53" t="s">
+      <c r="I42" s="52" t="s">
         <v>53</v>
       </c>
-      <c r="J42" s="53" t="s">
+      <c r="J42" s="52" t="s">
         <v>53</v>
       </c>
     </row>
     <row r="43" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A43" s="7"/>
-      <c r="B43" s="102"/>
+      <c r="B43" s="99"/>
       <c r="C43" s="15"/>
       <c r="D43" s="7"/>
       <c r="E43" s="7"/>
       <c r="F43" s="29"/>
-      <c r="G43" s="64">
+      <c r="G43" s="63">
         <v>82143316439</v>
       </c>
       <c r="H43" s="20"/>
@@ -4282,14 +4379,14 @@
     </row>
     <row r="44" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A44" s="9"/>
-      <c r="B44" s="103"/>
+      <c r="B44" s="100"/>
       <c r="C44" s="16"/>
       <c r="D44" s="9"/>
       <c r="E44" s="9"/>
       <c r="F44" s="30"/>
-      <c r="G44" s="65"/>
+      <c r="G44" s="64"/>
       <c r="H44" s="21"/>
-      <c r="I44" s="52"/>
+      <c r="I44" s="51"/>
       <c r="J44" s="25"/>
     </row>
   </sheetData>

--- a/RENCANA BON VOYAGE.xlsx
+++ b/RENCANA BON VOYAGE.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Mapan\progress\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{952A3B57-4AEC-4D7E-8C65-CF1954D371E1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{70777D44-A632-4BAB-8020-16C7EE9A8A7A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="292" uniqueCount="170">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="293" uniqueCount="171">
   <si>
     <t>NO</t>
   </si>
@@ -544,6 +544,9 @@
   </si>
   <si>
     <t>29 JUNI</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 25 NOV</t>
   </si>
 </sst>
 </file>
@@ -696,7 +699,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="152">
+  <cellXfs count="153">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1074,6 +1077,30 @@
     <xf numFmtId="16" fontId="2" fillId="2" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
+    <xf numFmtId="15" fontId="2" fillId="2" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="2"/>
+    </xf>
+    <xf numFmtId="16" fontId="2" fillId="5" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="2"/>
+    </xf>
+    <xf numFmtId="16" fontId="2" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="15" fontId="2" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="16" fontId="2" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1113,28 +1140,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="15" fontId="2" fillId="2" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="2"/>
-    </xf>
-    <xf numFmtId="16" fontId="2" fillId="5" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="2"/>
-    </xf>
-    <xf numFmtId="16" fontId="2" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="15" fontId="2" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="16" fontId="2" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="16" fontId="2" fillId="2" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
   </cellXfs>
@@ -1841,8 +1847,8 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:J93"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" zoomScale="70" zoomScaleNormal="70" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="G50" sqref="G50"/>
+    <sheetView tabSelected="1" topLeftCell="A34" zoomScale="85" zoomScaleNormal="85" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1861,46 +1867,46 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="15" x14ac:dyDescent="0.25">
-      <c r="A1" s="131" t="s">
+      <c r="A1" s="139" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="131" t="s">
+      <c r="B1" s="139" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="131" t="s">
+      <c r="C1" s="139" t="s">
         <v>27</v>
       </c>
-      <c r="D1" s="137" t="s">
+      <c r="D1" s="145" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="137"/>
-      <c r="F1" s="135" t="s">
+      <c r="E1" s="145"/>
+      <c r="F1" s="143" t="s">
         <v>8</v>
       </c>
-      <c r="G1" s="133" t="s">
+      <c r="G1" s="141" t="s">
         <v>4</v>
       </c>
-      <c r="H1" s="131" t="s">
+      <c r="H1" s="139" t="s">
         <v>2</v>
       </c>
-      <c r="I1" s="131" t="s">
+      <c r="I1" s="139" t="s">
         <v>56</v>
       </c>
-      <c r="J1" s="131"/>
+      <c r="J1" s="139"/>
     </row>
     <row r="2" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="132"/>
-      <c r="B2" s="132"/>
-      <c r="C2" s="132"/>
+      <c r="A2" s="140"/>
+      <c r="B2" s="140"/>
+      <c r="C2" s="140"/>
       <c r="D2" s="17" t="s">
         <v>6</v>
       </c>
       <c r="E2" s="17" t="s">
         <v>7</v>
       </c>
-      <c r="F2" s="136"/>
-      <c r="G2" s="134"/>
-      <c r="H2" s="132"/>
+      <c r="F2" s="144"/>
+      <c r="G2" s="142"/>
+      <c r="H2" s="140"/>
       <c r="I2" s="17" t="s">
         <v>6</v>
       </c>
@@ -1921,7 +1927,7 @@
       <c r="D3" s="74" t="s">
         <v>107</v>
       </c>
-      <c r="E3" s="144" t="s">
+      <c r="E3" s="131" t="s">
         <v>160</v>
       </c>
       <c r="F3" s="77" t="s">
@@ -2565,7 +2571,7 @@
       <c r="D39" s="75" t="s">
         <v>108</v>
       </c>
-      <c r="E39" s="147" t="s">
+      <c r="E39" s="134" t="s">
         <v>168</v>
       </c>
       <c r="F39" s="87" t="s">
@@ -2619,15 +2625,15 @@
         <v>34</v>
       </c>
       <c r="D42" s="105"/>
-      <c r="E42" s="149" t="s">
+      <c r="E42" s="136" t="s">
         <v>33</v>
       </c>
-      <c r="F42" s="150" t="s">
+      <c r="F42" s="137" t="s">
         <v>169</v>
       </c>
       <c r="G42" s="116"/>
       <c r="H42" s="20"/>
-      <c r="I42" s="151"/>
+      <c r="I42" s="138"/>
       <c r="J42" s="24"/>
     </row>
     <row r="43" spans="1:10" x14ac:dyDescent="0.2">
@@ -2667,7 +2673,7 @@
       <c r="D45" s="14" t="s">
         <v>39</v>
       </c>
-      <c r="E45" s="148" t="s">
+      <c r="E45" s="135" t="s">
         <v>168</v>
       </c>
       <c r="F45" s="86" t="s">
@@ -2735,7 +2741,9 @@
       <c r="H48" s="101" t="s">
         <v>89</v>
       </c>
-      <c r="I48" s="76"/>
+      <c r="I48" s="152" t="s">
+        <v>170</v>
+      </c>
       <c r="J48" s="26"/>
     </row>
     <row r="49" spans="1:10" x14ac:dyDescent="0.2">
@@ -2780,7 +2788,7 @@
       <c r="E51" s="74" t="s">
         <v>129</v>
       </c>
-      <c r="F51" s="146" t="s">
+      <c r="F51" s="133" t="s">
         <v>167</v>
       </c>
       <c r="G51" s="66" t="s">
@@ -2961,7 +2969,7 @@
       <c r="D61" s="36"/>
       <c r="E61" s="36"/>
       <c r="F61" s="115"/>
-      <c r="G61" s="145" t="s">
+      <c r="G61" s="132" t="s">
         <v>163</v>
       </c>
       <c r="H61" s="20"/>
@@ -3125,7 +3133,7 @@
       <c r="D70" s="36"/>
       <c r="E70" s="36"/>
       <c r="F70" s="115"/>
-      <c r="G70" s="145" t="s">
+      <c r="G70" s="132" t="s">
         <v>166</v>
       </c>
       <c r="H70" s="20"/>
@@ -3530,46 +3538,46 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="18" x14ac:dyDescent="0.2">
-      <c r="A1" s="140" t="s">
+      <c r="A1" s="148" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="140" t="s">
+      <c r="B1" s="148" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="140" t="s">
+      <c r="C1" s="148" t="s">
         <v>27</v>
       </c>
-      <c r="D1" s="140" t="s">
+      <c r="D1" s="148" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="140"/>
-      <c r="F1" s="142" t="s">
+      <c r="E1" s="148"/>
+      <c r="F1" s="150" t="s">
         <v>106</v>
       </c>
-      <c r="G1" s="140" t="s">
+      <c r="G1" s="148" t="s">
         <v>4</v>
       </c>
-      <c r="H1" s="138" t="s">
+      <c r="H1" s="146" t="s">
         <v>2</v>
       </c>
-      <c r="I1" s="131" t="s">
+      <c r="I1" s="139" t="s">
         <v>56</v>
       </c>
-      <c r="J1" s="131"/>
+      <c r="J1" s="139"/>
     </row>
     <row r="2" spans="1:10" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="141"/>
-      <c r="B2" s="141"/>
-      <c r="C2" s="141"/>
+      <c r="A2" s="149"/>
+      <c r="B2" s="149"/>
+      <c r="C2" s="149"/>
       <c r="D2" s="72" t="s">
         <v>6</v>
       </c>
       <c r="E2" s="19" t="s">
         <v>7</v>
       </c>
-      <c r="F2" s="143"/>
-      <c r="G2" s="141"/>
-      <c r="H2" s="139"/>
+      <c r="F2" s="151"/>
+      <c r="G2" s="149"/>
+      <c r="H2" s="147"/>
       <c r="I2" s="17" t="s">
         <v>6</v>
       </c>

--- a/RENCANA BON VOYAGE.xlsx
+++ b/RENCANA BON VOYAGE.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Mapan\progress\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{70777D44-A632-4BAB-8020-16C7EE9A8A7A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CC671BBA-D960-4CBC-B752-4BEFA1A4AE29}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="10275" yWindow="330" windowWidth="15600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="progres" sheetId="1" r:id="rId1"/>
@@ -18,7 +18,7 @@
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">done!$A$1:$I$2</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">progres!$A$1:$I$46</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">progres!$A$1:$I$31</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="293" uniqueCount="171">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="284" uniqueCount="156">
   <si>
     <t>NO</t>
   </si>
@@ -363,33 +363,6 @@
     <t>04 OKT</t>
   </si>
   <si>
-    <t>1. DP3N31</t>
-  </si>
-  <si>
-    <t>2. DP3T25</t>
-  </si>
-  <si>
-    <t>3. DP4N33</t>
-  </si>
-  <si>
-    <t>73 ORG</t>
-  </si>
-  <si>
-    <t>1. DP1NT10</t>
-  </si>
-  <si>
-    <t>2. DP3N32</t>
-  </si>
-  <si>
-    <t>3. DP4T28</t>
-  </si>
-  <si>
-    <t>32 ORG</t>
-  </si>
-  <si>
-    <t>4. DP5NT40</t>
-  </si>
-  <si>
     <t>1. DP2NT17</t>
   </si>
   <si>
@@ -408,18 +381,6 @@
     <t>KIRIM BN 10 FEB 2021</t>
   </si>
   <si>
-    <t>KIRIM BN 06 OKT 2021</t>
-  </si>
-  <si>
-    <t>1. DP2NT16</t>
-  </si>
-  <si>
-    <t>151 ORG</t>
-  </si>
-  <si>
-    <t>KIRIM BN 01 NOV 2021</t>
-  </si>
-  <si>
     <t>01 FEB 22</t>
   </si>
   <si>
@@ -489,9 +450,6 @@
     <t>08 NOV</t>
   </si>
   <si>
-    <t>30 NOV</t>
-  </si>
-  <si>
     <t>AFRIAN</t>
   </si>
   <si>
@@ -508,9 +466,6 @@
   </si>
   <si>
     <t>22 NOV</t>
-  </si>
-  <si>
-    <t>KIRIM BN '22 NOV 2021</t>
   </si>
   <si>
     <t>5 ORG</t>
@@ -585,7 +540,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="8">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -619,12 +574,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="7" tint="0.59999389629810485"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -699,7 +648,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="153">
+  <cellXfs count="146">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -935,12 +884,6 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="2" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="16" fontId="2" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="2"/>
     </xf>
@@ -956,25 +899,13 @@
     <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="2" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="15" fontId="2" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" indent="2"/>
     </xf>
-    <xf numFmtId="164" fontId="2" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="15" fontId="2" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" indent="2"/>
     </xf>
     <xf numFmtId="15" fontId="2" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1059,9 +990,6 @@
     <xf numFmtId="15" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" indent="2"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="2"/>
     </xf>
@@ -1071,9 +999,6 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" indent="2"/>
     </xf>
-    <xf numFmtId="164" fontId="2" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="16" fontId="2" fillId="2" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
@@ -1101,6 +1026,9 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
+    <xf numFmtId="16" fontId="2" fillId="2" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1140,8 +1068,8 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="16" fontId="2" fillId="2" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1166,14 +1094,14 @@
     <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>273113</xdr:colOff>
-      <xdr:row>20</xdr:row>
+      <xdr:row>8</xdr:row>
       <xdr:rowOff>178059</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
       <xdr:colOff>273473</xdr:colOff>
-      <xdr:row>21</xdr:row>
-      <xdr:rowOff>5236</xdr:rowOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>5235</xdr:rowOff>
     </xdr:to>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
       <mc:Choice Requires="xdr14">
@@ -1231,13 +1159,13 @@
     <xdr:from>
       <xdr:col>14</xdr:col>
       <xdr:colOff>189939</xdr:colOff>
-      <xdr:row>44</xdr:row>
+      <xdr:row>29</xdr:row>
       <xdr:rowOff>89245</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>14</xdr:col>
       <xdr:colOff>190299</xdr:colOff>
-      <xdr:row>44</xdr:row>
+      <xdr:row>29</xdr:row>
       <xdr:rowOff>89605</xdr:rowOff>
     </xdr:to>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
@@ -1296,7 +1224,7 @@
     <xdr:from>
       <xdr:col>14</xdr:col>
       <xdr:colOff>189939</xdr:colOff>
-      <xdr:row>47</xdr:row>
+      <xdr:row>32</xdr:row>
       <xdr:rowOff>89245</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="360" cy="360"/>
@@ -1356,7 +1284,7 @@
     <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>273113</xdr:colOff>
-      <xdr:row>26</xdr:row>
+      <xdr:row>14</xdr:row>
       <xdr:rowOff>178059</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="360" cy="4070"/>
@@ -1845,10 +1773,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:J93"/>
+  <dimension ref="A1:J60"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A34" zoomScale="85" zoomScaleNormal="85" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+    <sheetView tabSelected="1" topLeftCell="A28" zoomScale="85" zoomScaleNormal="85" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="D42" sqref="D42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1867,46 +1795,46 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="15" x14ac:dyDescent="0.25">
-      <c r="A1" s="139" t="s">
+      <c r="A1" s="132" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="139" t="s">
+      <c r="B1" s="132" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="139" t="s">
+      <c r="C1" s="132" t="s">
         <v>27</v>
       </c>
-      <c r="D1" s="145" t="s">
+      <c r="D1" s="138" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="145"/>
-      <c r="F1" s="143" t="s">
+      <c r="E1" s="138"/>
+      <c r="F1" s="136" t="s">
         <v>8</v>
       </c>
-      <c r="G1" s="141" t="s">
+      <c r="G1" s="134" t="s">
         <v>4</v>
       </c>
-      <c r="H1" s="139" t="s">
+      <c r="H1" s="132" t="s">
         <v>2</v>
       </c>
-      <c r="I1" s="139" t="s">
+      <c r="I1" s="132" t="s">
         <v>56</v>
       </c>
-      <c r="J1" s="139"/>
+      <c r="J1" s="132"/>
     </row>
     <row r="2" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="140"/>
-      <c r="B2" s="140"/>
-      <c r="C2" s="140"/>
+      <c r="A2" s="133"/>
+      <c r="B2" s="133"/>
+      <c r="C2" s="133"/>
       <c r="D2" s="17" t="s">
         <v>6</v>
       </c>
       <c r="E2" s="17" t="s">
         <v>7</v>
       </c>
-      <c r="F2" s="144"/>
-      <c r="G2" s="142"/>
-      <c r="H2" s="140"/>
+      <c r="F2" s="137"/>
+      <c r="G2" s="135"/>
+      <c r="H2" s="133"/>
       <c r="I2" s="17" t="s">
         <v>6</v>
       </c>
@@ -1918,30 +1846,22 @@
       <c r="A3" s="5">
         <v>1</v>
       </c>
-      <c r="B3" s="97" t="s">
+      <c r="B3" s="91" t="s">
         <v>5</v>
       </c>
       <c r="C3" s="4">
-        <v>10</v>
-      </c>
-      <c r="D3" s="74" t="s">
-        <v>107</v>
-      </c>
-      <c r="E3" s="131" t="s">
-        <v>160</v>
-      </c>
-      <c r="F3" s="77" t="s">
-        <v>52</v>
-      </c>
-      <c r="G3" s="65" t="s">
-        <v>50</v>
-      </c>
-      <c r="H3" s="5" t="s">
-        <v>68</v>
-      </c>
-      <c r="I3" s="70" t="s">
-        <v>98</v>
-      </c>
+        <v>11</v>
+      </c>
+      <c r="D3" s="73"/>
+      <c r="E3" s="90" t="s">
+        <v>141</v>
+      </c>
+      <c r="F3" s="104" t="s">
+        <v>140</v>
+      </c>
+      <c r="G3" s="100"/>
+      <c r="H3" s="23"/>
+      <c r="I3" s="116"/>
       <c r="J3" s="26"/>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.2">
@@ -1950,12 +1870,10 @@
       <c r="C4" s="11"/>
       <c r="D4" s="20"/>
       <c r="E4" s="20"/>
-      <c r="F4" s="29"/>
-      <c r="G4" s="63">
-        <v>81331434743</v>
-      </c>
-      <c r="H4" s="7"/>
-      <c r="I4" s="27"/>
+      <c r="F4" s="48"/>
+      <c r="G4" s="120"/>
+      <c r="H4" s="20"/>
+      <c r="I4" s="93"/>
       <c r="J4" s="24"/>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.2">
@@ -1964,40 +1882,32 @@
       <c r="C5" s="12"/>
       <c r="D5" s="21"/>
       <c r="E5" s="21"/>
-      <c r="F5" s="30"/>
-      <c r="G5" s="64"/>
-      <c r="H5" s="9"/>
-      <c r="I5" s="51"/>
+      <c r="F5" s="121"/>
+      <c r="G5" s="103"/>
+      <c r="H5" s="21"/>
+      <c r="I5" s="94"/>
       <c r="J5" s="25"/>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A6" s="5">
         <v>2</v>
       </c>
-      <c r="B6" s="97" t="s">
+      <c r="B6" s="91" t="s">
         <v>9</v>
       </c>
       <c r="C6" s="4">
-        <v>10</v>
-      </c>
-      <c r="D6" s="74" t="s">
-        <v>107</v>
-      </c>
-      <c r="E6" s="74" t="s">
-        <v>160</v>
-      </c>
-      <c r="F6" s="77" t="s">
-        <v>52</v>
-      </c>
-      <c r="G6" s="65" t="s">
-        <v>99</v>
-      </c>
-      <c r="H6" s="5" t="s">
-        <v>69</v>
-      </c>
-      <c r="I6" s="70" t="s">
-        <v>98</v>
-      </c>
+        <v>11</v>
+      </c>
+      <c r="D6" s="73"/>
+      <c r="E6" s="90" t="s">
+        <v>141</v>
+      </c>
+      <c r="F6" s="104" t="s">
+        <v>140</v>
+      </c>
+      <c r="G6" s="100"/>
+      <c r="H6" s="23"/>
+      <c r="I6" s="116"/>
       <c r="J6" s="26"/>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.2">
@@ -2028,36 +1938,46 @@
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A9" s="5">
-        <v>1</v>
-      </c>
-      <c r="B9" s="97" t="s">
-        <v>5</v>
+        <v>3</v>
+      </c>
+      <c r="B9" s="91" t="s">
+        <v>10</v>
       </c>
       <c r="C9" s="4">
-        <v>11</v>
-      </c>
-      <c r="D9" s="73"/>
-      <c r="E9" s="94" t="s">
-        <v>155</v>
-      </c>
-      <c r="F9" s="110" t="s">
-        <v>154</v>
-      </c>
-      <c r="G9" s="106"/>
-      <c r="H9" s="23"/>
-      <c r="I9" s="122"/>
+        <v>17</v>
+      </c>
+      <c r="D9" s="75" t="s">
+        <v>108</v>
+      </c>
+      <c r="E9" s="90" t="s">
+        <v>115</v>
+      </c>
+      <c r="F9" s="84" t="s">
+        <v>65</v>
+      </c>
+      <c r="G9" s="65" t="s">
+        <v>51</v>
+      </c>
+      <c r="H9" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="I9" s="53">
+        <v>44449</v>
+      </c>
       <c r="J9" s="26"/>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A10" s="7"/>
       <c r="B10" s="27"/>
       <c r="C10" s="11"/>
-      <c r="D10" s="20"/>
-      <c r="E10" s="20"/>
-      <c r="F10" s="48"/>
-      <c r="G10" s="127"/>
-      <c r="H10" s="20"/>
-      <c r="I10" s="99"/>
+      <c r="D10" s="36"/>
+      <c r="E10" s="36"/>
+      <c r="F10" s="34"/>
+      <c r="G10" s="63">
+        <v>81284663664</v>
+      </c>
+      <c r="H10" s="7"/>
+      <c r="I10" s="27"/>
       <c r="J10" s="24"/>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.2">
@@ -2066,43 +1986,51 @@
       <c r="C11" s="12"/>
       <c r="D11" s="21"/>
       <c r="E11" s="21"/>
-      <c r="F11" s="128"/>
-      <c r="G11" s="109"/>
-      <c r="H11" s="21"/>
-      <c r="I11" s="100"/>
+      <c r="F11" s="37"/>
+      <c r="G11" s="64"/>
+      <c r="H11" s="9"/>
+      <c r="I11" s="51"/>
       <c r="J11" s="25"/>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A12" s="5">
-        <v>2</v>
-      </c>
-      <c r="B12" s="97" t="s">
-        <v>9</v>
+        <v>4</v>
+      </c>
+      <c r="B12" s="91" t="s">
+        <v>11</v>
       </c>
       <c r="C12" s="4">
-        <v>11</v>
-      </c>
-      <c r="D12" s="73"/>
-      <c r="E12" s="94" t="s">
-        <v>155</v>
-      </c>
-      <c r="F12" s="110" t="s">
-        <v>154</v>
-      </c>
-      <c r="G12" s="106"/>
-      <c r="H12" s="23"/>
-      <c r="I12" s="122"/>
+        <v>17</v>
+      </c>
+      <c r="D12" s="75" t="s">
+        <v>108</v>
+      </c>
+      <c r="E12" s="90" t="s">
+        <v>115</v>
+      </c>
+      <c r="F12" s="84" t="s">
+        <v>65</v>
+      </c>
+      <c r="G12" s="65" t="s">
+        <v>47</v>
+      </c>
+      <c r="H12" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="I12" s="53">
+        <v>44449</v>
+      </c>
       <c r="J12" s="26"/>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A13" s="7"/>
       <c r="B13" s="27"/>
       <c r="C13" s="11"/>
-      <c r="D13" s="20"/>
-      <c r="E13" s="20"/>
-      <c r="F13" s="29"/>
-      <c r="G13" s="71" t="s">
-        <v>100</v>
+      <c r="D13" s="36"/>
+      <c r="E13" s="36"/>
+      <c r="F13" s="34"/>
+      <c r="G13" s="63">
+        <v>85740346667</v>
       </c>
       <c r="H13" s="7"/>
       <c r="I13" s="27"/>
@@ -2114,7 +2042,7 @@
       <c r="C14" s="12"/>
       <c r="D14" s="21"/>
       <c r="E14" s="21"/>
-      <c r="F14" s="30"/>
+      <c r="F14" s="37"/>
       <c r="G14" s="64"/>
       <c r="H14" s="9"/>
       <c r="I14" s="51"/>
@@ -2122,143 +2050,133 @@
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A15" s="5">
-        <v>3</v>
-      </c>
-      <c r="B15" s="97" t="s">
+        <v>5</v>
+      </c>
+      <c r="B15" s="91" t="s">
         <v>10</v>
       </c>
       <c r="C15" s="4">
-        <v>16</v>
-      </c>
-      <c r="D15" s="14" t="s">
-        <v>30</v>
-      </c>
-      <c r="E15" s="74" t="s">
-        <v>161</v>
-      </c>
-      <c r="F15" s="93">
-        <v>44520</v>
-      </c>
-      <c r="G15" s="65" t="s">
-        <v>21</v>
-      </c>
-      <c r="H15" s="5" t="s">
-        <v>70</v>
-      </c>
-      <c r="I15" s="52" t="s">
-        <v>53</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="D15" s="99" t="s">
+        <v>126</v>
+      </c>
+      <c r="E15" s="90" t="s">
+        <v>128</v>
+      </c>
+      <c r="F15" s="104" t="s">
+        <v>127</v>
+      </c>
+      <c r="G15" s="100" t="s">
+        <v>135</v>
+      </c>
+      <c r="H15" s="23"/>
+      <c r="I15" s="76"/>
       <c r="J15" s="26"/>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A16" s="7"/>
       <c r="B16" s="27"/>
       <c r="C16" s="11"/>
-      <c r="D16" s="7"/>
+      <c r="D16" s="36"/>
       <c r="E16" s="36"/>
-      <c r="F16" s="34"/>
-      <c r="G16" s="63">
-        <v>81232989078</v>
-      </c>
-      <c r="H16" s="7"/>
-      <c r="I16" s="27"/>
+      <c r="F16" s="101"/>
+      <c r="G16" s="117" t="s">
+        <v>136</v>
+      </c>
+      <c r="H16" s="20"/>
+      <c r="I16" s="93"/>
       <c r="J16" s="24"/>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A17" s="9"/>
       <c r="B17" s="51"/>
       <c r="C17" s="12"/>
-      <c r="D17" s="9"/>
-      <c r="E17" s="9"/>
-      <c r="F17" s="37"/>
-      <c r="G17" s="64"/>
-      <c r="H17" s="9"/>
-      <c r="I17" s="51"/>
+      <c r="D17" s="21"/>
+      <c r="E17" s="21"/>
+      <c r="F17" s="102"/>
+      <c r="G17" s="103"/>
+      <c r="H17" s="21"/>
+      <c r="I17" s="94"/>
       <c r="J17" s="25"/>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A18" s="5">
-        <v>4</v>
-      </c>
-      <c r="B18" s="97" t="s">
+        <v>6</v>
+      </c>
+      <c r="B18" s="91" t="s">
         <v>11</v>
       </c>
       <c r="C18" s="4">
-        <v>16</v>
-      </c>
-      <c r="D18" s="14" t="s">
-        <v>30</v>
-      </c>
-      <c r="E18" s="74" t="s">
-        <v>161</v>
-      </c>
-      <c r="F18" s="93">
-        <v>44520</v>
-      </c>
-      <c r="G18" s="65" t="s">
-        <v>22</v>
-      </c>
-      <c r="H18" s="5" t="s">
-        <v>71</v>
-      </c>
-      <c r="I18" s="52" t="s">
-        <v>53</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="D18" s="99"/>
+      <c r="E18" s="90" t="s">
+        <v>128</v>
+      </c>
+      <c r="F18" s="104" t="s">
+        <v>127</v>
+      </c>
+      <c r="G18" s="100" t="s">
+        <v>133</v>
+      </c>
+      <c r="H18" s="23"/>
+      <c r="I18" s="76"/>
       <c r="J18" s="26"/>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A19" s="7"/>
       <c r="B19" s="27"/>
       <c r="C19" s="11"/>
-      <c r="D19" s="7"/>
+      <c r="D19" s="36"/>
       <c r="E19" s="36"/>
-      <c r="F19" s="34"/>
-      <c r="G19" s="63">
-        <v>81231807990</v>
-      </c>
-      <c r="H19" s="7"/>
-      <c r="I19" s="27"/>
+      <c r="F19" s="101"/>
+      <c r="G19" s="117" t="s">
+        <v>134</v>
+      </c>
+      <c r="H19" s="20"/>
+      <c r="I19" s="93"/>
       <c r="J19" s="24"/>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A20" s="9"/>
       <c r="B20" s="51"/>
       <c r="C20" s="12"/>
-      <c r="D20" s="9"/>
-      <c r="E20" s="9"/>
-      <c r="F20" s="37"/>
-      <c r="G20" s="64"/>
-      <c r="H20" s="9"/>
-      <c r="I20" s="51"/>
+      <c r="D20" s="21"/>
+      <c r="E20" s="21"/>
+      <c r="F20" s="102"/>
+      <c r="G20" s="103"/>
+      <c r="H20" s="21"/>
+      <c r="I20" s="94"/>
       <c r="J20" s="25"/>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A21" s="5">
-        <v>5</v>
-      </c>
-      <c r="B21" s="97" t="s">
-        <v>10</v>
+        <v>7</v>
+      </c>
+      <c r="B21" s="91" t="s">
+        <v>13</v>
       </c>
       <c r="C21" s="4">
-        <v>17</v>
-      </c>
-      <c r="D21" s="75" t="s">
-        <v>108</v>
-      </c>
-      <c r="E21" s="94" t="s">
-        <v>128</v>
-      </c>
-      <c r="F21" s="86" t="s">
-        <v>65</v>
-      </c>
-      <c r="G21" s="65" t="s">
-        <v>51</v>
+        <v>32</v>
+      </c>
+      <c r="D21" s="14" t="s">
+        <v>43</v>
+      </c>
+      <c r="E21" s="74" t="s">
+        <v>143</v>
+      </c>
+      <c r="F21" s="78" t="s">
+        <v>44</v>
+      </c>
+      <c r="G21" s="66" t="s">
+        <v>45</v>
       </c>
       <c r="H21" s="5" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="I21" s="53">
-        <v>44449</v>
+        <v>44440</v>
       </c>
       <c r="J21" s="26"/>
     </row>
@@ -2266,11 +2184,11 @@
       <c r="A22" s="7"/>
       <c r="B22" s="27"/>
       <c r="C22" s="11"/>
-      <c r="D22" s="36"/>
-      <c r="E22" s="36"/>
-      <c r="F22" s="34"/>
-      <c r="G22" s="63">
-        <v>81284663664</v>
+      <c r="D22" s="44"/>
+      <c r="E22" s="44"/>
+      <c r="F22" s="32"/>
+      <c r="G22" s="67">
+        <v>81333524165</v>
       </c>
       <c r="H22" s="7"/>
       <c r="I22" s="27"/>
@@ -2280,53 +2198,53 @@
       <c r="A23" s="9"/>
       <c r="B23" s="51"/>
       <c r="C23" s="12"/>
-      <c r="D23" s="21"/>
-      <c r="E23" s="21"/>
-      <c r="F23" s="37"/>
-      <c r="G23" s="64"/>
+      <c r="D23" s="9"/>
+      <c r="E23" s="9"/>
+      <c r="F23" s="45"/>
+      <c r="G23" s="68"/>
       <c r="H23" s="9"/>
       <c r="I23" s="51"/>
       <c r="J23" s="25"/>
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A24" s="5">
-        <v>6</v>
-      </c>
-      <c r="B24" s="97" t="s">
-        <v>11</v>
+        <v>8</v>
+      </c>
+      <c r="B24" s="91" t="s">
+        <v>13</v>
       </c>
       <c r="C24" s="4">
-        <v>17</v>
+        <v>33</v>
       </c>
       <c r="D24" s="75" t="s">
         <v>108</v>
       </c>
-      <c r="E24" s="94" t="s">
-        <v>128</v>
-      </c>
-      <c r="F24" s="86" t="s">
-        <v>65</v>
-      </c>
-      <c r="G24" s="65" t="s">
-        <v>47</v>
-      </c>
-      <c r="H24" s="5" t="s">
-        <v>73</v>
-      </c>
-      <c r="I24" s="53">
-        <v>44449</v>
-      </c>
-      <c r="J24" s="26"/>
+      <c r="E24" s="126" t="s">
+        <v>153</v>
+      </c>
+      <c r="F24" s="85" t="s">
+        <v>103</v>
+      </c>
+      <c r="G24" s="67" t="s">
+        <v>101</v>
+      </c>
+      <c r="H24" s="7" t="s">
+        <v>102</v>
+      </c>
+      <c r="I24" s="97" t="s">
+        <v>119</v>
+      </c>
+      <c r="J24" s="24"/>
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A25" s="7"/>
       <c r="B25" s="27"/>
       <c r="C25" s="11"/>
-      <c r="D25" s="36"/>
-      <c r="E25" s="36"/>
-      <c r="F25" s="34"/>
-      <c r="G25" s="63">
-        <v>85740346667</v>
+      <c r="D25" s="7"/>
+      <c r="E25" s="7"/>
+      <c r="F25" s="32"/>
+      <c r="G25" s="67">
+        <v>81235748714</v>
       </c>
       <c r="H25" s="7"/>
       <c r="I25" s="27"/>
@@ -2334,213 +2252,211 @@
     </row>
     <row r="26" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A26" s="9"/>
-      <c r="B26" s="51"/>
-      <c r="C26" s="12"/>
-      <c r="D26" s="21"/>
-      <c r="E26" s="21"/>
-      <c r="F26" s="37"/>
-      <c r="G26" s="64"/>
-      <c r="H26" s="9"/>
-      <c r="I26" s="51"/>
-      <c r="J26" s="25"/>
+      <c r="B26" s="27"/>
+      <c r="C26" s="11"/>
+      <c r="D26" s="20"/>
+      <c r="E26" s="20"/>
+      <c r="F26" s="109"/>
+      <c r="G26" s="110"/>
+      <c r="H26" s="20"/>
+      <c r="I26" s="93"/>
+      <c r="J26" s="24"/>
     </row>
     <row r="27" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A27" s="5">
-        <v>7</v>
-      </c>
-      <c r="B27" s="97" t="s">
-        <v>10</v>
+        <v>9</v>
+      </c>
+      <c r="B27" s="91" t="s">
+        <v>13</v>
       </c>
       <c r="C27" s="4">
-        <v>18</v>
-      </c>
-      <c r="D27" s="105" t="s">
-        <v>139</v>
-      </c>
-      <c r="E27" s="94" t="s">
-        <v>141</v>
-      </c>
-      <c r="F27" s="110" t="s">
-        <v>140</v>
-      </c>
-      <c r="G27" s="106" t="s">
-        <v>148</v>
-      </c>
-      <c r="H27" s="23"/>
-      <c r="I27" s="76"/>
-      <c r="J27" s="26"/>
+        <v>34</v>
+      </c>
+      <c r="D27" s="99"/>
+      <c r="E27" s="128" t="s">
+        <v>33</v>
+      </c>
+      <c r="F27" s="129" t="s">
+        <v>154</v>
+      </c>
+      <c r="G27" s="110"/>
+      <c r="H27" s="20"/>
+      <c r="I27" s="130"/>
+      <c r="J27" s="24"/>
     </row>
     <row r="28" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A28" s="7"/>
       <c r="B28" s="27"/>
       <c r="C28" s="11"/>
-      <c r="D28" s="36"/>
-      <c r="E28" s="36"/>
-      <c r="F28" s="107"/>
-      <c r="G28" s="123" t="s">
-        <v>149</v>
-      </c>
+      <c r="D28" s="20"/>
+      <c r="E28" s="20"/>
+      <c r="F28" s="109"/>
+      <c r="G28" s="110"/>
       <c r="H28" s="20"/>
-      <c r="I28" s="99"/>
+      <c r="I28" s="93"/>
       <c r="J28" s="24"/>
     </row>
     <row r="29" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A29" s="9"/>
-      <c r="B29" s="51"/>
-      <c r="C29" s="12"/>
-      <c r="D29" s="21"/>
-      <c r="E29" s="21"/>
-      <c r="F29" s="108"/>
-      <c r="G29" s="109"/>
-      <c r="H29" s="21"/>
-      <c r="I29" s="100"/>
-      <c r="J29" s="25"/>
+      <c r="A29" s="7"/>
+      <c r="B29" s="27"/>
+      <c r="C29" s="11"/>
+      <c r="D29" s="7"/>
+      <c r="E29" s="7"/>
+      <c r="F29" s="32"/>
+      <c r="G29" s="67"/>
+      <c r="H29" s="7"/>
+      <c r="I29" s="27"/>
+      <c r="J29" s="24"/>
     </row>
     <row r="30" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A30" s="5">
-        <v>8</v>
-      </c>
-      <c r="B30" s="97" t="s">
-        <v>11</v>
+        <v>10</v>
+      </c>
+      <c r="B30" s="91" t="s">
+        <v>12</v>
       </c>
       <c r="C30" s="4">
-        <v>18</v>
-      </c>
-      <c r="D30" s="105"/>
-      <c r="E30" s="94" t="s">
-        <v>141</v>
-      </c>
-      <c r="F30" s="110" t="s">
-        <v>140</v>
-      </c>
-      <c r="G30" s="106" t="s">
-        <v>146</v>
-      </c>
-      <c r="H30" s="23"/>
-      <c r="I30" s="76"/>
+        <v>26</v>
+      </c>
+      <c r="D30" s="14" t="s">
+        <v>39</v>
+      </c>
+      <c r="E30" s="127" t="s">
+        <v>153</v>
+      </c>
+      <c r="F30" s="84" t="s">
+        <v>61</v>
+      </c>
+      <c r="G30" s="65" t="s">
+        <v>60</v>
+      </c>
+      <c r="H30" s="5" t="s">
+        <v>69</v>
+      </c>
+      <c r="I30" s="53">
+        <v>44440</v>
+      </c>
       <c r="J30" s="26"/>
     </row>
     <row r="31" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A31" s="7"/>
       <c r="B31" s="27"/>
       <c r="C31" s="11"/>
-      <c r="D31" s="36"/>
-      <c r="E31" s="36"/>
-      <c r="F31" s="107"/>
-      <c r="G31" s="123" t="s">
-        <v>147</v>
-      </c>
-      <c r="H31" s="20"/>
-      <c r="I31" s="99"/>
+      <c r="D31" s="7"/>
+      <c r="E31" s="46"/>
+      <c r="F31" s="29"/>
+      <c r="G31" s="63">
+        <v>85732094240</v>
+      </c>
+      <c r="H31" s="7"/>
+      <c r="I31" s="27"/>
       <c r="J31" s="24"/>
     </row>
     <row r="32" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A32" s="9"/>
       <c r="B32" s="51"/>
-      <c r="C32" s="12"/>
-      <c r="D32" s="21"/>
-      <c r="E32" s="21"/>
-      <c r="F32" s="108"/>
-      <c r="G32" s="109"/>
-      <c r="H32" s="21"/>
-      <c r="I32" s="100"/>
+      <c r="C32" s="8"/>
+      <c r="D32" s="9"/>
+      <c r="E32" s="9"/>
+      <c r="F32" s="30"/>
+      <c r="G32" s="64"/>
+      <c r="H32" s="9"/>
+      <c r="I32" s="51"/>
       <c r="J32" s="25"/>
     </row>
     <row r="33" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A33" s="5">
-        <v>9</v>
-      </c>
-      <c r="B33" s="98" t="s">
-        <v>13</v>
-      </c>
-      <c r="C33" s="10">
-        <v>31</v>
+        <v>11</v>
+      </c>
+      <c r="B33" s="91" t="s">
+        <v>12</v>
+      </c>
+      <c r="C33" s="4">
+        <v>27</v>
       </c>
       <c r="D33" s="14" t="s">
-        <v>28</v>
-      </c>
-      <c r="E33" s="74" t="s">
-        <v>129</v>
-      </c>
-      <c r="F33" s="91">
-        <v>44501</v>
+        <v>122</v>
+      </c>
+      <c r="E33" s="90" t="s">
+        <v>125</v>
+      </c>
+      <c r="F33" s="96" t="s">
+        <v>124</v>
       </c>
       <c r="G33" s="65" t="s">
-        <v>23</v>
-      </c>
-      <c r="H33" s="23" t="s">
-        <v>75</v>
-      </c>
-      <c r="I33" s="52" t="s">
-        <v>53</v>
+        <v>117</v>
+      </c>
+      <c r="H33" s="95" t="s">
+        <v>89</v>
+      </c>
+      <c r="I33" s="131" t="s">
+        <v>155</v>
       </c>
       <c r="J33" s="26"/>
     </row>
     <row r="34" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A34" s="7"/>
-      <c r="B34" s="99"/>
-      <c r="C34" s="15"/>
+      <c r="B34" s="27"/>
+      <c r="C34" s="11"/>
       <c r="D34" s="7"/>
-      <c r="E34" s="44"/>
+      <c r="E34" s="46"/>
       <c r="F34" s="29"/>
-      <c r="G34" s="63">
-        <v>6587623904</v>
-      </c>
-      <c r="H34" s="20"/>
+      <c r="G34" s="71" t="s">
+        <v>118</v>
+      </c>
+      <c r="H34" s="7"/>
       <c r="I34" s="27"/>
       <c r="J34" s="24"/>
     </row>
     <row r="35" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A35" s="9"/>
-      <c r="B35" s="100"/>
-      <c r="C35" s="16"/>
+      <c r="B35" s="51"/>
+      <c r="C35" s="8"/>
       <c r="D35" s="9"/>
       <c r="E35" s="9"/>
       <c r="F35" s="30"/>
       <c r="G35" s="64"/>
-      <c r="H35" s="21"/>
+      <c r="H35" s="9"/>
       <c r="I35" s="51"/>
       <c r="J35" s="25"/>
     </row>
     <row r="36" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A36" s="5">
-        <v>10</v>
-      </c>
-      <c r="B36" s="97" t="s">
-        <v>13</v>
+        <v>12</v>
+      </c>
+      <c r="B36" s="91" t="s">
+        <v>14</v>
       </c>
       <c r="C36" s="4">
-        <v>32</v>
-      </c>
-      <c r="D36" s="14" t="s">
-        <v>43</v>
-      </c>
-      <c r="E36" s="74" t="s">
-        <v>157</v>
-      </c>
-      <c r="F36" s="78" t="s">
-        <v>44</v>
-      </c>
-      <c r="G36" s="66" t="s">
-        <v>45</v>
-      </c>
-      <c r="H36" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="D36" s="75" t="s">
+        <v>137</v>
+      </c>
+      <c r="E36" s="98" t="s">
+        <v>123</v>
+      </c>
+      <c r="F36" s="83" t="s">
+        <v>120</v>
+      </c>
+      <c r="G36" s="67" t="s">
+        <v>138</v>
+      </c>
+      <c r="H36" s="7" t="s">
         <v>75</v>
       </c>
-      <c r="I36" s="53">
-        <v>44440</v>
-      </c>
-      <c r="J36" s="26"/>
+      <c r="I36" s="27"/>
+      <c r="J36" s="24"/>
     </row>
     <row r="37" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A37" s="7"/>
       <c r="B37" s="27"/>
       <c r="C37" s="11"/>
-      <c r="D37" s="44"/>
-      <c r="E37" s="44"/>
+      <c r="D37" s="7"/>
+      <c r="E37" s="7"/>
       <c r="F37" s="32"/>
-      <c r="G37" s="67">
-        <v>81333524165</v>
+      <c r="G37" s="119" t="s">
+        <v>139</v>
       </c>
       <c r="H37" s="7"/>
       <c r="I37" s="27"/>
@@ -2548,213 +2464,201 @@
     </row>
     <row r="38" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A38" s="9"/>
-      <c r="B38" s="51"/>
-      <c r="C38" s="12"/>
-      <c r="D38" s="9"/>
-      <c r="E38" s="9"/>
-      <c r="F38" s="45"/>
-      <c r="G38" s="68"/>
-      <c r="H38" s="9"/>
-      <c r="I38" s="51"/>
-      <c r="J38" s="25"/>
-    </row>
-    <row r="39" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="B38" s="27"/>
+      <c r="C38" s="11"/>
+      <c r="D38" s="7"/>
+      <c r="E38" s="7"/>
+      <c r="F38" s="32"/>
+      <c r="G38" s="67"/>
+      <c r="H38" s="7"/>
+      <c r="I38" s="27"/>
+      <c r="J38" s="24"/>
+    </row>
+    <row r="39" spans="1:10" s="108" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A39" s="5">
-        <v>11</v>
-      </c>
-      <c r="B39" s="97" t="s">
         <v>13</v>
       </c>
-      <c r="C39" s="4">
-        <v>33</v>
-      </c>
-      <c r="D39" s="75" t="s">
-        <v>108</v>
-      </c>
-      <c r="E39" s="134" t="s">
-        <v>168</v>
-      </c>
-      <c r="F39" s="87" t="s">
-        <v>103</v>
-      </c>
-      <c r="G39" s="67" t="s">
-        <v>101</v>
-      </c>
-      <c r="H39" s="7" t="s">
-        <v>102</v>
-      </c>
-      <c r="I39" s="103" t="s">
-        <v>132</v>
-      </c>
-      <c r="J39" s="24"/>
-    </row>
-    <row r="40" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="B39" s="92" t="s">
+        <v>15</v>
+      </c>
+      <c r="C39" s="10">
+        <v>29</v>
+      </c>
+      <c r="D39" s="145" t="s">
+        <v>95</v>
+      </c>
+      <c r="E39" s="73" t="s">
+        <v>130</v>
+      </c>
+      <c r="F39" s="115" t="s">
+        <v>129</v>
+      </c>
+      <c r="G39" s="106" t="s">
+        <v>147</v>
+      </c>
+      <c r="H39" s="23"/>
+      <c r="I39" s="76"/>
+      <c r="J39" s="107"/>
+    </row>
+    <row r="40" spans="1:10" s="108" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A40" s="7"/>
-      <c r="B40" s="27"/>
-      <c r="C40" s="11"/>
-      <c r="D40" s="7"/>
-      <c r="E40" s="7"/>
-      <c r="F40" s="32"/>
-      <c r="G40" s="67">
-        <v>81235748714</v>
-      </c>
-      <c r="H40" s="7"/>
-      <c r="I40" s="27"/>
-      <c r="J40" s="24"/>
-    </row>
-    <row r="41" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="B40" s="93"/>
+      <c r="C40" s="15"/>
+      <c r="D40" s="36"/>
+      <c r="E40" s="36"/>
+      <c r="F40" s="109"/>
+      <c r="G40" s="124" t="s">
+        <v>148</v>
+      </c>
+      <c r="H40" s="20"/>
+      <c r="I40" s="93"/>
+      <c r="J40" s="111"/>
+    </row>
+    <row r="41" spans="1:10" s="108" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A41" s="9"/>
-      <c r="B41" s="27"/>
-      <c r="C41" s="11"/>
-      <c r="D41" s="20"/>
-      <c r="E41" s="20"/>
-      <c r="F41" s="115"/>
-      <c r="G41" s="116"/>
-      <c r="H41" s="20"/>
-      <c r="I41" s="99"/>
-      <c r="J41" s="24"/>
+      <c r="B41" s="94"/>
+      <c r="C41" s="16"/>
+      <c r="D41" s="21"/>
+      <c r="E41" s="21"/>
+      <c r="F41" s="112"/>
+      <c r="G41" s="113"/>
+      <c r="H41" s="21"/>
+      <c r="I41" s="94"/>
+      <c r="J41" s="114"/>
     </row>
     <row r="42" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A42" s="5">
-        <v>12</v>
-      </c>
-      <c r="B42" s="97" t="s">
-        <v>13</v>
-      </c>
-      <c r="C42" s="4">
-        <v>34</v>
-      </c>
-      <c r="D42" s="105"/>
-      <c r="E42" s="136" t="s">
-        <v>33</v>
-      </c>
-      <c r="F42" s="137" t="s">
-        <v>169</v>
-      </c>
-      <c r="G42" s="116"/>
-      <c r="H42" s="20"/>
-      <c r="I42" s="138"/>
-      <c r="J42" s="24"/>
+        <v>14</v>
+      </c>
+      <c r="B42" s="91" t="s">
+        <v>16</v>
+      </c>
+      <c r="C42" s="10">
+        <v>41</v>
+      </c>
+      <c r="D42" s="74" t="s">
+        <v>149</v>
+      </c>
+      <c r="E42" s="73" t="s">
+        <v>132</v>
+      </c>
+      <c r="F42" s="105" t="s">
+        <v>131</v>
+      </c>
+      <c r="G42" s="106" t="s">
+        <v>150</v>
+      </c>
+      <c r="H42" s="23"/>
+      <c r="I42" s="116"/>
+      <c r="J42" s="26"/>
     </row>
     <row r="43" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A43" s="7"/>
       <c r="B43" s="27"/>
-      <c r="C43" s="11"/>
-      <c r="D43" s="20"/>
-      <c r="E43" s="20"/>
-      <c r="F43" s="115"/>
-      <c r="G43" s="116"/>
+      <c r="C43" s="15"/>
+      <c r="D43" s="36"/>
+      <c r="E43" s="36"/>
+      <c r="F43" s="109"/>
+      <c r="G43" s="124" t="s">
+        <v>151</v>
+      </c>
       <c r="H43" s="20"/>
-      <c r="I43" s="99"/>
+      <c r="I43" s="93"/>
       <c r="J43" s="24"/>
     </row>
     <row r="44" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A44" s="7"/>
-      <c r="B44" s="27"/>
-      <c r="C44" s="11"/>
-      <c r="D44" s="7"/>
-      <c r="E44" s="7"/>
-      <c r="F44" s="32"/>
-      <c r="G44" s="67"/>
-      <c r="H44" s="7"/>
-      <c r="I44" s="27"/>
-      <c r="J44" s="24"/>
+      <c r="A44" s="9"/>
+      <c r="B44" s="51"/>
+      <c r="C44" s="16"/>
+      <c r="D44" s="21"/>
+      <c r="E44" s="21"/>
+      <c r="F44" s="112"/>
+      <c r="G44" s="113"/>
+      <c r="H44" s="21"/>
+      <c r="I44" s="94"/>
+      <c r="J44" s="25"/>
     </row>
     <row r="45" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A45" s="5">
-        <v>13</v>
-      </c>
-      <c r="B45" s="97" t="s">
-        <v>12</v>
-      </c>
-      <c r="C45" s="4">
-        <v>26</v>
-      </c>
-      <c r="D45" s="14" t="s">
-        <v>39</v>
-      </c>
-      <c r="E45" s="135" t="s">
-        <v>168</v>
-      </c>
-      <c r="F45" s="86" t="s">
-        <v>61</v>
-      </c>
-      <c r="G45" s="65" t="s">
-        <v>60</v>
-      </c>
-      <c r="H45" s="5" t="s">
-        <v>69</v>
-      </c>
-      <c r="I45" s="53">
-        <v>44440</v>
-      </c>
+        <v>15</v>
+      </c>
+      <c r="B45" s="91" t="s">
+        <v>18</v>
+      </c>
+      <c r="C45" s="10">
+        <v>41</v>
+      </c>
+      <c r="D45" s="74" t="s">
+        <v>149</v>
+      </c>
+      <c r="E45" s="73" t="s">
+        <v>132</v>
+      </c>
+      <c r="F45" s="105" t="s">
+        <v>131</v>
+      </c>
+      <c r="G45" s="106"/>
+      <c r="H45" s="23"/>
+      <c r="I45" s="116"/>
       <c r="J45" s="26"/>
     </row>
     <row r="46" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A46" s="7"/>
       <c r="B46" s="27"/>
-      <c r="C46" s="11"/>
-      <c r="D46" s="7"/>
-      <c r="E46" s="46"/>
-      <c r="F46" s="29"/>
-      <c r="G46" s="63">
-        <v>85732094240</v>
-      </c>
-      <c r="H46" s="7"/>
-      <c r="I46" s="27"/>
+      <c r="C46" s="15"/>
+      <c r="D46" s="36"/>
+      <c r="E46" s="36"/>
+      <c r="F46" s="109"/>
+      <c r="G46" s="110"/>
+      <c r="H46" s="20"/>
+      <c r="I46" s="93"/>
       <c r="J46" s="24"/>
     </row>
     <row r="47" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A47" s="9"/>
       <c r="B47" s="51"/>
-      <c r="C47" s="8"/>
-      <c r="D47" s="9"/>
-      <c r="E47" s="9"/>
-      <c r="F47" s="30"/>
-      <c r="G47" s="64"/>
-      <c r="H47" s="9"/>
-      <c r="I47" s="51"/>
+      <c r="C47" s="16"/>
+      <c r="D47" s="21"/>
+      <c r="E47" s="21"/>
+      <c r="F47" s="112"/>
+      <c r="G47" s="113"/>
+      <c r="H47" s="21"/>
+      <c r="I47" s="94"/>
       <c r="J47" s="25"/>
     </row>
     <row r="48" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A48" s="5">
-        <v>14</v>
-      </c>
-      <c r="B48" s="97" t="s">
-        <v>12</v>
+        <v>16</v>
+      </c>
+      <c r="B48" s="3" t="s">
+        <v>97</v>
       </c>
       <c r="C48" s="4">
-        <v>27</v>
-      </c>
-      <c r="D48" s="14" t="s">
-        <v>135</v>
-      </c>
-      <c r="E48" s="94" t="s">
-        <v>138</v>
-      </c>
-      <c r="F48" s="102" t="s">
-        <v>137</v>
-      </c>
-      <c r="G48" s="65" t="s">
-        <v>130</v>
-      </c>
-      <c r="H48" s="101" t="s">
-        <v>89</v>
-      </c>
-      <c r="I48" s="152" t="s">
-        <v>170</v>
+        <v>4</v>
+      </c>
+      <c r="D48" s="43" t="s">
+        <v>132</v>
+      </c>
+      <c r="E48" s="22"/>
+      <c r="F48" s="83"/>
+      <c r="G48" s="66"/>
+      <c r="H48" s="5" t="s">
+        <v>144</v>
+      </c>
+      <c r="I48" s="122">
+        <v>44287</v>
       </c>
       <c r="J48" s="26"/>
     </row>
     <row r="49" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A49" s="7"/>
-      <c r="B49" s="27"/>
+      <c r="B49" s="6"/>
       <c r="C49" s="11"/>
-      <c r="D49" s="7"/>
-      <c r="E49" s="46"/>
-      <c r="F49" s="29"/>
-      <c r="G49" s="71" t="s">
-        <v>131</v>
+      <c r="D49" s="44"/>
+      <c r="E49" s="44"/>
+      <c r="F49" s="32"/>
+      <c r="G49" s="67">
+        <v>8123522575</v>
       </c>
       <c r="H49" s="7"/>
       <c r="I49" s="27"/>
@@ -2762,55 +2666,55 @@
     </row>
     <row r="50" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A50" s="9"/>
-      <c r="B50" s="51"/>
-      <c r="C50" s="8"/>
+      <c r="B50" s="8"/>
+      <c r="C50" s="12"/>
       <c r="D50" s="9"/>
       <c r="E50" s="9"/>
-      <c r="F50" s="30"/>
-      <c r="G50" s="64"/>
+      <c r="F50" s="45"/>
+      <c r="G50" s="68"/>
       <c r="H50" s="9"/>
       <c r="I50" s="51"/>
       <c r="J50" s="25"/>
     </row>
     <row r="51" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A51" s="5">
-        <v>15</v>
-      </c>
-      <c r="B51" s="97" t="s">
-        <v>14</v>
+        <v>17</v>
+      </c>
+      <c r="B51" s="3" t="s">
+        <v>97</v>
       </c>
       <c r="C51" s="4">
-        <v>33</v>
-      </c>
-      <c r="D51" s="14" t="s">
-        <v>83</v>
-      </c>
-      <c r="E51" s="74" t="s">
-        <v>129</v>
-      </c>
-      <c r="F51" s="133" t="s">
-        <v>167</v>
+        <v>5</v>
+      </c>
+      <c r="D51" s="43" t="s">
+        <v>108</v>
+      </c>
+      <c r="E51" s="22">
+        <v>44237</v>
+      </c>
+      <c r="F51" s="83">
+        <v>44617</v>
       </c>
       <c r="G51" s="66" t="s">
-        <v>46</v>
+        <v>105</v>
       </c>
       <c r="H51" s="5" t="s">
-        <v>77</v>
-      </c>
-      <c r="I51" s="53">
-        <v>44449</v>
+        <v>104</v>
+      </c>
+      <c r="I51" s="97" t="s">
+        <v>119</v>
       </c>
       <c r="J51" s="26"/>
     </row>
     <row r="52" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A52" s="7"/>
-      <c r="B52" s="27"/>
+      <c r="B52" s="6"/>
       <c r="C52" s="11"/>
       <c r="D52" s="44"/>
       <c r="E52" s="44"/>
       <c r="F52" s="32"/>
       <c r="G52" s="67">
-        <v>81331430509</v>
+        <v>89603906796</v>
       </c>
       <c r="H52" s="7"/>
       <c r="I52" s="27"/>
@@ -2818,7 +2722,7 @@
     </row>
     <row r="53" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A53" s="9"/>
-      <c r="B53" s="51"/>
+      <c r="B53" s="8"/>
       <c r="C53" s="12"/>
       <c r="D53" s="9"/>
       <c r="E53" s="9"/>
@@ -2828,673 +2732,93 @@
       <c r="I53" s="51"/>
       <c r="J53" s="25"/>
     </row>
-    <row r="54" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A54" s="5">
-        <v>16</v>
-      </c>
-      <c r="B54" s="97" t="s">
-        <v>14</v>
-      </c>
-      <c r="C54" s="4">
-        <v>34</v>
-      </c>
-      <c r="D54" s="75" t="s">
-        <v>150</v>
-      </c>
-      <c r="E54" s="104" t="s">
-        <v>136</v>
-      </c>
-      <c r="F54" s="85" t="s">
-        <v>133</v>
-      </c>
-      <c r="G54" s="67" t="s">
-        <v>152</v>
-      </c>
-      <c r="H54" s="7"/>
-      <c r="I54" s="27"/>
-      <c r="J54" s="24"/>
-    </row>
-    <row r="55" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A55" s="7"/>
-      <c r="B55" s="27"/>
-      <c r="C55" s="11"/>
-      <c r="D55" s="7"/>
-      <c r="E55" s="7"/>
-      <c r="F55" s="32"/>
-      <c r="G55" s="126" t="s">
-        <v>153</v>
-      </c>
-      <c r="H55" s="7"/>
-      <c r="I55" s="27"/>
-      <c r="J55" s="24"/>
-    </row>
-    <row r="56" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A56" s="9"/>
-      <c r="B56" s="27"/>
-      <c r="C56" s="11"/>
-      <c r="D56" s="7"/>
-      <c r="E56" s="7"/>
-      <c r="F56" s="32"/>
-      <c r="G56" s="67"/>
-      <c r="H56" s="7"/>
-      <c r="I56" s="27"/>
-      <c r="J56" s="24"/>
-    </row>
-    <row r="57" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A57" s="5">
-        <v>17</v>
-      </c>
-      <c r="B57" s="97" t="s">
-        <v>15</v>
-      </c>
-      <c r="C57" s="4">
-        <v>28</v>
-      </c>
-      <c r="D57" s="14" t="s">
-        <v>40</v>
-      </c>
-      <c r="E57" s="74" t="s">
-        <v>157</v>
-      </c>
-      <c r="F57" s="79" t="s">
-        <v>42</v>
-      </c>
-      <c r="G57" s="66" t="s">
-        <v>41</v>
-      </c>
-      <c r="H57" s="5" t="s">
-        <v>79</v>
-      </c>
-      <c r="I57" s="53">
-        <v>44440</v>
-      </c>
-      <c r="J57" s="26"/>
-    </row>
-    <row r="58" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A58" s="7"/>
-      <c r="B58" s="27"/>
-      <c r="C58" s="11"/>
-      <c r="D58" s="44"/>
-      <c r="E58" s="44"/>
-      <c r="F58" s="32"/>
-      <c r="G58" s="67">
-        <v>85649115380</v>
-      </c>
-      <c r="H58" s="7"/>
-      <c r="I58" s="27"/>
-      <c r="J58" s="24"/>
-    </row>
-    <row r="59" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A59" s="9"/>
-      <c r="B59" s="51"/>
-      <c r="C59" s="12"/>
-      <c r="D59" s="9"/>
-      <c r="E59" s="9"/>
-      <c r="F59" s="45"/>
-      <c r="G59" s="68"/>
-      <c r="H59" s="9"/>
-      <c r="I59" s="51"/>
-      <c r="J59" s="25"/>
-    </row>
-    <row r="60" spans="1:10" s="114" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A60" s="5">
-        <v>18</v>
-      </c>
-      <c r="B60" s="98" t="s">
-        <v>15</v>
-      </c>
-      <c r="C60" s="10">
-        <v>29</v>
-      </c>
-      <c r="D60" s="125" t="s">
-        <v>151</v>
-      </c>
-      <c r="E60" s="73" t="s">
-        <v>143</v>
-      </c>
-      <c r="F60" s="121" t="s">
-        <v>142</v>
-      </c>
-      <c r="G60" s="112" t="s">
-        <v>162</v>
-      </c>
-      <c r="H60" s="23"/>
-      <c r="I60" s="76"/>
-      <c r="J60" s="113"/>
-    </row>
-    <row r="61" spans="1:10" s="114" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A61" s="7"/>
-      <c r="B61" s="99"/>
-      <c r="C61" s="15"/>
-      <c r="D61" s="36"/>
-      <c r="E61" s="36"/>
-      <c r="F61" s="115"/>
-      <c r="G61" s="132" t="s">
-        <v>163</v>
-      </c>
-      <c r="H61" s="20"/>
-      <c r="I61" s="99"/>
-      <c r="J61" s="117"/>
-    </row>
-    <row r="62" spans="1:10" s="114" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A62" s="9"/>
-      <c r="B62" s="100"/>
-      <c r="C62" s="16"/>
-      <c r="D62" s="21"/>
-      <c r="E62" s="21"/>
-      <c r="F62" s="118"/>
-      <c r="G62" s="119"/>
-      <c r="H62" s="21"/>
-      <c r="I62" s="100"/>
-      <c r="J62" s="120"/>
-    </row>
-    <row r="63" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A63" s="5">
-        <v>19</v>
-      </c>
-      <c r="B63" s="97" t="s">
-        <v>16</v>
-      </c>
-      <c r="C63" s="4">
-        <v>40</v>
-      </c>
-      <c r="D63" s="43">
-        <v>44453</v>
-      </c>
-      <c r="E63" s="74" t="s">
-        <v>156</v>
-      </c>
-      <c r="F63" s="79" t="s">
-        <v>42</v>
-      </c>
-      <c r="G63" s="66" t="s">
-        <v>48</v>
-      </c>
-      <c r="H63" s="5" t="s">
-        <v>81</v>
-      </c>
-      <c r="I63" s="70" t="s">
-        <v>98</v>
-      </c>
-      <c r="J63" s="26"/>
-    </row>
-    <row r="64" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A64" s="7"/>
-      <c r="B64" s="27"/>
-      <c r="C64" s="11"/>
-      <c r="D64" s="44"/>
-      <c r="E64" s="44"/>
-      <c r="F64" s="32"/>
-      <c r="G64" s="67">
-        <v>81359524067</v>
-      </c>
-      <c r="H64" s="7"/>
-      <c r="I64" s="27"/>
-      <c r="J64" s="24"/>
-    </row>
-    <row r="65" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A65" s="9"/>
-      <c r="B65" s="51"/>
-      <c r="C65" s="12"/>
-      <c r="D65" s="9"/>
-      <c r="E65" s="9"/>
-      <c r="F65" s="45"/>
-      <c r="G65" s="68"/>
-      <c r="H65" s="9"/>
-      <c r="I65" s="51"/>
-      <c r="J65" s="25"/>
-    </row>
-    <row r="66" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A66" s="5">
-        <v>20</v>
-      </c>
-      <c r="B66" s="97" t="s">
-        <v>18</v>
-      </c>
-      <c r="C66" s="4">
-        <v>40</v>
-      </c>
-      <c r="D66" s="43">
-        <v>44453</v>
-      </c>
-      <c r="E66" s="74" t="s">
-        <v>156</v>
-      </c>
-      <c r="F66" s="79" t="s">
-        <v>42</v>
-      </c>
-      <c r="G66" s="66" t="s">
-        <v>25</v>
-      </c>
-      <c r="H66" s="5" t="s">
-        <v>82</v>
-      </c>
-      <c r="I66" s="70" t="s">
-        <v>98</v>
-      </c>
-      <c r="J66" s="26"/>
-    </row>
-    <row r="67" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A67" s="7"/>
-      <c r="B67" s="27"/>
-      <c r="C67" s="11"/>
-      <c r="D67" s="44"/>
-      <c r="E67" s="44"/>
-      <c r="F67" s="32"/>
-      <c r="G67" s="67">
-        <v>82319844744</v>
-      </c>
-      <c r="H67" s="7"/>
-      <c r="I67" s="27"/>
-      <c r="J67" s="24"/>
-    </row>
-    <row r="68" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A68" s="9"/>
-      <c r="B68" s="51"/>
-      <c r="C68" s="12"/>
-      <c r="D68" s="9"/>
-      <c r="E68" s="9"/>
-      <c r="F68" s="45"/>
-      <c r="G68" s="68"/>
-      <c r="H68" s="9"/>
-      <c r="I68" s="51"/>
-      <c r="J68" s="25"/>
-    </row>
-    <row r="69" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A69" s="5">
-        <v>21</v>
-      </c>
-      <c r="B69" s="97" t="s">
-        <v>16</v>
-      </c>
-      <c r="C69" s="10">
-        <v>41</v>
-      </c>
-      <c r="D69" s="73" t="s">
-        <v>164</v>
-      </c>
-      <c r="E69" s="73" t="s">
-        <v>145</v>
-      </c>
-      <c r="F69" s="111" t="s">
-        <v>144</v>
-      </c>
-      <c r="G69" s="112" t="s">
-        <v>165</v>
-      </c>
-      <c r="H69" s="23"/>
-      <c r="I69" s="122"/>
-      <c r="J69" s="26"/>
-    </row>
-    <row r="70" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A70" s="7"/>
-      <c r="B70" s="27"/>
-      <c r="C70" s="15"/>
-      <c r="D70" s="36"/>
-      <c r="E70" s="36"/>
-      <c r="F70" s="115"/>
-      <c r="G70" s="132" t="s">
-        <v>166</v>
-      </c>
-      <c r="H70" s="20"/>
-      <c r="I70" s="99"/>
-      <c r="J70" s="24"/>
-    </row>
-    <row r="71" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A71" s="9"/>
-      <c r="B71" s="51"/>
-      <c r="C71" s="16"/>
-      <c r="D71" s="21"/>
-      <c r="E71" s="21"/>
-      <c r="F71" s="118"/>
-      <c r="G71" s="119"/>
-      <c r="H71" s="21"/>
-      <c r="I71" s="100"/>
-      <c r="J71" s="25"/>
-    </row>
-    <row r="72" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A72" s="5">
-        <v>22</v>
-      </c>
-      <c r="B72" s="97" t="s">
-        <v>18</v>
-      </c>
-      <c r="C72" s="10">
-        <v>41</v>
-      </c>
-      <c r="D72" s="73" t="s">
-        <v>164</v>
-      </c>
-      <c r="E72" s="73" t="s">
-        <v>145</v>
-      </c>
-      <c r="F72" s="111" t="s">
-        <v>144</v>
-      </c>
-      <c r="G72" s="112"/>
-      <c r="H72" s="23"/>
-      <c r="I72" s="122"/>
-      <c r="J72" s="26"/>
-    </row>
-    <row r="73" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A73" s="7"/>
-      <c r="B73" s="27"/>
-      <c r="C73" s="15"/>
-      <c r="D73" s="36"/>
-      <c r="E73" s="36"/>
-      <c r="F73" s="115"/>
-      <c r="G73" s="116"/>
-      <c r="H73" s="20"/>
-      <c r="I73" s="99"/>
-      <c r="J73" s="24"/>
-    </row>
-    <row r="74" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A74" s="9"/>
-      <c r="B74" s="51"/>
-      <c r="C74" s="16"/>
-      <c r="D74" s="21"/>
-      <c r="E74" s="21"/>
-      <c r="F74" s="118"/>
-      <c r="G74" s="119"/>
-      <c r="H74" s="21"/>
-      <c r="I74" s="100"/>
-      <c r="J74" s="25"/>
-    </row>
-    <row r="75" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A75" s="5">
-        <v>23</v>
-      </c>
-      <c r="B75" s="3" t="s">
-        <v>97</v>
-      </c>
-      <c r="C75" s="4">
-        <v>4</v>
-      </c>
-      <c r="D75" s="43" t="s">
-        <v>145</v>
-      </c>
-      <c r="E75" s="22"/>
-      <c r="F75" s="85"/>
-      <c r="G75" s="66"/>
-      <c r="H75" s="5" t="s">
-        <v>159</v>
-      </c>
-      <c r="I75" s="130">
-        <v>44287</v>
-      </c>
-      <c r="J75" s="26"/>
-    </row>
-    <row r="76" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A76" s="7"/>
-      <c r="B76" s="6"/>
-      <c r="C76" s="11"/>
-      <c r="D76" s="44"/>
-      <c r="E76" s="44"/>
-      <c r="F76" s="32"/>
-      <c r="G76" s="67">
-        <v>8123522575</v>
-      </c>
-      <c r="H76" s="7"/>
-      <c r="I76" s="27"/>
-      <c r="J76" s="24"/>
-    </row>
-    <row r="77" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A77" s="9"/>
-      <c r="B77" s="8"/>
-      <c r="C77" s="12"/>
-      <c r="D77" s="9"/>
-      <c r="E77" s="9"/>
-      <c r="F77" s="45"/>
-      <c r="G77" s="68"/>
-      <c r="H77" s="9"/>
-      <c r="I77" s="51"/>
-      <c r="J77" s="25"/>
-    </row>
-    <row r="78" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A78" s="5">
-        <v>24</v>
-      </c>
-      <c r="B78" s="3" t="s">
-        <v>97</v>
-      </c>
-      <c r="C78" s="4">
-        <v>5</v>
-      </c>
-      <c r="D78" s="43" t="s">
-        <v>108</v>
-      </c>
-      <c r="E78" s="22">
-        <v>44237</v>
-      </c>
-      <c r="F78" s="85">
-        <v>44617</v>
-      </c>
-      <c r="G78" s="66" t="s">
-        <v>105</v>
-      </c>
-      <c r="H78" s="5" t="s">
+    <row r="54" spans="1:10" s="82" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A54" s="2"/>
+      <c r="D54" s="2"/>
+      <c r="E54" s="2"/>
+      <c r="F54" s="81"/>
+      <c r="G54" s="80"/>
+      <c r="H54" s="2"/>
+      <c r="I54" s="81"/>
+      <c r="J54" s="81"/>
+    </row>
+    <row r="55" spans="1:10" s="82" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A55" s="2"/>
+      <c r="B55" s="86" t="s">
+        <v>114</v>
+      </c>
+      <c r="C55" s="87"/>
+      <c r="D55" s="2"/>
+      <c r="E55" s="2"/>
+      <c r="F55" s="81"/>
+      <c r="G55" s="81"/>
+      <c r="H55" s="81"/>
+    </row>
+    <row r="56" spans="1:10" s="82" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A56" s="2"/>
+      <c r="B56" s="80" t="s">
+        <v>109</v>
+      </c>
+      <c r="C56" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="D56" s="2"/>
+      <c r="E56" s="2"/>
+      <c r="F56" s="81"/>
+      <c r="G56" s="81"/>
+      <c r="H56" s="81"/>
+    </row>
+    <row r="57" spans="1:10" s="82" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A57" s="2"/>
+      <c r="B57" s="80" t="s">
+        <v>110</v>
+      </c>
+      <c r="C57" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="D57" s="2"/>
+      <c r="E57" s="2"/>
+      <c r="F57" s="81"/>
+      <c r="G57" s="81"/>
+      <c r="H57" s="81"/>
+    </row>
+    <row r="58" spans="1:10" s="82" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A58" s="2"/>
+      <c r="B58" s="80" t="s">
+        <v>111</v>
+      </c>
+      <c r="C58" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="D58" s="2"/>
+      <c r="E58" s="2"/>
+      <c r="F58" s="81"/>
+      <c r="G58" s="81"/>
+      <c r="H58" s="81"/>
+    </row>
+    <row r="59" spans="1:10" s="82" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A59" s="2"/>
+      <c r="B59" s="80" t="s">
+        <v>112</v>
+      </c>
+      <c r="C59" s="2" t="s">
         <v>104</v>
       </c>
-      <c r="I78" s="103" t="s">
-        <v>132</v>
-      </c>
-      <c r="J78" s="26"/>
-    </row>
-    <row r="79" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A79" s="7"/>
-      <c r="B79" s="6"/>
-      <c r="C79" s="11"/>
-      <c r="D79" s="44"/>
-      <c r="E79" s="44"/>
-      <c r="F79" s="32"/>
-      <c r="G79" s="67">
-        <v>89603906796</v>
-      </c>
-      <c r="H79" s="7"/>
-      <c r="I79" s="27"/>
-      <c r="J79" s="24"/>
-    </row>
-    <row r="80" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A80" s="9"/>
-      <c r="B80" s="8"/>
-      <c r="C80" s="12"/>
-      <c r="D80" s="9"/>
-      <c r="E80" s="9"/>
-      <c r="F80" s="45"/>
-      <c r="G80" s="68"/>
-      <c r="H80" s="9"/>
-      <c r="I80" s="51"/>
-      <c r="J80" s="25"/>
-    </row>
-    <row r="82" spans="1:10" s="82" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A82" s="2"/>
-      <c r="B82" s="83" t="s">
-        <v>158</v>
-      </c>
-      <c r="C82" s="84"/>
-      <c r="D82" s="84"/>
-      <c r="E82" s="2"/>
-      <c r="F82" s="81"/>
-      <c r="G82" s="90" t="s">
-        <v>124</v>
-      </c>
-      <c r="H82" s="96"/>
-      <c r="I82" s="81"/>
-      <c r="J82" s="81"/>
-    </row>
-    <row r="83" spans="1:10" s="82" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A83" s="2"/>
-      <c r="B83" s="129" t="s">
-        <v>113</v>
-      </c>
-      <c r="C83" s="2" t="s">
-        <v>112</v>
-      </c>
-      <c r="D83" s="2"/>
-      <c r="E83" s="2"/>
-      <c r="F83" s="81"/>
-      <c r="G83" s="129" t="s">
-        <v>109</v>
-      </c>
-      <c r="H83" s="2" t="s">
-        <v>75</v>
-      </c>
-      <c r="I83" s="81"/>
-      <c r="J83" s="81"/>
-    </row>
-    <row r="84" spans="1:10" s="82" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A84" s="2"/>
-      <c r="B84" s="80" t="s">
-        <v>114</v>
-      </c>
-      <c r="C84" s="2" t="s">
-        <v>75</v>
-      </c>
-      <c r="D84" s="2"/>
-      <c r="E84" s="2"/>
-      <c r="F84" s="81"/>
-      <c r="G84" s="80" t="s">
-        <v>110</v>
-      </c>
-      <c r="H84" s="2" t="s">
-        <v>102</v>
-      </c>
-      <c r="I84" s="81"/>
-      <c r="J84" s="81"/>
-    </row>
-    <row r="85" spans="1:10" s="82" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A85" s="2"/>
-      <c r="B85" s="129" t="s">
-        <v>115</v>
-      </c>
-      <c r="C85" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="D85" s="2"/>
-      <c r="E85" s="2"/>
-      <c r="F85" s="81"/>
-      <c r="G85" s="129" t="s">
-        <v>111</v>
-      </c>
-      <c r="H85" s="2" t="s">
-        <v>77</v>
-      </c>
-      <c r="I85" s="81"/>
-      <c r="J85" s="81"/>
-    </row>
-    <row r="86" spans="1:10" s="82" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A86" s="2"/>
-      <c r="B86" s="129" t="s">
-        <v>117</v>
-      </c>
-      <c r="C86" s="2" t="s">
-        <v>116</v>
-      </c>
-      <c r="D86" s="2"/>
-      <c r="E86" s="2"/>
-      <c r="F86" s="81"/>
-      <c r="G86" s="80"/>
-      <c r="H86" s="2"/>
-      <c r="I86" s="81"/>
-      <c r="J86" s="81"/>
-    </row>
-    <row r="87" spans="1:10" s="82" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A87" s="2"/>
-      <c r="D87" s="2"/>
-      <c r="E87" s="2"/>
-      <c r="F87" s="81"/>
-      <c r="G87" s="80"/>
-      <c r="H87" s="2"/>
-      <c r="I87" s="81"/>
-      <c r="J87" s="81"/>
-    </row>
-    <row r="88" spans="1:10" s="82" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A88" s="2"/>
-      <c r="B88" s="88" t="s">
-        <v>123</v>
-      </c>
-      <c r="C88" s="89"/>
-      <c r="D88" s="2"/>
-      <c r="E88" s="2"/>
-      <c r="F88" s="81"/>
-      <c r="G88" s="92" t="s">
-        <v>127</v>
-      </c>
-      <c r="H88" s="95"/>
-      <c r="I88" s="81"/>
-      <c r="J88" s="81"/>
-    </row>
-    <row r="89" spans="1:10" s="82" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A89" s="2"/>
-      <c r="B89" s="80" t="s">
-        <v>118</v>
-      </c>
-      <c r="C89" s="2" t="s">
-        <v>122</v>
-      </c>
-      <c r="D89" s="2"/>
-      <c r="E89" s="2"/>
-      <c r="F89" s="81"/>
-      <c r="G89" s="129" t="s">
-        <v>125</v>
-      </c>
-      <c r="H89" s="2" t="s">
-        <v>126</v>
-      </c>
-      <c r="I89" s="81"/>
-      <c r="J89" s="81"/>
-    </row>
-    <row r="90" spans="1:10" s="82" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A90" s="2"/>
-      <c r="B90" s="80" t="s">
-        <v>119</v>
-      </c>
-      <c r="C90" s="2" t="s">
-        <v>102</v>
-      </c>
-      <c r="D90" s="2"/>
-      <c r="E90" s="2"/>
-      <c r="F90" s="81"/>
-      <c r="G90" s="80"/>
-      <c r="H90" s="2"/>
-      <c r="I90" s="81"/>
-      <c r="J90" s="81"/>
-    </row>
-    <row r="91" spans="1:10" s="82" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A91" s="2"/>
-      <c r="B91" s="80" t="s">
-        <v>120</v>
-      </c>
-      <c r="C91" s="2" t="s">
-        <v>69</v>
-      </c>
-      <c r="D91" s="2"/>
-      <c r="E91" s="2"/>
-      <c r="F91" s="81"/>
-      <c r="G91" s="80"/>
-      <c r="H91" s="2"/>
-      <c r="I91" s="81"/>
-      <c r="J91" s="81"/>
-    </row>
-    <row r="92" spans="1:10" s="82" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A92" s="2"/>
-      <c r="B92" s="80" t="s">
+      <c r="D59" s="2"/>
+      <c r="E59" s="2"/>
+      <c r="F59" s="81"/>
+      <c r="G59" s="80"/>
+      <c r="H59" s="2"/>
+      <c r="I59" s="81"/>
+      <c r="J59" s="81"/>
+    </row>
+    <row r="60" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="B60" s="1" t="s">
         <v>121</v>
       </c>
-      <c r="C92" s="2" t="s">
-        <v>104</v>
-      </c>
-      <c r="D92" s="2"/>
-      <c r="E92" s="2"/>
-      <c r="F92" s="81"/>
-      <c r="G92" s="80"/>
-      <c r="H92" s="2"/>
-      <c r="I92" s="81"/>
-      <c r="J92" s="81"/>
-    </row>
-    <row r="93" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="B93" s="1" t="s">
-        <v>134</v>
+      <c r="C60" s="1" t="str">
+        <f>H36</f>
+        <v>25 ORG</v>
       </c>
     </row>
   </sheetData>
@@ -3516,10 +2840,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{278BA1B3-1491-4141-B637-9082C53CD422}">
-  <dimension ref="A1:J44"/>
+  <dimension ref="A1:J71"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="C37" sqref="C37"/>
+    <sheetView topLeftCell="A31" zoomScale="85" zoomScaleNormal="85" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="A66" sqref="A66:XFD71"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -3538,46 +2862,46 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="18" x14ac:dyDescent="0.2">
-      <c r="A1" s="148" t="s">
+      <c r="A1" s="141" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="148" t="s">
+      <c r="B1" s="141" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="148" t="s">
+      <c r="C1" s="141" t="s">
         <v>27</v>
       </c>
-      <c r="D1" s="148" t="s">
+      <c r="D1" s="141" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="148"/>
-      <c r="F1" s="150" t="s">
+      <c r="E1" s="141"/>
+      <c r="F1" s="143" t="s">
         <v>106</v>
       </c>
-      <c r="G1" s="148" t="s">
+      <c r="G1" s="141" t="s">
         <v>4</v>
       </c>
-      <c r="H1" s="146" t="s">
+      <c r="H1" s="139" t="s">
         <v>2</v>
       </c>
-      <c r="I1" s="139" t="s">
+      <c r="I1" s="132" t="s">
         <v>56</v>
       </c>
-      <c r="J1" s="139"/>
+      <c r="J1" s="132"/>
     </row>
     <row r="2" spans="1:10" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="149"/>
-      <c r="B2" s="149"/>
-      <c r="C2" s="149"/>
+      <c r="A2" s="142"/>
+      <c r="B2" s="142"/>
+      <c r="C2" s="142"/>
       <c r="D2" s="72" t="s">
         <v>6</v>
       </c>
       <c r="E2" s="19" t="s">
         <v>7</v>
       </c>
-      <c r="F2" s="151"/>
-      <c r="G2" s="149"/>
-      <c r="H2" s="147"/>
+      <c r="F2" s="144"/>
+      <c r="G2" s="142"/>
+      <c r="H2" s="140"/>
       <c r="I2" s="17" t="s">
         <v>6</v>
       </c>
@@ -4343,7 +3667,7 @@
       <c r="A42" s="5">
         <v>12</v>
       </c>
-      <c r="B42" s="98" t="s">
+      <c r="B42" s="92" t="s">
         <v>12</v>
       </c>
       <c r="C42" s="10">
@@ -4353,9 +3677,9 @@
         <v>44237</v>
       </c>
       <c r="E42" s="14" t="s">
-        <v>129</v>
-      </c>
-      <c r="F42" s="124">
+        <v>116</v>
+      </c>
+      <c r="F42" s="118">
         <v>44501</v>
       </c>
       <c r="G42" s="65" t="s">
@@ -4373,7 +3697,7 @@
     </row>
     <row r="43" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A43" s="7"/>
-      <c r="B43" s="99"/>
+      <c r="B43" s="93"/>
       <c r="C43" s="15"/>
       <c r="D43" s="7"/>
       <c r="E43" s="7"/>
@@ -4387,7 +3711,7 @@
     </row>
     <row r="44" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A44" s="9"/>
-      <c r="B44" s="100"/>
+      <c r="B44" s="94"/>
       <c r="C44" s="16"/>
       <c r="D44" s="9"/>
       <c r="E44" s="9"/>
@@ -4396,6 +3720,528 @@
       <c r="H44" s="21"/>
       <c r="I44" s="51"/>
       <c r="J44" s="25"/>
+    </row>
+    <row r="45" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A45" s="5">
+        <v>1</v>
+      </c>
+      <c r="B45" s="91" t="s">
+        <v>5</v>
+      </c>
+      <c r="C45" s="4">
+        <v>10</v>
+      </c>
+      <c r="D45" s="74" t="s">
+        <v>107</v>
+      </c>
+      <c r="E45" s="123" t="s">
+        <v>145</v>
+      </c>
+      <c r="F45" s="77" t="s">
+        <v>52</v>
+      </c>
+      <c r="G45" s="65" t="s">
+        <v>50</v>
+      </c>
+      <c r="H45" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="I45" s="70" t="s">
+        <v>98</v>
+      </c>
+      <c r="J45" s="70" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="46" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A46" s="7"/>
+      <c r="B46" s="27"/>
+      <c r="C46" s="11"/>
+      <c r="D46" s="20"/>
+      <c r="E46" s="20"/>
+      <c r="F46" s="29"/>
+      <c r="G46" s="63">
+        <v>81331434743</v>
+      </c>
+      <c r="H46" s="7"/>
+      <c r="I46" s="27"/>
+      <c r="J46" s="24"/>
+    </row>
+    <row r="47" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A47" s="9"/>
+      <c r="B47" s="51"/>
+      <c r="C47" s="12"/>
+      <c r="D47" s="21"/>
+      <c r="E47" s="21"/>
+      <c r="F47" s="30"/>
+      <c r="G47" s="64"/>
+      <c r="H47" s="9"/>
+      <c r="I47" s="51"/>
+      <c r="J47" s="25"/>
+    </row>
+    <row r="48" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A48" s="5">
+        <v>2</v>
+      </c>
+      <c r="B48" s="91" t="s">
+        <v>9</v>
+      </c>
+      <c r="C48" s="4">
+        <v>10</v>
+      </c>
+      <c r="D48" s="74" t="s">
+        <v>107</v>
+      </c>
+      <c r="E48" s="74" t="s">
+        <v>145</v>
+      </c>
+      <c r="F48" s="77" t="s">
+        <v>52</v>
+      </c>
+      <c r="G48" s="65" t="s">
+        <v>99</v>
+      </c>
+      <c r="H48" s="5" t="s">
+        <v>69</v>
+      </c>
+      <c r="I48" s="70" t="s">
+        <v>98</v>
+      </c>
+      <c r="J48" s="70" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="49" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A49" s="7"/>
+      <c r="B49" s="27"/>
+      <c r="C49" s="11"/>
+      <c r="D49" s="20"/>
+      <c r="E49" s="20"/>
+      <c r="F49" s="29"/>
+      <c r="G49" s="71" t="s">
+        <v>100</v>
+      </c>
+      <c r="H49" s="7"/>
+      <c r="I49" s="27"/>
+      <c r="J49" s="24"/>
+    </row>
+    <row r="50" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A50" s="9"/>
+      <c r="B50" s="51"/>
+      <c r="C50" s="12"/>
+      <c r="D50" s="21"/>
+      <c r="E50" s="21"/>
+      <c r="F50" s="30"/>
+      <c r="G50" s="64"/>
+      <c r="H50" s="9"/>
+      <c r="I50" s="51"/>
+      <c r="J50" s="25"/>
+    </row>
+    <row r="51" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A51" s="5">
+        <v>3</v>
+      </c>
+      <c r="B51" s="91" t="s">
+        <v>10</v>
+      </c>
+      <c r="C51" s="4">
+        <v>16</v>
+      </c>
+      <c r="D51" s="14" t="s">
+        <v>30</v>
+      </c>
+      <c r="E51" s="74" t="s">
+        <v>146</v>
+      </c>
+      <c r="F51" s="89">
+        <v>44520</v>
+      </c>
+      <c r="G51" s="65" t="s">
+        <v>21</v>
+      </c>
+      <c r="H51" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="I51" s="52" t="s">
+        <v>53</v>
+      </c>
+      <c r="J51" s="70" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="52" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A52" s="7"/>
+      <c r="B52" s="27"/>
+      <c r="C52" s="11"/>
+      <c r="D52" s="7"/>
+      <c r="E52" s="36"/>
+      <c r="F52" s="34"/>
+      <c r="G52" s="63">
+        <v>81232989078</v>
+      </c>
+      <c r="H52" s="7"/>
+      <c r="I52" s="27"/>
+      <c r="J52" s="24"/>
+    </row>
+    <row r="53" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A53" s="9"/>
+      <c r="B53" s="51"/>
+      <c r="C53" s="12"/>
+      <c r="D53" s="9"/>
+      <c r="E53" s="9"/>
+      <c r="F53" s="37"/>
+      <c r="G53" s="64"/>
+      <c r="H53" s="9"/>
+      <c r="I53" s="51"/>
+      <c r="J53" s="25"/>
+    </row>
+    <row r="54" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A54" s="5">
+        <v>4</v>
+      </c>
+      <c r="B54" s="91" t="s">
+        <v>11</v>
+      </c>
+      <c r="C54" s="4">
+        <v>16</v>
+      </c>
+      <c r="D54" s="14" t="s">
+        <v>30</v>
+      </c>
+      <c r="E54" s="74" t="s">
+        <v>146</v>
+      </c>
+      <c r="F54" s="89">
+        <v>44520</v>
+      </c>
+      <c r="G54" s="65" t="s">
+        <v>22</v>
+      </c>
+      <c r="H54" s="5" t="s">
+        <v>71</v>
+      </c>
+      <c r="I54" s="52" t="s">
+        <v>53</v>
+      </c>
+      <c r="J54" s="70" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="55" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A55" s="7"/>
+      <c r="B55" s="27"/>
+      <c r="C55" s="11"/>
+      <c r="D55" s="7"/>
+      <c r="E55" s="36"/>
+      <c r="F55" s="34"/>
+      <c r="G55" s="63">
+        <v>81231807990</v>
+      </c>
+      <c r="H55" s="7"/>
+      <c r="I55" s="27"/>
+      <c r="J55" s="24"/>
+    </row>
+    <row r="56" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A56" s="9"/>
+      <c r="B56" s="51"/>
+      <c r="C56" s="12"/>
+      <c r="D56" s="9"/>
+      <c r="E56" s="9"/>
+      <c r="F56" s="37"/>
+      <c r="G56" s="64"/>
+      <c r="H56" s="9"/>
+      <c r="I56" s="51"/>
+      <c r="J56" s="25"/>
+    </row>
+    <row r="57" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A57" s="5">
+        <v>9</v>
+      </c>
+      <c r="B57" s="92" t="s">
+        <v>13</v>
+      </c>
+      <c r="C57" s="10">
+        <v>31</v>
+      </c>
+      <c r="D57" s="14" t="s">
+        <v>28</v>
+      </c>
+      <c r="E57" s="74" t="s">
+        <v>116</v>
+      </c>
+      <c r="F57" s="88">
+        <v>44501</v>
+      </c>
+      <c r="G57" s="65" t="s">
+        <v>23</v>
+      </c>
+      <c r="H57" s="23" t="s">
+        <v>75</v>
+      </c>
+      <c r="I57" s="52" t="s">
+        <v>53</v>
+      </c>
+      <c r="J57" s="70" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="58" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A58" s="7"/>
+      <c r="B58" s="93"/>
+      <c r="C58" s="15"/>
+      <c r="D58" s="7"/>
+      <c r="E58" s="44"/>
+      <c r="F58" s="29"/>
+      <c r="G58" s="63">
+        <v>6587623904</v>
+      </c>
+      <c r="H58" s="20"/>
+      <c r="I58" s="27"/>
+      <c r="J58" s="24"/>
+    </row>
+    <row r="59" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A59" s="9"/>
+      <c r="B59" s="94"/>
+      <c r="C59" s="16"/>
+      <c r="D59" s="9"/>
+      <c r="E59" s="9"/>
+      <c r="F59" s="30"/>
+      <c r="G59" s="64"/>
+      <c r="H59" s="21"/>
+      <c r="I59" s="51"/>
+      <c r="J59" s="25"/>
+    </row>
+    <row r="60" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A60" s="5">
+        <v>15</v>
+      </c>
+      <c r="B60" s="91" t="s">
+        <v>14</v>
+      </c>
+      <c r="C60" s="4">
+        <v>33</v>
+      </c>
+      <c r="D60" s="14" t="s">
+        <v>83</v>
+      </c>
+      <c r="E60" s="74" t="s">
+        <v>116</v>
+      </c>
+      <c r="F60" s="125" t="s">
+        <v>152</v>
+      </c>
+      <c r="G60" s="66" t="s">
+        <v>46</v>
+      </c>
+      <c r="H60" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="I60" s="53">
+        <v>44449</v>
+      </c>
+      <c r="J60" s="70" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="61" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A61" s="7"/>
+      <c r="B61" s="27"/>
+      <c r="C61" s="11"/>
+      <c r="D61" s="44"/>
+      <c r="E61" s="44"/>
+      <c r="F61" s="32"/>
+      <c r="G61" s="67">
+        <v>81331430509</v>
+      </c>
+      <c r="H61" s="7"/>
+      <c r="I61" s="27"/>
+      <c r="J61" s="24"/>
+    </row>
+    <row r="62" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A62" s="9"/>
+      <c r="B62" s="51"/>
+      <c r="C62" s="12"/>
+      <c r="D62" s="9"/>
+      <c r="E62" s="9"/>
+      <c r="F62" s="45"/>
+      <c r="G62" s="68"/>
+      <c r="H62" s="9"/>
+      <c r="I62" s="51"/>
+      <c r="J62" s="25"/>
+    </row>
+    <row r="63" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A63" s="5">
+        <v>17</v>
+      </c>
+      <c r="B63" s="91" t="s">
+        <v>15</v>
+      </c>
+      <c r="C63" s="4">
+        <v>28</v>
+      </c>
+      <c r="D63" s="14" t="s">
+        <v>40</v>
+      </c>
+      <c r="E63" s="74" t="s">
+        <v>143</v>
+      </c>
+      <c r="F63" s="79" t="s">
+        <v>42</v>
+      </c>
+      <c r="G63" s="66" t="s">
+        <v>41</v>
+      </c>
+      <c r="H63" s="5" t="s">
+        <v>79</v>
+      </c>
+      <c r="I63" s="53">
+        <v>44440</v>
+      </c>
+      <c r="J63" s="70" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="64" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A64" s="7"/>
+      <c r="B64" s="27"/>
+      <c r="C64" s="11"/>
+      <c r="D64" s="44"/>
+      <c r="E64" s="44"/>
+      <c r="F64" s="32"/>
+      <c r="G64" s="67">
+        <v>85649115380</v>
+      </c>
+      <c r="H64" s="7"/>
+      <c r="I64" s="27"/>
+      <c r="J64" s="24"/>
+    </row>
+    <row r="65" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A65" s="9"/>
+      <c r="B65" s="51"/>
+      <c r="C65" s="12"/>
+      <c r="D65" s="9"/>
+      <c r="E65" s="9"/>
+      <c r="F65" s="45"/>
+      <c r="G65" s="68"/>
+      <c r="H65" s="9"/>
+      <c r="I65" s="51"/>
+      <c r="J65" s="25"/>
+    </row>
+    <row r="66" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A66" s="5">
+        <v>19</v>
+      </c>
+      <c r="B66" s="91" t="s">
+        <v>16</v>
+      </c>
+      <c r="C66" s="4">
+        <v>40</v>
+      </c>
+      <c r="D66" s="43">
+        <v>44453</v>
+      </c>
+      <c r="E66" s="74" t="s">
+        <v>142</v>
+      </c>
+      <c r="F66" s="79" t="s">
+        <v>42</v>
+      </c>
+      <c r="G66" s="66" t="s">
+        <v>48</v>
+      </c>
+      <c r="H66" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="I66" s="70" t="s">
+        <v>98</v>
+      </c>
+      <c r="J66" s="70" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="67" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A67" s="7"/>
+      <c r="B67" s="27"/>
+      <c r="C67" s="11"/>
+      <c r="D67" s="44"/>
+      <c r="E67" s="44"/>
+      <c r="F67" s="32"/>
+      <c r="G67" s="67">
+        <v>81359524067</v>
+      </c>
+      <c r="H67" s="7"/>
+      <c r="I67" s="27"/>
+      <c r="J67" s="24"/>
+    </row>
+    <row r="68" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A68" s="9"/>
+      <c r="B68" s="51"/>
+      <c r="C68" s="12"/>
+      <c r="D68" s="9"/>
+      <c r="E68" s="9"/>
+      <c r="F68" s="45"/>
+      <c r="G68" s="68"/>
+      <c r="H68" s="9"/>
+      <c r="I68" s="51"/>
+      <c r="J68" s="25"/>
+    </row>
+    <row r="69" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A69" s="5">
+        <v>20</v>
+      </c>
+      <c r="B69" s="91" t="s">
+        <v>18</v>
+      </c>
+      <c r="C69" s="4">
+        <v>40</v>
+      </c>
+      <c r="D69" s="43">
+        <v>44453</v>
+      </c>
+      <c r="E69" s="74" t="s">
+        <v>142</v>
+      </c>
+      <c r="F69" s="79" t="s">
+        <v>42</v>
+      </c>
+      <c r="G69" s="66" t="s">
+        <v>25</v>
+      </c>
+      <c r="H69" s="5" t="s">
+        <v>82</v>
+      </c>
+      <c r="I69" s="70" t="s">
+        <v>98</v>
+      </c>
+      <c r="J69" s="70" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="70" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A70" s="7"/>
+      <c r="B70" s="27"/>
+      <c r="C70" s="11"/>
+      <c r="D70" s="44"/>
+      <c r="E70" s="44"/>
+      <c r="F70" s="32"/>
+      <c r="G70" s="67">
+        <v>82319844744</v>
+      </c>
+      <c r="H70" s="7"/>
+      <c r="I70" s="27"/>
+      <c r="J70" s="24"/>
+    </row>
+    <row r="71" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A71" s="9"/>
+      <c r="B71" s="51"/>
+      <c r="C71" s="12"/>
+      <c r="D71" s="9"/>
+      <c r="E71" s="9"/>
+      <c r="F71" s="45"/>
+      <c r="G71" s="68"/>
+      <c r="H71" s="9"/>
+      <c r="I71" s="51"/>
+      <c r="J71" s="25"/>
     </row>
   </sheetData>
   <mergeCells count="8">

--- a/RENCANA BON VOYAGE.xlsx
+++ b/RENCANA BON VOYAGE.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Mapan\progress\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CC671BBA-D960-4CBC-B752-4BEFA1A4AE29}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0DA04101-81DD-4A54-8C26-8B59F08D0C92}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="10275" yWindow="330" windowWidth="15600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="progres" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="284" uniqueCount="156">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="293" uniqueCount="157">
   <si>
     <t>NO</t>
   </si>
@@ -219,9 +219,6 @@
     <t>MAULANA AINUL Y</t>
   </si>
   <si>
-    <t>22 MARET 22</t>
-  </si>
-  <si>
     <t>20 AGUST</t>
   </si>
   <si>
@@ -345,9 +342,6 @@
     <t>29 ORG</t>
   </si>
   <si>
-    <t>04 MARET 22</t>
-  </si>
-  <si>
     <t>9 ORG</t>
   </si>
   <si>
@@ -363,27 +357,12 @@
     <t>04 OKT</t>
   </si>
   <si>
-    <t>1. DP2NT17</t>
-  </si>
-  <si>
-    <t>2. DP3N33</t>
-  </si>
-  <si>
-    <t>3. DP3T26</t>
-  </si>
-  <si>
-    <t>4. ETO5</t>
-  </si>
-  <si>
     <t>102 ORG</t>
   </si>
   <si>
     <t>KIRIM BN 10 FEB 2021</t>
   </si>
   <si>
-    <t>01 FEB 22</t>
-  </si>
-  <si>
     <t>06 OKT</t>
   </si>
   <si>
@@ -396,9 +375,6 @@
     <t>14 OKT</t>
   </si>
   <si>
-    <t>07 MARET</t>
-  </si>
-  <si>
     <t>5. DP4N34</t>
   </si>
   <si>
@@ -417,21 +393,12 @@
     <t/>
   </si>
   <si>
-    <t>25 JULI</t>
-  </si>
-  <si>
     <t>01 JULI</t>
   </si>
   <si>
-    <t>09 MEI</t>
-  </si>
-  <si>
     <t>09 APRIL</t>
   </si>
   <si>
-    <t>22 MARET</t>
-  </si>
-  <si>
     <t>01 MARET</t>
   </si>
   <si>
@@ -456,12 +423,6 @@
     <t>082111437332</t>
   </si>
   <si>
-    <t>21 APRIL 21</t>
-  </si>
-  <si>
-    <t>20 MARET</t>
-  </si>
-  <si>
     <t>15 NOV</t>
   </si>
   <si>
@@ -495,13 +456,55 @@
     <t>10 NOV</t>
   </si>
   <si>
-    <t>22 FEB</t>
-  </si>
-  <si>
     <t>29 JUNI</t>
   </si>
   <si>
     <t xml:space="preserve"> 25 NOV</t>
+  </si>
+  <si>
+    <t>86 ORG</t>
+  </si>
+  <si>
+    <t>GAFAR</t>
+  </si>
+  <si>
+    <t>081382500350</t>
+  </si>
+  <si>
+    <t>18 ORG</t>
+  </si>
+  <si>
+    <t>65 ORG</t>
+  </si>
+  <si>
+    <t>01 APRIL</t>
+  </si>
+  <si>
+    <t>1. DP1NT11</t>
+  </si>
+  <si>
+    <t>122 ORG</t>
+  </si>
+  <si>
+    <t>4. ETO 4</t>
+  </si>
+  <si>
+    <t>2. DP2NT17</t>
+  </si>
+  <si>
+    <t>3. DP3N33</t>
+  </si>
+  <si>
+    <t>4. DP3T26</t>
+  </si>
+  <si>
+    <t>6. DP5NT41</t>
+  </si>
+  <si>
+    <t>38 ORG</t>
+  </si>
+  <si>
+    <t>351 ORG</t>
   </si>
 </sst>
 </file>
@@ -648,7 +651,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="146">
+  <cellXfs count="142">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -890,9 +893,6 @@
     <xf numFmtId="15" fontId="2" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" indent="2"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="2"/>
-    </xf>
     <xf numFmtId="164" fontId="2" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -949,9 +949,6 @@
     </xf>
     <xf numFmtId="15" fontId="2" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" indent="2"/>
-    </xf>
-    <xf numFmtId="16" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="2"/>
     </xf>
     <xf numFmtId="164" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="2"/>
@@ -993,9 +990,6 @@
     <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="2"/>
     </xf>
-    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" indent="2"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" indent="2"/>
     </xf>
@@ -1011,12 +1005,6 @@
     <xf numFmtId="16" fontId="2" fillId="5" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="2"/>
     </xf>
-    <xf numFmtId="16" fontId="2" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="15" fontId="2" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="16" fontId="2" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1029,6 +1017,9 @@
     <xf numFmtId="16" fontId="2" fillId="2" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1068,7 +1059,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1773,10 +1764,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:J60"/>
+  <dimension ref="A1:J63"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A28" zoomScale="85" zoomScaleNormal="85" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="D42" sqref="D42"/>
+    <sheetView tabSelected="1" topLeftCell="A19" zoomScale="85" zoomScaleNormal="85" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="C64" sqref="C64"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1795,46 +1786,46 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="15" x14ac:dyDescent="0.25">
-      <c r="A1" s="132" t="s">
+      <c r="A1" s="128" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="132" t="s">
+      <c r="B1" s="128" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="132" t="s">
+      <c r="C1" s="128" t="s">
         <v>27</v>
       </c>
-      <c r="D1" s="138" t="s">
+      <c r="D1" s="134" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="138"/>
-      <c r="F1" s="136" t="s">
+      <c r="E1" s="134"/>
+      <c r="F1" s="132" t="s">
         <v>8</v>
       </c>
-      <c r="G1" s="134" t="s">
+      <c r="G1" s="130" t="s">
         <v>4</v>
       </c>
-      <c r="H1" s="132" t="s">
+      <c r="H1" s="128" t="s">
         <v>2</v>
       </c>
-      <c r="I1" s="132" t="s">
+      <c r="I1" s="128" t="s">
         <v>56</v>
       </c>
-      <c r="J1" s="132"/>
+      <c r="J1" s="128"/>
     </row>
     <row r="2" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="133"/>
-      <c r="B2" s="133"/>
-      <c r="C2" s="133"/>
+      <c r="A2" s="129"/>
+      <c r="B2" s="129"/>
+      <c r="C2" s="129"/>
       <c r="D2" s="17" t="s">
         <v>6</v>
       </c>
       <c r="E2" s="17" t="s">
         <v>7</v>
       </c>
-      <c r="F2" s="137"/>
-      <c r="G2" s="135"/>
-      <c r="H2" s="133"/>
+      <c r="F2" s="133"/>
+      <c r="G2" s="131"/>
+      <c r="H2" s="129"/>
       <c r="I2" s="17" t="s">
         <v>6</v>
       </c>
@@ -1846,22 +1837,26 @@
       <c r="A3" s="5">
         <v>1</v>
       </c>
-      <c r="B3" s="91" t="s">
+      <c r="B3" s="90" t="s">
         <v>5</v>
       </c>
       <c r="C3" s="4">
         <v>11</v>
       </c>
       <c r="D3" s="73"/>
-      <c r="E3" s="90" t="s">
-        <v>141</v>
-      </c>
-      <c r="F3" s="104" t="s">
-        <v>140</v>
-      </c>
-      <c r="G3" s="100"/>
-      <c r="H3" s="23"/>
-      <c r="I3" s="116"/>
+      <c r="E3" s="89" t="s">
+        <v>115</v>
+      </c>
+      <c r="F3" s="84" t="s">
+        <v>64</v>
+      </c>
+      <c r="G3" s="99" t="s">
+        <v>143</v>
+      </c>
+      <c r="H3" s="23" t="s">
+        <v>142</v>
+      </c>
+      <c r="I3" s="114"/>
       <c r="J3" s="26"/>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.2">
@@ -1871,9 +1866,11 @@
       <c r="D4" s="20"/>
       <c r="E4" s="20"/>
       <c r="F4" s="48"/>
-      <c r="G4" s="120"/>
+      <c r="G4" s="115" t="s">
+        <v>144</v>
+      </c>
       <c r="H4" s="20"/>
-      <c r="I4" s="93"/>
+      <c r="I4" s="92"/>
       <c r="J4" s="24"/>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.2">
@@ -1882,32 +1879,34 @@
       <c r="C5" s="12"/>
       <c r="D5" s="21"/>
       <c r="E5" s="21"/>
-      <c r="F5" s="121"/>
-      <c r="G5" s="103"/>
+      <c r="F5" s="118"/>
+      <c r="G5" s="102"/>
       <c r="H5" s="21"/>
-      <c r="I5" s="94"/>
+      <c r="I5" s="93"/>
       <c r="J5" s="25"/>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A6" s="5">
         <v>2</v>
       </c>
-      <c r="B6" s="91" t="s">
+      <c r="B6" s="90" t="s">
         <v>9</v>
       </c>
       <c r="C6" s="4">
         <v>11</v>
       </c>
       <c r="D6" s="73"/>
-      <c r="E6" s="90" t="s">
-        <v>141</v>
-      </c>
-      <c r="F6" s="104" t="s">
-        <v>140</v>
-      </c>
-      <c r="G6" s="100"/>
-      <c r="H6" s="23"/>
-      <c r="I6" s="116"/>
+      <c r="E6" s="89" t="s">
+        <v>115</v>
+      </c>
+      <c r="F6" s="84" t="s">
+        <v>64</v>
+      </c>
+      <c r="G6" s="99"/>
+      <c r="H6" s="23" t="s">
+        <v>77</v>
+      </c>
+      <c r="I6" s="114"/>
       <c r="J6" s="26"/>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.2">
@@ -1918,7 +1917,7 @@
       <c r="E7" s="20"/>
       <c r="F7" s="29"/>
       <c r="G7" s="71" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="H7" s="7"/>
       <c r="I7" s="27"/>
@@ -1940,26 +1939,26 @@
       <c r="A9" s="5">
         <v>3</v>
       </c>
-      <c r="B9" s="91" t="s">
+      <c r="B9" s="90" t="s">
         <v>10</v>
       </c>
       <c r="C9" s="4">
         <v>17</v>
       </c>
       <c r="D9" s="75" t="s">
-        <v>108</v>
-      </c>
-      <c r="E9" s="90" t="s">
-        <v>115</v>
+        <v>106</v>
+      </c>
+      <c r="E9" s="73">
+        <v>44237</v>
       </c>
       <c r="F9" s="84" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="G9" s="65" t="s">
         <v>51</v>
       </c>
       <c r="H9" s="5" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="I9" s="53">
         <v>44449</v>
@@ -1996,26 +1995,26 @@
       <c r="A12" s="5">
         <v>4</v>
       </c>
-      <c r="B12" s="91" t="s">
+      <c r="B12" s="90" t="s">
         <v>11</v>
       </c>
       <c r="C12" s="4">
         <v>17</v>
       </c>
       <c r="D12" s="75" t="s">
-        <v>108</v>
-      </c>
-      <c r="E12" s="90" t="s">
-        <v>115</v>
+        <v>106</v>
+      </c>
+      <c r="E12" s="73">
+        <v>44237</v>
       </c>
       <c r="F12" s="84" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="G12" s="65" t="s">
         <v>47</v>
       </c>
       <c r="H12" s="5" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="I12" s="53">
         <v>44449</v>
@@ -2052,25 +2051,27 @@
       <c r="A15" s="5">
         <v>5</v>
       </c>
-      <c r="B15" s="91" t="s">
+      <c r="B15" s="90" t="s">
         <v>10</v>
       </c>
       <c r="C15" s="4">
         <v>18</v>
       </c>
-      <c r="D15" s="99" t="s">
-        <v>126</v>
-      </c>
-      <c r="E15" s="90" t="s">
-        <v>128</v>
-      </c>
-      <c r="F15" s="104" t="s">
-        <v>127</v>
-      </c>
-      <c r="G15" s="100" t="s">
-        <v>135</v>
-      </c>
-      <c r="H15" s="23"/>
+      <c r="D15" s="98" t="s">
+        <v>118</v>
+      </c>
+      <c r="E15" s="89" t="s">
+        <v>119</v>
+      </c>
+      <c r="F15" s="103" t="s">
+        <v>119</v>
+      </c>
+      <c r="G15" s="99" t="s">
+        <v>124</v>
+      </c>
+      <c r="H15" s="23" t="s">
+        <v>146</v>
+      </c>
       <c r="I15" s="76"/>
       <c r="J15" s="26"/>
     </row>
@@ -2080,12 +2081,12 @@
       <c r="C16" s="11"/>
       <c r="D16" s="36"/>
       <c r="E16" s="36"/>
-      <c r="F16" s="101"/>
-      <c r="G16" s="117" t="s">
-        <v>136</v>
+      <c r="F16" s="100"/>
+      <c r="G16" s="115" t="s">
+        <v>125</v>
       </c>
       <c r="H16" s="20"/>
-      <c r="I16" s="93"/>
+      <c r="I16" s="92"/>
       <c r="J16" s="24"/>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.2">
@@ -2094,33 +2095,35 @@
       <c r="C17" s="12"/>
       <c r="D17" s="21"/>
       <c r="E17" s="21"/>
-      <c r="F17" s="102"/>
-      <c r="G17" s="103"/>
+      <c r="F17" s="101"/>
+      <c r="G17" s="102"/>
       <c r="H17" s="21"/>
-      <c r="I17" s="94"/>
+      <c r="I17" s="93"/>
       <c r="J17" s="25"/>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A18" s="5">
         <v>6</v>
       </c>
-      <c r="B18" s="91" t="s">
+      <c r="B18" s="90" t="s">
         <v>11</v>
       </c>
       <c r="C18" s="4">
         <v>18</v>
       </c>
-      <c r="D18" s="99"/>
-      <c r="E18" s="90" t="s">
-        <v>128</v>
-      </c>
-      <c r="F18" s="104" t="s">
-        <v>127</v>
-      </c>
-      <c r="G18" s="100" t="s">
-        <v>133</v>
-      </c>
-      <c r="H18" s="23"/>
+      <c r="D18" s="98"/>
+      <c r="E18" s="89" t="s">
+        <v>119</v>
+      </c>
+      <c r="F18" s="103" t="s">
+        <v>119</v>
+      </c>
+      <c r="G18" s="99" t="s">
+        <v>122</v>
+      </c>
+      <c r="H18" s="23" t="s">
+        <v>71</v>
+      </c>
       <c r="I18" s="76"/>
       <c r="J18" s="26"/>
     </row>
@@ -2130,12 +2133,12 @@
       <c r="C19" s="11"/>
       <c r="D19" s="36"/>
       <c r="E19" s="36"/>
-      <c r="F19" s="101"/>
-      <c r="G19" s="117" t="s">
-        <v>134</v>
+      <c r="F19" s="100"/>
+      <c r="G19" s="115" t="s">
+        <v>123</v>
       </c>
       <c r="H19" s="20"/>
-      <c r="I19" s="93"/>
+      <c r="I19" s="92"/>
       <c r="J19" s="24"/>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.2">
@@ -2144,17 +2147,17 @@
       <c r="C20" s="12"/>
       <c r="D20" s="21"/>
       <c r="E20" s="21"/>
-      <c r="F20" s="102"/>
-      <c r="G20" s="103"/>
+      <c r="F20" s="101"/>
+      <c r="G20" s="102"/>
       <c r="H20" s="21"/>
-      <c r="I20" s="94"/>
+      <c r="I20" s="93"/>
       <c r="J20" s="25"/>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A21" s="5">
         <v>7</v>
       </c>
-      <c r="B21" s="91" t="s">
+      <c r="B21" s="90" t="s">
         <v>13</v>
       </c>
       <c r="C21" s="4">
@@ -2164,7 +2167,7 @@
         <v>43</v>
       </c>
       <c r="E21" s="74" t="s">
-        <v>143</v>
+        <v>130</v>
       </c>
       <c r="F21" s="78" t="s">
         <v>44</v>
@@ -2173,7 +2176,7 @@
         <v>45</v>
       </c>
       <c r="H21" s="5" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="I21" s="53">
         <v>44440</v>
@@ -2210,29 +2213,29 @@
       <c r="A24" s="5">
         <v>8</v>
       </c>
-      <c r="B24" s="91" t="s">
+      <c r="B24" s="90" t="s">
         <v>13</v>
       </c>
       <c r="C24" s="4">
         <v>33</v>
       </c>
       <c r="D24" s="75" t="s">
-        <v>108</v>
-      </c>
-      <c r="E24" s="126" t="s">
-        <v>153</v>
-      </c>
-      <c r="F24" s="85" t="s">
-        <v>103</v>
+        <v>106</v>
+      </c>
+      <c r="E24" s="73">
+        <v>44237</v>
+      </c>
+      <c r="F24" s="84" t="s">
+        <v>64</v>
       </c>
       <c r="G24" s="67" t="s">
+        <v>100</v>
+      </c>
+      <c r="H24" s="7" t="s">
         <v>101</v>
       </c>
-      <c r="H24" s="7" t="s">
-        <v>102</v>
-      </c>
-      <c r="I24" s="97" t="s">
-        <v>119</v>
+      <c r="I24" s="96" t="s">
+        <v>112</v>
       </c>
       <c r="J24" s="24"/>
     </row>
@@ -2256,32 +2259,32 @@
       <c r="C26" s="11"/>
       <c r="D26" s="20"/>
       <c r="E26" s="20"/>
-      <c r="F26" s="109"/>
-      <c r="G26" s="110"/>
+      <c r="F26" s="107"/>
+      <c r="G26" s="108"/>
       <c r="H26" s="20"/>
-      <c r="I26" s="93"/>
+      <c r="I26" s="92"/>
       <c r="J26" s="24"/>
     </row>
     <row r="27" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A27" s="5">
         <v>9</v>
       </c>
-      <c r="B27" s="91" t="s">
+      <c r="B27" s="90" t="s">
         <v>13</v>
       </c>
       <c r="C27" s="4">
         <v>34</v>
       </c>
-      <c r="D27" s="99"/>
-      <c r="E27" s="128" t="s">
+      <c r="D27" s="98"/>
+      <c r="E27" s="123" t="s">
         <v>33</v>
       </c>
-      <c r="F27" s="129" t="s">
-        <v>154</v>
-      </c>
-      <c r="G27" s="110"/>
+      <c r="F27" s="124" t="s">
+        <v>140</v>
+      </c>
+      <c r="G27" s="108"/>
       <c r="H27" s="20"/>
-      <c r="I27" s="130"/>
+      <c r="I27" s="125"/>
       <c r="J27" s="24"/>
     </row>
     <row r="28" spans="1:10" x14ac:dyDescent="0.2">
@@ -2290,10 +2293,10 @@
       <c r="C28" s="11"/>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
-      <c r="F28" s="109"/>
-      <c r="G28" s="110"/>
+      <c r="F28" s="107"/>
+      <c r="G28" s="108"/>
       <c r="H28" s="20"/>
-      <c r="I28" s="93"/>
+      <c r="I28" s="92"/>
       <c r="J28" s="24"/>
     </row>
     <row r="29" spans="1:10" x14ac:dyDescent="0.2">
@@ -2312,7 +2315,7 @@
       <c r="A30" s="5">
         <v>10</v>
       </c>
-      <c r="B30" s="91" t="s">
+      <c r="B30" s="90" t="s">
         <v>12</v>
       </c>
       <c r="C30" s="4">
@@ -2321,17 +2324,17 @@
       <c r="D30" s="14" t="s">
         <v>39</v>
       </c>
-      <c r="E30" s="127" t="s">
-        <v>153</v>
+      <c r="E30" s="73">
+        <v>44237</v>
       </c>
       <c r="F30" s="84" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="G30" s="65" t="s">
         <v>60</v>
       </c>
       <c r="H30" s="5" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="I30" s="53">
         <v>44440</v>
@@ -2368,29 +2371,29 @@
       <c r="A33" s="5">
         <v>11</v>
       </c>
-      <c r="B33" s="91" t="s">
+      <c r="B33" s="90" t="s">
         <v>12</v>
       </c>
       <c r="C33" s="4">
         <v>27</v>
       </c>
       <c r="D33" s="14" t="s">
-        <v>122</v>
-      </c>
-      <c r="E33" s="90" t="s">
-        <v>125</v>
-      </c>
-      <c r="F33" s="96" t="s">
-        <v>124</v>
+        <v>114</v>
+      </c>
+      <c r="E33" s="89" t="s">
+        <v>117</v>
+      </c>
+      <c r="F33" s="95" t="s">
+        <v>116</v>
       </c>
       <c r="G33" s="65" t="s">
-        <v>117</v>
-      </c>
-      <c r="H33" s="95" t="s">
-        <v>89</v>
-      </c>
-      <c r="I33" s="131" t="s">
-        <v>155</v>
+        <v>110</v>
+      </c>
+      <c r="H33" s="94" t="s">
+        <v>88</v>
+      </c>
+      <c r="I33" s="126" t="s">
+        <v>141</v>
       </c>
       <c r="J33" s="26"/>
     </row>
@@ -2402,7 +2405,7 @@
       <c r="E34" s="46"/>
       <c r="F34" s="29"/>
       <c r="G34" s="71" t="s">
-        <v>118</v>
+        <v>111</v>
       </c>
       <c r="H34" s="7"/>
       <c r="I34" s="27"/>
@@ -2424,26 +2427,26 @@
       <c r="A36" s="5">
         <v>12</v>
       </c>
-      <c r="B36" s="91" t="s">
+      <c r="B36" s="90" t="s">
         <v>14</v>
       </c>
       <c r="C36" s="4">
         <v>34</v>
       </c>
       <c r="D36" s="75" t="s">
-        <v>137</v>
-      </c>
-      <c r="E36" s="98" t="s">
-        <v>123</v>
-      </c>
-      <c r="F36" s="83" t="s">
-        <v>120</v>
+        <v>126</v>
+      </c>
+      <c r="E36" s="97" t="s">
+        <v>115</v>
+      </c>
+      <c r="F36" s="84" t="s">
+        <v>64</v>
       </c>
       <c r="G36" s="67" t="s">
-        <v>138</v>
+        <v>127</v>
       </c>
       <c r="H36" s="7" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="I36" s="27"/>
       <c r="J36" s="24"/>
@@ -2455,8 +2458,8 @@
       <c r="D37" s="7"/>
       <c r="E37" s="7"/>
       <c r="F37" s="32"/>
-      <c r="G37" s="119" t="s">
-        <v>139</v>
+      <c r="G37" s="117" t="s">
+        <v>128</v>
       </c>
       <c r="H37" s="7"/>
       <c r="I37" s="27"/>
@@ -2474,82 +2477,86 @@
       <c r="I38" s="27"/>
       <c r="J38" s="24"/>
     </row>
-    <row r="39" spans="1:10" s="108" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:10" s="106" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A39" s="5">
         <v>13</v>
       </c>
-      <c r="B39" s="92" t="s">
+      <c r="B39" s="91" t="s">
         <v>15</v>
       </c>
       <c r="C39" s="10">
         <v>29</v>
       </c>
-      <c r="D39" s="145" t="s">
-        <v>95</v>
+      <c r="D39" s="127" t="s">
+        <v>94</v>
       </c>
       <c r="E39" s="73" t="s">
-        <v>130</v>
-      </c>
-      <c r="F39" s="115" t="s">
-        <v>129</v>
-      </c>
-      <c r="G39" s="106" t="s">
+        <v>120</v>
+      </c>
+      <c r="F39" s="113" t="s">
         <v>147</v>
       </c>
-      <c r="H39" s="23"/>
+      <c r="G39" s="104" t="s">
+        <v>134</v>
+      </c>
+      <c r="H39" s="23" t="s">
+        <v>67</v>
+      </c>
       <c r="I39" s="76"/>
-      <c r="J39" s="107"/>
-    </row>
-    <row r="40" spans="1:10" s="108" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="J39" s="105"/>
+    </row>
+    <row r="40" spans="1:10" s="106" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A40" s="7"/>
-      <c r="B40" s="93"/>
+      <c r="B40" s="92"/>
       <c r="C40" s="15"/>
       <c r="D40" s="36"/>
       <c r="E40" s="36"/>
-      <c r="F40" s="109"/>
-      <c r="G40" s="124" t="s">
-        <v>148</v>
+      <c r="F40" s="107"/>
+      <c r="G40" s="121" t="s">
+        <v>135</v>
       </c>
       <c r="H40" s="20"/>
-      <c r="I40" s="93"/>
-      <c r="J40" s="111"/>
-    </row>
-    <row r="41" spans="1:10" s="108" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="I40" s="92"/>
+      <c r="J40" s="109"/>
+    </row>
+    <row r="41" spans="1:10" s="106" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A41" s="9"/>
-      <c r="B41" s="94"/>
+      <c r="B41" s="93"/>
       <c r="C41" s="16"/>
       <c r="D41" s="21"/>
       <c r="E41" s="21"/>
-      <c r="F41" s="112"/>
-      <c r="G41" s="113"/>
+      <c r="F41" s="110"/>
+      <c r="G41" s="111"/>
       <c r="H41" s="21"/>
-      <c r="I41" s="94"/>
-      <c r="J41" s="114"/>
+      <c r="I41" s="93"/>
+      <c r="J41" s="112"/>
     </row>
     <row r="42" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A42" s="5">
         <v>14</v>
       </c>
-      <c r="B42" s="91" t="s">
+      <c r="B42" s="90" t="s">
         <v>16</v>
       </c>
       <c r="C42" s="10">
         <v>41</v>
       </c>
       <c r="D42" s="74" t="s">
-        <v>149</v>
-      </c>
-      <c r="E42" s="73" t="s">
-        <v>132</v>
-      </c>
-      <c r="F42" s="105" t="s">
-        <v>131</v>
-      </c>
-      <c r="G42" s="106" t="s">
-        <v>150</v>
-      </c>
-      <c r="H42" s="23"/>
-      <c r="I42" s="116"/>
+        <v>136</v>
+      </c>
+      <c r="E42" s="73">
+        <v>44237</v>
+      </c>
+      <c r="F42" s="84" t="s">
+        <v>64</v>
+      </c>
+      <c r="G42" s="104" t="s">
+        <v>137</v>
+      </c>
+      <c r="H42" s="141" t="s">
+        <v>75</v>
+      </c>
+      <c r="I42" s="114"/>
       <c r="J42" s="26"/>
     </row>
     <row r="43" spans="1:10" x14ac:dyDescent="0.2">
@@ -2558,12 +2565,12 @@
       <c r="C43" s="15"/>
       <c r="D43" s="36"/>
       <c r="E43" s="36"/>
-      <c r="F43" s="109"/>
-      <c r="G43" s="124" t="s">
-        <v>151</v>
+      <c r="F43" s="107"/>
+      <c r="G43" s="121" t="s">
+        <v>138</v>
       </c>
       <c r="H43" s="20"/>
-      <c r="I43" s="93"/>
+      <c r="I43" s="92"/>
       <c r="J43" s="24"/>
     </row>
     <row r="44" spans="1:10" x14ac:dyDescent="0.2">
@@ -2572,34 +2579,36 @@
       <c r="C44" s="16"/>
       <c r="D44" s="21"/>
       <c r="E44" s="21"/>
-      <c r="F44" s="112"/>
-      <c r="G44" s="113"/>
+      <c r="F44" s="110"/>
+      <c r="G44" s="111"/>
       <c r="H44" s="21"/>
-      <c r="I44" s="94"/>
+      <c r="I44" s="93"/>
       <c r="J44" s="25"/>
     </row>
     <row r="45" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A45" s="5">
         <v>15</v>
       </c>
-      <c r="B45" s="91" t="s">
+      <c r="B45" s="90" t="s">
         <v>18</v>
       </c>
       <c r="C45" s="10">
         <v>41</v>
       </c>
       <c r="D45" s="74" t="s">
-        <v>149</v>
-      </c>
-      <c r="E45" s="73" t="s">
-        <v>132</v>
-      </c>
-      <c r="F45" s="105" t="s">
-        <v>131</v>
-      </c>
-      <c r="G45" s="106"/>
-      <c r="H45" s="23"/>
-      <c r="I45" s="116"/>
+        <v>136</v>
+      </c>
+      <c r="E45" s="73">
+        <v>44237</v>
+      </c>
+      <c r="F45" s="84" t="s">
+        <v>64</v>
+      </c>
+      <c r="G45" s="104"/>
+      <c r="H45" s="141" t="s">
+        <v>145</v>
+      </c>
+      <c r="I45" s="114"/>
       <c r="J45" s="26"/>
     </row>
     <row r="46" spans="1:10" x14ac:dyDescent="0.2">
@@ -2608,10 +2617,10 @@
       <c r="C46" s="15"/>
       <c r="D46" s="36"/>
       <c r="E46" s="36"/>
-      <c r="F46" s="109"/>
-      <c r="G46" s="110"/>
+      <c r="F46" s="107"/>
+      <c r="G46" s="108"/>
       <c r="H46" s="20"/>
-      <c r="I46" s="93"/>
+      <c r="I46" s="92"/>
       <c r="J46" s="24"/>
     </row>
     <row r="47" spans="1:10" x14ac:dyDescent="0.2">
@@ -2620,10 +2629,10 @@
       <c r="C47" s="16"/>
       <c r="D47" s="21"/>
       <c r="E47" s="21"/>
-      <c r="F47" s="112"/>
-      <c r="G47" s="113"/>
+      <c r="F47" s="110"/>
+      <c r="G47" s="111"/>
       <c r="H47" s="21"/>
-      <c r="I47" s="94"/>
+      <c r="I47" s="93"/>
       <c r="J47" s="25"/>
     </row>
     <row r="48" spans="1:10" x14ac:dyDescent="0.2">
@@ -2631,21 +2640,23 @@
         <v>16</v>
       </c>
       <c r="B48" s="3" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C48" s="4">
         <v>4</v>
       </c>
       <c r="D48" s="43" t="s">
-        <v>132</v>
+        <v>121</v>
       </c>
       <c r="E48" s="22"/>
-      <c r="F48" s="83"/>
+      <c r="F48" s="84" t="s">
+        <v>64</v>
+      </c>
       <c r="G48" s="66"/>
       <c r="H48" s="5" t="s">
-        <v>144</v>
-      </c>
-      <c r="I48" s="122">
+        <v>131</v>
+      </c>
+      <c r="I48" s="119">
         <v>44287</v>
       </c>
       <c r="J48" s="26"/>
@@ -2681,28 +2692,26 @@
         <v>17</v>
       </c>
       <c r="B51" s="3" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C51" s="4">
         <v>5</v>
       </c>
       <c r="D51" s="43" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="E51" s="22">
         <v>44237</v>
       </c>
-      <c r="F51" s="83">
-        <v>44617</v>
-      </c>
+      <c r="F51" s="83"/>
       <c r="G51" s="66" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="H51" s="5" t="s">
-        <v>104</v>
-      </c>
-      <c r="I51" s="97" t="s">
-        <v>119</v>
+        <v>102</v>
+      </c>
+      <c r="I51" s="96" t="s">
+        <v>112</v>
       </c>
       <c r="J51" s="26"/>
     </row>
@@ -2744,10 +2753,10 @@
     </row>
     <row r="55" spans="1:10" s="82" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A55" s="2"/>
-      <c r="B55" s="86" t="s">
-        <v>114</v>
-      </c>
-      <c r="C55" s="87"/>
+      <c r="B55" s="85" t="s">
+        <v>108</v>
+      </c>
+      <c r="C55" s="86"/>
       <c r="D55" s="2"/>
       <c r="E55" s="2"/>
       <c r="F55" s="81"/>
@@ -2756,11 +2765,11 @@
     </row>
     <row r="56" spans="1:10" s="82" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A56" s="2"/>
-      <c r="B56" s="80" t="s">
-        <v>109</v>
-      </c>
-      <c r="C56" s="2" t="s">
-        <v>113</v>
+      <c r="B56" s="82" t="s">
+        <v>148</v>
+      </c>
+      <c r="C56" s="82" t="s">
+        <v>149</v>
       </c>
       <c r="D56" s="2"/>
       <c r="E56" s="2"/>
@@ -2771,10 +2780,10 @@
     <row r="57" spans="1:10" s="82" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A57" s="2"/>
       <c r="B57" s="80" t="s">
-        <v>110</v>
+        <v>151</v>
       </c>
       <c r="C57" s="2" t="s">
-        <v>102</v>
+        <v>107</v>
       </c>
       <c r="D57" s="2"/>
       <c r="E57" s="2"/>
@@ -2785,10 +2794,10 @@
     <row r="58" spans="1:10" s="82" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A58" s="2"/>
       <c r="B58" s="80" t="s">
-        <v>111</v>
+        <v>152</v>
       </c>
       <c r="C58" s="2" t="s">
-        <v>69</v>
+        <v>101</v>
       </c>
       <c r="D58" s="2"/>
       <c r="E58" s="2"/>
@@ -2799,10 +2808,10 @@
     <row r="59" spans="1:10" s="82" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A59" s="2"/>
       <c r="B59" s="80" t="s">
-        <v>112</v>
+        <v>153</v>
       </c>
       <c r="C59" s="2" t="s">
-        <v>104</v>
+        <v>68</v>
       </c>
       <c r="D59" s="2"/>
       <c r="E59" s="2"/>
@@ -2814,11 +2823,32 @@
     </row>
     <row r="60" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B60" s="1" t="s">
-        <v>121</v>
+        <v>113</v>
       </c>
       <c r="C60" s="1" t="str">
         <f>H36</f>
         <v>25 ORG</v>
+      </c>
+    </row>
+    <row r="61" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="B61" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="C61" s="1" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="62" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="B62" s="80" t="s">
+        <v>150</v>
+      </c>
+      <c r="C62" s="2" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="63" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="C63" s="1" t="s">
+        <v>156</v>
       </c>
     </row>
   </sheetData>
@@ -2862,46 +2892,46 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="18" x14ac:dyDescent="0.2">
-      <c r="A1" s="141" t="s">
+      <c r="A1" s="137" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="141" t="s">
+      <c r="B1" s="137" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="141" t="s">
+      <c r="C1" s="137" t="s">
         <v>27</v>
       </c>
-      <c r="D1" s="141" t="s">
+      <c r="D1" s="137" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="141"/>
-      <c r="F1" s="143" t="s">
-        <v>106</v>
-      </c>
-      <c r="G1" s="141" t="s">
+      <c r="E1" s="137"/>
+      <c r="F1" s="139" t="s">
+        <v>104</v>
+      </c>
+      <c r="G1" s="137" t="s">
         <v>4</v>
       </c>
-      <c r="H1" s="139" t="s">
+      <c r="H1" s="135" t="s">
         <v>2</v>
       </c>
-      <c r="I1" s="132" t="s">
+      <c r="I1" s="128" t="s">
         <v>56</v>
       </c>
-      <c r="J1" s="132"/>
+      <c r="J1" s="128"/>
     </row>
     <row r="2" spans="1:10" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="142"/>
-      <c r="B2" s="142"/>
-      <c r="C2" s="142"/>
+      <c r="A2" s="138"/>
+      <c r="B2" s="138"/>
+      <c r="C2" s="138"/>
       <c r="D2" s="72" t="s">
         <v>6</v>
       </c>
       <c r="E2" s="19" t="s">
         <v>7</v>
       </c>
-      <c r="F2" s="144"/>
-      <c r="G2" s="142"/>
-      <c r="H2" s="140"/>
+      <c r="F2" s="140"/>
+      <c r="G2" s="138"/>
+      <c r="H2" s="136"/>
       <c r="I2" s="17" t="s">
         <v>6</v>
       </c>
@@ -2923,22 +2953,22 @@
         <v>44218</v>
       </c>
       <c r="E3" s="40" t="s">
+        <v>83</v>
+      </c>
+      <c r="F3" s="42" t="s">
+        <v>86</v>
+      </c>
+      <c r="G3" s="41" t="s">
         <v>84</v>
       </c>
-      <c r="F3" s="42" t="s">
-        <v>87</v>
-      </c>
-      <c r="G3" s="41" t="s">
-        <v>85</v>
-      </c>
       <c r="H3" s="38" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="I3" s="57">
         <v>44251</v>
       </c>
       <c r="J3" s="59" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.2">
@@ -2981,22 +3011,22 @@
         <v>44218</v>
       </c>
       <c r="E6" s="14" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="F6" s="35" t="s">
+        <v>86</v>
+      </c>
+      <c r="G6" s="31" t="s">
+        <v>85</v>
+      </c>
+      <c r="H6" s="5" t="s">
         <v>87</v>
-      </c>
-      <c r="G6" s="31" t="s">
-        <v>86</v>
-      </c>
-      <c r="H6" s="5" t="s">
-        <v>88</v>
       </c>
       <c r="I6" s="57">
         <v>44251</v>
       </c>
       <c r="J6" s="54" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.2">
@@ -3036,7 +3066,7 @@
         <v>15</v>
       </c>
       <c r="D9" s="14" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="E9" s="61" t="s">
         <v>39</v>
@@ -3045,16 +3075,16 @@
         <v>44440</v>
       </c>
       <c r="G9" s="29" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="H9" s="7" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="I9" s="58" t="s">
+        <v>94</v>
+      </c>
+      <c r="J9" s="54" t="s">
         <v>95</v>
-      </c>
-      <c r="J9" s="54" t="s">
-        <v>96</v>
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.2">
@@ -3094,7 +3124,7 @@
         <v>15</v>
       </c>
       <c r="D12" s="14" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="E12" s="61" t="s">
         <v>39</v>
@@ -3103,16 +3133,16 @@
         <v>44440</v>
       </c>
       <c r="G12" s="29" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="H12" s="7" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="I12" s="58" t="s">
+        <v>94</v>
+      </c>
+      <c r="J12" s="54" t="s">
         <v>95</v>
-      </c>
-      <c r="J12" s="54" t="s">
-        <v>96</v>
       </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.2">
@@ -3158,13 +3188,13 @@
         <v>55</v>
       </c>
       <c r="F15" s="47" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="G15" s="47" t="s">
         <v>37</v>
       </c>
       <c r="H15" s="10" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="I15" s="53">
         <v>44287</v>
@@ -3222,13 +3252,13 @@
         <v>19</v>
       </c>
       <c r="H18" s="38" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="I18" s="50" t="s">
         <v>53</v>
       </c>
       <c r="J18" s="70" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.2">
@@ -3280,13 +3310,13 @@
         <v>20</v>
       </c>
       <c r="H21" s="5" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="I21" s="52" t="s">
         <v>53</v>
       </c>
       <c r="J21" s="70" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.2">
@@ -3332,19 +3362,19 @@
         <v>54</v>
       </c>
       <c r="F24" s="31" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="G24" s="65" t="s">
         <v>34</v>
       </c>
       <c r="H24" s="23" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="I24" s="53">
         <v>44287</v>
       </c>
       <c r="J24" s="70" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.2">
@@ -3390,19 +3420,19 @@
         <v>55</v>
       </c>
       <c r="F27" s="31" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="G27" s="65" t="s">
         <v>24</v>
       </c>
       <c r="H27" s="23" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="I27" s="52" t="s">
         <v>53</v>
       </c>
       <c r="J27" s="70" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="28" spans="1:10" x14ac:dyDescent="0.2">
@@ -3454,13 +3484,13 @@
         <v>36</v>
       </c>
       <c r="H30" s="23" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="I30" s="53">
         <v>44246</v>
       </c>
       <c r="J30" s="70" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="31" spans="1:10" x14ac:dyDescent="0.2">
@@ -3512,13 +3542,13 @@
         <v>38</v>
       </c>
       <c r="H33" s="23" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="I33" s="53">
         <v>44246</v>
       </c>
       <c r="J33" s="70" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="34" spans="1:10" x14ac:dyDescent="0.2">
@@ -3570,13 +3600,13 @@
         <v>25</v>
       </c>
       <c r="H36" s="5" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="I36" s="52" t="s">
         <v>53</v>
       </c>
       <c r="J36" s="70" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="37" spans="1:10" x14ac:dyDescent="0.2">
@@ -3628,13 +3658,13 @@
         <v>26</v>
       </c>
       <c r="H39" s="5" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="I39" s="52" t="s">
         <v>53</v>
       </c>
       <c r="J39" s="70" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="40" spans="1:10" x14ac:dyDescent="0.2">
@@ -3667,7 +3697,7 @@
       <c r="A42" s="5">
         <v>12</v>
       </c>
-      <c r="B42" s="92" t="s">
+      <c r="B42" s="91" t="s">
         <v>12</v>
       </c>
       <c r="C42" s="10">
@@ -3677,16 +3707,16 @@
         <v>44237</v>
       </c>
       <c r="E42" s="14" t="s">
-        <v>116</v>
-      </c>
-      <c r="F42" s="118">
+        <v>109</v>
+      </c>
+      <c r="F42" s="116">
         <v>44501</v>
       </c>
       <c r="G42" s="65" t="s">
         <v>35</v>
       </c>
       <c r="H42" s="23" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="I42" s="52" t="s">
         <v>53</v>
@@ -3697,7 +3727,7 @@
     </row>
     <row r="43" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A43" s="7"/>
-      <c r="B43" s="93"/>
+      <c r="B43" s="92"/>
       <c r="C43" s="15"/>
       <c r="D43" s="7"/>
       <c r="E43" s="7"/>
@@ -3711,7 +3741,7 @@
     </row>
     <row r="44" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A44" s="9"/>
-      <c r="B44" s="94"/>
+      <c r="B44" s="93"/>
       <c r="C44" s="16"/>
       <c r="D44" s="9"/>
       <c r="E44" s="9"/>
@@ -3725,17 +3755,17 @@
       <c r="A45" s="5">
         <v>1</v>
       </c>
-      <c r="B45" s="91" t="s">
+      <c r="B45" s="90" t="s">
         <v>5</v>
       </c>
       <c r="C45" s="4">
         <v>10</v>
       </c>
       <c r="D45" s="74" t="s">
-        <v>107</v>
-      </c>
-      <c r="E45" s="123" t="s">
-        <v>145</v>
+        <v>105</v>
+      </c>
+      <c r="E45" s="120" t="s">
+        <v>132</v>
       </c>
       <c r="F45" s="77" t="s">
         <v>52</v>
@@ -3744,13 +3774,13 @@
         <v>50</v>
       </c>
       <c r="H45" s="5" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="I45" s="70" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="J45" s="70" t="s">
-        <v>149</v>
+        <v>136</v>
       </c>
     </row>
     <row r="46" spans="1:10" x14ac:dyDescent="0.2">
@@ -3783,32 +3813,32 @@
       <c r="A48" s="5">
         <v>2</v>
       </c>
-      <c r="B48" s="91" t="s">
+      <c r="B48" s="90" t="s">
         <v>9</v>
       </c>
       <c r="C48" s="4">
         <v>10</v>
       </c>
       <c r="D48" s="74" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="E48" s="74" t="s">
-        <v>145</v>
+        <v>132</v>
       </c>
       <c r="F48" s="77" t="s">
         <v>52</v>
       </c>
       <c r="G48" s="65" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="H48" s="5" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="I48" s="70" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="J48" s="70" t="s">
-        <v>149</v>
+        <v>136</v>
       </c>
     </row>
     <row r="49" spans="1:10" x14ac:dyDescent="0.2">
@@ -3819,7 +3849,7 @@
       <c r="E49" s="20"/>
       <c r="F49" s="29"/>
       <c r="G49" s="71" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="H49" s="7"/>
       <c r="I49" s="27"/>
@@ -3841,7 +3871,7 @@
       <c r="A51" s="5">
         <v>3</v>
       </c>
-      <c r="B51" s="91" t="s">
+      <c r="B51" s="90" t="s">
         <v>10</v>
       </c>
       <c r="C51" s="4">
@@ -3851,22 +3881,22 @@
         <v>30</v>
       </c>
       <c r="E51" s="74" t="s">
-        <v>146</v>
-      </c>
-      <c r="F51" s="89">
+        <v>133</v>
+      </c>
+      <c r="F51" s="88">
         <v>44520</v>
       </c>
       <c r="G51" s="65" t="s">
         <v>21</v>
       </c>
       <c r="H51" s="5" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="I51" s="52" t="s">
         <v>53</v>
       </c>
       <c r="J51" s="70" t="s">
-        <v>149</v>
+        <v>136</v>
       </c>
     </row>
     <row r="52" spans="1:10" x14ac:dyDescent="0.2">
@@ -3899,7 +3929,7 @@
       <c r="A54" s="5">
         <v>4</v>
       </c>
-      <c r="B54" s="91" t="s">
+      <c r="B54" s="90" t="s">
         <v>11</v>
       </c>
       <c r="C54" s="4">
@@ -3909,22 +3939,22 @@
         <v>30</v>
       </c>
       <c r="E54" s="74" t="s">
-        <v>146</v>
-      </c>
-      <c r="F54" s="89">
+        <v>133</v>
+      </c>
+      <c r="F54" s="88">
         <v>44520</v>
       </c>
       <c r="G54" s="65" t="s">
         <v>22</v>
       </c>
       <c r="H54" s="5" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="I54" s="52" t="s">
         <v>53</v>
       </c>
       <c r="J54" s="70" t="s">
-        <v>149</v>
+        <v>136</v>
       </c>
     </row>
     <row r="55" spans="1:10" x14ac:dyDescent="0.2">
@@ -3957,7 +3987,7 @@
       <c r="A57" s="5">
         <v>9</v>
       </c>
-      <c r="B57" s="92" t="s">
+      <c r="B57" s="91" t="s">
         <v>13</v>
       </c>
       <c r="C57" s="10">
@@ -3967,27 +3997,27 @@
         <v>28</v>
       </c>
       <c r="E57" s="74" t="s">
-        <v>116</v>
-      </c>
-      <c r="F57" s="88">
+        <v>109</v>
+      </c>
+      <c r="F57" s="87">
         <v>44501</v>
       </c>
       <c r="G57" s="65" t="s">
         <v>23</v>
       </c>
       <c r="H57" s="23" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="I57" s="52" t="s">
         <v>53</v>
       </c>
       <c r="J57" s="70" t="s">
-        <v>149</v>
+        <v>136</v>
       </c>
     </row>
     <row r="58" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A58" s="7"/>
-      <c r="B58" s="93"/>
+      <c r="B58" s="92"/>
       <c r="C58" s="15"/>
       <c r="D58" s="7"/>
       <c r="E58" s="44"/>
@@ -4001,7 +4031,7 @@
     </row>
     <row r="59" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A59" s="9"/>
-      <c r="B59" s="94"/>
+      <c r="B59" s="93"/>
       <c r="C59" s="16"/>
       <c r="D59" s="9"/>
       <c r="E59" s="9"/>
@@ -4015,32 +4045,32 @@
       <c r="A60" s="5">
         <v>15</v>
       </c>
-      <c r="B60" s="91" t="s">
+      <c r="B60" s="90" t="s">
         <v>14</v>
       </c>
       <c r="C60" s="4">
         <v>33</v>
       </c>
       <c r="D60" s="14" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="E60" s="74" t="s">
-        <v>116</v>
-      </c>
-      <c r="F60" s="125" t="s">
-        <v>152</v>
+        <v>109</v>
+      </c>
+      <c r="F60" s="122" t="s">
+        <v>139</v>
       </c>
       <c r="G60" s="66" t="s">
         <v>46</v>
       </c>
       <c r="H60" s="5" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="I60" s="53">
         <v>44449</v>
       </c>
       <c r="J60" s="70" t="s">
-        <v>149</v>
+        <v>136</v>
       </c>
     </row>
     <row r="61" spans="1:10" x14ac:dyDescent="0.2">
@@ -4073,7 +4103,7 @@
       <c r="A63" s="5">
         <v>17</v>
       </c>
-      <c r="B63" s="91" t="s">
+      <c r="B63" s="90" t="s">
         <v>15</v>
       </c>
       <c r="C63" s="4">
@@ -4083,7 +4113,7 @@
         <v>40</v>
       </c>
       <c r="E63" s="74" t="s">
-        <v>143</v>
+        <v>130</v>
       </c>
       <c r="F63" s="79" t="s">
         <v>42</v>
@@ -4092,13 +4122,13 @@
         <v>41</v>
       </c>
       <c r="H63" s="5" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="I63" s="53">
         <v>44440</v>
       </c>
       <c r="J63" s="70" t="s">
-        <v>149</v>
+        <v>136</v>
       </c>
     </row>
     <row r="64" spans="1:10" x14ac:dyDescent="0.2">
@@ -4131,7 +4161,7 @@
       <c r="A66" s="5">
         <v>19</v>
       </c>
-      <c r="B66" s="91" t="s">
+      <c r="B66" s="90" t="s">
         <v>16</v>
       </c>
       <c r="C66" s="4">
@@ -4141,7 +4171,7 @@
         <v>44453</v>
       </c>
       <c r="E66" s="74" t="s">
-        <v>142</v>
+        <v>129</v>
       </c>
       <c r="F66" s="79" t="s">
         <v>42</v>
@@ -4150,13 +4180,13 @@
         <v>48</v>
       </c>
       <c r="H66" s="5" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="I66" s="70" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="J66" s="70" t="s">
-        <v>149</v>
+        <v>136</v>
       </c>
     </row>
     <row r="67" spans="1:10" x14ac:dyDescent="0.2">
@@ -4189,7 +4219,7 @@
       <c r="A69" s="5">
         <v>20</v>
       </c>
-      <c r="B69" s="91" t="s">
+      <c r="B69" s="90" t="s">
         <v>18</v>
       </c>
       <c r="C69" s="4">
@@ -4199,7 +4229,7 @@
         <v>44453</v>
       </c>
       <c r="E69" s="74" t="s">
-        <v>142</v>
+        <v>129</v>
       </c>
       <c r="F69" s="79" t="s">
         <v>42</v>
@@ -4208,13 +4238,13 @@
         <v>25</v>
       </c>
       <c r="H69" s="5" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="I69" s="70" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="J69" s="70" t="s">
-        <v>149</v>
+        <v>136</v>
       </c>
     </row>
     <row r="70" spans="1:10" x14ac:dyDescent="0.2">

--- a/RENCANA BON VOYAGE.xlsx
+++ b/RENCANA BON VOYAGE.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Mapan\progress\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0DA04101-81DD-4A54-8C26-8B59F08D0C92}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{780C2E16-0C78-4A92-B46F-482F2F504EA8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -651,7 +651,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="142">
+  <cellXfs count="141">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -947,9 +947,6 @@
     <xf numFmtId="164" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" indent="2"/>
     </xf>
-    <xf numFmtId="15" fontId="2" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" indent="2"/>
-    </xf>
     <xf numFmtId="164" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="2"/>
     </xf>
@@ -1005,12 +1002,6 @@
     <xf numFmtId="16" fontId="2" fillId="5" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="2"/>
     </xf>
-    <xf numFmtId="16" fontId="2" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="2"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
@@ -1020,6 +1011,9 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1059,8 +1053,11 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="15" fontId="2" fillId="5" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="2"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1766,8 +1763,8 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:J63"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" zoomScale="85" zoomScaleNormal="85" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="C64" sqref="C64"/>
+    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="85" zoomScaleNormal="85" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="Q45" sqref="Q45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1786,46 +1783,46 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="15" x14ac:dyDescent="0.25">
-      <c r="A1" s="128" t="s">
+      <c r="A1" s="126" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="128" t="s">
+      <c r="B1" s="126" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="128" t="s">
+      <c r="C1" s="126" t="s">
         <v>27</v>
       </c>
-      <c r="D1" s="134" t="s">
+      <c r="D1" s="132" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="134"/>
-      <c r="F1" s="132" t="s">
+      <c r="E1" s="132"/>
+      <c r="F1" s="130" t="s">
         <v>8</v>
       </c>
-      <c r="G1" s="130" t="s">
+      <c r="G1" s="128" t="s">
         <v>4</v>
       </c>
-      <c r="H1" s="128" t="s">
+      <c r="H1" s="126" t="s">
         <v>2</v>
       </c>
-      <c r="I1" s="128" t="s">
+      <c r="I1" s="126" t="s">
         <v>56</v>
       </c>
-      <c r="J1" s="128"/>
+      <c r="J1" s="126"/>
     </row>
     <row r="2" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="129"/>
-      <c r="B2" s="129"/>
-      <c r="C2" s="129"/>
+      <c r="A2" s="127"/>
+      <c r="B2" s="127"/>
+      <c r="C2" s="127"/>
       <c r="D2" s="17" t="s">
         <v>6</v>
       </c>
       <c r="E2" s="17" t="s">
         <v>7</v>
       </c>
-      <c r="F2" s="133"/>
-      <c r="G2" s="131"/>
-      <c r="H2" s="129"/>
+      <c r="F2" s="131"/>
+      <c r="G2" s="129"/>
+      <c r="H2" s="127"/>
       <c r="I2" s="17" t="s">
         <v>6</v>
       </c>
@@ -1856,7 +1853,7 @@
       <c r="H3" s="23" t="s">
         <v>142</v>
       </c>
-      <c r="I3" s="114"/>
+      <c r="I3" s="113"/>
       <c r="J3" s="26"/>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.2">
@@ -1866,7 +1863,7 @@
       <c r="D4" s="20"/>
       <c r="E4" s="20"/>
       <c r="F4" s="48"/>
-      <c r="G4" s="115" t="s">
+      <c r="G4" s="114" t="s">
         <v>144</v>
       </c>
       <c r="H4" s="20"/>
@@ -1879,7 +1876,7 @@
       <c r="C5" s="12"/>
       <c r="D5" s="21"/>
       <c r="E5" s="21"/>
-      <c r="F5" s="118"/>
+      <c r="F5" s="117"/>
       <c r="G5" s="102"/>
       <c r="H5" s="21"/>
       <c r="I5" s="93"/>
@@ -1906,7 +1903,7 @@
       <c r="H6" s="23" t="s">
         <v>77</v>
       </c>
-      <c r="I6" s="114"/>
+      <c r="I6" s="113"/>
       <c r="J6" s="26"/>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.2">
@@ -2061,9 +2058,9 @@
         <v>118</v>
       </c>
       <c r="E15" s="89" t="s">
-        <v>119</v>
-      </c>
-      <c r="F15" s="103" t="s">
+        <v>33</v>
+      </c>
+      <c r="F15" s="139" t="s">
         <v>119</v>
       </c>
       <c r="G15" s="99" t="s">
@@ -2082,7 +2079,7 @@
       <c r="D16" s="36"/>
       <c r="E16" s="36"/>
       <c r="F16" s="100"/>
-      <c r="G16" s="115" t="s">
+      <c r="G16" s="114" t="s">
         <v>125</v>
       </c>
       <c r="H16" s="20"/>
@@ -2113,9 +2110,9 @@
       </c>
       <c r="D18" s="98"/>
       <c r="E18" s="89" t="s">
-        <v>119</v>
-      </c>
-      <c r="F18" s="103" t="s">
+        <v>33</v>
+      </c>
+      <c r="F18" s="139" t="s">
         <v>119</v>
       </c>
       <c r="G18" s="99" t="s">
@@ -2134,7 +2131,7 @@
       <c r="D19" s="36"/>
       <c r="E19" s="36"/>
       <c r="F19" s="100"/>
-      <c r="G19" s="115" t="s">
+      <c r="G19" s="114" t="s">
         <v>123</v>
       </c>
       <c r="H19" s="20"/>
@@ -2259,8 +2256,8 @@
       <c r="C26" s="11"/>
       <c r="D26" s="20"/>
       <c r="E26" s="20"/>
-      <c r="F26" s="107"/>
-      <c r="G26" s="108"/>
+      <c r="F26" s="106"/>
+      <c r="G26" s="107"/>
       <c r="H26" s="20"/>
       <c r="I26" s="92"/>
       <c r="J26" s="24"/>
@@ -2276,15 +2273,15 @@
         <v>34</v>
       </c>
       <c r="D27" s="98"/>
-      <c r="E27" s="123" t="s">
+      <c r="E27" s="89" t="s">
         <v>33</v>
       </c>
-      <c r="F27" s="124" t="s">
+      <c r="F27" s="140" t="s">
         <v>140</v>
       </c>
-      <c r="G27" s="108"/>
+      <c r="G27" s="107"/>
       <c r="H27" s="20"/>
-      <c r="I27" s="125"/>
+      <c r="I27" s="122"/>
       <c r="J27" s="24"/>
     </row>
     <row r="28" spans="1:10" x14ac:dyDescent="0.2">
@@ -2293,8 +2290,8 @@
       <c r="C28" s="11"/>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
-      <c r="F28" s="107"/>
-      <c r="G28" s="108"/>
+      <c r="F28" s="106"/>
+      <c r="G28" s="107"/>
       <c r="H28" s="20"/>
       <c r="I28" s="92"/>
       <c r="J28" s="24"/>
@@ -2392,7 +2389,7 @@
       <c r="H33" s="94" t="s">
         <v>88</v>
       </c>
-      <c r="I33" s="126" t="s">
+      <c r="I33" s="123" t="s">
         <v>141</v>
       </c>
       <c r="J33" s="26"/>
@@ -2458,7 +2455,7 @@
       <c r="D37" s="7"/>
       <c r="E37" s="7"/>
       <c r="F37" s="32"/>
-      <c r="G37" s="117" t="s">
+      <c r="G37" s="116" t="s">
         <v>128</v>
       </c>
       <c r="H37" s="7"/>
@@ -2477,7 +2474,7 @@
       <c r="I38" s="27"/>
       <c r="J38" s="24"/>
     </row>
-    <row r="39" spans="1:10" s="106" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:10" s="105" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A39" s="5">
         <v>13</v>
       </c>
@@ -2487,49 +2484,49 @@
       <c r="C39" s="10">
         <v>29</v>
       </c>
-      <c r="D39" s="127" t="s">
+      <c r="D39" s="124" t="s">
         <v>94</v>
       </c>
       <c r="E39" s="73" t="s">
         <v>120</v>
       </c>
-      <c r="F39" s="113" t="s">
+      <c r="F39" s="112" t="s">
         <v>147</v>
       </c>
-      <c r="G39" s="104" t="s">
+      <c r="G39" s="103" t="s">
         <v>134</v>
       </c>
       <c r="H39" s="23" t="s">
         <v>67</v>
       </c>
       <c r="I39" s="76"/>
-      <c r="J39" s="105"/>
-    </row>
-    <row r="40" spans="1:10" s="106" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="J39" s="104"/>
+    </row>
+    <row r="40" spans="1:10" s="105" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A40" s="7"/>
       <c r="B40" s="92"/>
       <c r="C40" s="15"/>
       <c r="D40" s="36"/>
       <c r="E40" s="36"/>
-      <c r="F40" s="107"/>
-      <c r="G40" s="121" t="s">
+      <c r="F40" s="106"/>
+      <c r="G40" s="120" t="s">
         <v>135</v>
       </c>
       <c r="H40" s="20"/>
       <c r="I40" s="92"/>
-      <c r="J40" s="109"/>
-    </row>
-    <row r="41" spans="1:10" s="106" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="J40" s="108"/>
+    </row>
+    <row r="41" spans="1:10" s="105" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A41" s="9"/>
       <c r="B41" s="93"/>
       <c r="C41" s="16"/>
       <c r="D41" s="21"/>
       <c r="E41" s="21"/>
-      <c r="F41" s="110"/>
-      <c r="G41" s="111"/>
+      <c r="F41" s="109"/>
+      <c r="G41" s="110"/>
       <c r="H41" s="21"/>
       <c r="I41" s="93"/>
-      <c r="J41" s="112"/>
+      <c r="J41" s="111"/>
     </row>
     <row r="42" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A42" s="5">
@@ -2550,13 +2547,13 @@
       <c r="F42" s="84" t="s">
         <v>64</v>
       </c>
-      <c r="G42" s="104" t="s">
+      <c r="G42" s="103" t="s">
         <v>137</v>
       </c>
-      <c r="H42" s="141" t="s">
+      <c r="H42" s="125" t="s">
         <v>75</v>
       </c>
-      <c r="I42" s="114"/>
+      <c r="I42" s="113"/>
       <c r="J42" s="26"/>
     </row>
     <row r="43" spans="1:10" x14ac:dyDescent="0.2">
@@ -2565,8 +2562,8 @@
       <c r="C43" s="15"/>
       <c r="D43" s="36"/>
       <c r="E43" s="36"/>
-      <c r="F43" s="107"/>
-      <c r="G43" s="121" t="s">
+      <c r="F43" s="106"/>
+      <c r="G43" s="120" t="s">
         <v>138</v>
       </c>
       <c r="H43" s="20"/>
@@ -2579,8 +2576,8 @@
       <c r="C44" s="16"/>
       <c r="D44" s="21"/>
       <c r="E44" s="21"/>
-      <c r="F44" s="110"/>
-      <c r="G44" s="111"/>
+      <c r="F44" s="109"/>
+      <c r="G44" s="110"/>
       <c r="H44" s="21"/>
       <c r="I44" s="93"/>
       <c r="J44" s="25"/>
@@ -2604,11 +2601,11 @@
       <c r="F45" s="84" t="s">
         <v>64</v>
       </c>
-      <c r="G45" s="104"/>
-      <c r="H45" s="141" t="s">
+      <c r="G45" s="103"/>
+      <c r="H45" s="125" t="s">
         <v>145</v>
       </c>
-      <c r="I45" s="114"/>
+      <c r="I45" s="113"/>
       <c r="J45" s="26"/>
     </row>
     <row r="46" spans="1:10" x14ac:dyDescent="0.2">
@@ -2617,8 +2614,8 @@
       <c r="C46" s="15"/>
       <c r="D46" s="36"/>
       <c r="E46" s="36"/>
-      <c r="F46" s="107"/>
-      <c r="G46" s="108"/>
+      <c r="F46" s="106"/>
+      <c r="G46" s="107"/>
       <c r="H46" s="20"/>
       <c r="I46" s="92"/>
       <c r="J46" s="24"/>
@@ -2629,8 +2626,8 @@
       <c r="C47" s="16"/>
       <c r="D47" s="21"/>
       <c r="E47" s="21"/>
-      <c r="F47" s="110"/>
-      <c r="G47" s="111"/>
+      <c r="F47" s="109"/>
+      <c r="G47" s="110"/>
       <c r="H47" s="21"/>
       <c r="I47" s="93"/>
       <c r="J47" s="25"/>
@@ -2656,7 +2653,7 @@
       <c r="H48" s="5" t="s">
         <v>131</v>
       </c>
-      <c r="I48" s="119">
+      <c r="I48" s="118">
         <v>44287</v>
       </c>
       <c r="J48" s="26"/>
@@ -2700,9 +2697,7 @@
       <c r="D51" s="43" t="s">
         <v>106</v>
       </c>
-      <c r="E51" s="22">
-        <v>44237</v>
-      </c>
+      <c r="E51" s="22"/>
       <c r="F51" s="83"/>
       <c r="G51" s="66" t="s">
         <v>103</v>
@@ -2873,7 +2868,7 @@
   <dimension ref="A1:J71"/>
   <sheetViews>
     <sheetView topLeftCell="A31" zoomScale="85" zoomScaleNormal="85" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="A66" sqref="A66:XFD71"/>
+      <selection activeCell="E61" sqref="E61"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -2892,46 +2887,46 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="18" x14ac:dyDescent="0.2">
-      <c r="A1" s="137" t="s">
+      <c r="A1" s="135" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="137" t="s">
+      <c r="B1" s="135" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="137" t="s">
+      <c r="C1" s="135" t="s">
         <v>27</v>
       </c>
-      <c r="D1" s="137" t="s">
+      <c r="D1" s="135" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="137"/>
-      <c r="F1" s="139" t="s">
+      <c r="E1" s="135"/>
+      <c r="F1" s="137" t="s">
         <v>104</v>
       </c>
-      <c r="G1" s="137" t="s">
+      <c r="G1" s="135" t="s">
         <v>4</v>
       </c>
-      <c r="H1" s="135" t="s">
+      <c r="H1" s="133" t="s">
         <v>2</v>
       </c>
-      <c r="I1" s="128" t="s">
+      <c r="I1" s="126" t="s">
         <v>56</v>
       </c>
-      <c r="J1" s="128"/>
+      <c r="J1" s="126"/>
     </row>
     <row r="2" spans="1:10" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="138"/>
-      <c r="B2" s="138"/>
-      <c r="C2" s="138"/>
+      <c r="A2" s="136"/>
+      <c r="B2" s="136"/>
+      <c r="C2" s="136"/>
       <c r="D2" s="72" t="s">
         <v>6</v>
       </c>
       <c r="E2" s="19" t="s">
         <v>7</v>
       </c>
-      <c r="F2" s="140"/>
-      <c r="G2" s="138"/>
-      <c r="H2" s="136"/>
+      <c r="F2" s="138"/>
+      <c r="G2" s="136"/>
+      <c r="H2" s="134"/>
       <c r="I2" s="17" t="s">
         <v>6</v>
       </c>
@@ -3709,7 +3704,7 @@
       <c r="E42" s="14" t="s">
         <v>109</v>
       </c>
-      <c r="F42" s="116">
+      <c r="F42" s="115">
         <v>44501</v>
       </c>
       <c r="G42" s="65" t="s">
@@ -3764,7 +3759,7 @@
       <c r="D45" s="74" t="s">
         <v>105</v>
       </c>
-      <c r="E45" s="120" t="s">
+      <c r="E45" s="119" t="s">
         <v>132</v>
       </c>
       <c r="F45" s="77" t="s">
@@ -4057,7 +4052,7 @@
       <c r="E60" s="74" t="s">
         <v>109</v>
       </c>
-      <c r="F60" s="122" t="s">
+      <c r="F60" s="121" t="s">
         <v>139</v>
       </c>
       <c r="G60" s="66" t="s">

--- a/RENCANA BON VOYAGE.xlsx
+++ b/RENCANA BON VOYAGE.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Mapan\progress\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{780C2E16-0C78-4A92-B46F-482F2F504EA8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AFE39ADF-9F0A-4007-BA3F-F085046A2CB1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="293" uniqueCount="157">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="294" uniqueCount="158">
   <si>
     <t>NO</t>
   </si>
@@ -505,6 +505,9 @@
   </si>
   <si>
     <t>351 ORG</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
   </si>
 </sst>
 </file>
@@ -1014,6 +1017,12 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="15" fontId="2" fillId="5" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="2"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1052,12 +1061,6 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="15" fontId="2" fillId="5" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" indent="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="2"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1763,8 +1766,8 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:J63"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="85" zoomScaleNormal="85" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="Q45" sqref="Q45"/>
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="85" zoomScaleNormal="85" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="G50" sqref="G50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1783,46 +1786,46 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="15" x14ac:dyDescent="0.25">
-      <c r="A1" s="126" t="s">
+      <c r="A1" s="128" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="126" t="s">
+      <c r="B1" s="128" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="126" t="s">
+      <c r="C1" s="128" t="s">
         <v>27</v>
       </c>
-      <c r="D1" s="132" t="s">
+      <c r="D1" s="134" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="132"/>
-      <c r="F1" s="130" t="s">
+      <c r="E1" s="134"/>
+      <c r="F1" s="132" t="s">
         <v>8</v>
       </c>
-      <c r="G1" s="128" t="s">
+      <c r="G1" s="130" t="s">
         <v>4</v>
       </c>
-      <c r="H1" s="126" t="s">
+      <c r="H1" s="128" t="s">
         <v>2</v>
       </c>
-      <c r="I1" s="126" t="s">
+      <c r="I1" s="128" t="s">
         <v>56</v>
       </c>
-      <c r="J1" s="126"/>
+      <c r="J1" s="128"/>
     </row>
     <row r="2" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="127"/>
-      <c r="B2" s="127"/>
-      <c r="C2" s="127"/>
+      <c r="A2" s="129"/>
+      <c r="B2" s="129"/>
+      <c r="C2" s="129"/>
       <c r="D2" s="17" t="s">
         <v>6</v>
       </c>
       <c r="E2" s="17" t="s">
         <v>7</v>
       </c>
-      <c r="F2" s="131"/>
-      <c r="G2" s="129"/>
-      <c r="H2" s="127"/>
+      <c r="F2" s="133"/>
+      <c r="G2" s="131"/>
+      <c r="H2" s="129"/>
       <c r="I2" s="17" t="s">
         <v>6</v>
       </c>
@@ -2060,7 +2063,7 @@
       <c r="E15" s="89" t="s">
         <v>33</v>
       </c>
-      <c r="F15" s="139" t="s">
+      <c r="F15" s="126" t="s">
         <v>119</v>
       </c>
       <c r="G15" s="99" t="s">
@@ -2112,7 +2115,7 @@
       <c r="E18" s="89" t="s">
         <v>33</v>
       </c>
-      <c r="F18" s="139" t="s">
+      <c r="F18" s="126" t="s">
         <v>119</v>
       </c>
       <c r="G18" s="99" t="s">
@@ -2276,7 +2279,7 @@
       <c r="E27" s="89" t="s">
         <v>33</v>
       </c>
-      <c r="F27" s="140" t="s">
+      <c r="F27" s="127" t="s">
         <v>140</v>
       </c>
       <c r="G27" s="107"/>
@@ -2797,7 +2800,9 @@
       <c r="D58" s="2"/>
       <c r="E58" s="2"/>
       <c r="F58" s="81"/>
-      <c r="G58" s="81"/>
+      <c r="G58" s="81" t="s">
+        <v>157</v>
+      </c>
       <c r="H58" s="81"/>
     </row>
     <row r="59" spans="1:10" s="82" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -2887,46 +2892,46 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="18" x14ac:dyDescent="0.2">
-      <c r="A1" s="135" t="s">
+      <c r="A1" s="137" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="135" t="s">
+      <c r="B1" s="137" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="135" t="s">
+      <c r="C1" s="137" t="s">
         <v>27</v>
       </c>
-      <c r="D1" s="135" t="s">
+      <c r="D1" s="137" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="135"/>
-      <c r="F1" s="137" t="s">
+      <c r="E1" s="137"/>
+      <c r="F1" s="139" t="s">
         <v>104</v>
       </c>
-      <c r="G1" s="135" t="s">
+      <c r="G1" s="137" t="s">
         <v>4</v>
       </c>
-      <c r="H1" s="133" t="s">
+      <c r="H1" s="135" t="s">
         <v>2</v>
       </c>
-      <c r="I1" s="126" t="s">
+      <c r="I1" s="128" t="s">
         <v>56</v>
       </c>
-      <c r="J1" s="126"/>
+      <c r="J1" s="128"/>
     </row>
     <row r="2" spans="1:10" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="136"/>
-      <c r="B2" s="136"/>
-      <c r="C2" s="136"/>
+      <c r="A2" s="138"/>
+      <c r="B2" s="138"/>
+      <c r="C2" s="138"/>
       <c r="D2" s="72" t="s">
         <v>6</v>
       </c>
       <c r="E2" s="19" t="s">
         <v>7</v>
       </c>
-      <c r="F2" s="138"/>
-      <c r="G2" s="136"/>
-      <c r="H2" s="134"/>
+      <c r="F2" s="140"/>
+      <c r="G2" s="138"/>
+      <c r="H2" s="136"/>
       <c r="I2" s="17" t="s">
         <v>6</v>
       </c>

--- a/RENCANA BON VOYAGE.xlsx
+++ b/RENCANA BON VOYAGE.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="24527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="24701"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Mapan\progress\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AFE39ADF-9F0A-4007-BA3F-F085046A2CB1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{445C56F5-F82F-4BE0-B3EC-315F6B6349A3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="294" uniqueCount="158">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="296" uniqueCount="160">
   <si>
     <t>NO</t>
   </si>
@@ -508,6 +508,12 @@
   </si>
   <si>
     <t xml:space="preserve"> </t>
+  </si>
+  <si>
+    <t>44 ORG</t>
+  </si>
+  <si>
+    <t>DAVIQ</t>
   </si>
 </sst>
 </file>
@@ -1766,8 +1772,8 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:J63"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="85" zoomScaleNormal="85" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="G50" sqref="G50"/>
+    <sheetView tabSelected="1" topLeftCell="A25" zoomScale="85" zoomScaleNormal="85" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="G52" sqref="G52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -2282,8 +2288,12 @@
       <c r="F27" s="127" t="s">
         <v>140</v>
       </c>
-      <c r="G27" s="107"/>
-      <c r="H27" s="20"/>
+      <c r="G27" s="107" t="s">
+        <v>159</v>
+      </c>
+      <c r="H27" s="98" t="s">
+        <v>158</v>
+      </c>
       <c r="I27" s="122"/>
       <c r="J27" s="24"/>
     </row>
@@ -2294,7 +2304,9 @@
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
       <c r="F28" s="106"/>
-      <c r="G28" s="107"/>
+      <c r="G28" s="107">
+        <v>81211928369</v>
+      </c>
       <c r="H28" s="20"/>
       <c r="I28" s="92"/>
       <c r="J28" s="24"/>

--- a/RENCANA BON VOYAGE.xlsx
+++ b/RENCANA BON VOYAGE.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Mapan\progress\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{445C56F5-F82F-4BE0-B3EC-315F6B6349A3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DFC21169-3B77-4F5C-8CDF-D3B4239B6131}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="296" uniqueCount="160">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="295" uniqueCount="160">
   <si>
     <t>NO</t>
   </si>
@@ -456,9 +456,6 @@
     <t>10 NOV</t>
   </si>
   <si>
-    <t>29 JUNI</t>
-  </si>
-  <si>
     <t xml:space="preserve"> 25 NOV</t>
   </si>
   <si>
@@ -510,10 +507,13 @@
     <t xml:space="preserve"> </t>
   </si>
   <si>
-    <t>44 ORG</t>
-  </si>
-  <si>
     <t>DAVIQ</t>
+  </si>
+  <si>
+    <t>52 ORG</t>
+  </si>
+  <si>
+    <t>MEI 2021</t>
   </si>
 </sst>
 </file>
@@ -1772,8 +1772,8 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:J63"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" zoomScale="85" zoomScaleNormal="85" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="G52" sqref="G52"/>
+    <sheetView tabSelected="1" topLeftCell="A19" zoomScale="85" zoomScaleNormal="85" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="D55" sqref="D55"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1857,10 +1857,10 @@
         <v>64</v>
       </c>
       <c r="G3" s="99" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="H3" s="23" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="I3" s="113"/>
       <c r="J3" s="26"/>
@@ -1873,7 +1873,7 @@
       <c r="E4" s="20"/>
       <c r="F4" s="48"/>
       <c r="G4" s="114" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="H4" s="20"/>
       <c r="I4" s="92"/>
@@ -2076,7 +2076,7 @@
         <v>124</v>
       </c>
       <c r="H15" s="23" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="I15" s="76"/>
       <c r="J15" s="26"/>
@@ -2282,14 +2282,14 @@
         <v>34</v>
       </c>
       <c r="D27" s="98"/>
-      <c r="E27" s="89" t="s">
-        <v>33</v>
+      <c r="E27" s="89">
+        <v>44301</v>
       </c>
       <c r="F27" s="127" t="s">
-        <v>140</v>
+        <v>159</v>
       </c>
       <c r="G27" s="107" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="H27" s="98" t="s">
         <v>158</v>
@@ -2405,7 +2405,7 @@
         <v>88</v>
       </c>
       <c r="I33" s="123" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="J33" s="26"/>
     </row>
@@ -2506,7 +2506,7 @@
         <v>120</v>
       </c>
       <c r="F39" s="112" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="G39" s="103" t="s">
         <v>134</v>
@@ -2618,7 +2618,7 @@
       </c>
       <c r="G45" s="103"/>
       <c r="H45" s="125" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="I45" s="113"/>
       <c r="J45" s="26"/>
@@ -2776,10 +2776,10 @@
     <row r="56" spans="1:10" s="82" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A56" s="2"/>
       <c r="B56" s="82" t="s">
+        <v>147</v>
+      </c>
+      <c r="C56" s="82" t="s">
         <v>148</v>
-      </c>
-      <c r="C56" s="82" t="s">
-        <v>149</v>
       </c>
       <c r="D56" s="2"/>
       <c r="E56" s="2"/>
@@ -2790,7 +2790,7 @@
     <row r="57" spans="1:10" s="82" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A57" s="2"/>
       <c r="B57" s="80" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C57" s="2" t="s">
         <v>107</v>
@@ -2804,7 +2804,7 @@
     <row r="58" spans="1:10" s="82" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A58" s="2"/>
       <c r="B58" s="80" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="C58" s="2" t="s">
         <v>101</v>
@@ -2813,14 +2813,14 @@
       <c r="E58" s="2"/>
       <c r="F58" s="81"/>
       <c r="G58" s="81" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="H58" s="81"/>
     </row>
     <row r="59" spans="1:10" s="82" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A59" s="2"/>
       <c r="B59" s="80" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="C59" s="2" t="s">
         <v>68</v>
@@ -2844,15 +2844,15 @@
     </row>
     <row r="61" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B61" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="C61" s="1" t="s">
         <v>154</v>
-      </c>
-      <c r="C61" s="1" t="s">
-        <v>155</v>
       </c>
     </row>
     <row r="62" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B62" s="80" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="C62" s="2" t="s">
         <v>131</v>
@@ -2860,7 +2860,7 @@
     </row>
     <row r="63" spans="1:10" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
     </row>
   </sheetData>

--- a/RENCANA BON VOYAGE.xlsx
+++ b/RENCANA BON VOYAGE.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Mapan\progress\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DFC21169-3B77-4F5C-8CDF-D3B4239B6131}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1DD54902-6B12-4BA2-8775-5B8F5EA23871}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -18,7 +18,7 @@
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">done!$A$1:$I$2</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">progres!$A$1:$I$31</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">progres!$A$1:$I$28</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="295" uniqueCount="160">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="296" uniqueCount="161">
   <si>
     <t>NO</t>
   </si>
@@ -514,6 +514,9 @@
   </si>
   <si>
     <t>MEI 2021</t>
+  </si>
+  <si>
+    <t>14 DES</t>
   </si>
 </sst>
 </file>
@@ -660,13 +663,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="141">
+  <cellXfs count="140">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1156,13 +1158,13 @@
     <xdr:from>
       <xdr:col>14</xdr:col>
       <xdr:colOff>189939</xdr:colOff>
-      <xdr:row>29</xdr:row>
+      <xdr:row>26</xdr:row>
       <xdr:rowOff>89245</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>14</xdr:col>
       <xdr:colOff>190299</xdr:colOff>
-      <xdr:row>29</xdr:row>
+      <xdr:row>26</xdr:row>
       <xdr:rowOff>89605</xdr:rowOff>
     </xdr:to>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
@@ -1221,7 +1223,7 @@
     <xdr:from>
       <xdr:col>14</xdr:col>
       <xdr:colOff>189939</xdr:colOff>
-      <xdr:row>32</xdr:row>
+      <xdr:row>29</xdr:row>
       <xdr:rowOff>89245</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="360" cy="360"/>
@@ -1770,10 +1772,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:J63"/>
+  <dimension ref="A1:J60"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" zoomScale="85" zoomScaleNormal="85" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="D55" sqref="D55"/>
+    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="85" zoomScaleNormal="85" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="I26" sqref="I26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1783,1083 +1785,1027 @@
     <col min="3" max="3" width="9.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="17" style="2" customWidth="1"/>
     <col min="5" max="5" width="18.42578125" style="2" customWidth="1"/>
-    <col min="6" max="6" width="15.85546875" style="33" customWidth="1"/>
-    <col min="7" max="7" width="21.5703125" style="69" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.85546875" style="32" customWidth="1"/>
+    <col min="7" max="7" width="21.5703125" style="68" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="9.7109375" style="2" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="10.42578125" style="55" customWidth="1"/>
-    <col min="10" max="10" width="14" style="28" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="10.42578125" style="54" customWidth="1"/>
+    <col min="10" max="10" width="14" style="27" bestFit="1" customWidth="1"/>
     <col min="11" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="15" x14ac:dyDescent="0.25">
-      <c r="A1" s="128" t="s">
+      <c r="A1" s="127" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="128" t="s">
+      <c r="B1" s="127" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="128" t="s">
+      <c r="C1" s="127" t="s">
         <v>27</v>
       </c>
-      <c r="D1" s="134" t="s">
+      <c r="D1" s="133" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="134"/>
-      <c r="F1" s="132" t="s">
+      <c r="E1" s="133"/>
+      <c r="F1" s="131" t="s">
         <v>8</v>
       </c>
-      <c r="G1" s="130" t="s">
+      <c r="G1" s="129" t="s">
         <v>4</v>
       </c>
-      <c r="H1" s="128" t="s">
+      <c r="H1" s="127" t="s">
         <v>2</v>
       </c>
-      <c r="I1" s="128" t="s">
+      <c r="I1" s="127" t="s">
         <v>56</v>
       </c>
-      <c r="J1" s="128"/>
+      <c r="J1" s="127"/>
     </row>
     <row r="2" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="129"/>
-      <c r="B2" s="129"/>
-      <c r="C2" s="129"/>
-      <c r="D2" s="17" t="s">
+      <c r="A2" s="128"/>
+      <c r="B2" s="128"/>
+      <c r="C2" s="128"/>
+      <c r="D2" s="16" t="s">
         <v>6</v>
       </c>
-      <c r="E2" s="17" t="s">
+      <c r="E2" s="16" t="s">
         <v>7</v>
       </c>
-      <c r="F2" s="133"/>
-      <c r="G2" s="131"/>
-      <c r="H2" s="129"/>
-      <c r="I2" s="17" t="s">
+      <c r="F2" s="132"/>
+      <c r="G2" s="130"/>
+      <c r="H2" s="128"/>
+      <c r="I2" s="16" t="s">
         <v>6</v>
       </c>
-      <c r="J2" s="17" t="s">
+      <c r="J2" s="16" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="3" spans="1:10" ht="15" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="5">
+      <c r="A3" s="4">
         <v>1</v>
       </c>
-      <c r="B3" s="90" t="s">
+      <c r="B3" s="89" t="s">
         <v>5</v>
       </c>
-      <c r="C3" s="4">
+      <c r="C3" s="3">
         <v>11</v>
       </c>
-      <c r="D3" s="73"/>
-      <c r="E3" s="89" t="s">
+      <c r="D3" s="72"/>
+      <c r="E3" s="88" t="s">
         <v>115</v>
       </c>
-      <c r="F3" s="84" t="s">
+      <c r="F3" s="83" t="s">
         <v>64</v>
       </c>
-      <c r="G3" s="99" t="s">
+      <c r="G3" s="98" t="s">
         <v>142</v>
       </c>
-      <c r="H3" s="23" t="s">
+      <c r="H3" s="22" t="s">
         <v>141</v>
       </c>
-      <c r="I3" s="113"/>
-      <c r="J3" s="26"/>
+      <c r="I3" s="112"/>
+      <c r="J3" s="25"/>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A4" s="7"/>
-      <c r="B4" s="27"/>
-      <c r="C4" s="11"/>
-      <c r="D4" s="20"/>
-      <c r="E4" s="20"/>
-      <c r="F4" s="48"/>
-      <c r="G4" s="114" t="s">
+      <c r="A4" s="6"/>
+      <c r="B4" s="26"/>
+      <c r="C4" s="10"/>
+      <c r="D4" s="19"/>
+      <c r="E4" s="19"/>
+      <c r="F4" s="47"/>
+      <c r="G4" s="113" t="s">
         <v>143</v>
       </c>
-      <c r="H4" s="20"/>
-      <c r="I4" s="92"/>
-      <c r="J4" s="24"/>
+      <c r="H4" s="19"/>
+      <c r="I4" s="91"/>
+      <c r="J4" s="23"/>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A5" s="9"/>
-      <c r="B5" s="51"/>
-      <c r="C5" s="12"/>
-      <c r="D5" s="21"/>
-      <c r="E5" s="21"/>
-      <c r="F5" s="117"/>
-      <c r="G5" s="102"/>
-      <c r="H5" s="21"/>
-      <c r="I5" s="93"/>
-      <c r="J5" s="25"/>
+      <c r="A5" s="8"/>
+      <c r="B5" s="50"/>
+      <c r="C5" s="11"/>
+      <c r="D5" s="20"/>
+      <c r="E5" s="20"/>
+      <c r="F5" s="116"/>
+      <c r="G5" s="101"/>
+      <c r="H5" s="20"/>
+      <c r="I5" s="92"/>
+      <c r="J5" s="24"/>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A6" s="5">
+      <c r="A6" s="4">
         <v>2</v>
       </c>
-      <c r="B6" s="90" t="s">
+      <c r="B6" s="89" t="s">
         <v>9</v>
       </c>
-      <c r="C6" s="4">
+      <c r="C6" s="3">
         <v>11</v>
       </c>
-      <c r="D6" s="73"/>
-      <c r="E6" s="89" t="s">
+      <c r="D6" s="72"/>
+      <c r="E6" s="88" t="s">
         <v>115</v>
       </c>
-      <c r="F6" s="84" t="s">
+      <c r="F6" s="83" t="s">
         <v>64</v>
       </c>
-      <c r="G6" s="99"/>
-      <c r="H6" s="23" t="s">
+      <c r="G6" s="98"/>
+      <c r="H6" s="22" t="s">
         <v>77</v>
       </c>
-      <c r="I6" s="113"/>
-      <c r="J6" s="26"/>
+      <c r="I6" s="112"/>
+      <c r="J6" s="25"/>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A7" s="7"/>
-      <c r="B7" s="27"/>
-      <c r="C7" s="11"/>
-      <c r="D7" s="20"/>
-      <c r="E7" s="20"/>
-      <c r="F7" s="29"/>
-      <c r="G7" s="71" t="s">
+      <c r="A7" s="6"/>
+      <c r="B7" s="26"/>
+      <c r="C7" s="10"/>
+      <c r="D7" s="19"/>
+      <c r="E7" s="19"/>
+      <c r="F7" s="28"/>
+      <c r="G7" s="70" t="s">
         <v>99</v>
       </c>
-      <c r="H7" s="7"/>
-      <c r="I7" s="27"/>
-      <c r="J7" s="24"/>
+      <c r="H7" s="6"/>
+      <c r="I7" s="26"/>
+      <c r="J7" s="23"/>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A8" s="9"/>
-      <c r="B8" s="51"/>
-      <c r="C8" s="12"/>
-      <c r="D8" s="21"/>
-      <c r="E8" s="21"/>
-      <c r="F8" s="30"/>
-      <c r="G8" s="64"/>
-      <c r="H8" s="9"/>
-      <c r="I8" s="51"/>
-      <c r="J8" s="25"/>
+      <c r="A8" s="8"/>
+      <c r="B8" s="50"/>
+      <c r="C8" s="11"/>
+      <c r="D8" s="20"/>
+      <c r="E8" s="20"/>
+      <c r="F8" s="29"/>
+      <c r="G8" s="63"/>
+      <c r="H8" s="8"/>
+      <c r="I8" s="50"/>
+      <c r="J8" s="24"/>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A9" s="5">
+      <c r="A9" s="4">
         <v>3</v>
       </c>
-      <c r="B9" s="90" t="s">
+      <c r="B9" s="89" t="s">
         <v>10</v>
       </c>
-      <c r="C9" s="4">
+      <c r="C9" s="3">
         <v>17</v>
       </c>
-      <c r="D9" s="75" t="s">
+      <c r="D9" s="74" t="s">
         <v>106</v>
       </c>
-      <c r="E9" s="73">
+      <c r="E9" s="72">
         <v>44237</v>
       </c>
-      <c r="F9" s="84" t="s">
+      <c r="F9" s="83" t="s">
         <v>64</v>
       </c>
-      <c r="G9" s="65" t="s">
+      <c r="G9" s="64" t="s">
         <v>51</v>
       </c>
-      <c r="H9" s="5" t="s">
+      <c r="H9" s="4" t="s">
         <v>71</v>
       </c>
-      <c r="I9" s="53">
+      <c r="I9" s="52">
         <v>44449</v>
       </c>
-      <c r="J9" s="26"/>
+      <c r="J9" s="25"/>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A10" s="7"/>
-      <c r="B10" s="27"/>
-      <c r="C10" s="11"/>
-      <c r="D10" s="36"/>
-      <c r="E10" s="36"/>
-      <c r="F10" s="34"/>
-      <c r="G10" s="63">
+      <c r="A10" s="6"/>
+      <c r="B10" s="26"/>
+      <c r="C10" s="10"/>
+      <c r="D10" s="35"/>
+      <c r="E10" s="35"/>
+      <c r="F10" s="33"/>
+      <c r="G10" s="62">
         <v>81284663664</v>
       </c>
-      <c r="H10" s="7"/>
-      <c r="I10" s="27"/>
-      <c r="J10" s="24"/>
+      <c r="H10" s="6"/>
+      <c r="I10" s="26"/>
+      <c r="J10" s="23"/>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A11" s="9"/>
-      <c r="B11" s="51"/>
-      <c r="C11" s="12"/>
-      <c r="D11" s="21"/>
-      <c r="E11" s="21"/>
-      <c r="F11" s="37"/>
-      <c r="G11" s="64"/>
-      <c r="H11" s="9"/>
-      <c r="I11" s="51"/>
-      <c r="J11" s="25"/>
+      <c r="A11" s="8"/>
+      <c r="B11" s="50"/>
+      <c r="C11" s="11"/>
+      <c r="D11" s="20"/>
+      <c r="E11" s="20"/>
+      <c r="F11" s="36"/>
+      <c r="G11" s="63"/>
+      <c r="H11" s="8"/>
+      <c r="I11" s="50"/>
+      <c r="J11" s="24"/>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A12" s="5">
+      <c r="A12" s="4">
         <v>4</v>
       </c>
-      <c r="B12" s="90" t="s">
+      <c r="B12" s="89" t="s">
         <v>11</v>
       </c>
-      <c r="C12" s="4">
+      <c r="C12" s="3">
         <v>17</v>
       </c>
-      <c r="D12" s="75" t="s">
+      <c r="D12" s="74" t="s">
         <v>106</v>
       </c>
-      <c r="E12" s="73">
+      <c r="E12" s="72">
         <v>44237</v>
       </c>
-      <c r="F12" s="84" t="s">
+      <c r="F12" s="83" t="s">
         <v>64</v>
       </c>
-      <c r="G12" s="65" t="s">
+      <c r="G12" s="64" t="s">
         <v>47</v>
       </c>
-      <c r="H12" s="5" t="s">
+      <c r="H12" s="4" t="s">
         <v>72</v>
       </c>
-      <c r="I12" s="53">
+      <c r="I12" s="52">
         <v>44449</v>
       </c>
-      <c r="J12" s="26"/>
+      <c r="J12" s="25"/>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A13" s="7"/>
-      <c r="B13" s="27"/>
-      <c r="C13" s="11"/>
-      <c r="D13" s="36"/>
-      <c r="E13" s="36"/>
-      <c r="F13" s="34"/>
-      <c r="G13" s="63">
+      <c r="A13" s="6"/>
+      <c r="B13" s="26"/>
+      <c r="C13" s="10"/>
+      <c r="D13" s="35"/>
+      <c r="E13" s="35"/>
+      <c r="F13" s="33"/>
+      <c r="G13" s="62">
         <v>85740346667</v>
       </c>
-      <c r="H13" s="7"/>
-      <c r="I13" s="27"/>
-      <c r="J13" s="24"/>
+      <c r="H13" s="6"/>
+      <c r="I13" s="26"/>
+      <c r="J13" s="23"/>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A14" s="9"/>
-      <c r="B14" s="51"/>
-      <c r="C14" s="12"/>
-      <c r="D14" s="21"/>
-      <c r="E14" s="21"/>
-      <c r="F14" s="37"/>
-      <c r="G14" s="64"/>
-      <c r="H14" s="9"/>
-      <c r="I14" s="51"/>
-      <c r="J14" s="25"/>
+      <c r="A14" s="8"/>
+      <c r="B14" s="50"/>
+      <c r="C14" s="11"/>
+      <c r="D14" s="20"/>
+      <c r="E14" s="20"/>
+      <c r="F14" s="36"/>
+      <c r="G14" s="63"/>
+      <c r="H14" s="8"/>
+      <c r="I14" s="50"/>
+      <c r="J14" s="24"/>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A15" s="5">
+      <c r="A15" s="4">
         <v>5</v>
       </c>
-      <c r="B15" s="90" t="s">
+      <c r="B15" s="89" t="s">
         <v>10</v>
       </c>
-      <c r="C15" s="4">
+      <c r="C15" s="3">
         <v>18</v>
       </c>
-      <c r="D15" s="98" t="s">
+      <c r="D15" s="97" t="s">
         <v>118</v>
       </c>
-      <c r="E15" s="89" t="s">
+      <c r="E15" s="88" t="s">
         <v>33</v>
       </c>
-      <c r="F15" s="126" t="s">
+      <c r="F15" s="125" t="s">
         <v>119</v>
       </c>
-      <c r="G15" s="99" t="s">
+      <c r="G15" s="98" t="s">
         <v>124</v>
       </c>
-      <c r="H15" s="23" t="s">
+      <c r="H15" s="22" t="s">
         <v>145</v>
       </c>
-      <c r="I15" s="76"/>
-      <c r="J15" s="26"/>
+      <c r="I15" s="75"/>
+      <c r="J15" s="25"/>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A16" s="7"/>
-      <c r="B16" s="27"/>
-      <c r="C16" s="11"/>
-      <c r="D16" s="36"/>
-      <c r="E16" s="36"/>
-      <c r="F16" s="100"/>
-      <c r="G16" s="114" t="s">
+      <c r="A16" s="6"/>
+      <c r="B16" s="26"/>
+      <c r="C16" s="10"/>
+      <c r="D16" s="35"/>
+      <c r="E16" s="35"/>
+      <c r="F16" s="99"/>
+      <c r="G16" s="113" t="s">
         <v>125</v>
       </c>
-      <c r="H16" s="20"/>
-      <c r="I16" s="92"/>
-      <c r="J16" s="24"/>
+      <c r="H16" s="19"/>
+      <c r="I16" s="91"/>
+      <c r="J16" s="23"/>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A17" s="9"/>
-      <c r="B17" s="51"/>
-      <c r="C17" s="12"/>
-      <c r="D17" s="21"/>
-      <c r="E17" s="21"/>
-      <c r="F17" s="101"/>
-      <c r="G17" s="102"/>
-      <c r="H17" s="21"/>
-      <c r="I17" s="93"/>
-      <c r="J17" s="25"/>
+      <c r="A17" s="8"/>
+      <c r="B17" s="50"/>
+      <c r="C17" s="11"/>
+      <c r="D17" s="20"/>
+      <c r="E17" s="20"/>
+      <c r="F17" s="100"/>
+      <c r="G17" s="101"/>
+      <c r="H17" s="20"/>
+      <c r="I17" s="92"/>
+      <c r="J17" s="24"/>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A18" s="5">
+      <c r="A18" s="4">
         <v>6</v>
       </c>
-      <c r="B18" s="90" t="s">
+      <c r="B18" s="89" t="s">
         <v>11</v>
       </c>
-      <c r="C18" s="4">
+      <c r="C18" s="3">
         <v>18</v>
       </c>
-      <c r="D18" s="98"/>
-      <c r="E18" s="89" t="s">
+      <c r="D18" s="97"/>
+      <c r="E18" s="88" t="s">
         <v>33</v>
       </c>
-      <c r="F18" s="126" t="s">
+      <c r="F18" s="125" t="s">
         <v>119</v>
       </c>
-      <c r="G18" s="99" t="s">
+      <c r="G18" s="98" t="s">
         <v>122</v>
       </c>
-      <c r="H18" s="23" t="s">
+      <c r="H18" s="22" t="s">
         <v>71</v>
       </c>
-      <c r="I18" s="76"/>
-      <c r="J18" s="26"/>
+      <c r="I18" s="75"/>
+      <c r="J18" s="25"/>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A19" s="7"/>
-      <c r="B19" s="27"/>
-      <c r="C19" s="11"/>
-      <c r="D19" s="36"/>
-      <c r="E19" s="36"/>
-      <c r="F19" s="100"/>
-      <c r="G19" s="114" t="s">
+      <c r="A19" s="6"/>
+      <c r="B19" s="26"/>
+      <c r="C19" s="10"/>
+      <c r="D19" s="35"/>
+      <c r="E19" s="35"/>
+      <c r="F19" s="99"/>
+      <c r="G19" s="113" t="s">
         <v>123</v>
       </c>
-      <c r="H19" s="20"/>
-      <c r="I19" s="92"/>
-      <c r="J19" s="24"/>
+      <c r="H19" s="19"/>
+      <c r="I19" s="91"/>
+      <c r="J19" s="23"/>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A20" s="9"/>
-      <c r="B20" s="51"/>
-      <c r="C20" s="12"/>
-      <c r="D20" s="21"/>
-      <c r="E20" s="21"/>
-      <c r="F20" s="101"/>
-      <c r="G20" s="102"/>
-      <c r="H20" s="21"/>
-      <c r="I20" s="93"/>
-      <c r="J20" s="25"/>
+      <c r="A20" s="8"/>
+      <c r="B20" s="50"/>
+      <c r="C20" s="11"/>
+      <c r="D20" s="20"/>
+      <c r="E20" s="20"/>
+      <c r="F20" s="100"/>
+      <c r="G20" s="101"/>
+      <c r="H20" s="20"/>
+      <c r="I20" s="92"/>
+      <c r="J20" s="24"/>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A21" s="5">
-        <v>7</v>
-      </c>
-      <c r="B21" s="90" t="s">
+      <c r="A21" s="4">
+        <v>8</v>
+      </c>
+      <c r="B21" s="89" t="s">
         <v>13</v>
       </c>
-      <c r="C21" s="4">
-        <v>32</v>
-      </c>
-      <c r="D21" s="14" t="s">
-        <v>43</v>
-      </c>
-      <c r="E21" s="74" t="s">
-        <v>130</v>
-      </c>
-      <c r="F21" s="78" t="s">
-        <v>44</v>
+      <c r="C21" s="3">
+        <v>33</v>
+      </c>
+      <c r="D21" s="74" t="s">
+        <v>106</v>
+      </c>
+      <c r="E21" s="72">
+        <v>44237</v>
+      </c>
+      <c r="F21" s="83" t="s">
+        <v>64</v>
       </c>
       <c r="G21" s="66" t="s">
-        <v>45</v>
-      </c>
-      <c r="H21" s="5" t="s">
+        <v>100</v>
+      </c>
+      <c r="H21" s="6" t="s">
+        <v>101</v>
+      </c>
+      <c r="I21" s="95" t="s">
+        <v>112</v>
+      </c>
+      <c r="J21" s="23"/>
+    </row>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A22" s="6"/>
+      <c r="B22" s="26"/>
+      <c r="C22" s="10"/>
+      <c r="D22" s="6"/>
+      <c r="E22" s="6"/>
+      <c r="F22" s="31"/>
+      <c r="G22" s="66">
+        <v>81235748714</v>
+      </c>
+      <c r="H22" s="6"/>
+      <c r="I22" s="26"/>
+      <c r="J22" s="23"/>
+    </row>
+    <row r="23" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A23" s="8"/>
+      <c r="B23" s="26"/>
+      <c r="C23" s="10"/>
+      <c r="D23" s="19"/>
+      <c r="E23" s="19"/>
+      <c r="F23" s="105"/>
+      <c r="G23" s="106"/>
+      <c r="H23" s="19"/>
+      <c r="I23" s="91"/>
+      <c r="J23" s="23"/>
+    </row>
+    <row r="24" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A24" s="4">
+        <v>9</v>
+      </c>
+      <c r="B24" s="89" t="s">
+        <v>13</v>
+      </c>
+      <c r="C24" s="3">
+        <v>34</v>
+      </c>
+      <c r="D24" s="97"/>
+      <c r="E24" s="88">
+        <v>44301</v>
+      </c>
+      <c r="F24" s="126" t="s">
+        <v>159</v>
+      </c>
+      <c r="G24" s="106" t="s">
+        <v>157</v>
+      </c>
+      <c r="H24" s="97" t="s">
+        <v>158</v>
+      </c>
+      <c r="I24" s="121"/>
+      <c r="J24" s="23"/>
+    </row>
+    <row r="25" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A25" s="6"/>
+      <c r="B25" s="26"/>
+      <c r="C25" s="10"/>
+      <c r="D25" s="19"/>
+      <c r="E25" s="19"/>
+      <c r="F25" s="105"/>
+      <c r="G25" s="106">
+        <v>81211928369</v>
+      </c>
+      <c r="H25" s="19"/>
+      <c r="I25" s="91"/>
+      <c r="J25" s="23"/>
+    </row>
+    <row r="26" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A26" s="6"/>
+      <c r="B26" s="26"/>
+      <c r="C26" s="10"/>
+      <c r="D26" s="6"/>
+      <c r="E26" s="6"/>
+      <c r="F26" s="31"/>
+      <c r="G26" s="66"/>
+      <c r="H26" s="6"/>
+      <c r="I26" s="26"/>
+      <c r="J26" s="23"/>
+    </row>
+    <row r="27" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A27" s="4">
+        <v>10</v>
+      </c>
+      <c r="B27" s="89" t="s">
+        <v>12</v>
+      </c>
+      <c r="C27" s="3">
+        <v>26</v>
+      </c>
+      <c r="D27" s="13" t="s">
+        <v>39</v>
+      </c>
+      <c r="E27" s="72">
+        <v>44237</v>
+      </c>
+      <c r="F27" s="83" t="s">
+        <v>64</v>
+      </c>
+      <c r="G27" s="64" t="s">
+        <v>60</v>
+      </c>
+      <c r="H27" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="I27" s="52">
+        <v>44440</v>
+      </c>
+      <c r="J27" s="25"/>
+    </row>
+    <row r="28" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A28" s="6"/>
+      <c r="B28" s="26"/>
+      <c r="C28" s="10"/>
+      <c r="D28" s="6"/>
+      <c r="E28" s="45"/>
+      <c r="F28" s="28"/>
+      <c r="G28" s="62">
+        <v>85732094240</v>
+      </c>
+      <c r="H28" s="6"/>
+      <c r="I28" s="26"/>
+      <c r="J28" s="23"/>
+    </row>
+    <row r="29" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A29" s="8"/>
+      <c r="B29" s="50"/>
+      <c r="C29" s="7"/>
+      <c r="D29" s="8"/>
+      <c r="E29" s="8"/>
+      <c r="F29" s="29"/>
+      <c r="G29" s="63"/>
+      <c r="H29" s="8"/>
+      <c r="I29" s="50"/>
+      <c r="J29" s="24"/>
+    </row>
+    <row r="30" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A30" s="4">
+        <v>11</v>
+      </c>
+      <c r="B30" s="89" t="s">
+        <v>12</v>
+      </c>
+      <c r="C30" s="3">
+        <v>27</v>
+      </c>
+      <c r="D30" s="13" t="s">
+        <v>114</v>
+      </c>
+      <c r="E30" s="88" t="s">
+        <v>117</v>
+      </c>
+      <c r="F30" s="94" t="s">
+        <v>116</v>
+      </c>
+      <c r="G30" s="64" t="s">
+        <v>110</v>
+      </c>
+      <c r="H30" s="93" t="s">
+        <v>88</v>
+      </c>
+      <c r="I30" s="122" t="s">
+        <v>140</v>
+      </c>
+      <c r="J30" s="25"/>
+    </row>
+    <row r="31" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A31" s="6"/>
+      <c r="B31" s="26"/>
+      <c r="C31" s="10"/>
+      <c r="D31" s="6"/>
+      <c r="E31" s="45"/>
+      <c r="F31" s="28"/>
+      <c r="G31" s="70" t="s">
+        <v>111</v>
+      </c>
+      <c r="H31" s="6"/>
+      <c r="I31" s="26"/>
+      <c r="J31" s="23"/>
+    </row>
+    <row r="32" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A32" s="8"/>
+      <c r="B32" s="50"/>
+      <c r="C32" s="7"/>
+      <c r="D32" s="8"/>
+      <c r="E32" s="8"/>
+      <c r="F32" s="29"/>
+      <c r="G32" s="63"/>
+      <c r="H32" s="8"/>
+      <c r="I32" s="50"/>
+      <c r="J32" s="24"/>
+    </row>
+    <row r="33" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A33" s="4">
+        <v>12</v>
+      </c>
+      <c r="B33" s="89" t="s">
+        <v>14</v>
+      </c>
+      <c r="C33" s="3">
+        <v>34</v>
+      </c>
+      <c r="D33" s="74" t="s">
+        <v>126</v>
+      </c>
+      <c r="E33" s="96" t="s">
+        <v>115</v>
+      </c>
+      <c r="F33" s="83" t="s">
+        <v>64</v>
+      </c>
+      <c r="G33" s="66" t="s">
+        <v>127</v>
+      </c>
+      <c r="H33" s="6" t="s">
         <v>74</v>
       </c>
-      <c r="I21" s="53">
-        <v>44440</v>
-      </c>
-      <c r="J21" s="26"/>
-    </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A22" s="7"/>
-      <c r="B22" s="27"/>
-      <c r="C22" s="11"/>
-      <c r="D22" s="44"/>
-      <c r="E22" s="44"/>
-      <c r="F22" s="32"/>
-      <c r="G22" s="67">
-        <v>81333524165</v>
-      </c>
-      <c r="H22" s="7"/>
-      <c r="I22" s="27"/>
-      <c r="J22" s="24"/>
-    </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A23" s="9"/>
-      <c r="B23" s="51"/>
-      <c r="C23" s="12"/>
-      <c r="D23" s="9"/>
-      <c r="E23" s="9"/>
-      <c r="F23" s="45"/>
-      <c r="G23" s="68"/>
-      <c r="H23" s="9"/>
-      <c r="I23" s="51"/>
-      <c r="J23" s="25"/>
-    </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A24" s="5">
-        <v>8</v>
-      </c>
-      <c r="B24" s="90" t="s">
+      <c r="I33" s="26"/>
+      <c r="J33" s="23"/>
+    </row>
+    <row r="34" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A34" s="6"/>
+      <c r="B34" s="26"/>
+      <c r="C34" s="10"/>
+      <c r="D34" s="6"/>
+      <c r="E34" s="6"/>
+      <c r="F34" s="31"/>
+      <c r="G34" s="115" t="s">
+        <v>128</v>
+      </c>
+      <c r="H34" s="6"/>
+      <c r="I34" s="26"/>
+      <c r="J34" s="23"/>
+    </row>
+    <row r="35" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A35" s="8"/>
+      <c r="B35" s="26"/>
+      <c r="C35" s="10"/>
+      <c r="D35" s="6"/>
+      <c r="E35" s="6"/>
+      <c r="F35" s="31"/>
+      <c r="G35" s="66"/>
+      <c r="H35" s="6"/>
+      <c r="I35" s="26"/>
+      <c r="J35" s="23"/>
+    </row>
+    <row r="36" spans="1:10" s="104" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A36" s="4">
         <v>13</v>
       </c>
-      <c r="C24" s="4">
-        <v>33</v>
-      </c>
-      <c r="D24" s="75" t="s">
+      <c r="B36" s="90" t="s">
+        <v>15</v>
+      </c>
+      <c r="C36" s="9">
+        <v>29</v>
+      </c>
+      <c r="D36" s="123" t="s">
+        <v>94</v>
+      </c>
+      <c r="E36" s="72" t="s">
+        <v>120</v>
+      </c>
+      <c r="F36" s="111" t="s">
+        <v>146</v>
+      </c>
+      <c r="G36" s="102" t="s">
+        <v>134</v>
+      </c>
+      <c r="H36" s="22" t="s">
+        <v>67</v>
+      </c>
+      <c r="I36" s="75"/>
+      <c r="J36" s="103"/>
+    </row>
+    <row r="37" spans="1:10" s="104" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A37" s="6"/>
+      <c r="B37" s="91"/>
+      <c r="C37" s="14"/>
+      <c r="D37" s="35"/>
+      <c r="E37" s="35"/>
+      <c r="F37" s="105"/>
+      <c r="G37" s="119" t="s">
+        <v>135</v>
+      </c>
+      <c r="H37" s="19"/>
+      <c r="I37" s="91"/>
+      <c r="J37" s="107"/>
+    </row>
+    <row r="38" spans="1:10" s="104" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A38" s="8"/>
+      <c r="B38" s="92"/>
+      <c r="C38" s="15"/>
+      <c r="D38" s="20"/>
+      <c r="E38" s="20"/>
+      <c r="F38" s="108"/>
+      <c r="G38" s="109"/>
+      <c r="H38" s="20"/>
+      <c r="I38" s="92"/>
+      <c r="J38" s="110"/>
+    </row>
+    <row r="39" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A39" s="4">
+        <v>14</v>
+      </c>
+      <c r="B39" s="89" t="s">
+        <v>16</v>
+      </c>
+      <c r="C39" s="9">
+        <v>41</v>
+      </c>
+      <c r="D39" s="73" t="s">
+        <v>136</v>
+      </c>
+      <c r="E39" s="72">
+        <v>44237</v>
+      </c>
+      <c r="F39" s="83" t="s">
+        <v>64</v>
+      </c>
+      <c r="G39" s="102" t="s">
+        <v>137</v>
+      </c>
+      <c r="H39" s="124" t="s">
+        <v>75</v>
+      </c>
+      <c r="I39" s="112"/>
+      <c r="J39" s="25"/>
+    </row>
+    <row r="40" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A40" s="6"/>
+      <c r="B40" s="26"/>
+      <c r="C40" s="14"/>
+      <c r="D40" s="35"/>
+      <c r="E40" s="35"/>
+      <c r="F40" s="105"/>
+      <c r="G40" s="119" t="s">
+        <v>138</v>
+      </c>
+      <c r="H40" s="19"/>
+      <c r="I40" s="91"/>
+      <c r="J40" s="23"/>
+    </row>
+    <row r="41" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A41" s="8"/>
+      <c r="B41" s="50"/>
+      <c r="C41" s="15"/>
+      <c r="D41" s="20"/>
+      <c r="E41" s="20"/>
+      <c r="F41" s="108"/>
+      <c r="G41" s="109"/>
+      <c r="H41" s="20"/>
+      <c r="I41" s="92"/>
+      <c r="J41" s="24"/>
+    </row>
+    <row r="42" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A42" s="4">
+        <v>15</v>
+      </c>
+      <c r="B42" s="89" t="s">
+        <v>18</v>
+      </c>
+      <c r="C42" s="9">
+        <v>41</v>
+      </c>
+      <c r="D42" s="73" t="s">
+        <v>136</v>
+      </c>
+      <c r="E42" s="72">
+        <v>44237</v>
+      </c>
+      <c r="F42" s="83" t="s">
+        <v>64</v>
+      </c>
+      <c r="G42" s="102"/>
+      <c r="H42" s="124" t="s">
+        <v>144</v>
+      </c>
+      <c r="I42" s="112"/>
+      <c r="J42" s="25"/>
+    </row>
+    <row r="43" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A43" s="6"/>
+      <c r="B43" s="26"/>
+      <c r="C43" s="14"/>
+      <c r="D43" s="35"/>
+      <c r="E43" s="35"/>
+      <c r="F43" s="105"/>
+      <c r="G43" s="106"/>
+      <c r="H43" s="19"/>
+      <c r="I43" s="91"/>
+      <c r="J43" s="23"/>
+    </row>
+    <row r="44" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A44" s="8"/>
+      <c r="B44" s="50"/>
+      <c r="C44" s="15"/>
+      <c r="D44" s="20"/>
+      <c r="E44" s="20"/>
+      <c r="F44" s="108"/>
+      <c r="G44" s="109"/>
+      <c r="H44" s="20"/>
+      <c r="I44" s="92"/>
+      <c r="J44" s="24"/>
+    </row>
+    <row r="45" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A45" s="4">
+        <v>16</v>
+      </c>
+      <c r="B45" s="25" t="s">
+        <v>96</v>
+      </c>
+      <c r="C45" s="3">
+        <v>4</v>
+      </c>
+      <c r="D45" s="42" t="s">
+        <v>121</v>
+      </c>
+      <c r="E45" s="21"/>
+      <c r="F45" s="83" t="s">
+        <v>64</v>
+      </c>
+      <c r="G45" s="65"/>
+      <c r="H45" s="4" t="s">
+        <v>131</v>
+      </c>
+      <c r="I45" s="117">
+        <v>44287</v>
+      </c>
+      <c r="J45" s="25"/>
+    </row>
+    <row r="46" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A46" s="6"/>
+      <c r="B46" s="23"/>
+      <c r="C46" s="10"/>
+      <c r="D46" s="43"/>
+      <c r="E46" s="43"/>
+      <c r="F46" s="31"/>
+      <c r="G46" s="66">
+        <v>8123522575</v>
+      </c>
+      <c r="H46" s="6"/>
+      <c r="I46" s="26"/>
+      <c r="J46" s="23"/>
+    </row>
+    <row r="47" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A47" s="8"/>
+      <c r="B47" s="24"/>
+      <c r="C47" s="11"/>
+      <c r="D47" s="8"/>
+      <c r="E47" s="8"/>
+      <c r="F47" s="44"/>
+      <c r="G47" s="67"/>
+      <c r="H47" s="8"/>
+      <c r="I47" s="50"/>
+      <c r="J47" s="24"/>
+    </row>
+    <row r="48" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A48" s="4">
+        <v>17</v>
+      </c>
+      <c r="B48" s="25" t="s">
+        <v>96</v>
+      </c>
+      <c r="C48" s="3">
+        <v>5</v>
+      </c>
+      <c r="D48" s="42" t="s">
         <v>106</v>
       </c>
-      <c r="E24" s="73">
-        <v>44237</v>
-      </c>
-      <c r="F24" s="84" t="s">
-        <v>64</v>
-      </c>
-      <c r="G24" s="67" t="s">
-        <v>100</v>
-      </c>
-      <c r="H24" s="7" t="s">
-        <v>101</v>
-      </c>
-      <c r="I24" s="96" t="s">
+      <c r="E48" s="21"/>
+      <c r="F48" s="82"/>
+      <c r="G48" s="65" t="s">
+        <v>103</v>
+      </c>
+      <c r="H48" s="4" t="s">
+        <v>102</v>
+      </c>
+      <c r="I48" s="95" t="s">
         <v>112</v>
       </c>
-      <c r="J24" s="24"/>
-    </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A25" s="7"/>
-      <c r="B25" s="27"/>
-      <c r="C25" s="11"/>
-      <c r="D25" s="7"/>
-      <c r="E25" s="7"/>
-      <c r="F25" s="32"/>
-      <c r="G25" s="67">
-        <v>81235748714</v>
-      </c>
-      <c r="H25" s="7"/>
-      <c r="I25" s="27"/>
-      <c r="J25" s="24"/>
-    </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A26" s="9"/>
-      <c r="B26" s="27"/>
-      <c r="C26" s="11"/>
-      <c r="D26" s="20"/>
-      <c r="E26" s="20"/>
-      <c r="F26" s="106"/>
-      <c r="G26" s="107"/>
-      <c r="H26" s="20"/>
-      <c r="I26" s="92"/>
-      <c r="J26" s="24"/>
-    </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A27" s="5">
-        <v>9</v>
-      </c>
-      <c r="B27" s="90" t="s">
-        <v>13</v>
-      </c>
-      <c r="C27" s="4">
-        <v>34</v>
-      </c>
-      <c r="D27" s="98"/>
-      <c r="E27" s="89">
-        <v>44301</v>
-      </c>
-      <c r="F27" s="127" t="s">
-        <v>159</v>
-      </c>
-      <c r="G27" s="107" t="s">
-        <v>157</v>
-      </c>
-      <c r="H27" s="98" t="s">
-        <v>158</v>
-      </c>
-      <c r="I27" s="122"/>
-      <c r="J27" s="24"/>
-    </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A28" s="7"/>
-      <c r="B28" s="27"/>
-      <c r="C28" s="11"/>
-      <c r="D28" s="20"/>
-      <c r="E28" s="20"/>
-      <c r="F28" s="106"/>
-      <c r="G28" s="107">
-        <v>81211928369</v>
-      </c>
-      <c r="H28" s="20"/>
-      <c r="I28" s="92"/>
-      <c r="J28" s="24"/>
-    </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A29" s="7"/>
-      <c r="B29" s="27"/>
-      <c r="C29" s="11"/>
-      <c r="D29" s="7"/>
-      <c r="E29" s="7"/>
-      <c r="F29" s="32"/>
-      <c r="G29" s="67"/>
-      <c r="H29" s="7"/>
-      <c r="I29" s="27"/>
-      <c r="J29" s="24"/>
-    </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A30" s="5">
-        <v>10</v>
-      </c>
-      <c r="B30" s="90" t="s">
-        <v>12</v>
-      </c>
-      <c r="C30" s="4">
-        <v>26</v>
-      </c>
-      <c r="D30" s="14" t="s">
-        <v>39</v>
-      </c>
-      <c r="E30" s="73">
-        <v>44237</v>
-      </c>
-      <c r="F30" s="84" t="s">
-        <v>64</v>
-      </c>
-      <c r="G30" s="65" t="s">
-        <v>60</v>
-      </c>
-      <c r="H30" s="5" t="s">
-        <v>68</v>
-      </c>
-      <c r="I30" s="53">
-        <v>44440</v>
-      </c>
-      <c r="J30" s="26"/>
-    </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A31" s="7"/>
-      <c r="B31" s="27"/>
-      <c r="C31" s="11"/>
-      <c r="D31" s="7"/>
-      <c r="E31" s="46"/>
-      <c r="F31" s="29"/>
-      <c r="G31" s="63">
-        <v>85732094240</v>
-      </c>
-      <c r="H31" s="7"/>
-      <c r="I31" s="27"/>
-      <c r="J31" s="24"/>
-    </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A32" s="9"/>
-      <c r="B32" s="51"/>
-      <c r="C32" s="8"/>
-      <c r="D32" s="9"/>
-      <c r="E32" s="9"/>
-      <c r="F32" s="30"/>
-      <c r="G32" s="64"/>
-      <c r="H32" s="9"/>
-      <c r="I32" s="51"/>
-      <c r="J32" s="25"/>
-    </row>
-    <row r="33" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A33" s="5">
-        <v>11</v>
-      </c>
-      <c r="B33" s="90" t="s">
-        <v>12</v>
-      </c>
-      <c r="C33" s="4">
-        <v>27</v>
-      </c>
-      <c r="D33" s="14" t="s">
-        <v>114</v>
-      </c>
-      <c r="E33" s="89" t="s">
-        <v>117</v>
-      </c>
-      <c r="F33" s="95" t="s">
-        <v>116</v>
-      </c>
-      <c r="G33" s="65" t="s">
-        <v>110</v>
-      </c>
-      <c r="H33" s="94" t="s">
-        <v>88</v>
-      </c>
-      <c r="I33" s="123" t="s">
-        <v>140</v>
-      </c>
-      <c r="J33" s="26"/>
-    </row>
-    <row r="34" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A34" s="7"/>
-      <c r="B34" s="27"/>
-      <c r="C34" s="11"/>
-      <c r="D34" s="7"/>
-      <c r="E34" s="46"/>
-      <c r="F34" s="29"/>
-      <c r="G34" s="71" t="s">
-        <v>111</v>
-      </c>
-      <c r="H34" s="7"/>
-      <c r="I34" s="27"/>
-      <c r="J34" s="24"/>
-    </row>
-    <row r="35" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A35" s="9"/>
-      <c r="B35" s="51"/>
-      <c r="C35" s="8"/>
-      <c r="D35" s="9"/>
-      <c r="E35" s="9"/>
-      <c r="F35" s="30"/>
-      <c r="G35" s="64"/>
-      <c r="H35" s="9"/>
-      <c r="I35" s="51"/>
-      <c r="J35" s="25"/>
-    </row>
-    <row r="36" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A36" s="5">
-        <v>12</v>
-      </c>
-      <c r="B36" s="90" t="s">
-        <v>14</v>
-      </c>
-      <c r="C36" s="4">
-        <v>34</v>
-      </c>
-      <c r="D36" s="75" t="s">
-        <v>126</v>
-      </c>
-      <c r="E36" s="97" t="s">
-        <v>115</v>
-      </c>
-      <c r="F36" s="84" t="s">
-        <v>64</v>
-      </c>
-      <c r="G36" s="67" t="s">
-        <v>127</v>
-      </c>
-      <c r="H36" s="7" t="s">
-        <v>74</v>
-      </c>
-      <c r="I36" s="27"/>
-      <c r="J36" s="24"/>
-    </row>
-    <row r="37" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A37" s="7"/>
-      <c r="B37" s="27"/>
-      <c r="C37" s="11"/>
-      <c r="D37" s="7"/>
-      <c r="E37" s="7"/>
-      <c r="F37" s="32"/>
-      <c r="G37" s="116" t="s">
-        <v>128</v>
-      </c>
-      <c r="H37" s="7"/>
-      <c r="I37" s="27"/>
-      <c r="J37" s="24"/>
-    </row>
-    <row r="38" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A38" s="9"/>
-      <c r="B38" s="27"/>
-      <c r="C38" s="11"/>
-      <c r="D38" s="7"/>
-      <c r="E38" s="7"/>
-      <c r="F38" s="32"/>
-      <c r="G38" s="67"/>
-      <c r="H38" s="7"/>
-      <c r="I38" s="27"/>
-      <c r="J38" s="24"/>
-    </row>
-    <row r="39" spans="1:10" s="105" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A39" s="5">
-        <v>13</v>
-      </c>
-      <c r="B39" s="91" t="s">
-        <v>15</v>
-      </c>
-      <c r="C39" s="10">
-        <v>29</v>
-      </c>
-      <c r="D39" s="124" t="s">
-        <v>94</v>
-      </c>
-      <c r="E39" s="73" t="s">
-        <v>120</v>
-      </c>
-      <c r="F39" s="112" t="s">
-        <v>146</v>
-      </c>
-      <c r="G39" s="103" t="s">
-        <v>134</v>
-      </c>
-      <c r="H39" s="23" t="s">
-        <v>67</v>
-      </c>
-      <c r="I39" s="76"/>
-      <c r="J39" s="104"/>
-    </row>
-    <row r="40" spans="1:10" s="105" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A40" s="7"/>
-      <c r="B40" s="92"/>
-      <c r="C40" s="15"/>
-      <c r="D40" s="36"/>
-      <c r="E40" s="36"/>
-      <c r="F40" s="106"/>
-      <c r="G40" s="120" t="s">
-        <v>135</v>
-      </c>
-      <c r="H40" s="20"/>
-      <c r="I40" s="92"/>
-      <c r="J40" s="108"/>
-    </row>
-    <row r="41" spans="1:10" s="105" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A41" s="9"/>
-      <c r="B41" s="93"/>
-      <c r="C41" s="16"/>
-      <c r="D41" s="21"/>
-      <c r="E41" s="21"/>
-      <c r="F41" s="109"/>
-      <c r="G41" s="110"/>
-      <c r="H41" s="21"/>
-      <c r="I41" s="93"/>
-      <c r="J41" s="111"/>
-    </row>
-    <row r="42" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A42" s="5">
-        <v>14</v>
-      </c>
-      <c r="B42" s="90" t="s">
-        <v>16</v>
-      </c>
-      <c r="C42" s="10">
-        <v>41</v>
-      </c>
-      <c r="D42" s="74" t="s">
-        <v>136</v>
-      </c>
-      <c r="E42" s="73">
-        <v>44237</v>
-      </c>
-      <c r="F42" s="84" t="s">
-        <v>64</v>
-      </c>
-      <c r="G42" s="103" t="s">
-        <v>137</v>
-      </c>
-      <c r="H42" s="125" t="s">
-        <v>75</v>
-      </c>
-      <c r="I42" s="113"/>
-      <c r="J42" s="26"/>
-    </row>
-    <row r="43" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A43" s="7"/>
-      <c r="B43" s="27"/>
-      <c r="C43" s="15"/>
-      <c r="D43" s="36"/>
-      <c r="E43" s="36"/>
-      <c r="F43" s="106"/>
-      <c r="G43" s="120" t="s">
-        <v>138</v>
-      </c>
-      <c r="H43" s="20"/>
-      <c r="I43" s="92"/>
-      <c r="J43" s="24"/>
-    </row>
-    <row r="44" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A44" s="9"/>
-      <c r="B44" s="51"/>
-      <c r="C44" s="16"/>
-      <c r="D44" s="21"/>
-      <c r="E44" s="21"/>
-      <c r="F44" s="109"/>
-      <c r="G44" s="110"/>
-      <c r="H44" s="21"/>
-      <c r="I44" s="93"/>
-      <c r="J44" s="25"/>
-    </row>
-    <row r="45" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A45" s="5">
-        <v>15</v>
-      </c>
-      <c r="B45" s="90" t="s">
-        <v>18</v>
-      </c>
-      <c r="C45" s="10">
-        <v>41</v>
-      </c>
-      <c r="D45" s="74" t="s">
-        <v>136</v>
-      </c>
-      <c r="E45" s="73">
-        <v>44237</v>
-      </c>
-      <c r="F45" s="84" t="s">
-        <v>64</v>
-      </c>
-      <c r="G45" s="103"/>
-      <c r="H45" s="125" t="s">
-        <v>144</v>
-      </c>
-      <c r="I45" s="113"/>
-      <c r="J45" s="26"/>
-    </row>
-    <row r="46" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A46" s="7"/>
-      <c r="B46" s="27"/>
-      <c r="C46" s="15"/>
-      <c r="D46" s="36"/>
-      <c r="E46" s="36"/>
-      <c r="F46" s="106"/>
-      <c r="G46" s="107"/>
-      <c r="H46" s="20"/>
-      <c r="I46" s="92"/>
-      <c r="J46" s="24"/>
-    </row>
-    <row r="47" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A47" s="9"/>
-      <c r="B47" s="51"/>
-      <c r="C47" s="16"/>
-      <c r="D47" s="21"/>
-      <c r="E47" s="21"/>
-      <c r="F47" s="109"/>
-      <c r="G47" s="110"/>
-      <c r="H47" s="21"/>
-      <c r="I47" s="93"/>
-      <c r="J47" s="25"/>
-    </row>
-    <row r="48" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A48" s="5">
-        <v>16</v>
-      </c>
-      <c r="B48" s="3" t="s">
-        <v>96</v>
-      </c>
-      <c r="C48" s="4">
-        <v>4</v>
-      </c>
-      <c r="D48" s="43" t="s">
-        <v>121</v>
-      </c>
-      <c r="E48" s="22"/>
-      <c r="F48" s="84" t="s">
-        <v>64</v>
-      </c>
-      <c r="G48" s="66"/>
-      <c r="H48" s="5" t="s">
-        <v>131</v>
-      </c>
-      <c r="I48" s="118">
-        <v>44287</v>
-      </c>
-      <c r="J48" s="26"/>
+      <c r="J48" s="25"/>
     </row>
     <row r="49" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A49" s="7"/>
-      <c r="B49" s="6"/>
-      <c r="C49" s="11"/>
-      <c r="D49" s="44"/>
-      <c r="E49" s="44"/>
-      <c r="F49" s="32"/>
-      <c r="G49" s="67">
-        <v>8123522575</v>
-      </c>
-      <c r="H49" s="7"/>
-      <c r="I49" s="27"/>
-      <c r="J49" s="24"/>
+      <c r="A49" s="6"/>
+      <c r="B49" s="23"/>
+      <c r="C49" s="10"/>
+      <c r="D49" s="43"/>
+      <c r="E49" s="43"/>
+      <c r="F49" s="31"/>
+      <c r="G49" s="66">
+        <v>89603906796</v>
+      </c>
+      <c r="H49" s="6"/>
+      <c r="I49" s="26"/>
+      <c r="J49" s="23"/>
     </row>
     <row r="50" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A50" s="9"/>
-      <c r="B50" s="8"/>
-      <c r="C50" s="12"/>
-      <c r="D50" s="9"/>
-      <c r="E50" s="9"/>
-      <c r="F50" s="45"/>
-      <c r="G50" s="68"/>
-      <c r="H50" s="9"/>
-      <c r="I50" s="51"/>
-      <c r="J50" s="25"/>
-    </row>
-    <row r="51" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A51" s="5">
-        <v>17</v>
-      </c>
-      <c r="B51" s="3" t="s">
-        <v>96</v>
-      </c>
-      <c r="C51" s="4">
-        <v>5</v>
-      </c>
-      <c r="D51" s="43" t="s">
-        <v>106</v>
-      </c>
-      <c r="E51" s="22"/>
-      <c r="F51" s="83"/>
-      <c r="G51" s="66" t="s">
-        <v>103</v>
-      </c>
-      <c r="H51" s="5" t="s">
-        <v>102</v>
-      </c>
-      <c r="I51" s="96" t="s">
-        <v>112</v>
-      </c>
-      <c r="J51" s="26"/>
-    </row>
-    <row r="52" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A52" s="7"/>
-      <c r="B52" s="6"/>
-      <c r="C52" s="11"/>
-      <c r="D52" s="44"/>
-      <c r="E52" s="44"/>
-      <c r="F52" s="32"/>
-      <c r="G52" s="67">
-        <v>89603906796</v>
-      </c>
-      <c r="H52" s="7"/>
-      <c r="I52" s="27"/>
-      <c r="J52" s="24"/>
-    </row>
-    <row r="53" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A53" s="9"/>
-      <c r="B53" s="8"/>
-      <c r="C53" s="12"/>
-      <c r="D53" s="9"/>
-      <c r="E53" s="9"/>
-      <c r="F53" s="45"/>
-      <c r="G53" s="68"/>
-      <c r="H53" s="9"/>
-      <c r="I53" s="51"/>
-      <c r="J53" s="25"/>
-    </row>
-    <row r="54" spans="1:10" s="82" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A50" s="8"/>
+      <c r="B50" s="7"/>
+      <c r="C50" s="11"/>
+      <c r="D50" s="8"/>
+      <c r="E50" s="8"/>
+      <c r="F50" s="44"/>
+      <c r="G50" s="67"/>
+      <c r="H50" s="8"/>
+      <c r="I50" s="50"/>
+      <c r="J50" s="24"/>
+    </row>
+    <row r="51" spans="1:10" s="81" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A51" s="2"/>
+      <c r="D51" s="2"/>
+      <c r="E51" s="2"/>
+      <c r="F51" s="80"/>
+      <c r="G51" s="79"/>
+      <c r="H51" s="2"/>
+      <c r="I51" s="80"/>
+      <c r="J51" s="80"/>
+    </row>
+    <row r="52" spans="1:10" s="81" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A52" s="2"/>
+      <c r="B52" s="84" t="s">
+        <v>108</v>
+      </c>
+      <c r="C52" s="85"/>
+      <c r="D52" s="2"/>
+      <c r="E52" s="2"/>
+      <c r="F52" s="80"/>
+      <c r="G52" s="80"/>
+      <c r="H52" s="80"/>
+    </row>
+    <row r="53" spans="1:10" s="81" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A53" s="2"/>
+      <c r="B53" s="81" t="s">
+        <v>147</v>
+      </c>
+      <c r="C53" s="81" t="s">
+        <v>148</v>
+      </c>
+      <c r="D53" s="2"/>
+      <c r="E53" s="2"/>
+      <c r="F53" s="80"/>
+      <c r="G53" s="80"/>
+      <c r="H53" s="80"/>
+    </row>
+    <row r="54" spans="1:10" s="81" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A54" s="2"/>
+      <c r="B54" s="79" t="s">
+        <v>150</v>
+      </c>
+      <c r="C54" s="2" t="s">
+        <v>107</v>
+      </c>
       <c r="D54" s="2"/>
       <c r="E54" s="2"/>
-      <c r="F54" s="81"/>
+      <c r="F54" s="80"/>
       <c r="G54" s="80"/>
-      <c r="H54" s="2"/>
-      <c r="I54" s="81"/>
-      <c r="J54" s="81"/>
-    </row>
-    <row r="55" spans="1:10" s="82" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H54" s="80"/>
+    </row>
+    <row r="55" spans="1:10" s="81" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A55" s="2"/>
-      <c r="B55" s="85" t="s">
-        <v>108</v>
-      </c>
-      <c r="C55" s="86"/>
+      <c r="B55" s="79" t="s">
+        <v>151</v>
+      </c>
+      <c r="C55" s="2" t="s">
+        <v>101</v>
+      </c>
       <c r="D55" s="2"/>
       <c r="E55" s="2"/>
-      <c r="F55" s="81"/>
-      <c r="G55" s="81"/>
-      <c r="H55" s="81"/>
-    </row>
-    <row r="56" spans="1:10" s="82" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F55" s="80"/>
+      <c r="G55" s="80" t="s">
+        <v>156</v>
+      </c>
+      <c r="H55" s="80"/>
+    </row>
+    <row r="56" spans="1:10" s="81" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A56" s="2"/>
-      <c r="B56" s="82" t="s">
-        <v>147</v>
-      </c>
-      <c r="C56" s="82" t="s">
-        <v>148</v>
+      <c r="B56" s="79" t="s">
+        <v>152</v>
+      </c>
+      <c r="C56" s="2" t="s">
+        <v>68</v>
       </c>
       <c r="D56" s="2"/>
       <c r="E56" s="2"/>
-      <c r="F56" s="81"/>
-      <c r="G56" s="81"/>
-      <c r="H56" s="81"/>
-    </row>
-    <row r="57" spans="1:10" s="82" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A57" s="2"/>
-      <c r="B57" s="80" t="s">
-        <v>150</v>
-      </c>
-      <c r="C57" s="2" t="s">
-        <v>107</v>
-      </c>
-      <c r="D57" s="2"/>
-      <c r="E57" s="2"/>
-      <c r="F57" s="81"/>
-      <c r="G57" s="81"/>
-      <c r="H57" s="81"/>
-    </row>
-    <row r="58" spans="1:10" s="82" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A58" s="2"/>
-      <c r="B58" s="80" t="s">
-        <v>151</v>
-      </c>
-      <c r="C58" s="2" t="s">
-        <v>101</v>
-      </c>
-      <c r="D58" s="2"/>
-      <c r="E58" s="2"/>
-      <c r="F58" s="81"/>
-      <c r="G58" s="81" t="s">
-        <v>156</v>
-      </c>
-      <c r="H58" s="81"/>
-    </row>
-    <row r="59" spans="1:10" s="82" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A59" s="2"/>
-      <c r="B59" s="80" t="s">
-        <v>152</v>
+      <c r="F56" s="80"/>
+      <c r="G56" s="79"/>
+      <c r="H56" s="2"/>
+      <c r="I56" s="80"/>
+      <c r="J56" s="80"/>
+    </row>
+    <row r="57" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="B57" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="C57" s="1" t="str">
+        <f>H33</f>
+        <v>25 ORG</v>
+      </c>
+    </row>
+    <row r="58" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="B58" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="C58" s="1" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="59" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="B59" s="79" t="s">
+        <v>149</v>
       </c>
       <c r="C59" s="2" t="s">
-        <v>68</v>
-      </c>
-      <c r="D59" s="2"/>
-      <c r="E59" s="2"/>
-      <c r="F59" s="81"/>
-      <c r="G59" s="80"/>
-      <c r="H59" s="2"/>
-      <c r="I59" s="81"/>
-      <c r="J59" s="81"/>
+        <v>131</v>
+      </c>
     </row>
     <row r="60" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="B60" s="1" t="s">
-        <v>113</v>
-      </c>
-      <c r="C60" s="1" t="str">
-        <f>H36</f>
-        <v>25 ORG</v>
-      </c>
-    </row>
-    <row r="61" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="B61" s="1" t="s">
-        <v>153</v>
-      </c>
-      <c r="C61" s="1" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="62" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="B62" s="80" t="s">
-        <v>149</v>
-      </c>
-      <c r="C62" s="2" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="63" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="C63" s="1" t="s">
+      <c r="C60" s="1" t="s">
         <v>155</v>
       </c>
     </row>
@@ -2882,10 +2828,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{278BA1B3-1491-4141-B637-9082C53CD422}">
-  <dimension ref="A1:J71"/>
+  <dimension ref="A1:J74"/>
   <sheetViews>
-    <sheetView topLeftCell="A31" zoomScale="85" zoomScaleNormal="85" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="E61" sqref="E61"/>
+    <sheetView topLeftCell="A22" zoomScale="85" zoomScaleNormal="85" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="G61" sqref="G61"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -2897,1393 +2843,1451 @@
     <col min="5" max="5" width="18.42578125" style="2" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="18.42578125" style="2" customWidth="1"/>
     <col min="7" max="7" width="24.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="20" style="13" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="20" style="12" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="10.42578125" style="2" customWidth="1"/>
     <col min="10" max="10" width="13.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="11" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="18" x14ac:dyDescent="0.2">
-      <c r="A1" s="137" t="s">
+      <c r="A1" s="136" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="137" t="s">
+      <c r="B1" s="136" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="137" t="s">
+      <c r="C1" s="136" t="s">
         <v>27</v>
       </c>
-      <c r="D1" s="137" t="s">
+      <c r="D1" s="136" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="137"/>
-      <c r="F1" s="139" t="s">
+      <c r="E1" s="136"/>
+      <c r="F1" s="138" t="s">
         <v>104</v>
       </c>
-      <c r="G1" s="137" t="s">
+      <c r="G1" s="136" t="s">
         <v>4</v>
       </c>
-      <c r="H1" s="135" t="s">
+      <c r="H1" s="134" t="s">
         <v>2</v>
       </c>
-      <c r="I1" s="128" t="s">
+      <c r="I1" s="127" t="s">
         <v>56</v>
       </c>
-      <c r="J1" s="128"/>
+      <c r="J1" s="127"/>
     </row>
     <row r="2" spans="1:10" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="138"/>
-      <c r="B2" s="138"/>
-      <c r="C2" s="138"/>
-      <c r="D2" s="72" t="s">
+      <c r="A2" s="137"/>
+      <c r="B2" s="137"/>
+      <c r="C2" s="137"/>
+      <c r="D2" s="71" t="s">
         <v>6</v>
       </c>
-      <c r="E2" s="19" t="s">
+      <c r="E2" s="18" t="s">
         <v>7</v>
       </c>
-      <c r="F2" s="140"/>
-      <c r="G2" s="138"/>
-      <c r="H2" s="136"/>
-      <c r="I2" s="17" t="s">
+      <c r="F2" s="139"/>
+      <c r="G2" s="137"/>
+      <c r="H2" s="135"/>
+      <c r="I2" s="16" t="s">
         <v>6</v>
       </c>
-      <c r="J2" s="18" t="s">
+      <c r="J2" s="17" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="3" spans="1:10" ht="15" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="38">
+      <c r="A3" s="37">
         <v>1</v>
       </c>
-      <c r="B3" s="39" t="s">
+      <c r="B3" s="38" t="s">
         <v>5</v>
       </c>
-      <c r="C3" s="39">
+      <c r="C3" s="38">
         <v>8</v>
       </c>
-      <c r="D3" s="56">
+      <c r="D3" s="55">
         <v>44218</v>
       </c>
-      <c r="E3" s="40" t="s">
+      <c r="E3" s="39" t="s">
         <v>83</v>
       </c>
-      <c r="F3" s="42" t="s">
+      <c r="F3" s="41" t="s">
         <v>86</v>
       </c>
-      <c r="G3" s="41" t="s">
+      <c r="G3" s="40" t="s">
         <v>84</v>
       </c>
-      <c r="H3" s="38" t="s">
+      <c r="H3" s="37" t="s">
         <v>88</v>
       </c>
-      <c r="I3" s="57">
+      <c r="I3" s="56">
         <v>44251</v>
       </c>
-      <c r="J3" s="59" t="s">
+      <c r="J3" s="58" t="s">
         <v>95</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A4" s="7"/>
-      <c r="B4" s="11"/>
-      <c r="C4" s="11"/>
-      <c r="D4" s="20"/>
-      <c r="E4" s="20"/>
-      <c r="F4" s="29"/>
-      <c r="G4" s="29">
+      <c r="A4" s="6"/>
+      <c r="B4" s="10"/>
+      <c r="C4" s="10"/>
+      <c r="D4" s="19"/>
+      <c r="E4" s="19"/>
+      <c r="F4" s="28"/>
+      <c r="G4" s="28">
         <v>85258844844</v>
       </c>
-      <c r="H4" s="7"/>
-      <c r="I4" s="27"/>
-      <c r="J4" s="60"/>
+      <c r="H4" s="6"/>
+      <c r="I4" s="26"/>
+      <c r="J4" s="59"/>
     </row>
     <row r="5" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="9"/>
-      <c r="B5" s="12"/>
-      <c r="C5" s="12"/>
-      <c r="D5" s="9"/>
-      <c r="E5" s="9"/>
-      <c r="F5" s="30"/>
-      <c r="G5" s="30"/>
-      <c r="H5" s="9"/>
-      <c r="I5" s="51"/>
-      <c r="J5" s="25"/>
+      <c r="A5" s="8"/>
+      <c r="B5" s="11"/>
+      <c r="C5" s="11"/>
+      <c r="D5" s="8"/>
+      <c r="E5" s="8"/>
+      <c r="F5" s="29"/>
+      <c r="G5" s="29"/>
+      <c r="H5" s="8"/>
+      <c r="I5" s="50"/>
+      <c r="J5" s="24"/>
     </row>
     <row r="6" spans="1:10" ht="15" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="5">
+      <c r="A6" s="4">
         <v>2</v>
       </c>
-      <c r="B6" s="4" t="s">
+      <c r="B6" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="C6" s="4">
+      <c r="C6" s="3">
         <v>8</v>
       </c>
-      <c r="D6" s="43">
+      <c r="D6" s="42">
         <v>44218</v>
       </c>
-      <c r="E6" s="14" t="s">
+      <c r="E6" s="13" t="s">
         <v>83</v>
       </c>
-      <c r="F6" s="35" t="s">
+      <c r="F6" s="34" t="s">
         <v>86</v>
       </c>
-      <c r="G6" s="31" t="s">
+      <c r="G6" s="30" t="s">
         <v>85</v>
       </c>
-      <c r="H6" s="5" t="s">
+      <c r="H6" s="4" t="s">
         <v>87</v>
       </c>
-      <c r="I6" s="57">
+      <c r="I6" s="56">
         <v>44251</v>
       </c>
-      <c r="J6" s="54" t="s">
+      <c r="J6" s="53" t="s">
         <v>95</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A7" s="7"/>
-      <c r="B7" s="11"/>
-      <c r="C7" s="11"/>
-      <c r="D7" s="20"/>
-      <c r="E7" s="20"/>
-      <c r="F7" s="29"/>
-      <c r="G7" s="29">
+      <c r="A7" s="6"/>
+      <c r="B7" s="10"/>
+      <c r="C7" s="10"/>
+      <c r="D7" s="19"/>
+      <c r="E7" s="19"/>
+      <c r="F7" s="28"/>
+      <c r="G7" s="28">
         <v>82226183614</v>
       </c>
-      <c r="H7" s="7"/>
-      <c r="I7" s="27"/>
-      <c r="J7" s="24"/>
+      <c r="H7" s="6"/>
+      <c r="I7" s="26"/>
+      <c r="J7" s="23"/>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A8" s="9"/>
-      <c r="B8" s="12"/>
-      <c r="C8" s="12"/>
-      <c r="D8" s="9"/>
-      <c r="E8" s="9"/>
-      <c r="F8" s="30"/>
-      <c r="G8" s="30"/>
-      <c r="H8" s="9"/>
-      <c r="I8" s="51"/>
-      <c r="J8" s="25"/>
+      <c r="A8" s="8"/>
+      <c r="B8" s="11"/>
+      <c r="C8" s="11"/>
+      <c r="D8" s="8"/>
+      <c r="E8" s="8"/>
+      <c r="F8" s="29"/>
+      <c r="G8" s="29"/>
+      <c r="H8" s="8"/>
+      <c r="I8" s="50"/>
+      <c r="J8" s="24"/>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A9" s="7">
+      <c r="A9" s="6">
         <v>7</v>
       </c>
-      <c r="B9" s="4" t="s">
+      <c r="B9" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="C9" s="4">
+      <c r="C9" s="3">
         <v>15</v>
       </c>
-      <c r="D9" s="14" t="s">
+      <c r="D9" s="13" t="s">
         <v>93</v>
       </c>
-      <c r="E9" s="61" t="s">
+      <c r="E9" s="60" t="s">
         <v>39</v>
       </c>
-      <c r="F9" s="34">
+      <c r="F9" s="33">
         <v>44440</v>
       </c>
-      <c r="G9" s="29" t="s">
+      <c r="G9" s="28" t="s">
         <v>89</v>
       </c>
-      <c r="H9" s="7" t="s">
+      <c r="H9" s="6" t="s">
         <v>91</v>
       </c>
-      <c r="I9" s="58" t="s">
+      <c r="I9" s="57" t="s">
         <v>94</v>
       </c>
-      <c r="J9" s="54" t="s">
+      <c r="J9" s="53" t="s">
         <v>95</v>
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A10" s="7"/>
-      <c r="B10" s="11"/>
-      <c r="C10" s="11"/>
-      <c r="D10" s="7"/>
-      <c r="E10" s="20"/>
-      <c r="F10" s="29"/>
-      <c r="G10" s="29">
+      <c r="A10" s="6"/>
+      <c r="B10" s="10"/>
+      <c r="C10" s="10"/>
+      <c r="D10" s="6"/>
+      <c r="E10" s="19"/>
+      <c r="F10" s="28"/>
+      <c r="G10" s="28">
         <v>81232667763</v>
       </c>
-      <c r="H10" s="7"/>
-      <c r="I10" s="27"/>
-      <c r="J10" s="24"/>
+      <c r="H10" s="6"/>
+      <c r="I10" s="26"/>
+      <c r="J10" s="23"/>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A11" s="7"/>
-      <c r="B11" s="12"/>
-      <c r="C11" s="12"/>
-      <c r="D11" s="9"/>
-      <c r="E11" s="20"/>
-      <c r="F11" s="29"/>
-      <c r="G11" s="29"/>
-      <c r="H11" s="7"/>
-      <c r="I11" s="27"/>
-      <c r="J11" s="24"/>
+      <c r="A11" s="6"/>
+      <c r="B11" s="11"/>
+      <c r="C11" s="11"/>
+      <c r="D11" s="8"/>
+      <c r="E11" s="19"/>
+      <c r="F11" s="28"/>
+      <c r="G11" s="28"/>
+      <c r="H11" s="6"/>
+      <c r="I11" s="26"/>
+      <c r="J11" s="23"/>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A12" s="7">
+      <c r="A12" s="6">
         <v>8</v>
       </c>
-      <c r="B12" s="4" t="s">
+      <c r="B12" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="C12" s="4">
+      <c r="C12" s="3">
         <v>15</v>
       </c>
-      <c r="D12" s="14" t="s">
+      <c r="D12" s="13" t="s">
         <v>93</v>
       </c>
-      <c r="E12" s="61" t="s">
+      <c r="E12" s="60" t="s">
         <v>39</v>
       </c>
-      <c r="F12" s="34">
+      <c r="F12" s="33">
         <v>44440</v>
       </c>
-      <c r="G12" s="29" t="s">
+      <c r="G12" s="28" t="s">
         <v>90</v>
       </c>
-      <c r="H12" s="7" t="s">
+      <c r="H12" s="6" t="s">
         <v>92</v>
       </c>
-      <c r="I12" s="58" t="s">
+      <c r="I12" s="57" t="s">
         <v>94</v>
       </c>
-      <c r="J12" s="54" t="s">
+      <c r="J12" s="53" t="s">
         <v>95</v>
       </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A13" s="7"/>
-      <c r="B13" s="11"/>
-      <c r="C13" s="11"/>
-      <c r="D13" s="7"/>
-      <c r="E13" s="20"/>
-      <c r="F13" s="29"/>
-      <c r="G13" s="29">
+      <c r="A13" s="6"/>
+      <c r="B13" s="10"/>
+      <c r="C13" s="10"/>
+      <c r="D13" s="6"/>
+      <c r="E13" s="19"/>
+      <c r="F13" s="28"/>
+      <c r="G13" s="28">
         <v>8214000800</v>
       </c>
-      <c r="H13" s="7"/>
-      <c r="I13" s="27"/>
-      <c r="J13" s="24"/>
+      <c r="H13" s="6"/>
+      <c r="I13" s="26"/>
+      <c r="J13" s="23"/>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A14" s="7"/>
-      <c r="B14" s="11"/>
-      <c r="C14" s="11"/>
-      <c r="D14" s="7"/>
-      <c r="E14" s="20"/>
-      <c r="F14" s="29"/>
-      <c r="G14" s="29"/>
-      <c r="H14" s="7"/>
-      <c r="I14" s="27"/>
-      <c r="J14" s="24"/>
+      <c r="A14" s="6"/>
+      <c r="B14" s="10"/>
+      <c r="C14" s="10"/>
+      <c r="D14" s="6"/>
+      <c r="E14" s="19"/>
+      <c r="F14" s="28"/>
+      <c r="G14" s="28"/>
+      <c r="H14" s="6"/>
+      <c r="I14" s="26"/>
+      <c r="J14" s="23"/>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A15" s="23">
+      <c r="A15" s="22">
         <v>20</v>
       </c>
-      <c r="B15" s="10" t="s">
+      <c r="B15" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="C15" s="10">
+      <c r="C15" s="9">
         <v>27</v>
       </c>
-      <c r="D15" s="14" t="s">
+      <c r="D15" s="13" t="s">
         <v>32</v>
       </c>
-      <c r="E15" s="14" t="s">
+      <c r="E15" s="13" t="s">
         <v>55</v>
       </c>
-      <c r="F15" s="47" t="s">
+      <c r="F15" s="46" t="s">
         <v>62</v>
       </c>
-      <c r="G15" s="47" t="s">
+      <c r="G15" s="46" t="s">
         <v>37</v>
       </c>
-      <c r="H15" s="10" t="s">
+      <c r="H15" s="9" t="s">
         <v>77</v>
       </c>
-      <c r="I15" s="53">
+      <c r="I15" s="52">
         <v>44287</v>
       </c>
-      <c r="J15" s="54" t="s">
+      <c r="J15" s="53" t="s">
         <v>58</v>
       </c>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A16" s="20"/>
-      <c r="B16" s="15"/>
-      <c r="C16" s="15"/>
-      <c r="D16" s="20"/>
-      <c r="E16" s="20"/>
-      <c r="F16" s="15"/>
-      <c r="G16" s="48">
+      <c r="A16" s="19"/>
+      <c r="B16" s="14"/>
+      <c r="C16" s="14"/>
+      <c r="D16" s="19"/>
+      <c r="E16" s="19"/>
+      <c r="F16" s="14"/>
+      <c r="G16" s="47">
         <v>82170697118</v>
       </c>
-      <c r="H16" s="15"/>
-      <c r="I16" s="27"/>
-      <c r="J16" s="24"/>
+      <c r="H16" s="14"/>
+      <c r="I16" s="26"/>
+      <c r="J16" s="23"/>
     </row>
     <row r="17" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="9"/>
-      <c r="B17" s="12"/>
-      <c r="C17" s="12"/>
-      <c r="D17" s="9"/>
-      <c r="E17" s="9"/>
-      <c r="F17" s="12"/>
-      <c r="G17" s="30"/>
-      <c r="H17" s="12"/>
-      <c r="I17" s="51"/>
-      <c r="J17" s="25"/>
+      <c r="A17" s="8"/>
+      <c r="B17" s="11"/>
+      <c r="C17" s="11"/>
+      <c r="D17" s="8"/>
+      <c r="E17" s="8"/>
+      <c r="F17" s="11"/>
+      <c r="G17" s="29"/>
+      <c r="H17" s="11"/>
+      <c r="I17" s="50"/>
+      <c r="J17" s="24"/>
     </row>
     <row r="18" spans="1:10" ht="15" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="38">
+      <c r="A18" s="37">
         <v>3</v>
       </c>
-      <c r="B18" s="39" t="s">
+      <c r="B18" s="38" t="s">
         <v>5</v>
       </c>
-      <c r="C18" s="39">
+      <c r="C18" s="38">
         <v>9</v>
       </c>
-      <c r="D18" s="40" t="s">
+      <c r="D18" s="39" t="s">
         <v>29</v>
       </c>
-      <c r="E18" s="40" t="s">
+      <c r="E18" s="39" t="s">
         <v>49</v>
       </c>
-      <c r="F18" s="42">
+      <c r="F18" s="41">
         <v>44444</v>
       </c>
-      <c r="G18" s="62" t="s">
+      <c r="G18" s="61" t="s">
         <v>19</v>
       </c>
-      <c r="H18" s="38" t="s">
+      <c r="H18" s="37" t="s">
         <v>65</v>
       </c>
-      <c r="I18" s="50" t="s">
+      <c r="I18" s="49" t="s">
         <v>53</v>
       </c>
-      <c r="J18" s="70" t="s">
+      <c r="J18" s="69" t="s">
         <v>97</v>
       </c>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A19" s="7"/>
-      <c r="B19" s="11"/>
-      <c r="C19" s="11"/>
-      <c r="D19" s="20"/>
-      <c r="E19" s="20"/>
-      <c r="F19" s="29"/>
-      <c r="G19" s="63">
+      <c r="A19" s="6"/>
+      <c r="B19" s="10"/>
+      <c r="C19" s="10"/>
+      <c r="D19" s="19"/>
+      <c r="E19" s="19"/>
+      <c r="F19" s="28"/>
+      <c r="G19" s="62">
         <v>81228196787</v>
       </c>
-      <c r="H19" s="7"/>
-      <c r="I19" s="27"/>
-      <c r="J19" s="24"/>
+      <c r="H19" s="6"/>
+      <c r="I19" s="26"/>
+      <c r="J19" s="23"/>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A20" s="9"/>
-      <c r="B20" s="12"/>
-      <c r="C20" s="12"/>
-      <c r="D20" s="9"/>
-      <c r="E20" s="9"/>
-      <c r="F20" s="30"/>
-      <c r="G20" s="64"/>
-      <c r="H20" s="9"/>
-      <c r="I20" s="51"/>
-      <c r="J20" s="25"/>
+      <c r="A20" s="8"/>
+      <c r="B20" s="11"/>
+      <c r="C20" s="11"/>
+      <c r="D20" s="8"/>
+      <c r="E20" s="8"/>
+      <c r="F20" s="29"/>
+      <c r="G20" s="63"/>
+      <c r="H20" s="8"/>
+      <c r="I20" s="50"/>
+      <c r="J20" s="24"/>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A21" s="5">
+      <c r="A21" s="4">
         <v>4</v>
       </c>
-      <c r="B21" s="4" t="s">
+      <c r="B21" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="C21" s="4">
+      <c r="C21" s="3">
         <v>9</v>
       </c>
-      <c r="D21" s="14" t="s">
+      <c r="D21" s="13" t="s">
         <v>29</v>
       </c>
-      <c r="E21" s="14" t="s">
+      <c r="E21" s="13" t="s">
         <v>49</v>
       </c>
-      <c r="F21" s="35">
+      <c r="F21" s="34">
         <v>44444</v>
       </c>
-      <c r="G21" s="65" t="s">
+      <c r="G21" s="64" t="s">
         <v>20</v>
       </c>
-      <c r="H21" s="5" t="s">
+      <c r="H21" s="4" t="s">
         <v>66</v>
       </c>
-      <c r="I21" s="52" t="s">
+      <c r="I21" s="51" t="s">
         <v>53</v>
       </c>
-      <c r="J21" s="70" t="s">
+      <c r="J21" s="69" t="s">
         <v>97</v>
       </c>
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A22" s="7"/>
-      <c r="B22" s="11"/>
-      <c r="C22" s="11"/>
-      <c r="D22" s="20"/>
-      <c r="E22" s="20"/>
-      <c r="F22" s="29"/>
-      <c r="G22" s="63">
+      <c r="A22" s="6"/>
+      <c r="B22" s="10"/>
+      <c r="C22" s="10"/>
+      <c r="D22" s="19"/>
+      <c r="E22" s="19"/>
+      <c r="F22" s="28"/>
+      <c r="G22" s="62">
         <v>81225736355</v>
       </c>
-      <c r="H22" s="7"/>
-      <c r="I22" s="27"/>
-      <c r="J22" s="24"/>
+      <c r="H22" s="6"/>
+      <c r="I22" s="26"/>
+      <c r="J22" s="23"/>
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A23" s="9"/>
-      <c r="B23" s="12"/>
-      <c r="C23" s="12"/>
-      <c r="D23" s="9"/>
-      <c r="E23" s="9"/>
-      <c r="F23" s="30"/>
-      <c r="G23" s="64"/>
-      <c r="H23" s="9"/>
-      <c r="I23" s="51"/>
-      <c r="J23" s="25"/>
+      <c r="A23" s="8"/>
+      <c r="B23" s="11"/>
+      <c r="C23" s="11"/>
+      <c r="D23" s="8"/>
+      <c r="E23" s="8"/>
+      <c r="F23" s="29"/>
+      <c r="G23" s="63"/>
+      <c r="H23" s="8"/>
+      <c r="I23" s="50"/>
+      <c r="J23" s="24"/>
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A24" s="23">
+      <c r="A24" s="22">
         <v>13</v>
       </c>
-      <c r="B24" s="10" t="s">
+      <c r="B24" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="C24" s="10">
+      <c r="C24" s="9">
         <v>30</v>
       </c>
-      <c r="D24" s="43">
+      <c r="D24" s="42">
         <v>44253</v>
       </c>
-      <c r="E24" s="43" t="s">
+      <c r="E24" s="42" t="s">
         <v>54</v>
       </c>
-      <c r="F24" s="31" t="s">
+      <c r="F24" s="30" t="s">
         <v>63</v>
       </c>
-      <c r="G24" s="65" t="s">
+      <c r="G24" s="64" t="s">
         <v>34</v>
       </c>
-      <c r="H24" s="23" t="s">
+      <c r="H24" s="22" t="s">
         <v>73</v>
       </c>
-      <c r="I24" s="53">
+      <c r="I24" s="52">
         <v>44287</v>
       </c>
-      <c r="J24" s="70" t="s">
+      <c r="J24" s="69" t="s">
         <v>97</v>
       </c>
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A25" s="20"/>
-      <c r="B25" s="15"/>
-      <c r="C25" s="15"/>
-      <c r="D25" s="20"/>
-      <c r="E25" s="20"/>
-      <c r="F25" s="29"/>
-      <c r="G25" s="63">
+      <c r="A25" s="19"/>
+      <c r="B25" s="14"/>
+      <c r="C25" s="14"/>
+      <c r="D25" s="19"/>
+      <c r="E25" s="19"/>
+      <c r="F25" s="28"/>
+      <c r="G25" s="62">
         <v>82110632173</v>
       </c>
-      <c r="H25" s="20"/>
-      <c r="I25" s="27"/>
-      <c r="J25" s="24"/>
+      <c r="H25" s="19"/>
+      <c r="I25" s="26"/>
+      <c r="J25" s="23"/>
     </row>
     <row r="26" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A26" s="21"/>
-      <c r="B26" s="16"/>
-      <c r="C26" s="16"/>
-      <c r="D26" s="9"/>
-      <c r="E26" s="9"/>
-      <c r="F26" s="30"/>
-      <c r="G26" s="64"/>
-      <c r="H26" s="21"/>
-      <c r="I26" s="51"/>
-      <c r="J26" s="25"/>
+      <c r="A26" s="20"/>
+      <c r="B26" s="15"/>
+      <c r="C26" s="15"/>
+      <c r="D26" s="8"/>
+      <c r="E26" s="8"/>
+      <c r="F26" s="29"/>
+      <c r="G26" s="63"/>
+      <c r="H26" s="20"/>
+      <c r="I26" s="50"/>
+      <c r="J26" s="24"/>
     </row>
     <row r="27" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="5">
+      <c r="A27" s="4">
         <v>19</v>
       </c>
-      <c r="B27" s="10" t="s">
+      <c r="B27" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="C27" s="10">
+      <c r="C27" s="9">
         <v>32</v>
       </c>
-      <c r="D27" s="14" t="s">
+      <c r="D27" s="13" t="s">
         <v>31</v>
       </c>
-      <c r="E27" s="14" t="s">
+      <c r="E27" s="13" t="s">
         <v>55</v>
       </c>
-      <c r="F27" s="31" t="s">
+      <c r="F27" s="30" t="s">
         <v>61</v>
       </c>
-      <c r="G27" s="65" t="s">
+      <c r="G27" s="64" t="s">
         <v>24</v>
       </c>
-      <c r="H27" s="23" t="s">
+      <c r="H27" s="22" t="s">
         <v>75</v>
       </c>
-      <c r="I27" s="52" t="s">
+      <c r="I27" s="51" t="s">
         <v>53</v>
       </c>
-      <c r="J27" s="70" t="s">
+      <c r="J27" s="69" t="s">
         <v>97</v>
       </c>
     </row>
     <row r="28" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A28" s="7"/>
-      <c r="B28" s="15"/>
-      <c r="C28" s="15"/>
-      <c r="D28" s="7"/>
-      <c r="E28" s="20"/>
-      <c r="F28" s="29"/>
-      <c r="G28" s="63">
+      <c r="A28" s="6"/>
+      <c r="B28" s="14"/>
+      <c r="C28" s="14"/>
+      <c r="D28" s="6"/>
+      <c r="E28" s="19"/>
+      <c r="F28" s="28"/>
+      <c r="G28" s="62">
         <v>81231558203</v>
       </c>
-      <c r="H28" s="20"/>
-      <c r="I28" s="27"/>
-      <c r="J28" s="24"/>
+      <c r="H28" s="19"/>
+      <c r="I28" s="26"/>
+      <c r="J28" s="23"/>
     </row>
     <row r="29" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A29" s="9"/>
-      <c r="B29" s="16"/>
-      <c r="C29" s="16"/>
-      <c r="D29" s="9"/>
-      <c r="E29" s="9"/>
-      <c r="F29" s="30"/>
-      <c r="G29" s="64"/>
-      <c r="H29" s="21"/>
-      <c r="I29" s="51"/>
-      <c r="J29" s="25"/>
+      <c r="A29" s="8"/>
+      <c r="B29" s="15"/>
+      <c r="C29" s="15"/>
+      <c r="D29" s="8"/>
+      <c r="E29" s="8"/>
+      <c r="F29" s="29"/>
+      <c r="G29" s="63"/>
+      <c r="H29" s="20"/>
+      <c r="I29" s="50"/>
+      <c r="J29" s="24"/>
     </row>
     <row r="30" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A30" s="7">
+      <c r="A30" s="6">
         <v>22</v>
       </c>
-      <c r="B30" s="10" t="s">
+      <c r="B30" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="C30" s="10">
+      <c r="C30" s="9">
         <v>38</v>
       </c>
-      <c r="D30" s="43">
+      <c r="D30" s="42">
         <v>44253</v>
       </c>
-      <c r="E30" s="14" t="s">
+      <c r="E30" s="13" t="s">
         <v>33</v>
       </c>
-      <c r="F30" s="31" t="s">
+      <c r="F30" s="30" t="s">
         <v>17</v>
       </c>
-      <c r="G30" s="65" t="s">
+      <c r="G30" s="64" t="s">
         <v>36</v>
       </c>
-      <c r="H30" s="23" t="s">
+      <c r="H30" s="22" t="s">
         <v>72</v>
       </c>
-      <c r="I30" s="53">
+      <c r="I30" s="52">
         <v>44246</v>
       </c>
-      <c r="J30" s="70" t="s">
+      <c r="J30" s="69" t="s">
         <v>97</v>
       </c>
     </row>
     <row r="31" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A31" s="7"/>
-      <c r="B31" s="15"/>
-      <c r="C31" s="15"/>
-      <c r="D31" s="6"/>
-      <c r="E31" s="20"/>
-      <c r="F31" s="29"/>
-      <c r="G31" s="63">
+      <c r="A31" s="6"/>
+      <c r="B31" s="14"/>
+      <c r="C31" s="14"/>
+      <c r="D31" s="5"/>
+      <c r="E31" s="19"/>
+      <c r="F31" s="28"/>
+      <c r="G31" s="62">
         <v>81318154783</v>
       </c>
-      <c r="H31" s="20"/>
-      <c r="I31" s="27"/>
-      <c r="J31" s="24"/>
+      <c r="H31" s="19"/>
+      <c r="I31" s="26"/>
+      <c r="J31" s="23"/>
     </row>
     <row r="32" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A32" s="7"/>
-      <c r="B32" s="49"/>
-      <c r="C32" s="49"/>
-      <c r="D32" s="9"/>
-      <c r="E32" s="9"/>
-      <c r="F32" s="30"/>
-      <c r="G32" s="64"/>
-      <c r="H32" s="21"/>
-      <c r="I32" s="25"/>
-      <c r="J32" s="25"/>
+      <c r="A32" s="6"/>
+      <c r="B32" s="48"/>
+      <c r="C32" s="48"/>
+      <c r="D32" s="8"/>
+      <c r="E32" s="8"/>
+      <c r="F32" s="29"/>
+      <c r="G32" s="63"/>
+      <c r="H32" s="20"/>
+      <c r="I32" s="24"/>
+      <c r="J32" s="24"/>
     </row>
     <row r="33" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A33" s="5">
+      <c r="A33" s="4">
         <v>23</v>
       </c>
-      <c r="B33" s="10" t="s">
+      <c r="B33" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="C33" s="10">
+      <c r="C33" s="9">
         <v>38</v>
       </c>
-      <c r="D33" s="43">
+      <c r="D33" s="42">
         <v>44253</v>
       </c>
-      <c r="E33" s="14" t="s">
+      <c r="E33" s="13" t="s">
         <v>59</v>
       </c>
-      <c r="F33" s="31" t="s">
+      <c r="F33" s="30" t="s">
         <v>17</v>
       </c>
-      <c r="G33" s="65" t="s">
+      <c r="G33" s="64" t="s">
         <v>38</v>
       </c>
-      <c r="H33" s="23" t="s">
+      <c r="H33" s="22" t="s">
         <v>68</v>
       </c>
-      <c r="I33" s="53">
+      <c r="I33" s="52">
         <v>44246</v>
       </c>
-      <c r="J33" s="70" t="s">
+      <c r="J33" s="69" t="s">
         <v>97</v>
       </c>
     </row>
     <row r="34" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A34" s="7"/>
-      <c r="B34" s="15"/>
-      <c r="C34" s="15"/>
-      <c r="D34" s="6"/>
-      <c r="E34" s="20"/>
-      <c r="F34" s="29"/>
-      <c r="G34" s="63">
+      <c r="A34" s="6"/>
+      <c r="B34" s="14"/>
+      <c r="C34" s="14"/>
+      <c r="D34" s="5"/>
+      <c r="E34" s="19"/>
+      <c r="F34" s="28"/>
+      <c r="G34" s="62">
         <v>8123929482</v>
       </c>
-      <c r="H34" s="20"/>
-      <c r="I34" s="27"/>
-      <c r="J34" s="24"/>
+      <c r="H34" s="19"/>
+      <c r="I34" s="26"/>
+      <c r="J34" s="23"/>
     </row>
     <row r="35" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A35" s="9"/>
-      <c r="B35" s="49"/>
-      <c r="C35" s="49"/>
-      <c r="D35" s="9"/>
-      <c r="E35" s="9"/>
-      <c r="F35" s="30"/>
-      <c r="G35" s="64"/>
-      <c r="H35" s="21"/>
-      <c r="I35" s="25"/>
-      <c r="J35" s="25"/>
+      <c r="A35" s="8"/>
+      <c r="B35" s="48"/>
+      <c r="C35" s="48"/>
+      <c r="D35" s="8"/>
+      <c r="E35" s="8"/>
+      <c r="F35" s="29"/>
+      <c r="G35" s="63"/>
+      <c r="H35" s="20"/>
+      <c r="I35" s="24"/>
+      <c r="J35" s="24"/>
     </row>
     <row r="36" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A36" s="7">
+      <c r="A36" s="6">
         <v>24</v>
       </c>
-      <c r="B36" s="4" t="s">
+      <c r="B36" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="C36" s="4">
+      <c r="C36" s="3">
         <v>39</v>
       </c>
-      <c r="D36" s="14" t="s">
+      <c r="D36" s="13" t="s">
         <v>28</v>
       </c>
-      <c r="E36" s="14" t="s">
+      <c r="E36" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="F36" s="35">
+      <c r="F36" s="34">
         <v>44444</v>
       </c>
-      <c r="G36" s="65" t="s">
+      <c r="G36" s="64" t="s">
         <v>25</v>
       </c>
-      <c r="H36" s="5" t="s">
+      <c r="H36" s="4" t="s">
         <v>75</v>
       </c>
-      <c r="I36" s="52" t="s">
+      <c r="I36" s="51" t="s">
         <v>53</v>
       </c>
-      <c r="J36" s="70" t="s">
+      <c r="J36" s="69" t="s">
         <v>97</v>
       </c>
     </row>
     <row r="37" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A37" s="7"/>
-      <c r="B37" s="11"/>
-      <c r="C37" s="11"/>
-      <c r="D37" s="7"/>
-      <c r="E37" s="7"/>
-      <c r="F37" s="29"/>
-      <c r="G37" s="63">
+      <c r="A37" s="6"/>
+      <c r="B37" s="10"/>
+      <c r="C37" s="10"/>
+      <c r="D37" s="6"/>
+      <c r="E37" s="6"/>
+      <c r="F37" s="28"/>
+      <c r="G37" s="62">
         <v>81331414130</v>
       </c>
-      <c r="H37" s="7"/>
-      <c r="I37" s="24"/>
-      <c r="J37" s="24"/>
+      <c r="H37" s="6"/>
+      <c r="I37" s="23"/>
+      <c r="J37" s="23"/>
     </row>
     <row r="38" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A38" s="7"/>
-      <c r="B38" s="12"/>
-      <c r="C38" s="12"/>
-      <c r="D38" s="9"/>
-      <c r="E38" s="9"/>
-      <c r="F38" s="30"/>
-      <c r="G38" s="64"/>
-      <c r="H38" s="9"/>
-      <c r="I38" s="25"/>
-      <c r="J38" s="25"/>
+      <c r="A38" s="6"/>
+      <c r="B38" s="11"/>
+      <c r="C38" s="11"/>
+      <c r="D38" s="8"/>
+      <c r="E38" s="8"/>
+      <c r="F38" s="29"/>
+      <c r="G38" s="63"/>
+      <c r="H38" s="8"/>
+      <c r="I38" s="24"/>
+      <c r="J38" s="24"/>
     </row>
     <row r="39" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A39" s="5">
+      <c r="A39" s="4">
         <v>25</v>
       </c>
-      <c r="B39" s="4" t="s">
+      <c r="B39" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="C39" s="4">
+      <c r="C39" s="3">
         <v>39</v>
       </c>
-      <c r="D39" s="14" t="s">
+      <c r="D39" s="13" t="s">
         <v>28</v>
       </c>
-      <c r="E39" s="14" t="s">
+      <c r="E39" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="F39" s="35">
+      <c r="F39" s="34">
         <v>44444</v>
       </c>
-      <c r="G39" s="65" t="s">
+      <c r="G39" s="64" t="s">
         <v>26</v>
       </c>
-      <c r="H39" s="5" t="s">
+      <c r="H39" s="4" t="s">
         <v>79</v>
       </c>
-      <c r="I39" s="52" t="s">
+      <c r="I39" s="51" t="s">
         <v>53</v>
       </c>
-      <c r="J39" s="70" t="s">
+      <c r="J39" s="69" t="s">
         <v>97</v>
       </c>
     </row>
     <row r="40" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A40" s="7"/>
-      <c r="B40" s="11"/>
-      <c r="C40" s="11"/>
-      <c r="D40" s="7"/>
-      <c r="E40" s="7"/>
-      <c r="F40" s="29"/>
-      <c r="G40" s="63">
+      <c r="A40" s="6"/>
+      <c r="B40" s="10"/>
+      <c r="C40" s="10"/>
+      <c r="D40" s="6"/>
+      <c r="E40" s="6"/>
+      <c r="F40" s="28"/>
+      <c r="G40" s="62">
         <v>81252283477</v>
       </c>
-      <c r="H40" s="7"/>
-      <c r="I40" s="24"/>
-      <c r="J40" s="24"/>
+      <c r="H40" s="6"/>
+      <c r="I40" s="23"/>
+      <c r="J40" s="23"/>
     </row>
     <row r="41" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A41" s="9"/>
-      <c r="B41" s="12"/>
-      <c r="C41" s="12"/>
-      <c r="D41" s="9"/>
-      <c r="E41" s="9"/>
-      <c r="F41" s="30"/>
-      <c r="G41" s="64"/>
-      <c r="H41" s="9"/>
-      <c r="I41" s="25"/>
-      <c r="J41" s="25"/>
+      <c r="A41" s="8"/>
+      <c r="B41" s="11"/>
+      <c r="C41" s="11"/>
+      <c r="D41" s="8"/>
+      <c r="E41" s="8"/>
+      <c r="F41" s="29"/>
+      <c r="G41" s="63"/>
+      <c r="H41" s="8"/>
+      <c r="I41" s="24"/>
+      <c r="J41" s="24"/>
     </row>
     <row r="42" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A42" s="5">
+      <c r="A42" s="4">
         <v>12</v>
       </c>
-      <c r="B42" s="91" t="s">
+      <c r="B42" s="90" t="s">
         <v>12</v>
       </c>
-      <c r="C42" s="10">
+      <c r="C42" s="9">
         <v>25</v>
       </c>
-      <c r="D42" s="43">
+      <c r="D42" s="42">
         <v>44237</v>
       </c>
-      <c r="E42" s="14" t="s">
+      <c r="E42" s="13" t="s">
         <v>109</v>
       </c>
-      <c r="F42" s="115">
+      <c r="F42" s="114">
         <v>44501</v>
       </c>
-      <c r="G42" s="65" t="s">
+      <c r="G42" s="64" t="s">
         <v>35</v>
       </c>
-      <c r="H42" s="23" t="s">
+      <c r="H42" s="22" t="s">
         <v>68</v>
       </c>
-      <c r="I42" s="52" t="s">
+      <c r="I42" s="51" t="s">
         <v>53</v>
       </c>
-      <c r="J42" s="52" t="s">
+      <c r="J42" s="51" t="s">
         <v>53</v>
       </c>
     </row>
     <row r="43" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A43" s="7"/>
-      <c r="B43" s="92"/>
-      <c r="C43" s="15"/>
-      <c r="D43" s="7"/>
-      <c r="E43" s="7"/>
-      <c r="F43" s="29"/>
-      <c r="G43" s="63">
+      <c r="A43" s="6"/>
+      <c r="B43" s="91"/>
+      <c r="C43" s="14"/>
+      <c r="D43" s="6"/>
+      <c r="E43" s="6"/>
+      <c r="F43" s="28"/>
+      <c r="G43" s="62">
         <v>82143316439</v>
       </c>
-      <c r="H43" s="20"/>
-      <c r="I43" s="27"/>
-      <c r="J43" s="24"/>
+      <c r="H43" s="19"/>
+      <c r="I43" s="26"/>
+      <c r="J43" s="23"/>
     </row>
     <row r="44" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A44" s="9"/>
-      <c r="B44" s="93"/>
-      <c r="C44" s="16"/>
-      <c r="D44" s="9"/>
-      <c r="E44" s="9"/>
-      <c r="F44" s="30"/>
-      <c r="G44" s="64"/>
-      <c r="H44" s="21"/>
-      <c r="I44" s="51"/>
-      <c r="J44" s="25"/>
+      <c r="A44" s="8"/>
+      <c r="B44" s="92"/>
+      <c r="C44" s="15"/>
+      <c r="D44" s="8"/>
+      <c r="E44" s="8"/>
+      <c r="F44" s="29"/>
+      <c r="G44" s="63"/>
+      <c r="H44" s="20"/>
+      <c r="I44" s="50"/>
+      <c r="J44" s="24"/>
     </row>
     <row r="45" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A45" s="5">
+      <c r="A45" s="4">
         <v>1</v>
       </c>
-      <c r="B45" s="90" t="s">
+      <c r="B45" s="89" t="s">
         <v>5</v>
       </c>
-      <c r="C45" s="4">
+      <c r="C45" s="3">
         <v>10</v>
       </c>
-      <c r="D45" s="74" t="s">
+      <c r="D45" s="73" t="s">
         <v>105</v>
       </c>
-      <c r="E45" s="119" t="s">
+      <c r="E45" s="118" t="s">
         <v>132</v>
       </c>
-      <c r="F45" s="77" t="s">
+      <c r="F45" s="76" t="s">
         <v>52</v>
       </c>
-      <c r="G45" s="65" t="s">
+      <c r="G45" s="64" t="s">
         <v>50</v>
       </c>
-      <c r="H45" s="5" t="s">
+      <c r="H45" s="4" t="s">
         <v>67</v>
       </c>
-      <c r="I45" s="70" t="s">
+      <c r="I45" s="69" t="s">
         <v>97</v>
       </c>
-      <c r="J45" s="70" t="s">
+      <c r="J45" s="69" t="s">
         <v>136</v>
       </c>
     </row>
     <row r="46" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A46" s="7"/>
-      <c r="B46" s="27"/>
-      <c r="C46" s="11"/>
-      <c r="D46" s="20"/>
-      <c r="E46" s="20"/>
-      <c r="F46" s="29"/>
-      <c r="G46" s="63">
+      <c r="A46" s="6"/>
+      <c r="B46" s="26"/>
+      <c r="C46" s="10"/>
+      <c r="D46" s="19"/>
+      <c r="E46" s="19"/>
+      <c r="F46" s="28"/>
+      <c r="G46" s="62">
         <v>81331434743</v>
       </c>
-      <c r="H46" s="7"/>
-      <c r="I46" s="27"/>
-      <c r="J46" s="24"/>
+      <c r="H46" s="6"/>
+      <c r="I46" s="26"/>
+      <c r="J46" s="23"/>
     </row>
     <row r="47" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A47" s="9"/>
-      <c r="B47" s="51"/>
-      <c r="C47" s="12"/>
-      <c r="D47" s="21"/>
-      <c r="E47" s="21"/>
-      <c r="F47" s="30"/>
-      <c r="G47" s="64"/>
-      <c r="H47" s="9"/>
-      <c r="I47" s="51"/>
-      <c r="J47" s="25"/>
+      <c r="A47" s="8"/>
+      <c r="B47" s="50"/>
+      <c r="C47" s="11"/>
+      <c r="D47" s="20"/>
+      <c r="E47" s="20"/>
+      <c r="F47" s="29"/>
+      <c r="G47" s="63"/>
+      <c r="H47" s="8"/>
+      <c r="I47" s="50"/>
+      <c r="J47" s="24"/>
     </row>
     <row r="48" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A48" s="5">
+      <c r="A48" s="4">
         <v>2</v>
       </c>
-      <c r="B48" s="90" t="s">
+      <c r="B48" s="89" t="s">
         <v>9</v>
       </c>
-      <c r="C48" s="4">
+      <c r="C48" s="3">
         <v>10</v>
       </c>
-      <c r="D48" s="74" t="s">
+      <c r="D48" s="73" t="s">
         <v>105</v>
       </c>
-      <c r="E48" s="74" t="s">
+      <c r="E48" s="73" t="s">
         <v>132</v>
       </c>
-      <c r="F48" s="77" t="s">
+      <c r="F48" s="76" t="s">
         <v>52</v>
       </c>
-      <c r="G48" s="65" t="s">
+      <c r="G48" s="64" t="s">
         <v>98</v>
       </c>
-      <c r="H48" s="5" t="s">
+      <c r="H48" s="4" t="s">
         <v>68</v>
       </c>
-      <c r="I48" s="70" t="s">
+      <c r="I48" s="69" t="s">
         <v>97</v>
       </c>
-      <c r="J48" s="70" t="s">
+      <c r="J48" s="69" t="s">
         <v>136</v>
       </c>
     </row>
     <row r="49" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A49" s="7"/>
-      <c r="B49" s="27"/>
-      <c r="C49" s="11"/>
-      <c r="D49" s="20"/>
-      <c r="E49" s="20"/>
-      <c r="F49" s="29"/>
-      <c r="G49" s="71" t="s">
+      <c r="A49" s="6"/>
+      <c r="B49" s="26"/>
+      <c r="C49" s="10"/>
+      <c r="D49" s="19"/>
+      <c r="E49" s="19"/>
+      <c r="F49" s="28"/>
+      <c r="G49" s="70" t="s">
         <v>99</v>
       </c>
-      <c r="H49" s="7"/>
-      <c r="I49" s="27"/>
-      <c r="J49" s="24"/>
+      <c r="H49" s="6"/>
+      <c r="I49" s="26"/>
+      <c r="J49" s="23"/>
     </row>
     <row r="50" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A50" s="9"/>
-      <c r="B50" s="51"/>
-      <c r="C50" s="12"/>
-      <c r="D50" s="21"/>
-      <c r="E50" s="21"/>
-      <c r="F50" s="30"/>
-      <c r="G50" s="64"/>
-      <c r="H50" s="9"/>
-      <c r="I50" s="51"/>
-      <c r="J50" s="25"/>
+      <c r="A50" s="8"/>
+      <c r="B50" s="50"/>
+      <c r="C50" s="11"/>
+      <c r="D50" s="20"/>
+      <c r="E50" s="20"/>
+      <c r="F50" s="29"/>
+      <c r="G50" s="63"/>
+      <c r="H50" s="8"/>
+      <c r="I50" s="50"/>
+      <c r="J50" s="24"/>
     </row>
     <row r="51" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A51" s="5">
+      <c r="A51" s="4">
         <v>3</v>
       </c>
-      <c r="B51" s="90" t="s">
+      <c r="B51" s="89" t="s">
         <v>10</v>
       </c>
-      <c r="C51" s="4">
+      <c r="C51" s="3">
         <v>16</v>
       </c>
-      <c r="D51" s="14" t="s">
+      <c r="D51" s="13" t="s">
         <v>30</v>
       </c>
-      <c r="E51" s="74" t="s">
+      <c r="E51" s="73" t="s">
         <v>133</v>
       </c>
-      <c r="F51" s="88">
+      <c r="F51" s="87">
         <v>44520</v>
       </c>
-      <c r="G51" s="65" t="s">
+      <c r="G51" s="64" t="s">
         <v>21</v>
       </c>
-      <c r="H51" s="5" t="s">
+      <c r="H51" s="4" t="s">
         <v>69</v>
       </c>
-      <c r="I51" s="52" t="s">
+      <c r="I51" s="51" t="s">
         <v>53</v>
       </c>
-      <c r="J51" s="70" t="s">
+      <c r="J51" s="69" t="s">
         <v>136</v>
       </c>
     </row>
     <row r="52" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A52" s="7"/>
-      <c r="B52" s="27"/>
-      <c r="C52" s="11"/>
-      <c r="D52" s="7"/>
-      <c r="E52" s="36"/>
-      <c r="F52" s="34"/>
-      <c r="G52" s="63">
+      <c r="A52" s="6"/>
+      <c r="B52" s="26"/>
+      <c r="C52" s="10"/>
+      <c r="D52" s="6"/>
+      <c r="E52" s="35"/>
+      <c r="F52" s="33"/>
+      <c r="G52" s="62">
         <v>81232989078</v>
       </c>
-      <c r="H52" s="7"/>
-      <c r="I52" s="27"/>
-      <c r="J52" s="24"/>
+      <c r="H52" s="6"/>
+      <c r="I52" s="26"/>
+      <c r="J52" s="23"/>
     </row>
     <row r="53" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A53" s="9"/>
-      <c r="B53" s="51"/>
-      <c r="C53" s="12"/>
-      <c r="D53" s="9"/>
-      <c r="E53" s="9"/>
-      <c r="F53" s="37"/>
-      <c r="G53" s="64"/>
-      <c r="H53" s="9"/>
-      <c r="I53" s="51"/>
-      <c r="J53" s="25"/>
+      <c r="A53" s="8"/>
+      <c r="B53" s="50"/>
+      <c r="C53" s="11"/>
+      <c r="D53" s="8"/>
+      <c r="E53" s="8"/>
+      <c r="F53" s="36"/>
+      <c r="G53" s="63"/>
+      <c r="H53" s="8"/>
+      <c r="I53" s="50"/>
+      <c r="J53" s="24"/>
     </row>
     <row r="54" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A54" s="5">
+      <c r="A54" s="4">
         <v>4</v>
       </c>
-      <c r="B54" s="90" t="s">
+      <c r="B54" s="89" t="s">
         <v>11</v>
       </c>
-      <c r="C54" s="4">
+      <c r="C54" s="3">
         <v>16</v>
       </c>
-      <c r="D54" s="14" t="s">
+      <c r="D54" s="13" t="s">
         <v>30</v>
       </c>
-      <c r="E54" s="74" t="s">
+      <c r="E54" s="73" t="s">
         <v>133</v>
       </c>
-      <c r="F54" s="88">
+      <c r="F54" s="87">
         <v>44520</v>
       </c>
-      <c r="G54" s="65" t="s">
+      <c r="G54" s="64" t="s">
         <v>22</v>
       </c>
-      <c r="H54" s="5" t="s">
+      <c r="H54" s="4" t="s">
         <v>70</v>
       </c>
-      <c r="I54" s="52" t="s">
+      <c r="I54" s="51" t="s">
         <v>53</v>
       </c>
-      <c r="J54" s="70" t="s">
+      <c r="J54" s="69" t="s">
         <v>136</v>
       </c>
     </row>
     <row r="55" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A55" s="7"/>
-      <c r="B55" s="27"/>
-      <c r="C55" s="11"/>
-      <c r="D55" s="7"/>
-      <c r="E55" s="36"/>
-      <c r="F55" s="34"/>
-      <c r="G55" s="63">
+      <c r="A55" s="6"/>
+      <c r="B55" s="26"/>
+      <c r="C55" s="10"/>
+      <c r="D55" s="6"/>
+      <c r="E55" s="35"/>
+      <c r="F55" s="33"/>
+      <c r="G55" s="62">
         <v>81231807990</v>
       </c>
-      <c r="H55" s="7"/>
-      <c r="I55" s="27"/>
-      <c r="J55" s="24"/>
+      <c r="H55" s="6"/>
+      <c r="I55" s="26"/>
+      <c r="J55" s="23"/>
     </row>
     <row r="56" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A56" s="9"/>
-      <c r="B56" s="51"/>
-      <c r="C56" s="12"/>
-      <c r="D56" s="9"/>
-      <c r="E56" s="9"/>
-      <c r="F56" s="37"/>
-      <c r="G56" s="64"/>
-      <c r="H56" s="9"/>
-      <c r="I56" s="51"/>
-      <c r="J56" s="25"/>
+      <c r="A56" s="8"/>
+      <c r="B56" s="50"/>
+      <c r="C56" s="11"/>
+      <c r="D56" s="8"/>
+      <c r="E56" s="8"/>
+      <c r="F56" s="36"/>
+      <c r="G56" s="63"/>
+      <c r="H56" s="8"/>
+      <c r="I56" s="50"/>
+      <c r="J56" s="24"/>
     </row>
     <row r="57" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A57" s="5">
+      <c r="A57" s="4">
         <v>9</v>
       </c>
-      <c r="B57" s="91" t="s">
+      <c r="B57" s="90" t="s">
         <v>13</v>
       </c>
-      <c r="C57" s="10">
+      <c r="C57" s="9">
         <v>31</v>
       </c>
-      <c r="D57" s="14" t="s">
+      <c r="D57" s="13" t="s">
         <v>28</v>
       </c>
-      <c r="E57" s="74" t="s">
+      <c r="E57" s="73" t="s">
         <v>109</v>
       </c>
-      <c r="F57" s="87">
+      <c r="F57" s="86">
         <v>44501</v>
       </c>
-      <c r="G57" s="65" t="s">
+      <c r="G57" s="64" t="s">
         <v>23</v>
       </c>
-      <c r="H57" s="23" t="s">
+      <c r="H57" s="22" t="s">
         <v>74</v>
       </c>
-      <c r="I57" s="52" t="s">
+      <c r="I57" s="51" t="s">
         <v>53</v>
       </c>
-      <c r="J57" s="70" t="s">
+      <c r="J57" s="69" t="s">
         <v>136</v>
       </c>
     </row>
     <row r="58" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A58" s="7"/>
-      <c r="B58" s="92"/>
-      <c r="C58" s="15"/>
-      <c r="D58" s="7"/>
-      <c r="E58" s="44"/>
-      <c r="F58" s="29"/>
-      <c r="G58" s="63">
+      <c r="A58" s="6"/>
+      <c r="B58" s="91"/>
+      <c r="C58" s="14"/>
+      <c r="D58" s="6"/>
+      <c r="E58" s="43"/>
+      <c r="F58" s="28"/>
+      <c r="G58" s="62">
         <v>6587623904</v>
       </c>
-      <c r="H58" s="20"/>
-      <c r="I58" s="27"/>
-      <c r="J58" s="24"/>
+      <c r="H58" s="19"/>
+      <c r="I58" s="26"/>
+      <c r="J58" s="23"/>
     </row>
     <row r="59" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A59" s="9"/>
-      <c r="B59" s="93"/>
-      <c r="C59" s="16"/>
-      <c r="D59" s="9"/>
-      <c r="E59" s="9"/>
-      <c r="F59" s="30"/>
-      <c r="G59" s="64"/>
-      <c r="H59" s="21"/>
-      <c r="I59" s="51"/>
-      <c r="J59" s="25"/>
+      <c r="A59" s="8"/>
+      <c r="B59" s="92"/>
+      <c r="C59" s="15"/>
+      <c r="D59" s="8"/>
+      <c r="E59" s="8"/>
+      <c r="F59" s="29"/>
+      <c r="G59" s="63"/>
+      <c r="H59" s="20"/>
+      <c r="I59" s="50"/>
+      <c r="J59" s="24"/>
     </row>
     <row r="60" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A60" s="5">
+      <c r="A60" s="4">
         <v>15</v>
       </c>
-      <c r="B60" s="90" t="s">
+      <c r="B60" s="89" t="s">
         <v>14</v>
       </c>
-      <c r="C60" s="4">
+      <c r="C60" s="3">
         <v>33</v>
       </c>
-      <c r="D60" s="14" t="s">
+      <c r="D60" s="13" t="s">
         <v>82</v>
       </c>
-      <c r="E60" s="74" t="s">
+      <c r="E60" s="73" t="s">
         <v>109</v>
       </c>
-      <c r="F60" s="121" t="s">
+      <c r="F60" s="120" t="s">
         <v>139</v>
       </c>
-      <c r="G60" s="66" t="s">
+      <c r="G60" s="65" t="s">
         <v>46</v>
       </c>
-      <c r="H60" s="5" t="s">
+      <c r="H60" s="4" t="s">
         <v>76</v>
       </c>
-      <c r="I60" s="53">
+      <c r="I60" s="52">
         <v>44449</v>
       </c>
-      <c r="J60" s="70" t="s">
+      <c r="J60" s="69" t="s">
         <v>136</v>
       </c>
     </row>
     <row r="61" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A61" s="7"/>
-      <c r="B61" s="27"/>
-      <c r="C61" s="11"/>
-      <c r="D61" s="44"/>
-      <c r="E61" s="44"/>
-      <c r="F61" s="32"/>
-      <c r="G61" s="67">
+      <c r="A61" s="6"/>
+      <c r="B61" s="26"/>
+      <c r="C61" s="10"/>
+      <c r="D61" s="43"/>
+      <c r="E61" s="43"/>
+      <c r="F61" s="31"/>
+      <c r="G61" s="66">
         <v>81331430509</v>
       </c>
-      <c r="H61" s="7"/>
-      <c r="I61" s="27"/>
-      <c r="J61" s="24"/>
+      <c r="H61" s="6"/>
+      <c r="I61" s="26"/>
+      <c r="J61" s="23"/>
     </row>
     <row r="62" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A62" s="9"/>
-      <c r="B62" s="51"/>
-      <c r="C62" s="12"/>
-      <c r="D62" s="9"/>
-      <c r="E62" s="9"/>
-      <c r="F62" s="45"/>
-      <c r="G62" s="68"/>
-      <c r="H62" s="9"/>
-      <c r="I62" s="51"/>
-      <c r="J62" s="25"/>
+      <c r="A62" s="8"/>
+      <c r="B62" s="50"/>
+      <c r="C62" s="11"/>
+      <c r="D62" s="8"/>
+      <c r="E62" s="8"/>
+      <c r="F62" s="44"/>
+      <c r="G62" s="67"/>
+      <c r="H62" s="8"/>
+      <c r="I62" s="50"/>
+      <c r="J62" s="24"/>
     </row>
     <row r="63" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A63" s="5">
+      <c r="A63" s="4">
         <v>17</v>
       </c>
-      <c r="B63" s="90" t="s">
+      <c r="B63" s="89" t="s">
         <v>15</v>
       </c>
-      <c r="C63" s="4">
+      <c r="C63" s="3">
         <v>28</v>
       </c>
-      <c r="D63" s="14" t="s">
+      <c r="D63" s="13" t="s">
         <v>40</v>
       </c>
-      <c r="E63" s="74" t="s">
+      <c r="E63" s="73" t="s">
         <v>130</v>
       </c>
-      <c r="F63" s="79" t="s">
+      <c r="F63" s="78" t="s">
         <v>42</v>
       </c>
-      <c r="G63" s="66" t="s">
+      <c r="G63" s="65" t="s">
         <v>41</v>
       </c>
-      <c r="H63" s="5" t="s">
+      <c r="H63" s="4" t="s">
         <v>78</v>
       </c>
-      <c r="I63" s="53">
+      <c r="I63" s="52">
         <v>44440</v>
       </c>
-      <c r="J63" s="70" t="s">
+      <c r="J63" s="69" t="s">
         <v>136</v>
       </c>
     </row>
     <row r="64" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A64" s="7"/>
-      <c r="B64" s="27"/>
-      <c r="C64" s="11"/>
-      <c r="D64" s="44"/>
-      <c r="E64" s="44"/>
-      <c r="F64" s="32"/>
-      <c r="G64" s="67">
+      <c r="A64" s="6"/>
+      <c r="B64" s="26"/>
+      <c r="C64" s="10"/>
+      <c r="D64" s="43"/>
+      <c r="E64" s="43"/>
+      <c r="F64" s="31"/>
+      <c r="G64" s="66">
         <v>85649115380</v>
       </c>
-      <c r="H64" s="7"/>
-      <c r="I64" s="27"/>
-      <c r="J64" s="24"/>
+      <c r="H64" s="6"/>
+      <c r="I64" s="26"/>
+      <c r="J64" s="23"/>
     </row>
     <row r="65" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A65" s="9"/>
-      <c r="B65" s="51"/>
-      <c r="C65" s="12"/>
-      <c r="D65" s="9"/>
-      <c r="E65" s="9"/>
-      <c r="F65" s="45"/>
-      <c r="G65" s="68"/>
-      <c r="H65" s="9"/>
-      <c r="I65" s="51"/>
-      <c r="J65" s="25"/>
+      <c r="A65" s="8"/>
+      <c r="B65" s="50"/>
+      <c r="C65" s="11"/>
+      <c r="D65" s="8"/>
+      <c r="E65" s="8"/>
+      <c r="F65" s="44"/>
+      <c r="G65" s="67"/>
+      <c r="H65" s="8"/>
+      <c r="I65" s="50"/>
+      <c r="J65" s="24"/>
     </row>
     <row r="66" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A66" s="5">
+      <c r="A66" s="4">
         <v>19</v>
       </c>
-      <c r="B66" s="90" t="s">
+      <c r="B66" s="89" t="s">
         <v>16</v>
       </c>
-      <c r="C66" s="4">
+      <c r="C66" s="3">
         <v>40</v>
       </c>
-      <c r="D66" s="43">
+      <c r="D66" s="42">
         <v>44453</v>
       </c>
-      <c r="E66" s="74" t="s">
+      <c r="E66" s="73" t="s">
         <v>129</v>
       </c>
-      <c r="F66" s="79" t="s">
+      <c r="F66" s="78" t="s">
         <v>42</v>
       </c>
-      <c r="G66" s="66" t="s">
+      <c r="G66" s="65" t="s">
         <v>48</v>
       </c>
-      <c r="H66" s="5" t="s">
+      <c r="H66" s="4" t="s">
         <v>80</v>
       </c>
-      <c r="I66" s="70" t="s">
+      <c r="I66" s="69" t="s">
         <v>97</v>
       </c>
-      <c r="J66" s="70" t="s">
+      <c r="J66" s="69" t="s">
         <v>136</v>
       </c>
     </row>
     <row r="67" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A67" s="7"/>
-      <c r="B67" s="27"/>
-      <c r="C67" s="11"/>
-      <c r="D67" s="44"/>
-      <c r="E67" s="44"/>
-      <c r="F67" s="32"/>
-      <c r="G67" s="67">
+      <c r="A67" s="6"/>
+      <c r="B67" s="26"/>
+      <c r="C67" s="10"/>
+      <c r="D67" s="43"/>
+      <c r="E67" s="43"/>
+      <c r="F67" s="31"/>
+      <c r="G67" s="66">
         <v>81359524067</v>
       </c>
-      <c r="H67" s="7"/>
-      <c r="I67" s="27"/>
-      <c r="J67" s="24"/>
+      <c r="H67" s="6"/>
+      <c r="I67" s="26"/>
+      <c r="J67" s="23"/>
     </row>
     <row r="68" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A68" s="9"/>
-      <c r="B68" s="51"/>
-      <c r="C68" s="12"/>
-      <c r="D68" s="9"/>
-      <c r="E68" s="9"/>
-      <c r="F68" s="45"/>
-      <c r="G68" s="68"/>
-      <c r="H68" s="9"/>
-      <c r="I68" s="51"/>
-      <c r="J68" s="25"/>
+      <c r="A68" s="8"/>
+      <c r="B68" s="50"/>
+      <c r="C68" s="11"/>
+      <c r="D68" s="8"/>
+      <c r="E68" s="8"/>
+      <c r="F68" s="44"/>
+      <c r="G68" s="67"/>
+      <c r="H68" s="8"/>
+      <c r="I68" s="50"/>
+      <c r="J68" s="24"/>
     </row>
     <row r="69" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A69" s="5">
+      <c r="A69" s="4">
         <v>20</v>
       </c>
-      <c r="B69" s="90" t="s">
+      <c r="B69" s="89" t="s">
         <v>18</v>
       </c>
-      <c r="C69" s="4">
+      <c r="C69" s="3">
         <v>40</v>
       </c>
-      <c r="D69" s="43">
+      <c r="D69" s="42">
         <v>44453</v>
       </c>
-      <c r="E69" s="74" t="s">
+      <c r="E69" s="73" t="s">
         <v>129</v>
       </c>
-      <c r="F69" s="79" t="s">
+      <c r="F69" s="78" t="s">
         <v>42</v>
       </c>
-      <c r="G69" s="66" t="s">
+      <c r="G69" s="65" t="s">
         <v>25</v>
       </c>
-      <c r="H69" s="5" t="s">
+      <c r="H69" s="4" t="s">
         <v>81</v>
       </c>
-      <c r="I69" s="70" t="s">
+      <c r="I69" s="69" t="s">
         <v>97</v>
       </c>
-      <c r="J69" s="70" t="s">
+      <c r="J69" s="69" t="s">
         <v>136</v>
       </c>
     </row>
     <row r="70" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A70" s="7"/>
-      <c r="B70" s="27"/>
-      <c r="C70" s="11"/>
-      <c r="D70" s="44"/>
-      <c r="E70" s="44"/>
-      <c r="F70" s="32"/>
-      <c r="G70" s="67">
+      <c r="A70" s="6"/>
+      <c r="B70" s="26"/>
+      <c r="C70" s="10"/>
+      <c r="D70" s="43"/>
+      <c r="E70" s="43"/>
+      <c r="F70" s="31"/>
+      <c r="G70" s="66">
         <v>82319844744</v>
       </c>
-      <c r="H70" s="7"/>
-      <c r="I70" s="27"/>
-      <c r="J70" s="24"/>
+      <c r="H70" s="6"/>
+      <c r="I70" s="26"/>
+      <c r="J70" s="23"/>
     </row>
     <row r="71" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A71" s="9"/>
-      <c r="B71" s="51"/>
-      <c r="C71" s="12"/>
-      <c r="D71" s="9"/>
-      <c r="E71" s="9"/>
-      <c r="F71" s="45"/>
-      <c r="G71" s="68"/>
-      <c r="H71" s="9"/>
-      <c r="I71" s="51"/>
-      <c r="J71" s="25"/>
+      <c r="A71" s="8"/>
+      <c r="B71" s="50"/>
+      <c r="C71" s="11"/>
+      <c r="D71" s="8"/>
+      <c r="E71" s="8"/>
+      <c r="F71" s="44"/>
+      <c r="G71" s="67"/>
+      <c r="H71" s="8"/>
+      <c r="I71" s="50"/>
+      <c r="J71" s="24"/>
+    </row>
+    <row r="72" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A72" s="4">
+        <v>7</v>
+      </c>
+      <c r="B72" s="89" t="s">
+        <v>13</v>
+      </c>
+      <c r="C72" s="3">
+        <v>32</v>
+      </c>
+      <c r="D72" s="13" t="s">
+        <v>43</v>
+      </c>
+      <c r="E72" s="73" t="s">
+        <v>130</v>
+      </c>
+      <c r="F72" s="77" t="s">
+        <v>44</v>
+      </c>
+      <c r="G72" s="65" t="s">
+        <v>45</v>
+      </c>
+      <c r="H72" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="I72" s="52">
+        <v>44440</v>
+      </c>
+      <c r="J72" s="53" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="73" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A73" s="6"/>
+      <c r="B73" s="26"/>
+      <c r="C73" s="10"/>
+      <c r="D73" s="43"/>
+      <c r="E73" s="43"/>
+      <c r="F73" s="31"/>
+      <c r="G73" s="66">
+        <v>81333524165</v>
+      </c>
+      <c r="H73" s="6"/>
+      <c r="I73" s="26"/>
+      <c r="J73" s="23"/>
+    </row>
+    <row r="74" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A74" s="8"/>
+      <c r="B74" s="50"/>
+      <c r="C74" s="11"/>
+      <c r="D74" s="8"/>
+      <c r="E74" s="8"/>
+      <c r="F74" s="44"/>
+      <c r="G74" s="67"/>
+      <c r="H74" s="8"/>
+      <c r="I74" s="50"/>
+      <c r="J74" s="24"/>
     </row>
   </sheetData>
   <mergeCells count="8">

--- a/RENCANA BON VOYAGE.xlsx
+++ b/RENCANA BON VOYAGE.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="24701"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="24827"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Mapan\progress\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1DD54902-6B12-4BA2-8775-5B8F5EA23871}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{09ED8E43-36FE-4520-AA01-9668DD7AC38B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -18,7 +18,7 @@
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">done!$A$1:$I$2</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">progres!$A$1:$I$28</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">progres!$A$1:$I$34</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="296" uniqueCount="161">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="330" uniqueCount="175">
   <si>
     <t>NO</t>
   </si>
@@ -517,6 +517,48 @@
   </si>
   <si>
     <t>14 DES</t>
+  </si>
+  <si>
+    <t>31 OKT</t>
+  </si>
+  <si>
+    <t>31 SEPT</t>
+  </si>
+  <si>
+    <t>ETR</t>
+  </si>
+  <si>
+    <t>19 ORG</t>
+  </si>
+  <si>
+    <t>08 JUN</t>
+  </si>
+  <si>
+    <t>08 MEI</t>
+  </si>
+  <si>
+    <t>06 JUNI</t>
+  </si>
+  <si>
+    <t>28 NOV</t>
+  </si>
+  <si>
+    <t>28 OKT</t>
+  </si>
+  <si>
+    <t>31 JAN</t>
+  </si>
+  <si>
+    <t>03 JAN</t>
+  </si>
+  <si>
+    <t>17 DES</t>
+  </si>
+  <si>
+    <t>16 FEB</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16 FEB </t>
   </si>
 </sst>
 </file>
@@ -663,7 +705,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="140">
+  <cellXfs count="141">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -750,9 +792,6 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="2"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" indent="2"/>
-    </xf>
     <xf numFmtId="15" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" indent="2"/>
     </xf>
@@ -898,12 +937,6 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="16" fontId="2" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="2"/>
-    </xf>
-    <xf numFmtId="15" fontId="2" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" indent="2"/>
-    </xf>
     <xf numFmtId="164" fontId="2" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -933,9 +966,6 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="15" fontId="2" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" indent="2"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
@@ -1013,9 +1043,6 @@
     <xf numFmtId="16" fontId="2" fillId="5" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="2"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
     <xf numFmtId="16" fontId="2" fillId="2" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
@@ -1025,12 +1052,6 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="15" fontId="2" fillId="5" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" indent="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="2"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1069,6 +1090,30 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="15" fontId="2" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="2"/>
+    </xf>
+    <xf numFmtId="16" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" indent="2"/>
+    </xf>
+    <xf numFmtId="16" fontId="2" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="16" fontId="2" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="15" fontId="2" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" indent="2"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1158,13 +1203,13 @@
     <xdr:from>
       <xdr:col>14</xdr:col>
       <xdr:colOff>189939</xdr:colOff>
-      <xdr:row>26</xdr:row>
+      <xdr:row>32</xdr:row>
       <xdr:rowOff>89245</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>14</xdr:col>
       <xdr:colOff>190299</xdr:colOff>
-      <xdr:row>26</xdr:row>
+      <xdr:row>32</xdr:row>
       <xdr:rowOff>89605</xdr:rowOff>
     </xdr:to>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
@@ -1223,7 +1268,7 @@
     <xdr:from>
       <xdr:col>14</xdr:col>
       <xdr:colOff>189939</xdr:colOff>
-      <xdr:row>29</xdr:row>
+      <xdr:row>35</xdr:row>
       <xdr:rowOff>89245</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="360" cy="360"/>
@@ -1328,6 +1373,126 @@
           <xdr:spPr>
             <a:xfrm>
               <a:off x="1877760" y="2724000"/>
+              <a:ext cx="18000" cy="18000"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+          </xdr:spPr>
+        </xdr:pic>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>273113</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>178059</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="360" cy="4070"/>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
+        <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId7">
+          <xdr14:nvContentPartPr>
+            <xdr14:cNvPr id="7" name="Ink 6">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{11448A14-7F07-4BB8-98AD-A95C88165BE1}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr14:cNvPr>
+            <xdr14:cNvContentPartPr/>
+          </xdr14:nvContentPartPr>
+          <xdr14:nvPr macro=""/>
+          <xdr14:xfrm>
+            <a:off x="1886760" y="2733000"/>
+            <a:ext cx="360" cy="360"/>
+          </xdr14:xfrm>
+        </xdr:contentPart>
+      </mc:Choice>
+      <mc:Fallback xmlns="">
+        <xdr:pic>
+          <xdr:nvPicPr>
+            <xdr:cNvPr id="2" name="Ink 1">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{56FE5F31-2029-442B-BB69-AC628D2360E0}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvPicPr/>
+          </xdr:nvPicPr>
+          <xdr:blipFill>
+            <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+            <a:stretch>
+              <a:fillRect/>
+            </a:stretch>
+          </xdr:blipFill>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="1877760" y="2724000"/>
+              <a:ext cx="18000" cy="18000"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+          </xdr:spPr>
+        </xdr:pic>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>189939</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>89245</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="360" cy="360"/>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
+        <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId8">
+          <xdr14:nvContentPartPr>
+            <xdr14:cNvPr id="8" name="Ink 7">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{08A63FC5-0444-4F95-BA20-8823482F15DB}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr14:cNvPr>
+            <xdr14:cNvContentPartPr/>
+          </xdr14:nvContentPartPr>
+          <xdr14:nvPr macro=""/>
+          <xdr14:xfrm>
+            <a:off x="12269880" y="5871480"/>
+            <a:ext cx="360" cy="360"/>
+          </xdr14:xfrm>
+        </xdr:contentPart>
+      </mc:Choice>
+      <mc:Fallback xmlns="">
+        <xdr:pic>
+          <xdr:nvPicPr>
+            <xdr:cNvPr id="4" name="Ink 3">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{14E7025F-E45F-427C-A8C7-1EBEFB539DC0}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvPicPr/>
+          </xdr:nvPicPr>
+          <xdr:blipFill>
+            <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4"/>
+            <a:stretch>
+              <a:fillRect/>
+            </a:stretch>
+          </xdr:blipFill>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="12260880" y="5862480"/>
               <a:ext cx="18000" cy="18000"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
@@ -1447,6 +1612,60 @@
     </inkml:brush>
   </inkml:definitions>
   <inkml:trace contextRef="#ctx0" brushRef="#br0">0 0 17439</inkml:trace>
+</inkml:ink>
+</file>
+
+<file path=xl/ink/ink5.xml><?xml version="1.0" encoding="utf-8"?>
+<inkml:ink xmlns:inkml="http://www.w3.org/2003/InkML">
+  <inkml:definitions>
+    <inkml:context xml:id="ctx0">
+      <inkml:inkSource xml:id="inkSrc0">
+        <inkml:traceFormat>
+          <inkml:channel name="X" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
+          <inkml:channel name="Y" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
+          <inkml:channel name="F" type="integer" max="32767" units="dev"/>
+        </inkml:traceFormat>
+        <inkml:channelProperties>
+          <inkml:channelProperty channel="X" name="resolution" value="1000" units="1/cm"/>
+          <inkml:channelProperty channel="Y" name="resolution" value="1000" units="1/cm"/>
+          <inkml:channelProperty channel="F" name="resolution" value="0" units="1/dev"/>
+        </inkml:channelProperties>
+      </inkml:inkSource>
+      <inkml:timestamp xml:id="ts0" timeString="2022-02-26T03:49:01.829"/>
+    </inkml:context>
+    <inkml:brush xml:id="br0">
+      <inkml:brushProperty name="width" value="0.05" units="cm"/>
+      <inkml:brushProperty name="height" value="0.05" units="cm"/>
+    </inkml:brush>
+  </inkml:definitions>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0">0 0 17439</inkml:trace>
+</inkml:ink>
+</file>
+
+<file path=xl/ink/ink6.xml><?xml version="1.0" encoding="utf-8"?>
+<inkml:ink xmlns:inkml="http://www.w3.org/2003/InkML">
+  <inkml:definitions>
+    <inkml:context xml:id="ctx0">
+      <inkml:inkSource xml:id="inkSrc0">
+        <inkml:traceFormat>
+          <inkml:channel name="X" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
+          <inkml:channel name="Y" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
+        </inkml:traceFormat>
+        <inkml:channelProperties>
+          <inkml:channelProperty channel="X" name="resolution" value="1000" units="1/cm"/>
+          <inkml:channelProperty channel="Y" name="resolution" value="1000" units="1/cm"/>
+        </inkml:channelProperties>
+      </inkml:inkSource>
+      <inkml:timestamp xml:id="ts0" timeString="2022-02-26T03:57:31.291"/>
+    </inkml:context>
+    <inkml:brush xml:id="br0">
+      <inkml:brushProperty name="width" value="0.05" units="cm"/>
+      <inkml:brushProperty name="height" value="0.05" units="cm"/>
+      <inkml:brushProperty name="color" value="#E71224"/>
+      <inkml:brushProperty name="ignorePressure" value="1"/>
+    </inkml:brush>
+  </inkml:definitions>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0">0 0,'0'0</inkml:trace>
 </inkml:ink>
 </file>
 
@@ -1772,10 +1991,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:J60"/>
+  <dimension ref="A1:J82"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="85" zoomScaleNormal="85" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="I26" sqref="I26"/>
+    <sheetView tabSelected="1" topLeftCell="A34" zoomScale="85" zoomScaleNormal="85" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="E58" sqref="E58"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1785,55 +2004,55 @@
     <col min="3" max="3" width="9.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="17" style="2" customWidth="1"/>
     <col min="5" max="5" width="18.42578125" style="2" customWidth="1"/>
-    <col min="6" max="6" width="15.85546875" style="32" customWidth="1"/>
-    <col min="7" max="7" width="21.5703125" style="68" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.85546875" style="137" customWidth="1"/>
+    <col min="7" max="7" width="21.5703125" style="67" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="9.7109375" style="2" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="10.42578125" style="54" customWidth="1"/>
+    <col min="9" max="9" width="10.42578125" style="53" customWidth="1"/>
     <col min="10" max="10" width="14" style="27" bestFit="1" customWidth="1"/>
     <col min="11" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="15" x14ac:dyDescent="0.25">
-      <c r="A1" s="127" t="s">
+      <c r="A1" s="120" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="127" t="s">
+      <c r="B1" s="120" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="127" t="s">
+      <c r="C1" s="120" t="s">
         <v>27</v>
       </c>
-      <c r="D1" s="133" t="s">
+      <c r="D1" s="126" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="133"/>
-      <c r="F1" s="131" t="s">
+      <c r="E1" s="126"/>
+      <c r="F1" s="124" t="s">
         <v>8</v>
       </c>
-      <c r="G1" s="129" t="s">
+      <c r="G1" s="122" t="s">
         <v>4</v>
       </c>
-      <c r="H1" s="127" t="s">
+      <c r="H1" s="120" t="s">
         <v>2</v>
       </c>
-      <c r="I1" s="127" t="s">
+      <c r="I1" s="120" t="s">
         <v>56</v>
       </c>
-      <c r="J1" s="127"/>
+      <c r="J1" s="120"/>
     </row>
     <row r="2" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="128"/>
-      <c r="B2" s="128"/>
-      <c r="C2" s="128"/>
+      <c r="A2" s="121"/>
+      <c r="B2" s="121"/>
+      <c r="C2" s="121"/>
       <c r="D2" s="16" t="s">
         <v>6</v>
       </c>
       <c r="E2" s="16" t="s">
         <v>7</v>
       </c>
-      <c r="F2" s="132"/>
-      <c r="G2" s="130"/>
-      <c r="H2" s="128"/>
+      <c r="F2" s="125"/>
+      <c r="G2" s="123"/>
+      <c r="H2" s="121"/>
       <c r="I2" s="16" t="s">
         <v>6</v>
       </c>
@@ -1845,26 +2064,30 @@
       <c r="A3" s="4">
         <v>1</v>
       </c>
-      <c r="B3" s="89" t="s">
+      <c r="B3" s="86" t="s">
         <v>5</v>
       </c>
       <c r="C3" s="3">
         <v>11</v>
       </c>
-      <c r="D3" s="72"/>
-      <c r="E3" s="88" t="s">
+      <c r="D3" s="72" t="s">
+        <v>171</v>
+      </c>
+      <c r="E3" s="85" t="s">
         <v>115</v>
       </c>
-      <c r="F3" s="83" t="s">
+      <c r="F3" s="110" t="s">
         <v>64</v>
       </c>
-      <c r="G3" s="98" t="s">
+      <c r="G3" s="94" t="s">
         <v>142</v>
       </c>
       <c r="H3" s="22" t="s">
         <v>141</v>
       </c>
-      <c r="I3" s="112"/>
+      <c r="I3" s="68" t="s">
+        <v>170</v>
+      </c>
       <c r="J3" s="25"/>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.2">
@@ -1873,48 +2096,52 @@
       <c r="C4" s="10"/>
       <c r="D4" s="19"/>
       <c r="E4" s="19"/>
-      <c r="F4" s="47"/>
-      <c r="G4" s="113" t="s">
+      <c r="F4" s="46"/>
+      <c r="G4" s="109" t="s">
         <v>143</v>
       </c>
       <c r="H4" s="19"/>
-      <c r="I4" s="91"/>
+      <c r="I4" s="88"/>
       <c r="J4" s="23"/>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A5" s="8"/>
-      <c r="B5" s="50"/>
+      <c r="B5" s="49"/>
       <c r="C5" s="11"/>
       <c r="D5" s="20"/>
       <c r="E5" s="20"/>
-      <c r="F5" s="116"/>
-      <c r="G5" s="101"/>
+      <c r="F5" s="112"/>
+      <c r="G5" s="97"/>
       <c r="H5" s="20"/>
-      <c r="I5" s="92"/>
+      <c r="I5" s="89"/>
       <c r="J5" s="24"/>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A6" s="4">
         <v>2</v>
       </c>
-      <c r="B6" s="89" t="s">
+      <c r="B6" s="86" t="s">
         <v>9</v>
       </c>
       <c r="C6" s="3">
         <v>11</v>
       </c>
-      <c r="D6" s="72"/>
-      <c r="E6" s="88" t="s">
+      <c r="D6" s="72" t="s">
+        <v>171</v>
+      </c>
+      <c r="E6" s="85" t="s">
         <v>115</v>
       </c>
-      <c r="F6" s="83" t="s">
+      <c r="F6" s="110" t="s">
         <v>64</v>
       </c>
-      <c r="G6" s="98"/>
+      <c r="G6" s="94"/>
       <c r="H6" s="22" t="s">
         <v>77</v>
       </c>
-      <c r="I6" s="112"/>
+      <c r="I6" s="68" t="s">
+        <v>170</v>
+      </c>
       <c r="J6" s="25"/>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.2">
@@ -1923,8 +2150,8 @@
       <c r="C7" s="10"/>
       <c r="D7" s="19"/>
       <c r="E7" s="19"/>
-      <c r="F7" s="28"/>
-      <c r="G7" s="70" t="s">
+      <c r="F7" s="46"/>
+      <c r="G7" s="69" t="s">
         <v>99</v>
       </c>
       <c r="H7" s="6"/>
@@ -1933,42 +2160,42 @@
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A8" s="8"/>
-      <c r="B8" s="50"/>
+      <c r="B8" s="49"/>
       <c r="C8" s="11"/>
       <c r="D8" s="20"/>
       <c r="E8" s="20"/>
-      <c r="F8" s="29"/>
-      <c r="G8" s="63"/>
+      <c r="F8" s="112"/>
+      <c r="G8" s="62"/>
       <c r="H8" s="8"/>
-      <c r="I8" s="50"/>
+      <c r="I8" s="49"/>
       <c r="J8" s="24"/>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A9" s="4">
         <v>3</v>
       </c>
-      <c r="B9" s="89" t="s">
+      <c r="B9" s="86" t="s">
         <v>10</v>
       </c>
       <c r="C9" s="3">
         <v>17</v>
       </c>
-      <c r="D9" s="74" t="s">
+      <c r="D9" s="73" t="s">
         <v>106</v>
       </c>
-      <c r="E9" s="72">
+      <c r="E9" s="71">
         <v>44237</v>
       </c>
-      <c r="F9" s="83" t="s">
+      <c r="F9" s="110" t="s">
         <v>64</v>
       </c>
-      <c r="G9" s="64" t="s">
+      <c r="G9" s="63" t="s">
         <v>51</v>
       </c>
       <c r="H9" s="4" t="s">
         <v>71</v>
       </c>
-      <c r="I9" s="52">
+      <c r="I9" s="51">
         <v>44449</v>
       </c>
       <c r="J9" s="25"/>
@@ -1977,10 +2204,10 @@
       <c r="A10" s="6"/>
       <c r="B10" s="26"/>
       <c r="C10" s="10"/>
-      <c r="D10" s="35"/>
-      <c r="E10" s="35"/>
-      <c r="F10" s="33"/>
-      <c r="G10" s="62">
+      <c r="D10" s="34"/>
+      <c r="E10" s="34"/>
+      <c r="F10" s="95"/>
+      <c r="G10" s="61">
         <v>81284663664</v>
       </c>
       <c r="H10" s="6"/>
@@ -1989,42 +2216,42 @@
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A11" s="8"/>
-      <c r="B11" s="50"/>
+      <c r="B11" s="49"/>
       <c r="C11" s="11"/>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
-      <c r="F11" s="36"/>
-      <c r="G11" s="63"/>
+      <c r="F11" s="96"/>
+      <c r="G11" s="62"/>
       <c r="H11" s="8"/>
-      <c r="I11" s="50"/>
+      <c r="I11" s="49"/>
       <c r="J11" s="24"/>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A12" s="4">
         <v>4</v>
       </c>
-      <c r="B12" s="89" t="s">
+      <c r="B12" s="86" t="s">
         <v>11</v>
       </c>
       <c r="C12" s="3">
         <v>17</v>
       </c>
-      <c r="D12" s="74" t="s">
+      <c r="D12" s="73" t="s">
         <v>106</v>
       </c>
-      <c r="E12" s="72">
+      <c r="E12" s="71">
         <v>44237</v>
       </c>
-      <c r="F12" s="83" t="s">
+      <c r="F12" s="110" t="s">
         <v>64</v>
       </c>
-      <c r="G12" s="64" t="s">
+      <c r="G12" s="63" t="s">
         <v>47</v>
       </c>
       <c r="H12" s="4" t="s">
         <v>72</v>
       </c>
-      <c r="I12" s="52">
+      <c r="I12" s="51">
         <v>44449</v>
       </c>
       <c r="J12" s="25"/>
@@ -2033,10 +2260,10 @@
       <c r="A13" s="6"/>
       <c r="B13" s="26"/>
       <c r="C13" s="10"/>
-      <c r="D13" s="35"/>
-      <c r="E13" s="35"/>
-      <c r="F13" s="33"/>
-      <c r="G13" s="62">
+      <c r="D13" s="34"/>
+      <c r="E13" s="34"/>
+      <c r="F13" s="95"/>
+      <c r="G13" s="61">
         <v>85740346667</v>
       </c>
       <c r="H13" s="6"/>
@@ -2045,269 +2272,261 @@
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A14" s="8"/>
-      <c r="B14" s="50"/>
+      <c r="B14" s="49"/>
       <c r="C14" s="11"/>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
-      <c r="F14" s="36"/>
-      <c r="G14" s="63"/>
+      <c r="F14" s="96"/>
+      <c r="G14" s="62"/>
       <c r="H14" s="8"/>
-      <c r="I14" s="50"/>
+      <c r="I14" s="49"/>
       <c r="J14" s="24"/>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A15" s="4">
         <v>5</v>
       </c>
-      <c r="B15" s="89" t="s">
+      <c r="B15" s="86" t="s">
         <v>10</v>
       </c>
       <c r="C15" s="3">
         <v>18</v>
       </c>
-      <c r="D15" s="97" t="s">
-        <v>118</v>
-      </c>
-      <c r="E15" s="88" t="s">
+      <c r="D15" s="73" t="s">
+        <v>172</v>
+      </c>
+      <c r="E15" s="85" t="s">
         <v>33</v>
       </c>
-      <c r="F15" s="125" t="s">
+      <c r="F15" s="133" t="s">
         <v>119</v>
       </c>
-      <c r="G15" s="98" t="s">
+      <c r="G15" s="94" t="s">
         <v>124</v>
       </c>
       <c r="H15" s="22" t="s">
         <v>145</v>
       </c>
-      <c r="I15" s="75"/>
+      <c r="I15" s="117" t="s">
+        <v>173</v>
+      </c>
       <c r="J15" s="25"/>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A16" s="6"/>
       <c r="B16" s="26"/>
       <c r="C16" s="10"/>
-      <c r="D16" s="35"/>
-      <c r="E16" s="35"/>
-      <c r="F16" s="99"/>
-      <c r="G16" s="113" t="s">
+      <c r="D16" s="34"/>
+      <c r="E16" s="34"/>
+      <c r="F16" s="95"/>
+      <c r="G16" s="109" t="s">
         <v>125</v>
       </c>
       <c r="H16" s="19"/>
-      <c r="I16" s="91"/>
+      <c r="I16" s="88"/>
       <c r="J16" s="23"/>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A17" s="8"/>
-      <c r="B17" s="50"/>
+      <c r="B17" s="49"/>
       <c r="C17" s="11"/>
       <c r="D17" s="20"/>
       <c r="E17" s="20"/>
-      <c r="F17" s="100"/>
-      <c r="G17" s="101"/>
+      <c r="F17" s="96"/>
+      <c r="G17" s="97"/>
       <c r="H17" s="20"/>
-      <c r="I17" s="92"/>
+      <c r="I17" s="89"/>
       <c r="J17" s="24"/>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A18" s="4">
         <v>6</v>
       </c>
-      <c r="B18" s="89" t="s">
+      <c r="B18" s="86" t="s">
         <v>11</v>
       </c>
       <c r="C18" s="3">
         <v>18</v>
       </c>
-      <c r="D18" s="97"/>
-      <c r="E18" s="88" t="s">
+      <c r="D18" s="73" t="s">
+        <v>172</v>
+      </c>
+      <c r="E18" s="85" t="s">
         <v>33</v>
       </c>
-      <c r="F18" s="125" t="s">
+      <c r="F18" s="133" t="s">
         <v>119</v>
       </c>
-      <c r="G18" s="98" t="s">
+      <c r="G18" s="94" t="s">
         <v>122</v>
       </c>
       <c r="H18" s="22" t="s">
         <v>71</v>
       </c>
-      <c r="I18" s="75"/>
+      <c r="I18" s="117" t="s">
+        <v>173</v>
+      </c>
       <c r="J18" s="25"/>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A19" s="6"/>
       <c r="B19" s="26"/>
       <c r="C19" s="10"/>
-      <c r="D19" s="35"/>
-      <c r="E19" s="35"/>
-      <c r="F19" s="99"/>
-      <c r="G19" s="113" t="s">
+      <c r="D19" s="34"/>
+      <c r="E19" s="34"/>
+      <c r="F19" s="95"/>
+      <c r="G19" s="109" t="s">
         <v>123</v>
       </c>
       <c r="H19" s="19"/>
-      <c r="I19" s="91"/>
+      <c r="I19" s="88"/>
       <c r="J19" s="23"/>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A20" s="8"/>
-      <c r="B20" s="50"/>
+      <c r="B20" s="49"/>
       <c r="C20" s="11"/>
       <c r="D20" s="20"/>
       <c r="E20" s="20"/>
-      <c r="F20" s="100"/>
-      <c r="G20" s="101"/>
+      <c r="F20" s="96"/>
+      <c r="G20" s="97"/>
       <c r="H20" s="20"/>
-      <c r="I20" s="92"/>
+      <c r="I20" s="89"/>
       <c r="J20" s="24"/>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A21" s="4">
-        <v>8</v>
-      </c>
-      <c r="B21" s="89" t="s">
-        <v>13</v>
+        <v>5</v>
+      </c>
+      <c r="B21" s="86" t="s">
+        <v>10</v>
       </c>
       <c r="C21" s="3">
-        <v>33</v>
-      </c>
-      <c r="D21" s="74" t="s">
-        <v>106</v>
-      </c>
-      <c r="E21" s="72">
-        <v>44237</v>
-      </c>
-      <c r="F21" s="83" t="s">
-        <v>64</v>
-      </c>
-      <c r="G21" s="66" t="s">
-        <v>100</v>
-      </c>
-      <c r="H21" s="6" t="s">
-        <v>101</v>
-      </c>
-      <c r="I21" s="95" t="s">
-        <v>112</v>
-      </c>
-      <c r="J21" s="23"/>
+        <v>19</v>
+      </c>
+      <c r="D21" s="93" t="s">
+        <v>118</v>
+      </c>
+      <c r="E21" s="85" t="s">
+        <v>162</v>
+      </c>
+      <c r="F21" s="133" t="s">
+        <v>161</v>
+      </c>
+      <c r="G21" s="94"/>
+      <c r="H21" s="22"/>
+      <c r="I21" s="74"/>
+      <c r="J21" s="25"/>
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A22" s="6"/>
       <c r="B22" s="26"/>
       <c r="C22" s="10"/>
-      <c r="D22" s="6"/>
-      <c r="E22" s="6"/>
-      <c r="F22" s="31"/>
-      <c r="G22" s="66">
-        <v>81235748714</v>
-      </c>
-      <c r="H22" s="6"/>
-      <c r="I22" s="26"/>
+      <c r="D22" s="34"/>
+      <c r="E22" s="34"/>
+      <c r="F22" s="95"/>
+      <c r="G22" s="109"/>
+      <c r="H22" s="19"/>
+      <c r="I22" s="88"/>
       <c r="J22" s="23"/>
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A23" s="8"/>
-      <c r="B23" s="26"/>
-      <c r="C23" s="10"/>
-      <c r="D23" s="19"/>
-      <c r="E23" s="19"/>
-      <c r="F23" s="105"/>
-      <c r="G23" s="106"/>
-      <c r="H23" s="19"/>
-      <c r="I23" s="91"/>
-      <c r="J23" s="23"/>
+      <c r="B23" s="49"/>
+      <c r="C23" s="11"/>
+      <c r="D23" s="20"/>
+      <c r="E23" s="20"/>
+      <c r="F23" s="96"/>
+      <c r="G23" s="97"/>
+      <c r="H23" s="20"/>
+      <c r="I23" s="89"/>
+      <c r="J23" s="24"/>
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A24" s="4">
-        <v>9</v>
-      </c>
-      <c r="B24" s="89" t="s">
-        <v>13</v>
+        <v>6</v>
+      </c>
+      <c r="B24" s="86" t="s">
+        <v>11</v>
       </c>
       <c r="C24" s="3">
-        <v>34</v>
-      </c>
-      <c r="D24" s="97"/>
-      <c r="E24" s="88">
-        <v>44301</v>
-      </c>
-      <c r="F24" s="126" t="s">
-        <v>159</v>
-      </c>
-      <c r="G24" s="106" t="s">
-        <v>157</v>
-      </c>
-      <c r="H24" s="97" t="s">
-        <v>158</v>
-      </c>
-      <c r="I24" s="121"/>
-      <c r="J24" s="23"/>
+        <v>19</v>
+      </c>
+      <c r="D24" s="93"/>
+      <c r="E24" s="85" t="s">
+        <v>162</v>
+      </c>
+      <c r="F24" s="133" t="s">
+        <v>161</v>
+      </c>
+      <c r="G24" s="94"/>
+      <c r="H24" s="22"/>
+      <c r="I24" s="74"/>
+      <c r="J24" s="25"/>
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A25" s="6"/>
       <c r="B25" s="26"/>
       <c r="C25" s="10"/>
-      <c r="D25" s="19"/>
-      <c r="E25" s="19"/>
-      <c r="F25" s="105"/>
-      <c r="G25" s="106">
-        <v>81211928369</v>
-      </c>
+      <c r="D25" s="34"/>
+      <c r="E25" s="34"/>
+      <c r="F25" s="95"/>
+      <c r="G25" s="109"/>
       <c r="H25" s="19"/>
-      <c r="I25" s="91"/>
+      <c r="I25" s="88"/>
       <c r="J25" s="23"/>
     </row>
     <row r="26" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A26" s="6"/>
-      <c r="B26" s="26"/>
-      <c r="C26" s="10"/>
-      <c r="D26" s="6"/>
-      <c r="E26" s="6"/>
-      <c r="F26" s="31"/>
-      <c r="G26" s="66"/>
-      <c r="H26" s="6"/>
-      <c r="I26" s="26"/>
-      <c r="J26" s="23"/>
+      <c r="A26" s="8"/>
+      <c r="B26" s="49"/>
+      <c r="C26" s="11"/>
+      <c r="D26" s="20"/>
+      <c r="E26" s="20"/>
+      <c r="F26" s="96"/>
+      <c r="G26" s="97"/>
+      <c r="H26" s="20"/>
+      <c r="I26" s="89"/>
+      <c r="J26" s="24"/>
     </row>
     <row r="27" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A27" s="4">
-        <v>10</v>
-      </c>
-      <c r="B27" s="89" t="s">
-        <v>12</v>
+        <v>8</v>
+      </c>
+      <c r="B27" s="86" t="s">
+        <v>13</v>
       </c>
       <c r="C27" s="3">
-        <v>26</v>
-      </c>
-      <c r="D27" s="13" t="s">
-        <v>39</v>
-      </c>
-      <c r="E27" s="72">
+        <v>33</v>
+      </c>
+      <c r="D27" s="73" t="s">
+        <v>106</v>
+      </c>
+      <c r="E27" s="71">
         <v>44237</v>
       </c>
-      <c r="F27" s="83" t="s">
+      <c r="F27" s="110" t="s">
         <v>64</v>
       </c>
-      <c r="G27" s="64" t="s">
-        <v>60</v>
-      </c>
-      <c r="H27" s="4" t="s">
-        <v>68</v>
-      </c>
-      <c r="I27" s="52">
-        <v>44440</v>
-      </c>
-      <c r="J27" s="25"/>
+      <c r="G27" s="65" t="s">
+        <v>100</v>
+      </c>
+      <c r="H27" s="6" t="s">
+        <v>101</v>
+      </c>
+      <c r="I27" s="91" t="s">
+        <v>112</v>
+      </c>
+      <c r="J27" s="23"/>
     </row>
     <row r="28" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A28" s="6"/>
       <c r="B28" s="26"/>
       <c r="C28" s="10"/>
       <c r="D28" s="6"/>
-      <c r="E28" s="45"/>
-      <c r="F28" s="28"/>
-      <c r="G28" s="62">
-        <v>85732094240</v>
+      <c r="E28" s="6"/>
+      <c r="F28" s="101"/>
+      <c r="G28" s="65">
+        <v>81235748714</v>
       </c>
       <c r="H28" s="6"/>
       <c r="I28" s="26"/>
@@ -2315,109 +2534,111 @@
     </row>
     <row r="29" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A29" s="8"/>
-      <c r="B29" s="50"/>
-      <c r="C29" s="7"/>
-      <c r="D29" s="8"/>
-      <c r="E29" s="8"/>
-      <c r="F29" s="29"/>
-      <c r="G29" s="63"/>
-      <c r="H29" s="8"/>
-      <c r="I29" s="50"/>
-      <c r="J29" s="24"/>
+      <c r="B29" s="26"/>
+      <c r="C29" s="10"/>
+      <c r="D29" s="19"/>
+      <c r="E29" s="19"/>
+      <c r="F29" s="101"/>
+      <c r="G29" s="102"/>
+      <c r="H29" s="19"/>
+      <c r="I29" s="88"/>
+      <c r="J29" s="23"/>
     </row>
     <row r="30" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A30" s="4">
-        <v>11</v>
-      </c>
-      <c r="B30" s="89" t="s">
-        <v>12</v>
+        <v>9</v>
+      </c>
+      <c r="B30" s="86" t="s">
+        <v>13</v>
       </c>
       <c r="C30" s="3">
-        <v>27</v>
-      </c>
-      <c r="D30" s="13" t="s">
-        <v>114</v>
-      </c>
-      <c r="E30" s="88" t="s">
-        <v>117</v>
-      </c>
-      <c r="F30" s="94" t="s">
-        <v>116</v>
-      </c>
-      <c r="G30" s="64" t="s">
-        <v>110</v>
+        <v>34</v>
+      </c>
+      <c r="D30" s="73" t="s">
+        <v>171</v>
+      </c>
+      <c r="E30" s="85">
+        <v>44301</v>
+      </c>
+      <c r="F30" s="134" t="s">
+        <v>159</v>
+      </c>
+      <c r="G30" s="102" t="s">
+        <v>157</v>
       </c>
       <c r="H30" s="93" t="s">
-        <v>88</v>
-      </c>
-      <c r="I30" s="122" t="s">
-        <v>140</v>
-      </c>
-      <c r="J30" s="25"/>
+        <v>158</v>
+      </c>
+      <c r="I30" s="91" t="s">
+        <v>170</v>
+      </c>
+      <c r="J30" s="23"/>
     </row>
     <row r="31" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A31" s="6"/>
       <c r="B31" s="26"/>
       <c r="C31" s="10"/>
-      <c r="D31" s="6"/>
-      <c r="E31" s="45"/>
-      <c r="F31" s="28"/>
-      <c r="G31" s="70" t="s">
-        <v>111</v>
-      </c>
-      <c r="H31" s="6"/>
-      <c r="I31" s="26"/>
+      <c r="D31" s="19"/>
+      <c r="E31" s="19"/>
+      <c r="F31" s="101"/>
+      <c r="G31" s="102">
+        <v>81211928369</v>
+      </c>
+      <c r="H31" s="19"/>
+      <c r="I31" s="88"/>
       <c r="J31" s="23"/>
     </row>
     <row r="32" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A32" s="8"/>
-      <c r="B32" s="50"/>
-      <c r="C32" s="7"/>
-      <c r="D32" s="8"/>
-      <c r="E32" s="8"/>
-      <c r="F32" s="29"/>
-      <c r="G32" s="63"/>
-      <c r="H32" s="8"/>
-      <c r="I32" s="50"/>
-      <c r="J32" s="24"/>
+      <c r="A32" s="6"/>
+      <c r="B32" s="26"/>
+      <c r="C32" s="10"/>
+      <c r="D32" s="6"/>
+      <c r="E32" s="6"/>
+      <c r="F32" s="101"/>
+      <c r="G32" s="65"/>
+      <c r="H32" s="6"/>
+      <c r="I32" s="26"/>
+      <c r="J32" s="23"/>
     </row>
     <row r="33" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A33" s="4">
+        <v>10</v>
+      </c>
+      <c r="B33" s="86" t="s">
         <v>12</v>
       </c>
-      <c r="B33" s="89" t="s">
-        <v>14</v>
-      </c>
       <c r="C33" s="3">
-        <v>34</v>
-      </c>
-      <c r="D33" s="74" t="s">
-        <v>126</v>
-      </c>
-      <c r="E33" s="96" t="s">
-        <v>115</v>
-      </c>
-      <c r="F33" s="83" t="s">
+        <v>26</v>
+      </c>
+      <c r="D33" s="13" t="s">
+        <v>39</v>
+      </c>
+      <c r="E33" s="71">
+        <v>44237</v>
+      </c>
+      <c r="F33" s="110" t="s">
         <v>64</v>
       </c>
-      <c r="G33" s="66" t="s">
-        <v>127</v>
-      </c>
-      <c r="H33" s="6" t="s">
-        <v>74</v>
-      </c>
-      <c r="I33" s="26"/>
-      <c r="J33" s="23"/>
+      <c r="G33" s="63" t="s">
+        <v>60</v>
+      </c>
+      <c r="H33" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="I33" s="51">
+        <v>44440</v>
+      </c>
+      <c r="J33" s="25"/>
     </row>
     <row r="34" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A34" s="6"/>
       <c r="B34" s="26"/>
       <c r="C34" s="10"/>
       <c r="D34" s="6"/>
-      <c r="E34" s="6"/>
-      <c r="F34" s="31"/>
-      <c r="G34" s="115" t="s">
-        <v>128</v>
+      <c r="E34" s="44"/>
+      <c r="F34" s="46"/>
+      <c r="G34" s="61">
+        <v>85732094240</v>
       </c>
       <c r="H34" s="6"/>
       <c r="I34" s="26"/>
@@ -2425,209 +2646,207 @@
     </row>
     <row r="35" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A35" s="8"/>
-      <c r="B35" s="26"/>
-      <c r="C35" s="10"/>
-      <c r="D35" s="6"/>
-      <c r="E35" s="6"/>
-      <c r="F35" s="31"/>
-      <c r="G35" s="66"/>
-      <c r="H35" s="6"/>
-      <c r="I35" s="26"/>
-      <c r="J35" s="23"/>
-    </row>
-    <row r="36" spans="1:10" s="104" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B35" s="49"/>
+      <c r="C35" s="7"/>
+      <c r="D35" s="8"/>
+      <c r="E35" s="8"/>
+      <c r="F35" s="112"/>
+      <c r="G35" s="62"/>
+      <c r="H35" s="8"/>
+      <c r="I35" s="49"/>
+      <c r="J35" s="24"/>
+    </row>
+    <row r="36" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A36" s="4">
-        <v>13</v>
-      </c>
-      <c r="B36" s="90" t="s">
-        <v>15</v>
-      </c>
-      <c r="C36" s="9">
-        <v>29</v>
-      </c>
-      <c r="D36" s="123" t="s">
-        <v>94</v>
-      </c>
-      <c r="E36" s="72" t="s">
-        <v>120</v>
-      </c>
-      <c r="F36" s="111" t="s">
-        <v>146</v>
-      </c>
-      <c r="G36" s="102" t="s">
-        <v>134</v>
-      </c>
-      <c r="H36" s="22" t="s">
-        <v>67</v>
-      </c>
-      <c r="I36" s="75"/>
-      <c r="J36" s="103"/>
-    </row>
-    <row r="37" spans="1:10" s="104" customFormat="1" x14ac:dyDescent="0.2">
+        <v>11</v>
+      </c>
+      <c r="B36" s="86" t="s">
+        <v>12</v>
+      </c>
+      <c r="C36" s="3">
+        <v>27</v>
+      </c>
+      <c r="D36" s="13" t="s">
+        <v>114</v>
+      </c>
+      <c r="E36" s="85" t="s">
+        <v>117</v>
+      </c>
+      <c r="F36" s="133" t="s">
+        <v>116</v>
+      </c>
+      <c r="G36" s="63" t="s">
+        <v>110</v>
+      </c>
+      <c r="H36" s="90" t="s">
+        <v>88</v>
+      </c>
+      <c r="I36" s="117" t="s">
+        <v>140</v>
+      </c>
+      <c r="J36" s="25"/>
+    </row>
+    <row r="37" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A37" s="6"/>
-      <c r="B37" s="91"/>
-      <c r="C37" s="14"/>
-      <c r="D37" s="35"/>
-      <c r="E37" s="35"/>
-      <c r="F37" s="105"/>
-      <c r="G37" s="119" t="s">
-        <v>135</v>
-      </c>
-      <c r="H37" s="19"/>
-      <c r="I37" s="91"/>
-      <c r="J37" s="107"/>
-    </row>
-    <row r="38" spans="1:10" s="104" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B37" s="26"/>
+      <c r="C37" s="10"/>
+      <c r="D37" s="6"/>
+      <c r="E37" s="44"/>
+      <c r="F37" s="46"/>
+      <c r="G37" s="69" t="s">
+        <v>111</v>
+      </c>
+      <c r="H37" s="6"/>
+      <c r="I37" s="26"/>
+      <c r="J37" s="23"/>
+    </row>
+    <row r="38" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A38" s="8"/>
-      <c r="B38" s="92"/>
-      <c r="C38" s="15"/>
-      <c r="D38" s="20"/>
-      <c r="E38" s="20"/>
-      <c r="F38" s="108"/>
-      <c r="G38" s="109"/>
-      <c r="H38" s="20"/>
-      <c r="I38" s="92"/>
-      <c r="J38" s="110"/>
+      <c r="B38" s="49"/>
+      <c r="C38" s="7"/>
+      <c r="D38" s="8"/>
+      <c r="E38" s="8"/>
+      <c r="F38" s="112"/>
+      <c r="G38" s="62"/>
+      <c r="H38" s="8"/>
+      <c r="I38" s="49"/>
+      <c r="J38" s="24"/>
     </row>
     <row r="39" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A39" s="4">
-        <v>14</v>
-      </c>
-      <c r="B39" s="89" t="s">
-        <v>16</v>
-      </c>
-      <c r="C39" s="9">
-        <v>41</v>
-      </c>
-      <c r="D39" s="73" t="s">
-        <v>136</v>
-      </c>
-      <c r="E39" s="72">
-        <v>44237</v>
-      </c>
-      <c r="F39" s="83" t="s">
-        <v>64</v>
-      </c>
-      <c r="G39" s="102" t="s">
-        <v>137</v>
-      </c>
-      <c r="H39" s="124" t="s">
-        <v>75</v>
-      </c>
-      <c r="I39" s="112"/>
+        <v>11</v>
+      </c>
+      <c r="B39" s="86" t="s">
+        <v>12</v>
+      </c>
+      <c r="C39" s="3">
+        <v>28</v>
+      </c>
+      <c r="D39" s="22"/>
+      <c r="E39" s="85" t="s">
+        <v>169</v>
+      </c>
+      <c r="F39" s="133" t="s">
+        <v>168</v>
+      </c>
+      <c r="G39" s="94"/>
+      <c r="H39" s="119"/>
+      <c r="I39" s="138"/>
       <c r="J39" s="25"/>
     </row>
     <row r="40" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A40" s="6"/>
       <c r="B40" s="26"/>
-      <c r="C40" s="14"/>
-      <c r="D40" s="35"/>
-      <c r="E40" s="35"/>
-      <c r="F40" s="105"/>
-      <c r="G40" s="119" t="s">
-        <v>138</v>
-      </c>
-      <c r="H40" s="19"/>
-      <c r="I40" s="91"/>
+      <c r="C40" s="10"/>
+      <c r="D40" s="6"/>
+      <c r="E40" s="44"/>
+      <c r="F40" s="46"/>
+      <c r="G40" s="69"/>
+      <c r="H40" s="6"/>
+      <c r="I40" s="26"/>
       <c r="J40" s="23"/>
     </row>
     <row r="41" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A41" s="8"/>
-      <c r="B41" s="50"/>
-      <c r="C41" s="15"/>
-      <c r="D41" s="20"/>
-      <c r="E41" s="20"/>
-      <c r="F41" s="108"/>
-      <c r="G41" s="109"/>
-      <c r="H41" s="20"/>
-      <c r="I41" s="92"/>
+      <c r="B41" s="49"/>
+      <c r="C41" s="7"/>
+      <c r="D41" s="8"/>
+      <c r="E41" s="8"/>
+      <c r="F41" s="112"/>
+      <c r="G41" s="62"/>
+      <c r="H41" s="8"/>
+      <c r="I41" s="49"/>
       <c r="J41" s="24"/>
     </row>
     <row r="42" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A42" s="4">
-        <v>15</v>
-      </c>
-      <c r="B42" s="89" t="s">
-        <v>18</v>
-      </c>
-      <c r="C42" s="9">
-        <v>41</v>
+        <v>12</v>
+      </c>
+      <c r="B42" s="86" t="s">
+        <v>14</v>
+      </c>
+      <c r="C42" s="3">
+        <v>34</v>
       </c>
       <c r="D42" s="73" t="s">
-        <v>136</v>
-      </c>
-      <c r="E42" s="72">
-        <v>44237</v>
-      </c>
-      <c r="F42" s="83" t="s">
+        <v>126</v>
+      </c>
+      <c r="E42" s="92" t="s">
+        <v>115</v>
+      </c>
+      <c r="F42" s="110" t="s">
         <v>64</v>
       </c>
-      <c r="G42" s="102"/>
-      <c r="H42" s="124" t="s">
-        <v>144</v>
-      </c>
-      <c r="I42" s="112"/>
-      <c r="J42" s="25"/>
+      <c r="G42" s="65" t="s">
+        <v>127</v>
+      </c>
+      <c r="H42" s="6" t="s">
+        <v>74</v>
+      </c>
+      <c r="I42" s="91" t="s">
+        <v>174</v>
+      </c>
+      <c r="J42" s="23"/>
     </row>
     <row r="43" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A43" s="6"/>
       <c r="B43" s="26"/>
-      <c r="C43" s="14"/>
-      <c r="D43" s="35"/>
-      <c r="E43" s="35"/>
-      <c r="F43" s="105"/>
-      <c r="G43" s="106"/>
-      <c r="H43" s="19"/>
-      <c r="I43" s="91"/>
+      <c r="C43" s="10"/>
+      <c r="D43" s="6"/>
+      <c r="E43" s="6"/>
+      <c r="F43" s="101"/>
+      <c r="G43" s="111" t="s">
+        <v>128</v>
+      </c>
+      <c r="H43" s="6"/>
+      <c r="I43" s="26"/>
       <c r="J43" s="23"/>
     </row>
     <row r="44" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A44" s="8"/>
-      <c r="B44" s="50"/>
-      <c r="C44" s="15"/>
-      <c r="D44" s="20"/>
-      <c r="E44" s="20"/>
-      <c r="F44" s="108"/>
-      <c r="G44" s="109"/>
-      <c r="H44" s="20"/>
-      <c r="I44" s="92"/>
+      <c r="B44" s="26"/>
+      <c r="C44" s="10"/>
+      <c r="D44" s="8"/>
+      <c r="E44" s="8"/>
+      <c r="F44" s="104"/>
+      <c r="G44" s="66"/>
+      <c r="H44" s="8"/>
+      <c r="I44" s="49"/>
       <c r="J44" s="24"/>
     </row>
     <row r="45" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A45" s="4">
-        <v>16</v>
-      </c>
-      <c r="B45" s="25" t="s">
-        <v>96</v>
+        <v>12</v>
+      </c>
+      <c r="B45" s="86" t="s">
+        <v>14</v>
       </c>
       <c r="C45" s="3">
-        <v>4</v>
-      </c>
-      <c r="D45" s="42" t="s">
-        <v>121</v>
-      </c>
-      <c r="E45" s="21"/>
-      <c r="F45" s="83" t="s">
-        <v>64</v>
-      </c>
-      <c r="G45" s="65"/>
-      <c r="H45" s="4" t="s">
-        <v>131</v>
-      </c>
-      <c r="I45" s="117">
-        <v>44287</v>
-      </c>
-      <c r="J45" s="25"/>
+        <v>35</v>
+      </c>
+      <c r="D45" s="93"/>
+      <c r="E45" s="92" t="s">
+        <v>166</v>
+      </c>
+      <c r="F45" s="140" t="s">
+        <v>165</v>
+      </c>
+      <c r="G45" s="65" t="s">
+        <v>127</v>
+      </c>
+      <c r="H45" s="6"/>
+      <c r="I45" s="26"/>
+      <c r="J45" s="23"/>
     </row>
     <row r="46" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A46" s="6"/>
-      <c r="B46" s="23"/>
+      <c r="B46" s="26"/>
       <c r="C46" s="10"/>
-      <c r="D46" s="43"/>
-      <c r="E46" s="43"/>
-      <c r="F46" s="31"/>
-      <c r="G46" s="66">
-        <v>8123522575</v>
+      <c r="D46" s="6"/>
+      <c r="E46" s="6"/>
+      <c r="F46" s="101"/>
+      <c r="G46" s="111" t="s">
+        <v>128</v>
       </c>
       <c r="H46" s="6"/>
       <c r="I46" s="26"/>
@@ -2635,177 +2854,539 @@
     </row>
     <row r="47" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A47" s="8"/>
-      <c r="B47" s="24"/>
-      <c r="C47" s="11"/>
-      <c r="D47" s="8"/>
-      <c r="E47" s="8"/>
-      <c r="F47" s="44"/>
-      <c r="G47" s="67"/>
-      <c r="H47" s="8"/>
-      <c r="I47" s="50"/>
-      <c r="J47" s="24"/>
-    </row>
-    <row r="48" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="B47" s="26"/>
+      <c r="C47" s="10"/>
+      <c r="D47" s="6"/>
+      <c r="E47" s="6"/>
+      <c r="F47" s="101"/>
+      <c r="G47" s="65"/>
+      <c r="H47" s="6"/>
+      <c r="I47" s="26"/>
+      <c r="J47" s="23"/>
+    </row>
+    <row r="48" spans="1:10" s="100" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A48" s="4">
+        <v>13</v>
+      </c>
+      <c r="B48" s="87" t="s">
+        <v>15</v>
+      </c>
+      <c r="C48" s="9">
+        <v>29</v>
+      </c>
+      <c r="D48" s="118" t="s">
+        <v>94</v>
+      </c>
+      <c r="E48" s="71" t="s">
+        <v>120</v>
+      </c>
+      <c r="F48" s="107" t="s">
+        <v>146</v>
+      </c>
+      <c r="G48" s="98" t="s">
+        <v>134</v>
+      </c>
+      <c r="H48" s="22" t="s">
+        <v>67</v>
+      </c>
+      <c r="I48" s="74"/>
+      <c r="J48" s="99"/>
+    </row>
+    <row r="49" spans="1:10" s="100" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A49" s="6"/>
+      <c r="B49" s="88"/>
+      <c r="C49" s="14"/>
+      <c r="D49" s="34"/>
+      <c r="E49" s="34"/>
+      <c r="F49" s="101"/>
+      <c r="G49" s="115" t="s">
+        <v>135</v>
+      </c>
+      <c r="H49" s="19"/>
+      <c r="I49" s="88"/>
+      <c r="J49" s="103"/>
+    </row>
+    <row r="50" spans="1:10" s="100" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A50" s="8"/>
+      <c r="B50" s="89"/>
+      <c r="C50" s="15"/>
+      <c r="D50" s="20"/>
+      <c r="E50" s="20"/>
+      <c r="F50" s="104"/>
+      <c r="G50" s="105"/>
+      <c r="H50" s="20"/>
+      <c r="I50" s="89"/>
+      <c r="J50" s="106"/>
+    </row>
+    <row r="51" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A51" s="4">
+        <v>14</v>
+      </c>
+      <c r="B51" s="86" t="s">
+        <v>16</v>
+      </c>
+      <c r="C51" s="9">
+        <v>41</v>
+      </c>
+      <c r="D51" s="72" t="s">
+        <v>136</v>
+      </c>
+      <c r="E51" s="71">
+        <v>44237</v>
+      </c>
+      <c r="F51" s="110" t="s">
+        <v>64</v>
+      </c>
+      <c r="G51" s="98" t="s">
+        <v>137</v>
+      </c>
+      <c r="H51" s="119" t="s">
+        <v>75</v>
+      </c>
+      <c r="I51" s="108"/>
+      <c r="J51" s="25"/>
+    </row>
+    <row r="52" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A52" s="6"/>
+      <c r="B52" s="26"/>
+      <c r="C52" s="14"/>
+      <c r="D52" s="34"/>
+      <c r="E52" s="34"/>
+      <c r="F52" s="101"/>
+      <c r="G52" s="115" t="s">
+        <v>138</v>
+      </c>
+      <c r="H52" s="19"/>
+      <c r="I52" s="88"/>
+      <c r="J52" s="23"/>
+    </row>
+    <row r="53" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A53" s="8"/>
+      <c r="B53" s="49"/>
+      <c r="C53" s="15"/>
+      <c r="D53" s="20"/>
+      <c r="E53" s="20"/>
+      <c r="F53" s="104"/>
+      <c r="G53" s="105"/>
+      <c r="H53" s="20"/>
+      <c r="I53" s="89"/>
+      <c r="J53" s="24"/>
+    </row>
+    <row r="54" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A54" s="4">
+        <v>15</v>
+      </c>
+      <c r="B54" s="86" t="s">
+        <v>18</v>
+      </c>
+      <c r="C54" s="9">
+        <v>41</v>
+      </c>
+      <c r="D54" s="72" t="s">
+        <v>136</v>
+      </c>
+      <c r="E54" s="71">
+        <v>44237</v>
+      </c>
+      <c r="F54" s="110" t="s">
+        <v>64</v>
+      </c>
+      <c r="G54" s="98"/>
+      <c r="H54" s="119" t="s">
+        <v>144</v>
+      </c>
+      <c r="I54" s="108"/>
+      <c r="J54" s="25"/>
+    </row>
+    <row r="55" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A55" s="6"/>
+      <c r="B55" s="26"/>
+      <c r="C55" s="14"/>
+      <c r="D55" s="34"/>
+      <c r="E55" s="34"/>
+      <c r="F55" s="101"/>
+      <c r="G55" s="102"/>
+      <c r="H55" s="19"/>
+      <c r="I55" s="88"/>
+      <c r="J55" s="23"/>
+    </row>
+    <row r="56" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A56" s="8"/>
+      <c r="B56" s="49"/>
+      <c r="C56" s="15"/>
+      <c r="D56" s="20"/>
+      <c r="E56" s="20"/>
+      <c r="F56" s="104"/>
+      <c r="G56" s="105"/>
+      <c r="H56" s="20"/>
+      <c r="I56" s="89"/>
+      <c r="J56" s="24"/>
+    </row>
+    <row r="57" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A57" s="4">
+        <v>14</v>
+      </c>
+      <c r="B57" s="86" t="s">
+        <v>16</v>
+      </c>
+      <c r="C57" s="9">
+        <v>42</v>
+      </c>
+      <c r="D57" s="71"/>
+      <c r="E57" s="71" t="s">
+        <v>167</v>
+      </c>
+      <c r="F57" s="133" t="s">
+        <v>39</v>
+      </c>
+      <c r="G57" s="98"/>
+      <c r="H57" s="119"/>
+      <c r="I57" s="108"/>
+      <c r="J57" s="25"/>
+    </row>
+    <row r="58" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A58" s="6"/>
+      <c r="B58" s="26"/>
+      <c r="C58" s="14"/>
+      <c r="D58" s="34"/>
+      <c r="E58" s="34"/>
+      <c r="F58" s="101"/>
+      <c r="G58" s="115"/>
+      <c r="H58" s="19"/>
+      <c r="I58" s="88"/>
+      <c r="J58" s="23"/>
+    </row>
+    <row r="59" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A59" s="8"/>
+      <c r="B59" s="49"/>
+      <c r="C59" s="15"/>
+      <c r="D59" s="20"/>
+      <c r="E59" s="20"/>
+      <c r="F59" s="104"/>
+      <c r="G59" s="105"/>
+      <c r="H59" s="20"/>
+      <c r="I59" s="89"/>
+      <c r="J59" s="24"/>
+    </row>
+    <row r="60" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A60" s="4">
+        <v>15</v>
+      </c>
+      <c r="B60" s="86" t="s">
+        <v>18</v>
+      </c>
+      <c r="C60" s="9">
+        <v>42</v>
+      </c>
+      <c r="D60" s="71"/>
+      <c r="E60" s="71" t="s">
+        <v>167</v>
+      </c>
+      <c r="F60" s="133" t="s">
+        <v>39</v>
+      </c>
+      <c r="G60" s="98"/>
+      <c r="H60" s="119"/>
+      <c r="I60" s="108"/>
+      <c r="J60" s="25"/>
+    </row>
+    <row r="61" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A61" s="6"/>
+      <c r="B61" s="26"/>
+      <c r="C61" s="14"/>
+      <c r="D61" s="34"/>
+      <c r="E61" s="34"/>
+      <c r="F61" s="101"/>
+      <c r="G61" s="102"/>
+      <c r="H61" s="19"/>
+      <c r="I61" s="88"/>
+      <c r="J61" s="23"/>
+    </row>
+    <row r="62" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A62" s="8"/>
+      <c r="B62" s="49"/>
+      <c r="C62" s="15"/>
+      <c r="D62" s="20"/>
+      <c r="E62" s="20"/>
+      <c r="F62" s="104"/>
+      <c r="G62" s="105"/>
+      <c r="H62" s="20"/>
+      <c r="I62" s="89"/>
+      <c r="J62" s="24"/>
+    </row>
+    <row r="63" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A63" s="4">
+        <v>16</v>
+      </c>
+      <c r="B63" s="25" t="s">
+        <v>96</v>
+      </c>
+      <c r="C63" s="3">
+        <v>4</v>
+      </c>
+      <c r="D63" s="41" t="s">
+        <v>121</v>
+      </c>
+      <c r="E63" s="21"/>
+      <c r="F63" s="110" t="s">
+        <v>64</v>
+      </c>
+      <c r="G63" s="64"/>
+      <c r="H63" s="4" t="s">
+        <v>131</v>
+      </c>
+      <c r="I63" s="113">
+        <v>44287</v>
+      </c>
+      <c r="J63" s="25"/>
+    </row>
+    <row r="64" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A64" s="6"/>
+      <c r="B64" s="23"/>
+      <c r="C64" s="10"/>
+      <c r="D64" s="42"/>
+      <c r="E64" s="42"/>
+      <c r="F64" s="101"/>
+      <c r="G64" s="65">
+        <v>8123522575</v>
+      </c>
+      <c r="H64" s="6"/>
+      <c r="I64" s="26"/>
+      <c r="J64" s="23"/>
+    </row>
+    <row r="65" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A65" s="8"/>
+      <c r="B65" s="24"/>
+      <c r="C65" s="11"/>
+      <c r="D65" s="8"/>
+      <c r="E65" s="8"/>
+      <c r="F65" s="104"/>
+      <c r="G65" s="66"/>
+      <c r="H65" s="8"/>
+      <c r="I65" s="49"/>
+      <c r="J65" s="24"/>
+    </row>
+    <row r="66" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A66" s="4">
         <v>17</v>
       </c>
-      <c r="B48" s="25" t="s">
+      <c r="B66" s="25" t="s">
         <v>96</v>
       </c>
-      <c r="C48" s="3">
+      <c r="C66" s="3">
         <v>5</v>
       </c>
-      <c r="D48" s="42" t="s">
+      <c r="D66" s="41" t="s">
         <v>106</v>
       </c>
-      <c r="E48" s="21"/>
-      <c r="F48" s="82"/>
-      <c r="G48" s="65" t="s">
+      <c r="E66" s="21"/>
+      <c r="F66" s="135"/>
+      <c r="G66" s="64" t="s">
         <v>103</v>
       </c>
-      <c r="H48" s="4" t="s">
+      <c r="H66" s="4" t="s">
         <v>102</v>
       </c>
-      <c r="I48" s="95" t="s">
+      <c r="I66" s="91" t="s">
         <v>112</v>
       </c>
-      <c r="J48" s="25"/>
-    </row>
-    <row r="49" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A49" s="6"/>
-      <c r="B49" s="23"/>
-      <c r="C49" s="10"/>
-      <c r="D49" s="43"/>
-      <c r="E49" s="43"/>
-      <c r="F49" s="31"/>
-      <c r="G49" s="66">
+      <c r="J66" s="25"/>
+    </row>
+    <row r="67" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A67" s="6"/>
+      <c r="B67" s="23"/>
+      <c r="C67" s="10"/>
+      <c r="D67" s="42"/>
+      <c r="E67" s="42"/>
+      <c r="F67" s="101"/>
+      <c r="G67" s="65">
         <v>89603906796</v>
       </c>
-      <c r="H49" s="6"/>
-      <c r="I49" s="26"/>
-      <c r="J49" s="23"/>
-    </row>
-    <row r="50" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A50" s="8"/>
-      <c r="B50" s="7"/>
-      <c r="C50" s="11"/>
-      <c r="D50" s="8"/>
-      <c r="E50" s="8"/>
-      <c r="F50" s="44"/>
-      <c r="G50" s="67"/>
-      <c r="H50" s="8"/>
-      <c r="I50" s="50"/>
-      <c r="J50" s="24"/>
-    </row>
-    <row r="51" spans="1:10" s="81" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A51" s="2"/>
-      <c r="D51" s="2"/>
-      <c r="E51" s="2"/>
-      <c r="F51" s="80"/>
-      <c r="G51" s="79"/>
-      <c r="H51" s="2"/>
-      <c r="I51" s="80"/>
-      <c r="J51" s="80"/>
-    </row>
-    <row r="52" spans="1:10" s="81" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A52" s="2"/>
-      <c r="B52" s="84" t="s">
+      <c r="H67" s="6"/>
+      <c r="I67" s="26"/>
+      <c r="J67" s="23"/>
+    </row>
+    <row r="68" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A68" s="8"/>
+      <c r="B68" s="7"/>
+      <c r="C68" s="11"/>
+      <c r="D68" s="8"/>
+      <c r="E68" s="8"/>
+      <c r="F68" s="104"/>
+      <c r="G68" s="66"/>
+      <c r="H68" s="8"/>
+      <c r="I68" s="49"/>
+      <c r="J68" s="24"/>
+    </row>
+    <row r="69" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A69" s="4">
+        <v>17</v>
+      </c>
+      <c r="B69" s="25" t="s">
+        <v>163</v>
+      </c>
+      <c r="C69" s="3">
+        <v>1</v>
+      </c>
+      <c r="D69" s="41">
+        <v>44599</v>
+      </c>
+      <c r="E69" s="139"/>
+      <c r="F69" s="135"/>
+      <c r="G69" s="64"/>
+      <c r="H69" s="4" t="s">
+        <v>164</v>
+      </c>
+      <c r="I69" s="91" t="s">
+        <v>170</v>
+      </c>
+      <c r="J69" s="25"/>
+    </row>
+    <row r="70" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A70" s="6"/>
+      <c r="B70" s="23"/>
+      <c r="C70" s="10"/>
+      <c r="D70" s="42"/>
+      <c r="E70" s="42"/>
+      <c r="F70" s="101"/>
+      <c r="G70" s="65"/>
+      <c r="H70" s="6"/>
+      <c r="I70" s="26"/>
+      <c r="J70" s="23"/>
+    </row>
+    <row r="71" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A71" s="8"/>
+      <c r="B71" s="7"/>
+      <c r="C71" s="11"/>
+      <c r="D71" s="8"/>
+      <c r="E71" s="8"/>
+      <c r="F71" s="104"/>
+      <c r="G71" s="66"/>
+      <c r="H71" s="8"/>
+      <c r="I71" s="49"/>
+      <c r="J71" s="24"/>
+    </row>
+    <row r="72" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A72" s="6"/>
+      <c r="B72" s="5"/>
+      <c r="C72" s="10"/>
+      <c r="D72" s="6"/>
+      <c r="E72" s="6"/>
+      <c r="F72" s="101"/>
+      <c r="G72" s="65"/>
+      <c r="H72" s="6"/>
+      <c r="I72" s="26"/>
+      <c r="J72" s="23"/>
+    </row>
+    <row r="73" spans="1:10" s="80" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A73" s="2"/>
+      <c r="D73" s="2"/>
+      <c r="E73" s="2"/>
+      <c r="F73" s="136"/>
+      <c r="G73" s="78"/>
+      <c r="H73" s="2"/>
+      <c r="I73" s="79"/>
+      <c r="J73" s="79"/>
+    </row>
+    <row r="74" spans="1:10" s="80" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A74" s="2"/>
+      <c r="B74" s="81" t="s">
         <v>108</v>
       </c>
-      <c r="C52" s="85"/>
-      <c r="D52" s="2"/>
-      <c r="E52" s="2"/>
-      <c r="F52" s="80"/>
-      <c r="G52" s="80"/>
-      <c r="H52" s="80"/>
-    </row>
-    <row r="53" spans="1:10" s="81" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A53" s="2"/>
-      <c r="B53" s="81" t="s">
+      <c r="C74" s="82"/>
+      <c r="D74" s="2"/>
+      <c r="E74" s="2"/>
+      <c r="F74" s="136"/>
+      <c r="G74" s="79"/>
+      <c r="H74" s="79"/>
+    </row>
+    <row r="75" spans="1:10" s="80" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A75" s="2"/>
+      <c r="B75" s="80" t="s">
         <v>147</v>
       </c>
-      <c r="C53" s="81" t="s">
+      <c r="C75" s="80" t="s">
         <v>148</v>
       </c>
-      <c r="D53" s="2"/>
-      <c r="E53" s="2"/>
-      <c r="F53" s="80"/>
-      <c r="G53" s="80"/>
-      <c r="H53" s="80"/>
-    </row>
-    <row r="54" spans="1:10" s="81" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A54" s="2"/>
-      <c r="B54" s="79" t="s">
+      <c r="D75" s="2"/>
+      <c r="E75" s="2"/>
+      <c r="F75" s="136"/>
+      <c r="G75" s="79"/>
+      <c r="H75" s="79"/>
+    </row>
+    <row r="76" spans="1:10" s="80" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A76" s="2"/>
+      <c r="B76" s="78" t="s">
         <v>150</v>
       </c>
-      <c r="C54" s="2" t="s">
+      <c r="C76" s="2" t="s">
         <v>107</v>
       </c>
-      <c r="D54" s="2"/>
-      <c r="E54" s="2"/>
-      <c r="F54" s="80"/>
-      <c r="G54" s="80"/>
-      <c r="H54" s="80"/>
-    </row>
-    <row r="55" spans="1:10" s="81" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A55" s="2"/>
-      <c r="B55" s="79" t="s">
+      <c r="D76" s="2"/>
+      <c r="E76" s="2"/>
+      <c r="F76" s="136"/>
+      <c r="G76" s="79"/>
+      <c r="H76" s="79"/>
+    </row>
+    <row r="77" spans="1:10" s="80" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A77" s="2"/>
+      <c r="B77" s="78" t="s">
         <v>151</v>
       </c>
-      <c r="C55" s="2" t="s">
+      <c r="C77" s="2" t="s">
         <v>101</v>
       </c>
-      <c r="D55" s="2"/>
-      <c r="E55" s="2"/>
-      <c r="F55" s="80"/>
-      <c r="G55" s="80" t="s">
+      <c r="D77" s="2"/>
+      <c r="E77" s="2"/>
+      <c r="F77" s="136"/>
+      <c r="G77" s="79" t="s">
         <v>156</v>
       </c>
-      <c r="H55" s="80"/>
-    </row>
-    <row r="56" spans="1:10" s="81" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A56" s="2"/>
-      <c r="B56" s="79" t="s">
+      <c r="H77" s="79"/>
+    </row>
+    <row r="78" spans="1:10" s="80" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A78" s="2"/>
+      <c r="B78" s="78" t="s">
         <v>152</v>
       </c>
-      <c r="C56" s="2" t="s">
+      <c r="C78" s="2" t="s">
         <v>68</v>
       </c>
-      <c r="D56" s="2"/>
-      <c r="E56" s="2"/>
-      <c r="F56" s="80"/>
-      <c r="G56" s="79"/>
-      <c r="H56" s="2"/>
-      <c r="I56" s="80"/>
-      <c r="J56" s="80"/>
-    </row>
-    <row r="57" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="B57" s="1" t="s">
+      <c r="D78" s="2"/>
+      <c r="E78" s="2"/>
+      <c r="F78" s="136"/>
+      <c r="G78" s="78"/>
+      <c r="H78" s="2"/>
+      <c r="I78" s="79"/>
+      <c r="J78" s="79"/>
+    </row>
+    <row r="79" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="B79" s="1" t="s">
         <v>113</v>
       </c>
-      <c r="C57" s="1" t="str">
-        <f>H33</f>
+      <c r="C79" s="1" t="str">
+        <f>H42</f>
         <v>25 ORG</v>
       </c>
     </row>
-    <row r="58" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="B58" s="1" t="s">
+    <row r="80" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="B80" s="1" t="s">
         <v>153</v>
       </c>
-      <c r="C58" s="1" t="s">
+      <c r="C80" s="1" t="s">
         <v>154</v>
       </c>
     </row>
-    <row r="59" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="B59" s="79" t="s">
+    <row r="81" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B81" s="78" t="s">
         <v>149</v>
       </c>
-      <c r="C59" s="2" t="s">
+      <c r="C81" s="2" t="s">
         <v>131</v>
       </c>
     </row>
-    <row r="60" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="C60" s="1" t="s">
+    <row r="82" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="C82" s="1" t="s">
         <v>155</v>
       </c>
     </row>
@@ -2830,8 +3411,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{278BA1B3-1491-4141-B637-9082C53CD422}">
   <dimension ref="A1:J74"/>
   <sheetViews>
-    <sheetView topLeftCell="A22" zoomScale="85" zoomScaleNormal="85" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="G61" sqref="G61"/>
+    <sheetView topLeftCell="A34" zoomScale="85" zoomScaleNormal="85" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="B63" sqref="B63"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -2850,46 +3431,46 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="18" x14ac:dyDescent="0.2">
-      <c r="A1" s="136" t="s">
+      <c r="A1" s="129" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="136" t="s">
+      <c r="B1" s="129" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="136" t="s">
+      <c r="C1" s="129" t="s">
         <v>27</v>
       </c>
-      <c r="D1" s="136" t="s">
+      <c r="D1" s="129" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="136"/>
-      <c r="F1" s="138" t="s">
+      <c r="E1" s="129"/>
+      <c r="F1" s="131" t="s">
         <v>104</v>
       </c>
-      <c r="G1" s="136" t="s">
+      <c r="G1" s="129" t="s">
         <v>4</v>
       </c>
-      <c r="H1" s="134" t="s">
+      <c r="H1" s="127" t="s">
         <v>2</v>
       </c>
-      <c r="I1" s="127" t="s">
+      <c r="I1" s="120" t="s">
         <v>56</v>
       </c>
-      <c r="J1" s="127"/>
+      <c r="J1" s="120"/>
     </row>
     <row r="2" spans="1:10" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="137"/>
-      <c r="B2" s="137"/>
-      <c r="C2" s="137"/>
-      <c r="D2" s="71" t="s">
+      <c r="A2" s="130"/>
+      <c r="B2" s="130"/>
+      <c r="C2" s="130"/>
+      <c r="D2" s="70" t="s">
         <v>6</v>
       </c>
       <c r="E2" s="18" t="s">
         <v>7</v>
       </c>
-      <c r="F2" s="139"/>
-      <c r="G2" s="137"/>
-      <c r="H2" s="135"/>
+      <c r="F2" s="132"/>
+      <c r="G2" s="130"/>
+      <c r="H2" s="128"/>
       <c r="I2" s="16" t="s">
         <v>6</v>
       </c>
@@ -2898,34 +3479,34 @@
       </c>
     </row>
     <row r="3" spans="1:10" ht="15" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="37">
+      <c r="A3" s="36">
         <v>1</v>
       </c>
-      <c r="B3" s="38" t="s">
+      <c r="B3" s="37" t="s">
         <v>5</v>
       </c>
-      <c r="C3" s="38">
+      <c r="C3" s="37">
         <v>8</v>
       </c>
-      <c r="D3" s="55">
+      <c r="D3" s="54">
         <v>44218</v>
       </c>
-      <c r="E3" s="39" t="s">
+      <c r="E3" s="38" t="s">
         <v>83</v>
       </c>
-      <c r="F3" s="41" t="s">
+      <c r="F3" s="40" t="s">
         <v>86</v>
       </c>
-      <c r="G3" s="40" t="s">
+      <c r="G3" s="39" t="s">
         <v>84</v>
       </c>
-      <c r="H3" s="37" t="s">
+      <c r="H3" s="36" t="s">
         <v>88</v>
       </c>
-      <c r="I3" s="56">
+      <c r="I3" s="55">
         <v>44251</v>
       </c>
-      <c r="J3" s="58" t="s">
+      <c r="J3" s="57" t="s">
         <v>95</v>
       </c>
     </row>
@@ -2941,7 +3522,7 @@
       </c>
       <c r="H4" s="6"/>
       <c r="I4" s="26"/>
-      <c r="J4" s="59"/>
+      <c r="J4" s="58"/>
     </row>
     <row r="5" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A5" s="8"/>
@@ -2952,7 +3533,7 @@
       <c r="F5" s="29"/>
       <c r="G5" s="29"/>
       <c r="H5" s="8"/>
-      <c r="I5" s="50"/>
+      <c r="I5" s="49"/>
       <c r="J5" s="24"/>
     </row>
     <row r="6" spans="1:10" ht="15" thickTop="1" x14ac:dyDescent="0.2">
@@ -2965,13 +3546,13 @@
       <c r="C6" s="3">
         <v>8</v>
       </c>
-      <c r="D6" s="42">
+      <c r="D6" s="41">
         <v>44218</v>
       </c>
       <c r="E6" s="13" t="s">
         <v>83</v>
       </c>
-      <c r="F6" s="34" t="s">
+      <c r="F6" s="33" t="s">
         <v>86</v>
       </c>
       <c r="G6" s="30" t="s">
@@ -2980,10 +3561,10 @@
       <c r="H6" s="4" t="s">
         <v>87</v>
       </c>
-      <c r="I6" s="56">
+      <c r="I6" s="55">
         <v>44251</v>
       </c>
-      <c r="J6" s="53" t="s">
+      <c r="J6" s="52" t="s">
         <v>95</v>
       </c>
     </row>
@@ -3010,7 +3591,7 @@
       <c r="F8" s="29"/>
       <c r="G8" s="29"/>
       <c r="H8" s="8"/>
-      <c r="I8" s="50"/>
+      <c r="I8" s="49"/>
       <c r="J8" s="24"/>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.2">
@@ -3026,10 +3607,10 @@
       <c r="D9" s="13" t="s">
         <v>93</v>
       </c>
-      <c r="E9" s="60" t="s">
+      <c r="E9" s="59" t="s">
         <v>39</v>
       </c>
-      <c r="F9" s="33">
+      <c r="F9" s="32">
         <v>44440</v>
       </c>
       <c r="G9" s="28" t="s">
@@ -3038,10 +3619,10 @@
       <c r="H9" s="6" t="s">
         <v>91</v>
       </c>
-      <c r="I9" s="57" t="s">
+      <c r="I9" s="56" t="s">
         <v>94</v>
       </c>
-      <c r="J9" s="53" t="s">
+      <c r="J9" s="52" t="s">
         <v>95</v>
       </c>
     </row>
@@ -3084,10 +3665,10 @@
       <c r="D12" s="13" t="s">
         <v>93</v>
       </c>
-      <c r="E12" s="60" t="s">
+      <c r="E12" s="59" t="s">
         <v>39</v>
       </c>
-      <c r="F12" s="33">
+      <c r="F12" s="32">
         <v>44440</v>
       </c>
       <c r="G12" s="28" t="s">
@@ -3096,10 +3677,10 @@
       <c r="H12" s="6" t="s">
         <v>92</v>
       </c>
-      <c r="I12" s="57" t="s">
+      <c r="I12" s="56" t="s">
         <v>94</v>
       </c>
-      <c r="J12" s="53" t="s">
+      <c r="J12" s="52" t="s">
         <v>95</v>
       </c>
     </row>
@@ -3145,19 +3726,19 @@
       <c r="E15" s="13" t="s">
         <v>55</v>
       </c>
-      <c r="F15" s="46" t="s">
+      <c r="F15" s="45" t="s">
         <v>62</v>
       </c>
-      <c r="G15" s="46" t="s">
+      <c r="G15" s="45" t="s">
         <v>37</v>
       </c>
       <c r="H15" s="9" t="s">
         <v>77</v>
       </c>
-      <c r="I15" s="52">
+      <c r="I15" s="51">
         <v>44287</v>
       </c>
-      <c r="J15" s="53" t="s">
+      <c r="J15" s="52" t="s">
         <v>58</v>
       </c>
     </row>
@@ -3168,7 +3749,7 @@
       <c r="D16" s="19"/>
       <c r="E16" s="19"/>
       <c r="F16" s="14"/>
-      <c r="G16" s="47">
+      <c r="G16" s="46">
         <v>82170697118</v>
       </c>
       <c r="H16" s="14"/>
@@ -3184,38 +3765,38 @@
       <c r="F17" s="11"/>
       <c r="G17" s="29"/>
       <c r="H17" s="11"/>
-      <c r="I17" s="50"/>
+      <c r="I17" s="49"/>
       <c r="J17" s="24"/>
     </row>
     <row r="18" spans="1:10" ht="15" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="37">
+      <c r="A18" s="36">
         <v>3</v>
       </c>
-      <c r="B18" s="38" t="s">
+      <c r="B18" s="37" t="s">
         <v>5</v>
       </c>
-      <c r="C18" s="38">
+      <c r="C18" s="37">
         <v>9</v>
       </c>
-      <c r="D18" s="39" t="s">
+      <c r="D18" s="38" t="s">
         <v>29</v>
       </c>
-      <c r="E18" s="39" t="s">
+      <c r="E18" s="38" t="s">
         <v>49</v>
       </c>
-      <c r="F18" s="41">
+      <c r="F18" s="40">
         <v>44444</v>
       </c>
-      <c r="G18" s="61" t="s">
+      <c r="G18" s="60" t="s">
         <v>19</v>
       </c>
-      <c r="H18" s="37" t="s">
+      <c r="H18" s="36" t="s">
         <v>65</v>
       </c>
-      <c r="I18" s="49" t="s">
+      <c r="I18" s="48" t="s">
         <v>53</v>
       </c>
-      <c r="J18" s="69" t="s">
+      <c r="J18" s="68" t="s">
         <v>97</v>
       </c>
     </row>
@@ -3226,7 +3807,7 @@
       <c r="D19" s="19"/>
       <c r="E19" s="19"/>
       <c r="F19" s="28"/>
-      <c r="G19" s="62">
+      <c r="G19" s="61">
         <v>81228196787</v>
       </c>
       <c r="H19" s="6"/>
@@ -3240,9 +3821,9 @@
       <c r="D20" s="8"/>
       <c r="E20" s="8"/>
       <c r="F20" s="29"/>
-      <c r="G20" s="63"/>
+      <c r="G20" s="62"/>
       <c r="H20" s="8"/>
-      <c r="I20" s="50"/>
+      <c r="I20" s="49"/>
       <c r="J20" s="24"/>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.2">
@@ -3261,19 +3842,19 @@
       <c r="E21" s="13" t="s">
         <v>49</v>
       </c>
-      <c r="F21" s="34">
+      <c r="F21" s="33">
         <v>44444</v>
       </c>
-      <c r="G21" s="64" t="s">
+      <c r="G21" s="63" t="s">
         <v>20</v>
       </c>
       <c r="H21" s="4" t="s">
         <v>66</v>
       </c>
-      <c r="I21" s="51" t="s">
+      <c r="I21" s="50" t="s">
         <v>53</v>
       </c>
-      <c r="J21" s="69" t="s">
+      <c r="J21" s="68" t="s">
         <v>97</v>
       </c>
     </row>
@@ -3284,7 +3865,7 @@
       <c r="D22" s="19"/>
       <c r="E22" s="19"/>
       <c r="F22" s="28"/>
-      <c r="G22" s="62">
+      <c r="G22" s="61">
         <v>81225736355</v>
       </c>
       <c r="H22" s="6"/>
@@ -3298,9 +3879,9 @@
       <c r="D23" s="8"/>
       <c r="E23" s="8"/>
       <c r="F23" s="29"/>
-      <c r="G23" s="63"/>
+      <c r="G23" s="62"/>
       <c r="H23" s="8"/>
-      <c r="I23" s="50"/>
+      <c r="I23" s="49"/>
       <c r="J23" s="24"/>
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.2">
@@ -3313,25 +3894,25 @@
       <c r="C24" s="9">
         <v>30</v>
       </c>
-      <c r="D24" s="42">
+      <c r="D24" s="41">
         <v>44253</v>
       </c>
-      <c r="E24" s="42" t="s">
+      <c r="E24" s="41" t="s">
         <v>54</v>
       </c>
       <c r="F24" s="30" t="s">
         <v>63</v>
       </c>
-      <c r="G24" s="64" t="s">
+      <c r="G24" s="63" t="s">
         <v>34</v>
       </c>
       <c r="H24" s="22" t="s">
         <v>73</v>
       </c>
-      <c r="I24" s="52">
+      <c r="I24" s="51">
         <v>44287</v>
       </c>
-      <c r="J24" s="69" t="s">
+      <c r="J24" s="68" t="s">
         <v>97</v>
       </c>
     </row>
@@ -3342,7 +3923,7 @@
       <c r="D25" s="19"/>
       <c r="E25" s="19"/>
       <c r="F25" s="28"/>
-      <c r="G25" s="62">
+      <c r="G25" s="61">
         <v>82110632173</v>
       </c>
       <c r="H25" s="19"/>
@@ -3356,9 +3937,9 @@
       <c r="D26" s="8"/>
       <c r="E26" s="8"/>
       <c r="F26" s="29"/>
-      <c r="G26" s="63"/>
+      <c r="G26" s="62"/>
       <c r="H26" s="20"/>
-      <c r="I26" s="50"/>
+      <c r="I26" s="49"/>
       <c r="J26" s="24"/>
     </row>
     <row r="27" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -3380,16 +3961,16 @@
       <c r="F27" s="30" t="s">
         <v>61</v>
       </c>
-      <c r="G27" s="64" t="s">
+      <c r="G27" s="63" t="s">
         <v>24</v>
       </c>
       <c r="H27" s="22" t="s">
         <v>75</v>
       </c>
-      <c r="I27" s="51" t="s">
+      <c r="I27" s="50" t="s">
         <v>53</v>
       </c>
-      <c r="J27" s="69" t="s">
+      <c r="J27" s="68" t="s">
         <v>97</v>
       </c>
     </row>
@@ -3400,7 +3981,7 @@
       <c r="D28" s="6"/>
       <c r="E28" s="19"/>
       <c r="F28" s="28"/>
-      <c r="G28" s="62">
+      <c r="G28" s="61">
         <v>81231558203</v>
       </c>
       <c r="H28" s="19"/>
@@ -3414,9 +3995,9 @@
       <c r="D29" s="8"/>
       <c r="E29" s="8"/>
       <c r="F29" s="29"/>
-      <c r="G29" s="63"/>
+      <c r="G29" s="62"/>
       <c r="H29" s="20"/>
-      <c r="I29" s="50"/>
+      <c r="I29" s="49"/>
       <c r="J29" s="24"/>
     </row>
     <row r="30" spans="1:10" x14ac:dyDescent="0.2">
@@ -3429,7 +4010,7 @@
       <c r="C30" s="9">
         <v>38</v>
       </c>
-      <c r="D30" s="42">
+      <c r="D30" s="41">
         <v>44253</v>
       </c>
       <c r="E30" s="13" t="s">
@@ -3438,16 +4019,16 @@
       <c r="F30" s="30" t="s">
         <v>17</v>
       </c>
-      <c r="G30" s="64" t="s">
+      <c r="G30" s="63" t="s">
         <v>36</v>
       </c>
       <c r="H30" s="22" t="s">
         <v>72</v>
       </c>
-      <c r="I30" s="52">
+      <c r="I30" s="51">
         <v>44246</v>
       </c>
-      <c r="J30" s="69" t="s">
+      <c r="J30" s="68" t="s">
         <v>97</v>
       </c>
     </row>
@@ -3458,7 +4039,7 @@
       <c r="D31" s="5"/>
       <c r="E31" s="19"/>
       <c r="F31" s="28"/>
-      <c r="G31" s="62">
+      <c r="G31" s="61">
         <v>81318154783</v>
       </c>
       <c r="H31" s="19"/>
@@ -3467,12 +4048,12 @@
     </row>
     <row r="32" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A32" s="6"/>
-      <c r="B32" s="48"/>
-      <c r="C32" s="48"/>
+      <c r="B32" s="47"/>
+      <c r="C32" s="47"/>
       <c r="D32" s="8"/>
       <c r="E32" s="8"/>
       <c r="F32" s="29"/>
-      <c r="G32" s="63"/>
+      <c r="G32" s="62"/>
       <c r="H32" s="20"/>
       <c r="I32" s="24"/>
       <c r="J32" s="24"/>
@@ -3487,7 +4068,7 @@
       <c r="C33" s="9">
         <v>38</v>
       </c>
-      <c r="D33" s="42">
+      <c r="D33" s="41">
         <v>44253</v>
       </c>
       <c r="E33" s="13" t="s">
@@ -3496,16 +4077,16 @@
       <c r="F33" s="30" t="s">
         <v>17</v>
       </c>
-      <c r="G33" s="64" t="s">
+      <c r="G33" s="63" t="s">
         <v>38</v>
       </c>
       <c r="H33" s="22" t="s">
         <v>68</v>
       </c>
-      <c r="I33" s="52">
+      <c r="I33" s="51">
         <v>44246</v>
       </c>
-      <c r="J33" s="69" t="s">
+      <c r="J33" s="68" t="s">
         <v>97</v>
       </c>
     </row>
@@ -3516,7 +4097,7 @@
       <c r="D34" s="5"/>
       <c r="E34" s="19"/>
       <c r="F34" s="28"/>
-      <c r="G34" s="62">
+      <c r="G34" s="61">
         <v>8123929482</v>
       </c>
       <c r="H34" s="19"/>
@@ -3525,12 +4106,12 @@
     </row>
     <row r="35" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A35" s="8"/>
-      <c r="B35" s="48"/>
-      <c r="C35" s="48"/>
+      <c r="B35" s="47"/>
+      <c r="C35" s="47"/>
       <c r="D35" s="8"/>
       <c r="E35" s="8"/>
       <c r="F35" s="29"/>
-      <c r="G35" s="63"/>
+      <c r="G35" s="62"/>
       <c r="H35" s="20"/>
       <c r="I35" s="24"/>
       <c r="J35" s="24"/>
@@ -3551,19 +4132,19 @@
       <c r="E36" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="F36" s="34">
+      <c r="F36" s="33">
         <v>44444</v>
       </c>
-      <c r="G36" s="64" t="s">
+      <c r="G36" s="63" t="s">
         <v>25</v>
       </c>
       <c r="H36" s="4" t="s">
         <v>75</v>
       </c>
-      <c r="I36" s="51" t="s">
+      <c r="I36" s="50" t="s">
         <v>53</v>
       </c>
-      <c r="J36" s="69" t="s">
+      <c r="J36" s="68" t="s">
         <v>97</v>
       </c>
     </row>
@@ -3574,7 +4155,7 @@
       <c r="D37" s="6"/>
       <c r="E37" s="6"/>
       <c r="F37" s="28"/>
-      <c r="G37" s="62">
+      <c r="G37" s="61">
         <v>81331414130</v>
       </c>
       <c r="H37" s="6"/>
@@ -3588,7 +4169,7 @@
       <c r="D38" s="8"/>
       <c r="E38" s="8"/>
       <c r="F38" s="29"/>
-      <c r="G38" s="63"/>
+      <c r="G38" s="62"/>
       <c r="H38" s="8"/>
       <c r="I38" s="24"/>
       <c r="J38" s="24"/>
@@ -3609,19 +4190,19 @@
       <c r="E39" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="F39" s="34">
+      <c r="F39" s="33">
         <v>44444</v>
       </c>
-      <c r="G39" s="64" t="s">
+      <c r="G39" s="63" t="s">
         <v>26</v>
       </c>
       <c r="H39" s="4" t="s">
         <v>79</v>
       </c>
-      <c r="I39" s="51" t="s">
+      <c r="I39" s="50" t="s">
         <v>53</v>
       </c>
-      <c r="J39" s="69" t="s">
+      <c r="J39" s="68" t="s">
         <v>97</v>
       </c>
     </row>
@@ -3632,7 +4213,7 @@
       <c r="D40" s="6"/>
       <c r="E40" s="6"/>
       <c r="F40" s="28"/>
-      <c r="G40" s="62">
+      <c r="G40" s="61">
         <v>81252283477</v>
       </c>
       <c r="H40" s="6"/>
@@ -3646,7 +4227,7 @@
       <c r="D41" s="8"/>
       <c r="E41" s="8"/>
       <c r="F41" s="29"/>
-      <c r="G41" s="63"/>
+      <c r="G41" s="62"/>
       <c r="H41" s="8"/>
       <c r="I41" s="24"/>
       <c r="J41" s="24"/>
@@ -3655,42 +4236,42 @@
       <c r="A42" s="4">
         <v>12</v>
       </c>
-      <c r="B42" s="90" t="s">
+      <c r="B42" s="87" t="s">
         <v>12</v>
       </c>
       <c r="C42" s="9">
         <v>25</v>
       </c>
-      <c r="D42" s="42">
+      <c r="D42" s="41">
         <v>44237</v>
       </c>
       <c r="E42" s="13" t="s">
         <v>109</v>
       </c>
-      <c r="F42" s="114">
+      <c r="F42" s="110">
         <v>44501</v>
       </c>
-      <c r="G42" s="64" t="s">
+      <c r="G42" s="63" t="s">
         <v>35</v>
       </c>
       <c r="H42" s="22" t="s">
         <v>68</v>
       </c>
-      <c r="I42" s="51" t="s">
+      <c r="I42" s="50" t="s">
         <v>53</v>
       </c>
-      <c r="J42" s="51" t="s">
+      <c r="J42" s="50" t="s">
         <v>53</v>
       </c>
     </row>
     <row r="43" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A43" s="6"/>
-      <c r="B43" s="91"/>
+      <c r="B43" s="88"/>
       <c r="C43" s="14"/>
       <c r="D43" s="6"/>
       <c r="E43" s="6"/>
       <c r="F43" s="28"/>
-      <c r="G43" s="62">
+      <c r="G43" s="61">
         <v>82143316439</v>
       </c>
       <c r="H43" s="19"/>
@@ -3699,45 +4280,45 @@
     </row>
     <row r="44" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A44" s="8"/>
-      <c r="B44" s="92"/>
+      <c r="B44" s="89"/>
       <c r="C44" s="15"/>
       <c r="D44" s="8"/>
       <c r="E44" s="8"/>
       <c r="F44" s="29"/>
-      <c r="G44" s="63"/>
+      <c r="G44" s="62"/>
       <c r="H44" s="20"/>
-      <c r="I44" s="50"/>
+      <c r="I44" s="49"/>
       <c r="J44" s="24"/>
     </row>
     <row r="45" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A45" s="4">
         <v>1</v>
       </c>
-      <c r="B45" s="89" t="s">
+      <c r="B45" s="86" t="s">
         <v>5</v>
       </c>
       <c r="C45" s="3">
         <v>10</v>
       </c>
-      <c r="D45" s="73" t="s">
+      <c r="D45" s="72" t="s">
         <v>105</v>
       </c>
-      <c r="E45" s="118" t="s">
+      <c r="E45" s="114" t="s">
         <v>132</v>
       </c>
-      <c r="F45" s="76" t="s">
+      <c r="F45" s="75" t="s">
         <v>52</v>
       </c>
-      <c r="G45" s="64" t="s">
+      <c r="G45" s="63" t="s">
         <v>50</v>
       </c>
       <c r="H45" s="4" t="s">
         <v>67</v>
       </c>
-      <c r="I45" s="69" t="s">
+      <c r="I45" s="68" t="s">
         <v>97</v>
       </c>
-      <c r="J45" s="69" t="s">
+      <c r="J45" s="68" t="s">
         <v>136</v>
       </c>
     </row>
@@ -3748,7 +4329,7 @@
       <c r="D46" s="19"/>
       <c r="E46" s="19"/>
       <c r="F46" s="28"/>
-      <c r="G46" s="62">
+      <c r="G46" s="61">
         <v>81331434743</v>
       </c>
       <c r="H46" s="6"/>
@@ -3757,45 +4338,45 @@
     </row>
     <row r="47" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A47" s="8"/>
-      <c r="B47" s="50"/>
+      <c r="B47" s="49"/>
       <c r="C47" s="11"/>
       <c r="D47" s="20"/>
       <c r="E47" s="20"/>
       <c r="F47" s="29"/>
-      <c r="G47" s="63"/>
+      <c r="G47" s="62"/>
       <c r="H47" s="8"/>
-      <c r="I47" s="50"/>
+      <c r="I47" s="49"/>
       <c r="J47" s="24"/>
     </row>
     <row r="48" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A48" s="4">
         <v>2</v>
       </c>
-      <c r="B48" s="89" t="s">
+      <c r="B48" s="86" t="s">
         <v>9</v>
       </c>
       <c r="C48" s="3">
         <v>10</v>
       </c>
-      <c r="D48" s="73" t="s">
+      <c r="D48" s="72" t="s">
         <v>105</v>
       </c>
-      <c r="E48" s="73" t="s">
+      <c r="E48" s="72" t="s">
         <v>132</v>
       </c>
-      <c r="F48" s="76" t="s">
+      <c r="F48" s="75" t="s">
         <v>52</v>
       </c>
-      <c r="G48" s="64" t="s">
+      <c r="G48" s="63" t="s">
         <v>98</v>
       </c>
       <c r="H48" s="4" t="s">
         <v>68</v>
       </c>
-      <c r="I48" s="69" t="s">
+      <c r="I48" s="68" t="s">
         <v>97</v>
       </c>
-      <c r="J48" s="69" t="s">
+      <c r="J48" s="68" t="s">
         <v>136</v>
       </c>
     </row>
@@ -3806,7 +4387,7 @@
       <c r="D49" s="19"/>
       <c r="E49" s="19"/>
       <c r="F49" s="28"/>
-      <c r="G49" s="70" t="s">
+      <c r="G49" s="69" t="s">
         <v>99</v>
       </c>
       <c r="H49" s="6"/>
@@ -3815,21 +4396,21 @@
     </row>
     <row r="50" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A50" s="8"/>
-      <c r="B50" s="50"/>
+      <c r="B50" s="49"/>
       <c r="C50" s="11"/>
       <c r="D50" s="20"/>
       <c r="E50" s="20"/>
       <c r="F50" s="29"/>
-      <c r="G50" s="63"/>
+      <c r="G50" s="62"/>
       <c r="H50" s="8"/>
-      <c r="I50" s="50"/>
+      <c r="I50" s="49"/>
       <c r="J50" s="24"/>
     </row>
     <row r="51" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A51" s="4">
         <v>3</v>
       </c>
-      <c r="B51" s="89" t="s">
+      <c r="B51" s="86" t="s">
         <v>10</v>
       </c>
       <c r="C51" s="3">
@@ -3838,22 +4419,22 @@
       <c r="D51" s="13" t="s">
         <v>30</v>
       </c>
-      <c r="E51" s="73" t="s">
+      <c r="E51" s="72" t="s">
         <v>133</v>
       </c>
-      <c r="F51" s="87">
+      <c r="F51" s="84">
         <v>44520</v>
       </c>
-      <c r="G51" s="64" t="s">
+      <c r="G51" s="63" t="s">
         <v>21</v>
       </c>
       <c r="H51" s="4" t="s">
         <v>69</v>
       </c>
-      <c r="I51" s="51" t="s">
+      <c r="I51" s="50" t="s">
         <v>53</v>
       </c>
-      <c r="J51" s="69" t="s">
+      <c r="J51" s="68" t="s">
         <v>136</v>
       </c>
     </row>
@@ -3862,9 +4443,9 @@
       <c r="B52" s="26"/>
       <c r="C52" s="10"/>
       <c r="D52" s="6"/>
-      <c r="E52" s="35"/>
-      <c r="F52" s="33"/>
-      <c r="G52" s="62">
+      <c r="E52" s="34"/>
+      <c r="F52" s="32"/>
+      <c r="G52" s="61">
         <v>81232989078</v>
       </c>
       <c r="H52" s="6"/>
@@ -3873,21 +4454,21 @@
     </row>
     <row r="53" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A53" s="8"/>
-      <c r="B53" s="50"/>
+      <c r="B53" s="49"/>
       <c r="C53" s="11"/>
       <c r="D53" s="8"/>
       <c r="E53" s="8"/>
-      <c r="F53" s="36"/>
-      <c r="G53" s="63"/>
+      <c r="F53" s="35"/>
+      <c r="G53" s="62"/>
       <c r="H53" s="8"/>
-      <c r="I53" s="50"/>
+      <c r="I53" s="49"/>
       <c r="J53" s="24"/>
     </row>
     <row r="54" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A54" s="4">
         <v>4</v>
       </c>
-      <c r="B54" s="89" t="s">
+      <c r="B54" s="86" t="s">
         <v>11</v>
       </c>
       <c r="C54" s="3">
@@ -3896,22 +4477,22 @@
       <c r="D54" s="13" t="s">
         <v>30</v>
       </c>
-      <c r="E54" s="73" t="s">
+      <c r="E54" s="72" t="s">
         <v>133</v>
       </c>
-      <c r="F54" s="87">
+      <c r="F54" s="84">
         <v>44520</v>
       </c>
-      <c r="G54" s="64" t="s">
+      <c r="G54" s="63" t="s">
         <v>22</v>
       </c>
       <c r="H54" s="4" t="s">
         <v>70</v>
       </c>
-      <c r="I54" s="51" t="s">
+      <c r="I54" s="50" t="s">
         <v>53</v>
       </c>
-      <c r="J54" s="69" t="s">
+      <c r="J54" s="68" t="s">
         <v>136</v>
       </c>
     </row>
@@ -3920,9 +4501,9 @@
       <c r="B55" s="26"/>
       <c r="C55" s="10"/>
       <c r="D55" s="6"/>
-      <c r="E55" s="35"/>
-      <c r="F55" s="33"/>
-      <c r="G55" s="62">
+      <c r="E55" s="34"/>
+      <c r="F55" s="32"/>
+      <c r="G55" s="61">
         <v>81231807990</v>
       </c>
       <c r="H55" s="6"/>
@@ -3931,21 +4512,21 @@
     </row>
     <row r="56" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A56" s="8"/>
-      <c r="B56" s="50"/>
+      <c r="B56" s="49"/>
       <c r="C56" s="11"/>
       <c r="D56" s="8"/>
       <c r="E56" s="8"/>
-      <c r="F56" s="36"/>
-      <c r="G56" s="63"/>
+      <c r="F56" s="35"/>
+      <c r="G56" s="62"/>
       <c r="H56" s="8"/>
-      <c r="I56" s="50"/>
+      <c r="I56" s="49"/>
       <c r="J56" s="24"/>
     </row>
     <row r="57" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A57" s="4">
         <v>9</v>
       </c>
-      <c r="B57" s="90" t="s">
+      <c r="B57" s="87" t="s">
         <v>13</v>
       </c>
       <c r="C57" s="9">
@@ -3954,33 +4535,33 @@
       <c r="D57" s="13" t="s">
         <v>28</v>
       </c>
-      <c r="E57" s="73" t="s">
+      <c r="E57" s="72" t="s">
         <v>109</v>
       </c>
-      <c r="F57" s="86">
+      <c r="F57" s="83">
         <v>44501</v>
       </c>
-      <c r="G57" s="64" t="s">
+      <c r="G57" s="63" t="s">
         <v>23</v>
       </c>
       <c r="H57" s="22" t="s">
         <v>74</v>
       </c>
-      <c r="I57" s="51" t="s">
+      <c r="I57" s="50" t="s">
         <v>53</v>
       </c>
-      <c r="J57" s="69" t="s">
+      <c r="J57" s="68" t="s">
         <v>136</v>
       </c>
     </row>
     <row r="58" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A58" s="6"/>
-      <c r="B58" s="91"/>
+      <c r="B58" s="88"/>
       <c r="C58" s="14"/>
       <c r="D58" s="6"/>
-      <c r="E58" s="43"/>
+      <c r="E58" s="42"/>
       <c r="F58" s="28"/>
-      <c r="G58" s="62">
+      <c r="G58" s="61">
         <v>6587623904</v>
       </c>
       <c r="H58" s="19"/>
@@ -3989,21 +4570,21 @@
     </row>
     <row r="59" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A59" s="8"/>
-      <c r="B59" s="92"/>
+      <c r="B59" s="89"/>
       <c r="C59" s="15"/>
       <c r="D59" s="8"/>
       <c r="E59" s="8"/>
       <c r="F59" s="29"/>
-      <c r="G59" s="63"/>
+      <c r="G59" s="62"/>
       <c r="H59" s="20"/>
-      <c r="I59" s="50"/>
+      <c r="I59" s="49"/>
       <c r="J59" s="24"/>
     </row>
     <row r="60" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A60" s="4">
         <v>15</v>
       </c>
-      <c r="B60" s="89" t="s">
+      <c r="B60" s="86" t="s">
         <v>14</v>
       </c>
       <c r="C60" s="3">
@@ -4012,22 +4593,22 @@
       <c r="D60" s="13" t="s">
         <v>82</v>
       </c>
-      <c r="E60" s="73" t="s">
+      <c r="E60" s="72" t="s">
         <v>109</v>
       </c>
-      <c r="F60" s="120" t="s">
+      <c r="F60" s="116" t="s">
         <v>139</v>
       </c>
-      <c r="G60" s="65" t="s">
+      <c r="G60" s="64" t="s">
         <v>46</v>
       </c>
       <c r="H60" s="4" t="s">
         <v>76</v>
       </c>
-      <c r="I60" s="52">
+      <c r="I60" s="51">
         <v>44449</v>
       </c>
-      <c r="J60" s="69" t="s">
+      <c r="J60" s="68" t="s">
         <v>136</v>
       </c>
     </row>
@@ -4035,10 +4616,10 @@
       <c r="A61" s="6"/>
       <c r="B61" s="26"/>
       <c r="C61" s="10"/>
-      <c r="D61" s="43"/>
-      <c r="E61" s="43"/>
+      <c r="D61" s="42"/>
+      <c r="E61" s="42"/>
       <c r="F61" s="31"/>
-      <c r="G61" s="66">
+      <c r="G61" s="65">
         <v>81331430509</v>
       </c>
       <c r="H61" s="6"/>
@@ -4047,21 +4628,21 @@
     </row>
     <row r="62" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A62" s="8"/>
-      <c r="B62" s="50"/>
+      <c r="B62" s="49"/>
       <c r="C62" s="11"/>
       <c r="D62" s="8"/>
       <c r="E62" s="8"/>
-      <c r="F62" s="44"/>
-      <c r="G62" s="67"/>
+      <c r="F62" s="43"/>
+      <c r="G62" s="66"/>
       <c r="H62" s="8"/>
-      <c r="I62" s="50"/>
+      <c r="I62" s="49"/>
       <c r="J62" s="24"/>
     </row>
     <row r="63" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A63" s="4">
         <v>17</v>
       </c>
-      <c r="B63" s="89" t="s">
+      <c r="B63" s="86" t="s">
         <v>15</v>
       </c>
       <c r="C63" s="3">
@@ -4070,22 +4651,22 @@
       <c r="D63" s="13" t="s">
         <v>40</v>
       </c>
-      <c r="E63" s="73" t="s">
+      <c r="E63" s="72" t="s">
         <v>130</v>
       </c>
-      <c r="F63" s="78" t="s">
+      <c r="F63" s="77" t="s">
         <v>42</v>
       </c>
-      <c r="G63" s="65" t="s">
+      <c r="G63" s="64" t="s">
         <v>41</v>
       </c>
       <c r="H63" s="4" t="s">
         <v>78</v>
       </c>
-      <c r="I63" s="52">
+      <c r="I63" s="51">
         <v>44440</v>
       </c>
-      <c r="J63" s="69" t="s">
+      <c r="J63" s="68" t="s">
         <v>136</v>
       </c>
     </row>
@@ -4093,10 +4674,10 @@
       <c r="A64" s="6"/>
       <c r="B64" s="26"/>
       <c r="C64" s="10"/>
-      <c r="D64" s="43"/>
-      <c r="E64" s="43"/>
+      <c r="D64" s="42"/>
+      <c r="E64" s="42"/>
       <c r="F64" s="31"/>
-      <c r="G64" s="66">
+      <c r="G64" s="65">
         <v>85649115380</v>
       </c>
       <c r="H64" s="6"/>
@@ -4105,45 +4686,45 @@
     </row>
     <row r="65" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A65" s="8"/>
-      <c r="B65" s="50"/>
+      <c r="B65" s="49"/>
       <c r="C65" s="11"/>
       <c r="D65" s="8"/>
       <c r="E65" s="8"/>
-      <c r="F65" s="44"/>
-      <c r="G65" s="67"/>
+      <c r="F65" s="43"/>
+      <c r="G65" s="66"/>
       <c r="H65" s="8"/>
-      <c r="I65" s="50"/>
+      <c r="I65" s="49"/>
       <c r="J65" s="24"/>
     </row>
     <row r="66" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A66" s="4">
         <v>19</v>
       </c>
-      <c r="B66" s="89" t="s">
+      <c r="B66" s="86" t="s">
         <v>16</v>
       </c>
       <c r="C66" s="3">
         <v>40</v>
       </c>
-      <c r="D66" s="42">
+      <c r="D66" s="41">
         <v>44453</v>
       </c>
-      <c r="E66" s="73" t="s">
+      <c r="E66" s="72" t="s">
         <v>129</v>
       </c>
-      <c r="F66" s="78" t="s">
+      <c r="F66" s="77" t="s">
         <v>42</v>
       </c>
-      <c r="G66" s="65" t="s">
+      <c r="G66" s="64" t="s">
         <v>48</v>
       </c>
       <c r="H66" s="4" t="s">
         <v>80</v>
       </c>
-      <c r="I66" s="69" t="s">
+      <c r="I66" s="68" t="s">
         <v>97</v>
       </c>
-      <c r="J66" s="69" t="s">
+      <c r="J66" s="68" t="s">
         <v>136</v>
       </c>
     </row>
@@ -4151,10 +4732,10 @@
       <c r="A67" s="6"/>
       <c r="B67" s="26"/>
       <c r="C67" s="10"/>
-      <c r="D67" s="43"/>
-      <c r="E67" s="43"/>
+      <c r="D67" s="42"/>
+      <c r="E67" s="42"/>
       <c r="F67" s="31"/>
-      <c r="G67" s="66">
+      <c r="G67" s="65">
         <v>81359524067</v>
       </c>
       <c r="H67" s="6"/>
@@ -4163,45 +4744,45 @@
     </row>
     <row r="68" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A68" s="8"/>
-      <c r="B68" s="50"/>
+      <c r="B68" s="49"/>
       <c r="C68" s="11"/>
       <c r="D68" s="8"/>
       <c r="E68" s="8"/>
-      <c r="F68" s="44"/>
-      <c r="G68" s="67"/>
+      <c r="F68" s="43"/>
+      <c r="G68" s="66"/>
       <c r="H68" s="8"/>
-      <c r="I68" s="50"/>
+      <c r="I68" s="49"/>
       <c r="J68" s="24"/>
     </row>
     <row r="69" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A69" s="4">
         <v>20</v>
       </c>
-      <c r="B69" s="89" t="s">
+      <c r="B69" s="86" t="s">
         <v>18</v>
       </c>
       <c r="C69" s="3">
         <v>40</v>
       </c>
-      <c r="D69" s="42">
+      <c r="D69" s="41">
         <v>44453</v>
       </c>
-      <c r="E69" s="73" t="s">
+      <c r="E69" s="72" t="s">
         <v>129</v>
       </c>
-      <c r="F69" s="78" t="s">
+      <c r="F69" s="77" t="s">
         <v>42</v>
       </c>
-      <c r="G69" s="65" t="s">
+      <c r="G69" s="64" t="s">
         <v>25</v>
       </c>
       <c r="H69" s="4" t="s">
         <v>81</v>
       </c>
-      <c r="I69" s="69" t="s">
+      <c r="I69" s="68" t="s">
         <v>97</v>
       </c>
-      <c r="J69" s="69" t="s">
+      <c r="J69" s="68" t="s">
         <v>136</v>
       </c>
     </row>
@@ -4209,10 +4790,10 @@
       <c r="A70" s="6"/>
       <c r="B70" s="26"/>
       <c r="C70" s="10"/>
-      <c r="D70" s="43"/>
-      <c r="E70" s="43"/>
+      <c r="D70" s="42"/>
+      <c r="E70" s="42"/>
       <c r="F70" s="31"/>
-      <c r="G70" s="66">
+      <c r="G70" s="65">
         <v>82319844744</v>
       </c>
       <c r="H70" s="6"/>
@@ -4221,21 +4802,21 @@
     </row>
     <row r="71" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A71" s="8"/>
-      <c r="B71" s="50"/>
+      <c r="B71" s="49"/>
       <c r="C71" s="11"/>
       <c r="D71" s="8"/>
       <c r="E71" s="8"/>
-      <c r="F71" s="44"/>
-      <c r="G71" s="67"/>
+      <c r="F71" s="43"/>
+      <c r="G71" s="66"/>
       <c r="H71" s="8"/>
-      <c r="I71" s="50"/>
+      <c r="I71" s="49"/>
       <c r="J71" s="24"/>
     </row>
     <row r="72" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A72" s="4">
         <v>7</v>
       </c>
-      <c r="B72" s="89" t="s">
+      <c r="B72" s="86" t="s">
         <v>13</v>
       </c>
       <c r="C72" s="3">
@@ -4244,22 +4825,22 @@
       <c r="D72" s="13" t="s">
         <v>43</v>
       </c>
-      <c r="E72" s="73" t="s">
+      <c r="E72" s="72" t="s">
         <v>130</v>
       </c>
-      <c r="F72" s="77" t="s">
+      <c r="F72" s="76" t="s">
         <v>44</v>
       </c>
-      <c r="G72" s="65" t="s">
+      <c r="G72" s="64" t="s">
         <v>45</v>
       </c>
       <c r="H72" s="4" t="s">
         <v>74</v>
       </c>
-      <c r="I72" s="52">
+      <c r="I72" s="51">
         <v>44440</v>
       </c>
-      <c r="J72" s="53" t="s">
+      <c r="J72" s="52" t="s">
         <v>160</v>
       </c>
     </row>
@@ -4267,10 +4848,10 @@
       <c r="A73" s="6"/>
       <c r="B73" s="26"/>
       <c r="C73" s="10"/>
-      <c r="D73" s="43"/>
-      <c r="E73" s="43"/>
+      <c r="D73" s="42"/>
+      <c r="E73" s="42"/>
       <c r="F73" s="31"/>
-      <c r="G73" s="66">
+      <c r="G73" s="65">
         <v>81333524165</v>
       </c>
       <c r="H73" s="6"/>
@@ -4279,14 +4860,14 @@
     </row>
     <row r="74" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A74" s="8"/>
-      <c r="B74" s="50"/>
+      <c r="B74" s="49"/>
       <c r="C74" s="11"/>
       <c r="D74" s="8"/>
       <c r="E74" s="8"/>
-      <c r="F74" s="44"/>
-      <c r="G74" s="67"/>
+      <c r="F74" s="43"/>
+      <c r="G74" s="66"/>
       <c r="H74" s="8"/>
-      <c r="I74" s="50"/>
+      <c r="I74" s="49"/>
       <c r="J74" s="24"/>
     </row>
   </sheetData>

--- a/RENCANA BON VOYAGE.xlsx
+++ b/RENCANA BON VOYAGE.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Mapan\progress\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{09ED8E43-36FE-4520-AA01-9668DD7AC38B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A0773C64-2F5C-4D7E-AD2F-2F1986CDD47D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="330" uniqueCount="175">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="337" uniqueCount="180">
   <si>
     <t>NO</t>
   </si>
@@ -474,9 +474,6 @@
     <t>65 ORG</t>
   </si>
   <si>
-    <t>01 APRIL</t>
-  </si>
-  <si>
     <t>1. DP1NT11</t>
   </si>
   <si>
@@ -559,6 +556,24 @@
   </si>
   <si>
     <t xml:space="preserve">16 FEB </t>
+  </si>
+  <si>
+    <t>09 MEI</t>
+  </si>
+  <si>
+    <t>KIRIM BN 15 APRIL 2022</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1. DP3N34 </t>
+  </si>
+  <si>
+    <t>2. DP4T29</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1. DP4N35 </t>
+  </si>
+  <si>
+    <t>KIRIM BN 10 MEI 2022</t>
   </si>
 </sst>
 </file>
@@ -597,7 +612,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="7">
+  <fills count="9">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -631,6 +646,18 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="7" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="3" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.59999389629810485"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -705,7 +732,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="141">
+  <cellXfs count="148">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -970,9 +997,6 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1052,6 +1076,30 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="15" fontId="2" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="2"/>
+    </xf>
+    <xf numFmtId="16" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" indent="2"/>
+    </xf>
+    <xf numFmtId="16" fontId="2" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="16" fontId="2" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="15" fontId="2" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" indent="2"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1091,29 +1139,29 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="15" fontId="2" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" indent="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="2"/>
-    </xf>
-    <xf numFmtId="16" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="16" fontId="2" fillId="4" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="15" fontId="2" fillId="4" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="15" fontId="2" fillId="7" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="16" fontId="2" fillId="7" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" indent="2"/>
-    </xf>
-    <xf numFmtId="16" fontId="2" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="16" fontId="2" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="15" fontId="2" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" indent="2"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1993,8 +2041,8 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:J82"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A34" zoomScale="85" zoomScaleNormal="85" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="E58" sqref="E58"/>
+    <sheetView tabSelected="1" topLeftCell="A19" zoomScale="85" zoomScaleNormal="85" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="L56" sqref="L56"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -2004,7 +2052,7 @@
     <col min="3" max="3" width="9.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="17" style="2" customWidth="1"/>
     <col min="5" max="5" width="18.42578125" style="2" customWidth="1"/>
-    <col min="6" max="6" width="15.85546875" style="137" customWidth="1"/>
+    <col min="6" max="6" width="15.85546875" style="123" customWidth="1"/>
     <col min="7" max="7" width="21.5703125" style="67" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="9.7109375" style="2" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="10.42578125" style="53" customWidth="1"/>
@@ -2013,46 +2061,46 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="15" x14ac:dyDescent="0.25">
-      <c r="A1" s="120" t="s">
+      <c r="A1" s="127" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="120" t="s">
+      <c r="B1" s="127" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="120" t="s">
+      <c r="C1" s="127" t="s">
         <v>27</v>
       </c>
-      <c r="D1" s="126" t="s">
+      <c r="D1" s="133" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="126"/>
-      <c r="F1" s="124" t="s">
+      <c r="E1" s="133"/>
+      <c r="F1" s="131" t="s">
         <v>8</v>
       </c>
-      <c r="G1" s="122" t="s">
+      <c r="G1" s="129" t="s">
         <v>4</v>
       </c>
-      <c r="H1" s="120" t="s">
+      <c r="H1" s="127" t="s">
         <v>2</v>
       </c>
-      <c r="I1" s="120" t="s">
+      <c r="I1" s="127" t="s">
         <v>56</v>
       </c>
-      <c r="J1" s="120"/>
+      <c r="J1" s="127"/>
     </row>
     <row r="2" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="121"/>
-      <c r="B2" s="121"/>
-      <c r="C2" s="121"/>
+      <c r="A2" s="128"/>
+      <c r="B2" s="128"/>
+      <c r="C2" s="128"/>
       <c r="D2" s="16" t="s">
         <v>6</v>
       </c>
       <c r="E2" s="16" t="s">
         <v>7</v>
       </c>
-      <c r="F2" s="125"/>
-      <c r="G2" s="123"/>
-      <c r="H2" s="121"/>
+      <c r="F2" s="132"/>
+      <c r="G2" s="130"/>
+      <c r="H2" s="128"/>
       <c r="I2" s="16" t="s">
         <v>6</v>
       </c>
@@ -2071,22 +2119,22 @@
         <v>11</v>
       </c>
       <c r="D3" s="72" t="s">
-        <v>171</v>
-      </c>
-      <c r="E3" s="85" t="s">
+        <v>170</v>
+      </c>
+      <c r="E3" s="142" t="s">
         <v>115</v>
       </c>
-      <c r="F3" s="110" t="s">
+      <c r="F3" s="109" t="s">
         <v>64</v>
       </c>
-      <c r="G3" s="94" t="s">
+      <c r="G3" s="93" t="s">
         <v>142</v>
       </c>
       <c r="H3" s="22" t="s">
         <v>141</v>
       </c>
       <c r="I3" s="68" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="J3" s="25"/>
     </row>
@@ -2097,7 +2145,7 @@
       <c r="D4" s="19"/>
       <c r="E4" s="19"/>
       <c r="F4" s="46"/>
-      <c r="G4" s="109" t="s">
+      <c r="G4" s="108" t="s">
         <v>143</v>
       </c>
       <c r="H4" s="19"/>
@@ -2110,8 +2158,8 @@
       <c r="C5" s="11"/>
       <c r="D5" s="20"/>
       <c r="E5" s="20"/>
-      <c r="F5" s="112"/>
-      <c r="G5" s="97"/>
+      <c r="F5" s="111"/>
+      <c r="G5" s="96"/>
       <c r="H5" s="20"/>
       <c r="I5" s="89"/>
       <c r="J5" s="24"/>
@@ -2127,20 +2175,20 @@
         <v>11</v>
       </c>
       <c r="D6" s="72" t="s">
-        <v>171</v>
-      </c>
-      <c r="E6" s="85" t="s">
+        <v>170</v>
+      </c>
+      <c r="E6" s="142" t="s">
         <v>115</v>
       </c>
-      <c r="F6" s="110" t="s">
+      <c r="F6" s="109" t="s">
         <v>64</v>
       </c>
-      <c r="G6" s="94"/>
+      <c r="G6" s="93"/>
       <c r="H6" s="22" t="s">
         <v>77</v>
       </c>
       <c r="I6" s="68" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="J6" s="25"/>
     </row>
@@ -2164,7 +2212,7 @@
       <c r="C8" s="11"/>
       <c r="D8" s="20"/>
       <c r="E8" s="20"/>
-      <c r="F8" s="112"/>
+      <c r="F8" s="111"/>
       <c r="G8" s="62"/>
       <c r="H8" s="8"/>
       <c r="I8" s="49"/>
@@ -2183,10 +2231,10 @@
       <c r="D9" s="73" t="s">
         <v>106</v>
       </c>
-      <c r="E9" s="71">
+      <c r="E9" s="140">
         <v>44237</v>
       </c>
-      <c r="F9" s="110" t="s">
+      <c r="F9" s="109" t="s">
         <v>64</v>
       </c>
       <c r="G9" s="63" t="s">
@@ -2206,7 +2254,7 @@
       <c r="C10" s="10"/>
       <c r="D10" s="34"/>
       <c r="E10" s="34"/>
-      <c r="F10" s="95"/>
+      <c r="F10" s="94"/>
       <c r="G10" s="61">
         <v>81284663664</v>
       </c>
@@ -2220,7 +2268,7 @@
       <c r="C11" s="11"/>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
-      <c r="F11" s="96"/>
+      <c r="F11" s="95"/>
       <c r="G11" s="62"/>
       <c r="H11" s="8"/>
       <c r="I11" s="49"/>
@@ -2239,10 +2287,10 @@
       <c r="D12" s="73" t="s">
         <v>106</v>
       </c>
-      <c r="E12" s="71">
+      <c r="E12" s="140">
         <v>44237</v>
       </c>
-      <c r="F12" s="110" t="s">
+      <c r="F12" s="109" t="s">
         <v>64</v>
       </c>
       <c r="G12" s="63" t="s">
@@ -2262,7 +2310,7 @@
       <c r="C13" s="10"/>
       <c r="D13" s="34"/>
       <c r="E13" s="34"/>
-      <c r="F13" s="95"/>
+      <c r="F13" s="94"/>
       <c r="G13" s="61">
         <v>85740346667</v>
       </c>
@@ -2276,7 +2324,7 @@
       <c r="C14" s="11"/>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
-      <c r="F14" s="96"/>
+      <c r="F14" s="95"/>
       <c r="G14" s="62"/>
       <c r="H14" s="8"/>
       <c r="I14" s="49"/>
@@ -2293,22 +2341,22 @@
         <v>18</v>
       </c>
       <c r="D15" s="73" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="E15" s="85" t="s">
         <v>33</v>
       </c>
-      <c r="F15" s="133" t="s">
+      <c r="F15" s="119" t="s">
         <v>119</v>
       </c>
-      <c r="G15" s="94" t="s">
+      <c r="G15" s="93" t="s">
         <v>124</v>
       </c>
       <c r="H15" s="22" t="s">
         <v>145</v>
       </c>
-      <c r="I15" s="117" t="s">
-        <v>173</v>
+      <c r="I15" s="116" t="s">
+        <v>172</v>
       </c>
       <c r="J15" s="25"/>
     </row>
@@ -2318,8 +2366,8 @@
       <c r="C16" s="10"/>
       <c r="D16" s="34"/>
       <c r="E16" s="34"/>
-      <c r="F16" s="95"/>
-      <c r="G16" s="109" t="s">
+      <c r="F16" s="94"/>
+      <c r="G16" s="108" t="s">
         <v>125</v>
       </c>
       <c r="H16" s="19"/>
@@ -2332,8 +2380,8 @@
       <c r="C17" s="11"/>
       <c r="D17" s="20"/>
       <c r="E17" s="20"/>
-      <c r="F17" s="96"/>
-      <c r="G17" s="97"/>
+      <c r="F17" s="95"/>
+      <c r="G17" s="96"/>
       <c r="H17" s="20"/>
       <c r="I17" s="89"/>
       <c r="J17" s="24"/>
@@ -2349,22 +2397,22 @@
         <v>18</v>
       </c>
       <c r="D18" s="73" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="E18" s="85" t="s">
         <v>33</v>
       </c>
-      <c r="F18" s="133" t="s">
+      <c r="F18" s="119" t="s">
         <v>119</v>
       </c>
-      <c r="G18" s="94" t="s">
+      <c r="G18" s="93" t="s">
         <v>122</v>
       </c>
       <c r="H18" s="22" t="s">
         <v>71</v>
       </c>
-      <c r="I18" s="117" t="s">
-        <v>173</v>
+      <c r="I18" s="116" t="s">
+        <v>172</v>
       </c>
       <c r="J18" s="25"/>
     </row>
@@ -2374,8 +2422,8 @@
       <c r="C19" s="10"/>
       <c r="D19" s="34"/>
       <c r="E19" s="34"/>
-      <c r="F19" s="95"/>
-      <c r="G19" s="109" t="s">
+      <c r="F19" s="94"/>
+      <c r="G19" s="108" t="s">
         <v>123</v>
       </c>
       <c r="H19" s="19"/>
@@ -2388,8 +2436,8 @@
       <c r="C20" s="11"/>
       <c r="D20" s="20"/>
       <c r="E20" s="20"/>
-      <c r="F20" s="96"/>
-      <c r="G20" s="97"/>
+      <c r="F20" s="95"/>
+      <c r="G20" s="96"/>
       <c r="H20" s="20"/>
       <c r="I20" s="89"/>
       <c r="J20" s="24"/>
@@ -2404,16 +2452,16 @@
       <c r="C21" s="3">
         <v>19</v>
       </c>
-      <c r="D21" s="93" t="s">
+      <c r="D21" s="92" t="s">
         <v>118</v>
       </c>
       <c r="E21" s="85" t="s">
-        <v>162</v>
-      </c>
-      <c r="F21" s="133" t="s">
         <v>161</v>
       </c>
-      <c r="G21" s="94"/>
+      <c r="F21" s="119" t="s">
+        <v>160</v>
+      </c>
+      <c r="G21" s="93"/>
       <c r="H21" s="22"/>
       <c r="I21" s="74"/>
       <c r="J21" s="25"/>
@@ -2424,8 +2472,8 @@
       <c r="C22" s="10"/>
       <c r="D22" s="34"/>
       <c r="E22" s="34"/>
-      <c r="F22" s="95"/>
-      <c r="G22" s="109"/>
+      <c r="F22" s="94"/>
+      <c r="G22" s="108"/>
       <c r="H22" s="19"/>
       <c r="I22" s="88"/>
       <c r="J22" s="23"/>
@@ -2436,8 +2484,8 @@
       <c r="C23" s="11"/>
       <c r="D23" s="20"/>
       <c r="E23" s="20"/>
-      <c r="F23" s="96"/>
-      <c r="G23" s="97"/>
+      <c r="F23" s="95"/>
+      <c r="G23" s="96"/>
       <c r="H23" s="20"/>
       <c r="I23" s="89"/>
       <c r="J23" s="24"/>
@@ -2452,14 +2500,14 @@
       <c r="C24" s="3">
         <v>19</v>
       </c>
-      <c r="D24" s="93"/>
+      <c r="D24" s="92"/>
       <c r="E24" s="85" t="s">
-        <v>162</v>
-      </c>
-      <c r="F24" s="133" t="s">
         <v>161</v>
       </c>
-      <c r="G24" s="94"/>
+      <c r="F24" s="119" t="s">
+        <v>160</v>
+      </c>
+      <c r="G24" s="93"/>
       <c r="H24" s="22"/>
       <c r="I24" s="74"/>
       <c r="J24" s="25"/>
@@ -2470,8 +2518,8 @@
       <c r="C25" s="10"/>
       <c r="D25" s="34"/>
       <c r="E25" s="34"/>
-      <c r="F25" s="95"/>
-      <c r="G25" s="109"/>
+      <c r="F25" s="94"/>
+      <c r="G25" s="108"/>
       <c r="H25" s="19"/>
       <c r="I25" s="88"/>
       <c r="J25" s="23"/>
@@ -2482,8 +2530,8 @@
       <c r="C26" s="11"/>
       <c r="D26" s="20"/>
       <c r="E26" s="20"/>
-      <c r="F26" s="96"/>
-      <c r="G26" s="97"/>
+      <c r="F26" s="95"/>
+      <c r="G26" s="96"/>
       <c r="H26" s="20"/>
       <c r="I26" s="89"/>
       <c r="J26" s="24"/>
@@ -2501,11 +2549,11 @@
       <c r="D27" s="73" t="s">
         <v>106</v>
       </c>
-      <c r="E27" s="71">
+      <c r="E27" s="140">
         <v>44237</v>
       </c>
-      <c r="F27" s="110" t="s">
-        <v>64</v>
+      <c r="F27" s="109" t="s">
+        <v>155</v>
       </c>
       <c r="G27" s="65" t="s">
         <v>100</v>
@@ -2524,7 +2572,7 @@
       <c r="C28" s="10"/>
       <c r="D28" s="6"/>
       <c r="E28" s="6"/>
-      <c r="F28" s="101"/>
+      <c r="F28" s="100"/>
       <c r="G28" s="65">
         <v>81235748714</v>
       </c>
@@ -2538,8 +2586,8 @@
       <c r="C29" s="10"/>
       <c r="D29" s="19"/>
       <c r="E29" s="19"/>
-      <c r="F29" s="101"/>
-      <c r="G29" s="102"/>
+      <c r="F29" s="100"/>
+      <c r="G29" s="101"/>
       <c r="H29" s="19"/>
       <c r="I29" s="88"/>
       <c r="J29" s="23"/>
@@ -2555,22 +2603,22 @@
         <v>34</v>
       </c>
       <c r="D30" s="73" t="s">
-        <v>171</v>
-      </c>
-      <c r="E30" s="85">
+        <v>170</v>
+      </c>
+      <c r="E30" s="143">
         <v>44301</v>
       </c>
-      <c r="F30" s="134" t="s">
-        <v>159</v>
-      </c>
-      <c r="G30" s="102" t="s">
+      <c r="F30" s="120" t="s">
+        <v>158</v>
+      </c>
+      <c r="G30" s="101" t="s">
+        <v>156</v>
+      </c>
+      <c r="H30" s="92" t="s">
         <v>157</v>
       </c>
-      <c r="H30" s="93" t="s">
-        <v>158</v>
-      </c>
       <c r="I30" s="91" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="J30" s="23"/>
     </row>
@@ -2580,8 +2628,8 @@
       <c r="C31" s="10"/>
       <c r="D31" s="19"/>
       <c r="E31" s="19"/>
-      <c r="F31" s="101"/>
-      <c r="G31" s="102">
+      <c r="F31" s="100"/>
+      <c r="G31" s="101">
         <v>81211928369</v>
       </c>
       <c r="H31" s="19"/>
@@ -2594,7 +2642,7 @@
       <c r="C32" s="10"/>
       <c r="D32" s="6"/>
       <c r="E32" s="6"/>
-      <c r="F32" s="101"/>
+      <c r="F32" s="100"/>
       <c r="G32" s="65"/>
       <c r="H32" s="6"/>
       <c r="I32" s="26"/>
@@ -2613,10 +2661,10 @@
       <c r="D33" s="13" t="s">
         <v>39</v>
       </c>
-      <c r="E33" s="71">
+      <c r="E33" s="140">
         <v>44237</v>
       </c>
-      <c r="F33" s="110" t="s">
+      <c r="F33" s="109" t="s">
         <v>64</v>
       </c>
       <c r="G33" s="63" t="s">
@@ -2650,7 +2698,7 @@
       <c r="C35" s="7"/>
       <c r="D35" s="8"/>
       <c r="E35" s="8"/>
-      <c r="F35" s="112"/>
+      <c r="F35" s="111"/>
       <c r="G35" s="62"/>
       <c r="H35" s="8"/>
       <c r="I35" s="49"/>
@@ -2672,7 +2720,7 @@
       <c r="E36" s="85" t="s">
         <v>117</v>
       </c>
-      <c r="F36" s="133" t="s">
+      <c r="F36" s="119" t="s">
         <v>116</v>
       </c>
       <c r="G36" s="63" t="s">
@@ -2681,7 +2729,7 @@
       <c r="H36" s="90" t="s">
         <v>88</v>
       </c>
-      <c r="I36" s="117" t="s">
+      <c r="I36" s="116" t="s">
         <v>140</v>
       </c>
       <c r="J36" s="25"/>
@@ -2706,7 +2754,7 @@
       <c r="C38" s="7"/>
       <c r="D38" s="8"/>
       <c r="E38" s="8"/>
-      <c r="F38" s="112"/>
+      <c r="F38" s="111"/>
       <c r="G38" s="62"/>
       <c r="H38" s="8"/>
       <c r="I38" s="49"/>
@@ -2724,14 +2772,14 @@
       </c>
       <c r="D39" s="22"/>
       <c r="E39" s="85" t="s">
-        <v>169</v>
-      </c>
-      <c r="F39" s="133" t="s">
         <v>168</v>
       </c>
-      <c r="G39" s="94"/>
-      <c r="H39" s="119"/>
-      <c r="I39" s="138"/>
+      <c r="F39" s="119" t="s">
+        <v>167</v>
+      </c>
+      <c r="G39" s="93"/>
+      <c r="H39" s="118"/>
+      <c r="I39" s="124"/>
       <c r="J39" s="25"/>
     </row>
     <row r="40" spans="1:10" x14ac:dyDescent="0.2">
@@ -2752,7 +2800,7 @@
       <c r="C41" s="7"/>
       <c r="D41" s="8"/>
       <c r="E41" s="8"/>
-      <c r="F41" s="112"/>
+      <c r="F41" s="111"/>
       <c r="G41" s="62"/>
       <c r="H41" s="8"/>
       <c r="I41" s="49"/>
@@ -2771,10 +2819,10 @@
       <c r="D42" s="73" t="s">
         <v>126</v>
       </c>
-      <c r="E42" s="92" t="s">
+      <c r="E42" s="141" t="s">
         <v>115</v>
       </c>
-      <c r="F42" s="110" t="s">
+      <c r="F42" s="109" t="s">
         <v>64</v>
       </c>
       <c r="G42" s="65" t="s">
@@ -2784,7 +2832,7 @@
         <v>74</v>
       </c>
       <c r="I42" s="91" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="J42" s="23"/>
     </row>
@@ -2794,8 +2842,8 @@
       <c r="C43" s="10"/>
       <c r="D43" s="6"/>
       <c r="E43" s="6"/>
-      <c r="F43" s="101"/>
-      <c r="G43" s="111" t="s">
+      <c r="F43" s="100"/>
+      <c r="G43" s="110" t="s">
         <v>128</v>
       </c>
       <c r="H43" s="6"/>
@@ -2808,7 +2856,7 @@
       <c r="C44" s="10"/>
       <c r="D44" s="8"/>
       <c r="E44" s="8"/>
-      <c r="F44" s="104"/>
+      <c r="F44" s="103"/>
       <c r="G44" s="66"/>
       <c r="H44" s="8"/>
       <c r="I44" s="49"/>
@@ -2824,12 +2872,12 @@
       <c r="C45" s="3">
         <v>35</v>
       </c>
-      <c r="D45" s="93"/>
-      <c r="E45" s="92" t="s">
-        <v>166</v>
-      </c>
-      <c r="F45" s="140" t="s">
+      <c r="D45" s="92"/>
+      <c r="E45" s="147" t="s">
         <v>165</v>
+      </c>
+      <c r="F45" s="126" t="s">
+        <v>164</v>
       </c>
       <c r="G45" s="65" t="s">
         <v>127</v>
@@ -2844,8 +2892,8 @@
       <c r="C46" s="10"/>
       <c r="D46" s="6"/>
       <c r="E46" s="6"/>
-      <c r="F46" s="101"/>
-      <c r="G46" s="111" t="s">
+      <c r="F46" s="100"/>
+      <c r="G46" s="110" t="s">
         <v>128</v>
       </c>
       <c r="H46" s="6"/>
@@ -2858,13 +2906,13 @@
       <c r="C47" s="10"/>
       <c r="D47" s="6"/>
       <c r="E47" s="6"/>
-      <c r="F47" s="101"/>
+      <c r="F47" s="100"/>
       <c r="G47" s="65"/>
       <c r="H47" s="6"/>
       <c r="I47" s="26"/>
       <c r="J47" s="23"/>
     </row>
-    <row r="48" spans="1:10" s="100" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:10" s="99" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A48" s="4">
         <v>13</v>
       </c>
@@ -2874,49 +2922,49 @@
       <c r="C48" s="9">
         <v>29</v>
       </c>
-      <c r="D48" s="118" t="s">
+      <c r="D48" s="117" t="s">
         <v>94</v>
       </c>
-      <c r="E48" s="71" t="s">
+      <c r="E48" s="144" t="s">
         <v>120</v>
       </c>
-      <c r="F48" s="107" t="s">
-        <v>146</v>
-      </c>
-      <c r="G48" s="98" t="s">
+      <c r="F48" s="106" t="s">
+        <v>174</v>
+      </c>
+      <c r="G48" s="97" t="s">
         <v>134</v>
       </c>
       <c r="H48" s="22" t="s">
         <v>67</v>
       </c>
       <c r="I48" s="74"/>
-      <c r="J48" s="99"/>
-    </row>
-    <row r="49" spans="1:10" s="100" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="J48" s="98"/>
+    </row>
+    <row r="49" spans="1:10" s="99" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A49" s="6"/>
       <c r="B49" s="88"/>
       <c r="C49" s="14"/>
       <c r="D49" s="34"/>
       <c r="E49" s="34"/>
-      <c r="F49" s="101"/>
-      <c r="G49" s="115" t="s">
+      <c r="F49" s="100"/>
+      <c r="G49" s="114" t="s">
         <v>135</v>
       </c>
       <c r="H49" s="19"/>
       <c r="I49" s="88"/>
-      <c r="J49" s="103"/>
-    </row>
-    <row r="50" spans="1:10" s="100" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="J49" s="102"/>
+    </row>
+    <row r="50" spans="1:10" s="99" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A50" s="8"/>
       <c r="B50" s="89"/>
       <c r="C50" s="15"/>
       <c r="D50" s="20"/>
       <c r="E50" s="20"/>
-      <c r="F50" s="104"/>
-      <c r="G50" s="105"/>
+      <c r="F50" s="103"/>
+      <c r="G50" s="104"/>
       <c r="H50" s="20"/>
       <c r="I50" s="89"/>
-      <c r="J50" s="106"/>
+      <c r="J50" s="105"/>
     </row>
     <row r="51" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A51" s="4">
@@ -2931,19 +2979,19 @@
       <c r="D51" s="72" t="s">
         <v>136</v>
       </c>
-      <c r="E51" s="71">
+      <c r="E51" s="140">
         <v>44237</v>
       </c>
-      <c r="F51" s="110" t="s">
+      <c r="F51" s="109" t="s">
         <v>64</v>
       </c>
-      <c r="G51" s="98" t="s">
+      <c r="G51" s="97" t="s">
         <v>137</v>
       </c>
-      <c r="H51" s="119" t="s">
+      <c r="H51" s="118" t="s">
         <v>75</v>
       </c>
-      <c r="I51" s="108"/>
+      <c r="I51" s="107"/>
       <c r="J51" s="25"/>
     </row>
     <row r="52" spans="1:10" x14ac:dyDescent="0.2">
@@ -2952,8 +3000,8 @@
       <c r="C52" s="14"/>
       <c r="D52" s="34"/>
       <c r="E52" s="34"/>
-      <c r="F52" s="101"/>
-      <c r="G52" s="115" t="s">
+      <c r="F52" s="100"/>
+      <c r="G52" s="114" t="s">
         <v>138</v>
       </c>
       <c r="H52" s="19"/>
@@ -2966,8 +3014,8 @@
       <c r="C53" s="15"/>
       <c r="D53" s="20"/>
       <c r="E53" s="20"/>
-      <c r="F53" s="104"/>
-      <c r="G53" s="105"/>
+      <c r="F53" s="103"/>
+      <c r="G53" s="104"/>
       <c r="H53" s="20"/>
       <c r="I53" s="89"/>
       <c r="J53" s="24"/>
@@ -2985,17 +3033,17 @@
       <c r="D54" s="72" t="s">
         <v>136</v>
       </c>
-      <c r="E54" s="71">
+      <c r="E54" s="140">
         <v>44237</v>
       </c>
-      <c r="F54" s="110" t="s">
+      <c r="F54" s="109" t="s">
         <v>64</v>
       </c>
-      <c r="G54" s="98"/>
-      <c r="H54" s="119" t="s">
+      <c r="G54" s="97"/>
+      <c r="H54" s="118" t="s">
         <v>144</v>
       </c>
-      <c r="I54" s="108"/>
+      <c r="I54" s="107"/>
       <c r="J54" s="25"/>
     </row>
     <row r="55" spans="1:10" x14ac:dyDescent="0.2">
@@ -3004,8 +3052,8 @@
       <c r="C55" s="14"/>
       <c r="D55" s="34"/>
       <c r="E55" s="34"/>
-      <c r="F55" s="101"/>
-      <c r="G55" s="102"/>
+      <c r="F55" s="100"/>
+      <c r="G55" s="101"/>
       <c r="H55" s="19"/>
       <c r="I55" s="88"/>
       <c r="J55" s="23"/>
@@ -3016,8 +3064,8 @@
       <c r="C56" s="15"/>
       <c r="D56" s="20"/>
       <c r="E56" s="20"/>
-      <c r="F56" s="104"/>
-      <c r="G56" s="105"/>
+      <c r="F56" s="103"/>
+      <c r="G56" s="104"/>
       <c r="H56" s="20"/>
       <c r="I56" s="89"/>
       <c r="J56" s="24"/>
@@ -3034,14 +3082,14 @@
       </c>
       <c r="D57" s="71"/>
       <c r="E57" s="71" t="s">
-        <v>167</v>
-      </c>
-      <c r="F57" s="133" t="s">
+        <v>166</v>
+      </c>
+      <c r="F57" s="119" t="s">
         <v>39</v>
       </c>
-      <c r="G57" s="98"/>
-      <c r="H57" s="119"/>
-      <c r="I57" s="108"/>
+      <c r="G57" s="97"/>
+      <c r="H57" s="118"/>
+      <c r="I57" s="107"/>
       <c r="J57" s="25"/>
     </row>
     <row r="58" spans="1:10" x14ac:dyDescent="0.2">
@@ -3050,8 +3098,8 @@
       <c r="C58" s="14"/>
       <c r="D58" s="34"/>
       <c r="E58" s="34"/>
-      <c r="F58" s="101"/>
-      <c r="G58" s="115"/>
+      <c r="F58" s="100"/>
+      <c r="G58" s="114"/>
       <c r="H58" s="19"/>
       <c r="I58" s="88"/>
       <c r="J58" s="23"/>
@@ -3062,8 +3110,8 @@
       <c r="C59" s="15"/>
       <c r="D59" s="20"/>
       <c r="E59" s="20"/>
-      <c r="F59" s="104"/>
-      <c r="G59" s="105"/>
+      <c r="F59" s="103"/>
+      <c r="G59" s="104"/>
       <c r="H59" s="20"/>
       <c r="I59" s="89"/>
       <c r="J59" s="24"/>
@@ -3080,14 +3128,14 @@
       </c>
       <c r="D60" s="71"/>
       <c r="E60" s="71" t="s">
-        <v>167</v>
-      </c>
-      <c r="F60" s="133" t="s">
+        <v>166</v>
+      </c>
+      <c r="F60" s="119" t="s">
         <v>39</v>
       </c>
-      <c r="G60" s="98"/>
-      <c r="H60" s="119"/>
-      <c r="I60" s="108"/>
+      <c r="G60" s="97"/>
+      <c r="H60" s="118"/>
+      <c r="I60" s="107"/>
       <c r="J60" s="25"/>
     </row>
     <row r="61" spans="1:10" x14ac:dyDescent="0.2">
@@ -3096,8 +3144,8 @@
       <c r="C61" s="14"/>
       <c r="D61" s="34"/>
       <c r="E61" s="34"/>
-      <c r="F61" s="101"/>
-      <c r="G61" s="102"/>
+      <c r="F61" s="100"/>
+      <c r="G61" s="101"/>
       <c r="H61" s="19"/>
       <c r="I61" s="88"/>
       <c r="J61" s="23"/>
@@ -3108,8 +3156,8 @@
       <c r="C62" s="15"/>
       <c r="D62" s="20"/>
       <c r="E62" s="20"/>
-      <c r="F62" s="104"/>
-      <c r="G62" s="105"/>
+      <c r="F62" s="103"/>
+      <c r="G62" s="104"/>
       <c r="H62" s="20"/>
       <c r="I62" s="89"/>
       <c r="J62" s="24"/>
@@ -3128,14 +3176,14 @@
         <v>121</v>
       </c>
       <c r="E63" s="21"/>
-      <c r="F63" s="110" t="s">
+      <c r="F63" s="109" t="s">
         <v>64</v>
       </c>
       <c r="G63" s="64"/>
       <c r="H63" s="4" t="s">
         <v>131</v>
       </c>
-      <c r="I63" s="113">
+      <c r="I63" s="112">
         <v>44287</v>
       </c>
       <c r="J63" s="25"/>
@@ -3146,7 +3194,7 @@
       <c r="C64" s="10"/>
       <c r="D64" s="42"/>
       <c r="E64" s="42"/>
-      <c r="F64" s="101"/>
+      <c r="F64" s="100"/>
       <c r="G64" s="65">
         <v>8123522575</v>
       </c>
@@ -3160,7 +3208,7 @@
       <c r="C65" s="11"/>
       <c r="D65" s="8"/>
       <c r="E65" s="8"/>
-      <c r="F65" s="104"/>
+      <c r="F65" s="103"/>
       <c r="G65" s="66"/>
       <c r="H65" s="8"/>
       <c r="I65" s="49"/>
@@ -3180,7 +3228,7 @@
         <v>106</v>
       </c>
       <c r="E66" s="21"/>
-      <c r="F66" s="135"/>
+      <c r="F66" s="121"/>
       <c r="G66" s="64" t="s">
         <v>103</v>
       </c>
@@ -3198,7 +3246,7 @@
       <c r="C67" s="10"/>
       <c r="D67" s="42"/>
       <c r="E67" s="42"/>
-      <c r="F67" s="101"/>
+      <c r="F67" s="100"/>
       <c r="G67" s="65">
         <v>89603906796</v>
       </c>
@@ -3212,7 +3260,7 @@
       <c r="C68" s="11"/>
       <c r="D68" s="8"/>
       <c r="E68" s="8"/>
-      <c r="F68" s="104"/>
+      <c r="F68" s="103"/>
       <c r="G68" s="66"/>
       <c r="H68" s="8"/>
       <c r="I68" s="49"/>
@@ -3223,7 +3271,7 @@
         <v>17</v>
       </c>
       <c r="B69" s="25" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="C69" s="3">
         <v>1</v>
@@ -3231,14 +3279,14 @@
       <c r="D69" s="41">
         <v>44599</v>
       </c>
-      <c r="E69" s="139"/>
-      <c r="F69" s="135"/>
+      <c r="E69" s="125"/>
+      <c r="F69" s="121"/>
       <c r="G69" s="64"/>
       <c r="H69" s="4" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="I69" s="91" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="J69" s="25"/>
     </row>
@@ -3248,7 +3296,7 @@
       <c r="C70" s="10"/>
       <c r="D70" s="42"/>
       <c r="E70" s="42"/>
-      <c r="F70" s="101"/>
+      <c r="F70" s="100"/>
       <c r="G70" s="65"/>
       <c r="H70" s="6"/>
       <c r="I70" s="26"/>
@@ -3260,7 +3308,7 @@
       <c r="C71" s="11"/>
       <c r="D71" s="8"/>
       <c r="E71" s="8"/>
-      <c r="F71" s="104"/>
+      <c r="F71" s="103"/>
       <c r="G71" s="66"/>
       <c r="H71" s="8"/>
       <c r="I71" s="49"/>
@@ -3272,7 +3320,7 @@
       <c r="C72" s="10"/>
       <c r="D72" s="6"/>
       <c r="E72" s="6"/>
-      <c r="F72" s="101"/>
+      <c r="F72" s="100"/>
       <c r="G72" s="65"/>
       <c r="H72" s="6"/>
       <c r="I72" s="26"/>
@@ -3282,7 +3330,7 @@
       <c r="A73" s="2"/>
       <c r="D73" s="2"/>
       <c r="E73" s="2"/>
-      <c r="F73" s="136"/>
+      <c r="F73" s="122"/>
       <c r="G73" s="78"/>
       <c r="H73" s="2"/>
       <c r="I73" s="79"/>
@@ -3296,67 +3344,79 @@
       <c r="C74" s="82"/>
       <c r="D74" s="2"/>
       <c r="E74" s="2"/>
-      <c r="F74" s="136"/>
-      <c r="G74" s="79"/>
+      <c r="F74" s="122"/>
+      <c r="G74" s="145" t="s">
+        <v>175</v>
+      </c>
       <c r="H74" s="79"/>
     </row>
     <row r="75" spans="1:10" s="80" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A75" s="2"/>
       <c r="B75" s="80" t="s">
+        <v>146</v>
+      </c>
+      <c r="C75" s="80" t="s">
         <v>147</v>
-      </c>
-      <c r="C75" s="80" t="s">
-        <v>148</v>
       </c>
       <c r="D75" s="2"/>
       <c r="E75" s="2"/>
-      <c r="F75" s="136"/>
-      <c r="G75" s="79"/>
-      <c r="H75" s="79"/>
+      <c r="F75" s="122"/>
+      <c r="G75" s="79" t="s">
+        <v>176</v>
+      </c>
+      <c r="H75" s="79" t="s">
+        <v>157</v>
+      </c>
     </row>
     <row r="76" spans="1:10" s="80" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A76" s="2"/>
       <c r="B76" s="78" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="C76" s="2" t="s">
         <v>107</v>
       </c>
       <c r="D76" s="2"/>
       <c r="E76" s="2"/>
-      <c r="F76" s="136"/>
-      <c r="G76" s="79"/>
-      <c r="H76" s="79"/>
+      <c r="F76" s="122"/>
+      <c r="G76" s="79" t="s">
+        <v>177</v>
+      </c>
+      <c r="H76" s="79" t="s">
+        <v>67</v>
+      </c>
     </row>
     <row r="77" spans="1:10" s="80" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A77" s="2"/>
       <c r="B77" s="78" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C77" s="2" t="s">
         <v>101</v>
       </c>
       <c r="D77" s="2"/>
       <c r="E77" s="2"/>
-      <c r="F77" s="136"/>
+      <c r="F77" s="122"/>
       <c r="G77" s="79" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="H77" s="79"/>
     </row>
     <row r="78" spans="1:10" s="80" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A78" s="2"/>
       <c r="B78" s="78" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="C78" s="2" t="s">
         <v>68</v>
       </c>
       <c r="D78" s="2"/>
       <c r="E78" s="2"/>
-      <c r="F78" s="136"/>
-      <c r="G78" s="78"/>
-      <c r="H78" s="2"/>
+      <c r="F78" s="122"/>
+      <c r="G78" s="146" t="s">
+        <v>179</v>
+      </c>
+      <c r="H78" s="79"/>
       <c r="I78" s="79"/>
       <c r="J78" s="79"/>
     </row>
@@ -3368,18 +3428,22 @@
         <f>H42</f>
         <v>25 ORG</v>
       </c>
+      <c r="G79" s="79" t="s">
+        <v>178</v>
+      </c>
+      <c r="H79" s="79"/>
     </row>
     <row r="80" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B80" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="C80" s="1" t="s">
         <v>153</v>
-      </c>
-      <c r="C80" s="1" t="s">
-        <v>154</v>
       </c>
     </row>
     <row r="81" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B81" s="78" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="C81" s="2" t="s">
         <v>131</v>
@@ -3387,7 +3451,7 @@
     </row>
     <row r="82" spans="2:3" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
     </row>
   </sheetData>
@@ -3431,46 +3495,46 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="18" x14ac:dyDescent="0.2">
-      <c r="A1" s="129" t="s">
+      <c r="A1" s="136" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="129" t="s">
+      <c r="B1" s="136" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="129" t="s">
+      <c r="C1" s="136" t="s">
         <v>27</v>
       </c>
-      <c r="D1" s="129" t="s">
+      <c r="D1" s="136" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="129"/>
-      <c r="F1" s="131" t="s">
+      <c r="E1" s="136"/>
+      <c r="F1" s="138" t="s">
         <v>104</v>
       </c>
-      <c r="G1" s="129" t="s">
+      <c r="G1" s="136" t="s">
         <v>4</v>
       </c>
-      <c r="H1" s="127" t="s">
+      <c r="H1" s="134" t="s">
         <v>2</v>
       </c>
-      <c r="I1" s="120" t="s">
+      <c r="I1" s="127" t="s">
         <v>56</v>
       </c>
-      <c r="J1" s="120"/>
+      <c r="J1" s="127"/>
     </row>
     <row r="2" spans="1:10" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="130"/>
-      <c r="B2" s="130"/>
-      <c r="C2" s="130"/>
+      <c r="A2" s="137"/>
+      <c r="B2" s="137"/>
+      <c r="C2" s="137"/>
       <c r="D2" s="70" t="s">
         <v>6</v>
       </c>
       <c r="E2" s="18" t="s">
         <v>7</v>
       </c>
-      <c r="F2" s="132"/>
-      <c r="G2" s="130"/>
-      <c r="H2" s="128"/>
+      <c r="F2" s="139"/>
+      <c r="G2" s="137"/>
+      <c r="H2" s="135"/>
       <c r="I2" s="16" t="s">
         <v>6</v>
       </c>
@@ -4248,7 +4312,7 @@
       <c r="E42" s="13" t="s">
         <v>109</v>
       </c>
-      <c r="F42" s="110">
+      <c r="F42" s="109">
         <v>44501</v>
       </c>
       <c r="G42" s="63" t="s">
@@ -4303,7 +4367,7 @@
       <c r="D45" s="72" t="s">
         <v>105</v>
       </c>
-      <c r="E45" s="114" t="s">
+      <c r="E45" s="113" t="s">
         <v>132</v>
       </c>
       <c r="F45" s="75" t="s">
@@ -4596,7 +4660,7 @@
       <c r="E60" s="72" t="s">
         <v>109</v>
       </c>
-      <c r="F60" s="116" t="s">
+      <c r="F60" s="115" t="s">
         <v>139</v>
       </c>
       <c r="G60" s="64" t="s">
@@ -4841,7 +4905,7 @@
         <v>44440</v>
       </c>
       <c r="J72" s="52" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
     <row r="73" spans="1:10" x14ac:dyDescent="0.2">

--- a/RENCANA BON VOYAGE.xlsx
+++ b/RENCANA BON VOYAGE.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Mapan\progress\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A0773C64-2F5C-4D7E-AD2F-2F1986CDD47D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B4C2C23E-77D7-4133-8C1E-D85CBCDCAD3B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="337" uniqueCount="180">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="339" uniqueCount="181">
   <si>
     <t>NO</t>
   </si>
@@ -574,6 +574,9 @@
   </si>
   <si>
     <t>KIRIM BN 10 MEI 2022</t>
+  </si>
+  <si>
+    <t>03 MARET</t>
   </si>
 </sst>
 </file>
@@ -1100,6 +1103,30 @@
     <xf numFmtId="15" fontId="2" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" indent="2"/>
     </xf>
+    <xf numFmtId="16" fontId="2" fillId="4" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="15" fontId="2" fillId="4" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="15" fontId="2" fillId="7" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="16" fontId="2" fillId="7" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1137,30 +1164,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="16" fontId="2" fillId="4" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="15" fontId="2" fillId="4" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="15" fontId="2" fillId="7" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="16" fontId="2" fillId="7" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -2041,8 +2044,8 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:J82"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" zoomScale="85" zoomScaleNormal="85" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="L56" sqref="L56"/>
+    <sheetView tabSelected="1" topLeftCell="A16" zoomScale="85" zoomScaleNormal="85" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="E47" sqref="E47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -2061,46 +2064,46 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="15" x14ac:dyDescent="0.25">
-      <c r="A1" s="127" t="s">
+      <c r="A1" s="135" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="127" t="s">
+      <c r="B1" s="135" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="127" t="s">
+      <c r="C1" s="135" t="s">
         <v>27</v>
       </c>
-      <c r="D1" s="133" t="s">
+      <c r="D1" s="141" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="133"/>
-      <c r="F1" s="131" t="s">
+      <c r="E1" s="141"/>
+      <c r="F1" s="139" t="s">
         <v>8</v>
       </c>
-      <c r="G1" s="129" t="s">
+      <c r="G1" s="137" t="s">
         <v>4</v>
       </c>
-      <c r="H1" s="127" t="s">
+      <c r="H1" s="135" t="s">
         <v>2</v>
       </c>
-      <c r="I1" s="127" t="s">
+      <c r="I1" s="135" t="s">
         <v>56</v>
       </c>
-      <c r="J1" s="127"/>
+      <c r="J1" s="135"/>
     </row>
     <row r="2" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="128"/>
-      <c r="B2" s="128"/>
-      <c r="C2" s="128"/>
+      <c r="A2" s="136"/>
+      <c r="B2" s="136"/>
+      <c r="C2" s="136"/>
       <c r="D2" s="16" t="s">
         <v>6</v>
       </c>
       <c r="E2" s="16" t="s">
         <v>7</v>
       </c>
-      <c r="F2" s="132"/>
-      <c r="G2" s="130"/>
-      <c r="H2" s="128"/>
+      <c r="F2" s="140"/>
+      <c r="G2" s="138"/>
+      <c r="H2" s="136"/>
       <c r="I2" s="16" t="s">
         <v>6</v>
       </c>
@@ -2121,7 +2124,7 @@
       <c r="D3" s="72" t="s">
         <v>170</v>
       </c>
-      <c r="E3" s="142" t="s">
+      <c r="E3" s="129" t="s">
         <v>115</v>
       </c>
       <c r="F3" s="109" t="s">
@@ -2177,7 +2180,7 @@
       <c r="D6" s="72" t="s">
         <v>170</v>
       </c>
-      <c r="E6" s="142" t="s">
+      <c r="E6" s="129" t="s">
         <v>115</v>
       </c>
       <c r="F6" s="109" t="s">
@@ -2231,7 +2234,7 @@
       <c r="D9" s="73" t="s">
         <v>106</v>
       </c>
-      <c r="E9" s="140">
+      <c r="E9" s="127">
         <v>44237</v>
       </c>
       <c r="F9" s="109" t="s">
@@ -2287,7 +2290,7 @@
       <c r="D12" s="73" t="s">
         <v>106</v>
       </c>
-      <c r="E12" s="140">
+      <c r="E12" s="127">
         <v>44237</v>
       </c>
       <c r="F12" s="109" t="s">
@@ -2549,7 +2552,7 @@
       <c r="D27" s="73" t="s">
         <v>106</v>
       </c>
-      <c r="E27" s="140">
+      <c r="E27" s="127">
         <v>44237</v>
       </c>
       <c r="F27" s="109" t="s">
@@ -2605,7 +2608,7 @@
       <c r="D30" s="73" t="s">
         <v>170</v>
       </c>
-      <c r="E30" s="143">
+      <c r="E30" s="130">
         <v>44301</v>
       </c>
       <c r="F30" s="120" t="s">
@@ -2661,7 +2664,7 @@
       <c r="D33" s="13" t="s">
         <v>39</v>
       </c>
-      <c r="E33" s="140">
+      <c r="E33" s="127">
         <v>44237</v>
       </c>
       <c r="F33" s="109" t="s">
@@ -2819,7 +2822,7 @@
       <c r="D42" s="73" t="s">
         <v>126</v>
       </c>
-      <c r="E42" s="141" t="s">
+      <c r="E42" s="128" t="s">
         <v>115</v>
       </c>
       <c r="F42" s="109" t="s">
@@ -2873,7 +2876,7 @@
         <v>35</v>
       </c>
       <c r="D45" s="92"/>
-      <c r="E45" s="147" t="s">
+      <c r="E45" s="134" t="s">
         <v>165</v>
       </c>
       <c r="F45" s="126" t="s">
@@ -2925,7 +2928,7 @@
       <c r="D48" s="117" t="s">
         <v>94</v>
       </c>
-      <c r="E48" s="144" t="s">
+      <c r="E48" s="131" t="s">
         <v>120</v>
       </c>
       <c r="F48" s="106" t="s">
@@ -2979,8 +2982,8 @@
       <c r="D51" s="72" t="s">
         <v>136</v>
       </c>
-      <c r="E51" s="140">
-        <v>44237</v>
+      <c r="E51" s="127" t="s">
+        <v>180</v>
       </c>
       <c r="F51" s="109" t="s">
         <v>64</v>
@@ -3033,8 +3036,8 @@
       <c r="D54" s="72" t="s">
         <v>136</v>
       </c>
-      <c r="E54" s="140">
-        <v>44237</v>
+      <c r="E54" s="127" t="s">
+        <v>180</v>
       </c>
       <c r="F54" s="109" t="s">
         <v>64</v>
@@ -3345,7 +3348,7 @@
       <c r="D74" s="2"/>
       <c r="E74" s="2"/>
       <c r="F74" s="122"/>
-      <c r="G74" s="145" t="s">
+      <c r="G74" s="132" t="s">
         <v>175</v>
       </c>
       <c r="H74" s="79"/>
@@ -3413,7 +3416,7 @@
       <c r="D78" s="2"/>
       <c r="E78" s="2"/>
       <c r="F78" s="122"/>
-      <c r="G78" s="146" t="s">
+      <c r="G78" s="133" t="s">
         <v>179</v>
       </c>
       <c r="H78" s="79"/>
@@ -3495,46 +3498,46 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="18" x14ac:dyDescent="0.2">
-      <c r="A1" s="136" t="s">
+      <c r="A1" s="144" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="136" t="s">
+      <c r="B1" s="144" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="136" t="s">
+      <c r="C1" s="144" t="s">
         <v>27</v>
       </c>
-      <c r="D1" s="136" t="s">
+      <c r="D1" s="144" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="136"/>
-      <c r="F1" s="138" t="s">
+      <c r="E1" s="144"/>
+      <c r="F1" s="146" t="s">
         <v>104</v>
       </c>
-      <c r="G1" s="136" t="s">
+      <c r="G1" s="144" t="s">
         <v>4</v>
       </c>
-      <c r="H1" s="134" t="s">
+      <c r="H1" s="142" t="s">
         <v>2</v>
       </c>
-      <c r="I1" s="127" t="s">
+      <c r="I1" s="135" t="s">
         <v>56</v>
       </c>
-      <c r="J1" s="127"/>
+      <c r="J1" s="135"/>
     </row>
     <row r="2" spans="1:10" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="137"/>
-      <c r="B2" s="137"/>
-      <c r="C2" s="137"/>
+      <c r="A2" s="145"/>
+      <c r="B2" s="145"/>
+      <c r="C2" s="145"/>
       <c r="D2" s="70" t="s">
         <v>6</v>
       </c>
       <c r="E2" s="18" t="s">
         <v>7</v>
       </c>
-      <c r="F2" s="139"/>
-      <c r="G2" s="137"/>
-      <c r="H2" s="135"/>
+      <c r="F2" s="147"/>
+      <c r="G2" s="145"/>
+      <c r="H2" s="143"/>
       <c r="I2" s="16" t="s">
         <v>6</v>
       </c>

--- a/RENCANA BON VOYAGE.xlsx
+++ b/RENCANA BON VOYAGE.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="24827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="24931"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Mapan\progress\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B4C2C23E-77D7-4133-8C1E-D85CBCDCAD3B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{853B5428-871B-43BB-9BD0-22458D1A09BB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="339" uniqueCount="181">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="345" uniqueCount="186">
   <si>
     <t>NO</t>
   </si>
@@ -534,9 +534,6 @@
     <t>08 MEI</t>
   </si>
   <si>
-    <t>06 JUNI</t>
-  </si>
-  <si>
     <t>28 NOV</t>
   </si>
   <si>
@@ -577,6 +574,24 @@
   </si>
   <si>
     <t>03 MARET</t>
+  </si>
+  <si>
+    <t>KIRIM BN 10 JUNI 2022</t>
+  </si>
+  <si>
+    <t>1. DP2NT18</t>
+  </si>
+  <si>
+    <t>2. DP5NT42</t>
+  </si>
+  <si>
+    <t>132 ORG</t>
+  </si>
+  <si>
+    <t>KIRIM BN 10 JULI 2022</t>
+  </si>
+  <si>
+    <t>1. DP3T27</t>
   </si>
 </sst>
 </file>
@@ -615,7 +630,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="9">
+  <fills count="11">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -661,6 +676,18 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="6" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.79998168889431442"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -735,7 +762,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="148">
+  <cellXfs count="155">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1125,6 +1152,27 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="8" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="16" fontId="2" fillId="9" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="15" fontId="2" fillId="9" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="15" fontId="2" fillId="10" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2042,10 +2090,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:J82"/>
+  <dimension ref="A1:J83"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" zoomScale="85" zoomScaleNormal="85" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="E47" sqref="E47"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="G7" sqref="G7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -2064,46 +2112,46 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="15" x14ac:dyDescent="0.25">
-      <c r="A1" s="135" t="s">
+      <c r="A1" s="142" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="135" t="s">
+      <c r="B1" s="142" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="135" t="s">
+      <c r="C1" s="142" t="s">
         <v>27</v>
       </c>
-      <c r="D1" s="141" t="s">
+      <c r="D1" s="148" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="141"/>
-      <c r="F1" s="139" t="s">
+      <c r="E1" s="148"/>
+      <c r="F1" s="146" t="s">
         <v>8</v>
       </c>
-      <c r="G1" s="137" t="s">
+      <c r="G1" s="144" t="s">
         <v>4</v>
       </c>
-      <c r="H1" s="135" t="s">
+      <c r="H1" s="142" t="s">
         <v>2</v>
       </c>
-      <c r="I1" s="135" t="s">
+      <c r="I1" s="142" t="s">
         <v>56</v>
       </c>
-      <c r="J1" s="135"/>
+      <c r="J1" s="142"/>
     </row>
     <row r="2" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="136"/>
-      <c r="B2" s="136"/>
-      <c r="C2" s="136"/>
+      <c r="A2" s="143"/>
+      <c r="B2" s="143"/>
+      <c r="C2" s="143"/>
       <c r="D2" s="16" t="s">
         <v>6</v>
       </c>
       <c r="E2" s="16" t="s">
         <v>7</v>
       </c>
-      <c r="F2" s="140"/>
-      <c r="G2" s="138"/>
-      <c r="H2" s="136"/>
+      <c r="F2" s="147"/>
+      <c r="G2" s="145"/>
+      <c r="H2" s="143"/>
       <c r="I2" s="16" t="s">
         <v>6</v>
       </c>
@@ -2122,7 +2170,7 @@
         <v>11</v>
       </c>
       <c r="D3" s="72" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="E3" s="129" t="s">
         <v>115</v>
@@ -2137,7 +2185,7 @@
         <v>141</v>
       </c>
       <c r="I3" s="68" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="J3" s="25"/>
     </row>
@@ -2178,7 +2226,7 @@
         <v>11</v>
       </c>
       <c r="D6" s="72" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="E6" s="129" t="s">
         <v>115</v>
@@ -2191,7 +2239,7 @@
         <v>77</v>
       </c>
       <c r="I6" s="68" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="J6" s="25"/>
     </row>
@@ -2202,9 +2250,7 @@
       <c r="D7" s="19"/>
       <c r="E7" s="19"/>
       <c r="F7" s="46"/>
-      <c r="G7" s="69" t="s">
-        <v>99</v>
-      </c>
+      <c r="G7" s="69"/>
       <c r="H7" s="6"/>
       <c r="I7" s="26"/>
       <c r="J7" s="23"/>
@@ -2344,9 +2390,9 @@
         <v>18</v>
       </c>
       <c r="D15" s="73" t="s">
-        <v>171</v>
-      </c>
-      <c r="E15" s="85" t="s">
+        <v>170</v>
+      </c>
+      <c r="E15" s="137" t="s">
         <v>33</v>
       </c>
       <c r="F15" s="119" t="s">
@@ -2359,7 +2405,7 @@
         <v>145</v>
       </c>
       <c r="I15" s="116" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="J15" s="25"/>
     </row>
@@ -2400,9 +2446,9 @@
         <v>18</v>
       </c>
       <c r="D18" s="73" t="s">
-        <v>171</v>
-      </c>
-      <c r="E18" s="85" t="s">
+        <v>170</v>
+      </c>
+      <c r="E18" s="137" t="s">
         <v>33</v>
       </c>
       <c r="F18" s="119" t="s">
@@ -2415,7 +2461,7 @@
         <v>71</v>
       </c>
       <c r="I18" s="116" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="J18" s="25"/>
     </row>
@@ -2606,7 +2652,7 @@
         <v>34</v>
       </c>
       <c r="D30" s="73" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="E30" s="130">
         <v>44301</v>
@@ -2621,7 +2667,7 @@
         <v>157</v>
       </c>
       <c r="I30" s="91" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="J30" s="23"/>
     </row>
@@ -2720,7 +2766,7 @@
       <c r="D36" s="13" t="s">
         <v>114</v>
       </c>
-      <c r="E36" s="85" t="s">
+      <c r="E36" s="141" t="s">
         <v>117</v>
       </c>
       <c r="F36" s="119" t="s">
@@ -2775,10 +2821,10 @@
       </c>
       <c r="D39" s="22"/>
       <c r="E39" s="85" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="F39" s="119" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="G39" s="93"/>
       <c r="H39" s="118"/>
@@ -2835,7 +2881,7 @@
         <v>74</v>
       </c>
       <c r="I42" s="91" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="J42" s="23"/>
     </row>
@@ -2932,7 +2978,7 @@
         <v>120</v>
       </c>
       <c r="F48" s="106" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="G48" s="97" t="s">
         <v>134</v>
@@ -2983,7 +3029,7 @@
         <v>136</v>
       </c>
       <c r="E51" s="127" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="F51" s="109" t="s">
         <v>64</v>
@@ -3037,7 +3083,7 @@
         <v>136</v>
       </c>
       <c r="E54" s="127" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="F54" s="109" t="s">
         <v>64</v>
@@ -3084,8 +3130,8 @@
         <v>42</v>
       </c>
       <c r="D57" s="71"/>
-      <c r="E57" s="71" t="s">
-        <v>166</v>
+      <c r="E57" s="136" t="s">
+        <v>33</v>
       </c>
       <c r="F57" s="119" t="s">
         <v>39</v>
@@ -3130,8 +3176,8 @@
         <v>42</v>
       </c>
       <c r="D60" s="71"/>
-      <c r="E60" s="71" t="s">
-        <v>166</v>
+      <c r="E60" s="136" t="s">
+        <v>33</v>
       </c>
       <c r="F60" s="119" t="s">
         <v>39</v>
@@ -3199,7 +3245,7 @@
       <c r="E64" s="42"/>
       <c r="F64" s="100"/>
       <c r="G64" s="65">
-        <v>8123522575</v>
+        <v>81235226575</v>
       </c>
       <c r="H64" s="6"/>
       <c r="I64" s="26"/>
@@ -3289,7 +3335,7 @@
         <v>163</v>
       </c>
       <c r="I69" s="91" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="J69" s="25"/>
     </row>
@@ -3346,10 +3392,12 @@
       </c>
       <c r="C74" s="82"/>
       <c r="D74" s="2"/>
-      <c r="E74" s="2"/>
+      <c r="E74" s="132" t="s">
+        <v>174</v>
+      </c>
       <c r="F74" s="122"/>
-      <c r="G74" s="132" t="s">
-        <v>175</v>
+      <c r="G74" s="139" t="s">
+        <v>184</v>
       </c>
       <c r="H74" s="79"/>
     </row>
@@ -3362,13 +3410,17 @@
         <v>147</v>
       </c>
       <c r="D75" s="2"/>
-      <c r="E75" s="2"/>
-      <c r="F75" s="122"/>
-      <c r="G75" s="79" t="s">
-        <v>176</v>
-      </c>
-      <c r="H75" s="79" t="s">
+      <c r="E75" s="79" t="s">
+        <v>175</v>
+      </c>
+      <c r="F75" s="79" t="s">
         <v>157</v>
+      </c>
+      <c r="G75" s="80" t="s">
+        <v>185</v>
+      </c>
+      <c r="H75" s="140" t="s">
+        <v>88</v>
       </c>
     </row>
     <row r="76" spans="1:10" s="80" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -3380,12 +3432,10 @@
         <v>107</v>
       </c>
       <c r="D76" s="2"/>
-      <c r="E76" s="2"/>
-      <c r="F76" s="122"/>
-      <c r="G76" s="79" t="s">
-        <v>177</v>
-      </c>
-      <c r="H76" s="79" t="s">
+      <c r="E76" s="79" t="s">
+        <v>176</v>
+      </c>
+      <c r="F76" s="79" t="s">
         <v>67</v>
       </c>
     </row>
@@ -3398,12 +3448,10 @@
         <v>101</v>
       </c>
       <c r="D77" s="2"/>
-      <c r="E77" s="2"/>
-      <c r="F77" s="122"/>
-      <c r="G77" s="79" t="s">
+      <c r="E77" s="79" t="s">
         <v>155</v>
       </c>
-      <c r="H77" s="79"/>
+      <c r="F77" s="79"/>
     </row>
     <row r="78" spans="1:10" s="80" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A78" s="2"/>
@@ -3414,12 +3462,10 @@
         <v>68</v>
       </c>
       <c r="D78" s="2"/>
-      <c r="E78" s="2"/>
-      <c r="F78" s="122"/>
-      <c r="G78" s="133" t="s">
-        <v>179</v>
-      </c>
-      <c r="H78" s="79"/>
+      <c r="E78" s="133" t="s">
+        <v>178</v>
+      </c>
+      <c r="F78" s="79"/>
       <c r="I78" s="79"/>
       <c r="J78" s="79"/>
     </row>
@@ -3431,10 +3477,10 @@
         <f>H42</f>
         <v>25 ORG</v>
       </c>
-      <c r="G79" s="79" t="s">
-        <v>178</v>
-      </c>
-      <c r="H79" s="79"/>
+      <c r="E79" s="79" t="s">
+        <v>177</v>
+      </c>
+      <c r="F79" s="79"/>
     </row>
     <row r="80" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B80" s="1" t="s">
@@ -3443,18 +3489,35 @@
       <c r="C80" s="1" t="s">
         <v>153</v>
       </c>
-    </row>
-    <row r="81" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="E80" s="67"/>
+      <c r="F80" s="2"/>
+    </row>
+    <row r="81" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B81" s="78" t="s">
         <v>148</v>
       </c>
       <c r="C81" s="2" t="s">
         <v>131</v>
       </c>
-    </row>
-    <row r="82" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="E81" s="135" t="s">
+        <v>180</v>
+      </c>
+      <c r="F81" s="2"/>
+    </row>
+    <row r="82" spans="2:6" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>154</v>
+      </c>
+      <c r="E82" s="79" t="s">
+        <v>181</v>
+      </c>
+      <c r="F82" s="138" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="83" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="E83" s="79" t="s">
+        <v>182</v>
       </c>
     </row>
   </sheetData>
@@ -3478,7 +3541,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{278BA1B3-1491-4141-B637-9082C53CD422}">
   <dimension ref="A1:J74"/>
   <sheetViews>
-    <sheetView topLeftCell="A34" zoomScale="85" zoomScaleNormal="85" zoomScaleSheetLayoutView="100" workbookViewId="0">
+    <sheetView zoomScale="85" zoomScaleNormal="85" zoomScaleSheetLayoutView="100" workbookViewId="0">
       <selection activeCell="B63" sqref="B63"/>
     </sheetView>
   </sheetViews>
@@ -3498,46 +3561,46 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="18" x14ac:dyDescent="0.2">
-      <c r="A1" s="144" t="s">
+      <c r="A1" s="151" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="144" t="s">
+      <c r="B1" s="151" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="144" t="s">
+      <c r="C1" s="151" t="s">
         <v>27</v>
       </c>
-      <c r="D1" s="144" t="s">
+      <c r="D1" s="151" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="144"/>
-      <c r="F1" s="146" t="s">
+      <c r="E1" s="151"/>
+      <c r="F1" s="153" t="s">
         <v>104</v>
       </c>
-      <c r="G1" s="144" t="s">
+      <c r="G1" s="151" t="s">
         <v>4</v>
       </c>
-      <c r="H1" s="142" t="s">
+      <c r="H1" s="149" t="s">
         <v>2</v>
       </c>
-      <c r="I1" s="135" t="s">
+      <c r="I1" s="142" t="s">
         <v>56</v>
       </c>
-      <c r="J1" s="135"/>
+      <c r="J1" s="142"/>
     </row>
     <row r="2" spans="1:10" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="145"/>
-      <c r="B2" s="145"/>
-      <c r="C2" s="145"/>
+      <c r="A2" s="152"/>
+      <c r="B2" s="152"/>
+      <c r="C2" s="152"/>
       <c r="D2" s="70" t="s">
         <v>6</v>
       </c>
       <c r="E2" s="18" t="s">
         <v>7</v>
       </c>
-      <c r="F2" s="147"/>
-      <c r="G2" s="145"/>
-      <c r="H2" s="143"/>
+      <c r="F2" s="154"/>
+      <c r="G2" s="152"/>
+      <c r="H2" s="150"/>
       <c r="I2" s="16" t="s">
         <v>6</v>
       </c>

--- a/RENCANA BON VOYAGE.xlsx
+++ b/RENCANA BON VOYAGE.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Mapan\progress\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{853B5428-871B-43BB-9BD0-22458D1A09BB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DB9DC667-B0F4-4F8D-AEA9-3FF093619B20}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -18,7 +18,7 @@
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">done!$A$1:$I$2</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">progres!$A$1:$I$34</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">progres!$A$1:$I$37</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="345" uniqueCount="186">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="348" uniqueCount="187">
   <si>
     <t>NO</t>
   </si>
@@ -592,6 +592,9 @@
   </si>
   <si>
     <t>1. DP3T27</t>
+  </si>
+  <si>
+    <t>26 SEPT</t>
   </si>
 </sst>
 </file>
@@ -762,7 +765,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="155">
+  <cellXfs count="156">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1213,6 +1216,9 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1302,13 +1308,13 @@
     <xdr:from>
       <xdr:col>14</xdr:col>
       <xdr:colOff>189939</xdr:colOff>
-      <xdr:row>32</xdr:row>
+      <xdr:row>35</xdr:row>
       <xdr:rowOff>89245</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>14</xdr:col>
       <xdr:colOff>190299</xdr:colOff>
-      <xdr:row>32</xdr:row>
+      <xdr:row>35</xdr:row>
       <xdr:rowOff>89605</xdr:rowOff>
     </xdr:to>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
@@ -1367,7 +1373,7 @@
     <xdr:from>
       <xdr:col>14</xdr:col>
       <xdr:colOff>189939</xdr:colOff>
-      <xdr:row>35</xdr:row>
+      <xdr:row>38</xdr:row>
       <xdr:rowOff>89245</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="360" cy="360"/>
@@ -1547,7 +1553,7 @@
     <xdr:from>
       <xdr:col>14</xdr:col>
       <xdr:colOff>189939</xdr:colOff>
-      <xdr:row>38</xdr:row>
+      <xdr:row>41</xdr:row>
       <xdr:rowOff>89245</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="360" cy="360"/>
@@ -2090,10 +2096,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:J83"/>
+  <dimension ref="A1:J86"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="G7" sqref="G7"/>
+      <selection activeCell="E34" sqref="E34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -2699,87 +2705,77 @@
     </row>
     <row r="33" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A33" s="4">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B33" s="86" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C33" s="3">
-        <v>26</v>
-      </c>
-      <c r="D33" s="13" t="s">
-        <v>39</v>
-      </c>
-      <c r="E33" s="127">
-        <v>44237</v>
-      </c>
-      <c r="F33" s="109" t="s">
-        <v>64</v>
-      </c>
-      <c r="G33" s="63" t="s">
-        <v>60</v>
-      </c>
-      <c r="H33" s="4" t="s">
-        <v>68</v>
-      </c>
-      <c r="I33" s="51">
-        <v>44440</v>
-      </c>
-      <c r="J33" s="25"/>
+        <v>35</v>
+      </c>
+      <c r="D33" s="92"/>
+      <c r="E33" s="85" t="s">
+        <v>57</v>
+      </c>
+      <c r="F33" s="120" t="s">
+        <v>186</v>
+      </c>
+      <c r="G33" s="101"/>
+      <c r="H33" s="92"/>
+      <c r="I33" s="155"/>
+      <c r="J33" s="23"/>
     </row>
     <row r="34" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A34" s="6"/>
       <c r="B34" s="26"/>
       <c r="C34" s="10"/>
-      <c r="D34" s="6"/>
-      <c r="E34" s="44"/>
-      <c r="F34" s="46"/>
-      <c r="G34" s="61">
-        <v>85732094240</v>
-      </c>
-      <c r="H34" s="6"/>
-      <c r="I34" s="26"/>
+      <c r="D34" s="19"/>
+      <c r="E34" s="19"/>
+      <c r="F34" s="100"/>
+      <c r="G34" s="101"/>
+      <c r="H34" s="19"/>
+      <c r="I34" s="88"/>
       <c r="J34" s="23"/>
     </row>
     <row r="35" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A35" s="8"/>
-      <c r="B35" s="49"/>
-      <c r="C35" s="7"/>
-      <c r="D35" s="8"/>
-      <c r="E35" s="8"/>
-      <c r="F35" s="111"/>
-      <c r="G35" s="62"/>
-      <c r="H35" s="8"/>
-      <c r="I35" s="49"/>
-      <c r="J35" s="24"/>
+      <c r="A35" s="6"/>
+      <c r="B35" s="26"/>
+      <c r="C35" s="10"/>
+      <c r="D35" s="6"/>
+      <c r="E35" s="6"/>
+      <c r="F35" s="100"/>
+      <c r="G35" s="65"/>
+      <c r="H35" s="6"/>
+      <c r="I35" s="26"/>
+      <c r="J35" s="23"/>
     </row>
     <row r="36" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A36" s="4">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B36" s="86" t="s">
         <v>12</v>
       </c>
       <c r="C36" s="3">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D36" s="13" t="s">
-        <v>114</v>
-      </c>
-      <c r="E36" s="141" t="s">
-        <v>117</v>
-      </c>
-      <c r="F36" s="119" t="s">
-        <v>116</v>
+        <v>39</v>
+      </c>
+      <c r="E36" s="127">
+        <v>44237</v>
+      </c>
+      <c r="F36" s="109" t="s">
+        <v>64</v>
       </c>
       <c r="G36" s="63" t="s">
-        <v>110</v>
-      </c>
-      <c r="H36" s="90" t="s">
-        <v>88</v>
-      </c>
-      <c r="I36" s="116" t="s">
-        <v>140</v>
+        <v>60</v>
+      </c>
+      <c r="H36" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="I36" s="51">
+        <v>44440</v>
       </c>
       <c r="J36" s="25"/>
     </row>
@@ -2790,8 +2786,8 @@
       <c r="D37" s="6"/>
       <c r="E37" s="44"/>
       <c r="F37" s="46"/>
-      <c r="G37" s="69" t="s">
-        <v>111</v>
+      <c r="G37" s="61">
+        <v>85732094240</v>
       </c>
       <c r="H37" s="6"/>
       <c r="I37" s="26"/>
@@ -2817,18 +2813,26 @@
         <v>12</v>
       </c>
       <c r="C39" s="3">
-        <v>28</v>
-      </c>
-      <c r="D39" s="22"/>
-      <c r="E39" s="85" t="s">
-        <v>167</v>
+        <v>27</v>
+      </c>
+      <c r="D39" s="13" t="s">
+        <v>114</v>
+      </c>
+      <c r="E39" s="141" t="s">
+        <v>117</v>
       </c>
       <c r="F39" s="119" t="s">
-        <v>166</v>
-      </c>
-      <c r="G39" s="93"/>
-      <c r="H39" s="118"/>
-      <c r="I39" s="124"/>
+        <v>116</v>
+      </c>
+      <c r="G39" s="63" t="s">
+        <v>110</v>
+      </c>
+      <c r="H39" s="90" t="s">
+        <v>88</v>
+      </c>
+      <c r="I39" s="116" t="s">
+        <v>140</v>
+      </c>
       <c r="J39" s="25"/>
     </row>
     <row r="40" spans="1:10" x14ac:dyDescent="0.2">
@@ -2838,7 +2842,9 @@
       <c r="D40" s="6"/>
       <c r="E40" s="44"/>
       <c r="F40" s="46"/>
-      <c r="G40" s="69"/>
+      <c r="G40" s="69" t="s">
+        <v>111</v>
+      </c>
       <c r="H40" s="6"/>
       <c r="I40" s="26"/>
       <c r="J40" s="23"/>
@@ -2857,56 +2863,46 @@
     </row>
     <row r="42" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A42" s="4">
+        <v>11</v>
+      </c>
+      <c r="B42" s="86" t="s">
         <v>12</v>
       </c>
-      <c r="B42" s="86" t="s">
-        <v>14</v>
-      </c>
       <c r="C42" s="3">
-        <v>34</v>
-      </c>
-      <c r="D42" s="73" t="s">
-        <v>126</v>
-      </c>
-      <c r="E42" s="128" t="s">
-        <v>115</v>
-      </c>
-      <c r="F42" s="109" t="s">
-        <v>64</v>
-      </c>
-      <c r="G42" s="65" t="s">
-        <v>127</v>
-      </c>
-      <c r="H42" s="6" t="s">
-        <v>74</v>
-      </c>
-      <c r="I42" s="91" t="s">
-        <v>172</v>
-      </c>
-      <c r="J42" s="23"/>
+        <v>28</v>
+      </c>
+      <c r="D42" s="22"/>
+      <c r="E42" s="85" t="s">
+        <v>167</v>
+      </c>
+      <c r="F42" s="119" t="s">
+        <v>166</v>
+      </c>
+      <c r="G42" s="93"/>
+      <c r="H42" s="118"/>
+      <c r="I42" s="124"/>
+      <c r="J42" s="25"/>
     </row>
     <row r="43" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A43" s="6"/>
       <c r="B43" s="26"/>
       <c r="C43" s="10"/>
       <c r="D43" s="6"/>
-      <c r="E43" s="6"/>
-      <c r="F43" s="100"/>
-      <c r="G43" s="110" t="s">
-        <v>128</v>
-      </c>
+      <c r="E43" s="44"/>
+      <c r="F43" s="46"/>
+      <c r="G43" s="69"/>
       <c r="H43" s="6"/>
       <c r="I43" s="26"/>
       <c r="J43" s="23"/>
     </row>
     <row r="44" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A44" s="8"/>
-      <c r="B44" s="26"/>
-      <c r="C44" s="10"/>
+      <c r="B44" s="49"/>
+      <c r="C44" s="7"/>
       <c r="D44" s="8"/>
       <c r="E44" s="8"/>
-      <c r="F44" s="103"/>
-      <c r="G44" s="66"/>
+      <c r="F44" s="111"/>
+      <c r="G44" s="62"/>
       <c r="H44" s="8"/>
       <c r="I44" s="49"/>
       <c r="J44" s="24"/>
@@ -2919,20 +2915,26 @@
         <v>14</v>
       </c>
       <c r="C45" s="3">
-        <v>35</v>
-      </c>
-      <c r="D45" s="92"/>
-      <c r="E45" s="134" t="s">
-        <v>165</v>
-      </c>
-      <c r="F45" s="126" t="s">
-        <v>164</v>
+        <v>34</v>
+      </c>
+      <c r="D45" s="73" t="s">
+        <v>126</v>
+      </c>
+      <c r="E45" s="128" t="s">
+        <v>115</v>
+      </c>
+      <c r="F45" s="109" t="s">
+        <v>64</v>
       </c>
       <c r="G45" s="65" t="s">
         <v>127</v>
       </c>
-      <c r="H45" s="6"/>
-      <c r="I45" s="26"/>
+      <c r="H45" s="6" t="s">
+        <v>74</v>
+      </c>
+      <c r="I45" s="91" t="s">
+        <v>172</v>
+      </c>
       <c r="J45" s="23"/>
     </row>
     <row r="46" spans="1:10" x14ac:dyDescent="0.2">
@@ -2953,113 +2955,109 @@
       <c r="A47" s="8"/>
       <c r="B47" s="26"/>
       <c r="C47" s="10"/>
-      <c r="D47" s="6"/>
-      <c r="E47" s="6"/>
-      <c r="F47" s="100"/>
-      <c r="G47" s="65"/>
-      <c r="H47" s="6"/>
-      <c r="I47" s="26"/>
-      <c r="J47" s="23"/>
-    </row>
-    <row r="48" spans="1:10" s="99" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="D47" s="8"/>
+      <c r="E47" s="8"/>
+      <c r="F47" s="103"/>
+      <c r="G47" s="66"/>
+      <c r="H47" s="8"/>
+      <c r="I47" s="49"/>
+      <c r="J47" s="24"/>
+    </row>
+    <row r="48" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A48" s="4">
+        <v>12</v>
+      </c>
+      <c r="B48" s="86" t="s">
+        <v>14</v>
+      </c>
+      <c r="C48" s="3">
+        <v>35</v>
+      </c>
+      <c r="D48" s="92"/>
+      <c r="E48" s="134" t="s">
+        <v>165</v>
+      </c>
+      <c r="F48" s="126" t="s">
+        <v>164</v>
+      </c>
+      <c r="G48" s="65" t="s">
+        <v>127</v>
+      </c>
+      <c r="H48" s="6"/>
+      <c r="I48" s="26"/>
+      <c r="J48" s="23"/>
+    </row>
+    <row r="49" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A49" s="6"/>
+      <c r="B49" s="26"/>
+      <c r="C49" s="10"/>
+      <c r="D49" s="6"/>
+      <c r="E49" s="6"/>
+      <c r="F49" s="100"/>
+      <c r="G49" s="110" t="s">
+        <v>128</v>
+      </c>
+      <c r="H49" s="6"/>
+      <c r="I49" s="26"/>
+      <c r="J49" s="23"/>
+    </row>
+    <row r="50" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A50" s="8"/>
+      <c r="B50" s="26"/>
+      <c r="C50" s="10"/>
+      <c r="D50" s="6"/>
+      <c r="E50" s="6"/>
+      <c r="F50" s="100"/>
+      <c r="G50" s="65"/>
+      <c r="H50" s="6"/>
+      <c r="I50" s="26"/>
+      <c r="J50" s="23"/>
+    </row>
+    <row r="51" spans="1:10" s="99" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A51" s="4">
         <v>13</v>
       </c>
-      <c r="B48" s="87" t="s">
+      <c r="B51" s="87" t="s">
         <v>15</v>
       </c>
-      <c r="C48" s="9">
+      <c r="C51" s="9">
         <v>29</v>
       </c>
-      <c r="D48" s="117" t="s">
+      <c r="D51" s="117" t="s">
         <v>94</v>
       </c>
-      <c r="E48" s="131" t="s">
+      <c r="E51" s="131" t="s">
         <v>120</v>
       </c>
-      <c r="F48" s="106" t="s">
+      <c r="F51" s="106" t="s">
         <v>173</v>
       </c>
-      <c r="G48" s="97" t="s">
+      <c r="G51" s="97" t="s">
         <v>134</v>
       </c>
-      <c r="H48" s="22" t="s">
+      <c r="H51" s="22" t="s">
         <v>67</v>
       </c>
-      <c r="I48" s="74"/>
-      <c r="J48" s="98"/>
-    </row>
-    <row r="49" spans="1:10" s="99" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A49" s="6"/>
-      <c r="B49" s="88"/>
-      <c r="C49" s="14"/>
-      <c r="D49" s="34"/>
-      <c r="E49" s="34"/>
-      <c r="F49" s="100"/>
-      <c r="G49" s="114" t="s">
-        <v>135</v>
-      </c>
-      <c r="H49" s="19"/>
-      <c r="I49" s="88"/>
-      <c r="J49" s="102"/>
-    </row>
-    <row r="50" spans="1:10" s="99" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A50" s="8"/>
-      <c r="B50" s="89"/>
-      <c r="C50" s="15"/>
-      <c r="D50" s="20"/>
-      <c r="E50" s="20"/>
-      <c r="F50" s="103"/>
-      <c r="G50" s="104"/>
-      <c r="H50" s="20"/>
-      <c r="I50" s="89"/>
-      <c r="J50" s="105"/>
-    </row>
-    <row r="51" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A51" s="4">
-        <v>14</v>
-      </c>
-      <c r="B51" s="86" t="s">
-        <v>16</v>
-      </c>
-      <c r="C51" s="9">
-        <v>41</v>
-      </c>
-      <c r="D51" s="72" t="s">
-        <v>136</v>
-      </c>
-      <c r="E51" s="127" t="s">
-        <v>179</v>
-      </c>
-      <c r="F51" s="109" t="s">
-        <v>64</v>
-      </c>
-      <c r="G51" s="97" t="s">
-        <v>137</v>
-      </c>
-      <c r="H51" s="118" t="s">
-        <v>75</v>
-      </c>
-      <c r="I51" s="107"/>
-      <c r="J51" s="25"/>
-    </row>
-    <row r="52" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="I51" s="74"/>
+      <c r="J51" s="98"/>
+    </row>
+    <row r="52" spans="1:10" s="99" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A52" s="6"/>
-      <c r="B52" s="26"/>
+      <c r="B52" s="88"/>
       <c r="C52" s="14"/>
       <c r="D52" s="34"/>
       <c r="E52" s="34"/>
       <c r="F52" s="100"/>
       <c r="G52" s="114" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="H52" s="19"/>
       <c r="I52" s="88"/>
-      <c r="J52" s="23"/>
-    </row>
-    <row r="53" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="J52" s="102"/>
+    </row>
+    <row r="53" spans="1:10" s="99" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A53" s="8"/>
-      <c r="B53" s="49"/>
+      <c r="B53" s="89"/>
       <c r="C53" s="15"/>
       <c r="D53" s="20"/>
       <c r="E53" s="20"/>
@@ -3067,14 +3065,14 @@
       <c r="G53" s="104"/>
       <c r="H53" s="20"/>
       <c r="I53" s="89"/>
-      <c r="J53" s="24"/>
+      <c r="J53" s="105"/>
     </row>
     <row r="54" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A54" s="4">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B54" s="86" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C54" s="9">
         <v>41</v>
@@ -3088,9 +3086,11 @@
       <c r="F54" s="109" t="s">
         <v>64</v>
       </c>
-      <c r="G54" s="97"/>
+      <c r="G54" s="97" t="s">
+        <v>137</v>
+      </c>
       <c r="H54" s="118" t="s">
-        <v>144</v>
+        <v>75</v>
       </c>
       <c r="I54" s="107"/>
       <c r="J54" s="25"/>
@@ -3102,7 +3102,9 @@
       <c r="D55" s="34"/>
       <c r="E55" s="34"/>
       <c r="F55" s="100"/>
-      <c r="G55" s="101"/>
+      <c r="G55" s="114" t="s">
+        <v>138</v>
+      </c>
       <c r="H55" s="19"/>
       <c r="I55" s="88"/>
       <c r="J55" s="23"/>
@@ -3121,23 +3123,27 @@
     </row>
     <row r="57" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A57" s="4">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B57" s="86" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="C57" s="9">
-        <v>42</v>
-      </c>
-      <c r="D57" s="71"/>
-      <c r="E57" s="136" t="s">
-        <v>33</v>
-      </c>
-      <c r="F57" s="119" t="s">
-        <v>39</v>
+        <v>41</v>
+      </c>
+      <c r="D57" s="72" t="s">
+        <v>136</v>
+      </c>
+      <c r="E57" s="127" t="s">
+        <v>179</v>
+      </c>
+      <c r="F57" s="109" t="s">
+        <v>64</v>
       </c>
       <c r="G57" s="97"/>
-      <c r="H57" s="118"/>
+      <c r="H57" s="118" t="s">
+        <v>144</v>
+      </c>
       <c r="I57" s="107"/>
       <c r="J57" s="25"/>
     </row>
@@ -3148,7 +3154,7 @@
       <c r="D58" s="34"/>
       <c r="E58" s="34"/>
       <c r="F58" s="100"/>
-      <c r="G58" s="114"/>
+      <c r="G58" s="101"/>
       <c r="H58" s="19"/>
       <c r="I58" s="88"/>
       <c r="J58" s="23"/>
@@ -3167,10 +3173,10 @@
     </row>
     <row r="60" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A60" s="4">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B60" s="86" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C60" s="9">
         <v>42</v>
@@ -3194,7 +3200,7 @@
       <c r="D61" s="34"/>
       <c r="E61" s="34"/>
       <c r="F61" s="100"/>
-      <c r="G61" s="101"/>
+      <c r="G61" s="114"/>
       <c r="H61" s="19"/>
       <c r="I61" s="88"/>
       <c r="J61" s="23"/>
@@ -3213,79 +3219,73 @@
     </row>
     <row r="63" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A63" s="4">
-        <v>16</v>
-      </c>
-      <c r="B63" s="25" t="s">
-        <v>96</v>
-      </c>
-      <c r="C63" s="3">
-        <v>4</v>
-      </c>
-      <c r="D63" s="41" t="s">
-        <v>121</v>
-      </c>
-      <c r="E63" s="21"/>
-      <c r="F63" s="109" t="s">
-        <v>64</v>
-      </c>
-      <c r="G63" s="64"/>
-      <c r="H63" s="4" t="s">
-        <v>131</v>
-      </c>
-      <c r="I63" s="112">
-        <v>44287</v>
-      </c>
+        <v>15</v>
+      </c>
+      <c r="B63" s="86" t="s">
+        <v>18</v>
+      </c>
+      <c r="C63" s="9">
+        <v>42</v>
+      </c>
+      <c r="D63" s="71"/>
+      <c r="E63" s="136" t="s">
+        <v>33</v>
+      </c>
+      <c r="F63" s="119" t="s">
+        <v>39</v>
+      </c>
+      <c r="G63" s="97"/>
+      <c r="H63" s="118"/>
+      <c r="I63" s="107"/>
       <c r="J63" s="25"/>
     </row>
     <row r="64" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A64" s="6"/>
-      <c r="B64" s="23"/>
-      <c r="C64" s="10"/>
-      <c r="D64" s="42"/>
-      <c r="E64" s="42"/>
+      <c r="B64" s="26"/>
+      <c r="C64" s="14"/>
+      <c r="D64" s="34"/>
+      <c r="E64" s="34"/>
       <c r="F64" s="100"/>
-      <c r="G64" s="65">
-        <v>81235226575</v>
-      </c>
-      <c r="H64" s="6"/>
-      <c r="I64" s="26"/>
+      <c r="G64" s="101"/>
+      <c r="H64" s="19"/>
+      <c r="I64" s="88"/>
       <c r="J64" s="23"/>
     </row>
     <row r="65" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A65" s="8"/>
-      <c r="B65" s="24"/>
-      <c r="C65" s="11"/>
-      <c r="D65" s="8"/>
-      <c r="E65" s="8"/>
+      <c r="B65" s="49"/>
+      <c r="C65" s="15"/>
+      <c r="D65" s="20"/>
+      <c r="E65" s="20"/>
       <c r="F65" s="103"/>
-      <c r="G65" s="66"/>
-      <c r="H65" s="8"/>
-      <c r="I65" s="49"/>
+      <c r="G65" s="104"/>
+      <c r="H65" s="20"/>
+      <c r="I65" s="89"/>
       <c r="J65" s="24"/>
     </row>
     <row r="66" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A66" s="4">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B66" s="25" t="s">
         <v>96</v>
       </c>
       <c r="C66" s="3">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D66" s="41" t="s">
-        <v>106</v>
+        <v>121</v>
       </c>
       <c r="E66" s="21"/>
-      <c r="F66" s="121"/>
-      <c r="G66" s="64" t="s">
-        <v>103</v>
-      </c>
+      <c r="F66" s="109" t="s">
+        <v>64</v>
+      </c>
+      <c r="G66" s="64"/>
       <c r="H66" s="4" t="s">
-        <v>102</v>
-      </c>
-      <c r="I66" s="91" t="s">
-        <v>112</v>
+        <v>131</v>
+      </c>
+      <c r="I66" s="112">
+        <v>44287</v>
       </c>
       <c r="J66" s="25"/>
     </row>
@@ -3297,7 +3297,7 @@
       <c r="E67" s="42"/>
       <c r="F67" s="100"/>
       <c r="G67" s="65">
-        <v>89603906796</v>
+        <v>81235226575</v>
       </c>
       <c r="H67" s="6"/>
       <c r="I67" s="26"/>
@@ -3305,7 +3305,7 @@
     </row>
     <row r="68" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A68" s="8"/>
-      <c r="B68" s="7"/>
+      <c r="B68" s="24"/>
       <c r="C68" s="11"/>
       <c r="D68" s="8"/>
       <c r="E68" s="8"/>
@@ -3320,22 +3320,24 @@
         <v>17</v>
       </c>
       <c r="B69" s="25" t="s">
-        <v>162</v>
+        <v>96</v>
       </c>
       <c r="C69" s="3">
-        <v>1</v>
-      </c>
-      <c r="D69" s="41">
-        <v>44599</v>
-      </c>
-      <c r="E69" s="125"/>
+        <v>5</v>
+      </c>
+      <c r="D69" s="41" t="s">
+        <v>106</v>
+      </c>
+      <c r="E69" s="21"/>
       <c r="F69" s="121"/>
-      <c r="G69" s="64"/>
+      <c r="G69" s="64" t="s">
+        <v>103</v>
+      </c>
       <c r="H69" s="4" t="s">
-        <v>163</v>
+        <v>102</v>
       </c>
       <c r="I69" s="91" t="s">
-        <v>168</v>
+        <v>112</v>
       </c>
       <c r="J69" s="25"/>
     </row>
@@ -3346,7 +3348,9 @@
       <c r="D70" s="42"/>
       <c r="E70" s="42"/>
       <c r="F70" s="100"/>
-      <c r="G70" s="65"/>
+      <c r="G70" s="65">
+        <v>89603906796</v>
+      </c>
       <c r="H70" s="6"/>
       <c r="I70" s="26"/>
       <c r="J70" s="23"/>
@@ -3364,159 +3368,207 @@
       <c r="J71" s="24"/>
     </row>
     <row r="72" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A72" s="6"/>
-      <c r="B72" s="5"/>
-      <c r="C72" s="10"/>
-      <c r="D72" s="6"/>
-      <c r="E72" s="6"/>
-      <c r="F72" s="100"/>
-      <c r="G72" s="65"/>
-      <c r="H72" s="6"/>
-      <c r="I72" s="26"/>
-      <c r="J72" s="23"/>
-    </row>
-    <row r="73" spans="1:10" s="80" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A73" s="2"/>
-      <c r="D73" s="2"/>
-      <c r="E73" s="2"/>
-      <c r="F73" s="122"/>
-      <c r="G73" s="78"/>
-      <c r="H73" s="2"/>
-      <c r="I73" s="79"/>
-      <c r="J73" s="79"/>
-    </row>
-    <row r="74" spans="1:10" s="80" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A74" s="2"/>
-      <c r="B74" s="81" t="s">
-        <v>108</v>
-      </c>
-      <c r="C74" s="82"/>
-      <c r="D74" s="2"/>
-      <c r="E74" s="132" t="s">
-        <v>174</v>
-      </c>
-      <c r="F74" s="122"/>
-      <c r="G74" s="139" t="s">
-        <v>184</v>
-      </c>
-      <c r="H74" s="79"/>
-    </row>
-    <row r="75" spans="1:10" s="80" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A75" s="2"/>
-      <c r="B75" s="80" t="s">
-        <v>146</v>
-      </c>
-      <c r="C75" s="80" t="s">
-        <v>147</v>
-      </c>
-      <c r="D75" s="2"/>
-      <c r="E75" s="79" t="s">
-        <v>175</v>
-      </c>
-      <c r="F75" s="79" t="s">
-        <v>157</v>
-      </c>
-      <c r="G75" s="80" t="s">
-        <v>185</v>
-      </c>
-      <c r="H75" s="140" t="s">
-        <v>88</v>
-      </c>
+      <c r="A72" s="4">
+        <v>17</v>
+      </c>
+      <c r="B72" s="25" t="s">
+        <v>162</v>
+      </c>
+      <c r="C72" s="3">
+        <v>1</v>
+      </c>
+      <c r="D72" s="41">
+        <v>44599</v>
+      </c>
+      <c r="E72" s="125"/>
+      <c r="F72" s="121"/>
+      <c r="G72" s="64"/>
+      <c r="H72" s="4" t="s">
+        <v>163</v>
+      </c>
+      <c r="I72" s="91" t="s">
+        <v>168</v>
+      </c>
+      <c r="J72" s="25"/>
+    </row>
+    <row r="73" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A73" s="6"/>
+      <c r="B73" s="23"/>
+      <c r="C73" s="10"/>
+      <c r="D73" s="42"/>
+      <c r="E73" s="42"/>
+      <c r="F73" s="100"/>
+      <c r="G73" s="65"/>
+      <c r="H73" s="6"/>
+      <c r="I73" s="26"/>
+      <c r="J73" s="23"/>
+    </row>
+    <row r="74" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A74" s="8"/>
+      <c r="B74" s="7"/>
+      <c r="C74" s="11"/>
+      <c r="D74" s="8"/>
+      <c r="E74" s="8"/>
+      <c r="F74" s="103"/>
+      <c r="G74" s="66"/>
+      <c r="H74" s="8"/>
+      <c r="I74" s="49"/>
+      <c r="J74" s="24"/>
+    </row>
+    <row r="75" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A75" s="6"/>
+      <c r="B75" s="5"/>
+      <c r="C75" s="10"/>
+      <c r="D75" s="6"/>
+      <c r="E75" s="6"/>
+      <c r="F75" s="100"/>
+      <c r="G75" s="65"/>
+      <c r="H75" s="6"/>
+      <c r="I75" s="26"/>
+      <c r="J75" s="23"/>
     </row>
     <row r="76" spans="1:10" s="80" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A76" s="2"/>
-      <c r="B76" s="78" t="s">
-        <v>149</v>
-      </c>
-      <c r="C76" s="2" t="s">
-        <v>107</v>
-      </c>
       <c r="D76" s="2"/>
-      <c r="E76" s="79" t="s">
-        <v>176</v>
-      </c>
-      <c r="F76" s="79" t="s">
-        <v>67</v>
-      </c>
+      <c r="E76" s="2"/>
+      <c r="F76" s="122"/>
+      <c r="G76" s="78"/>
+      <c r="H76" s="2"/>
+      <c r="I76" s="79"/>
+      <c r="J76" s="79"/>
     </row>
     <row r="77" spans="1:10" s="80" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A77" s="2"/>
-      <c r="B77" s="78" t="s">
-        <v>150</v>
-      </c>
-      <c r="C77" s="2" t="s">
-        <v>101</v>
-      </c>
+      <c r="B77" s="81" t="s">
+        <v>108</v>
+      </c>
+      <c r="C77" s="82"/>
       <c r="D77" s="2"/>
-      <c r="E77" s="79" t="s">
-        <v>155</v>
-      </c>
-      <c r="F77" s="79"/>
+      <c r="E77" s="132" t="s">
+        <v>174</v>
+      </c>
+      <c r="F77" s="122"/>
+      <c r="G77" s="139" t="s">
+        <v>184</v>
+      </c>
+      <c r="H77" s="79"/>
     </row>
     <row r="78" spans="1:10" s="80" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A78" s="2"/>
-      <c r="B78" s="78" t="s">
+      <c r="B78" s="80" t="s">
+        <v>146</v>
+      </c>
+      <c r="C78" s="80" t="s">
+        <v>147</v>
+      </c>
+      <c r="D78" s="2"/>
+      <c r="E78" s="79" t="s">
+        <v>175</v>
+      </c>
+      <c r="F78" s="79" t="s">
+        <v>157</v>
+      </c>
+      <c r="G78" s="80" t="s">
+        <v>185</v>
+      </c>
+      <c r="H78" s="140" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="79" spans="1:10" s="80" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A79" s="2"/>
+      <c r="B79" s="78" t="s">
+        <v>149</v>
+      </c>
+      <c r="C79" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="D79" s="2"/>
+      <c r="E79" s="79" t="s">
+        <v>176</v>
+      </c>
+      <c r="F79" s="79" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="80" spans="1:10" s="80" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A80" s="2"/>
+      <c r="B80" s="78" t="s">
+        <v>150</v>
+      </c>
+      <c r="C80" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="D80" s="2"/>
+      <c r="E80" s="79" t="s">
+        <v>155</v>
+      </c>
+      <c r="F80" s="79"/>
+    </row>
+    <row r="81" spans="1:10" s="80" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A81" s="2"/>
+      <c r="B81" s="78" t="s">
         <v>151</v>
       </c>
-      <c r="C78" s="2" t="s">
+      <c r="C81" s="2" t="s">
         <v>68</v>
       </c>
-      <c r="D78" s="2"/>
-      <c r="E78" s="133" t="s">
+      <c r="D81" s="2"/>
+      <c r="E81" s="133" t="s">
         <v>178</v>
       </c>
-      <c r="F78" s="79"/>
-      <c r="I78" s="79"/>
-      <c r="J78" s="79"/>
-    </row>
-    <row r="79" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="B79" s="1" t="s">
+      <c r="F81" s="79"/>
+      <c r="I81" s="79"/>
+      <c r="J81" s="79"/>
+    </row>
+    <row r="82" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="B82" s="1" t="s">
         <v>113</v>
       </c>
-      <c r="C79" s="1" t="str">
-        <f>H42</f>
+      <c r="C82" s="1" t="str">
+        <f>H45</f>
         <v>25 ORG</v>
       </c>
-      <c r="E79" s="79" t="s">
+      <c r="E82" s="79" t="s">
         <v>177</v>
       </c>
-      <c r="F79" s="79"/>
-    </row>
-    <row r="80" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="B80" s="1" t="s">
+      <c r="F82" s="79"/>
+    </row>
+    <row r="83" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="B83" s="1" t="s">
         <v>152</v>
       </c>
-      <c r="C80" s="1" t="s">
+      <c r="C83" s="1" t="s">
         <v>153</v>
       </c>
-      <c r="E80" s="67"/>
-      <c r="F80" s="2"/>
-    </row>
-    <row r="81" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B81" s="78" t="s">
+      <c r="E83" s="67"/>
+      <c r="F83" s="2"/>
+    </row>
+    <row r="84" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="B84" s="78" t="s">
         <v>148</v>
       </c>
-      <c r="C81" s="2" t="s">
+      <c r="C84" s="2" t="s">
         <v>131</v>
       </c>
-      <c r="E81" s="135" t="s">
+      <c r="E84" s="135" t="s">
         <v>180</v>
       </c>
-      <c r="F81" s="2"/>
-    </row>
-    <row r="82" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="C82" s="1" t="s">
+      <c r="F84" s="2"/>
+    </row>
+    <row r="85" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="C85" s="1" t="s">
         <v>154</v>
       </c>
-      <c r="E82" s="79" t="s">
+      <c r="E85" s="79" t="s">
         <v>181</v>
       </c>
-      <c r="F82" s="138" t="s">
+      <c r="F85" s="138" t="s">
         <v>183</v>
       </c>
     </row>
-    <row r="83" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="E83" s="79" t="s">
+    <row r="86" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="E86" s="79" t="s">
         <v>182</v>
       </c>
     </row>

--- a/RENCANA BON VOYAGE.xlsx
+++ b/RENCANA BON VOYAGE.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Mapan\progress\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DB9DC667-B0F4-4F8D-AEA9-3FF093619B20}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{822566CF-6653-41BE-901F-4FEF7993FE71}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1178,6 +1178,9 @@
     <xf numFmtId="15" fontId="2" fillId="10" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1216,9 +1219,6 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2098,8 +2098,8 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:J86"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="E34" sqref="E34"/>
+    <sheetView tabSelected="1" topLeftCell="A28" zoomScale="85" zoomScaleNormal="85" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="E57" sqref="E57"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -2118,46 +2118,46 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="15" x14ac:dyDescent="0.25">
-      <c r="A1" s="142" t="s">
+      <c r="A1" s="143" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="142" t="s">
+      <c r="B1" s="143" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="142" t="s">
+      <c r="C1" s="143" t="s">
         <v>27</v>
       </c>
-      <c r="D1" s="148" t="s">
+      <c r="D1" s="149" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="148"/>
-      <c r="F1" s="146" t="s">
+      <c r="E1" s="149"/>
+      <c r="F1" s="147" t="s">
         <v>8</v>
       </c>
-      <c r="G1" s="144" t="s">
+      <c r="G1" s="145" t="s">
         <v>4</v>
       </c>
-      <c r="H1" s="142" t="s">
+      <c r="H1" s="143" t="s">
         <v>2</v>
       </c>
-      <c r="I1" s="142" t="s">
+      <c r="I1" s="143" t="s">
         <v>56</v>
       </c>
-      <c r="J1" s="142"/>
+      <c r="J1" s="143"/>
     </row>
     <row r="2" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="143"/>
-      <c r="B2" s="143"/>
-      <c r="C2" s="143"/>
+      <c r="A2" s="144"/>
+      <c r="B2" s="144"/>
+      <c r="C2" s="144"/>
       <c r="D2" s="16" t="s">
         <v>6</v>
       </c>
       <c r="E2" s="16" t="s">
         <v>7</v>
       </c>
-      <c r="F2" s="147"/>
-      <c r="G2" s="145"/>
-      <c r="H2" s="143"/>
+      <c r="F2" s="148"/>
+      <c r="G2" s="146"/>
+      <c r="H2" s="144"/>
       <c r="I2" s="16" t="s">
         <v>6</v>
       </c>
@@ -2695,12 +2695,12 @@
       <c r="A32" s="6"/>
       <c r="B32" s="26"/>
       <c r="C32" s="10"/>
-      <c r="D32" s="6"/>
+      <c r="D32" s="8"/>
       <c r="E32" s="6"/>
-      <c r="F32" s="100"/>
-      <c r="G32" s="65"/>
-      <c r="H32" s="6"/>
-      <c r="I32" s="26"/>
+      <c r="F32" s="103"/>
+      <c r="G32" s="66"/>
+      <c r="H32" s="8"/>
+      <c r="I32" s="49"/>
       <c r="J32" s="23"/>
     </row>
     <row r="33" spans="1:10" x14ac:dyDescent="0.2">
@@ -2722,7 +2722,7 @@
       </c>
       <c r="G33" s="101"/>
       <c r="H33" s="92"/>
-      <c r="I33" s="155"/>
+      <c r="I33" s="142"/>
       <c r="J33" s="23"/>
     </row>
     <row r="34" spans="1:10" x14ac:dyDescent="0.2">
@@ -3278,7 +3278,7 @@
       </c>
       <c r="E66" s="21"/>
       <c r="F66" s="109" t="s">
-        <v>64</v>
+        <v>86</v>
       </c>
       <c r="G66" s="64"/>
       <c r="H66" s="4" t="s">
@@ -3613,46 +3613,46 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="18" x14ac:dyDescent="0.2">
-      <c r="A1" s="151" t="s">
+      <c r="A1" s="152" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="151" t="s">
+      <c r="B1" s="152" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="151" t="s">
+      <c r="C1" s="152" t="s">
         <v>27</v>
       </c>
-      <c r="D1" s="151" t="s">
+      <c r="D1" s="152" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="151"/>
-      <c r="F1" s="153" t="s">
+      <c r="E1" s="152"/>
+      <c r="F1" s="154" t="s">
         <v>104</v>
       </c>
-      <c r="G1" s="151" t="s">
+      <c r="G1" s="152" t="s">
         <v>4</v>
       </c>
-      <c r="H1" s="149" t="s">
+      <c r="H1" s="150" t="s">
         <v>2</v>
       </c>
-      <c r="I1" s="142" t="s">
+      <c r="I1" s="143" t="s">
         <v>56</v>
       </c>
-      <c r="J1" s="142"/>
+      <c r="J1" s="143"/>
     </row>
     <row r="2" spans="1:10" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="152"/>
-      <c r="B2" s="152"/>
-      <c r="C2" s="152"/>
+      <c r="A2" s="153"/>
+      <c r="B2" s="153"/>
+      <c r="C2" s="153"/>
       <c r="D2" s="70" t="s">
         <v>6</v>
       </c>
       <c r="E2" s="18" t="s">
         <v>7</v>
       </c>
-      <c r="F2" s="154"/>
-      <c r="G2" s="152"/>
-      <c r="H2" s="150"/>
+      <c r="F2" s="155"/>
+      <c r="G2" s="153"/>
+      <c r="H2" s="151"/>
       <c r="I2" s="16" t="s">
         <v>6</v>
       </c>

--- a/RENCANA BON VOYAGE.xlsx
+++ b/RENCANA BON VOYAGE.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Mapan\progress\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{822566CF-6653-41BE-901F-4FEF7993FE71}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B7888E15-A227-47B9-8D69-1CF7F20B9924}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="8475" yWindow="4080" windowWidth="19200" windowHeight="7725" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="progres" sheetId="1" r:id="rId1"/>
@@ -18,7 +18,7 @@
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">done!$A$1:$I$2</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">progres!$A$1:$I$37</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">progres!$A$1:$I$43</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="348" uniqueCount="187">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="359" uniqueCount="192">
   <si>
     <t>NO</t>
   </si>
@@ -595,6 +595,21 @@
   </si>
   <si>
     <t>26 SEPT</t>
+  </si>
+  <si>
+    <t>14 SEPT</t>
+  </si>
+  <si>
+    <t>14 AGUST</t>
+  </si>
+  <si>
+    <t>18 AGUST</t>
+  </si>
+  <si>
+    <t>18 JULI</t>
+  </si>
+  <si>
+    <t>68 ORG</t>
   </si>
 </sst>
 </file>
@@ -1243,14 +1258,14 @@
     <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>273113</xdr:colOff>
-      <xdr:row>8</xdr:row>
+      <xdr:row>14</xdr:row>
       <xdr:rowOff>178059</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
       <xdr:colOff>273473</xdr:colOff>
-      <xdr:row>9</xdr:row>
-      <xdr:rowOff>5235</xdr:rowOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>5236</xdr:rowOff>
     </xdr:to>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
       <mc:Choice Requires="xdr14">
@@ -1308,13 +1323,13 @@
     <xdr:from>
       <xdr:col>14</xdr:col>
       <xdr:colOff>189939</xdr:colOff>
-      <xdr:row>35</xdr:row>
+      <xdr:row>41</xdr:row>
       <xdr:rowOff>89245</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>14</xdr:col>
       <xdr:colOff>190299</xdr:colOff>
-      <xdr:row>35</xdr:row>
+      <xdr:row>41</xdr:row>
       <xdr:rowOff>89605</xdr:rowOff>
     </xdr:to>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
@@ -1373,7 +1388,7 @@
     <xdr:from>
       <xdr:col>14</xdr:col>
       <xdr:colOff>189939</xdr:colOff>
-      <xdr:row>38</xdr:row>
+      <xdr:row>44</xdr:row>
       <xdr:rowOff>89245</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="360" cy="360"/>
@@ -1433,7 +1448,7 @@
     <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>273113</xdr:colOff>
-      <xdr:row>14</xdr:row>
+      <xdr:row>20</xdr:row>
       <xdr:rowOff>178059</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="360" cy="4070"/>
@@ -1493,7 +1508,7 @@
     <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>273113</xdr:colOff>
-      <xdr:row>20</xdr:row>
+      <xdr:row>26</xdr:row>
       <xdr:rowOff>178059</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="360" cy="4070"/>
@@ -1553,7 +1568,7 @@
     <xdr:from>
       <xdr:col>14</xdr:col>
       <xdr:colOff>189939</xdr:colOff>
-      <xdr:row>41</xdr:row>
+      <xdr:row>47</xdr:row>
       <xdr:rowOff>89245</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="360" cy="360"/>
@@ -2096,10 +2111,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:J86"/>
+  <dimension ref="A1:J95"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A28" zoomScale="85" zoomScaleNormal="85" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="E57" sqref="E57"/>
+    <sheetView tabSelected="1" topLeftCell="A16" zoomScale="85" zoomScaleNormal="85" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="G57" sqref="G57"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -2275,47 +2290,37 @@
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A9" s="4">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B9" s="86" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="C9" s="3">
-        <v>17</v>
-      </c>
-      <c r="D9" s="73" t="s">
-        <v>106</v>
-      </c>
-      <c r="E9" s="127">
-        <v>44237</v>
-      </c>
-      <c r="F9" s="109" t="s">
-        <v>64</v>
-      </c>
-      <c r="G9" s="63" t="s">
-        <v>51</v>
-      </c>
-      <c r="H9" s="4" t="s">
-        <v>71</v>
-      </c>
-      <c r="I9" s="51">
-        <v>44449</v>
-      </c>
-      <c r="J9" s="25"/>
+        <v>12</v>
+      </c>
+      <c r="D9" s="71"/>
+      <c r="E9" s="85" t="s">
+        <v>190</v>
+      </c>
+      <c r="F9" s="119" t="s">
+        <v>189</v>
+      </c>
+      <c r="G9" s="93"/>
+      <c r="H9" s="22"/>
+      <c r="I9" s="107"/>
+      <c r="J9" s="98"/>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A10" s="6"/>
       <c r="B10" s="26"/>
       <c r="C10" s="10"/>
-      <c r="D10" s="34"/>
-      <c r="E10" s="34"/>
-      <c r="F10" s="94"/>
-      <c r="G10" s="61">
-        <v>81284663664</v>
-      </c>
-      <c r="H10" s="6"/>
-      <c r="I10" s="26"/>
-      <c r="J10" s="23"/>
+      <c r="D10" s="19"/>
+      <c r="E10" s="19"/>
+      <c r="F10" s="46"/>
+      <c r="G10" s="108"/>
+      <c r="H10" s="19"/>
+      <c r="I10" s="88"/>
+      <c r="J10" s="102"/>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A11" s="8"/>
@@ -2323,55 +2328,45 @@
       <c r="C11" s="11"/>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
-      <c r="F11" s="95"/>
-      <c r="G11" s="62"/>
-      <c r="H11" s="8"/>
-      <c r="I11" s="49"/>
-      <c r="J11" s="24"/>
+      <c r="F11" s="111"/>
+      <c r="G11" s="96"/>
+      <c r="H11" s="20"/>
+      <c r="I11" s="89"/>
+      <c r="J11" s="105"/>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A12" s="4">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B12" s="86" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C12" s="3">
-        <v>17</v>
-      </c>
-      <c r="D12" s="73" t="s">
-        <v>106</v>
-      </c>
-      <c r="E12" s="127">
-        <v>44237</v>
-      </c>
-      <c r="F12" s="109" t="s">
-        <v>64</v>
-      </c>
-      <c r="G12" s="63" t="s">
-        <v>47</v>
-      </c>
-      <c r="H12" s="4" t="s">
-        <v>72</v>
-      </c>
-      <c r="I12" s="51">
-        <v>44449</v>
-      </c>
-      <c r="J12" s="25"/>
+        <v>12</v>
+      </c>
+      <c r="D12" s="71"/>
+      <c r="E12" s="85" t="s">
+        <v>190</v>
+      </c>
+      <c r="F12" s="119" t="s">
+        <v>189</v>
+      </c>
+      <c r="G12" s="93"/>
+      <c r="H12" s="22"/>
+      <c r="I12" s="107"/>
+      <c r="J12" s="98"/>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A13" s="6"/>
       <c r="B13" s="26"/>
       <c r="C13" s="10"/>
-      <c r="D13" s="34"/>
-      <c r="E13" s="34"/>
-      <c r="F13" s="94"/>
-      <c r="G13" s="61">
-        <v>85740346667</v>
-      </c>
-      <c r="H13" s="6"/>
-      <c r="I13" s="26"/>
-      <c r="J13" s="23"/>
+      <c r="D13" s="19"/>
+      <c r="E13" s="19"/>
+      <c r="F13" s="46"/>
+      <c r="G13" s="108"/>
+      <c r="H13" s="19"/>
+      <c r="I13" s="88"/>
+      <c r="J13" s="102"/>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A14" s="8"/>
@@ -2379,39 +2374,39 @@
       <c r="C14" s="11"/>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
-      <c r="F14" s="95"/>
-      <c r="G14" s="62"/>
-      <c r="H14" s="8"/>
-      <c r="I14" s="49"/>
-      <c r="J14" s="24"/>
+      <c r="F14" s="111"/>
+      <c r="G14" s="96"/>
+      <c r="H14" s="20"/>
+      <c r="I14" s="89"/>
+      <c r="J14" s="105"/>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A15" s="4">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B15" s="86" t="s">
         <v>10</v>
       </c>
       <c r="C15" s="3">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D15" s="73" t="s">
-        <v>170</v>
-      </c>
-      <c r="E15" s="137" t="s">
-        <v>33</v>
-      </c>
-      <c r="F15" s="119" t="s">
-        <v>119</v>
-      </c>
-      <c r="G15" s="93" t="s">
-        <v>124</v>
-      </c>
-      <c r="H15" s="22" t="s">
-        <v>145</v>
-      </c>
-      <c r="I15" s="116" t="s">
-        <v>171</v>
+        <v>106</v>
+      </c>
+      <c r="E15" s="127">
+        <v>44237</v>
+      </c>
+      <c r="F15" s="109" t="s">
+        <v>64</v>
+      </c>
+      <c r="G15" s="63" t="s">
+        <v>51</v>
+      </c>
+      <c r="H15" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="I15" s="51">
+        <v>44449</v>
       </c>
       <c r="J15" s="25"/>
     </row>
@@ -2422,11 +2417,11 @@
       <c r="D16" s="34"/>
       <c r="E16" s="34"/>
       <c r="F16" s="94"/>
-      <c r="G16" s="108" t="s">
-        <v>125</v>
-      </c>
-      <c r="H16" s="19"/>
-      <c r="I16" s="88"/>
+      <c r="G16" s="61">
+        <v>81284663664</v>
+      </c>
+      <c r="H16" s="6"/>
+      <c r="I16" s="26"/>
       <c r="J16" s="23"/>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.2">
@@ -2436,38 +2431,38 @@
       <c r="D17" s="20"/>
       <c r="E17" s="20"/>
       <c r="F17" s="95"/>
-      <c r="G17" s="96"/>
-      <c r="H17" s="20"/>
-      <c r="I17" s="89"/>
+      <c r="G17" s="62"/>
+      <c r="H17" s="8"/>
+      <c r="I17" s="49"/>
       <c r="J17" s="24"/>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A18" s="4">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B18" s="86" t="s">
         <v>11</v>
       </c>
       <c r="C18" s="3">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D18" s="73" t="s">
-        <v>170</v>
-      </c>
-      <c r="E18" s="137" t="s">
-        <v>33</v>
-      </c>
-      <c r="F18" s="119" t="s">
-        <v>119</v>
-      </c>
-      <c r="G18" s="93" t="s">
-        <v>122</v>
-      </c>
-      <c r="H18" s="22" t="s">
-        <v>71</v>
-      </c>
-      <c r="I18" s="116" t="s">
-        <v>171</v>
+        <v>106</v>
+      </c>
+      <c r="E18" s="127">
+        <v>44237</v>
+      </c>
+      <c r="F18" s="109" t="s">
+        <v>64</v>
+      </c>
+      <c r="G18" s="63" t="s">
+        <v>47</v>
+      </c>
+      <c r="H18" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="I18" s="51">
+        <v>44449</v>
       </c>
       <c r="J18" s="25"/>
     </row>
@@ -2478,11 +2473,11 @@
       <c r="D19" s="34"/>
       <c r="E19" s="34"/>
       <c r="F19" s="94"/>
-      <c r="G19" s="108" t="s">
-        <v>123</v>
-      </c>
-      <c r="H19" s="19"/>
-      <c r="I19" s="88"/>
+      <c r="G19" s="61">
+        <v>85740346667</v>
+      </c>
+      <c r="H19" s="6"/>
+      <c r="I19" s="26"/>
       <c r="J19" s="23"/>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.2">
@@ -2492,9 +2487,9 @@
       <c r="D20" s="20"/>
       <c r="E20" s="20"/>
       <c r="F20" s="95"/>
-      <c r="G20" s="96"/>
-      <c r="H20" s="20"/>
-      <c r="I20" s="89"/>
+      <c r="G20" s="62"/>
+      <c r="H20" s="8"/>
+      <c r="I20" s="49"/>
       <c r="J20" s="24"/>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.2">
@@ -2505,20 +2500,26 @@
         <v>10</v>
       </c>
       <c r="C21" s="3">
-        <v>19</v>
-      </c>
-      <c r="D21" s="92" t="s">
-        <v>118</v>
-      </c>
-      <c r="E21" s="85" t="s">
-        <v>161</v>
+        <v>18</v>
+      </c>
+      <c r="D21" s="73" t="s">
+        <v>170</v>
+      </c>
+      <c r="E21" s="137" t="s">
+        <v>33</v>
       </c>
       <c r="F21" s="119" t="s">
-        <v>160</v>
-      </c>
-      <c r="G21" s="93"/>
-      <c r="H21" s="22"/>
-      <c r="I21" s="74"/>
+        <v>119</v>
+      </c>
+      <c r="G21" s="93" t="s">
+        <v>124</v>
+      </c>
+      <c r="H21" s="22" t="s">
+        <v>145</v>
+      </c>
+      <c r="I21" s="116" t="s">
+        <v>171</v>
+      </c>
       <c r="J21" s="25"/>
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.2">
@@ -2528,7 +2529,9 @@
       <c r="D22" s="34"/>
       <c r="E22" s="34"/>
       <c r="F22" s="94"/>
-      <c r="G22" s="108"/>
+      <c r="G22" s="108" t="s">
+        <v>125</v>
+      </c>
       <c r="H22" s="19"/>
       <c r="I22" s="88"/>
       <c r="J22" s="23"/>
@@ -2553,18 +2556,26 @@
         <v>11</v>
       </c>
       <c r="C24" s="3">
-        <v>19</v>
-      </c>
-      <c r="D24" s="92"/>
-      <c r="E24" s="85" t="s">
-        <v>161</v>
+        <v>18</v>
+      </c>
+      <c r="D24" s="73" t="s">
+        <v>170</v>
+      </c>
+      <c r="E24" s="137" t="s">
+        <v>33</v>
       </c>
       <c r="F24" s="119" t="s">
-        <v>160</v>
-      </c>
-      <c r="G24" s="93"/>
-      <c r="H24" s="22"/>
-      <c r="I24" s="74"/>
+        <v>119</v>
+      </c>
+      <c r="G24" s="93" t="s">
+        <v>122</v>
+      </c>
+      <c r="H24" s="22" t="s">
+        <v>71</v>
+      </c>
+      <c r="I24" s="116" t="s">
+        <v>171</v>
+      </c>
       <c r="J24" s="25"/>
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.2">
@@ -2574,7 +2585,9 @@
       <c r="D25" s="34"/>
       <c r="E25" s="34"/>
       <c r="F25" s="94"/>
-      <c r="G25" s="108"/>
+      <c r="G25" s="108" t="s">
+        <v>123</v>
+      </c>
       <c r="H25" s="19"/>
       <c r="I25" s="88"/>
       <c r="J25" s="23"/>
@@ -2593,294 +2606,288 @@
     </row>
     <row r="27" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A27" s="4">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="B27" s="86" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="C27" s="3">
-        <v>33</v>
-      </c>
-      <c r="D27" s="73" t="s">
-        <v>106</v>
-      </c>
-      <c r="E27" s="127">
-        <v>44237</v>
-      </c>
-      <c r="F27" s="109" t="s">
-        <v>155</v>
-      </c>
-      <c r="G27" s="65" t="s">
-        <v>100</v>
-      </c>
-      <c r="H27" s="6" t="s">
-        <v>101</v>
-      </c>
-      <c r="I27" s="91" t="s">
-        <v>112</v>
-      </c>
-      <c r="J27" s="23"/>
+        <v>19</v>
+      </c>
+      <c r="D27" s="92" t="s">
+        <v>118</v>
+      </c>
+      <c r="E27" s="85" t="s">
+        <v>161</v>
+      </c>
+      <c r="F27" s="119" t="s">
+        <v>160</v>
+      </c>
+      <c r="G27" s="93"/>
+      <c r="H27" s="22" t="s">
+        <v>191</v>
+      </c>
+      <c r="I27" s="74"/>
+      <c r="J27" s="25"/>
     </row>
     <row r="28" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A28" s="6"/>
       <c r="B28" s="26"/>
       <c r="C28" s="10"/>
-      <c r="D28" s="6"/>
-      <c r="E28" s="6"/>
-      <c r="F28" s="100"/>
-      <c r="G28" s="65">
-        <v>81235748714</v>
-      </c>
-      <c r="H28" s="6"/>
-      <c r="I28" s="26"/>
+      <c r="D28" s="34"/>
+      <c r="E28" s="34"/>
+      <c r="F28" s="94"/>
+      <c r="G28" s="108"/>
+      <c r="H28" s="19"/>
+      <c r="I28" s="88"/>
       <c r="J28" s="23"/>
     </row>
     <row r="29" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A29" s="8"/>
-      <c r="B29" s="26"/>
-      <c r="C29" s="10"/>
-      <c r="D29" s="19"/>
-      <c r="E29" s="19"/>
-      <c r="F29" s="100"/>
-      <c r="G29" s="101"/>
-      <c r="H29" s="19"/>
-      <c r="I29" s="88"/>
-      <c r="J29" s="23"/>
+      <c r="B29" s="49"/>
+      <c r="C29" s="11"/>
+      <c r="D29" s="20"/>
+      <c r="E29" s="20"/>
+      <c r="F29" s="95"/>
+      <c r="G29" s="96"/>
+      <c r="H29" s="20"/>
+      <c r="I29" s="89"/>
+      <c r="J29" s="24"/>
     </row>
     <row r="30" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A30" s="4">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="B30" s="86" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C30" s="3">
-        <v>34</v>
-      </c>
-      <c r="D30" s="73" t="s">
-        <v>169</v>
-      </c>
-      <c r="E30" s="130">
-        <v>44301</v>
-      </c>
-      <c r="F30" s="120" t="s">
-        <v>158</v>
-      </c>
-      <c r="G30" s="101" t="s">
-        <v>156</v>
-      </c>
-      <c r="H30" s="92" t="s">
-        <v>157</v>
-      </c>
-      <c r="I30" s="91" t="s">
-        <v>168</v>
-      </c>
-      <c r="J30" s="23"/>
+        <v>19</v>
+      </c>
+      <c r="D30" s="92"/>
+      <c r="E30" s="85" t="s">
+        <v>161</v>
+      </c>
+      <c r="F30" s="119" t="s">
+        <v>160</v>
+      </c>
+      <c r="G30" s="93"/>
+      <c r="H30" s="22" t="s">
+        <v>70</v>
+      </c>
+      <c r="I30" s="74"/>
+      <c r="J30" s="25"/>
     </row>
     <row r="31" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A31" s="6"/>
       <c r="B31" s="26"/>
       <c r="C31" s="10"/>
-      <c r="D31" s="19"/>
-      <c r="E31" s="19"/>
-      <c r="F31" s="100"/>
-      <c r="G31" s="101">
-        <v>81211928369</v>
-      </c>
+      <c r="D31" s="34"/>
+      <c r="E31" s="34"/>
+      <c r="F31" s="94"/>
+      <c r="G31" s="108"/>
       <c r="H31" s="19"/>
       <c r="I31" s="88"/>
       <c r="J31" s="23"/>
     </row>
     <row r="32" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A32" s="6"/>
-      <c r="B32" s="26"/>
-      <c r="C32" s="10"/>
-      <c r="D32" s="8"/>
-      <c r="E32" s="6"/>
-      <c r="F32" s="103"/>
-      <c r="G32" s="66"/>
-      <c r="H32" s="8"/>
-      <c r="I32" s="49"/>
-      <c r="J32" s="23"/>
+      <c r="A32" s="8"/>
+      <c r="B32" s="49"/>
+      <c r="C32" s="11"/>
+      <c r="D32" s="20"/>
+      <c r="E32" s="20"/>
+      <c r="F32" s="95"/>
+      <c r="G32" s="96"/>
+      <c r="H32" s="20"/>
+      <c r="I32" s="89"/>
+      <c r="J32" s="24"/>
     </row>
     <row r="33" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A33" s="4">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B33" s="86" t="s">
         <v>13</v>
       </c>
       <c r="C33" s="3">
-        <v>35</v>
-      </c>
-      <c r="D33" s="92"/>
-      <c r="E33" s="85" t="s">
-        <v>57</v>
-      </c>
-      <c r="F33" s="120" t="s">
-        <v>186</v>
-      </c>
-      <c r="G33" s="101"/>
-      <c r="H33" s="92"/>
-      <c r="I33" s="142"/>
+        <v>33</v>
+      </c>
+      <c r="D33" s="73" t="s">
+        <v>106</v>
+      </c>
+      <c r="E33" s="127">
+        <v>44237</v>
+      </c>
+      <c r="F33" s="109" t="s">
+        <v>155</v>
+      </c>
+      <c r="G33" s="65" t="s">
+        <v>100</v>
+      </c>
+      <c r="H33" s="6" t="s">
+        <v>101</v>
+      </c>
+      <c r="I33" s="91" t="s">
+        <v>112</v>
+      </c>
       <c r="J33" s="23"/>
     </row>
     <row r="34" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A34" s="6"/>
       <c r="B34" s="26"/>
       <c r="C34" s="10"/>
-      <c r="D34" s="19"/>
-      <c r="E34" s="19"/>
+      <c r="D34" s="6"/>
+      <c r="E34" s="6"/>
       <c r="F34" s="100"/>
-      <c r="G34" s="101"/>
-      <c r="H34" s="19"/>
-      <c r="I34" s="88"/>
+      <c r="G34" s="65">
+        <v>81235748714</v>
+      </c>
+      <c r="H34" s="6"/>
+      <c r="I34" s="26"/>
       <c r="J34" s="23"/>
     </row>
     <row r="35" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A35" s="6"/>
+      <c r="A35" s="8"/>
       <c r="B35" s="26"/>
       <c r="C35" s="10"/>
-      <c r="D35" s="6"/>
-      <c r="E35" s="6"/>
+      <c r="D35" s="19"/>
+      <c r="E35" s="19"/>
       <c r="F35" s="100"/>
-      <c r="G35" s="65"/>
-      <c r="H35" s="6"/>
-      <c r="I35" s="26"/>
+      <c r="G35" s="101"/>
+      <c r="H35" s="19"/>
+      <c r="I35" s="88"/>
       <c r="J35" s="23"/>
     </row>
     <row r="36" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A36" s="4">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B36" s="86" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C36" s="3">
-        <v>26</v>
-      </c>
-      <c r="D36" s="13" t="s">
-        <v>39</v>
-      </c>
-      <c r="E36" s="127">
-        <v>44237</v>
-      </c>
-      <c r="F36" s="109" t="s">
-        <v>64</v>
-      </c>
-      <c r="G36" s="63" t="s">
-        <v>60</v>
-      </c>
-      <c r="H36" s="4" t="s">
-        <v>68</v>
-      </c>
-      <c r="I36" s="51">
-        <v>44440</v>
-      </c>
-      <c r="J36" s="25"/>
+        <v>34</v>
+      </c>
+      <c r="D36" s="73" t="s">
+        <v>169</v>
+      </c>
+      <c r="E36" s="130">
+        <v>44301</v>
+      </c>
+      <c r="F36" s="120" t="s">
+        <v>158</v>
+      </c>
+      <c r="G36" s="101" t="s">
+        <v>156</v>
+      </c>
+      <c r="H36" s="92" t="s">
+        <v>157</v>
+      </c>
+      <c r="I36" s="91" t="s">
+        <v>168</v>
+      </c>
+      <c r="J36" s="23"/>
     </row>
     <row r="37" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A37" s="6"/>
       <c r="B37" s="26"/>
       <c r="C37" s="10"/>
-      <c r="D37" s="6"/>
-      <c r="E37" s="44"/>
-      <c r="F37" s="46"/>
-      <c r="G37" s="61">
-        <v>85732094240</v>
-      </c>
-      <c r="H37" s="6"/>
-      <c r="I37" s="26"/>
+      <c r="D37" s="19"/>
+      <c r="E37" s="19"/>
+      <c r="F37" s="100"/>
+      <c r="G37" s="101">
+        <v>81211928369</v>
+      </c>
+      <c r="H37" s="19"/>
+      <c r="I37" s="88"/>
       <c r="J37" s="23"/>
     </row>
     <row r="38" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A38" s="8"/>
-      <c r="B38" s="49"/>
-      <c r="C38" s="7"/>
+      <c r="A38" s="6"/>
+      <c r="B38" s="26"/>
+      <c r="C38" s="10"/>
       <c r="D38" s="8"/>
-      <c r="E38" s="8"/>
-      <c r="F38" s="111"/>
-      <c r="G38" s="62"/>
+      <c r="E38" s="6"/>
+      <c r="F38" s="103"/>
+      <c r="G38" s="66"/>
       <c r="H38" s="8"/>
       <c r="I38" s="49"/>
-      <c r="J38" s="24"/>
+      <c r="J38" s="23"/>
     </row>
     <row r="39" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A39" s="4">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B39" s="86" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C39" s="3">
-        <v>27</v>
-      </c>
-      <c r="D39" s="13" t="s">
-        <v>114</v>
-      </c>
-      <c r="E39" s="141" t="s">
-        <v>117</v>
-      </c>
-      <c r="F39" s="119" t="s">
-        <v>116</v>
-      </c>
-      <c r="G39" s="63" t="s">
-        <v>110</v>
-      </c>
-      <c r="H39" s="90" t="s">
-        <v>88</v>
-      </c>
-      <c r="I39" s="116" t="s">
-        <v>140</v>
-      </c>
-      <c r="J39" s="25"/>
+        <v>35</v>
+      </c>
+      <c r="D39" s="92"/>
+      <c r="E39" s="85" t="s">
+        <v>57</v>
+      </c>
+      <c r="F39" s="120" t="s">
+        <v>186</v>
+      </c>
+      <c r="G39" s="101"/>
+      <c r="H39" s="92"/>
+      <c r="I39" s="142"/>
+      <c r="J39" s="23"/>
     </row>
     <row r="40" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A40" s="6"/>
       <c r="B40" s="26"/>
       <c r="C40" s="10"/>
-      <c r="D40" s="6"/>
-      <c r="E40" s="44"/>
-      <c r="F40" s="46"/>
-      <c r="G40" s="69" t="s">
-        <v>111</v>
-      </c>
-      <c r="H40" s="6"/>
-      <c r="I40" s="26"/>
+      <c r="D40" s="19"/>
+      <c r="E40" s="19"/>
+      <c r="F40" s="100"/>
+      <c r="G40" s="101"/>
+      <c r="H40" s="19"/>
+      <c r="I40" s="88"/>
       <c r="J40" s="23"/>
     </row>
     <row r="41" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A41" s="8"/>
-      <c r="B41" s="49"/>
-      <c r="C41" s="7"/>
-      <c r="D41" s="8"/>
-      <c r="E41" s="8"/>
-      <c r="F41" s="111"/>
-      <c r="G41" s="62"/>
-      <c r="H41" s="8"/>
-      <c r="I41" s="49"/>
-      <c r="J41" s="24"/>
+      <c r="A41" s="6"/>
+      <c r="B41" s="26"/>
+      <c r="C41" s="10"/>
+      <c r="D41" s="6"/>
+      <c r="E41" s="6"/>
+      <c r="F41" s="100"/>
+      <c r="G41" s="65"/>
+      <c r="H41" s="6"/>
+      <c r="I41" s="26"/>
+      <c r="J41" s="23"/>
     </row>
     <row r="42" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A42" s="4">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B42" s="86" t="s">
         <v>12</v>
       </c>
       <c r="C42" s="3">
-        <v>28</v>
-      </c>
-      <c r="D42" s="22"/>
-      <c r="E42" s="85" t="s">
-        <v>167</v>
-      </c>
-      <c r="F42" s="119" t="s">
-        <v>166</v>
-      </c>
-      <c r="G42" s="93"/>
-      <c r="H42" s="118"/>
-      <c r="I42" s="124"/>
+        <v>26</v>
+      </c>
+      <c r="D42" s="13" t="s">
+        <v>39</v>
+      </c>
+      <c r="E42" s="127">
+        <v>44237</v>
+      </c>
+      <c r="F42" s="109" t="s">
+        <v>64</v>
+      </c>
+      <c r="G42" s="63" t="s">
+        <v>60</v>
+      </c>
+      <c r="H42" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="I42" s="51">
+        <v>44440</v>
+      </c>
       <c r="J42" s="25"/>
     </row>
     <row r="43" spans="1:10" x14ac:dyDescent="0.2">
@@ -2890,7 +2897,9 @@
       <c r="D43" s="6"/>
       <c r="E43" s="44"/>
       <c r="F43" s="46"/>
-      <c r="G43" s="69"/>
+      <c r="G43" s="61">
+        <v>85732094240</v>
+      </c>
       <c r="H43" s="6"/>
       <c r="I43" s="26"/>
       <c r="J43" s="23"/>
@@ -2909,43 +2918,43 @@
     </row>
     <row r="45" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A45" s="4">
+        <v>11</v>
+      </c>
+      <c r="B45" s="86" t="s">
         <v>12</v>
       </c>
-      <c r="B45" s="86" t="s">
-        <v>14</v>
-      </c>
       <c r="C45" s="3">
-        <v>34</v>
-      </c>
-      <c r="D45" s="73" t="s">
-        <v>126</v>
-      </c>
-      <c r="E45" s="128" t="s">
-        <v>115</v>
-      </c>
-      <c r="F45" s="109" t="s">
-        <v>64</v>
-      </c>
-      <c r="G45" s="65" t="s">
-        <v>127</v>
-      </c>
-      <c r="H45" s="6" t="s">
-        <v>74</v>
-      </c>
-      <c r="I45" s="91" t="s">
-        <v>172</v>
-      </c>
-      <c r="J45" s="23"/>
+        <v>27</v>
+      </c>
+      <c r="D45" s="13" t="s">
+        <v>114</v>
+      </c>
+      <c r="E45" s="141" t="s">
+        <v>117</v>
+      </c>
+      <c r="F45" s="119" t="s">
+        <v>116</v>
+      </c>
+      <c r="G45" s="63" t="s">
+        <v>110</v>
+      </c>
+      <c r="H45" s="90" t="s">
+        <v>88</v>
+      </c>
+      <c r="I45" s="116" t="s">
+        <v>140</v>
+      </c>
+      <c r="J45" s="25"/>
     </row>
     <row r="46" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A46" s="6"/>
       <c r="B46" s="26"/>
       <c r="C46" s="10"/>
       <c r="D46" s="6"/>
-      <c r="E46" s="6"/>
-      <c r="F46" s="100"/>
-      <c r="G46" s="110" t="s">
-        <v>128</v>
+      <c r="E46" s="44"/>
+      <c r="F46" s="46"/>
+      <c r="G46" s="69" t="s">
+        <v>111</v>
       </c>
       <c r="H46" s="6"/>
       <c r="I46" s="26"/>
@@ -2953,215 +2962,213 @@
     </row>
     <row r="47" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A47" s="8"/>
-      <c r="B47" s="26"/>
-      <c r="C47" s="10"/>
+      <c r="B47" s="49"/>
+      <c r="C47" s="7"/>
       <c r="D47" s="8"/>
       <c r="E47" s="8"/>
-      <c r="F47" s="103"/>
-      <c r="G47" s="66"/>
+      <c r="F47" s="111"/>
+      <c r="G47" s="62"/>
       <c r="H47" s="8"/>
       <c r="I47" s="49"/>
       <c r="J47" s="24"/>
     </row>
     <row r="48" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A48" s="4">
+        <v>11</v>
+      </c>
+      <c r="B48" s="86" t="s">
         <v>12</v>
       </c>
-      <c r="B48" s="86" t="s">
-        <v>14</v>
-      </c>
       <c r="C48" s="3">
-        <v>35</v>
-      </c>
-      <c r="D48" s="92"/>
-      <c r="E48" s="134" t="s">
-        <v>165</v>
-      </c>
-      <c r="F48" s="126" t="s">
-        <v>164</v>
-      </c>
-      <c r="G48" s="65" t="s">
-        <v>127</v>
-      </c>
-      <c r="H48" s="6"/>
-      <c r="I48" s="26"/>
-      <c r="J48" s="23"/>
+        <v>28</v>
+      </c>
+      <c r="D48" s="22"/>
+      <c r="E48" s="85" t="s">
+        <v>167</v>
+      </c>
+      <c r="F48" s="119" t="s">
+        <v>166</v>
+      </c>
+      <c r="G48" s="93"/>
+      <c r="H48" s="118"/>
+      <c r="I48" s="124"/>
+      <c r="J48" s="25"/>
     </row>
     <row r="49" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A49" s="6"/>
       <c r="B49" s="26"/>
       <c r="C49" s="10"/>
       <c r="D49" s="6"/>
-      <c r="E49" s="6"/>
-      <c r="F49" s="100"/>
-      <c r="G49" s="110" t="s">
-        <v>128</v>
-      </c>
+      <c r="E49" s="44"/>
+      <c r="F49" s="46"/>
+      <c r="G49" s="69"/>
       <c r="H49" s="6"/>
       <c r="I49" s="26"/>
       <c r="J49" s="23"/>
     </row>
     <row r="50" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A50" s="8"/>
-      <c r="B50" s="26"/>
-      <c r="C50" s="10"/>
-      <c r="D50" s="6"/>
-      <c r="E50" s="6"/>
-      <c r="F50" s="100"/>
-      <c r="G50" s="65"/>
-      <c r="H50" s="6"/>
-      <c r="I50" s="26"/>
-      <c r="J50" s="23"/>
-    </row>
-    <row r="51" spans="1:10" s="99" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B50" s="49"/>
+      <c r="C50" s="7"/>
+      <c r="D50" s="8"/>
+      <c r="E50" s="8"/>
+      <c r="F50" s="111"/>
+      <c r="G50" s="62"/>
+      <c r="H50" s="8"/>
+      <c r="I50" s="49"/>
+      <c r="J50" s="24"/>
+    </row>
+    <row r="51" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A51" s="4">
-        <v>13</v>
-      </c>
-      <c r="B51" s="87" t="s">
-        <v>15</v>
-      </c>
-      <c r="C51" s="9">
-        <v>29</v>
-      </c>
-      <c r="D51" s="117" t="s">
-        <v>94</v>
-      </c>
-      <c r="E51" s="131" t="s">
-        <v>120</v>
-      </c>
-      <c r="F51" s="106" t="s">
-        <v>173</v>
-      </c>
-      <c r="G51" s="97" t="s">
-        <v>134</v>
-      </c>
-      <c r="H51" s="22" t="s">
-        <v>67</v>
-      </c>
-      <c r="I51" s="74"/>
-      <c r="J51" s="98"/>
-    </row>
-    <row r="52" spans="1:10" s="99" customFormat="1" x14ac:dyDescent="0.2">
+        <v>12</v>
+      </c>
+      <c r="B51" s="86" t="s">
+        <v>14</v>
+      </c>
+      <c r="C51" s="3">
+        <v>34</v>
+      </c>
+      <c r="D51" s="73" t="s">
+        <v>126</v>
+      </c>
+      <c r="E51" s="128" t="s">
+        <v>115</v>
+      </c>
+      <c r="F51" s="109" t="s">
+        <v>64</v>
+      </c>
+      <c r="G51" s="65" t="s">
+        <v>127</v>
+      </c>
+      <c r="H51" s="6" t="s">
+        <v>74</v>
+      </c>
+      <c r="I51" s="91" t="s">
+        <v>172</v>
+      </c>
+      <c r="J51" s="23"/>
+    </row>
+    <row r="52" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A52" s="6"/>
-      <c r="B52" s="88"/>
-      <c r="C52" s="14"/>
-      <c r="D52" s="34"/>
-      <c r="E52" s="34"/>
+      <c r="B52" s="26"/>
+      <c r="C52" s="10"/>
+      <c r="D52" s="6"/>
+      <c r="E52" s="6"/>
       <c r="F52" s="100"/>
-      <c r="G52" s="114" t="s">
-        <v>135</v>
-      </c>
-      <c r="H52" s="19"/>
-      <c r="I52" s="88"/>
-      <c r="J52" s="102"/>
-    </row>
-    <row r="53" spans="1:10" s="99" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="G52" s="110" t="s">
+        <v>128</v>
+      </c>
+      <c r="H52" s="6"/>
+      <c r="I52" s="26"/>
+      <c r="J52" s="23"/>
+    </row>
+    <row r="53" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A53" s="8"/>
-      <c r="B53" s="89"/>
-      <c r="C53" s="15"/>
-      <c r="D53" s="20"/>
-      <c r="E53" s="20"/>
+      <c r="B53" s="26"/>
+      <c r="C53" s="10"/>
+      <c r="D53" s="8"/>
+      <c r="E53" s="8"/>
       <c r="F53" s="103"/>
-      <c r="G53" s="104"/>
-      <c r="H53" s="20"/>
-      <c r="I53" s="89"/>
-      <c r="J53" s="105"/>
+      <c r="G53" s="66"/>
+      <c r="H53" s="8"/>
+      <c r="I53" s="49"/>
+      <c r="J53" s="24"/>
     </row>
     <row r="54" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A54" s="4">
+        <v>12</v>
+      </c>
+      <c r="B54" s="86" t="s">
         <v>14</v>
       </c>
-      <c r="B54" s="86" t="s">
-        <v>16</v>
-      </c>
-      <c r="C54" s="9">
-        <v>41</v>
-      </c>
-      <c r="D54" s="72" t="s">
-        <v>136</v>
-      </c>
-      <c r="E54" s="127" t="s">
-        <v>179</v>
-      </c>
-      <c r="F54" s="109" t="s">
-        <v>64</v>
-      </c>
-      <c r="G54" s="97" t="s">
-        <v>137</v>
-      </c>
-      <c r="H54" s="118" t="s">
-        <v>75</v>
-      </c>
-      <c r="I54" s="107"/>
-      <c r="J54" s="25"/>
+      <c r="C54" s="3">
+        <v>35</v>
+      </c>
+      <c r="D54" s="92"/>
+      <c r="E54" s="134" t="s">
+        <v>165</v>
+      </c>
+      <c r="F54" s="126" t="s">
+        <v>164</v>
+      </c>
+      <c r="G54" s="65" t="s">
+        <v>127</v>
+      </c>
+      <c r="H54" s="6"/>
+      <c r="I54" s="26"/>
+      <c r="J54" s="23"/>
     </row>
     <row r="55" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A55" s="6"/>
       <c r="B55" s="26"/>
-      <c r="C55" s="14"/>
-      <c r="D55" s="34"/>
-      <c r="E55" s="34"/>
+      <c r="C55" s="10"/>
+      <c r="D55" s="6"/>
+      <c r="E55" s="6"/>
       <c r="F55" s="100"/>
-      <c r="G55" s="114" t="s">
-        <v>138</v>
-      </c>
-      <c r="H55" s="19"/>
-      <c r="I55" s="88"/>
+      <c r="G55" s="110" t="s">
+        <v>128</v>
+      </c>
+      <c r="H55" s="6"/>
+      <c r="I55" s="26"/>
       <c r="J55" s="23"/>
     </row>
     <row r="56" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A56" s="8"/>
-      <c r="B56" s="49"/>
-      <c r="C56" s="15"/>
-      <c r="D56" s="20"/>
-      <c r="E56" s="20"/>
-      <c r="F56" s="103"/>
-      <c r="G56" s="104"/>
-      <c r="H56" s="20"/>
-      <c r="I56" s="89"/>
-      <c r="J56" s="24"/>
-    </row>
-    <row r="57" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="B56" s="26"/>
+      <c r="C56" s="10"/>
+      <c r="D56" s="6"/>
+      <c r="E56" s="6"/>
+      <c r="F56" s="100"/>
+      <c r="G56" s="65"/>
+      <c r="H56" s="6"/>
+      <c r="I56" s="26"/>
+      <c r="J56" s="23"/>
+    </row>
+    <row r="57" spans="1:10" s="99" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A57" s="4">
+        <v>13</v>
+      </c>
+      <c r="B57" s="87" t="s">
         <v>15</v>
       </c>
-      <c r="B57" s="86" t="s">
-        <v>18</v>
-      </c>
       <c r="C57" s="9">
-        <v>41</v>
-      </c>
-      <c r="D57" s="72" t="s">
-        <v>136</v>
-      </c>
-      <c r="E57" s="127" t="s">
-        <v>179</v>
-      </c>
-      <c r="F57" s="109" t="s">
-        <v>64</v>
-      </c>
-      <c r="G57" s="97"/>
-      <c r="H57" s="118" t="s">
-        <v>144</v>
-      </c>
-      <c r="I57" s="107"/>
-      <c r="J57" s="25"/>
-    </row>
-    <row r="58" spans="1:10" x14ac:dyDescent="0.2">
+        <v>29</v>
+      </c>
+      <c r="D57" s="117" t="s">
+        <v>94</v>
+      </c>
+      <c r="E57" s="131" t="s">
+        <v>120</v>
+      </c>
+      <c r="F57" s="106" t="s">
+        <v>173</v>
+      </c>
+      <c r="G57" s="97" t="s">
+        <v>134</v>
+      </c>
+      <c r="H57" s="22" t="s">
+        <v>67</v>
+      </c>
+      <c r="I57" s="74"/>
+      <c r="J57" s="98"/>
+    </row>
+    <row r="58" spans="1:10" s="99" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A58" s="6"/>
-      <c r="B58" s="26"/>
+      <c r="B58" s="88"/>
       <c r="C58" s="14"/>
       <c r="D58" s="34"/>
       <c r="E58" s="34"/>
       <c r="F58" s="100"/>
-      <c r="G58" s="101"/>
+      <c r="G58" s="114" t="s">
+        <v>135</v>
+      </c>
       <c r="H58" s="19"/>
       <c r="I58" s="88"/>
-      <c r="J58" s="23"/>
-    </row>
-    <row r="59" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="J58" s="102"/>
+    </row>
+    <row r="59" spans="1:10" s="99" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A59" s="8"/>
-      <c r="B59" s="49"/>
+      <c r="B59" s="89"/>
       <c r="C59" s="15"/>
       <c r="D59" s="20"/>
       <c r="E59" s="20"/>
@@ -3169,33 +3176,33 @@
       <c r="G59" s="104"/>
       <c r="H59" s="20"/>
       <c r="I59" s="89"/>
-      <c r="J59" s="24"/>
-    </row>
-    <row r="60" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="J59" s="105"/>
+    </row>
+    <row r="60" spans="1:10" s="99" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A60" s="4">
-        <v>14</v>
-      </c>
-      <c r="B60" s="86" t="s">
-        <v>16</v>
+        <v>13</v>
+      </c>
+      <c r="B60" s="87" t="s">
+        <v>15</v>
       </c>
       <c r="C60" s="9">
-        <v>42</v>
-      </c>
-      <c r="D60" s="71"/>
-      <c r="E60" s="136" t="s">
-        <v>33</v>
-      </c>
-      <c r="F60" s="119" t="s">
-        <v>39</v>
+        <v>30</v>
+      </c>
+      <c r="D60" s="118"/>
+      <c r="E60" s="71" t="s">
+        <v>188</v>
+      </c>
+      <c r="F60" s="106" t="s">
+        <v>187</v>
       </c>
       <c r="G60" s="97"/>
-      <c r="H60" s="118"/>
-      <c r="I60" s="107"/>
-      <c r="J60" s="25"/>
-    </row>
-    <row r="61" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="H60" s="22"/>
+      <c r="I60" s="74"/>
+      <c r="J60" s="98"/>
+    </row>
+    <row r="61" spans="1:10" s="99" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A61" s="6"/>
-      <c r="B61" s="26"/>
+      <c r="B61" s="88"/>
       <c r="C61" s="14"/>
       <c r="D61" s="34"/>
       <c r="E61" s="34"/>
@@ -3203,11 +3210,11 @@
       <c r="G61" s="114"/>
       <c r="H61" s="19"/>
       <c r="I61" s="88"/>
-      <c r="J61" s="23"/>
-    </row>
-    <row r="62" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="J61" s="102"/>
+    </row>
+    <row r="62" spans="1:10" s="99" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A62" s="8"/>
-      <c r="B62" s="49"/>
+      <c r="B62" s="89"/>
       <c r="C62" s="15"/>
       <c r="D62" s="20"/>
       <c r="E62" s="20"/>
@@ -3215,27 +3222,33 @@
       <c r="G62" s="104"/>
       <c r="H62" s="20"/>
       <c r="I62" s="89"/>
-      <c r="J62" s="24"/>
+      <c r="J62" s="105"/>
     </row>
     <row r="63" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A63" s="4">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B63" s="86" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C63" s="9">
-        <v>42</v>
-      </c>
-      <c r="D63" s="71"/>
-      <c r="E63" s="136" t="s">
-        <v>33</v>
-      </c>
-      <c r="F63" s="119" t="s">
-        <v>39</v>
-      </c>
-      <c r="G63" s="97"/>
-      <c r="H63" s="118"/>
+        <v>41</v>
+      </c>
+      <c r="D63" s="72" t="s">
+        <v>136</v>
+      </c>
+      <c r="E63" s="127" t="s">
+        <v>179</v>
+      </c>
+      <c r="F63" s="109" t="s">
+        <v>64</v>
+      </c>
+      <c r="G63" s="97" t="s">
+        <v>137</v>
+      </c>
+      <c r="H63" s="118" t="s">
+        <v>75</v>
+      </c>
       <c r="I63" s="107"/>
       <c r="J63" s="25"/>
     </row>
@@ -3246,7 +3259,9 @@
       <c r="D64" s="34"/>
       <c r="E64" s="34"/>
       <c r="F64" s="100"/>
-      <c r="G64" s="101"/>
+      <c r="G64" s="114" t="s">
+        <v>138</v>
+      </c>
       <c r="H64" s="19"/>
       <c r="I64" s="88"/>
       <c r="J64" s="23"/>
@@ -3265,310 +3280,452 @@
     </row>
     <row r="66" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A66" s="4">
-        <v>16</v>
-      </c>
-      <c r="B66" s="25" t="s">
-        <v>96</v>
-      </c>
-      <c r="C66" s="3">
-        <v>4</v>
-      </c>
-      <c r="D66" s="41" t="s">
-        <v>121</v>
-      </c>
-      <c r="E66" s="21"/>
+        <v>15</v>
+      </c>
+      <c r="B66" s="86" t="s">
+        <v>18</v>
+      </c>
+      <c r="C66" s="9">
+        <v>41</v>
+      </c>
+      <c r="D66" s="72" t="s">
+        <v>136</v>
+      </c>
+      <c r="E66" s="127" t="s">
+        <v>179</v>
+      </c>
       <c r="F66" s="109" t="s">
-        <v>86</v>
-      </c>
-      <c r="G66" s="64"/>
-      <c r="H66" s="4" t="s">
-        <v>131</v>
-      </c>
-      <c r="I66" s="112">
-        <v>44287</v>
-      </c>
+        <v>64</v>
+      </c>
+      <c r="G66" s="97"/>
+      <c r="H66" s="118" t="s">
+        <v>144</v>
+      </c>
+      <c r="I66" s="107"/>
       <c r="J66" s="25"/>
     </row>
     <row r="67" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A67" s="6"/>
-      <c r="B67" s="23"/>
-      <c r="C67" s="10"/>
-      <c r="D67" s="42"/>
-      <c r="E67" s="42"/>
+      <c r="B67" s="26"/>
+      <c r="C67" s="14"/>
+      <c r="D67" s="34"/>
+      <c r="E67" s="34"/>
       <c r="F67" s="100"/>
-      <c r="G67" s="65">
-        <v>81235226575</v>
-      </c>
-      <c r="H67" s="6"/>
-      <c r="I67" s="26"/>
+      <c r="G67" s="101"/>
+      <c r="H67" s="19"/>
+      <c r="I67" s="88"/>
       <c r="J67" s="23"/>
     </row>
     <row r="68" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A68" s="8"/>
-      <c r="B68" s="24"/>
-      <c r="C68" s="11"/>
-      <c r="D68" s="8"/>
-      <c r="E68" s="8"/>
+      <c r="B68" s="49"/>
+      <c r="C68" s="15"/>
+      <c r="D68" s="20"/>
+      <c r="E68" s="20"/>
       <c r="F68" s="103"/>
-      <c r="G68" s="66"/>
-      <c r="H68" s="8"/>
-      <c r="I68" s="49"/>
+      <c r="G68" s="104"/>
+      <c r="H68" s="20"/>
+      <c r="I68" s="89"/>
       <c r="J68" s="24"/>
     </row>
     <row r="69" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A69" s="4">
-        <v>17</v>
-      </c>
-      <c r="B69" s="25" t="s">
-        <v>96</v>
-      </c>
-      <c r="C69" s="3">
-        <v>5</v>
-      </c>
-      <c r="D69" s="41" t="s">
-        <v>106</v>
-      </c>
-      <c r="E69" s="21"/>
-      <c r="F69" s="121"/>
-      <c r="G69" s="64" t="s">
-        <v>103</v>
-      </c>
-      <c r="H69" s="4" t="s">
-        <v>102</v>
-      </c>
-      <c r="I69" s="91" t="s">
-        <v>112</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="B69" s="86" t="s">
+        <v>16</v>
+      </c>
+      <c r="C69" s="9">
+        <v>42</v>
+      </c>
+      <c r="D69" s="71"/>
+      <c r="E69" s="136" t="s">
+        <v>33</v>
+      </c>
+      <c r="F69" s="119" t="s">
+        <v>39</v>
+      </c>
+      <c r="G69" s="97"/>
+      <c r="H69" s="118"/>
+      <c r="I69" s="107"/>
       <c r="J69" s="25"/>
     </row>
     <row r="70" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A70" s="6"/>
-      <c r="B70" s="23"/>
-      <c r="C70" s="10"/>
-      <c r="D70" s="42"/>
-      <c r="E70" s="42"/>
+      <c r="B70" s="26"/>
+      <c r="C70" s="14"/>
+      <c r="D70" s="34"/>
+      <c r="E70" s="34"/>
       <c r="F70" s="100"/>
-      <c r="G70" s="65">
-        <v>89603906796</v>
-      </c>
-      <c r="H70" s="6"/>
-      <c r="I70" s="26"/>
+      <c r="G70" s="114"/>
+      <c r="H70" s="19"/>
+      <c r="I70" s="88"/>
       <c r="J70" s="23"/>
     </row>
     <row r="71" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A71" s="8"/>
-      <c r="B71" s="7"/>
-      <c r="C71" s="11"/>
-      <c r="D71" s="8"/>
-      <c r="E71" s="8"/>
+      <c r="B71" s="49"/>
+      <c r="C71" s="15"/>
+      <c r="D71" s="20"/>
+      <c r="E71" s="20"/>
       <c r="F71" s="103"/>
-      <c r="G71" s="66"/>
-      <c r="H71" s="8"/>
-      <c r="I71" s="49"/>
+      <c r="G71" s="104"/>
+      <c r="H71" s="20"/>
+      <c r="I71" s="89"/>
       <c r="J71" s="24"/>
     </row>
     <row r="72" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A72" s="4">
-        <v>17</v>
-      </c>
-      <c r="B72" s="25" t="s">
-        <v>162</v>
-      </c>
-      <c r="C72" s="3">
-        <v>1</v>
-      </c>
-      <c r="D72" s="41">
-        <v>44599</v>
-      </c>
-      <c r="E72" s="125"/>
-      <c r="F72" s="121"/>
-      <c r="G72" s="64"/>
-      <c r="H72" s="4" t="s">
-        <v>163</v>
-      </c>
-      <c r="I72" s="91" t="s">
-        <v>168</v>
-      </c>
+        <v>15</v>
+      </c>
+      <c r="B72" s="86" t="s">
+        <v>18</v>
+      </c>
+      <c r="C72" s="9">
+        <v>42</v>
+      </c>
+      <c r="D72" s="71"/>
+      <c r="E72" s="136" t="s">
+        <v>33</v>
+      </c>
+      <c r="F72" s="119" t="s">
+        <v>39</v>
+      </c>
+      <c r="G72" s="97"/>
+      <c r="H72" s="118"/>
+      <c r="I72" s="107"/>
       <c r="J72" s="25"/>
     </row>
     <row r="73" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A73" s="6"/>
-      <c r="B73" s="23"/>
-      <c r="C73" s="10"/>
-      <c r="D73" s="42"/>
-      <c r="E73" s="42"/>
+      <c r="B73" s="26"/>
+      <c r="C73" s="14"/>
+      <c r="D73" s="34"/>
+      <c r="E73" s="34"/>
       <c r="F73" s="100"/>
-      <c r="G73" s="65"/>
-      <c r="H73" s="6"/>
-      <c r="I73" s="26"/>
+      <c r="G73" s="101"/>
+      <c r="H73" s="19"/>
+      <c r="I73" s="88"/>
       <c r="J73" s="23"/>
     </row>
     <row r="74" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A74" s="8"/>
-      <c r="B74" s="7"/>
-      <c r="C74" s="11"/>
-      <c r="D74" s="8"/>
-      <c r="E74" s="8"/>
+      <c r="B74" s="49"/>
+      <c r="C74" s="15"/>
+      <c r="D74" s="20"/>
+      <c r="E74" s="20"/>
       <c r="F74" s="103"/>
-      <c r="G74" s="66"/>
-      <c r="H74" s="8"/>
-      <c r="I74" s="49"/>
+      <c r="G74" s="104"/>
+      <c r="H74" s="20"/>
+      <c r="I74" s="89"/>
       <c r="J74" s="24"/>
     </row>
     <row r="75" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A75" s="6"/>
-      <c r="B75" s="5"/>
-      <c r="C75" s="10"/>
-      <c r="D75" s="6"/>
-      <c r="E75" s="6"/>
-      <c r="F75" s="100"/>
-      <c r="G75" s="65"/>
-      <c r="H75" s="6"/>
-      <c r="I75" s="26"/>
-      <c r="J75" s="23"/>
-    </row>
-    <row r="76" spans="1:10" s="80" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A76" s="2"/>
-      <c r="D76" s="2"/>
-      <c r="E76" s="2"/>
-      <c r="F76" s="122"/>
-      <c r="G76" s="78"/>
-      <c r="H76" s="2"/>
-      <c r="I76" s="79"/>
-      <c r="J76" s="79"/>
-    </row>
-    <row r="77" spans="1:10" s="80" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A77" s="2"/>
-      <c r="B77" s="81" t="s">
+      <c r="A75" s="4">
+        <v>16</v>
+      </c>
+      <c r="B75" s="25" t="s">
+        <v>96</v>
+      </c>
+      <c r="C75" s="3">
+        <v>4</v>
+      </c>
+      <c r="D75" s="41" t="s">
+        <v>121</v>
+      </c>
+      <c r="E75" s="21"/>
+      <c r="F75" s="109" t="s">
+        <v>86</v>
+      </c>
+      <c r="G75" s="64"/>
+      <c r="H75" s="4" t="s">
+        <v>131</v>
+      </c>
+      <c r="I75" s="112">
+        <v>44287</v>
+      </c>
+      <c r="J75" s="25"/>
+    </row>
+    <row r="76" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A76" s="6"/>
+      <c r="B76" s="23"/>
+      <c r="C76" s="10"/>
+      <c r="D76" s="42"/>
+      <c r="E76" s="42"/>
+      <c r="F76" s="100"/>
+      <c r="G76" s="65">
+        <v>81235226575</v>
+      </c>
+      <c r="H76" s="6"/>
+      <c r="I76" s="26"/>
+      <c r="J76" s="23"/>
+    </row>
+    <row r="77" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A77" s="8"/>
+      <c r="B77" s="24"/>
+      <c r="C77" s="11"/>
+      <c r="D77" s="8"/>
+      <c r="E77" s="8"/>
+      <c r="F77" s="103"/>
+      <c r="G77" s="66"/>
+      <c r="H77" s="8"/>
+      <c r="I77" s="49"/>
+      <c r="J77" s="24"/>
+    </row>
+    <row r="78" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A78" s="4">
+        <v>17</v>
+      </c>
+      <c r="B78" s="25" t="s">
+        <v>96</v>
+      </c>
+      <c r="C78" s="3">
+        <v>5</v>
+      </c>
+      <c r="D78" s="41" t="s">
+        <v>106</v>
+      </c>
+      <c r="E78" s="21"/>
+      <c r="F78" s="121"/>
+      <c r="G78" s="64" t="s">
+        <v>103</v>
+      </c>
+      <c r="H78" s="4" t="s">
+        <v>102</v>
+      </c>
+      <c r="I78" s="91" t="s">
+        <v>112</v>
+      </c>
+      <c r="J78" s="25"/>
+    </row>
+    <row r="79" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A79" s="6"/>
+      <c r="B79" s="23"/>
+      <c r="C79" s="10"/>
+      <c r="D79" s="42"/>
+      <c r="E79" s="42"/>
+      <c r="F79" s="100"/>
+      <c r="G79" s="65">
+        <v>89603906796</v>
+      </c>
+      <c r="H79" s="6"/>
+      <c r="I79" s="26"/>
+      <c r="J79" s="23"/>
+    </row>
+    <row r="80" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A80" s="8"/>
+      <c r="B80" s="7"/>
+      <c r="C80" s="11"/>
+      <c r="D80" s="8"/>
+      <c r="E80" s="8"/>
+      <c r="F80" s="103"/>
+      <c r="G80" s="66"/>
+      <c r="H80" s="8"/>
+      <c r="I80" s="49"/>
+      <c r="J80" s="24"/>
+    </row>
+    <row r="81" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A81" s="4">
+        <v>17</v>
+      </c>
+      <c r="B81" s="25" t="s">
+        <v>162</v>
+      </c>
+      <c r="C81" s="3">
+        <v>1</v>
+      </c>
+      <c r="D81" s="41">
+        <v>44599</v>
+      </c>
+      <c r="E81" s="125"/>
+      <c r="F81" s="121"/>
+      <c r="G81" s="64"/>
+      <c r="H81" s="4" t="s">
+        <v>163</v>
+      </c>
+      <c r="I81" s="91" t="s">
+        <v>168</v>
+      </c>
+      <c r="J81" s="25"/>
+    </row>
+    <row r="82" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A82" s="6"/>
+      <c r="B82" s="23"/>
+      <c r="C82" s="10"/>
+      <c r="D82" s="42"/>
+      <c r="E82" s="42"/>
+      <c r="F82" s="100"/>
+      <c r="G82" s="65"/>
+      <c r="H82" s="6"/>
+      <c r="I82" s="26"/>
+      <c r="J82" s="23"/>
+    </row>
+    <row r="83" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A83" s="8"/>
+      <c r="B83" s="7"/>
+      <c r="C83" s="11"/>
+      <c r="D83" s="8"/>
+      <c r="E83" s="8"/>
+      <c r="F83" s="103"/>
+      <c r="G83" s="66"/>
+      <c r="H83" s="8"/>
+      <c r="I83" s="49"/>
+      <c r="J83" s="24"/>
+    </row>
+    <row r="84" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A84" s="6"/>
+      <c r="B84" s="5"/>
+      <c r="C84" s="10"/>
+      <c r="D84" s="6"/>
+      <c r="E84" s="6"/>
+      <c r="F84" s="100"/>
+      <c r="G84" s="65"/>
+      <c r="H84" s="6"/>
+      <c r="I84" s="26"/>
+      <c r="J84" s="23"/>
+    </row>
+    <row r="85" spans="1:10" s="80" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A85" s="2"/>
+      <c r="D85" s="2"/>
+      <c r="E85" s="2"/>
+      <c r="F85" s="122"/>
+      <c r="G85" s="78"/>
+      <c r="H85" s="2"/>
+      <c r="I85" s="79"/>
+      <c r="J85" s="79"/>
+    </row>
+    <row r="86" spans="1:10" s="80" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A86" s="2"/>
+      <c r="B86" s="81" t="s">
         <v>108</v>
       </c>
-      <c r="C77" s="82"/>
-      <c r="D77" s="2"/>
-      <c r="E77" s="132" t="s">
+      <c r="C86" s="82"/>
+      <c r="D86" s="2"/>
+      <c r="E86" s="132" t="s">
         <v>174</v>
       </c>
-      <c r="F77" s="122"/>
-      <c r="G77" s="139" t="s">
+      <c r="F86" s="122"/>
+      <c r="G86" s="139" t="s">
         <v>184</v>
       </c>
-      <c r="H77" s="79"/>
-    </row>
-    <row r="78" spans="1:10" s="80" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A78" s="2"/>
-      <c r="B78" s="80" t="s">
+      <c r="H86" s="79"/>
+    </row>
+    <row r="87" spans="1:10" s="80" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A87" s="2"/>
+      <c r="B87" s="80" t="s">
         <v>146</v>
       </c>
-      <c r="C78" s="80" t="s">
+      <c r="C87" s="80" t="s">
         <v>147</v>
       </c>
-      <c r="D78" s="2"/>
-      <c r="E78" s="79" t="s">
+      <c r="D87" s="2"/>
+      <c r="E87" s="79" t="s">
         <v>175</v>
       </c>
-      <c r="F78" s="79" t="s">
+      <c r="F87" s="79" t="s">
         <v>157</v>
       </c>
-      <c r="G78" s="80" t="s">
+      <c r="G87" s="80" t="s">
         <v>185</v>
       </c>
-      <c r="H78" s="140" t="s">
+      <c r="H87" s="140" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="79" spans="1:10" s="80" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A79" s="2"/>
-      <c r="B79" s="78" t="s">
+    <row r="88" spans="1:10" s="80" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A88" s="2"/>
+      <c r="B88" s="78" t="s">
         <v>149</v>
       </c>
-      <c r="C79" s="2" t="s">
+      <c r="C88" s="2" t="s">
         <v>107</v>
       </c>
-      <c r="D79" s="2"/>
-      <c r="E79" s="79" t="s">
+      <c r="D88" s="2"/>
+      <c r="E88" s="79" t="s">
         <v>176</v>
       </c>
-      <c r="F79" s="79" t="s">
+      <c r="F88" s="79" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="80" spans="1:10" s="80" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A80" s="2"/>
-      <c r="B80" s="78" t="s">
+    <row r="89" spans="1:10" s="80" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A89" s="2"/>
+      <c r="B89" s="78" t="s">
         <v>150</v>
       </c>
-      <c r="C80" s="2" t="s">
+      <c r="C89" s="2" t="s">
         <v>101</v>
       </c>
-      <c r="D80" s="2"/>
-      <c r="E80" s="79" t="s">
+      <c r="D89" s="2"/>
+      <c r="E89" s="79" t="s">
         <v>155</v>
       </c>
-      <c r="F80" s="79"/>
-    </row>
-    <row r="81" spans="1:10" s="80" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A81" s="2"/>
-      <c r="B81" s="78" t="s">
+      <c r="F89" s="79"/>
+    </row>
+    <row r="90" spans="1:10" s="80" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A90" s="2"/>
+      <c r="B90" s="78" t="s">
         <v>151</v>
       </c>
-      <c r="C81" s="2" t="s">
+      <c r="C90" s="2" t="s">
         <v>68</v>
       </c>
-      <c r="D81" s="2"/>
-      <c r="E81" s="133" t="s">
+      <c r="D90" s="2"/>
+      <c r="E90" s="133" t="s">
         <v>178</v>
       </c>
-      <c r="F81" s="79"/>
-      <c r="I81" s="79"/>
-      <c r="J81" s="79"/>
-    </row>
-    <row r="82" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="B82" s="1" t="s">
+      <c r="F90" s="79"/>
+      <c r="I90" s="79"/>
+      <c r="J90" s="79"/>
+    </row>
+    <row r="91" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="B91" s="1" t="s">
         <v>113</v>
       </c>
-      <c r="C82" s="1" t="str">
-        <f>H45</f>
+      <c r="C91" s="1" t="str">
+        <f>H51</f>
         <v>25 ORG</v>
       </c>
-      <c r="E82" s="79" t="s">
+      <c r="E91" s="79" t="s">
         <v>177</v>
       </c>
-      <c r="F82" s="79"/>
-    </row>
-    <row r="83" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="B83" s="1" t="s">
+      <c r="F91" s="79"/>
+    </row>
+    <row r="92" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="B92" s="1" t="s">
         <v>152</v>
       </c>
-      <c r="C83" s="1" t="s">
+      <c r="C92" s="1" t="s">
         <v>153</v>
       </c>
-      <c r="E83" s="67"/>
-      <c r="F83" s="2"/>
-    </row>
-    <row r="84" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="B84" s="78" t="s">
+      <c r="E92" s="67"/>
+      <c r="F92" s="2"/>
+    </row>
+    <row r="93" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="B93" s="78" t="s">
         <v>148</v>
       </c>
-      <c r="C84" s="2" t="s">
+      <c r="C93" s="2" t="s">
         <v>131</v>
       </c>
-      <c r="E84" s="135" t="s">
+      <c r="E93" s="135" t="s">
         <v>180</v>
       </c>
-      <c r="F84" s="2"/>
-    </row>
-    <row r="85" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="C85" s="1" t="s">
+      <c r="F93" s="2"/>
+    </row>
+    <row r="94" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="C94" s="1" t="s">
         <v>154</v>
       </c>
-      <c r="E85" s="79" t="s">
+      <c r="E94" s="79" t="s">
         <v>181</v>
       </c>
-      <c r="F85" s="138" t="s">
+      <c r="F94" s="138" t="s">
         <v>183</v>
       </c>
     </row>
-    <row r="86" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="E86" s="79" t="s">
+    <row r="95" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="E95" s="79" t="s">
         <v>182</v>
       </c>
     </row>
